--- a/resources/report_template.xlsx
+++ b/resources/report_template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="621" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="File active" sheetId="1" state="visible" r:id="rId2"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="145">
   <si>
     <t>Région</t>
   </si>
@@ -123,10 +123,136 @@
     <t>{key: 'DEAD_DURING_PERIOD', age_max: 15, gender: 0}</t>
   </si>
   <si>
+    <t>{key: 'DEAD_DURING_PERIOD', age_max: 15, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'DEAD_DURING_PERIOD', age_min: 15, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'DEAD_DURING_PERIOD', age_min: 15, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'DEAD_DURING_PERIOD', age_max: 1, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'DEAD_DURING_PERIOD', age_max: 1, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'DEAD_DURING_PERIOD', age_min: 1, age_max: 4, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'DEAD_DURING_PERIOD', age_min: 5, age_max: 9, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'DEAD_DURING_PERIOD', age_min: 5, age_max: 9, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'DEAD_DURING_PERIOD', age_min: 10, age_max: 14, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'DEAD_DURING_PERIOD', age_min: 10, age_max: 14, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'DEAD_DURING_PERIOD', age_min: 15, age_max: 19, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'DEAD_DURING_PERIOD', age_min: 15, age_max: 19, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'DEAD_DURING_PERIOD', age_min: 20, age_max: 24, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'DEAD_DURING_PERIOD', age_min: 20, age_max: 24, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'DEAD_DURING_PERIOD', age_min: 25, age_max: 49, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'DEAD_DURING_PERIOD', age_min: 25, age_max: 49, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'DEAD_DURING_PERIOD', age_min: 50, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'DEAD_DURING_PERIOD', age_min: 50, gender: 1}</t>
+  </si>
+  <si>
     <t>Nombre Total d’adultes et d’enfants sous antirétroviraux Ayant arrêté le traitement au cours au cours de la période de raportage (I)</t>
   </si>
   <si>
     <t>Nombre Total d’adultes et d’enfants sous antirétroviraux transférés au cours au cours de la période de raportage (J)</t>
+  </si>
+  <si>
+    <t>{key: 'TRANSFERRED_DURING_PERIOD', gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'TRANSFERRED_DURING_PERIOD', gender: 1}</t>
+  </si>
+  <si>
+    <t>{key:'TRANSFERRED_DURING_PERIOD', age_max: 15}</t>
+  </si>
+  <si>
+    <t>{key: 'TRANSFERRED_DURING_PERIOD', age_min: 15}</t>
+  </si>
+  <si>
+    <t>{key: 'TRANSFERRED_DURING_PERIOD'}</t>
+  </si>
+  <si>
+    <t>{key: 'TRANSFERRED_DURING_PERIOD', age_max: 15, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'TRANSFERRED_DURING_PERIOD', age_max: 15, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'TRANSFERRED_DURING_PERIOD', age_min: 15, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'TRANSFERRED_DURING_PERIOD', age_min: 15, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'TRANSFERRED_DURING_PERIOD', age_max: 1, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'TRANSFERRED_DURING_PERIOD', age_max: 1, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'TRANSFERRED_DURING_PERIOD', age_min: 1, age_max: 4, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'TRANSFERRED_DURING_PERIOD', age_min: 5, age_max: 9, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'TRANSFERRED_DURING_PERIOD', age_min: 5, age_max: 9, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'TRANSFERRED_DURING_PERIOD', age_min: 10, age_max: 14, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'TRANSFERRED_DURING_PERIOD', age_min: 10, age_max: 14, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'TRANSFERRED_DURING_PERIOD', age_min: 15, age_max: 19, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'TRANSFERRED_DURING_PERIOD', age_min: 15, age_max: 19, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'TRANSFERRED_DURING_PERIOD', age_min: 20, age_max: 24, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'TRANSFERRED_DURING_PERIOD', age_min: 20, age_max: 24, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'TRANSFERRED_DURING_PERIOD', age_min: 25, age_max: 49, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'TRANSFERRED_DURING_PERIOD', age_min: 25, age_max: 49, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'TRANSFERRED_DURING_PERIOD', age_min: 50, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'TRANSFERRED_DURING_PERIOD', age_min: 50, gender: 1}</t>
   </si>
   <si>
     <t>Nombre d’adultes et d’enfants qui sont sous TARV (Anciens et Nouveaux poursuivant les ARV) à la fin du 1er semestre 2016 (au 30 juin 2016)  K=(A+B+C+D+E) -(G+H+I+J)</t>
@@ -397,7 +523,7 @@
     <numFmt numFmtId="165" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* \-??\ _€_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* \-??\ _€_-;_-@_-"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -489,6 +615,12 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Narrow"/>
       <family val="2"/>
     </font>
     <font>
@@ -756,7 +888,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="63">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -873,18 +1005,26 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="5" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -973,7 +1113,7 @@
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -993,7 +1133,7 @@
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1078,15 +1218,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>81000</xdr:colOff>
+      <xdr:colOff>108000</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>173160</xdr:rowOff>
+      <xdr:rowOff>164160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>565560</xdr:colOff>
+      <xdr:colOff>592200</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>143280</xdr:rowOff>
+      <xdr:rowOff>133920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1099,8 +1239,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="81000" y="772920"/>
-          <a:ext cx="484560" cy="360720"/>
+          <a:off x="108000" y="763920"/>
+          <a:ext cx="484200" cy="360360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1122,8 +1262,8 @@
   </sheetPr>
   <dimension ref="A1:AB57"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G18" activeCellId="0" sqref="G18"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K16" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AB21" activeCellId="0" sqref="AB21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1574,7 +1714,7 @@
       <c r="AA16" s="24"/>
       <c r="AB16" s="27"/>
     </row>
-    <row r="17" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="21" t="s">
         <v>27</v>
       </c>
@@ -1613,7 +1753,7 @@
       <c r="B18" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="28" t="s">
+      <c r="C18" s="15" t="s">
         <v>30</v>
       </c>
       <c r="D18" s="15" t="s">
@@ -1622,37 +1762,79 @@
       <c r="E18" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="F18" s="28" t="s">
+      <c r="F18" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="G18" s="28" t="s">
+      <c r="G18" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
-      <c r="R18" s="17"/>
-      <c r="S18" s="17"/>
-      <c r="T18" s="17"/>
-      <c r="U18" s="17"/>
-      <c r="V18" s="17"/>
-      <c r="W18" s="17"/>
-      <c r="X18" s="17"/>
-      <c r="Y18" s="17"/>
-      <c r="Z18" s="17"/>
-      <c r="AA18" s="19"/>
-      <c r="AB18" s="20"/>
-    </row>
-    <row r="19" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H18" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="I18" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="J18" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="K18" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="L18" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="M18" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="N18" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="O18" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="P18" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q18" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="R18" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="S18" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="T18" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="U18" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="V18" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="W18" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="X18" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y18" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z18" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA18" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB18" s="30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="21" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
@@ -1682,41 +1864,95 @@
       <c r="AA19" s="19"/>
       <c r="AB19" s="20"/>
     </row>
-    <row r="20" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
-      <c r="R20" s="17"/>
-      <c r="S20" s="17"/>
-      <c r="T20" s="17"/>
-      <c r="U20" s="17"/>
-      <c r="V20" s="17"/>
-      <c r="W20" s="17"/>
-      <c r="X20" s="17"/>
-      <c r="Y20" s="17"/>
-      <c r="Z20" s="17"/>
-      <c r="AA20" s="19"/>
-      <c r="AB20" s="20"/>
+        <v>54</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="H20" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="I20" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="J20" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="K20" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="L20" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="M20" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="N20" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="O20" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="P20" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q20" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="R20" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="S20" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="T20" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="U20" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="V20" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="W20" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="X20" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y20" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z20" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA20" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB20" s="30" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="29" t="s">
-        <v>37</v>
+      <c r="A21" s="31" t="s">
+        <v>79</v>
       </c>
       <c r="B21" s="24"/>
       <c r="C21" s="24"/>
@@ -1746,9 +1982,9 @@
       <c r="AA21" s="24"/>
       <c r="AB21" s="27"/>
     </row>
-    <row r="22" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="21" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
@@ -1780,7 +2016,7 @@
     </row>
     <row r="23" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="21" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
@@ -1812,7 +2048,7 @@
     </row>
     <row r="24" s="22" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="21" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
@@ -1844,7 +2080,7 @@
     </row>
     <row r="25" s="22" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="21" t="s">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
@@ -1876,7 +2112,7 @@
     </row>
     <row r="26" s="22" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="21" t="s">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="B26" s="15"/>
       <c r="C26" s="15"/>
@@ -1908,7 +2144,7 @@
     </row>
     <row r="27" s="22" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="21" t="s">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
@@ -1939,8 +2175,8 @@
       <c r="AB27" s="20"/>
     </row>
     <row r="28" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="30" t="s">
-        <v>44</v>
+      <c r="A28" s="32" t="s">
+        <v>86</v>
       </c>
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
@@ -1971,8 +2207,8 @@
       <c r="AB28" s="20"/>
     </row>
     <row r="29" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="30" t="s">
-        <v>45</v>
+      <c r="A29" s="32" t="s">
+        <v>87</v>
       </c>
       <c r="B29" s="15"/>
       <c r="C29" s="15"/>
@@ -2003,8 +2239,8 @@
       <c r="AB29" s="20"/>
     </row>
     <row r="30" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="30" t="s">
-        <v>46</v>
+      <c r="A30" s="32" t="s">
+        <v>88</v>
       </c>
       <c r="B30" s="15"/>
       <c r="C30" s="15"/>
@@ -2035,8 +2271,8 @@
       <c r="AB30" s="20"/>
     </row>
     <row r="31" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="31" t="s">
-        <v>47</v>
+      <c r="A31" s="33" t="s">
+        <v>89</v>
       </c>
       <c r="B31" s="15"/>
       <c r="C31" s="15"/>
@@ -2067,8 +2303,8 @@
       <c r="AB31" s="20"/>
     </row>
     <row r="32" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="31" t="s">
-        <v>48</v>
+      <c r="A32" s="33" t="s">
+        <v>90</v>
       </c>
       <c r="B32" s="15"/>
       <c r="C32" s="15"/>
@@ -2099,8 +2335,8 @@
       <c r="AB32" s="20"/>
     </row>
     <row r="33" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="31" t="s">
-        <v>49</v>
+      <c r="A33" s="33" t="s">
+        <v>91</v>
       </c>
       <c r="B33" s="15"/>
       <c r="C33" s="15"/>
@@ -2131,36 +2367,36 @@
       <c r="AB33" s="20"/>
     </row>
     <row r="34" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="B34" s="33"/>
-      <c r="C34" s="33"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="33"/>
-      <c r="I34" s="33"/>
-      <c r="J34" s="33"/>
-      <c r="K34" s="33"/>
-      <c r="L34" s="33"/>
-      <c r="M34" s="33"/>
-      <c r="N34" s="33"/>
-      <c r="O34" s="33"/>
-      <c r="P34" s="33"/>
-      <c r="Q34" s="33"/>
-      <c r="R34" s="33"/>
-      <c r="S34" s="33"/>
-      <c r="T34" s="33"/>
-      <c r="U34" s="33"/>
-      <c r="V34" s="33"/>
-      <c r="W34" s="33"/>
-      <c r="X34" s="33"/>
-      <c r="Y34" s="33"/>
-      <c r="Z34" s="33"/>
-      <c r="AA34" s="33"/>
-      <c r="AB34" s="33"/>
+      <c r="A34" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="B34" s="35"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="35"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="35"/>
+      <c r="J34" s="35"/>
+      <c r="K34" s="35"/>
+      <c r="L34" s="35"/>
+      <c r="M34" s="35"/>
+      <c r="N34" s="35"/>
+      <c r="O34" s="35"/>
+      <c r="P34" s="35"/>
+      <c r="Q34" s="35"/>
+      <c r="R34" s="35"/>
+      <c r="S34" s="35"/>
+      <c r="T34" s="35"/>
+      <c r="U34" s="35"/>
+      <c r="V34" s="35"/>
+      <c r="W34" s="35"/>
+      <c r="X34" s="35"/>
+      <c r="Y34" s="35"/>
+      <c r="Z34" s="35"/>
+      <c r="AA34" s="35"/>
+      <c r="AB34" s="35"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="21"/>
@@ -2194,7 +2430,7 @@
     </row>
     <row r="36" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="21" t="s">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="B36" s="15"/>
       <c r="C36" s="15"/>
@@ -2226,7 +2462,7 @@
     </row>
     <row r="37" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="21" t="s">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="B37" s="15"/>
       <c r="C37" s="15"/>
@@ -2258,7 +2494,7 @@
     </row>
     <row r="38" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="21" t="s">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="B38" s="15"/>
       <c r="C38" s="15"/>
@@ -2290,7 +2526,7 @@
     </row>
     <row r="39" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="14" t="s">
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="B39" s="15"/>
       <c r="C39" s="15"/>
@@ -2321,36 +2557,36 @@
       <c r="AB39" s="20"/>
     </row>
     <row r="40" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="B40" s="35"/>
-      <c r="C40" s="35"/>
-      <c r="D40" s="35"/>
-      <c r="E40" s="35"/>
-      <c r="F40" s="36"/>
-      <c r="G40" s="37"/>
-      <c r="H40" s="37"/>
-      <c r="I40" s="37"/>
-      <c r="J40" s="37"/>
-      <c r="K40" s="37"/>
-      <c r="L40" s="37"/>
-      <c r="M40" s="37"/>
-      <c r="N40" s="37"/>
-      <c r="O40" s="37"/>
-      <c r="P40" s="37"/>
-      <c r="Q40" s="37"/>
-      <c r="R40" s="37"/>
-      <c r="S40" s="37"/>
-      <c r="T40" s="37"/>
-      <c r="U40" s="37"/>
-      <c r="V40" s="37"/>
-      <c r="W40" s="37"/>
-      <c r="X40" s="37"/>
-      <c r="Y40" s="37"/>
-      <c r="Z40" s="37"/>
-      <c r="AA40" s="36"/>
-      <c r="AB40" s="38"/>
+      <c r="A40" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="B40" s="37"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="37"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="39"/>
+      <c r="H40" s="39"/>
+      <c r="I40" s="39"/>
+      <c r="J40" s="39"/>
+      <c r="K40" s="39"/>
+      <c r="L40" s="39"/>
+      <c r="M40" s="39"/>
+      <c r="N40" s="39"/>
+      <c r="O40" s="39"/>
+      <c r="P40" s="39"/>
+      <c r="Q40" s="39"/>
+      <c r="R40" s="39"/>
+      <c r="S40" s="39"/>
+      <c r="T40" s="39"/>
+      <c r="U40" s="39"/>
+      <c r="V40" s="39"/>
+      <c r="W40" s="39"/>
+      <c r="X40" s="39"/>
+      <c r="Y40" s="39"/>
+      <c r="Z40" s="39"/>
+      <c r="AA40" s="38"/>
+      <c r="AB40" s="40"/>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2407,1383 +2643,1383 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="39" t="s">
-        <v>56</v>
+      <c r="A1" s="41" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="39" t="s">
-        <v>57</v>
+      <c r="A2" s="41" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="39" t="s">
-        <v>58</v>
+      <c r="A3" s="41" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="39" t="s">
-        <v>59</v>
+      <c r="A4" s="41" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="39" t="s">
-        <v>60</v>
+      <c r="A6" s="41" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="39" t="s">
-        <v>61</v>
+      <c r="A7" s="41" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="39"/>
+      <c r="A8" s="41"/>
     </row>
     <row r="9" customFormat="false" ht="80.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="40" t="s">
-        <v>62</v>
+      <c r="A9" s="42" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="51.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="41" t="s">
-        <v>63</v>
+      <c r="A10" s="43" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="42"/>
+      <c r="A11" s="44"/>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="42" t="s">
-        <v>64</v>
+      <c r="A12" s="44" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="43"/>
+      <c r="A13" s="45"/>
     </row>
     <row r="14" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="44" t="s">
-        <v>65</v>
-      </c>
-      <c r="B14" s="45" t="s">
-        <v>66</v>
-      </c>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45" t="s">
-        <v>67</v>
-      </c>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45" t="s">
-        <v>68</v>
-      </c>
-      <c r="G14" s="45"/>
-      <c r="H14" s="45" t="s">
-        <v>69</v>
-      </c>
-      <c r="I14" s="45"/>
-      <c r="J14" s="45" t="s">
+      <c r="A14" s="46" t="s">
+        <v>107</v>
+      </c>
+      <c r="B14" s="47" t="s">
+        <v>108</v>
+      </c>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47" t="s">
+        <v>109</v>
+      </c>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="I14" s="47"/>
+      <c r="J14" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="K14" s="45"/>
-      <c r="L14" s="45" t="s">
+      <c r="K14" s="47"/>
+      <c r="L14" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="M14" s="45"/>
-      <c r="N14" s="45" t="s">
+      <c r="M14" s="47"/>
+      <c r="N14" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="O14" s="45"/>
-      <c r="P14" s="45" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q14" s="45"/>
-      <c r="R14" s="45" t="s">
-        <v>71</v>
-      </c>
-      <c r="S14" s="45"/>
-      <c r="T14" s="45" t="s">
-        <v>72</v>
-      </c>
-      <c r="U14" s="45"/>
-      <c r="V14" s="45" t="s">
-        <v>73</v>
-      </c>
-      <c r="W14" s="45"/>
-      <c r="X14" s="46" t="s">
+      <c r="O14" s="47"/>
+      <c r="P14" s="47" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q14" s="47"/>
+      <c r="R14" s="47" t="s">
+        <v>113</v>
+      </c>
+      <c r="S14" s="47"/>
+      <c r="T14" s="47" t="s">
+        <v>114</v>
+      </c>
+      <c r="U14" s="47"/>
+      <c r="V14" s="47" t="s">
+        <v>115</v>
+      </c>
+      <c r="W14" s="47"/>
+      <c r="X14" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="Y14" s="46"/>
+      <c r="Y14" s="48"/>
     </row>
     <row r="15" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="44"/>
-      <c r="B15" s="47" t="s">
+      <c r="A15" s="46"/>
+      <c r="B15" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="47" t="s">
+      <c r="C15" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="47" t="s">
+      <c r="D15" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="47" t="s">
+      <c r="E15" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="F15" s="47" t="s">
+      <c r="F15" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="G15" s="47" t="s">
+      <c r="G15" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="H15" s="47" t="s">
+      <c r="H15" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="I15" s="47" t="s">
+      <c r="I15" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="J15" s="47" t="s">
+      <c r="J15" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="K15" s="47" t="s">
+      <c r="K15" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="L15" s="47" t="s">
+      <c r="L15" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="M15" s="47" t="s">
+      <c r="M15" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="N15" s="47" t="s">
+      <c r="N15" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="O15" s="47" t="s">
+      <c r="O15" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="P15" s="47" t="s">
+      <c r="P15" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="Q15" s="47" t="s">
+      <c r="Q15" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="R15" s="47" t="s">
+      <c r="R15" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="S15" s="47" t="s">
+      <c r="S15" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="T15" s="47" t="s">
+      <c r="T15" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="U15" s="47" t="s">
+      <c r="U15" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="V15" s="47" t="s">
+      <c r="V15" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="W15" s="47" t="s">
+      <c r="W15" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="X15" s="47" t="s">
+      <c r="X15" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="Y15" s="48" t="s">
+      <c r="Y15" s="50" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="49" t="s">
-        <v>74</v>
-      </c>
-      <c r="B16" s="49"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="49"/>
-      <c r="K16" s="49"/>
-      <c r="L16" s="49"/>
-      <c r="M16" s="49"/>
-      <c r="N16" s="49"/>
-      <c r="O16" s="49"/>
-      <c r="P16" s="49"/>
-      <c r="Q16" s="49"/>
-      <c r="R16" s="49"/>
-      <c r="S16" s="49"/>
-      <c r="T16" s="49"/>
-      <c r="U16" s="49"/>
-      <c r="V16" s="49"/>
-      <c r="W16" s="49"/>
-      <c r="X16" s="49"/>
-      <c r="Y16" s="49"/>
+      <c r="A16" s="51" t="s">
+        <v>116</v>
+      </c>
+      <c r="B16" s="51"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="51"/>
+      <c r="K16" s="51"/>
+      <c r="L16" s="51"/>
+      <c r="M16" s="51"/>
+      <c r="N16" s="51"/>
+      <c r="O16" s="51"/>
+      <c r="P16" s="51"/>
+      <c r="Q16" s="51"/>
+      <c r="R16" s="51"/>
+      <c r="S16" s="51"/>
+      <c r="T16" s="51"/>
+      <c r="U16" s="51"/>
+      <c r="V16" s="51"/>
+      <c r="W16" s="51"/>
+      <c r="X16" s="51"/>
+      <c r="Y16" s="51"/>
     </row>
     <row r="17" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="50" t="s">
-        <v>75</v>
-      </c>
-      <c r="B17" s="51"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="51"/>
-      <c r="L17" s="51"/>
-      <c r="M17" s="51"/>
-      <c r="N17" s="51"/>
-      <c r="O17" s="51"/>
-      <c r="P17" s="51"/>
-      <c r="Q17" s="51"/>
-      <c r="R17" s="51"/>
-      <c r="S17" s="51"/>
-      <c r="T17" s="51"/>
-      <c r="U17" s="51"/>
-      <c r="V17" s="51"/>
-      <c r="W17" s="51"/>
-      <c r="X17" s="51"/>
-      <c r="Y17" s="52"/>
+      <c r="A17" s="52" t="s">
+        <v>117</v>
+      </c>
+      <c r="B17" s="53"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="53"/>
+      <c r="M17" s="53"/>
+      <c r="N17" s="53"/>
+      <c r="O17" s="53"/>
+      <c r="P17" s="53"/>
+      <c r="Q17" s="53"/>
+      <c r="R17" s="53"/>
+      <c r="S17" s="53"/>
+      <c r="T17" s="53"/>
+      <c r="U17" s="53"/>
+      <c r="V17" s="53"/>
+      <c r="W17" s="53"/>
+      <c r="X17" s="53"/>
+      <c r="Y17" s="54"/>
     </row>
     <row r="18" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="50" t="s">
-        <v>76</v>
-      </c>
-      <c r="B18" s="51"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="51"/>
-      <c r="K18" s="51"/>
-      <c r="L18" s="51"/>
-      <c r="M18" s="51"/>
-      <c r="N18" s="51"/>
-      <c r="O18" s="51"/>
-      <c r="P18" s="51"/>
-      <c r="Q18" s="51"/>
-      <c r="R18" s="51"/>
-      <c r="S18" s="51"/>
-      <c r="T18" s="51"/>
-      <c r="U18" s="51"/>
-      <c r="V18" s="51"/>
-      <c r="W18" s="51"/>
-      <c r="X18" s="51"/>
-      <c r="Y18" s="52"/>
+      <c r="A18" s="52" t="s">
+        <v>118</v>
+      </c>
+      <c r="B18" s="53"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="53"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="53"/>
+      <c r="M18" s="53"/>
+      <c r="N18" s="53"/>
+      <c r="O18" s="53"/>
+      <c r="P18" s="53"/>
+      <c r="Q18" s="53"/>
+      <c r="R18" s="53"/>
+      <c r="S18" s="53"/>
+      <c r="T18" s="53"/>
+      <c r="U18" s="53"/>
+      <c r="V18" s="53"/>
+      <c r="W18" s="53"/>
+      <c r="X18" s="53"/>
+      <c r="Y18" s="54"/>
     </row>
     <row r="19" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="50" t="s">
-        <v>77</v>
-      </c>
-      <c r="B19" s="51"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="51"/>
-      <c r="L19" s="51"/>
-      <c r="M19" s="51"/>
-      <c r="N19" s="51"/>
-      <c r="O19" s="51"/>
-      <c r="P19" s="51"/>
-      <c r="Q19" s="51"/>
-      <c r="R19" s="51"/>
-      <c r="S19" s="51"/>
-      <c r="T19" s="51"/>
-      <c r="U19" s="51"/>
-      <c r="V19" s="51"/>
-      <c r="W19" s="51"/>
-      <c r="X19" s="51"/>
-      <c r="Y19" s="52"/>
+      <c r="A19" s="52" t="s">
+        <v>119</v>
+      </c>
+      <c r="B19" s="53"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="53"/>
+      <c r="L19" s="53"/>
+      <c r="M19" s="53"/>
+      <c r="N19" s="53"/>
+      <c r="O19" s="53"/>
+      <c r="P19" s="53"/>
+      <c r="Q19" s="53"/>
+      <c r="R19" s="53"/>
+      <c r="S19" s="53"/>
+      <c r="T19" s="53"/>
+      <c r="U19" s="53"/>
+      <c r="V19" s="53"/>
+      <c r="W19" s="53"/>
+      <c r="X19" s="53"/>
+      <c r="Y19" s="54"/>
     </row>
     <row r="20" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="50"/>
-      <c r="B20" s="51"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="51"/>
-      <c r="K20" s="51"/>
-      <c r="L20" s="51"/>
-      <c r="M20" s="51"/>
-      <c r="N20" s="51"/>
-      <c r="O20" s="51"/>
-      <c r="P20" s="51"/>
-      <c r="Q20" s="51"/>
-      <c r="R20" s="51"/>
-      <c r="S20" s="51"/>
-      <c r="T20" s="51"/>
-      <c r="U20" s="51"/>
-      <c r="V20" s="51"/>
-      <c r="W20" s="51"/>
-      <c r="X20" s="51"/>
-      <c r="Y20" s="52"/>
+      <c r="A20" s="52"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="53"/>
+      <c r="L20" s="53"/>
+      <c r="M20" s="53"/>
+      <c r="N20" s="53"/>
+      <c r="O20" s="53"/>
+      <c r="P20" s="53"/>
+      <c r="Q20" s="53"/>
+      <c r="R20" s="53"/>
+      <c r="S20" s="53"/>
+      <c r="T20" s="53"/>
+      <c r="U20" s="53"/>
+      <c r="V20" s="53"/>
+      <c r="W20" s="53"/>
+      <c r="X20" s="53"/>
+      <c r="Y20" s="54"/>
     </row>
     <row r="21" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="50"/>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="51"/>
-      <c r="K21" s="51"/>
-      <c r="L21" s="51"/>
-      <c r="M21" s="51"/>
-      <c r="N21" s="51"/>
-      <c r="O21" s="51"/>
-      <c r="P21" s="51"/>
-      <c r="Q21" s="51"/>
-      <c r="R21" s="51"/>
-      <c r="S21" s="51"/>
-      <c r="T21" s="51"/>
-      <c r="U21" s="51"/>
-      <c r="V21" s="51"/>
-      <c r="W21" s="51"/>
-      <c r="X21" s="51"/>
-      <c r="Y21" s="52"/>
+      <c r="A21" s="52"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="53"/>
+      <c r="K21" s="53"/>
+      <c r="L21" s="53"/>
+      <c r="M21" s="53"/>
+      <c r="N21" s="53"/>
+      <c r="O21" s="53"/>
+      <c r="P21" s="53"/>
+      <c r="Q21" s="53"/>
+      <c r="R21" s="53"/>
+      <c r="S21" s="53"/>
+      <c r="T21" s="53"/>
+      <c r="U21" s="53"/>
+      <c r="V21" s="53"/>
+      <c r="W21" s="53"/>
+      <c r="X21" s="53"/>
+      <c r="Y21" s="54"/>
     </row>
     <row r="22" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="B22" s="49"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="49"/>
-      <c r="I22" s="49"/>
-      <c r="J22" s="49"/>
-      <c r="K22" s="49"/>
-      <c r="L22" s="49"/>
-      <c r="M22" s="49"/>
-      <c r="N22" s="49"/>
-      <c r="O22" s="49"/>
-      <c r="P22" s="49"/>
-      <c r="Q22" s="49"/>
-      <c r="R22" s="49"/>
-      <c r="S22" s="49"/>
-      <c r="T22" s="49"/>
-      <c r="U22" s="49"/>
-      <c r="V22" s="49"/>
-      <c r="W22" s="49"/>
-      <c r="X22" s="49"/>
-      <c r="Y22" s="49"/>
+      <c r="A22" s="51" t="s">
+        <v>120</v>
+      </c>
+      <c r="B22" s="51"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="51"/>
+      <c r="K22" s="51"/>
+      <c r="L22" s="51"/>
+      <c r="M22" s="51"/>
+      <c r="N22" s="51"/>
+      <c r="O22" s="51"/>
+      <c r="P22" s="51"/>
+      <c r="Q22" s="51"/>
+      <c r="R22" s="51"/>
+      <c r="S22" s="51"/>
+      <c r="T22" s="51"/>
+      <c r="U22" s="51"/>
+      <c r="V22" s="51"/>
+      <c r="W22" s="51"/>
+      <c r="X22" s="51"/>
+      <c r="Y22" s="51"/>
     </row>
     <row r="23" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="B23" s="51"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="51"/>
-      <c r="J23" s="51"/>
-      <c r="K23" s="51"/>
-      <c r="L23" s="51"/>
-      <c r="M23" s="51"/>
-      <c r="N23" s="51"/>
-      <c r="O23" s="51"/>
-      <c r="P23" s="51"/>
-      <c r="Q23" s="51"/>
-      <c r="R23" s="51"/>
-      <c r="S23" s="51"/>
-      <c r="T23" s="51"/>
-      <c r="U23" s="51"/>
-      <c r="V23" s="51"/>
-      <c r="W23" s="51"/>
-      <c r="X23" s="51"/>
-      <c r="Y23" s="52"/>
+      <c r="A23" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="B23" s="53"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="53"/>
+      <c r="K23" s="53"/>
+      <c r="L23" s="53"/>
+      <c r="M23" s="53"/>
+      <c r="N23" s="53"/>
+      <c r="O23" s="53"/>
+      <c r="P23" s="53"/>
+      <c r="Q23" s="53"/>
+      <c r="R23" s="53"/>
+      <c r="S23" s="53"/>
+      <c r="T23" s="53"/>
+      <c r="U23" s="53"/>
+      <c r="V23" s="53"/>
+      <c r="W23" s="53"/>
+      <c r="X23" s="53"/>
+      <c r="Y23" s="54"/>
     </row>
     <row r="24" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="50" t="s">
-        <v>80</v>
-      </c>
-      <c r="B24" s="51"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="51"/>
-      <c r="K24" s="51"/>
-      <c r="L24" s="51"/>
-      <c r="M24" s="51"/>
-      <c r="N24" s="51"/>
-      <c r="O24" s="51"/>
-      <c r="P24" s="51"/>
-      <c r="Q24" s="51"/>
-      <c r="R24" s="51"/>
-      <c r="S24" s="51"/>
-      <c r="T24" s="51"/>
-      <c r="U24" s="51"/>
-      <c r="V24" s="51"/>
-      <c r="W24" s="51"/>
-      <c r="X24" s="51"/>
-      <c r="Y24" s="52"/>
+      <c r="A24" s="52" t="s">
+        <v>122</v>
+      </c>
+      <c r="B24" s="53"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="53"/>
+      <c r="K24" s="53"/>
+      <c r="L24" s="53"/>
+      <c r="M24" s="53"/>
+      <c r="N24" s="53"/>
+      <c r="O24" s="53"/>
+      <c r="P24" s="53"/>
+      <c r="Q24" s="53"/>
+      <c r="R24" s="53"/>
+      <c r="S24" s="53"/>
+      <c r="T24" s="53"/>
+      <c r="U24" s="53"/>
+      <c r="V24" s="53"/>
+      <c r="W24" s="53"/>
+      <c r="X24" s="53"/>
+      <c r="Y24" s="54"/>
     </row>
     <row r="25" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="50" t="s">
-        <v>81</v>
-      </c>
-      <c r="B25" s="51"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="51"/>
-      <c r="I25" s="51"/>
-      <c r="J25" s="51"/>
-      <c r="K25" s="51"/>
-      <c r="L25" s="51"/>
-      <c r="M25" s="51"/>
-      <c r="N25" s="51"/>
-      <c r="O25" s="51"/>
-      <c r="P25" s="51"/>
-      <c r="Q25" s="51"/>
-      <c r="R25" s="51"/>
-      <c r="S25" s="51"/>
-      <c r="T25" s="51"/>
-      <c r="U25" s="51"/>
-      <c r="V25" s="51"/>
-      <c r="W25" s="51"/>
-      <c r="X25" s="51"/>
-      <c r="Y25" s="52"/>
+      <c r="A25" s="52" t="s">
+        <v>123</v>
+      </c>
+      <c r="B25" s="53"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="53"/>
+      <c r="I25" s="53"/>
+      <c r="J25" s="53"/>
+      <c r="K25" s="53"/>
+      <c r="L25" s="53"/>
+      <c r="M25" s="53"/>
+      <c r="N25" s="53"/>
+      <c r="O25" s="53"/>
+      <c r="P25" s="53"/>
+      <c r="Q25" s="53"/>
+      <c r="R25" s="53"/>
+      <c r="S25" s="53"/>
+      <c r="T25" s="53"/>
+      <c r="U25" s="53"/>
+      <c r="V25" s="53"/>
+      <c r="W25" s="53"/>
+      <c r="X25" s="53"/>
+      <c r="Y25" s="54"/>
     </row>
     <row r="26" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="50" t="s">
-        <v>82</v>
-      </c>
-      <c r="B26" s="51"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="51"/>
-      <c r="F26" s="51"/>
-      <c r="G26" s="51"/>
-      <c r="H26" s="51"/>
-      <c r="I26" s="51"/>
-      <c r="J26" s="51"/>
-      <c r="K26" s="51"/>
-      <c r="L26" s="51"/>
-      <c r="M26" s="51"/>
-      <c r="N26" s="51"/>
-      <c r="O26" s="51"/>
-      <c r="P26" s="51"/>
-      <c r="Q26" s="51"/>
-      <c r="R26" s="51"/>
-      <c r="S26" s="51"/>
-      <c r="T26" s="51"/>
-      <c r="U26" s="51"/>
-      <c r="V26" s="51"/>
-      <c r="W26" s="51"/>
-      <c r="X26" s="51"/>
-      <c r="Y26" s="52"/>
+      <c r="A26" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="B26" s="53"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="53"/>
+      <c r="K26" s="53"/>
+      <c r="L26" s="53"/>
+      <c r="M26" s="53"/>
+      <c r="N26" s="53"/>
+      <c r="O26" s="53"/>
+      <c r="P26" s="53"/>
+      <c r="Q26" s="53"/>
+      <c r="R26" s="53"/>
+      <c r="S26" s="53"/>
+      <c r="T26" s="53"/>
+      <c r="U26" s="53"/>
+      <c r="V26" s="53"/>
+      <c r="W26" s="53"/>
+      <c r="X26" s="53"/>
+      <c r="Y26" s="54"/>
     </row>
     <row r="27" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="50"/>
-      <c r="B27" s="51"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="51"/>
-      <c r="J27" s="51"/>
-      <c r="K27" s="51"/>
-      <c r="L27" s="51"/>
-      <c r="M27" s="51"/>
-      <c r="N27" s="51"/>
-      <c r="O27" s="51"/>
-      <c r="P27" s="51"/>
-      <c r="Q27" s="51"/>
-      <c r="R27" s="51"/>
-      <c r="S27" s="51"/>
-      <c r="T27" s="51"/>
-      <c r="U27" s="51"/>
-      <c r="V27" s="51"/>
-      <c r="W27" s="51"/>
-      <c r="X27" s="51"/>
-      <c r="Y27" s="52"/>
+      <c r="A27" s="52"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="53"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="53"/>
+      <c r="J27" s="53"/>
+      <c r="K27" s="53"/>
+      <c r="L27" s="53"/>
+      <c r="M27" s="53"/>
+      <c r="N27" s="53"/>
+      <c r="O27" s="53"/>
+      <c r="P27" s="53"/>
+      <c r="Q27" s="53"/>
+      <c r="R27" s="53"/>
+      <c r="S27" s="53"/>
+      <c r="T27" s="53"/>
+      <c r="U27" s="53"/>
+      <c r="V27" s="53"/>
+      <c r="W27" s="53"/>
+      <c r="X27" s="53"/>
+      <c r="Y27" s="54"/>
     </row>
     <row r="28" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="50"/>
-      <c r="B28" s="51"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="51"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="51"/>
-      <c r="H28" s="51"/>
-      <c r="I28" s="51"/>
-      <c r="J28" s="51"/>
-      <c r="K28" s="51"/>
-      <c r="L28" s="51"/>
-      <c r="M28" s="51"/>
-      <c r="N28" s="51"/>
-      <c r="O28" s="51"/>
-      <c r="P28" s="51"/>
-      <c r="Q28" s="51"/>
-      <c r="R28" s="51"/>
-      <c r="S28" s="51"/>
-      <c r="T28" s="51"/>
-      <c r="U28" s="51"/>
-      <c r="V28" s="51"/>
-      <c r="W28" s="51"/>
-      <c r="X28" s="51"/>
-      <c r="Y28" s="52"/>
+      <c r="A28" s="52"/>
+      <c r="B28" s="53"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="53"/>
+      <c r="J28" s="53"/>
+      <c r="K28" s="53"/>
+      <c r="L28" s="53"/>
+      <c r="M28" s="53"/>
+      <c r="N28" s="53"/>
+      <c r="O28" s="53"/>
+      <c r="P28" s="53"/>
+      <c r="Q28" s="53"/>
+      <c r="R28" s="53"/>
+      <c r="S28" s="53"/>
+      <c r="T28" s="53"/>
+      <c r="U28" s="53"/>
+      <c r="V28" s="53"/>
+      <c r="W28" s="53"/>
+      <c r="X28" s="53"/>
+      <c r="Y28" s="54"/>
     </row>
     <row r="29" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="53" t="s">
-        <v>83</v>
-      </c>
-      <c r="B29" s="51"/>
-      <c r="C29" s="51"/>
-      <c r="D29" s="51"/>
-      <c r="E29" s="51"/>
-      <c r="F29" s="51"/>
-      <c r="G29" s="51"/>
-      <c r="H29" s="51"/>
-      <c r="I29" s="51"/>
-      <c r="J29" s="51"/>
-      <c r="K29" s="51"/>
-      <c r="L29" s="51"/>
-      <c r="M29" s="51"/>
-      <c r="N29" s="51"/>
-      <c r="O29" s="51"/>
-      <c r="P29" s="51"/>
-      <c r="Q29" s="51"/>
-      <c r="R29" s="51"/>
-      <c r="S29" s="51"/>
-      <c r="T29" s="51"/>
-      <c r="U29" s="51"/>
-      <c r="V29" s="51"/>
-      <c r="W29" s="51"/>
-      <c r="X29" s="51"/>
-      <c r="Y29" s="52"/>
+      <c r="A29" s="55" t="s">
+        <v>125</v>
+      </c>
+      <c r="B29" s="53"/>
+      <c r="C29" s="53"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="53"/>
+      <c r="H29" s="53"/>
+      <c r="I29" s="53"/>
+      <c r="J29" s="53"/>
+      <c r="K29" s="53"/>
+      <c r="L29" s="53"/>
+      <c r="M29" s="53"/>
+      <c r="N29" s="53"/>
+      <c r="O29" s="53"/>
+      <c r="P29" s="53"/>
+      <c r="Q29" s="53"/>
+      <c r="R29" s="53"/>
+      <c r="S29" s="53"/>
+      <c r="T29" s="53"/>
+      <c r="U29" s="53"/>
+      <c r="V29" s="53"/>
+      <c r="W29" s="53"/>
+      <c r="X29" s="53"/>
+      <c r="Y29" s="54"/>
     </row>
     <row r="30" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="49" t="s">
-        <v>84</v>
-      </c>
-      <c r="B30" s="49"/>
-      <c r="C30" s="49"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="49"/>
-      <c r="H30" s="49"/>
-      <c r="I30" s="49"/>
-      <c r="J30" s="49"/>
-      <c r="K30" s="49"/>
-      <c r="L30" s="49"/>
-      <c r="M30" s="49"/>
-      <c r="N30" s="49"/>
-      <c r="O30" s="49"/>
-      <c r="P30" s="49"/>
-      <c r="Q30" s="49"/>
-      <c r="R30" s="49"/>
-      <c r="S30" s="49"/>
-      <c r="T30" s="49"/>
-      <c r="U30" s="49"/>
-      <c r="V30" s="49"/>
-      <c r="W30" s="49"/>
-      <c r="X30" s="49"/>
-      <c r="Y30" s="49"/>
+      <c r="A30" s="51" t="s">
+        <v>126</v>
+      </c>
+      <c r="B30" s="51"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="51"/>
+      <c r="G30" s="51"/>
+      <c r="H30" s="51"/>
+      <c r="I30" s="51"/>
+      <c r="J30" s="51"/>
+      <c r="K30" s="51"/>
+      <c r="L30" s="51"/>
+      <c r="M30" s="51"/>
+      <c r="N30" s="51"/>
+      <c r="O30" s="51"/>
+      <c r="P30" s="51"/>
+      <c r="Q30" s="51"/>
+      <c r="R30" s="51"/>
+      <c r="S30" s="51"/>
+      <c r="T30" s="51"/>
+      <c r="U30" s="51"/>
+      <c r="V30" s="51"/>
+      <c r="W30" s="51"/>
+      <c r="X30" s="51"/>
+      <c r="Y30" s="51"/>
     </row>
     <row r="31" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="50" t="s">
-        <v>85</v>
-      </c>
-      <c r="B31" s="51"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="51"/>
-      <c r="E31" s="51"/>
-      <c r="F31" s="51"/>
-      <c r="G31" s="51"/>
-      <c r="H31" s="51"/>
-      <c r="I31" s="51"/>
-      <c r="J31" s="51"/>
-      <c r="K31" s="51"/>
-      <c r="L31" s="51"/>
-      <c r="M31" s="51"/>
-      <c r="N31" s="51"/>
-      <c r="O31" s="51"/>
-      <c r="P31" s="51"/>
-      <c r="Q31" s="51"/>
-      <c r="R31" s="51"/>
-      <c r="S31" s="51"/>
-      <c r="T31" s="51"/>
-      <c r="U31" s="51"/>
-      <c r="V31" s="51"/>
-      <c r="W31" s="51"/>
-      <c r="X31" s="51"/>
-      <c r="Y31" s="52"/>
+      <c r="A31" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="B31" s="53"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="53"/>
+      <c r="H31" s="53"/>
+      <c r="I31" s="53"/>
+      <c r="J31" s="53"/>
+      <c r="K31" s="53"/>
+      <c r="L31" s="53"/>
+      <c r="M31" s="53"/>
+      <c r="N31" s="53"/>
+      <c r="O31" s="53"/>
+      <c r="P31" s="53"/>
+      <c r="Q31" s="53"/>
+      <c r="R31" s="53"/>
+      <c r="S31" s="53"/>
+      <c r="T31" s="53"/>
+      <c r="U31" s="53"/>
+      <c r="V31" s="53"/>
+      <c r="W31" s="53"/>
+      <c r="X31" s="53"/>
+      <c r="Y31" s="54"/>
     </row>
     <row r="32" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="50" t="s">
-        <v>86</v>
-      </c>
-      <c r="B32" s="51"/>
-      <c r="C32" s="51"/>
-      <c r="D32" s="51"/>
-      <c r="E32" s="51"/>
-      <c r="F32" s="51"/>
-      <c r="G32" s="51"/>
-      <c r="H32" s="51"/>
-      <c r="I32" s="51"/>
-      <c r="J32" s="51"/>
-      <c r="K32" s="51"/>
-      <c r="L32" s="51"/>
-      <c r="M32" s="51"/>
-      <c r="N32" s="51"/>
-      <c r="O32" s="51"/>
-      <c r="P32" s="51"/>
-      <c r="Q32" s="51"/>
-      <c r="R32" s="51"/>
-      <c r="S32" s="51"/>
-      <c r="T32" s="51"/>
-      <c r="U32" s="51"/>
-      <c r="V32" s="51"/>
-      <c r="W32" s="51"/>
-      <c r="X32" s="51"/>
-      <c r="Y32" s="52"/>
+      <c r="A32" s="52" t="s">
+        <v>128</v>
+      </c>
+      <c r="B32" s="53"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="53"/>
+      <c r="F32" s="53"/>
+      <c r="G32" s="53"/>
+      <c r="H32" s="53"/>
+      <c r="I32" s="53"/>
+      <c r="J32" s="53"/>
+      <c r="K32" s="53"/>
+      <c r="L32" s="53"/>
+      <c r="M32" s="53"/>
+      <c r="N32" s="53"/>
+      <c r="O32" s="53"/>
+      <c r="P32" s="53"/>
+      <c r="Q32" s="53"/>
+      <c r="R32" s="53"/>
+      <c r="S32" s="53"/>
+      <c r="T32" s="53"/>
+      <c r="U32" s="53"/>
+      <c r="V32" s="53"/>
+      <c r="W32" s="53"/>
+      <c r="X32" s="53"/>
+      <c r="Y32" s="54"/>
     </row>
     <row r="33" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="50"/>
-      <c r="B33" s="51"/>
-      <c r="C33" s="51"/>
-      <c r="D33" s="51"/>
-      <c r="E33" s="51"/>
-      <c r="F33" s="51"/>
-      <c r="G33" s="51"/>
-      <c r="H33" s="51"/>
-      <c r="I33" s="51"/>
-      <c r="J33" s="51"/>
-      <c r="K33" s="51"/>
-      <c r="L33" s="51"/>
-      <c r="M33" s="51"/>
-      <c r="N33" s="51"/>
-      <c r="O33" s="51"/>
-      <c r="P33" s="51"/>
-      <c r="Q33" s="51"/>
-      <c r="R33" s="51"/>
-      <c r="S33" s="51"/>
-      <c r="T33" s="51"/>
-      <c r="U33" s="51"/>
-      <c r="V33" s="51"/>
-      <c r="W33" s="51"/>
-      <c r="X33" s="51"/>
-      <c r="Y33" s="52"/>
+      <c r="A33" s="52"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="53"/>
+      <c r="G33" s="53"/>
+      <c r="H33" s="53"/>
+      <c r="I33" s="53"/>
+      <c r="J33" s="53"/>
+      <c r="K33" s="53"/>
+      <c r="L33" s="53"/>
+      <c r="M33" s="53"/>
+      <c r="N33" s="53"/>
+      <c r="O33" s="53"/>
+      <c r="P33" s="53"/>
+      <c r="Q33" s="53"/>
+      <c r="R33" s="53"/>
+      <c r="S33" s="53"/>
+      <c r="T33" s="53"/>
+      <c r="U33" s="53"/>
+      <c r="V33" s="53"/>
+      <c r="W33" s="53"/>
+      <c r="X33" s="53"/>
+      <c r="Y33" s="54"/>
     </row>
     <row r="34" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="50"/>
-      <c r="B34" s="51"/>
-      <c r="C34" s="51"/>
-      <c r="D34" s="51"/>
-      <c r="E34" s="51"/>
-      <c r="F34" s="51"/>
-      <c r="G34" s="51"/>
-      <c r="H34" s="51"/>
-      <c r="I34" s="51"/>
-      <c r="J34" s="51"/>
-      <c r="K34" s="51"/>
-      <c r="L34" s="51"/>
-      <c r="M34" s="51"/>
-      <c r="N34" s="51"/>
-      <c r="O34" s="51"/>
-      <c r="P34" s="51"/>
-      <c r="Q34" s="51"/>
-      <c r="R34" s="51"/>
-      <c r="S34" s="51"/>
-      <c r="T34" s="51"/>
-      <c r="U34" s="51"/>
-      <c r="V34" s="51"/>
-      <c r="W34" s="51"/>
-      <c r="X34" s="51"/>
-      <c r="Y34" s="52"/>
+      <c r="A34" s="52"/>
+      <c r="B34" s="53"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="53"/>
+      <c r="E34" s="53"/>
+      <c r="F34" s="53"/>
+      <c r="G34" s="53"/>
+      <c r="H34" s="53"/>
+      <c r="I34" s="53"/>
+      <c r="J34" s="53"/>
+      <c r="K34" s="53"/>
+      <c r="L34" s="53"/>
+      <c r="M34" s="53"/>
+      <c r="N34" s="53"/>
+      <c r="O34" s="53"/>
+      <c r="P34" s="53"/>
+      <c r="Q34" s="53"/>
+      <c r="R34" s="53"/>
+      <c r="S34" s="53"/>
+      <c r="T34" s="53"/>
+      <c r="U34" s="53"/>
+      <c r="V34" s="53"/>
+      <c r="W34" s="53"/>
+      <c r="X34" s="53"/>
+      <c r="Y34" s="54"/>
     </row>
     <row r="35" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="49" t="s">
-        <v>87</v>
-      </c>
-      <c r="B35" s="49"/>
-      <c r="C35" s="49"/>
-      <c r="D35" s="49"/>
-      <c r="E35" s="49"/>
-      <c r="F35" s="49"/>
-      <c r="G35" s="49"/>
-      <c r="H35" s="49"/>
-      <c r="I35" s="49"/>
-      <c r="J35" s="49"/>
-      <c r="K35" s="49"/>
-      <c r="L35" s="49"/>
-      <c r="M35" s="49"/>
-      <c r="N35" s="49"/>
-      <c r="O35" s="49"/>
-      <c r="P35" s="49"/>
-      <c r="Q35" s="49"/>
-      <c r="R35" s="49"/>
-      <c r="S35" s="49"/>
-      <c r="T35" s="49"/>
-      <c r="U35" s="49"/>
-      <c r="V35" s="49"/>
-      <c r="W35" s="49"/>
-      <c r="X35" s="49"/>
-      <c r="Y35" s="49"/>
+      <c r="A35" s="51" t="s">
+        <v>129</v>
+      </c>
+      <c r="B35" s="51"/>
+      <c r="C35" s="51"/>
+      <c r="D35" s="51"/>
+      <c r="E35" s="51"/>
+      <c r="F35" s="51"/>
+      <c r="G35" s="51"/>
+      <c r="H35" s="51"/>
+      <c r="I35" s="51"/>
+      <c r="J35" s="51"/>
+      <c r="K35" s="51"/>
+      <c r="L35" s="51"/>
+      <c r="M35" s="51"/>
+      <c r="N35" s="51"/>
+      <c r="O35" s="51"/>
+      <c r="P35" s="51"/>
+      <c r="Q35" s="51"/>
+      <c r="R35" s="51"/>
+      <c r="S35" s="51"/>
+      <c r="T35" s="51"/>
+      <c r="U35" s="51"/>
+      <c r="V35" s="51"/>
+      <c r="W35" s="51"/>
+      <c r="X35" s="51"/>
+      <c r="Y35" s="51"/>
     </row>
     <row r="36" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="50"/>
-      <c r="B36" s="51"/>
-      <c r="C36" s="51"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="51"/>
-      <c r="F36" s="51"/>
-      <c r="G36" s="51"/>
-      <c r="H36" s="51"/>
-      <c r="I36" s="51"/>
-      <c r="J36" s="51"/>
-      <c r="K36" s="51"/>
-      <c r="L36" s="51"/>
-      <c r="M36" s="51"/>
-      <c r="N36" s="51"/>
-      <c r="O36" s="51"/>
-      <c r="P36" s="51"/>
-      <c r="Q36" s="51"/>
-      <c r="R36" s="51"/>
-      <c r="S36" s="51"/>
-      <c r="T36" s="51"/>
-      <c r="U36" s="51"/>
-      <c r="V36" s="51"/>
-      <c r="W36" s="51"/>
-      <c r="X36" s="51"/>
-      <c r="Y36" s="52"/>
+      <c r="A36" s="52"/>
+      <c r="B36" s="53"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="53"/>
+      <c r="G36" s="53"/>
+      <c r="H36" s="53"/>
+      <c r="I36" s="53"/>
+      <c r="J36" s="53"/>
+      <c r="K36" s="53"/>
+      <c r="L36" s="53"/>
+      <c r="M36" s="53"/>
+      <c r="N36" s="53"/>
+      <c r="O36" s="53"/>
+      <c r="P36" s="53"/>
+      <c r="Q36" s="53"/>
+      <c r="R36" s="53"/>
+      <c r="S36" s="53"/>
+      <c r="T36" s="53"/>
+      <c r="U36" s="53"/>
+      <c r="V36" s="53"/>
+      <c r="W36" s="53"/>
+      <c r="X36" s="53"/>
+      <c r="Y36" s="54"/>
     </row>
     <row r="37" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="53"/>
-      <c r="B37" s="51"/>
-      <c r="C37" s="51"/>
-      <c r="D37" s="51"/>
-      <c r="E37" s="51"/>
-      <c r="F37" s="51"/>
-      <c r="G37" s="51"/>
-      <c r="H37" s="51"/>
-      <c r="I37" s="51"/>
-      <c r="J37" s="51"/>
-      <c r="K37" s="51"/>
-      <c r="L37" s="51"/>
-      <c r="M37" s="51"/>
-      <c r="N37" s="51"/>
-      <c r="O37" s="51"/>
-      <c r="P37" s="51"/>
-      <c r="Q37" s="51"/>
-      <c r="R37" s="51"/>
-      <c r="S37" s="51"/>
-      <c r="T37" s="51"/>
-      <c r="U37" s="51"/>
-      <c r="V37" s="51"/>
-      <c r="W37" s="51"/>
-      <c r="X37" s="51"/>
-      <c r="Y37" s="52"/>
+      <c r="A37" s="55"/>
+      <c r="B37" s="53"/>
+      <c r="C37" s="53"/>
+      <c r="D37" s="53"/>
+      <c r="E37" s="53"/>
+      <c r="F37" s="53"/>
+      <c r="G37" s="53"/>
+      <c r="H37" s="53"/>
+      <c r="I37" s="53"/>
+      <c r="J37" s="53"/>
+      <c r="K37" s="53"/>
+      <c r="L37" s="53"/>
+      <c r="M37" s="53"/>
+      <c r="N37" s="53"/>
+      <c r="O37" s="53"/>
+      <c r="P37" s="53"/>
+      <c r="Q37" s="53"/>
+      <c r="R37" s="53"/>
+      <c r="S37" s="53"/>
+      <c r="T37" s="53"/>
+      <c r="U37" s="53"/>
+      <c r="V37" s="53"/>
+      <c r="W37" s="53"/>
+      <c r="X37" s="53"/>
+      <c r="Y37" s="54"/>
     </row>
     <row r="38" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="53"/>
-      <c r="B38" s="51"/>
-      <c r="C38" s="51"/>
-      <c r="D38" s="51"/>
-      <c r="E38" s="51"/>
-      <c r="F38" s="51"/>
-      <c r="G38" s="51"/>
-      <c r="H38" s="51"/>
-      <c r="I38" s="51"/>
-      <c r="J38" s="51"/>
-      <c r="K38" s="51"/>
-      <c r="L38" s="51"/>
-      <c r="M38" s="51"/>
-      <c r="N38" s="51"/>
-      <c r="O38" s="51"/>
-      <c r="P38" s="51"/>
-      <c r="Q38" s="51"/>
-      <c r="R38" s="51"/>
-      <c r="S38" s="51"/>
-      <c r="T38" s="51"/>
-      <c r="U38" s="51"/>
-      <c r="V38" s="51"/>
-      <c r="W38" s="51"/>
-      <c r="X38" s="51"/>
-      <c r="Y38" s="52"/>
+      <c r="A38" s="55"/>
+      <c r="B38" s="53"/>
+      <c r="C38" s="53"/>
+      <c r="D38" s="53"/>
+      <c r="E38" s="53"/>
+      <c r="F38" s="53"/>
+      <c r="G38" s="53"/>
+      <c r="H38" s="53"/>
+      <c r="I38" s="53"/>
+      <c r="J38" s="53"/>
+      <c r="K38" s="53"/>
+      <c r="L38" s="53"/>
+      <c r="M38" s="53"/>
+      <c r="N38" s="53"/>
+      <c r="O38" s="53"/>
+      <c r="P38" s="53"/>
+      <c r="Q38" s="53"/>
+      <c r="R38" s="53"/>
+      <c r="S38" s="53"/>
+      <c r="T38" s="53"/>
+      <c r="U38" s="53"/>
+      <c r="V38" s="53"/>
+      <c r="W38" s="53"/>
+      <c r="X38" s="53"/>
+      <c r="Y38" s="54"/>
     </row>
     <row r="39" customFormat="false" ht="66.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="53" t="s">
-        <v>88</v>
-      </c>
-      <c r="B39" s="51"/>
-      <c r="C39" s="51"/>
-      <c r="D39" s="51"/>
-      <c r="E39" s="51"/>
-      <c r="F39" s="51"/>
-      <c r="G39" s="51"/>
-      <c r="H39" s="51"/>
-      <c r="I39" s="51"/>
-      <c r="J39" s="51"/>
-      <c r="K39" s="51"/>
-      <c r="L39" s="51"/>
-      <c r="M39" s="51"/>
-      <c r="N39" s="51"/>
-      <c r="O39" s="51"/>
-      <c r="P39" s="51"/>
-      <c r="Q39" s="51"/>
-      <c r="R39" s="51"/>
-      <c r="S39" s="51"/>
-      <c r="T39" s="51"/>
-      <c r="U39" s="51"/>
-      <c r="V39" s="51"/>
-      <c r="W39" s="51"/>
-      <c r="X39" s="51"/>
-      <c r="Y39" s="52"/>
+      <c r="A39" s="55" t="s">
+        <v>130</v>
+      </c>
+      <c r="B39" s="53"/>
+      <c r="C39" s="53"/>
+      <c r="D39" s="53"/>
+      <c r="E39" s="53"/>
+      <c r="F39" s="53"/>
+      <c r="G39" s="53"/>
+      <c r="H39" s="53"/>
+      <c r="I39" s="53"/>
+      <c r="J39" s="53"/>
+      <c r="K39" s="53"/>
+      <c r="L39" s="53"/>
+      <c r="M39" s="53"/>
+      <c r="N39" s="53"/>
+      <c r="O39" s="53"/>
+      <c r="P39" s="53"/>
+      <c r="Q39" s="53"/>
+      <c r="R39" s="53"/>
+      <c r="S39" s="53"/>
+      <c r="T39" s="53"/>
+      <c r="U39" s="53"/>
+      <c r="V39" s="53"/>
+      <c r="W39" s="53"/>
+      <c r="X39" s="53"/>
+      <c r="Y39" s="54"/>
     </row>
     <row r="40" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="53" t="s">
-        <v>89</v>
-      </c>
-      <c r="B40" s="51"/>
-      <c r="C40" s="51"/>
-      <c r="D40" s="51"/>
-      <c r="E40" s="51"/>
-      <c r="F40" s="51"/>
-      <c r="G40" s="51"/>
-      <c r="H40" s="51"/>
-      <c r="I40" s="51"/>
-      <c r="J40" s="51"/>
-      <c r="K40" s="51"/>
-      <c r="L40" s="51"/>
-      <c r="M40" s="51"/>
-      <c r="N40" s="51"/>
-      <c r="O40" s="51"/>
-      <c r="P40" s="51"/>
-      <c r="Q40" s="51"/>
-      <c r="R40" s="51"/>
-      <c r="S40" s="51"/>
-      <c r="T40" s="51"/>
-      <c r="U40" s="51"/>
-      <c r="V40" s="51"/>
-      <c r="W40" s="51"/>
-      <c r="X40" s="51"/>
-      <c r="Y40" s="52"/>
+      <c r="A40" s="55" t="s">
+        <v>131</v>
+      </c>
+      <c r="B40" s="53"/>
+      <c r="C40" s="53"/>
+      <c r="D40" s="53"/>
+      <c r="E40" s="53"/>
+      <c r="F40" s="53"/>
+      <c r="G40" s="53"/>
+      <c r="H40" s="53"/>
+      <c r="I40" s="53"/>
+      <c r="J40" s="53"/>
+      <c r="K40" s="53"/>
+      <c r="L40" s="53"/>
+      <c r="M40" s="53"/>
+      <c r="N40" s="53"/>
+      <c r="O40" s="53"/>
+      <c r="P40" s="53"/>
+      <c r="Q40" s="53"/>
+      <c r="R40" s="53"/>
+      <c r="S40" s="53"/>
+      <c r="T40" s="53"/>
+      <c r="U40" s="53"/>
+      <c r="V40" s="53"/>
+      <c r="W40" s="53"/>
+      <c r="X40" s="53"/>
+      <c r="Y40" s="54"/>
     </row>
     <row r="41" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="49" t="s">
-        <v>90</v>
-      </c>
-      <c r="B41" s="49"/>
-      <c r="C41" s="49"/>
-      <c r="D41" s="49"/>
-      <c r="E41" s="49"/>
-      <c r="F41" s="49"/>
-      <c r="G41" s="49"/>
-      <c r="H41" s="49"/>
-      <c r="I41" s="49"/>
-      <c r="J41" s="49"/>
-      <c r="K41" s="49"/>
-      <c r="L41" s="49"/>
-      <c r="M41" s="49"/>
-      <c r="N41" s="49"/>
-      <c r="O41" s="49"/>
-      <c r="P41" s="49"/>
-      <c r="Q41" s="49"/>
-      <c r="R41" s="49"/>
-      <c r="S41" s="49"/>
-      <c r="T41" s="49"/>
-      <c r="U41" s="49"/>
-      <c r="V41" s="49"/>
-      <c r="W41" s="49"/>
-      <c r="X41" s="49"/>
-      <c r="Y41" s="49"/>
+      <c r="A41" s="51" t="s">
+        <v>132</v>
+      </c>
+      <c r="B41" s="51"/>
+      <c r="C41" s="51"/>
+      <c r="D41" s="51"/>
+      <c r="E41" s="51"/>
+      <c r="F41" s="51"/>
+      <c r="G41" s="51"/>
+      <c r="H41" s="51"/>
+      <c r="I41" s="51"/>
+      <c r="J41" s="51"/>
+      <c r="K41" s="51"/>
+      <c r="L41" s="51"/>
+      <c r="M41" s="51"/>
+      <c r="N41" s="51"/>
+      <c r="O41" s="51"/>
+      <c r="P41" s="51"/>
+      <c r="Q41" s="51"/>
+      <c r="R41" s="51"/>
+      <c r="S41" s="51"/>
+      <c r="T41" s="51"/>
+      <c r="U41" s="51"/>
+      <c r="V41" s="51"/>
+      <c r="W41" s="51"/>
+      <c r="X41" s="51"/>
+      <c r="Y41" s="51"/>
     </row>
     <row r="42" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="50" t="s">
-        <v>91</v>
-      </c>
-      <c r="B42" s="51"/>
-      <c r="C42" s="51"/>
-      <c r="D42" s="51"/>
-      <c r="E42" s="51"/>
-      <c r="F42" s="51"/>
-      <c r="G42" s="51"/>
-      <c r="H42" s="51"/>
-      <c r="I42" s="51"/>
-      <c r="J42" s="51"/>
-      <c r="K42" s="51"/>
-      <c r="L42" s="51"/>
-      <c r="M42" s="51"/>
-      <c r="N42" s="51"/>
-      <c r="O42" s="51"/>
-      <c r="P42" s="51"/>
-      <c r="Q42" s="51"/>
-      <c r="R42" s="51"/>
-      <c r="S42" s="51"/>
-      <c r="T42" s="51"/>
-      <c r="U42" s="51"/>
-      <c r="V42" s="51"/>
-      <c r="W42" s="51"/>
-      <c r="X42" s="51"/>
-      <c r="Y42" s="52"/>
+      <c r="A42" s="52" t="s">
+        <v>133</v>
+      </c>
+      <c r="B42" s="53"/>
+      <c r="C42" s="53"/>
+      <c r="D42" s="53"/>
+      <c r="E42" s="53"/>
+      <c r="F42" s="53"/>
+      <c r="G42" s="53"/>
+      <c r="H42" s="53"/>
+      <c r="I42" s="53"/>
+      <c r="J42" s="53"/>
+      <c r="K42" s="53"/>
+      <c r="L42" s="53"/>
+      <c r="M42" s="53"/>
+      <c r="N42" s="53"/>
+      <c r="O42" s="53"/>
+      <c r="P42" s="53"/>
+      <c r="Q42" s="53"/>
+      <c r="R42" s="53"/>
+      <c r="S42" s="53"/>
+      <c r="T42" s="53"/>
+      <c r="U42" s="53"/>
+      <c r="V42" s="53"/>
+      <c r="W42" s="53"/>
+      <c r="X42" s="53"/>
+      <c r="Y42" s="54"/>
     </row>
     <row r="43" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="50" t="s">
-        <v>92</v>
-      </c>
-      <c r="B43" s="51"/>
-      <c r="C43" s="51"/>
-      <c r="D43" s="51"/>
-      <c r="E43" s="51"/>
-      <c r="F43" s="51"/>
-      <c r="G43" s="51"/>
-      <c r="H43" s="51"/>
-      <c r="I43" s="51"/>
-      <c r="J43" s="51"/>
-      <c r="K43" s="51"/>
-      <c r="L43" s="51"/>
-      <c r="M43" s="51"/>
-      <c r="N43" s="51"/>
-      <c r="O43" s="51"/>
-      <c r="P43" s="51"/>
-      <c r="Q43" s="51"/>
-      <c r="R43" s="51"/>
-      <c r="S43" s="51"/>
-      <c r="T43" s="51"/>
-      <c r="U43" s="51"/>
-      <c r="V43" s="51"/>
-      <c r="W43" s="51"/>
-      <c r="X43" s="51"/>
-      <c r="Y43" s="52"/>
+      <c r="A43" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="B43" s="53"/>
+      <c r="C43" s="53"/>
+      <c r="D43" s="53"/>
+      <c r="E43" s="53"/>
+      <c r="F43" s="53"/>
+      <c r="G43" s="53"/>
+      <c r="H43" s="53"/>
+      <c r="I43" s="53"/>
+      <c r="J43" s="53"/>
+      <c r="K43" s="53"/>
+      <c r="L43" s="53"/>
+      <c r="M43" s="53"/>
+      <c r="N43" s="53"/>
+      <c r="O43" s="53"/>
+      <c r="P43" s="53"/>
+      <c r="Q43" s="53"/>
+      <c r="R43" s="53"/>
+      <c r="S43" s="53"/>
+      <c r="T43" s="53"/>
+      <c r="U43" s="53"/>
+      <c r="V43" s="53"/>
+      <c r="W43" s="53"/>
+      <c r="X43" s="53"/>
+      <c r="Y43" s="54"/>
     </row>
     <row r="44" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="50" t="s">
-        <v>93</v>
-      </c>
-      <c r="B44" s="51"/>
-      <c r="C44" s="51"/>
-      <c r="D44" s="51"/>
-      <c r="E44" s="51"/>
-      <c r="F44" s="51"/>
-      <c r="G44" s="51"/>
-      <c r="H44" s="51"/>
-      <c r="I44" s="51"/>
-      <c r="J44" s="51"/>
-      <c r="K44" s="51"/>
-      <c r="L44" s="51"/>
-      <c r="M44" s="51"/>
-      <c r="N44" s="51"/>
-      <c r="O44" s="51"/>
-      <c r="P44" s="51"/>
-      <c r="Q44" s="51"/>
-      <c r="R44" s="51"/>
-      <c r="S44" s="51"/>
-      <c r="T44" s="51"/>
-      <c r="U44" s="51"/>
-      <c r="V44" s="51"/>
-      <c r="W44" s="51"/>
-      <c r="X44" s="51"/>
-      <c r="Y44" s="52"/>
+      <c r="A44" s="52" t="s">
+        <v>135</v>
+      </c>
+      <c r="B44" s="53"/>
+      <c r="C44" s="53"/>
+      <c r="D44" s="53"/>
+      <c r="E44" s="53"/>
+      <c r="F44" s="53"/>
+      <c r="G44" s="53"/>
+      <c r="H44" s="53"/>
+      <c r="I44" s="53"/>
+      <c r="J44" s="53"/>
+      <c r="K44" s="53"/>
+      <c r="L44" s="53"/>
+      <c r="M44" s="53"/>
+      <c r="N44" s="53"/>
+      <c r="O44" s="53"/>
+      <c r="P44" s="53"/>
+      <c r="Q44" s="53"/>
+      <c r="R44" s="53"/>
+      <c r="S44" s="53"/>
+      <c r="T44" s="53"/>
+      <c r="U44" s="53"/>
+      <c r="V44" s="53"/>
+      <c r="W44" s="53"/>
+      <c r="X44" s="53"/>
+      <c r="Y44" s="54"/>
     </row>
     <row r="45" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="50"/>
-      <c r="B45" s="51"/>
-      <c r="C45" s="51"/>
-      <c r="D45" s="51"/>
-      <c r="E45" s="51"/>
-      <c r="F45" s="51"/>
-      <c r="G45" s="51"/>
-      <c r="H45" s="51"/>
-      <c r="I45" s="51"/>
-      <c r="J45" s="51"/>
-      <c r="K45" s="51"/>
-      <c r="L45" s="51"/>
-      <c r="M45" s="51"/>
-      <c r="N45" s="51"/>
-      <c r="O45" s="51"/>
-      <c r="P45" s="51"/>
-      <c r="Q45" s="51"/>
-      <c r="R45" s="51"/>
-      <c r="S45" s="51"/>
-      <c r="T45" s="51"/>
-      <c r="U45" s="51"/>
-      <c r="V45" s="51"/>
-      <c r="W45" s="51"/>
-      <c r="X45" s="51"/>
-      <c r="Y45" s="52"/>
+      <c r="A45" s="52"/>
+      <c r="B45" s="53"/>
+      <c r="C45" s="53"/>
+      <c r="D45" s="53"/>
+      <c r="E45" s="53"/>
+      <c r="F45" s="53"/>
+      <c r="G45" s="53"/>
+      <c r="H45" s="53"/>
+      <c r="I45" s="53"/>
+      <c r="J45" s="53"/>
+      <c r="K45" s="53"/>
+      <c r="L45" s="53"/>
+      <c r="M45" s="53"/>
+      <c r="N45" s="53"/>
+      <c r="O45" s="53"/>
+      <c r="P45" s="53"/>
+      <c r="Q45" s="53"/>
+      <c r="R45" s="53"/>
+      <c r="S45" s="53"/>
+      <c r="T45" s="53"/>
+      <c r="U45" s="53"/>
+      <c r="V45" s="53"/>
+      <c r="W45" s="53"/>
+      <c r="X45" s="53"/>
+      <c r="Y45" s="54"/>
     </row>
     <row r="46" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="50"/>
-      <c r="B46" s="51"/>
-      <c r="C46" s="51"/>
-      <c r="D46" s="51"/>
-      <c r="E46" s="51"/>
-      <c r="F46" s="51"/>
-      <c r="G46" s="51"/>
-      <c r="H46" s="51"/>
-      <c r="I46" s="51"/>
-      <c r="J46" s="51"/>
-      <c r="K46" s="51"/>
-      <c r="L46" s="51"/>
-      <c r="M46" s="51"/>
-      <c r="N46" s="51"/>
-      <c r="O46" s="51"/>
-      <c r="P46" s="51"/>
-      <c r="Q46" s="51"/>
-      <c r="R46" s="51"/>
-      <c r="S46" s="51"/>
-      <c r="T46" s="51"/>
-      <c r="U46" s="51"/>
-      <c r="V46" s="51"/>
-      <c r="W46" s="51"/>
-      <c r="X46" s="51"/>
-      <c r="Y46" s="52"/>
+      <c r="A46" s="52"/>
+      <c r="B46" s="53"/>
+      <c r="C46" s="53"/>
+      <c r="D46" s="53"/>
+      <c r="E46" s="53"/>
+      <c r="F46" s="53"/>
+      <c r="G46" s="53"/>
+      <c r="H46" s="53"/>
+      <c r="I46" s="53"/>
+      <c r="J46" s="53"/>
+      <c r="K46" s="53"/>
+      <c r="L46" s="53"/>
+      <c r="M46" s="53"/>
+      <c r="N46" s="53"/>
+      <c r="O46" s="53"/>
+      <c r="P46" s="53"/>
+      <c r="Q46" s="53"/>
+      <c r="R46" s="53"/>
+      <c r="S46" s="53"/>
+      <c r="T46" s="53"/>
+      <c r="U46" s="53"/>
+      <c r="V46" s="53"/>
+      <c r="W46" s="53"/>
+      <c r="X46" s="53"/>
+      <c r="Y46" s="54"/>
     </row>
     <row r="47" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="49" t="s">
-        <v>94</v>
-      </c>
-      <c r="B47" s="49"/>
-      <c r="C47" s="49"/>
-      <c r="D47" s="49"/>
-      <c r="E47" s="49"/>
-      <c r="F47" s="49"/>
-      <c r="G47" s="49"/>
-      <c r="H47" s="49"/>
-      <c r="I47" s="49"/>
-      <c r="J47" s="49"/>
-      <c r="K47" s="49"/>
-      <c r="L47" s="49"/>
-      <c r="M47" s="49"/>
-      <c r="N47" s="49"/>
-      <c r="O47" s="49"/>
-      <c r="P47" s="49"/>
-      <c r="Q47" s="49"/>
-      <c r="R47" s="49"/>
-      <c r="S47" s="49"/>
-      <c r="T47" s="49"/>
-      <c r="U47" s="49"/>
-      <c r="V47" s="49"/>
-      <c r="W47" s="49"/>
-      <c r="X47" s="49"/>
-      <c r="Y47" s="49"/>
+      <c r="A47" s="51" t="s">
+        <v>136</v>
+      </c>
+      <c r="B47" s="51"/>
+      <c r="C47" s="51"/>
+      <c r="D47" s="51"/>
+      <c r="E47" s="51"/>
+      <c r="F47" s="51"/>
+      <c r="G47" s="51"/>
+      <c r="H47" s="51"/>
+      <c r="I47" s="51"/>
+      <c r="J47" s="51"/>
+      <c r="K47" s="51"/>
+      <c r="L47" s="51"/>
+      <c r="M47" s="51"/>
+      <c r="N47" s="51"/>
+      <c r="O47" s="51"/>
+      <c r="P47" s="51"/>
+      <c r="Q47" s="51"/>
+      <c r="R47" s="51"/>
+      <c r="S47" s="51"/>
+      <c r="T47" s="51"/>
+      <c r="U47" s="51"/>
+      <c r="V47" s="51"/>
+      <c r="W47" s="51"/>
+      <c r="X47" s="51"/>
+      <c r="Y47" s="51"/>
     </row>
     <row r="48" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="50"/>
-      <c r="B48" s="51"/>
-      <c r="C48" s="51"/>
-      <c r="D48" s="51"/>
-      <c r="E48" s="51"/>
-      <c r="F48" s="51"/>
-      <c r="G48" s="51"/>
-      <c r="H48" s="51"/>
-      <c r="I48" s="51"/>
-      <c r="J48" s="51"/>
-      <c r="K48" s="51"/>
-      <c r="L48" s="51"/>
-      <c r="M48" s="51"/>
-      <c r="N48" s="51"/>
-      <c r="O48" s="51"/>
-      <c r="P48" s="51"/>
-      <c r="Q48" s="51"/>
-      <c r="R48" s="51"/>
-      <c r="S48" s="51"/>
-      <c r="T48" s="51"/>
-      <c r="U48" s="51"/>
-      <c r="V48" s="51"/>
-      <c r="W48" s="51"/>
-      <c r="X48" s="51"/>
-      <c r="Y48" s="52"/>
+      <c r="A48" s="52"/>
+      <c r="B48" s="53"/>
+      <c r="C48" s="53"/>
+      <c r="D48" s="53"/>
+      <c r="E48" s="53"/>
+      <c r="F48" s="53"/>
+      <c r="G48" s="53"/>
+      <c r="H48" s="53"/>
+      <c r="I48" s="53"/>
+      <c r="J48" s="53"/>
+      <c r="K48" s="53"/>
+      <c r="L48" s="53"/>
+      <c r="M48" s="53"/>
+      <c r="N48" s="53"/>
+      <c r="O48" s="53"/>
+      <c r="P48" s="53"/>
+      <c r="Q48" s="53"/>
+      <c r="R48" s="53"/>
+      <c r="S48" s="53"/>
+      <c r="T48" s="53"/>
+      <c r="U48" s="53"/>
+      <c r="V48" s="53"/>
+      <c r="W48" s="53"/>
+      <c r="X48" s="53"/>
+      <c r="Y48" s="54"/>
     </row>
     <row r="49" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="50"/>
-      <c r="B49" s="51"/>
-      <c r="C49" s="51"/>
-      <c r="D49" s="51"/>
-      <c r="E49" s="51"/>
-      <c r="F49" s="51"/>
-      <c r="G49" s="51"/>
-      <c r="H49" s="51"/>
-      <c r="I49" s="51"/>
-      <c r="J49" s="51"/>
-      <c r="K49" s="51"/>
-      <c r="L49" s="51"/>
-      <c r="M49" s="51"/>
-      <c r="N49" s="51"/>
-      <c r="O49" s="51"/>
-      <c r="P49" s="51"/>
-      <c r="Q49" s="51"/>
-      <c r="R49" s="51"/>
-      <c r="S49" s="51"/>
-      <c r="T49" s="51"/>
-      <c r="U49" s="51"/>
-      <c r="V49" s="51"/>
-      <c r="W49" s="51"/>
-      <c r="X49" s="51"/>
-      <c r="Y49" s="52"/>
+      <c r="A49" s="52"/>
+      <c r="B49" s="53"/>
+      <c r="C49" s="53"/>
+      <c r="D49" s="53"/>
+      <c r="E49" s="53"/>
+      <c r="F49" s="53"/>
+      <c r="G49" s="53"/>
+      <c r="H49" s="53"/>
+      <c r="I49" s="53"/>
+      <c r="J49" s="53"/>
+      <c r="K49" s="53"/>
+      <c r="L49" s="53"/>
+      <c r="M49" s="53"/>
+      <c r="N49" s="53"/>
+      <c r="O49" s="53"/>
+      <c r="P49" s="53"/>
+      <c r="Q49" s="53"/>
+      <c r="R49" s="53"/>
+      <c r="S49" s="53"/>
+      <c r="T49" s="53"/>
+      <c r="U49" s="53"/>
+      <c r="V49" s="53"/>
+      <c r="W49" s="53"/>
+      <c r="X49" s="53"/>
+      <c r="Y49" s="54"/>
     </row>
     <row r="50" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="50" t="s">
-        <v>95</v>
-      </c>
-      <c r="B50" s="51"/>
-      <c r="C50" s="51"/>
-      <c r="D50" s="51"/>
-      <c r="E50" s="51"/>
-      <c r="F50" s="51"/>
-      <c r="G50" s="51"/>
-      <c r="H50" s="51"/>
-      <c r="I50" s="51"/>
-      <c r="J50" s="51"/>
-      <c r="K50" s="51"/>
-      <c r="L50" s="51"/>
-      <c r="M50" s="51"/>
-      <c r="N50" s="51"/>
-      <c r="O50" s="51"/>
-      <c r="P50" s="51"/>
-      <c r="Q50" s="51"/>
-      <c r="R50" s="51"/>
-      <c r="S50" s="51"/>
-      <c r="T50" s="51"/>
-      <c r="U50" s="51"/>
-      <c r="V50" s="51"/>
-      <c r="W50" s="51"/>
-      <c r="X50" s="51"/>
-      <c r="Y50" s="52"/>
+      <c r="A50" s="52" t="s">
+        <v>137</v>
+      </c>
+      <c r="B50" s="53"/>
+      <c r="C50" s="53"/>
+      <c r="D50" s="53"/>
+      <c r="E50" s="53"/>
+      <c r="F50" s="53"/>
+      <c r="G50" s="53"/>
+      <c r="H50" s="53"/>
+      <c r="I50" s="53"/>
+      <c r="J50" s="53"/>
+      <c r="K50" s="53"/>
+      <c r="L50" s="53"/>
+      <c r="M50" s="53"/>
+      <c r="N50" s="53"/>
+      <c r="O50" s="53"/>
+      <c r="P50" s="53"/>
+      <c r="Q50" s="53"/>
+      <c r="R50" s="53"/>
+      <c r="S50" s="53"/>
+      <c r="T50" s="53"/>
+      <c r="U50" s="53"/>
+      <c r="V50" s="53"/>
+      <c r="W50" s="53"/>
+      <c r="X50" s="53"/>
+      <c r="Y50" s="54"/>
     </row>
     <row r="51" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="49" t="s">
-        <v>96</v>
-      </c>
-      <c r="B51" s="49"/>
-      <c r="C51" s="49"/>
-      <c r="D51" s="49"/>
-      <c r="E51" s="49"/>
-      <c r="F51" s="49"/>
-      <c r="G51" s="49"/>
-      <c r="H51" s="49"/>
-      <c r="I51" s="49"/>
-      <c r="J51" s="49"/>
-      <c r="K51" s="49"/>
-      <c r="L51" s="49"/>
-      <c r="M51" s="49"/>
-      <c r="N51" s="49"/>
-      <c r="O51" s="49"/>
-      <c r="P51" s="49"/>
-      <c r="Q51" s="49"/>
-      <c r="R51" s="49"/>
-      <c r="S51" s="49"/>
-      <c r="T51" s="49"/>
-      <c r="U51" s="49"/>
-      <c r="V51" s="49"/>
-      <c r="W51" s="49"/>
-      <c r="X51" s="49"/>
-      <c r="Y51" s="49"/>
+      <c r="A51" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="B51" s="51"/>
+      <c r="C51" s="51"/>
+      <c r="D51" s="51"/>
+      <c r="E51" s="51"/>
+      <c r="F51" s="51"/>
+      <c r="G51" s="51"/>
+      <c r="H51" s="51"/>
+      <c r="I51" s="51"/>
+      <c r="J51" s="51"/>
+      <c r="K51" s="51"/>
+      <c r="L51" s="51"/>
+      <c r="M51" s="51"/>
+      <c r="N51" s="51"/>
+      <c r="O51" s="51"/>
+      <c r="P51" s="51"/>
+      <c r="Q51" s="51"/>
+      <c r="R51" s="51"/>
+      <c r="S51" s="51"/>
+      <c r="T51" s="51"/>
+      <c r="U51" s="51"/>
+      <c r="V51" s="51"/>
+      <c r="W51" s="51"/>
+      <c r="X51" s="51"/>
+      <c r="Y51" s="51"/>
     </row>
     <row r="52" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="54" t="s">
-        <v>97</v>
-      </c>
-      <c r="B52" s="51"/>
-      <c r="C52" s="51"/>
-      <c r="D52" s="51"/>
-      <c r="E52" s="51"/>
-      <c r="F52" s="51"/>
-      <c r="G52" s="51"/>
-      <c r="H52" s="51"/>
-      <c r="I52" s="51"/>
-      <c r="J52" s="51"/>
-      <c r="K52" s="51"/>
-      <c r="L52" s="51"/>
-      <c r="M52" s="51"/>
-      <c r="N52" s="51"/>
-      <c r="O52" s="51"/>
-      <c r="P52" s="51"/>
-      <c r="Q52" s="51"/>
-      <c r="R52" s="51"/>
-      <c r="S52" s="51"/>
-      <c r="T52" s="51"/>
-      <c r="U52" s="51"/>
-      <c r="V52" s="51"/>
-      <c r="W52" s="51"/>
-      <c r="X52" s="51"/>
-      <c r="Y52" s="52"/>
+      <c r="A52" s="56" t="s">
+        <v>139</v>
+      </c>
+      <c r="B52" s="53"/>
+      <c r="C52" s="53"/>
+      <c r="D52" s="53"/>
+      <c r="E52" s="53"/>
+      <c r="F52" s="53"/>
+      <c r="G52" s="53"/>
+      <c r="H52" s="53"/>
+      <c r="I52" s="53"/>
+      <c r="J52" s="53"/>
+      <c r="K52" s="53"/>
+      <c r="L52" s="53"/>
+      <c r="M52" s="53"/>
+      <c r="N52" s="53"/>
+      <c r="O52" s="53"/>
+      <c r="P52" s="53"/>
+      <c r="Q52" s="53"/>
+      <c r="R52" s="53"/>
+      <c r="S52" s="53"/>
+      <c r="T52" s="53"/>
+      <c r="U52" s="53"/>
+      <c r="V52" s="53"/>
+      <c r="W52" s="53"/>
+      <c r="X52" s="53"/>
+      <c r="Y52" s="54"/>
     </row>
     <row r="53" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="54" t="s">
-        <v>98</v>
-      </c>
-      <c r="B53" s="51"/>
-      <c r="C53" s="51"/>
-      <c r="D53" s="51"/>
-      <c r="E53" s="51"/>
-      <c r="F53" s="51"/>
-      <c r="G53" s="51"/>
-      <c r="H53" s="51"/>
-      <c r="I53" s="51"/>
-      <c r="J53" s="51"/>
-      <c r="K53" s="51"/>
-      <c r="L53" s="51"/>
-      <c r="M53" s="51"/>
-      <c r="N53" s="51"/>
-      <c r="O53" s="51"/>
-      <c r="P53" s="51"/>
-      <c r="Q53" s="51"/>
-      <c r="R53" s="51"/>
-      <c r="S53" s="51"/>
-      <c r="T53" s="51"/>
-      <c r="U53" s="51"/>
-      <c r="V53" s="51"/>
-      <c r="W53" s="51"/>
-      <c r="X53" s="51"/>
-      <c r="Y53" s="52"/>
+      <c r="A53" s="56" t="s">
+        <v>140</v>
+      </c>
+      <c r="B53" s="53"/>
+      <c r="C53" s="53"/>
+      <c r="D53" s="53"/>
+      <c r="E53" s="53"/>
+      <c r="F53" s="53"/>
+      <c r="G53" s="53"/>
+      <c r="H53" s="53"/>
+      <c r="I53" s="53"/>
+      <c r="J53" s="53"/>
+      <c r="K53" s="53"/>
+      <c r="L53" s="53"/>
+      <c r="M53" s="53"/>
+      <c r="N53" s="53"/>
+      <c r="O53" s="53"/>
+      <c r="P53" s="53"/>
+      <c r="Q53" s="53"/>
+      <c r="R53" s="53"/>
+      <c r="S53" s="53"/>
+      <c r="T53" s="53"/>
+      <c r="U53" s="53"/>
+      <c r="V53" s="53"/>
+      <c r="W53" s="53"/>
+      <c r="X53" s="53"/>
+      <c r="Y53" s="54"/>
     </row>
     <row r="54" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="54" t="s">
-        <v>99</v>
-      </c>
-      <c r="B54" s="51"/>
-      <c r="C54" s="51"/>
-      <c r="D54" s="51"/>
-      <c r="E54" s="51"/>
-      <c r="F54" s="51"/>
-      <c r="G54" s="51"/>
-      <c r="H54" s="51"/>
-      <c r="I54" s="51"/>
-      <c r="J54" s="51"/>
-      <c r="K54" s="51"/>
-      <c r="L54" s="51"/>
-      <c r="M54" s="51"/>
-      <c r="N54" s="51"/>
-      <c r="O54" s="51"/>
-      <c r="P54" s="51"/>
-      <c r="Q54" s="51"/>
-      <c r="R54" s="51"/>
-      <c r="S54" s="51"/>
-      <c r="T54" s="51"/>
-      <c r="U54" s="51"/>
-      <c r="V54" s="51"/>
-      <c r="W54" s="51"/>
-      <c r="X54" s="51"/>
-      <c r="Y54" s="52"/>
+      <c r="A54" s="56" t="s">
+        <v>141</v>
+      </c>
+      <c r="B54" s="53"/>
+      <c r="C54" s="53"/>
+      <c r="D54" s="53"/>
+      <c r="E54" s="53"/>
+      <c r="F54" s="53"/>
+      <c r="G54" s="53"/>
+      <c r="H54" s="53"/>
+      <c r="I54" s="53"/>
+      <c r="J54" s="53"/>
+      <c r="K54" s="53"/>
+      <c r="L54" s="53"/>
+      <c r="M54" s="53"/>
+      <c r="N54" s="53"/>
+      <c r="O54" s="53"/>
+      <c r="P54" s="53"/>
+      <c r="Q54" s="53"/>
+      <c r="R54" s="53"/>
+      <c r="S54" s="53"/>
+      <c r="T54" s="53"/>
+      <c r="U54" s="53"/>
+      <c r="V54" s="53"/>
+      <c r="W54" s="53"/>
+      <c r="X54" s="53"/>
+      <c r="Y54" s="54"/>
     </row>
     <row r="55" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="50"/>
-      <c r="B55" s="51"/>
-      <c r="C55" s="51"/>
-      <c r="D55" s="51"/>
-      <c r="E55" s="51"/>
-      <c r="F55" s="51"/>
-      <c r="G55" s="51"/>
-      <c r="H55" s="51"/>
-      <c r="I55" s="51"/>
-      <c r="J55" s="51"/>
-      <c r="K55" s="51"/>
-      <c r="L55" s="51"/>
-      <c r="M55" s="51"/>
-      <c r="N55" s="51"/>
-      <c r="O55" s="51"/>
-      <c r="P55" s="51"/>
-      <c r="Q55" s="51"/>
-      <c r="R55" s="51"/>
-      <c r="S55" s="51"/>
-      <c r="T55" s="51"/>
-      <c r="U55" s="51"/>
-      <c r="V55" s="51"/>
-      <c r="W55" s="51"/>
-      <c r="X55" s="51"/>
-      <c r="Y55" s="52"/>
+      <c r="A55" s="52"/>
+      <c r="B55" s="53"/>
+      <c r="C55" s="53"/>
+      <c r="D55" s="53"/>
+      <c r="E55" s="53"/>
+      <c r="F55" s="53"/>
+      <c r="G55" s="53"/>
+      <c r="H55" s="53"/>
+      <c r="I55" s="53"/>
+      <c r="J55" s="53"/>
+      <c r="K55" s="53"/>
+      <c r="L55" s="53"/>
+      <c r="M55" s="53"/>
+      <c r="N55" s="53"/>
+      <c r="O55" s="53"/>
+      <c r="P55" s="53"/>
+      <c r="Q55" s="53"/>
+      <c r="R55" s="53"/>
+      <c r="S55" s="53"/>
+      <c r="T55" s="53"/>
+      <c r="U55" s="53"/>
+      <c r="V55" s="53"/>
+      <c r="W55" s="53"/>
+      <c r="X55" s="53"/>
+      <c r="Y55" s="54"/>
     </row>
     <row r="56" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="55" t="s">
-        <v>100</v>
-      </c>
-      <c r="B56" s="51"/>
-      <c r="C56" s="51"/>
-      <c r="D56" s="51"/>
-      <c r="E56" s="51"/>
-      <c r="F56" s="51"/>
-      <c r="G56" s="51"/>
-      <c r="H56" s="51"/>
-      <c r="I56" s="51"/>
-      <c r="J56" s="51"/>
-      <c r="K56" s="51"/>
-      <c r="L56" s="51"/>
-      <c r="M56" s="51"/>
-      <c r="N56" s="51"/>
-      <c r="O56" s="51"/>
-      <c r="P56" s="51"/>
-      <c r="Q56" s="51"/>
-      <c r="R56" s="51"/>
-      <c r="S56" s="51"/>
-      <c r="T56" s="51"/>
-      <c r="U56" s="51"/>
-      <c r="V56" s="51"/>
-      <c r="W56" s="51"/>
-      <c r="X56" s="51"/>
-      <c r="Y56" s="52"/>
+      <c r="A56" s="57" t="s">
+        <v>142</v>
+      </c>
+      <c r="B56" s="53"/>
+      <c r="C56" s="53"/>
+      <c r="D56" s="53"/>
+      <c r="E56" s="53"/>
+      <c r="F56" s="53"/>
+      <c r="G56" s="53"/>
+      <c r="H56" s="53"/>
+      <c r="I56" s="53"/>
+      <c r="J56" s="53"/>
+      <c r="K56" s="53"/>
+      <c r="L56" s="53"/>
+      <c r="M56" s="53"/>
+      <c r="N56" s="53"/>
+      <c r="O56" s="53"/>
+      <c r="P56" s="53"/>
+      <c r="Q56" s="53"/>
+      <c r="R56" s="53"/>
+      <c r="S56" s="53"/>
+      <c r="T56" s="53"/>
+      <c r="U56" s="53"/>
+      <c r="V56" s="53"/>
+      <c r="W56" s="53"/>
+      <c r="X56" s="53"/>
+      <c r="Y56" s="54"/>
     </row>
     <row r="57" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="56" t="s">
-        <v>101</v>
-      </c>
-      <c r="B57" s="57"/>
-      <c r="C57" s="57"/>
-      <c r="D57" s="57"/>
-      <c r="E57" s="57"/>
-      <c r="F57" s="57"/>
-      <c r="G57" s="57"/>
-      <c r="H57" s="57"/>
-      <c r="I57" s="57"/>
-      <c r="J57" s="57"/>
-      <c r="K57" s="57"/>
-      <c r="L57" s="57"/>
-      <c r="M57" s="57"/>
-      <c r="N57" s="57"/>
-      <c r="O57" s="57"/>
-      <c r="P57" s="57"/>
-      <c r="Q57" s="57"/>
-      <c r="R57" s="57"/>
-      <c r="S57" s="57"/>
-      <c r="T57" s="57"/>
-      <c r="U57" s="57"/>
-      <c r="V57" s="57"/>
-      <c r="W57" s="57"/>
-      <c r="X57" s="57"/>
-      <c r="Y57" s="58"/>
+      <c r="A57" s="58" t="s">
+        <v>143</v>
+      </c>
+      <c r="B57" s="59"/>
+      <c r="C57" s="59"/>
+      <c r="D57" s="59"/>
+      <c r="E57" s="59"/>
+      <c r="F57" s="59"/>
+      <c r="G57" s="59"/>
+      <c r="H57" s="59"/>
+      <c r="I57" s="59"/>
+      <c r="J57" s="59"/>
+      <c r="K57" s="59"/>
+      <c r="L57" s="59"/>
+      <c r="M57" s="59"/>
+      <c r="N57" s="59"/>
+      <c r="O57" s="59"/>
+      <c r="P57" s="59"/>
+      <c r="Q57" s="59"/>
+      <c r="R57" s="59"/>
+      <c r="S57" s="59"/>
+      <c r="T57" s="59"/>
+      <c r="U57" s="59"/>
+      <c r="V57" s="59"/>
+      <c r="W57" s="59"/>
+      <c r="X57" s="59"/>
+      <c r="Y57" s="60"/>
     </row>
     <row r="58" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="59"/>
+      <c r="A58" s="61"/>
     </row>
     <row r="59" customFormat="false" ht="141.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="60" t="s">
-        <v>102</v>
+      <c r="A59" s="62" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/resources/report_template.xlsx
+++ b/resources/report_template.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="169">
   <si>
     <t>Région</t>
   </si>
@@ -85,6 +85,78 @@
   </si>
   <si>
     <t>Nombre d’adultes et d’enfants  chez qui on a initié la TARV au cours de la période de raportage (B)</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_STARTED_DURING_PERIOD', gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_STARTED_DURING_PERIOD', gender: 1}</t>
+  </si>
+  <si>
+    <t>{key:'ARV_STARTED_DURING_PERIOD', age_max: 15}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_STARTED_DURING_PERIOD', age_min: 15}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_STARTED_DURING_PERIOD'}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_STARTED_DURING_PERIOD', age_max: 15, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_STARTED_DURING_PERIOD', age_max: 15, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_STARTED_DURING_PERIOD', age_min: 15, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_STARTED_DURING_PERIOD', age_min: 15, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_STARTED_DURING_PERIOD', age_max: 1, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_STARTED_DURING_PERIOD', age_max: 1, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_STARTED_DURING_PERIOD', age_min: 1, age_max: 4, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_STARTED_DURING_PERIOD', age_min: 5, age_max: 9, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_STARTED_DURING_PERIOD', age_min: 5, age_max: 9, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_STARTED_DURING_PERIOD', age_min: 10, age_max: 14, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_STARTED_DURING_PERIOD', age_min: 10, age_max: 14, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_STARTED_DURING_PERIOD', age_min: 15, age_max: 19, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_STARTED_DURING_PERIOD', age_min: 15, age_max: 19, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_STARTED_DURING_PERIOD', age_min: 20, age_max: 24, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_STARTED_DURING_PERIOD', age_min: 20, age_max: 24, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_STARTED_DURING_PERIOD', age_min: 25, age_max: 49, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_STARTED_DURING_PERIOD', age_min: 25, age_max: 49, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_STARTED_DURING_PERIOD', age_min: 50, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_STARTED_DURING_PERIOD', age_min: 50, gender: 1}</t>
   </si>
   <si>
     <t>Nombre d’adultes et d’enfants déjà sous TARV  reçus dans le centre en provenance d'un autre centre de traitement au cours dau cours de la période de raportage (C)</t>
@@ -606,13 +678,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -622,6 +687,13 @@
       <color rgb="FF000000"/>
       <name val="Arial Narrow"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -973,11 +1045,23 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="5" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -998,18 +1082,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="8" fillId="2" borderId="5" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="5" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1262,8 +1334,8 @@
   </sheetPr>
   <dimension ref="A1:AB57"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K16" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AB21" activeCellId="0" sqref="AB21"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1317,7 +1389,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -1554,41 +1626,95 @@
       <c r="AA11" s="19"/>
       <c r="AB11" s="20"/>
     </row>
-    <row r="12" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="27.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="18"/>
-      <c r="S12" s="18"/>
-      <c r="T12" s="18"/>
-      <c r="U12" s="18"/>
-      <c r="V12" s="18"/>
-      <c r="W12" s="18"/>
-      <c r="X12" s="18"/>
-      <c r="Y12" s="18"/>
-      <c r="Z12" s="18"/>
-      <c r="AA12" s="19"/>
-      <c r="AB12" s="20"/>
+      <c r="B12" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="J12" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="K12" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="L12" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="M12" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="N12" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O12" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="P12" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q12" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="R12" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="S12" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="T12" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="U12" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="V12" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="W12" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="X12" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y12" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z12" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA12" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB12" s="23" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="21" t="s">
-        <v>23</v>
+      <c r="A13" s="24" t="s">
+        <v>47</v>
       </c>
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
@@ -1618,9 +1744,9 @@
       <c r="AA13" s="19"/>
       <c r="AB13" s="20"/>
     </row>
-    <row r="14" s="22" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="21" t="s">
-        <v>24</v>
+    <row r="14" s="25" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="24" t="s">
+        <v>48</v>
       </c>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
@@ -1650,9 +1776,9 @@
       <c r="AA14" s="19"/>
       <c r="AB14" s="20"/>
     </row>
-    <row r="15" s="22" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="21" t="s">
-        <v>25</v>
+    <row r="15" s="25" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="24" t="s">
+        <v>49</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
@@ -1683,40 +1809,40 @@
       <c r="AB15" s="20"/>
     </row>
     <row r="16" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="24"/>
-      <c r="O16" s="24"/>
-      <c r="P16" s="24"/>
-      <c r="Q16" s="24"/>
-      <c r="R16" s="24"/>
-      <c r="S16" s="24"/>
-      <c r="T16" s="24"/>
-      <c r="U16" s="24"/>
-      <c r="V16" s="24"/>
-      <c r="W16" s="24"/>
-      <c r="X16" s="24"/>
-      <c r="Y16" s="24"/>
-      <c r="Z16" s="24"/>
-      <c r="AA16" s="24"/>
-      <c r="AB16" s="27"/>
+      <c r="A16" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="27"/>
+      <c r="Q16" s="27"/>
+      <c r="R16" s="27"/>
+      <c r="S16" s="27"/>
+      <c r="T16" s="27"/>
+      <c r="U16" s="27"/>
+      <c r="V16" s="27"/>
+      <c r="W16" s="27"/>
+      <c r="X16" s="27"/>
+      <c r="Y16" s="27"/>
+      <c r="Z16" s="27"/>
+      <c r="AA16" s="27"/>
+      <c r="AB16" s="30"/>
     </row>
     <row r="17" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="21" t="s">
-        <v>27</v>
+      <c r="A17" s="24" t="s">
+        <v>51</v>
       </c>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
@@ -1747,94 +1873,94 @@
       <c r="AB17" s="20"/>
     </row>
     <row r="18" customFormat="false" ht="28.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="21" t="s">
-        <v>28</v>
+      <c r="A18" s="24" t="s">
+        <v>52</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="H18" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="I18" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="J18" s="28" t="s">
-        <v>37</v>
+        <v>58</v>
+      </c>
+      <c r="H18" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="I18" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="J18" s="21" t="s">
+        <v>61</v>
       </c>
       <c r="K18" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="L18" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="M18" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="N18" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="O18" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="P18" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q18" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="R18" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="S18" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="T18" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="U18" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="V18" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="W18" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="X18" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y18" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z18" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA18" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB18" s="30" t="s">
-        <v>30</v>
+        <v>62</v>
+      </c>
+      <c r="L18" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="M18" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="N18" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="O18" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="P18" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q18" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="R18" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="S18" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="T18" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="U18" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="V18" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="W18" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="X18" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y18" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z18" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA18" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB18" s="23" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="21" t="s">
-        <v>53</v>
+      <c r="A19" s="24" t="s">
+        <v>77</v>
       </c>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
@@ -1865,126 +1991,126 @@
       <c r="AB19" s="20"/>
     </row>
     <row r="20" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="21" t="s">
-        <v>54</v>
+      <c r="A20" s="24" t="s">
+        <v>78</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="H20" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="I20" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="J20" s="28" t="s">
-        <v>63</v>
+        <v>84</v>
+      </c>
+      <c r="H20" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="I20" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="J20" s="21" t="s">
+        <v>87</v>
       </c>
       <c r="K20" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="L20" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="M20" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="N20" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="O20" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="P20" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q20" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="R20" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="S20" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="T20" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="U20" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="V20" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="W20" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="X20" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y20" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="Z20" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA20" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB20" s="30" t="s">
-        <v>56</v>
+        <v>88</v>
+      </c>
+      <c r="L20" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="M20" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="N20" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="O20" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="P20" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q20" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="R20" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="S20" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="T20" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="U20" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="V20" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="W20" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="X20" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y20" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z20" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA20" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB20" s="23" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="24"/>
-      <c r="N21" s="24"/>
-      <c r="O21" s="24"/>
-      <c r="P21" s="24"/>
-      <c r="Q21" s="24"/>
-      <c r="R21" s="24"/>
-      <c r="S21" s="24"/>
-      <c r="T21" s="24"/>
-      <c r="U21" s="24"/>
-      <c r="V21" s="24"/>
-      <c r="W21" s="24"/>
-      <c r="X21" s="24"/>
-      <c r="Y21" s="24"/>
-      <c r="Z21" s="24"/>
-      <c r="AA21" s="24"/>
-      <c r="AB21" s="27"/>
+        <v>103</v>
+      </c>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="27"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="27"/>
+      <c r="P21" s="27"/>
+      <c r="Q21" s="27"/>
+      <c r="R21" s="27"/>
+      <c r="S21" s="27"/>
+      <c r="T21" s="27"/>
+      <c r="U21" s="27"/>
+      <c r="V21" s="27"/>
+      <c r="W21" s="27"/>
+      <c r="X21" s="27"/>
+      <c r="Y21" s="27"/>
+      <c r="Z21" s="27"/>
+      <c r="AA21" s="27"/>
+      <c r="AB21" s="30"/>
     </row>
     <row r="22" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="21" t="s">
-        <v>80</v>
+      <c r="A22" s="24" t="s">
+        <v>104</v>
       </c>
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
@@ -2015,8 +2141,8 @@
       <c r="AB22" s="20"/>
     </row>
     <row r="23" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="21" t="s">
-        <v>81</v>
+      <c r="A23" s="24" t="s">
+        <v>105</v>
       </c>
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
@@ -2046,9 +2172,9 @@
       <c r="AA23" s="19"/>
       <c r="AB23" s="20"/>
     </row>
-    <row r="24" s="22" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="21" t="s">
-        <v>82</v>
+    <row r="24" s="25" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="24" t="s">
+        <v>106</v>
       </c>
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
@@ -2078,9 +2204,9 @@
       <c r="AA24" s="19"/>
       <c r="AB24" s="20"/>
     </row>
-    <row r="25" s="22" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="21" t="s">
-        <v>83</v>
+    <row r="25" s="25" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="24" t="s">
+        <v>107</v>
       </c>
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
@@ -2110,9 +2236,9 @@
       <c r="AA25" s="19"/>
       <c r="AB25" s="20"/>
     </row>
-    <row r="26" s="22" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="21" t="s">
-        <v>84</v>
+    <row r="26" s="25" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="24" t="s">
+        <v>108</v>
       </c>
       <c r="B26" s="15"/>
       <c r="C26" s="15"/>
@@ -2142,9 +2268,9 @@
       <c r="AA26" s="19"/>
       <c r="AB26" s="20"/>
     </row>
-    <row r="27" s="22" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="21" t="s">
-        <v>85</v>
+    <row r="27" s="25" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="24" t="s">
+        <v>109</v>
       </c>
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
@@ -2176,7 +2302,7 @@
     </row>
     <row r="28" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="32" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
@@ -2208,7 +2334,7 @@
     </row>
     <row r="29" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="32" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="B29" s="15"/>
       <c r="C29" s="15"/>
@@ -2240,7 +2366,7 @@
     </row>
     <row r="30" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="32" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="B30" s="15"/>
       <c r="C30" s="15"/>
@@ -2272,7 +2398,7 @@
     </row>
     <row r="31" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="33" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="B31" s="15"/>
       <c r="C31" s="15"/>
@@ -2304,7 +2430,7 @@
     </row>
     <row r="32" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="33" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="B32" s="15"/>
       <c r="C32" s="15"/>
@@ -2336,7 +2462,7 @@
     </row>
     <row r="33" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="33" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="B33" s="15"/>
       <c r="C33" s="15"/>
@@ -2368,7 +2494,7 @@
     </row>
     <row r="34" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="34" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="B34" s="35"/>
       <c r="C34" s="35"/>
@@ -2399,7 +2525,7 @@
       <c r="AB34" s="35"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="21"/>
+      <c r="A35" s="24"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
       <c r="D35" s="15"/>
@@ -2429,8 +2555,8 @@
       <c r="AB35" s="20"/>
     </row>
     <row r="36" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="21" t="s">
-        <v>93</v>
+      <c r="A36" s="24" t="s">
+        <v>117</v>
       </c>
       <c r="B36" s="15"/>
       <c r="C36" s="15"/>
@@ -2461,8 +2587,8 @@
       <c r="AB36" s="20"/>
     </row>
     <row r="37" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="21" t="s">
-        <v>94</v>
+      <c r="A37" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="B37" s="15"/>
       <c r="C37" s="15"/>
@@ -2493,8 +2619,8 @@
       <c r="AB37" s="20"/>
     </row>
     <row r="38" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="21" t="s">
-        <v>95</v>
+      <c r="A38" s="24" t="s">
+        <v>119</v>
       </c>
       <c r="B38" s="15"/>
       <c r="C38" s="15"/>
@@ -2526,7 +2652,7 @@
     </row>
     <row r="39" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="14" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="B39" s="15"/>
       <c r="C39" s="15"/>
@@ -2558,7 +2684,7 @@
     </row>
     <row r="40" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="36" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="B40" s="37"/>
       <c r="C40" s="37"/>
@@ -2632,7 +2758,7 @@
   </sheetPr>
   <dimension ref="A1:Y59"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -2644,32 +2770,32 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="41" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="41" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="41" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="41" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="41" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="41" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2677,12 +2803,12 @@
     </row>
     <row r="9" customFormat="false" ht="80.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="42" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="51.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="43" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2690,7 +2816,7 @@
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="44" t="s">
-        <v>106</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2698,22 +2824,22 @@
     </row>
     <row r="14" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="46" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="B14" s="47" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="C14" s="47"/>
       <c r="D14" s="47" t="s">
-        <v>109</v>
+        <v>133</v>
       </c>
       <c r="E14" s="47"/>
       <c r="F14" s="47" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="G14" s="47"/>
       <c r="H14" s="47" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="I14" s="47"/>
       <c r="J14" s="47" t="s">
@@ -2729,19 +2855,19 @@
       </c>
       <c r="O14" s="47"/>
       <c r="P14" s="47" t="s">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="Q14" s="47"/>
       <c r="R14" s="47" t="s">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="S14" s="47"/>
       <c r="T14" s="47" t="s">
-        <v>114</v>
+        <v>138</v>
       </c>
       <c r="U14" s="47"/>
       <c r="V14" s="47" t="s">
-        <v>115</v>
+        <v>139</v>
       </c>
       <c r="W14" s="47"/>
       <c r="X14" s="48" t="s">
@@ -2826,7 +2952,7 @@
     </row>
     <row r="16" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="51" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="B16" s="51"/>
       <c r="C16" s="51"/>
@@ -2855,7 +2981,7 @@
     </row>
     <row r="17" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="52" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="B17" s="53"/>
       <c r="C17" s="53"/>
@@ -2884,7 +3010,7 @@
     </row>
     <row r="18" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="52" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="B18" s="53"/>
       <c r="C18" s="53"/>
@@ -2913,7 +3039,7 @@
     </row>
     <row r="19" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="52" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
       <c r="B19" s="53"/>
       <c r="C19" s="53"/>
@@ -2996,7 +3122,7 @@
     </row>
     <row r="22" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="51" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="B22" s="51"/>
       <c r="C22" s="51"/>
@@ -3025,7 +3151,7 @@
     </row>
     <row r="23" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="52" t="s">
-        <v>121</v>
+        <v>145</v>
       </c>
       <c r="B23" s="53"/>
       <c r="C23" s="53"/>
@@ -3054,7 +3180,7 @@
     </row>
     <row r="24" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="52" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="B24" s="53"/>
       <c r="C24" s="53"/>
@@ -3083,7 +3209,7 @@
     </row>
     <row r="25" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="52" t="s">
-        <v>123</v>
+        <v>147</v>
       </c>
       <c r="B25" s="53"/>
       <c r="C25" s="53"/>
@@ -3112,7 +3238,7 @@
     </row>
     <row r="26" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="52" t="s">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="B26" s="53"/>
       <c r="C26" s="53"/>
@@ -3195,7 +3321,7 @@
     </row>
     <row r="29" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="55" t="s">
-        <v>125</v>
+        <v>149</v>
       </c>
       <c r="B29" s="53"/>
       <c r="C29" s="53"/>
@@ -3224,7 +3350,7 @@
     </row>
     <row r="30" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="51" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="B30" s="51"/>
       <c r="C30" s="51"/>
@@ -3253,7 +3379,7 @@
     </row>
     <row r="31" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="52" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="B31" s="53"/>
       <c r="C31" s="53"/>
@@ -3282,7 +3408,7 @@
     </row>
     <row r="32" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="52" t="s">
-        <v>128</v>
+        <v>152</v>
       </c>
       <c r="B32" s="53"/>
       <c r="C32" s="53"/>
@@ -3365,7 +3491,7 @@
     </row>
     <row r="35" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="51" t="s">
-        <v>129</v>
+        <v>153</v>
       </c>
       <c r="B35" s="51"/>
       <c r="C35" s="51"/>
@@ -3475,7 +3601,7 @@
     </row>
     <row r="39" customFormat="false" ht="66.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="55" t="s">
-        <v>130</v>
+        <v>154</v>
       </c>
       <c r="B39" s="53"/>
       <c r="C39" s="53"/>
@@ -3504,7 +3630,7 @@
     </row>
     <row r="40" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="55" t="s">
-        <v>131</v>
+        <v>155</v>
       </c>
       <c r="B40" s="53"/>
       <c r="C40" s="53"/>
@@ -3533,7 +3659,7 @@
     </row>
     <row r="41" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="51" t="s">
-        <v>132</v>
+        <v>156</v>
       </c>
       <c r="B41" s="51"/>
       <c r="C41" s="51"/>
@@ -3562,7 +3688,7 @@
     </row>
     <row r="42" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="52" t="s">
-        <v>133</v>
+        <v>157</v>
       </c>
       <c r="B42" s="53"/>
       <c r="C42" s="53"/>
@@ -3591,7 +3717,7 @@
     </row>
     <row r="43" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="52" t="s">
-        <v>134</v>
+        <v>158</v>
       </c>
       <c r="B43" s="53"/>
       <c r="C43" s="53"/>
@@ -3620,7 +3746,7 @@
     </row>
     <row r="44" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="52" t="s">
-        <v>135</v>
+        <v>159</v>
       </c>
       <c r="B44" s="53"/>
       <c r="C44" s="53"/>
@@ -3703,7 +3829,7 @@
     </row>
     <row r="47" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="51" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="B47" s="51"/>
       <c r="C47" s="51"/>
@@ -3786,7 +3912,7 @@
     </row>
     <row r="50" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="52" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
       <c r="B50" s="53"/>
       <c r="C50" s="53"/>
@@ -3815,7 +3941,7 @@
     </row>
     <row r="51" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="51" t="s">
-        <v>138</v>
+        <v>162</v>
       </c>
       <c r="B51" s="51"/>
       <c r="C51" s="51"/>
@@ -3844,7 +3970,7 @@
     </row>
     <row r="52" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="56" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="B52" s="53"/>
       <c r="C52" s="53"/>
@@ -3873,7 +3999,7 @@
     </row>
     <row r="53" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="56" t="s">
-        <v>140</v>
+        <v>164</v>
       </c>
       <c r="B53" s="53"/>
       <c r="C53" s="53"/>
@@ -3902,7 +4028,7 @@
     </row>
     <row r="54" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="56" t="s">
-        <v>141</v>
+        <v>165</v>
       </c>
       <c r="B54" s="53"/>
       <c r="C54" s="53"/>
@@ -3958,7 +4084,7 @@
     </row>
     <row r="56" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="57" t="s">
-        <v>142</v>
+        <v>166</v>
       </c>
       <c r="B56" s="53"/>
       <c r="C56" s="53"/>
@@ -3987,7 +4113,7 @@
     </row>
     <row r="57" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="58" t="s">
-        <v>143</v>
+        <v>167</v>
       </c>
       <c r="B57" s="59"/>
       <c r="C57" s="59"/>
@@ -4019,7 +4145,7 @@
     </row>
     <row r="59" customFormat="false" ht="141.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="62" t="s">
-        <v>144</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>

--- a/resources/report_template.xlsx
+++ b/resources/report_template.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="193">
   <si>
     <t>Région</t>
   </si>
@@ -160,6 +160,78 @@
   </si>
   <si>
     <t>Nombre d’adultes et d’enfants déjà sous TARV  reçus dans le centre en provenance d'un autre centre de traitement au cours dau cours de la période de raportage (C)</t>
+  </si>
+  <si>
+    <t>{key: 'INCOMING_TRANSFER_DURING_PERIOD', gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'INCOMING_TRANSFER_DURING_PERIOD', gender: 1}</t>
+  </si>
+  <si>
+    <t>{key:'INCOMING_TRANSFER_DURING_PERIOD', age_max: 15}</t>
+  </si>
+  <si>
+    <t>{key: 'INCOMING_TRANSFER_DURING_PERIOD', age_min: 15}</t>
+  </si>
+  <si>
+    <t>{key: 'INCOMING_TRANSFER_DURING_PERIOD'}</t>
+  </si>
+  <si>
+    <t>{key: 'INCOMING_TRANSFER_DURING_PERIOD', age_max: 15, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'INCOMING_TRANSFER_DURING_PERIOD', age_max: 15, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'INCOMING_TRANSFER_DURING_PERIOD', age_min: 15, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'INCOMING_TRANSFER_DURING_PERIOD', age_min: 15, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'INCOMING_TRANSFER_DURING_PERIOD', age_max: 1, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'INCOMING_TRANSFER_DURING_PERIOD', age_max: 1, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'INCOMING_TRANSFER_DURING_PERIOD', age_min: 1, age_max: 4, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'INCOMING_TRANSFER_DURING_PERIOD', age_min: 5, age_max: 9, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'INCOMING_TRANSFER_DURING_PERIOD', age_min: 5, age_max: 9, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'INCOMING_TRANSFER_DURING_PERIOD', age_min: 10, age_max: 14, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'INCOMING_TRANSFER_DURING_PERIOD', age_min: 10, age_max: 14, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'INCOMING_TRANSFER_DURING_PERIOD', age_min: 15, age_max: 19, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'INCOMING_TRANSFER_DURING_PERIOD', age_min: 15, age_max: 19, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'INCOMING_TRANSFER_DURING_PERIOD', age_min: 20, age_max: 24, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'INCOMING_TRANSFER_DURING_PERIOD', age_min: 20, age_max: 24, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'INCOMING_TRANSFER_DURING_PERIOD', age_min: 25, age_max: 49, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'INCOMING_TRANSFER_DURING_PERIOD', age_min: 25, age_max: 49, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'INCOMING_TRANSFER_DURING_PERIOD', age_min: 50, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'INCOMING_TRANSFER_DURING_PERIOD', age_min: 50, gender: 1}</t>
   </si>
   <si>
     <t>Nombre d’adultes et d’enfants déjà sous TARV  mais perdus de vue dans le centre et qui ont repris le traitement au cours au cours de la période de raportage (D)</t>
@@ -1334,8 +1406,8 @@
   </sheetPr>
   <dimension ref="A1:AB57"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I7" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AC13" activeCellId="0" sqref="AC13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1712,41 +1784,95 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="18"/>
-      <c r="O13" s="18"/>
-      <c r="P13" s="18"/>
-      <c r="Q13" s="18"/>
-      <c r="R13" s="18"/>
-      <c r="S13" s="18"/>
-      <c r="T13" s="18"/>
-      <c r="U13" s="18"/>
-      <c r="V13" s="18"/>
-      <c r="W13" s="18"/>
-      <c r="X13" s="18"/>
-      <c r="Y13" s="18"/>
-      <c r="Z13" s="18"/>
-      <c r="AA13" s="19"/>
-      <c r="AB13" s="20"/>
+      <c r="B13" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="H13" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="I13" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="J13" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="K13" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="L13" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="M13" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="N13" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="O13" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="P13" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q13" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="R13" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="S13" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="T13" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="U13" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="V13" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="W13" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="X13" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y13" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z13" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA13" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB13" s="23" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="14" s="25" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="24" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
@@ -1778,7 +1904,7 @@
     </row>
     <row r="15" s="25" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="24" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
@@ -1810,7 +1936,7 @@
     </row>
     <row r="16" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="26" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="B16" s="27"/>
       <c r="C16" s="27"/>
@@ -1842,7 +1968,7 @@
     </row>
     <row r="17" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="24" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
@@ -1874,93 +2000,93 @@
     </row>
     <row r="18" customFormat="false" ht="28.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="24" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="H18" s="21" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="I18" s="21" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="J18" s="21" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="K18" s="17" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="L18" s="22" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="M18" s="22" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="N18" s="22" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="O18" s="22" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="P18" s="22" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="Q18" s="22" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="R18" s="22" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="S18" s="22" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="T18" s="22" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="U18" s="22" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="V18" s="22" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="W18" s="22" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="X18" s="22" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="Y18" s="22" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="Z18" s="22" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="AA18" s="22" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="AB18" s="23" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="24" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
@@ -1992,93 +2118,93 @@
     </row>
     <row r="20" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="24" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="H20" s="21" t="s">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="I20" s="21" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="J20" s="21" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="K20" s="17" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="L20" s="22" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="M20" s="22" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="N20" s="22" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="O20" s="22" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="P20" s="22" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="Q20" s="22" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="R20" s="22" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="S20" s="22" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="T20" s="22" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="U20" s="22" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="V20" s="22" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="W20" s="22" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="X20" s="22" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="Y20" s="22" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="Z20" s="22" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="AA20" s="22" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="AB20" s="23" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="31" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="B21" s="27"/>
       <c r="C21" s="27"/>
@@ -2110,7 +2236,7 @@
     </row>
     <row r="22" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="24" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
@@ -2142,7 +2268,7 @@
     </row>
     <row r="23" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="24" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
@@ -2174,7 +2300,7 @@
     </row>
     <row r="24" s="25" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="24" t="s">
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
@@ -2206,7 +2332,7 @@
     </row>
     <row r="25" s="25" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="24" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
@@ -2238,7 +2364,7 @@
     </row>
     <row r="26" s="25" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="24" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="B26" s="15"/>
       <c r="C26" s="15"/>
@@ -2268,9 +2394,9 @@
       <c r="AA26" s="19"/>
       <c r="AB26" s="20"/>
     </row>
-    <row r="27" s="25" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" s="25" customFormat="true" ht="27.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="24" t="s">
-        <v>109</v>
+        <v>133</v>
       </c>
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
@@ -2302,7 +2428,7 @@
     </row>
     <row r="28" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="32" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
@@ -2334,7 +2460,7 @@
     </row>
     <row r="29" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="32" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="B29" s="15"/>
       <c r="C29" s="15"/>
@@ -2366,7 +2492,7 @@
     </row>
     <row r="30" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="32" t="s">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="B30" s="15"/>
       <c r="C30" s="15"/>
@@ -2398,7 +2524,7 @@
     </row>
     <row r="31" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="33" t="s">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="B31" s="15"/>
       <c r="C31" s="15"/>
@@ -2430,7 +2556,7 @@
     </row>
     <row r="32" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="33" t="s">
-        <v>114</v>
+        <v>138</v>
       </c>
       <c r="B32" s="15"/>
       <c r="C32" s="15"/>
@@ -2462,7 +2588,7 @@
     </row>
     <row r="33" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="33" t="s">
-        <v>115</v>
+        <v>139</v>
       </c>
       <c r="B33" s="15"/>
       <c r="C33" s="15"/>
@@ -2494,7 +2620,7 @@
     </row>
     <row r="34" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="34" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="B34" s="35"/>
       <c r="C34" s="35"/>
@@ -2556,7 +2682,7 @@
     </row>
     <row r="36" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="24" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="B36" s="15"/>
       <c r="C36" s="15"/>
@@ -2588,7 +2714,7 @@
     </row>
     <row r="37" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="24" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="B37" s="15"/>
       <c r="C37" s="15"/>
@@ -2620,7 +2746,7 @@
     </row>
     <row r="38" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="24" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
       <c r="B38" s="15"/>
       <c r="C38" s="15"/>
@@ -2652,7 +2778,7 @@
     </row>
     <row r="39" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="14" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="B39" s="15"/>
       <c r="C39" s="15"/>
@@ -2684,7 +2810,7 @@
     </row>
     <row r="40" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="36" t="s">
-        <v>121</v>
+        <v>145</v>
       </c>
       <c r="B40" s="37"/>
       <c r="C40" s="37"/>
@@ -2770,32 +2896,32 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="41" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="41" t="s">
-        <v>123</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="41" t="s">
-        <v>124</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="41" t="s">
-        <v>125</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="41" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="41" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2803,12 +2929,12 @@
     </row>
     <row r="9" customFormat="false" ht="80.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="42" t="s">
-        <v>128</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="51.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="43" t="s">
-        <v>129</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2816,7 +2942,7 @@
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="44" t="s">
-        <v>130</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2824,22 +2950,22 @@
     </row>
     <row r="14" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="46" t="s">
-        <v>131</v>
+        <v>155</v>
       </c>
       <c r="B14" s="47" t="s">
-        <v>132</v>
+        <v>156</v>
       </c>
       <c r="C14" s="47"/>
       <c r="D14" s="47" t="s">
-        <v>133</v>
+        <v>157</v>
       </c>
       <c r="E14" s="47"/>
       <c r="F14" s="47" t="s">
-        <v>134</v>
+        <v>158</v>
       </c>
       <c r="G14" s="47"/>
       <c r="H14" s="47" t="s">
-        <v>135</v>
+        <v>159</v>
       </c>
       <c r="I14" s="47"/>
       <c r="J14" s="47" t="s">
@@ -2855,19 +2981,19 @@
       </c>
       <c r="O14" s="47"/>
       <c r="P14" s="47" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="Q14" s="47"/>
       <c r="R14" s="47" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
       <c r="S14" s="47"/>
       <c r="T14" s="47" t="s">
-        <v>138</v>
+        <v>162</v>
       </c>
       <c r="U14" s="47"/>
       <c r="V14" s="47" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="W14" s="47"/>
       <c r="X14" s="48" t="s">
@@ -2952,7 +3078,7 @@
     </row>
     <row r="16" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="51" t="s">
-        <v>140</v>
+        <v>164</v>
       </c>
       <c r="B16" s="51"/>
       <c r="C16" s="51"/>
@@ -2981,7 +3107,7 @@
     </row>
     <row r="17" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="52" t="s">
-        <v>141</v>
+        <v>165</v>
       </c>
       <c r="B17" s="53"/>
       <c r="C17" s="53"/>
@@ -3010,7 +3136,7 @@
     </row>
     <row r="18" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="52" t="s">
-        <v>142</v>
+        <v>166</v>
       </c>
       <c r="B18" s="53"/>
       <c r="C18" s="53"/>
@@ -3039,7 +3165,7 @@
     </row>
     <row r="19" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="52" t="s">
-        <v>143</v>
+        <v>167</v>
       </c>
       <c r="B19" s="53"/>
       <c r="C19" s="53"/>
@@ -3122,7 +3248,7 @@
     </row>
     <row r="22" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="51" t="s">
-        <v>144</v>
+        <v>168</v>
       </c>
       <c r="B22" s="51"/>
       <c r="C22" s="51"/>
@@ -3151,7 +3277,7 @@
     </row>
     <row r="23" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="52" t="s">
-        <v>145</v>
+        <v>169</v>
       </c>
       <c r="B23" s="53"/>
       <c r="C23" s="53"/>
@@ -3180,7 +3306,7 @@
     </row>
     <row r="24" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="52" t="s">
-        <v>146</v>
+        <v>170</v>
       </c>
       <c r="B24" s="53"/>
       <c r="C24" s="53"/>
@@ -3209,7 +3335,7 @@
     </row>
     <row r="25" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="52" t="s">
-        <v>147</v>
+        <v>171</v>
       </c>
       <c r="B25" s="53"/>
       <c r="C25" s="53"/>
@@ -3238,7 +3364,7 @@
     </row>
     <row r="26" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="52" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
       <c r="B26" s="53"/>
       <c r="C26" s="53"/>
@@ -3321,7 +3447,7 @@
     </row>
     <row r="29" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="55" t="s">
-        <v>149</v>
+        <v>173</v>
       </c>
       <c r="B29" s="53"/>
       <c r="C29" s="53"/>
@@ -3350,7 +3476,7 @@
     </row>
     <row r="30" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="51" t="s">
-        <v>150</v>
+        <v>174</v>
       </c>
       <c r="B30" s="51"/>
       <c r="C30" s="51"/>
@@ -3379,7 +3505,7 @@
     </row>
     <row r="31" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="52" t="s">
-        <v>151</v>
+        <v>175</v>
       </c>
       <c r="B31" s="53"/>
       <c r="C31" s="53"/>
@@ -3408,7 +3534,7 @@
     </row>
     <row r="32" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="52" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B32" s="53"/>
       <c r="C32" s="53"/>
@@ -3491,7 +3617,7 @@
     </row>
     <row r="35" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="51" t="s">
-        <v>153</v>
+        <v>177</v>
       </c>
       <c r="B35" s="51"/>
       <c r="C35" s="51"/>
@@ -3601,7 +3727,7 @@
     </row>
     <row r="39" customFormat="false" ht="66.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="55" t="s">
-        <v>154</v>
+        <v>178</v>
       </c>
       <c r="B39" s="53"/>
       <c r="C39" s="53"/>
@@ -3630,7 +3756,7 @@
     </row>
     <row r="40" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="55" t="s">
-        <v>155</v>
+        <v>179</v>
       </c>
       <c r="B40" s="53"/>
       <c r="C40" s="53"/>
@@ -3659,7 +3785,7 @@
     </row>
     <row r="41" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="51" t="s">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="B41" s="51"/>
       <c r="C41" s="51"/>
@@ -3688,7 +3814,7 @@
     </row>
     <row r="42" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="52" t="s">
-        <v>157</v>
+        <v>181</v>
       </c>
       <c r="B42" s="53"/>
       <c r="C42" s="53"/>
@@ -3717,7 +3843,7 @@
     </row>
     <row r="43" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="52" t="s">
-        <v>158</v>
+        <v>182</v>
       </c>
       <c r="B43" s="53"/>
       <c r="C43" s="53"/>
@@ -3746,7 +3872,7 @@
     </row>
     <row r="44" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="52" t="s">
-        <v>159</v>
+        <v>183</v>
       </c>
       <c r="B44" s="53"/>
       <c r="C44" s="53"/>
@@ -3829,7 +3955,7 @@
     </row>
     <row r="47" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="51" t="s">
-        <v>160</v>
+        <v>184</v>
       </c>
       <c r="B47" s="51"/>
       <c r="C47" s="51"/>
@@ -3912,7 +4038,7 @@
     </row>
     <row r="50" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="52" t="s">
-        <v>161</v>
+        <v>185</v>
       </c>
       <c r="B50" s="53"/>
       <c r="C50" s="53"/>
@@ -3941,7 +4067,7 @@
     </row>
     <row r="51" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="51" t="s">
-        <v>162</v>
+        <v>186</v>
       </c>
       <c r="B51" s="51"/>
       <c r="C51" s="51"/>
@@ -3970,7 +4096,7 @@
     </row>
     <row r="52" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="56" t="s">
-        <v>163</v>
+        <v>187</v>
       </c>
       <c r="B52" s="53"/>
       <c r="C52" s="53"/>
@@ -3999,7 +4125,7 @@
     </row>
     <row r="53" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="56" t="s">
-        <v>164</v>
+        <v>188</v>
       </c>
       <c r="B53" s="53"/>
       <c r="C53" s="53"/>
@@ -4028,7 +4154,7 @@
     </row>
     <row r="54" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="56" t="s">
-        <v>165</v>
+        <v>189</v>
       </c>
       <c r="B54" s="53"/>
       <c r="C54" s="53"/>
@@ -4084,7 +4210,7 @@
     </row>
     <row r="56" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="57" t="s">
-        <v>166</v>
+        <v>190</v>
       </c>
       <c r="B56" s="53"/>
       <c r="C56" s="53"/>
@@ -4113,7 +4239,7 @@
     </row>
     <row r="57" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="58" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
       <c r="B57" s="59"/>
       <c r="C57" s="59"/>
@@ -4145,7 +4271,7 @@
     </row>
     <row r="59" customFormat="false" ht="141.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="62" t="s">
-        <v>168</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>

--- a/resources/report_template.xlsx
+++ b/resources/report_template.xlsx
@@ -162,76 +162,76 @@
     <t>Nombre d’adultes et d’enfants déjà sous TARV  reçus dans le centre en provenance d'un autre centre de traitement au cours dau cours de la période de raportage (C)</t>
   </si>
   <si>
-    <t>{key: 'INCOMING_TRANSFER_DURING_PERIOD', gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'INCOMING_TRANSFER_DURING_PERIOD', gender: 1}</t>
-  </si>
-  <si>
-    <t>{key:'INCOMING_TRANSFER_DURING_PERIOD', age_max: 15}</t>
-  </si>
-  <si>
-    <t>{key: 'INCOMING_TRANSFER_DURING_PERIOD', age_min: 15}</t>
-  </si>
-  <si>
-    <t>{key: 'INCOMING_TRANSFER_DURING_PERIOD'}</t>
-  </si>
-  <si>
-    <t>{key: 'INCOMING_TRANSFER_DURING_PERIOD', age_max: 15, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'INCOMING_TRANSFER_DURING_PERIOD', age_max: 15, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'INCOMING_TRANSFER_DURING_PERIOD', age_min: 15, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'INCOMING_TRANSFER_DURING_PERIOD', age_min: 15, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'INCOMING_TRANSFER_DURING_PERIOD', age_max: 1, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'INCOMING_TRANSFER_DURING_PERIOD', age_max: 1, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'INCOMING_TRANSFER_DURING_PERIOD', age_min: 1, age_max: 4, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'INCOMING_TRANSFER_DURING_PERIOD', age_min: 5, age_max: 9, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'INCOMING_TRANSFER_DURING_PERIOD', age_min: 5, age_max: 9, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'INCOMING_TRANSFER_DURING_PERIOD', age_min: 10, age_max: 14, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'INCOMING_TRANSFER_DURING_PERIOD', age_min: 10, age_max: 14, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'INCOMING_TRANSFER_DURING_PERIOD', age_min: 15, age_max: 19, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'INCOMING_TRANSFER_DURING_PERIOD', age_min: 15, age_max: 19, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'INCOMING_TRANSFER_DURING_PERIOD', age_min: 20, age_max: 24, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'INCOMING_TRANSFER_DURING_PERIOD', age_min: 20, age_max: 24, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'INCOMING_TRANSFER_DURING_PERIOD', age_min: 25, age_max: 49, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'INCOMING_TRANSFER_DURING_PERIOD', age_min: 25, age_max: 49, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'INCOMING_TRANSFER_DURING_PERIOD', age_min: 50, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'INCOMING_TRANSFER_DURING_PERIOD', age_min: 50, gender: 1}</t>
+    <t>{key: 'ARV_INCOMING_TRANSFER_DURING_PERIOD', gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_INCOMING_TRANSFER_DURING_PERIOD', gender: 1}</t>
+  </si>
+  <si>
+    <t>{key:'ARV_INCOMING_TRANSFER_DURING_PERIOD', age_max: 15}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_INCOMING_TRANSFER_DURING_PERIOD', age_min: 15}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_INCOMING_TRANSFER_DURING_PERIOD'}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_INCOMING_TRANSFER_DURING_PERIOD', age_max: 15, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_INCOMING_TRANSFER_DURING_PERIOD', age_max: 15, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_INCOMING_TRANSFER_DURING_PERIOD', age_min: 15, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_INCOMING_TRANSFER_DURING_PERIOD', age_min: 15, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_INCOMING_TRANSFER_DURING_PERIOD', age_max: 1, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_INCOMING_TRANSFER_DURING_PERIOD', age_max: 1, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_INCOMING_TRANSFER_DURING_PERIOD', age_min: 1, age_max: 4, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_INCOMING_TRANSFER_DURING_PERIOD', age_min: 5, age_max: 9, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_INCOMING_TRANSFER_DURING_PERIOD', age_min: 5, age_max: 9, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_INCOMING_TRANSFER_DURING_PERIOD', age_min: 10, age_max: 14, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_INCOMING_TRANSFER_DURING_PERIOD', age_min: 10, age_max: 14, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_INCOMING_TRANSFER_DURING_PERIOD', age_min: 15, age_max: 19, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_INCOMING_TRANSFER_DURING_PERIOD', age_min: 15, age_max: 19, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_INCOMING_TRANSFER_DURING_PERIOD', age_min: 20, age_max: 24, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_INCOMING_TRANSFER_DURING_PERIOD', age_min: 20, age_max: 24, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_INCOMING_TRANSFER_DURING_PERIOD', age_min: 25, age_max: 49, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_INCOMING_TRANSFER_DURING_PERIOD', age_min: 25, age_max: 49, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_INCOMING_TRANSFER_DURING_PERIOD', age_min: 50, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_INCOMING_TRANSFER_DURING_PERIOD', age_min: 50, gender: 1}</t>
   </si>
   <si>
     <t>Nombre d’adultes et d’enfants déjà sous TARV  mais perdus de vue dans le centre et qui ont repris le traitement au cours au cours de la période de raportage (D)</t>
@@ -249,76 +249,76 @@
     <t>Nombre Total d’adultes et d’enfants sous antirétroviraux Décédés au cours au cours de la période de raportage (H)</t>
   </si>
   <si>
-    <t>{key: 'DEAD_DURING_PERIOD', gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'DEAD_DURING_PERIOD', gender: 1}</t>
-  </si>
-  <si>
-    <t>{key:'DEAD_DURING_PERIOD', age_max: 15}</t>
-  </si>
-  <si>
-    <t>{key: 'DEAD_DURING_PERIOD', age_min: 15}</t>
-  </si>
-  <si>
-    <t>{key: 'DEAD_DURING_PERIOD'}</t>
-  </si>
-  <si>
-    <t>{key: 'DEAD_DURING_PERIOD', age_max: 15, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'DEAD_DURING_PERIOD', age_max: 15, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'DEAD_DURING_PERIOD', age_min: 15, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'DEAD_DURING_PERIOD', age_min: 15, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'DEAD_DURING_PERIOD', age_max: 1, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'DEAD_DURING_PERIOD', age_max: 1, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'DEAD_DURING_PERIOD', age_min: 1, age_max: 4, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'DEAD_DURING_PERIOD', age_min: 5, age_max: 9, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'DEAD_DURING_PERIOD', age_min: 5, age_max: 9, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'DEAD_DURING_PERIOD', age_min: 10, age_max: 14, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'DEAD_DURING_PERIOD', age_min: 10, age_max: 14, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'DEAD_DURING_PERIOD', age_min: 15, age_max: 19, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'DEAD_DURING_PERIOD', age_min: 15, age_max: 19, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'DEAD_DURING_PERIOD', age_min: 20, age_max: 24, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'DEAD_DURING_PERIOD', age_min: 20, age_max: 24, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'DEAD_DURING_PERIOD', age_min: 25, age_max: 49, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'DEAD_DURING_PERIOD', age_min: 25, age_max: 49, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'DEAD_DURING_PERIOD', age_min: 50, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'DEAD_DURING_PERIOD', age_min: 50, gender: 1}</t>
+    <t>{key: 'ARV_DEAD_DURING_PERIOD', gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_DEAD_DURING_PERIOD', gender: 1}</t>
+  </si>
+  <si>
+    <t>{key:'ARV_DEAD_DURING_PERIOD', age_max: 15}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_DEAD_DURING_PERIOD', age_min: 15}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_DEAD_DURING_PERIOD'}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_DEAD_DURING_PERIOD', age_max: 15, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_DEAD_DURING_PERIOD', age_max: 15, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_DEAD_DURING_PERIOD', age_min: 15, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_DEAD_DURING_PERIOD', age_min: 15, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_DEAD_DURING_PERIOD', age_max: 1, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_DEAD_DURING_PERIOD', age_max: 1, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_DEAD_DURING_PERIOD', age_min: 1, age_max: 4, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_DEAD_DURING_PERIOD', age_min: 5, age_max: 9, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_DEAD_DURING_PERIOD', age_min: 5, age_max: 9, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_DEAD_DURING_PERIOD', age_min: 10, age_max: 14, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_DEAD_DURING_PERIOD', age_min: 10, age_max: 14, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_DEAD_DURING_PERIOD', age_min: 15, age_max: 19, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_DEAD_DURING_PERIOD', age_min: 15, age_max: 19, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_DEAD_DURING_PERIOD', age_min: 20, age_max: 24, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_DEAD_DURING_PERIOD', age_min: 20, age_max: 24, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_DEAD_DURING_PERIOD', age_min: 25, age_max: 49, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_DEAD_DURING_PERIOD', age_min: 25, age_max: 49, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_DEAD_DURING_PERIOD', age_min: 50, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_DEAD_DURING_PERIOD', age_min: 50, gender: 1}</t>
   </si>
   <si>
     <t>Nombre Total d’adultes et d’enfants sous antirétroviraux Ayant arrêté le traitement au cours au cours de la période de raportage (I)</t>
@@ -327,76 +327,76 @@
     <t>Nombre Total d’adultes et d’enfants sous antirétroviraux transférés au cours au cours de la période de raportage (J)</t>
   </si>
   <si>
-    <t>{key: 'TRANSFERRED_DURING_PERIOD', gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'TRANSFERRED_DURING_PERIOD', gender: 1}</t>
-  </si>
-  <si>
-    <t>{key:'TRANSFERRED_DURING_PERIOD', age_max: 15}</t>
-  </si>
-  <si>
-    <t>{key: 'TRANSFERRED_DURING_PERIOD', age_min: 15}</t>
-  </si>
-  <si>
-    <t>{key: 'TRANSFERRED_DURING_PERIOD'}</t>
-  </si>
-  <si>
-    <t>{key: 'TRANSFERRED_DURING_PERIOD', age_max: 15, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'TRANSFERRED_DURING_PERIOD', age_max: 15, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'TRANSFERRED_DURING_PERIOD', age_min: 15, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'TRANSFERRED_DURING_PERIOD', age_min: 15, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'TRANSFERRED_DURING_PERIOD', age_max: 1, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'TRANSFERRED_DURING_PERIOD', age_max: 1, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'TRANSFERRED_DURING_PERIOD', age_min: 1, age_max: 4, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'TRANSFERRED_DURING_PERIOD', age_min: 5, age_max: 9, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'TRANSFERRED_DURING_PERIOD', age_min: 5, age_max: 9, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'TRANSFERRED_DURING_PERIOD', age_min: 10, age_max: 14, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'TRANSFERRED_DURING_PERIOD', age_min: 10, age_max: 14, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'TRANSFERRED_DURING_PERIOD', age_min: 15, age_max: 19, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'TRANSFERRED_DURING_PERIOD', age_min: 15, age_max: 19, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'TRANSFERRED_DURING_PERIOD', age_min: 20, age_max: 24, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'TRANSFERRED_DURING_PERIOD', age_min: 20, age_max: 24, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'TRANSFERRED_DURING_PERIOD', age_min: 25, age_max: 49, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'TRANSFERRED_DURING_PERIOD', age_min: 25, age_max: 49, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'TRANSFERRED_DURING_PERIOD', age_min: 50, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'TRANSFERRED_DURING_PERIOD', age_min: 50, gender: 1}</t>
+    <t>{key: 'ARV_TRANSFERRED_DURING_PERIOD', gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_TRANSFERRED_DURING_PERIOD', gender: 1}</t>
+  </si>
+  <si>
+    <t>{key:'ARV_TRANSFERRED_DURING_PERIOD', age_max: 15}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_TRANSFERRED_DURING_PERIOD', age_min: 15}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_TRANSFERRED_DURING_PERIOD'}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_TRANSFERRED_DURING_PERIOD', age_max: 15, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_TRANSFERRED_DURING_PERIOD', age_max: 15, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_TRANSFERRED_DURING_PERIOD', age_min: 15, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_TRANSFERRED_DURING_PERIOD', age_min: 15, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_TRANSFERRED_DURING_PERIOD', age_max: 1, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_TRANSFERRED_DURING_PERIOD', age_max: 1, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_TRANSFERRED_DURING_PERIOD', age_min: 1, age_max: 4, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_TRANSFERRED_DURING_PERIOD', age_min: 5, age_max: 9, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_TRANSFERRED_DURING_PERIOD', age_min: 5, age_max: 9, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_TRANSFERRED_DURING_PERIOD', age_min: 10, age_max: 14, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_TRANSFERRED_DURING_PERIOD', age_min: 10, age_max: 14, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_TRANSFERRED_DURING_PERIOD', age_min: 15, age_max: 19, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_TRANSFERRED_DURING_PERIOD', age_min: 15, age_max: 19, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_TRANSFERRED_DURING_PERIOD', age_min: 20, age_max: 24, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_TRANSFERRED_DURING_PERIOD', age_min: 20, age_max: 24, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_TRANSFERRED_DURING_PERIOD', age_min: 25, age_max: 49, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_TRANSFERRED_DURING_PERIOD', age_min: 25, age_max: 49, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_TRANSFERRED_DURING_PERIOD', age_min: 50, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_TRANSFERRED_DURING_PERIOD', age_min: 50, gender: 1}</t>
   </si>
   <si>
     <t>Nombre d’adultes et d’enfants qui sont sous TARV (Anciens et Nouveaux poursuivant les ARV) à la fin du 1er semestre 2016 (au 30 juin 2016)  K=(A+B+C+D+E) -(G+H+I+J)</t>
@@ -1406,8 +1406,8 @@
   </sheetPr>
   <dimension ref="A1:AB57"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I7" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AC13" activeCellId="0" sqref="AC13"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1666,7 +1666,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="14" t="s">
         <v>21</v>
       </c>
@@ -1698,7 +1698,7 @@
       <c r="AA11" s="19"/>
       <c r="AB11" s="20"/>
     </row>
-    <row r="12" customFormat="false" ht="27.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="14" t="s">
         <v>22</v>
       </c>
@@ -1870,7 +1870,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" s="25" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" s="25" customFormat="true" ht="27.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="24" t="s">
         <v>72</v>
       </c>
@@ -1902,7 +1902,7 @@
       <c r="AA14" s="19"/>
       <c r="AB14" s="20"/>
     </row>
-    <row r="15" s="25" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" s="25" customFormat="true" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="24" t="s">
         <v>73</v>
       </c>
@@ -2084,7 +2084,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="27.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="24" t="s">
         <v>101</v>
       </c>
@@ -2458,7 +2458,7 @@
       <c r="AA28" s="19"/>
       <c r="AB28" s="20"/>
     </row>
-    <row r="29" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="28.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="32" t="s">
         <v>135</v>
       </c>
@@ -2808,7 +2808,7 @@
       <c r="AA39" s="19"/>
       <c r="AB39" s="20"/>
     </row>
-    <row r="40" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="28.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="36" t="s">
         <v>145</v>
       </c>
@@ -2884,7 +2884,7 @@
   </sheetPr>
   <dimension ref="A1:Y59"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>

--- a/resources/report_template.xlsx
+++ b/resources/report_template.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="217">
   <si>
     <t>Région</t>
   </si>
@@ -244,6 +244,78 @@
   </si>
   <si>
     <t>Nombre Total d’adultes et d’enfants sous antirétroviraux perdus de vue au cours au cours de la période de raportage (G)</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_LOST_DURING_PERIOD', gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_LOST_DURING_PERIOD', gender: 1}</t>
+  </si>
+  <si>
+    <t>{key:'ARV_LOST_DURING_PERIOD', age_max: 15}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_LOST_DURING_PERIOD', age_min: 15}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_LOST_DURING_PERIOD'}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_LOST_DURING_PERIOD', age_max: 15, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_LOST_DURING_PERIOD', age_max: 15, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_LOST_DURING_PERIOD', age_min: 15, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_LOST_DURING_PERIOD', age_min: 15, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_LOST_DURING_PERIOD', age_max: 1, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_LOST_DURING_PERIOD', age_max: 1, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_LOST_DURING_PERIOD', age_min: 1, age_max: 4, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_LOST_DURING_PERIOD', age_min: 5, age_max: 9, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_LOST_DURING_PERIOD', age_min: 5, age_max: 9, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_LOST_DURING_PERIOD', age_min: 10, age_max: 14, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_LOST_DURING_PERIOD', age_min: 10, age_max: 14, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_LOST_DURING_PERIOD', age_min: 15, age_max: 19, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_LOST_DURING_PERIOD', age_min: 15, age_max: 19, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_LOST_DURING_PERIOD', age_min: 20, age_max: 24, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_LOST_DURING_PERIOD', age_min: 20, age_max: 24, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_LOST_DURING_PERIOD', age_min: 25, age_max: 49, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_LOST_DURING_PERIOD', age_min: 25, age_max: 49, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_LOST_DURING_PERIOD', age_min: 50, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_LOST_DURING_PERIOD', age_min: 50, gender: 1}</t>
   </si>
   <si>
     <t>Nombre Total d’adultes et d’enfants sous antirétroviraux Décédés au cours au cours de la période de raportage (H)</t>
@@ -1406,8 +1478,8 @@
   </sheetPr>
   <dimension ref="A1:AB57"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B5" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F17" activeCellId="0" sqref="B17:AB17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1966,127 +2038,181 @@
       <c r="AA16" s="27"/>
       <c r="AB16" s="30"/>
     </row>
-    <row r="17" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
-      <c r="R17" s="17"/>
-      <c r="S17" s="17"/>
-      <c r="T17" s="17"/>
-      <c r="U17" s="17"/>
-      <c r="V17" s="17"/>
-      <c r="W17" s="17"/>
-      <c r="X17" s="17"/>
-      <c r="Y17" s="17"/>
-      <c r="Z17" s="17"/>
-      <c r="AA17" s="19"/>
-      <c r="AB17" s="20"/>
+      <c r="B17" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="H17" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="I17" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="J17" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="K17" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="L17" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="M17" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="N17" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="O17" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="P17" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q17" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="R17" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="S17" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="T17" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="U17" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="V17" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="W17" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="X17" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y17" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z17" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA17" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB17" s="23" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="28.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="24" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="H18" s="21" t="s">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="I18" s="21" t="s">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="J18" s="21" t="s">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="K18" s="17" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="L18" s="22" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="M18" s="22" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="N18" s="22" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="O18" s="22" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="P18" s="22" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="Q18" s="22" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="R18" s="22" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="S18" s="22" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="T18" s="22" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="U18" s="22" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="V18" s="22" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="W18" s="22" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="X18" s="22" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="Y18" s="22" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="Z18" s="22" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="AA18" s="22" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="AB18" s="23" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="27.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="24" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
@@ -2118,93 +2244,93 @@
     </row>
     <row r="20" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="24" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="H20" s="21" t="s">
-        <v>109</v>
+        <v>133</v>
       </c>
       <c r="I20" s="21" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="J20" s="21" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="K20" s="17" t="s">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="L20" s="22" t="s">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="M20" s="22" t="s">
-        <v>114</v>
+        <v>138</v>
       </c>
       <c r="N20" s="22" t="s">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="O20" s="22" t="s">
-        <v>115</v>
+        <v>139</v>
       </c>
       <c r="P20" s="22" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="Q20" s="22" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="R20" s="22" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="S20" s="22" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
       <c r="T20" s="22" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="U20" s="22" t="s">
-        <v>121</v>
+        <v>145</v>
       </c>
       <c r="V20" s="22" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="W20" s="22" t="s">
-        <v>123</v>
+        <v>147</v>
       </c>
       <c r="X20" s="22" t="s">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="Y20" s="22" t="s">
-        <v>125</v>
+        <v>149</v>
       </c>
       <c r="Z20" s="22" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="AA20" s="22" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="AB20" s="23" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="31" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="B21" s="27"/>
       <c r="C21" s="27"/>
@@ -2236,7 +2362,7 @@
     </row>
     <row r="22" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="24" t="s">
-        <v>128</v>
+        <v>152</v>
       </c>
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
@@ -2268,7 +2394,7 @@
     </row>
     <row r="23" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="24" t="s">
-        <v>129</v>
+        <v>153</v>
       </c>
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
@@ -2300,7 +2426,7 @@
     </row>
     <row r="24" s="25" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="24" t="s">
-        <v>130</v>
+        <v>154</v>
       </c>
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
@@ -2332,7 +2458,7 @@
     </row>
     <row r="25" s="25" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="24" t="s">
-        <v>131</v>
+        <v>155</v>
       </c>
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
@@ -2364,7 +2490,7 @@
     </row>
     <row r="26" s="25" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="24" t="s">
-        <v>132</v>
+        <v>156</v>
       </c>
       <c r="B26" s="15"/>
       <c r="C26" s="15"/>
@@ -2396,7 +2522,7 @@
     </row>
     <row r="27" s="25" customFormat="true" ht="27.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="24" t="s">
-        <v>133</v>
+        <v>157</v>
       </c>
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
@@ -2428,7 +2554,7 @@
     </row>
     <row r="28" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="32" t="s">
-        <v>134</v>
+        <v>158</v>
       </c>
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
@@ -2460,7 +2586,7 @@
     </row>
     <row r="29" customFormat="false" ht="28.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="32" t="s">
-        <v>135</v>
+        <v>159</v>
       </c>
       <c r="B29" s="15"/>
       <c r="C29" s="15"/>
@@ -2492,7 +2618,7 @@
     </row>
     <row r="30" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="32" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="B30" s="15"/>
       <c r="C30" s="15"/>
@@ -2524,7 +2650,7 @@
     </row>
     <row r="31" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="33" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
       <c r="B31" s="15"/>
       <c r="C31" s="15"/>
@@ -2556,7 +2682,7 @@
     </row>
     <row r="32" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="33" t="s">
-        <v>138</v>
+        <v>162</v>
       </c>
       <c r="B32" s="15"/>
       <c r="C32" s="15"/>
@@ -2588,7 +2714,7 @@
     </row>
     <row r="33" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="33" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="B33" s="15"/>
       <c r="C33" s="15"/>
@@ -2620,7 +2746,7 @@
     </row>
     <row r="34" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="34" t="s">
-        <v>140</v>
+        <v>164</v>
       </c>
       <c r="B34" s="35"/>
       <c r="C34" s="35"/>
@@ -2682,7 +2808,7 @@
     </row>
     <row r="36" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="24" t="s">
-        <v>141</v>
+        <v>165</v>
       </c>
       <c r="B36" s="15"/>
       <c r="C36" s="15"/>
@@ -2714,7 +2840,7 @@
     </row>
     <row r="37" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="24" t="s">
-        <v>142</v>
+        <v>166</v>
       </c>
       <c r="B37" s="15"/>
       <c r="C37" s="15"/>
@@ -2746,7 +2872,7 @@
     </row>
     <row r="38" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="24" t="s">
-        <v>143</v>
+        <v>167</v>
       </c>
       <c r="B38" s="15"/>
       <c r="C38" s="15"/>
@@ -2778,7 +2904,7 @@
     </row>
     <row r="39" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="14" t="s">
-        <v>144</v>
+        <v>168</v>
       </c>
       <c r="B39" s="15"/>
       <c r="C39" s="15"/>
@@ -2810,7 +2936,7 @@
     </row>
     <row r="40" customFormat="false" ht="28.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="36" t="s">
-        <v>145</v>
+        <v>169</v>
       </c>
       <c r="B40" s="37"/>
       <c r="C40" s="37"/>
@@ -2885,7 +3011,7 @@
   <dimension ref="A1:Y59"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B17:AB17 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2896,32 +3022,32 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="41" t="s">
-        <v>146</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="41" t="s">
-        <v>147</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="41" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="41" t="s">
-        <v>149</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="41" t="s">
-        <v>150</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="41" t="s">
-        <v>151</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2929,12 +3055,12 @@
     </row>
     <row r="9" customFormat="false" ht="80.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="42" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="51.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="43" t="s">
-        <v>153</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2942,7 +3068,7 @@
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="44" t="s">
-        <v>154</v>
+        <v>178</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2950,22 +3076,22 @@
     </row>
     <row r="14" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="46" t="s">
-        <v>155</v>
+        <v>179</v>
       </c>
       <c r="B14" s="47" t="s">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="C14" s="47"/>
       <c r="D14" s="47" t="s">
-        <v>157</v>
+        <v>181</v>
       </c>
       <c r="E14" s="47"/>
       <c r="F14" s="47" t="s">
-        <v>158</v>
+        <v>182</v>
       </c>
       <c r="G14" s="47"/>
       <c r="H14" s="47" t="s">
-        <v>159</v>
+        <v>183</v>
       </c>
       <c r="I14" s="47"/>
       <c r="J14" s="47" t="s">
@@ -2981,19 +3107,19 @@
       </c>
       <c r="O14" s="47"/>
       <c r="P14" s="47" t="s">
-        <v>160</v>
+        <v>184</v>
       </c>
       <c r="Q14" s="47"/>
       <c r="R14" s="47" t="s">
-        <v>161</v>
+        <v>185</v>
       </c>
       <c r="S14" s="47"/>
       <c r="T14" s="47" t="s">
-        <v>162</v>
+        <v>186</v>
       </c>
       <c r="U14" s="47"/>
       <c r="V14" s="47" t="s">
-        <v>163</v>
+        <v>187</v>
       </c>
       <c r="W14" s="47"/>
       <c r="X14" s="48" t="s">
@@ -3078,7 +3204,7 @@
     </row>
     <row r="16" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="51" t="s">
-        <v>164</v>
+        <v>188</v>
       </c>
       <c r="B16" s="51"/>
       <c r="C16" s="51"/>
@@ -3107,7 +3233,7 @@
     </row>
     <row r="17" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="52" t="s">
-        <v>165</v>
+        <v>189</v>
       </c>
       <c r="B17" s="53"/>
       <c r="C17" s="53"/>
@@ -3136,7 +3262,7 @@
     </row>
     <row r="18" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="52" t="s">
-        <v>166</v>
+        <v>190</v>
       </c>
       <c r="B18" s="53"/>
       <c r="C18" s="53"/>
@@ -3165,7 +3291,7 @@
     </row>
     <row r="19" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="52" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
       <c r="B19" s="53"/>
       <c r="C19" s="53"/>
@@ -3248,7 +3374,7 @@
     </row>
     <row r="22" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="51" t="s">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="B22" s="51"/>
       <c r="C22" s="51"/>
@@ -3277,7 +3403,7 @@
     </row>
     <row r="23" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="52" t="s">
-        <v>169</v>
+        <v>193</v>
       </c>
       <c r="B23" s="53"/>
       <c r="C23" s="53"/>
@@ -3306,7 +3432,7 @@
     </row>
     <row r="24" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="52" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="B24" s="53"/>
       <c r="C24" s="53"/>
@@ -3335,7 +3461,7 @@
     </row>
     <row r="25" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="52" t="s">
-        <v>171</v>
+        <v>195</v>
       </c>
       <c r="B25" s="53"/>
       <c r="C25" s="53"/>
@@ -3364,7 +3490,7 @@
     </row>
     <row r="26" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="52" t="s">
-        <v>172</v>
+        <v>196</v>
       </c>
       <c r="B26" s="53"/>
       <c r="C26" s="53"/>
@@ -3447,7 +3573,7 @@
     </row>
     <row r="29" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="55" t="s">
-        <v>173</v>
+        <v>197</v>
       </c>
       <c r="B29" s="53"/>
       <c r="C29" s="53"/>
@@ -3476,7 +3602,7 @@
     </row>
     <row r="30" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="51" t="s">
-        <v>174</v>
+        <v>198</v>
       </c>
       <c r="B30" s="51"/>
       <c r="C30" s="51"/>
@@ -3505,7 +3631,7 @@
     </row>
     <row r="31" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="52" t="s">
-        <v>175</v>
+        <v>199</v>
       </c>
       <c r="B31" s="53"/>
       <c r="C31" s="53"/>
@@ -3534,7 +3660,7 @@
     </row>
     <row r="32" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="52" t="s">
-        <v>176</v>
+        <v>200</v>
       </c>
       <c r="B32" s="53"/>
       <c r="C32" s="53"/>
@@ -3617,7 +3743,7 @@
     </row>
     <row r="35" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="51" t="s">
-        <v>177</v>
+        <v>201</v>
       </c>
       <c r="B35" s="51"/>
       <c r="C35" s="51"/>
@@ -3727,7 +3853,7 @@
     </row>
     <row r="39" customFormat="false" ht="66.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="55" t="s">
-        <v>178</v>
+        <v>202</v>
       </c>
       <c r="B39" s="53"/>
       <c r="C39" s="53"/>
@@ -3756,7 +3882,7 @@
     </row>
     <row r="40" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="55" t="s">
-        <v>179</v>
+        <v>203</v>
       </c>
       <c r="B40" s="53"/>
       <c r="C40" s="53"/>
@@ -3785,7 +3911,7 @@
     </row>
     <row r="41" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="51" t="s">
-        <v>180</v>
+        <v>204</v>
       </c>
       <c r="B41" s="51"/>
       <c r="C41" s="51"/>
@@ -3814,7 +3940,7 @@
     </row>
     <row r="42" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="52" t="s">
-        <v>181</v>
+        <v>205</v>
       </c>
       <c r="B42" s="53"/>
       <c r="C42" s="53"/>
@@ -3843,7 +3969,7 @@
     </row>
     <row r="43" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="52" t="s">
-        <v>182</v>
+        <v>206</v>
       </c>
       <c r="B43" s="53"/>
       <c r="C43" s="53"/>
@@ -3872,7 +3998,7 @@
     </row>
     <row r="44" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="52" t="s">
-        <v>183</v>
+        <v>207</v>
       </c>
       <c r="B44" s="53"/>
       <c r="C44" s="53"/>
@@ -3955,7 +4081,7 @@
     </row>
     <row r="47" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="51" t="s">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="B47" s="51"/>
       <c r="C47" s="51"/>
@@ -4038,7 +4164,7 @@
     </row>
     <row r="50" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="52" t="s">
-        <v>185</v>
+        <v>209</v>
       </c>
       <c r="B50" s="53"/>
       <c r="C50" s="53"/>
@@ -4067,7 +4193,7 @@
     </row>
     <row r="51" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="51" t="s">
-        <v>186</v>
+        <v>210</v>
       </c>
       <c r="B51" s="51"/>
       <c r="C51" s="51"/>
@@ -4096,7 +4222,7 @@
     </row>
     <row r="52" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="56" t="s">
-        <v>187</v>
+        <v>211</v>
       </c>
       <c r="B52" s="53"/>
       <c r="C52" s="53"/>
@@ -4125,7 +4251,7 @@
     </row>
     <row r="53" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="56" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
       <c r="B53" s="53"/>
       <c r="C53" s="53"/>
@@ -4154,7 +4280,7 @@
     </row>
     <row r="54" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="56" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="B54" s="53"/>
       <c r="C54" s="53"/>
@@ -4210,7 +4336,7 @@
     </row>
     <row r="56" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="57" t="s">
-        <v>190</v>
+        <v>214</v>
       </c>
       <c r="B56" s="53"/>
       <c r="C56" s="53"/>
@@ -4239,7 +4365,7 @@
     </row>
     <row r="57" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="58" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="B57" s="59"/>
       <c r="C57" s="59"/>
@@ -4271,7 +4397,7 @@
     </row>
     <row r="59" customFormat="false" ht="141.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="62" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>

--- a/resources/report_template.xlsx
+++ b/resources/report_template.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="241">
   <si>
     <t>Région</t>
   </si>
@@ -235,6 +235,78 @@
   </si>
   <si>
     <t>Nombre d’adultes et d’enfants déjà sous TARV  mais perdus de vue dans le centre et qui ont repris le traitement au cours au cours de la période de raportage (D)</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_LOST_BACK', gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_LOST_BACK', gender: 1}</t>
+  </si>
+  <si>
+    <t>{key:'ARV_LOST_BACK', age_max: 15}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_LOST_BACK', age_min: 15}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_LOST_BACK'}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_LOST_BACK', age_max: 15, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_LOST_BACK', age_max: 15, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_LOST_BACK', age_min: 15, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_LOST_BACK', age_min: 15, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_LOST_BACK', age_max: 1, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_LOST_BACK', age_max: 1, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_LOST_BACK', age_min: 1, age_max: 4, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_LOST_BACK', age_min: 5, age_max: 9, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_LOST_BACK', age_min: 5, age_max: 9, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_LOST_BACK', age_min: 10, age_max: 14, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_LOST_BACK', age_min: 10, age_max: 14, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_LOST_BACK', age_min: 15, age_max: 19, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_LOST_BACK', age_min: 15, age_max: 19, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_LOST_BACK', age_min: 20, age_max: 24, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_LOST_BACK', age_min: 20, age_max: 24, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_LOST_BACK', age_min: 25, age_max: 49, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_LOST_BACK', age_min: 25, age_max: 49, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_LOST_BACK', age_min: 50, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_LOST_BACK', age_min: 50, gender: 1}</t>
   </si>
   <si>
     <t>Nombre d’adultes et d’enfants déjà sous TARV  et ayant arrêté le traitement mais qui ont repris au cours au cours de la période de raportage (E)</t>
@@ -1478,8 +1550,8 @@
   </sheetPr>
   <dimension ref="A1:AB57"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B5" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F17" activeCellId="0" sqref="B17:AB17"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14:AB14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1942,41 +2014,95 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" s="25" customFormat="true" ht="27.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" s="25" customFormat="true" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="18"/>
-      <c r="O14" s="18"/>
-      <c r="P14" s="18"/>
-      <c r="Q14" s="18"/>
-      <c r="R14" s="18"/>
-      <c r="S14" s="18"/>
-      <c r="T14" s="18"/>
-      <c r="U14" s="18"/>
-      <c r="V14" s="18"/>
-      <c r="W14" s="18"/>
-      <c r="X14" s="18"/>
-      <c r="Y14" s="18"/>
-      <c r="Z14" s="18"/>
-      <c r="AA14" s="19"/>
-      <c r="AB14" s="20"/>
+      <c r="B14" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H14" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="I14" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="J14" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="K14" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="L14" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="M14" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="N14" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="O14" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="P14" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q14" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="R14" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="S14" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="T14" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="U14" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="V14" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="W14" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="X14" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y14" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z14" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA14" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB14" s="23" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="15" s="25" customFormat="true" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="24" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
@@ -2008,7 +2134,7 @@
     </row>
     <row r="16" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="26" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="B16" s="27"/>
       <c r="C16" s="27"/>
@@ -2040,179 +2166,179 @@
     </row>
     <row r="17" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="24" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="H17" s="21" t="s">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="I17" s="21" t="s">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="J17" s="21" t="s">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="K17" s="17" t="s">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="L17" s="22" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="M17" s="22" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="N17" s="22" t="s">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="O17" s="22" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="P17" s="22" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="Q17" s="22" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="R17" s="22" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="S17" s="22" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="T17" s="22" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="U17" s="22" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="V17" s="22" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="W17" s="22" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="X17" s="22" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="Y17" s="22" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="Z17" s="22" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="AA17" s="22" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="AB17" s="23" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="28.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="24" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="H18" s="21" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="I18" s="21" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="J18" s="21" t="s">
-        <v>109</v>
+        <v>133</v>
       </c>
       <c r="K18" s="17" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="L18" s="22" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="M18" s="22" t="s">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="N18" s="22" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="O18" s="22" t="s">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="P18" s="22" t="s">
-        <v>114</v>
+        <v>138</v>
       </c>
       <c r="Q18" s="22" t="s">
-        <v>115</v>
+        <v>139</v>
       </c>
       <c r="R18" s="22" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="S18" s="22" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="T18" s="22" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="U18" s="22" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
       <c r="V18" s="22" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="W18" s="22" t="s">
-        <v>121</v>
+        <v>145</v>
       </c>
       <c r="X18" s="22" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="Y18" s="22" t="s">
-        <v>123</v>
+        <v>147</v>
       </c>
       <c r="Z18" s="22" t="s">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="AA18" s="22" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="AB18" s="23" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="27.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="24" t="s">
-        <v>125</v>
+        <v>149</v>
       </c>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
@@ -2244,93 +2370,93 @@
     </row>
     <row r="20" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="24" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>128</v>
+        <v>152</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>129</v>
+        <v>153</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>130</v>
+        <v>154</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>131</v>
+        <v>155</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>132</v>
+        <v>156</v>
       </c>
       <c r="H20" s="21" t="s">
-        <v>133</v>
+        <v>157</v>
       </c>
       <c r="I20" s="21" t="s">
-        <v>134</v>
+        <v>158</v>
       </c>
       <c r="J20" s="21" t="s">
-        <v>135</v>
+        <v>159</v>
       </c>
       <c r="K20" s="17" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="L20" s="22" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
       <c r="M20" s="22" t="s">
-        <v>138</v>
+        <v>162</v>
       </c>
       <c r="N20" s="22" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="O20" s="22" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="P20" s="22" t="s">
-        <v>140</v>
+        <v>164</v>
       </c>
       <c r="Q20" s="22" t="s">
-        <v>141</v>
+        <v>165</v>
       </c>
       <c r="R20" s="22" t="s">
-        <v>142</v>
+        <v>166</v>
       </c>
       <c r="S20" s="22" t="s">
-        <v>143</v>
+        <v>167</v>
       </c>
       <c r="T20" s="22" t="s">
-        <v>144</v>
+        <v>168</v>
       </c>
       <c r="U20" s="22" t="s">
-        <v>145</v>
+        <v>169</v>
       </c>
       <c r="V20" s="22" t="s">
-        <v>146</v>
+        <v>170</v>
       </c>
       <c r="W20" s="22" t="s">
-        <v>147</v>
+        <v>171</v>
       </c>
       <c r="X20" s="22" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
       <c r="Y20" s="22" t="s">
-        <v>149</v>
+        <v>173</v>
       </c>
       <c r="Z20" s="22" t="s">
-        <v>150</v>
+        <v>174</v>
       </c>
       <c r="AA20" s="22" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="AB20" s="23" t="s">
-        <v>128</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="31" t="s">
-        <v>151</v>
+        <v>175</v>
       </c>
       <c r="B21" s="27"/>
       <c r="C21" s="27"/>
@@ -2362,7 +2488,7 @@
     </row>
     <row r="22" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="24" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
@@ -2394,7 +2520,7 @@
     </row>
     <row r="23" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="24" t="s">
-        <v>153</v>
+        <v>177</v>
       </c>
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
@@ -2426,7 +2552,7 @@
     </row>
     <row r="24" s="25" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="24" t="s">
-        <v>154</v>
+        <v>178</v>
       </c>
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
@@ -2458,7 +2584,7 @@
     </row>
     <row r="25" s="25" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="24" t="s">
-        <v>155</v>
+        <v>179</v>
       </c>
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
@@ -2490,7 +2616,7 @@
     </row>
     <row r="26" s="25" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="24" t="s">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="B26" s="15"/>
       <c r="C26" s="15"/>
@@ -2522,7 +2648,7 @@
     </row>
     <row r="27" s="25" customFormat="true" ht="27.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="24" t="s">
-        <v>157</v>
+        <v>181</v>
       </c>
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
@@ -2554,7 +2680,7 @@
     </row>
     <row r="28" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="32" t="s">
-        <v>158</v>
+        <v>182</v>
       </c>
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
@@ -2586,7 +2712,7 @@
     </row>
     <row r="29" customFormat="false" ht="28.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="32" t="s">
-        <v>159</v>
+        <v>183</v>
       </c>
       <c r="B29" s="15"/>
       <c r="C29" s="15"/>
@@ -2618,7 +2744,7 @@
     </row>
     <row r="30" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="32" t="s">
-        <v>160</v>
+        <v>184</v>
       </c>
       <c r="B30" s="15"/>
       <c r="C30" s="15"/>
@@ -2650,7 +2776,7 @@
     </row>
     <row r="31" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="33" t="s">
-        <v>161</v>
+        <v>185</v>
       </c>
       <c r="B31" s="15"/>
       <c r="C31" s="15"/>
@@ -2682,7 +2808,7 @@
     </row>
     <row r="32" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="33" t="s">
-        <v>162</v>
+        <v>186</v>
       </c>
       <c r="B32" s="15"/>
       <c r="C32" s="15"/>
@@ -2714,7 +2840,7 @@
     </row>
     <row r="33" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="33" t="s">
-        <v>163</v>
+        <v>187</v>
       </c>
       <c r="B33" s="15"/>
       <c r="C33" s="15"/>
@@ -2746,7 +2872,7 @@
     </row>
     <row r="34" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="34" t="s">
-        <v>164</v>
+        <v>188</v>
       </c>
       <c r="B34" s="35"/>
       <c r="C34" s="35"/>
@@ -2808,7 +2934,7 @@
     </row>
     <row r="36" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="24" t="s">
-        <v>165</v>
+        <v>189</v>
       </c>
       <c r="B36" s="15"/>
       <c r="C36" s="15"/>
@@ -2840,7 +2966,7 @@
     </row>
     <row r="37" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="24" t="s">
-        <v>166</v>
+        <v>190</v>
       </c>
       <c r="B37" s="15"/>
       <c r="C37" s="15"/>
@@ -2872,7 +2998,7 @@
     </row>
     <row r="38" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="24" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
       <c r="B38" s="15"/>
       <c r="C38" s="15"/>
@@ -2904,7 +3030,7 @@
     </row>
     <row r="39" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="14" t="s">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="B39" s="15"/>
       <c r="C39" s="15"/>
@@ -2936,7 +3062,7 @@
     </row>
     <row r="40" customFormat="false" ht="28.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="36" t="s">
-        <v>169</v>
+        <v>193</v>
       </c>
       <c r="B40" s="37"/>
       <c r="C40" s="37"/>
@@ -3011,7 +3137,7 @@
   <dimension ref="A1:Y59"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B17:AB17 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B14:AB14 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3022,32 +3148,32 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="41" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="41" t="s">
-        <v>171</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="41" t="s">
-        <v>172</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="41" t="s">
-        <v>173</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="41" t="s">
-        <v>174</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="41" t="s">
-        <v>175</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3055,12 +3181,12 @@
     </row>
     <row r="9" customFormat="false" ht="80.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="42" t="s">
-        <v>176</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="51.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="43" t="s">
-        <v>177</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3068,7 +3194,7 @@
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="44" t="s">
-        <v>178</v>
+        <v>202</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3076,22 +3202,22 @@
     </row>
     <row r="14" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="46" t="s">
-        <v>179</v>
+        <v>203</v>
       </c>
       <c r="B14" s="47" t="s">
-        <v>180</v>
+        <v>204</v>
       </c>
       <c r="C14" s="47"/>
       <c r="D14" s="47" t="s">
-        <v>181</v>
+        <v>205</v>
       </c>
       <c r="E14" s="47"/>
       <c r="F14" s="47" t="s">
-        <v>182</v>
+        <v>206</v>
       </c>
       <c r="G14" s="47"/>
       <c r="H14" s="47" t="s">
-        <v>183</v>
+        <v>207</v>
       </c>
       <c r="I14" s="47"/>
       <c r="J14" s="47" t="s">
@@ -3107,19 +3233,19 @@
       </c>
       <c r="O14" s="47"/>
       <c r="P14" s="47" t="s">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="Q14" s="47"/>
       <c r="R14" s="47" t="s">
-        <v>185</v>
+        <v>209</v>
       </c>
       <c r="S14" s="47"/>
       <c r="T14" s="47" t="s">
-        <v>186</v>
+        <v>210</v>
       </c>
       <c r="U14" s="47"/>
       <c r="V14" s="47" t="s">
-        <v>187</v>
+        <v>211</v>
       </c>
       <c r="W14" s="47"/>
       <c r="X14" s="48" t="s">
@@ -3204,7 +3330,7 @@
     </row>
     <row r="16" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="51" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
       <c r="B16" s="51"/>
       <c r="C16" s="51"/>
@@ -3233,7 +3359,7 @@
     </row>
     <row r="17" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="52" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="B17" s="53"/>
       <c r="C17" s="53"/>
@@ -3262,7 +3388,7 @@
     </row>
     <row r="18" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="52" t="s">
-        <v>190</v>
+        <v>214</v>
       </c>
       <c r="B18" s="53"/>
       <c r="C18" s="53"/>
@@ -3291,7 +3417,7 @@
     </row>
     <row r="19" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="52" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="B19" s="53"/>
       <c r="C19" s="53"/>
@@ -3374,7 +3500,7 @@
     </row>
     <row r="22" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="51" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="B22" s="51"/>
       <c r="C22" s="51"/>
@@ -3403,7 +3529,7 @@
     </row>
     <row r="23" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="52" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="B23" s="53"/>
       <c r="C23" s="53"/>
@@ -3432,7 +3558,7 @@
     </row>
     <row r="24" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="52" t="s">
-        <v>194</v>
+        <v>218</v>
       </c>
       <c r="B24" s="53"/>
       <c r="C24" s="53"/>
@@ -3461,7 +3587,7 @@
     </row>
     <row r="25" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="52" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="B25" s="53"/>
       <c r="C25" s="53"/>
@@ -3490,7 +3616,7 @@
     </row>
     <row r="26" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="52" t="s">
-        <v>196</v>
+        <v>220</v>
       </c>
       <c r="B26" s="53"/>
       <c r="C26" s="53"/>
@@ -3573,7 +3699,7 @@
     </row>
     <row r="29" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="55" t="s">
-        <v>197</v>
+        <v>221</v>
       </c>
       <c r="B29" s="53"/>
       <c r="C29" s="53"/>
@@ -3602,7 +3728,7 @@
     </row>
     <row r="30" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="51" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
       <c r="B30" s="51"/>
       <c r="C30" s="51"/>
@@ -3631,7 +3757,7 @@
     </row>
     <row r="31" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="52" t="s">
-        <v>199</v>
+        <v>223</v>
       </c>
       <c r="B31" s="53"/>
       <c r="C31" s="53"/>
@@ -3660,7 +3786,7 @@
     </row>
     <row r="32" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="52" t="s">
-        <v>200</v>
+        <v>224</v>
       </c>
       <c r="B32" s="53"/>
       <c r="C32" s="53"/>
@@ -3743,7 +3869,7 @@
     </row>
     <row r="35" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="51" t="s">
-        <v>201</v>
+        <v>225</v>
       </c>
       <c r="B35" s="51"/>
       <c r="C35" s="51"/>
@@ -3853,7 +3979,7 @@
     </row>
     <row r="39" customFormat="false" ht="66.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="55" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="B39" s="53"/>
       <c r="C39" s="53"/>
@@ -3882,7 +4008,7 @@
     </row>
     <row r="40" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="55" t="s">
-        <v>203</v>
+        <v>227</v>
       </c>
       <c r="B40" s="53"/>
       <c r="C40" s="53"/>
@@ -3911,7 +4037,7 @@
     </row>
     <row r="41" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="51" t="s">
-        <v>204</v>
+        <v>228</v>
       </c>
       <c r="B41" s="51"/>
       <c r="C41" s="51"/>
@@ -3940,7 +4066,7 @@
     </row>
     <row r="42" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="52" t="s">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c r="B42" s="53"/>
       <c r="C42" s="53"/>
@@ -3969,7 +4095,7 @@
     </row>
     <row r="43" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="52" t="s">
-        <v>206</v>
+        <v>230</v>
       </c>
       <c r="B43" s="53"/>
       <c r="C43" s="53"/>
@@ -3998,7 +4124,7 @@
     </row>
     <row r="44" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="52" t="s">
-        <v>207</v>
+        <v>231</v>
       </c>
       <c r="B44" s="53"/>
       <c r="C44" s="53"/>
@@ -4081,7 +4207,7 @@
     </row>
     <row r="47" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="51" t="s">
-        <v>208</v>
+        <v>232</v>
       </c>
       <c r="B47" s="51"/>
       <c r="C47" s="51"/>
@@ -4164,7 +4290,7 @@
     </row>
     <row r="50" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="52" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
       <c r="B50" s="53"/>
       <c r="C50" s="53"/>
@@ -4193,7 +4319,7 @@
     </row>
     <row r="51" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="51" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="B51" s="51"/>
       <c r="C51" s="51"/>
@@ -4222,7 +4348,7 @@
     </row>
     <row r="52" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="56" t="s">
-        <v>211</v>
+        <v>235</v>
       </c>
       <c r="B52" s="53"/>
       <c r="C52" s="53"/>
@@ -4251,7 +4377,7 @@
     </row>
     <row r="53" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="56" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="B53" s="53"/>
       <c r="C53" s="53"/>
@@ -4280,7 +4406,7 @@
     </row>
     <row r="54" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="56" t="s">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="B54" s="53"/>
       <c r="C54" s="53"/>
@@ -4336,7 +4462,7 @@
     </row>
     <row r="56" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="57" t="s">
-        <v>214</v>
+        <v>238</v>
       </c>
       <c r="B56" s="53"/>
       <c r="C56" s="53"/>
@@ -4365,7 +4491,7 @@
     </row>
     <row r="57" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="58" t="s">
-        <v>215</v>
+        <v>239</v>
       </c>
       <c r="B57" s="59"/>
       <c r="C57" s="59"/>
@@ -4397,7 +4523,7 @@
     </row>
     <row r="59" customFormat="false" ht="141.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="62" t="s">
-        <v>216</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>

--- a/resources/report_template.xlsx
+++ b/resources/report_template.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="313">
   <si>
     <t>Région</t>
   </si>
@@ -691,6 +691,78 @@
   </si>
   <si>
     <t>Nombre de personnes infectées par le VIH, qui répondent aux critères d’éligibilité à la prophylaxie au cotrimoxazole au cours au cours de la période de raportage</t>
+  </si>
+  <si>
+    <t>{key: 'CTX_ELIGIBLE', gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'CTX_ELIGIBLE', gender: 1}</t>
+  </si>
+  <si>
+    <t>{key:'CTX_ELIGIBLE', age_max: 15}</t>
+  </si>
+  <si>
+    <t>{key: 'CTX_ELIGIBLE', age_min: 15}</t>
+  </si>
+  <si>
+    <t>{key: 'CTX_ELIGIBLE'}</t>
+  </si>
+  <si>
+    <t>{key: 'CTX_ELIGIBLE', age_max: 15, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'CTX_ELIGIBLE', age_max: 15, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'CTX_ELIGIBLE', age_min: 15, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'CTX_ELIGIBLE', age_min: 15, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'CTX_ELIGIBLE', age_max: 1, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'CTX_ELIGIBLE', age_max: 1, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'CTX_ELIGIBLE', age_min: 1, age_max: 4, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'CTX_ELIGIBLE', age_min: 5, age_max: 9, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'CTX_ELIGIBLE', age_min: 5, age_max: 9, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'CTX_ELIGIBLE', age_min: 10, age_max: 14, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'CTX_ELIGIBLE', age_min: 10, age_max: 14, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'CTX_ELIGIBLE', age_min: 15, age_max: 19, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'CTX_ELIGIBLE', age_min: 15, age_max: 19, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'CTX_ELIGIBLE', age_min: 20, age_max: 24, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'CTX_ELIGIBLE', age_min: 20, age_max: 24, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'CTX_ELIGIBLE', age_min: 25, age_max: 49, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'CTX_ELIGIBLE', age_min: 25, age_max: 49, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'CTX_ELIGIBLE', age_min: 50, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'CTX_ELIGIBLE', age_min: 50, gender: 1}</t>
   </si>
   <si>
     <t>Nombre de personnes  VIH, qui reçoivent  du cotrimoxazole au cours au cours de la période de raportage</t>
@@ -1664,8 +1736,8 @@
   </sheetPr>
   <dimension ref="A1:AB57"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A21" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A26" activeCellId="0" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2708,41 +2780,95 @@
         <v>201</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="18" t="s">
         <v>224</v>
       </c>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="16"/>
-      <c r="N22" s="16"/>
-      <c r="O22" s="16"/>
-      <c r="P22" s="16"/>
-      <c r="Q22" s="16"/>
-      <c r="R22" s="16"/>
-      <c r="S22" s="16"/>
-      <c r="T22" s="16"/>
-      <c r="U22" s="16"/>
-      <c r="V22" s="16"/>
-      <c r="W22" s="16"/>
-      <c r="X22" s="16"/>
-      <c r="Y22" s="16"/>
-      <c r="Z22" s="16"/>
-      <c r="AA22" s="20"/>
-      <c r="AB22" s="22"/>
+      <c r="B22" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="I22" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="J22" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="K22" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="L22" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="M22" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="N22" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="O22" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="P22" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q22" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="R22" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="S22" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="T22" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="U22" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="V22" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="W22" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="X22" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="Y22" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="Z22" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="AA22" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="AB22" s="17" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="18" t="s">
-        <v>225</v>
+        <v>249</v>
       </c>
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
@@ -2774,7 +2900,7 @@
     </row>
     <row r="24" s="19" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="18" t="s">
-        <v>226</v>
+        <v>250</v>
       </c>
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
@@ -2806,7 +2932,7 @@
     </row>
     <row r="25" s="19" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="18" t="s">
-        <v>227</v>
+        <v>251</v>
       </c>
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
@@ -2836,9 +2962,9 @@
       <c r="AA25" s="20"/>
       <c r="AB25" s="22"/>
     </row>
-    <row r="26" s="19" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" s="19" customFormat="true" ht="28.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="18" t="s">
-        <v>228</v>
+        <v>252</v>
       </c>
       <c r="B26" s="15"/>
       <c r="C26" s="15"/>
@@ -2870,7 +2996,7 @@
     </row>
     <row r="27" s="19" customFormat="true" ht="27.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="18" t="s">
-        <v>229</v>
+        <v>253</v>
       </c>
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
@@ -2902,7 +3028,7 @@
     </row>
     <row r="28" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="29" t="s">
-        <v>230</v>
+        <v>254</v>
       </c>
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
@@ -2934,7 +3060,7 @@
     </row>
     <row r="29" customFormat="false" ht="28.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="29" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="B29" s="15"/>
       <c r="C29" s="15"/>
@@ -2966,7 +3092,7 @@
     </row>
     <row r="30" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="29" t="s">
-        <v>232</v>
+        <v>256</v>
       </c>
       <c r="B30" s="15"/>
       <c r="C30" s="15"/>
@@ -2998,7 +3124,7 @@
     </row>
     <row r="31" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="30" t="s">
-        <v>233</v>
+        <v>257</v>
       </c>
       <c r="B31" s="15"/>
       <c r="C31" s="15"/>
@@ -3030,7 +3156,7 @@
     </row>
     <row r="32" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="30" t="s">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="B32" s="15"/>
       <c r="C32" s="15"/>
@@ -3062,7 +3188,7 @@
     </row>
     <row r="33" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="30" t="s">
-        <v>235</v>
+        <v>259</v>
       </c>
       <c r="B33" s="15"/>
       <c r="C33" s="15"/>
@@ -3094,7 +3220,7 @@
     </row>
     <row r="34" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="31" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="B34" s="32"/>
       <c r="C34" s="32"/>
@@ -3156,7 +3282,7 @@
     </row>
     <row r="36" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="18" t="s">
-        <v>237</v>
+        <v>261</v>
       </c>
       <c r="B36" s="15"/>
       <c r="C36" s="15"/>
@@ -3188,7 +3314,7 @@
     </row>
     <row r="37" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="18" t="s">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="B37" s="15"/>
       <c r="C37" s="15"/>
@@ -3220,7 +3346,7 @@
     </row>
     <row r="38" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="18" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="B38" s="15"/>
       <c r="C38" s="15"/>
@@ -3252,7 +3378,7 @@
     </row>
     <row r="39" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="14" t="s">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="B39" s="15"/>
       <c r="C39" s="15"/>
@@ -3284,7 +3410,7 @@
     </row>
     <row r="40" customFormat="false" ht="28.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="33" t="s">
-        <v>241</v>
+        <v>265</v>
       </c>
       <c r="B40" s="34"/>
       <c r="C40" s="34"/>
@@ -3370,32 +3496,32 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="38" t="s">
-        <v>242</v>
+        <v>266</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="38" t="s">
-        <v>243</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="38" t="s">
-        <v>244</v>
+        <v>268</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="38" t="s">
-        <v>245</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="38" t="s">
-        <v>246</v>
+        <v>270</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="38" t="s">
-        <v>247</v>
+        <v>271</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3403,12 +3529,12 @@
     </row>
     <row r="9" customFormat="false" ht="80.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="39" t="s">
-        <v>248</v>
+        <v>272</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="51.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="40" t="s">
-        <v>249</v>
+        <v>273</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3416,7 +3542,7 @@
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="41" t="s">
-        <v>250</v>
+        <v>274</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3424,22 +3550,22 @@
     </row>
     <row r="14" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="43" t="s">
-        <v>251</v>
+        <v>275</v>
       </c>
       <c r="B14" s="44" t="s">
-        <v>252</v>
+        <v>276</v>
       </c>
       <c r="C14" s="44"/>
       <c r="D14" s="44" t="s">
-        <v>253</v>
+        <v>277</v>
       </c>
       <c r="E14" s="44"/>
       <c r="F14" s="44" t="s">
-        <v>254</v>
+        <v>278</v>
       </c>
       <c r="G14" s="44"/>
       <c r="H14" s="44" t="s">
-        <v>255</v>
+        <v>279</v>
       </c>
       <c r="I14" s="44"/>
       <c r="J14" s="44" t="s">
@@ -3455,19 +3581,19 @@
       </c>
       <c r="O14" s="44"/>
       <c r="P14" s="44" t="s">
-        <v>256</v>
+        <v>280</v>
       </c>
       <c r="Q14" s="44"/>
       <c r="R14" s="44" t="s">
-        <v>257</v>
+        <v>281</v>
       </c>
       <c r="S14" s="44"/>
       <c r="T14" s="44" t="s">
-        <v>258</v>
+        <v>282</v>
       </c>
       <c r="U14" s="44"/>
       <c r="V14" s="44" t="s">
-        <v>259</v>
+        <v>283</v>
       </c>
       <c r="W14" s="44"/>
       <c r="X14" s="45" t="s">
@@ -3552,7 +3678,7 @@
     </row>
     <row r="16" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="48" t="s">
-        <v>260</v>
+        <v>284</v>
       </c>
       <c r="B16" s="48"/>
       <c r="C16" s="48"/>
@@ -3581,7 +3707,7 @@
     </row>
     <row r="17" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="49" t="s">
-        <v>261</v>
+        <v>285</v>
       </c>
       <c r="B17" s="50"/>
       <c r="C17" s="50"/>
@@ -3610,7 +3736,7 @@
     </row>
     <row r="18" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="49" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="B18" s="50"/>
       <c r="C18" s="50"/>
@@ -3639,7 +3765,7 @@
     </row>
     <row r="19" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="49" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="B19" s="50"/>
       <c r="C19" s="50"/>
@@ -3722,7 +3848,7 @@
     </row>
     <row r="22" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="48" t="s">
-        <v>264</v>
+        <v>288</v>
       </c>
       <c r="B22" s="48"/>
       <c r="C22" s="48"/>
@@ -3751,7 +3877,7 @@
     </row>
     <row r="23" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="49" t="s">
-        <v>265</v>
+        <v>289</v>
       </c>
       <c r="B23" s="50"/>
       <c r="C23" s="50"/>
@@ -3780,7 +3906,7 @@
     </row>
     <row r="24" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="49" t="s">
-        <v>266</v>
+        <v>290</v>
       </c>
       <c r="B24" s="50"/>
       <c r="C24" s="50"/>
@@ -3809,7 +3935,7 @@
     </row>
     <row r="25" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="49" t="s">
-        <v>267</v>
+        <v>291</v>
       </c>
       <c r="B25" s="50"/>
       <c r="C25" s="50"/>
@@ -3838,7 +3964,7 @@
     </row>
     <row r="26" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="49" t="s">
-        <v>268</v>
+        <v>292</v>
       </c>
       <c r="B26" s="50"/>
       <c r="C26" s="50"/>
@@ -3921,7 +4047,7 @@
     </row>
     <row r="29" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="52" t="s">
-        <v>269</v>
+        <v>293</v>
       </c>
       <c r="B29" s="50"/>
       <c r="C29" s="50"/>
@@ -3950,7 +4076,7 @@
     </row>
     <row r="30" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="48" t="s">
-        <v>270</v>
+        <v>294</v>
       </c>
       <c r="B30" s="48"/>
       <c r="C30" s="48"/>
@@ -3979,7 +4105,7 @@
     </row>
     <row r="31" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="49" t="s">
-        <v>271</v>
+        <v>295</v>
       </c>
       <c r="B31" s="50"/>
       <c r="C31" s="50"/>
@@ -4008,7 +4134,7 @@
     </row>
     <row r="32" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="49" t="s">
-        <v>272</v>
+        <v>296</v>
       </c>
       <c r="B32" s="50"/>
       <c r="C32" s="50"/>
@@ -4091,7 +4217,7 @@
     </row>
     <row r="35" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="48" t="s">
-        <v>273</v>
+        <v>297</v>
       </c>
       <c r="B35" s="48"/>
       <c r="C35" s="48"/>
@@ -4201,7 +4327,7 @@
     </row>
     <row r="39" customFormat="false" ht="66.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="52" t="s">
-        <v>274</v>
+        <v>298</v>
       </c>
       <c r="B39" s="50"/>
       <c r="C39" s="50"/>
@@ -4230,7 +4356,7 @@
     </row>
     <row r="40" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="52" t="s">
-        <v>275</v>
+        <v>299</v>
       </c>
       <c r="B40" s="50"/>
       <c r="C40" s="50"/>
@@ -4259,7 +4385,7 @@
     </row>
     <row r="41" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="48" t="s">
-        <v>276</v>
+        <v>300</v>
       </c>
       <c r="B41" s="48"/>
       <c r="C41" s="48"/>
@@ -4288,7 +4414,7 @@
     </row>
     <row r="42" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="49" t="s">
-        <v>277</v>
+        <v>301</v>
       </c>
       <c r="B42" s="50"/>
       <c r="C42" s="50"/>
@@ -4317,7 +4443,7 @@
     </row>
     <row r="43" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="49" t="s">
-        <v>278</v>
+        <v>302</v>
       </c>
       <c r="B43" s="50"/>
       <c r="C43" s="50"/>
@@ -4346,7 +4472,7 @@
     </row>
     <row r="44" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="49" t="s">
-        <v>279</v>
+        <v>303</v>
       </c>
       <c r="B44" s="50"/>
       <c r="C44" s="50"/>
@@ -4429,7 +4555,7 @@
     </row>
     <row r="47" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="48" t="s">
-        <v>280</v>
+        <v>304</v>
       </c>
       <c r="B47" s="48"/>
       <c r="C47" s="48"/>
@@ -4512,7 +4638,7 @@
     </row>
     <row r="50" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="49" t="s">
-        <v>281</v>
+        <v>305</v>
       </c>
       <c r="B50" s="50"/>
       <c r="C50" s="50"/>
@@ -4541,7 +4667,7 @@
     </row>
     <row r="51" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="48" t="s">
-        <v>282</v>
+        <v>306</v>
       </c>
       <c r="B51" s="48"/>
       <c r="C51" s="48"/>
@@ -4570,7 +4696,7 @@
     </row>
     <row r="52" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="53" t="s">
-        <v>283</v>
+        <v>307</v>
       </c>
       <c r="B52" s="50"/>
       <c r="C52" s="50"/>
@@ -4599,7 +4725,7 @@
     </row>
     <row r="53" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="53" t="s">
-        <v>284</v>
+        <v>308</v>
       </c>
       <c r="B53" s="50"/>
       <c r="C53" s="50"/>
@@ -4628,7 +4754,7 @@
     </row>
     <row r="54" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="53" t="s">
-        <v>285</v>
+        <v>309</v>
       </c>
       <c r="B54" s="50"/>
       <c r="C54" s="50"/>
@@ -4684,7 +4810,7 @@
     </row>
     <row r="56" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="54" t="s">
-        <v>286</v>
+        <v>310</v>
       </c>
       <c r="B56" s="50"/>
       <c r="C56" s="50"/>
@@ -4713,7 +4839,7 @@
     </row>
     <row r="57" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="55" t="s">
-        <v>287</v>
+        <v>311</v>
       </c>
       <c r="B57" s="56"/>
       <c r="C57" s="56"/>
@@ -4745,7 +4871,7 @@
     </row>
     <row r="59" customFormat="false" ht="141.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="59" t="s">
-        <v>288</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>

--- a/resources/report_template.xlsx
+++ b/resources/report_template.xlsx
@@ -1147,7 +1147,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1157,7 +1157,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD6DCE5"/>
-        <bgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFDDDDDD"/>
       </patternFill>
     </fill>
     <fill>
@@ -1182,6 +1182,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD9D9D9"/>
         <bgColor rgb="FFD8D8D8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFD9D9D9"/>
       </patternFill>
     </fill>
     <fill>
@@ -1374,7 +1380,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="64">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1491,6 +1497,22 @@
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="10" fillId="7" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="5" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="7" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="7" borderId="5" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1547,23 +1569,23 @@
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="8" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="8" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="8" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="8" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="8" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1645,7 +1667,7 @@
       <rgbColor rgb="FF5B9BD5"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFD9D9D9"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
@@ -1660,7 +1682,7 @@
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFD9D9D9"/>
+      <rgbColor rgb="FFDDDDDD"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FFA9D18E"/>
       <rgbColor rgb="FFFF99CC"/>
@@ -1736,8 +1758,8 @@
   </sheetPr>
   <dimension ref="A1:AB57"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A21" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A26" activeCellId="0" sqref="A26"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C16" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G26" activeCellId="0" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1922,7 +1944,7 @@
       </c>
       <c r="AB9" s="10"/>
     </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -2372,7 +2394,7 @@
       <c r="AA15" s="20"/>
       <c r="AB15" s="22"/>
     </row>
-    <row r="16" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="28.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="23" t="s">
         <v>122</v>
       </c>
@@ -2576,7 +2598,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="27.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="28.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="18" t="s">
         <v>173</v>
       </c>
@@ -2698,85 +2720,85 @@
       <c r="A21" s="28" t="s">
         <v>199</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="29" t="s">
         <v>200</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="29" t="s">
         <v>201</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="29" t="s">
         <v>202</v>
       </c>
-      <c r="E21" s="15" t="s">
+      <c r="E21" s="29" t="s">
         <v>203</v>
       </c>
-      <c r="F21" s="15" t="s">
+      <c r="F21" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="G21" s="15" t="s">
+      <c r="G21" s="30" t="s">
         <v>205</v>
       </c>
-      <c r="H21" s="15" t="s">
+      <c r="H21" s="30" t="s">
         <v>206</v>
       </c>
-      <c r="I21" s="15" t="s">
+      <c r="I21" s="30" t="s">
         <v>207</v>
       </c>
-      <c r="J21" s="15" t="s">
+      <c r="J21" s="30" t="s">
         <v>208</v>
       </c>
-      <c r="K21" s="16" t="s">
+      <c r="K21" s="31" t="s">
         <v>209</v>
       </c>
-      <c r="L21" s="16" t="s">
+      <c r="L21" s="31" t="s">
         <v>210</v>
       </c>
-      <c r="M21" s="16" t="s">
+      <c r="M21" s="31" t="s">
         <v>211</v>
       </c>
-      <c r="N21" s="16" t="s">
+      <c r="N21" s="31" t="s">
         <v>209</v>
       </c>
-      <c r="O21" s="16" t="s">
+      <c r="O21" s="31" t="s">
         <v>212</v>
       </c>
-      <c r="P21" s="16" t="s">
+      <c r="P21" s="31" t="s">
         <v>213</v>
       </c>
-      <c r="Q21" s="16" t="s">
+      <c r="Q21" s="31" t="s">
         <v>214</v>
       </c>
-      <c r="R21" s="16" t="s">
+      <c r="R21" s="31" t="s">
         <v>215</v>
       </c>
-      <c r="S21" s="16" t="s">
+      <c r="S21" s="31" t="s">
         <v>216</v>
       </c>
-      <c r="T21" s="16" t="s">
+      <c r="T21" s="31" t="s">
         <v>217</v>
       </c>
-      <c r="U21" s="16" t="s">
+      <c r="U21" s="31" t="s">
         <v>218</v>
       </c>
-      <c r="V21" s="16" t="s">
+      <c r="V21" s="31" t="s">
         <v>219</v>
       </c>
-      <c r="W21" s="16" t="s">
+      <c r="W21" s="31" t="s">
         <v>220</v>
       </c>
-      <c r="X21" s="16" t="s">
+      <c r="X21" s="31" t="s">
         <v>221</v>
       </c>
-      <c r="Y21" s="16" t="s">
+      <c r="Y21" s="31" t="s">
         <v>222</v>
       </c>
-      <c r="Z21" s="16" t="s">
+      <c r="Z21" s="31" t="s">
         <v>223</v>
       </c>
-      <c r="AA21" s="16" t="s">
+      <c r="AA21" s="31" t="s">
         <v>200</v>
       </c>
-      <c r="AB21" s="17" t="s">
+      <c r="AB21" s="32" t="s">
         <v>201</v>
       </c>
     </row>
@@ -2866,7 +2888,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="30.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="18" t="s">
         <v>249</v>
       </c>
@@ -2898,7 +2920,7 @@
       <c r="AA23" s="20"/>
       <c r="AB23" s="22"/>
     </row>
-    <row r="24" s="19" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" s="19" customFormat="true" ht="28.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="18" t="s">
         <v>250</v>
       </c>
@@ -2907,7 +2929,7 @@
       <c r="D24" s="15"/>
       <c r="E24" s="15"/>
       <c r="F24" s="20"/>
-      <c r="G24" s="16"/>
+      <c r="G24" s="20"/>
       <c r="H24" s="16"/>
       <c r="I24" s="16"/>
       <c r="J24" s="16"/>
@@ -2930,7 +2952,7 @@
       <c r="AA24" s="20"/>
       <c r="AB24" s="22"/>
     </row>
-    <row r="25" s="19" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" s="19" customFormat="true" ht="28.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="18" t="s">
         <v>251</v>
       </c>
@@ -3027,7 +3049,7 @@
       <c r="AB27" s="22"/>
     </row>
     <row r="28" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="29" t="s">
+      <c r="A28" s="33" t="s">
         <v>254</v>
       </c>
       <c r="B28" s="15"/>
@@ -3059,7 +3081,7 @@
       <c r="AB28" s="22"/>
     </row>
     <row r="29" customFormat="false" ht="28.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="29" t="s">
+      <c r="A29" s="33" t="s">
         <v>255</v>
       </c>
       <c r="B29" s="15"/>
@@ -3091,7 +3113,7 @@
       <c r="AB29" s="22"/>
     </row>
     <row r="30" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="29" t="s">
+      <c r="A30" s="33" t="s">
         <v>256</v>
       </c>
       <c r="B30" s="15"/>
@@ -3122,8 +3144,8 @@
       <c r="AA30" s="20"/>
       <c r="AB30" s="22"/>
     </row>
-    <row r="31" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="30" t="s">
+    <row r="31" customFormat="false" ht="41.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="34" t="s">
         <v>257</v>
       </c>
       <c r="B31" s="15"/>
@@ -3155,7 +3177,7 @@
       <c r="AB31" s="22"/>
     </row>
     <row r="32" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="30" t="s">
+      <c r="A32" s="34" t="s">
         <v>258</v>
       </c>
       <c r="B32" s="15"/>
@@ -3187,7 +3209,7 @@
       <c r="AB32" s="22"/>
     </row>
     <row r="33" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="30" t="s">
+      <c r="A33" s="34" t="s">
         <v>259</v>
       </c>
       <c r="B33" s="15"/>
@@ -3219,36 +3241,36 @@
       <c r="AB33" s="22"/>
     </row>
     <row r="34" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="31" t="s">
+      <c r="A34" s="35" t="s">
         <v>260</v>
       </c>
-      <c r="B34" s="32"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="32"/>
-      <c r="I34" s="32"/>
-      <c r="J34" s="32"/>
-      <c r="K34" s="32"/>
-      <c r="L34" s="32"/>
-      <c r="M34" s="32"/>
-      <c r="N34" s="32"/>
-      <c r="O34" s="32"/>
-      <c r="P34" s="32"/>
-      <c r="Q34" s="32"/>
-      <c r="R34" s="32"/>
-      <c r="S34" s="32"/>
-      <c r="T34" s="32"/>
-      <c r="U34" s="32"/>
-      <c r="V34" s="32"/>
-      <c r="W34" s="32"/>
-      <c r="X34" s="32"/>
-      <c r="Y34" s="32"/>
-      <c r="Z34" s="32"/>
-      <c r="AA34" s="32"/>
-      <c r="AB34" s="32"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="36"/>
+      <c r="K34" s="36"/>
+      <c r="L34" s="36"/>
+      <c r="M34" s="36"/>
+      <c r="N34" s="36"/>
+      <c r="O34" s="36"/>
+      <c r="P34" s="36"/>
+      <c r="Q34" s="36"/>
+      <c r="R34" s="36"/>
+      <c r="S34" s="36"/>
+      <c r="T34" s="36"/>
+      <c r="U34" s="36"/>
+      <c r="V34" s="36"/>
+      <c r="W34" s="36"/>
+      <c r="X34" s="36"/>
+      <c r="Y34" s="36"/>
+      <c r="Z34" s="36"/>
+      <c r="AA34" s="36"/>
+      <c r="AB34" s="36"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="18"/>
@@ -3409,36 +3431,36 @@
       <c r="AB39" s="22"/>
     </row>
     <row r="40" customFormat="false" ht="28.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="33" t="s">
+      <c r="A40" s="37" t="s">
         <v>265</v>
       </c>
-      <c r="B40" s="34"/>
-      <c r="C40" s="34"/>
-      <c r="D40" s="34"/>
-      <c r="E40" s="34"/>
-      <c r="F40" s="35"/>
-      <c r="G40" s="36"/>
-      <c r="H40" s="36"/>
-      <c r="I40" s="36"/>
-      <c r="J40" s="36"/>
-      <c r="K40" s="36"/>
-      <c r="L40" s="36"/>
-      <c r="M40" s="36"/>
-      <c r="N40" s="36"/>
-      <c r="O40" s="36"/>
-      <c r="P40" s="36"/>
-      <c r="Q40" s="36"/>
-      <c r="R40" s="36"/>
-      <c r="S40" s="36"/>
-      <c r="T40" s="36"/>
-      <c r="U40" s="36"/>
-      <c r="V40" s="36"/>
-      <c r="W40" s="36"/>
-      <c r="X40" s="36"/>
-      <c r="Y40" s="36"/>
-      <c r="Z40" s="36"/>
-      <c r="AA40" s="35"/>
-      <c r="AB40" s="37"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="39"/>
+      <c r="G40" s="40"/>
+      <c r="H40" s="40"/>
+      <c r="I40" s="40"/>
+      <c r="J40" s="40"/>
+      <c r="K40" s="40"/>
+      <c r="L40" s="40"/>
+      <c r="M40" s="40"/>
+      <c r="N40" s="40"/>
+      <c r="O40" s="40"/>
+      <c r="P40" s="40"/>
+      <c r="Q40" s="40"/>
+      <c r="R40" s="40"/>
+      <c r="S40" s="40"/>
+      <c r="T40" s="40"/>
+      <c r="U40" s="40"/>
+      <c r="V40" s="40"/>
+      <c r="W40" s="40"/>
+      <c r="X40" s="40"/>
+      <c r="Y40" s="40"/>
+      <c r="Z40" s="40"/>
+      <c r="AA40" s="39"/>
+      <c r="AB40" s="41"/>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -3495,1382 +3517,1382 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="42" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="42" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="42" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="42" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="42" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="42" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="38"/>
+      <c r="A8" s="42"/>
     </row>
     <row r="9" customFormat="false" ht="80.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="43" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="51.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="44" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="41"/>
+      <c r="A11" s="45"/>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="45" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="42"/>
+      <c r="A13" s="46"/>
     </row>
     <row r="14" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="43" t="s">
+      <c r="A14" s="47" t="s">
         <v>275</v>
       </c>
-      <c r="B14" s="44" t="s">
+      <c r="B14" s="48" t="s">
         <v>276</v>
       </c>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44" t="s">
+      <c r="C14" s="48"/>
+      <c r="D14" s="48" t="s">
         <v>277</v>
       </c>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44" t="s">
+      <c r="E14" s="48"/>
+      <c r="F14" s="48" t="s">
         <v>278</v>
       </c>
-      <c r="G14" s="44"/>
-      <c r="H14" s="44" t="s">
+      <c r="G14" s="48"/>
+      <c r="H14" s="48" t="s">
         <v>279</v>
       </c>
-      <c r="I14" s="44"/>
-      <c r="J14" s="44" t="s">
+      <c r="I14" s="48"/>
+      <c r="J14" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="K14" s="44"/>
-      <c r="L14" s="44" t="s">
+      <c r="K14" s="48"/>
+      <c r="L14" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="M14" s="44"/>
-      <c r="N14" s="44" t="s">
+      <c r="M14" s="48"/>
+      <c r="N14" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="O14" s="44"/>
-      <c r="P14" s="44" t="s">
+      <c r="O14" s="48"/>
+      <c r="P14" s="48" t="s">
         <v>280</v>
       </c>
-      <c r="Q14" s="44"/>
-      <c r="R14" s="44" t="s">
+      <c r="Q14" s="48"/>
+      <c r="R14" s="48" t="s">
         <v>281</v>
       </c>
-      <c r="S14" s="44"/>
-      <c r="T14" s="44" t="s">
+      <c r="S14" s="48"/>
+      <c r="T14" s="48" t="s">
         <v>282</v>
       </c>
-      <c r="U14" s="44"/>
-      <c r="V14" s="44" t="s">
+      <c r="U14" s="48"/>
+      <c r="V14" s="48" t="s">
         <v>283</v>
       </c>
-      <c r="W14" s="44"/>
-      <c r="X14" s="45" t="s">
+      <c r="W14" s="48"/>
+      <c r="X14" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="Y14" s="45"/>
+      <c r="Y14" s="49"/>
     </row>
     <row r="15" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="43"/>
-      <c r="B15" s="46" t="s">
+      <c r="A15" s="47"/>
+      <c r="B15" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="46" t="s">
+      <c r="C15" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="46" t="s">
+      <c r="D15" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="46" t="s">
+      <c r="E15" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="F15" s="46" t="s">
+      <c r="F15" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="G15" s="46" t="s">
+      <c r="G15" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="H15" s="46" t="s">
+      <c r="H15" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="I15" s="46" t="s">
+      <c r="I15" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="J15" s="46" t="s">
+      <c r="J15" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="K15" s="46" t="s">
+      <c r="K15" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="L15" s="46" t="s">
+      <c r="L15" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="M15" s="46" t="s">
+      <c r="M15" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="N15" s="46" t="s">
+      <c r="N15" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="O15" s="46" t="s">
+      <c r="O15" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="P15" s="46" t="s">
+      <c r="P15" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="Q15" s="46" t="s">
+      <c r="Q15" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="R15" s="46" t="s">
+      <c r="R15" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="S15" s="46" t="s">
+      <c r="S15" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="T15" s="46" t="s">
+      <c r="T15" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="U15" s="46" t="s">
+      <c r="U15" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="V15" s="46" t="s">
+      <c r="V15" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="W15" s="46" t="s">
+      <c r="W15" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="X15" s="46" t="s">
+      <c r="X15" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="Y15" s="47" t="s">
+      <c r="Y15" s="51" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="48" t="s">
+      <c r="A16" s="52" t="s">
         <v>284</v>
       </c>
-      <c r="B16" s="48"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="48"/>
-      <c r="L16" s="48"/>
-      <c r="M16" s="48"/>
-      <c r="N16" s="48"/>
-      <c r="O16" s="48"/>
-      <c r="P16" s="48"/>
-      <c r="Q16" s="48"/>
-      <c r="R16" s="48"/>
-      <c r="S16" s="48"/>
-      <c r="T16" s="48"/>
-      <c r="U16" s="48"/>
-      <c r="V16" s="48"/>
-      <c r="W16" s="48"/>
-      <c r="X16" s="48"/>
-      <c r="Y16" s="48"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="52"/>
+      <c r="M16" s="52"/>
+      <c r="N16" s="52"/>
+      <c r="O16" s="52"/>
+      <c r="P16" s="52"/>
+      <c r="Q16" s="52"/>
+      <c r="R16" s="52"/>
+      <c r="S16" s="52"/>
+      <c r="T16" s="52"/>
+      <c r="U16" s="52"/>
+      <c r="V16" s="52"/>
+      <c r="W16" s="52"/>
+      <c r="X16" s="52"/>
+      <c r="Y16" s="52"/>
     </row>
     <row r="17" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="49" t="s">
+      <c r="A17" s="53" t="s">
         <v>285</v>
       </c>
-      <c r="B17" s="50"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="50"/>
-      <c r="K17" s="50"/>
-      <c r="L17" s="50"/>
-      <c r="M17" s="50"/>
-      <c r="N17" s="50"/>
-      <c r="O17" s="50"/>
-      <c r="P17" s="50"/>
-      <c r="Q17" s="50"/>
-      <c r="R17" s="50"/>
-      <c r="S17" s="50"/>
-      <c r="T17" s="50"/>
-      <c r="U17" s="50"/>
-      <c r="V17" s="50"/>
-      <c r="W17" s="50"/>
-      <c r="X17" s="50"/>
-      <c r="Y17" s="51"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="54"/>
+      <c r="L17" s="54"/>
+      <c r="M17" s="54"/>
+      <c r="N17" s="54"/>
+      <c r="O17" s="54"/>
+      <c r="P17" s="54"/>
+      <c r="Q17" s="54"/>
+      <c r="R17" s="54"/>
+      <c r="S17" s="54"/>
+      <c r="T17" s="54"/>
+      <c r="U17" s="54"/>
+      <c r="V17" s="54"/>
+      <c r="W17" s="54"/>
+      <c r="X17" s="54"/>
+      <c r="Y17" s="55"/>
     </row>
     <row r="18" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="49" t="s">
+      <c r="A18" s="53" t="s">
         <v>286</v>
       </c>
-      <c r="B18" s="50"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="50"/>
-      <c r="L18" s="50"/>
-      <c r="M18" s="50"/>
-      <c r="N18" s="50"/>
-      <c r="O18" s="50"/>
-      <c r="P18" s="50"/>
-      <c r="Q18" s="50"/>
-      <c r="R18" s="50"/>
-      <c r="S18" s="50"/>
-      <c r="T18" s="50"/>
-      <c r="U18" s="50"/>
-      <c r="V18" s="50"/>
-      <c r="W18" s="50"/>
-      <c r="X18" s="50"/>
-      <c r="Y18" s="51"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="54"/>
+      <c r="K18" s="54"/>
+      <c r="L18" s="54"/>
+      <c r="M18" s="54"/>
+      <c r="N18" s="54"/>
+      <c r="O18" s="54"/>
+      <c r="P18" s="54"/>
+      <c r="Q18" s="54"/>
+      <c r="R18" s="54"/>
+      <c r="S18" s="54"/>
+      <c r="T18" s="54"/>
+      <c r="U18" s="54"/>
+      <c r="V18" s="54"/>
+      <c r="W18" s="54"/>
+      <c r="X18" s="54"/>
+      <c r="Y18" s="55"/>
     </row>
     <row r="19" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="49" t="s">
+      <c r="A19" s="53" t="s">
         <v>287</v>
       </c>
-      <c r="B19" s="50"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="50"/>
-      <c r="H19" s="50"/>
-      <c r="I19" s="50"/>
-      <c r="J19" s="50"/>
-      <c r="K19" s="50"/>
-      <c r="L19" s="50"/>
-      <c r="M19" s="50"/>
-      <c r="N19" s="50"/>
-      <c r="O19" s="50"/>
-      <c r="P19" s="50"/>
-      <c r="Q19" s="50"/>
-      <c r="R19" s="50"/>
-      <c r="S19" s="50"/>
-      <c r="T19" s="50"/>
-      <c r="U19" s="50"/>
-      <c r="V19" s="50"/>
-      <c r="W19" s="50"/>
-      <c r="X19" s="50"/>
-      <c r="Y19" s="51"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="54"/>
+      <c r="K19" s="54"/>
+      <c r="L19" s="54"/>
+      <c r="M19" s="54"/>
+      <c r="N19" s="54"/>
+      <c r="O19" s="54"/>
+      <c r="P19" s="54"/>
+      <c r="Q19" s="54"/>
+      <c r="R19" s="54"/>
+      <c r="S19" s="54"/>
+      <c r="T19" s="54"/>
+      <c r="U19" s="54"/>
+      <c r="V19" s="54"/>
+      <c r="W19" s="54"/>
+      <c r="X19" s="54"/>
+      <c r="Y19" s="55"/>
     </row>
     <row r="20" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="49"/>
-      <c r="B20" s="50"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="50"/>
-      <c r="H20" s="50"/>
-      <c r="I20" s="50"/>
-      <c r="J20" s="50"/>
-      <c r="K20" s="50"/>
-      <c r="L20" s="50"/>
-      <c r="M20" s="50"/>
-      <c r="N20" s="50"/>
-      <c r="O20" s="50"/>
-      <c r="P20" s="50"/>
-      <c r="Q20" s="50"/>
-      <c r="R20" s="50"/>
-      <c r="S20" s="50"/>
-      <c r="T20" s="50"/>
-      <c r="U20" s="50"/>
-      <c r="V20" s="50"/>
-      <c r="W20" s="50"/>
-      <c r="X20" s="50"/>
-      <c r="Y20" s="51"/>
+      <c r="A20" s="53"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="54"/>
+      <c r="M20" s="54"/>
+      <c r="N20" s="54"/>
+      <c r="O20" s="54"/>
+      <c r="P20" s="54"/>
+      <c r="Q20" s="54"/>
+      <c r="R20" s="54"/>
+      <c r="S20" s="54"/>
+      <c r="T20" s="54"/>
+      <c r="U20" s="54"/>
+      <c r="V20" s="54"/>
+      <c r="W20" s="54"/>
+      <c r="X20" s="54"/>
+      <c r="Y20" s="55"/>
     </row>
     <row r="21" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="49"/>
-      <c r="B21" s="50"/>
-      <c r="C21" s="50"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="50"/>
-      <c r="H21" s="50"/>
-      <c r="I21" s="50"/>
-      <c r="J21" s="50"/>
-      <c r="K21" s="50"/>
-      <c r="L21" s="50"/>
-      <c r="M21" s="50"/>
-      <c r="N21" s="50"/>
-      <c r="O21" s="50"/>
-      <c r="P21" s="50"/>
-      <c r="Q21" s="50"/>
-      <c r="R21" s="50"/>
-      <c r="S21" s="50"/>
-      <c r="T21" s="50"/>
-      <c r="U21" s="50"/>
-      <c r="V21" s="50"/>
-      <c r="W21" s="50"/>
-      <c r="X21" s="50"/>
-      <c r="Y21" s="51"/>
+      <c r="A21" s="53"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="54"/>
+      <c r="K21" s="54"/>
+      <c r="L21" s="54"/>
+      <c r="M21" s="54"/>
+      <c r="N21" s="54"/>
+      <c r="O21" s="54"/>
+      <c r="P21" s="54"/>
+      <c r="Q21" s="54"/>
+      <c r="R21" s="54"/>
+      <c r="S21" s="54"/>
+      <c r="T21" s="54"/>
+      <c r="U21" s="54"/>
+      <c r="V21" s="54"/>
+      <c r="W21" s="54"/>
+      <c r="X21" s="54"/>
+      <c r="Y21" s="55"/>
     </row>
     <row r="22" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="48" t="s">
+      <c r="A22" s="52" t="s">
         <v>288</v>
       </c>
-      <c r="B22" s="48"/>
-      <c r="C22" s="48"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="48"/>
-      <c r="H22" s="48"/>
-      <c r="I22" s="48"/>
-      <c r="J22" s="48"/>
-      <c r="K22" s="48"/>
-      <c r="L22" s="48"/>
-      <c r="M22" s="48"/>
-      <c r="N22" s="48"/>
-      <c r="O22" s="48"/>
-      <c r="P22" s="48"/>
-      <c r="Q22" s="48"/>
-      <c r="R22" s="48"/>
-      <c r="S22" s="48"/>
-      <c r="T22" s="48"/>
-      <c r="U22" s="48"/>
-      <c r="V22" s="48"/>
-      <c r="W22" s="48"/>
-      <c r="X22" s="48"/>
-      <c r="Y22" s="48"/>
+      <c r="B22" s="52"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="52"/>
+      <c r="M22" s="52"/>
+      <c r="N22" s="52"/>
+      <c r="O22" s="52"/>
+      <c r="P22" s="52"/>
+      <c r="Q22" s="52"/>
+      <c r="R22" s="52"/>
+      <c r="S22" s="52"/>
+      <c r="T22" s="52"/>
+      <c r="U22" s="52"/>
+      <c r="V22" s="52"/>
+      <c r="W22" s="52"/>
+      <c r="X22" s="52"/>
+      <c r="Y22" s="52"/>
     </row>
     <row r="23" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="49" t="s">
+      <c r="A23" s="53" t="s">
         <v>289</v>
       </c>
-      <c r="B23" s="50"/>
-      <c r="C23" s="50"/>
-      <c r="D23" s="50"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="50"/>
-      <c r="G23" s="50"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="50"/>
-      <c r="J23" s="50"/>
-      <c r="K23" s="50"/>
-      <c r="L23" s="50"/>
-      <c r="M23" s="50"/>
-      <c r="N23" s="50"/>
-      <c r="O23" s="50"/>
-      <c r="P23" s="50"/>
-      <c r="Q23" s="50"/>
-      <c r="R23" s="50"/>
-      <c r="S23" s="50"/>
-      <c r="T23" s="50"/>
-      <c r="U23" s="50"/>
-      <c r="V23" s="50"/>
-      <c r="W23" s="50"/>
-      <c r="X23" s="50"/>
-      <c r="Y23" s="51"/>
+      <c r="B23" s="54"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="54"/>
+      <c r="J23" s="54"/>
+      <c r="K23" s="54"/>
+      <c r="L23" s="54"/>
+      <c r="M23" s="54"/>
+      <c r="N23" s="54"/>
+      <c r="O23" s="54"/>
+      <c r="P23" s="54"/>
+      <c r="Q23" s="54"/>
+      <c r="R23" s="54"/>
+      <c r="S23" s="54"/>
+      <c r="T23" s="54"/>
+      <c r="U23" s="54"/>
+      <c r="V23" s="54"/>
+      <c r="W23" s="54"/>
+      <c r="X23" s="54"/>
+      <c r="Y23" s="55"/>
     </row>
     <row r="24" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="49" t="s">
+      <c r="A24" s="53" t="s">
         <v>290</v>
       </c>
-      <c r="B24" s="50"/>
-      <c r="C24" s="50"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="50"/>
-      <c r="F24" s="50"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="50"/>
-      <c r="I24" s="50"/>
-      <c r="J24" s="50"/>
-      <c r="K24" s="50"/>
-      <c r="L24" s="50"/>
-      <c r="M24" s="50"/>
-      <c r="N24" s="50"/>
-      <c r="O24" s="50"/>
-      <c r="P24" s="50"/>
-      <c r="Q24" s="50"/>
-      <c r="R24" s="50"/>
-      <c r="S24" s="50"/>
-      <c r="T24" s="50"/>
-      <c r="U24" s="50"/>
-      <c r="V24" s="50"/>
-      <c r="W24" s="50"/>
-      <c r="X24" s="50"/>
-      <c r="Y24" s="51"/>
+      <c r="B24" s="54"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="54"/>
+      <c r="K24" s="54"/>
+      <c r="L24" s="54"/>
+      <c r="M24" s="54"/>
+      <c r="N24" s="54"/>
+      <c r="O24" s="54"/>
+      <c r="P24" s="54"/>
+      <c r="Q24" s="54"/>
+      <c r="R24" s="54"/>
+      <c r="S24" s="54"/>
+      <c r="T24" s="54"/>
+      <c r="U24" s="54"/>
+      <c r="V24" s="54"/>
+      <c r="W24" s="54"/>
+      <c r="X24" s="54"/>
+      <c r="Y24" s="55"/>
     </row>
     <row r="25" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="49" t="s">
+      <c r="A25" s="53" t="s">
         <v>291</v>
       </c>
-      <c r="B25" s="50"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="50"/>
-      <c r="E25" s="50"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="50"/>
-      <c r="H25" s="50"/>
-      <c r="I25" s="50"/>
-      <c r="J25" s="50"/>
-      <c r="K25" s="50"/>
-      <c r="L25" s="50"/>
-      <c r="M25" s="50"/>
-      <c r="N25" s="50"/>
-      <c r="O25" s="50"/>
-      <c r="P25" s="50"/>
-      <c r="Q25" s="50"/>
-      <c r="R25" s="50"/>
-      <c r="S25" s="50"/>
-      <c r="T25" s="50"/>
-      <c r="U25" s="50"/>
-      <c r="V25" s="50"/>
-      <c r="W25" s="50"/>
-      <c r="X25" s="50"/>
-      <c r="Y25" s="51"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="54"/>
+      <c r="K25" s="54"/>
+      <c r="L25" s="54"/>
+      <c r="M25" s="54"/>
+      <c r="N25" s="54"/>
+      <c r="O25" s="54"/>
+      <c r="P25" s="54"/>
+      <c r="Q25" s="54"/>
+      <c r="R25" s="54"/>
+      <c r="S25" s="54"/>
+      <c r="T25" s="54"/>
+      <c r="U25" s="54"/>
+      <c r="V25" s="54"/>
+      <c r="W25" s="54"/>
+      <c r="X25" s="54"/>
+      <c r="Y25" s="55"/>
     </row>
     <row r="26" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="49" t="s">
+      <c r="A26" s="53" t="s">
         <v>292</v>
       </c>
-      <c r="B26" s="50"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="50"/>
-      <c r="H26" s="50"/>
-      <c r="I26" s="50"/>
-      <c r="J26" s="50"/>
-      <c r="K26" s="50"/>
-      <c r="L26" s="50"/>
-      <c r="M26" s="50"/>
-      <c r="N26" s="50"/>
-      <c r="O26" s="50"/>
-      <c r="P26" s="50"/>
-      <c r="Q26" s="50"/>
-      <c r="R26" s="50"/>
-      <c r="S26" s="50"/>
-      <c r="T26" s="50"/>
-      <c r="U26" s="50"/>
-      <c r="V26" s="50"/>
-      <c r="W26" s="50"/>
-      <c r="X26" s="50"/>
-      <c r="Y26" s="51"/>
+      <c r="B26" s="54"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="54"/>
+      <c r="I26" s="54"/>
+      <c r="J26" s="54"/>
+      <c r="K26" s="54"/>
+      <c r="L26" s="54"/>
+      <c r="M26" s="54"/>
+      <c r="N26" s="54"/>
+      <c r="O26" s="54"/>
+      <c r="P26" s="54"/>
+      <c r="Q26" s="54"/>
+      <c r="R26" s="54"/>
+      <c r="S26" s="54"/>
+      <c r="T26" s="54"/>
+      <c r="U26" s="54"/>
+      <c r="V26" s="54"/>
+      <c r="W26" s="54"/>
+      <c r="X26" s="54"/>
+      <c r="Y26" s="55"/>
     </row>
     <row r="27" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="49"/>
-      <c r="B27" s="50"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="50"/>
-      <c r="E27" s="50"/>
-      <c r="F27" s="50"/>
-      <c r="G27" s="50"/>
-      <c r="H27" s="50"/>
-      <c r="I27" s="50"/>
-      <c r="J27" s="50"/>
-      <c r="K27" s="50"/>
-      <c r="L27" s="50"/>
-      <c r="M27" s="50"/>
-      <c r="N27" s="50"/>
-      <c r="O27" s="50"/>
-      <c r="P27" s="50"/>
-      <c r="Q27" s="50"/>
-      <c r="R27" s="50"/>
-      <c r="S27" s="50"/>
-      <c r="T27" s="50"/>
-      <c r="U27" s="50"/>
-      <c r="V27" s="50"/>
-      <c r="W27" s="50"/>
-      <c r="X27" s="50"/>
-      <c r="Y27" s="51"/>
+      <c r="A27" s="53"/>
+      <c r="B27" s="54"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="54"/>
+      <c r="J27" s="54"/>
+      <c r="K27" s="54"/>
+      <c r="L27" s="54"/>
+      <c r="M27" s="54"/>
+      <c r="N27" s="54"/>
+      <c r="O27" s="54"/>
+      <c r="P27" s="54"/>
+      <c r="Q27" s="54"/>
+      <c r="R27" s="54"/>
+      <c r="S27" s="54"/>
+      <c r="T27" s="54"/>
+      <c r="U27" s="54"/>
+      <c r="V27" s="54"/>
+      <c r="W27" s="54"/>
+      <c r="X27" s="54"/>
+      <c r="Y27" s="55"/>
     </row>
     <row r="28" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="49"/>
-      <c r="B28" s="50"/>
-      <c r="C28" s="50"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="50"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="50"/>
-      <c r="H28" s="50"/>
-      <c r="I28" s="50"/>
-      <c r="J28" s="50"/>
-      <c r="K28" s="50"/>
-      <c r="L28" s="50"/>
-      <c r="M28" s="50"/>
-      <c r="N28" s="50"/>
-      <c r="O28" s="50"/>
-      <c r="P28" s="50"/>
-      <c r="Q28" s="50"/>
-      <c r="R28" s="50"/>
-      <c r="S28" s="50"/>
-      <c r="T28" s="50"/>
-      <c r="U28" s="50"/>
-      <c r="V28" s="50"/>
-      <c r="W28" s="50"/>
-      <c r="X28" s="50"/>
-      <c r="Y28" s="51"/>
+      <c r="A28" s="53"/>
+      <c r="B28" s="54"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="54"/>
+      <c r="K28" s="54"/>
+      <c r="L28" s="54"/>
+      <c r="M28" s="54"/>
+      <c r="N28" s="54"/>
+      <c r="O28" s="54"/>
+      <c r="P28" s="54"/>
+      <c r="Q28" s="54"/>
+      <c r="R28" s="54"/>
+      <c r="S28" s="54"/>
+      <c r="T28" s="54"/>
+      <c r="U28" s="54"/>
+      <c r="V28" s="54"/>
+      <c r="W28" s="54"/>
+      <c r="X28" s="54"/>
+      <c r="Y28" s="55"/>
     </row>
     <row r="29" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="52" t="s">
+      <c r="A29" s="56" t="s">
         <v>293</v>
       </c>
-      <c r="B29" s="50"/>
-      <c r="C29" s="50"/>
-      <c r="D29" s="50"/>
-      <c r="E29" s="50"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="50"/>
-      <c r="H29" s="50"/>
-      <c r="I29" s="50"/>
-      <c r="J29" s="50"/>
-      <c r="K29" s="50"/>
-      <c r="L29" s="50"/>
-      <c r="M29" s="50"/>
-      <c r="N29" s="50"/>
-      <c r="O29" s="50"/>
-      <c r="P29" s="50"/>
-      <c r="Q29" s="50"/>
-      <c r="R29" s="50"/>
-      <c r="S29" s="50"/>
-      <c r="T29" s="50"/>
-      <c r="U29" s="50"/>
-      <c r="V29" s="50"/>
-      <c r="W29" s="50"/>
-      <c r="X29" s="50"/>
-      <c r="Y29" s="51"/>
+      <c r="B29" s="54"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="54"/>
+      <c r="J29" s="54"/>
+      <c r="K29" s="54"/>
+      <c r="L29" s="54"/>
+      <c r="M29" s="54"/>
+      <c r="N29" s="54"/>
+      <c r="O29" s="54"/>
+      <c r="P29" s="54"/>
+      <c r="Q29" s="54"/>
+      <c r="R29" s="54"/>
+      <c r="S29" s="54"/>
+      <c r="T29" s="54"/>
+      <c r="U29" s="54"/>
+      <c r="V29" s="54"/>
+      <c r="W29" s="54"/>
+      <c r="X29" s="54"/>
+      <c r="Y29" s="55"/>
     </row>
     <row r="30" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="48" t="s">
+      <c r="A30" s="52" t="s">
         <v>294</v>
       </c>
-      <c r="B30" s="48"/>
-      <c r="C30" s="48"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="48"/>
-      <c r="H30" s="48"/>
-      <c r="I30" s="48"/>
-      <c r="J30" s="48"/>
-      <c r="K30" s="48"/>
-      <c r="L30" s="48"/>
-      <c r="M30" s="48"/>
-      <c r="N30" s="48"/>
-      <c r="O30" s="48"/>
-      <c r="P30" s="48"/>
-      <c r="Q30" s="48"/>
-      <c r="R30" s="48"/>
-      <c r="S30" s="48"/>
-      <c r="T30" s="48"/>
-      <c r="U30" s="48"/>
-      <c r="V30" s="48"/>
-      <c r="W30" s="48"/>
-      <c r="X30" s="48"/>
-      <c r="Y30" s="48"/>
+      <c r="B30" s="52"/>
+      <c r="C30" s="52"/>
+      <c r="D30" s="52"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="52"/>
+      <c r="H30" s="52"/>
+      <c r="I30" s="52"/>
+      <c r="J30" s="52"/>
+      <c r="K30" s="52"/>
+      <c r="L30" s="52"/>
+      <c r="M30" s="52"/>
+      <c r="N30" s="52"/>
+      <c r="O30" s="52"/>
+      <c r="P30" s="52"/>
+      <c r="Q30" s="52"/>
+      <c r="R30" s="52"/>
+      <c r="S30" s="52"/>
+      <c r="T30" s="52"/>
+      <c r="U30" s="52"/>
+      <c r="V30" s="52"/>
+      <c r="W30" s="52"/>
+      <c r="X30" s="52"/>
+      <c r="Y30" s="52"/>
     </row>
     <row r="31" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="49" t="s">
+      <c r="A31" s="53" t="s">
         <v>295</v>
       </c>
-      <c r="B31" s="50"/>
-      <c r="C31" s="50"/>
-      <c r="D31" s="50"/>
-      <c r="E31" s="50"/>
-      <c r="F31" s="50"/>
-      <c r="G31" s="50"/>
-      <c r="H31" s="50"/>
-      <c r="I31" s="50"/>
-      <c r="J31" s="50"/>
-      <c r="K31" s="50"/>
-      <c r="L31" s="50"/>
-      <c r="M31" s="50"/>
-      <c r="N31" s="50"/>
-      <c r="O31" s="50"/>
-      <c r="P31" s="50"/>
-      <c r="Q31" s="50"/>
-      <c r="R31" s="50"/>
-      <c r="S31" s="50"/>
-      <c r="T31" s="50"/>
-      <c r="U31" s="50"/>
-      <c r="V31" s="50"/>
-      <c r="W31" s="50"/>
-      <c r="X31" s="50"/>
-      <c r="Y31" s="51"/>
+      <c r="B31" s="54"/>
+      <c r="C31" s="54"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="54"/>
+      <c r="G31" s="54"/>
+      <c r="H31" s="54"/>
+      <c r="I31" s="54"/>
+      <c r="J31" s="54"/>
+      <c r="K31" s="54"/>
+      <c r="L31" s="54"/>
+      <c r="M31" s="54"/>
+      <c r="N31" s="54"/>
+      <c r="O31" s="54"/>
+      <c r="P31" s="54"/>
+      <c r="Q31" s="54"/>
+      <c r="R31" s="54"/>
+      <c r="S31" s="54"/>
+      <c r="T31" s="54"/>
+      <c r="U31" s="54"/>
+      <c r="V31" s="54"/>
+      <c r="W31" s="54"/>
+      <c r="X31" s="54"/>
+      <c r="Y31" s="55"/>
     </row>
     <row r="32" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="49" t="s">
+      <c r="A32" s="53" t="s">
         <v>296</v>
       </c>
-      <c r="B32" s="50"/>
-      <c r="C32" s="50"/>
-      <c r="D32" s="50"/>
-      <c r="E32" s="50"/>
-      <c r="F32" s="50"/>
-      <c r="G32" s="50"/>
-      <c r="H32" s="50"/>
-      <c r="I32" s="50"/>
-      <c r="J32" s="50"/>
-      <c r="K32" s="50"/>
-      <c r="L32" s="50"/>
-      <c r="M32" s="50"/>
-      <c r="N32" s="50"/>
-      <c r="O32" s="50"/>
-      <c r="P32" s="50"/>
-      <c r="Q32" s="50"/>
-      <c r="R32" s="50"/>
-      <c r="S32" s="50"/>
-      <c r="T32" s="50"/>
-      <c r="U32" s="50"/>
-      <c r="V32" s="50"/>
-      <c r="W32" s="50"/>
-      <c r="X32" s="50"/>
-      <c r="Y32" s="51"/>
+      <c r="B32" s="54"/>
+      <c r="C32" s="54"/>
+      <c r="D32" s="54"/>
+      <c r="E32" s="54"/>
+      <c r="F32" s="54"/>
+      <c r="G32" s="54"/>
+      <c r="H32" s="54"/>
+      <c r="I32" s="54"/>
+      <c r="J32" s="54"/>
+      <c r="K32" s="54"/>
+      <c r="L32" s="54"/>
+      <c r="M32" s="54"/>
+      <c r="N32" s="54"/>
+      <c r="O32" s="54"/>
+      <c r="P32" s="54"/>
+      <c r="Q32" s="54"/>
+      <c r="R32" s="54"/>
+      <c r="S32" s="54"/>
+      <c r="T32" s="54"/>
+      <c r="U32" s="54"/>
+      <c r="V32" s="54"/>
+      <c r="W32" s="54"/>
+      <c r="X32" s="54"/>
+      <c r="Y32" s="55"/>
     </row>
     <row r="33" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="49"/>
-      <c r="B33" s="50"/>
-      <c r="C33" s="50"/>
-      <c r="D33" s="50"/>
-      <c r="E33" s="50"/>
-      <c r="F33" s="50"/>
-      <c r="G33" s="50"/>
-      <c r="H33" s="50"/>
-      <c r="I33" s="50"/>
-      <c r="J33" s="50"/>
-      <c r="K33" s="50"/>
-      <c r="L33" s="50"/>
-      <c r="M33" s="50"/>
-      <c r="N33" s="50"/>
-      <c r="O33" s="50"/>
-      <c r="P33" s="50"/>
-      <c r="Q33" s="50"/>
-      <c r="R33" s="50"/>
-      <c r="S33" s="50"/>
-      <c r="T33" s="50"/>
-      <c r="U33" s="50"/>
-      <c r="V33" s="50"/>
-      <c r="W33" s="50"/>
-      <c r="X33" s="50"/>
-      <c r="Y33" s="51"/>
+      <c r="A33" s="53"/>
+      <c r="B33" s="54"/>
+      <c r="C33" s="54"/>
+      <c r="D33" s="54"/>
+      <c r="E33" s="54"/>
+      <c r="F33" s="54"/>
+      <c r="G33" s="54"/>
+      <c r="H33" s="54"/>
+      <c r="I33" s="54"/>
+      <c r="J33" s="54"/>
+      <c r="K33" s="54"/>
+      <c r="L33" s="54"/>
+      <c r="M33" s="54"/>
+      <c r="N33" s="54"/>
+      <c r="O33" s="54"/>
+      <c r="P33" s="54"/>
+      <c r="Q33" s="54"/>
+      <c r="R33" s="54"/>
+      <c r="S33" s="54"/>
+      <c r="T33" s="54"/>
+      <c r="U33" s="54"/>
+      <c r="V33" s="54"/>
+      <c r="W33" s="54"/>
+      <c r="X33" s="54"/>
+      <c r="Y33" s="55"/>
     </row>
     <row r="34" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="49"/>
-      <c r="B34" s="50"/>
-      <c r="C34" s="50"/>
-      <c r="D34" s="50"/>
-      <c r="E34" s="50"/>
-      <c r="F34" s="50"/>
-      <c r="G34" s="50"/>
-      <c r="H34" s="50"/>
-      <c r="I34" s="50"/>
-      <c r="J34" s="50"/>
-      <c r="K34" s="50"/>
-      <c r="L34" s="50"/>
-      <c r="M34" s="50"/>
-      <c r="N34" s="50"/>
-      <c r="O34" s="50"/>
-      <c r="P34" s="50"/>
-      <c r="Q34" s="50"/>
-      <c r="R34" s="50"/>
-      <c r="S34" s="50"/>
-      <c r="T34" s="50"/>
-      <c r="U34" s="50"/>
-      <c r="V34" s="50"/>
-      <c r="W34" s="50"/>
-      <c r="X34" s="50"/>
-      <c r="Y34" s="51"/>
+      <c r="A34" s="53"/>
+      <c r="B34" s="54"/>
+      <c r="C34" s="54"/>
+      <c r="D34" s="54"/>
+      <c r="E34" s="54"/>
+      <c r="F34" s="54"/>
+      <c r="G34" s="54"/>
+      <c r="H34" s="54"/>
+      <c r="I34" s="54"/>
+      <c r="J34" s="54"/>
+      <c r="K34" s="54"/>
+      <c r="L34" s="54"/>
+      <c r="M34" s="54"/>
+      <c r="N34" s="54"/>
+      <c r="O34" s="54"/>
+      <c r="P34" s="54"/>
+      <c r="Q34" s="54"/>
+      <c r="R34" s="54"/>
+      <c r="S34" s="54"/>
+      <c r="T34" s="54"/>
+      <c r="U34" s="54"/>
+      <c r="V34" s="54"/>
+      <c r="W34" s="54"/>
+      <c r="X34" s="54"/>
+      <c r="Y34" s="55"/>
     </row>
     <row r="35" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="48" t="s">
+      <c r="A35" s="52" t="s">
         <v>297</v>
       </c>
-      <c r="B35" s="48"/>
-      <c r="C35" s="48"/>
-      <c r="D35" s="48"/>
-      <c r="E35" s="48"/>
-      <c r="F35" s="48"/>
-      <c r="G35" s="48"/>
-      <c r="H35" s="48"/>
-      <c r="I35" s="48"/>
-      <c r="J35" s="48"/>
-      <c r="K35" s="48"/>
-      <c r="L35" s="48"/>
-      <c r="M35" s="48"/>
-      <c r="N35" s="48"/>
-      <c r="O35" s="48"/>
-      <c r="P35" s="48"/>
-      <c r="Q35" s="48"/>
-      <c r="R35" s="48"/>
-      <c r="S35" s="48"/>
-      <c r="T35" s="48"/>
-      <c r="U35" s="48"/>
-      <c r="V35" s="48"/>
-      <c r="W35" s="48"/>
-      <c r="X35" s="48"/>
-      <c r="Y35" s="48"/>
+      <c r="B35" s="52"/>
+      <c r="C35" s="52"/>
+      <c r="D35" s="52"/>
+      <c r="E35" s="52"/>
+      <c r="F35" s="52"/>
+      <c r="G35" s="52"/>
+      <c r="H35" s="52"/>
+      <c r="I35" s="52"/>
+      <c r="J35" s="52"/>
+      <c r="K35" s="52"/>
+      <c r="L35" s="52"/>
+      <c r="M35" s="52"/>
+      <c r="N35" s="52"/>
+      <c r="O35" s="52"/>
+      <c r="P35" s="52"/>
+      <c r="Q35" s="52"/>
+      <c r="R35" s="52"/>
+      <c r="S35" s="52"/>
+      <c r="T35" s="52"/>
+      <c r="U35" s="52"/>
+      <c r="V35" s="52"/>
+      <c r="W35" s="52"/>
+      <c r="X35" s="52"/>
+      <c r="Y35" s="52"/>
     </row>
     <row r="36" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="49"/>
-      <c r="B36" s="50"/>
-      <c r="C36" s="50"/>
-      <c r="D36" s="50"/>
-      <c r="E36" s="50"/>
-      <c r="F36" s="50"/>
-      <c r="G36" s="50"/>
-      <c r="H36" s="50"/>
-      <c r="I36" s="50"/>
-      <c r="J36" s="50"/>
-      <c r="K36" s="50"/>
-      <c r="L36" s="50"/>
-      <c r="M36" s="50"/>
-      <c r="N36" s="50"/>
-      <c r="O36" s="50"/>
-      <c r="P36" s="50"/>
-      <c r="Q36" s="50"/>
-      <c r="R36" s="50"/>
-      <c r="S36" s="50"/>
-      <c r="T36" s="50"/>
-      <c r="U36" s="50"/>
-      <c r="V36" s="50"/>
-      <c r="W36" s="50"/>
-      <c r="X36" s="50"/>
-      <c r="Y36" s="51"/>
+      <c r="A36" s="53"/>
+      <c r="B36" s="54"/>
+      <c r="C36" s="54"/>
+      <c r="D36" s="54"/>
+      <c r="E36" s="54"/>
+      <c r="F36" s="54"/>
+      <c r="G36" s="54"/>
+      <c r="H36" s="54"/>
+      <c r="I36" s="54"/>
+      <c r="J36" s="54"/>
+      <c r="K36" s="54"/>
+      <c r="L36" s="54"/>
+      <c r="M36" s="54"/>
+      <c r="N36" s="54"/>
+      <c r="O36" s="54"/>
+      <c r="P36" s="54"/>
+      <c r="Q36" s="54"/>
+      <c r="R36" s="54"/>
+      <c r="S36" s="54"/>
+      <c r="T36" s="54"/>
+      <c r="U36" s="54"/>
+      <c r="V36" s="54"/>
+      <c r="W36" s="54"/>
+      <c r="X36" s="54"/>
+      <c r="Y36" s="55"/>
     </row>
     <row r="37" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="52"/>
-      <c r="B37" s="50"/>
-      <c r="C37" s="50"/>
-      <c r="D37" s="50"/>
-      <c r="E37" s="50"/>
-      <c r="F37" s="50"/>
-      <c r="G37" s="50"/>
-      <c r="H37" s="50"/>
-      <c r="I37" s="50"/>
-      <c r="J37" s="50"/>
-      <c r="K37" s="50"/>
-      <c r="L37" s="50"/>
-      <c r="M37" s="50"/>
-      <c r="N37" s="50"/>
-      <c r="O37" s="50"/>
-      <c r="P37" s="50"/>
-      <c r="Q37" s="50"/>
-      <c r="R37" s="50"/>
-      <c r="S37" s="50"/>
-      <c r="T37" s="50"/>
-      <c r="U37" s="50"/>
-      <c r="V37" s="50"/>
-      <c r="W37" s="50"/>
-      <c r="X37" s="50"/>
-      <c r="Y37" s="51"/>
+      <c r="A37" s="56"/>
+      <c r="B37" s="54"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="54"/>
+      <c r="E37" s="54"/>
+      <c r="F37" s="54"/>
+      <c r="G37" s="54"/>
+      <c r="H37" s="54"/>
+      <c r="I37" s="54"/>
+      <c r="J37" s="54"/>
+      <c r="K37" s="54"/>
+      <c r="L37" s="54"/>
+      <c r="M37" s="54"/>
+      <c r="N37" s="54"/>
+      <c r="O37" s="54"/>
+      <c r="P37" s="54"/>
+      <c r="Q37" s="54"/>
+      <c r="R37" s="54"/>
+      <c r="S37" s="54"/>
+      <c r="T37" s="54"/>
+      <c r="U37" s="54"/>
+      <c r="V37" s="54"/>
+      <c r="W37" s="54"/>
+      <c r="X37" s="54"/>
+      <c r="Y37" s="55"/>
     </row>
     <row r="38" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="52"/>
-      <c r="B38" s="50"/>
-      <c r="C38" s="50"/>
-      <c r="D38" s="50"/>
-      <c r="E38" s="50"/>
-      <c r="F38" s="50"/>
-      <c r="G38" s="50"/>
-      <c r="H38" s="50"/>
-      <c r="I38" s="50"/>
-      <c r="J38" s="50"/>
-      <c r="K38" s="50"/>
-      <c r="L38" s="50"/>
-      <c r="M38" s="50"/>
-      <c r="N38" s="50"/>
-      <c r="O38" s="50"/>
-      <c r="P38" s="50"/>
-      <c r="Q38" s="50"/>
-      <c r="R38" s="50"/>
-      <c r="S38" s="50"/>
-      <c r="T38" s="50"/>
-      <c r="U38" s="50"/>
-      <c r="V38" s="50"/>
-      <c r="W38" s="50"/>
-      <c r="X38" s="50"/>
-      <c r="Y38" s="51"/>
+      <c r="A38" s="56"/>
+      <c r="B38" s="54"/>
+      <c r="C38" s="54"/>
+      <c r="D38" s="54"/>
+      <c r="E38" s="54"/>
+      <c r="F38" s="54"/>
+      <c r="G38" s="54"/>
+      <c r="H38" s="54"/>
+      <c r="I38" s="54"/>
+      <c r="J38" s="54"/>
+      <c r="K38" s="54"/>
+      <c r="L38" s="54"/>
+      <c r="M38" s="54"/>
+      <c r="N38" s="54"/>
+      <c r="O38" s="54"/>
+      <c r="P38" s="54"/>
+      <c r="Q38" s="54"/>
+      <c r="R38" s="54"/>
+      <c r="S38" s="54"/>
+      <c r="T38" s="54"/>
+      <c r="U38" s="54"/>
+      <c r="V38" s="54"/>
+      <c r="W38" s="54"/>
+      <c r="X38" s="54"/>
+      <c r="Y38" s="55"/>
     </row>
     <row r="39" customFormat="false" ht="66.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="52" t="s">
+      <c r="A39" s="56" t="s">
         <v>298</v>
       </c>
-      <c r="B39" s="50"/>
-      <c r="C39" s="50"/>
-      <c r="D39" s="50"/>
-      <c r="E39" s="50"/>
-      <c r="F39" s="50"/>
-      <c r="G39" s="50"/>
-      <c r="H39" s="50"/>
-      <c r="I39" s="50"/>
-      <c r="J39" s="50"/>
-      <c r="K39" s="50"/>
-      <c r="L39" s="50"/>
-      <c r="M39" s="50"/>
-      <c r="N39" s="50"/>
-      <c r="O39" s="50"/>
-      <c r="P39" s="50"/>
-      <c r="Q39" s="50"/>
-      <c r="R39" s="50"/>
-      <c r="S39" s="50"/>
-      <c r="T39" s="50"/>
-      <c r="U39" s="50"/>
-      <c r="V39" s="50"/>
-      <c r="W39" s="50"/>
-      <c r="X39" s="50"/>
-      <c r="Y39" s="51"/>
+      <c r="B39" s="54"/>
+      <c r="C39" s="54"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="54"/>
+      <c r="G39" s="54"/>
+      <c r="H39" s="54"/>
+      <c r="I39" s="54"/>
+      <c r="J39" s="54"/>
+      <c r="K39" s="54"/>
+      <c r="L39" s="54"/>
+      <c r="M39" s="54"/>
+      <c r="N39" s="54"/>
+      <c r="O39" s="54"/>
+      <c r="P39" s="54"/>
+      <c r="Q39" s="54"/>
+      <c r="R39" s="54"/>
+      <c r="S39" s="54"/>
+      <c r="T39" s="54"/>
+      <c r="U39" s="54"/>
+      <c r="V39" s="54"/>
+      <c r="W39" s="54"/>
+      <c r="X39" s="54"/>
+      <c r="Y39" s="55"/>
     </row>
     <row r="40" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="52" t="s">
+      <c r="A40" s="56" t="s">
         <v>299</v>
       </c>
-      <c r="B40" s="50"/>
-      <c r="C40" s="50"/>
-      <c r="D40" s="50"/>
-      <c r="E40" s="50"/>
-      <c r="F40" s="50"/>
-      <c r="G40" s="50"/>
-      <c r="H40" s="50"/>
-      <c r="I40" s="50"/>
-      <c r="J40" s="50"/>
-      <c r="K40" s="50"/>
-      <c r="L40" s="50"/>
-      <c r="M40" s="50"/>
-      <c r="N40" s="50"/>
-      <c r="O40" s="50"/>
-      <c r="P40" s="50"/>
-      <c r="Q40" s="50"/>
-      <c r="R40" s="50"/>
-      <c r="S40" s="50"/>
-      <c r="T40" s="50"/>
-      <c r="U40" s="50"/>
-      <c r="V40" s="50"/>
-      <c r="W40" s="50"/>
-      <c r="X40" s="50"/>
-      <c r="Y40" s="51"/>
+      <c r="B40" s="54"/>
+      <c r="C40" s="54"/>
+      <c r="D40" s="54"/>
+      <c r="E40" s="54"/>
+      <c r="F40" s="54"/>
+      <c r="G40" s="54"/>
+      <c r="H40" s="54"/>
+      <c r="I40" s="54"/>
+      <c r="J40" s="54"/>
+      <c r="K40" s="54"/>
+      <c r="L40" s="54"/>
+      <c r="M40" s="54"/>
+      <c r="N40" s="54"/>
+      <c r="O40" s="54"/>
+      <c r="P40" s="54"/>
+      <c r="Q40" s="54"/>
+      <c r="R40" s="54"/>
+      <c r="S40" s="54"/>
+      <c r="T40" s="54"/>
+      <c r="U40" s="54"/>
+      <c r="V40" s="54"/>
+      <c r="W40" s="54"/>
+      <c r="X40" s="54"/>
+      <c r="Y40" s="55"/>
     </row>
     <row r="41" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="48" t="s">
+      <c r="A41" s="52" t="s">
         <v>300</v>
       </c>
-      <c r="B41" s="48"/>
-      <c r="C41" s="48"/>
-      <c r="D41" s="48"/>
-      <c r="E41" s="48"/>
-      <c r="F41" s="48"/>
-      <c r="G41" s="48"/>
-      <c r="H41" s="48"/>
-      <c r="I41" s="48"/>
-      <c r="J41" s="48"/>
-      <c r="K41" s="48"/>
-      <c r="L41" s="48"/>
-      <c r="M41" s="48"/>
-      <c r="N41" s="48"/>
-      <c r="O41" s="48"/>
-      <c r="P41" s="48"/>
-      <c r="Q41" s="48"/>
-      <c r="R41" s="48"/>
-      <c r="S41" s="48"/>
-      <c r="T41" s="48"/>
-      <c r="U41" s="48"/>
-      <c r="V41" s="48"/>
-      <c r="W41" s="48"/>
-      <c r="X41" s="48"/>
-      <c r="Y41" s="48"/>
+      <c r="B41" s="52"/>
+      <c r="C41" s="52"/>
+      <c r="D41" s="52"/>
+      <c r="E41" s="52"/>
+      <c r="F41" s="52"/>
+      <c r="G41" s="52"/>
+      <c r="H41" s="52"/>
+      <c r="I41" s="52"/>
+      <c r="J41" s="52"/>
+      <c r="K41" s="52"/>
+      <c r="L41" s="52"/>
+      <c r="M41" s="52"/>
+      <c r="N41" s="52"/>
+      <c r="O41" s="52"/>
+      <c r="P41" s="52"/>
+      <c r="Q41" s="52"/>
+      <c r="R41" s="52"/>
+      <c r="S41" s="52"/>
+      <c r="T41" s="52"/>
+      <c r="U41" s="52"/>
+      <c r="V41" s="52"/>
+      <c r="W41" s="52"/>
+      <c r="X41" s="52"/>
+      <c r="Y41" s="52"/>
     </row>
     <row r="42" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="49" t="s">
+      <c r="A42" s="53" t="s">
         <v>301</v>
       </c>
-      <c r="B42" s="50"/>
-      <c r="C42" s="50"/>
-      <c r="D42" s="50"/>
-      <c r="E42" s="50"/>
-      <c r="F42" s="50"/>
-      <c r="G42" s="50"/>
-      <c r="H42" s="50"/>
-      <c r="I42" s="50"/>
-      <c r="J42" s="50"/>
-      <c r="K42" s="50"/>
-      <c r="L42" s="50"/>
-      <c r="M42" s="50"/>
-      <c r="N42" s="50"/>
-      <c r="O42" s="50"/>
-      <c r="P42" s="50"/>
-      <c r="Q42" s="50"/>
-      <c r="R42" s="50"/>
-      <c r="S42" s="50"/>
-      <c r="T42" s="50"/>
-      <c r="U42" s="50"/>
-      <c r="V42" s="50"/>
-      <c r="W42" s="50"/>
-      <c r="X42" s="50"/>
-      <c r="Y42" s="51"/>
+      <c r="B42" s="54"/>
+      <c r="C42" s="54"/>
+      <c r="D42" s="54"/>
+      <c r="E42" s="54"/>
+      <c r="F42" s="54"/>
+      <c r="G42" s="54"/>
+      <c r="H42" s="54"/>
+      <c r="I42" s="54"/>
+      <c r="J42" s="54"/>
+      <c r="K42" s="54"/>
+      <c r="L42" s="54"/>
+      <c r="M42" s="54"/>
+      <c r="N42" s="54"/>
+      <c r="O42" s="54"/>
+      <c r="P42" s="54"/>
+      <c r="Q42" s="54"/>
+      <c r="R42" s="54"/>
+      <c r="S42" s="54"/>
+      <c r="T42" s="54"/>
+      <c r="U42" s="54"/>
+      <c r="V42" s="54"/>
+      <c r="W42" s="54"/>
+      <c r="X42" s="54"/>
+      <c r="Y42" s="55"/>
     </row>
     <row r="43" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="49" t="s">
+      <c r="A43" s="53" t="s">
         <v>302</v>
       </c>
-      <c r="B43" s="50"/>
-      <c r="C43" s="50"/>
-      <c r="D43" s="50"/>
-      <c r="E43" s="50"/>
-      <c r="F43" s="50"/>
-      <c r="G43" s="50"/>
-      <c r="H43" s="50"/>
-      <c r="I43" s="50"/>
-      <c r="J43" s="50"/>
-      <c r="K43" s="50"/>
-      <c r="L43" s="50"/>
-      <c r="M43" s="50"/>
-      <c r="N43" s="50"/>
-      <c r="O43" s="50"/>
-      <c r="P43" s="50"/>
-      <c r="Q43" s="50"/>
-      <c r="R43" s="50"/>
-      <c r="S43" s="50"/>
-      <c r="T43" s="50"/>
-      <c r="U43" s="50"/>
-      <c r="V43" s="50"/>
-      <c r="W43" s="50"/>
-      <c r="X43" s="50"/>
-      <c r="Y43" s="51"/>
+      <c r="B43" s="54"/>
+      <c r="C43" s="54"/>
+      <c r="D43" s="54"/>
+      <c r="E43" s="54"/>
+      <c r="F43" s="54"/>
+      <c r="G43" s="54"/>
+      <c r="H43" s="54"/>
+      <c r="I43" s="54"/>
+      <c r="J43" s="54"/>
+      <c r="K43" s="54"/>
+      <c r="L43" s="54"/>
+      <c r="M43" s="54"/>
+      <c r="N43" s="54"/>
+      <c r="O43" s="54"/>
+      <c r="P43" s="54"/>
+      <c r="Q43" s="54"/>
+      <c r="R43" s="54"/>
+      <c r="S43" s="54"/>
+      <c r="T43" s="54"/>
+      <c r="U43" s="54"/>
+      <c r="V43" s="54"/>
+      <c r="W43" s="54"/>
+      <c r="X43" s="54"/>
+      <c r="Y43" s="55"/>
     </row>
     <row r="44" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="49" t="s">
+      <c r="A44" s="53" t="s">
         <v>303</v>
       </c>
-      <c r="B44" s="50"/>
-      <c r="C44" s="50"/>
-      <c r="D44" s="50"/>
-      <c r="E44" s="50"/>
-      <c r="F44" s="50"/>
-      <c r="G44" s="50"/>
-      <c r="H44" s="50"/>
-      <c r="I44" s="50"/>
-      <c r="J44" s="50"/>
-      <c r="K44" s="50"/>
-      <c r="L44" s="50"/>
-      <c r="M44" s="50"/>
-      <c r="N44" s="50"/>
-      <c r="O44" s="50"/>
-      <c r="P44" s="50"/>
-      <c r="Q44" s="50"/>
-      <c r="R44" s="50"/>
-      <c r="S44" s="50"/>
-      <c r="T44" s="50"/>
-      <c r="U44" s="50"/>
-      <c r="V44" s="50"/>
-      <c r="W44" s="50"/>
-      <c r="X44" s="50"/>
-      <c r="Y44" s="51"/>
+      <c r="B44" s="54"/>
+      <c r="C44" s="54"/>
+      <c r="D44" s="54"/>
+      <c r="E44" s="54"/>
+      <c r="F44" s="54"/>
+      <c r="G44" s="54"/>
+      <c r="H44" s="54"/>
+      <c r="I44" s="54"/>
+      <c r="J44" s="54"/>
+      <c r="K44" s="54"/>
+      <c r="L44" s="54"/>
+      <c r="M44" s="54"/>
+      <c r="N44" s="54"/>
+      <c r="O44" s="54"/>
+      <c r="P44" s="54"/>
+      <c r="Q44" s="54"/>
+      <c r="R44" s="54"/>
+      <c r="S44" s="54"/>
+      <c r="T44" s="54"/>
+      <c r="U44" s="54"/>
+      <c r="V44" s="54"/>
+      <c r="W44" s="54"/>
+      <c r="X44" s="54"/>
+      <c r="Y44" s="55"/>
     </row>
     <row r="45" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="49"/>
-      <c r="B45" s="50"/>
-      <c r="C45" s="50"/>
-      <c r="D45" s="50"/>
-      <c r="E45" s="50"/>
-      <c r="F45" s="50"/>
-      <c r="G45" s="50"/>
-      <c r="H45" s="50"/>
-      <c r="I45" s="50"/>
-      <c r="J45" s="50"/>
-      <c r="K45" s="50"/>
-      <c r="L45" s="50"/>
-      <c r="M45" s="50"/>
-      <c r="N45" s="50"/>
-      <c r="O45" s="50"/>
-      <c r="P45" s="50"/>
-      <c r="Q45" s="50"/>
-      <c r="R45" s="50"/>
-      <c r="S45" s="50"/>
-      <c r="T45" s="50"/>
-      <c r="U45" s="50"/>
-      <c r="V45" s="50"/>
-      <c r="W45" s="50"/>
-      <c r="X45" s="50"/>
-      <c r="Y45" s="51"/>
+      <c r="A45" s="53"/>
+      <c r="B45" s="54"/>
+      <c r="C45" s="54"/>
+      <c r="D45" s="54"/>
+      <c r="E45" s="54"/>
+      <c r="F45" s="54"/>
+      <c r="G45" s="54"/>
+      <c r="H45" s="54"/>
+      <c r="I45" s="54"/>
+      <c r="J45" s="54"/>
+      <c r="K45" s="54"/>
+      <c r="L45" s="54"/>
+      <c r="M45" s="54"/>
+      <c r="N45" s="54"/>
+      <c r="O45" s="54"/>
+      <c r="P45" s="54"/>
+      <c r="Q45" s="54"/>
+      <c r="R45" s="54"/>
+      <c r="S45" s="54"/>
+      <c r="T45" s="54"/>
+      <c r="U45" s="54"/>
+      <c r="V45" s="54"/>
+      <c r="W45" s="54"/>
+      <c r="X45" s="54"/>
+      <c r="Y45" s="55"/>
     </row>
     <row r="46" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="49"/>
-      <c r="B46" s="50"/>
-      <c r="C46" s="50"/>
-      <c r="D46" s="50"/>
-      <c r="E46" s="50"/>
-      <c r="F46" s="50"/>
-      <c r="G46" s="50"/>
-      <c r="H46" s="50"/>
-      <c r="I46" s="50"/>
-      <c r="J46" s="50"/>
-      <c r="K46" s="50"/>
-      <c r="L46" s="50"/>
-      <c r="M46" s="50"/>
-      <c r="N46" s="50"/>
-      <c r="O46" s="50"/>
-      <c r="P46" s="50"/>
-      <c r="Q46" s="50"/>
-      <c r="R46" s="50"/>
-      <c r="S46" s="50"/>
-      <c r="T46" s="50"/>
-      <c r="U46" s="50"/>
-      <c r="V46" s="50"/>
-      <c r="W46" s="50"/>
-      <c r="X46" s="50"/>
-      <c r="Y46" s="51"/>
+      <c r="A46" s="53"/>
+      <c r="B46" s="54"/>
+      <c r="C46" s="54"/>
+      <c r="D46" s="54"/>
+      <c r="E46" s="54"/>
+      <c r="F46" s="54"/>
+      <c r="G46" s="54"/>
+      <c r="H46" s="54"/>
+      <c r="I46" s="54"/>
+      <c r="J46" s="54"/>
+      <c r="K46" s="54"/>
+      <c r="L46" s="54"/>
+      <c r="M46" s="54"/>
+      <c r="N46" s="54"/>
+      <c r="O46" s="54"/>
+      <c r="P46" s="54"/>
+      <c r="Q46" s="54"/>
+      <c r="R46" s="54"/>
+      <c r="S46" s="54"/>
+      <c r="T46" s="54"/>
+      <c r="U46" s="54"/>
+      <c r="V46" s="54"/>
+      <c r="W46" s="54"/>
+      <c r="X46" s="54"/>
+      <c r="Y46" s="55"/>
     </row>
     <row r="47" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="48" t="s">
+      <c r="A47" s="52" t="s">
         <v>304</v>
       </c>
-      <c r="B47" s="48"/>
-      <c r="C47" s="48"/>
-      <c r="D47" s="48"/>
-      <c r="E47" s="48"/>
-      <c r="F47" s="48"/>
-      <c r="G47" s="48"/>
-      <c r="H47" s="48"/>
-      <c r="I47" s="48"/>
-      <c r="J47" s="48"/>
-      <c r="K47" s="48"/>
-      <c r="L47" s="48"/>
-      <c r="M47" s="48"/>
-      <c r="N47" s="48"/>
-      <c r="O47" s="48"/>
-      <c r="P47" s="48"/>
-      <c r="Q47" s="48"/>
-      <c r="R47" s="48"/>
-      <c r="S47" s="48"/>
-      <c r="T47" s="48"/>
-      <c r="U47" s="48"/>
-      <c r="V47" s="48"/>
-      <c r="W47" s="48"/>
-      <c r="X47" s="48"/>
-      <c r="Y47" s="48"/>
+      <c r="B47" s="52"/>
+      <c r="C47" s="52"/>
+      <c r="D47" s="52"/>
+      <c r="E47" s="52"/>
+      <c r="F47" s="52"/>
+      <c r="G47" s="52"/>
+      <c r="H47" s="52"/>
+      <c r="I47" s="52"/>
+      <c r="J47" s="52"/>
+      <c r="K47" s="52"/>
+      <c r="L47" s="52"/>
+      <c r="M47" s="52"/>
+      <c r="N47" s="52"/>
+      <c r="O47" s="52"/>
+      <c r="P47" s="52"/>
+      <c r="Q47" s="52"/>
+      <c r="R47" s="52"/>
+      <c r="S47" s="52"/>
+      <c r="T47" s="52"/>
+      <c r="U47" s="52"/>
+      <c r="V47" s="52"/>
+      <c r="W47" s="52"/>
+      <c r="X47" s="52"/>
+      <c r="Y47" s="52"/>
     </row>
     <row r="48" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="49"/>
-      <c r="B48" s="50"/>
-      <c r="C48" s="50"/>
-      <c r="D48" s="50"/>
-      <c r="E48" s="50"/>
-      <c r="F48" s="50"/>
-      <c r="G48" s="50"/>
-      <c r="H48" s="50"/>
-      <c r="I48" s="50"/>
-      <c r="J48" s="50"/>
-      <c r="K48" s="50"/>
-      <c r="L48" s="50"/>
-      <c r="M48" s="50"/>
-      <c r="N48" s="50"/>
-      <c r="O48" s="50"/>
-      <c r="P48" s="50"/>
-      <c r="Q48" s="50"/>
-      <c r="R48" s="50"/>
-      <c r="S48" s="50"/>
-      <c r="T48" s="50"/>
-      <c r="U48" s="50"/>
-      <c r="V48" s="50"/>
-      <c r="W48" s="50"/>
-      <c r="X48" s="50"/>
-      <c r="Y48" s="51"/>
+      <c r="A48" s="53"/>
+      <c r="B48" s="54"/>
+      <c r="C48" s="54"/>
+      <c r="D48" s="54"/>
+      <c r="E48" s="54"/>
+      <c r="F48" s="54"/>
+      <c r="G48" s="54"/>
+      <c r="H48" s="54"/>
+      <c r="I48" s="54"/>
+      <c r="J48" s="54"/>
+      <c r="K48" s="54"/>
+      <c r="L48" s="54"/>
+      <c r="M48" s="54"/>
+      <c r="N48" s="54"/>
+      <c r="O48" s="54"/>
+      <c r="P48" s="54"/>
+      <c r="Q48" s="54"/>
+      <c r="R48" s="54"/>
+      <c r="S48" s="54"/>
+      <c r="T48" s="54"/>
+      <c r="U48" s="54"/>
+      <c r="V48" s="54"/>
+      <c r="W48" s="54"/>
+      <c r="X48" s="54"/>
+      <c r="Y48" s="55"/>
     </row>
     <row r="49" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="49"/>
-      <c r="B49" s="50"/>
-      <c r="C49" s="50"/>
-      <c r="D49" s="50"/>
-      <c r="E49" s="50"/>
-      <c r="F49" s="50"/>
-      <c r="G49" s="50"/>
-      <c r="H49" s="50"/>
-      <c r="I49" s="50"/>
-      <c r="J49" s="50"/>
-      <c r="K49" s="50"/>
-      <c r="L49" s="50"/>
-      <c r="M49" s="50"/>
-      <c r="N49" s="50"/>
-      <c r="O49" s="50"/>
-      <c r="P49" s="50"/>
-      <c r="Q49" s="50"/>
-      <c r="R49" s="50"/>
-      <c r="S49" s="50"/>
-      <c r="T49" s="50"/>
-      <c r="U49" s="50"/>
-      <c r="V49" s="50"/>
-      <c r="W49" s="50"/>
-      <c r="X49" s="50"/>
-      <c r="Y49" s="51"/>
+      <c r="A49" s="53"/>
+      <c r="B49" s="54"/>
+      <c r="C49" s="54"/>
+      <c r="D49" s="54"/>
+      <c r="E49" s="54"/>
+      <c r="F49" s="54"/>
+      <c r="G49" s="54"/>
+      <c r="H49" s="54"/>
+      <c r="I49" s="54"/>
+      <c r="J49" s="54"/>
+      <c r="K49" s="54"/>
+      <c r="L49" s="54"/>
+      <c r="M49" s="54"/>
+      <c r="N49" s="54"/>
+      <c r="O49" s="54"/>
+      <c r="P49" s="54"/>
+      <c r="Q49" s="54"/>
+      <c r="R49" s="54"/>
+      <c r="S49" s="54"/>
+      <c r="T49" s="54"/>
+      <c r="U49" s="54"/>
+      <c r="V49" s="54"/>
+      <c r="W49" s="54"/>
+      <c r="X49" s="54"/>
+      <c r="Y49" s="55"/>
     </row>
     <row r="50" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="49" t="s">
+      <c r="A50" s="53" t="s">
         <v>305</v>
       </c>
-      <c r="B50" s="50"/>
-      <c r="C50" s="50"/>
-      <c r="D50" s="50"/>
-      <c r="E50" s="50"/>
-      <c r="F50" s="50"/>
-      <c r="G50" s="50"/>
-      <c r="H50" s="50"/>
-      <c r="I50" s="50"/>
-      <c r="J50" s="50"/>
-      <c r="K50" s="50"/>
-      <c r="L50" s="50"/>
-      <c r="M50" s="50"/>
-      <c r="N50" s="50"/>
-      <c r="O50" s="50"/>
-      <c r="P50" s="50"/>
-      <c r="Q50" s="50"/>
-      <c r="R50" s="50"/>
-      <c r="S50" s="50"/>
-      <c r="T50" s="50"/>
-      <c r="U50" s="50"/>
-      <c r="V50" s="50"/>
-      <c r="W50" s="50"/>
-      <c r="X50" s="50"/>
-      <c r="Y50" s="51"/>
+      <c r="B50" s="54"/>
+      <c r="C50" s="54"/>
+      <c r="D50" s="54"/>
+      <c r="E50" s="54"/>
+      <c r="F50" s="54"/>
+      <c r="G50" s="54"/>
+      <c r="H50" s="54"/>
+      <c r="I50" s="54"/>
+      <c r="J50" s="54"/>
+      <c r="K50" s="54"/>
+      <c r="L50" s="54"/>
+      <c r="M50" s="54"/>
+      <c r="N50" s="54"/>
+      <c r="O50" s="54"/>
+      <c r="P50" s="54"/>
+      <c r="Q50" s="54"/>
+      <c r="R50" s="54"/>
+      <c r="S50" s="54"/>
+      <c r="T50" s="54"/>
+      <c r="U50" s="54"/>
+      <c r="V50" s="54"/>
+      <c r="W50" s="54"/>
+      <c r="X50" s="54"/>
+      <c r="Y50" s="55"/>
     </row>
     <row r="51" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="48" t="s">
+      <c r="A51" s="52" t="s">
         <v>306</v>
       </c>
-      <c r="B51" s="48"/>
-      <c r="C51" s="48"/>
-      <c r="D51" s="48"/>
-      <c r="E51" s="48"/>
-      <c r="F51" s="48"/>
-      <c r="G51" s="48"/>
-      <c r="H51" s="48"/>
-      <c r="I51" s="48"/>
-      <c r="J51" s="48"/>
-      <c r="K51" s="48"/>
-      <c r="L51" s="48"/>
-      <c r="M51" s="48"/>
-      <c r="N51" s="48"/>
-      <c r="O51" s="48"/>
-      <c r="P51" s="48"/>
-      <c r="Q51" s="48"/>
-      <c r="R51" s="48"/>
-      <c r="S51" s="48"/>
-      <c r="T51" s="48"/>
-      <c r="U51" s="48"/>
-      <c r="V51" s="48"/>
-      <c r="W51" s="48"/>
-      <c r="X51" s="48"/>
-      <c r="Y51" s="48"/>
+      <c r="B51" s="52"/>
+      <c r="C51" s="52"/>
+      <c r="D51" s="52"/>
+      <c r="E51" s="52"/>
+      <c r="F51" s="52"/>
+      <c r="G51" s="52"/>
+      <c r="H51" s="52"/>
+      <c r="I51" s="52"/>
+      <c r="J51" s="52"/>
+      <c r="K51" s="52"/>
+      <c r="L51" s="52"/>
+      <c r="M51" s="52"/>
+      <c r="N51" s="52"/>
+      <c r="O51" s="52"/>
+      <c r="P51" s="52"/>
+      <c r="Q51" s="52"/>
+      <c r="R51" s="52"/>
+      <c r="S51" s="52"/>
+      <c r="T51" s="52"/>
+      <c r="U51" s="52"/>
+      <c r="V51" s="52"/>
+      <c r="W51" s="52"/>
+      <c r="X51" s="52"/>
+      <c r="Y51" s="52"/>
     </row>
     <row r="52" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="53" t="s">
+      <c r="A52" s="57" t="s">
         <v>307</v>
       </c>
-      <c r="B52" s="50"/>
-      <c r="C52" s="50"/>
-      <c r="D52" s="50"/>
-      <c r="E52" s="50"/>
-      <c r="F52" s="50"/>
-      <c r="G52" s="50"/>
-      <c r="H52" s="50"/>
-      <c r="I52" s="50"/>
-      <c r="J52" s="50"/>
-      <c r="K52" s="50"/>
-      <c r="L52" s="50"/>
-      <c r="M52" s="50"/>
-      <c r="N52" s="50"/>
-      <c r="O52" s="50"/>
-      <c r="P52" s="50"/>
-      <c r="Q52" s="50"/>
-      <c r="R52" s="50"/>
-      <c r="S52" s="50"/>
-      <c r="T52" s="50"/>
-      <c r="U52" s="50"/>
-      <c r="V52" s="50"/>
-      <c r="W52" s="50"/>
-      <c r="X52" s="50"/>
-      <c r="Y52" s="51"/>
+      <c r="B52" s="54"/>
+      <c r="C52" s="54"/>
+      <c r="D52" s="54"/>
+      <c r="E52" s="54"/>
+      <c r="F52" s="54"/>
+      <c r="G52" s="54"/>
+      <c r="H52" s="54"/>
+      <c r="I52" s="54"/>
+      <c r="J52" s="54"/>
+      <c r="K52" s="54"/>
+      <c r="L52" s="54"/>
+      <c r="M52" s="54"/>
+      <c r="N52" s="54"/>
+      <c r="O52" s="54"/>
+      <c r="P52" s="54"/>
+      <c r="Q52" s="54"/>
+      <c r="R52" s="54"/>
+      <c r="S52" s="54"/>
+      <c r="T52" s="54"/>
+      <c r="U52" s="54"/>
+      <c r="V52" s="54"/>
+      <c r="W52" s="54"/>
+      <c r="X52" s="54"/>
+      <c r="Y52" s="55"/>
     </row>
     <row r="53" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="53" t="s">
+      <c r="A53" s="57" t="s">
         <v>308</v>
       </c>
-      <c r="B53" s="50"/>
-      <c r="C53" s="50"/>
-      <c r="D53" s="50"/>
-      <c r="E53" s="50"/>
-      <c r="F53" s="50"/>
-      <c r="G53" s="50"/>
-      <c r="H53" s="50"/>
-      <c r="I53" s="50"/>
-      <c r="J53" s="50"/>
-      <c r="K53" s="50"/>
-      <c r="L53" s="50"/>
-      <c r="M53" s="50"/>
-      <c r="N53" s="50"/>
-      <c r="O53" s="50"/>
-      <c r="P53" s="50"/>
-      <c r="Q53" s="50"/>
-      <c r="R53" s="50"/>
-      <c r="S53" s="50"/>
-      <c r="T53" s="50"/>
-      <c r="U53" s="50"/>
-      <c r="V53" s="50"/>
-      <c r="W53" s="50"/>
-      <c r="X53" s="50"/>
-      <c r="Y53" s="51"/>
+      <c r="B53" s="54"/>
+      <c r="C53" s="54"/>
+      <c r="D53" s="54"/>
+      <c r="E53" s="54"/>
+      <c r="F53" s="54"/>
+      <c r="G53" s="54"/>
+      <c r="H53" s="54"/>
+      <c r="I53" s="54"/>
+      <c r="J53" s="54"/>
+      <c r="K53" s="54"/>
+      <c r="L53" s="54"/>
+      <c r="M53" s="54"/>
+      <c r="N53" s="54"/>
+      <c r="O53" s="54"/>
+      <c r="P53" s="54"/>
+      <c r="Q53" s="54"/>
+      <c r="R53" s="54"/>
+      <c r="S53" s="54"/>
+      <c r="T53" s="54"/>
+      <c r="U53" s="54"/>
+      <c r="V53" s="54"/>
+      <c r="W53" s="54"/>
+      <c r="X53" s="54"/>
+      <c r="Y53" s="55"/>
     </row>
     <row r="54" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="53" t="s">
+      <c r="A54" s="57" t="s">
         <v>309</v>
       </c>
-      <c r="B54" s="50"/>
-      <c r="C54" s="50"/>
-      <c r="D54" s="50"/>
-      <c r="E54" s="50"/>
-      <c r="F54" s="50"/>
-      <c r="G54" s="50"/>
-      <c r="H54" s="50"/>
-      <c r="I54" s="50"/>
-      <c r="J54" s="50"/>
-      <c r="K54" s="50"/>
-      <c r="L54" s="50"/>
-      <c r="M54" s="50"/>
-      <c r="N54" s="50"/>
-      <c r="O54" s="50"/>
-      <c r="P54" s="50"/>
-      <c r="Q54" s="50"/>
-      <c r="R54" s="50"/>
-      <c r="S54" s="50"/>
-      <c r="T54" s="50"/>
-      <c r="U54" s="50"/>
-      <c r="V54" s="50"/>
-      <c r="W54" s="50"/>
-      <c r="X54" s="50"/>
-      <c r="Y54" s="51"/>
+      <c r="B54" s="54"/>
+      <c r="C54" s="54"/>
+      <c r="D54" s="54"/>
+      <c r="E54" s="54"/>
+      <c r="F54" s="54"/>
+      <c r="G54" s="54"/>
+      <c r="H54" s="54"/>
+      <c r="I54" s="54"/>
+      <c r="J54" s="54"/>
+      <c r="K54" s="54"/>
+      <c r="L54" s="54"/>
+      <c r="M54" s="54"/>
+      <c r="N54" s="54"/>
+      <c r="O54" s="54"/>
+      <c r="P54" s="54"/>
+      <c r="Q54" s="54"/>
+      <c r="R54" s="54"/>
+      <c r="S54" s="54"/>
+      <c r="T54" s="54"/>
+      <c r="U54" s="54"/>
+      <c r="V54" s="54"/>
+      <c r="W54" s="54"/>
+      <c r="X54" s="54"/>
+      <c r="Y54" s="55"/>
     </row>
     <row r="55" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="49"/>
-      <c r="B55" s="50"/>
-      <c r="C55" s="50"/>
-      <c r="D55" s="50"/>
-      <c r="E55" s="50"/>
-      <c r="F55" s="50"/>
-      <c r="G55" s="50"/>
-      <c r="H55" s="50"/>
-      <c r="I55" s="50"/>
-      <c r="J55" s="50"/>
-      <c r="K55" s="50"/>
-      <c r="L55" s="50"/>
-      <c r="M55" s="50"/>
-      <c r="N55" s="50"/>
-      <c r="O55" s="50"/>
-      <c r="P55" s="50"/>
-      <c r="Q55" s="50"/>
-      <c r="R55" s="50"/>
-      <c r="S55" s="50"/>
-      <c r="T55" s="50"/>
-      <c r="U55" s="50"/>
-      <c r="V55" s="50"/>
-      <c r="W55" s="50"/>
-      <c r="X55" s="50"/>
-      <c r="Y55" s="51"/>
+      <c r="A55" s="53"/>
+      <c r="B55" s="54"/>
+      <c r="C55" s="54"/>
+      <c r="D55" s="54"/>
+      <c r="E55" s="54"/>
+      <c r="F55" s="54"/>
+      <c r="G55" s="54"/>
+      <c r="H55" s="54"/>
+      <c r="I55" s="54"/>
+      <c r="J55" s="54"/>
+      <c r="K55" s="54"/>
+      <c r="L55" s="54"/>
+      <c r="M55" s="54"/>
+      <c r="N55" s="54"/>
+      <c r="O55" s="54"/>
+      <c r="P55" s="54"/>
+      <c r="Q55" s="54"/>
+      <c r="R55" s="54"/>
+      <c r="S55" s="54"/>
+      <c r="T55" s="54"/>
+      <c r="U55" s="54"/>
+      <c r="V55" s="54"/>
+      <c r="W55" s="54"/>
+      <c r="X55" s="54"/>
+      <c r="Y55" s="55"/>
     </row>
     <row r="56" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="54" t="s">
+      <c r="A56" s="58" t="s">
         <v>310</v>
       </c>
-      <c r="B56" s="50"/>
-      <c r="C56" s="50"/>
-      <c r="D56" s="50"/>
-      <c r="E56" s="50"/>
-      <c r="F56" s="50"/>
-      <c r="G56" s="50"/>
-      <c r="H56" s="50"/>
-      <c r="I56" s="50"/>
-      <c r="J56" s="50"/>
-      <c r="K56" s="50"/>
-      <c r="L56" s="50"/>
-      <c r="M56" s="50"/>
-      <c r="N56" s="50"/>
-      <c r="O56" s="50"/>
-      <c r="P56" s="50"/>
-      <c r="Q56" s="50"/>
-      <c r="R56" s="50"/>
-      <c r="S56" s="50"/>
-      <c r="T56" s="50"/>
-      <c r="U56" s="50"/>
-      <c r="V56" s="50"/>
-      <c r="W56" s="50"/>
-      <c r="X56" s="50"/>
-      <c r="Y56" s="51"/>
+      <c r="B56" s="54"/>
+      <c r="C56" s="54"/>
+      <c r="D56" s="54"/>
+      <c r="E56" s="54"/>
+      <c r="F56" s="54"/>
+      <c r="G56" s="54"/>
+      <c r="H56" s="54"/>
+      <c r="I56" s="54"/>
+      <c r="J56" s="54"/>
+      <c r="K56" s="54"/>
+      <c r="L56" s="54"/>
+      <c r="M56" s="54"/>
+      <c r="N56" s="54"/>
+      <c r="O56" s="54"/>
+      <c r="P56" s="54"/>
+      <c r="Q56" s="54"/>
+      <c r="R56" s="54"/>
+      <c r="S56" s="54"/>
+      <c r="T56" s="54"/>
+      <c r="U56" s="54"/>
+      <c r="V56" s="54"/>
+      <c r="W56" s="54"/>
+      <c r="X56" s="54"/>
+      <c r="Y56" s="55"/>
     </row>
     <row r="57" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="55" t="s">
+      <c r="A57" s="59" t="s">
         <v>311</v>
       </c>
-      <c r="B57" s="56"/>
-      <c r="C57" s="56"/>
-      <c r="D57" s="56"/>
-      <c r="E57" s="56"/>
-      <c r="F57" s="56"/>
-      <c r="G57" s="56"/>
-      <c r="H57" s="56"/>
-      <c r="I57" s="56"/>
-      <c r="J57" s="56"/>
-      <c r="K57" s="56"/>
-      <c r="L57" s="56"/>
-      <c r="M57" s="56"/>
-      <c r="N57" s="56"/>
-      <c r="O57" s="56"/>
-      <c r="P57" s="56"/>
-      <c r="Q57" s="56"/>
-      <c r="R57" s="56"/>
-      <c r="S57" s="56"/>
-      <c r="T57" s="56"/>
-      <c r="U57" s="56"/>
-      <c r="V57" s="56"/>
-      <c r="W57" s="56"/>
-      <c r="X57" s="56"/>
-      <c r="Y57" s="57"/>
+      <c r="B57" s="60"/>
+      <c r="C57" s="60"/>
+      <c r="D57" s="60"/>
+      <c r="E57" s="60"/>
+      <c r="F57" s="60"/>
+      <c r="G57" s="60"/>
+      <c r="H57" s="60"/>
+      <c r="I57" s="60"/>
+      <c r="J57" s="60"/>
+      <c r="K57" s="60"/>
+      <c r="L57" s="60"/>
+      <c r="M57" s="60"/>
+      <c r="N57" s="60"/>
+      <c r="O57" s="60"/>
+      <c r="P57" s="60"/>
+      <c r="Q57" s="60"/>
+      <c r="R57" s="60"/>
+      <c r="S57" s="60"/>
+      <c r="T57" s="60"/>
+      <c r="U57" s="60"/>
+      <c r="V57" s="60"/>
+      <c r="W57" s="60"/>
+      <c r="X57" s="60"/>
+      <c r="Y57" s="61"/>
     </row>
     <row r="58" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="58"/>
+      <c r="A58" s="62"/>
     </row>
     <row r="59" customFormat="false" ht="141.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="59" t="s">
+      <c r="A59" s="63" t="s">
         <v>312</v>
       </c>
     </row>

--- a/resources/report_template.xlsx
+++ b/resources/report_template.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="337">
   <si>
     <t>Région</t>
   </si>
@@ -766,6 +766,78 @@
   </si>
   <si>
     <t>Nombre de personnes  VIH, qui reçoivent  du cotrimoxazole au cours au cours de la période de raportage</t>
+  </si>
+  <si>
+    <t>{key: 'UNDER_CTX', gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'UNDER_CTX', gender: 1}</t>
+  </si>
+  <si>
+    <t>{key:'UNDER_CTX', age_max: 15}</t>
+  </si>
+  <si>
+    <t>{key: 'UNDER_CTX', age_min: 15}</t>
+  </si>
+  <si>
+    <t>{key: 'UNDER_CTX'}</t>
+  </si>
+  <si>
+    <t>{key: 'UNDER_CTX', age_max: 15, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'UNDER_CTX', age_max: 15, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'UNDER_CTX', age_min: 15, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'UNDER_CTX', age_min: 15, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'UNDER_CTX', age_max: 1, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'UNDER_CTX', age_max: 1, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'UNDER_CTX', age_min: 1, age_max: 4, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'UNDER_CTX', age_min: 5, age_max: 9, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'UNDER_CTX', age_min: 5, age_max: 9, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'UNDER_CTX', age_min: 10, age_max: 14, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'UNDER_CTX', age_min: 10, age_max: 14, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'UNDER_CTX', age_min: 15, age_max: 19, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'UNDER_CTX', age_min: 15, age_max: 19, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'UNDER_CTX', age_min: 20, age_max: 24, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'UNDER_CTX', age_min: 20, age_max: 24, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'UNDER_CTX', age_min: 25, age_max: 49, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'UNDER_CTX', age_min: 25, age_max: 49, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'UNDER_CTX', age_min: 50, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'UNDER_CTX', age_min: 50, gender: 1}</t>
   </si>
   <si>
     <t>Nombre de PVVIH sous TARV qui sont en rétention sous TARV  6 mois après la mise en route (initié) le traitement ARV</t>
@@ -1758,8 +1830,8 @@
   </sheetPr>
   <dimension ref="A1:AB57"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C16" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G26" activeCellId="0" sqref="G26"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23:AB23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2892,37 +2964,91 @@
       <c r="A23" s="18" t="s">
         <v>249</v>
       </c>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="16"/>
-      <c r="N23" s="16"/>
-      <c r="O23" s="16"/>
-      <c r="P23" s="16"/>
-      <c r="Q23" s="16"/>
-      <c r="R23" s="16"/>
-      <c r="S23" s="16"/>
-      <c r="T23" s="16"/>
-      <c r="U23" s="16"/>
-      <c r="V23" s="16"/>
-      <c r="W23" s="16"/>
-      <c r="X23" s="16"/>
-      <c r="Y23" s="16"/>
-      <c r="Z23" s="16"/>
-      <c r="AA23" s="20"/>
-      <c r="AB23" s="22"/>
+      <c r="B23" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="H23" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I23" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J23" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="K23" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="L23" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="M23" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="N23" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="O23" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="P23" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q23" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="R23" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="S23" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="T23" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="U23" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="V23" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="W23" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="X23" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="Y23" s="16" t="s">
+        <v>272</v>
+      </c>
+      <c r="Z23" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="AA23" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="AB23" s="17" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="24" s="19" customFormat="true" ht="28.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="18" t="s">
-        <v>250</v>
+        <v>274</v>
       </c>
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
@@ -2954,7 +3080,7 @@
     </row>
     <row r="25" s="19" customFormat="true" ht="28.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="18" t="s">
-        <v>251</v>
+        <v>275</v>
       </c>
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
@@ -2986,7 +3112,7 @@
     </row>
     <row r="26" s="19" customFormat="true" ht="28.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="18" t="s">
-        <v>252</v>
+        <v>276</v>
       </c>
       <c r="B26" s="15"/>
       <c r="C26" s="15"/>
@@ -3018,7 +3144,7 @@
     </row>
     <row r="27" s="19" customFormat="true" ht="27.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="18" t="s">
-        <v>253</v>
+        <v>277</v>
       </c>
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
@@ -3050,7 +3176,7 @@
     </row>
     <row r="28" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="33" t="s">
-        <v>254</v>
+        <v>278</v>
       </c>
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
@@ -3082,7 +3208,7 @@
     </row>
     <row r="29" customFormat="false" ht="28.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="33" t="s">
-        <v>255</v>
+        <v>279</v>
       </c>
       <c r="B29" s="15"/>
       <c r="C29" s="15"/>
@@ -3114,7 +3240,7 @@
     </row>
     <row r="30" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="33" t="s">
-        <v>256</v>
+        <v>280</v>
       </c>
       <c r="B30" s="15"/>
       <c r="C30" s="15"/>
@@ -3146,7 +3272,7 @@
     </row>
     <row r="31" customFormat="false" ht="41.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="34" t="s">
-        <v>257</v>
+        <v>281</v>
       </c>
       <c r="B31" s="15"/>
       <c r="C31" s="15"/>
@@ -3178,7 +3304,7 @@
     </row>
     <row r="32" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="34" t="s">
-        <v>258</v>
+        <v>282</v>
       </c>
       <c r="B32" s="15"/>
       <c r="C32" s="15"/>
@@ -3210,7 +3336,7 @@
     </row>
     <row r="33" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="34" t="s">
-        <v>259</v>
+        <v>283</v>
       </c>
       <c r="B33" s="15"/>
       <c r="C33" s="15"/>
@@ -3242,7 +3368,7 @@
     </row>
     <row r="34" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="35" t="s">
-        <v>260</v>
+        <v>284</v>
       </c>
       <c r="B34" s="36"/>
       <c r="C34" s="36"/>
@@ -3304,7 +3430,7 @@
     </row>
     <row r="36" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="18" t="s">
-        <v>261</v>
+        <v>285</v>
       </c>
       <c r="B36" s="15"/>
       <c r="C36" s="15"/>
@@ -3336,7 +3462,7 @@
     </row>
     <row r="37" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="18" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="B37" s="15"/>
       <c r="C37" s="15"/>
@@ -3368,7 +3494,7 @@
     </row>
     <row r="38" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="18" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="B38" s="15"/>
       <c r="C38" s="15"/>
@@ -3400,7 +3526,7 @@
     </row>
     <row r="39" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="14" t="s">
-        <v>264</v>
+        <v>288</v>
       </c>
       <c r="B39" s="15"/>
       <c r="C39" s="15"/>
@@ -3432,7 +3558,7 @@
     </row>
     <row r="40" customFormat="false" ht="28.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="37" t="s">
-        <v>265</v>
+        <v>289</v>
       </c>
       <c r="B40" s="38"/>
       <c r="C40" s="38"/>
@@ -3507,7 +3633,7 @@
   <dimension ref="A1:Y59"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B23:AB23 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3518,32 +3644,32 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="42" t="s">
-        <v>266</v>
+        <v>290</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="42" t="s">
-        <v>267</v>
+        <v>291</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="42" t="s">
-        <v>268</v>
+        <v>292</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="42" t="s">
-        <v>269</v>
+        <v>293</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="42" t="s">
-        <v>270</v>
+        <v>294</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="42" t="s">
-        <v>271</v>
+        <v>295</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3551,12 +3677,12 @@
     </row>
     <row r="9" customFormat="false" ht="80.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="43" t="s">
-        <v>272</v>
+        <v>296</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="51.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="44" t="s">
-        <v>273</v>
+        <v>297</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3564,7 +3690,7 @@
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="45" t="s">
-        <v>274</v>
+        <v>298</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3572,22 +3698,22 @@
     </row>
     <row r="14" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="47" t="s">
-        <v>275</v>
+        <v>299</v>
       </c>
       <c r="B14" s="48" t="s">
-        <v>276</v>
+        <v>300</v>
       </c>
       <c r="C14" s="48"/>
       <c r="D14" s="48" t="s">
-        <v>277</v>
+        <v>301</v>
       </c>
       <c r="E14" s="48"/>
       <c r="F14" s="48" t="s">
-        <v>278</v>
+        <v>302</v>
       </c>
       <c r="G14" s="48"/>
       <c r="H14" s="48" t="s">
-        <v>279</v>
+        <v>303</v>
       </c>
       <c r="I14" s="48"/>
       <c r="J14" s="48" t="s">
@@ -3603,19 +3729,19 @@
       </c>
       <c r="O14" s="48"/>
       <c r="P14" s="48" t="s">
-        <v>280</v>
+        <v>304</v>
       </c>
       <c r="Q14" s="48"/>
       <c r="R14" s="48" t="s">
-        <v>281</v>
+        <v>305</v>
       </c>
       <c r="S14" s="48"/>
       <c r="T14" s="48" t="s">
-        <v>282</v>
+        <v>306</v>
       </c>
       <c r="U14" s="48"/>
       <c r="V14" s="48" t="s">
-        <v>283</v>
+        <v>307</v>
       </c>
       <c r="W14" s="48"/>
       <c r="X14" s="49" t="s">
@@ -3700,7 +3826,7 @@
     </row>
     <row r="16" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="52" t="s">
-        <v>284</v>
+        <v>308</v>
       </c>
       <c r="B16" s="52"/>
       <c r="C16" s="52"/>
@@ -3729,7 +3855,7 @@
     </row>
     <row r="17" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="53" t="s">
-        <v>285</v>
+        <v>309</v>
       </c>
       <c r="B17" s="54"/>
       <c r="C17" s="54"/>
@@ -3758,7 +3884,7 @@
     </row>
     <row r="18" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="53" t="s">
-        <v>286</v>
+        <v>310</v>
       </c>
       <c r="B18" s="54"/>
       <c r="C18" s="54"/>
@@ -3787,7 +3913,7 @@
     </row>
     <row r="19" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="53" t="s">
-        <v>287</v>
+        <v>311</v>
       </c>
       <c r="B19" s="54"/>
       <c r="C19" s="54"/>
@@ -3870,7 +3996,7 @@
     </row>
     <row r="22" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="52" t="s">
-        <v>288</v>
+        <v>312</v>
       </c>
       <c r="B22" s="52"/>
       <c r="C22" s="52"/>
@@ -3899,7 +4025,7 @@
     </row>
     <row r="23" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="53" t="s">
-        <v>289</v>
+        <v>313</v>
       </c>
       <c r="B23" s="54"/>
       <c r="C23" s="54"/>
@@ -3928,7 +4054,7 @@
     </row>
     <row r="24" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="53" t="s">
-        <v>290</v>
+        <v>314</v>
       </c>
       <c r="B24" s="54"/>
       <c r="C24" s="54"/>
@@ -3957,7 +4083,7 @@
     </row>
     <row r="25" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="53" t="s">
-        <v>291</v>
+        <v>315</v>
       </c>
       <c r="B25" s="54"/>
       <c r="C25" s="54"/>
@@ -3986,7 +4112,7 @@
     </row>
     <row r="26" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="53" t="s">
-        <v>292</v>
+        <v>316</v>
       </c>
       <c r="B26" s="54"/>
       <c r="C26" s="54"/>
@@ -4069,7 +4195,7 @@
     </row>
     <row r="29" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="56" t="s">
-        <v>293</v>
+        <v>317</v>
       </c>
       <c r="B29" s="54"/>
       <c r="C29" s="54"/>
@@ -4098,7 +4224,7 @@
     </row>
     <row r="30" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="52" t="s">
-        <v>294</v>
+        <v>318</v>
       </c>
       <c r="B30" s="52"/>
       <c r="C30" s="52"/>
@@ -4127,7 +4253,7 @@
     </row>
     <row r="31" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="53" t="s">
-        <v>295</v>
+        <v>319</v>
       </c>
       <c r="B31" s="54"/>
       <c r="C31" s="54"/>
@@ -4156,7 +4282,7 @@
     </row>
     <row r="32" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="53" t="s">
-        <v>296</v>
+        <v>320</v>
       </c>
       <c r="B32" s="54"/>
       <c r="C32" s="54"/>
@@ -4239,7 +4365,7 @@
     </row>
     <row r="35" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="52" t="s">
-        <v>297</v>
+        <v>321</v>
       </c>
       <c r="B35" s="52"/>
       <c r="C35" s="52"/>
@@ -4349,7 +4475,7 @@
     </row>
     <row r="39" customFormat="false" ht="66.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="56" t="s">
-        <v>298</v>
+        <v>322</v>
       </c>
       <c r="B39" s="54"/>
       <c r="C39" s="54"/>
@@ -4378,7 +4504,7 @@
     </row>
     <row r="40" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="56" t="s">
-        <v>299</v>
+        <v>323</v>
       </c>
       <c r="B40" s="54"/>
       <c r="C40" s="54"/>
@@ -4407,7 +4533,7 @@
     </row>
     <row r="41" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="52" t="s">
-        <v>300</v>
+        <v>324</v>
       </c>
       <c r="B41" s="52"/>
       <c r="C41" s="52"/>
@@ -4436,7 +4562,7 @@
     </row>
     <row r="42" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="53" t="s">
-        <v>301</v>
+        <v>325</v>
       </c>
       <c r="B42" s="54"/>
       <c r="C42" s="54"/>
@@ -4465,7 +4591,7 @@
     </row>
     <row r="43" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="53" t="s">
-        <v>302</v>
+        <v>326</v>
       </c>
       <c r="B43" s="54"/>
       <c r="C43" s="54"/>
@@ -4494,7 +4620,7 @@
     </row>
     <row r="44" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="53" t="s">
-        <v>303</v>
+        <v>327</v>
       </c>
       <c r="B44" s="54"/>
       <c r="C44" s="54"/>
@@ -4577,7 +4703,7 @@
     </row>
     <row r="47" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="52" t="s">
-        <v>304</v>
+        <v>328</v>
       </c>
       <c r="B47" s="52"/>
       <c r="C47" s="52"/>
@@ -4660,7 +4786,7 @@
     </row>
     <row r="50" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="53" t="s">
-        <v>305</v>
+        <v>329</v>
       </c>
       <c r="B50" s="54"/>
       <c r="C50" s="54"/>
@@ -4689,7 +4815,7 @@
     </row>
     <row r="51" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="52" t="s">
-        <v>306</v>
+        <v>330</v>
       </c>
       <c r="B51" s="52"/>
       <c r="C51" s="52"/>
@@ -4718,7 +4844,7 @@
     </row>
     <row r="52" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="57" t="s">
-        <v>307</v>
+        <v>331</v>
       </c>
       <c r="B52" s="54"/>
       <c r="C52" s="54"/>
@@ -4747,7 +4873,7 @@
     </row>
     <row r="53" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="57" t="s">
-        <v>308</v>
+        <v>332</v>
       </c>
       <c r="B53" s="54"/>
       <c r="C53" s="54"/>
@@ -4776,7 +4902,7 @@
     </row>
     <row r="54" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="57" t="s">
-        <v>309</v>
+        <v>333</v>
       </c>
       <c r="B54" s="54"/>
       <c r="C54" s="54"/>
@@ -4832,7 +4958,7 @@
     </row>
     <row r="56" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="58" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="B56" s="54"/>
       <c r="C56" s="54"/>
@@ -4861,7 +4987,7 @@
     </row>
     <row r="57" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="59" t="s">
-        <v>311</v>
+        <v>335</v>
       </c>
       <c r="B57" s="60"/>
       <c r="C57" s="60"/>
@@ -4893,7 +5019,7 @@
     </row>
     <row r="59" customFormat="false" ht="141.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="63" t="s">
-        <v>312</v>
+        <v>336</v>
       </c>
     </row>
   </sheetData>

--- a/resources/report_template.xlsx
+++ b/resources/report_template.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="433">
   <si>
     <t>Région</t>
   </si>
@@ -843,13 +843,301 @@
     <t>Nombre de PVVIH sous TARV qui sont en rétention sous TARV  6 mois après la mise en route (initié) le traitement ARV</t>
   </si>
   <si>
+    <t>{key: 'ARV_RETENTION_6_MONTHS', gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_RETENTION_6_MONTHS', gender: 1}</t>
+  </si>
+  <si>
+    <t>{key:'ARV_RETENTION_6_MONTHS', age_max: 15}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_RETENTION_6_MONTHS', age_min: 15}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_RETENTION_6_MONTHS'}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_RETENTION_6_MONTHS', age_max: 15, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_RETENTION_6_MONTHS', age_max: 15, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_RETENTION_6_MONTHS', age_min: 15, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_RETENTION_6_MONTHS', age_min: 15, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_RETENTION_6_MONTHS', age_max: 1, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_RETENTION_6_MONTHS', age_max: 1, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_RETENTION_6_MONTHS', age_min: 1, age_max: 4, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_RETENTION_6_MONTHS', age_min: 5, age_max: 9, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_RETENTION_6_MONTHS', age_min: 5, age_max: 9, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_RETENTION_6_MONTHS', age_min: 10, age_max: 14, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_RETENTION_6_MONTHS', age_min: 10, age_max: 14, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_RETENTION_6_MONTHS', age_min: 15, age_max: 19, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_RETENTION_6_MONTHS', age_min: 15, age_max: 19, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_RETENTION_6_MONTHS', age_min: 20, age_max: 24, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_RETENTION_6_MONTHS', age_min: 20, age_max: 24, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_RETENTION_6_MONTHS', age_min: 25, age_max: 49, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_RETENTION_6_MONTHS', age_min: 25, age_max: 49, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_RETENTION_6_MONTHS', age_min: 50, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_RETENTION_6_MONTHS', age_min: 50, gender: 1}</t>
+  </si>
+  <si>
     <t>Nombre de PVVIH sous TARV qui sont en rétention sous TARV  12 mois après la mise en route (initié) le traitement ARV</t>
   </si>
   <si>
+    <t>{key: 'ARV_RETENTION_12_MONTHS', gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_RETENTION_12_MONTHS', gender: 1}</t>
+  </si>
+  <si>
+    <t>{key:'ARV_RETENTION_12_MONTHS', age_max: 15}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_RETENTION_12_MONTHS', age_min: 15}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_RETENTION_12_MONTHS'}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_RETENTION_12_MONTHS', age_max: 15, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_RETENTION_12_MONTHS', age_max: 15, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_RETENTION_12_MONTHS', age_min: 15, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_RETENTION_12_MONTHS', age_min: 15, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_RETENTION_12_MONTHS', age_max: 1, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_RETENTION_12_MONTHS', age_max: 1, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_RETENTION_12_MONTHS', age_min: 1, age_max: 4, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_RETENTION_12_MONTHS', age_min: 5, age_max: 9, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_RETENTION_12_MONTHS', age_min: 5, age_max: 9, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_RETENTION_12_MONTHS', age_min: 10, age_max: 14, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_RETENTION_12_MONTHS', age_min: 10, age_max: 14, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_RETENTION_12_MONTHS', age_min: 15, age_max: 19, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_RETENTION_12_MONTHS', age_min: 15, age_max: 19, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_RETENTION_12_MONTHS', age_min: 20, age_max: 24, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_RETENTION_12_MONTHS', age_min: 20, age_max: 24, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_RETENTION_12_MONTHS', age_min: 25, age_max: 49, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_RETENTION_12_MONTHS', age_min: 25, age_max: 49, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_RETENTION_12_MONTHS', age_min: 50, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_RETENTION_12_MONTHS', age_min: 50, gender: 1}</t>
+  </si>
+  <si>
     <t>Nombre de PVVIH sous TARV qui sont en rétention sous TARV  24 mois après la mise en route (initié) le traitement ARV</t>
   </si>
   <si>
+    <t>{key: 'ARV_RETENTION_24_MONTHS', gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_RETENTION_24_MONTHS', gender: 1}</t>
+  </si>
+  <si>
+    <t>{key:'ARV_RETENTION_24_MONTHS', age_max: 15}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_RETENTION_24_MONTHS', age_min: 15}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_RETENTION_24_MONTHS'}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_RETENTION_24_MONTHS', age_max: 15, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_RETENTION_24_MONTHS', age_max: 15, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_RETENTION_24_MONTHS', age_min: 15, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_RETENTION_24_MONTHS', age_min: 15, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_RETENTION_24_MONTHS', age_max: 1, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_RETENTION_24_MONTHS', age_max: 1, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_RETENTION_24_MONTHS', age_min: 1, age_max: 4, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_RETENTION_24_MONTHS', age_min: 5, age_max: 9, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_RETENTION_24_MONTHS', age_min: 5, age_max: 9, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_RETENTION_24_MONTHS', age_min: 10, age_max: 14, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_RETENTION_24_MONTHS', age_min: 10, age_max: 14, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_RETENTION_24_MONTHS', age_min: 15, age_max: 19, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_RETENTION_24_MONTHS', age_min: 15, age_max: 19, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_RETENTION_24_MONTHS', age_min: 20, age_max: 24, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_RETENTION_24_MONTHS', age_min: 20, age_max: 24, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_RETENTION_24_MONTHS', age_min: 25, age_max: 49, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_RETENTION_24_MONTHS', age_min: 25, age_max: 49, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_RETENTION_24_MONTHS', age_min: 50, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_RETENTION_24_MONTHS', age_min: 50, gender: 1}</t>
+  </si>
+  <si>
     <t>Nombre de PVVIH  sous TARV qui sont en rétention sous TARV  60 mois après la mise en route (initié) le traitement ARV</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_RETENTION_60_MONTHS', gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_RETENTION_60_MONTHS', gender: 1}</t>
+  </si>
+  <si>
+    <t>{key:'ARV_RETENTION_60_MONTHS', age_max: 15}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_RETENTION_60_MONTHS', age_min: 15}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_RETENTION_60_MONTHS'}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_RETENTION_60_MONTHS', age_max: 15, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_RETENTION_60_MONTHS', age_max: 15, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_RETENTION_60_MONTHS', age_min: 15, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_RETENTION_60_MONTHS', age_min: 15, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_RETENTION_60_MONTHS', age_max: 1, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_RETENTION_60_MONTHS', age_max: 1, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_RETENTION_60_MONTHS', age_min: 1, age_max: 4, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_RETENTION_60_MONTHS', age_min: 5, age_max: 9, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_RETENTION_60_MONTHS', age_min: 5, age_max: 9, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_RETENTION_60_MONTHS', age_min: 10, age_max: 14, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_RETENTION_60_MONTHS', age_min: 10, age_max: 14, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_RETENTION_60_MONTHS', age_min: 15, age_max: 19, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_RETENTION_60_MONTHS', age_min: 15, age_max: 19, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_RETENTION_60_MONTHS', age_min: 20, age_max: 24, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_RETENTION_60_MONTHS', age_min: 20, age_max: 24, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_RETENTION_60_MONTHS', age_min: 25, age_max: 49, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_RETENTION_60_MONTHS', age_min: 25, age_max: 49, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_RETENTION_60_MONTHS', age_min: 50, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_RETENTION_60_MONTHS', age_min: 50, gender: 1}</t>
   </si>
   <si>
     <t>Nombre d’adultes et d’enfants infectés par le VIH inscrits dans les soins de l’infection à VIH (pré- TAR, TAR, PTME) chez lesquels une recherche de la tuberculose a été effectuée au cours de la période de rapportage (Dépistage de la TB chez les PVVIH suivies)</t>
@@ -1831,12 +2119,12 @@
   <dimension ref="A1:AB57"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23:AB23"/>
+      <selection pane="topLeft" activeCell="A27" activeCellId="0" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="70.8178137651822"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="50.3036437246964"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.2834008097166"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.42914979757085"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.57085020242915"/>
@@ -3046,137 +3334,353 @@
         <v>251</v>
       </c>
     </row>
-    <row r="24" s="19" customFormat="true" ht="28.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" s="19" customFormat="true" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="18" t="s">
         <v>274</v>
       </c>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="16"/>
-      <c r="N24" s="16"/>
-      <c r="O24" s="16"/>
-      <c r="P24" s="16"/>
-      <c r="Q24" s="16"/>
-      <c r="R24" s="16"/>
-      <c r="S24" s="16"/>
-      <c r="T24" s="16"/>
-      <c r="U24" s="16"/>
-      <c r="V24" s="16"/>
-      <c r="W24" s="16"/>
-      <c r="X24" s="16"/>
-      <c r="Y24" s="16"/>
-      <c r="Z24" s="16"/>
-      <c r="AA24" s="20"/>
-      <c r="AB24" s="22"/>
-    </row>
-    <row r="25" s="19" customFormat="true" ht="28.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="H24" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="I24" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="J24" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="K24" s="16" t="s">
+        <v>284</v>
+      </c>
+      <c r="L24" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="M24" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="N24" s="16" t="s">
+        <v>284</v>
+      </c>
+      <c r="O24" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="P24" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q24" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="R24" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="S24" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="T24" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="U24" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="V24" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="W24" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="X24" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="Y24" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="Z24" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="AA24" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="AB24" s="17" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="25" s="19" customFormat="true" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="18" t="s">
-        <v>275</v>
-      </c>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="16"/>
-      <c r="N25" s="16"/>
-      <c r="O25" s="16"/>
-      <c r="P25" s="16"/>
-      <c r="Q25" s="16"/>
-      <c r="R25" s="16"/>
-      <c r="S25" s="16"/>
-      <c r="T25" s="16"/>
-      <c r="U25" s="16"/>
-      <c r="V25" s="16"/>
-      <c r="W25" s="16"/>
-      <c r="X25" s="16"/>
-      <c r="Y25" s="16"/>
-      <c r="Z25" s="16"/>
-      <c r="AA25" s="20"/>
-      <c r="AB25" s="22"/>
-    </row>
-    <row r="26" s="19" customFormat="true" ht="28.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>299</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="H25" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="I25" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="J25" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="K25" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="L25" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="M25" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="N25" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="O25" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="P25" s="16" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q25" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="R25" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="S25" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="T25" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="U25" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="V25" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="W25" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="X25" s="16" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y25" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="Z25" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="AA25" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="AB25" s="17" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="26" s="19" customFormat="true" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="18" t="s">
-        <v>276</v>
-      </c>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="16"/>
-      <c r="N26" s="16"/>
-      <c r="O26" s="16"/>
-      <c r="P26" s="16"/>
-      <c r="Q26" s="16"/>
-      <c r="R26" s="16"/>
-      <c r="S26" s="16"/>
-      <c r="T26" s="16"/>
-      <c r="U26" s="16"/>
-      <c r="V26" s="16"/>
-      <c r="W26" s="16"/>
-      <c r="X26" s="16"/>
-      <c r="Y26" s="16"/>
-      <c r="Z26" s="16"/>
-      <c r="AA26" s="20"/>
-      <c r="AB26" s="22"/>
-    </row>
-    <row r="27" s="19" customFormat="true" ht="27.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>324</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>325</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>326</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>327</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>329</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="H26" s="15" t="s">
+        <v>331</v>
+      </c>
+      <c r="I26" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="J26" s="15" t="s">
+        <v>333</v>
+      </c>
+      <c r="K26" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="L26" s="16" t="s">
+        <v>335</v>
+      </c>
+      <c r="M26" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="N26" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="O26" s="16" t="s">
+        <v>337</v>
+      </c>
+      <c r="P26" s="16" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q26" s="16" t="s">
+        <v>339</v>
+      </c>
+      <c r="R26" s="16" t="s">
+        <v>340</v>
+      </c>
+      <c r="S26" s="16" t="s">
+        <v>341</v>
+      </c>
+      <c r="T26" s="16" t="s">
+        <v>342</v>
+      </c>
+      <c r="U26" s="16" t="s">
+        <v>343</v>
+      </c>
+      <c r="V26" s="16" t="s">
+        <v>344</v>
+      </c>
+      <c r="W26" s="16" t="s">
+        <v>345</v>
+      </c>
+      <c r="X26" s="16" t="s">
+        <v>346</v>
+      </c>
+      <c r="Y26" s="16" t="s">
+        <v>347</v>
+      </c>
+      <c r="Z26" s="16" t="s">
+        <v>348</v>
+      </c>
+      <c r="AA26" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="AB26" s="17" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="27" s="19" customFormat="true" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="16"/>
-      <c r="N27" s="16"/>
-      <c r="O27" s="16"/>
-      <c r="P27" s="16"/>
-      <c r="Q27" s="16"/>
-      <c r="R27" s="16"/>
-      <c r="S27" s="16"/>
-      <c r="T27" s="16"/>
-      <c r="U27" s="16"/>
-      <c r="V27" s="16"/>
-      <c r="W27" s="16"/>
-      <c r="X27" s="16"/>
-      <c r="Y27" s="16"/>
-      <c r="Z27" s="16"/>
-      <c r="AA27" s="20"/>
-      <c r="AB27" s="22"/>
+        <v>349</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>350</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>351</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>352</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>354</v>
+      </c>
+      <c r="G27" s="15" t="s">
+        <v>355</v>
+      </c>
+      <c r="H27" s="15" t="s">
+        <v>356</v>
+      </c>
+      <c r="I27" s="15" t="s">
+        <v>357</v>
+      </c>
+      <c r="J27" s="15" t="s">
+        <v>358</v>
+      </c>
+      <c r="K27" s="16" t="s">
+        <v>359</v>
+      </c>
+      <c r="L27" s="16" t="s">
+        <v>360</v>
+      </c>
+      <c r="M27" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="N27" s="16" t="s">
+        <v>359</v>
+      </c>
+      <c r="O27" s="16" t="s">
+        <v>362</v>
+      </c>
+      <c r="P27" s="16" t="s">
+        <v>363</v>
+      </c>
+      <c r="Q27" s="16" t="s">
+        <v>364</v>
+      </c>
+      <c r="R27" s="16" t="s">
+        <v>365</v>
+      </c>
+      <c r="S27" s="16" t="s">
+        <v>366</v>
+      </c>
+      <c r="T27" s="16" t="s">
+        <v>367</v>
+      </c>
+      <c r="U27" s="16" t="s">
+        <v>368</v>
+      </c>
+      <c r="V27" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="W27" s="16" t="s">
+        <v>370</v>
+      </c>
+      <c r="X27" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="Y27" s="16" t="s">
+        <v>372</v>
+      </c>
+      <c r="Z27" s="16" t="s">
+        <v>373</v>
+      </c>
+      <c r="AA27" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="AB27" s="17" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="33" t="s">
-        <v>278</v>
+        <v>374</v>
       </c>
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
@@ -3208,7 +3712,7 @@
     </row>
     <row r="29" customFormat="false" ht="28.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="33" t="s">
-        <v>279</v>
+        <v>375</v>
       </c>
       <c r="B29" s="15"/>
       <c r="C29" s="15"/>
@@ -3240,7 +3744,7 @@
     </row>
     <row r="30" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="33" t="s">
-        <v>280</v>
+        <v>376</v>
       </c>
       <c r="B30" s="15"/>
       <c r="C30" s="15"/>
@@ -3272,7 +3776,7 @@
     </row>
     <row r="31" customFormat="false" ht="41.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="34" t="s">
-        <v>281</v>
+        <v>377</v>
       </c>
       <c r="B31" s="15"/>
       <c r="C31" s="15"/>
@@ -3304,7 +3808,7 @@
     </row>
     <row r="32" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="34" t="s">
-        <v>282</v>
+        <v>378</v>
       </c>
       <c r="B32" s="15"/>
       <c r="C32" s="15"/>
@@ -3336,7 +3840,7 @@
     </row>
     <row r="33" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="34" t="s">
-        <v>283</v>
+        <v>379</v>
       </c>
       <c r="B33" s="15"/>
       <c r="C33" s="15"/>
@@ -3368,7 +3872,7 @@
     </row>
     <row r="34" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="35" t="s">
-        <v>284</v>
+        <v>380</v>
       </c>
       <c r="B34" s="36"/>
       <c r="C34" s="36"/>
@@ -3430,7 +3934,7 @@
     </row>
     <row r="36" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="18" t="s">
-        <v>285</v>
+        <v>381</v>
       </c>
       <c r="B36" s="15"/>
       <c r="C36" s="15"/>
@@ -3462,7 +3966,7 @@
     </row>
     <row r="37" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="18" t="s">
-        <v>286</v>
+        <v>382</v>
       </c>
       <c r="B37" s="15"/>
       <c r="C37" s="15"/>
@@ -3494,7 +3998,7 @@
     </row>
     <row r="38" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="18" t="s">
-        <v>287</v>
+        <v>383</v>
       </c>
       <c r="B38" s="15"/>
       <c r="C38" s="15"/>
@@ -3526,7 +4030,7 @@
     </row>
     <row r="39" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="14" t="s">
-        <v>288</v>
+        <v>384</v>
       </c>
       <c r="B39" s="15"/>
       <c r="C39" s="15"/>
@@ -3558,7 +4062,7 @@
     </row>
     <row r="40" customFormat="false" ht="28.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="37" t="s">
-        <v>289</v>
+        <v>385</v>
       </c>
       <c r="B40" s="38"/>
       <c r="C40" s="38"/>
@@ -3633,7 +4137,7 @@
   <dimension ref="A1:Y59"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B23:AB23 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3644,32 +4148,32 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="42" t="s">
-        <v>290</v>
+        <v>386</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="42" t="s">
-        <v>291</v>
+        <v>387</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="42" t="s">
-        <v>292</v>
+        <v>388</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="42" t="s">
-        <v>293</v>
+        <v>389</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="42" t="s">
-        <v>294</v>
+        <v>390</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="42" t="s">
-        <v>295</v>
+        <v>391</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3677,12 +4181,12 @@
     </row>
     <row r="9" customFormat="false" ht="80.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="43" t="s">
-        <v>296</v>
+        <v>392</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="51.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="44" t="s">
-        <v>297</v>
+        <v>393</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3690,7 +4194,7 @@
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="45" t="s">
-        <v>298</v>
+        <v>394</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3698,22 +4202,22 @@
     </row>
     <row r="14" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="47" t="s">
-        <v>299</v>
+        <v>395</v>
       </c>
       <c r="B14" s="48" t="s">
-        <v>300</v>
+        <v>396</v>
       </c>
       <c r="C14" s="48"/>
       <c r="D14" s="48" t="s">
-        <v>301</v>
+        <v>397</v>
       </c>
       <c r="E14" s="48"/>
       <c r="F14" s="48" t="s">
-        <v>302</v>
+        <v>398</v>
       </c>
       <c r="G14" s="48"/>
       <c r="H14" s="48" t="s">
-        <v>303</v>
+        <v>399</v>
       </c>
       <c r="I14" s="48"/>
       <c r="J14" s="48" t="s">
@@ -3729,19 +4233,19 @@
       </c>
       <c r="O14" s="48"/>
       <c r="P14" s="48" t="s">
-        <v>304</v>
+        <v>400</v>
       </c>
       <c r="Q14" s="48"/>
       <c r="R14" s="48" t="s">
-        <v>305</v>
+        <v>401</v>
       </c>
       <c r="S14" s="48"/>
       <c r="T14" s="48" t="s">
-        <v>306</v>
+        <v>402</v>
       </c>
       <c r="U14" s="48"/>
       <c r="V14" s="48" t="s">
-        <v>307</v>
+        <v>403</v>
       </c>
       <c r="W14" s="48"/>
       <c r="X14" s="49" t="s">
@@ -3826,7 +4330,7 @@
     </row>
     <row r="16" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="52" t="s">
-        <v>308</v>
+        <v>404</v>
       </c>
       <c r="B16" s="52"/>
       <c r="C16" s="52"/>
@@ -3855,7 +4359,7 @@
     </row>
     <row r="17" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="53" t="s">
-        <v>309</v>
+        <v>405</v>
       </c>
       <c r="B17" s="54"/>
       <c r="C17" s="54"/>
@@ -3884,7 +4388,7 @@
     </row>
     <row r="18" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="53" t="s">
-        <v>310</v>
+        <v>406</v>
       </c>
       <c r="B18" s="54"/>
       <c r="C18" s="54"/>
@@ -3913,7 +4417,7 @@
     </row>
     <row r="19" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="53" t="s">
-        <v>311</v>
+        <v>407</v>
       </c>
       <c r="B19" s="54"/>
       <c r="C19" s="54"/>
@@ -3996,7 +4500,7 @@
     </row>
     <row r="22" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="52" t="s">
-        <v>312</v>
+        <v>408</v>
       </c>
       <c r="B22" s="52"/>
       <c r="C22" s="52"/>
@@ -4025,7 +4529,7 @@
     </row>
     <row r="23" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="53" t="s">
-        <v>313</v>
+        <v>409</v>
       </c>
       <c r="B23" s="54"/>
       <c r="C23" s="54"/>
@@ -4054,7 +4558,7 @@
     </row>
     <row r="24" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="53" t="s">
-        <v>314</v>
+        <v>410</v>
       </c>
       <c r="B24" s="54"/>
       <c r="C24" s="54"/>
@@ -4083,7 +4587,7 @@
     </row>
     <row r="25" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="53" t="s">
-        <v>315</v>
+        <v>411</v>
       </c>
       <c r="B25" s="54"/>
       <c r="C25" s="54"/>
@@ -4112,7 +4616,7 @@
     </row>
     <row r="26" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="53" t="s">
-        <v>316</v>
+        <v>412</v>
       </c>
       <c r="B26" s="54"/>
       <c r="C26" s="54"/>
@@ -4195,7 +4699,7 @@
     </row>
     <row r="29" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="56" t="s">
-        <v>317</v>
+        <v>413</v>
       </c>
       <c r="B29" s="54"/>
       <c r="C29" s="54"/>
@@ -4224,7 +4728,7 @@
     </row>
     <row r="30" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="52" t="s">
-        <v>318</v>
+        <v>414</v>
       </c>
       <c r="B30" s="52"/>
       <c r="C30" s="52"/>
@@ -4253,7 +4757,7 @@
     </row>
     <row r="31" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="53" t="s">
-        <v>319</v>
+        <v>415</v>
       </c>
       <c r="B31" s="54"/>
       <c r="C31" s="54"/>
@@ -4282,7 +4786,7 @@
     </row>
     <row r="32" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="53" t="s">
-        <v>320</v>
+        <v>416</v>
       </c>
       <c r="B32" s="54"/>
       <c r="C32" s="54"/>
@@ -4365,7 +4869,7 @@
     </row>
     <row r="35" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="52" t="s">
-        <v>321</v>
+        <v>417</v>
       </c>
       <c r="B35" s="52"/>
       <c r="C35" s="52"/>
@@ -4475,7 +4979,7 @@
     </row>
     <row r="39" customFormat="false" ht="66.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="56" t="s">
-        <v>322</v>
+        <v>418</v>
       </c>
       <c r="B39" s="54"/>
       <c r="C39" s="54"/>
@@ -4504,7 +5008,7 @@
     </row>
     <row r="40" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="56" t="s">
-        <v>323</v>
+        <v>419</v>
       </c>
       <c r="B40" s="54"/>
       <c r="C40" s="54"/>
@@ -4533,7 +5037,7 @@
     </row>
     <row r="41" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="52" t="s">
-        <v>324</v>
+        <v>420</v>
       </c>
       <c r="B41" s="52"/>
       <c r="C41" s="52"/>
@@ -4562,7 +5066,7 @@
     </row>
     <row r="42" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="53" t="s">
-        <v>325</v>
+        <v>421</v>
       </c>
       <c r="B42" s="54"/>
       <c r="C42" s="54"/>
@@ -4591,7 +5095,7 @@
     </row>
     <row r="43" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="53" t="s">
-        <v>326</v>
+        <v>422</v>
       </c>
       <c r="B43" s="54"/>
       <c r="C43" s="54"/>
@@ -4620,7 +5124,7 @@
     </row>
     <row r="44" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="53" t="s">
-        <v>327</v>
+        <v>423</v>
       </c>
       <c r="B44" s="54"/>
       <c r="C44" s="54"/>
@@ -4703,7 +5207,7 @@
     </row>
     <row r="47" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="52" t="s">
-        <v>328</v>
+        <v>424</v>
       </c>
       <c r="B47" s="52"/>
       <c r="C47" s="52"/>
@@ -4786,7 +5290,7 @@
     </row>
     <row r="50" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="53" t="s">
-        <v>329</v>
+        <v>425</v>
       </c>
       <c r="B50" s="54"/>
       <c r="C50" s="54"/>
@@ -4815,7 +5319,7 @@
     </row>
     <row r="51" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="52" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="B51" s="52"/>
       <c r="C51" s="52"/>
@@ -4844,7 +5348,7 @@
     </row>
     <row r="52" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="57" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="B52" s="54"/>
       <c r="C52" s="54"/>
@@ -4873,7 +5377,7 @@
     </row>
     <row r="53" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="57" t="s">
-        <v>332</v>
+        <v>428</v>
       </c>
       <c r="B53" s="54"/>
       <c r="C53" s="54"/>
@@ -4902,7 +5406,7 @@
     </row>
     <row r="54" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="57" t="s">
-        <v>333</v>
+        <v>429</v>
       </c>
       <c r="B54" s="54"/>
       <c r="C54" s="54"/>
@@ -4958,7 +5462,7 @@
     </row>
     <row r="56" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="58" t="s">
-        <v>334</v>
+        <v>430</v>
       </c>
       <c r="B56" s="54"/>
       <c r="C56" s="54"/>
@@ -4987,7 +5491,7 @@
     </row>
     <row r="57" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="59" t="s">
-        <v>335</v>
+        <v>431</v>
       </c>
       <c r="B57" s="60"/>
       <c r="C57" s="60"/>
@@ -5019,7 +5523,7 @@
     </row>
     <row r="59" customFormat="false" ht="141.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="63" t="s">
-        <v>336</v>
+        <v>432</v>
       </c>
     </row>
   </sheetData>

--- a/resources/report_template.xlsx
+++ b/resources/report_template.xlsx
@@ -2118,7 +2118,7 @@
   </sheetPr>
   <dimension ref="A1:AB57"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A27" activeCellId="0" sqref="A27"/>
     </sheetView>
   </sheetViews>
@@ -3678,7 +3678,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="54.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="33" t="s">
         <v>374</v>
       </c>
@@ -3710,7 +3710,7 @@
       <c r="AA28" s="20"/>
       <c r="AB28" s="22"/>
     </row>
-    <row r="29" customFormat="false" ht="28.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="41.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="33" t="s">
         <v>375</v>
       </c>
@@ -3742,7 +3742,7 @@
       <c r="AA29" s="20"/>
       <c r="AB29" s="22"/>
     </row>
-    <row r="30" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="54.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="33" t="s">
         <v>376</v>
       </c>
@@ -3774,7 +3774,7 @@
       <c r="AA30" s="20"/>
       <c r="AB30" s="22"/>
     </row>
-    <row r="31" customFormat="false" ht="41.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="54.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="34" t="s">
         <v>377</v>
       </c>
@@ -3806,7 +3806,7 @@
       <c r="AA31" s="20"/>
       <c r="AB31" s="22"/>
     </row>
-    <row r="32" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="41.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="34" t="s">
         <v>378</v>
       </c>
@@ -3838,7 +3838,7 @@
       <c r="AA32" s="20"/>
       <c r="AB32" s="22"/>
     </row>
-    <row r="33" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="41.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="34" t="s">
         <v>379</v>
       </c>
@@ -3870,7 +3870,7 @@
       <c r="AA33" s="20"/>
       <c r="AB33" s="22"/>
     </row>
-    <row r="34" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="41.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="35" t="s">
         <v>380</v>
       </c>
@@ -3932,7 +3932,7 @@
       <c r="AA35" s="20"/>
       <c r="AB35" s="22"/>
     </row>
-    <row r="36" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="28.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="18" t="s">
         <v>381</v>
       </c>
@@ -3964,7 +3964,7 @@
       <c r="AA36" s="20"/>
       <c r="AB36" s="22"/>
     </row>
-    <row r="37" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="41.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="18" t="s">
         <v>382</v>
       </c>
@@ -3996,7 +3996,7 @@
       <c r="AA37" s="20"/>
       <c r="AB37" s="22"/>
     </row>
-    <row r="38" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="28.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="18" t="s">
         <v>383</v>
       </c>
@@ -4028,7 +4028,7 @@
       <c r="AA38" s="20"/>
       <c r="AB38" s="22"/>
     </row>
-    <row r="39" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="41.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="14" t="s">
         <v>384</v>
       </c>
@@ -4060,7 +4060,7 @@
       <c r="AA39" s="20"/>
       <c r="AB39" s="22"/>
     </row>
-    <row r="40" customFormat="false" ht="28.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="41.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="37" t="s">
         <v>385</v>
       </c>

--- a/resources/report_template.xlsx
+++ b/resources/report_template.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="457">
   <si>
     <t>Région</t>
   </si>
@@ -1144,6 +1144,78 @@
   </si>
   <si>
     <t>Nombre de personnes vivant avec le VIH  inscrits dans les soins de l’infection à VIH (pré- TAR, TAR, PTME) chez lesquels une tuberculose évolutive a été diagnostiquée au cours de la période de rapportage</t>
+  </si>
+  <si>
+    <t>{key: 'TB_DIAGNOSIS_DURING_PERIOD', gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_DIAGNOSIS_DURING_PERIOD', gender: 1}</t>
+  </si>
+  <si>
+    <t>{key:'TB_DIAGNOSIS_DURING_PERIOD', age_max: 15}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_DIAGNOSIS_DURING_PERIOD', age_min: 15}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_DIAGNOSIS_DURING_PERIOD'}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_DIAGNOSIS_DURING_PERIOD', age_max: 15, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_DIAGNOSIS_DURING_PERIOD', age_max: 15, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_DIAGNOSIS_DURING_PERIOD', age_min: 15, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_DIAGNOSIS_DURING_PERIOD', age_min: 15, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_DIAGNOSIS_DURING_PERIOD', age_max: 1, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_DIAGNOSIS_DURING_PERIOD', age_max: 1, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_DIAGNOSIS_DURING_PERIOD', age_min: 1, age_max: 4, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_DIAGNOSIS_DURING_PERIOD', age_min: 5, age_max: 9, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_DIAGNOSIS_DURING_PERIOD', age_min: 5, age_max: 9, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_DIAGNOSIS_DURING_PERIOD', age_min: 10, age_max: 14, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_DIAGNOSIS_DURING_PERIOD', age_min: 10, age_max: 14, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_DIAGNOSIS_DURING_PERIOD', age_min: 15, age_max: 19, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_DIAGNOSIS_DURING_PERIOD', age_min: 15, age_max: 19, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_DIAGNOSIS_DURING_PERIOD', age_min: 20, age_max: 24, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_DIAGNOSIS_DURING_PERIOD', age_min: 20, age_max: 24, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_DIAGNOSIS_DURING_PERIOD', age_min: 25, age_max: 49, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_DIAGNOSIS_DURING_PERIOD', age_min: 25, age_max: 49, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_DIAGNOSIS_DURING_PERIOD', age_min: 50, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_DIAGNOSIS_DURING_PERIOD', age_min: 50, gender: 1}</t>
   </si>
   <si>
     <t>Nombre de personnes vivant avec le VIH  inscrits dans les soins de l’infection à VIH (pré- TAR, TAR, PTME)  qui pésentent une tuberculose évolutive mis sous traitement concomitant Antiberculeux et ARV au cours de la période de rapportage</t>
@@ -2118,8 +2190,8 @@
   </sheetPr>
   <dimension ref="A1:AB57"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A27" activeCellId="0" sqref="A27"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A21" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B29" activeCellId="0" sqref="B29:AB29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3678,7 +3750,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="54.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="68.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="33" t="s">
         <v>374</v>
       </c>
@@ -3710,41 +3782,95 @@
       <c r="AA28" s="20"/>
       <c r="AB28" s="22"/>
     </row>
-    <row r="29" customFormat="false" ht="41.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="58.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="33" t="s">
         <v>375</v>
       </c>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
-      <c r="L29" s="16"/>
-      <c r="M29" s="16"/>
-      <c r="N29" s="16"/>
-      <c r="O29" s="16"/>
-      <c r="P29" s="16"/>
-      <c r="Q29" s="16"/>
-      <c r="R29" s="16"/>
-      <c r="S29" s="16"/>
-      <c r="T29" s="16"/>
-      <c r="U29" s="16"/>
-      <c r="V29" s="16"/>
-      <c r="W29" s="16"/>
-      <c r="X29" s="16"/>
-      <c r="Y29" s="16"/>
-      <c r="Z29" s="16"/>
-      <c r="AA29" s="20"/>
-      <c r="AB29" s="22"/>
+      <c r="B29" s="15" t="s">
+        <v>376</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>377</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>378</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>379</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>380</v>
+      </c>
+      <c r="G29" s="15" t="s">
+        <v>381</v>
+      </c>
+      <c r="H29" s="15" t="s">
+        <v>382</v>
+      </c>
+      <c r="I29" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="J29" s="15" t="s">
+        <v>384</v>
+      </c>
+      <c r="K29" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="L29" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="M29" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="N29" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="O29" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="P29" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q29" s="16" t="s">
+        <v>390</v>
+      </c>
+      <c r="R29" s="16" t="s">
+        <v>391</v>
+      </c>
+      <c r="S29" s="16" t="s">
+        <v>392</v>
+      </c>
+      <c r="T29" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="U29" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="V29" s="16" t="s">
+        <v>395</v>
+      </c>
+      <c r="W29" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="X29" s="16" t="s">
+        <v>397</v>
+      </c>
+      <c r="Y29" s="16" t="s">
+        <v>398</v>
+      </c>
+      <c r="Z29" s="16" t="s">
+        <v>399</v>
+      </c>
+      <c r="AA29" s="16" t="s">
+        <v>376</v>
+      </c>
+      <c r="AB29" s="17" t="s">
+        <v>377</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="54.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="33" t="s">
-        <v>376</v>
+        <v>400</v>
       </c>
       <c r="B30" s="15"/>
       <c r="C30" s="15"/>
@@ -3776,7 +3902,7 @@
     </row>
     <row r="31" customFormat="false" ht="54.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="34" t="s">
-        <v>377</v>
+        <v>401</v>
       </c>
       <c r="B31" s="15"/>
       <c r="C31" s="15"/>
@@ -3808,7 +3934,7 @@
     </row>
     <row r="32" customFormat="false" ht="41.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="34" t="s">
-        <v>378</v>
+        <v>402</v>
       </c>
       <c r="B32" s="15"/>
       <c r="C32" s="15"/>
@@ -3840,7 +3966,7 @@
     </row>
     <row r="33" customFormat="false" ht="41.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="34" t="s">
-        <v>379</v>
+        <v>403</v>
       </c>
       <c r="B33" s="15"/>
       <c r="C33" s="15"/>
@@ -3872,7 +3998,7 @@
     </row>
     <row r="34" customFormat="false" ht="41.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="35" t="s">
-        <v>380</v>
+        <v>404</v>
       </c>
       <c r="B34" s="36"/>
       <c r="C34" s="36"/>
@@ -3934,7 +4060,7 @@
     </row>
     <row r="36" customFormat="false" ht="28.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="18" t="s">
-        <v>381</v>
+        <v>405</v>
       </c>
       <c r="B36" s="15"/>
       <c r="C36" s="15"/>
@@ -3966,7 +4092,7 @@
     </row>
     <row r="37" customFormat="false" ht="41.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="18" t="s">
-        <v>382</v>
+        <v>406</v>
       </c>
       <c r="B37" s="15"/>
       <c r="C37" s="15"/>
@@ -3998,7 +4124,7 @@
     </row>
     <row r="38" customFormat="false" ht="28.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="18" t="s">
-        <v>383</v>
+        <v>407</v>
       </c>
       <c r="B38" s="15"/>
       <c r="C38" s="15"/>
@@ -4030,7 +4156,7 @@
     </row>
     <row r="39" customFormat="false" ht="41.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="14" t="s">
-        <v>384</v>
+        <v>408</v>
       </c>
       <c r="B39" s="15"/>
       <c r="C39" s="15"/>
@@ -4062,7 +4188,7 @@
     </row>
     <row r="40" customFormat="false" ht="41.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="37" t="s">
-        <v>385</v>
+        <v>409</v>
       </c>
       <c r="B40" s="38"/>
       <c r="C40" s="38"/>
@@ -4137,7 +4263,7 @@
   <dimension ref="A1:Y59"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B29:AB29 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4148,32 +4274,32 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="42" t="s">
-        <v>386</v>
+        <v>410</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="42" t="s">
-        <v>387</v>
+        <v>411</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="42" t="s">
-        <v>388</v>
+        <v>412</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="42" t="s">
-        <v>389</v>
+        <v>413</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="42" t="s">
-        <v>390</v>
+        <v>414</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="42" t="s">
-        <v>391</v>
+        <v>415</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4181,12 +4307,12 @@
     </row>
     <row r="9" customFormat="false" ht="80.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="43" t="s">
-        <v>392</v>
+        <v>416</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="51.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="44" t="s">
-        <v>393</v>
+        <v>417</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4194,7 +4320,7 @@
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="45" t="s">
-        <v>394</v>
+        <v>418</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4202,22 +4328,22 @@
     </row>
     <row r="14" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="47" t="s">
-        <v>395</v>
+        <v>419</v>
       </c>
       <c r="B14" s="48" t="s">
-        <v>396</v>
+        <v>420</v>
       </c>
       <c r="C14" s="48"/>
       <c r="D14" s="48" t="s">
-        <v>397</v>
+        <v>421</v>
       </c>
       <c r="E14" s="48"/>
       <c r="F14" s="48" t="s">
-        <v>398</v>
+        <v>422</v>
       </c>
       <c r="G14" s="48"/>
       <c r="H14" s="48" t="s">
-        <v>399</v>
+        <v>423</v>
       </c>
       <c r="I14" s="48"/>
       <c r="J14" s="48" t="s">
@@ -4233,19 +4359,19 @@
       </c>
       <c r="O14" s="48"/>
       <c r="P14" s="48" t="s">
-        <v>400</v>
+        <v>424</v>
       </c>
       <c r="Q14" s="48"/>
       <c r="R14" s="48" t="s">
-        <v>401</v>
+        <v>425</v>
       </c>
       <c r="S14" s="48"/>
       <c r="T14" s="48" t="s">
-        <v>402</v>
+        <v>426</v>
       </c>
       <c r="U14" s="48"/>
       <c r="V14" s="48" t="s">
-        <v>403</v>
+        <v>427</v>
       </c>
       <c r="W14" s="48"/>
       <c r="X14" s="49" t="s">
@@ -4330,7 +4456,7 @@
     </row>
     <row r="16" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="52" t="s">
-        <v>404</v>
+        <v>428</v>
       </c>
       <c r="B16" s="52"/>
       <c r="C16" s="52"/>
@@ -4359,7 +4485,7 @@
     </row>
     <row r="17" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="53" t="s">
-        <v>405</v>
+        <v>429</v>
       </c>
       <c r="B17" s="54"/>
       <c r="C17" s="54"/>
@@ -4388,7 +4514,7 @@
     </row>
     <row r="18" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="53" t="s">
-        <v>406</v>
+        <v>430</v>
       </c>
       <c r="B18" s="54"/>
       <c r="C18" s="54"/>
@@ -4417,7 +4543,7 @@
     </row>
     <row r="19" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="53" t="s">
-        <v>407</v>
+        <v>431</v>
       </c>
       <c r="B19" s="54"/>
       <c r="C19" s="54"/>
@@ -4500,7 +4626,7 @@
     </row>
     <row r="22" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="52" t="s">
-        <v>408</v>
+        <v>432</v>
       </c>
       <c r="B22" s="52"/>
       <c r="C22" s="52"/>
@@ -4529,7 +4655,7 @@
     </row>
     <row r="23" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="53" t="s">
-        <v>409</v>
+        <v>433</v>
       </c>
       <c r="B23" s="54"/>
       <c r="C23" s="54"/>
@@ -4558,7 +4684,7 @@
     </row>
     <row r="24" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="53" t="s">
-        <v>410</v>
+        <v>434</v>
       </c>
       <c r="B24" s="54"/>
       <c r="C24" s="54"/>
@@ -4587,7 +4713,7 @@
     </row>
     <row r="25" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="53" t="s">
-        <v>411</v>
+        <v>435</v>
       </c>
       <c r="B25" s="54"/>
       <c r="C25" s="54"/>
@@ -4616,7 +4742,7 @@
     </row>
     <row r="26" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="53" t="s">
-        <v>412</v>
+        <v>436</v>
       </c>
       <c r="B26" s="54"/>
       <c r="C26" s="54"/>
@@ -4699,7 +4825,7 @@
     </row>
     <row r="29" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="56" t="s">
-        <v>413</v>
+        <v>437</v>
       </c>
       <c r="B29" s="54"/>
       <c r="C29" s="54"/>
@@ -4728,7 +4854,7 @@
     </row>
     <row r="30" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="52" t="s">
-        <v>414</v>
+        <v>438</v>
       </c>
       <c r="B30" s="52"/>
       <c r="C30" s="52"/>
@@ -4757,7 +4883,7 @@
     </row>
     <row r="31" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="53" t="s">
-        <v>415</v>
+        <v>439</v>
       </c>
       <c r="B31" s="54"/>
       <c r="C31" s="54"/>
@@ -4786,7 +4912,7 @@
     </row>
     <row r="32" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="53" t="s">
-        <v>416</v>
+        <v>440</v>
       </c>
       <c r="B32" s="54"/>
       <c r="C32" s="54"/>
@@ -4869,7 +4995,7 @@
     </row>
     <row r="35" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="52" t="s">
-        <v>417</v>
+        <v>441</v>
       </c>
       <c r="B35" s="52"/>
       <c r="C35" s="52"/>
@@ -4979,7 +5105,7 @@
     </row>
     <row r="39" customFormat="false" ht="66.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="56" t="s">
-        <v>418</v>
+        <v>442</v>
       </c>
       <c r="B39" s="54"/>
       <c r="C39" s="54"/>
@@ -5008,7 +5134,7 @@
     </row>
     <row r="40" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="56" t="s">
-        <v>419</v>
+        <v>443</v>
       </c>
       <c r="B40" s="54"/>
       <c r="C40" s="54"/>
@@ -5037,7 +5163,7 @@
     </row>
     <row r="41" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="52" t="s">
-        <v>420</v>
+        <v>444</v>
       </c>
       <c r="B41" s="52"/>
       <c r="C41" s="52"/>
@@ -5066,7 +5192,7 @@
     </row>
     <row r="42" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="53" t="s">
-        <v>421</v>
+        <v>445</v>
       </c>
       <c r="B42" s="54"/>
       <c r="C42" s="54"/>
@@ -5095,7 +5221,7 @@
     </row>
     <row r="43" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="53" t="s">
-        <v>422</v>
+        <v>446</v>
       </c>
       <c r="B43" s="54"/>
       <c r="C43" s="54"/>
@@ -5124,7 +5250,7 @@
     </row>
     <row r="44" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="53" t="s">
-        <v>423</v>
+        <v>447</v>
       </c>
       <c r="B44" s="54"/>
       <c r="C44" s="54"/>
@@ -5207,7 +5333,7 @@
     </row>
     <row r="47" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="52" t="s">
-        <v>424</v>
+        <v>448</v>
       </c>
       <c r="B47" s="52"/>
       <c r="C47" s="52"/>
@@ -5290,7 +5416,7 @@
     </row>
     <row r="50" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="53" t="s">
-        <v>425</v>
+        <v>449</v>
       </c>
       <c r="B50" s="54"/>
       <c r="C50" s="54"/>
@@ -5319,7 +5445,7 @@
     </row>
     <row r="51" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="52" t="s">
-        <v>426</v>
+        <v>450</v>
       </c>
       <c r="B51" s="52"/>
       <c r="C51" s="52"/>
@@ -5348,7 +5474,7 @@
     </row>
     <row r="52" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="57" t="s">
-        <v>427</v>
+        <v>451</v>
       </c>
       <c r="B52" s="54"/>
       <c r="C52" s="54"/>
@@ -5377,7 +5503,7 @@
     </row>
     <row r="53" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="57" t="s">
-        <v>428</v>
+        <v>452</v>
       </c>
       <c r="B53" s="54"/>
       <c r="C53" s="54"/>
@@ -5406,7 +5532,7 @@
     </row>
     <row r="54" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="57" t="s">
-        <v>429</v>
+        <v>453</v>
       </c>
       <c r="B54" s="54"/>
       <c r="C54" s="54"/>
@@ -5462,7 +5588,7 @@
     </row>
     <row r="56" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="58" t="s">
-        <v>430</v>
+        <v>454</v>
       </c>
       <c r="B56" s="54"/>
       <c r="C56" s="54"/>
@@ -5491,7 +5617,7 @@
     </row>
     <row r="57" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="59" t="s">
-        <v>431</v>
+        <v>455</v>
       </c>
       <c r="B57" s="60"/>
       <c r="C57" s="60"/>
@@ -5523,7 +5649,7 @@
     </row>
     <row r="59" customFormat="false" ht="141.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="63" t="s">
-        <v>432</v>
+        <v>456</v>
       </c>
     </row>
   </sheetData>

--- a/resources/report_template.xlsx
+++ b/resources/report_template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="642" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="572" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="File active" sheetId="1" state="visible" r:id="rId2"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="481">
   <si>
     <t>Région</t>
   </si>
@@ -1141,6 +1141,78 @@
   </si>
   <si>
     <t>Nombre d’adultes et d’enfants infectés par le VIH inscrits dans les soins de l’infection à VIH (pré- TAR, TAR, PTME) chez lesquels une recherche de la tuberculose a été effectuée au cours de la période de rapportage (Dépistage de la TB chez les PVVIH suivies)</t>
+  </si>
+  <si>
+    <t>{key: 'TB_RESEARCH_DURING_PERIOD', gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_RESEARCH_DURING_PERIOD', gender: 1}</t>
+  </si>
+  <si>
+    <t>{key:'TB_RESEARCH_DURING_PERIOD', age_max: 15}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_RESEARCH_DURING_PERIOD', age_min: 15}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_RESEARCH_DURING_PERIOD'}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_RESEARCH_DURING_PERIOD', age_max: 15, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_RESEARCH_DURING_PERIOD', age_max: 15, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_RESEARCH_DURING_PERIOD', age_min: 15, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_RESEARCH_DURING_PERIOD', age_min: 15, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_RESEARCH_DURING_PERIOD', age_max: 1, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_RESEARCH_DURING_PERIOD', age_max: 1, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_RESEARCH_DURING_PERIOD', age_min: 1, age_max: 4, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_RESEARCH_DURING_PERIOD', age_min: 5, age_max: 9, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_RESEARCH_DURING_PERIOD', age_min: 5, age_max: 9, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_RESEARCH_DURING_PERIOD', age_min: 10, age_max: 14, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_RESEARCH_DURING_PERIOD', age_min: 10, age_max: 14, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_RESEARCH_DURING_PERIOD', age_min: 15, age_max: 19, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_RESEARCH_DURING_PERIOD', age_min: 15, age_max: 19, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_RESEARCH_DURING_PERIOD', age_min: 20, age_max: 24, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_RESEARCH_DURING_PERIOD', age_min: 20, age_max: 24, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_RESEARCH_DURING_PERIOD', age_min: 25, age_max: 49, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_RESEARCH_DURING_PERIOD', age_min: 25, age_max: 49, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_RESEARCH_DURING_PERIOD', age_min: 50, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_RESEARCH_DURING_PERIOD', age_min: 50, gender: 1}</t>
   </si>
   <si>
     <t>Nombre de personnes vivant avec le VIH  inscrits dans les soins de l’infection à VIH (pré- TAR, TAR, PTME) chez lesquels une tuberculose évolutive a été diagnostiquée au cours de la période de rapportage</t>
@@ -2146,15 +2218,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>135000</xdr:colOff>
+      <xdr:colOff>162000</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>155160</xdr:rowOff>
+      <xdr:rowOff>146160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>618840</xdr:colOff>
+      <xdr:colOff>645480</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>124560</xdr:rowOff>
+      <xdr:rowOff>115200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2167,8 +2239,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="135000" y="754920"/>
-          <a:ext cx="483840" cy="360000"/>
+          <a:off x="162000" y="745920"/>
+          <a:ext cx="483480" cy="359640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2190,8 +2262,8 @@
   </sheetPr>
   <dimension ref="A1:AB57"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A21" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B29" activeCellId="0" sqref="B29:AB29"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A27" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E31" activeCellId="0" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3750,127 +3822,181 @@
         <v>351</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="68.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="63.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="33" t="s">
         <v>374</v>
       </c>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
-      <c r="L28" s="16"/>
-      <c r="M28" s="16"/>
-      <c r="N28" s="16"/>
-      <c r="O28" s="16"/>
-      <c r="P28" s="16"/>
-      <c r="Q28" s="16"/>
-      <c r="R28" s="16"/>
-      <c r="S28" s="16"/>
-      <c r="T28" s="16"/>
-      <c r="U28" s="16"/>
-      <c r="V28" s="16"/>
-      <c r="W28" s="16"/>
-      <c r="X28" s="16"/>
-      <c r="Y28" s="16"/>
-      <c r="Z28" s="16"/>
-      <c r="AA28" s="20"/>
-      <c r="AB28" s="22"/>
+      <c r="B28" s="15" t="s">
+        <v>375</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>376</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>377</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>378</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>379</v>
+      </c>
+      <c r="G28" s="15" t="s">
+        <v>380</v>
+      </c>
+      <c r="H28" s="15" t="s">
+        <v>381</v>
+      </c>
+      <c r="I28" s="15" t="s">
+        <v>382</v>
+      </c>
+      <c r="J28" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="K28" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="L28" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="M28" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="N28" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="O28" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="P28" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="Q28" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="R28" s="16" t="s">
+        <v>390</v>
+      </c>
+      <c r="S28" s="16" t="s">
+        <v>391</v>
+      </c>
+      <c r="T28" s="16" t="s">
+        <v>392</v>
+      </c>
+      <c r="U28" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="V28" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="W28" s="16" t="s">
+        <v>395</v>
+      </c>
+      <c r="X28" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="Y28" s="16" t="s">
+        <v>397</v>
+      </c>
+      <c r="Z28" s="16" t="s">
+        <v>398</v>
+      </c>
+      <c r="AA28" s="16" t="s">
+        <v>375</v>
+      </c>
+      <c r="AB28" s="17" t="s">
+        <v>376</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="58.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="33" t="s">
-        <v>375</v>
+        <v>399</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>376</v>
+        <v>400</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>377</v>
+        <v>401</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>378</v>
+        <v>402</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>379</v>
+        <v>403</v>
       </c>
       <c r="F29" s="15" t="s">
-        <v>380</v>
+        <v>404</v>
       </c>
       <c r="G29" s="15" t="s">
-        <v>381</v>
+        <v>405</v>
       </c>
       <c r="H29" s="15" t="s">
-        <v>382</v>
+        <v>406</v>
       </c>
       <c r="I29" s="15" t="s">
-        <v>383</v>
+        <v>407</v>
       </c>
       <c r="J29" s="15" t="s">
-        <v>384</v>
+        <v>408</v>
       </c>
       <c r="K29" s="16" t="s">
-        <v>385</v>
+        <v>409</v>
       </c>
       <c r="L29" s="16" t="s">
-        <v>386</v>
+        <v>410</v>
       </c>
       <c r="M29" s="16" t="s">
-        <v>387</v>
+        <v>411</v>
       </c>
       <c r="N29" s="16" t="s">
-        <v>385</v>
+        <v>409</v>
       </c>
       <c r="O29" s="16" t="s">
-        <v>388</v>
+        <v>412</v>
       </c>
       <c r="P29" s="16" t="s">
-        <v>389</v>
+        <v>413</v>
       </c>
       <c r="Q29" s="16" t="s">
-        <v>390</v>
+        <v>414</v>
       </c>
       <c r="R29" s="16" t="s">
-        <v>391</v>
+        <v>415</v>
       </c>
       <c r="S29" s="16" t="s">
-        <v>392</v>
+        <v>416</v>
       </c>
       <c r="T29" s="16" t="s">
-        <v>393</v>
+        <v>417</v>
       </c>
       <c r="U29" s="16" t="s">
-        <v>394</v>
+        <v>418</v>
       </c>
       <c r="V29" s="16" t="s">
-        <v>395</v>
+        <v>419</v>
       </c>
       <c r="W29" s="16" t="s">
-        <v>396</v>
+        <v>420</v>
       </c>
       <c r="X29" s="16" t="s">
-        <v>397</v>
+        <v>421</v>
       </c>
       <c r="Y29" s="16" t="s">
-        <v>398</v>
+        <v>422</v>
       </c>
       <c r="Z29" s="16" t="s">
-        <v>399</v>
+        <v>423</v>
       </c>
       <c r="AA29" s="16" t="s">
-        <v>376</v>
+        <v>400</v>
       </c>
       <c r="AB29" s="17" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="54.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="57.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="33" t="s">
-        <v>400</v>
+        <v>424</v>
       </c>
       <c r="B30" s="15"/>
       <c r="C30" s="15"/>
@@ -3902,7 +4028,7 @@
     </row>
     <row r="31" customFormat="false" ht="54.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="34" t="s">
-        <v>401</v>
+        <v>425</v>
       </c>
       <c r="B31" s="15"/>
       <c r="C31" s="15"/>
@@ -3934,7 +4060,7 @@
     </row>
     <row r="32" customFormat="false" ht="41.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="34" t="s">
-        <v>402</v>
+        <v>426</v>
       </c>
       <c r="B32" s="15"/>
       <c r="C32" s="15"/>
@@ -3966,7 +4092,7 @@
     </row>
     <row r="33" customFormat="false" ht="41.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="34" t="s">
-        <v>403</v>
+        <v>427</v>
       </c>
       <c r="B33" s="15"/>
       <c r="C33" s="15"/>
@@ -3998,7 +4124,7 @@
     </row>
     <row r="34" customFormat="false" ht="41.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="35" t="s">
-        <v>404</v>
+        <v>428</v>
       </c>
       <c r="B34" s="36"/>
       <c r="C34" s="36"/>
@@ -4060,7 +4186,7 @@
     </row>
     <row r="36" customFormat="false" ht="28.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="18" t="s">
-        <v>405</v>
+        <v>429</v>
       </c>
       <c r="B36" s="15"/>
       <c r="C36" s="15"/>
@@ -4092,7 +4218,7 @@
     </row>
     <row r="37" customFormat="false" ht="41.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="18" t="s">
-        <v>406</v>
+        <v>430</v>
       </c>
       <c r="B37" s="15"/>
       <c r="C37" s="15"/>
@@ -4124,7 +4250,7 @@
     </row>
     <row r="38" customFormat="false" ht="28.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="18" t="s">
-        <v>407</v>
+        <v>431</v>
       </c>
       <c r="B38" s="15"/>
       <c r="C38" s="15"/>
@@ -4156,7 +4282,7 @@
     </row>
     <row r="39" customFormat="false" ht="41.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="14" t="s">
-        <v>408</v>
+        <v>432</v>
       </c>
       <c r="B39" s="15"/>
       <c r="C39" s="15"/>
@@ -4188,7 +4314,7 @@
     </row>
     <row r="40" customFormat="false" ht="41.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="37" t="s">
-        <v>409</v>
+        <v>433</v>
       </c>
       <c r="B40" s="38"/>
       <c r="C40" s="38"/>
@@ -4262,8 +4388,8 @@
   </sheetPr>
   <dimension ref="A1:Y59"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B29:AB29 A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4274,32 +4400,32 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="42" t="s">
-        <v>410</v>
+        <v>434</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="42" t="s">
-        <v>411</v>
+        <v>435</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="42" t="s">
-        <v>412</v>
+        <v>436</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="42" t="s">
-        <v>413</v>
+        <v>437</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="42" t="s">
-        <v>414</v>
+        <v>438</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="42" t="s">
-        <v>415</v>
+        <v>439</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4307,12 +4433,12 @@
     </row>
     <row r="9" customFormat="false" ht="80.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="43" t="s">
-        <v>416</v>
+        <v>440</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="51.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="44" t="s">
-        <v>417</v>
+        <v>441</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4320,7 +4446,7 @@
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="45" t="s">
-        <v>418</v>
+        <v>442</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4328,22 +4454,22 @@
     </row>
     <row r="14" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="47" t="s">
-        <v>419</v>
+        <v>443</v>
       </c>
       <c r="B14" s="48" t="s">
-        <v>420</v>
+        <v>444</v>
       </c>
       <c r="C14" s="48"/>
       <c r="D14" s="48" t="s">
-        <v>421</v>
+        <v>445</v>
       </c>
       <c r="E14" s="48"/>
       <c r="F14" s="48" t="s">
-        <v>422</v>
+        <v>446</v>
       </c>
       <c r="G14" s="48"/>
       <c r="H14" s="48" t="s">
-        <v>423</v>
+        <v>447</v>
       </c>
       <c r="I14" s="48"/>
       <c r="J14" s="48" t="s">
@@ -4359,19 +4485,19 @@
       </c>
       <c r="O14" s="48"/>
       <c r="P14" s="48" t="s">
-        <v>424</v>
+        <v>448</v>
       </c>
       <c r="Q14" s="48"/>
       <c r="R14" s="48" t="s">
-        <v>425</v>
+        <v>449</v>
       </c>
       <c r="S14" s="48"/>
       <c r="T14" s="48" t="s">
-        <v>426</v>
+        <v>450</v>
       </c>
       <c r="U14" s="48"/>
       <c r="V14" s="48" t="s">
-        <v>427</v>
+        <v>451</v>
       </c>
       <c r="W14" s="48"/>
       <c r="X14" s="49" t="s">
@@ -4456,7 +4582,7 @@
     </row>
     <row r="16" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="52" t="s">
-        <v>428</v>
+        <v>452</v>
       </c>
       <c r="B16" s="52"/>
       <c r="C16" s="52"/>
@@ -4485,7 +4611,7 @@
     </row>
     <row r="17" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="53" t="s">
-        <v>429</v>
+        <v>453</v>
       </c>
       <c r="B17" s="54"/>
       <c r="C17" s="54"/>
@@ -4514,7 +4640,7 @@
     </row>
     <row r="18" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="53" t="s">
-        <v>430</v>
+        <v>454</v>
       </c>
       <c r="B18" s="54"/>
       <c r="C18" s="54"/>
@@ -4543,7 +4669,7 @@
     </row>
     <row r="19" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="53" t="s">
-        <v>431</v>
+        <v>455</v>
       </c>
       <c r="B19" s="54"/>
       <c r="C19" s="54"/>
@@ -4626,7 +4752,7 @@
     </row>
     <row r="22" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="52" t="s">
-        <v>432</v>
+        <v>456</v>
       </c>
       <c r="B22" s="52"/>
       <c r="C22" s="52"/>
@@ -4655,7 +4781,7 @@
     </row>
     <row r="23" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="53" t="s">
-        <v>433</v>
+        <v>457</v>
       </c>
       <c r="B23" s="54"/>
       <c r="C23" s="54"/>
@@ -4684,7 +4810,7 @@
     </row>
     <row r="24" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="53" t="s">
-        <v>434</v>
+        <v>458</v>
       </c>
       <c r="B24" s="54"/>
       <c r="C24" s="54"/>
@@ -4713,7 +4839,7 @@
     </row>
     <row r="25" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="53" t="s">
-        <v>435</v>
+        <v>459</v>
       </c>
       <c r="B25" s="54"/>
       <c r="C25" s="54"/>
@@ -4742,7 +4868,7 @@
     </row>
     <row r="26" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="53" t="s">
-        <v>436</v>
+        <v>460</v>
       </c>
       <c r="B26" s="54"/>
       <c r="C26" s="54"/>
@@ -4825,7 +4951,7 @@
     </row>
     <row r="29" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="56" t="s">
-        <v>437</v>
+        <v>461</v>
       </c>
       <c r="B29" s="54"/>
       <c r="C29" s="54"/>
@@ -4854,7 +4980,7 @@
     </row>
     <row r="30" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="52" t="s">
-        <v>438</v>
+        <v>462</v>
       </c>
       <c r="B30" s="52"/>
       <c r="C30" s="52"/>
@@ -4883,7 +5009,7 @@
     </row>
     <row r="31" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="53" t="s">
-        <v>439</v>
+        <v>463</v>
       </c>
       <c r="B31" s="54"/>
       <c r="C31" s="54"/>
@@ -4912,7 +5038,7 @@
     </row>
     <row r="32" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="53" t="s">
-        <v>440</v>
+        <v>464</v>
       </c>
       <c r="B32" s="54"/>
       <c r="C32" s="54"/>
@@ -4995,7 +5121,7 @@
     </row>
     <row r="35" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="52" t="s">
-        <v>441</v>
+        <v>465</v>
       </c>
       <c r="B35" s="52"/>
       <c r="C35" s="52"/>
@@ -5105,7 +5231,7 @@
     </row>
     <row r="39" customFormat="false" ht="66.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="56" t="s">
-        <v>442</v>
+        <v>466</v>
       </c>
       <c r="B39" s="54"/>
       <c r="C39" s="54"/>
@@ -5134,7 +5260,7 @@
     </row>
     <row r="40" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="56" t="s">
-        <v>443</v>
+        <v>467</v>
       </c>
       <c r="B40" s="54"/>
       <c r="C40" s="54"/>
@@ -5163,7 +5289,7 @@
     </row>
     <row r="41" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="52" t="s">
-        <v>444</v>
+        <v>468</v>
       </c>
       <c r="B41" s="52"/>
       <c r="C41" s="52"/>
@@ -5192,7 +5318,7 @@
     </row>
     <row r="42" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="53" t="s">
-        <v>445</v>
+        <v>469</v>
       </c>
       <c r="B42" s="54"/>
       <c r="C42" s="54"/>
@@ -5221,7 +5347,7 @@
     </row>
     <row r="43" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="53" t="s">
-        <v>446</v>
+        <v>470</v>
       </c>
       <c r="B43" s="54"/>
       <c r="C43" s="54"/>
@@ -5250,7 +5376,7 @@
     </row>
     <row r="44" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="53" t="s">
-        <v>447</v>
+        <v>471</v>
       </c>
       <c r="B44" s="54"/>
       <c r="C44" s="54"/>
@@ -5333,7 +5459,7 @@
     </row>
     <row r="47" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="52" t="s">
-        <v>448</v>
+        <v>472</v>
       </c>
       <c r="B47" s="52"/>
       <c r="C47" s="52"/>
@@ -5416,7 +5542,7 @@
     </row>
     <row r="50" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="53" t="s">
-        <v>449</v>
+        <v>473</v>
       </c>
       <c r="B50" s="54"/>
       <c r="C50" s="54"/>
@@ -5445,7 +5571,7 @@
     </row>
     <row r="51" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="52" t="s">
-        <v>450</v>
+        <v>474</v>
       </c>
       <c r="B51" s="52"/>
       <c r="C51" s="52"/>
@@ -5474,7 +5600,7 @@
     </row>
     <row r="52" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="57" t="s">
-        <v>451</v>
+        <v>475</v>
       </c>
       <c r="B52" s="54"/>
       <c r="C52" s="54"/>
@@ -5503,7 +5629,7 @@
     </row>
     <row r="53" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="57" t="s">
-        <v>452</v>
+        <v>476</v>
       </c>
       <c r="B53" s="54"/>
       <c r="C53" s="54"/>
@@ -5532,7 +5658,7 @@
     </row>
     <row r="54" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="57" t="s">
-        <v>453</v>
+        <v>477</v>
       </c>
       <c r="B54" s="54"/>
       <c r="C54" s="54"/>
@@ -5588,7 +5714,7 @@
     </row>
     <row r="56" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="58" t="s">
-        <v>454</v>
+        <v>478</v>
       </c>
       <c r="B56" s="54"/>
       <c r="C56" s="54"/>
@@ -5617,7 +5743,7 @@
     </row>
     <row r="57" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="59" t="s">
-        <v>455</v>
+        <v>479</v>
       </c>
       <c r="B57" s="60"/>
       <c r="C57" s="60"/>
@@ -5649,7 +5775,7 @@
     </row>
     <row r="59" customFormat="false" ht="141.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="63" t="s">
-        <v>456</v>
+        <v>480</v>
       </c>
     </row>
   </sheetData>

--- a/resources/report_template.xlsx
+++ b/resources/report_template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="572" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="528" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="File active" sheetId="1" state="visible" r:id="rId2"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="601">
   <si>
     <t>Région</t>
   </si>
@@ -1293,19 +1293,379 @@
     <t>Nombre de personnes vivant avec le VIH  inscrits dans les soins de l’infection à VIH (pré- TAR, TAR, PTME)  qui pésentent une tuberculose évolutive mis sous traitement concomitant Antiberculeux et ARV au cours de la période de rapportage</t>
   </si>
   <si>
+    <t>{key: 'TB_TREATMENT_STARTED_DURING_PERIOD', gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_TREATMENT_STARTED_DURING_PERIOD', gender: 1}</t>
+  </si>
+  <si>
+    <t>{key:'TB_TREATMENT_STARTED_DURING_PERIOD', age_max: 15}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_TREATMENT_STARTED_DURING_PERIOD', age_min: 15}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_TREATMENT_STARTED_DURING_PERIOD'}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_TREATMENT_STARTED_DURING_PERIOD', age_max: 15, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_TREATMENT_STARTED_DURING_PERIOD', age_max: 15, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_TREATMENT_STARTED_DURING_PERIOD', age_min: 15, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_TREATMENT_STARTED_DURING_PERIOD', age_min: 15, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_TREATMENT_STARTED_DURING_PERIOD', age_max: 1, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_TREATMENT_STARTED_DURING_PERIOD', age_max: 1, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_TREATMENT_STARTED_DURING_PERIOD', age_min: 1, age_max: 4, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_TREATMENT_STARTED_DURING_PERIOD', age_min: 5, age_max: 9, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_TREATMENT_STARTED_DURING_PERIOD', age_min: 5, age_max: 9, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_TREATMENT_STARTED_DURING_PERIOD', age_min: 10, age_max: 14, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_TREATMENT_STARTED_DURING_PERIOD', age_min: 10, age_max: 14, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_TREATMENT_STARTED_DURING_PERIOD', age_min: 15, age_max: 19, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_TREATMENT_STARTED_DURING_PERIOD', age_min: 15, age_max: 19, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_TREATMENT_STARTED_DURING_PERIOD', age_min: 20, age_max: 24, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_TREATMENT_STARTED_DURING_PERIOD', age_min: 20, age_max: 24, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_TREATMENT_STARTED_DURING_PERIOD', age_min: 25, age_max: 49, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_TREATMENT_STARTED_DURING_PERIOD', age_min: 25, age_max: 49, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_TREATMENT_STARTED_DURING_PERIOD', age_min: 50, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_TREATMENT_STARTED_DURING_PERIOD', age_min: 50, gender: 1}</t>
+  </si>
+  <si>
     <t>Nombre d’adultes et d’enfants atteints de Tuberculose et inscrits dans les soins de la tuberculose (CT - CDT - CAT) chez lesquels une recherche de VIH a été effectuée au cours de la période de rapportage (Dépistage du VIH chez les patients TB)</t>
   </si>
   <si>
     <t>Nombre d’adultes et d’enfants atteints de Tuberculose et inscrits dans les soins de la tuberculose (CT - CDT - CAT)  dépisté séropositifs (VIH+)  mis sous ARV au cours de la période de rapportage</t>
   </si>
   <si>
+    <t>{key: 'TB_VIH_POSITIVE_ARV_STARTED_DURING_PERIOD', gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_VIH_POSITIVE_ARV_STARTED_DURING_PERIOD', gender: 1}</t>
+  </si>
+  <si>
+    <t>{key:'TB_VIH_POSITIVE_ARV_STARTED_DURING_PERIOD', age_max: 15}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_VIH_POSITIVE_ARV_STARTED_DURING_PERIOD', age_min: 15}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_VIH_POSITIVE_ARV_STARTED_DURING_PERIOD'}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_VIH_POSITIVE_ARV_STARTED_DURING_PERIOD', age_max: 15, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_VIH_POSITIVE_ARV_STARTED_DURING_PERIOD', age_max: 15, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_VIH_POSITIVE_ARV_STARTED_DURING_PERIOD', age_min: 15, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_VIH_POSITIVE_ARV_STARTED_DURING_PERIOD', age_min: 15, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_VIH_POSITIVE_ARV_STARTED_DURING_PERIOD', age_max: 1, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_VIH_POSITIVE_ARV_STARTED_DURING_PERIOD', age_max: 1, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_VIH_POSITIVE_ARV_STARTED_DURING_PERIOD', age_min: 1, age_max: 4, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_VIH_POSITIVE_ARV_STARTED_DURING_PERIOD', age_min: 5, age_max: 9, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_VIH_POSITIVE_ARV_STARTED_DURING_PERIOD', age_min: 5, age_max: 9, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_VIH_POSITIVE_ARV_STARTED_DURING_PERIOD', age_min: 10, age_max: 14, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_VIH_POSITIVE_ARV_STARTED_DURING_PERIOD', age_min: 10, age_max: 14, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_VIH_POSITIVE_ARV_STARTED_DURING_PERIOD', age_min: 15, age_max: 19, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_VIH_POSITIVE_ARV_STARTED_DURING_PERIOD', age_min: 15, age_max: 19, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_VIH_POSITIVE_ARV_STARTED_DURING_PERIOD', age_min: 20, age_max: 24, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_VIH_POSITIVE_ARV_STARTED_DURING_PERIOD', age_min: 20, age_max: 24, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_VIH_POSITIVE_ARV_STARTED_DURING_PERIOD', age_min: 25, age_max: 49, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_VIH_POSITIVE_ARV_STARTED_DURING_PERIOD', age_min: 25, age_max: 49, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_VIH_POSITIVE_ARV_STARTED_DURING_PERIOD', age_min: 50, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_VIH_POSITIVE_ARV_STARTED_DURING_PERIOD', age_min: 50, gender: 1}</t>
+  </si>
+  <si>
     <t>Nombre d’adultes et d’enfants atteints de Tuberculose et inscrits dans les soins de la tuberculose (CT - CDT - CAT)  dépisté séropositifs (VIH+)  au cours de la période de rapportage</t>
   </si>
   <si>
+    <t>{key: 'TB_VIH_POSITIVE_DURING_PERIOD', gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_VIH_POSITIVE_DURING_PERIOD', gender: 1}</t>
+  </si>
+  <si>
+    <t>{key:'TB_VIH_POSITIVE_DURING_PERIOD', age_max: 15}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_VIH_POSITIVE_DURING_PERIOD', age_min: 15}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_VIH_POSITIVE_DURING_PERIOD'}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_VIH_POSITIVE_DURING_PERIOD', age_max: 15, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_VIH_POSITIVE_DURING_PERIOD', age_max: 15, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_VIH_POSITIVE_DURING_PERIOD', age_min: 15, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_VIH_POSITIVE_DURING_PERIOD', age_min: 15, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_VIH_POSITIVE_DURING_PERIOD', age_max: 1, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_VIH_POSITIVE_DURING_PERIOD', age_max: 1, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_VIH_POSITIVE_DURING_PERIOD', age_min: 1, age_max: 4, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_VIH_POSITIVE_DURING_PERIOD', age_min: 5, age_max: 9, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_VIH_POSITIVE_DURING_PERIOD', age_min: 5, age_max: 9, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_VIH_POSITIVE_DURING_PERIOD', age_min: 10, age_max: 14, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_VIH_POSITIVE_DURING_PERIOD', age_min: 10, age_max: 14, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_VIH_POSITIVE_DURING_PERIOD', age_min: 15, age_max: 19, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_VIH_POSITIVE_DURING_PERIOD', age_min: 15, age_max: 19, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_VIH_POSITIVE_DURING_PERIOD', age_min: 20, age_max: 24, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_VIH_POSITIVE_DURING_PERIOD', age_min: 20, age_max: 24, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_VIH_POSITIVE_DURING_PERIOD', age_min: 25, age_max: 49, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_VIH_POSITIVE_DURING_PERIOD', age_min: 25, age_max: 49, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_VIH_POSITIVE_DURING_PERIOD', age_min: 50, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_VIH_POSITIVE_DURING_PERIOD', age_min: 50, gender: 1}</t>
+  </si>
+  <si>
     <t>Nombre d’adultes et d’enfants infectés par le VIH qui présentent une Tuberculose active et qui bénéficient à la fois d'une TARV et Antituberculeux  au cours de la période de rapportage</t>
   </si>
   <si>
+    <t>{key: 'TB_ARV_TREATMENT', gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_ARV_TREATMENT', gender: 1}</t>
+  </si>
+  <si>
+    <t>{key:'TB_ARV_TREATMENT', age_max: 15}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_ARV_TREATMENT', age_min: 15}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_ARV_TREATMENT'}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_ARV_TREATMENT', age_max: 15, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_ARV_TREATMENT', age_max: 15, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_ARV_TREATMENT', age_min: 15, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_ARV_TREATMENT', age_min: 15, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_ARV_TREATMENT', age_max: 1, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_ARV_TREATMENT', age_max: 1, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_ARV_TREATMENT', age_min: 1, age_max: 4, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_ARV_TREATMENT', age_min: 5, age_max: 9, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_ARV_TREATMENT', age_min: 5, age_max: 9, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_ARV_TREATMENT', age_min: 10, age_max: 14, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_ARV_TREATMENT', age_min: 10, age_max: 14, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_ARV_TREATMENT', age_min: 15, age_max: 19, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_ARV_TREATMENT', age_min: 15, age_max: 19, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_ARV_TREATMENT', age_min: 20, age_max: 24, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_ARV_TREATMENT', age_min: 20, age_max: 24, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_ARV_TREATMENT', age_min: 25, age_max: 49, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_ARV_TREATMENT', age_min: 25, age_max: 49, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_ARV_TREATMENT', age_min: 50, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_ARV_TREATMENT', age_min: 50, gender: 1}</t>
+  </si>
+  <si>
     <t>Nombre d’adultes et d’enfants infectés par le VIH sous TARV qui présentent une hépatite B  au cours de la période de rapportage</t>
+  </si>
+  <si>
+    <t>{key: 'HEPATITIS_B_DIAGNOSIS_DURING_PERIOD', gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'HEPATITIS_B_DIAGNOSIS_DURING_PERIOD', gender: 1}</t>
+  </si>
+  <si>
+    <t>{key:'HEPATITIS_B_DIAGNOSIS_DURING_PERIOD', age_max: 15}</t>
+  </si>
+  <si>
+    <t>{key: 'HEPATITIS_B_DIAGNOSIS_DURING_PERIOD', age_min: 15}</t>
+  </si>
+  <si>
+    <t>{key: 'HEPATITIS_B_DIAGNOSIS_DURING_PERIOD'}</t>
+  </si>
+  <si>
+    <t>{key: 'HEPATITIS_B_DIAGNOSIS_DURING_PERIOD', age_max: 15, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'HEPATITIS_B_DIAGNOSIS_DURING_PERIOD', age_max: 15, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'HEPATITIS_B_DIAGNOSIS_DURING_PERIOD', age_min: 15, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'HEPATITIS_B_DIAGNOSIS_DURING_PERIOD', age_min: 15, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'HEPATITIS_B_DIAGNOSIS_DURING_PERIOD', age_max: 1, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'HEPATITIS_B_DIAGNOSIS_DURING_PERIOD', age_max: 1, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'HEPATITIS_B_DIAGNOSIS_DURING_PERIOD', age_min: 1, age_max: 4, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'HEPATITIS_B_DIAGNOSIS_DURING_PERIOD', age_min: 5, age_max: 9, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'HEPATITIS_B_DIAGNOSIS_DURING_PERIOD', age_min: 5, age_max: 9, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'HEPATITIS_B_DIAGNOSIS_DURING_PERIOD', age_min: 10, age_max: 14, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'HEPATITIS_B_DIAGNOSIS_DURING_PERIOD', age_min: 10, age_max: 14, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'HEPATITIS_B_DIAGNOSIS_DURING_PERIOD', age_min: 15, age_max: 19, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'HEPATITIS_B_DIAGNOSIS_DURING_PERIOD', age_min: 15, age_max: 19, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'HEPATITIS_B_DIAGNOSIS_DURING_PERIOD', age_min: 20, age_max: 24, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'HEPATITIS_B_DIAGNOSIS_DURING_PERIOD', age_min: 20, age_max: 24, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'HEPATITIS_B_DIAGNOSIS_DURING_PERIOD', age_min: 25, age_max: 49, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'HEPATITIS_B_DIAGNOSIS_DURING_PERIOD', age_min: 25, age_max: 49, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'HEPATITIS_B_DIAGNOSIS_DURING_PERIOD', age_min: 50, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'HEPATITIS_B_DIAGNOSIS_DURING_PERIOD', age_min: 50, gender: 1}</t>
   </si>
   <si>
     <t>Nombre de personnes vivant avec le VIH et sous TARV pour lesquelles un résultat de mesure de la charge virale est disponible 12 mois après la mise en route du TARV.</t>
@@ -1884,7 +2244,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="66">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2029,7 +2389,15 @@
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="2" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="5" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2218,15 +2586,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>162000</xdr:colOff>
+      <xdr:colOff>189000</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>146160</xdr:rowOff>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>645480</xdr:colOff>
+      <xdr:colOff>672120</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>115200</xdr:rowOff>
+      <xdr:rowOff>105840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2239,8 +2607,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="162000" y="745920"/>
-          <a:ext cx="483480" cy="359640"/>
+          <a:off x="189000" y="736920"/>
+          <a:ext cx="483120" cy="359280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2262,8 +2630,8 @@
   </sheetPr>
   <dimension ref="A1:AB57"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A27" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E31" activeCellId="0" sqref="E31"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E39" activeCellId="0" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3102,7 +3470,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="28.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="18" t="s">
         <v>173</v>
       </c>
@@ -3994,41 +4362,95 @@
         <v>401</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="57.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="65.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="33" t="s">
         <v>424</v>
       </c>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="16"/>
-      <c r="M30" s="16"/>
-      <c r="N30" s="16"/>
-      <c r="O30" s="16"/>
-      <c r="P30" s="16"/>
-      <c r="Q30" s="16"/>
-      <c r="R30" s="16"/>
-      <c r="S30" s="16"/>
-      <c r="T30" s="16"/>
-      <c r="U30" s="16"/>
-      <c r="V30" s="16"/>
-      <c r="W30" s="16"/>
-      <c r="X30" s="16"/>
-      <c r="Y30" s="16"/>
-      <c r="Z30" s="16"/>
-      <c r="AA30" s="20"/>
-      <c r="AB30" s="22"/>
-    </row>
-    <row r="31" customFormat="false" ht="54.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="15" t="s">
+        <v>425</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>426</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>427</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>428</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>429</v>
+      </c>
+      <c r="G30" s="15" t="s">
+        <v>430</v>
+      </c>
+      <c r="H30" s="15" t="s">
+        <v>431</v>
+      </c>
+      <c r="I30" s="15" t="s">
+        <v>432</v>
+      </c>
+      <c r="J30" s="15" t="s">
+        <v>433</v>
+      </c>
+      <c r="K30" s="16" t="s">
+        <v>434</v>
+      </c>
+      <c r="L30" s="16" t="s">
+        <v>435</v>
+      </c>
+      <c r="M30" s="16" t="s">
+        <v>436</v>
+      </c>
+      <c r="N30" s="16" t="s">
+        <v>434</v>
+      </c>
+      <c r="O30" s="16" t="s">
+        <v>437</v>
+      </c>
+      <c r="P30" s="16" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q30" s="16" t="s">
+        <v>439</v>
+      </c>
+      <c r="R30" s="16" t="s">
+        <v>440</v>
+      </c>
+      <c r="S30" s="16" t="s">
+        <v>441</v>
+      </c>
+      <c r="T30" s="16" t="s">
+        <v>442</v>
+      </c>
+      <c r="U30" s="16" t="s">
+        <v>443</v>
+      </c>
+      <c r="V30" s="16" t="s">
+        <v>444</v>
+      </c>
+      <c r="W30" s="16" t="s">
+        <v>445</v>
+      </c>
+      <c r="X30" s="16" t="s">
+        <v>446</v>
+      </c>
+      <c r="Y30" s="16" t="s">
+        <v>447</v>
+      </c>
+      <c r="Z30" s="16" t="s">
+        <v>448</v>
+      </c>
+      <c r="AA30" s="16" t="s">
+        <v>425</v>
+      </c>
+      <c r="AB30" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="70.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="34" t="s">
-        <v>425</v>
+        <v>449</v>
       </c>
       <c r="B31" s="15"/>
       <c r="C31" s="15"/>
@@ -4058,101 +4480,263 @@
       <c r="AA31" s="20"/>
       <c r="AB31" s="22"/>
     </row>
-    <row r="32" customFormat="false" ht="41.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="52.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="34" t="s">
-        <v>426</v>
-      </c>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="16"/>
-      <c r="L32" s="16"/>
-      <c r="M32" s="16"/>
-      <c r="N32" s="16"/>
-      <c r="O32" s="16"/>
-      <c r="P32" s="16"/>
-      <c r="Q32" s="16"/>
-      <c r="R32" s="16"/>
-      <c r="S32" s="16"/>
-      <c r="T32" s="16"/>
-      <c r="U32" s="16"/>
-      <c r="V32" s="16"/>
-      <c r="W32" s="16"/>
-      <c r="X32" s="16"/>
-      <c r="Y32" s="16"/>
-      <c r="Z32" s="16"/>
-      <c r="AA32" s="20"/>
-      <c r="AB32" s="22"/>
-    </row>
-    <row r="33" customFormat="false" ht="41.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>450</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>451</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>453</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>454</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>455</v>
+      </c>
+      <c r="G32" s="15" t="s">
+        <v>456</v>
+      </c>
+      <c r="H32" s="15" t="s">
+        <v>457</v>
+      </c>
+      <c r="I32" s="15" t="s">
+        <v>458</v>
+      </c>
+      <c r="J32" s="15" t="s">
+        <v>459</v>
+      </c>
+      <c r="K32" s="16" t="s">
+        <v>460</v>
+      </c>
+      <c r="L32" s="16" t="s">
+        <v>461</v>
+      </c>
+      <c r="M32" s="16" t="s">
+        <v>462</v>
+      </c>
+      <c r="N32" s="16" t="s">
+        <v>460</v>
+      </c>
+      <c r="O32" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="P32" s="16" t="s">
+        <v>464</v>
+      </c>
+      <c r="Q32" s="16" t="s">
+        <v>465</v>
+      </c>
+      <c r="R32" s="16" t="s">
+        <v>466</v>
+      </c>
+      <c r="S32" s="16" t="s">
+        <v>467</v>
+      </c>
+      <c r="T32" s="16" t="s">
+        <v>468</v>
+      </c>
+      <c r="U32" s="16" t="s">
+        <v>469</v>
+      </c>
+      <c r="V32" s="16" t="s">
+        <v>470</v>
+      </c>
+      <c r="W32" s="16" t="s">
+        <v>471</v>
+      </c>
+      <c r="X32" s="16" t="s">
+        <v>472</v>
+      </c>
+      <c r="Y32" s="16" t="s">
+        <v>473</v>
+      </c>
+      <c r="Z32" s="16" t="s">
+        <v>474</v>
+      </c>
+      <c r="AA32" s="16" t="s">
+        <v>451</v>
+      </c>
+      <c r="AB32" s="17" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="59.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="34" t="s">
-        <v>427</v>
-      </c>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="16"/>
-      <c r="J33" s="16"/>
-      <c r="K33" s="16"/>
-      <c r="L33" s="16"/>
-      <c r="M33" s="16"/>
-      <c r="N33" s="16"/>
-      <c r="O33" s="16"/>
-      <c r="P33" s="16"/>
-      <c r="Q33" s="16"/>
-      <c r="R33" s="16"/>
-      <c r="S33" s="16"/>
-      <c r="T33" s="16"/>
-      <c r="U33" s="16"/>
-      <c r="V33" s="16"/>
-      <c r="W33" s="16"/>
-      <c r="X33" s="16"/>
-      <c r="Y33" s="16"/>
-      <c r="Z33" s="16"/>
-      <c r="AA33" s="20"/>
-      <c r="AB33" s="22"/>
-    </row>
-    <row r="34" customFormat="false" ht="41.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>475</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>476</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>477</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>478</v>
+      </c>
+      <c r="E33" s="15" t="s">
+        <v>479</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>480</v>
+      </c>
+      <c r="G33" s="15" t="s">
+        <v>481</v>
+      </c>
+      <c r="H33" s="15" t="s">
+        <v>482</v>
+      </c>
+      <c r="I33" s="15" t="s">
+        <v>483</v>
+      </c>
+      <c r="J33" s="15" t="s">
+        <v>484</v>
+      </c>
+      <c r="K33" s="16" t="s">
+        <v>485</v>
+      </c>
+      <c r="L33" s="16" t="s">
+        <v>486</v>
+      </c>
+      <c r="M33" s="16" t="s">
+        <v>487</v>
+      </c>
+      <c r="N33" s="16" t="s">
+        <v>485</v>
+      </c>
+      <c r="O33" s="16" t="s">
+        <v>488</v>
+      </c>
+      <c r="P33" s="16" t="s">
+        <v>489</v>
+      </c>
+      <c r="Q33" s="16" t="s">
+        <v>490</v>
+      </c>
+      <c r="R33" s="16" t="s">
+        <v>491</v>
+      </c>
+      <c r="S33" s="16" t="s">
+        <v>492</v>
+      </c>
+      <c r="T33" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="U33" s="16" t="s">
+        <v>494</v>
+      </c>
+      <c r="V33" s="16" t="s">
+        <v>495</v>
+      </c>
+      <c r="W33" s="16" t="s">
+        <v>496</v>
+      </c>
+      <c r="X33" s="16" t="s">
+        <v>497</v>
+      </c>
+      <c r="Y33" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="Z33" s="16" t="s">
+        <v>499</v>
+      </c>
+      <c r="AA33" s="16" t="s">
+        <v>476</v>
+      </c>
+      <c r="AB33" s="17" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="54.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="35" t="s">
-        <v>428</v>
-      </c>
-      <c r="B34" s="36"/>
-      <c r="C34" s="36"/>
-      <c r="D34" s="36"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="36"/>
-      <c r="H34" s="36"/>
-      <c r="I34" s="36"/>
-      <c r="J34" s="36"/>
-      <c r="K34" s="36"/>
-      <c r="L34" s="36"/>
-      <c r="M34" s="36"/>
-      <c r="N34" s="36"/>
-      <c r="O34" s="36"/>
-      <c r="P34" s="36"/>
-      <c r="Q34" s="36"/>
-      <c r="R34" s="36"/>
-      <c r="S34" s="36"/>
-      <c r="T34" s="36"/>
-      <c r="U34" s="36"/>
-      <c r="V34" s="36"/>
-      <c r="W34" s="36"/>
-      <c r="X34" s="36"/>
-      <c r="Y34" s="36"/>
-      <c r="Z34" s="36"/>
-      <c r="AA34" s="36"/>
-      <c r="AB34" s="36"/>
+        <v>500</v>
+      </c>
+      <c r="B34" s="29" t="s">
+        <v>501</v>
+      </c>
+      <c r="C34" s="29" t="s">
+        <v>502</v>
+      </c>
+      <c r="D34" s="29" t="s">
+        <v>503</v>
+      </c>
+      <c r="E34" s="29" t="s">
+        <v>504</v>
+      </c>
+      <c r="F34" s="29" t="s">
+        <v>505</v>
+      </c>
+      <c r="G34" s="29" t="s">
+        <v>506</v>
+      </c>
+      <c r="H34" s="29" t="s">
+        <v>507</v>
+      </c>
+      <c r="I34" s="29" t="s">
+        <v>508</v>
+      </c>
+      <c r="J34" s="29" t="s">
+        <v>509</v>
+      </c>
+      <c r="K34" s="31" t="s">
+        <v>510</v>
+      </c>
+      <c r="L34" s="31" t="s">
+        <v>511</v>
+      </c>
+      <c r="M34" s="31" t="s">
+        <v>512</v>
+      </c>
+      <c r="N34" s="31" t="s">
+        <v>510</v>
+      </c>
+      <c r="O34" s="31" t="s">
+        <v>513</v>
+      </c>
+      <c r="P34" s="31" t="s">
+        <v>514</v>
+      </c>
+      <c r="Q34" s="31" t="s">
+        <v>515</v>
+      </c>
+      <c r="R34" s="31" t="s">
+        <v>516</v>
+      </c>
+      <c r="S34" s="31" t="s">
+        <v>517</v>
+      </c>
+      <c r="T34" s="31" t="s">
+        <v>518</v>
+      </c>
+      <c r="U34" s="31" t="s">
+        <v>519</v>
+      </c>
+      <c r="V34" s="31" t="s">
+        <v>520</v>
+      </c>
+      <c r="W34" s="31" t="s">
+        <v>521</v>
+      </c>
+      <c r="X34" s="31" t="s">
+        <v>522</v>
+      </c>
+      <c r="Y34" s="31" t="s">
+        <v>523</v>
+      </c>
+      <c r="Z34" s="31" t="s">
+        <v>524</v>
+      </c>
+      <c r="AA34" s="31" t="s">
+        <v>501</v>
+      </c>
+      <c r="AB34" s="32" t="s">
+        <v>502</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="18"/>
@@ -4184,41 +4768,95 @@
       <c r="AA35" s="20"/>
       <c r="AB35" s="22"/>
     </row>
-    <row r="36" customFormat="false" ht="28.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="18" t="s">
-        <v>429</v>
-      </c>
-      <c r="B36" s="15"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="16"/>
-      <c r="K36" s="16"/>
-      <c r="L36" s="16"/>
-      <c r="M36" s="16"/>
-      <c r="N36" s="16"/>
-      <c r="O36" s="16"/>
-      <c r="P36" s="16"/>
-      <c r="Q36" s="16"/>
-      <c r="R36" s="16"/>
-      <c r="S36" s="16"/>
-      <c r="T36" s="16"/>
-      <c r="U36" s="16"/>
-      <c r="V36" s="16"/>
-      <c r="W36" s="16"/>
-      <c r="X36" s="16"/>
-      <c r="Y36" s="16"/>
-      <c r="Z36" s="16"/>
-      <c r="AA36" s="20"/>
-      <c r="AB36" s="22"/>
+        <v>525</v>
+      </c>
+      <c r="B36" s="36" t="s">
+        <v>526</v>
+      </c>
+      <c r="C36" s="36" t="s">
+        <v>527</v>
+      </c>
+      <c r="D36" s="36" t="s">
+        <v>528</v>
+      </c>
+      <c r="E36" s="36" t="s">
+        <v>529</v>
+      </c>
+      <c r="F36" s="36" t="s">
+        <v>530</v>
+      </c>
+      <c r="G36" s="36" t="s">
+        <v>531</v>
+      </c>
+      <c r="H36" s="36" t="s">
+        <v>532</v>
+      </c>
+      <c r="I36" s="36" t="s">
+        <v>533</v>
+      </c>
+      <c r="J36" s="36" t="s">
+        <v>534</v>
+      </c>
+      <c r="K36" s="37" t="s">
+        <v>535</v>
+      </c>
+      <c r="L36" s="37" t="s">
+        <v>536</v>
+      </c>
+      <c r="M36" s="37" t="s">
+        <v>537</v>
+      </c>
+      <c r="N36" s="37" t="s">
+        <v>535</v>
+      </c>
+      <c r="O36" s="37" t="s">
+        <v>538</v>
+      </c>
+      <c r="P36" s="37" t="s">
+        <v>539</v>
+      </c>
+      <c r="Q36" s="37" t="s">
+        <v>540</v>
+      </c>
+      <c r="R36" s="37" t="s">
+        <v>541</v>
+      </c>
+      <c r="S36" s="37" t="s">
+        <v>542</v>
+      </c>
+      <c r="T36" s="37" t="s">
+        <v>543</v>
+      </c>
+      <c r="U36" s="37" t="s">
+        <v>544</v>
+      </c>
+      <c r="V36" s="37" t="s">
+        <v>545</v>
+      </c>
+      <c r="W36" s="37" t="s">
+        <v>546</v>
+      </c>
+      <c r="X36" s="37" t="s">
+        <v>547</v>
+      </c>
+      <c r="Y36" s="37" t="s">
+        <v>548</v>
+      </c>
+      <c r="Z36" s="37" t="s">
+        <v>549</v>
+      </c>
+      <c r="AA36" s="37" t="s">
+        <v>526</v>
+      </c>
+      <c r="AB36" s="38" t="s">
+        <v>527</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="41.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="18" t="s">
-        <v>430</v>
+        <v>550</v>
       </c>
       <c r="B37" s="15"/>
       <c r="C37" s="15"/>
@@ -4250,7 +4888,7 @@
     </row>
     <row r="38" customFormat="false" ht="28.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="18" t="s">
-        <v>431</v>
+        <v>551</v>
       </c>
       <c r="B38" s="15"/>
       <c r="C38" s="15"/>
@@ -4280,9 +4918,9 @@
       <c r="AA38" s="20"/>
       <c r="AB38" s="22"/>
     </row>
-    <row r="39" customFormat="false" ht="41.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="14" t="s">
-        <v>432</v>
+        <v>552</v>
       </c>
       <c r="B39" s="15"/>
       <c r="C39" s="15"/>
@@ -4312,39 +4950,39 @@
       <c r="AA39" s="20"/>
       <c r="AB39" s="22"/>
     </row>
-    <row r="40" customFormat="false" ht="41.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="37" t="s">
-        <v>433</v>
-      </c>
-      <c r="B40" s="38"/>
-      <c r="C40" s="38"/>
-      <c r="D40" s="38"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="39"/>
-      <c r="G40" s="40"/>
-      <c r="H40" s="40"/>
-      <c r="I40" s="40"/>
-      <c r="J40" s="40"/>
-      <c r="K40" s="40"/>
-      <c r="L40" s="40"/>
-      <c r="M40" s="40"/>
-      <c r="N40" s="40"/>
-      <c r="O40" s="40"/>
-      <c r="P40" s="40"/>
-      <c r="Q40" s="40"/>
-      <c r="R40" s="40"/>
-      <c r="S40" s="40"/>
-      <c r="T40" s="40"/>
-      <c r="U40" s="40"/>
-      <c r="V40" s="40"/>
-      <c r="W40" s="40"/>
-      <c r="X40" s="40"/>
-      <c r="Y40" s="40"/>
-      <c r="Z40" s="40"/>
-      <c r="AA40" s="39"/>
-      <c r="AB40" s="41"/>
-    </row>
-    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="40" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="39" t="s">
+        <v>553</v>
+      </c>
+      <c r="B40" s="40"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="40"/>
+      <c r="E40" s="40"/>
+      <c r="F40" s="41"/>
+      <c r="G40" s="42"/>
+      <c r="H40" s="42"/>
+      <c r="I40" s="42"/>
+      <c r="J40" s="42"/>
+      <c r="K40" s="42"/>
+      <c r="L40" s="42"/>
+      <c r="M40" s="42"/>
+      <c r="N40" s="42"/>
+      <c r="O40" s="42"/>
+      <c r="P40" s="42"/>
+      <c r="Q40" s="42"/>
+      <c r="R40" s="42"/>
+      <c r="S40" s="42"/>
+      <c r="T40" s="42"/>
+      <c r="U40" s="42"/>
+      <c r="V40" s="42"/>
+      <c r="W40" s="42"/>
+      <c r="X40" s="42"/>
+      <c r="Y40" s="42"/>
+      <c r="Z40" s="42"/>
+      <c r="AA40" s="41"/>
+      <c r="AB40" s="43"/>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="22">
@@ -4388,7 +5026,7 @@
   </sheetPr>
   <dimension ref="A1:Y59"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -4399,1383 +5037,1383 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="42" t="s">
-        <v>434</v>
+      <c r="A1" s="44" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="42" t="s">
-        <v>435</v>
+      <c r="A2" s="44" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="42" t="s">
-        <v>436</v>
+      <c r="A3" s="44" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="42" t="s">
-        <v>437</v>
+      <c r="A4" s="44" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="42" t="s">
-        <v>438</v>
+      <c r="A6" s="44" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="42" t="s">
-        <v>439</v>
+      <c r="A7" s="44" t="s">
+        <v>559</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="42"/>
+      <c r="A8" s="44"/>
     </row>
     <row r="9" customFormat="false" ht="80.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="43" t="s">
-        <v>440</v>
+      <c r="A9" s="45" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="51.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="44" t="s">
-        <v>441</v>
+      <c r="A10" s="46" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="45"/>
+      <c r="A11" s="47"/>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="45" t="s">
-        <v>442</v>
+      <c r="A12" s="47" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="46"/>
+      <c r="A13" s="48"/>
     </row>
     <row r="14" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="47" t="s">
-        <v>443</v>
-      </c>
-      <c r="B14" s="48" t="s">
-        <v>444</v>
-      </c>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48" t="s">
-        <v>445</v>
-      </c>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48" t="s">
-        <v>446</v>
-      </c>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48" t="s">
-        <v>447</v>
-      </c>
-      <c r="I14" s="48"/>
-      <c r="J14" s="48" t="s">
+      <c r="A14" s="49" t="s">
+        <v>563</v>
+      </c>
+      <c r="B14" s="50" t="s">
+        <v>564</v>
+      </c>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50" t="s">
+        <v>565</v>
+      </c>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50" t="s">
+        <v>566</v>
+      </c>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50" t="s">
+        <v>567</v>
+      </c>
+      <c r="I14" s="50"/>
+      <c r="J14" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="K14" s="48"/>
-      <c r="L14" s="48" t="s">
+      <c r="K14" s="50"/>
+      <c r="L14" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="M14" s="48"/>
-      <c r="N14" s="48" t="s">
+      <c r="M14" s="50"/>
+      <c r="N14" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="O14" s="48"/>
-      <c r="P14" s="48" t="s">
-        <v>448</v>
-      </c>
-      <c r="Q14" s="48"/>
-      <c r="R14" s="48" t="s">
-        <v>449</v>
-      </c>
-      <c r="S14" s="48"/>
-      <c r="T14" s="48" t="s">
-        <v>450</v>
-      </c>
-      <c r="U14" s="48"/>
-      <c r="V14" s="48" t="s">
-        <v>451</v>
-      </c>
-      <c r="W14" s="48"/>
-      <c r="X14" s="49" t="s">
+      <c r="O14" s="50"/>
+      <c r="P14" s="50" t="s">
+        <v>568</v>
+      </c>
+      <c r="Q14" s="50"/>
+      <c r="R14" s="50" t="s">
+        <v>569</v>
+      </c>
+      <c r="S14" s="50"/>
+      <c r="T14" s="50" t="s">
+        <v>570</v>
+      </c>
+      <c r="U14" s="50"/>
+      <c r="V14" s="50" t="s">
+        <v>571</v>
+      </c>
+      <c r="W14" s="50"/>
+      <c r="X14" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="Y14" s="49"/>
+      <c r="Y14" s="51"/>
     </row>
     <row r="15" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="47"/>
-      <c r="B15" s="50" t="s">
+      <c r="A15" s="49"/>
+      <c r="B15" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="50" t="s">
+      <c r="C15" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="50" t="s">
+      <c r="D15" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="50" t="s">
+      <c r="E15" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="F15" s="50" t="s">
+      <c r="F15" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="G15" s="50" t="s">
+      <c r="G15" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="H15" s="50" t="s">
+      <c r="H15" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="I15" s="50" t="s">
+      <c r="I15" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="J15" s="50" t="s">
+      <c r="J15" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="K15" s="50" t="s">
+      <c r="K15" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="L15" s="50" t="s">
+      <c r="L15" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="M15" s="50" t="s">
+      <c r="M15" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="N15" s="50" t="s">
+      <c r="N15" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="O15" s="50" t="s">
+      <c r="O15" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="P15" s="50" t="s">
+      <c r="P15" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="Q15" s="50" t="s">
+      <c r="Q15" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="R15" s="50" t="s">
+      <c r="R15" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="S15" s="50" t="s">
+      <c r="S15" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="T15" s="50" t="s">
+      <c r="T15" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="U15" s="50" t="s">
+      <c r="U15" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="V15" s="50" t="s">
+      <c r="V15" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="W15" s="50" t="s">
+      <c r="W15" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="X15" s="50" t="s">
+      <c r="X15" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="Y15" s="51" t="s">
+      <c r="Y15" s="53" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="52" t="s">
-        <v>452</v>
-      </c>
-      <c r="B16" s="52"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="52"/>
-      <c r="J16" s="52"/>
-      <c r="K16" s="52"/>
-      <c r="L16" s="52"/>
-      <c r="M16" s="52"/>
-      <c r="N16" s="52"/>
-      <c r="O16" s="52"/>
-      <c r="P16" s="52"/>
-      <c r="Q16" s="52"/>
-      <c r="R16" s="52"/>
-      <c r="S16" s="52"/>
-      <c r="T16" s="52"/>
-      <c r="U16" s="52"/>
-      <c r="V16" s="52"/>
-      <c r="W16" s="52"/>
-      <c r="X16" s="52"/>
-      <c r="Y16" s="52"/>
+      <c r="A16" s="54" t="s">
+        <v>572</v>
+      </c>
+      <c r="B16" s="54"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="54"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="54"/>
+      <c r="N16" s="54"/>
+      <c r="O16" s="54"/>
+      <c r="P16" s="54"/>
+      <c r="Q16" s="54"/>
+      <c r="R16" s="54"/>
+      <c r="S16" s="54"/>
+      <c r="T16" s="54"/>
+      <c r="U16" s="54"/>
+      <c r="V16" s="54"/>
+      <c r="W16" s="54"/>
+      <c r="X16" s="54"/>
+      <c r="Y16" s="54"/>
     </row>
     <row r="17" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="53" t="s">
-        <v>453</v>
-      </c>
-      <c r="B17" s="54"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="54"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="54"/>
-      <c r="J17" s="54"/>
-      <c r="K17" s="54"/>
-      <c r="L17" s="54"/>
-      <c r="M17" s="54"/>
-      <c r="N17" s="54"/>
-      <c r="O17" s="54"/>
-      <c r="P17" s="54"/>
-      <c r="Q17" s="54"/>
-      <c r="R17" s="54"/>
-      <c r="S17" s="54"/>
-      <c r="T17" s="54"/>
-      <c r="U17" s="54"/>
-      <c r="V17" s="54"/>
-      <c r="W17" s="54"/>
-      <c r="X17" s="54"/>
-      <c r="Y17" s="55"/>
+      <c r="A17" s="55" t="s">
+        <v>573</v>
+      </c>
+      <c r="B17" s="56"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="56"/>
+      <c r="M17" s="56"/>
+      <c r="N17" s="56"/>
+      <c r="O17" s="56"/>
+      <c r="P17" s="56"/>
+      <c r="Q17" s="56"/>
+      <c r="R17" s="56"/>
+      <c r="S17" s="56"/>
+      <c r="T17" s="56"/>
+      <c r="U17" s="56"/>
+      <c r="V17" s="56"/>
+      <c r="W17" s="56"/>
+      <c r="X17" s="56"/>
+      <c r="Y17" s="57"/>
     </row>
     <row r="18" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="53" t="s">
-        <v>454</v>
-      </c>
-      <c r="B18" s="54"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="54"/>
-      <c r="H18" s="54"/>
-      <c r="I18" s="54"/>
-      <c r="J18" s="54"/>
-      <c r="K18" s="54"/>
-      <c r="L18" s="54"/>
-      <c r="M18" s="54"/>
-      <c r="N18" s="54"/>
-      <c r="O18" s="54"/>
-      <c r="P18" s="54"/>
-      <c r="Q18" s="54"/>
-      <c r="R18" s="54"/>
-      <c r="S18" s="54"/>
-      <c r="T18" s="54"/>
-      <c r="U18" s="54"/>
-      <c r="V18" s="54"/>
-      <c r="W18" s="54"/>
-      <c r="X18" s="54"/>
-      <c r="Y18" s="55"/>
+      <c r="A18" s="55" t="s">
+        <v>574</v>
+      </c>
+      <c r="B18" s="56"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="56"/>
+      <c r="O18" s="56"/>
+      <c r="P18" s="56"/>
+      <c r="Q18" s="56"/>
+      <c r="R18" s="56"/>
+      <c r="S18" s="56"/>
+      <c r="T18" s="56"/>
+      <c r="U18" s="56"/>
+      <c r="V18" s="56"/>
+      <c r="W18" s="56"/>
+      <c r="X18" s="56"/>
+      <c r="Y18" s="57"/>
     </row>
     <row r="19" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="53" t="s">
-        <v>455</v>
-      </c>
-      <c r="B19" s="54"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="54"/>
-      <c r="G19" s="54"/>
-      <c r="H19" s="54"/>
-      <c r="I19" s="54"/>
-      <c r="J19" s="54"/>
-      <c r="K19" s="54"/>
-      <c r="L19" s="54"/>
-      <c r="M19" s="54"/>
-      <c r="N19" s="54"/>
-      <c r="O19" s="54"/>
-      <c r="P19" s="54"/>
-      <c r="Q19" s="54"/>
-      <c r="R19" s="54"/>
-      <c r="S19" s="54"/>
-      <c r="T19" s="54"/>
-      <c r="U19" s="54"/>
-      <c r="V19" s="54"/>
-      <c r="W19" s="54"/>
-      <c r="X19" s="54"/>
-      <c r="Y19" s="55"/>
+      <c r="A19" s="55" t="s">
+        <v>575</v>
+      </c>
+      <c r="B19" s="56"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="56"/>
+      <c r="M19" s="56"/>
+      <c r="N19" s="56"/>
+      <c r="O19" s="56"/>
+      <c r="P19" s="56"/>
+      <c r="Q19" s="56"/>
+      <c r="R19" s="56"/>
+      <c r="S19" s="56"/>
+      <c r="T19" s="56"/>
+      <c r="U19" s="56"/>
+      <c r="V19" s="56"/>
+      <c r="W19" s="56"/>
+      <c r="X19" s="56"/>
+      <c r="Y19" s="57"/>
     </row>
     <row r="20" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="53"/>
-      <c r="B20" s="54"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="54"/>
-      <c r="J20" s="54"/>
-      <c r="K20" s="54"/>
-      <c r="L20" s="54"/>
-      <c r="M20" s="54"/>
-      <c r="N20" s="54"/>
-      <c r="O20" s="54"/>
-      <c r="P20" s="54"/>
-      <c r="Q20" s="54"/>
-      <c r="R20" s="54"/>
-      <c r="S20" s="54"/>
-      <c r="T20" s="54"/>
-      <c r="U20" s="54"/>
-      <c r="V20" s="54"/>
-      <c r="W20" s="54"/>
-      <c r="X20" s="54"/>
-      <c r="Y20" s="55"/>
+      <c r="A20" s="55"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="56"/>
+      <c r="O20" s="56"/>
+      <c r="P20" s="56"/>
+      <c r="Q20" s="56"/>
+      <c r="R20" s="56"/>
+      <c r="S20" s="56"/>
+      <c r="T20" s="56"/>
+      <c r="U20" s="56"/>
+      <c r="V20" s="56"/>
+      <c r="W20" s="56"/>
+      <c r="X20" s="56"/>
+      <c r="Y20" s="57"/>
     </row>
     <row r="21" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="53"/>
-      <c r="B21" s="54"/>
-      <c r="C21" s="54"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="54"/>
-      <c r="G21" s="54"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="54"/>
-      <c r="J21" s="54"/>
-      <c r="K21" s="54"/>
-      <c r="L21" s="54"/>
-      <c r="M21" s="54"/>
-      <c r="N21" s="54"/>
-      <c r="O21" s="54"/>
-      <c r="P21" s="54"/>
-      <c r="Q21" s="54"/>
-      <c r="R21" s="54"/>
-      <c r="S21" s="54"/>
-      <c r="T21" s="54"/>
-      <c r="U21" s="54"/>
-      <c r="V21" s="54"/>
-      <c r="W21" s="54"/>
-      <c r="X21" s="54"/>
-      <c r="Y21" s="55"/>
+      <c r="A21" s="55"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="56"/>
+      <c r="K21" s="56"/>
+      <c r="L21" s="56"/>
+      <c r="M21" s="56"/>
+      <c r="N21" s="56"/>
+      <c r="O21" s="56"/>
+      <c r="P21" s="56"/>
+      <c r="Q21" s="56"/>
+      <c r="R21" s="56"/>
+      <c r="S21" s="56"/>
+      <c r="T21" s="56"/>
+      <c r="U21" s="56"/>
+      <c r="V21" s="56"/>
+      <c r="W21" s="56"/>
+      <c r="X21" s="56"/>
+      <c r="Y21" s="57"/>
     </row>
     <row r="22" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="52" t="s">
-        <v>456</v>
-      </c>
-      <c r="B22" s="52"/>
-      <c r="C22" s="52"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="52"/>
-      <c r="G22" s="52"/>
-      <c r="H22" s="52"/>
-      <c r="I22" s="52"/>
-      <c r="J22" s="52"/>
-      <c r="K22" s="52"/>
-      <c r="L22" s="52"/>
-      <c r="M22" s="52"/>
-      <c r="N22" s="52"/>
-      <c r="O22" s="52"/>
-      <c r="P22" s="52"/>
-      <c r="Q22" s="52"/>
-      <c r="R22" s="52"/>
-      <c r="S22" s="52"/>
-      <c r="T22" s="52"/>
-      <c r="U22" s="52"/>
-      <c r="V22" s="52"/>
-      <c r="W22" s="52"/>
-      <c r="X22" s="52"/>
-      <c r="Y22" s="52"/>
+      <c r="A22" s="54" t="s">
+        <v>576</v>
+      </c>
+      <c r="B22" s="54"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="54"/>
+      <c r="K22" s="54"/>
+      <c r="L22" s="54"/>
+      <c r="M22" s="54"/>
+      <c r="N22" s="54"/>
+      <c r="O22" s="54"/>
+      <c r="P22" s="54"/>
+      <c r="Q22" s="54"/>
+      <c r="R22" s="54"/>
+      <c r="S22" s="54"/>
+      <c r="T22" s="54"/>
+      <c r="U22" s="54"/>
+      <c r="V22" s="54"/>
+      <c r="W22" s="54"/>
+      <c r="X22" s="54"/>
+      <c r="Y22" s="54"/>
     </row>
     <row r="23" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="53" t="s">
-        <v>457</v>
-      </c>
-      <c r="B23" s="54"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="54"/>
-      <c r="G23" s="54"/>
-      <c r="H23" s="54"/>
-      <c r="I23" s="54"/>
-      <c r="J23" s="54"/>
-      <c r="K23" s="54"/>
-      <c r="L23" s="54"/>
-      <c r="M23" s="54"/>
-      <c r="N23" s="54"/>
-      <c r="O23" s="54"/>
-      <c r="P23" s="54"/>
-      <c r="Q23" s="54"/>
-      <c r="R23" s="54"/>
-      <c r="S23" s="54"/>
-      <c r="T23" s="54"/>
-      <c r="U23" s="54"/>
-      <c r="V23" s="54"/>
-      <c r="W23" s="54"/>
-      <c r="X23" s="54"/>
-      <c r="Y23" s="55"/>
+      <c r="A23" s="55" t="s">
+        <v>577</v>
+      </c>
+      <c r="B23" s="56"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="56"/>
+      <c r="L23" s="56"/>
+      <c r="M23" s="56"/>
+      <c r="N23" s="56"/>
+      <c r="O23" s="56"/>
+      <c r="P23" s="56"/>
+      <c r="Q23" s="56"/>
+      <c r="R23" s="56"/>
+      <c r="S23" s="56"/>
+      <c r="T23" s="56"/>
+      <c r="U23" s="56"/>
+      <c r="V23" s="56"/>
+      <c r="W23" s="56"/>
+      <c r="X23" s="56"/>
+      <c r="Y23" s="57"/>
     </row>
     <row r="24" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="53" t="s">
-        <v>458</v>
-      </c>
-      <c r="B24" s="54"/>
-      <c r="C24" s="54"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="54"/>
-      <c r="F24" s="54"/>
-      <c r="G24" s="54"/>
-      <c r="H24" s="54"/>
-      <c r="I24" s="54"/>
-      <c r="J24" s="54"/>
-      <c r="K24" s="54"/>
-      <c r="L24" s="54"/>
-      <c r="M24" s="54"/>
-      <c r="N24" s="54"/>
-      <c r="O24" s="54"/>
-      <c r="P24" s="54"/>
-      <c r="Q24" s="54"/>
-      <c r="R24" s="54"/>
-      <c r="S24" s="54"/>
-      <c r="T24" s="54"/>
-      <c r="U24" s="54"/>
-      <c r="V24" s="54"/>
-      <c r="W24" s="54"/>
-      <c r="X24" s="54"/>
-      <c r="Y24" s="55"/>
+      <c r="A24" s="55" t="s">
+        <v>578</v>
+      </c>
+      <c r="B24" s="56"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="56"/>
+      <c r="K24" s="56"/>
+      <c r="L24" s="56"/>
+      <c r="M24" s="56"/>
+      <c r="N24" s="56"/>
+      <c r="O24" s="56"/>
+      <c r="P24" s="56"/>
+      <c r="Q24" s="56"/>
+      <c r="R24" s="56"/>
+      <c r="S24" s="56"/>
+      <c r="T24" s="56"/>
+      <c r="U24" s="56"/>
+      <c r="V24" s="56"/>
+      <c r="W24" s="56"/>
+      <c r="X24" s="56"/>
+      <c r="Y24" s="57"/>
     </row>
     <row r="25" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="53" t="s">
-        <v>459</v>
-      </c>
-      <c r="B25" s="54"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="54"/>
-      <c r="G25" s="54"/>
-      <c r="H25" s="54"/>
-      <c r="I25" s="54"/>
-      <c r="J25" s="54"/>
-      <c r="K25" s="54"/>
-      <c r="L25" s="54"/>
-      <c r="M25" s="54"/>
-      <c r="N25" s="54"/>
-      <c r="O25" s="54"/>
-      <c r="P25" s="54"/>
-      <c r="Q25" s="54"/>
-      <c r="R25" s="54"/>
-      <c r="S25" s="54"/>
-      <c r="T25" s="54"/>
-      <c r="U25" s="54"/>
-      <c r="V25" s="54"/>
-      <c r="W25" s="54"/>
-      <c r="X25" s="54"/>
-      <c r="Y25" s="55"/>
+      <c r="A25" s="55" t="s">
+        <v>579</v>
+      </c>
+      <c r="B25" s="56"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="56"/>
+      <c r="H25" s="56"/>
+      <c r="I25" s="56"/>
+      <c r="J25" s="56"/>
+      <c r="K25" s="56"/>
+      <c r="L25" s="56"/>
+      <c r="M25" s="56"/>
+      <c r="N25" s="56"/>
+      <c r="O25" s="56"/>
+      <c r="P25" s="56"/>
+      <c r="Q25" s="56"/>
+      <c r="R25" s="56"/>
+      <c r="S25" s="56"/>
+      <c r="T25" s="56"/>
+      <c r="U25" s="56"/>
+      <c r="V25" s="56"/>
+      <c r="W25" s="56"/>
+      <c r="X25" s="56"/>
+      <c r="Y25" s="57"/>
     </row>
     <row r="26" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="53" t="s">
-        <v>460</v>
-      </c>
-      <c r="B26" s="54"/>
-      <c r="C26" s="54"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="54"/>
-      <c r="F26" s="54"/>
-      <c r="G26" s="54"/>
-      <c r="H26" s="54"/>
-      <c r="I26" s="54"/>
-      <c r="J26" s="54"/>
-      <c r="K26" s="54"/>
-      <c r="L26" s="54"/>
-      <c r="M26" s="54"/>
-      <c r="N26" s="54"/>
-      <c r="O26" s="54"/>
-      <c r="P26" s="54"/>
-      <c r="Q26" s="54"/>
-      <c r="R26" s="54"/>
-      <c r="S26" s="54"/>
-      <c r="T26" s="54"/>
-      <c r="U26" s="54"/>
-      <c r="V26" s="54"/>
-      <c r="W26" s="54"/>
-      <c r="X26" s="54"/>
-      <c r="Y26" s="55"/>
+      <c r="A26" s="55" t="s">
+        <v>580</v>
+      </c>
+      <c r="B26" s="56"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="56"/>
+      <c r="G26" s="56"/>
+      <c r="H26" s="56"/>
+      <c r="I26" s="56"/>
+      <c r="J26" s="56"/>
+      <c r="K26" s="56"/>
+      <c r="L26" s="56"/>
+      <c r="M26" s="56"/>
+      <c r="N26" s="56"/>
+      <c r="O26" s="56"/>
+      <c r="P26" s="56"/>
+      <c r="Q26" s="56"/>
+      <c r="R26" s="56"/>
+      <c r="S26" s="56"/>
+      <c r="T26" s="56"/>
+      <c r="U26" s="56"/>
+      <c r="V26" s="56"/>
+      <c r="W26" s="56"/>
+      <c r="X26" s="56"/>
+      <c r="Y26" s="57"/>
     </row>
     <row r="27" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="53"/>
-      <c r="B27" s="54"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="54"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="54"/>
-      <c r="I27" s="54"/>
-      <c r="J27" s="54"/>
-      <c r="K27" s="54"/>
-      <c r="L27" s="54"/>
-      <c r="M27" s="54"/>
-      <c r="N27" s="54"/>
-      <c r="O27" s="54"/>
-      <c r="P27" s="54"/>
-      <c r="Q27" s="54"/>
-      <c r="R27" s="54"/>
-      <c r="S27" s="54"/>
-      <c r="T27" s="54"/>
-      <c r="U27" s="54"/>
-      <c r="V27" s="54"/>
-      <c r="W27" s="54"/>
-      <c r="X27" s="54"/>
-      <c r="Y27" s="55"/>
+      <c r="A27" s="55"/>
+      <c r="B27" s="56"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="56"/>
+      <c r="H27" s="56"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="56"/>
+      <c r="K27" s="56"/>
+      <c r="L27" s="56"/>
+      <c r="M27" s="56"/>
+      <c r="N27" s="56"/>
+      <c r="O27" s="56"/>
+      <c r="P27" s="56"/>
+      <c r="Q27" s="56"/>
+      <c r="R27" s="56"/>
+      <c r="S27" s="56"/>
+      <c r="T27" s="56"/>
+      <c r="U27" s="56"/>
+      <c r="V27" s="56"/>
+      <c r="W27" s="56"/>
+      <c r="X27" s="56"/>
+      <c r="Y27" s="57"/>
     </row>
     <row r="28" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="53"/>
-      <c r="B28" s="54"/>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54"/>
-      <c r="G28" s="54"/>
-      <c r="H28" s="54"/>
-      <c r="I28" s="54"/>
-      <c r="J28" s="54"/>
-      <c r="K28" s="54"/>
-      <c r="L28" s="54"/>
-      <c r="M28" s="54"/>
-      <c r="N28" s="54"/>
-      <c r="O28" s="54"/>
-      <c r="P28" s="54"/>
-      <c r="Q28" s="54"/>
-      <c r="R28" s="54"/>
-      <c r="S28" s="54"/>
-      <c r="T28" s="54"/>
-      <c r="U28" s="54"/>
-      <c r="V28" s="54"/>
-      <c r="W28" s="54"/>
-      <c r="X28" s="54"/>
-      <c r="Y28" s="55"/>
+      <c r="A28" s="55"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="56"/>
+      <c r="I28" s="56"/>
+      <c r="J28" s="56"/>
+      <c r="K28" s="56"/>
+      <c r="L28" s="56"/>
+      <c r="M28" s="56"/>
+      <c r="N28" s="56"/>
+      <c r="O28" s="56"/>
+      <c r="P28" s="56"/>
+      <c r="Q28" s="56"/>
+      <c r="R28" s="56"/>
+      <c r="S28" s="56"/>
+      <c r="T28" s="56"/>
+      <c r="U28" s="56"/>
+      <c r="V28" s="56"/>
+      <c r="W28" s="56"/>
+      <c r="X28" s="56"/>
+      <c r="Y28" s="57"/>
     </row>
     <row r="29" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="56" t="s">
-        <v>461</v>
-      </c>
-      <c r="B29" s="54"/>
-      <c r="C29" s="54"/>
-      <c r="D29" s="54"/>
-      <c r="E29" s="54"/>
-      <c r="F29" s="54"/>
-      <c r="G29" s="54"/>
-      <c r="H29" s="54"/>
-      <c r="I29" s="54"/>
-      <c r="J29" s="54"/>
-      <c r="K29" s="54"/>
-      <c r="L29" s="54"/>
-      <c r="M29" s="54"/>
-      <c r="N29" s="54"/>
-      <c r="O29" s="54"/>
-      <c r="P29" s="54"/>
-      <c r="Q29" s="54"/>
-      <c r="R29" s="54"/>
-      <c r="S29" s="54"/>
-      <c r="T29" s="54"/>
-      <c r="U29" s="54"/>
-      <c r="V29" s="54"/>
-      <c r="W29" s="54"/>
-      <c r="X29" s="54"/>
-      <c r="Y29" s="55"/>
+      <c r="A29" s="58" t="s">
+        <v>581</v>
+      </c>
+      <c r="B29" s="56"/>
+      <c r="C29" s="56"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="56"/>
+      <c r="G29" s="56"/>
+      <c r="H29" s="56"/>
+      <c r="I29" s="56"/>
+      <c r="J29" s="56"/>
+      <c r="K29" s="56"/>
+      <c r="L29" s="56"/>
+      <c r="M29" s="56"/>
+      <c r="N29" s="56"/>
+      <c r="O29" s="56"/>
+      <c r="P29" s="56"/>
+      <c r="Q29" s="56"/>
+      <c r="R29" s="56"/>
+      <c r="S29" s="56"/>
+      <c r="T29" s="56"/>
+      <c r="U29" s="56"/>
+      <c r="V29" s="56"/>
+      <c r="W29" s="56"/>
+      <c r="X29" s="56"/>
+      <c r="Y29" s="57"/>
     </row>
     <row r="30" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="52" t="s">
-        <v>462</v>
-      </c>
-      <c r="B30" s="52"/>
-      <c r="C30" s="52"/>
-      <c r="D30" s="52"/>
-      <c r="E30" s="52"/>
-      <c r="F30" s="52"/>
-      <c r="G30" s="52"/>
-      <c r="H30" s="52"/>
-      <c r="I30" s="52"/>
-      <c r="J30" s="52"/>
-      <c r="K30" s="52"/>
-      <c r="L30" s="52"/>
-      <c r="M30" s="52"/>
-      <c r="N30" s="52"/>
-      <c r="O30" s="52"/>
-      <c r="P30" s="52"/>
-      <c r="Q30" s="52"/>
-      <c r="R30" s="52"/>
-      <c r="S30" s="52"/>
-      <c r="T30" s="52"/>
-      <c r="U30" s="52"/>
-      <c r="V30" s="52"/>
-      <c r="W30" s="52"/>
-      <c r="X30" s="52"/>
-      <c r="Y30" s="52"/>
+      <c r="A30" s="54" t="s">
+        <v>582</v>
+      </c>
+      <c r="B30" s="54"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="54"/>
+      <c r="H30" s="54"/>
+      <c r="I30" s="54"/>
+      <c r="J30" s="54"/>
+      <c r="K30" s="54"/>
+      <c r="L30" s="54"/>
+      <c r="M30" s="54"/>
+      <c r="N30" s="54"/>
+      <c r="O30" s="54"/>
+      <c r="P30" s="54"/>
+      <c r="Q30" s="54"/>
+      <c r="R30" s="54"/>
+      <c r="S30" s="54"/>
+      <c r="T30" s="54"/>
+      <c r="U30" s="54"/>
+      <c r="V30" s="54"/>
+      <c r="W30" s="54"/>
+      <c r="X30" s="54"/>
+      <c r="Y30" s="54"/>
     </row>
     <row r="31" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="53" t="s">
-        <v>463</v>
-      </c>
-      <c r="B31" s="54"/>
-      <c r="C31" s="54"/>
-      <c r="D31" s="54"/>
-      <c r="E31" s="54"/>
-      <c r="F31" s="54"/>
-      <c r="G31" s="54"/>
-      <c r="H31" s="54"/>
-      <c r="I31" s="54"/>
-      <c r="J31" s="54"/>
-      <c r="K31" s="54"/>
-      <c r="L31" s="54"/>
-      <c r="M31" s="54"/>
-      <c r="N31" s="54"/>
-      <c r="O31" s="54"/>
-      <c r="P31" s="54"/>
-      <c r="Q31" s="54"/>
-      <c r="R31" s="54"/>
-      <c r="S31" s="54"/>
-      <c r="T31" s="54"/>
-      <c r="U31" s="54"/>
-      <c r="V31" s="54"/>
-      <c r="W31" s="54"/>
-      <c r="X31" s="54"/>
-      <c r="Y31" s="55"/>
+      <c r="A31" s="55" t="s">
+        <v>583</v>
+      </c>
+      <c r="B31" s="56"/>
+      <c r="C31" s="56"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="56"/>
+      <c r="H31" s="56"/>
+      <c r="I31" s="56"/>
+      <c r="J31" s="56"/>
+      <c r="K31" s="56"/>
+      <c r="L31" s="56"/>
+      <c r="M31" s="56"/>
+      <c r="N31" s="56"/>
+      <c r="O31" s="56"/>
+      <c r="P31" s="56"/>
+      <c r="Q31" s="56"/>
+      <c r="R31" s="56"/>
+      <c r="S31" s="56"/>
+      <c r="T31" s="56"/>
+      <c r="U31" s="56"/>
+      <c r="V31" s="56"/>
+      <c r="W31" s="56"/>
+      <c r="X31" s="56"/>
+      <c r="Y31" s="57"/>
     </row>
     <row r="32" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="53" t="s">
-        <v>464</v>
-      </c>
-      <c r="B32" s="54"/>
-      <c r="C32" s="54"/>
-      <c r="D32" s="54"/>
-      <c r="E32" s="54"/>
-      <c r="F32" s="54"/>
-      <c r="G32" s="54"/>
-      <c r="H32" s="54"/>
-      <c r="I32" s="54"/>
-      <c r="J32" s="54"/>
-      <c r="K32" s="54"/>
-      <c r="L32" s="54"/>
-      <c r="M32" s="54"/>
-      <c r="N32" s="54"/>
-      <c r="O32" s="54"/>
-      <c r="P32" s="54"/>
-      <c r="Q32" s="54"/>
-      <c r="R32" s="54"/>
-      <c r="S32" s="54"/>
-      <c r="T32" s="54"/>
-      <c r="U32" s="54"/>
-      <c r="V32" s="54"/>
-      <c r="W32" s="54"/>
-      <c r="X32" s="54"/>
-      <c r="Y32" s="55"/>
+      <c r="A32" s="55" t="s">
+        <v>584</v>
+      </c>
+      <c r="B32" s="56"/>
+      <c r="C32" s="56"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="56"/>
+      <c r="H32" s="56"/>
+      <c r="I32" s="56"/>
+      <c r="J32" s="56"/>
+      <c r="K32" s="56"/>
+      <c r="L32" s="56"/>
+      <c r="M32" s="56"/>
+      <c r="N32" s="56"/>
+      <c r="O32" s="56"/>
+      <c r="P32" s="56"/>
+      <c r="Q32" s="56"/>
+      <c r="R32" s="56"/>
+      <c r="S32" s="56"/>
+      <c r="T32" s="56"/>
+      <c r="U32" s="56"/>
+      <c r="V32" s="56"/>
+      <c r="W32" s="56"/>
+      <c r="X32" s="56"/>
+      <c r="Y32" s="57"/>
     </row>
     <row r="33" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="53"/>
-      <c r="B33" s="54"/>
-      <c r="C33" s="54"/>
-      <c r="D33" s="54"/>
-      <c r="E33" s="54"/>
-      <c r="F33" s="54"/>
-      <c r="G33" s="54"/>
-      <c r="H33" s="54"/>
-      <c r="I33" s="54"/>
-      <c r="J33" s="54"/>
-      <c r="K33" s="54"/>
-      <c r="L33" s="54"/>
-      <c r="M33" s="54"/>
-      <c r="N33" s="54"/>
-      <c r="O33" s="54"/>
-      <c r="P33" s="54"/>
-      <c r="Q33" s="54"/>
-      <c r="R33" s="54"/>
-      <c r="S33" s="54"/>
-      <c r="T33" s="54"/>
-      <c r="U33" s="54"/>
-      <c r="V33" s="54"/>
-      <c r="W33" s="54"/>
-      <c r="X33" s="54"/>
-      <c r="Y33" s="55"/>
+      <c r="A33" s="55"/>
+      <c r="B33" s="56"/>
+      <c r="C33" s="56"/>
+      <c r="D33" s="56"/>
+      <c r="E33" s="56"/>
+      <c r="F33" s="56"/>
+      <c r="G33" s="56"/>
+      <c r="H33" s="56"/>
+      <c r="I33" s="56"/>
+      <c r="J33" s="56"/>
+      <c r="K33" s="56"/>
+      <c r="L33" s="56"/>
+      <c r="M33" s="56"/>
+      <c r="N33" s="56"/>
+      <c r="O33" s="56"/>
+      <c r="P33" s="56"/>
+      <c r="Q33" s="56"/>
+      <c r="R33" s="56"/>
+      <c r="S33" s="56"/>
+      <c r="T33" s="56"/>
+      <c r="U33" s="56"/>
+      <c r="V33" s="56"/>
+      <c r="W33" s="56"/>
+      <c r="X33" s="56"/>
+      <c r="Y33" s="57"/>
     </row>
     <row r="34" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="53"/>
-      <c r="B34" s="54"/>
-      <c r="C34" s="54"/>
-      <c r="D34" s="54"/>
-      <c r="E34" s="54"/>
-      <c r="F34" s="54"/>
-      <c r="G34" s="54"/>
-      <c r="H34" s="54"/>
-      <c r="I34" s="54"/>
-      <c r="J34" s="54"/>
-      <c r="K34" s="54"/>
-      <c r="L34" s="54"/>
-      <c r="M34" s="54"/>
-      <c r="N34" s="54"/>
-      <c r="O34" s="54"/>
-      <c r="P34" s="54"/>
-      <c r="Q34" s="54"/>
-      <c r="R34" s="54"/>
-      <c r="S34" s="54"/>
-      <c r="T34" s="54"/>
-      <c r="U34" s="54"/>
-      <c r="V34" s="54"/>
-      <c r="W34" s="54"/>
-      <c r="X34" s="54"/>
-      <c r="Y34" s="55"/>
+      <c r="A34" s="55"/>
+      <c r="B34" s="56"/>
+      <c r="C34" s="56"/>
+      <c r="D34" s="56"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="56"/>
+      <c r="G34" s="56"/>
+      <c r="H34" s="56"/>
+      <c r="I34" s="56"/>
+      <c r="J34" s="56"/>
+      <c r="K34" s="56"/>
+      <c r="L34" s="56"/>
+      <c r="M34" s="56"/>
+      <c r="N34" s="56"/>
+      <c r="O34" s="56"/>
+      <c r="P34" s="56"/>
+      <c r="Q34" s="56"/>
+      <c r="R34" s="56"/>
+      <c r="S34" s="56"/>
+      <c r="T34" s="56"/>
+      <c r="U34" s="56"/>
+      <c r="V34" s="56"/>
+      <c r="W34" s="56"/>
+      <c r="X34" s="56"/>
+      <c r="Y34" s="57"/>
     </row>
     <row r="35" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="52" t="s">
-        <v>465</v>
-      </c>
-      <c r="B35" s="52"/>
-      <c r="C35" s="52"/>
-      <c r="D35" s="52"/>
-      <c r="E35" s="52"/>
-      <c r="F35" s="52"/>
-      <c r="G35" s="52"/>
-      <c r="H35" s="52"/>
-      <c r="I35" s="52"/>
-      <c r="J35" s="52"/>
-      <c r="K35" s="52"/>
-      <c r="L35" s="52"/>
-      <c r="M35" s="52"/>
-      <c r="N35" s="52"/>
-      <c r="O35" s="52"/>
-      <c r="P35" s="52"/>
-      <c r="Q35" s="52"/>
-      <c r="R35" s="52"/>
-      <c r="S35" s="52"/>
-      <c r="T35" s="52"/>
-      <c r="U35" s="52"/>
-      <c r="V35" s="52"/>
-      <c r="W35" s="52"/>
-      <c r="X35" s="52"/>
-      <c r="Y35" s="52"/>
+      <c r="A35" s="54" t="s">
+        <v>585</v>
+      </c>
+      <c r="B35" s="54"/>
+      <c r="C35" s="54"/>
+      <c r="D35" s="54"/>
+      <c r="E35" s="54"/>
+      <c r="F35" s="54"/>
+      <c r="G35" s="54"/>
+      <c r="H35" s="54"/>
+      <c r="I35" s="54"/>
+      <c r="J35" s="54"/>
+      <c r="K35" s="54"/>
+      <c r="L35" s="54"/>
+      <c r="M35" s="54"/>
+      <c r="N35" s="54"/>
+      <c r="O35" s="54"/>
+      <c r="P35" s="54"/>
+      <c r="Q35" s="54"/>
+      <c r="R35" s="54"/>
+      <c r="S35" s="54"/>
+      <c r="T35" s="54"/>
+      <c r="U35" s="54"/>
+      <c r="V35" s="54"/>
+      <c r="W35" s="54"/>
+      <c r="X35" s="54"/>
+      <c r="Y35" s="54"/>
     </row>
     <row r="36" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="53"/>
-      <c r="B36" s="54"/>
-      <c r="C36" s="54"/>
-      <c r="D36" s="54"/>
-      <c r="E36" s="54"/>
-      <c r="F36" s="54"/>
-      <c r="G36" s="54"/>
-      <c r="H36" s="54"/>
-      <c r="I36" s="54"/>
-      <c r="J36" s="54"/>
-      <c r="K36" s="54"/>
-      <c r="L36" s="54"/>
-      <c r="M36" s="54"/>
-      <c r="N36" s="54"/>
-      <c r="O36" s="54"/>
-      <c r="P36" s="54"/>
-      <c r="Q36" s="54"/>
-      <c r="R36" s="54"/>
-      <c r="S36" s="54"/>
-      <c r="T36" s="54"/>
-      <c r="U36" s="54"/>
-      <c r="V36" s="54"/>
-      <c r="W36" s="54"/>
-      <c r="X36" s="54"/>
-      <c r="Y36" s="55"/>
+      <c r="A36" s="55"/>
+      <c r="B36" s="56"/>
+      <c r="C36" s="56"/>
+      <c r="D36" s="56"/>
+      <c r="E36" s="56"/>
+      <c r="F36" s="56"/>
+      <c r="G36" s="56"/>
+      <c r="H36" s="56"/>
+      <c r="I36" s="56"/>
+      <c r="J36" s="56"/>
+      <c r="K36" s="56"/>
+      <c r="L36" s="56"/>
+      <c r="M36" s="56"/>
+      <c r="N36" s="56"/>
+      <c r="O36" s="56"/>
+      <c r="P36" s="56"/>
+      <c r="Q36" s="56"/>
+      <c r="R36" s="56"/>
+      <c r="S36" s="56"/>
+      <c r="T36" s="56"/>
+      <c r="U36" s="56"/>
+      <c r="V36" s="56"/>
+      <c r="W36" s="56"/>
+      <c r="X36" s="56"/>
+      <c r="Y36" s="57"/>
     </row>
     <row r="37" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="56"/>
-      <c r="B37" s="54"/>
-      <c r="C37" s="54"/>
-      <c r="D37" s="54"/>
-      <c r="E37" s="54"/>
-      <c r="F37" s="54"/>
-      <c r="G37" s="54"/>
-      <c r="H37" s="54"/>
-      <c r="I37" s="54"/>
-      <c r="J37" s="54"/>
-      <c r="K37" s="54"/>
-      <c r="L37" s="54"/>
-      <c r="M37" s="54"/>
-      <c r="N37" s="54"/>
-      <c r="O37" s="54"/>
-      <c r="P37" s="54"/>
-      <c r="Q37" s="54"/>
-      <c r="R37" s="54"/>
-      <c r="S37" s="54"/>
-      <c r="T37" s="54"/>
-      <c r="U37" s="54"/>
-      <c r="V37" s="54"/>
-      <c r="W37" s="54"/>
-      <c r="X37" s="54"/>
-      <c r="Y37" s="55"/>
+      <c r="A37" s="58"/>
+      <c r="B37" s="56"/>
+      <c r="C37" s="56"/>
+      <c r="D37" s="56"/>
+      <c r="E37" s="56"/>
+      <c r="F37" s="56"/>
+      <c r="G37" s="56"/>
+      <c r="H37" s="56"/>
+      <c r="I37" s="56"/>
+      <c r="J37" s="56"/>
+      <c r="K37" s="56"/>
+      <c r="L37" s="56"/>
+      <c r="M37" s="56"/>
+      <c r="N37" s="56"/>
+      <c r="O37" s="56"/>
+      <c r="P37" s="56"/>
+      <c r="Q37" s="56"/>
+      <c r="R37" s="56"/>
+      <c r="S37" s="56"/>
+      <c r="T37" s="56"/>
+      <c r="U37" s="56"/>
+      <c r="V37" s="56"/>
+      <c r="W37" s="56"/>
+      <c r="X37" s="56"/>
+      <c r="Y37" s="57"/>
     </row>
     <row r="38" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="56"/>
-      <c r="B38" s="54"/>
-      <c r="C38" s="54"/>
-      <c r="D38" s="54"/>
-      <c r="E38" s="54"/>
-      <c r="F38" s="54"/>
-      <c r="G38" s="54"/>
-      <c r="H38" s="54"/>
-      <c r="I38" s="54"/>
-      <c r="J38" s="54"/>
-      <c r="K38" s="54"/>
-      <c r="L38" s="54"/>
-      <c r="M38" s="54"/>
-      <c r="N38" s="54"/>
-      <c r="O38" s="54"/>
-      <c r="P38" s="54"/>
-      <c r="Q38" s="54"/>
-      <c r="R38" s="54"/>
-      <c r="S38" s="54"/>
-      <c r="T38" s="54"/>
-      <c r="U38" s="54"/>
-      <c r="V38" s="54"/>
-      <c r="W38" s="54"/>
-      <c r="X38" s="54"/>
-      <c r="Y38" s="55"/>
+      <c r="A38" s="58"/>
+      <c r="B38" s="56"/>
+      <c r="C38" s="56"/>
+      <c r="D38" s="56"/>
+      <c r="E38" s="56"/>
+      <c r="F38" s="56"/>
+      <c r="G38" s="56"/>
+      <c r="H38" s="56"/>
+      <c r="I38" s="56"/>
+      <c r="J38" s="56"/>
+      <c r="K38" s="56"/>
+      <c r="L38" s="56"/>
+      <c r="M38" s="56"/>
+      <c r="N38" s="56"/>
+      <c r="O38" s="56"/>
+      <c r="P38" s="56"/>
+      <c r="Q38" s="56"/>
+      <c r="R38" s="56"/>
+      <c r="S38" s="56"/>
+      <c r="T38" s="56"/>
+      <c r="U38" s="56"/>
+      <c r="V38" s="56"/>
+      <c r="W38" s="56"/>
+      <c r="X38" s="56"/>
+      <c r="Y38" s="57"/>
     </row>
     <row r="39" customFormat="false" ht="66.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="56" t="s">
-        <v>466</v>
-      </c>
-      <c r="B39" s="54"/>
-      <c r="C39" s="54"/>
-      <c r="D39" s="54"/>
-      <c r="E39" s="54"/>
-      <c r="F39" s="54"/>
-      <c r="G39" s="54"/>
-      <c r="H39" s="54"/>
-      <c r="I39" s="54"/>
-      <c r="J39" s="54"/>
-      <c r="K39" s="54"/>
-      <c r="L39" s="54"/>
-      <c r="M39" s="54"/>
-      <c r="N39" s="54"/>
-      <c r="O39" s="54"/>
-      <c r="P39" s="54"/>
-      <c r="Q39" s="54"/>
-      <c r="R39" s="54"/>
-      <c r="S39" s="54"/>
-      <c r="T39" s="54"/>
-      <c r="U39" s="54"/>
-      <c r="V39" s="54"/>
-      <c r="W39" s="54"/>
-      <c r="X39" s="54"/>
-      <c r="Y39" s="55"/>
+      <c r="A39" s="58" t="s">
+        <v>586</v>
+      </c>
+      <c r="B39" s="56"/>
+      <c r="C39" s="56"/>
+      <c r="D39" s="56"/>
+      <c r="E39" s="56"/>
+      <c r="F39" s="56"/>
+      <c r="G39" s="56"/>
+      <c r="H39" s="56"/>
+      <c r="I39" s="56"/>
+      <c r="J39" s="56"/>
+      <c r="K39" s="56"/>
+      <c r="L39" s="56"/>
+      <c r="M39" s="56"/>
+      <c r="N39" s="56"/>
+      <c r="O39" s="56"/>
+      <c r="P39" s="56"/>
+      <c r="Q39" s="56"/>
+      <c r="R39" s="56"/>
+      <c r="S39" s="56"/>
+      <c r="T39" s="56"/>
+      <c r="U39" s="56"/>
+      <c r="V39" s="56"/>
+      <c r="W39" s="56"/>
+      <c r="X39" s="56"/>
+      <c r="Y39" s="57"/>
     </row>
     <row r="40" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="56" t="s">
-        <v>467</v>
-      </c>
-      <c r="B40" s="54"/>
-      <c r="C40" s="54"/>
-      <c r="D40" s="54"/>
-      <c r="E40" s="54"/>
-      <c r="F40" s="54"/>
-      <c r="G40" s="54"/>
-      <c r="H40" s="54"/>
-      <c r="I40" s="54"/>
-      <c r="J40" s="54"/>
-      <c r="K40" s="54"/>
-      <c r="L40" s="54"/>
-      <c r="M40" s="54"/>
-      <c r="N40" s="54"/>
-      <c r="O40" s="54"/>
-      <c r="P40" s="54"/>
-      <c r="Q40" s="54"/>
-      <c r="R40" s="54"/>
-      <c r="S40" s="54"/>
-      <c r="T40" s="54"/>
-      <c r="U40" s="54"/>
-      <c r="V40" s="54"/>
-      <c r="W40" s="54"/>
-      <c r="X40" s="54"/>
-      <c r="Y40" s="55"/>
+      <c r="A40" s="58" t="s">
+        <v>587</v>
+      </c>
+      <c r="B40" s="56"/>
+      <c r="C40" s="56"/>
+      <c r="D40" s="56"/>
+      <c r="E40" s="56"/>
+      <c r="F40" s="56"/>
+      <c r="G40" s="56"/>
+      <c r="H40" s="56"/>
+      <c r="I40" s="56"/>
+      <c r="J40" s="56"/>
+      <c r="K40" s="56"/>
+      <c r="L40" s="56"/>
+      <c r="M40" s="56"/>
+      <c r="N40" s="56"/>
+      <c r="O40" s="56"/>
+      <c r="P40" s="56"/>
+      <c r="Q40" s="56"/>
+      <c r="R40" s="56"/>
+      <c r="S40" s="56"/>
+      <c r="T40" s="56"/>
+      <c r="U40" s="56"/>
+      <c r="V40" s="56"/>
+      <c r="W40" s="56"/>
+      <c r="X40" s="56"/>
+      <c r="Y40" s="57"/>
     </row>
     <row r="41" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="52" t="s">
-        <v>468</v>
-      </c>
-      <c r="B41" s="52"/>
-      <c r="C41" s="52"/>
-      <c r="D41" s="52"/>
-      <c r="E41" s="52"/>
-      <c r="F41" s="52"/>
-      <c r="G41" s="52"/>
-      <c r="H41" s="52"/>
-      <c r="I41" s="52"/>
-      <c r="J41" s="52"/>
-      <c r="K41" s="52"/>
-      <c r="L41" s="52"/>
-      <c r="M41" s="52"/>
-      <c r="N41" s="52"/>
-      <c r="O41" s="52"/>
-      <c r="P41" s="52"/>
-      <c r="Q41" s="52"/>
-      <c r="R41" s="52"/>
-      <c r="S41" s="52"/>
-      <c r="T41" s="52"/>
-      <c r="U41" s="52"/>
-      <c r="V41" s="52"/>
-      <c r="W41" s="52"/>
-      <c r="X41" s="52"/>
-      <c r="Y41" s="52"/>
+      <c r="A41" s="54" t="s">
+        <v>588</v>
+      </c>
+      <c r="B41" s="54"/>
+      <c r="C41" s="54"/>
+      <c r="D41" s="54"/>
+      <c r="E41" s="54"/>
+      <c r="F41" s="54"/>
+      <c r="G41" s="54"/>
+      <c r="H41" s="54"/>
+      <c r="I41" s="54"/>
+      <c r="J41" s="54"/>
+      <c r="K41" s="54"/>
+      <c r="L41" s="54"/>
+      <c r="M41" s="54"/>
+      <c r="N41" s="54"/>
+      <c r="O41" s="54"/>
+      <c r="P41" s="54"/>
+      <c r="Q41" s="54"/>
+      <c r="R41" s="54"/>
+      <c r="S41" s="54"/>
+      <c r="T41" s="54"/>
+      <c r="U41" s="54"/>
+      <c r="V41" s="54"/>
+      <c r="W41" s="54"/>
+      <c r="X41" s="54"/>
+      <c r="Y41" s="54"/>
     </row>
     <row r="42" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="53" t="s">
-        <v>469</v>
-      </c>
-      <c r="B42" s="54"/>
-      <c r="C42" s="54"/>
-      <c r="D42" s="54"/>
-      <c r="E42" s="54"/>
-      <c r="F42" s="54"/>
-      <c r="G42" s="54"/>
-      <c r="H42" s="54"/>
-      <c r="I42" s="54"/>
-      <c r="J42" s="54"/>
-      <c r="K42" s="54"/>
-      <c r="L42" s="54"/>
-      <c r="M42" s="54"/>
-      <c r="N42" s="54"/>
-      <c r="O42" s="54"/>
-      <c r="P42" s="54"/>
-      <c r="Q42" s="54"/>
-      <c r="R42" s="54"/>
-      <c r="S42" s="54"/>
-      <c r="T42" s="54"/>
-      <c r="U42" s="54"/>
-      <c r="V42" s="54"/>
-      <c r="W42" s="54"/>
-      <c r="X42" s="54"/>
-      <c r="Y42" s="55"/>
+      <c r="A42" s="55" t="s">
+        <v>589</v>
+      </c>
+      <c r="B42" s="56"/>
+      <c r="C42" s="56"/>
+      <c r="D42" s="56"/>
+      <c r="E42" s="56"/>
+      <c r="F42" s="56"/>
+      <c r="G42" s="56"/>
+      <c r="H42" s="56"/>
+      <c r="I42" s="56"/>
+      <c r="J42" s="56"/>
+      <c r="K42" s="56"/>
+      <c r="L42" s="56"/>
+      <c r="M42" s="56"/>
+      <c r="N42" s="56"/>
+      <c r="O42" s="56"/>
+      <c r="P42" s="56"/>
+      <c r="Q42" s="56"/>
+      <c r="R42" s="56"/>
+      <c r="S42" s="56"/>
+      <c r="T42" s="56"/>
+      <c r="U42" s="56"/>
+      <c r="V42" s="56"/>
+      <c r="W42" s="56"/>
+      <c r="X42" s="56"/>
+      <c r="Y42" s="57"/>
     </row>
     <row r="43" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="53" t="s">
-        <v>470</v>
-      </c>
-      <c r="B43" s="54"/>
-      <c r="C43" s="54"/>
-      <c r="D43" s="54"/>
-      <c r="E43" s="54"/>
-      <c r="F43" s="54"/>
-      <c r="G43" s="54"/>
-      <c r="H43" s="54"/>
-      <c r="I43" s="54"/>
-      <c r="J43" s="54"/>
-      <c r="K43" s="54"/>
-      <c r="L43" s="54"/>
-      <c r="M43" s="54"/>
-      <c r="N43" s="54"/>
-      <c r="O43" s="54"/>
-      <c r="P43" s="54"/>
-      <c r="Q43" s="54"/>
-      <c r="R43" s="54"/>
-      <c r="S43" s="54"/>
-      <c r="T43" s="54"/>
-      <c r="U43" s="54"/>
-      <c r="V43" s="54"/>
-      <c r="W43" s="54"/>
-      <c r="X43" s="54"/>
-      <c r="Y43" s="55"/>
+      <c r="A43" s="55" t="s">
+        <v>590</v>
+      </c>
+      <c r="B43" s="56"/>
+      <c r="C43" s="56"/>
+      <c r="D43" s="56"/>
+      <c r="E43" s="56"/>
+      <c r="F43" s="56"/>
+      <c r="G43" s="56"/>
+      <c r="H43" s="56"/>
+      <c r="I43" s="56"/>
+      <c r="J43" s="56"/>
+      <c r="K43" s="56"/>
+      <c r="L43" s="56"/>
+      <c r="M43" s="56"/>
+      <c r="N43" s="56"/>
+      <c r="O43" s="56"/>
+      <c r="P43" s="56"/>
+      <c r="Q43" s="56"/>
+      <c r="R43" s="56"/>
+      <c r="S43" s="56"/>
+      <c r="T43" s="56"/>
+      <c r="U43" s="56"/>
+      <c r="V43" s="56"/>
+      <c r="W43" s="56"/>
+      <c r="X43" s="56"/>
+      <c r="Y43" s="57"/>
     </row>
     <row r="44" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="53" t="s">
-        <v>471</v>
-      </c>
-      <c r="B44" s="54"/>
-      <c r="C44" s="54"/>
-      <c r="D44" s="54"/>
-      <c r="E44" s="54"/>
-      <c r="F44" s="54"/>
-      <c r="G44" s="54"/>
-      <c r="H44" s="54"/>
-      <c r="I44" s="54"/>
-      <c r="J44" s="54"/>
-      <c r="K44" s="54"/>
-      <c r="L44" s="54"/>
-      <c r="M44" s="54"/>
-      <c r="N44" s="54"/>
-      <c r="O44" s="54"/>
-      <c r="P44" s="54"/>
-      <c r="Q44" s="54"/>
-      <c r="R44" s="54"/>
-      <c r="S44" s="54"/>
-      <c r="T44" s="54"/>
-      <c r="U44" s="54"/>
-      <c r="V44" s="54"/>
-      <c r="W44" s="54"/>
-      <c r="X44" s="54"/>
-      <c r="Y44" s="55"/>
+      <c r="A44" s="55" t="s">
+        <v>591</v>
+      </c>
+      <c r="B44" s="56"/>
+      <c r="C44" s="56"/>
+      <c r="D44" s="56"/>
+      <c r="E44" s="56"/>
+      <c r="F44" s="56"/>
+      <c r="G44" s="56"/>
+      <c r="H44" s="56"/>
+      <c r="I44" s="56"/>
+      <c r="J44" s="56"/>
+      <c r="K44" s="56"/>
+      <c r="L44" s="56"/>
+      <c r="M44" s="56"/>
+      <c r="N44" s="56"/>
+      <c r="O44" s="56"/>
+      <c r="P44" s="56"/>
+      <c r="Q44" s="56"/>
+      <c r="R44" s="56"/>
+      <c r="S44" s="56"/>
+      <c r="T44" s="56"/>
+      <c r="U44" s="56"/>
+      <c r="V44" s="56"/>
+      <c r="W44" s="56"/>
+      <c r="X44" s="56"/>
+      <c r="Y44" s="57"/>
     </row>
     <row r="45" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="53"/>
-      <c r="B45" s="54"/>
-      <c r="C45" s="54"/>
-      <c r="D45" s="54"/>
-      <c r="E45" s="54"/>
-      <c r="F45" s="54"/>
-      <c r="G45" s="54"/>
-      <c r="H45" s="54"/>
-      <c r="I45" s="54"/>
-      <c r="J45" s="54"/>
-      <c r="K45" s="54"/>
-      <c r="L45" s="54"/>
-      <c r="M45" s="54"/>
-      <c r="N45" s="54"/>
-      <c r="O45" s="54"/>
-      <c r="P45" s="54"/>
-      <c r="Q45" s="54"/>
-      <c r="R45" s="54"/>
-      <c r="S45" s="54"/>
-      <c r="T45" s="54"/>
-      <c r="U45" s="54"/>
-      <c r="V45" s="54"/>
-      <c r="W45" s="54"/>
-      <c r="X45" s="54"/>
-      <c r="Y45" s="55"/>
+      <c r="A45" s="55"/>
+      <c r="B45" s="56"/>
+      <c r="C45" s="56"/>
+      <c r="D45" s="56"/>
+      <c r="E45" s="56"/>
+      <c r="F45" s="56"/>
+      <c r="G45" s="56"/>
+      <c r="H45" s="56"/>
+      <c r="I45" s="56"/>
+      <c r="J45" s="56"/>
+      <c r="K45" s="56"/>
+      <c r="L45" s="56"/>
+      <c r="M45" s="56"/>
+      <c r="N45" s="56"/>
+      <c r="O45" s="56"/>
+      <c r="P45" s="56"/>
+      <c r="Q45" s="56"/>
+      <c r="R45" s="56"/>
+      <c r="S45" s="56"/>
+      <c r="T45" s="56"/>
+      <c r="U45" s="56"/>
+      <c r="V45" s="56"/>
+      <c r="W45" s="56"/>
+      <c r="X45" s="56"/>
+      <c r="Y45" s="57"/>
     </row>
     <row r="46" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="53"/>
-      <c r="B46" s="54"/>
-      <c r="C46" s="54"/>
-      <c r="D46" s="54"/>
-      <c r="E46" s="54"/>
-      <c r="F46" s="54"/>
-      <c r="G46" s="54"/>
-      <c r="H46" s="54"/>
-      <c r="I46" s="54"/>
-      <c r="J46" s="54"/>
-      <c r="K46" s="54"/>
-      <c r="L46" s="54"/>
-      <c r="M46" s="54"/>
-      <c r="N46" s="54"/>
-      <c r="O46" s="54"/>
-      <c r="P46" s="54"/>
-      <c r="Q46" s="54"/>
-      <c r="R46" s="54"/>
-      <c r="S46" s="54"/>
-      <c r="T46" s="54"/>
-      <c r="U46" s="54"/>
-      <c r="V46" s="54"/>
-      <c r="W46" s="54"/>
-      <c r="X46" s="54"/>
-      <c r="Y46" s="55"/>
+      <c r="A46" s="55"/>
+      <c r="B46" s="56"/>
+      <c r="C46" s="56"/>
+      <c r="D46" s="56"/>
+      <c r="E46" s="56"/>
+      <c r="F46" s="56"/>
+      <c r="G46" s="56"/>
+      <c r="H46" s="56"/>
+      <c r="I46" s="56"/>
+      <c r="J46" s="56"/>
+      <c r="K46" s="56"/>
+      <c r="L46" s="56"/>
+      <c r="M46" s="56"/>
+      <c r="N46" s="56"/>
+      <c r="O46" s="56"/>
+      <c r="P46" s="56"/>
+      <c r="Q46" s="56"/>
+      <c r="R46" s="56"/>
+      <c r="S46" s="56"/>
+      <c r="T46" s="56"/>
+      <c r="U46" s="56"/>
+      <c r="V46" s="56"/>
+      <c r="W46" s="56"/>
+      <c r="X46" s="56"/>
+      <c r="Y46" s="57"/>
     </row>
     <row r="47" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="52" t="s">
-        <v>472</v>
-      </c>
-      <c r="B47" s="52"/>
-      <c r="C47" s="52"/>
-      <c r="D47" s="52"/>
-      <c r="E47" s="52"/>
-      <c r="F47" s="52"/>
-      <c r="G47" s="52"/>
-      <c r="H47" s="52"/>
-      <c r="I47" s="52"/>
-      <c r="J47" s="52"/>
-      <c r="K47" s="52"/>
-      <c r="L47" s="52"/>
-      <c r="M47" s="52"/>
-      <c r="N47" s="52"/>
-      <c r="O47" s="52"/>
-      <c r="P47" s="52"/>
-      <c r="Q47" s="52"/>
-      <c r="R47" s="52"/>
-      <c r="S47" s="52"/>
-      <c r="T47" s="52"/>
-      <c r="U47" s="52"/>
-      <c r="V47" s="52"/>
-      <c r="W47" s="52"/>
-      <c r="X47" s="52"/>
-      <c r="Y47" s="52"/>
+      <c r="A47" s="54" t="s">
+        <v>592</v>
+      </c>
+      <c r="B47" s="54"/>
+      <c r="C47" s="54"/>
+      <c r="D47" s="54"/>
+      <c r="E47" s="54"/>
+      <c r="F47" s="54"/>
+      <c r="G47" s="54"/>
+      <c r="H47" s="54"/>
+      <c r="I47" s="54"/>
+      <c r="J47" s="54"/>
+      <c r="K47" s="54"/>
+      <c r="L47" s="54"/>
+      <c r="M47" s="54"/>
+      <c r="N47" s="54"/>
+      <c r="O47" s="54"/>
+      <c r="P47" s="54"/>
+      <c r="Q47" s="54"/>
+      <c r="R47" s="54"/>
+      <c r="S47" s="54"/>
+      <c r="T47" s="54"/>
+      <c r="U47" s="54"/>
+      <c r="V47" s="54"/>
+      <c r="W47" s="54"/>
+      <c r="X47" s="54"/>
+      <c r="Y47" s="54"/>
     </row>
     <row r="48" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="53"/>
-      <c r="B48" s="54"/>
-      <c r="C48" s="54"/>
-      <c r="D48" s="54"/>
-      <c r="E48" s="54"/>
-      <c r="F48" s="54"/>
-      <c r="G48" s="54"/>
-      <c r="H48" s="54"/>
-      <c r="I48" s="54"/>
-      <c r="J48" s="54"/>
-      <c r="K48" s="54"/>
-      <c r="L48" s="54"/>
-      <c r="M48" s="54"/>
-      <c r="N48" s="54"/>
-      <c r="O48" s="54"/>
-      <c r="P48" s="54"/>
-      <c r="Q48" s="54"/>
-      <c r="R48" s="54"/>
-      <c r="S48" s="54"/>
-      <c r="T48" s="54"/>
-      <c r="U48" s="54"/>
-      <c r="V48" s="54"/>
-      <c r="W48" s="54"/>
-      <c r="X48" s="54"/>
-      <c r="Y48" s="55"/>
+      <c r="A48" s="55"/>
+      <c r="B48" s="56"/>
+      <c r="C48" s="56"/>
+      <c r="D48" s="56"/>
+      <c r="E48" s="56"/>
+      <c r="F48" s="56"/>
+      <c r="G48" s="56"/>
+      <c r="H48" s="56"/>
+      <c r="I48" s="56"/>
+      <c r="J48" s="56"/>
+      <c r="K48" s="56"/>
+      <c r="L48" s="56"/>
+      <c r="M48" s="56"/>
+      <c r="N48" s="56"/>
+      <c r="O48" s="56"/>
+      <c r="P48" s="56"/>
+      <c r="Q48" s="56"/>
+      <c r="R48" s="56"/>
+      <c r="S48" s="56"/>
+      <c r="T48" s="56"/>
+      <c r="U48" s="56"/>
+      <c r="V48" s="56"/>
+      <c r="W48" s="56"/>
+      <c r="X48" s="56"/>
+      <c r="Y48" s="57"/>
     </row>
     <row r="49" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="53"/>
-      <c r="B49" s="54"/>
-      <c r="C49" s="54"/>
-      <c r="D49" s="54"/>
-      <c r="E49" s="54"/>
-      <c r="F49" s="54"/>
-      <c r="G49" s="54"/>
-      <c r="H49" s="54"/>
-      <c r="I49" s="54"/>
-      <c r="J49" s="54"/>
-      <c r="K49" s="54"/>
-      <c r="L49" s="54"/>
-      <c r="M49" s="54"/>
-      <c r="N49" s="54"/>
-      <c r="O49" s="54"/>
-      <c r="P49" s="54"/>
-      <c r="Q49" s="54"/>
-      <c r="R49" s="54"/>
-      <c r="S49" s="54"/>
-      <c r="T49" s="54"/>
-      <c r="U49" s="54"/>
-      <c r="V49" s="54"/>
-      <c r="W49" s="54"/>
-      <c r="X49" s="54"/>
-      <c r="Y49" s="55"/>
+      <c r="A49" s="55"/>
+      <c r="B49" s="56"/>
+      <c r="C49" s="56"/>
+      <c r="D49" s="56"/>
+      <c r="E49" s="56"/>
+      <c r="F49" s="56"/>
+      <c r="G49" s="56"/>
+      <c r="H49" s="56"/>
+      <c r="I49" s="56"/>
+      <c r="J49" s="56"/>
+      <c r="K49" s="56"/>
+      <c r="L49" s="56"/>
+      <c r="M49" s="56"/>
+      <c r="N49" s="56"/>
+      <c r="O49" s="56"/>
+      <c r="P49" s="56"/>
+      <c r="Q49" s="56"/>
+      <c r="R49" s="56"/>
+      <c r="S49" s="56"/>
+      <c r="T49" s="56"/>
+      <c r="U49" s="56"/>
+      <c r="V49" s="56"/>
+      <c r="W49" s="56"/>
+      <c r="X49" s="56"/>
+      <c r="Y49" s="57"/>
     </row>
     <row r="50" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="53" t="s">
-        <v>473</v>
-      </c>
-      <c r="B50" s="54"/>
-      <c r="C50" s="54"/>
-      <c r="D50" s="54"/>
-      <c r="E50" s="54"/>
-      <c r="F50" s="54"/>
-      <c r="G50" s="54"/>
-      <c r="H50" s="54"/>
-      <c r="I50" s="54"/>
-      <c r="J50" s="54"/>
-      <c r="K50" s="54"/>
-      <c r="L50" s="54"/>
-      <c r="M50" s="54"/>
-      <c r="N50" s="54"/>
-      <c r="O50" s="54"/>
-      <c r="P50" s="54"/>
-      <c r="Q50" s="54"/>
-      <c r="R50" s="54"/>
-      <c r="S50" s="54"/>
-      <c r="T50" s="54"/>
-      <c r="U50" s="54"/>
-      <c r="V50" s="54"/>
-      <c r="W50" s="54"/>
-      <c r="X50" s="54"/>
-      <c r="Y50" s="55"/>
+      <c r="A50" s="55" t="s">
+        <v>593</v>
+      </c>
+      <c r="B50" s="56"/>
+      <c r="C50" s="56"/>
+      <c r="D50" s="56"/>
+      <c r="E50" s="56"/>
+      <c r="F50" s="56"/>
+      <c r="G50" s="56"/>
+      <c r="H50" s="56"/>
+      <c r="I50" s="56"/>
+      <c r="J50" s="56"/>
+      <c r="K50" s="56"/>
+      <c r="L50" s="56"/>
+      <c r="M50" s="56"/>
+      <c r="N50" s="56"/>
+      <c r="O50" s="56"/>
+      <c r="P50" s="56"/>
+      <c r="Q50" s="56"/>
+      <c r="R50" s="56"/>
+      <c r="S50" s="56"/>
+      <c r="T50" s="56"/>
+      <c r="U50" s="56"/>
+      <c r="V50" s="56"/>
+      <c r="W50" s="56"/>
+      <c r="X50" s="56"/>
+      <c r="Y50" s="57"/>
     </row>
     <row r="51" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="52" t="s">
-        <v>474</v>
-      </c>
-      <c r="B51" s="52"/>
-      <c r="C51" s="52"/>
-      <c r="D51" s="52"/>
-      <c r="E51" s="52"/>
-      <c r="F51" s="52"/>
-      <c r="G51" s="52"/>
-      <c r="H51" s="52"/>
-      <c r="I51" s="52"/>
-      <c r="J51" s="52"/>
-      <c r="K51" s="52"/>
-      <c r="L51" s="52"/>
-      <c r="M51" s="52"/>
-      <c r="N51" s="52"/>
-      <c r="O51" s="52"/>
-      <c r="P51" s="52"/>
-      <c r="Q51" s="52"/>
-      <c r="R51" s="52"/>
-      <c r="S51" s="52"/>
-      <c r="T51" s="52"/>
-      <c r="U51" s="52"/>
-      <c r="V51" s="52"/>
-      <c r="W51" s="52"/>
-      <c r="X51" s="52"/>
-      <c r="Y51" s="52"/>
+      <c r="A51" s="54" t="s">
+        <v>594</v>
+      </c>
+      <c r="B51" s="54"/>
+      <c r="C51" s="54"/>
+      <c r="D51" s="54"/>
+      <c r="E51" s="54"/>
+      <c r="F51" s="54"/>
+      <c r="G51" s="54"/>
+      <c r="H51" s="54"/>
+      <c r="I51" s="54"/>
+      <c r="J51" s="54"/>
+      <c r="K51" s="54"/>
+      <c r="L51" s="54"/>
+      <c r="M51" s="54"/>
+      <c r="N51" s="54"/>
+      <c r="O51" s="54"/>
+      <c r="P51" s="54"/>
+      <c r="Q51" s="54"/>
+      <c r="R51" s="54"/>
+      <c r="S51" s="54"/>
+      <c r="T51" s="54"/>
+      <c r="U51" s="54"/>
+      <c r="V51" s="54"/>
+      <c r="W51" s="54"/>
+      <c r="X51" s="54"/>
+      <c r="Y51" s="54"/>
     </row>
     <row r="52" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="57" t="s">
-        <v>475</v>
-      </c>
-      <c r="B52" s="54"/>
-      <c r="C52" s="54"/>
-      <c r="D52" s="54"/>
-      <c r="E52" s="54"/>
-      <c r="F52" s="54"/>
-      <c r="G52" s="54"/>
-      <c r="H52" s="54"/>
-      <c r="I52" s="54"/>
-      <c r="J52" s="54"/>
-      <c r="K52" s="54"/>
-      <c r="L52" s="54"/>
-      <c r="M52" s="54"/>
-      <c r="N52" s="54"/>
-      <c r="O52" s="54"/>
-      <c r="P52" s="54"/>
-      <c r="Q52" s="54"/>
-      <c r="R52" s="54"/>
-      <c r="S52" s="54"/>
-      <c r="T52" s="54"/>
-      <c r="U52" s="54"/>
-      <c r="V52" s="54"/>
-      <c r="W52" s="54"/>
-      <c r="X52" s="54"/>
-      <c r="Y52" s="55"/>
+      <c r="A52" s="59" t="s">
+        <v>595</v>
+      </c>
+      <c r="B52" s="56"/>
+      <c r="C52" s="56"/>
+      <c r="D52" s="56"/>
+      <c r="E52" s="56"/>
+      <c r="F52" s="56"/>
+      <c r="G52" s="56"/>
+      <c r="H52" s="56"/>
+      <c r="I52" s="56"/>
+      <c r="J52" s="56"/>
+      <c r="K52" s="56"/>
+      <c r="L52" s="56"/>
+      <c r="M52" s="56"/>
+      <c r="N52" s="56"/>
+      <c r="O52" s="56"/>
+      <c r="P52" s="56"/>
+      <c r="Q52" s="56"/>
+      <c r="R52" s="56"/>
+      <c r="S52" s="56"/>
+      <c r="T52" s="56"/>
+      <c r="U52" s="56"/>
+      <c r="V52" s="56"/>
+      <c r="W52" s="56"/>
+      <c r="X52" s="56"/>
+      <c r="Y52" s="57"/>
     </row>
     <row r="53" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="57" t="s">
-        <v>476</v>
-      </c>
-      <c r="B53" s="54"/>
-      <c r="C53" s="54"/>
-      <c r="D53" s="54"/>
-      <c r="E53" s="54"/>
-      <c r="F53" s="54"/>
-      <c r="G53" s="54"/>
-      <c r="H53" s="54"/>
-      <c r="I53" s="54"/>
-      <c r="J53" s="54"/>
-      <c r="K53" s="54"/>
-      <c r="L53" s="54"/>
-      <c r="M53" s="54"/>
-      <c r="N53" s="54"/>
-      <c r="O53" s="54"/>
-      <c r="P53" s="54"/>
-      <c r="Q53" s="54"/>
-      <c r="R53" s="54"/>
-      <c r="S53" s="54"/>
-      <c r="T53" s="54"/>
-      <c r="U53" s="54"/>
-      <c r="V53" s="54"/>
-      <c r="W53" s="54"/>
-      <c r="X53" s="54"/>
-      <c r="Y53" s="55"/>
+      <c r="A53" s="59" t="s">
+        <v>596</v>
+      </c>
+      <c r="B53" s="56"/>
+      <c r="C53" s="56"/>
+      <c r="D53" s="56"/>
+      <c r="E53" s="56"/>
+      <c r="F53" s="56"/>
+      <c r="G53" s="56"/>
+      <c r="H53" s="56"/>
+      <c r="I53" s="56"/>
+      <c r="J53" s="56"/>
+      <c r="K53" s="56"/>
+      <c r="L53" s="56"/>
+      <c r="M53" s="56"/>
+      <c r="N53" s="56"/>
+      <c r="O53" s="56"/>
+      <c r="P53" s="56"/>
+      <c r="Q53" s="56"/>
+      <c r="R53" s="56"/>
+      <c r="S53" s="56"/>
+      <c r="T53" s="56"/>
+      <c r="U53" s="56"/>
+      <c r="V53" s="56"/>
+      <c r="W53" s="56"/>
+      <c r="X53" s="56"/>
+      <c r="Y53" s="57"/>
     </row>
     <row r="54" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="57" t="s">
-        <v>477</v>
-      </c>
-      <c r="B54" s="54"/>
-      <c r="C54" s="54"/>
-      <c r="D54" s="54"/>
-      <c r="E54" s="54"/>
-      <c r="F54" s="54"/>
-      <c r="G54" s="54"/>
-      <c r="H54" s="54"/>
-      <c r="I54" s="54"/>
-      <c r="J54" s="54"/>
-      <c r="K54" s="54"/>
-      <c r="L54" s="54"/>
-      <c r="M54" s="54"/>
-      <c r="N54" s="54"/>
-      <c r="O54" s="54"/>
-      <c r="P54" s="54"/>
-      <c r="Q54" s="54"/>
-      <c r="R54" s="54"/>
-      <c r="S54" s="54"/>
-      <c r="T54" s="54"/>
-      <c r="U54" s="54"/>
-      <c r="V54" s="54"/>
-      <c r="W54" s="54"/>
-      <c r="X54" s="54"/>
-      <c r="Y54" s="55"/>
+      <c r="A54" s="59" t="s">
+        <v>597</v>
+      </c>
+      <c r="B54" s="56"/>
+      <c r="C54" s="56"/>
+      <c r="D54" s="56"/>
+      <c r="E54" s="56"/>
+      <c r="F54" s="56"/>
+      <c r="G54" s="56"/>
+      <c r="H54" s="56"/>
+      <c r="I54" s="56"/>
+      <c r="J54" s="56"/>
+      <c r="K54" s="56"/>
+      <c r="L54" s="56"/>
+      <c r="M54" s="56"/>
+      <c r="N54" s="56"/>
+      <c r="O54" s="56"/>
+      <c r="P54" s="56"/>
+      <c r="Q54" s="56"/>
+      <c r="R54" s="56"/>
+      <c r="S54" s="56"/>
+      <c r="T54" s="56"/>
+      <c r="U54" s="56"/>
+      <c r="V54" s="56"/>
+      <c r="W54" s="56"/>
+      <c r="X54" s="56"/>
+      <c r="Y54" s="57"/>
     </row>
     <row r="55" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="53"/>
-      <c r="B55" s="54"/>
-      <c r="C55" s="54"/>
-      <c r="D55" s="54"/>
-      <c r="E55" s="54"/>
-      <c r="F55" s="54"/>
-      <c r="G55" s="54"/>
-      <c r="H55" s="54"/>
-      <c r="I55" s="54"/>
-      <c r="J55" s="54"/>
-      <c r="K55" s="54"/>
-      <c r="L55" s="54"/>
-      <c r="M55" s="54"/>
-      <c r="N55" s="54"/>
-      <c r="O55" s="54"/>
-      <c r="P55" s="54"/>
-      <c r="Q55" s="54"/>
-      <c r="R55" s="54"/>
-      <c r="S55" s="54"/>
-      <c r="T55" s="54"/>
-      <c r="U55" s="54"/>
-      <c r="V55" s="54"/>
-      <c r="W55" s="54"/>
-      <c r="X55" s="54"/>
-      <c r="Y55" s="55"/>
+      <c r="A55" s="55"/>
+      <c r="B55" s="56"/>
+      <c r="C55" s="56"/>
+      <c r="D55" s="56"/>
+      <c r="E55" s="56"/>
+      <c r="F55" s="56"/>
+      <c r="G55" s="56"/>
+      <c r="H55" s="56"/>
+      <c r="I55" s="56"/>
+      <c r="J55" s="56"/>
+      <c r="K55" s="56"/>
+      <c r="L55" s="56"/>
+      <c r="M55" s="56"/>
+      <c r="N55" s="56"/>
+      <c r="O55" s="56"/>
+      <c r="P55" s="56"/>
+      <c r="Q55" s="56"/>
+      <c r="R55" s="56"/>
+      <c r="S55" s="56"/>
+      <c r="T55" s="56"/>
+      <c r="U55" s="56"/>
+      <c r="V55" s="56"/>
+      <c r="W55" s="56"/>
+      <c r="X55" s="56"/>
+      <c r="Y55" s="57"/>
     </row>
     <row r="56" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="58" t="s">
-        <v>478</v>
-      </c>
-      <c r="B56" s="54"/>
-      <c r="C56" s="54"/>
-      <c r="D56" s="54"/>
-      <c r="E56" s="54"/>
-      <c r="F56" s="54"/>
-      <c r="G56" s="54"/>
-      <c r="H56" s="54"/>
-      <c r="I56" s="54"/>
-      <c r="J56" s="54"/>
-      <c r="K56" s="54"/>
-      <c r="L56" s="54"/>
-      <c r="M56" s="54"/>
-      <c r="N56" s="54"/>
-      <c r="O56" s="54"/>
-      <c r="P56" s="54"/>
-      <c r="Q56" s="54"/>
-      <c r="R56" s="54"/>
-      <c r="S56" s="54"/>
-      <c r="T56" s="54"/>
-      <c r="U56" s="54"/>
-      <c r="V56" s="54"/>
-      <c r="W56" s="54"/>
-      <c r="X56" s="54"/>
-      <c r="Y56" s="55"/>
+      <c r="A56" s="60" t="s">
+        <v>598</v>
+      </c>
+      <c r="B56" s="56"/>
+      <c r="C56" s="56"/>
+      <c r="D56" s="56"/>
+      <c r="E56" s="56"/>
+      <c r="F56" s="56"/>
+      <c r="G56" s="56"/>
+      <c r="H56" s="56"/>
+      <c r="I56" s="56"/>
+      <c r="J56" s="56"/>
+      <c r="K56" s="56"/>
+      <c r="L56" s="56"/>
+      <c r="M56" s="56"/>
+      <c r="N56" s="56"/>
+      <c r="O56" s="56"/>
+      <c r="P56" s="56"/>
+      <c r="Q56" s="56"/>
+      <c r="R56" s="56"/>
+      <c r="S56" s="56"/>
+      <c r="T56" s="56"/>
+      <c r="U56" s="56"/>
+      <c r="V56" s="56"/>
+      <c r="W56" s="56"/>
+      <c r="X56" s="56"/>
+      <c r="Y56" s="57"/>
     </row>
     <row r="57" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="59" t="s">
-        <v>479</v>
-      </c>
-      <c r="B57" s="60"/>
-      <c r="C57" s="60"/>
-      <c r="D57" s="60"/>
-      <c r="E57" s="60"/>
-      <c r="F57" s="60"/>
-      <c r="G57" s="60"/>
-      <c r="H57" s="60"/>
-      <c r="I57" s="60"/>
-      <c r="J57" s="60"/>
-      <c r="K57" s="60"/>
-      <c r="L57" s="60"/>
-      <c r="M57" s="60"/>
-      <c r="N57" s="60"/>
-      <c r="O57" s="60"/>
-      <c r="P57" s="60"/>
-      <c r="Q57" s="60"/>
-      <c r="R57" s="60"/>
-      <c r="S57" s="60"/>
-      <c r="T57" s="60"/>
-      <c r="U57" s="60"/>
-      <c r="V57" s="60"/>
-      <c r="W57" s="60"/>
-      <c r="X57" s="60"/>
-      <c r="Y57" s="61"/>
+      <c r="A57" s="61" t="s">
+        <v>599</v>
+      </c>
+      <c r="B57" s="62"/>
+      <c r="C57" s="62"/>
+      <c r="D57" s="62"/>
+      <c r="E57" s="62"/>
+      <c r="F57" s="62"/>
+      <c r="G57" s="62"/>
+      <c r="H57" s="62"/>
+      <c r="I57" s="62"/>
+      <c r="J57" s="62"/>
+      <c r="K57" s="62"/>
+      <c r="L57" s="62"/>
+      <c r="M57" s="62"/>
+      <c r="N57" s="62"/>
+      <c r="O57" s="62"/>
+      <c r="P57" s="62"/>
+      <c r="Q57" s="62"/>
+      <c r="R57" s="62"/>
+      <c r="S57" s="62"/>
+      <c r="T57" s="62"/>
+      <c r="U57" s="62"/>
+      <c r="V57" s="62"/>
+      <c r="W57" s="62"/>
+      <c r="X57" s="62"/>
+      <c r="Y57" s="63"/>
     </row>
     <row r="58" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="62"/>
+      <c r="A58" s="64"/>
     </row>
     <row r="59" customFormat="false" ht="141.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="63" t="s">
-        <v>480</v>
+      <c r="A59" s="65" t="s">
+        <v>600</v>
       </c>
     </row>
   </sheetData>

--- a/resources/report_template.xlsx
+++ b/resources/report_template.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="625">
   <si>
     <t>Région</t>
   </si>
@@ -1669,6 +1669,78 @@
   </si>
   <si>
     <t>Nombre de personnes vivant avec le VIH et sous TARV pour lesquelles un résultat de mesure de la charge virale est disponible 12 mois après la mise en route du TARV.</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CV_WITHIN_12_MONTH_AFTER_ARV_START', gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CV_WITHIN_12_MONTH_AFTER_ARV_START', gender: 1}</t>
+  </si>
+  <si>
+    <t>{key:'HAD_CV_WITHIN_12_MONTH_AFTER_ARV_START', age_max: 15}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CV_WITHIN_12_MONTH_AFTER_ARV_START', age_min: 15}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CV_WITHIN_12_MONTH_AFTER_ARV_START'}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CV_WITHIN_12_MONTH_AFTER_ARV_START', age_max: 15, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CV_WITHIN_12_MONTH_AFTER_ARV_START', age_max: 15, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CV_WITHIN_12_MONTH_AFTER_ARV_START', age_min: 15, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CV_WITHIN_12_MONTH_AFTER_ARV_START', age_min: 15, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CV_WITHIN_12_MONTH_AFTER_ARV_START', age_max: 1, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CV_WITHIN_12_MONTH_AFTER_ARV_START', age_max: 1, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CV_WITHIN_12_MONTH_AFTER_ARV_START', age_min: 1, age_max: 4, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CV_WITHIN_12_MONTH_AFTER_ARV_START', age_min: 5, age_max: 9, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CV_WITHIN_12_MONTH_AFTER_ARV_START', age_min: 5, age_max: 9, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CV_WITHIN_12_MONTH_AFTER_ARV_START', age_min: 10, age_max: 14, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CV_WITHIN_12_MONTH_AFTER_ARV_START', age_min: 10, age_max: 14, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CV_WITHIN_12_MONTH_AFTER_ARV_START', age_min: 15, age_max: 19, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CV_WITHIN_12_MONTH_AFTER_ARV_START', age_min: 15, age_max: 19, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CV_WITHIN_12_MONTH_AFTER_ARV_START', age_min: 20, age_max: 24, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CV_WITHIN_12_MONTH_AFTER_ARV_START', age_min: 20, age_max: 24, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CV_WITHIN_12_MONTH_AFTER_ARV_START', age_min: 25, age_max: 49, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CV_WITHIN_12_MONTH_AFTER_ARV_START', age_min: 25, age_max: 49, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CV_WITHIN_12_MONTH_AFTER_ARV_START', age_min: 50, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CV_WITHIN_12_MONTH_AFTER_ARV_START', age_min: 50, gender: 1}</t>
   </si>
   <si>
     <t>Nombre d’adultes et d’enfants infectés par le VIH qui présentent suppression charge virale (&lt;1000 copies/ml) 12 mois après la mise en route du TARV</t>
@@ -2631,7 +2703,7 @@
   <dimension ref="A1:AB57"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E39" activeCellId="0" sqref="E39"/>
+      <selection pane="topLeft" activeCell="B37" activeCellId="0" sqref="B37:AB37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4854,41 +4926,95 @@
         <v>527</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="41.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="53.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="18" t="s">
         <v>550</v>
       </c>
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="16"/>
-      <c r="J37" s="16"/>
-      <c r="K37" s="16"/>
-      <c r="L37" s="16"/>
-      <c r="M37" s="16"/>
-      <c r="N37" s="16"/>
-      <c r="O37" s="16"/>
-      <c r="P37" s="16"/>
-      <c r="Q37" s="16"/>
-      <c r="R37" s="16"/>
-      <c r="S37" s="16"/>
-      <c r="T37" s="16"/>
-      <c r="U37" s="16"/>
-      <c r="V37" s="16"/>
-      <c r="W37" s="16"/>
-      <c r="X37" s="16"/>
-      <c r="Y37" s="16"/>
-      <c r="Z37" s="16"/>
-      <c r="AA37" s="20"/>
-      <c r="AB37" s="22"/>
-    </row>
-    <row r="38" customFormat="false" ht="28.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="36" t="s">
+        <v>551</v>
+      </c>
+      <c r="C37" s="36" t="s">
+        <v>552</v>
+      </c>
+      <c r="D37" s="36" t="s">
+        <v>553</v>
+      </c>
+      <c r="E37" s="36" t="s">
+        <v>554</v>
+      </c>
+      <c r="F37" s="36" t="s">
+        <v>555</v>
+      </c>
+      <c r="G37" s="36" t="s">
+        <v>556</v>
+      </c>
+      <c r="H37" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="I37" s="36" t="s">
+        <v>558</v>
+      </c>
+      <c r="J37" s="36" t="s">
+        <v>559</v>
+      </c>
+      <c r="K37" s="37" t="s">
+        <v>560</v>
+      </c>
+      <c r="L37" s="37" t="s">
+        <v>561</v>
+      </c>
+      <c r="M37" s="37" t="s">
+        <v>562</v>
+      </c>
+      <c r="N37" s="37" t="s">
+        <v>560</v>
+      </c>
+      <c r="O37" s="37" t="s">
+        <v>563</v>
+      </c>
+      <c r="P37" s="37" t="s">
+        <v>564</v>
+      </c>
+      <c r="Q37" s="37" t="s">
+        <v>565</v>
+      </c>
+      <c r="R37" s="37" t="s">
+        <v>566</v>
+      </c>
+      <c r="S37" s="37" t="s">
+        <v>567</v>
+      </c>
+      <c r="T37" s="37" t="s">
+        <v>568</v>
+      </c>
+      <c r="U37" s="37" t="s">
+        <v>569</v>
+      </c>
+      <c r="V37" s="37" t="s">
+        <v>570</v>
+      </c>
+      <c r="W37" s="37" t="s">
+        <v>571</v>
+      </c>
+      <c r="X37" s="37" t="s">
+        <v>572</v>
+      </c>
+      <c r="Y37" s="37" t="s">
+        <v>573</v>
+      </c>
+      <c r="Z37" s="37" t="s">
+        <v>574</v>
+      </c>
+      <c r="AA37" s="37" t="s">
+        <v>551</v>
+      </c>
+      <c r="AB37" s="38" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="40.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="18" t="s">
-        <v>551</v>
+        <v>575</v>
       </c>
       <c r="B38" s="15"/>
       <c r="C38" s="15"/>
@@ -4918,9 +5044,9 @@
       <c r="AA38" s="20"/>
       <c r="AB38" s="22"/>
     </row>
-    <row r="39" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="14" t="s">
-        <v>552</v>
+        <v>576</v>
       </c>
       <c r="B39" s="15"/>
       <c r="C39" s="15"/>
@@ -4952,7 +5078,7 @@
     </row>
     <row r="40" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="39" t="s">
-        <v>553</v>
+        <v>577</v>
       </c>
       <c r="B40" s="40"/>
       <c r="C40" s="40"/>
@@ -5027,7 +5153,7 @@
   <dimension ref="A1:Y59"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B37:AB37 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5038,32 +5164,32 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="44" t="s">
-        <v>554</v>
+        <v>578</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="44" t="s">
-        <v>555</v>
+        <v>579</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="44" t="s">
-        <v>556</v>
+        <v>580</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="44" t="s">
-        <v>557</v>
+        <v>581</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="44" t="s">
-        <v>558</v>
+        <v>582</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="44" t="s">
-        <v>559</v>
+        <v>583</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5071,12 +5197,12 @@
     </row>
     <row r="9" customFormat="false" ht="80.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="45" t="s">
-        <v>560</v>
+        <v>584</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="51.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="46" t="s">
-        <v>561</v>
+        <v>585</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5084,7 +5210,7 @@
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="47" t="s">
-        <v>562</v>
+        <v>586</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5092,22 +5218,22 @@
     </row>
     <row r="14" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="49" t="s">
-        <v>563</v>
+        <v>587</v>
       </c>
       <c r="B14" s="50" t="s">
-        <v>564</v>
+        <v>588</v>
       </c>
       <c r="C14" s="50"/>
       <c r="D14" s="50" t="s">
-        <v>565</v>
+        <v>589</v>
       </c>
       <c r="E14" s="50"/>
       <c r="F14" s="50" t="s">
-        <v>566</v>
+        <v>590</v>
       </c>
       <c r="G14" s="50"/>
       <c r="H14" s="50" t="s">
-        <v>567</v>
+        <v>591</v>
       </c>
       <c r="I14" s="50"/>
       <c r="J14" s="50" t="s">
@@ -5123,19 +5249,19 @@
       </c>
       <c r="O14" s="50"/>
       <c r="P14" s="50" t="s">
-        <v>568</v>
+        <v>592</v>
       </c>
       <c r="Q14" s="50"/>
       <c r="R14" s="50" t="s">
-        <v>569</v>
+        <v>593</v>
       </c>
       <c r="S14" s="50"/>
       <c r="T14" s="50" t="s">
-        <v>570</v>
+        <v>594</v>
       </c>
       <c r="U14" s="50"/>
       <c r="V14" s="50" t="s">
-        <v>571</v>
+        <v>595</v>
       </c>
       <c r="W14" s="50"/>
       <c r="X14" s="51" t="s">
@@ -5220,7 +5346,7 @@
     </row>
     <row r="16" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="54" t="s">
-        <v>572</v>
+        <v>596</v>
       </c>
       <c r="B16" s="54"/>
       <c r="C16" s="54"/>
@@ -5249,7 +5375,7 @@
     </row>
     <row r="17" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="55" t="s">
-        <v>573</v>
+        <v>597</v>
       </c>
       <c r="B17" s="56"/>
       <c r="C17" s="56"/>
@@ -5278,7 +5404,7 @@
     </row>
     <row r="18" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="55" t="s">
-        <v>574</v>
+        <v>598</v>
       </c>
       <c r="B18" s="56"/>
       <c r="C18" s="56"/>
@@ -5307,7 +5433,7 @@
     </row>
     <row r="19" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="55" t="s">
-        <v>575</v>
+        <v>599</v>
       </c>
       <c r="B19" s="56"/>
       <c r="C19" s="56"/>
@@ -5390,7 +5516,7 @@
     </row>
     <row r="22" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="54" t="s">
-        <v>576</v>
+        <v>600</v>
       </c>
       <c r="B22" s="54"/>
       <c r="C22" s="54"/>
@@ -5419,7 +5545,7 @@
     </row>
     <row r="23" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="55" t="s">
-        <v>577</v>
+        <v>601</v>
       </c>
       <c r="B23" s="56"/>
       <c r="C23" s="56"/>
@@ -5448,7 +5574,7 @@
     </row>
     <row r="24" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="55" t="s">
-        <v>578</v>
+        <v>602</v>
       </c>
       <c r="B24" s="56"/>
       <c r="C24" s="56"/>
@@ -5477,7 +5603,7 @@
     </row>
     <row r="25" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="55" t="s">
-        <v>579</v>
+        <v>603</v>
       </c>
       <c r="B25" s="56"/>
       <c r="C25" s="56"/>
@@ -5506,7 +5632,7 @@
     </row>
     <row r="26" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="55" t="s">
-        <v>580</v>
+        <v>604</v>
       </c>
       <c r="B26" s="56"/>
       <c r="C26" s="56"/>
@@ -5589,7 +5715,7 @@
     </row>
     <row r="29" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="58" t="s">
-        <v>581</v>
+        <v>605</v>
       </c>
       <c r="B29" s="56"/>
       <c r="C29" s="56"/>
@@ -5618,7 +5744,7 @@
     </row>
     <row r="30" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="54" t="s">
-        <v>582</v>
+        <v>606</v>
       </c>
       <c r="B30" s="54"/>
       <c r="C30" s="54"/>
@@ -5647,7 +5773,7 @@
     </row>
     <row r="31" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="55" t="s">
-        <v>583</v>
+        <v>607</v>
       </c>
       <c r="B31" s="56"/>
       <c r="C31" s="56"/>
@@ -5676,7 +5802,7 @@
     </row>
     <row r="32" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="55" t="s">
-        <v>584</v>
+        <v>608</v>
       </c>
       <c r="B32" s="56"/>
       <c r="C32" s="56"/>
@@ -5759,7 +5885,7 @@
     </row>
     <row r="35" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="54" t="s">
-        <v>585</v>
+        <v>609</v>
       </c>
       <c r="B35" s="54"/>
       <c r="C35" s="54"/>
@@ -5869,7 +5995,7 @@
     </row>
     <row r="39" customFormat="false" ht="66.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="58" t="s">
-        <v>586</v>
+        <v>610</v>
       </c>
       <c r="B39" s="56"/>
       <c r="C39" s="56"/>
@@ -5898,7 +6024,7 @@
     </row>
     <row r="40" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="58" t="s">
-        <v>587</v>
+        <v>611</v>
       </c>
       <c r="B40" s="56"/>
       <c r="C40" s="56"/>
@@ -5927,7 +6053,7 @@
     </row>
     <row r="41" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="54" t="s">
-        <v>588</v>
+        <v>612</v>
       </c>
       <c r="B41" s="54"/>
       <c r="C41" s="54"/>
@@ -5956,7 +6082,7 @@
     </row>
     <row r="42" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="55" t="s">
-        <v>589</v>
+        <v>613</v>
       </c>
       <c r="B42" s="56"/>
       <c r="C42" s="56"/>
@@ -5985,7 +6111,7 @@
     </row>
     <row r="43" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="55" t="s">
-        <v>590</v>
+        <v>614</v>
       </c>
       <c r="B43" s="56"/>
       <c r="C43" s="56"/>
@@ -6014,7 +6140,7 @@
     </row>
     <row r="44" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="55" t="s">
-        <v>591</v>
+        <v>615</v>
       </c>
       <c r="B44" s="56"/>
       <c r="C44" s="56"/>
@@ -6097,7 +6223,7 @@
     </row>
     <row r="47" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="54" t="s">
-        <v>592</v>
+        <v>616</v>
       </c>
       <c r="B47" s="54"/>
       <c r="C47" s="54"/>
@@ -6180,7 +6306,7 @@
     </row>
     <row r="50" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="55" t="s">
-        <v>593</v>
+        <v>617</v>
       </c>
       <c r="B50" s="56"/>
       <c r="C50" s="56"/>
@@ -6209,7 +6335,7 @@
     </row>
     <row r="51" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="54" t="s">
-        <v>594</v>
+        <v>618</v>
       </c>
       <c r="B51" s="54"/>
       <c r="C51" s="54"/>
@@ -6238,7 +6364,7 @@
     </row>
     <row r="52" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="59" t="s">
-        <v>595</v>
+        <v>619</v>
       </c>
       <c r="B52" s="56"/>
       <c r="C52" s="56"/>
@@ -6267,7 +6393,7 @@
     </row>
     <row r="53" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="59" t="s">
-        <v>596</v>
+        <v>620</v>
       </c>
       <c r="B53" s="56"/>
       <c r="C53" s="56"/>
@@ -6296,7 +6422,7 @@
     </row>
     <row r="54" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="59" t="s">
-        <v>597</v>
+        <v>621</v>
       </c>
       <c r="B54" s="56"/>
       <c r="C54" s="56"/>
@@ -6352,7 +6478,7 @@
     </row>
     <row r="56" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="60" t="s">
-        <v>598</v>
+        <v>622</v>
       </c>
       <c r="B56" s="56"/>
       <c r="C56" s="56"/>
@@ -6381,7 +6507,7 @@
     </row>
     <row r="57" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="61" t="s">
-        <v>599</v>
+        <v>623</v>
       </c>
       <c r="B57" s="62"/>
       <c r="C57" s="62"/>
@@ -6413,7 +6539,7 @@
     </row>
     <row r="59" customFormat="false" ht="141.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="65" t="s">
-        <v>600</v>
+        <v>624</v>
       </c>
     </row>
   </sheetData>

--- a/resources/report_template.xlsx
+++ b/resources/report_template.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="649">
   <si>
     <t>Région</t>
   </si>
@@ -1747,6 +1747,78 @@
   </si>
   <si>
     <t>Nombre de personnes vivant avec le VIH et sous TARV pour lesquelles un résultat de mesure des CD4 est disponible à l'initiation du TARV   au cours de la période de rapportage</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CD4_AT_ARV_START', gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CD4_AT_ARV_START', gender: 1}</t>
+  </si>
+  <si>
+    <t>{key:'HAD_CD4_AT_ARV_START', age_max: 15}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CD4_AT_ARV_START', age_min: 15}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CD4_AT_ARV_START'}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CD4_AT_ARV_START', age_max: 15, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CD4_AT_ARV_START', age_max: 15, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CD4_AT_ARV_START', age_min: 15, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CD4_AT_ARV_START', age_min: 15, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CD4_AT_ARV_START', age_max: 1, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CD4_AT_ARV_START', age_max: 1, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CD4_AT_ARV_START', age_min: 1, age_max: 4, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CD4_AT_ARV_START', age_min: 5, age_max: 9, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CD4_AT_ARV_START', age_min: 5, age_max: 9, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CD4_AT_ARV_START', age_min: 10, age_max: 14, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CD4_AT_ARV_START', age_min: 10, age_max: 14, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CD4_AT_ARV_START', age_min: 15, age_max: 19, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CD4_AT_ARV_START', age_min: 15, age_max: 19, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CD4_AT_ARV_START', age_min: 20, age_max: 24, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CD4_AT_ARV_START', age_min: 20, age_max: 24, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CD4_AT_ARV_START', age_min: 25, age_max: 49, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CD4_AT_ARV_START', age_min: 25, age_max: 49, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CD4_AT_ARV_START', age_min: 50, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CD4_AT_ARV_START', age_min: 50, gender: 1}</t>
   </si>
   <si>
     <t>Nombre de personnes vivant avec le VIH et sous TARV pour lesquelles le taux des CD4 est &lt; 200 cells/μL à l'initiation du TARV  au cours de la période de rapportage</t>
@@ -2703,7 +2775,7 @@
   <dimension ref="A1:AB57"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B37" activeCellId="0" sqref="B37:AB37"/>
+      <selection pane="topLeft" activeCell="B39" activeCellId="0" sqref="B39:AB39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3338,7 +3410,7 @@
       <c r="AA15" s="20"/>
       <c r="AB15" s="22"/>
     </row>
-    <row r="16" customFormat="false" ht="28.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="23" t="s">
         <v>122</v>
       </c>
@@ -3542,7 +3614,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="18" t="s">
         <v>173</v>
       </c>
@@ -5048,37 +5120,91 @@
       <c r="A39" s="14" t="s">
         <v>576</v>
       </c>
-      <c r="B39" s="15"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="16"/>
-      <c r="I39" s="16"/>
-      <c r="J39" s="16"/>
-      <c r="K39" s="16"/>
-      <c r="L39" s="16"/>
-      <c r="M39" s="16"/>
-      <c r="N39" s="16"/>
-      <c r="O39" s="16"/>
-      <c r="P39" s="16"/>
-      <c r="Q39" s="16"/>
-      <c r="R39" s="16"/>
-      <c r="S39" s="16"/>
-      <c r="T39" s="16"/>
-      <c r="U39" s="16"/>
-      <c r="V39" s="16"/>
-      <c r="W39" s="16"/>
-      <c r="X39" s="16"/>
-      <c r="Y39" s="16"/>
-      <c r="Z39" s="16"/>
-      <c r="AA39" s="20"/>
-      <c r="AB39" s="22"/>
+      <c r="B39" s="36" t="s">
+        <v>577</v>
+      </c>
+      <c r="C39" s="36" t="s">
+        <v>578</v>
+      </c>
+      <c r="D39" s="36" t="s">
+        <v>579</v>
+      </c>
+      <c r="E39" s="36" t="s">
+        <v>580</v>
+      </c>
+      <c r="F39" s="36" t="s">
+        <v>581</v>
+      </c>
+      <c r="G39" s="36" t="s">
+        <v>582</v>
+      </c>
+      <c r="H39" s="36" t="s">
+        <v>583</v>
+      </c>
+      <c r="I39" s="36" t="s">
+        <v>584</v>
+      </c>
+      <c r="J39" s="36" t="s">
+        <v>585</v>
+      </c>
+      <c r="K39" s="37" t="s">
+        <v>586</v>
+      </c>
+      <c r="L39" s="37" t="s">
+        <v>587</v>
+      </c>
+      <c r="M39" s="37" t="s">
+        <v>588</v>
+      </c>
+      <c r="N39" s="37" t="s">
+        <v>586</v>
+      </c>
+      <c r="O39" s="37" t="s">
+        <v>589</v>
+      </c>
+      <c r="P39" s="37" t="s">
+        <v>590</v>
+      </c>
+      <c r="Q39" s="37" t="s">
+        <v>591</v>
+      </c>
+      <c r="R39" s="37" t="s">
+        <v>592</v>
+      </c>
+      <c r="S39" s="37" t="s">
+        <v>593</v>
+      </c>
+      <c r="T39" s="37" t="s">
+        <v>594</v>
+      </c>
+      <c r="U39" s="37" t="s">
+        <v>595</v>
+      </c>
+      <c r="V39" s="37" t="s">
+        <v>596</v>
+      </c>
+      <c r="W39" s="37" t="s">
+        <v>597</v>
+      </c>
+      <c r="X39" s="37" t="s">
+        <v>598</v>
+      </c>
+      <c r="Y39" s="37" t="s">
+        <v>599</v>
+      </c>
+      <c r="Z39" s="37" t="s">
+        <v>600</v>
+      </c>
+      <c r="AA39" s="37" t="s">
+        <v>577</v>
+      </c>
+      <c r="AB39" s="38" t="s">
+        <v>578</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="39" t="s">
-        <v>577</v>
+        <v>601</v>
       </c>
       <c r="B40" s="40"/>
       <c r="C40" s="40"/>
@@ -5153,7 +5279,7 @@
   <dimension ref="A1:Y59"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B37:AB37 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B39:AB39 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5164,32 +5290,32 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="44" t="s">
-        <v>578</v>
+        <v>602</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="44" t="s">
-        <v>579</v>
+        <v>603</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="44" t="s">
-        <v>580</v>
+        <v>604</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="44" t="s">
-        <v>581</v>
+        <v>605</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="44" t="s">
-        <v>582</v>
+        <v>606</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="44" t="s">
-        <v>583</v>
+        <v>607</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5197,12 +5323,12 @@
     </row>
     <row r="9" customFormat="false" ht="80.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="45" t="s">
-        <v>584</v>
+        <v>608</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="51.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="46" t="s">
-        <v>585</v>
+        <v>609</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5210,7 +5336,7 @@
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="47" t="s">
-        <v>586</v>
+        <v>610</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5218,22 +5344,22 @@
     </row>
     <row r="14" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="49" t="s">
-        <v>587</v>
+        <v>611</v>
       </c>
       <c r="B14" s="50" t="s">
-        <v>588</v>
+        <v>612</v>
       </c>
       <c r="C14" s="50"/>
       <c r="D14" s="50" t="s">
-        <v>589</v>
+        <v>613</v>
       </c>
       <c r="E14" s="50"/>
       <c r="F14" s="50" t="s">
-        <v>590</v>
+        <v>614</v>
       </c>
       <c r="G14" s="50"/>
       <c r="H14" s="50" t="s">
-        <v>591</v>
+        <v>615</v>
       </c>
       <c r="I14" s="50"/>
       <c r="J14" s="50" t="s">
@@ -5249,19 +5375,19 @@
       </c>
       <c r="O14" s="50"/>
       <c r="P14" s="50" t="s">
-        <v>592</v>
+        <v>616</v>
       </c>
       <c r="Q14" s="50"/>
       <c r="R14" s="50" t="s">
-        <v>593</v>
+        <v>617</v>
       </c>
       <c r="S14" s="50"/>
       <c r="T14" s="50" t="s">
-        <v>594</v>
+        <v>618</v>
       </c>
       <c r="U14" s="50"/>
       <c r="V14" s="50" t="s">
-        <v>595</v>
+        <v>619</v>
       </c>
       <c r="W14" s="50"/>
       <c r="X14" s="51" t="s">
@@ -5346,7 +5472,7 @@
     </row>
     <row r="16" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="54" t="s">
-        <v>596</v>
+        <v>620</v>
       </c>
       <c r="B16" s="54"/>
       <c r="C16" s="54"/>
@@ -5375,7 +5501,7 @@
     </row>
     <row r="17" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="55" t="s">
-        <v>597</v>
+        <v>621</v>
       </c>
       <c r="B17" s="56"/>
       <c r="C17" s="56"/>
@@ -5404,7 +5530,7 @@
     </row>
     <row r="18" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="55" t="s">
-        <v>598</v>
+        <v>622</v>
       </c>
       <c r="B18" s="56"/>
       <c r="C18" s="56"/>
@@ -5433,7 +5559,7 @@
     </row>
     <row r="19" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="55" t="s">
-        <v>599</v>
+        <v>623</v>
       </c>
       <c r="B19" s="56"/>
       <c r="C19" s="56"/>
@@ -5516,7 +5642,7 @@
     </row>
     <row r="22" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="54" t="s">
-        <v>600</v>
+        <v>624</v>
       </c>
       <c r="B22" s="54"/>
       <c r="C22" s="54"/>
@@ -5545,7 +5671,7 @@
     </row>
     <row r="23" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="55" t="s">
-        <v>601</v>
+        <v>625</v>
       </c>
       <c r="B23" s="56"/>
       <c r="C23" s="56"/>
@@ -5574,7 +5700,7 @@
     </row>
     <row r="24" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="55" t="s">
-        <v>602</v>
+        <v>626</v>
       </c>
       <c r="B24" s="56"/>
       <c r="C24" s="56"/>
@@ -5603,7 +5729,7 @@
     </row>
     <row r="25" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="55" t="s">
-        <v>603</v>
+        <v>627</v>
       </c>
       <c r="B25" s="56"/>
       <c r="C25" s="56"/>
@@ -5632,7 +5758,7 @@
     </row>
     <row r="26" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="55" t="s">
-        <v>604</v>
+        <v>628</v>
       </c>
       <c r="B26" s="56"/>
       <c r="C26" s="56"/>
@@ -5715,7 +5841,7 @@
     </row>
     <row r="29" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="58" t="s">
-        <v>605</v>
+        <v>629</v>
       </c>
       <c r="B29" s="56"/>
       <c r="C29" s="56"/>
@@ -5744,7 +5870,7 @@
     </row>
     <row r="30" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="54" t="s">
-        <v>606</v>
+        <v>630</v>
       </c>
       <c r="B30" s="54"/>
       <c r="C30" s="54"/>
@@ -5773,7 +5899,7 @@
     </row>
     <row r="31" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="55" t="s">
-        <v>607</v>
+        <v>631</v>
       </c>
       <c r="B31" s="56"/>
       <c r="C31" s="56"/>
@@ -5802,7 +5928,7 @@
     </row>
     <row r="32" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="55" t="s">
-        <v>608</v>
+        <v>632</v>
       </c>
       <c r="B32" s="56"/>
       <c r="C32" s="56"/>
@@ -5885,7 +6011,7 @@
     </row>
     <row r="35" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="54" t="s">
-        <v>609</v>
+        <v>633</v>
       </c>
       <c r="B35" s="54"/>
       <c r="C35" s="54"/>
@@ -5995,7 +6121,7 @@
     </row>
     <row r="39" customFormat="false" ht="66.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="58" t="s">
-        <v>610</v>
+        <v>634</v>
       </c>
       <c r="B39" s="56"/>
       <c r="C39" s="56"/>
@@ -6024,7 +6150,7 @@
     </row>
     <row r="40" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="58" t="s">
-        <v>611</v>
+        <v>635</v>
       </c>
       <c r="B40" s="56"/>
       <c r="C40" s="56"/>
@@ -6053,7 +6179,7 @@
     </row>
     <row r="41" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="54" t="s">
-        <v>612</v>
+        <v>636</v>
       </c>
       <c r="B41" s="54"/>
       <c r="C41" s="54"/>
@@ -6082,7 +6208,7 @@
     </row>
     <row r="42" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="55" t="s">
-        <v>613</v>
+        <v>637</v>
       </c>
       <c r="B42" s="56"/>
       <c r="C42" s="56"/>
@@ -6111,7 +6237,7 @@
     </row>
     <row r="43" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="55" t="s">
-        <v>614</v>
+        <v>638</v>
       </c>
       <c r="B43" s="56"/>
       <c r="C43" s="56"/>
@@ -6140,7 +6266,7 @@
     </row>
     <row r="44" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="55" t="s">
-        <v>615</v>
+        <v>639</v>
       </c>
       <c r="B44" s="56"/>
       <c r="C44" s="56"/>
@@ -6223,7 +6349,7 @@
     </row>
     <row r="47" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="54" t="s">
-        <v>616</v>
+        <v>640</v>
       </c>
       <c r="B47" s="54"/>
       <c r="C47" s="54"/>
@@ -6306,7 +6432,7 @@
     </row>
     <row r="50" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="55" t="s">
-        <v>617</v>
+        <v>641</v>
       </c>
       <c r="B50" s="56"/>
       <c r="C50" s="56"/>
@@ -6335,7 +6461,7 @@
     </row>
     <row r="51" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="54" t="s">
-        <v>618</v>
+        <v>642</v>
       </c>
       <c r="B51" s="54"/>
       <c r="C51" s="54"/>
@@ -6364,7 +6490,7 @@
     </row>
     <row r="52" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="59" t="s">
-        <v>619</v>
+        <v>643</v>
       </c>
       <c r="B52" s="56"/>
       <c r="C52" s="56"/>
@@ -6393,7 +6519,7 @@
     </row>
     <row r="53" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="59" t="s">
-        <v>620</v>
+        <v>644</v>
       </c>
       <c r="B53" s="56"/>
       <c r="C53" s="56"/>
@@ -6422,7 +6548,7 @@
     </row>
     <row r="54" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="59" t="s">
-        <v>621</v>
+        <v>645</v>
       </c>
       <c r="B54" s="56"/>
       <c r="C54" s="56"/>
@@ -6478,7 +6604,7 @@
     </row>
     <row r="56" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="60" t="s">
-        <v>622</v>
+        <v>646</v>
       </c>
       <c r="B56" s="56"/>
       <c r="C56" s="56"/>
@@ -6507,7 +6633,7 @@
     </row>
     <row r="57" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="61" t="s">
-        <v>623</v>
+        <v>647</v>
       </c>
       <c r="B57" s="62"/>
       <c r="C57" s="62"/>
@@ -6539,7 +6665,7 @@
     </row>
     <row r="59" customFormat="false" ht="141.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="65" t="s">
-        <v>624</v>
+        <v>648</v>
       </c>
     </row>
   </sheetData>

--- a/resources/report_template.xlsx
+++ b/resources/report_template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="528" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="469" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="File active" sheetId="1" state="visible" r:id="rId2"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="649">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="697">
   <si>
     <t>Région</t>
   </si>
@@ -1746,82 +1746,226 @@
     <t>Nombre d’adultes et d’enfants infectés par le VIH qui présentent suppression charge virale (&lt;1000 copies/ml) 12 mois après la mise en route du TARV</t>
   </si>
   <si>
+    <t>{key: 'HAD_CV_INF_1000_WITHIN_12_MONTH_AFTER_ARV_START', gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CV_INF_1000_WITHIN_12_MONTH_AFTER_ARV_START', gender: 1}</t>
+  </si>
+  <si>
+    <t>{key:'HAD_CV_INF_1000_WITHIN_12_MONTH_AFTER_ARV_START', age_max: 15}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CV_INF_1000_WITHIN_12_MONTH_AFTER_ARV_START', age_min: 15}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CV_INF_1000_WITHIN_12_MONTH_AFTER_ARV_START'}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CV_INF_1000_WITHIN_12_MONTH_AFTER_ARV_START', age_max: 15, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CV_INF_1000_WITHIN_12_MONTH_AFTER_ARV_START', age_max: 15, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CV_INF_1000_WITHIN_12_MONTH_AFTER_ARV_START', age_min: 15, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CV_INF_1000_WITHIN_12_MONTH_AFTER_ARV_START', age_min: 15, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CV_INF_1000_WITHIN_12_MONTH_AFTER_ARV_START', age_max: 1, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CV_INF_1000_WITHIN_12_MONTH_AFTER_ARV_START', age_max: 1, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CV_INF_1000_WITHIN_12_MONTH_AFTER_ARV_START', age_min: 1, age_max: 4, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CV_INF_1000_WITHIN_12_MONTH_AFTER_ARV_START', age_min: 5, age_max: 9, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CV_INF_1000_WITHIN_12_MONTH_AFTER_ARV_START', age_min: 5, age_max: 9, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CV_INF_1000_WITHIN_12_MONTH_AFTER_ARV_START', age_min: 10, age_max: 14, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CV_INF_1000_WITHIN_12_MONTH_AFTER_ARV_START', age_min: 10, age_max: 14, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CV_INF_1000_WITHIN_12_MONTH_AFTER_ARV_START', age_min: 15, age_max: 19, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CV_INF_1000_WITHIN_12_MONTH_AFTER_ARV_START', age_min: 15, age_max: 19, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CV_INF_1000_WITHIN_12_MONTH_AFTER_ARV_START', age_min: 20, age_max: 24, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CV_INF_1000_WITHIN_12_MONTH_AFTER_ARV_START', age_min: 20, age_max: 24, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CV_INF_1000_WITHIN_12_MONTH_AFTER_ARV_START', age_min: 25, age_max: 49, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CV_INF_1000_WITHIN_12_MONTH_AFTER_ARV_START', age_min: 25, age_max: 49, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CV_INF_1000_WITHIN_12_MONTH_AFTER_ARV_START', age_min: 50, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CV_INF_1000_WITHIN_12_MONTH_AFTER_ARV_START', age_min: 50, gender: 1}</t>
+  </si>
+  <si>
     <t>Nombre de personnes vivant avec le VIH et sous TARV pour lesquelles un résultat de mesure des CD4 est disponible à l'initiation du TARV   au cours de la période de rapportage</t>
   </si>
   <si>
-    <t>{key: 'HAD_CD4_AT_ARV_START', gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'HAD_CD4_AT_ARV_START', gender: 1}</t>
-  </si>
-  <si>
-    <t>{key:'HAD_CD4_AT_ARV_START', age_max: 15}</t>
-  </si>
-  <si>
-    <t>{key: 'HAD_CD4_AT_ARV_START', age_min: 15}</t>
-  </si>
-  <si>
-    <t>{key: 'HAD_CD4_AT_ARV_START'}</t>
-  </si>
-  <si>
-    <t>{key: 'HAD_CD4_AT_ARV_START', age_max: 15, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'HAD_CD4_AT_ARV_START', age_max: 15, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'HAD_CD4_AT_ARV_START', age_min: 15, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'HAD_CD4_AT_ARV_START', age_min: 15, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'HAD_CD4_AT_ARV_START', age_max: 1, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'HAD_CD4_AT_ARV_START', age_max: 1, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'HAD_CD4_AT_ARV_START', age_min: 1, age_max: 4, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'HAD_CD4_AT_ARV_START', age_min: 5, age_max: 9, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'HAD_CD4_AT_ARV_START', age_min: 5, age_max: 9, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'HAD_CD4_AT_ARV_START', age_min: 10, age_max: 14, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'HAD_CD4_AT_ARV_START', age_min: 10, age_max: 14, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'HAD_CD4_AT_ARV_START', age_min: 15, age_max: 19, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'HAD_CD4_AT_ARV_START', age_min: 15, age_max: 19, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'HAD_CD4_AT_ARV_START', age_min: 20, age_max: 24, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'HAD_CD4_AT_ARV_START', age_min: 20, age_max: 24, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'HAD_CD4_AT_ARV_START', age_min: 25, age_max: 49, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'HAD_CD4_AT_ARV_START', age_min: 25, age_max: 49, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'HAD_CD4_AT_ARV_START', age_min: 50, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'HAD_CD4_AT_ARV_START', age_min: 50, gender: 1}</t>
+    <t>{key: 'HAD_CD4_AT_ARV_START_DURING_PERIOD', gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CD4_AT_ARV_START_DURING_PERIOD', gender: 1}</t>
+  </si>
+  <si>
+    <t>{key:'HAD_CD4_AT_ARV_START_DURING_PERIOD', age_max: 15}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CD4_AT_ARV_START_DURING_PERIOD', age_min: 15}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CD4_AT_ARV_START_DURING_PERIOD'}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CD4_AT_ARV_START_DURING_PERIOD', age_max: 15, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CD4_AT_ARV_START_DURING_PERIOD', age_max: 15, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CD4_AT_ARV_START_DURING_PERIOD', age_min: 15, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CD4_AT_ARV_START_DURING_PERIOD', age_min: 15, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CD4_AT_ARV_START_DURING_PERIOD', age_max: 1, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CD4_AT_ARV_START_DURING_PERIOD', age_max: 1, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CD4_AT_ARV_START_DURING_PERIOD', age_min: 1, age_max: 4, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CD4_AT_ARV_START_DURING_PERIOD', age_min: 5, age_max: 9, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CD4_AT_ARV_START_DURING_PERIOD', age_min: 5, age_max: 9, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CD4_AT_ARV_START_DURING_PERIOD', age_min: 10, age_max: 14, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CD4_AT_ARV_START_DURING_PERIOD', age_min: 10, age_max: 14, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CD4_AT_ARV_START_DURING_PERIOD', age_min: 15, age_max: 19, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CD4_AT_ARV_START_DURING_PERIOD', age_min: 15, age_max: 19, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CD4_AT_ARV_START_DURING_PERIOD', age_min: 20, age_max: 24, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CD4_AT_ARV_START_DURING_PERIOD', age_min: 20, age_max: 24, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CD4_AT_ARV_START_DURING_PERIOD', age_min: 25, age_max: 49, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CD4_AT_ARV_START_DURING_PERIOD', age_min: 25, age_max: 49, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CD4_AT_ARV_START_DURING_PERIOD', age_min: 50, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CD4_AT_ARV_START_DURING_PERIOD', age_min: 50, gender: 1}</t>
   </si>
   <si>
     <t>Nombre de personnes vivant avec le VIH et sous TARV pour lesquelles le taux des CD4 est &lt; 200 cells/μL à l'initiation du TARV  au cours de la période de rapportage</t>
+  </si>
+  <si>
+    <t>{key: 'CD4_INF_200_AT_ARV_START_DURING_PERIOD', gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'CD4_INF_200_AT_ARV_START_DURING_PERIOD', gender: 1}</t>
+  </si>
+  <si>
+    <t>{key:'CD4_INF_200_AT_ARV_START_DURING_PERIOD', age_max: 15}</t>
+  </si>
+  <si>
+    <t>{key: 'CD4_INF_200_AT_ARV_START_DURING_PERIOD', age_min: 15}</t>
+  </si>
+  <si>
+    <t>{key: 'CD4_INF_200_AT_ARV_START_DURING_PERIOD'}</t>
+  </si>
+  <si>
+    <t>{key: 'CD4_INF_200_AT_ARV_START_DURING_PERIOD', age_max: 15, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'CD4_INF_200_AT_ARV_START_DURING_PERIOD', age_max: 15, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'CD4_INF_200_AT_ARV_START_DURING_PERIOD', age_min: 15, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'CD4_INF_200_AT_ARV_START_DURING_PERIOD', age_min: 15, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'CD4_INF_200_AT_ARV_START_DURING_PERIOD', age_max: 1, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'CD4_INF_200_AT_ARV_START_DURING_PERIOD', age_max: 1, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'CD4_INF_200_AT_ARV_START_DURING_PERIOD', age_min: 1, age_max: 4, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'CD4_INF_200_AT_ARV_START_DURING_PERIOD', age_min: 5, age_max: 9, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'CD4_INF_200_AT_ARV_START_DURING_PERIOD', age_min: 5, age_max: 9, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'CD4_INF_200_AT_ARV_START_DURING_PERIOD', age_min: 10, age_max: 14, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'CD4_INF_200_AT_ARV_START_DURING_PERIOD', age_min: 10, age_max: 14, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'CD4_INF_200_AT_ARV_START_DURING_PERIOD', age_min: 15, age_max: 19, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'CD4_INF_200_AT_ARV_START_DURING_PERIOD', age_min: 15, age_max: 19, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'CD4_INF_200_AT_ARV_START_DURING_PERIOD', age_min: 20, age_max: 24, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'CD4_INF_200_AT_ARV_START_DURING_PERIOD', age_min: 20, age_max: 24, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'CD4_INF_200_AT_ARV_START_DURING_PERIOD', age_min: 25, age_max: 49, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'CD4_INF_200_AT_ARV_START_DURING_PERIOD', age_min: 25, age_max: 49, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'CD4_INF_200_AT_ARV_START_DURING_PERIOD', age_min: 50, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'CD4_INF_200_AT_ARV_START_DURING_PERIOD', age_min: 50, gender: 1}</t>
   </si>
   <si>
     <t>République du Niger</t>
@@ -2205,7 +2349,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="20">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -2258,20 +2402,6 @@
     <border diagonalUp="false" diagonalDown="false">
       <left style="double"/>
       <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="double"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="double"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="double"/>
       <top style="thin"/>
       <bottom style="double"/>
       <diagonal/>
@@ -2388,7 +2518,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="59">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2533,47 +2663,19 @@
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="5" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="8" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="8" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="8" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="9" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2583,6 +2685,14 @@
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="8" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="8" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="8" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -2597,23 +2707,19 @@
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="8" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="8" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2621,27 +2727,23 @@
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2730,15 +2832,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>189000</xdr:colOff>
+      <xdr:colOff>216000</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:rowOff>128160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>672120</xdr:colOff>
+      <xdr:colOff>698760</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>105840</xdr:rowOff>
+      <xdr:rowOff>96480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2751,8 +2853,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="189000" y="736920"/>
-          <a:ext cx="483120" cy="359280"/>
+          <a:off x="216000" y="727920"/>
+          <a:ext cx="482760" cy="358920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2774,8 +2876,8 @@
   </sheetPr>
   <dimension ref="A1:AB57"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B39" activeCellId="0" sqref="B39:AB39"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A32" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B38" activeCellId="0" sqref="B38:AB38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4916,85 +5018,85 @@
       <c r="A36" s="18" t="s">
         <v>525</v>
       </c>
-      <c r="B36" s="36" t="s">
+      <c r="B36" s="15" t="s">
         <v>526</v>
       </c>
-      <c r="C36" s="36" t="s">
+      <c r="C36" s="15" t="s">
         <v>527</v>
       </c>
-      <c r="D36" s="36" t="s">
+      <c r="D36" s="15" t="s">
         <v>528</v>
       </c>
-      <c r="E36" s="36" t="s">
+      <c r="E36" s="15" t="s">
         <v>529</v>
       </c>
-      <c r="F36" s="36" t="s">
+      <c r="F36" s="15" t="s">
         <v>530</v>
       </c>
-      <c r="G36" s="36" t="s">
+      <c r="G36" s="15" t="s">
         <v>531</v>
       </c>
-      <c r="H36" s="36" t="s">
+      <c r="H36" s="15" t="s">
         <v>532</v>
       </c>
-      <c r="I36" s="36" t="s">
+      <c r="I36" s="15" t="s">
         <v>533</v>
       </c>
-      <c r="J36" s="36" t="s">
+      <c r="J36" s="15" t="s">
         <v>534</v>
       </c>
-      <c r="K36" s="37" t="s">
+      <c r="K36" s="16" t="s">
         <v>535</v>
       </c>
-      <c r="L36" s="37" t="s">
+      <c r="L36" s="16" t="s">
         <v>536</v>
       </c>
-      <c r="M36" s="37" t="s">
+      <c r="M36" s="16" t="s">
         <v>537</v>
       </c>
-      <c r="N36" s="37" t="s">
+      <c r="N36" s="16" t="s">
         <v>535</v>
       </c>
-      <c r="O36" s="37" t="s">
+      <c r="O36" s="16" t="s">
         <v>538</v>
       </c>
-      <c r="P36" s="37" t="s">
+      <c r="P36" s="16" t="s">
         <v>539</v>
       </c>
-      <c r="Q36" s="37" t="s">
+      <c r="Q36" s="16" t="s">
         <v>540</v>
       </c>
-      <c r="R36" s="37" t="s">
+      <c r="R36" s="16" t="s">
         <v>541</v>
       </c>
-      <c r="S36" s="37" t="s">
+      <c r="S36" s="16" t="s">
         <v>542</v>
       </c>
-      <c r="T36" s="37" t="s">
+      <c r="T36" s="16" t="s">
         <v>543</v>
       </c>
-      <c r="U36" s="37" t="s">
+      <c r="U36" s="16" t="s">
         <v>544</v>
       </c>
-      <c r="V36" s="37" t="s">
+      <c r="V36" s="16" t="s">
         <v>545</v>
       </c>
-      <c r="W36" s="37" t="s">
+      <c r="W36" s="16" t="s">
         <v>546</v>
       </c>
-      <c r="X36" s="37" t="s">
+      <c r="X36" s="16" t="s">
         <v>547</v>
       </c>
-      <c r="Y36" s="37" t="s">
+      <c r="Y36" s="16" t="s">
         <v>548</v>
       </c>
-      <c r="Z36" s="37" t="s">
+      <c r="Z36" s="16" t="s">
         <v>549</v>
       </c>
-      <c r="AA36" s="37" t="s">
+      <c r="AA36" s="16" t="s">
         <v>526</v>
       </c>
-      <c r="AB36" s="38" t="s">
+      <c r="AB36" s="17" t="s">
         <v>527</v>
       </c>
     </row>
@@ -5002,239 +5104,349 @@
       <c r="A37" s="18" t="s">
         <v>550</v>
       </c>
-      <c r="B37" s="36" t="s">
+      <c r="B37" s="15" t="s">
         <v>551</v>
       </c>
-      <c r="C37" s="36" t="s">
+      <c r="C37" s="15" t="s">
         <v>552</v>
       </c>
-      <c r="D37" s="36" t="s">
+      <c r="D37" s="15" t="s">
         <v>553</v>
       </c>
-      <c r="E37" s="36" t="s">
+      <c r="E37" s="15" t="s">
         <v>554</v>
       </c>
-      <c r="F37" s="36" t="s">
+      <c r="F37" s="15" t="s">
         <v>555</v>
       </c>
-      <c r="G37" s="36" t="s">
+      <c r="G37" s="15" t="s">
         <v>556</v>
       </c>
-      <c r="H37" s="36" t="s">
+      <c r="H37" s="15" t="s">
         <v>557</v>
       </c>
-      <c r="I37" s="36" t="s">
+      <c r="I37" s="15" t="s">
         <v>558</v>
       </c>
-      <c r="J37" s="36" t="s">
+      <c r="J37" s="15" t="s">
         <v>559</v>
       </c>
-      <c r="K37" s="37" t="s">
+      <c r="K37" s="16" t="s">
         <v>560</v>
       </c>
-      <c r="L37" s="37" t="s">
+      <c r="L37" s="16" t="s">
         <v>561</v>
       </c>
-      <c r="M37" s="37" t="s">
+      <c r="M37" s="16" t="s">
         <v>562</v>
       </c>
-      <c r="N37" s="37" t="s">
+      <c r="N37" s="16" t="s">
         <v>560</v>
       </c>
-      <c r="O37" s="37" t="s">
+      <c r="O37" s="16" t="s">
         <v>563</v>
       </c>
-      <c r="P37" s="37" t="s">
+      <c r="P37" s="16" t="s">
         <v>564</v>
       </c>
-      <c r="Q37" s="37" t="s">
+      <c r="Q37" s="16" t="s">
         <v>565</v>
       </c>
-      <c r="R37" s="37" t="s">
+      <c r="R37" s="16" t="s">
         <v>566</v>
       </c>
-      <c r="S37" s="37" t="s">
+      <c r="S37" s="16" t="s">
         <v>567</v>
       </c>
-      <c r="T37" s="37" t="s">
+      <c r="T37" s="16" t="s">
         <v>568</v>
       </c>
-      <c r="U37" s="37" t="s">
+      <c r="U37" s="16" t="s">
         <v>569</v>
       </c>
-      <c r="V37" s="37" t="s">
+      <c r="V37" s="16" t="s">
         <v>570</v>
       </c>
-      <c r="W37" s="37" t="s">
+      <c r="W37" s="16" t="s">
         <v>571</v>
       </c>
-      <c r="X37" s="37" t="s">
+      <c r="X37" s="16" t="s">
         <v>572</v>
       </c>
-      <c r="Y37" s="37" t="s">
+      <c r="Y37" s="16" t="s">
         <v>573</v>
       </c>
-      <c r="Z37" s="37" t="s">
+      <c r="Z37" s="16" t="s">
         <v>574</v>
       </c>
-      <c r="AA37" s="37" t="s">
+      <c r="AA37" s="16" t="s">
         <v>551</v>
       </c>
-      <c r="AB37" s="38" t="s">
+      <c r="AB37" s="17" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="40.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="47" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="18" t="s">
         <v>575</v>
       </c>
-      <c r="B38" s="15"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="16"/>
-      <c r="J38" s="16"/>
-      <c r="K38" s="16"/>
-      <c r="L38" s="16"/>
-      <c r="M38" s="16"/>
-      <c r="N38" s="16"/>
-      <c r="O38" s="16"/>
-      <c r="P38" s="16"/>
-      <c r="Q38" s="16"/>
-      <c r="R38" s="16"/>
-      <c r="S38" s="16"/>
-      <c r="T38" s="16"/>
-      <c r="U38" s="16"/>
-      <c r="V38" s="16"/>
-      <c r="W38" s="16"/>
-      <c r="X38" s="16"/>
-      <c r="Y38" s="16"/>
-      <c r="Z38" s="16"/>
-      <c r="AA38" s="20"/>
-      <c r="AB38" s="22"/>
+      <c r="B38" s="15" t="s">
+        <v>576</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>577</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>578</v>
+      </c>
+      <c r="E38" s="15" t="s">
+        <v>579</v>
+      </c>
+      <c r="F38" s="15" t="s">
+        <v>580</v>
+      </c>
+      <c r="G38" s="15" t="s">
+        <v>581</v>
+      </c>
+      <c r="H38" s="15" t="s">
+        <v>582</v>
+      </c>
+      <c r="I38" s="15" t="s">
+        <v>583</v>
+      </c>
+      <c r="J38" s="15" t="s">
+        <v>584</v>
+      </c>
+      <c r="K38" s="16" t="s">
+        <v>585</v>
+      </c>
+      <c r="L38" s="16" t="s">
+        <v>586</v>
+      </c>
+      <c r="M38" s="16" t="s">
+        <v>587</v>
+      </c>
+      <c r="N38" s="16" t="s">
+        <v>585</v>
+      </c>
+      <c r="O38" s="16" t="s">
+        <v>588</v>
+      </c>
+      <c r="P38" s="16" t="s">
+        <v>589</v>
+      </c>
+      <c r="Q38" s="16" t="s">
+        <v>590</v>
+      </c>
+      <c r="R38" s="16" t="s">
+        <v>591</v>
+      </c>
+      <c r="S38" s="16" t="s">
+        <v>592</v>
+      </c>
+      <c r="T38" s="16" t="s">
+        <v>593</v>
+      </c>
+      <c r="U38" s="16" t="s">
+        <v>594</v>
+      </c>
+      <c r="V38" s="16" t="s">
+        <v>595</v>
+      </c>
+      <c r="W38" s="16" t="s">
+        <v>596</v>
+      </c>
+      <c r="X38" s="16" t="s">
+        <v>597</v>
+      </c>
+      <c r="Y38" s="16" t="s">
+        <v>598</v>
+      </c>
+      <c r="Z38" s="16" t="s">
+        <v>599</v>
+      </c>
+      <c r="AA38" s="16" t="s">
+        <v>576</v>
+      </c>
+      <c r="AB38" s="17" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="14" t="s">
-        <v>576</v>
-      </c>
-      <c r="B39" s="36" t="s">
-        <v>577</v>
-      </c>
-      <c r="C39" s="36" t="s">
-        <v>578</v>
-      </c>
-      <c r="D39" s="36" t="s">
-        <v>579</v>
-      </c>
-      <c r="E39" s="36" t="s">
-        <v>580</v>
-      </c>
-      <c r="F39" s="36" t="s">
-        <v>581</v>
-      </c>
-      <c r="G39" s="36" t="s">
-        <v>582</v>
-      </c>
-      <c r="H39" s="36" t="s">
-        <v>583</v>
-      </c>
-      <c r="I39" s="36" t="s">
-        <v>584</v>
-      </c>
-      <c r="J39" s="36" t="s">
-        <v>585</v>
-      </c>
-      <c r="K39" s="37" t="s">
-        <v>586</v>
-      </c>
-      <c r="L39" s="37" t="s">
-        <v>587</v>
-      </c>
-      <c r="M39" s="37" t="s">
-        <v>588</v>
-      </c>
-      <c r="N39" s="37" t="s">
-        <v>586</v>
-      </c>
-      <c r="O39" s="37" t="s">
-        <v>589</v>
-      </c>
-      <c r="P39" s="37" t="s">
-        <v>590</v>
-      </c>
-      <c r="Q39" s="37" t="s">
-        <v>591</v>
-      </c>
-      <c r="R39" s="37" t="s">
-        <v>592</v>
-      </c>
-      <c r="S39" s="37" t="s">
-        <v>593</v>
-      </c>
-      <c r="T39" s="37" t="s">
-        <v>594</v>
-      </c>
-      <c r="U39" s="37" t="s">
-        <v>595</v>
-      </c>
-      <c r="V39" s="37" t="s">
-        <v>596</v>
-      </c>
-      <c r="W39" s="37" t="s">
-        <v>597</v>
-      </c>
-      <c r="X39" s="37" t="s">
-        <v>598</v>
-      </c>
-      <c r="Y39" s="37" t="s">
-        <v>599</v>
-      </c>
-      <c r="Z39" s="37" t="s">
         <v>600</v>
       </c>
-      <c r="AA39" s="37" t="s">
-        <v>577</v>
-      </c>
-      <c r="AB39" s="38" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="39" t="s">
+      <c r="B39" s="15" t="s">
         <v>601</v>
       </c>
-      <c r="B40" s="40"/>
-      <c r="C40" s="40"/>
-      <c r="D40" s="40"/>
-      <c r="E40" s="40"/>
-      <c r="F40" s="41"/>
-      <c r="G40" s="42"/>
-      <c r="H40" s="42"/>
-      <c r="I40" s="42"/>
-      <c r="J40" s="42"/>
-      <c r="K40" s="42"/>
-      <c r="L40" s="42"/>
-      <c r="M40" s="42"/>
-      <c r="N40" s="42"/>
-      <c r="O40" s="42"/>
-      <c r="P40" s="42"/>
-      <c r="Q40" s="42"/>
-      <c r="R40" s="42"/>
-      <c r="S40" s="42"/>
-      <c r="T40" s="42"/>
-      <c r="U40" s="42"/>
-      <c r="V40" s="42"/>
-      <c r="W40" s="42"/>
-      <c r="X40" s="42"/>
-      <c r="Y40" s="42"/>
-      <c r="Z40" s="42"/>
-      <c r="AA40" s="41"/>
-      <c r="AB40" s="43"/>
+      <c r="C39" s="15" t="s">
+        <v>602</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>603</v>
+      </c>
+      <c r="E39" s="15" t="s">
+        <v>604</v>
+      </c>
+      <c r="F39" s="15" t="s">
+        <v>605</v>
+      </c>
+      <c r="G39" s="15" t="s">
+        <v>606</v>
+      </c>
+      <c r="H39" s="15" t="s">
+        <v>607</v>
+      </c>
+      <c r="I39" s="15" t="s">
+        <v>608</v>
+      </c>
+      <c r="J39" s="15" t="s">
+        <v>609</v>
+      </c>
+      <c r="K39" s="16" t="s">
+        <v>610</v>
+      </c>
+      <c r="L39" s="16" t="s">
+        <v>611</v>
+      </c>
+      <c r="M39" s="16" t="s">
+        <v>612</v>
+      </c>
+      <c r="N39" s="16" t="s">
+        <v>610</v>
+      </c>
+      <c r="O39" s="16" t="s">
+        <v>613</v>
+      </c>
+      <c r="P39" s="16" t="s">
+        <v>614</v>
+      </c>
+      <c r="Q39" s="16" t="s">
+        <v>615</v>
+      </c>
+      <c r="R39" s="16" t="s">
+        <v>616</v>
+      </c>
+      <c r="S39" s="16" t="s">
+        <v>617</v>
+      </c>
+      <c r="T39" s="16" t="s">
+        <v>618</v>
+      </c>
+      <c r="U39" s="16" t="s">
+        <v>619</v>
+      </c>
+      <c r="V39" s="16" t="s">
+        <v>620</v>
+      </c>
+      <c r="W39" s="16" t="s">
+        <v>621</v>
+      </c>
+      <c r="X39" s="16" t="s">
+        <v>622</v>
+      </c>
+      <c r="Y39" s="16" t="s">
+        <v>623</v>
+      </c>
+      <c r="Z39" s="16" t="s">
+        <v>624</v>
+      </c>
+      <c r="AA39" s="16" t="s">
+        <v>601</v>
+      </c>
+      <c r="AB39" s="17" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="36" t="s">
+        <v>625</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>626</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>627</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>628</v>
+      </c>
+      <c r="E40" s="15" t="s">
+        <v>629</v>
+      </c>
+      <c r="F40" s="15" t="s">
+        <v>630</v>
+      </c>
+      <c r="G40" s="15" t="s">
+        <v>631</v>
+      </c>
+      <c r="H40" s="15" t="s">
+        <v>632</v>
+      </c>
+      <c r="I40" s="15" t="s">
+        <v>633</v>
+      </c>
+      <c r="J40" s="15" t="s">
+        <v>634</v>
+      </c>
+      <c r="K40" s="16" t="s">
+        <v>635</v>
+      </c>
+      <c r="L40" s="16" t="s">
+        <v>636</v>
+      </c>
+      <c r="M40" s="16" t="s">
+        <v>637</v>
+      </c>
+      <c r="N40" s="16" t="s">
+        <v>635</v>
+      </c>
+      <c r="O40" s="16" t="s">
+        <v>638</v>
+      </c>
+      <c r="P40" s="16" t="s">
+        <v>639</v>
+      </c>
+      <c r="Q40" s="16" t="s">
+        <v>640</v>
+      </c>
+      <c r="R40" s="16" t="s">
+        <v>641</v>
+      </c>
+      <c r="S40" s="16" t="s">
+        <v>642</v>
+      </c>
+      <c r="T40" s="16" t="s">
+        <v>643</v>
+      </c>
+      <c r="U40" s="16" t="s">
+        <v>644</v>
+      </c>
+      <c r="V40" s="16" t="s">
+        <v>645</v>
+      </c>
+      <c r="W40" s="16" t="s">
+        <v>646</v>
+      </c>
+      <c r="X40" s="16" t="s">
+        <v>647</v>
+      </c>
+      <c r="Y40" s="16" t="s">
+        <v>648</v>
+      </c>
+      <c r="Z40" s="16" t="s">
+        <v>649</v>
+      </c>
+      <c r="AA40" s="16" t="s">
+        <v>626</v>
+      </c>
+      <c r="AB40" s="17" t="s">
+        <v>627</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="22">
@@ -5279,7 +5491,7 @@
   <dimension ref="A1:Y59"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B39:AB39 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B38:AB38 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5289,1383 +5501,1383 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="44" t="s">
-        <v>602</v>
+      <c r="A1" s="37" t="s">
+        <v>650</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="44" t="s">
-        <v>603</v>
+      <c r="A2" s="37" t="s">
+        <v>651</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="44" t="s">
-        <v>604</v>
+      <c r="A3" s="37" t="s">
+        <v>652</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="44" t="s">
-        <v>605</v>
+      <c r="A4" s="37" t="s">
+        <v>653</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="44" t="s">
-        <v>606</v>
+      <c r="A6" s="37" t="s">
+        <v>654</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="44" t="s">
-        <v>607</v>
+      <c r="A7" s="37" t="s">
+        <v>655</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="44"/>
+      <c r="A8" s="37"/>
     </row>
     <row r="9" customFormat="false" ht="80.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="45" t="s">
-        <v>608</v>
+      <c r="A9" s="38" t="s">
+        <v>656</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="51.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="46" t="s">
-        <v>609</v>
+      <c r="A10" s="39" t="s">
+        <v>657</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="47"/>
+      <c r="A11" s="40"/>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="47" t="s">
-        <v>610</v>
+      <c r="A12" s="40" t="s">
+        <v>658</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="48"/>
+      <c r="A13" s="41"/>
     </row>
     <row r="14" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="49" t="s">
-        <v>611</v>
-      </c>
-      <c r="B14" s="50" t="s">
-        <v>612</v>
-      </c>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50" t="s">
-        <v>613</v>
-      </c>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50" t="s">
-        <v>614</v>
-      </c>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50" t="s">
-        <v>615</v>
-      </c>
-      <c r="I14" s="50"/>
-      <c r="J14" s="50" t="s">
+      <c r="A14" s="42" t="s">
+        <v>659</v>
+      </c>
+      <c r="B14" s="43" t="s">
+        <v>660</v>
+      </c>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43" t="s">
+        <v>661</v>
+      </c>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43" t="s">
+        <v>662</v>
+      </c>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43" t="s">
+        <v>663</v>
+      </c>
+      <c r="I14" s="43"/>
+      <c r="J14" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="K14" s="50"/>
-      <c r="L14" s="50" t="s">
+      <c r="K14" s="43"/>
+      <c r="L14" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="M14" s="50"/>
-      <c r="N14" s="50" t="s">
+      <c r="M14" s="43"/>
+      <c r="N14" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="O14" s="50"/>
-      <c r="P14" s="50" t="s">
-        <v>616</v>
-      </c>
-      <c r="Q14" s="50"/>
-      <c r="R14" s="50" t="s">
-        <v>617</v>
-      </c>
-      <c r="S14" s="50"/>
-      <c r="T14" s="50" t="s">
-        <v>618</v>
-      </c>
-      <c r="U14" s="50"/>
-      <c r="V14" s="50" t="s">
-        <v>619</v>
-      </c>
-      <c r="W14" s="50"/>
-      <c r="X14" s="51" t="s">
+      <c r="O14" s="43"/>
+      <c r="P14" s="43" t="s">
+        <v>664</v>
+      </c>
+      <c r="Q14" s="43"/>
+      <c r="R14" s="43" t="s">
+        <v>665</v>
+      </c>
+      <c r="S14" s="43"/>
+      <c r="T14" s="43" t="s">
+        <v>666</v>
+      </c>
+      <c r="U14" s="43"/>
+      <c r="V14" s="43" t="s">
+        <v>667</v>
+      </c>
+      <c r="W14" s="43"/>
+      <c r="X14" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="Y14" s="51"/>
+      <c r="Y14" s="44"/>
     </row>
     <row r="15" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="49"/>
-      <c r="B15" s="52" t="s">
+      <c r="A15" s="42"/>
+      <c r="B15" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="52" t="s">
+      <c r="C15" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="52" t="s">
+      <c r="D15" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="52" t="s">
+      <c r="E15" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="F15" s="52" t="s">
+      <c r="F15" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="G15" s="52" t="s">
+      <c r="G15" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="H15" s="52" t="s">
+      <c r="H15" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="I15" s="52" t="s">
+      <c r="I15" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="J15" s="52" t="s">
+      <c r="J15" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="K15" s="52" t="s">
+      <c r="K15" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="L15" s="52" t="s">
+      <c r="L15" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="M15" s="52" t="s">
+      <c r="M15" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="N15" s="52" t="s">
+      <c r="N15" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="O15" s="52" t="s">
+      <c r="O15" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="P15" s="52" t="s">
+      <c r="P15" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="Q15" s="52" t="s">
+      <c r="Q15" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="R15" s="52" t="s">
+      <c r="R15" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="S15" s="52" t="s">
+      <c r="S15" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="T15" s="52" t="s">
+      <c r="T15" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="U15" s="52" t="s">
+      <c r="U15" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="V15" s="52" t="s">
+      <c r="V15" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="W15" s="52" t="s">
+      <c r="W15" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="X15" s="52" t="s">
+      <c r="X15" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="Y15" s="53" t="s">
+      <c r="Y15" s="46" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="54" t="s">
-        <v>620</v>
-      </c>
-      <c r="B16" s="54"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="54"/>
-      <c r="I16" s="54"/>
-      <c r="J16" s="54"/>
-      <c r="K16" s="54"/>
-      <c r="L16" s="54"/>
-      <c r="M16" s="54"/>
-      <c r="N16" s="54"/>
-      <c r="O16" s="54"/>
-      <c r="P16" s="54"/>
-      <c r="Q16" s="54"/>
-      <c r="R16" s="54"/>
-      <c r="S16" s="54"/>
-      <c r="T16" s="54"/>
-      <c r="U16" s="54"/>
-      <c r="V16" s="54"/>
-      <c r="W16" s="54"/>
-      <c r="X16" s="54"/>
-      <c r="Y16" s="54"/>
+      <c r="A16" s="47" t="s">
+        <v>668</v>
+      </c>
+      <c r="B16" s="47"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="47"/>
+      <c r="M16" s="47"/>
+      <c r="N16" s="47"/>
+      <c r="O16" s="47"/>
+      <c r="P16" s="47"/>
+      <c r="Q16" s="47"/>
+      <c r="R16" s="47"/>
+      <c r="S16" s="47"/>
+      <c r="T16" s="47"/>
+      <c r="U16" s="47"/>
+      <c r="V16" s="47"/>
+      <c r="W16" s="47"/>
+      <c r="X16" s="47"/>
+      <c r="Y16" s="47"/>
     </row>
     <row r="17" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="55" t="s">
-        <v>621</v>
-      </c>
-      <c r="B17" s="56"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="56"/>
-      <c r="L17" s="56"/>
-      <c r="M17" s="56"/>
-      <c r="N17" s="56"/>
-      <c r="O17" s="56"/>
-      <c r="P17" s="56"/>
-      <c r="Q17" s="56"/>
-      <c r="R17" s="56"/>
-      <c r="S17" s="56"/>
-      <c r="T17" s="56"/>
-      <c r="U17" s="56"/>
-      <c r="V17" s="56"/>
-      <c r="W17" s="56"/>
-      <c r="X17" s="56"/>
-      <c r="Y17" s="57"/>
+      <c r="A17" s="48" t="s">
+        <v>669</v>
+      </c>
+      <c r="B17" s="49"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="49"/>
+      <c r="L17" s="49"/>
+      <c r="M17" s="49"/>
+      <c r="N17" s="49"/>
+      <c r="O17" s="49"/>
+      <c r="P17" s="49"/>
+      <c r="Q17" s="49"/>
+      <c r="R17" s="49"/>
+      <c r="S17" s="49"/>
+      <c r="T17" s="49"/>
+      <c r="U17" s="49"/>
+      <c r="V17" s="49"/>
+      <c r="W17" s="49"/>
+      <c r="X17" s="49"/>
+      <c r="Y17" s="50"/>
     </row>
     <row r="18" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="55" t="s">
-        <v>622</v>
-      </c>
-      <c r="B18" s="56"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="56"/>
-      <c r="O18" s="56"/>
-      <c r="P18" s="56"/>
-      <c r="Q18" s="56"/>
-      <c r="R18" s="56"/>
-      <c r="S18" s="56"/>
-      <c r="T18" s="56"/>
-      <c r="U18" s="56"/>
-      <c r="V18" s="56"/>
-      <c r="W18" s="56"/>
-      <c r="X18" s="56"/>
-      <c r="Y18" s="57"/>
+      <c r="A18" s="48" t="s">
+        <v>670</v>
+      </c>
+      <c r="B18" s="49"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="49"/>
+      <c r="L18" s="49"/>
+      <c r="M18" s="49"/>
+      <c r="N18" s="49"/>
+      <c r="O18" s="49"/>
+      <c r="P18" s="49"/>
+      <c r="Q18" s="49"/>
+      <c r="R18" s="49"/>
+      <c r="S18" s="49"/>
+      <c r="T18" s="49"/>
+      <c r="U18" s="49"/>
+      <c r="V18" s="49"/>
+      <c r="W18" s="49"/>
+      <c r="X18" s="49"/>
+      <c r="Y18" s="50"/>
     </row>
     <row r="19" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="55" t="s">
-        <v>623</v>
-      </c>
-      <c r="B19" s="56"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="56"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="56"/>
-      <c r="L19" s="56"/>
-      <c r="M19" s="56"/>
-      <c r="N19" s="56"/>
-      <c r="O19" s="56"/>
-      <c r="P19" s="56"/>
-      <c r="Q19" s="56"/>
-      <c r="R19" s="56"/>
-      <c r="S19" s="56"/>
-      <c r="T19" s="56"/>
-      <c r="U19" s="56"/>
-      <c r="V19" s="56"/>
-      <c r="W19" s="56"/>
-      <c r="X19" s="56"/>
-      <c r="Y19" s="57"/>
+      <c r="A19" s="48" t="s">
+        <v>671</v>
+      </c>
+      <c r="B19" s="49"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="49"/>
+      <c r="K19" s="49"/>
+      <c r="L19" s="49"/>
+      <c r="M19" s="49"/>
+      <c r="N19" s="49"/>
+      <c r="O19" s="49"/>
+      <c r="P19" s="49"/>
+      <c r="Q19" s="49"/>
+      <c r="R19" s="49"/>
+      <c r="S19" s="49"/>
+      <c r="T19" s="49"/>
+      <c r="U19" s="49"/>
+      <c r="V19" s="49"/>
+      <c r="W19" s="49"/>
+      <c r="X19" s="49"/>
+      <c r="Y19" s="50"/>
     </row>
     <row r="20" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="55"/>
-      <c r="B20" s="56"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="56"/>
-      <c r="O20" s="56"/>
-      <c r="P20" s="56"/>
-      <c r="Q20" s="56"/>
-      <c r="R20" s="56"/>
-      <c r="S20" s="56"/>
-      <c r="T20" s="56"/>
-      <c r="U20" s="56"/>
-      <c r="V20" s="56"/>
-      <c r="W20" s="56"/>
-      <c r="X20" s="56"/>
-      <c r="Y20" s="57"/>
+      <c r="A20" s="48"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="49"/>
+      <c r="L20" s="49"/>
+      <c r="M20" s="49"/>
+      <c r="N20" s="49"/>
+      <c r="O20" s="49"/>
+      <c r="P20" s="49"/>
+      <c r="Q20" s="49"/>
+      <c r="R20" s="49"/>
+      <c r="S20" s="49"/>
+      <c r="T20" s="49"/>
+      <c r="U20" s="49"/>
+      <c r="V20" s="49"/>
+      <c r="W20" s="49"/>
+      <c r="X20" s="49"/>
+      <c r="Y20" s="50"/>
     </row>
     <row r="21" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="55"/>
-      <c r="B21" s="56"/>
-      <c r="C21" s="56"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="56"/>
-      <c r="F21" s="56"/>
-      <c r="G21" s="56"/>
-      <c r="H21" s="56"/>
-      <c r="I21" s="56"/>
-      <c r="J21" s="56"/>
-      <c r="K21" s="56"/>
-      <c r="L21" s="56"/>
-      <c r="M21" s="56"/>
-      <c r="N21" s="56"/>
-      <c r="O21" s="56"/>
-      <c r="P21" s="56"/>
-      <c r="Q21" s="56"/>
-      <c r="R21" s="56"/>
-      <c r="S21" s="56"/>
-      <c r="T21" s="56"/>
-      <c r="U21" s="56"/>
-      <c r="V21" s="56"/>
-      <c r="W21" s="56"/>
-      <c r="X21" s="56"/>
-      <c r="Y21" s="57"/>
+      <c r="A21" s="48"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="49"/>
+      <c r="K21" s="49"/>
+      <c r="L21" s="49"/>
+      <c r="M21" s="49"/>
+      <c r="N21" s="49"/>
+      <c r="O21" s="49"/>
+      <c r="P21" s="49"/>
+      <c r="Q21" s="49"/>
+      <c r="R21" s="49"/>
+      <c r="S21" s="49"/>
+      <c r="T21" s="49"/>
+      <c r="U21" s="49"/>
+      <c r="V21" s="49"/>
+      <c r="W21" s="49"/>
+      <c r="X21" s="49"/>
+      <c r="Y21" s="50"/>
     </row>
     <row r="22" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="54" t="s">
-        <v>624</v>
-      </c>
-      <c r="B22" s="54"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="54"/>
-      <c r="G22" s="54"/>
-      <c r="H22" s="54"/>
-      <c r="I22" s="54"/>
-      <c r="J22" s="54"/>
-      <c r="K22" s="54"/>
-      <c r="L22" s="54"/>
-      <c r="M22" s="54"/>
-      <c r="N22" s="54"/>
-      <c r="O22" s="54"/>
-      <c r="P22" s="54"/>
-      <c r="Q22" s="54"/>
-      <c r="R22" s="54"/>
-      <c r="S22" s="54"/>
-      <c r="T22" s="54"/>
-      <c r="U22" s="54"/>
-      <c r="V22" s="54"/>
-      <c r="W22" s="54"/>
-      <c r="X22" s="54"/>
-      <c r="Y22" s="54"/>
+      <c r="A22" s="47" t="s">
+        <v>672</v>
+      </c>
+      <c r="B22" s="47"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="47"/>
+      <c r="K22" s="47"/>
+      <c r="L22" s="47"/>
+      <c r="M22" s="47"/>
+      <c r="N22" s="47"/>
+      <c r="O22" s="47"/>
+      <c r="P22" s="47"/>
+      <c r="Q22" s="47"/>
+      <c r="R22" s="47"/>
+      <c r="S22" s="47"/>
+      <c r="T22" s="47"/>
+      <c r="U22" s="47"/>
+      <c r="V22" s="47"/>
+      <c r="W22" s="47"/>
+      <c r="X22" s="47"/>
+      <c r="Y22" s="47"/>
     </row>
     <row r="23" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="55" t="s">
-        <v>625</v>
-      </c>
-      <c r="B23" s="56"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="56"/>
-      <c r="G23" s="56"/>
-      <c r="H23" s="56"/>
-      <c r="I23" s="56"/>
-      <c r="J23" s="56"/>
-      <c r="K23" s="56"/>
-      <c r="L23" s="56"/>
-      <c r="M23" s="56"/>
-      <c r="N23" s="56"/>
-      <c r="O23" s="56"/>
-      <c r="P23" s="56"/>
-      <c r="Q23" s="56"/>
-      <c r="R23" s="56"/>
-      <c r="S23" s="56"/>
-      <c r="T23" s="56"/>
-      <c r="U23" s="56"/>
-      <c r="V23" s="56"/>
-      <c r="W23" s="56"/>
-      <c r="X23" s="56"/>
-      <c r="Y23" s="57"/>
+      <c r="A23" s="48" t="s">
+        <v>673</v>
+      </c>
+      <c r="B23" s="49"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="49"/>
+      <c r="J23" s="49"/>
+      <c r="K23" s="49"/>
+      <c r="L23" s="49"/>
+      <c r="M23" s="49"/>
+      <c r="N23" s="49"/>
+      <c r="O23" s="49"/>
+      <c r="P23" s="49"/>
+      <c r="Q23" s="49"/>
+      <c r="R23" s="49"/>
+      <c r="S23" s="49"/>
+      <c r="T23" s="49"/>
+      <c r="U23" s="49"/>
+      <c r="V23" s="49"/>
+      <c r="W23" s="49"/>
+      <c r="X23" s="49"/>
+      <c r="Y23" s="50"/>
     </row>
     <row r="24" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="55" t="s">
-        <v>626</v>
-      </c>
-      <c r="B24" s="56"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="56"/>
-      <c r="H24" s="56"/>
-      <c r="I24" s="56"/>
-      <c r="J24" s="56"/>
-      <c r="K24" s="56"/>
-      <c r="L24" s="56"/>
-      <c r="M24" s="56"/>
-      <c r="N24" s="56"/>
-      <c r="O24" s="56"/>
-      <c r="P24" s="56"/>
-      <c r="Q24" s="56"/>
-      <c r="R24" s="56"/>
-      <c r="S24" s="56"/>
-      <c r="T24" s="56"/>
-      <c r="U24" s="56"/>
-      <c r="V24" s="56"/>
-      <c r="W24" s="56"/>
-      <c r="X24" s="56"/>
-      <c r="Y24" s="57"/>
+      <c r="A24" s="48" t="s">
+        <v>674</v>
+      </c>
+      <c r="B24" s="49"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="49"/>
+      <c r="J24" s="49"/>
+      <c r="K24" s="49"/>
+      <c r="L24" s="49"/>
+      <c r="M24" s="49"/>
+      <c r="N24" s="49"/>
+      <c r="O24" s="49"/>
+      <c r="P24" s="49"/>
+      <c r="Q24" s="49"/>
+      <c r="R24" s="49"/>
+      <c r="S24" s="49"/>
+      <c r="T24" s="49"/>
+      <c r="U24" s="49"/>
+      <c r="V24" s="49"/>
+      <c r="W24" s="49"/>
+      <c r="X24" s="49"/>
+      <c r="Y24" s="50"/>
     </row>
     <row r="25" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="55" t="s">
-        <v>627</v>
-      </c>
-      <c r="B25" s="56"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="56"/>
-      <c r="G25" s="56"/>
-      <c r="H25" s="56"/>
-      <c r="I25" s="56"/>
-      <c r="J25" s="56"/>
-      <c r="K25" s="56"/>
-      <c r="L25" s="56"/>
-      <c r="M25" s="56"/>
-      <c r="N25" s="56"/>
-      <c r="O25" s="56"/>
-      <c r="P25" s="56"/>
-      <c r="Q25" s="56"/>
-      <c r="R25" s="56"/>
-      <c r="S25" s="56"/>
-      <c r="T25" s="56"/>
-      <c r="U25" s="56"/>
-      <c r="V25" s="56"/>
-      <c r="W25" s="56"/>
-      <c r="X25" s="56"/>
-      <c r="Y25" s="57"/>
+      <c r="A25" s="48" t="s">
+        <v>675</v>
+      </c>
+      <c r="B25" s="49"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="49"/>
+      <c r="K25" s="49"/>
+      <c r="L25" s="49"/>
+      <c r="M25" s="49"/>
+      <c r="N25" s="49"/>
+      <c r="O25" s="49"/>
+      <c r="P25" s="49"/>
+      <c r="Q25" s="49"/>
+      <c r="R25" s="49"/>
+      <c r="S25" s="49"/>
+      <c r="T25" s="49"/>
+      <c r="U25" s="49"/>
+      <c r="V25" s="49"/>
+      <c r="W25" s="49"/>
+      <c r="X25" s="49"/>
+      <c r="Y25" s="50"/>
     </row>
     <row r="26" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="55" t="s">
-        <v>628</v>
-      </c>
-      <c r="B26" s="56"/>
-      <c r="C26" s="56"/>
-      <c r="D26" s="56"/>
-      <c r="E26" s="56"/>
-      <c r="F26" s="56"/>
-      <c r="G26" s="56"/>
-      <c r="H26" s="56"/>
-      <c r="I26" s="56"/>
-      <c r="J26" s="56"/>
-      <c r="K26" s="56"/>
-      <c r="L26" s="56"/>
-      <c r="M26" s="56"/>
-      <c r="N26" s="56"/>
-      <c r="O26" s="56"/>
-      <c r="P26" s="56"/>
-      <c r="Q26" s="56"/>
-      <c r="R26" s="56"/>
-      <c r="S26" s="56"/>
-      <c r="T26" s="56"/>
-      <c r="U26" s="56"/>
-      <c r="V26" s="56"/>
-      <c r="W26" s="56"/>
-      <c r="X26" s="56"/>
-      <c r="Y26" s="57"/>
+      <c r="A26" s="48" t="s">
+        <v>676</v>
+      </c>
+      <c r="B26" s="49"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="49"/>
+      <c r="K26" s="49"/>
+      <c r="L26" s="49"/>
+      <c r="M26" s="49"/>
+      <c r="N26" s="49"/>
+      <c r="O26" s="49"/>
+      <c r="P26" s="49"/>
+      <c r="Q26" s="49"/>
+      <c r="R26" s="49"/>
+      <c r="S26" s="49"/>
+      <c r="T26" s="49"/>
+      <c r="U26" s="49"/>
+      <c r="V26" s="49"/>
+      <c r="W26" s="49"/>
+      <c r="X26" s="49"/>
+      <c r="Y26" s="50"/>
     </row>
     <row r="27" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="55"/>
-      <c r="B27" s="56"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="56"/>
-      <c r="E27" s="56"/>
-      <c r="F27" s="56"/>
-      <c r="G27" s="56"/>
-      <c r="H27" s="56"/>
-      <c r="I27" s="56"/>
-      <c r="J27" s="56"/>
-      <c r="K27" s="56"/>
-      <c r="L27" s="56"/>
-      <c r="M27" s="56"/>
-      <c r="N27" s="56"/>
-      <c r="O27" s="56"/>
-      <c r="P27" s="56"/>
-      <c r="Q27" s="56"/>
-      <c r="R27" s="56"/>
-      <c r="S27" s="56"/>
-      <c r="T27" s="56"/>
-      <c r="U27" s="56"/>
-      <c r="V27" s="56"/>
-      <c r="W27" s="56"/>
-      <c r="X27" s="56"/>
-      <c r="Y27" s="57"/>
+      <c r="A27" s="48"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="49"/>
+      <c r="L27" s="49"/>
+      <c r="M27" s="49"/>
+      <c r="N27" s="49"/>
+      <c r="O27" s="49"/>
+      <c r="P27" s="49"/>
+      <c r="Q27" s="49"/>
+      <c r="R27" s="49"/>
+      <c r="S27" s="49"/>
+      <c r="T27" s="49"/>
+      <c r="U27" s="49"/>
+      <c r="V27" s="49"/>
+      <c r="W27" s="49"/>
+      <c r="X27" s="49"/>
+      <c r="Y27" s="50"/>
     </row>
     <row r="28" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="55"/>
-      <c r="B28" s="56"/>
-      <c r="C28" s="56"/>
-      <c r="D28" s="56"/>
-      <c r="E28" s="56"/>
-      <c r="F28" s="56"/>
-      <c r="G28" s="56"/>
-      <c r="H28" s="56"/>
-      <c r="I28" s="56"/>
-      <c r="J28" s="56"/>
-      <c r="K28" s="56"/>
-      <c r="L28" s="56"/>
-      <c r="M28" s="56"/>
-      <c r="N28" s="56"/>
-      <c r="O28" s="56"/>
-      <c r="P28" s="56"/>
-      <c r="Q28" s="56"/>
-      <c r="R28" s="56"/>
-      <c r="S28" s="56"/>
-      <c r="T28" s="56"/>
-      <c r="U28" s="56"/>
-      <c r="V28" s="56"/>
-      <c r="W28" s="56"/>
-      <c r="X28" s="56"/>
-      <c r="Y28" s="57"/>
+      <c r="A28" s="48"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="49"/>
+      <c r="K28" s="49"/>
+      <c r="L28" s="49"/>
+      <c r="M28" s="49"/>
+      <c r="N28" s="49"/>
+      <c r="O28" s="49"/>
+      <c r="P28" s="49"/>
+      <c r="Q28" s="49"/>
+      <c r="R28" s="49"/>
+      <c r="S28" s="49"/>
+      <c r="T28" s="49"/>
+      <c r="U28" s="49"/>
+      <c r="V28" s="49"/>
+      <c r="W28" s="49"/>
+      <c r="X28" s="49"/>
+      <c r="Y28" s="50"/>
     </row>
     <row r="29" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="58" t="s">
-        <v>629</v>
-      </c>
-      <c r="B29" s="56"/>
-      <c r="C29" s="56"/>
-      <c r="D29" s="56"/>
-      <c r="E29" s="56"/>
-      <c r="F29" s="56"/>
-      <c r="G29" s="56"/>
-      <c r="H29" s="56"/>
-      <c r="I29" s="56"/>
-      <c r="J29" s="56"/>
-      <c r="K29" s="56"/>
-      <c r="L29" s="56"/>
-      <c r="M29" s="56"/>
-      <c r="N29" s="56"/>
-      <c r="O29" s="56"/>
-      <c r="P29" s="56"/>
-      <c r="Q29" s="56"/>
-      <c r="R29" s="56"/>
-      <c r="S29" s="56"/>
-      <c r="T29" s="56"/>
-      <c r="U29" s="56"/>
-      <c r="V29" s="56"/>
-      <c r="W29" s="56"/>
-      <c r="X29" s="56"/>
-      <c r="Y29" s="57"/>
+      <c r="A29" s="51" t="s">
+        <v>677</v>
+      </c>
+      <c r="B29" s="49"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="49"/>
+      <c r="J29" s="49"/>
+      <c r="K29" s="49"/>
+      <c r="L29" s="49"/>
+      <c r="M29" s="49"/>
+      <c r="N29" s="49"/>
+      <c r="O29" s="49"/>
+      <c r="P29" s="49"/>
+      <c r="Q29" s="49"/>
+      <c r="R29" s="49"/>
+      <c r="S29" s="49"/>
+      <c r="T29" s="49"/>
+      <c r="U29" s="49"/>
+      <c r="V29" s="49"/>
+      <c r="W29" s="49"/>
+      <c r="X29" s="49"/>
+      <c r="Y29" s="50"/>
     </row>
     <row r="30" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="54" t="s">
-        <v>630</v>
-      </c>
-      <c r="B30" s="54"/>
-      <c r="C30" s="54"/>
-      <c r="D30" s="54"/>
-      <c r="E30" s="54"/>
-      <c r="F30" s="54"/>
-      <c r="G30" s="54"/>
-      <c r="H30" s="54"/>
-      <c r="I30" s="54"/>
-      <c r="J30" s="54"/>
-      <c r="K30" s="54"/>
-      <c r="L30" s="54"/>
-      <c r="M30" s="54"/>
-      <c r="N30" s="54"/>
-      <c r="O30" s="54"/>
-      <c r="P30" s="54"/>
-      <c r="Q30" s="54"/>
-      <c r="R30" s="54"/>
-      <c r="S30" s="54"/>
-      <c r="T30" s="54"/>
-      <c r="U30" s="54"/>
-      <c r="V30" s="54"/>
-      <c r="W30" s="54"/>
-      <c r="X30" s="54"/>
-      <c r="Y30" s="54"/>
+      <c r="A30" s="47" t="s">
+        <v>678</v>
+      </c>
+      <c r="B30" s="47"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="47"/>
+      <c r="I30" s="47"/>
+      <c r="J30" s="47"/>
+      <c r="K30" s="47"/>
+      <c r="L30" s="47"/>
+      <c r="M30" s="47"/>
+      <c r="N30" s="47"/>
+      <c r="O30" s="47"/>
+      <c r="P30" s="47"/>
+      <c r="Q30" s="47"/>
+      <c r="R30" s="47"/>
+      <c r="S30" s="47"/>
+      <c r="T30" s="47"/>
+      <c r="U30" s="47"/>
+      <c r="V30" s="47"/>
+      <c r="W30" s="47"/>
+      <c r="X30" s="47"/>
+      <c r="Y30" s="47"/>
     </row>
     <row r="31" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="55" t="s">
-        <v>631</v>
-      </c>
-      <c r="B31" s="56"/>
-      <c r="C31" s="56"/>
-      <c r="D31" s="56"/>
-      <c r="E31" s="56"/>
-      <c r="F31" s="56"/>
-      <c r="G31" s="56"/>
-      <c r="H31" s="56"/>
-      <c r="I31" s="56"/>
-      <c r="J31" s="56"/>
-      <c r="K31" s="56"/>
-      <c r="L31" s="56"/>
-      <c r="M31" s="56"/>
-      <c r="N31" s="56"/>
-      <c r="O31" s="56"/>
-      <c r="P31" s="56"/>
-      <c r="Q31" s="56"/>
-      <c r="R31" s="56"/>
-      <c r="S31" s="56"/>
-      <c r="T31" s="56"/>
-      <c r="U31" s="56"/>
-      <c r="V31" s="56"/>
-      <c r="W31" s="56"/>
-      <c r="X31" s="56"/>
-      <c r="Y31" s="57"/>
+      <c r="A31" s="48" t="s">
+        <v>679</v>
+      </c>
+      <c r="B31" s="49"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="49"/>
+      <c r="J31" s="49"/>
+      <c r="K31" s="49"/>
+      <c r="L31" s="49"/>
+      <c r="M31" s="49"/>
+      <c r="N31" s="49"/>
+      <c r="O31" s="49"/>
+      <c r="P31" s="49"/>
+      <c r="Q31" s="49"/>
+      <c r="R31" s="49"/>
+      <c r="S31" s="49"/>
+      <c r="T31" s="49"/>
+      <c r="U31" s="49"/>
+      <c r="V31" s="49"/>
+      <c r="W31" s="49"/>
+      <c r="X31" s="49"/>
+      <c r="Y31" s="50"/>
     </row>
     <row r="32" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="55" t="s">
-        <v>632</v>
-      </c>
-      <c r="B32" s="56"/>
-      <c r="C32" s="56"/>
-      <c r="D32" s="56"/>
-      <c r="E32" s="56"/>
-      <c r="F32" s="56"/>
-      <c r="G32" s="56"/>
-      <c r="H32" s="56"/>
-      <c r="I32" s="56"/>
-      <c r="J32" s="56"/>
-      <c r="K32" s="56"/>
-      <c r="L32" s="56"/>
-      <c r="M32" s="56"/>
-      <c r="N32" s="56"/>
-      <c r="O32" s="56"/>
-      <c r="P32" s="56"/>
-      <c r="Q32" s="56"/>
-      <c r="R32" s="56"/>
-      <c r="S32" s="56"/>
-      <c r="T32" s="56"/>
-      <c r="U32" s="56"/>
-      <c r="V32" s="56"/>
-      <c r="W32" s="56"/>
-      <c r="X32" s="56"/>
-      <c r="Y32" s="57"/>
+      <c r="A32" s="48" t="s">
+        <v>680</v>
+      </c>
+      <c r="B32" s="49"/>
+      <c r="C32" s="49"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="49"/>
+      <c r="I32" s="49"/>
+      <c r="J32" s="49"/>
+      <c r="K32" s="49"/>
+      <c r="L32" s="49"/>
+      <c r="M32" s="49"/>
+      <c r="N32" s="49"/>
+      <c r="O32" s="49"/>
+      <c r="P32" s="49"/>
+      <c r="Q32" s="49"/>
+      <c r="R32" s="49"/>
+      <c r="S32" s="49"/>
+      <c r="T32" s="49"/>
+      <c r="U32" s="49"/>
+      <c r="V32" s="49"/>
+      <c r="W32" s="49"/>
+      <c r="X32" s="49"/>
+      <c r="Y32" s="50"/>
     </row>
     <row r="33" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="55"/>
-      <c r="B33" s="56"/>
-      <c r="C33" s="56"/>
-      <c r="D33" s="56"/>
-      <c r="E33" s="56"/>
-      <c r="F33" s="56"/>
-      <c r="G33" s="56"/>
-      <c r="H33" s="56"/>
-      <c r="I33" s="56"/>
-      <c r="J33" s="56"/>
-      <c r="K33" s="56"/>
-      <c r="L33" s="56"/>
-      <c r="M33" s="56"/>
-      <c r="N33" s="56"/>
-      <c r="O33" s="56"/>
-      <c r="P33" s="56"/>
-      <c r="Q33" s="56"/>
-      <c r="R33" s="56"/>
-      <c r="S33" s="56"/>
-      <c r="T33" s="56"/>
-      <c r="U33" s="56"/>
-      <c r="V33" s="56"/>
-      <c r="W33" s="56"/>
-      <c r="X33" s="56"/>
-      <c r="Y33" s="57"/>
+      <c r="A33" s="48"/>
+      <c r="B33" s="49"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="49"/>
+      <c r="I33" s="49"/>
+      <c r="J33" s="49"/>
+      <c r="K33" s="49"/>
+      <c r="L33" s="49"/>
+      <c r="M33" s="49"/>
+      <c r="N33" s="49"/>
+      <c r="O33" s="49"/>
+      <c r="P33" s="49"/>
+      <c r="Q33" s="49"/>
+      <c r="R33" s="49"/>
+      <c r="S33" s="49"/>
+      <c r="T33" s="49"/>
+      <c r="U33" s="49"/>
+      <c r="V33" s="49"/>
+      <c r="W33" s="49"/>
+      <c r="X33" s="49"/>
+      <c r="Y33" s="50"/>
     </row>
     <row r="34" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="55"/>
-      <c r="B34" s="56"/>
-      <c r="C34" s="56"/>
-      <c r="D34" s="56"/>
-      <c r="E34" s="56"/>
-      <c r="F34" s="56"/>
-      <c r="G34" s="56"/>
-      <c r="H34" s="56"/>
-      <c r="I34" s="56"/>
-      <c r="J34" s="56"/>
-      <c r="K34" s="56"/>
-      <c r="L34" s="56"/>
-      <c r="M34" s="56"/>
-      <c r="N34" s="56"/>
-      <c r="O34" s="56"/>
-      <c r="P34" s="56"/>
-      <c r="Q34" s="56"/>
-      <c r="R34" s="56"/>
-      <c r="S34" s="56"/>
-      <c r="T34" s="56"/>
-      <c r="U34" s="56"/>
-      <c r="V34" s="56"/>
-      <c r="W34" s="56"/>
-      <c r="X34" s="56"/>
-      <c r="Y34" s="57"/>
+      <c r="A34" s="48"/>
+      <c r="B34" s="49"/>
+      <c r="C34" s="49"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="49"/>
+      <c r="H34" s="49"/>
+      <c r="I34" s="49"/>
+      <c r="J34" s="49"/>
+      <c r="K34" s="49"/>
+      <c r="L34" s="49"/>
+      <c r="M34" s="49"/>
+      <c r="N34" s="49"/>
+      <c r="O34" s="49"/>
+      <c r="P34" s="49"/>
+      <c r="Q34" s="49"/>
+      <c r="R34" s="49"/>
+      <c r="S34" s="49"/>
+      <c r="T34" s="49"/>
+      <c r="U34" s="49"/>
+      <c r="V34" s="49"/>
+      <c r="W34" s="49"/>
+      <c r="X34" s="49"/>
+      <c r="Y34" s="50"/>
     </row>
     <row r="35" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="54" t="s">
-        <v>633</v>
-      </c>
-      <c r="B35" s="54"/>
-      <c r="C35" s="54"/>
-      <c r="D35" s="54"/>
-      <c r="E35" s="54"/>
-      <c r="F35" s="54"/>
-      <c r="G35" s="54"/>
-      <c r="H35" s="54"/>
-      <c r="I35" s="54"/>
-      <c r="J35" s="54"/>
-      <c r="K35" s="54"/>
-      <c r="L35" s="54"/>
-      <c r="M35" s="54"/>
-      <c r="N35" s="54"/>
-      <c r="O35" s="54"/>
-      <c r="P35" s="54"/>
-      <c r="Q35" s="54"/>
-      <c r="R35" s="54"/>
-      <c r="S35" s="54"/>
-      <c r="T35" s="54"/>
-      <c r="U35" s="54"/>
-      <c r="V35" s="54"/>
-      <c r="W35" s="54"/>
-      <c r="X35" s="54"/>
-      <c r="Y35" s="54"/>
+      <c r="A35" s="47" t="s">
+        <v>681</v>
+      </c>
+      <c r="B35" s="47"/>
+      <c r="C35" s="47"/>
+      <c r="D35" s="47"/>
+      <c r="E35" s="47"/>
+      <c r="F35" s="47"/>
+      <c r="G35" s="47"/>
+      <c r="H35" s="47"/>
+      <c r="I35" s="47"/>
+      <c r="J35" s="47"/>
+      <c r="K35" s="47"/>
+      <c r="L35" s="47"/>
+      <c r="M35" s="47"/>
+      <c r="N35" s="47"/>
+      <c r="O35" s="47"/>
+      <c r="P35" s="47"/>
+      <c r="Q35" s="47"/>
+      <c r="R35" s="47"/>
+      <c r="S35" s="47"/>
+      <c r="T35" s="47"/>
+      <c r="U35" s="47"/>
+      <c r="V35" s="47"/>
+      <c r="W35" s="47"/>
+      <c r="X35" s="47"/>
+      <c r="Y35" s="47"/>
     </row>
     <row r="36" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="55"/>
-      <c r="B36" s="56"/>
-      <c r="C36" s="56"/>
-      <c r="D36" s="56"/>
-      <c r="E36" s="56"/>
-      <c r="F36" s="56"/>
-      <c r="G36" s="56"/>
-      <c r="H36" s="56"/>
-      <c r="I36" s="56"/>
-      <c r="J36" s="56"/>
-      <c r="K36" s="56"/>
-      <c r="L36" s="56"/>
-      <c r="M36" s="56"/>
-      <c r="N36" s="56"/>
-      <c r="O36" s="56"/>
-      <c r="P36" s="56"/>
-      <c r="Q36" s="56"/>
-      <c r="R36" s="56"/>
-      <c r="S36" s="56"/>
-      <c r="T36" s="56"/>
-      <c r="U36" s="56"/>
-      <c r="V36" s="56"/>
-      <c r="W36" s="56"/>
-      <c r="X36" s="56"/>
-      <c r="Y36" s="57"/>
+      <c r="A36" s="48"/>
+      <c r="B36" s="49"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="49"/>
+      <c r="G36" s="49"/>
+      <c r="H36" s="49"/>
+      <c r="I36" s="49"/>
+      <c r="J36" s="49"/>
+      <c r="K36" s="49"/>
+      <c r="L36" s="49"/>
+      <c r="M36" s="49"/>
+      <c r="N36" s="49"/>
+      <c r="O36" s="49"/>
+      <c r="P36" s="49"/>
+      <c r="Q36" s="49"/>
+      <c r="R36" s="49"/>
+      <c r="S36" s="49"/>
+      <c r="T36" s="49"/>
+      <c r="U36" s="49"/>
+      <c r="V36" s="49"/>
+      <c r="W36" s="49"/>
+      <c r="X36" s="49"/>
+      <c r="Y36" s="50"/>
     </row>
     <row r="37" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="58"/>
-      <c r="B37" s="56"/>
-      <c r="C37" s="56"/>
-      <c r="D37" s="56"/>
-      <c r="E37" s="56"/>
-      <c r="F37" s="56"/>
-      <c r="G37" s="56"/>
-      <c r="H37" s="56"/>
-      <c r="I37" s="56"/>
-      <c r="J37" s="56"/>
-      <c r="K37" s="56"/>
-      <c r="L37" s="56"/>
-      <c r="M37" s="56"/>
-      <c r="N37" s="56"/>
-      <c r="O37" s="56"/>
-      <c r="P37" s="56"/>
-      <c r="Q37" s="56"/>
-      <c r="R37" s="56"/>
-      <c r="S37" s="56"/>
-      <c r="T37" s="56"/>
-      <c r="U37" s="56"/>
-      <c r="V37" s="56"/>
-      <c r="W37" s="56"/>
-      <c r="X37" s="56"/>
-      <c r="Y37" s="57"/>
+      <c r="A37" s="51"/>
+      <c r="B37" s="49"/>
+      <c r="C37" s="49"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="49"/>
+      <c r="G37" s="49"/>
+      <c r="H37" s="49"/>
+      <c r="I37" s="49"/>
+      <c r="J37" s="49"/>
+      <c r="K37" s="49"/>
+      <c r="L37" s="49"/>
+      <c r="M37" s="49"/>
+      <c r="N37" s="49"/>
+      <c r="O37" s="49"/>
+      <c r="P37" s="49"/>
+      <c r="Q37" s="49"/>
+      <c r="R37" s="49"/>
+      <c r="S37" s="49"/>
+      <c r="T37" s="49"/>
+      <c r="U37" s="49"/>
+      <c r="V37" s="49"/>
+      <c r="W37" s="49"/>
+      <c r="X37" s="49"/>
+      <c r="Y37" s="50"/>
     </row>
     <row r="38" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="58"/>
-      <c r="B38" s="56"/>
-      <c r="C38" s="56"/>
-      <c r="D38" s="56"/>
-      <c r="E38" s="56"/>
-      <c r="F38" s="56"/>
-      <c r="G38" s="56"/>
-      <c r="H38" s="56"/>
-      <c r="I38" s="56"/>
-      <c r="J38" s="56"/>
-      <c r="K38" s="56"/>
-      <c r="L38" s="56"/>
-      <c r="M38" s="56"/>
-      <c r="N38" s="56"/>
-      <c r="O38" s="56"/>
-      <c r="P38" s="56"/>
-      <c r="Q38" s="56"/>
-      <c r="R38" s="56"/>
-      <c r="S38" s="56"/>
-      <c r="T38" s="56"/>
-      <c r="U38" s="56"/>
-      <c r="V38" s="56"/>
-      <c r="W38" s="56"/>
-      <c r="X38" s="56"/>
-      <c r="Y38" s="57"/>
+      <c r="A38" s="51"/>
+      <c r="B38" s="49"/>
+      <c r="C38" s="49"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="49"/>
+      <c r="G38" s="49"/>
+      <c r="H38" s="49"/>
+      <c r="I38" s="49"/>
+      <c r="J38" s="49"/>
+      <c r="K38" s="49"/>
+      <c r="L38" s="49"/>
+      <c r="M38" s="49"/>
+      <c r="N38" s="49"/>
+      <c r="O38" s="49"/>
+      <c r="P38" s="49"/>
+      <c r="Q38" s="49"/>
+      <c r="R38" s="49"/>
+      <c r="S38" s="49"/>
+      <c r="T38" s="49"/>
+      <c r="U38" s="49"/>
+      <c r="V38" s="49"/>
+      <c r="W38" s="49"/>
+      <c r="X38" s="49"/>
+      <c r="Y38" s="50"/>
     </row>
     <row r="39" customFormat="false" ht="66.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="58" t="s">
-        <v>634</v>
-      </c>
-      <c r="B39" s="56"/>
-      <c r="C39" s="56"/>
-      <c r="D39" s="56"/>
-      <c r="E39" s="56"/>
-      <c r="F39" s="56"/>
-      <c r="G39" s="56"/>
-      <c r="H39" s="56"/>
-      <c r="I39" s="56"/>
-      <c r="J39" s="56"/>
-      <c r="K39" s="56"/>
-      <c r="L39" s="56"/>
-      <c r="M39" s="56"/>
-      <c r="N39" s="56"/>
-      <c r="O39" s="56"/>
-      <c r="P39" s="56"/>
-      <c r="Q39" s="56"/>
-      <c r="R39" s="56"/>
-      <c r="S39" s="56"/>
-      <c r="T39" s="56"/>
-      <c r="U39" s="56"/>
-      <c r="V39" s="56"/>
-      <c r="W39" s="56"/>
-      <c r="X39" s="56"/>
-      <c r="Y39" s="57"/>
+      <c r="A39" s="51" t="s">
+        <v>682</v>
+      </c>
+      <c r="B39" s="49"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="49"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="49"/>
+      <c r="G39" s="49"/>
+      <c r="H39" s="49"/>
+      <c r="I39" s="49"/>
+      <c r="J39" s="49"/>
+      <c r="K39" s="49"/>
+      <c r="L39" s="49"/>
+      <c r="M39" s="49"/>
+      <c r="N39" s="49"/>
+      <c r="O39" s="49"/>
+      <c r="P39" s="49"/>
+      <c r="Q39" s="49"/>
+      <c r="R39" s="49"/>
+      <c r="S39" s="49"/>
+      <c r="T39" s="49"/>
+      <c r="U39" s="49"/>
+      <c r="V39" s="49"/>
+      <c r="W39" s="49"/>
+      <c r="X39" s="49"/>
+      <c r="Y39" s="50"/>
     </row>
     <row r="40" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="58" t="s">
-        <v>635</v>
-      </c>
-      <c r="B40" s="56"/>
-      <c r="C40" s="56"/>
-      <c r="D40" s="56"/>
-      <c r="E40" s="56"/>
-      <c r="F40" s="56"/>
-      <c r="G40" s="56"/>
-      <c r="H40" s="56"/>
-      <c r="I40" s="56"/>
-      <c r="J40" s="56"/>
-      <c r="K40" s="56"/>
-      <c r="L40" s="56"/>
-      <c r="M40" s="56"/>
-      <c r="N40" s="56"/>
-      <c r="O40" s="56"/>
-      <c r="P40" s="56"/>
-      <c r="Q40" s="56"/>
-      <c r="R40" s="56"/>
-      <c r="S40" s="56"/>
-      <c r="T40" s="56"/>
-      <c r="U40" s="56"/>
-      <c r="V40" s="56"/>
-      <c r="W40" s="56"/>
-      <c r="X40" s="56"/>
-      <c r="Y40" s="57"/>
+      <c r="A40" s="51" t="s">
+        <v>683</v>
+      </c>
+      <c r="B40" s="49"/>
+      <c r="C40" s="49"/>
+      <c r="D40" s="49"/>
+      <c r="E40" s="49"/>
+      <c r="F40" s="49"/>
+      <c r="G40" s="49"/>
+      <c r="H40" s="49"/>
+      <c r="I40" s="49"/>
+      <c r="J40" s="49"/>
+      <c r="K40" s="49"/>
+      <c r="L40" s="49"/>
+      <c r="M40" s="49"/>
+      <c r="N40" s="49"/>
+      <c r="O40" s="49"/>
+      <c r="P40" s="49"/>
+      <c r="Q40" s="49"/>
+      <c r="R40" s="49"/>
+      <c r="S40" s="49"/>
+      <c r="T40" s="49"/>
+      <c r="U40" s="49"/>
+      <c r="V40" s="49"/>
+      <c r="W40" s="49"/>
+      <c r="X40" s="49"/>
+      <c r="Y40" s="50"/>
     </row>
     <row r="41" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="54" t="s">
-        <v>636</v>
-      </c>
-      <c r="B41" s="54"/>
-      <c r="C41" s="54"/>
-      <c r="D41" s="54"/>
-      <c r="E41" s="54"/>
-      <c r="F41" s="54"/>
-      <c r="G41" s="54"/>
-      <c r="H41" s="54"/>
-      <c r="I41" s="54"/>
-      <c r="J41" s="54"/>
-      <c r="K41" s="54"/>
-      <c r="L41" s="54"/>
-      <c r="M41" s="54"/>
-      <c r="N41" s="54"/>
-      <c r="O41" s="54"/>
-      <c r="P41" s="54"/>
-      <c r="Q41" s="54"/>
-      <c r="R41" s="54"/>
-      <c r="S41" s="54"/>
-      <c r="T41" s="54"/>
-      <c r="U41" s="54"/>
-      <c r="V41" s="54"/>
-      <c r="W41" s="54"/>
-      <c r="X41" s="54"/>
-      <c r="Y41" s="54"/>
+      <c r="A41" s="47" t="s">
+        <v>684</v>
+      </c>
+      <c r="B41" s="47"/>
+      <c r="C41" s="47"/>
+      <c r="D41" s="47"/>
+      <c r="E41" s="47"/>
+      <c r="F41" s="47"/>
+      <c r="G41" s="47"/>
+      <c r="H41" s="47"/>
+      <c r="I41" s="47"/>
+      <c r="J41" s="47"/>
+      <c r="K41" s="47"/>
+      <c r="L41" s="47"/>
+      <c r="M41" s="47"/>
+      <c r="N41" s="47"/>
+      <c r="O41" s="47"/>
+      <c r="P41" s="47"/>
+      <c r="Q41" s="47"/>
+      <c r="R41" s="47"/>
+      <c r="S41" s="47"/>
+      <c r="T41" s="47"/>
+      <c r="U41" s="47"/>
+      <c r="V41" s="47"/>
+      <c r="W41" s="47"/>
+      <c r="X41" s="47"/>
+      <c r="Y41" s="47"/>
     </row>
     <row r="42" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="55" t="s">
-        <v>637</v>
-      </c>
-      <c r="B42" s="56"/>
-      <c r="C42" s="56"/>
-      <c r="D42" s="56"/>
-      <c r="E42" s="56"/>
-      <c r="F42" s="56"/>
-      <c r="G42" s="56"/>
-      <c r="H42" s="56"/>
-      <c r="I42" s="56"/>
-      <c r="J42" s="56"/>
-      <c r="K42" s="56"/>
-      <c r="L42" s="56"/>
-      <c r="M42" s="56"/>
-      <c r="N42" s="56"/>
-      <c r="O42" s="56"/>
-      <c r="P42" s="56"/>
-      <c r="Q42" s="56"/>
-      <c r="R42" s="56"/>
-      <c r="S42" s="56"/>
-      <c r="T42" s="56"/>
-      <c r="U42" s="56"/>
-      <c r="V42" s="56"/>
-      <c r="W42" s="56"/>
-      <c r="X42" s="56"/>
-      <c r="Y42" s="57"/>
+      <c r="A42" s="48" t="s">
+        <v>685</v>
+      </c>
+      <c r="B42" s="49"/>
+      <c r="C42" s="49"/>
+      <c r="D42" s="49"/>
+      <c r="E42" s="49"/>
+      <c r="F42" s="49"/>
+      <c r="G42" s="49"/>
+      <c r="H42" s="49"/>
+      <c r="I42" s="49"/>
+      <c r="J42" s="49"/>
+      <c r="K42" s="49"/>
+      <c r="L42" s="49"/>
+      <c r="M42" s="49"/>
+      <c r="N42" s="49"/>
+      <c r="O42" s="49"/>
+      <c r="P42" s="49"/>
+      <c r="Q42" s="49"/>
+      <c r="R42" s="49"/>
+      <c r="S42" s="49"/>
+      <c r="T42" s="49"/>
+      <c r="U42" s="49"/>
+      <c r="V42" s="49"/>
+      <c r="W42" s="49"/>
+      <c r="X42" s="49"/>
+      <c r="Y42" s="50"/>
     </row>
     <row r="43" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="55" t="s">
-        <v>638</v>
-      </c>
-      <c r="B43" s="56"/>
-      <c r="C43" s="56"/>
-      <c r="D43" s="56"/>
-      <c r="E43" s="56"/>
-      <c r="F43" s="56"/>
-      <c r="G43" s="56"/>
-      <c r="H43" s="56"/>
-      <c r="I43" s="56"/>
-      <c r="J43" s="56"/>
-      <c r="K43" s="56"/>
-      <c r="L43" s="56"/>
-      <c r="M43" s="56"/>
-      <c r="N43" s="56"/>
-      <c r="O43" s="56"/>
-      <c r="P43" s="56"/>
-      <c r="Q43" s="56"/>
-      <c r="R43" s="56"/>
-      <c r="S43" s="56"/>
-      <c r="T43" s="56"/>
-      <c r="U43" s="56"/>
-      <c r="V43" s="56"/>
-      <c r="W43" s="56"/>
-      <c r="X43" s="56"/>
-      <c r="Y43" s="57"/>
+      <c r="A43" s="48" t="s">
+        <v>686</v>
+      </c>
+      <c r="B43" s="49"/>
+      <c r="C43" s="49"/>
+      <c r="D43" s="49"/>
+      <c r="E43" s="49"/>
+      <c r="F43" s="49"/>
+      <c r="G43" s="49"/>
+      <c r="H43" s="49"/>
+      <c r="I43" s="49"/>
+      <c r="J43" s="49"/>
+      <c r="K43" s="49"/>
+      <c r="L43" s="49"/>
+      <c r="M43" s="49"/>
+      <c r="N43" s="49"/>
+      <c r="O43" s="49"/>
+      <c r="P43" s="49"/>
+      <c r="Q43" s="49"/>
+      <c r="R43" s="49"/>
+      <c r="S43" s="49"/>
+      <c r="T43" s="49"/>
+      <c r="U43" s="49"/>
+      <c r="V43" s="49"/>
+      <c r="W43" s="49"/>
+      <c r="X43" s="49"/>
+      <c r="Y43" s="50"/>
     </row>
     <row r="44" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="55" t="s">
-        <v>639</v>
-      </c>
-      <c r="B44" s="56"/>
-      <c r="C44" s="56"/>
-      <c r="D44" s="56"/>
-      <c r="E44" s="56"/>
-      <c r="F44" s="56"/>
-      <c r="G44" s="56"/>
-      <c r="H44" s="56"/>
-      <c r="I44" s="56"/>
-      <c r="J44" s="56"/>
-      <c r="K44" s="56"/>
-      <c r="L44" s="56"/>
-      <c r="M44" s="56"/>
-      <c r="N44" s="56"/>
-      <c r="O44" s="56"/>
-      <c r="P44" s="56"/>
-      <c r="Q44" s="56"/>
-      <c r="R44" s="56"/>
-      <c r="S44" s="56"/>
-      <c r="T44" s="56"/>
-      <c r="U44" s="56"/>
-      <c r="V44" s="56"/>
-      <c r="W44" s="56"/>
-      <c r="X44" s="56"/>
-      <c r="Y44" s="57"/>
+      <c r="A44" s="48" t="s">
+        <v>687</v>
+      </c>
+      <c r="B44" s="49"/>
+      <c r="C44" s="49"/>
+      <c r="D44" s="49"/>
+      <c r="E44" s="49"/>
+      <c r="F44" s="49"/>
+      <c r="G44" s="49"/>
+      <c r="H44" s="49"/>
+      <c r="I44" s="49"/>
+      <c r="J44" s="49"/>
+      <c r="K44" s="49"/>
+      <c r="L44" s="49"/>
+      <c r="M44" s="49"/>
+      <c r="N44" s="49"/>
+      <c r="O44" s="49"/>
+      <c r="P44" s="49"/>
+      <c r="Q44" s="49"/>
+      <c r="R44" s="49"/>
+      <c r="S44" s="49"/>
+      <c r="T44" s="49"/>
+      <c r="U44" s="49"/>
+      <c r="V44" s="49"/>
+      <c r="W44" s="49"/>
+      <c r="X44" s="49"/>
+      <c r="Y44" s="50"/>
     </row>
     <row r="45" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="55"/>
-      <c r="B45" s="56"/>
-      <c r="C45" s="56"/>
-      <c r="D45" s="56"/>
-      <c r="E45" s="56"/>
-      <c r="F45" s="56"/>
-      <c r="G45" s="56"/>
-      <c r="H45" s="56"/>
-      <c r="I45" s="56"/>
-      <c r="J45" s="56"/>
-      <c r="K45" s="56"/>
-      <c r="L45" s="56"/>
-      <c r="M45" s="56"/>
-      <c r="N45" s="56"/>
-      <c r="O45" s="56"/>
-      <c r="P45" s="56"/>
-      <c r="Q45" s="56"/>
-      <c r="R45" s="56"/>
-      <c r="S45" s="56"/>
-      <c r="T45" s="56"/>
-      <c r="U45" s="56"/>
-      <c r="V45" s="56"/>
-      <c r="W45" s="56"/>
-      <c r="X45" s="56"/>
-      <c r="Y45" s="57"/>
+      <c r="A45" s="48"/>
+      <c r="B45" s="49"/>
+      <c r="C45" s="49"/>
+      <c r="D45" s="49"/>
+      <c r="E45" s="49"/>
+      <c r="F45" s="49"/>
+      <c r="G45" s="49"/>
+      <c r="H45" s="49"/>
+      <c r="I45" s="49"/>
+      <c r="J45" s="49"/>
+      <c r="K45" s="49"/>
+      <c r="L45" s="49"/>
+      <c r="M45" s="49"/>
+      <c r="N45" s="49"/>
+      <c r="O45" s="49"/>
+      <c r="P45" s="49"/>
+      <c r="Q45" s="49"/>
+      <c r="R45" s="49"/>
+      <c r="S45" s="49"/>
+      <c r="T45" s="49"/>
+      <c r="U45" s="49"/>
+      <c r="V45" s="49"/>
+      <c r="W45" s="49"/>
+      <c r="X45" s="49"/>
+      <c r="Y45" s="50"/>
     </row>
     <row r="46" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="55"/>
-      <c r="B46" s="56"/>
-      <c r="C46" s="56"/>
-      <c r="D46" s="56"/>
-      <c r="E46" s="56"/>
-      <c r="F46" s="56"/>
-      <c r="G46" s="56"/>
-      <c r="H46" s="56"/>
-      <c r="I46" s="56"/>
-      <c r="J46" s="56"/>
-      <c r="K46" s="56"/>
-      <c r="L46" s="56"/>
-      <c r="M46" s="56"/>
-      <c r="N46" s="56"/>
-      <c r="O46" s="56"/>
-      <c r="P46" s="56"/>
-      <c r="Q46" s="56"/>
-      <c r="R46" s="56"/>
-      <c r="S46" s="56"/>
-      <c r="T46" s="56"/>
-      <c r="U46" s="56"/>
-      <c r="V46" s="56"/>
-      <c r="W46" s="56"/>
-      <c r="X46" s="56"/>
-      <c r="Y46" s="57"/>
+      <c r="A46" s="48"/>
+      <c r="B46" s="49"/>
+      <c r="C46" s="49"/>
+      <c r="D46" s="49"/>
+      <c r="E46" s="49"/>
+      <c r="F46" s="49"/>
+      <c r="G46" s="49"/>
+      <c r="H46" s="49"/>
+      <c r="I46" s="49"/>
+      <c r="J46" s="49"/>
+      <c r="K46" s="49"/>
+      <c r="L46" s="49"/>
+      <c r="M46" s="49"/>
+      <c r="N46" s="49"/>
+      <c r="O46" s="49"/>
+      <c r="P46" s="49"/>
+      <c r="Q46" s="49"/>
+      <c r="R46" s="49"/>
+      <c r="S46" s="49"/>
+      <c r="T46" s="49"/>
+      <c r="U46" s="49"/>
+      <c r="V46" s="49"/>
+      <c r="W46" s="49"/>
+      <c r="X46" s="49"/>
+      <c r="Y46" s="50"/>
     </row>
     <row r="47" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="54" t="s">
-        <v>640</v>
-      </c>
-      <c r="B47" s="54"/>
-      <c r="C47" s="54"/>
-      <c r="D47" s="54"/>
-      <c r="E47" s="54"/>
-      <c r="F47" s="54"/>
-      <c r="G47" s="54"/>
-      <c r="H47" s="54"/>
-      <c r="I47" s="54"/>
-      <c r="J47" s="54"/>
-      <c r="K47" s="54"/>
-      <c r="L47" s="54"/>
-      <c r="M47" s="54"/>
-      <c r="N47" s="54"/>
-      <c r="O47" s="54"/>
-      <c r="P47" s="54"/>
-      <c r="Q47" s="54"/>
-      <c r="R47" s="54"/>
-      <c r="S47" s="54"/>
-      <c r="T47" s="54"/>
-      <c r="U47" s="54"/>
-      <c r="V47" s="54"/>
-      <c r="W47" s="54"/>
-      <c r="X47" s="54"/>
-      <c r="Y47" s="54"/>
+      <c r="A47" s="47" t="s">
+        <v>688</v>
+      </c>
+      <c r="B47" s="47"/>
+      <c r="C47" s="47"/>
+      <c r="D47" s="47"/>
+      <c r="E47" s="47"/>
+      <c r="F47" s="47"/>
+      <c r="G47" s="47"/>
+      <c r="H47" s="47"/>
+      <c r="I47" s="47"/>
+      <c r="J47" s="47"/>
+      <c r="K47" s="47"/>
+      <c r="L47" s="47"/>
+      <c r="M47" s="47"/>
+      <c r="N47" s="47"/>
+      <c r="O47" s="47"/>
+      <c r="P47" s="47"/>
+      <c r="Q47" s="47"/>
+      <c r="R47" s="47"/>
+      <c r="S47" s="47"/>
+      <c r="T47" s="47"/>
+      <c r="U47" s="47"/>
+      <c r="V47" s="47"/>
+      <c r="W47" s="47"/>
+      <c r="X47" s="47"/>
+      <c r="Y47" s="47"/>
     </row>
     <row r="48" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="55"/>
-      <c r="B48" s="56"/>
-      <c r="C48" s="56"/>
-      <c r="D48" s="56"/>
-      <c r="E48" s="56"/>
-      <c r="F48" s="56"/>
-      <c r="G48" s="56"/>
-      <c r="H48" s="56"/>
-      <c r="I48" s="56"/>
-      <c r="J48" s="56"/>
-      <c r="K48" s="56"/>
-      <c r="L48" s="56"/>
-      <c r="M48" s="56"/>
-      <c r="N48" s="56"/>
-      <c r="O48" s="56"/>
-      <c r="P48" s="56"/>
-      <c r="Q48" s="56"/>
-      <c r="R48" s="56"/>
-      <c r="S48" s="56"/>
-      <c r="T48" s="56"/>
-      <c r="U48" s="56"/>
-      <c r="V48" s="56"/>
-      <c r="W48" s="56"/>
-      <c r="X48" s="56"/>
-      <c r="Y48" s="57"/>
+      <c r="A48" s="48"/>
+      <c r="B48" s="49"/>
+      <c r="C48" s="49"/>
+      <c r="D48" s="49"/>
+      <c r="E48" s="49"/>
+      <c r="F48" s="49"/>
+      <c r="G48" s="49"/>
+      <c r="H48" s="49"/>
+      <c r="I48" s="49"/>
+      <c r="J48" s="49"/>
+      <c r="K48" s="49"/>
+      <c r="L48" s="49"/>
+      <c r="M48" s="49"/>
+      <c r="N48" s="49"/>
+      <c r="O48" s="49"/>
+      <c r="P48" s="49"/>
+      <c r="Q48" s="49"/>
+      <c r="R48" s="49"/>
+      <c r="S48" s="49"/>
+      <c r="T48" s="49"/>
+      <c r="U48" s="49"/>
+      <c r="V48" s="49"/>
+      <c r="W48" s="49"/>
+      <c r="X48" s="49"/>
+      <c r="Y48" s="50"/>
     </row>
     <row r="49" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="55"/>
-      <c r="B49" s="56"/>
-      <c r="C49" s="56"/>
-      <c r="D49" s="56"/>
-      <c r="E49" s="56"/>
-      <c r="F49" s="56"/>
-      <c r="G49" s="56"/>
-      <c r="H49" s="56"/>
-      <c r="I49" s="56"/>
-      <c r="J49" s="56"/>
-      <c r="K49" s="56"/>
-      <c r="L49" s="56"/>
-      <c r="M49" s="56"/>
-      <c r="N49" s="56"/>
-      <c r="O49" s="56"/>
-      <c r="P49" s="56"/>
-      <c r="Q49" s="56"/>
-      <c r="R49" s="56"/>
-      <c r="S49" s="56"/>
-      <c r="T49" s="56"/>
-      <c r="U49" s="56"/>
-      <c r="V49" s="56"/>
-      <c r="W49" s="56"/>
-      <c r="X49" s="56"/>
-      <c r="Y49" s="57"/>
+      <c r="A49" s="48"/>
+      <c r="B49" s="49"/>
+      <c r="C49" s="49"/>
+      <c r="D49" s="49"/>
+      <c r="E49" s="49"/>
+      <c r="F49" s="49"/>
+      <c r="G49" s="49"/>
+      <c r="H49" s="49"/>
+      <c r="I49" s="49"/>
+      <c r="J49" s="49"/>
+      <c r="K49" s="49"/>
+      <c r="L49" s="49"/>
+      <c r="M49" s="49"/>
+      <c r="N49" s="49"/>
+      <c r="O49" s="49"/>
+      <c r="P49" s="49"/>
+      <c r="Q49" s="49"/>
+      <c r="R49" s="49"/>
+      <c r="S49" s="49"/>
+      <c r="T49" s="49"/>
+      <c r="U49" s="49"/>
+      <c r="V49" s="49"/>
+      <c r="W49" s="49"/>
+      <c r="X49" s="49"/>
+      <c r="Y49" s="50"/>
     </row>
     <row r="50" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="55" t="s">
-        <v>641</v>
-      </c>
-      <c r="B50" s="56"/>
-      <c r="C50" s="56"/>
-      <c r="D50" s="56"/>
-      <c r="E50" s="56"/>
-      <c r="F50" s="56"/>
-      <c r="G50" s="56"/>
-      <c r="H50" s="56"/>
-      <c r="I50" s="56"/>
-      <c r="J50" s="56"/>
-      <c r="K50" s="56"/>
-      <c r="L50" s="56"/>
-      <c r="M50" s="56"/>
-      <c r="N50" s="56"/>
-      <c r="O50" s="56"/>
-      <c r="P50" s="56"/>
-      <c r="Q50" s="56"/>
-      <c r="R50" s="56"/>
-      <c r="S50" s="56"/>
-      <c r="T50" s="56"/>
-      <c r="U50" s="56"/>
-      <c r="V50" s="56"/>
-      <c r="W50" s="56"/>
-      <c r="X50" s="56"/>
-      <c r="Y50" s="57"/>
+      <c r="A50" s="48" t="s">
+        <v>689</v>
+      </c>
+      <c r="B50" s="49"/>
+      <c r="C50" s="49"/>
+      <c r="D50" s="49"/>
+      <c r="E50" s="49"/>
+      <c r="F50" s="49"/>
+      <c r="G50" s="49"/>
+      <c r="H50" s="49"/>
+      <c r="I50" s="49"/>
+      <c r="J50" s="49"/>
+      <c r="K50" s="49"/>
+      <c r="L50" s="49"/>
+      <c r="M50" s="49"/>
+      <c r="N50" s="49"/>
+      <c r="O50" s="49"/>
+      <c r="P50" s="49"/>
+      <c r="Q50" s="49"/>
+      <c r="R50" s="49"/>
+      <c r="S50" s="49"/>
+      <c r="T50" s="49"/>
+      <c r="U50" s="49"/>
+      <c r="V50" s="49"/>
+      <c r="W50" s="49"/>
+      <c r="X50" s="49"/>
+      <c r="Y50" s="50"/>
     </row>
     <row r="51" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="54" t="s">
-        <v>642</v>
-      </c>
-      <c r="B51" s="54"/>
-      <c r="C51" s="54"/>
-      <c r="D51" s="54"/>
-      <c r="E51" s="54"/>
-      <c r="F51" s="54"/>
-      <c r="G51" s="54"/>
-      <c r="H51" s="54"/>
-      <c r="I51" s="54"/>
-      <c r="J51" s="54"/>
-      <c r="K51" s="54"/>
-      <c r="L51" s="54"/>
-      <c r="M51" s="54"/>
-      <c r="N51" s="54"/>
-      <c r="O51" s="54"/>
-      <c r="P51" s="54"/>
-      <c r="Q51" s="54"/>
-      <c r="R51" s="54"/>
-      <c r="S51" s="54"/>
-      <c r="T51" s="54"/>
-      <c r="U51" s="54"/>
-      <c r="V51" s="54"/>
-      <c r="W51" s="54"/>
-      <c r="X51" s="54"/>
-      <c r="Y51" s="54"/>
+      <c r="A51" s="47" t="s">
+        <v>690</v>
+      </c>
+      <c r="B51" s="47"/>
+      <c r="C51" s="47"/>
+      <c r="D51" s="47"/>
+      <c r="E51" s="47"/>
+      <c r="F51" s="47"/>
+      <c r="G51" s="47"/>
+      <c r="H51" s="47"/>
+      <c r="I51" s="47"/>
+      <c r="J51" s="47"/>
+      <c r="K51" s="47"/>
+      <c r="L51" s="47"/>
+      <c r="M51" s="47"/>
+      <c r="N51" s="47"/>
+      <c r="O51" s="47"/>
+      <c r="P51" s="47"/>
+      <c r="Q51" s="47"/>
+      <c r="R51" s="47"/>
+      <c r="S51" s="47"/>
+      <c r="T51" s="47"/>
+      <c r="U51" s="47"/>
+      <c r="V51" s="47"/>
+      <c r="W51" s="47"/>
+      <c r="X51" s="47"/>
+      <c r="Y51" s="47"/>
     </row>
     <row r="52" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="59" t="s">
-        <v>643</v>
-      </c>
-      <c r="B52" s="56"/>
-      <c r="C52" s="56"/>
-      <c r="D52" s="56"/>
-      <c r="E52" s="56"/>
-      <c r="F52" s="56"/>
-      <c r="G52" s="56"/>
-      <c r="H52" s="56"/>
-      <c r="I52" s="56"/>
-      <c r="J52" s="56"/>
-      <c r="K52" s="56"/>
-      <c r="L52" s="56"/>
-      <c r="M52" s="56"/>
-      <c r="N52" s="56"/>
-      <c r="O52" s="56"/>
-      <c r="P52" s="56"/>
-      <c r="Q52" s="56"/>
-      <c r="R52" s="56"/>
-      <c r="S52" s="56"/>
-      <c r="T52" s="56"/>
-      <c r="U52" s="56"/>
-      <c r="V52" s="56"/>
-      <c r="W52" s="56"/>
-      <c r="X52" s="56"/>
-      <c r="Y52" s="57"/>
+      <c r="A52" s="52" t="s">
+        <v>691</v>
+      </c>
+      <c r="B52" s="49"/>
+      <c r="C52" s="49"/>
+      <c r="D52" s="49"/>
+      <c r="E52" s="49"/>
+      <c r="F52" s="49"/>
+      <c r="G52" s="49"/>
+      <c r="H52" s="49"/>
+      <c r="I52" s="49"/>
+      <c r="J52" s="49"/>
+      <c r="K52" s="49"/>
+      <c r="L52" s="49"/>
+      <c r="M52" s="49"/>
+      <c r="N52" s="49"/>
+      <c r="O52" s="49"/>
+      <c r="P52" s="49"/>
+      <c r="Q52" s="49"/>
+      <c r="R52" s="49"/>
+      <c r="S52" s="49"/>
+      <c r="T52" s="49"/>
+      <c r="U52" s="49"/>
+      <c r="V52" s="49"/>
+      <c r="W52" s="49"/>
+      <c r="X52" s="49"/>
+      <c r="Y52" s="50"/>
     </row>
     <row r="53" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="59" t="s">
-        <v>644</v>
-      </c>
-      <c r="B53" s="56"/>
-      <c r="C53" s="56"/>
-      <c r="D53" s="56"/>
-      <c r="E53" s="56"/>
-      <c r="F53" s="56"/>
-      <c r="G53" s="56"/>
-      <c r="H53" s="56"/>
-      <c r="I53" s="56"/>
-      <c r="J53" s="56"/>
-      <c r="K53" s="56"/>
-      <c r="L53" s="56"/>
-      <c r="M53" s="56"/>
-      <c r="N53" s="56"/>
-      <c r="O53" s="56"/>
-      <c r="P53" s="56"/>
-      <c r="Q53" s="56"/>
-      <c r="R53" s="56"/>
-      <c r="S53" s="56"/>
-      <c r="T53" s="56"/>
-      <c r="U53" s="56"/>
-      <c r="V53" s="56"/>
-      <c r="W53" s="56"/>
-      <c r="X53" s="56"/>
-      <c r="Y53" s="57"/>
+      <c r="A53" s="52" t="s">
+        <v>692</v>
+      </c>
+      <c r="B53" s="49"/>
+      <c r="C53" s="49"/>
+      <c r="D53" s="49"/>
+      <c r="E53" s="49"/>
+      <c r="F53" s="49"/>
+      <c r="G53" s="49"/>
+      <c r="H53" s="49"/>
+      <c r="I53" s="49"/>
+      <c r="J53" s="49"/>
+      <c r="K53" s="49"/>
+      <c r="L53" s="49"/>
+      <c r="M53" s="49"/>
+      <c r="N53" s="49"/>
+      <c r="O53" s="49"/>
+      <c r="P53" s="49"/>
+      <c r="Q53" s="49"/>
+      <c r="R53" s="49"/>
+      <c r="S53" s="49"/>
+      <c r="T53" s="49"/>
+      <c r="U53" s="49"/>
+      <c r="V53" s="49"/>
+      <c r="W53" s="49"/>
+      <c r="X53" s="49"/>
+      <c r="Y53" s="50"/>
     </row>
     <row r="54" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="59" t="s">
-        <v>645</v>
-      </c>
-      <c r="B54" s="56"/>
-      <c r="C54" s="56"/>
-      <c r="D54" s="56"/>
-      <c r="E54" s="56"/>
-      <c r="F54" s="56"/>
-      <c r="G54" s="56"/>
-      <c r="H54" s="56"/>
-      <c r="I54" s="56"/>
-      <c r="J54" s="56"/>
-      <c r="K54" s="56"/>
-      <c r="L54" s="56"/>
-      <c r="M54" s="56"/>
-      <c r="N54" s="56"/>
-      <c r="O54" s="56"/>
-      <c r="P54" s="56"/>
-      <c r="Q54" s="56"/>
-      <c r="R54" s="56"/>
-      <c r="S54" s="56"/>
-      <c r="T54" s="56"/>
-      <c r="U54" s="56"/>
-      <c r="V54" s="56"/>
-      <c r="W54" s="56"/>
-      <c r="X54" s="56"/>
-      <c r="Y54" s="57"/>
+      <c r="A54" s="52" t="s">
+        <v>693</v>
+      </c>
+      <c r="B54" s="49"/>
+      <c r="C54" s="49"/>
+      <c r="D54" s="49"/>
+      <c r="E54" s="49"/>
+      <c r="F54" s="49"/>
+      <c r="G54" s="49"/>
+      <c r="H54" s="49"/>
+      <c r="I54" s="49"/>
+      <c r="J54" s="49"/>
+      <c r="K54" s="49"/>
+      <c r="L54" s="49"/>
+      <c r="M54" s="49"/>
+      <c r="N54" s="49"/>
+      <c r="O54" s="49"/>
+      <c r="P54" s="49"/>
+      <c r="Q54" s="49"/>
+      <c r="R54" s="49"/>
+      <c r="S54" s="49"/>
+      <c r="T54" s="49"/>
+      <c r="U54" s="49"/>
+      <c r="V54" s="49"/>
+      <c r="W54" s="49"/>
+      <c r="X54" s="49"/>
+      <c r="Y54" s="50"/>
     </row>
     <row r="55" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="55"/>
-      <c r="B55" s="56"/>
-      <c r="C55" s="56"/>
-      <c r="D55" s="56"/>
-      <c r="E55" s="56"/>
-      <c r="F55" s="56"/>
-      <c r="G55" s="56"/>
-      <c r="H55" s="56"/>
-      <c r="I55" s="56"/>
-      <c r="J55" s="56"/>
-      <c r="K55" s="56"/>
-      <c r="L55" s="56"/>
-      <c r="M55" s="56"/>
-      <c r="N55" s="56"/>
-      <c r="O55" s="56"/>
-      <c r="P55" s="56"/>
-      <c r="Q55" s="56"/>
-      <c r="R55" s="56"/>
-      <c r="S55" s="56"/>
-      <c r="T55" s="56"/>
-      <c r="U55" s="56"/>
-      <c r="V55" s="56"/>
-      <c r="W55" s="56"/>
-      <c r="X55" s="56"/>
-      <c r="Y55" s="57"/>
+      <c r="A55" s="48"/>
+      <c r="B55" s="49"/>
+      <c r="C55" s="49"/>
+      <c r="D55" s="49"/>
+      <c r="E55" s="49"/>
+      <c r="F55" s="49"/>
+      <c r="G55" s="49"/>
+      <c r="H55" s="49"/>
+      <c r="I55" s="49"/>
+      <c r="J55" s="49"/>
+      <c r="K55" s="49"/>
+      <c r="L55" s="49"/>
+      <c r="M55" s="49"/>
+      <c r="N55" s="49"/>
+      <c r="O55" s="49"/>
+      <c r="P55" s="49"/>
+      <c r="Q55" s="49"/>
+      <c r="R55" s="49"/>
+      <c r="S55" s="49"/>
+      <c r="T55" s="49"/>
+      <c r="U55" s="49"/>
+      <c r="V55" s="49"/>
+      <c r="W55" s="49"/>
+      <c r="X55" s="49"/>
+      <c r="Y55" s="50"/>
     </row>
     <row r="56" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="60" t="s">
-        <v>646</v>
-      </c>
-      <c r="B56" s="56"/>
-      <c r="C56" s="56"/>
-      <c r="D56" s="56"/>
-      <c r="E56" s="56"/>
-      <c r="F56" s="56"/>
-      <c r="G56" s="56"/>
-      <c r="H56" s="56"/>
-      <c r="I56" s="56"/>
-      <c r="J56" s="56"/>
-      <c r="K56" s="56"/>
-      <c r="L56" s="56"/>
-      <c r="M56" s="56"/>
-      <c r="N56" s="56"/>
-      <c r="O56" s="56"/>
-      <c r="P56" s="56"/>
-      <c r="Q56" s="56"/>
-      <c r="R56" s="56"/>
-      <c r="S56" s="56"/>
-      <c r="T56" s="56"/>
-      <c r="U56" s="56"/>
-      <c r="V56" s="56"/>
-      <c r="W56" s="56"/>
-      <c r="X56" s="56"/>
-      <c r="Y56" s="57"/>
+      <c r="A56" s="53" t="s">
+        <v>694</v>
+      </c>
+      <c r="B56" s="49"/>
+      <c r="C56" s="49"/>
+      <c r="D56" s="49"/>
+      <c r="E56" s="49"/>
+      <c r="F56" s="49"/>
+      <c r="G56" s="49"/>
+      <c r="H56" s="49"/>
+      <c r="I56" s="49"/>
+      <c r="J56" s="49"/>
+      <c r="K56" s="49"/>
+      <c r="L56" s="49"/>
+      <c r="M56" s="49"/>
+      <c r="N56" s="49"/>
+      <c r="O56" s="49"/>
+      <c r="P56" s="49"/>
+      <c r="Q56" s="49"/>
+      <c r="R56" s="49"/>
+      <c r="S56" s="49"/>
+      <c r="T56" s="49"/>
+      <c r="U56" s="49"/>
+      <c r="V56" s="49"/>
+      <c r="W56" s="49"/>
+      <c r="X56" s="49"/>
+      <c r="Y56" s="50"/>
     </row>
     <row r="57" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="61" t="s">
-        <v>647</v>
-      </c>
-      <c r="B57" s="62"/>
-      <c r="C57" s="62"/>
-      <c r="D57" s="62"/>
-      <c r="E57" s="62"/>
-      <c r="F57" s="62"/>
-      <c r="G57" s="62"/>
-      <c r="H57" s="62"/>
-      <c r="I57" s="62"/>
-      <c r="J57" s="62"/>
-      <c r="K57" s="62"/>
-      <c r="L57" s="62"/>
-      <c r="M57" s="62"/>
-      <c r="N57" s="62"/>
-      <c r="O57" s="62"/>
-      <c r="P57" s="62"/>
-      <c r="Q57" s="62"/>
-      <c r="R57" s="62"/>
-      <c r="S57" s="62"/>
-      <c r="T57" s="62"/>
-      <c r="U57" s="62"/>
-      <c r="V57" s="62"/>
-      <c r="W57" s="62"/>
-      <c r="X57" s="62"/>
-      <c r="Y57" s="63"/>
+      <c r="A57" s="54" t="s">
+        <v>695</v>
+      </c>
+      <c r="B57" s="55"/>
+      <c r="C57" s="55"/>
+      <c r="D57" s="55"/>
+      <c r="E57" s="55"/>
+      <c r="F57" s="55"/>
+      <c r="G57" s="55"/>
+      <c r="H57" s="55"/>
+      <c r="I57" s="55"/>
+      <c r="J57" s="55"/>
+      <c r="K57" s="55"/>
+      <c r="L57" s="55"/>
+      <c r="M57" s="55"/>
+      <c r="N57" s="55"/>
+      <c r="O57" s="55"/>
+      <c r="P57" s="55"/>
+      <c r="Q57" s="55"/>
+      <c r="R57" s="55"/>
+      <c r="S57" s="55"/>
+      <c r="T57" s="55"/>
+      <c r="U57" s="55"/>
+      <c r="V57" s="55"/>
+      <c r="W57" s="55"/>
+      <c r="X57" s="55"/>
+      <c r="Y57" s="56"/>
     </row>
     <row r="58" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="64"/>
+      <c r="A58" s="57"/>
     </row>
     <row r="59" customFormat="false" ht="141.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="65" t="s">
-        <v>648</v>
+      <c r="A59" s="58" t="s">
+        <v>696</v>
       </c>
     </row>
   </sheetData>

--- a/resources/report_template.xlsx
+++ b/resources/report_template.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="697">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="721">
   <si>
     <t>Région</t>
   </si>
@@ -385,6 +385,78 @@
   </si>
   <si>
     <t>Nombre d’adultes et d’enfants qui ont bénéficié de TARV au cours du 1er semestre 2016 F=(A+B+C+D+E)</t>
+  </si>
+  <si>
+    <t>{key: 'RECEIVED_ARV_DURING_PERIOD', gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'RECEIVED_ARV_DURING_PERIOD', gender: 1}</t>
+  </si>
+  <si>
+    <t>{key:'RECEIVED_ARV_DURING_PERIOD', age_max: 15}</t>
+  </si>
+  <si>
+    <t>{key: 'RECEIVED_ARV_DURING_PERIOD', age_min: 15}</t>
+  </si>
+  <si>
+    <t>{key: 'RECEIVED_ARV_DURING_PERIOD'}</t>
+  </si>
+  <si>
+    <t>{key: 'RECEIVED_ARV_DURING_PERIOD', age_max: 15, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'RECEIVED_ARV_DURING_PERIOD', age_max: 15, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'RECEIVED_ARV_DURING_PERIOD', age_min: 15, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'RECEIVED_ARV_DURING_PERIOD', age_min: 15, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'RECEIVED_ARV_DURING_PERIOD', age_max: 1, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'RECEIVED_ARV_DURING_PERIOD', age_max: 1, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'RECEIVED_ARV_DURING_PERIOD', age_min: 1, age_max: 4, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'RECEIVED_ARV_DURING_PERIOD', age_min: 5, age_max: 9, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'RECEIVED_ARV_DURING_PERIOD', age_min: 5, age_max: 9, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'RECEIVED_ARV_DURING_PERIOD', age_min: 10, age_max: 14, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'RECEIVED_ARV_DURING_PERIOD', age_min: 10, age_max: 14, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'RECEIVED_ARV_DURING_PERIOD', age_min: 15, age_max: 19, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'RECEIVED_ARV_DURING_PERIOD', age_min: 15, age_max: 19, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'RECEIVED_ARV_DURING_PERIOD', age_min: 20, age_max: 24, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'RECEIVED_ARV_DURING_PERIOD', age_min: 20, age_max: 24, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'RECEIVED_ARV_DURING_PERIOD', age_min: 25, age_max: 49, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'RECEIVED_ARV_DURING_PERIOD', age_min: 25, age_max: 49, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'RECEIVED_ARV_DURING_PERIOD', age_min: 50, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'RECEIVED_ARV_DURING_PERIOD', age_min: 50, gender: 1}</t>
   </si>
   <si>
     <t>Nombre Total d’adultes et d’enfants sous antirétroviraux perdus de vue au cours au cours de la période de raportage (G)</t>
@@ -2179,7 +2251,7 @@
     <numFmt numFmtId="165" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* \-??\ _€_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* \-??\ _€_-;_-@_-"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2258,6 +2330,13 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -2518,7 +2597,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="56">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2599,18 +2678,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="5" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2631,35 +2698,35 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="5" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="7" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="12" fillId="7" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="5" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="8" fillId="7" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="7" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="8" fillId="7" borderId="5" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="7" borderId="5" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2727,7 +2794,7 @@
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2747,7 +2814,7 @@
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2876,8 +2943,8 @@
   </sheetPr>
   <dimension ref="A1:AB57"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A32" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B38" activeCellId="0" sqref="B38:AB38"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K33" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A34" activeCellId="0" sqref="A34:AB34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3222,7 +3289,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="38.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="14" t="s">
         <v>46</v>
       </c>
@@ -3308,7 +3375,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="50.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="18" t="s">
         <v>71</v>
       </c>
@@ -3394,7 +3461,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" s="19" customFormat="true" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" s="19" customFormat="true" ht="51.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="18" t="s">
         <v>96</v>
       </c>
@@ -3480,7 +3547,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="28.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="51.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="18" t="s">
         <v>121</v>
       </c>
@@ -3488,243 +3555,297 @@
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="21"/>
-      <c r="R15" s="21"/>
-      <c r="S15" s="21"/>
-      <c r="T15" s="21"/>
-      <c r="U15" s="21"/>
-      <c r="V15" s="21"/>
-      <c r="W15" s="21"/>
-      <c r="X15" s="21"/>
-      <c r="Y15" s="21"/>
-      <c r="Z15" s="21"/>
-      <c r="AA15" s="20"/>
-      <c r="AB15" s="22"/>
-    </row>
-    <row r="16" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="23" t="s">
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="16"/>
+      <c r="S15" s="16"/>
+      <c r="T15" s="16"/>
+      <c r="U15" s="16"/>
+      <c r="V15" s="16"/>
+      <c r="W15" s="16"/>
+      <c r="X15" s="16"/>
+      <c r="Y15" s="16"/>
+      <c r="Z15" s="16"/>
+      <c r="AA15" s="16"/>
+      <c r="AB15" s="17"/>
+    </row>
+    <row r="16" customFormat="false" ht="48.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="24"/>
-      <c r="O16" s="24"/>
-      <c r="P16" s="24"/>
-      <c r="Q16" s="24"/>
-      <c r="R16" s="24"/>
-      <c r="S16" s="24"/>
-      <c r="T16" s="24"/>
-      <c r="U16" s="24"/>
-      <c r="V16" s="24"/>
-      <c r="W16" s="24"/>
-      <c r="X16" s="24"/>
-      <c r="Y16" s="24"/>
-      <c r="Z16" s="24"/>
-      <c r="AA16" s="24"/>
-      <c r="AB16" s="27"/>
+      <c r="B16" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="G16" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="H16" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="I16" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="J16" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="K16" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="L16" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="M16" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="N16" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="O16" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="P16" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q16" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="R16" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="S16" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="T16" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="U16" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="V16" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="W16" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="X16" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y16" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="Z16" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="AA16" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="AB16" s="24" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="18" t="s">
-        <v>123</v>
+        <v>147</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>125</v>
+        <v>149</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>128</v>
+        <v>152</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>129</v>
+        <v>153</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>130</v>
+        <v>154</v>
       </c>
       <c r="I17" s="15" t="s">
-        <v>131</v>
+        <v>155</v>
       </c>
       <c r="J17" s="15" t="s">
-        <v>132</v>
+        <v>156</v>
       </c>
       <c r="K17" s="16" t="s">
-        <v>133</v>
+        <v>157</v>
       </c>
       <c r="L17" s="16" t="s">
-        <v>134</v>
+        <v>158</v>
       </c>
       <c r="M17" s="16" t="s">
-        <v>135</v>
+        <v>159</v>
       </c>
       <c r="N17" s="16" t="s">
-        <v>133</v>
+        <v>157</v>
       </c>
       <c r="O17" s="16" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="P17" s="16" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
       <c r="Q17" s="16" t="s">
-        <v>138</v>
+        <v>162</v>
       </c>
       <c r="R17" s="16" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="S17" s="16" t="s">
-        <v>140</v>
+        <v>164</v>
       </c>
       <c r="T17" s="16" t="s">
-        <v>141</v>
+        <v>165</v>
       </c>
       <c r="U17" s="16" t="s">
-        <v>142</v>
+        <v>166</v>
       </c>
       <c r="V17" s="16" t="s">
-        <v>143</v>
+        <v>167</v>
       </c>
       <c r="W17" s="16" t="s">
-        <v>144</v>
+        <v>168</v>
       </c>
       <c r="X17" s="16" t="s">
-        <v>145</v>
+        <v>169</v>
       </c>
       <c r="Y17" s="16" t="s">
-        <v>146</v>
+        <v>170</v>
       </c>
       <c r="Z17" s="16" t="s">
-        <v>147</v>
+        <v>171</v>
       </c>
       <c r="AA17" s="16" t="s">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="AB17" s="17" t="s">
-        <v>125</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="28.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="18" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>149</v>
+        <v>173</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>150</v>
+        <v>174</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>151</v>
+        <v>175</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>153</v>
+        <v>177</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>154</v>
+        <v>178</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>155</v>
+        <v>179</v>
       </c>
       <c r="I18" s="15" t="s">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="J18" s="15" t="s">
-        <v>157</v>
+        <v>181</v>
       </c>
       <c r="K18" s="16" t="s">
-        <v>158</v>
+        <v>182</v>
       </c>
       <c r="L18" s="16" t="s">
-        <v>159</v>
+        <v>183</v>
       </c>
       <c r="M18" s="16" t="s">
-        <v>160</v>
+        <v>184</v>
       </c>
       <c r="N18" s="16" t="s">
-        <v>158</v>
+        <v>182</v>
       </c>
       <c r="O18" s="16" t="s">
-        <v>161</v>
+        <v>185</v>
       </c>
       <c r="P18" s="16" t="s">
-        <v>162</v>
+        <v>186</v>
       </c>
       <c r="Q18" s="16" t="s">
-        <v>163</v>
+        <v>187</v>
       </c>
       <c r="R18" s="16" t="s">
-        <v>164</v>
+        <v>188</v>
       </c>
       <c r="S18" s="16" t="s">
-        <v>165</v>
+        <v>189</v>
       </c>
       <c r="T18" s="16" t="s">
-        <v>166</v>
+        <v>190</v>
       </c>
       <c r="U18" s="16" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
       <c r="V18" s="16" t="s">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="W18" s="16" t="s">
-        <v>169</v>
+        <v>193</v>
       </c>
       <c r="X18" s="16" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="Y18" s="16" t="s">
-        <v>171</v>
+        <v>195</v>
       </c>
       <c r="Z18" s="16" t="s">
-        <v>172</v>
+        <v>196</v>
       </c>
       <c r="AA18" s="16" t="s">
-        <v>149</v>
+        <v>173</v>
       </c>
       <c r="AB18" s="17" t="s">
-        <v>150</v>
+        <v>174</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="18" t="s">
-        <v>173</v>
+        <v>197</v>
       </c>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
       <c r="E19" s="15"/>
-      <c r="F19" s="20"/>
+      <c r="F19" s="25"/>
       <c r="G19" s="16"/>
       <c r="H19" s="16"/>
       <c r="I19" s="16"/>
@@ -3745,964 +3866,964 @@
       <c r="X19" s="16"/>
       <c r="Y19" s="16"/>
       <c r="Z19" s="16"/>
-      <c r="AA19" s="20"/>
-      <c r="AB19" s="22"/>
+      <c r="AA19" s="25"/>
+      <c r="AB19" s="26"/>
     </row>
     <row r="20" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="18" t="s">
-        <v>174</v>
+        <v>198</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>175</v>
+        <v>199</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>176</v>
+        <v>200</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>177</v>
+        <v>201</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>178</v>
+        <v>202</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>179</v>
+        <v>203</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>180</v>
+        <v>204</v>
       </c>
       <c r="H20" s="15" t="s">
-        <v>181</v>
+        <v>205</v>
       </c>
       <c r="I20" s="15" t="s">
-        <v>182</v>
+        <v>206</v>
       </c>
       <c r="J20" s="15" t="s">
-        <v>183</v>
+        <v>207</v>
       </c>
       <c r="K20" s="16" t="s">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="L20" s="16" t="s">
-        <v>185</v>
+        <v>209</v>
       </c>
       <c r="M20" s="16" t="s">
-        <v>186</v>
+        <v>210</v>
       </c>
       <c r="N20" s="16" t="s">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="O20" s="16" t="s">
-        <v>187</v>
+        <v>211</v>
       </c>
       <c r="P20" s="16" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
       <c r="Q20" s="16" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="R20" s="16" t="s">
-        <v>190</v>
+        <v>214</v>
       </c>
       <c r="S20" s="16" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="T20" s="16" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="U20" s="16" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="V20" s="16" t="s">
-        <v>194</v>
+        <v>218</v>
       </c>
       <c r="W20" s="16" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="X20" s="16" t="s">
-        <v>196</v>
+        <v>220</v>
       </c>
       <c r="Y20" s="16" t="s">
-        <v>197</v>
+        <v>221</v>
       </c>
       <c r="Z20" s="16" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
       <c r="AA20" s="16" t="s">
-        <v>175</v>
+        <v>199</v>
       </c>
       <c r="AB20" s="17" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="36.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="28" t="s">
-        <v>199</v>
-      </c>
-      <c r="B21" s="29" t="s">
         <v>200</v>
       </c>
-      <c r="C21" s="29" t="s">
-        <v>201</v>
-      </c>
-      <c r="D21" s="29" t="s">
-        <v>202</v>
-      </c>
-      <c r="E21" s="29" t="s">
-        <v>203</v>
-      </c>
-      <c r="F21" s="29" t="s">
-        <v>204</v>
-      </c>
-      <c r="G21" s="30" t="s">
-        <v>205</v>
-      </c>
-      <c r="H21" s="30" t="s">
-        <v>206</v>
-      </c>
-      <c r="I21" s="30" t="s">
-        <v>207</v>
-      </c>
-      <c r="J21" s="30" t="s">
-        <v>208</v>
-      </c>
-      <c r="K21" s="31" t="s">
-        <v>209</v>
-      </c>
-      <c r="L21" s="31" t="s">
-        <v>210</v>
-      </c>
-      <c r="M21" s="31" t="s">
-        <v>211</v>
-      </c>
-      <c r="N21" s="31" t="s">
-        <v>209</v>
-      </c>
-      <c r="O21" s="31" t="s">
-        <v>212</v>
-      </c>
-      <c r="P21" s="31" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q21" s="31" t="s">
-        <v>214</v>
-      </c>
-      <c r="R21" s="31" t="s">
-        <v>215</v>
-      </c>
-      <c r="S21" s="31" t="s">
-        <v>216</v>
-      </c>
-      <c r="T21" s="31" t="s">
-        <v>217</v>
-      </c>
-      <c r="U21" s="31" t="s">
-        <v>218</v>
-      </c>
-      <c r="V21" s="31" t="s">
-        <v>219</v>
-      </c>
-      <c r="W21" s="31" t="s">
-        <v>220</v>
-      </c>
-      <c r="X21" s="31" t="s">
-        <v>221</v>
-      </c>
-      <c r="Y21" s="31" t="s">
-        <v>222</v>
-      </c>
-      <c r="Z21" s="31" t="s">
+    </row>
+    <row r="21" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="27" t="s">
         <v>223</v>
       </c>
-      <c r="AA21" s="31" t="s">
-        <v>200</v>
-      </c>
-      <c r="AB21" s="32" t="s">
-        <v>201</v>
+      <c r="B21" s="28" t="s">
+        <v>224</v>
+      </c>
+      <c r="C21" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="E21" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="F21" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="G21" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="H21" s="23" t="s">
+        <v>230</v>
+      </c>
+      <c r="I21" s="23" t="s">
+        <v>231</v>
+      </c>
+      <c r="J21" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="K21" s="29" t="s">
+        <v>233</v>
+      </c>
+      <c r="L21" s="29" t="s">
+        <v>234</v>
+      </c>
+      <c r="M21" s="29" t="s">
+        <v>235</v>
+      </c>
+      <c r="N21" s="29" t="s">
+        <v>233</v>
+      </c>
+      <c r="O21" s="29" t="s">
+        <v>236</v>
+      </c>
+      <c r="P21" s="29" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q21" s="29" t="s">
+        <v>238</v>
+      </c>
+      <c r="R21" s="29" t="s">
+        <v>239</v>
+      </c>
+      <c r="S21" s="29" t="s">
+        <v>240</v>
+      </c>
+      <c r="T21" s="29" t="s">
+        <v>241</v>
+      </c>
+      <c r="U21" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="V21" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="W21" s="29" t="s">
+        <v>244</v>
+      </c>
+      <c r="X21" s="29" t="s">
+        <v>245</v>
+      </c>
+      <c r="Y21" s="29" t="s">
+        <v>246</v>
+      </c>
+      <c r="Z21" s="29" t="s">
+        <v>247</v>
+      </c>
+      <c r="AA21" s="29" t="s">
+        <v>224</v>
+      </c>
+      <c r="AB21" s="30" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="18" t="s">
-        <v>224</v>
+        <v>248</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>225</v>
+        <v>249</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>226</v>
+        <v>250</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>227</v>
+        <v>251</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>228</v>
+        <v>252</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>229</v>
+        <v>253</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>230</v>
+        <v>254</v>
       </c>
       <c r="H22" s="15" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="I22" s="15" t="s">
-        <v>232</v>
+        <v>256</v>
       </c>
       <c r="J22" s="15" t="s">
-        <v>233</v>
+        <v>257</v>
       </c>
       <c r="K22" s="16" t="s">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="L22" s="16" t="s">
-        <v>235</v>
+        <v>259</v>
       </c>
       <c r="M22" s="16" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="N22" s="16" t="s">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="O22" s="16" t="s">
-        <v>237</v>
+        <v>261</v>
       </c>
       <c r="P22" s="16" t="s">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="Q22" s="16" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="R22" s="16" t="s">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="S22" s="16" t="s">
-        <v>241</v>
+        <v>265</v>
       </c>
       <c r="T22" s="16" t="s">
-        <v>242</v>
+        <v>266</v>
       </c>
       <c r="U22" s="16" t="s">
-        <v>243</v>
+        <v>267</v>
       </c>
       <c r="V22" s="16" t="s">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="W22" s="16" t="s">
-        <v>245</v>
+        <v>269</v>
       </c>
       <c r="X22" s="16" t="s">
-        <v>246</v>
+        <v>270</v>
       </c>
       <c r="Y22" s="16" t="s">
-        <v>247</v>
+        <v>271</v>
       </c>
       <c r="Z22" s="16" t="s">
-        <v>248</v>
+        <v>272</v>
       </c>
       <c r="AA22" s="16" t="s">
-        <v>225</v>
+        <v>249</v>
       </c>
       <c r="AB22" s="17" t="s">
-        <v>226</v>
+        <v>250</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="30.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="18" t="s">
-        <v>249</v>
+        <v>273</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>250</v>
+        <v>274</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>251</v>
+        <v>275</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>252</v>
+        <v>276</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>253</v>
+        <v>277</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>254</v>
+        <v>278</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>255</v>
+        <v>279</v>
       </c>
       <c r="H23" s="15" t="s">
-        <v>256</v>
+        <v>280</v>
       </c>
       <c r="I23" s="15" t="s">
-        <v>257</v>
+        <v>281</v>
       </c>
       <c r="J23" s="15" t="s">
-        <v>258</v>
+        <v>282</v>
       </c>
       <c r="K23" s="16" t="s">
-        <v>259</v>
+        <v>283</v>
       </c>
       <c r="L23" s="16" t="s">
-        <v>260</v>
+        <v>284</v>
       </c>
       <c r="M23" s="16" t="s">
-        <v>261</v>
+        <v>285</v>
       </c>
       <c r="N23" s="16" t="s">
-        <v>259</v>
+        <v>283</v>
       </c>
       <c r="O23" s="16" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="P23" s="16" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="Q23" s="16" t="s">
-        <v>264</v>
+        <v>288</v>
       </c>
       <c r="R23" s="16" t="s">
-        <v>265</v>
+        <v>289</v>
       </c>
       <c r="S23" s="16" t="s">
-        <v>266</v>
+        <v>290</v>
       </c>
       <c r="T23" s="16" t="s">
-        <v>267</v>
+        <v>291</v>
       </c>
       <c r="U23" s="16" t="s">
-        <v>268</v>
+        <v>292</v>
       </c>
       <c r="V23" s="16" t="s">
-        <v>269</v>
+        <v>293</v>
       </c>
       <c r="W23" s="16" t="s">
-        <v>270</v>
+        <v>294</v>
       </c>
       <c r="X23" s="16" t="s">
-        <v>271</v>
+        <v>295</v>
       </c>
       <c r="Y23" s="16" t="s">
-        <v>272</v>
+        <v>296</v>
       </c>
       <c r="Z23" s="16" t="s">
-        <v>273</v>
+        <v>297</v>
       </c>
       <c r="AA23" s="16" t="s">
-        <v>250</v>
+        <v>274</v>
       </c>
       <c r="AB23" s="17" t="s">
-        <v>251</v>
+        <v>275</v>
       </c>
     </row>
     <row r="24" s="19" customFormat="true" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="18" t="s">
-        <v>274</v>
+        <v>298</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>275</v>
+        <v>299</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>276</v>
+        <v>300</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>277</v>
+        <v>301</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>278</v>
+        <v>302</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>279</v>
+        <v>303</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>280</v>
+        <v>304</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>281</v>
+        <v>305</v>
       </c>
       <c r="I24" s="15" t="s">
-        <v>282</v>
+        <v>306</v>
       </c>
       <c r="J24" s="15" t="s">
-        <v>283</v>
+        <v>307</v>
       </c>
       <c r="K24" s="16" t="s">
-        <v>284</v>
+        <v>308</v>
       </c>
       <c r="L24" s="16" t="s">
-        <v>285</v>
+        <v>309</v>
       </c>
       <c r="M24" s="16" t="s">
-        <v>286</v>
+        <v>310</v>
       </c>
       <c r="N24" s="16" t="s">
-        <v>284</v>
+        <v>308</v>
       </c>
       <c r="O24" s="16" t="s">
-        <v>287</v>
+        <v>311</v>
       </c>
       <c r="P24" s="16" t="s">
-        <v>288</v>
+        <v>312</v>
       </c>
       <c r="Q24" s="16" t="s">
-        <v>289</v>
+        <v>313</v>
       </c>
       <c r="R24" s="16" t="s">
-        <v>290</v>
+        <v>314</v>
       </c>
       <c r="S24" s="16" t="s">
-        <v>291</v>
+        <v>315</v>
       </c>
       <c r="T24" s="16" t="s">
-        <v>292</v>
+        <v>316</v>
       </c>
       <c r="U24" s="16" t="s">
-        <v>293</v>
+        <v>317</v>
       </c>
       <c r="V24" s="16" t="s">
-        <v>294</v>
+        <v>318</v>
       </c>
       <c r="W24" s="16" t="s">
-        <v>295</v>
+        <v>319</v>
       </c>
       <c r="X24" s="16" t="s">
-        <v>296</v>
+        <v>320</v>
       </c>
       <c r="Y24" s="16" t="s">
-        <v>297</v>
+        <v>321</v>
       </c>
       <c r="Z24" s="16" t="s">
-        <v>298</v>
+        <v>322</v>
       </c>
       <c r="AA24" s="16" t="s">
-        <v>275</v>
+        <v>299</v>
       </c>
       <c r="AB24" s="17" t="s">
-        <v>276</v>
+        <v>300</v>
       </c>
     </row>
     <row r="25" s="19" customFormat="true" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="18" t="s">
-        <v>299</v>
+        <v>323</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>300</v>
+        <v>324</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>301</v>
+        <v>325</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>302</v>
+        <v>326</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>303</v>
+        <v>327</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>304</v>
+        <v>328</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>305</v>
+        <v>329</v>
       </c>
       <c r="H25" s="15" t="s">
-        <v>306</v>
+        <v>330</v>
       </c>
       <c r="I25" s="15" t="s">
-        <v>307</v>
+        <v>331</v>
       </c>
       <c r="J25" s="15" t="s">
-        <v>308</v>
+        <v>332</v>
       </c>
       <c r="K25" s="16" t="s">
-        <v>309</v>
+        <v>333</v>
       </c>
       <c r="L25" s="16" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="M25" s="16" t="s">
-        <v>311</v>
+        <v>335</v>
       </c>
       <c r="N25" s="16" t="s">
-        <v>309</v>
+        <v>333</v>
       </c>
       <c r="O25" s="16" t="s">
-        <v>312</v>
+        <v>336</v>
       </c>
       <c r="P25" s="16" t="s">
-        <v>313</v>
+        <v>337</v>
       </c>
       <c r="Q25" s="16" t="s">
-        <v>314</v>
+        <v>338</v>
       </c>
       <c r="R25" s="16" t="s">
-        <v>315</v>
+        <v>339</v>
       </c>
       <c r="S25" s="16" t="s">
-        <v>316</v>
+        <v>340</v>
       </c>
       <c r="T25" s="16" t="s">
-        <v>317</v>
+        <v>341</v>
       </c>
       <c r="U25" s="16" t="s">
-        <v>318</v>
+        <v>342</v>
       </c>
       <c r="V25" s="16" t="s">
-        <v>319</v>
+        <v>343</v>
       </c>
       <c r="W25" s="16" t="s">
-        <v>320</v>
+        <v>344</v>
       </c>
       <c r="X25" s="16" t="s">
-        <v>321</v>
+        <v>345</v>
       </c>
       <c r="Y25" s="16" t="s">
-        <v>322</v>
+        <v>346</v>
       </c>
       <c r="Z25" s="16" t="s">
-        <v>323</v>
+        <v>347</v>
       </c>
       <c r="AA25" s="16" t="s">
-        <v>300</v>
+        <v>324</v>
       </c>
       <c r="AB25" s="17" t="s">
-        <v>301</v>
+        <v>325</v>
       </c>
     </row>
     <row r="26" s="19" customFormat="true" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="18" t="s">
-        <v>324</v>
+        <v>348</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>325</v>
+        <v>349</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>326</v>
+        <v>350</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>327</v>
+        <v>351</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>328</v>
+        <v>352</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>329</v>
+        <v>353</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>330</v>
+        <v>354</v>
       </c>
       <c r="H26" s="15" t="s">
-        <v>331</v>
+        <v>355</v>
       </c>
       <c r="I26" s="15" t="s">
-        <v>332</v>
+        <v>356</v>
       </c>
       <c r="J26" s="15" t="s">
-        <v>333</v>
+        <v>357</v>
       </c>
       <c r="K26" s="16" t="s">
-        <v>334</v>
+        <v>358</v>
       </c>
       <c r="L26" s="16" t="s">
-        <v>335</v>
+        <v>359</v>
       </c>
       <c r="M26" s="16" t="s">
-        <v>336</v>
+        <v>360</v>
       </c>
       <c r="N26" s="16" t="s">
-        <v>334</v>
+        <v>358</v>
       </c>
       <c r="O26" s="16" t="s">
-        <v>337</v>
+        <v>361</v>
       </c>
       <c r="P26" s="16" t="s">
-        <v>338</v>
+        <v>362</v>
       </c>
       <c r="Q26" s="16" t="s">
-        <v>339</v>
+        <v>363</v>
       </c>
       <c r="R26" s="16" t="s">
-        <v>340</v>
+        <v>364</v>
       </c>
       <c r="S26" s="16" t="s">
-        <v>341</v>
+        <v>365</v>
       </c>
       <c r="T26" s="16" t="s">
-        <v>342</v>
+        <v>366</v>
       </c>
       <c r="U26" s="16" t="s">
-        <v>343</v>
+        <v>367</v>
       </c>
       <c r="V26" s="16" t="s">
-        <v>344</v>
+        <v>368</v>
       </c>
       <c r="W26" s="16" t="s">
-        <v>345</v>
+        <v>369</v>
       </c>
       <c r="X26" s="16" t="s">
-        <v>346</v>
+        <v>370</v>
       </c>
       <c r="Y26" s="16" t="s">
-        <v>347</v>
+        <v>371</v>
       </c>
       <c r="Z26" s="16" t="s">
-        <v>348</v>
+        <v>372</v>
       </c>
       <c r="AA26" s="16" t="s">
-        <v>325</v>
+        <v>349</v>
       </c>
       <c r="AB26" s="17" t="s">
-        <v>326</v>
+        <v>350</v>
       </c>
     </row>
     <row r="27" s="19" customFormat="true" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="18" t="s">
-        <v>349</v>
+        <v>373</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>350</v>
+        <v>374</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>351</v>
+        <v>375</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>352</v>
+        <v>376</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>353</v>
+        <v>377</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>354</v>
+        <v>378</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>355</v>
+        <v>379</v>
       </c>
       <c r="H27" s="15" t="s">
-        <v>356</v>
+        <v>380</v>
       </c>
       <c r="I27" s="15" t="s">
-        <v>357</v>
+        <v>381</v>
       </c>
       <c r="J27" s="15" t="s">
-        <v>358</v>
+        <v>382</v>
       </c>
       <c r="K27" s="16" t="s">
-        <v>359</v>
+        <v>383</v>
       </c>
       <c r="L27" s="16" t="s">
-        <v>360</v>
+        <v>384</v>
       </c>
       <c r="M27" s="16" t="s">
-        <v>361</v>
+        <v>385</v>
       </c>
       <c r="N27" s="16" t="s">
-        <v>359</v>
+        <v>383</v>
       </c>
       <c r="O27" s="16" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="P27" s="16" t="s">
-        <v>363</v>
+        <v>387</v>
       </c>
       <c r="Q27" s="16" t="s">
-        <v>364</v>
+        <v>388</v>
       </c>
       <c r="R27" s="16" t="s">
-        <v>365</v>
+        <v>389</v>
       </c>
       <c r="S27" s="16" t="s">
-        <v>366</v>
+        <v>390</v>
       </c>
       <c r="T27" s="16" t="s">
-        <v>367</v>
+        <v>391</v>
       </c>
       <c r="U27" s="16" t="s">
-        <v>368</v>
+        <v>392</v>
       </c>
       <c r="V27" s="16" t="s">
-        <v>369</v>
+        <v>393</v>
       </c>
       <c r="W27" s="16" t="s">
-        <v>370</v>
+        <v>394</v>
       </c>
       <c r="X27" s="16" t="s">
-        <v>371</v>
+        <v>395</v>
       </c>
       <c r="Y27" s="16" t="s">
-        <v>372</v>
+        <v>396</v>
       </c>
       <c r="Z27" s="16" t="s">
-        <v>373</v>
+        <v>397</v>
       </c>
       <c r="AA27" s="16" t="s">
-        <v>350</v>
+        <v>374</v>
       </c>
       <c r="AB27" s="17" t="s">
-        <v>351</v>
+        <v>375</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="63.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="33" t="s">
-        <v>374</v>
+      <c r="A28" s="31" t="s">
+        <v>398</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>375</v>
+        <v>399</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>376</v>
+        <v>400</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>377</v>
+        <v>401</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>378</v>
+        <v>402</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>379</v>
+        <v>403</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>380</v>
+        <v>404</v>
       </c>
       <c r="H28" s="15" t="s">
-        <v>381</v>
+        <v>405</v>
       </c>
       <c r="I28" s="15" t="s">
-        <v>382</v>
+        <v>406</v>
       </c>
       <c r="J28" s="15" t="s">
-        <v>383</v>
+        <v>407</v>
       </c>
       <c r="K28" s="16" t="s">
-        <v>384</v>
+        <v>408</v>
       </c>
       <c r="L28" s="16" t="s">
-        <v>385</v>
+        <v>409</v>
       </c>
       <c r="M28" s="16" t="s">
-        <v>386</v>
+        <v>410</v>
       </c>
       <c r="N28" s="16" t="s">
-        <v>384</v>
+        <v>408</v>
       </c>
       <c r="O28" s="16" t="s">
-        <v>387</v>
+        <v>411</v>
       </c>
       <c r="P28" s="16" t="s">
-        <v>388</v>
+        <v>412</v>
       </c>
       <c r="Q28" s="16" t="s">
-        <v>389</v>
+        <v>413</v>
       </c>
       <c r="R28" s="16" t="s">
-        <v>390</v>
+        <v>414</v>
       </c>
       <c r="S28" s="16" t="s">
-        <v>391</v>
+        <v>415</v>
       </c>
       <c r="T28" s="16" t="s">
-        <v>392</v>
+        <v>416</v>
       </c>
       <c r="U28" s="16" t="s">
-        <v>393</v>
+        <v>417</v>
       </c>
       <c r="V28" s="16" t="s">
-        <v>394</v>
+        <v>418</v>
       </c>
       <c r="W28" s="16" t="s">
-        <v>395</v>
+        <v>419</v>
       </c>
       <c r="X28" s="16" t="s">
-        <v>396</v>
+        <v>420</v>
       </c>
       <c r="Y28" s="16" t="s">
-        <v>397</v>
+        <v>421</v>
       </c>
       <c r="Z28" s="16" t="s">
-        <v>398</v>
+        <v>422</v>
       </c>
       <c r="AA28" s="16" t="s">
-        <v>375</v>
+        <v>399</v>
       </c>
       <c r="AB28" s="17" t="s">
-        <v>376</v>
+        <v>400</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="58.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="33" t="s">
-        <v>399</v>
+      <c r="A29" s="31" t="s">
+        <v>423</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>400</v>
+        <v>424</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>401</v>
+        <v>425</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>402</v>
+        <v>426</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>403</v>
+        <v>427</v>
       </c>
       <c r="F29" s="15" t="s">
-        <v>404</v>
+        <v>428</v>
       </c>
       <c r="G29" s="15" t="s">
-        <v>405</v>
+        <v>429</v>
       </c>
       <c r="H29" s="15" t="s">
-        <v>406</v>
+        <v>430</v>
       </c>
       <c r="I29" s="15" t="s">
-        <v>407</v>
+        <v>431</v>
       </c>
       <c r="J29" s="15" t="s">
-        <v>408</v>
+        <v>432</v>
       </c>
       <c r="K29" s="16" t="s">
-        <v>409</v>
+        <v>433</v>
       </c>
       <c r="L29" s="16" t="s">
-        <v>410</v>
+        <v>434</v>
       </c>
       <c r="M29" s="16" t="s">
-        <v>411</v>
+        <v>435</v>
       </c>
       <c r="N29" s="16" t="s">
-        <v>409</v>
+        <v>433</v>
       </c>
       <c r="O29" s="16" t="s">
-        <v>412</v>
+        <v>436</v>
       </c>
       <c r="P29" s="16" t="s">
-        <v>413</v>
+        <v>437</v>
       </c>
       <c r="Q29" s="16" t="s">
-        <v>414</v>
+        <v>438</v>
       </c>
       <c r="R29" s="16" t="s">
-        <v>415</v>
+        <v>439</v>
       </c>
       <c r="S29" s="16" t="s">
-        <v>416</v>
+        <v>440</v>
       </c>
       <c r="T29" s="16" t="s">
-        <v>417</v>
+        <v>441</v>
       </c>
       <c r="U29" s="16" t="s">
-        <v>418</v>
+        <v>442</v>
       </c>
       <c r="V29" s="16" t="s">
-        <v>419</v>
+        <v>443</v>
       </c>
       <c r="W29" s="16" t="s">
-        <v>420</v>
+        <v>444</v>
       </c>
       <c r="X29" s="16" t="s">
-        <v>421</v>
+        <v>445</v>
       </c>
       <c r="Y29" s="16" t="s">
-        <v>422</v>
+        <v>446</v>
       </c>
       <c r="Z29" s="16" t="s">
-        <v>423</v>
+        <v>447</v>
       </c>
       <c r="AA29" s="16" t="s">
-        <v>400</v>
+        <v>424</v>
       </c>
       <c r="AB29" s="17" t="s">
-        <v>401</v>
+        <v>425</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="65.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="33" t="s">
-        <v>424</v>
+      <c r="A30" s="31" t="s">
+        <v>448</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>425</v>
+        <v>449</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>426</v>
+        <v>450</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>427</v>
+        <v>451</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>428</v>
+        <v>452</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>429</v>
+        <v>453</v>
       </c>
       <c r="G30" s="15" t="s">
-        <v>430</v>
+        <v>454</v>
       </c>
       <c r="H30" s="15" t="s">
-        <v>431</v>
+        <v>455</v>
       </c>
       <c r="I30" s="15" t="s">
-        <v>432</v>
+        <v>456</v>
       </c>
       <c r="J30" s="15" t="s">
-        <v>433</v>
+        <v>457</v>
       </c>
       <c r="K30" s="16" t="s">
-        <v>434</v>
+        <v>458</v>
       </c>
       <c r="L30" s="16" t="s">
-        <v>435</v>
+        <v>459</v>
       </c>
       <c r="M30" s="16" t="s">
-        <v>436</v>
+        <v>460</v>
       </c>
       <c r="N30" s="16" t="s">
-        <v>434</v>
+        <v>458</v>
       </c>
       <c r="O30" s="16" t="s">
-        <v>437</v>
+        <v>461</v>
       </c>
       <c r="P30" s="16" t="s">
-        <v>438</v>
+        <v>462</v>
       </c>
       <c r="Q30" s="16" t="s">
-        <v>439</v>
+        <v>463</v>
       </c>
       <c r="R30" s="16" t="s">
-        <v>440</v>
+        <v>464</v>
       </c>
       <c r="S30" s="16" t="s">
-        <v>441</v>
+        <v>465</v>
       </c>
       <c r="T30" s="16" t="s">
-        <v>442</v>
+        <v>466</v>
       </c>
       <c r="U30" s="16" t="s">
-        <v>443</v>
+        <v>467</v>
       </c>
       <c r="V30" s="16" t="s">
-        <v>444</v>
+        <v>468</v>
       </c>
       <c r="W30" s="16" t="s">
-        <v>445</v>
+        <v>469</v>
       </c>
       <c r="X30" s="16" t="s">
-        <v>446</v>
+        <v>470</v>
       </c>
       <c r="Y30" s="16" t="s">
-        <v>447</v>
+        <v>471</v>
       </c>
       <c r="Z30" s="16" t="s">
-        <v>448</v>
+        <v>472</v>
       </c>
       <c r="AA30" s="16" t="s">
-        <v>425</v>
+        <v>449</v>
       </c>
       <c r="AB30" s="17" t="s">
-        <v>426</v>
+        <v>450</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="70.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="34" t="s">
-        <v>449</v>
+      <c r="A31" s="32" t="s">
+        <v>473</v>
       </c>
       <c r="B31" s="15"/>
       <c r="C31" s="15"/>
       <c r="D31" s="15"/>
       <c r="E31" s="15"/>
-      <c r="F31" s="20"/>
+      <c r="F31" s="25"/>
       <c r="G31" s="16"/>
       <c r="H31" s="16"/>
       <c r="I31" s="16"/>
@@ -4723,265 +4844,265 @@
       <c r="X31" s="16"/>
       <c r="Y31" s="16"/>
       <c r="Z31" s="16"/>
-      <c r="AA31" s="20"/>
-      <c r="AB31" s="22"/>
+      <c r="AA31" s="25"/>
+      <c r="AB31" s="26"/>
     </row>
     <row r="32" customFormat="false" ht="52.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="34" t="s">
-        <v>450</v>
+      <c r="A32" s="32" t="s">
+        <v>474</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>451</v>
+        <v>475</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>452</v>
+        <v>476</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>453</v>
+        <v>477</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>454</v>
+        <v>478</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>455</v>
+        <v>479</v>
       </c>
       <c r="G32" s="15" t="s">
-        <v>456</v>
+        <v>480</v>
       </c>
       <c r="H32" s="15" t="s">
-        <v>457</v>
+        <v>481</v>
       </c>
       <c r="I32" s="15" t="s">
-        <v>458</v>
+        <v>482</v>
       </c>
       <c r="J32" s="15" t="s">
-        <v>459</v>
+        <v>483</v>
       </c>
       <c r="K32" s="16" t="s">
-        <v>460</v>
+        <v>484</v>
       </c>
       <c r="L32" s="16" t="s">
-        <v>461</v>
+        <v>485</v>
       </c>
       <c r="M32" s="16" t="s">
-        <v>462</v>
+        <v>486</v>
       </c>
       <c r="N32" s="16" t="s">
-        <v>460</v>
+        <v>484</v>
       </c>
       <c r="O32" s="16" t="s">
-        <v>463</v>
+        <v>487</v>
       </c>
       <c r="P32" s="16" t="s">
-        <v>464</v>
+        <v>488</v>
       </c>
       <c r="Q32" s="16" t="s">
-        <v>465</v>
+        <v>489</v>
       </c>
       <c r="R32" s="16" t="s">
-        <v>466</v>
+        <v>490</v>
       </c>
       <c r="S32" s="16" t="s">
-        <v>467</v>
+        <v>491</v>
       </c>
       <c r="T32" s="16" t="s">
-        <v>468</v>
+        <v>492</v>
       </c>
       <c r="U32" s="16" t="s">
-        <v>469</v>
+        <v>493</v>
       </c>
       <c r="V32" s="16" t="s">
-        <v>470</v>
+        <v>494</v>
       </c>
       <c r="W32" s="16" t="s">
-        <v>471</v>
+        <v>495</v>
       </c>
       <c r="X32" s="16" t="s">
-        <v>472</v>
+        <v>496</v>
       </c>
       <c r="Y32" s="16" t="s">
-        <v>473</v>
+        <v>497</v>
       </c>
       <c r="Z32" s="16" t="s">
-        <v>474</v>
+        <v>498</v>
       </c>
       <c r="AA32" s="16" t="s">
-        <v>451</v>
+        <v>475</v>
       </c>
       <c r="AB32" s="17" t="s">
-        <v>452</v>
+        <v>476</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="59.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="34" t="s">
-        <v>475</v>
+      <c r="A33" s="32" t="s">
+        <v>499</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>476</v>
+        <v>500</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>477</v>
+        <v>501</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>478</v>
+        <v>502</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>479</v>
+        <v>503</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>480</v>
+        <v>504</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>481</v>
+        <v>505</v>
       </c>
       <c r="H33" s="15" t="s">
-        <v>482</v>
+        <v>506</v>
       </c>
       <c r="I33" s="15" t="s">
-        <v>483</v>
+        <v>507</v>
       </c>
       <c r="J33" s="15" t="s">
-        <v>484</v>
+        <v>508</v>
       </c>
       <c r="K33" s="16" t="s">
-        <v>485</v>
+        <v>509</v>
       </c>
       <c r="L33" s="16" t="s">
-        <v>486</v>
+        <v>510</v>
       </c>
       <c r="M33" s="16" t="s">
-        <v>487</v>
+        <v>511</v>
       </c>
       <c r="N33" s="16" t="s">
-        <v>485</v>
+        <v>509</v>
       </c>
       <c r="O33" s="16" t="s">
-        <v>488</v>
+        <v>512</v>
       </c>
       <c r="P33" s="16" t="s">
-        <v>489</v>
+        <v>513</v>
       </c>
       <c r="Q33" s="16" t="s">
-        <v>490</v>
+        <v>514</v>
       </c>
       <c r="R33" s="16" t="s">
-        <v>491</v>
+        <v>515</v>
       </c>
       <c r="S33" s="16" t="s">
-        <v>492</v>
+        <v>516</v>
       </c>
       <c r="T33" s="16" t="s">
-        <v>493</v>
+        <v>517</v>
       </c>
       <c r="U33" s="16" t="s">
-        <v>494</v>
+        <v>518</v>
       </c>
       <c r="V33" s="16" t="s">
-        <v>495</v>
+        <v>519</v>
       </c>
       <c r="W33" s="16" t="s">
-        <v>496</v>
+        <v>520</v>
       </c>
       <c r="X33" s="16" t="s">
-        <v>497</v>
+        <v>521</v>
       </c>
       <c r="Y33" s="16" t="s">
-        <v>498</v>
+        <v>522</v>
       </c>
       <c r="Z33" s="16" t="s">
-        <v>499</v>
+        <v>523</v>
       </c>
       <c r="AA33" s="16" t="s">
-        <v>476</v>
+        <v>500</v>
       </c>
       <c r="AB33" s="17" t="s">
-        <v>477</v>
+        <v>501</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="54.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="35" t="s">
-        <v>500</v>
-      </c>
-      <c r="B34" s="29" t="s">
-        <v>501</v>
-      </c>
-      <c r="C34" s="29" t="s">
-        <v>502</v>
-      </c>
-      <c r="D34" s="29" t="s">
-        <v>503</v>
-      </c>
-      <c r="E34" s="29" t="s">
-        <v>504</v>
-      </c>
-      <c r="F34" s="29" t="s">
-        <v>505</v>
-      </c>
-      <c r="G34" s="29" t="s">
-        <v>506</v>
-      </c>
-      <c r="H34" s="29" t="s">
-        <v>507</v>
-      </c>
-      <c r="I34" s="29" t="s">
-        <v>508</v>
-      </c>
-      <c r="J34" s="29" t="s">
-        <v>509</v>
-      </c>
-      <c r="K34" s="31" t="s">
-        <v>510</v>
-      </c>
-      <c r="L34" s="31" t="s">
-        <v>511</v>
-      </c>
-      <c r="M34" s="31" t="s">
-        <v>512</v>
-      </c>
-      <c r="N34" s="31" t="s">
-        <v>510</v>
-      </c>
-      <c r="O34" s="31" t="s">
-        <v>513</v>
-      </c>
-      <c r="P34" s="31" t="s">
-        <v>514</v>
-      </c>
-      <c r="Q34" s="31" t="s">
-        <v>515</v>
-      </c>
-      <c r="R34" s="31" t="s">
-        <v>516</v>
-      </c>
-      <c r="S34" s="31" t="s">
-        <v>517</v>
-      </c>
-      <c r="T34" s="31" t="s">
-        <v>518</v>
-      </c>
-      <c r="U34" s="31" t="s">
-        <v>519</v>
-      </c>
-      <c r="V34" s="31" t="s">
-        <v>520</v>
-      </c>
-      <c r="W34" s="31" t="s">
-        <v>521</v>
-      </c>
-      <c r="X34" s="31" t="s">
-        <v>522</v>
-      </c>
-      <c r="Y34" s="31" t="s">
-        <v>523</v>
-      </c>
-      <c r="Z34" s="31" t="s">
+      <c r="A34" s="27" t="s">
         <v>524</v>
       </c>
-      <c r="AA34" s="31" t="s">
-        <v>501</v>
-      </c>
-      <c r="AB34" s="32" t="s">
-        <v>502</v>
+      <c r="B34" s="28" t="s">
+        <v>525</v>
+      </c>
+      <c r="C34" s="28" t="s">
+        <v>526</v>
+      </c>
+      <c r="D34" s="28" t="s">
+        <v>527</v>
+      </c>
+      <c r="E34" s="28" t="s">
+        <v>528</v>
+      </c>
+      <c r="F34" s="28" t="s">
+        <v>529</v>
+      </c>
+      <c r="G34" s="28" t="s">
+        <v>530</v>
+      </c>
+      <c r="H34" s="28" t="s">
+        <v>531</v>
+      </c>
+      <c r="I34" s="28" t="s">
+        <v>532</v>
+      </c>
+      <c r="J34" s="28" t="s">
+        <v>533</v>
+      </c>
+      <c r="K34" s="29" t="s">
+        <v>534</v>
+      </c>
+      <c r="L34" s="29" t="s">
+        <v>535</v>
+      </c>
+      <c r="M34" s="29" t="s">
+        <v>536</v>
+      </c>
+      <c r="N34" s="29" t="s">
+        <v>534</v>
+      </c>
+      <c r="O34" s="29" t="s">
+        <v>537</v>
+      </c>
+      <c r="P34" s="29" t="s">
+        <v>538</v>
+      </c>
+      <c r="Q34" s="29" t="s">
+        <v>539</v>
+      </c>
+      <c r="R34" s="29" t="s">
+        <v>540</v>
+      </c>
+      <c r="S34" s="29" t="s">
+        <v>541</v>
+      </c>
+      <c r="T34" s="29" t="s">
+        <v>542</v>
+      </c>
+      <c r="U34" s="29" t="s">
+        <v>543</v>
+      </c>
+      <c r="V34" s="29" t="s">
+        <v>544</v>
+      </c>
+      <c r="W34" s="29" t="s">
+        <v>545</v>
+      </c>
+      <c r="X34" s="29" t="s">
+        <v>546</v>
+      </c>
+      <c r="Y34" s="29" t="s">
+        <v>547</v>
+      </c>
+      <c r="Z34" s="29" t="s">
+        <v>548</v>
+      </c>
+      <c r="AA34" s="29" t="s">
+        <v>525</v>
+      </c>
+      <c r="AB34" s="30" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4990,7 +5111,7 @@
       <c r="C35" s="15"/>
       <c r="D35" s="15"/>
       <c r="E35" s="15"/>
-      <c r="F35" s="20"/>
+      <c r="F35" s="25"/>
       <c r="G35" s="16"/>
       <c r="H35" s="16"/>
       <c r="I35" s="16"/>
@@ -5011,437 +5132,437 @@
       <c r="X35" s="16"/>
       <c r="Y35" s="16"/>
       <c r="Z35" s="16"/>
-      <c r="AA35" s="20"/>
-      <c r="AB35" s="22"/>
+      <c r="AA35" s="25"/>
+      <c r="AB35" s="26"/>
     </row>
     <row r="36" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="18" t="s">
-        <v>525</v>
+        <v>549</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>526</v>
+        <v>550</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>527</v>
+        <v>551</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>528</v>
+        <v>552</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>529</v>
+        <v>553</v>
       </c>
       <c r="F36" s="15" t="s">
-        <v>530</v>
+        <v>554</v>
       </c>
       <c r="G36" s="15" t="s">
-        <v>531</v>
+        <v>555</v>
       </c>
       <c r="H36" s="15" t="s">
-        <v>532</v>
+        <v>556</v>
       </c>
       <c r="I36" s="15" t="s">
-        <v>533</v>
+        <v>557</v>
       </c>
       <c r="J36" s="15" t="s">
-        <v>534</v>
+        <v>558</v>
       </c>
       <c r="K36" s="16" t="s">
-        <v>535</v>
+        <v>559</v>
       </c>
       <c r="L36" s="16" t="s">
-        <v>536</v>
+        <v>560</v>
       </c>
       <c r="M36" s="16" t="s">
-        <v>537</v>
+        <v>561</v>
       </c>
       <c r="N36" s="16" t="s">
-        <v>535</v>
+        <v>559</v>
       </c>
       <c r="O36" s="16" t="s">
-        <v>538</v>
+        <v>562</v>
       </c>
       <c r="P36" s="16" t="s">
-        <v>539</v>
+        <v>563</v>
       </c>
       <c r="Q36" s="16" t="s">
-        <v>540</v>
+        <v>564</v>
       </c>
       <c r="R36" s="16" t="s">
-        <v>541</v>
+        <v>565</v>
       </c>
       <c r="S36" s="16" t="s">
-        <v>542</v>
+        <v>566</v>
       </c>
       <c r="T36" s="16" t="s">
-        <v>543</v>
+        <v>567</v>
       </c>
       <c r="U36" s="16" t="s">
-        <v>544</v>
+        <v>568</v>
       </c>
       <c r="V36" s="16" t="s">
-        <v>545</v>
+        <v>569</v>
       </c>
       <c r="W36" s="16" t="s">
-        <v>546</v>
+        <v>570</v>
       </c>
       <c r="X36" s="16" t="s">
-        <v>547</v>
+        <v>571</v>
       </c>
       <c r="Y36" s="16" t="s">
-        <v>548</v>
+        <v>572</v>
       </c>
       <c r="Z36" s="16" t="s">
-        <v>549</v>
+        <v>573</v>
       </c>
       <c r="AA36" s="16" t="s">
-        <v>526</v>
+        <v>550</v>
       </c>
       <c r="AB36" s="17" t="s">
-        <v>527</v>
+        <v>551</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="53.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="18" t="s">
-        <v>550</v>
+        <v>574</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>551</v>
+        <v>575</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>552</v>
+        <v>576</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>553</v>
+        <v>577</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>554</v>
+        <v>578</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>555</v>
+        <v>579</v>
       </c>
       <c r="G37" s="15" t="s">
-        <v>556</v>
+        <v>580</v>
       </c>
       <c r="H37" s="15" t="s">
-        <v>557</v>
+        <v>581</v>
       </c>
       <c r="I37" s="15" t="s">
-        <v>558</v>
+        <v>582</v>
       </c>
       <c r="J37" s="15" t="s">
-        <v>559</v>
+        <v>583</v>
       </c>
       <c r="K37" s="16" t="s">
-        <v>560</v>
+        <v>584</v>
       </c>
       <c r="L37" s="16" t="s">
-        <v>561</v>
+        <v>585</v>
       </c>
       <c r="M37" s="16" t="s">
-        <v>562</v>
+        <v>586</v>
       </c>
       <c r="N37" s="16" t="s">
-        <v>560</v>
+        <v>584</v>
       </c>
       <c r="O37" s="16" t="s">
-        <v>563</v>
+        <v>587</v>
       </c>
       <c r="P37" s="16" t="s">
-        <v>564</v>
+        <v>588</v>
       </c>
       <c r="Q37" s="16" t="s">
-        <v>565</v>
+        <v>589</v>
       </c>
       <c r="R37" s="16" t="s">
-        <v>566</v>
+        <v>590</v>
       </c>
       <c r="S37" s="16" t="s">
-        <v>567</v>
+        <v>591</v>
       </c>
       <c r="T37" s="16" t="s">
-        <v>568</v>
+        <v>592</v>
       </c>
       <c r="U37" s="16" t="s">
-        <v>569</v>
+        <v>593</v>
       </c>
       <c r="V37" s="16" t="s">
-        <v>570</v>
+        <v>594</v>
       </c>
       <c r="W37" s="16" t="s">
-        <v>571</v>
+        <v>595</v>
       </c>
       <c r="X37" s="16" t="s">
-        <v>572</v>
+        <v>596</v>
       </c>
       <c r="Y37" s="16" t="s">
-        <v>573</v>
+        <v>597</v>
       </c>
       <c r="Z37" s="16" t="s">
-        <v>574</v>
+        <v>598</v>
       </c>
       <c r="AA37" s="16" t="s">
-        <v>551</v>
+        <v>575</v>
       </c>
       <c r="AB37" s="17" t="s">
-        <v>552</v>
+        <v>576</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="47" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="18" t="s">
-        <v>575</v>
+        <v>599</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>576</v>
+        <v>600</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>577</v>
+        <v>601</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>578</v>
+        <v>602</v>
       </c>
       <c r="E38" s="15" t="s">
-        <v>579</v>
+        <v>603</v>
       </c>
       <c r="F38" s="15" t="s">
-        <v>580</v>
+        <v>604</v>
       </c>
       <c r="G38" s="15" t="s">
-        <v>581</v>
+        <v>605</v>
       </c>
       <c r="H38" s="15" t="s">
-        <v>582</v>
+        <v>606</v>
       </c>
       <c r="I38" s="15" t="s">
-        <v>583</v>
+        <v>607</v>
       </c>
       <c r="J38" s="15" t="s">
-        <v>584</v>
+        <v>608</v>
       </c>
       <c r="K38" s="16" t="s">
-        <v>585</v>
+        <v>609</v>
       </c>
       <c r="L38" s="16" t="s">
-        <v>586</v>
+        <v>610</v>
       </c>
       <c r="M38" s="16" t="s">
-        <v>587</v>
+        <v>611</v>
       </c>
       <c r="N38" s="16" t="s">
-        <v>585</v>
+        <v>609</v>
       </c>
       <c r="O38" s="16" t="s">
-        <v>588</v>
+        <v>612</v>
       </c>
       <c r="P38" s="16" t="s">
-        <v>589</v>
+        <v>613</v>
       </c>
       <c r="Q38" s="16" t="s">
-        <v>590</v>
+        <v>614</v>
       </c>
       <c r="R38" s="16" t="s">
-        <v>591</v>
+        <v>615</v>
       </c>
       <c r="S38" s="16" t="s">
-        <v>592</v>
+        <v>616</v>
       </c>
       <c r="T38" s="16" t="s">
-        <v>593</v>
+        <v>617</v>
       </c>
       <c r="U38" s="16" t="s">
-        <v>594</v>
+        <v>618</v>
       </c>
       <c r="V38" s="16" t="s">
-        <v>595</v>
+        <v>619</v>
       </c>
       <c r="W38" s="16" t="s">
-        <v>596</v>
+        <v>620</v>
       </c>
       <c r="X38" s="16" t="s">
-        <v>597</v>
+        <v>621</v>
       </c>
       <c r="Y38" s="16" t="s">
-        <v>598</v>
+        <v>622</v>
       </c>
       <c r="Z38" s="16" t="s">
-        <v>599</v>
+        <v>623</v>
       </c>
       <c r="AA38" s="16" t="s">
-        <v>576</v>
+        <v>600</v>
       </c>
       <c r="AB38" s="17" t="s">
-        <v>577</v>
+        <v>601</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="14" t="s">
-        <v>600</v>
+        <v>624</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>601</v>
+        <v>625</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>602</v>
+        <v>626</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>603</v>
+        <v>627</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>604</v>
+        <v>628</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>605</v>
+        <v>629</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>606</v>
+        <v>630</v>
       </c>
       <c r="H39" s="15" t="s">
-        <v>607</v>
+        <v>631</v>
       </c>
       <c r="I39" s="15" t="s">
-        <v>608</v>
+        <v>632</v>
       </c>
       <c r="J39" s="15" t="s">
-        <v>609</v>
+        <v>633</v>
       </c>
       <c r="K39" s="16" t="s">
-        <v>610</v>
+        <v>634</v>
       </c>
       <c r="L39" s="16" t="s">
-        <v>611</v>
+        <v>635</v>
       </c>
       <c r="M39" s="16" t="s">
-        <v>612</v>
+        <v>636</v>
       </c>
       <c r="N39" s="16" t="s">
-        <v>610</v>
+        <v>634</v>
       </c>
       <c r="O39" s="16" t="s">
-        <v>613</v>
+        <v>637</v>
       </c>
       <c r="P39" s="16" t="s">
-        <v>614</v>
+        <v>638</v>
       </c>
       <c r="Q39" s="16" t="s">
-        <v>615</v>
+        <v>639</v>
       </c>
       <c r="R39" s="16" t="s">
-        <v>616</v>
+        <v>640</v>
       </c>
       <c r="S39" s="16" t="s">
-        <v>617</v>
+        <v>641</v>
       </c>
       <c r="T39" s="16" t="s">
-        <v>618</v>
+        <v>642</v>
       </c>
       <c r="U39" s="16" t="s">
-        <v>619</v>
+        <v>643</v>
       </c>
       <c r="V39" s="16" t="s">
-        <v>620</v>
+        <v>644</v>
       </c>
       <c r="W39" s="16" t="s">
-        <v>621</v>
+        <v>645</v>
       </c>
       <c r="X39" s="16" t="s">
-        <v>622</v>
+        <v>646</v>
       </c>
       <c r="Y39" s="16" t="s">
-        <v>623</v>
+        <v>647</v>
       </c>
       <c r="Z39" s="16" t="s">
-        <v>624</v>
+        <v>648</v>
       </c>
       <c r="AA39" s="16" t="s">
-        <v>601</v>
+        <v>625</v>
       </c>
       <c r="AB39" s="17" t="s">
-        <v>602</v>
+        <v>626</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="36" t="s">
-        <v>625</v>
+      <c r="A40" s="33" t="s">
+        <v>649</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>626</v>
+        <v>650</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>627</v>
+        <v>651</v>
       </c>
       <c r="D40" s="15" t="s">
-        <v>628</v>
+        <v>652</v>
       </c>
       <c r="E40" s="15" t="s">
-        <v>629</v>
+        <v>653</v>
       </c>
       <c r="F40" s="15" t="s">
-        <v>630</v>
+        <v>654</v>
       </c>
       <c r="G40" s="15" t="s">
-        <v>631</v>
+        <v>655</v>
       </c>
       <c r="H40" s="15" t="s">
-        <v>632</v>
+        <v>656</v>
       </c>
       <c r="I40" s="15" t="s">
-        <v>633</v>
+        <v>657</v>
       </c>
       <c r="J40" s="15" t="s">
-        <v>634</v>
+        <v>658</v>
       </c>
       <c r="K40" s="16" t="s">
-        <v>635</v>
+        <v>659</v>
       </c>
       <c r="L40" s="16" t="s">
-        <v>636</v>
+        <v>660</v>
       </c>
       <c r="M40" s="16" t="s">
-        <v>637</v>
+        <v>661</v>
       </c>
       <c r="N40" s="16" t="s">
-        <v>635</v>
+        <v>659</v>
       </c>
       <c r="O40" s="16" t="s">
-        <v>638</v>
+        <v>662</v>
       </c>
       <c r="P40" s="16" t="s">
-        <v>639</v>
+        <v>663</v>
       </c>
       <c r="Q40" s="16" t="s">
-        <v>640</v>
+        <v>664</v>
       </c>
       <c r="R40" s="16" t="s">
-        <v>641</v>
+        <v>665</v>
       </c>
       <c r="S40" s="16" t="s">
-        <v>642</v>
+        <v>666</v>
       </c>
       <c r="T40" s="16" t="s">
-        <v>643</v>
+        <v>667</v>
       </c>
       <c r="U40" s="16" t="s">
-        <v>644</v>
+        <v>668</v>
       </c>
       <c r="V40" s="16" t="s">
-        <v>645</v>
+        <v>669</v>
       </c>
       <c r="W40" s="16" t="s">
-        <v>646</v>
+        <v>670</v>
       </c>
       <c r="X40" s="16" t="s">
-        <v>647</v>
+        <v>671</v>
       </c>
       <c r="Y40" s="16" t="s">
-        <v>648</v>
+        <v>672</v>
       </c>
       <c r="Z40" s="16" t="s">
-        <v>649</v>
+        <v>673</v>
       </c>
       <c r="AA40" s="16" t="s">
-        <v>626</v>
+        <v>650</v>
       </c>
       <c r="AB40" s="17" t="s">
-        <v>627</v>
+        <v>651</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -5491,7 +5612,7 @@
   <dimension ref="A1:Y59"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B38:AB38 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A34:AB34 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5501,1383 +5622,1383 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="37" t="s">
-        <v>650</v>
+      <c r="A1" s="34" t="s">
+        <v>674</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="37" t="s">
-        <v>651</v>
+      <c r="A2" s="34" t="s">
+        <v>675</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="37" t="s">
-        <v>652</v>
+      <c r="A3" s="34" t="s">
+        <v>676</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="37" t="s">
-        <v>653</v>
+      <c r="A4" s="34" t="s">
+        <v>677</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="37" t="s">
-        <v>654</v>
+      <c r="A6" s="34" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="37" t="s">
-        <v>655</v>
+      <c r="A7" s="34" t="s">
+        <v>679</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="37"/>
+      <c r="A8" s="34"/>
     </row>
     <row r="9" customFormat="false" ht="80.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="38" t="s">
-        <v>656</v>
+      <c r="A9" s="35" t="s">
+        <v>680</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="51.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="39" t="s">
-        <v>657</v>
+      <c r="A10" s="36" t="s">
+        <v>681</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="40"/>
+      <c r="A11" s="37"/>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="40" t="s">
-        <v>658</v>
+      <c r="A12" s="37" t="s">
+        <v>682</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="41"/>
+      <c r="A13" s="38"/>
     </row>
     <row r="14" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="42" t="s">
-        <v>659</v>
-      </c>
-      <c r="B14" s="43" t="s">
-        <v>660</v>
-      </c>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43" t="s">
-        <v>661</v>
-      </c>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43" t="s">
-        <v>662</v>
-      </c>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43" t="s">
-        <v>663</v>
-      </c>
-      <c r="I14" s="43"/>
-      <c r="J14" s="43" t="s">
+      <c r="A14" s="39" t="s">
+        <v>683</v>
+      </c>
+      <c r="B14" s="40" t="s">
+        <v>684</v>
+      </c>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40" t="s">
+        <v>685</v>
+      </c>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40" t="s">
+        <v>686</v>
+      </c>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40" t="s">
+        <v>687</v>
+      </c>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="K14" s="43"/>
-      <c r="L14" s="43" t="s">
+      <c r="K14" s="40"/>
+      <c r="L14" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="M14" s="43"/>
-      <c r="N14" s="43" t="s">
+      <c r="M14" s="40"/>
+      <c r="N14" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="O14" s="43"/>
-      <c r="P14" s="43" t="s">
-        <v>664</v>
-      </c>
-      <c r="Q14" s="43"/>
-      <c r="R14" s="43" t="s">
-        <v>665</v>
-      </c>
-      <c r="S14" s="43"/>
-      <c r="T14" s="43" t="s">
-        <v>666</v>
-      </c>
-      <c r="U14" s="43"/>
-      <c r="V14" s="43" t="s">
-        <v>667</v>
-      </c>
-      <c r="W14" s="43"/>
-      <c r="X14" s="44" t="s">
+      <c r="O14" s="40"/>
+      <c r="P14" s="40" t="s">
+        <v>688</v>
+      </c>
+      <c r="Q14" s="40"/>
+      <c r="R14" s="40" t="s">
+        <v>689</v>
+      </c>
+      <c r="S14" s="40"/>
+      <c r="T14" s="40" t="s">
+        <v>690</v>
+      </c>
+      <c r="U14" s="40"/>
+      <c r="V14" s="40" t="s">
+        <v>691</v>
+      </c>
+      <c r="W14" s="40"/>
+      <c r="X14" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="Y14" s="44"/>
+      <c r="Y14" s="41"/>
     </row>
     <row r="15" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="42"/>
-      <c r="B15" s="45" t="s">
+      <c r="A15" s="39"/>
+      <c r="B15" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="45" t="s">
+      <c r="C15" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="45" t="s">
+      <c r="D15" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="45" t="s">
+      <c r="E15" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="F15" s="45" t="s">
+      <c r="F15" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="G15" s="45" t="s">
+      <c r="G15" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="H15" s="45" t="s">
+      <c r="H15" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="I15" s="45" t="s">
+      <c r="I15" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="J15" s="45" t="s">
+      <c r="J15" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="K15" s="45" t="s">
+      <c r="K15" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="L15" s="45" t="s">
+      <c r="L15" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="M15" s="45" t="s">
+      <c r="M15" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="N15" s="45" t="s">
+      <c r="N15" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="O15" s="45" t="s">
+      <c r="O15" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="P15" s="45" t="s">
+      <c r="P15" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="Q15" s="45" t="s">
+      <c r="Q15" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="R15" s="45" t="s">
+      <c r="R15" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="S15" s="45" t="s">
+      <c r="S15" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="T15" s="45" t="s">
+      <c r="T15" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="U15" s="45" t="s">
+      <c r="U15" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="V15" s="45" t="s">
+      <c r="V15" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="W15" s="45" t="s">
+      <c r="W15" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="X15" s="45" t="s">
+      <c r="X15" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="Y15" s="46" t="s">
+      <c r="Y15" s="43" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="47" t="s">
-        <v>668</v>
-      </c>
-      <c r="B16" s="47"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="47"/>
-      <c r="L16" s="47"/>
-      <c r="M16" s="47"/>
-      <c r="N16" s="47"/>
-      <c r="O16" s="47"/>
-      <c r="P16" s="47"/>
-      <c r="Q16" s="47"/>
-      <c r="R16" s="47"/>
-      <c r="S16" s="47"/>
-      <c r="T16" s="47"/>
-      <c r="U16" s="47"/>
-      <c r="V16" s="47"/>
-      <c r="W16" s="47"/>
-      <c r="X16" s="47"/>
-      <c r="Y16" s="47"/>
+      <c r="A16" s="44" t="s">
+        <v>692</v>
+      </c>
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="44"/>
+      <c r="N16" s="44"/>
+      <c r="O16" s="44"/>
+      <c r="P16" s="44"/>
+      <c r="Q16" s="44"/>
+      <c r="R16" s="44"/>
+      <c r="S16" s="44"/>
+      <c r="T16" s="44"/>
+      <c r="U16" s="44"/>
+      <c r="V16" s="44"/>
+      <c r="W16" s="44"/>
+      <c r="X16" s="44"/>
+      <c r="Y16" s="44"/>
     </row>
     <row r="17" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="48" t="s">
-        <v>669</v>
-      </c>
-      <c r="B17" s="49"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="49"/>
-      <c r="K17" s="49"/>
-      <c r="L17" s="49"/>
-      <c r="M17" s="49"/>
-      <c r="N17" s="49"/>
-      <c r="O17" s="49"/>
-      <c r="P17" s="49"/>
-      <c r="Q17" s="49"/>
-      <c r="R17" s="49"/>
-      <c r="S17" s="49"/>
-      <c r="T17" s="49"/>
-      <c r="U17" s="49"/>
-      <c r="V17" s="49"/>
-      <c r="W17" s="49"/>
-      <c r="X17" s="49"/>
-      <c r="Y17" s="50"/>
+      <c r="A17" s="45" t="s">
+        <v>693</v>
+      </c>
+      <c r="B17" s="46"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="46"/>
+      <c r="M17" s="46"/>
+      <c r="N17" s="46"/>
+      <c r="O17" s="46"/>
+      <c r="P17" s="46"/>
+      <c r="Q17" s="46"/>
+      <c r="R17" s="46"/>
+      <c r="S17" s="46"/>
+      <c r="T17" s="46"/>
+      <c r="U17" s="46"/>
+      <c r="V17" s="46"/>
+      <c r="W17" s="46"/>
+      <c r="X17" s="46"/>
+      <c r="Y17" s="47"/>
     </row>
     <row r="18" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="48" t="s">
-        <v>670</v>
-      </c>
-      <c r="B18" s="49"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="49"/>
-      <c r="K18" s="49"/>
-      <c r="L18" s="49"/>
-      <c r="M18" s="49"/>
-      <c r="N18" s="49"/>
-      <c r="O18" s="49"/>
-      <c r="P18" s="49"/>
-      <c r="Q18" s="49"/>
-      <c r="R18" s="49"/>
-      <c r="S18" s="49"/>
-      <c r="T18" s="49"/>
-      <c r="U18" s="49"/>
-      <c r="V18" s="49"/>
-      <c r="W18" s="49"/>
-      <c r="X18" s="49"/>
-      <c r="Y18" s="50"/>
+      <c r="A18" s="45" t="s">
+        <v>694</v>
+      </c>
+      <c r="B18" s="46"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="46"/>
+      <c r="M18" s="46"/>
+      <c r="N18" s="46"/>
+      <c r="O18" s="46"/>
+      <c r="P18" s="46"/>
+      <c r="Q18" s="46"/>
+      <c r="R18" s="46"/>
+      <c r="S18" s="46"/>
+      <c r="T18" s="46"/>
+      <c r="U18" s="46"/>
+      <c r="V18" s="46"/>
+      <c r="W18" s="46"/>
+      <c r="X18" s="46"/>
+      <c r="Y18" s="47"/>
     </row>
     <row r="19" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="48" t="s">
-        <v>671</v>
-      </c>
-      <c r="B19" s="49"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="49"/>
-      <c r="I19" s="49"/>
-      <c r="J19" s="49"/>
-      <c r="K19" s="49"/>
-      <c r="L19" s="49"/>
-      <c r="M19" s="49"/>
-      <c r="N19" s="49"/>
-      <c r="O19" s="49"/>
-      <c r="P19" s="49"/>
-      <c r="Q19" s="49"/>
-      <c r="R19" s="49"/>
-      <c r="S19" s="49"/>
-      <c r="T19" s="49"/>
-      <c r="U19" s="49"/>
-      <c r="V19" s="49"/>
-      <c r="W19" s="49"/>
-      <c r="X19" s="49"/>
-      <c r="Y19" s="50"/>
+      <c r="A19" s="45" t="s">
+        <v>695</v>
+      </c>
+      <c r="B19" s="46"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="46"/>
+      <c r="M19" s="46"/>
+      <c r="N19" s="46"/>
+      <c r="O19" s="46"/>
+      <c r="P19" s="46"/>
+      <c r="Q19" s="46"/>
+      <c r="R19" s="46"/>
+      <c r="S19" s="46"/>
+      <c r="T19" s="46"/>
+      <c r="U19" s="46"/>
+      <c r="V19" s="46"/>
+      <c r="W19" s="46"/>
+      <c r="X19" s="46"/>
+      <c r="Y19" s="47"/>
     </row>
     <row r="20" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="48"/>
-      <c r="B20" s="49"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="49"/>
-      <c r="I20" s="49"/>
-      <c r="J20" s="49"/>
-      <c r="K20" s="49"/>
-      <c r="L20" s="49"/>
-      <c r="M20" s="49"/>
-      <c r="N20" s="49"/>
-      <c r="O20" s="49"/>
-      <c r="P20" s="49"/>
-      <c r="Q20" s="49"/>
-      <c r="R20" s="49"/>
-      <c r="S20" s="49"/>
-      <c r="T20" s="49"/>
-      <c r="U20" s="49"/>
-      <c r="V20" s="49"/>
-      <c r="W20" s="49"/>
-      <c r="X20" s="49"/>
-      <c r="Y20" s="50"/>
+      <c r="A20" s="45"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="46"/>
+      <c r="M20" s="46"/>
+      <c r="N20" s="46"/>
+      <c r="O20" s="46"/>
+      <c r="P20" s="46"/>
+      <c r="Q20" s="46"/>
+      <c r="R20" s="46"/>
+      <c r="S20" s="46"/>
+      <c r="T20" s="46"/>
+      <c r="U20" s="46"/>
+      <c r="V20" s="46"/>
+      <c r="W20" s="46"/>
+      <c r="X20" s="46"/>
+      <c r="Y20" s="47"/>
     </row>
     <row r="21" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="48"/>
-      <c r="B21" s="49"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="49"/>
-      <c r="I21" s="49"/>
-      <c r="J21" s="49"/>
-      <c r="K21" s="49"/>
-      <c r="L21" s="49"/>
-      <c r="M21" s="49"/>
-      <c r="N21" s="49"/>
-      <c r="O21" s="49"/>
-      <c r="P21" s="49"/>
-      <c r="Q21" s="49"/>
-      <c r="R21" s="49"/>
-      <c r="S21" s="49"/>
-      <c r="T21" s="49"/>
-      <c r="U21" s="49"/>
-      <c r="V21" s="49"/>
-      <c r="W21" s="49"/>
-      <c r="X21" s="49"/>
-      <c r="Y21" s="50"/>
+      <c r="A21" s="45"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="46"/>
+      <c r="L21" s="46"/>
+      <c r="M21" s="46"/>
+      <c r="N21" s="46"/>
+      <c r="O21" s="46"/>
+      <c r="P21" s="46"/>
+      <c r="Q21" s="46"/>
+      <c r="R21" s="46"/>
+      <c r="S21" s="46"/>
+      <c r="T21" s="46"/>
+      <c r="U21" s="46"/>
+      <c r="V21" s="46"/>
+      <c r="W21" s="46"/>
+      <c r="X21" s="46"/>
+      <c r="Y21" s="47"/>
     </row>
     <row r="22" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="47" t="s">
-        <v>672</v>
-      </c>
-      <c r="B22" s="47"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="47"/>
-      <c r="K22" s="47"/>
-      <c r="L22" s="47"/>
-      <c r="M22" s="47"/>
-      <c r="N22" s="47"/>
-      <c r="O22" s="47"/>
-      <c r="P22" s="47"/>
-      <c r="Q22" s="47"/>
-      <c r="R22" s="47"/>
-      <c r="S22" s="47"/>
-      <c r="T22" s="47"/>
-      <c r="U22" s="47"/>
-      <c r="V22" s="47"/>
-      <c r="W22" s="47"/>
-      <c r="X22" s="47"/>
-      <c r="Y22" s="47"/>
+      <c r="A22" s="44" t="s">
+        <v>696</v>
+      </c>
+      <c r="B22" s="44"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="44"/>
+      <c r="M22" s="44"/>
+      <c r="N22" s="44"/>
+      <c r="O22" s="44"/>
+      <c r="P22" s="44"/>
+      <c r="Q22" s="44"/>
+      <c r="R22" s="44"/>
+      <c r="S22" s="44"/>
+      <c r="T22" s="44"/>
+      <c r="U22" s="44"/>
+      <c r="V22" s="44"/>
+      <c r="W22" s="44"/>
+      <c r="X22" s="44"/>
+      <c r="Y22" s="44"/>
     </row>
     <row r="23" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="48" t="s">
-        <v>673</v>
-      </c>
-      <c r="B23" s="49"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="49"/>
-      <c r="J23" s="49"/>
-      <c r="K23" s="49"/>
-      <c r="L23" s="49"/>
-      <c r="M23" s="49"/>
-      <c r="N23" s="49"/>
-      <c r="O23" s="49"/>
-      <c r="P23" s="49"/>
-      <c r="Q23" s="49"/>
-      <c r="R23" s="49"/>
-      <c r="S23" s="49"/>
-      <c r="T23" s="49"/>
-      <c r="U23" s="49"/>
-      <c r="V23" s="49"/>
-      <c r="W23" s="49"/>
-      <c r="X23" s="49"/>
-      <c r="Y23" s="50"/>
+      <c r="A23" s="45" t="s">
+        <v>697</v>
+      </c>
+      <c r="B23" s="46"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="46"/>
+      <c r="L23" s="46"/>
+      <c r="M23" s="46"/>
+      <c r="N23" s="46"/>
+      <c r="O23" s="46"/>
+      <c r="P23" s="46"/>
+      <c r="Q23" s="46"/>
+      <c r="R23" s="46"/>
+      <c r="S23" s="46"/>
+      <c r="T23" s="46"/>
+      <c r="U23" s="46"/>
+      <c r="V23" s="46"/>
+      <c r="W23" s="46"/>
+      <c r="X23" s="46"/>
+      <c r="Y23" s="47"/>
     </row>
     <row r="24" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="48" t="s">
-        <v>674</v>
-      </c>
-      <c r="B24" s="49"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="49"/>
-      <c r="J24" s="49"/>
-      <c r="K24" s="49"/>
-      <c r="L24" s="49"/>
-      <c r="M24" s="49"/>
-      <c r="N24" s="49"/>
-      <c r="O24" s="49"/>
-      <c r="P24" s="49"/>
-      <c r="Q24" s="49"/>
-      <c r="R24" s="49"/>
-      <c r="S24" s="49"/>
-      <c r="T24" s="49"/>
-      <c r="U24" s="49"/>
-      <c r="V24" s="49"/>
-      <c r="W24" s="49"/>
-      <c r="X24" s="49"/>
-      <c r="Y24" s="50"/>
+      <c r="A24" s="45" t="s">
+        <v>698</v>
+      </c>
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="46"/>
+      <c r="K24" s="46"/>
+      <c r="L24" s="46"/>
+      <c r="M24" s="46"/>
+      <c r="N24" s="46"/>
+      <c r="O24" s="46"/>
+      <c r="P24" s="46"/>
+      <c r="Q24" s="46"/>
+      <c r="R24" s="46"/>
+      <c r="S24" s="46"/>
+      <c r="T24" s="46"/>
+      <c r="U24" s="46"/>
+      <c r="V24" s="46"/>
+      <c r="W24" s="46"/>
+      <c r="X24" s="46"/>
+      <c r="Y24" s="47"/>
     </row>
     <row r="25" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="48" t="s">
-        <v>675</v>
-      </c>
-      <c r="B25" s="49"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="49"/>
-      <c r="I25" s="49"/>
-      <c r="J25" s="49"/>
-      <c r="K25" s="49"/>
-      <c r="L25" s="49"/>
-      <c r="M25" s="49"/>
-      <c r="N25" s="49"/>
-      <c r="O25" s="49"/>
-      <c r="P25" s="49"/>
-      <c r="Q25" s="49"/>
-      <c r="R25" s="49"/>
-      <c r="S25" s="49"/>
-      <c r="T25" s="49"/>
-      <c r="U25" s="49"/>
-      <c r="V25" s="49"/>
-      <c r="W25" s="49"/>
-      <c r="X25" s="49"/>
-      <c r="Y25" s="50"/>
+      <c r="A25" s="45" t="s">
+        <v>699</v>
+      </c>
+      <c r="B25" s="46"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="46"/>
+      <c r="K25" s="46"/>
+      <c r="L25" s="46"/>
+      <c r="M25" s="46"/>
+      <c r="N25" s="46"/>
+      <c r="O25" s="46"/>
+      <c r="P25" s="46"/>
+      <c r="Q25" s="46"/>
+      <c r="R25" s="46"/>
+      <c r="S25" s="46"/>
+      <c r="T25" s="46"/>
+      <c r="U25" s="46"/>
+      <c r="V25" s="46"/>
+      <c r="W25" s="46"/>
+      <c r="X25" s="46"/>
+      <c r="Y25" s="47"/>
     </row>
     <row r="26" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="48" t="s">
-        <v>676</v>
-      </c>
-      <c r="B26" s="49"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="49"/>
-      <c r="J26" s="49"/>
-      <c r="K26" s="49"/>
-      <c r="L26" s="49"/>
-      <c r="M26" s="49"/>
-      <c r="N26" s="49"/>
-      <c r="O26" s="49"/>
-      <c r="P26" s="49"/>
-      <c r="Q26" s="49"/>
-      <c r="R26" s="49"/>
-      <c r="S26" s="49"/>
-      <c r="T26" s="49"/>
-      <c r="U26" s="49"/>
-      <c r="V26" s="49"/>
-      <c r="W26" s="49"/>
-      <c r="X26" s="49"/>
-      <c r="Y26" s="50"/>
+      <c r="A26" s="45" t="s">
+        <v>700</v>
+      </c>
+      <c r="B26" s="46"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="46"/>
+      <c r="J26" s="46"/>
+      <c r="K26" s="46"/>
+      <c r="L26" s="46"/>
+      <c r="M26" s="46"/>
+      <c r="N26" s="46"/>
+      <c r="O26" s="46"/>
+      <c r="P26" s="46"/>
+      <c r="Q26" s="46"/>
+      <c r="R26" s="46"/>
+      <c r="S26" s="46"/>
+      <c r="T26" s="46"/>
+      <c r="U26" s="46"/>
+      <c r="V26" s="46"/>
+      <c r="W26" s="46"/>
+      <c r="X26" s="46"/>
+      <c r="Y26" s="47"/>
     </row>
     <row r="27" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="48"/>
-      <c r="B27" s="49"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="49"/>
-      <c r="I27" s="49"/>
-      <c r="J27" s="49"/>
-      <c r="K27" s="49"/>
-      <c r="L27" s="49"/>
-      <c r="M27" s="49"/>
-      <c r="N27" s="49"/>
-      <c r="O27" s="49"/>
-      <c r="P27" s="49"/>
-      <c r="Q27" s="49"/>
-      <c r="R27" s="49"/>
-      <c r="S27" s="49"/>
-      <c r="T27" s="49"/>
-      <c r="U27" s="49"/>
-      <c r="V27" s="49"/>
-      <c r="W27" s="49"/>
-      <c r="X27" s="49"/>
-      <c r="Y27" s="50"/>
+      <c r="A27" s="45"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="46"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="46"/>
+      <c r="M27" s="46"/>
+      <c r="N27" s="46"/>
+      <c r="O27" s="46"/>
+      <c r="P27" s="46"/>
+      <c r="Q27" s="46"/>
+      <c r="R27" s="46"/>
+      <c r="S27" s="46"/>
+      <c r="T27" s="46"/>
+      <c r="U27" s="46"/>
+      <c r="V27" s="46"/>
+      <c r="W27" s="46"/>
+      <c r="X27" s="46"/>
+      <c r="Y27" s="47"/>
     </row>
     <row r="28" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="48"/>
-      <c r="B28" s="49"/>
-      <c r="C28" s="49"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="49"/>
-      <c r="I28" s="49"/>
-      <c r="J28" s="49"/>
-      <c r="K28" s="49"/>
-      <c r="L28" s="49"/>
-      <c r="M28" s="49"/>
-      <c r="N28" s="49"/>
-      <c r="O28" s="49"/>
-      <c r="P28" s="49"/>
-      <c r="Q28" s="49"/>
-      <c r="R28" s="49"/>
-      <c r="S28" s="49"/>
-      <c r="T28" s="49"/>
-      <c r="U28" s="49"/>
-      <c r="V28" s="49"/>
-      <c r="W28" s="49"/>
-      <c r="X28" s="49"/>
-      <c r="Y28" s="50"/>
+      <c r="A28" s="45"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="46"/>
+      <c r="I28" s="46"/>
+      <c r="J28" s="46"/>
+      <c r="K28" s="46"/>
+      <c r="L28" s="46"/>
+      <c r="M28" s="46"/>
+      <c r="N28" s="46"/>
+      <c r="O28" s="46"/>
+      <c r="P28" s="46"/>
+      <c r="Q28" s="46"/>
+      <c r="R28" s="46"/>
+      <c r="S28" s="46"/>
+      <c r="T28" s="46"/>
+      <c r="U28" s="46"/>
+      <c r="V28" s="46"/>
+      <c r="W28" s="46"/>
+      <c r="X28" s="46"/>
+      <c r="Y28" s="47"/>
     </row>
     <row r="29" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="51" t="s">
-        <v>677</v>
-      </c>
-      <c r="B29" s="49"/>
-      <c r="C29" s="49"/>
-      <c r="D29" s="49"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="49"/>
-      <c r="G29" s="49"/>
-      <c r="H29" s="49"/>
-      <c r="I29" s="49"/>
-      <c r="J29" s="49"/>
-      <c r="K29" s="49"/>
-      <c r="L29" s="49"/>
-      <c r="M29" s="49"/>
-      <c r="N29" s="49"/>
-      <c r="O29" s="49"/>
-      <c r="P29" s="49"/>
-      <c r="Q29" s="49"/>
-      <c r="R29" s="49"/>
-      <c r="S29" s="49"/>
-      <c r="T29" s="49"/>
-      <c r="U29" s="49"/>
-      <c r="V29" s="49"/>
-      <c r="W29" s="49"/>
-      <c r="X29" s="49"/>
-      <c r="Y29" s="50"/>
+      <c r="A29" s="48" t="s">
+        <v>701</v>
+      </c>
+      <c r="B29" s="46"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="46"/>
+      <c r="J29" s="46"/>
+      <c r="K29" s="46"/>
+      <c r="L29" s="46"/>
+      <c r="M29" s="46"/>
+      <c r="N29" s="46"/>
+      <c r="O29" s="46"/>
+      <c r="P29" s="46"/>
+      <c r="Q29" s="46"/>
+      <c r="R29" s="46"/>
+      <c r="S29" s="46"/>
+      <c r="T29" s="46"/>
+      <c r="U29" s="46"/>
+      <c r="V29" s="46"/>
+      <c r="W29" s="46"/>
+      <c r="X29" s="46"/>
+      <c r="Y29" s="47"/>
     </row>
     <row r="30" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="47" t="s">
-        <v>678</v>
-      </c>
-      <c r="B30" s="47"/>
-      <c r="C30" s="47"/>
-      <c r="D30" s="47"/>
-      <c r="E30" s="47"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="47"/>
-      <c r="H30" s="47"/>
-      <c r="I30" s="47"/>
-      <c r="J30" s="47"/>
-      <c r="K30" s="47"/>
-      <c r="L30" s="47"/>
-      <c r="M30" s="47"/>
-      <c r="N30" s="47"/>
-      <c r="O30" s="47"/>
-      <c r="P30" s="47"/>
-      <c r="Q30" s="47"/>
-      <c r="R30" s="47"/>
-      <c r="S30" s="47"/>
-      <c r="T30" s="47"/>
-      <c r="U30" s="47"/>
-      <c r="V30" s="47"/>
-      <c r="W30" s="47"/>
-      <c r="X30" s="47"/>
-      <c r="Y30" s="47"/>
+      <c r="A30" s="44" t="s">
+        <v>702</v>
+      </c>
+      <c r="B30" s="44"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="44"/>
+      <c r="I30" s="44"/>
+      <c r="J30" s="44"/>
+      <c r="K30" s="44"/>
+      <c r="L30" s="44"/>
+      <c r="M30" s="44"/>
+      <c r="N30" s="44"/>
+      <c r="O30" s="44"/>
+      <c r="P30" s="44"/>
+      <c r="Q30" s="44"/>
+      <c r="R30" s="44"/>
+      <c r="S30" s="44"/>
+      <c r="T30" s="44"/>
+      <c r="U30" s="44"/>
+      <c r="V30" s="44"/>
+      <c r="W30" s="44"/>
+      <c r="X30" s="44"/>
+      <c r="Y30" s="44"/>
     </row>
     <row r="31" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="48" t="s">
-        <v>679</v>
-      </c>
-      <c r="B31" s="49"/>
-      <c r="C31" s="49"/>
-      <c r="D31" s="49"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="49"/>
-      <c r="G31" s="49"/>
-      <c r="H31" s="49"/>
-      <c r="I31" s="49"/>
-      <c r="J31" s="49"/>
-      <c r="K31" s="49"/>
-      <c r="L31" s="49"/>
-      <c r="M31" s="49"/>
-      <c r="N31" s="49"/>
-      <c r="O31" s="49"/>
-      <c r="P31" s="49"/>
-      <c r="Q31" s="49"/>
-      <c r="R31" s="49"/>
-      <c r="S31" s="49"/>
-      <c r="T31" s="49"/>
-      <c r="U31" s="49"/>
-      <c r="V31" s="49"/>
-      <c r="W31" s="49"/>
-      <c r="X31" s="49"/>
-      <c r="Y31" s="50"/>
+      <c r="A31" s="45" t="s">
+        <v>703</v>
+      </c>
+      <c r="B31" s="46"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="46"/>
+      <c r="K31" s="46"/>
+      <c r="L31" s="46"/>
+      <c r="M31" s="46"/>
+      <c r="N31" s="46"/>
+      <c r="O31" s="46"/>
+      <c r="P31" s="46"/>
+      <c r="Q31" s="46"/>
+      <c r="R31" s="46"/>
+      <c r="S31" s="46"/>
+      <c r="T31" s="46"/>
+      <c r="U31" s="46"/>
+      <c r="V31" s="46"/>
+      <c r="W31" s="46"/>
+      <c r="X31" s="46"/>
+      <c r="Y31" s="47"/>
     </row>
     <row r="32" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="48" t="s">
-        <v>680</v>
-      </c>
-      <c r="B32" s="49"/>
-      <c r="C32" s="49"/>
-      <c r="D32" s="49"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="49"/>
-      <c r="G32" s="49"/>
-      <c r="H32" s="49"/>
-      <c r="I32" s="49"/>
-      <c r="J32" s="49"/>
-      <c r="K32" s="49"/>
-      <c r="L32" s="49"/>
-      <c r="M32" s="49"/>
-      <c r="N32" s="49"/>
-      <c r="O32" s="49"/>
-      <c r="P32" s="49"/>
-      <c r="Q32" s="49"/>
-      <c r="R32" s="49"/>
-      <c r="S32" s="49"/>
-      <c r="T32" s="49"/>
-      <c r="U32" s="49"/>
-      <c r="V32" s="49"/>
-      <c r="W32" s="49"/>
-      <c r="X32" s="49"/>
-      <c r="Y32" s="50"/>
+      <c r="A32" s="45" t="s">
+        <v>704</v>
+      </c>
+      <c r="B32" s="46"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="46"/>
+      <c r="I32" s="46"/>
+      <c r="J32" s="46"/>
+      <c r="K32" s="46"/>
+      <c r="L32" s="46"/>
+      <c r="M32" s="46"/>
+      <c r="N32" s="46"/>
+      <c r="O32" s="46"/>
+      <c r="P32" s="46"/>
+      <c r="Q32" s="46"/>
+      <c r="R32" s="46"/>
+      <c r="S32" s="46"/>
+      <c r="T32" s="46"/>
+      <c r="U32" s="46"/>
+      <c r="V32" s="46"/>
+      <c r="W32" s="46"/>
+      <c r="X32" s="46"/>
+      <c r="Y32" s="47"/>
     </row>
     <row r="33" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="48"/>
-      <c r="B33" s="49"/>
-      <c r="C33" s="49"/>
-      <c r="D33" s="49"/>
-      <c r="E33" s="49"/>
-      <c r="F33" s="49"/>
-      <c r="G33" s="49"/>
-      <c r="H33" s="49"/>
-      <c r="I33" s="49"/>
-      <c r="J33" s="49"/>
-      <c r="K33" s="49"/>
-      <c r="L33" s="49"/>
-      <c r="M33" s="49"/>
-      <c r="N33" s="49"/>
-      <c r="O33" s="49"/>
-      <c r="P33" s="49"/>
-      <c r="Q33" s="49"/>
-      <c r="R33" s="49"/>
-      <c r="S33" s="49"/>
-      <c r="T33" s="49"/>
-      <c r="U33" s="49"/>
-      <c r="V33" s="49"/>
-      <c r="W33" s="49"/>
-      <c r="X33" s="49"/>
-      <c r="Y33" s="50"/>
+      <c r="A33" s="45"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="46"/>
+      <c r="H33" s="46"/>
+      <c r="I33" s="46"/>
+      <c r="J33" s="46"/>
+      <c r="K33" s="46"/>
+      <c r="L33" s="46"/>
+      <c r="M33" s="46"/>
+      <c r="N33" s="46"/>
+      <c r="O33" s="46"/>
+      <c r="P33" s="46"/>
+      <c r="Q33" s="46"/>
+      <c r="R33" s="46"/>
+      <c r="S33" s="46"/>
+      <c r="T33" s="46"/>
+      <c r="U33" s="46"/>
+      <c r="V33" s="46"/>
+      <c r="W33" s="46"/>
+      <c r="X33" s="46"/>
+      <c r="Y33" s="47"/>
     </row>
     <row r="34" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="48"/>
-      <c r="B34" s="49"/>
-      <c r="C34" s="49"/>
-      <c r="D34" s="49"/>
-      <c r="E34" s="49"/>
-      <c r="F34" s="49"/>
-      <c r="G34" s="49"/>
-      <c r="H34" s="49"/>
-      <c r="I34" s="49"/>
-      <c r="J34" s="49"/>
-      <c r="K34" s="49"/>
-      <c r="L34" s="49"/>
-      <c r="M34" s="49"/>
-      <c r="N34" s="49"/>
-      <c r="O34" s="49"/>
-      <c r="P34" s="49"/>
-      <c r="Q34" s="49"/>
-      <c r="R34" s="49"/>
-      <c r="S34" s="49"/>
-      <c r="T34" s="49"/>
-      <c r="U34" s="49"/>
-      <c r="V34" s="49"/>
-      <c r="W34" s="49"/>
-      <c r="X34" s="49"/>
-      <c r="Y34" s="50"/>
+      <c r="A34" s="45"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="46"/>
+      <c r="H34" s="46"/>
+      <c r="I34" s="46"/>
+      <c r="J34" s="46"/>
+      <c r="K34" s="46"/>
+      <c r="L34" s="46"/>
+      <c r="M34" s="46"/>
+      <c r="N34" s="46"/>
+      <c r="O34" s="46"/>
+      <c r="P34" s="46"/>
+      <c r="Q34" s="46"/>
+      <c r="R34" s="46"/>
+      <c r="S34" s="46"/>
+      <c r="T34" s="46"/>
+      <c r="U34" s="46"/>
+      <c r="V34" s="46"/>
+      <c r="W34" s="46"/>
+      <c r="X34" s="46"/>
+      <c r="Y34" s="47"/>
     </row>
     <row r="35" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="47" t="s">
-        <v>681</v>
-      </c>
-      <c r="B35" s="47"/>
-      <c r="C35" s="47"/>
-      <c r="D35" s="47"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="47"/>
-      <c r="G35" s="47"/>
-      <c r="H35" s="47"/>
-      <c r="I35" s="47"/>
-      <c r="J35" s="47"/>
-      <c r="K35" s="47"/>
-      <c r="L35" s="47"/>
-      <c r="M35" s="47"/>
-      <c r="N35" s="47"/>
-      <c r="O35" s="47"/>
-      <c r="P35" s="47"/>
-      <c r="Q35" s="47"/>
-      <c r="R35" s="47"/>
-      <c r="S35" s="47"/>
-      <c r="T35" s="47"/>
-      <c r="U35" s="47"/>
-      <c r="V35" s="47"/>
-      <c r="W35" s="47"/>
-      <c r="X35" s="47"/>
-      <c r="Y35" s="47"/>
+      <c r="A35" s="44" t="s">
+        <v>705</v>
+      </c>
+      <c r="B35" s="44"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="44"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="44"/>
+      <c r="H35" s="44"/>
+      <c r="I35" s="44"/>
+      <c r="J35" s="44"/>
+      <c r="K35" s="44"/>
+      <c r="L35" s="44"/>
+      <c r="M35" s="44"/>
+      <c r="N35" s="44"/>
+      <c r="O35" s="44"/>
+      <c r="P35" s="44"/>
+      <c r="Q35" s="44"/>
+      <c r="R35" s="44"/>
+      <c r="S35" s="44"/>
+      <c r="T35" s="44"/>
+      <c r="U35" s="44"/>
+      <c r="V35" s="44"/>
+      <c r="W35" s="44"/>
+      <c r="X35" s="44"/>
+      <c r="Y35" s="44"/>
     </row>
     <row r="36" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="48"/>
-      <c r="B36" s="49"/>
-      <c r="C36" s="49"/>
-      <c r="D36" s="49"/>
-      <c r="E36" s="49"/>
-      <c r="F36" s="49"/>
-      <c r="G36" s="49"/>
-      <c r="H36" s="49"/>
-      <c r="I36" s="49"/>
-      <c r="J36" s="49"/>
-      <c r="K36" s="49"/>
-      <c r="L36" s="49"/>
-      <c r="M36" s="49"/>
-      <c r="N36" s="49"/>
-      <c r="O36" s="49"/>
-      <c r="P36" s="49"/>
-      <c r="Q36" s="49"/>
-      <c r="R36" s="49"/>
-      <c r="S36" s="49"/>
-      <c r="T36" s="49"/>
-      <c r="U36" s="49"/>
-      <c r="V36" s="49"/>
-      <c r="W36" s="49"/>
-      <c r="X36" s="49"/>
-      <c r="Y36" s="50"/>
+      <c r="A36" s="45"/>
+      <c r="B36" s="46"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="46"/>
+      <c r="E36" s="46"/>
+      <c r="F36" s="46"/>
+      <c r="G36" s="46"/>
+      <c r="H36" s="46"/>
+      <c r="I36" s="46"/>
+      <c r="J36" s="46"/>
+      <c r="K36" s="46"/>
+      <c r="L36" s="46"/>
+      <c r="M36" s="46"/>
+      <c r="N36" s="46"/>
+      <c r="O36" s="46"/>
+      <c r="P36" s="46"/>
+      <c r="Q36" s="46"/>
+      <c r="R36" s="46"/>
+      <c r="S36" s="46"/>
+      <c r="T36" s="46"/>
+      <c r="U36" s="46"/>
+      <c r="V36" s="46"/>
+      <c r="W36" s="46"/>
+      <c r="X36" s="46"/>
+      <c r="Y36" s="47"/>
     </row>
     <row r="37" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="51"/>
-      <c r="B37" s="49"/>
-      <c r="C37" s="49"/>
-      <c r="D37" s="49"/>
-      <c r="E37" s="49"/>
-      <c r="F37" s="49"/>
-      <c r="G37" s="49"/>
-      <c r="H37" s="49"/>
-      <c r="I37" s="49"/>
-      <c r="J37" s="49"/>
-      <c r="K37" s="49"/>
-      <c r="L37" s="49"/>
-      <c r="M37" s="49"/>
-      <c r="N37" s="49"/>
-      <c r="O37" s="49"/>
-      <c r="P37" s="49"/>
-      <c r="Q37" s="49"/>
-      <c r="R37" s="49"/>
-      <c r="S37" s="49"/>
-      <c r="T37" s="49"/>
-      <c r="U37" s="49"/>
-      <c r="V37" s="49"/>
-      <c r="W37" s="49"/>
-      <c r="X37" s="49"/>
-      <c r="Y37" s="50"/>
+      <c r="A37" s="48"/>
+      <c r="B37" s="46"/>
+      <c r="C37" s="46"/>
+      <c r="D37" s="46"/>
+      <c r="E37" s="46"/>
+      <c r="F37" s="46"/>
+      <c r="G37" s="46"/>
+      <c r="H37" s="46"/>
+      <c r="I37" s="46"/>
+      <c r="J37" s="46"/>
+      <c r="K37" s="46"/>
+      <c r="L37" s="46"/>
+      <c r="M37" s="46"/>
+      <c r="N37" s="46"/>
+      <c r="O37" s="46"/>
+      <c r="P37" s="46"/>
+      <c r="Q37" s="46"/>
+      <c r="R37" s="46"/>
+      <c r="S37" s="46"/>
+      <c r="T37" s="46"/>
+      <c r="U37" s="46"/>
+      <c r="V37" s="46"/>
+      <c r="W37" s="46"/>
+      <c r="X37" s="46"/>
+      <c r="Y37" s="47"/>
     </row>
     <row r="38" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="51"/>
-      <c r="B38" s="49"/>
-      <c r="C38" s="49"/>
-      <c r="D38" s="49"/>
-      <c r="E38" s="49"/>
-      <c r="F38" s="49"/>
-      <c r="G38" s="49"/>
-      <c r="H38" s="49"/>
-      <c r="I38" s="49"/>
-      <c r="J38" s="49"/>
-      <c r="K38" s="49"/>
-      <c r="L38" s="49"/>
-      <c r="M38" s="49"/>
-      <c r="N38" s="49"/>
-      <c r="O38" s="49"/>
-      <c r="P38" s="49"/>
-      <c r="Q38" s="49"/>
-      <c r="R38" s="49"/>
-      <c r="S38" s="49"/>
-      <c r="T38" s="49"/>
-      <c r="U38" s="49"/>
-      <c r="V38" s="49"/>
-      <c r="W38" s="49"/>
-      <c r="X38" s="49"/>
-      <c r="Y38" s="50"/>
+      <c r="A38" s="48"/>
+      <c r="B38" s="46"/>
+      <c r="C38" s="46"/>
+      <c r="D38" s="46"/>
+      <c r="E38" s="46"/>
+      <c r="F38" s="46"/>
+      <c r="G38" s="46"/>
+      <c r="H38" s="46"/>
+      <c r="I38" s="46"/>
+      <c r="J38" s="46"/>
+      <c r="K38" s="46"/>
+      <c r="L38" s="46"/>
+      <c r="M38" s="46"/>
+      <c r="N38" s="46"/>
+      <c r="O38" s="46"/>
+      <c r="P38" s="46"/>
+      <c r="Q38" s="46"/>
+      <c r="R38" s="46"/>
+      <c r="S38" s="46"/>
+      <c r="T38" s="46"/>
+      <c r="U38" s="46"/>
+      <c r="V38" s="46"/>
+      <c r="W38" s="46"/>
+      <c r="X38" s="46"/>
+      <c r="Y38" s="47"/>
     </row>
     <row r="39" customFormat="false" ht="66.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="51" t="s">
-        <v>682</v>
-      </c>
-      <c r="B39" s="49"/>
-      <c r="C39" s="49"/>
-      <c r="D39" s="49"/>
-      <c r="E39" s="49"/>
-      <c r="F39" s="49"/>
-      <c r="G39" s="49"/>
-      <c r="H39" s="49"/>
-      <c r="I39" s="49"/>
-      <c r="J39" s="49"/>
-      <c r="K39" s="49"/>
-      <c r="L39" s="49"/>
-      <c r="M39" s="49"/>
-      <c r="N39" s="49"/>
-      <c r="O39" s="49"/>
-      <c r="P39" s="49"/>
-      <c r="Q39" s="49"/>
-      <c r="R39" s="49"/>
-      <c r="S39" s="49"/>
-      <c r="T39" s="49"/>
-      <c r="U39" s="49"/>
-      <c r="V39" s="49"/>
-      <c r="W39" s="49"/>
-      <c r="X39" s="49"/>
-      <c r="Y39" s="50"/>
+      <c r="A39" s="48" t="s">
+        <v>706</v>
+      </c>
+      <c r="B39" s="46"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="46"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="46"/>
+      <c r="H39" s="46"/>
+      <c r="I39" s="46"/>
+      <c r="J39" s="46"/>
+      <c r="K39" s="46"/>
+      <c r="L39" s="46"/>
+      <c r="M39" s="46"/>
+      <c r="N39" s="46"/>
+      <c r="O39" s="46"/>
+      <c r="P39" s="46"/>
+      <c r="Q39" s="46"/>
+      <c r="R39" s="46"/>
+      <c r="S39" s="46"/>
+      <c r="T39" s="46"/>
+      <c r="U39" s="46"/>
+      <c r="V39" s="46"/>
+      <c r="W39" s="46"/>
+      <c r="X39" s="46"/>
+      <c r="Y39" s="47"/>
     </row>
     <row r="40" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="51" t="s">
-        <v>683</v>
-      </c>
-      <c r="B40" s="49"/>
-      <c r="C40" s="49"/>
-      <c r="D40" s="49"/>
-      <c r="E40" s="49"/>
-      <c r="F40" s="49"/>
-      <c r="G40" s="49"/>
-      <c r="H40" s="49"/>
-      <c r="I40" s="49"/>
-      <c r="J40" s="49"/>
-      <c r="K40" s="49"/>
-      <c r="L40" s="49"/>
-      <c r="M40" s="49"/>
-      <c r="N40" s="49"/>
-      <c r="O40" s="49"/>
-      <c r="P40" s="49"/>
-      <c r="Q40" s="49"/>
-      <c r="R40" s="49"/>
-      <c r="S40" s="49"/>
-      <c r="T40" s="49"/>
-      <c r="U40" s="49"/>
-      <c r="V40" s="49"/>
-      <c r="W40" s="49"/>
-      <c r="X40" s="49"/>
-      <c r="Y40" s="50"/>
+      <c r="A40" s="48" t="s">
+        <v>707</v>
+      </c>
+      <c r="B40" s="46"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="46"/>
+      <c r="E40" s="46"/>
+      <c r="F40" s="46"/>
+      <c r="G40" s="46"/>
+      <c r="H40" s="46"/>
+      <c r="I40" s="46"/>
+      <c r="J40" s="46"/>
+      <c r="K40" s="46"/>
+      <c r="L40" s="46"/>
+      <c r="M40" s="46"/>
+      <c r="N40" s="46"/>
+      <c r="O40" s="46"/>
+      <c r="P40" s="46"/>
+      <c r="Q40" s="46"/>
+      <c r="R40" s="46"/>
+      <c r="S40" s="46"/>
+      <c r="T40" s="46"/>
+      <c r="U40" s="46"/>
+      <c r="V40" s="46"/>
+      <c r="W40" s="46"/>
+      <c r="X40" s="46"/>
+      <c r="Y40" s="47"/>
     </row>
     <row r="41" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="47" t="s">
-        <v>684</v>
-      </c>
-      <c r="B41" s="47"/>
-      <c r="C41" s="47"/>
-      <c r="D41" s="47"/>
-      <c r="E41" s="47"/>
-      <c r="F41" s="47"/>
-      <c r="G41" s="47"/>
-      <c r="H41" s="47"/>
-      <c r="I41" s="47"/>
-      <c r="J41" s="47"/>
-      <c r="K41" s="47"/>
-      <c r="L41" s="47"/>
-      <c r="M41" s="47"/>
-      <c r="N41" s="47"/>
-      <c r="O41" s="47"/>
-      <c r="P41" s="47"/>
-      <c r="Q41" s="47"/>
-      <c r="R41" s="47"/>
-      <c r="S41" s="47"/>
-      <c r="T41" s="47"/>
-      <c r="U41" s="47"/>
-      <c r="V41" s="47"/>
-      <c r="W41" s="47"/>
-      <c r="X41" s="47"/>
-      <c r="Y41" s="47"/>
+      <c r="A41" s="44" t="s">
+        <v>708</v>
+      </c>
+      <c r="B41" s="44"/>
+      <c r="C41" s="44"/>
+      <c r="D41" s="44"/>
+      <c r="E41" s="44"/>
+      <c r="F41" s="44"/>
+      <c r="G41" s="44"/>
+      <c r="H41" s="44"/>
+      <c r="I41" s="44"/>
+      <c r="J41" s="44"/>
+      <c r="K41" s="44"/>
+      <c r="L41" s="44"/>
+      <c r="M41" s="44"/>
+      <c r="N41" s="44"/>
+      <c r="O41" s="44"/>
+      <c r="P41" s="44"/>
+      <c r="Q41" s="44"/>
+      <c r="R41" s="44"/>
+      <c r="S41" s="44"/>
+      <c r="T41" s="44"/>
+      <c r="U41" s="44"/>
+      <c r="V41" s="44"/>
+      <c r="W41" s="44"/>
+      <c r="X41" s="44"/>
+      <c r="Y41" s="44"/>
     </row>
     <row r="42" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="48" t="s">
-        <v>685</v>
-      </c>
-      <c r="B42" s="49"/>
-      <c r="C42" s="49"/>
-      <c r="D42" s="49"/>
-      <c r="E42" s="49"/>
-      <c r="F42" s="49"/>
-      <c r="G42" s="49"/>
-      <c r="H42" s="49"/>
-      <c r="I42" s="49"/>
-      <c r="J42" s="49"/>
-      <c r="K42" s="49"/>
-      <c r="L42" s="49"/>
-      <c r="M42" s="49"/>
-      <c r="N42" s="49"/>
-      <c r="O42" s="49"/>
-      <c r="P42" s="49"/>
-      <c r="Q42" s="49"/>
-      <c r="R42" s="49"/>
-      <c r="S42" s="49"/>
-      <c r="T42" s="49"/>
-      <c r="U42" s="49"/>
-      <c r="V42" s="49"/>
-      <c r="W42" s="49"/>
-      <c r="X42" s="49"/>
-      <c r="Y42" s="50"/>
+      <c r="A42" s="45" t="s">
+        <v>709</v>
+      </c>
+      <c r="B42" s="46"/>
+      <c r="C42" s="46"/>
+      <c r="D42" s="46"/>
+      <c r="E42" s="46"/>
+      <c r="F42" s="46"/>
+      <c r="G42" s="46"/>
+      <c r="H42" s="46"/>
+      <c r="I42" s="46"/>
+      <c r="J42" s="46"/>
+      <c r="K42" s="46"/>
+      <c r="L42" s="46"/>
+      <c r="M42" s="46"/>
+      <c r="N42" s="46"/>
+      <c r="O42" s="46"/>
+      <c r="P42" s="46"/>
+      <c r="Q42" s="46"/>
+      <c r="R42" s="46"/>
+      <c r="S42" s="46"/>
+      <c r="T42" s="46"/>
+      <c r="U42" s="46"/>
+      <c r="V42" s="46"/>
+      <c r="W42" s="46"/>
+      <c r="X42" s="46"/>
+      <c r="Y42" s="47"/>
     </row>
     <row r="43" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="48" t="s">
-        <v>686</v>
-      </c>
-      <c r="B43" s="49"/>
-      <c r="C43" s="49"/>
-      <c r="D43" s="49"/>
-      <c r="E43" s="49"/>
-      <c r="F43" s="49"/>
-      <c r="G43" s="49"/>
-      <c r="H43" s="49"/>
-      <c r="I43" s="49"/>
-      <c r="J43" s="49"/>
-      <c r="K43" s="49"/>
-      <c r="L43" s="49"/>
-      <c r="M43" s="49"/>
-      <c r="N43" s="49"/>
-      <c r="O43" s="49"/>
-      <c r="P43" s="49"/>
-      <c r="Q43" s="49"/>
-      <c r="R43" s="49"/>
-      <c r="S43" s="49"/>
-      <c r="T43" s="49"/>
-      <c r="U43" s="49"/>
-      <c r="V43" s="49"/>
-      <c r="W43" s="49"/>
-      <c r="X43" s="49"/>
-      <c r="Y43" s="50"/>
+      <c r="A43" s="45" t="s">
+        <v>710</v>
+      </c>
+      <c r="B43" s="46"/>
+      <c r="C43" s="46"/>
+      <c r="D43" s="46"/>
+      <c r="E43" s="46"/>
+      <c r="F43" s="46"/>
+      <c r="G43" s="46"/>
+      <c r="H43" s="46"/>
+      <c r="I43" s="46"/>
+      <c r="J43" s="46"/>
+      <c r="K43" s="46"/>
+      <c r="L43" s="46"/>
+      <c r="M43" s="46"/>
+      <c r="N43" s="46"/>
+      <c r="O43" s="46"/>
+      <c r="P43" s="46"/>
+      <c r="Q43" s="46"/>
+      <c r="R43" s="46"/>
+      <c r="S43" s="46"/>
+      <c r="T43" s="46"/>
+      <c r="U43" s="46"/>
+      <c r="V43" s="46"/>
+      <c r="W43" s="46"/>
+      <c r="X43" s="46"/>
+      <c r="Y43" s="47"/>
     </row>
     <row r="44" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="48" t="s">
-        <v>687</v>
-      </c>
-      <c r="B44" s="49"/>
-      <c r="C44" s="49"/>
-      <c r="D44" s="49"/>
-      <c r="E44" s="49"/>
-      <c r="F44" s="49"/>
-      <c r="G44" s="49"/>
-      <c r="H44" s="49"/>
-      <c r="I44" s="49"/>
-      <c r="J44" s="49"/>
-      <c r="K44" s="49"/>
-      <c r="L44" s="49"/>
-      <c r="M44" s="49"/>
-      <c r="N44" s="49"/>
-      <c r="O44" s="49"/>
-      <c r="P44" s="49"/>
-      <c r="Q44" s="49"/>
-      <c r="R44" s="49"/>
-      <c r="S44" s="49"/>
-      <c r="T44" s="49"/>
-      <c r="U44" s="49"/>
-      <c r="V44" s="49"/>
-      <c r="W44" s="49"/>
-      <c r="X44" s="49"/>
-      <c r="Y44" s="50"/>
+      <c r="A44" s="45" t="s">
+        <v>711</v>
+      </c>
+      <c r="B44" s="46"/>
+      <c r="C44" s="46"/>
+      <c r="D44" s="46"/>
+      <c r="E44" s="46"/>
+      <c r="F44" s="46"/>
+      <c r="G44" s="46"/>
+      <c r="H44" s="46"/>
+      <c r="I44" s="46"/>
+      <c r="J44" s="46"/>
+      <c r="K44" s="46"/>
+      <c r="L44" s="46"/>
+      <c r="M44" s="46"/>
+      <c r="N44" s="46"/>
+      <c r="O44" s="46"/>
+      <c r="P44" s="46"/>
+      <c r="Q44" s="46"/>
+      <c r="R44" s="46"/>
+      <c r="S44" s="46"/>
+      <c r="T44" s="46"/>
+      <c r="U44" s="46"/>
+      <c r="V44" s="46"/>
+      <c r="W44" s="46"/>
+      <c r="X44" s="46"/>
+      <c r="Y44" s="47"/>
     </row>
     <row r="45" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="48"/>
-      <c r="B45" s="49"/>
-      <c r="C45" s="49"/>
-      <c r="D45" s="49"/>
-      <c r="E45" s="49"/>
-      <c r="F45" s="49"/>
-      <c r="G45" s="49"/>
-      <c r="H45" s="49"/>
-      <c r="I45" s="49"/>
-      <c r="J45" s="49"/>
-      <c r="K45" s="49"/>
-      <c r="L45" s="49"/>
-      <c r="M45" s="49"/>
-      <c r="N45" s="49"/>
-      <c r="O45" s="49"/>
-      <c r="P45" s="49"/>
-      <c r="Q45" s="49"/>
-      <c r="R45" s="49"/>
-      <c r="S45" s="49"/>
-      <c r="T45" s="49"/>
-      <c r="U45" s="49"/>
-      <c r="V45" s="49"/>
-      <c r="W45" s="49"/>
-      <c r="X45" s="49"/>
-      <c r="Y45" s="50"/>
+      <c r="A45" s="45"/>
+      <c r="B45" s="46"/>
+      <c r="C45" s="46"/>
+      <c r="D45" s="46"/>
+      <c r="E45" s="46"/>
+      <c r="F45" s="46"/>
+      <c r="G45" s="46"/>
+      <c r="H45" s="46"/>
+      <c r="I45" s="46"/>
+      <c r="J45" s="46"/>
+      <c r="K45" s="46"/>
+      <c r="L45" s="46"/>
+      <c r="M45" s="46"/>
+      <c r="N45" s="46"/>
+      <c r="O45" s="46"/>
+      <c r="P45" s="46"/>
+      <c r="Q45" s="46"/>
+      <c r="R45" s="46"/>
+      <c r="S45" s="46"/>
+      <c r="T45" s="46"/>
+      <c r="U45" s="46"/>
+      <c r="V45" s="46"/>
+      <c r="W45" s="46"/>
+      <c r="X45" s="46"/>
+      <c r="Y45" s="47"/>
     </row>
     <row r="46" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="48"/>
-      <c r="B46" s="49"/>
-      <c r="C46" s="49"/>
-      <c r="D46" s="49"/>
-      <c r="E46" s="49"/>
-      <c r="F46" s="49"/>
-      <c r="G46" s="49"/>
-      <c r="H46" s="49"/>
-      <c r="I46" s="49"/>
-      <c r="J46" s="49"/>
-      <c r="K46" s="49"/>
-      <c r="L46" s="49"/>
-      <c r="M46" s="49"/>
-      <c r="N46" s="49"/>
-      <c r="O46" s="49"/>
-      <c r="P46" s="49"/>
-      <c r="Q46" s="49"/>
-      <c r="R46" s="49"/>
-      <c r="S46" s="49"/>
-      <c r="T46" s="49"/>
-      <c r="U46" s="49"/>
-      <c r="V46" s="49"/>
-      <c r="W46" s="49"/>
-      <c r="X46" s="49"/>
-      <c r="Y46" s="50"/>
+      <c r="A46" s="45"/>
+      <c r="B46" s="46"/>
+      <c r="C46" s="46"/>
+      <c r="D46" s="46"/>
+      <c r="E46" s="46"/>
+      <c r="F46" s="46"/>
+      <c r="G46" s="46"/>
+      <c r="H46" s="46"/>
+      <c r="I46" s="46"/>
+      <c r="J46" s="46"/>
+      <c r="K46" s="46"/>
+      <c r="L46" s="46"/>
+      <c r="M46" s="46"/>
+      <c r="N46" s="46"/>
+      <c r="O46" s="46"/>
+      <c r="P46" s="46"/>
+      <c r="Q46" s="46"/>
+      <c r="R46" s="46"/>
+      <c r="S46" s="46"/>
+      <c r="T46" s="46"/>
+      <c r="U46" s="46"/>
+      <c r="V46" s="46"/>
+      <c r="W46" s="46"/>
+      <c r="X46" s="46"/>
+      <c r="Y46" s="47"/>
     </row>
     <row r="47" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="47" t="s">
-        <v>688</v>
-      </c>
-      <c r="B47" s="47"/>
-      <c r="C47" s="47"/>
-      <c r="D47" s="47"/>
-      <c r="E47" s="47"/>
-      <c r="F47" s="47"/>
-      <c r="G47" s="47"/>
-      <c r="H47" s="47"/>
-      <c r="I47" s="47"/>
-      <c r="J47" s="47"/>
-      <c r="K47" s="47"/>
-      <c r="L47" s="47"/>
-      <c r="M47" s="47"/>
-      <c r="N47" s="47"/>
-      <c r="O47" s="47"/>
-      <c r="P47" s="47"/>
-      <c r="Q47" s="47"/>
-      <c r="R47" s="47"/>
-      <c r="S47" s="47"/>
-      <c r="T47" s="47"/>
-      <c r="U47" s="47"/>
-      <c r="V47" s="47"/>
-      <c r="W47" s="47"/>
-      <c r="X47" s="47"/>
-      <c r="Y47" s="47"/>
+      <c r="A47" s="44" t="s">
+        <v>712</v>
+      </c>
+      <c r="B47" s="44"/>
+      <c r="C47" s="44"/>
+      <c r="D47" s="44"/>
+      <c r="E47" s="44"/>
+      <c r="F47" s="44"/>
+      <c r="G47" s="44"/>
+      <c r="H47" s="44"/>
+      <c r="I47" s="44"/>
+      <c r="J47" s="44"/>
+      <c r="K47" s="44"/>
+      <c r="L47" s="44"/>
+      <c r="M47" s="44"/>
+      <c r="N47" s="44"/>
+      <c r="O47" s="44"/>
+      <c r="P47" s="44"/>
+      <c r="Q47" s="44"/>
+      <c r="R47" s="44"/>
+      <c r="S47" s="44"/>
+      <c r="T47" s="44"/>
+      <c r="U47" s="44"/>
+      <c r="V47" s="44"/>
+      <c r="W47" s="44"/>
+      <c r="X47" s="44"/>
+      <c r="Y47" s="44"/>
     </row>
     <row r="48" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="48"/>
-      <c r="B48" s="49"/>
-      <c r="C48" s="49"/>
-      <c r="D48" s="49"/>
-      <c r="E48" s="49"/>
-      <c r="F48" s="49"/>
-      <c r="G48" s="49"/>
-      <c r="H48" s="49"/>
-      <c r="I48" s="49"/>
-      <c r="J48" s="49"/>
-      <c r="K48" s="49"/>
-      <c r="L48" s="49"/>
-      <c r="M48" s="49"/>
-      <c r="N48" s="49"/>
-      <c r="O48" s="49"/>
-      <c r="P48" s="49"/>
-      <c r="Q48" s="49"/>
-      <c r="R48" s="49"/>
-      <c r="S48" s="49"/>
-      <c r="T48" s="49"/>
-      <c r="U48" s="49"/>
-      <c r="V48" s="49"/>
-      <c r="W48" s="49"/>
-      <c r="X48" s="49"/>
-      <c r="Y48" s="50"/>
+      <c r="A48" s="45"/>
+      <c r="B48" s="46"/>
+      <c r="C48" s="46"/>
+      <c r="D48" s="46"/>
+      <c r="E48" s="46"/>
+      <c r="F48" s="46"/>
+      <c r="G48" s="46"/>
+      <c r="H48" s="46"/>
+      <c r="I48" s="46"/>
+      <c r="J48" s="46"/>
+      <c r="K48" s="46"/>
+      <c r="L48" s="46"/>
+      <c r="M48" s="46"/>
+      <c r="N48" s="46"/>
+      <c r="O48" s="46"/>
+      <c r="P48" s="46"/>
+      <c r="Q48" s="46"/>
+      <c r="R48" s="46"/>
+      <c r="S48" s="46"/>
+      <c r="T48" s="46"/>
+      <c r="U48" s="46"/>
+      <c r="V48" s="46"/>
+      <c r="W48" s="46"/>
+      <c r="X48" s="46"/>
+      <c r="Y48" s="47"/>
     </row>
     <row r="49" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="48"/>
-      <c r="B49" s="49"/>
-      <c r="C49" s="49"/>
-      <c r="D49" s="49"/>
-      <c r="E49" s="49"/>
-      <c r="F49" s="49"/>
-      <c r="G49" s="49"/>
-      <c r="H49" s="49"/>
-      <c r="I49" s="49"/>
-      <c r="J49" s="49"/>
-      <c r="K49" s="49"/>
-      <c r="L49" s="49"/>
-      <c r="M49" s="49"/>
-      <c r="N49" s="49"/>
-      <c r="O49" s="49"/>
-      <c r="P49" s="49"/>
-      <c r="Q49" s="49"/>
-      <c r="R49" s="49"/>
-      <c r="S49" s="49"/>
-      <c r="T49" s="49"/>
-      <c r="U49" s="49"/>
-      <c r="V49" s="49"/>
-      <c r="W49" s="49"/>
-      <c r="X49" s="49"/>
-      <c r="Y49" s="50"/>
+      <c r="A49" s="45"/>
+      <c r="B49" s="46"/>
+      <c r="C49" s="46"/>
+      <c r="D49" s="46"/>
+      <c r="E49" s="46"/>
+      <c r="F49" s="46"/>
+      <c r="G49" s="46"/>
+      <c r="H49" s="46"/>
+      <c r="I49" s="46"/>
+      <c r="J49" s="46"/>
+      <c r="K49" s="46"/>
+      <c r="L49" s="46"/>
+      <c r="M49" s="46"/>
+      <c r="N49" s="46"/>
+      <c r="O49" s="46"/>
+      <c r="P49" s="46"/>
+      <c r="Q49" s="46"/>
+      <c r="R49" s="46"/>
+      <c r="S49" s="46"/>
+      <c r="T49" s="46"/>
+      <c r="U49" s="46"/>
+      <c r="V49" s="46"/>
+      <c r="W49" s="46"/>
+      <c r="X49" s="46"/>
+      <c r="Y49" s="47"/>
     </row>
     <row r="50" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="48" t="s">
-        <v>689</v>
-      </c>
-      <c r="B50" s="49"/>
-      <c r="C50" s="49"/>
-      <c r="D50" s="49"/>
-      <c r="E50" s="49"/>
-      <c r="F50" s="49"/>
-      <c r="G50" s="49"/>
-      <c r="H50" s="49"/>
-      <c r="I50" s="49"/>
-      <c r="J50" s="49"/>
-      <c r="K50" s="49"/>
-      <c r="L50" s="49"/>
-      <c r="M50" s="49"/>
-      <c r="N50" s="49"/>
-      <c r="O50" s="49"/>
-      <c r="P50" s="49"/>
-      <c r="Q50" s="49"/>
-      <c r="R50" s="49"/>
-      <c r="S50" s="49"/>
-      <c r="T50" s="49"/>
-      <c r="U50" s="49"/>
-      <c r="V50" s="49"/>
-      <c r="W50" s="49"/>
-      <c r="X50" s="49"/>
-      <c r="Y50" s="50"/>
+      <c r="A50" s="45" t="s">
+        <v>713</v>
+      </c>
+      <c r="B50" s="46"/>
+      <c r="C50" s="46"/>
+      <c r="D50" s="46"/>
+      <c r="E50" s="46"/>
+      <c r="F50" s="46"/>
+      <c r="G50" s="46"/>
+      <c r="H50" s="46"/>
+      <c r="I50" s="46"/>
+      <c r="J50" s="46"/>
+      <c r="K50" s="46"/>
+      <c r="L50" s="46"/>
+      <c r="M50" s="46"/>
+      <c r="N50" s="46"/>
+      <c r="O50" s="46"/>
+      <c r="P50" s="46"/>
+      <c r="Q50" s="46"/>
+      <c r="R50" s="46"/>
+      <c r="S50" s="46"/>
+      <c r="T50" s="46"/>
+      <c r="U50" s="46"/>
+      <c r="V50" s="46"/>
+      <c r="W50" s="46"/>
+      <c r="X50" s="46"/>
+      <c r="Y50" s="47"/>
     </row>
     <row r="51" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="47" t="s">
-        <v>690</v>
-      </c>
-      <c r="B51" s="47"/>
-      <c r="C51" s="47"/>
-      <c r="D51" s="47"/>
-      <c r="E51" s="47"/>
-      <c r="F51" s="47"/>
-      <c r="G51" s="47"/>
-      <c r="H51" s="47"/>
-      <c r="I51" s="47"/>
-      <c r="J51" s="47"/>
-      <c r="K51" s="47"/>
-      <c r="L51" s="47"/>
-      <c r="M51" s="47"/>
-      <c r="N51" s="47"/>
-      <c r="O51" s="47"/>
-      <c r="P51" s="47"/>
-      <c r="Q51" s="47"/>
-      <c r="R51" s="47"/>
-      <c r="S51" s="47"/>
-      <c r="T51" s="47"/>
-      <c r="U51" s="47"/>
-      <c r="V51" s="47"/>
-      <c r="W51" s="47"/>
-      <c r="X51" s="47"/>
-      <c r="Y51" s="47"/>
+      <c r="A51" s="44" t="s">
+        <v>714</v>
+      </c>
+      <c r="B51" s="44"/>
+      <c r="C51" s="44"/>
+      <c r="D51" s="44"/>
+      <c r="E51" s="44"/>
+      <c r="F51" s="44"/>
+      <c r="G51" s="44"/>
+      <c r="H51" s="44"/>
+      <c r="I51" s="44"/>
+      <c r="J51" s="44"/>
+      <c r="K51" s="44"/>
+      <c r="L51" s="44"/>
+      <c r="M51" s="44"/>
+      <c r="N51" s="44"/>
+      <c r="O51" s="44"/>
+      <c r="P51" s="44"/>
+      <c r="Q51" s="44"/>
+      <c r="R51" s="44"/>
+      <c r="S51" s="44"/>
+      <c r="T51" s="44"/>
+      <c r="U51" s="44"/>
+      <c r="V51" s="44"/>
+      <c r="W51" s="44"/>
+      <c r="X51" s="44"/>
+      <c r="Y51" s="44"/>
     </row>
     <row r="52" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="52" t="s">
-        <v>691</v>
-      </c>
-      <c r="B52" s="49"/>
-      <c r="C52" s="49"/>
-      <c r="D52" s="49"/>
-      <c r="E52" s="49"/>
-      <c r="F52" s="49"/>
-      <c r="G52" s="49"/>
-      <c r="H52" s="49"/>
-      <c r="I52" s="49"/>
-      <c r="J52" s="49"/>
-      <c r="K52" s="49"/>
-      <c r="L52" s="49"/>
-      <c r="M52" s="49"/>
-      <c r="N52" s="49"/>
-      <c r="O52" s="49"/>
-      <c r="P52" s="49"/>
-      <c r="Q52" s="49"/>
-      <c r="R52" s="49"/>
-      <c r="S52" s="49"/>
-      <c r="T52" s="49"/>
-      <c r="U52" s="49"/>
-      <c r="V52" s="49"/>
-      <c r="W52" s="49"/>
-      <c r="X52" s="49"/>
-      <c r="Y52" s="50"/>
+      <c r="A52" s="49" t="s">
+        <v>715</v>
+      </c>
+      <c r="B52" s="46"/>
+      <c r="C52" s="46"/>
+      <c r="D52" s="46"/>
+      <c r="E52" s="46"/>
+      <c r="F52" s="46"/>
+      <c r="G52" s="46"/>
+      <c r="H52" s="46"/>
+      <c r="I52" s="46"/>
+      <c r="J52" s="46"/>
+      <c r="K52" s="46"/>
+      <c r="L52" s="46"/>
+      <c r="M52" s="46"/>
+      <c r="N52" s="46"/>
+      <c r="O52" s="46"/>
+      <c r="P52" s="46"/>
+      <c r="Q52" s="46"/>
+      <c r="R52" s="46"/>
+      <c r="S52" s="46"/>
+      <c r="T52" s="46"/>
+      <c r="U52" s="46"/>
+      <c r="V52" s="46"/>
+      <c r="W52" s="46"/>
+      <c r="X52" s="46"/>
+      <c r="Y52" s="47"/>
     </row>
     <row r="53" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="52" t="s">
-        <v>692</v>
-      </c>
-      <c r="B53" s="49"/>
-      <c r="C53" s="49"/>
-      <c r="D53" s="49"/>
-      <c r="E53" s="49"/>
-      <c r="F53" s="49"/>
-      <c r="G53" s="49"/>
-      <c r="H53" s="49"/>
-      <c r="I53" s="49"/>
-      <c r="J53" s="49"/>
-      <c r="K53" s="49"/>
-      <c r="L53" s="49"/>
-      <c r="M53" s="49"/>
-      <c r="N53" s="49"/>
-      <c r="O53" s="49"/>
-      <c r="P53" s="49"/>
-      <c r="Q53" s="49"/>
-      <c r="R53" s="49"/>
-      <c r="S53" s="49"/>
-      <c r="T53" s="49"/>
-      <c r="U53" s="49"/>
-      <c r="V53" s="49"/>
-      <c r="W53" s="49"/>
-      <c r="X53" s="49"/>
-      <c r="Y53" s="50"/>
+      <c r="A53" s="49" t="s">
+        <v>716</v>
+      </c>
+      <c r="B53" s="46"/>
+      <c r="C53" s="46"/>
+      <c r="D53" s="46"/>
+      <c r="E53" s="46"/>
+      <c r="F53" s="46"/>
+      <c r="G53" s="46"/>
+      <c r="H53" s="46"/>
+      <c r="I53" s="46"/>
+      <c r="J53" s="46"/>
+      <c r="K53" s="46"/>
+      <c r="L53" s="46"/>
+      <c r="M53" s="46"/>
+      <c r="N53" s="46"/>
+      <c r="O53" s="46"/>
+      <c r="P53" s="46"/>
+      <c r="Q53" s="46"/>
+      <c r="R53" s="46"/>
+      <c r="S53" s="46"/>
+      <c r="T53" s="46"/>
+      <c r="U53" s="46"/>
+      <c r="V53" s="46"/>
+      <c r="W53" s="46"/>
+      <c r="X53" s="46"/>
+      <c r="Y53" s="47"/>
     </row>
     <row r="54" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="52" t="s">
-        <v>693</v>
-      </c>
-      <c r="B54" s="49"/>
-      <c r="C54" s="49"/>
-      <c r="D54" s="49"/>
-      <c r="E54" s="49"/>
-      <c r="F54" s="49"/>
-      <c r="G54" s="49"/>
-      <c r="H54" s="49"/>
-      <c r="I54" s="49"/>
-      <c r="J54" s="49"/>
-      <c r="K54" s="49"/>
-      <c r="L54" s="49"/>
-      <c r="M54" s="49"/>
-      <c r="N54" s="49"/>
-      <c r="O54" s="49"/>
-      <c r="P54" s="49"/>
-      <c r="Q54" s="49"/>
-      <c r="R54" s="49"/>
-      <c r="S54" s="49"/>
-      <c r="T54" s="49"/>
-      <c r="U54" s="49"/>
-      <c r="V54" s="49"/>
-      <c r="W54" s="49"/>
-      <c r="X54" s="49"/>
-      <c r="Y54" s="50"/>
+      <c r="A54" s="49" t="s">
+        <v>717</v>
+      </c>
+      <c r="B54" s="46"/>
+      <c r="C54" s="46"/>
+      <c r="D54" s="46"/>
+      <c r="E54" s="46"/>
+      <c r="F54" s="46"/>
+      <c r="G54" s="46"/>
+      <c r="H54" s="46"/>
+      <c r="I54" s="46"/>
+      <c r="J54" s="46"/>
+      <c r="K54" s="46"/>
+      <c r="L54" s="46"/>
+      <c r="M54" s="46"/>
+      <c r="N54" s="46"/>
+      <c r="O54" s="46"/>
+      <c r="P54" s="46"/>
+      <c r="Q54" s="46"/>
+      <c r="R54" s="46"/>
+      <c r="S54" s="46"/>
+      <c r="T54" s="46"/>
+      <c r="U54" s="46"/>
+      <c r="V54" s="46"/>
+      <c r="W54" s="46"/>
+      <c r="X54" s="46"/>
+      <c r="Y54" s="47"/>
     </row>
     <row r="55" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="48"/>
-      <c r="B55" s="49"/>
-      <c r="C55" s="49"/>
-      <c r="D55" s="49"/>
-      <c r="E55" s="49"/>
-      <c r="F55" s="49"/>
-      <c r="G55" s="49"/>
-      <c r="H55" s="49"/>
-      <c r="I55" s="49"/>
-      <c r="J55" s="49"/>
-      <c r="K55" s="49"/>
-      <c r="L55" s="49"/>
-      <c r="M55" s="49"/>
-      <c r="N55" s="49"/>
-      <c r="O55" s="49"/>
-      <c r="P55" s="49"/>
-      <c r="Q55" s="49"/>
-      <c r="R55" s="49"/>
-      <c r="S55" s="49"/>
-      <c r="T55" s="49"/>
-      <c r="U55" s="49"/>
-      <c r="V55" s="49"/>
-      <c r="W55" s="49"/>
-      <c r="X55" s="49"/>
-      <c r="Y55" s="50"/>
+      <c r="A55" s="45"/>
+      <c r="B55" s="46"/>
+      <c r="C55" s="46"/>
+      <c r="D55" s="46"/>
+      <c r="E55" s="46"/>
+      <c r="F55" s="46"/>
+      <c r="G55" s="46"/>
+      <c r="H55" s="46"/>
+      <c r="I55" s="46"/>
+      <c r="J55" s="46"/>
+      <c r="K55" s="46"/>
+      <c r="L55" s="46"/>
+      <c r="M55" s="46"/>
+      <c r="N55" s="46"/>
+      <c r="O55" s="46"/>
+      <c r="P55" s="46"/>
+      <c r="Q55" s="46"/>
+      <c r="R55" s="46"/>
+      <c r="S55" s="46"/>
+      <c r="T55" s="46"/>
+      <c r="U55" s="46"/>
+      <c r="V55" s="46"/>
+      <c r="W55" s="46"/>
+      <c r="X55" s="46"/>
+      <c r="Y55" s="47"/>
     </row>
     <row r="56" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="53" t="s">
-        <v>694</v>
-      </c>
-      <c r="B56" s="49"/>
-      <c r="C56" s="49"/>
-      <c r="D56" s="49"/>
-      <c r="E56" s="49"/>
-      <c r="F56" s="49"/>
-      <c r="G56" s="49"/>
-      <c r="H56" s="49"/>
-      <c r="I56" s="49"/>
-      <c r="J56" s="49"/>
-      <c r="K56" s="49"/>
-      <c r="L56" s="49"/>
-      <c r="M56" s="49"/>
-      <c r="N56" s="49"/>
-      <c r="O56" s="49"/>
-      <c r="P56" s="49"/>
-      <c r="Q56" s="49"/>
-      <c r="R56" s="49"/>
-      <c r="S56" s="49"/>
-      <c r="T56" s="49"/>
-      <c r="U56" s="49"/>
-      <c r="V56" s="49"/>
-      <c r="W56" s="49"/>
-      <c r="X56" s="49"/>
-      <c r="Y56" s="50"/>
+      <c r="A56" s="50" t="s">
+        <v>718</v>
+      </c>
+      <c r="B56" s="46"/>
+      <c r="C56" s="46"/>
+      <c r="D56" s="46"/>
+      <c r="E56" s="46"/>
+      <c r="F56" s="46"/>
+      <c r="G56" s="46"/>
+      <c r="H56" s="46"/>
+      <c r="I56" s="46"/>
+      <c r="J56" s="46"/>
+      <c r="K56" s="46"/>
+      <c r="L56" s="46"/>
+      <c r="M56" s="46"/>
+      <c r="N56" s="46"/>
+      <c r="O56" s="46"/>
+      <c r="P56" s="46"/>
+      <c r="Q56" s="46"/>
+      <c r="R56" s="46"/>
+      <c r="S56" s="46"/>
+      <c r="T56" s="46"/>
+      <c r="U56" s="46"/>
+      <c r="V56" s="46"/>
+      <c r="W56" s="46"/>
+      <c r="X56" s="46"/>
+      <c r="Y56" s="47"/>
     </row>
     <row r="57" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="54" t="s">
-        <v>695</v>
-      </c>
-      <c r="B57" s="55"/>
-      <c r="C57" s="55"/>
-      <c r="D57" s="55"/>
-      <c r="E57" s="55"/>
-      <c r="F57" s="55"/>
-      <c r="G57" s="55"/>
-      <c r="H57" s="55"/>
-      <c r="I57" s="55"/>
-      <c r="J57" s="55"/>
-      <c r="K57" s="55"/>
-      <c r="L57" s="55"/>
-      <c r="M57" s="55"/>
-      <c r="N57" s="55"/>
-      <c r="O57" s="55"/>
-      <c r="P57" s="55"/>
-      <c r="Q57" s="55"/>
-      <c r="R57" s="55"/>
-      <c r="S57" s="55"/>
-      <c r="T57" s="55"/>
-      <c r="U57" s="55"/>
-      <c r="V57" s="55"/>
-      <c r="W57" s="55"/>
-      <c r="X57" s="55"/>
-      <c r="Y57" s="56"/>
+      <c r="A57" s="51" t="s">
+        <v>719</v>
+      </c>
+      <c r="B57" s="52"/>
+      <c r="C57" s="52"/>
+      <c r="D57" s="52"/>
+      <c r="E57" s="52"/>
+      <c r="F57" s="52"/>
+      <c r="G57" s="52"/>
+      <c r="H57" s="52"/>
+      <c r="I57" s="52"/>
+      <c r="J57" s="52"/>
+      <c r="K57" s="52"/>
+      <c r="L57" s="52"/>
+      <c r="M57" s="52"/>
+      <c r="N57" s="52"/>
+      <c r="O57" s="52"/>
+      <c r="P57" s="52"/>
+      <c r="Q57" s="52"/>
+      <c r="R57" s="52"/>
+      <c r="S57" s="52"/>
+      <c r="T57" s="52"/>
+      <c r="U57" s="52"/>
+      <c r="V57" s="52"/>
+      <c r="W57" s="52"/>
+      <c r="X57" s="52"/>
+      <c r="Y57" s="53"/>
     </row>
     <row r="58" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="57"/>
+      <c r="A58" s="54"/>
     </row>
     <row r="59" customFormat="false" ht="141.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="58" t="s">
-        <v>696</v>
+      <c r="A59" s="55" t="s">
+        <v>720</v>
       </c>
     </row>
   </sheetData>

--- a/resources/report_template.xlsx
+++ b/resources/report_template.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="721">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="745">
   <si>
     <t>Région</t>
   </si>
@@ -610,6 +610,78 @@
   </si>
   <si>
     <t>Nombre Total d’adultes et d’enfants sous antirétroviraux Ayant arrêté le traitement au cours au cours de la période de raportage (I)</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_STOPPED_DURING_PERIOD', gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_STOPPED_DURING_PERIOD', gender: 1}</t>
+  </si>
+  <si>
+    <t>{key:'ARV_STOPPED_DURING_PERIOD', age_max: 15}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_STOPPED_DURING_PERIOD', age_min: 15}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_STOPPED_DURING_PERIOD'}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_STOPPED_DURING_PERIOD', age_max: 15, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_STOPPED_DURING_PERIOD', age_max: 15, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_STOPPED_DURING_PERIOD', age_min: 15, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_STOPPED_DURING_PERIOD', age_min: 15, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_STOPPED_DURING_PERIOD', age_max: 1, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_STOPPED_DURING_PERIOD', age_max: 1, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_STOPPED_DURING_PERIOD', age_min: 1, age_max: 4, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_STOPPED_DURING_PERIOD', age_min: 5, age_max: 9, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_STOPPED_DURING_PERIOD', age_min: 5, age_max: 9, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_STOPPED_DURING_PERIOD', age_min: 10, age_max: 14, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_STOPPED_DURING_PERIOD', age_min: 10, age_max: 14, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_STOPPED_DURING_PERIOD', age_min: 15, age_max: 19, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_STOPPED_DURING_PERIOD', age_min: 15, age_max: 19, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_STOPPED_DURING_PERIOD', age_min: 20, age_max: 24, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_STOPPED_DURING_PERIOD', age_min: 20, age_max: 24, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_STOPPED_DURING_PERIOD', age_min: 25, age_max: 49, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_STOPPED_DURING_PERIOD', age_min: 25, age_max: 49, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_STOPPED_DURING_PERIOD', age_min: 50, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_STOPPED_DURING_PERIOD', age_min: 50, gender: 1}</t>
   </si>
   <si>
     <t>Nombre Total d’adultes et d’enfants sous antirétroviraux transférés au cours au cours de la période de raportage (J)</t>
@@ -2698,14 +2770,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="5" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2728,6 +2792,14 @@
     </xf>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="5" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -2943,8 +3015,8 @@
   </sheetPr>
   <dimension ref="A1:AB57"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K33" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A34" activeCellId="0" sqref="A34:AB34"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A15" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19:AB19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3837,993 +3909,1047 @@
         <v>174</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="41" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="18" t="s">
         <v>197</v>
       </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="16"/>
-      <c r="P19" s="16"/>
-      <c r="Q19" s="16"/>
-      <c r="R19" s="16"/>
-      <c r="S19" s="16"/>
-      <c r="T19" s="16"/>
-      <c r="U19" s="16"/>
-      <c r="V19" s="16"/>
-      <c r="W19" s="16"/>
-      <c r="X19" s="16"/>
-      <c r="Y19" s="16"/>
-      <c r="Z19" s="16"/>
-      <c r="AA19" s="25"/>
-      <c r="AB19" s="26"/>
+      <c r="B19" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="I19" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="J19" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="K19" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="L19" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="M19" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="N19" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="O19" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="P19" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q19" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="R19" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="S19" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="T19" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="U19" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="V19" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="W19" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="X19" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y19" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="Z19" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="AA19" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="AB19" s="17" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="18" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>199</v>
+        <v>223</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>200</v>
+        <v>224</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>201</v>
+        <v>225</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>203</v>
+        <v>227</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>204</v>
+        <v>228</v>
       </c>
       <c r="H20" s="15" t="s">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c r="I20" s="15" t="s">
-        <v>206</v>
+        <v>230</v>
       </c>
       <c r="J20" s="15" t="s">
-        <v>207</v>
+        <v>231</v>
       </c>
       <c r="K20" s="16" t="s">
-        <v>208</v>
+        <v>232</v>
       </c>
       <c r="L20" s="16" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
       <c r="M20" s="16" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="N20" s="16" t="s">
-        <v>208</v>
+        <v>232</v>
       </c>
       <c r="O20" s="16" t="s">
-        <v>211</v>
+        <v>235</v>
       </c>
       <c r="P20" s="16" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="Q20" s="16" t="s">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="R20" s="16" t="s">
-        <v>214</v>
+        <v>238</v>
       </c>
       <c r="S20" s="16" t="s">
-        <v>215</v>
+        <v>239</v>
       </c>
       <c r="T20" s="16" t="s">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="U20" s="16" t="s">
-        <v>217</v>
+        <v>241</v>
       </c>
       <c r="V20" s="16" t="s">
-        <v>218</v>
+        <v>242</v>
       </c>
       <c r="W20" s="16" t="s">
-        <v>219</v>
+        <v>243</v>
       </c>
       <c r="X20" s="16" t="s">
-        <v>220</v>
+        <v>244</v>
       </c>
       <c r="Y20" s="16" t="s">
-        <v>221</v>
+        <v>245</v>
       </c>
       <c r="Z20" s="16" t="s">
-        <v>222</v>
+        <v>246</v>
       </c>
       <c r="AA20" s="16" t="s">
-        <v>199</v>
+        <v>223</v>
       </c>
       <c r="AB20" s="17" t="s">
-        <v>200</v>
+        <v>224</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="27" t="s">
-        <v>223</v>
-      </c>
-      <c r="B21" s="28" t="s">
-        <v>224</v>
-      </c>
-      <c r="C21" s="28" t="s">
-        <v>225</v>
-      </c>
-      <c r="D21" s="28" t="s">
-        <v>226</v>
-      </c>
-      <c r="E21" s="28" t="s">
-        <v>227</v>
-      </c>
-      <c r="F21" s="28" t="s">
-        <v>228</v>
+      <c r="A21" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>248</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>249</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>250</v>
+      </c>
+      <c r="E21" s="26" t="s">
+        <v>251</v>
+      </c>
+      <c r="F21" s="26" t="s">
+        <v>252</v>
       </c>
       <c r="G21" s="23" t="s">
-        <v>229</v>
+        <v>253</v>
       </c>
       <c r="H21" s="23" t="s">
-        <v>230</v>
+        <v>254</v>
       </c>
       <c r="I21" s="23" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="J21" s="23" t="s">
-        <v>232</v>
-      </c>
-      <c r="K21" s="29" t="s">
-        <v>233</v>
-      </c>
-      <c r="L21" s="29" t="s">
-        <v>234</v>
-      </c>
-      <c r="M21" s="29" t="s">
-        <v>235</v>
-      </c>
-      <c r="N21" s="29" t="s">
-        <v>233</v>
-      </c>
-      <c r="O21" s="29" t="s">
-        <v>236</v>
-      </c>
-      <c r="P21" s="29" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q21" s="29" t="s">
-        <v>238</v>
-      </c>
-      <c r="R21" s="29" t="s">
-        <v>239</v>
-      </c>
-      <c r="S21" s="29" t="s">
-        <v>240</v>
-      </c>
-      <c r="T21" s="29" t="s">
-        <v>241</v>
-      </c>
-      <c r="U21" s="29" t="s">
-        <v>242</v>
-      </c>
-      <c r="V21" s="29" t="s">
-        <v>243</v>
-      </c>
-      <c r="W21" s="29" t="s">
-        <v>244</v>
-      </c>
-      <c r="X21" s="29" t="s">
-        <v>245</v>
-      </c>
-      <c r="Y21" s="29" t="s">
-        <v>246</v>
-      </c>
-      <c r="Z21" s="29" t="s">
-        <v>247</v>
-      </c>
-      <c r="AA21" s="29" t="s">
-        <v>224</v>
-      </c>
-      <c r="AB21" s="30" t="s">
-        <v>225</v>
+        <v>256</v>
+      </c>
+      <c r="K21" s="27" t="s">
+        <v>257</v>
+      </c>
+      <c r="L21" s="27" t="s">
+        <v>258</v>
+      </c>
+      <c r="M21" s="27" t="s">
+        <v>259</v>
+      </c>
+      <c r="N21" s="27" t="s">
+        <v>257</v>
+      </c>
+      <c r="O21" s="27" t="s">
+        <v>260</v>
+      </c>
+      <c r="P21" s="27" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q21" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="R21" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="S21" s="27" t="s">
+        <v>264</v>
+      </c>
+      <c r="T21" s="27" t="s">
+        <v>265</v>
+      </c>
+      <c r="U21" s="27" t="s">
+        <v>266</v>
+      </c>
+      <c r="V21" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="W21" s="27" t="s">
+        <v>268</v>
+      </c>
+      <c r="X21" s="27" t="s">
+        <v>269</v>
+      </c>
+      <c r="Y21" s="27" t="s">
+        <v>270</v>
+      </c>
+      <c r="Z21" s="27" t="s">
+        <v>271</v>
+      </c>
+      <c r="AA21" s="27" t="s">
+        <v>248</v>
+      </c>
+      <c r="AB21" s="28" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="18" t="s">
-        <v>248</v>
+        <v>272</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>249</v>
+        <v>273</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>250</v>
+        <v>274</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>251</v>
+        <v>275</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>252</v>
+        <v>276</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>253</v>
+        <v>277</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>254</v>
+        <v>278</v>
       </c>
       <c r="H22" s="15" t="s">
-        <v>255</v>
+        <v>279</v>
       </c>
       <c r="I22" s="15" t="s">
-        <v>256</v>
+        <v>280</v>
       </c>
       <c r="J22" s="15" t="s">
-        <v>257</v>
+        <v>281</v>
       </c>
       <c r="K22" s="16" t="s">
-        <v>258</v>
+        <v>282</v>
       </c>
       <c r="L22" s="16" t="s">
-        <v>259</v>
+        <v>283</v>
       </c>
       <c r="M22" s="16" t="s">
-        <v>260</v>
+        <v>284</v>
       </c>
       <c r="N22" s="16" t="s">
-        <v>258</v>
+        <v>282</v>
       </c>
       <c r="O22" s="16" t="s">
-        <v>261</v>
+        <v>285</v>
       </c>
       <c r="P22" s="16" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="Q22" s="16" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="R22" s="16" t="s">
-        <v>264</v>
+        <v>288</v>
       </c>
       <c r="S22" s="16" t="s">
-        <v>265</v>
+        <v>289</v>
       </c>
       <c r="T22" s="16" t="s">
-        <v>266</v>
+        <v>290</v>
       </c>
       <c r="U22" s="16" t="s">
-        <v>267</v>
+        <v>291</v>
       </c>
       <c r="V22" s="16" t="s">
-        <v>268</v>
+        <v>292</v>
       </c>
       <c r="W22" s="16" t="s">
-        <v>269</v>
+        <v>293</v>
       </c>
       <c r="X22" s="16" t="s">
-        <v>270</v>
+        <v>294</v>
       </c>
       <c r="Y22" s="16" t="s">
-        <v>271</v>
+        <v>295</v>
       </c>
       <c r="Z22" s="16" t="s">
-        <v>272</v>
+        <v>296</v>
       </c>
       <c r="AA22" s="16" t="s">
-        <v>249</v>
+        <v>273</v>
       </c>
       <c r="AB22" s="17" t="s">
-        <v>250</v>
+        <v>274</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="30.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="18" t="s">
-        <v>273</v>
+        <v>297</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>274</v>
+        <v>298</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>275</v>
+        <v>299</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>276</v>
+        <v>300</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>277</v>
+        <v>301</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>278</v>
+        <v>302</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>279</v>
+        <v>303</v>
       </c>
       <c r="H23" s="15" t="s">
-        <v>280</v>
+        <v>304</v>
       </c>
       <c r="I23" s="15" t="s">
-        <v>281</v>
+        <v>305</v>
       </c>
       <c r="J23" s="15" t="s">
-        <v>282</v>
+        <v>306</v>
       </c>
       <c r="K23" s="16" t="s">
-        <v>283</v>
+        <v>307</v>
       </c>
       <c r="L23" s="16" t="s">
-        <v>284</v>
+        <v>308</v>
       </c>
       <c r="M23" s="16" t="s">
-        <v>285</v>
+        <v>309</v>
       </c>
       <c r="N23" s="16" t="s">
-        <v>283</v>
+        <v>307</v>
       </c>
       <c r="O23" s="16" t="s">
-        <v>286</v>
+        <v>310</v>
       </c>
       <c r="P23" s="16" t="s">
-        <v>287</v>
+        <v>311</v>
       </c>
       <c r="Q23" s="16" t="s">
-        <v>288</v>
+        <v>312</v>
       </c>
       <c r="R23" s="16" t="s">
-        <v>289</v>
+        <v>313</v>
       </c>
       <c r="S23" s="16" t="s">
-        <v>290</v>
+        <v>314</v>
       </c>
       <c r="T23" s="16" t="s">
-        <v>291</v>
+        <v>315</v>
       </c>
       <c r="U23" s="16" t="s">
-        <v>292</v>
+        <v>316</v>
       </c>
       <c r="V23" s="16" t="s">
-        <v>293</v>
+        <v>317</v>
       </c>
       <c r="W23" s="16" t="s">
-        <v>294</v>
+        <v>318</v>
       </c>
       <c r="X23" s="16" t="s">
-        <v>295</v>
+        <v>319</v>
       </c>
       <c r="Y23" s="16" t="s">
-        <v>296</v>
+        <v>320</v>
       </c>
       <c r="Z23" s="16" t="s">
-        <v>297</v>
+        <v>321</v>
       </c>
       <c r="AA23" s="16" t="s">
-        <v>274</v>
+        <v>298</v>
       </c>
       <c r="AB23" s="17" t="s">
-        <v>275</v>
+        <v>299</v>
       </c>
     </row>
     <row r="24" s="19" customFormat="true" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="18" t="s">
-        <v>298</v>
+        <v>322</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>299</v>
+        <v>323</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>300</v>
+        <v>324</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>301</v>
+        <v>325</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>302</v>
+        <v>326</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>303</v>
+        <v>327</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>304</v>
+        <v>328</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>305</v>
+        <v>329</v>
       </c>
       <c r="I24" s="15" t="s">
-        <v>306</v>
+        <v>330</v>
       </c>
       <c r="J24" s="15" t="s">
-        <v>307</v>
+        <v>331</v>
       </c>
       <c r="K24" s="16" t="s">
-        <v>308</v>
+        <v>332</v>
       </c>
       <c r="L24" s="16" t="s">
-        <v>309</v>
+        <v>333</v>
       </c>
       <c r="M24" s="16" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="N24" s="16" t="s">
-        <v>308</v>
+        <v>332</v>
       </c>
       <c r="O24" s="16" t="s">
-        <v>311</v>
+        <v>335</v>
       </c>
       <c r="P24" s="16" t="s">
-        <v>312</v>
+        <v>336</v>
       </c>
       <c r="Q24" s="16" t="s">
-        <v>313</v>
+        <v>337</v>
       </c>
       <c r="R24" s="16" t="s">
-        <v>314</v>
+        <v>338</v>
       </c>
       <c r="S24" s="16" t="s">
-        <v>315</v>
+        <v>339</v>
       </c>
       <c r="T24" s="16" t="s">
-        <v>316</v>
+        <v>340</v>
       </c>
       <c r="U24" s="16" t="s">
-        <v>317</v>
+        <v>341</v>
       </c>
       <c r="V24" s="16" t="s">
-        <v>318</v>
+        <v>342</v>
       </c>
       <c r="W24" s="16" t="s">
-        <v>319</v>
+        <v>343</v>
       </c>
       <c r="X24" s="16" t="s">
-        <v>320</v>
+        <v>344</v>
       </c>
       <c r="Y24" s="16" t="s">
-        <v>321</v>
+        <v>345</v>
       </c>
       <c r="Z24" s="16" t="s">
-        <v>322</v>
+        <v>346</v>
       </c>
       <c r="AA24" s="16" t="s">
-        <v>299</v>
+        <v>323</v>
       </c>
       <c r="AB24" s="17" t="s">
-        <v>300</v>
+        <v>324</v>
       </c>
     </row>
     <row r="25" s="19" customFormat="true" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="18" t="s">
-        <v>323</v>
+        <v>347</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>324</v>
+        <v>348</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>325</v>
+        <v>349</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>326</v>
+        <v>350</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>327</v>
+        <v>351</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>328</v>
+        <v>352</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>329</v>
+        <v>353</v>
       </c>
       <c r="H25" s="15" t="s">
-        <v>330</v>
+        <v>354</v>
       </c>
       <c r="I25" s="15" t="s">
-        <v>331</v>
+        <v>355</v>
       </c>
       <c r="J25" s="15" t="s">
-        <v>332</v>
+        <v>356</v>
       </c>
       <c r="K25" s="16" t="s">
-        <v>333</v>
+        <v>357</v>
       </c>
       <c r="L25" s="16" t="s">
-        <v>334</v>
+        <v>358</v>
       </c>
       <c r="M25" s="16" t="s">
-        <v>335</v>
+        <v>359</v>
       </c>
       <c r="N25" s="16" t="s">
-        <v>333</v>
+        <v>357</v>
       </c>
       <c r="O25" s="16" t="s">
-        <v>336</v>
+        <v>360</v>
       </c>
       <c r="P25" s="16" t="s">
-        <v>337</v>
+        <v>361</v>
       </c>
       <c r="Q25" s="16" t="s">
-        <v>338</v>
+        <v>362</v>
       </c>
       <c r="R25" s="16" t="s">
-        <v>339</v>
+        <v>363</v>
       </c>
       <c r="S25" s="16" t="s">
-        <v>340</v>
+        <v>364</v>
       </c>
       <c r="T25" s="16" t="s">
-        <v>341</v>
+        <v>365</v>
       </c>
       <c r="U25" s="16" t="s">
-        <v>342</v>
+        <v>366</v>
       </c>
       <c r="V25" s="16" t="s">
-        <v>343</v>
+        <v>367</v>
       </c>
       <c r="W25" s="16" t="s">
-        <v>344</v>
+        <v>368</v>
       </c>
       <c r="X25" s="16" t="s">
-        <v>345</v>
+        <v>369</v>
       </c>
       <c r="Y25" s="16" t="s">
-        <v>346</v>
+        <v>370</v>
       </c>
       <c r="Z25" s="16" t="s">
-        <v>347</v>
+        <v>371</v>
       </c>
       <c r="AA25" s="16" t="s">
-        <v>324</v>
+        <v>348</v>
       </c>
       <c r="AB25" s="17" t="s">
-        <v>325</v>
+        <v>349</v>
       </c>
     </row>
     <row r="26" s="19" customFormat="true" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="18" t="s">
-        <v>348</v>
+        <v>372</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>349</v>
+        <v>373</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>350</v>
+        <v>374</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>351</v>
+        <v>375</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>352</v>
+        <v>376</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>353</v>
+        <v>377</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>354</v>
+        <v>378</v>
       </c>
       <c r="H26" s="15" t="s">
-        <v>355</v>
+        <v>379</v>
       </c>
       <c r="I26" s="15" t="s">
-        <v>356</v>
+        <v>380</v>
       </c>
       <c r="J26" s="15" t="s">
-        <v>357</v>
+        <v>381</v>
       </c>
       <c r="K26" s="16" t="s">
-        <v>358</v>
+        <v>382</v>
       </c>
       <c r="L26" s="16" t="s">
-        <v>359</v>
+        <v>383</v>
       </c>
       <c r="M26" s="16" t="s">
-        <v>360</v>
+        <v>384</v>
       </c>
       <c r="N26" s="16" t="s">
-        <v>358</v>
+        <v>382</v>
       </c>
       <c r="O26" s="16" t="s">
-        <v>361</v>
+        <v>385</v>
       </c>
       <c r="P26" s="16" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="Q26" s="16" t="s">
-        <v>363</v>
+        <v>387</v>
       </c>
       <c r="R26" s="16" t="s">
-        <v>364</v>
+        <v>388</v>
       </c>
       <c r="S26" s="16" t="s">
-        <v>365</v>
+        <v>389</v>
       </c>
       <c r="T26" s="16" t="s">
-        <v>366</v>
+        <v>390</v>
       </c>
       <c r="U26" s="16" t="s">
-        <v>367</v>
+        <v>391</v>
       </c>
       <c r="V26" s="16" t="s">
-        <v>368</v>
+        <v>392</v>
       </c>
       <c r="W26" s="16" t="s">
-        <v>369</v>
+        <v>393</v>
       </c>
       <c r="X26" s="16" t="s">
-        <v>370</v>
+        <v>394</v>
       </c>
       <c r="Y26" s="16" t="s">
-        <v>371</v>
+        <v>395</v>
       </c>
       <c r="Z26" s="16" t="s">
-        <v>372</v>
+        <v>396</v>
       </c>
       <c r="AA26" s="16" t="s">
-        <v>349</v>
+        <v>373</v>
       </c>
       <c r="AB26" s="17" t="s">
-        <v>350</v>
+        <v>374</v>
       </c>
     </row>
     <row r="27" s="19" customFormat="true" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="18" t="s">
-        <v>373</v>
+        <v>397</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>374</v>
+        <v>398</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>375</v>
+        <v>399</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>376</v>
+        <v>400</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>377</v>
+        <v>401</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>378</v>
+        <v>402</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>379</v>
+        <v>403</v>
       </c>
       <c r="H27" s="15" t="s">
-        <v>380</v>
+        <v>404</v>
       </c>
       <c r="I27" s="15" t="s">
-        <v>381</v>
+        <v>405</v>
       </c>
       <c r="J27" s="15" t="s">
-        <v>382</v>
+        <v>406</v>
       </c>
       <c r="K27" s="16" t="s">
-        <v>383</v>
+        <v>407</v>
       </c>
       <c r="L27" s="16" t="s">
-        <v>384</v>
+        <v>408</v>
       </c>
       <c r="M27" s="16" t="s">
-        <v>385</v>
+        <v>409</v>
       </c>
       <c r="N27" s="16" t="s">
-        <v>383</v>
+        <v>407</v>
       </c>
       <c r="O27" s="16" t="s">
-        <v>386</v>
+        <v>410</v>
       </c>
       <c r="P27" s="16" t="s">
-        <v>387</v>
+        <v>411</v>
       </c>
       <c r="Q27" s="16" t="s">
-        <v>388</v>
+        <v>412</v>
       </c>
       <c r="R27" s="16" t="s">
-        <v>389</v>
+        <v>413</v>
       </c>
       <c r="S27" s="16" t="s">
-        <v>390</v>
+        <v>414</v>
       </c>
       <c r="T27" s="16" t="s">
-        <v>391</v>
+        <v>415</v>
       </c>
       <c r="U27" s="16" t="s">
-        <v>392</v>
+        <v>416</v>
       </c>
       <c r="V27" s="16" t="s">
-        <v>393</v>
+        <v>417</v>
       </c>
       <c r="W27" s="16" t="s">
-        <v>394</v>
+        <v>418</v>
       </c>
       <c r="X27" s="16" t="s">
-        <v>395</v>
+        <v>419</v>
       </c>
       <c r="Y27" s="16" t="s">
-        <v>396</v>
+        <v>420</v>
       </c>
       <c r="Z27" s="16" t="s">
-        <v>397</v>
+        <v>421</v>
       </c>
       <c r="AA27" s="16" t="s">
-        <v>374</v>
+        <v>398</v>
       </c>
       <c r="AB27" s="17" t="s">
-        <v>375</v>
+        <v>399</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="63.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="31" t="s">
-        <v>398</v>
+      <c r="A28" s="29" t="s">
+        <v>422</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>399</v>
+        <v>423</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>400</v>
+        <v>424</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>401</v>
+        <v>425</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>402</v>
+        <v>426</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>403</v>
+        <v>427</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>404</v>
+        <v>428</v>
       </c>
       <c r="H28" s="15" t="s">
-        <v>405</v>
+        <v>429</v>
       </c>
       <c r="I28" s="15" t="s">
-        <v>406</v>
+        <v>430</v>
       </c>
       <c r="J28" s="15" t="s">
-        <v>407</v>
+        <v>431</v>
       </c>
       <c r="K28" s="16" t="s">
-        <v>408</v>
+        <v>432</v>
       </c>
       <c r="L28" s="16" t="s">
-        <v>409</v>
+        <v>433</v>
       </c>
       <c r="M28" s="16" t="s">
-        <v>410</v>
+        <v>434</v>
       </c>
       <c r="N28" s="16" t="s">
-        <v>408</v>
+        <v>432</v>
       </c>
       <c r="O28" s="16" t="s">
-        <v>411</v>
+        <v>435</v>
       </c>
       <c r="P28" s="16" t="s">
-        <v>412</v>
+        <v>436</v>
       </c>
       <c r="Q28" s="16" t="s">
-        <v>413</v>
+        <v>437</v>
       </c>
       <c r="R28" s="16" t="s">
-        <v>414</v>
+        <v>438</v>
       </c>
       <c r="S28" s="16" t="s">
-        <v>415</v>
+        <v>439</v>
       </c>
       <c r="T28" s="16" t="s">
-        <v>416</v>
+        <v>440</v>
       </c>
       <c r="U28" s="16" t="s">
-        <v>417</v>
+        <v>441</v>
       </c>
       <c r="V28" s="16" t="s">
-        <v>418</v>
+        <v>442</v>
       </c>
       <c r="W28" s="16" t="s">
-        <v>419</v>
+        <v>443</v>
       </c>
       <c r="X28" s="16" t="s">
-        <v>420</v>
+        <v>444</v>
       </c>
       <c r="Y28" s="16" t="s">
-        <v>421</v>
+        <v>445</v>
       </c>
       <c r="Z28" s="16" t="s">
-        <v>422</v>
+        <v>446</v>
       </c>
       <c r="AA28" s="16" t="s">
-        <v>399</v>
+        <v>423</v>
       </c>
       <c r="AB28" s="17" t="s">
-        <v>400</v>
+        <v>424</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="58.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="31" t="s">
-        <v>423</v>
+      <c r="A29" s="29" t="s">
+        <v>447</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>424</v>
+        <v>448</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>425</v>
+        <v>449</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>426</v>
+        <v>450</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>427</v>
+        <v>451</v>
       </c>
       <c r="F29" s="15" t="s">
-        <v>428</v>
+        <v>452</v>
       </c>
       <c r="G29" s="15" t="s">
-        <v>429</v>
+        <v>453</v>
       </c>
       <c r="H29" s="15" t="s">
-        <v>430</v>
+        <v>454</v>
       </c>
       <c r="I29" s="15" t="s">
-        <v>431</v>
+        <v>455</v>
       </c>
       <c r="J29" s="15" t="s">
-        <v>432</v>
+        <v>456</v>
       </c>
       <c r="K29" s="16" t="s">
-        <v>433</v>
+        <v>457</v>
       </c>
       <c r="L29" s="16" t="s">
-        <v>434</v>
+        <v>458</v>
       </c>
       <c r="M29" s="16" t="s">
-        <v>435</v>
+        <v>459</v>
       </c>
       <c r="N29" s="16" t="s">
-        <v>433</v>
+        <v>457</v>
       </c>
       <c r="O29" s="16" t="s">
-        <v>436</v>
+        <v>460</v>
       </c>
       <c r="P29" s="16" t="s">
-        <v>437</v>
+        <v>461</v>
       </c>
       <c r="Q29" s="16" t="s">
-        <v>438</v>
+        <v>462</v>
       </c>
       <c r="R29" s="16" t="s">
-        <v>439</v>
+        <v>463</v>
       </c>
       <c r="S29" s="16" t="s">
-        <v>440</v>
+        <v>464</v>
       </c>
       <c r="T29" s="16" t="s">
-        <v>441</v>
+        <v>465</v>
       </c>
       <c r="U29" s="16" t="s">
-        <v>442</v>
+        <v>466</v>
       </c>
       <c r="V29" s="16" t="s">
-        <v>443</v>
+        <v>467</v>
       </c>
       <c r="W29" s="16" t="s">
-        <v>444</v>
+        <v>468</v>
       </c>
       <c r="X29" s="16" t="s">
-        <v>445</v>
+        <v>469</v>
       </c>
       <c r="Y29" s="16" t="s">
-        <v>446</v>
+        <v>470</v>
       </c>
       <c r="Z29" s="16" t="s">
-        <v>447</v>
+        <v>471</v>
       </c>
       <c r="AA29" s="16" t="s">
-        <v>424</v>
+        <v>448</v>
       </c>
       <c r="AB29" s="17" t="s">
-        <v>425</v>
+        <v>449</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="65.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="31" t="s">
-        <v>448</v>
+      <c r="A30" s="29" t="s">
+        <v>472</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>449</v>
+        <v>473</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>450</v>
+        <v>474</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>451</v>
+        <v>475</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>452</v>
+        <v>476</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>453</v>
+        <v>477</v>
       </c>
       <c r="G30" s="15" t="s">
-        <v>454</v>
+        <v>478</v>
       </c>
       <c r="H30" s="15" t="s">
-        <v>455</v>
+        <v>479</v>
       </c>
       <c r="I30" s="15" t="s">
-        <v>456</v>
+        <v>480</v>
       </c>
       <c r="J30" s="15" t="s">
-        <v>457</v>
+        <v>481</v>
       </c>
       <c r="K30" s="16" t="s">
-        <v>458</v>
+        <v>482</v>
       </c>
       <c r="L30" s="16" t="s">
-        <v>459</v>
+        <v>483</v>
       </c>
       <c r="M30" s="16" t="s">
-        <v>460</v>
+        <v>484</v>
       </c>
       <c r="N30" s="16" t="s">
-        <v>458</v>
+        <v>482</v>
       </c>
       <c r="O30" s="16" t="s">
-        <v>461</v>
+        <v>485</v>
       </c>
       <c r="P30" s="16" t="s">
-        <v>462</v>
+        <v>486</v>
       </c>
       <c r="Q30" s="16" t="s">
-        <v>463</v>
+        <v>487</v>
       </c>
       <c r="R30" s="16" t="s">
-        <v>464</v>
+        <v>488</v>
       </c>
       <c r="S30" s="16" t="s">
-        <v>465</v>
+        <v>489</v>
       </c>
       <c r="T30" s="16" t="s">
-        <v>466</v>
+        <v>490</v>
       </c>
       <c r="U30" s="16" t="s">
-        <v>467</v>
+        <v>491</v>
       </c>
       <c r="V30" s="16" t="s">
-        <v>468</v>
+        <v>492</v>
       </c>
       <c r="W30" s="16" t="s">
-        <v>469</v>
+        <v>493</v>
       </c>
       <c r="X30" s="16" t="s">
-        <v>470</v>
+        <v>494</v>
       </c>
       <c r="Y30" s="16" t="s">
-        <v>471</v>
+        <v>495</v>
       </c>
       <c r="Z30" s="16" t="s">
-        <v>472</v>
+        <v>496</v>
       </c>
       <c r="AA30" s="16" t="s">
-        <v>449</v>
+        <v>473</v>
       </c>
       <c r="AB30" s="17" t="s">
-        <v>450</v>
+        <v>474</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="70.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="32" t="s">
-        <v>473</v>
+      <c r="A31" s="30" t="s">
+        <v>497</v>
       </c>
       <c r="B31" s="15"/>
       <c r="C31" s="15"/>
       <c r="D31" s="15"/>
       <c r="E31" s="15"/>
-      <c r="F31" s="25"/>
+      <c r="F31" s="31"/>
       <c r="G31" s="16"/>
       <c r="H31" s="16"/>
       <c r="I31" s="16"/>
@@ -4844,265 +4970,265 @@
       <c r="X31" s="16"/>
       <c r="Y31" s="16"/>
       <c r="Z31" s="16"/>
-      <c r="AA31" s="25"/>
-      <c r="AB31" s="26"/>
+      <c r="AA31" s="31"/>
+      <c r="AB31" s="32"/>
     </row>
     <row r="32" customFormat="false" ht="52.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="32" t="s">
-        <v>474</v>
+      <c r="A32" s="30" t="s">
+        <v>498</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>475</v>
+        <v>499</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>476</v>
+        <v>500</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>477</v>
+        <v>501</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>478</v>
+        <v>502</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>479</v>
+        <v>503</v>
       </c>
       <c r="G32" s="15" t="s">
-        <v>480</v>
+        <v>504</v>
       </c>
       <c r="H32" s="15" t="s">
-        <v>481</v>
+        <v>505</v>
       </c>
       <c r="I32" s="15" t="s">
-        <v>482</v>
+        <v>506</v>
       </c>
       <c r="J32" s="15" t="s">
-        <v>483</v>
+        <v>507</v>
       </c>
       <c r="K32" s="16" t="s">
-        <v>484</v>
+        <v>508</v>
       </c>
       <c r="L32" s="16" t="s">
-        <v>485</v>
+        <v>509</v>
       </c>
       <c r="M32" s="16" t="s">
-        <v>486</v>
+        <v>510</v>
       </c>
       <c r="N32" s="16" t="s">
-        <v>484</v>
+        <v>508</v>
       </c>
       <c r="O32" s="16" t="s">
-        <v>487</v>
+        <v>511</v>
       </c>
       <c r="P32" s="16" t="s">
-        <v>488</v>
+        <v>512</v>
       </c>
       <c r="Q32" s="16" t="s">
-        <v>489</v>
+        <v>513</v>
       </c>
       <c r="R32" s="16" t="s">
-        <v>490</v>
+        <v>514</v>
       </c>
       <c r="S32" s="16" t="s">
-        <v>491</v>
+        <v>515</v>
       </c>
       <c r="T32" s="16" t="s">
-        <v>492</v>
+        <v>516</v>
       </c>
       <c r="U32" s="16" t="s">
-        <v>493</v>
+        <v>517</v>
       </c>
       <c r="V32" s="16" t="s">
-        <v>494</v>
+        <v>518</v>
       </c>
       <c r="W32" s="16" t="s">
-        <v>495</v>
+        <v>519</v>
       </c>
       <c r="X32" s="16" t="s">
-        <v>496</v>
+        <v>520</v>
       </c>
       <c r="Y32" s="16" t="s">
-        <v>497</v>
+        <v>521</v>
       </c>
       <c r="Z32" s="16" t="s">
-        <v>498</v>
+        <v>522</v>
       </c>
       <c r="AA32" s="16" t="s">
-        <v>475</v>
+        <v>499</v>
       </c>
       <c r="AB32" s="17" t="s">
-        <v>476</v>
+        <v>500</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="59.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="32" t="s">
-        <v>499</v>
+      <c r="A33" s="30" t="s">
+        <v>523</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>500</v>
+        <v>524</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>501</v>
+        <v>525</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>502</v>
+        <v>526</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>503</v>
+        <v>527</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>504</v>
+        <v>528</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>505</v>
+        <v>529</v>
       </c>
       <c r="H33" s="15" t="s">
-        <v>506</v>
+        <v>530</v>
       </c>
       <c r="I33" s="15" t="s">
-        <v>507</v>
+        <v>531</v>
       </c>
       <c r="J33" s="15" t="s">
-        <v>508</v>
+        <v>532</v>
       </c>
       <c r="K33" s="16" t="s">
-        <v>509</v>
+        <v>533</v>
       </c>
       <c r="L33" s="16" t="s">
-        <v>510</v>
+        <v>534</v>
       </c>
       <c r="M33" s="16" t="s">
-        <v>511</v>
+        <v>535</v>
       </c>
       <c r="N33" s="16" t="s">
-        <v>509</v>
+        <v>533</v>
       </c>
       <c r="O33" s="16" t="s">
-        <v>512</v>
+        <v>536</v>
       </c>
       <c r="P33" s="16" t="s">
-        <v>513</v>
+        <v>537</v>
       </c>
       <c r="Q33" s="16" t="s">
-        <v>514</v>
+        <v>538</v>
       </c>
       <c r="R33" s="16" t="s">
-        <v>515</v>
+        <v>539</v>
       </c>
       <c r="S33" s="16" t="s">
-        <v>516</v>
+        <v>540</v>
       </c>
       <c r="T33" s="16" t="s">
-        <v>517</v>
+        <v>541</v>
       </c>
       <c r="U33" s="16" t="s">
-        <v>518</v>
+        <v>542</v>
       </c>
       <c r="V33" s="16" t="s">
-        <v>519</v>
+        <v>543</v>
       </c>
       <c r="W33" s="16" t="s">
-        <v>520</v>
+        <v>544</v>
       </c>
       <c r="X33" s="16" t="s">
-        <v>521</v>
+        <v>545</v>
       </c>
       <c r="Y33" s="16" t="s">
-        <v>522</v>
+        <v>546</v>
       </c>
       <c r="Z33" s="16" t="s">
-        <v>523</v>
+        <v>547</v>
       </c>
       <c r="AA33" s="16" t="s">
-        <v>500</v>
+        <v>524</v>
       </c>
       <c r="AB33" s="17" t="s">
-        <v>501</v>
+        <v>525</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="54.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="27" t="s">
-        <v>524</v>
-      </c>
-      <c r="B34" s="28" t="s">
-        <v>525</v>
-      </c>
-      <c r="C34" s="28" t="s">
-        <v>526</v>
-      </c>
-      <c r="D34" s="28" t="s">
-        <v>527</v>
-      </c>
-      <c r="E34" s="28" t="s">
-        <v>528</v>
-      </c>
-      <c r="F34" s="28" t="s">
-        <v>529</v>
-      </c>
-      <c r="G34" s="28" t="s">
-        <v>530</v>
-      </c>
-      <c r="H34" s="28" t="s">
-        <v>531</v>
-      </c>
-      <c r="I34" s="28" t="s">
-        <v>532</v>
-      </c>
-      <c r="J34" s="28" t="s">
-        <v>533</v>
-      </c>
-      <c r="K34" s="29" t="s">
-        <v>534</v>
-      </c>
-      <c r="L34" s="29" t="s">
-        <v>535</v>
-      </c>
-      <c r="M34" s="29" t="s">
-        <v>536</v>
-      </c>
-      <c r="N34" s="29" t="s">
-        <v>534</v>
-      </c>
-      <c r="O34" s="29" t="s">
-        <v>537</v>
-      </c>
-      <c r="P34" s="29" t="s">
-        <v>538</v>
-      </c>
-      <c r="Q34" s="29" t="s">
-        <v>539</v>
-      </c>
-      <c r="R34" s="29" t="s">
-        <v>540</v>
-      </c>
-      <c r="S34" s="29" t="s">
-        <v>541</v>
-      </c>
-      <c r="T34" s="29" t="s">
-        <v>542</v>
-      </c>
-      <c r="U34" s="29" t="s">
-        <v>543</v>
-      </c>
-      <c r="V34" s="29" t="s">
-        <v>544</v>
-      </c>
-      <c r="W34" s="29" t="s">
-        <v>545</v>
-      </c>
-      <c r="X34" s="29" t="s">
-        <v>546</v>
-      </c>
-      <c r="Y34" s="29" t="s">
-        <v>547</v>
-      </c>
-      <c r="Z34" s="29" t="s">
+      <c r="A34" s="25" t="s">
         <v>548</v>
       </c>
-      <c r="AA34" s="29" t="s">
-        <v>525</v>
-      </c>
-      <c r="AB34" s="30" t="s">
-        <v>526</v>
+      <c r="B34" s="26" t="s">
+        <v>549</v>
+      </c>
+      <c r="C34" s="26" t="s">
+        <v>550</v>
+      </c>
+      <c r="D34" s="26" t="s">
+        <v>551</v>
+      </c>
+      <c r="E34" s="26" t="s">
+        <v>552</v>
+      </c>
+      <c r="F34" s="26" t="s">
+        <v>553</v>
+      </c>
+      <c r="G34" s="26" t="s">
+        <v>554</v>
+      </c>
+      <c r="H34" s="26" t="s">
+        <v>555</v>
+      </c>
+      <c r="I34" s="26" t="s">
+        <v>556</v>
+      </c>
+      <c r="J34" s="26" t="s">
+        <v>557</v>
+      </c>
+      <c r="K34" s="27" t="s">
+        <v>558</v>
+      </c>
+      <c r="L34" s="27" t="s">
+        <v>559</v>
+      </c>
+      <c r="M34" s="27" t="s">
+        <v>560</v>
+      </c>
+      <c r="N34" s="27" t="s">
+        <v>558</v>
+      </c>
+      <c r="O34" s="27" t="s">
+        <v>561</v>
+      </c>
+      <c r="P34" s="27" t="s">
+        <v>562</v>
+      </c>
+      <c r="Q34" s="27" t="s">
+        <v>563</v>
+      </c>
+      <c r="R34" s="27" t="s">
+        <v>564</v>
+      </c>
+      <c r="S34" s="27" t="s">
+        <v>565</v>
+      </c>
+      <c r="T34" s="27" t="s">
+        <v>566</v>
+      </c>
+      <c r="U34" s="27" t="s">
+        <v>567</v>
+      </c>
+      <c r="V34" s="27" t="s">
+        <v>568</v>
+      </c>
+      <c r="W34" s="27" t="s">
+        <v>569</v>
+      </c>
+      <c r="X34" s="27" t="s">
+        <v>570</v>
+      </c>
+      <c r="Y34" s="27" t="s">
+        <v>571</v>
+      </c>
+      <c r="Z34" s="27" t="s">
+        <v>572</v>
+      </c>
+      <c r="AA34" s="27" t="s">
+        <v>549</v>
+      </c>
+      <c r="AB34" s="28" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5111,7 +5237,7 @@
       <c r="C35" s="15"/>
       <c r="D35" s="15"/>
       <c r="E35" s="15"/>
-      <c r="F35" s="25"/>
+      <c r="F35" s="31"/>
       <c r="G35" s="16"/>
       <c r="H35" s="16"/>
       <c r="I35" s="16"/>
@@ -5132,437 +5258,437 @@
       <c r="X35" s="16"/>
       <c r="Y35" s="16"/>
       <c r="Z35" s="16"/>
-      <c r="AA35" s="25"/>
-      <c r="AB35" s="26"/>
+      <c r="AA35" s="31"/>
+      <c r="AB35" s="32"/>
     </row>
     <row r="36" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="18" t="s">
-        <v>549</v>
+        <v>573</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>550</v>
+        <v>574</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>551</v>
+        <v>575</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>552</v>
+        <v>576</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>553</v>
+        <v>577</v>
       </c>
       <c r="F36" s="15" t="s">
-        <v>554</v>
+        <v>578</v>
       </c>
       <c r="G36" s="15" t="s">
-        <v>555</v>
+        <v>579</v>
       </c>
       <c r="H36" s="15" t="s">
-        <v>556</v>
+        <v>580</v>
       </c>
       <c r="I36" s="15" t="s">
-        <v>557</v>
+        <v>581</v>
       </c>
       <c r="J36" s="15" t="s">
-        <v>558</v>
+        <v>582</v>
       </c>
       <c r="K36" s="16" t="s">
-        <v>559</v>
+        <v>583</v>
       </c>
       <c r="L36" s="16" t="s">
-        <v>560</v>
+        <v>584</v>
       </c>
       <c r="M36" s="16" t="s">
-        <v>561</v>
+        <v>585</v>
       </c>
       <c r="N36" s="16" t="s">
-        <v>559</v>
+        <v>583</v>
       </c>
       <c r="O36" s="16" t="s">
-        <v>562</v>
+        <v>586</v>
       </c>
       <c r="P36" s="16" t="s">
-        <v>563</v>
+        <v>587</v>
       </c>
       <c r="Q36" s="16" t="s">
-        <v>564</v>
+        <v>588</v>
       </c>
       <c r="R36" s="16" t="s">
-        <v>565</v>
+        <v>589</v>
       </c>
       <c r="S36" s="16" t="s">
-        <v>566</v>
+        <v>590</v>
       </c>
       <c r="T36" s="16" t="s">
-        <v>567</v>
+        <v>591</v>
       </c>
       <c r="U36" s="16" t="s">
-        <v>568</v>
+        <v>592</v>
       </c>
       <c r="V36" s="16" t="s">
-        <v>569</v>
+        <v>593</v>
       </c>
       <c r="W36" s="16" t="s">
-        <v>570</v>
+        <v>594</v>
       </c>
       <c r="X36" s="16" t="s">
-        <v>571</v>
+        <v>595</v>
       </c>
       <c r="Y36" s="16" t="s">
-        <v>572</v>
+        <v>596</v>
       </c>
       <c r="Z36" s="16" t="s">
-        <v>573</v>
+        <v>597</v>
       </c>
       <c r="AA36" s="16" t="s">
-        <v>550</v>
+        <v>574</v>
       </c>
       <c r="AB36" s="17" t="s">
-        <v>551</v>
+        <v>575</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="53.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="18" t="s">
-        <v>574</v>
+        <v>598</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>575</v>
+        <v>599</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>576</v>
+        <v>600</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>577</v>
+        <v>601</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>578</v>
+        <v>602</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>579</v>
+        <v>603</v>
       </c>
       <c r="G37" s="15" t="s">
-        <v>580</v>
+        <v>604</v>
       </c>
       <c r="H37" s="15" t="s">
-        <v>581</v>
+        <v>605</v>
       </c>
       <c r="I37" s="15" t="s">
-        <v>582</v>
+        <v>606</v>
       </c>
       <c r="J37" s="15" t="s">
-        <v>583</v>
+        <v>607</v>
       </c>
       <c r="K37" s="16" t="s">
-        <v>584</v>
+        <v>608</v>
       </c>
       <c r="L37" s="16" t="s">
-        <v>585</v>
+        <v>609</v>
       </c>
       <c r="M37" s="16" t="s">
-        <v>586</v>
+        <v>610</v>
       </c>
       <c r="N37" s="16" t="s">
-        <v>584</v>
+        <v>608</v>
       </c>
       <c r="O37" s="16" t="s">
-        <v>587</v>
+        <v>611</v>
       </c>
       <c r="P37" s="16" t="s">
-        <v>588</v>
+        <v>612</v>
       </c>
       <c r="Q37" s="16" t="s">
-        <v>589</v>
+        <v>613</v>
       </c>
       <c r="R37" s="16" t="s">
-        <v>590</v>
+        <v>614</v>
       </c>
       <c r="S37" s="16" t="s">
-        <v>591</v>
+        <v>615</v>
       </c>
       <c r="T37" s="16" t="s">
-        <v>592</v>
+        <v>616</v>
       </c>
       <c r="U37" s="16" t="s">
-        <v>593</v>
+        <v>617</v>
       </c>
       <c r="V37" s="16" t="s">
-        <v>594</v>
+        <v>618</v>
       </c>
       <c r="W37" s="16" t="s">
-        <v>595</v>
+        <v>619</v>
       </c>
       <c r="X37" s="16" t="s">
-        <v>596</v>
+        <v>620</v>
       </c>
       <c r="Y37" s="16" t="s">
-        <v>597</v>
+        <v>621</v>
       </c>
       <c r="Z37" s="16" t="s">
-        <v>598</v>
+        <v>622</v>
       </c>
       <c r="AA37" s="16" t="s">
-        <v>575</v>
+        <v>599</v>
       </c>
       <c r="AB37" s="17" t="s">
-        <v>576</v>
+        <v>600</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="47" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="18" t="s">
-        <v>599</v>
+        <v>623</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>600</v>
+        <v>624</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>601</v>
+        <v>625</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>602</v>
+        <v>626</v>
       </c>
       <c r="E38" s="15" t="s">
-        <v>603</v>
+        <v>627</v>
       </c>
       <c r="F38" s="15" t="s">
-        <v>604</v>
+        <v>628</v>
       </c>
       <c r="G38" s="15" t="s">
-        <v>605</v>
+        <v>629</v>
       </c>
       <c r="H38" s="15" t="s">
-        <v>606</v>
+        <v>630</v>
       </c>
       <c r="I38" s="15" t="s">
-        <v>607</v>
+        <v>631</v>
       </c>
       <c r="J38" s="15" t="s">
-        <v>608</v>
+        <v>632</v>
       </c>
       <c r="K38" s="16" t="s">
-        <v>609</v>
+        <v>633</v>
       </c>
       <c r="L38" s="16" t="s">
-        <v>610</v>
+        <v>634</v>
       </c>
       <c r="M38" s="16" t="s">
-        <v>611</v>
+        <v>635</v>
       </c>
       <c r="N38" s="16" t="s">
-        <v>609</v>
+        <v>633</v>
       </c>
       <c r="O38" s="16" t="s">
-        <v>612</v>
+        <v>636</v>
       </c>
       <c r="P38" s="16" t="s">
-        <v>613</v>
+        <v>637</v>
       </c>
       <c r="Q38" s="16" t="s">
-        <v>614</v>
+        <v>638</v>
       </c>
       <c r="R38" s="16" t="s">
-        <v>615</v>
+        <v>639</v>
       </c>
       <c r="S38" s="16" t="s">
-        <v>616</v>
+        <v>640</v>
       </c>
       <c r="T38" s="16" t="s">
-        <v>617</v>
+        <v>641</v>
       </c>
       <c r="U38" s="16" t="s">
-        <v>618</v>
+        <v>642</v>
       </c>
       <c r="V38" s="16" t="s">
-        <v>619</v>
+        <v>643</v>
       </c>
       <c r="W38" s="16" t="s">
-        <v>620</v>
+        <v>644</v>
       </c>
       <c r="X38" s="16" t="s">
-        <v>621</v>
+        <v>645</v>
       </c>
       <c r="Y38" s="16" t="s">
-        <v>622</v>
+        <v>646</v>
       </c>
       <c r="Z38" s="16" t="s">
-        <v>623</v>
+        <v>647</v>
       </c>
       <c r="AA38" s="16" t="s">
-        <v>600</v>
+        <v>624</v>
       </c>
       <c r="AB38" s="17" t="s">
-        <v>601</v>
+        <v>625</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="14" t="s">
-        <v>624</v>
+        <v>648</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>625</v>
+        <v>649</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>626</v>
+        <v>650</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>627</v>
+        <v>651</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>628</v>
+        <v>652</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>629</v>
+        <v>653</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>630</v>
+        <v>654</v>
       </c>
       <c r="H39" s="15" t="s">
-        <v>631</v>
+        <v>655</v>
       </c>
       <c r="I39" s="15" t="s">
-        <v>632</v>
+        <v>656</v>
       </c>
       <c r="J39" s="15" t="s">
-        <v>633</v>
+        <v>657</v>
       </c>
       <c r="K39" s="16" t="s">
-        <v>634</v>
+        <v>658</v>
       </c>
       <c r="L39" s="16" t="s">
-        <v>635</v>
+        <v>659</v>
       </c>
       <c r="M39" s="16" t="s">
-        <v>636</v>
+        <v>660</v>
       </c>
       <c r="N39" s="16" t="s">
-        <v>634</v>
+        <v>658</v>
       </c>
       <c r="O39" s="16" t="s">
-        <v>637</v>
+        <v>661</v>
       </c>
       <c r="P39" s="16" t="s">
-        <v>638</v>
+        <v>662</v>
       </c>
       <c r="Q39" s="16" t="s">
-        <v>639</v>
+        <v>663</v>
       </c>
       <c r="R39" s="16" t="s">
-        <v>640</v>
+        <v>664</v>
       </c>
       <c r="S39" s="16" t="s">
-        <v>641</v>
+        <v>665</v>
       </c>
       <c r="T39" s="16" t="s">
-        <v>642</v>
+        <v>666</v>
       </c>
       <c r="U39" s="16" t="s">
-        <v>643</v>
+        <v>667</v>
       </c>
       <c r="V39" s="16" t="s">
-        <v>644</v>
+        <v>668</v>
       </c>
       <c r="W39" s="16" t="s">
-        <v>645</v>
+        <v>669</v>
       </c>
       <c r="X39" s="16" t="s">
-        <v>646</v>
+        <v>670</v>
       </c>
       <c r="Y39" s="16" t="s">
-        <v>647</v>
+        <v>671</v>
       </c>
       <c r="Z39" s="16" t="s">
-        <v>648</v>
+        <v>672</v>
       </c>
       <c r="AA39" s="16" t="s">
-        <v>625</v>
+        <v>649</v>
       </c>
       <c r="AB39" s="17" t="s">
-        <v>626</v>
+        <v>650</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="33" t="s">
-        <v>649</v>
+        <v>673</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>650</v>
+        <v>674</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>651</v>
+        <v>675</v>
       </c>
       <c r="D40" s="15" t="s">
-        <v>652</v>
+        <v>676</v>
       </c>
       <c r="E40" s="15" t="s">
-        <v>653</v>
+        <v>677</v>
       </c>
       <c r="F40" s="15" t="s">
-        <v>654</v>
+        <v>678</v>
       </c>
       <c r="G40" s="15" t="s">
-        <v>655</v>
+        <v>679</v>
       </c>
       <c r="H40" s="15" t="s">
-        <v>656</v>
+        <v>680</v>
       </c>
       <c r="I40" s="15" t="s">
-        <v>657</v>
+        <v>681</v>
       </c>
       <c r="J40" s="15" t="s">
-        <v>658</v>
+        <v>682</v>
       </c>
       <c r="K40" s="16" t="s">
-        <v>659</v>
+        <v>683</v>
       </c>
       <c r="L40" s="16" t="s">
-        <v>660</v>
+        <v>684</v>
       </c>
       <c r="M40" s="16" t="s">
-        <v>661</v>
+        <v>685</v>
       </c>
       <c r="N40" s="16" t="s">
-        <v>659</v>
+        <v>683</v>
       </c>
       <c r="O40" s="16" t="s">
-        <v>662</v>
+        <v>686</v>
       </c>
       <c r="P40" s="16" t="s">
-        <v>663</v>
+        <v>687</v>
       </c>
       <c r="Q40" s="16" t="s">
-        <v>664</v>
+        <v>688</v>
       </c>
       <c r="R40" s="16" t="s">
-        <v>665</v>
+        <v>689</v>
       </c>
       <c r="S40" s="16" t="s">
-        <v>666</v>
+        <v>690</v>
       </c>
       <c r="T40" s="16" t="s">
-        <v>667</v>
+        <v>691</v>
       </c>
       <c r="U40" s="16" t="s">
-        <v>668</v>
+        <v>692</v>
       </c>
       <c r="V40" s="16" t="s">
-        <v>669</v>
+        <v>693</v>
       </c>
       <c r="W40" s="16" t="s">
-        <v>670</v>
+        <v>694</v>
       </c>
       <c r="X40" s="16" t="s">
-        <v>671</v>
+        <v>695</v>
       </c>
       <c r="Y40" s="16" t="s">
-        <v>672</v>
+        <v>696</v>
       </c>
       <c r="Z40" s="16" t="s">
-        <v>673</v>
+        <v>697</v>
       </c>
       <c r="AA40" s="16" t="s">
-        <v>650</v>
+        <v>674</v>
       </c>
       <c r="AB40" s="17" t="s">
-        <v>651</v>
+        <v>675</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -5612,7 +5738,7 @@
   <dimension ref="A1:Y59"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A34:AB34 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B19:AB19 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5623,32 +5749,32 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="34" t="s">
-        <v>674</v>
+        <v>698</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="34" t="s">
-        <v>675</v>
+        <v>699</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="34" t="s">
-        <v>676</v>
+        <v>700</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="34" t="s">
-        <v>677</v>
+        <v>701</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="34" t="s">
-        <v>678</v>
+        <v>702</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="34" t="s">
-        <v>679</v>
+        <v>703</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5656,12 +5782,12 @@
     </row>
     <row r="9" customFormat="false" ht="80.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="35" t="s">
-        <v>680</v>
+        <v>704</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="51.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="36" t="s">
-        <v>681</v>
+        <v>705</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5669,7 +5795,7 @@
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="37" t="s">
-        <v>682</v>
+        <v>706</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5677,22 +5803,22 @@
     </row>
     <row r="14" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="39" t="s">
-        <v>683</v>
+        <v>707</v>
       </c>
       <c r="B14" s="40" t="s">
-        <v>684</v>
+        <v>708</v>
       </c>
       <c r="C14" s="40"/>
       <c r="D14" s="40" t="s">
-        <v>685</v>
+        <v>709</v>
       </c>
       <c r="E14" s="40"/>
       <c r="F14" s="40" t="s">
-        <v>686</v>
+        <v>710</v>
       </c>
       <c r="G14" s="40"/>
       <c r="H14" s="40" t="s">
-        <v>687</v>
+        <v>711</v>
       </c>
       <c r="I14" s="40"/>
       <c r="J14" s="40" t="s">
@@ -5708,19 +5834,19 @@
       </c>
       <c r="O14" s="40"/>
       <c r="P14" s="40" t="s">
-        <v>688</v>
+        <v>712</v>
       </c>
       <c r="Q14" s="40"/>
       <c r="R14" s="40" t="s">
-        <v>689</v>
+        <v>713</v>
       </c>
       <c r="S14" s="40"/>
       <c r="T14" s="40" t="s">
-        <v>690</v>
+        <v>714</v>
       </c>
       <c r="U14" s="40"/>
       <c r="V14" s="40" t="s">
-        <v>691</v>
+        <v>715</v>
       </c>
       <c r="W14" s="40"/>
       <c r="X14" s="41" t="s">
@@ -5805,7 +5931,7 @@
     </row>
     <row r="16" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="44" t="s">
-        <v>692</v>
+        <v>716</v>
       </c>
       <c r="B16" s="44"/>
       <c r="C16" s="44"/>
@@ -5834,7 +5960,7 @@
     </row>
     <row r="17" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="45" t="s">
-        <v>693</v>
+        <v>717</v>
       </c>
       <c r="B17" s="46"/>
       <c r="C17" s="46"/>
@@ -5863,7 +5989,7 @@
     </row>
     <row r="18" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="45" t="s">
-        <v>694</v>
+        <v>718</v>
       </c>
       <c r="B18" s="46"/>
       <c r="C18" s="46"/>
@@ -5892,7 +6018,7 @@
     </row>
     <row r="19" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="45" t="s">
-        <v>695</v>
+        <v>719</v>
       </c>
       <c r="B19" s="46"/>
       <c r="C19" s="46"/>
@@ -5975,7 +6101,7 @@
     </row>
     <row r="22" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="44" t="s">
-        <v>696</v>
+        <v>720</v>
       </c>
       <c r="B22" s="44"/>
       <c r="C22" s="44"/>
@@ -6004,7 +6130,7 @@
     </row>
     <row r="23" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="45" t="s">
-        <v>697</v>
+        <v>721</v>
       </c>
       <c r="B23" s="46"/>
       <c r="C23" s="46"/>
@@ -6033,7 +6159,7 @@
     </row>
     <row r="24" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="45" t="s">
-        <v>698</v>
+        <v>722</v>
       </c>
       <c r="B24" s="46"/>
       <c r="C24" s="46"/>
@@ -6062,7 +6188,7 @@
     </row>
     <row r="25" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="45" t="s">
-        <v>699</v>
+        <v>723</v>
       </c>
       <c r="B25" s="46"/>
       <c r="C25" s="46"/>
@@ -6091,7 +6217,7 @@
     </row>
     <row r="26" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="45" t="s">
-        <v>700</v>
+        <v>724</v>
       </c>
       <c r="B26" s="46"/>
       <c r="C26" s="46"/>
@@ -6174,7 +6300,7 @@
     </row>
     <row r="29" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="48" t="s">
-        <v>701</v>
+        <v>725</v>
       </c>
       <c r="B29" s="46"/>
       <c r="C29" s="46"/>
@@ -6203,7 +6329,7 @@
     </row>
     <row r="30" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="44" t="s">
-        <v>702</v>
+        <v>726</v>
       </c>
       <c r="B30" s="44"/>
       <c r="C30" s="44"/>
@@ -6232,7 +6358,7 @@
     </row>
     <row r="31" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="45" t="s">
-        <v>703</v>
+        <v>727</v>
       </c>
       <c r="B31" s="46"/>
       <c r="C31" s="46"/>
@@ -6261,7 +6387,7 @@
     </row>
     <row r="32" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="45" t="s">
-        <v>704</v>
+        <v>728</v>
       </c>
       <c r="B32" s="46"/>
       <c r="C32" s="46"/>
@@ -6344,7 +6470,7 @@
     </row>
     <row r="35" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="44" t="s">
-        <v>705</v>
+        <v>729</v>
       </c>
       <c r="B35" s="44"/>
       <c r="C35" s="44"/>
@@ -6454,7 +6580,7 @@
     </row>
     <row r="39" customFormat="false" ht="66.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="48" t="s">
-        <v>706</v>
+        <v>730</v>
       </c>
       <c r="B39" s="46"/>
       <c r="C39" s="46"/>
@@ -6483,7 +6609,7 @@
     </row>
     <row r="40" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="48" t="s">
-        <v>707</v>
+        <v>731</v>
       </c>
       <c r="B40" s="46"/>
       <c r="C40" s="46"/>
@@ -6512,7 +6638,7 @@
     </row>
     <row r="41" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="44" t="s">
-        <v>708</v>
+        <v>732</v>
       </c>
       <c r="B41" s="44"/>
       <c r="C41" s="44"/>
@@ -6541,7 +6667,7 @@
     </row>
     <row r="42" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="45" t="s">
-        <v>709</v>
+        <v>733</v>
       </c>
       <c r="B42" s="46"/>
       <c r="C42" s="46"/>
@@ -6570,7 +6696,7 @@
     </row>
     <row r="43" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="45" t="s">
-        <v>710</v>
+        <v>734</v>
       </c>
       <c r="B43" s="46"/>
       <c r="C43" s="46"/>
@@ -6599,7 +6725,7 @@
     </row>
     <row r="44" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="45" t="s">
-        <v>711</v>
+        <v>735</v>
       </c>
       <c r="B44" s="46"/>
       <c r="C44" s="46"/>
@@ -6682,7 +6808,7 @@
     </row>
     <row r="47" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="44" t="s">
-        <v>712</v>
+        <v>736</v>
       </c>
       <c r="B47" s="44"/>
       <c r="C47" s="44"/>
@@ -6765,7 +6891,7 @@
     </row>
     <row r="50" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="45" t="s">
-        <v>713</v>
+        <v>737</v>
       </c>
       <c r="B50" s="46"/>
       <c r="C50" s="46"/>
@@ -6794,7 +6920,7 @@
     </row>
     <row r="51" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="44" t="s">
-        <v>714</v>
+        <v>738</v>
       </c>
       <c r="B51" s="44"/>
       <c r="C51" s="44"/>
@@ -6823,7 +6949,7 @@
     </row>
     <row r="52" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="49" t="s">
-        <v>715</v>
+        <v>739</v>
       </c>
       <c r="B52" s="46"/>
       <c r="C52" s="46"/>
@@ -6852,7 +6978,7 @@
     </row>
     <row r="53" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="49" t="s">
-        <v>716</v>
+        <v>740</v>
       </c>
       <c r="B53" s="46"/>
       <c r="C53" s="46"/>
@@ -6881,7 +7007,7 @@
     </row>
     <row r="54" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="49" t="s">
-        <v>717</v>
+        <v>741</v>
       </c>
       <c r="B54" s="46"/>
       <c r="C54" s="46"/>
@@ -6937,7 +7063,7 @@
     </row>
     <row r="56" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="50" t="s">
-        <v>718</v>
+        <v>742</v>
       </c>
       <c r="B56" s="46"/>
       <c r="C56" s="46"/>
@@ -6966,7 +7092,7 @@
     </row>
     <row r="57" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="51" t="s">
-        <v>719</v>
+        <v>743</v>
       </c>
       <c r="B57" s="52"/>
       <c r="C57" s="52"/>
@@ -6998,7 +7124,7 @@
     </row>
     <row r="59" customFormat="false" ht="141.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="55" t="s">
-        <v>720</v>
+        <v>744</v>
       </c>
     </row>
   </sheetData>

--- a/resources/report_template.xlsx
+++ b/resources/report_template.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="745">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="769">
   <si>
     <t>Région</t>
   </si>
@@ -382,6 +382,78 @@
   </si>
   <si>
     <t>Nombre d’adultes et d’enfants déjà sous TARV  et ayant arrêté le traitement mais qui ont repris au cours au cours de la période de raportage (E)</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_RESTARTED', gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_RESTARTED', gender: 1}</t>
+  </si>
+  <si>
+    <t>{key:'ARV_RESTARTED', age_max: 15}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_RESTARTED', age_min: 15}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_RESTARTED'}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_RESTARTED', age_max: 15, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_RESTARTED', age_max: 15, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_RESTARTED', age_min: 15, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_RESTARTED', age_min: 15, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_RESTARTED', age_max: 1, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_RESTARTED', age_max: 1, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_RESTARTED', age_min: 1, age_max: 4, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_RESTARTED', age_min: 5, age_max: 9, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_RESTARTED', age_min: 5, age_max: 9, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_RESTARTED', age_min: 10, age_max: 14, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_RESTARTED', age_min: 10, age_max: 14, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_RESTARTED', age_min: 15, age_max: 19, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_RESTARTED', age_min: 15, age_max: 19, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_RESTARTED', age_min: 20, age_max: 24, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_RESTARTED', age_min: 20, age_max: 24, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_RESTARTED', age_min: 25, age_max: 49, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_RESTARTED', age_min: 25, age_max: 49, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_RESTARTED', age_min: 50, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_RESTARTED', age_min: 50, gender: 1}</t>
   </si>
   <si>
     <t>Nombre d’adultes et d’enfants qui ont bénéficié de TARV au cours du 1er semestre 2016 F=(A+B+C+D+E)</t>
@@ -3015,8 +3087,8 @@
   </sheetPr>
   <dimension ref="A1:AB57"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A15" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19:AB19"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15:AB15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3623,1327 +3695,1381 @@
       <c r="A15" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="16"/>
-      <c r="R15" s="16"/>
-      <c r="S15" s="16"/>
-      <c r="T15" s="16"/>
-      <c r="U15" s="16"/>
-      <c r="V15" s="16"/>
-      <c r="W15" s="16"/>
-      <c r="X15" s="16"/>
-      <c r="Y15" s="16"/>
-      <c r="Z15" s="16"/>
-      <c r="AA15" s="16"/>
-      <c r="AB15" s="17"/>
+      <c r="B15" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="I15" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="J15" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="K15" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="L15" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="M15" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="N15" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="O15" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="P15" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q15" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="R15" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="S15" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="T15" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="U15" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="V15" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="W15" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="X15" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y15" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z15" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="AA15" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="AB15" s="17" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="48.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="20" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>123</v>
+        <v>147</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>125</v>
+        <v>149</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="G16" s="23" t="s">
-        <v>128</v>
+        <v>152</v>
       </c>
       <c r="H16" s="23" t="s">
-        <v>129</v>
+        <v>153</v>
       </c>
       <c r="I16" s="23" t="s">
-        <v>130</v>
+        <v>154</v>
       </c>
       <c r="J16" s="23" t="s">
-        <v>131</v>
+        <v>155</v>
       </c>
       <c r="K16" s="21" t="s">
-        <v>132</v>
+        <v>156</v>
       </c>
       <c r="L16" s="21" t="s">
-        <v>133</v>
+        <v>157</v>
       </c>
       <c r="M16" s="21" t="s">
-        <v>134</v>
+        <v>158</v>
       </c>
       <c r="N16" s="21" t="s">
-        <v>132</v>
+        <v>156</v>
       </c>
       <c r="O16" s="21" t="s">
-        <v>135</v>
+        <v>159</v>
       </c>
       <c r="P16" s="21" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="Q16" s="21" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
       <c r="R16" s="21" t="s">
-        <v>138</v>
+        <v>162</v>
       </c>
       <c r="S16" s="21" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="T16" s="21" t="s">
-        <v>140</v>
+        <v>164</v>
       </c>
       <c r="U16" s="21" t="s">
-        <v>141</v>
+        <v>165</v>
       </c>
       <c r="V16" s="21" t="s">
-        <v>142</v>
+        <v>166</v>
       </c>
       <c r="W16" s="21" t="s">
-        <v>143</v>
+        <v>167</v>
       </c>
       <c r="X16" s="21" t="s">
-        <v>144</v>
+        <v>168</v>
       </c>
       <c r="Y16" s="21" t="s">
-        <v>145</v>
+        <v>169</v>
       </c>
       <c r="Z16" s="21" t="s">
-        <v>146</v>
+        <v>170</v>
       </c>
       <c r="AA16" s="21" t="s">
-        <v>123</v>
+        <v>147</v>
       </c>
       <c r="AB16" s="24" t="s">
-        <v>124</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="18" t="s">
-        <v>147</v>
+        <v>171</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>149</v>
+        <v>173</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>150</v>
+        <v>174</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>151</v>
+        <v>175</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>153</v>
+        <v>177</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>154</v>
+        <v>178</v>
       </c>
       <c r="I17" s="15" t="s">
-        <v>155</v>
+        <v>179</v>
       </c>
       <c r="J17" s="15" t="s">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="K17" s="16" t="s">
-        <v>157</v>
+        <v>181</v>
       </c>
       <c r="L17" s="16" t="s">
-        <v>158</v>
+        <v>182</v>
       </c>
       <c r="M17" s="16" t="s">
-        <v>159</v>
+        <v>183</v>
       </c>
       <c r="N17" s="16" t="s">
-        <v>157</v>
+        <v>181</v>
       </c>
       <c r="O17" s="16" t="s">
-        <v>160</v>
+        <v>184</v>
       </c>
       <c r="P17" s="16" t="s">
-        <v>161</v>
+        <v>185</v>
       </c>
       <c r="Q17" s="16" t="s">
-        <v>162</v>
+        <v>186</v>
       </c>
       <c r="R17" s="16" t="s">
-        <v>163</v>
+        <v>187</v>
       </c>
       <c r="S17" s="16" t="s">
-        <v>164</v>
+        <v>188</v>
       </c>
       <c r="T17" s="16" t="s">
-        <v>165</v>
+        <v>189</v>
       </c>
       <c r="U17" s="16" t="s">
-        <v>166</v>
+        <v>190</v>
       </c>
       <c r="V17" s="16" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
       <c r="W17" s="16" t="s">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="X17" s="16" t="s">
-        <v>169</v>
+        <v>193</v>
       </c>
       <c r="Y17" s="16" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="Z17" s="16" t="s">
-        <v>171</v>
+        <v>195</v>
       </c>
       <c r="AA17" s="16" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
       <c r="AB17" s="17" t="s">
-        <v>149</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="28.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="18" t="s">
-        <v>172</v>
+        <v>196</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>173</v>
+        <v>197</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>174</v>
+        <v>198</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>175</v>
+        <v>199</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>176</v>
+        <v>200</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>177</v>
+        <v>201</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>178</v>
+        <v>202</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>179</v>
+        <v>203</v>
       </c>
       <c r="I18" s="15" t="s">
-        <v>180</v>
+        <v>204</v>
       </c>
       <c r="J18" s="15" t="s">
-        <v>181</v>
+        <v>205</v>
       </c>
       <c r="K18" s="16" t="s">
-        <v>182</v>
+        <v>206</v>
       </c>
       <c r="L18" s="16" t="s">
-        <v>183</v>
+        <v>207</v>
       </c>
       <c r="M18" s="16" t="s">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="N18" s="16" t="s">
-        <v>182</v>
+        <v>206</v>
       </c>
       <c r="O18" s="16" t="s">
-        <v>185</v>
+        <v>209</v>
       </c>
       <c r="P18" s="16" t="s">
-        <v>186</v>
+        <v>210</v>
       </c>
       <c r="Q18" s="16" t="s">
-        <v>187</v>
+        <v>211</v>
       </c>
       <c r="R18" s="16" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
       <c r="S18" s="16" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="T18" s="16" t="s">
-        <v>190</v>
+        <v>214</v>
       </c>
       <c r="U18" s="16" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="V18" s="16" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="W18" s="16" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="X18" s="16" t="s">
-        <v>194</v>
+        <v>218</v>
       </c>
       <c r="Y18" s="16" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="Z18" s="16" t="s">
-        <v>196</v>
+        <v>220</v>
       </c>
       <c r="AA18" s="16" t="s">
-        <v>173</v>
+        <v>197</v>
       </c>
       <c r="AB18" s="17" t="s">
-        <v>174</v>
+        <v>198</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="41" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="18" t="s">
-        <v>197</v>
+        <v>221</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>199</v>
+        <v>223</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>200</v>
+        <v>224</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>201</v>
+        <v>225</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>203</v>
+        <v>227</v>
       </c>
       <c r="H19" s="15" t="s">
-        <v>204</v>
+        <v>228</v>
       </c>
       <c r="I19" s="15" t="s">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c r="J19" s="15" t="s">
-        <v>206</v>
+        <v>230</v>
       </c>
       <c r="K19" s="16" t="s">
-        <v>207</v>
+        <v>231</v>
       </c>
       <c r="L19" s="16" t="s">
-        <v>208</v>
+        <v>232</v>
       </c>
       <c r="M19" s="16" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
       <c r="N19" s="16" t="s">
-        <v>207</v>
+        <v>231</v>
       </c>
       <c r="O19" s="16" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="P19" s="16" t="s">
-        <v>211</v>
+        <v>235</v>
       </c>
       <c r="Q19" s="16" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="R19" s="16" t="s">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="S19" s="16" t="s">
-        <v>214</v>
+        <v>238</v>
       </c>
       <c r="T19" s="16" t="s">
-        <v>215</v>
+        <v>239</v>
       </c>
       <c r="U19" s="16" t="s">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="V19" s="16" t="s">
-        <v>217</v>
+        <v>241</v>
       </c>
       <c r="W19" s="16" t="s">
-        <v>218</v>
+        <v>242</v>
       </c>
       <c r="X19" s="16" t="s">
-        <v>219</v>
+        <v>243</v>
       </c>
       <c r="Y19" s="16" t="s">
-        <v>220</v>
+        <v>244</v>
       </c>
       <c r="Z19" s="16" t="s">
-        <v>221</v>
+        <v>245</v>
       </c>
       <c r="AA19" s="16" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
       <c r="AB19" s="17" t="s">
-        <v>199</v>
+        <v>223</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="18" t="s">
-        <v>222</v>
+        <v>246</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>224</v>
+        <v>248</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>225</v>
+        <v>249</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>226</v>
+        <v>250</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>227</v>
+        <v>251</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>228</v>
+        <v>252</v>
       </c>
       <c r="H20" s="15" t="s">
-        <v>229</v>
+        <v>253</v>
       </c>
       <c r="I20" s="15" t="s">
-        <v>230</v>
+        <v>254</v>
       </c>
       <c r="J20" s="15" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="K20" s="16" t="s">
-        <v>232</v>
+        <v>256</v>
       </c>
       <c r="L20" s="16" t="s">
-        <v>233</v>
+        <v>257</v>
       </c>
       <c r="M20" s="16" t="s">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="N20" s="16" t="s">
-        <v>232</v>
+        <v>256</v>
       </c>
       <c r="O20" s="16" t="s">
-        <v>235</v>
+        <v>259</v>
       </c>
       <c r="P20" s="16" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="Q20" s="16" t="s">
-        <v>237</v>
+        <v>261</v>
       </c>
       <c r="R20" s="16" t="s">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="S20" s="16" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="T20" s="16" t="s">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="U20" s="16" t="s">
-        <v>241</v>
+        <v>265</v>
       </c>
       <c r="V20" s="16" t="s">
-        <v>242</v>
+        <v>266</v>
       </c>
       <c r="W20" s="16" t="s">
-        <v>243</v>
+        <v>267</v>
       </c>
       <c r="X20" s="16" t="s">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="Y20" s="16" t="s">
-        <v>245</v>
+        <v>269</v>
       </c>
       <c r="Z20" s="16" t="s">
-        <v>246</v>
+        <v>270</v>
       </c>
       <c r="AA20" s="16" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="AB20" s="17" t="s">
-        <v>224</v>
+        <v>248</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="25" t="s">
-        <v>247</v>
+        <v>271</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>248</v>
+        <v>272</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>249</v>
+        <v>273</v>
       </c>
       <c r="D21" s="26" t="s">
-        <v>250</v>
+        <v>274</v>
       </c>
       <c r="E21" s="26" t="s">
-        <v>251</v>
+        <v>275</v>
       </c>
       <c r="F21" s="26" t="s">
-        <v>252</v>
+        <v>276</v>
       </c>
       <c r="G21" s="23" t="s">
-        <v>253</v>
+        <v>277</v>
       </c>
       <c r="H21" s="23" t="s">
-        <v>254</v>
+        <v>278</v>
       </c>
       <c r="I21" s="23" t="s">
-        <v>255</v>
+        <v>279</v>
       </c>
       <c r="J21" s="23" t="s">
-        <v>256</v>
+        <v>280</v>
       </c>
       <c r="K21" s="27" t="s">
-        <v>257</v>
+        <v>281</v>
       </c>
       <c r="L21" s="27" t="s">
-        <v>258</v>
+        <v>282</v>
       </c>
       <c r="M21" s="27" t="s">
-        <v>259</v>
+        <v>283</v>
       </c>
       <c r="N21" s="27" t="s">
-        <v>257</v>
+        <v>281</v>
       </c>
       <c r="O21" s="27" t="s">
-        <v>260</v>
+        <v>284</v>
       </c>
       <c r="P21" s="27" t="s">
-        <v>261</v>
+        <v>285</v>
       </c>
       <c r="Q21" s="27" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="R21" s="27" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="S21" s="27" t="s">
-        <v>264</v>
+        <v>288</v>
       </c>
       <c r="T21" s="27" t="s">
-        <v>265</v>
+        <v>289</v>
       </c>
       <c r="U21" s="27" t="s">
-        <v>266</v>
+        <v>290</v>
       </c>
       <c r="V21" s="27" t="s">
-        <v>267</v>
+        <v>291</v>
       </c>
       <c r="W21" s="27" t="s">
-        <v>268</v>
+        <v>292</v>
       </c>
       <c r="X21" s="27" t="s">
-        <v>269</v>
+        <v>293</v>
       </c>
       <c r="Y21" s="27" t="s">
-        <v>270</v>
+        <v>294</v>
       </c>
       <c r="Z21" s="27" t="s">
-        <v>271</v>
+        <v>295</v>
       </c>
       <c r="AA21" s="27" t="s">
-        <v>248</v>
+        <v>272</v>
       </c>
       <c r="AB21" s="28" t="s">
-        <v>249</v>
+        <v>273</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="18" t="s">
-        <v>272</v>
+        <v>296</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>273</v>
+        <v>297</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>274</v>
+        <v>298</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>275</v>
+        <v>299</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>276</v>
+        <v>300</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>277</v>
+        <v>301</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>278</v>
+        <v>302</v>
       </c>
       <c r="H22" s="15" t="s">
-        <v>279</v>
+        <v>303</v>
       </c>
       <c r="I22" s="15" t="s">
-        <v>280</v>
+        <v>304</v>
       </c>
       <c r="J22" s="15" t="s">
-        <v>281</v>
+        <v>305</v>
       </c>
       <c r="K22" s="16" t="s">
-        <v>282</v>
+        <v>306</v>
       </c>
       <c r="L22" s="16" t="s">
-        <v>283</v>
+        <v>307</v>
       </c>
       <c r="M22" s="16" t="s">
-        <v>284</v>
+        <v>308</v>
       </c>
       <c r="N22" s="16" t="s">
-        <v>282</v>
+        <v>306</v>
       </c>
       <c r="O22" s="16" t="s">
-        <v>285</v>
+        <v>309</v>
       </c>
       <c r="P22" s="16" t="s">
-        <v>286</v>
+        <v>310</v>
       </c>
       <c r="Q22" s="16" t="s">
-        <v>287</v>
+        <v>311</v>
       </c>
       <c r="R22" s="16" t="s">
-        <v>288</v>
+        <v>312</v>
       </c>
       <c r="S22" s="16" t="s">
-        <v>289</v>
+        <v>313</v>
       </c>
       <c r="T22" s="16" t="s">
-        <v>290</v>
+        <v>314</v>
       </c>
       <c r="U22" s="16" t="s">
-        <v>291</v>
+        <v>315</v>
       </c>
       <c r="V22" s="16" t="s">
-        <v>292</v>
+        <v>316</v>
       </c>
       <c r="W22" s="16" t="s">
-        <v>293</v>
+        <v>317</v>
       </c>
       <c r="X22" s="16" t="s">
-        <v>294</v>
+        <v>318</v>
       </c>
       <c r="Y22" s="16" t="s">
-        <v>295</v>
+        <v>319</v>
       </c>
       <c r="Z22" s="16" t="s">
-        <v>296</v>
+        <v>320</v>
       </c>
       <c r="AA22" s="16" t="s">
-        <v>273</v>
+        <v>297</v>
       </c>
       <c r="AB22" s="17" t="s">
-        <v>274</v>
+        <v>298</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="30.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="18" t="s">
-        <v>297</v>
+        <v>321</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>298</v>
+        <v>322</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>299</v>
+        <v>323</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>300</v>
+        <v>324</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>301</v>
+        <v>325</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>302</v>
+        <v>326</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>303</v>
+        <v>327</v>
       </c>
       <c r="H23" s="15" t="s">
-        <v>304</v>
+        <v>328</v>
       </c>
       <c r="I23" s="15" t="s">
-        <v>305</v>
+        <v>329</v>
       </c>
       <c r="J23" s="15" t="s">
-        <v>306</v>
+        <v>330</v>
       </c>
       <c r="K23" s="16" t="s">
-        <v>307</v>
+        <v>331</v>
       </c>
       <c r="L23" s="16" t="s">
-        <v>308</v>
+        <v>332</v>
       </c>
       <c r="M23" s="16" t="s">
-        <v>309</v>
+        <v>333</v>
       </c>
       <c r="N23" s="16" t="s">
-        <v>307</v>
+        <v>331</v>
       </c>
       <c r="O23" s="16" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="P23" s="16" t="s">
-        <v>311</v>
+        <v>335</v>
       </c>
       <c r="Q23" s="16" t="s">
-        <v>312</v>
+        <v>336</v>
       </c>
       <c r="R23" s="16" t="s">
-        <v>313</v>
+        <v>337</v>
       </c>
       <c r="S23" s="16" t="s">
-        <v>314</v>
+        <v>338</v>
       </c>
       <c r="T23" s="16" t="s">
-        <v>315</v>
+        <v>339</v>
       </c>
       <c r="U23" s="16" t="s">
-        <v>316</v>
+        <v>340</v>
       </c>
       <c r="V23" s="16" t="s">
-        <v>317</v>
+        <v>341</v>
       </c>
       <c r="W23" s="16" t="s">
-        <v>318</v>
+        <v>342</v>
       </c>
       <c r="X23" s="16" t="s">
-        <v>319</v>
+        <v>343</v>
       </c>
       <c r="Y23" s="16" t="s">
-        <v>320</v>
+        <v>344</v>
       </c>
       <c r="Z23" s="16" t="s">
-        <v>321</v>
+        <v>345</v>
       </c>
       <c r="AA23" s="16" t="s">
-        <v>298</v>
+        <v>322</v>
       </c>
       <c r="AB23" s="17" t="s">
-        <v>299</v>
+        <v>323</v>
       </c>
     </row>
     <row r="24" s="19" customFormat="true" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="18" t="s">
-        <v>322</v>
+        <v>346</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>323</v>
+        <v>347</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>324</v>
+        <v>348</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>325</v>
+        <v>349</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>326</v>
+        <v>350</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>327</v>
+        <v>351</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>328</v>
+        <v>352</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>329</v>
+        <v>353</v>
       </c>
       <c r="I24" s="15" t="s">
-        <v>330</v>
+        <v>354</v>
       </c>
       <c r="J24" s="15" t="s">
-        <v>331</v>
+        <v>355</v>
       </c>
       <c r="K24" s="16" t="s">
-        <v>332</v>
+        <v>356</v>
       </c>
       <c r="L24" s="16" t="s">
-        <v>333</v>
+        <v>357</v>
       </c>
       <c r="M24" s="16" t="s">
-        <v>334</v>
+        <v>358</v>
       </c>
       <c r="N24" s="16" t="s">
-        <v>332</v>
+        <v>356</v>
       </c>
       <c r="O24" s="16" t="s">
-        <v>335</v>
+        <v>359</v>
       </c>
       <c r="P24" s="16" t="s">
-        <v>336</v>
+        <v>360</v>
       </c>
       <c r="Q24" s="16" t="s">
-        <v>337</v>
+        <v>361</v>
       </c>
       <c r="R24" s="16" t="s">
-        <v>338</v>
+        <v>362</v>
       </c>
       <c r="S24" s="16" t="s">
-        <v>339</v>
+        <v>363</v>
       </c>
       <c r="T24" s="16" t="s">
-        <v>340</v>
+        <v>364</v>
       </c>
       <c r="U24" s="16" t="s">
-        <v>341</v>
+        <v>365</v>
       </c>
       <c r="V24" s="16" t="s">
-        <v>342</v>
+        <v>366</v>
       </c>
       <c r="W24" s="16" t="s">
-        <v>343</v>
+        <v>367</v>
       </c>
       <c r="X24" s="16" t="s">
-        <v>344</v>
+        <v>368</v>
       </c>
       <c r="Y24" s="16" t="s">
-        <v>345</v>
+        <v>369</v>
       </c>
       <c r="Z24" s="16" t="s">
-        <v>346</v>
+        <v>370</v>
       </c>
       <c r="AA24" s="16" t="s">
-        <v>323</v>
+        <v>347</v>
       </c>
       <c r="AB24" s="17" t="s">
-        <v>324</v>
+        <v>348</v>
       </c>
     </row>
     <row r="25" s="19" customFormat="true" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="18" t="s">
-        <v>347</v>
+        <v>371</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>348</v>
+        <v>372</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>349</v>
+        <v>373</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>350</v>
+        <v>374</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>351</v>
+        <v>375</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>352</v>
+        <v>376</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>353</v>
+        <v>377</v>
       </c>
       <c r="H25" s="15" t="s">
-        <v>354</v>
+        <v>378</v>
       </c>
       <c r="I25" s="15" t="s">
-        <v>355</v>
+        <v>379</v>
       </c>
       <c r="J25" s="15" t="s">
-        <v>356</v>
+        <v>380</v>
       </c>
       <c r="K25" s="16" t="s">
-        <v>357</v>
+        <v>381</v>
       </c>
       <c r="L25" s="16" t="s">
-        <v>358</v>
+        <v>382</v>
       </c>
       <c r="M25" s="16" t="s">
-        <v>359</v>
+        <v>383</v>
       </c>
       <c r="N25" s="16" t="s">
-        <v>357</v>
+        <v>381</v>
       </c>
       <c r="O25" s="16" t="s">
-        <v>360</v>
+        <v>384</v>
       </c>
       <c r="P25" s="16" t="s">
-        <v>361</v>
+        <v>385</v>
       </c>
       <c r="Q25" s="16" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="R25" s="16" t="s">
-        <v>363</v>
+        <v>387</v>
       </c>
       <c r="S25" s="16" t="s">
-        <v>364</v>
+        <v>388</v>
       </c>
       <c r="T25" s="16" t="s">
-        <v>365</v>
+        <v>389</v>
       </c>
       <c r="U25" s="16" t="s">
-        <v>366</v>
+        <v>390</v>
       </c>
       <c r="V25" s="16" t="s">
-        <v>367</v>
+        <v>391</v>
       </c>
       <c r="W25" s="16" t="s">
-        <v>368</v>
+        <v>392</v>
       </c>
       <c r="X25" s="16" t="s">
-        <v>369</v>
+        <v>393</v>
       </c>
       <c r="Y25" s="16" t="s">
-        <v>370</v>
+        <v>394</v>
       </c>
       <c r="Z25" s="16" t="s">
-        <v>371</v>
+        <v>395</v>
       </c>
       <c r="AA25" s="16" t="s">
-        <v>348</v>
+        <v>372</v>
       </c>
       <c r="AB25" s="17" t="s">
-        <v>349</v>
+        <v>373</v>
       </c>
     </row>
     <row r="26" s="19" customFormat="true" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="18" t="s">
-        <v>372</v>
+        <v>396</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>373</v>
+        <v>397</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>374</v>
+        <v>398</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>375</v>
+        <v>399</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>376</v>
+        <v>400</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>377</v>
+        <v>401</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>378</v>
+        <v>402</v>
       </c>
       <c r="H26" s="15" t="s">
-        <v>379</v>
+        <v>403</v>
       </c>
       <c r="I26" s="15" t="s">
-        <v>380</v>
+        <v>404</v>
       </c>
       <c r="J26" s="15" t="s">
-        <v>381</v>
+        <v>405</v>
       </c>
       <c r="K26" s="16" t="s">
-        <v>382</v>
+        <v>406</v>
       </c>
       <c r="L26" s="16" t="s">
-        <v>383</v>
+        <v>407</v>
       </c>
       <c r="M26" s="16" t="s">
-        <v>384</v>
+        <v>408</v>
       </c>
       <c r="N26" s="16" t="s">
-        <v>382</v>
+        <v>406</v>
       </c>
       <c r="O26" s="16" t="s">
-        <v>385</v>
+        <v>409</v>
       </c>
       <c r="P26" s="16" t="s">
-        <v>386</v>
+        <v>410</v>
       </c>
       <c r="Q26" s="16" t="s">
-        <v>387</v>
+        <v>411</v>
       </c>
       <c r="R26" s="16" t="s">
-        <v>388</v>
+        <v>412</v>
       </c>
       <c r="S26" s="16" t="s">
-        <v>389</v>
+        <v>413</v>
       </c>
       <c r="T26" s="16" t="s">
-        <v>390</v>
+        <v>414</v>
       </c>
       <c r="U26" s="16" t="s">
-        <v>391</v>
+        <v>415</v>
       </c>
       <c r="V26" s="16" t="s">
-        <v>392</v>
+        <v>416</v>
       </c>
       <c r="W26" s="16" t="s">
-        <v>393</v>
+        <v>417</v>
       </c>
       <c r="X26" s="16" t="s">
-        <v>394</v>
+        <v>418</v>
       </c>
       <c r="Y26" s="16" t="s">
-        <v>395</v>
+        <v>419</v>
       </c>
       <c r="Z26" s="16" t="s">
-        <v>396</v>
+        <v>420</v>
       </c>
       <c r="AA26" s="16" t="s">
-        <v>373</v>
+        <v>397</v>
       </c>
       <c r="AB26" s="17" t="s">
-        <v>374</v>
+        <v>398</v>
       </c>
     </row>
     <row r="27" s="19" customFormat="true" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="18" t="s">
-        <v>397</v>
+        <v>421</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>398</v>
+        <v>422</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>399</v>
+        <v>423</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>400</v>
+        <v>424</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>401</v>
+        <v>425</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>402</v>
+        <v>426</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>403</v>
+        <v>427</v>
       </c>
       <c r="H27" s="15" t="s">
-        <v>404</v>
+        <v>428</v>
       </c>
       <c r="I27" s="15" t="s">
-        <v>405</v>
+        <v>429</v>
       </c>
       <c r="J27" s="15" t="s">
-        <v>406</v>
+        <v>430</v>
       </c>
       <c r="K27" s="16" t="s">
-        <v>407</v>
+        <v>431</v>
       </c>
       <c r="L27" s="16" t="s">
-        <v>408</v>
+        <v>432</v>
       </c>
       <c r="M27" s="16" t="s">
-        <v>409</v>
+        <v>433</v>
       </c>
       <c r="N27" s="16" t="s">
-        <v>407</v>
+        <v>431</v>
       </c>
       <c r="O27" s="16" t="s">
-        <v>410</v>
+        <v>434</v>
       </c>
       <c r="P27" s="16" t="s">
-        <v>411</v>
+        <v>435</v>
       </c>
       <c r="Q27" s="16" t="s">
-        <v>412</v>
+        <v>436</v>
       </c>
       <c r="R27" s="16" t="s">
-        <v>413</v>
+        <v>437</v>
       </c>
       <c r="S27" s="16" t="s">
-        <v>414</v>
+        <v>438</v>
       </c>
       <c r="T27" s="16" t="s">
-        <v>415</v>
+        <v>439</v>
       </c>
       <c r="U27" s="16" t="s">
-        <v>416</v>
+        <v>440</v>
       </c>
       <c r="V27" s="16" t="s">
-        <v>417</v>
+        <v>441</v>
       </c>
       <c r="W27" s="16" t="s">
-        <v>418</v>
+        <v>442</v>
       </c>
       <c r="X27" s="16" t="s">
-        <v>419</v>
+        <v>443</v>
       </c>
       <c r="Y27" s="16" t="s">
-        <v>420</v>
+        <v>444</v>
       </c>
       <c r="Z27" s="16" t="s">
-        <v>421</v>
+        <v>445</v>
       </c>
       <c r="AA27" s="16" t="s">
-        <v>398</v>
+        <v>422</v>
       </c>
       <c r="AB27" s="17" t="s">
-        <v>399</v>
+        <v>423</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="63.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="29" t="s">
-        <v>422</v>
+        <v>446</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>423</v>
+        <v>447</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>424</v>
+        <v>448</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>425</v>
+        <v>449</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>426</v>
+        <v>450</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>427</v>
+        <v>451</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>428</v>
+        <v>452</v>
       </c>
       <c r="H28" s="15" t="s">
-        <v>429</v>
+        <v>453</v>
       </c>
       <c r="I28" s="15" t="s">
-        <v>430</v>
+        <v>454</v>
       </c>
       <c r="J28" s="15" t="s">
-        <v>431</v>
+        <v>455</v>
       </c>
       <c r="K28" s="16" t="s">
-        <v>432</v>
+        <v>456</v>
       </c>
       <c r="L28" s="16" t="s">
-        <v>433</v>
+        <v>457</v>
       </c>
       <c r="M28" s="16" t="s">
-        <v>434</v>
+        <v>458</v>
       </c>
       <c r="N28" s="16" t="s">
-        <v>432</v>
+        <v>456</v>
       </c>
       <c r="O28" s="16" t="s">
-        <v>435</v>
+        <v>459</v>
       </c>
       <c r="P28" s="16" t="s">
-        <v>436</v>
+        <v>460</v>
       </c>
       <c r="Q28" s="16" t="s">
-        <v>437</v>
+        <v>461</v>
       </c>
       <c r="R28" s="16" t="s">
-        <v>438</v>
+        <v>462</v>
       </c>
       <c r="S28" s="16" t="s">
-        <v>439</v>
+        <v>463</v>
       </c>
       <c r="T28" s="16" t="s">
-        <v>440</v>
+        <v>464</v>
       </c>
       <c r="U28" s="16" t="s">
-        <v>441</v>
+        <v>465</v>
       </c>
       <c r="V28" s="16" t="s">
-        <v>442</v>
+        <v>466</v>
       </c>
       <c r="W28" s="16" t="s">
-        <v>443</v>
+        <v>467</v>
       </c>
       <c r="X28" s="16" t="s">
-        <v>444</v>
+        <v>468</v>
       </c>
       <c r="Y28" s="16" t="s">
-        <v>445</v>
+        <v>469</v>
       </c>
       <c r="Z28" s="16" t="s">
-        <v>446</v>
+        <v>470</v>
       </c>
       <c r="AA28" s="16" t="s">
-        <v>423</v>
+        <v>447</v>
       </c>
       <c r="AB28" s="17" t="s">
-        <v>424</v>
+        <v>448</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="58.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="29" t="s">
-        <v>447</v>
+        <v>471</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>448</v>
+        <v>472</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>449</v>
+        <v>473</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>450</v>
+        <v>474</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>451</v>
+        <v>475</v>
       </c>
       <c r="F29" s="15" t="s">
-        <v>452</v>
+        <v>476</v>
       </c>
       <c r="G29" s="15" t="s">
-        <v>453</v>
+        <v>477</v>
       </c>
       <c r="H29" s="15" t="s">
-        <v>454</v>
+        <v>478</v>
       </c>
       <c r="I29" s="15" t="s">
-        <v>455</v>
+        <v>479</v>
       </c>
       <c r="J29" s="15" t="s">
-        <v>456</v>
+        <v>480</v>
       </c>
       <c r="K29" s="16" t="s">
-        <v>457</v>
+        <v>481</v>
       </c>
       <c r="L29" s="16" t="s">
-        <v>458</v>
+        <v>482</v>
       </c>
       <c r="M29" s="16" t="s">
-        <v>459</v>
+        <v>483</v>
       </c>
       <c r="N29" s="16" t="s">
-        <v>457</v>
+        <v>481</v>
       </c>
       <c r="O29" s="16" t="s">
-        <v>460</v>
+        <v>484</v>
       </c>
       <c r="P29" s="16" t="s">
-        <v>461</v>
+        <v>485</v>
       </c>
       <c r="Q29" s="16" t="s">
-        <v>462</v>
+        <v>486</v>
       </c>
       <c r="R29" s="16" t="s">
-        <v>463</v>
+        <v>487</v>
       </c>
       <c r="S29" s="16" t="s">
-        <v>464</v>
+        <v>488</v>
       </c>
       <c r="T29" s="16" t="s">
-        <v>465</v>
+        <v>489</v>
       </c>
       <c r="U29" s="16" t="s">
-        <v>466</v>
+        <v>490</v>
       </c>
       <c r="V29" s="16" t="s">
-        <v>467</v>
+        <v>491</v>
       </c>
       <c r="W29" s="16" t="s">
-        <v>468</v>
+        <v>492</v>
       </c>
       <c r="X29" s="16" t="s">
-        <v>469</v>
+        <v>493</v>
       </c>
       <c r="Y29" s="16" t="s">
-        <v>470</v>
+        <v>494</v>
       </c>
       <c r="Z29" s="16" t="s">
-        <v>471</v>
+        <v>495</v>
       </c>
       <c r="AA29" s="16" t="s">
-        <v>448</v>
+        <v>472</v>
       </c>
       <c r="AB29" s="17" t="s">
-        <v>449</v>
+        <v>473</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="65.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="29" t="s">
-        <v>472</v>
+        <v>496</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>473</v>
+        <v>497</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>474</v>
+        <v>498</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>475</v>
+        <v>499</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>476</v>
+        <v>500</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>477</v>
+        <v>501</v>
       </c>
       <c r="G30" s="15" t="s">
-        <v>478</v>
+        <v>502</v>
       </c>
       <c r="H30" s="15" t="s">
-        <v>479</v>
+        <v>503</v>
       </c>
       <c r="I30" s="15" t="s">
-        <v>480</v>
+        <v>504</v>
       </c>
       <c r="J30" s="15" t="s">
-        <v>481</v>
+        <v>505</v>
       </c>
       <c r="K30" s="16" t="s">
-        <v>482</v>
+        <v>506</v>
       </c>
       <c r="L30" s="16" t="s">
-        <v>483</v>
+        <v>507</v>
       </c>
       <c r="M30" s="16" t="s">
-        <v>484</v>
+        <v>508</v>
       </c>
       <c r="N30" s="16" t="s">
-        <v>482</v>
+        <v>506</v>
       </c>
       <c r="O30" s="16" t="s">
-        <v>485</v>
+        <v>509</v>
       </c>
       <c r="P30" s="16" t="s">
-        <v>486</v>
+        <v>510</v>
       </c>
       <c r="Q30" s="16" t="s">
-        <v>487</v>
+        <v>511</v>
       </c>
       <c r="R30" s="16" t="s">
-        <v>488</v>
+        <v>512</v>
       </c>
       <c r="S30" s="16" t="s">
-        <v>489</v>
+        <v>513</v>
       </c>
       <c r="T30" s="16" t="s">
-        <v>490</v>
+        <v>514</v>
       </c>
       <c r="U30" s="16" t="s">
-        <v>491</v>
+        <v>515</v>
       </c>
       <c r="V30" s="16" t="s">
-        <v>492</v>
+        <v>516</v>
       </c>
       <c r="W30" s="16" t="s">
-        <v>493</v>
+        <v>517</v>
       </c>
       <c r="X30" s="16" t="s">
-        <v>494</v>
+        <v>518</v>
       </c>
       <c r="Y30" s="16" t="s">
-        <v>495</v>
+        <v>519</v>
       </c>
       <c r="Z30" s="16" t="s">
-        <v>496</v>
+        <v>520</v>
       </c>
       <c r="AA30" s="16" t="s">
-        <v>473</v>
+        <v>497</v>
       </c>
       <c r="AB30" s="17" t="s">
-        <v>474</v>
+        <v>498</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="70.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="30" t="s">
-        <v>497</v>
+        <v>521</v>
       </c>
       <c r="B31" s="15"/>
       <c r="C31" s="15"/>
@@ -4975,260 +5101,260 @@
     </row>
     <row r="32" customFormat="false" ht="52.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="30" t="s">
-        <v>498</v>
+        <v>522</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>499</v>
+        <v>523</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>500</v>
+        <v>524</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>501</v>
+        <v>525</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>502</v>
+        <v>526</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>503</v>
+        <v>527</v>
       </c>
       <c r="G32" s="15" t="s">
-        <v>504</v>
+        <v>528</v>
       </c>
       <c r="H32" s="15" t="s">
-        <v>505</v>
+        <v>529</v>
       </c>
       <c r="I32" s="15" t="s">
-        <v>506</v>
+        <v>530</v>
       </c>
       <c r="J32" s="15" t="s">
-        <v>507</v>
+        <v>531</v>
       </c>
       <c r="K32" s="16" t="s">
-        <v>508</v>
+        <v>532</v>
       </c>
       <c r="L32" s="16" t="s">
-        <v>509</v>
+        <v>533</v>
       </c>
       <c r="M32" s="16" t="s">
-        <v>510</v>
+        <v>534</v>
       </c>
       <c r="N32" s="16" t="s">
-        <v>508</v>
+        <v>532</v>
       </c>
       <c r="O32" s="16" t="s">
-        <v>511</v>
+        <v>535</v>
       </c>
       <c r="P32" s="16" t="s">
-        <v>512</v>
+        <v>536</v>
       </c>
       <c r="Q32" s="16" t="s">
-        <v>513</v>
+        <v>537</v>
       </c>
       <c r="R32" s="16" t="s">
-        <v>514</v>
+        <v>538</v>
       </c>
       <c r="S32" s="16" t="s">
-        <v>515</v>
+        <v>539</v>
       </c>
       <c r="T32" s="16" t="s">
-        <v>516</v>
+        <v>540</v>
       </c>
       <c r="U32" s="16" t="s">
-        <v>517</v>
+        <v>541</v>
       </c>
       <c r="V32" s="16" t="s">
-        <v>518</v>
+        <v>542</v>
       </c>
       <c r="W32" s="16" t="s">
-        <v>519</v>
+        <v>543</v>
       </c>
       <c r="X32" s="16" t="s">
-        <v>520</v>
+        <v>544</v>
       </c>
       <c r="Y32" s="16" t="s">
-        <v>521</v>
+        <v>545</v>
       </c>
       <c r="Z32" s="16" t="s">
-        <v>522</v>
+        <v>546</v>
       </c>
       <c r="AA32" s="16" t="s">
-        <v>499</v>
+        <v>523</v>
       </c>
       <c r="AB32" s="17" t="s">
-        <v>500</v>
+        <v>524</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="59.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="30" t="s">
-        <v>523</v>
+        <v>547</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>524</v>
+        <v>548</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>525</v>
+        <v>549</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>526</v>
+        <v>550</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>527</v>
+        <v>551</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>528</v>
+        <v>552</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>529</v>
+        <v>553</v>
       </c>
       <c r="H33" s="15" t="s">
-        <v>530</v>
+        <v>554</v>
       </c>
       <c r="I33" s="15" t="s">
-        <v>531</v>
+        <v>555</v>
       </c>
       <c r="J33" s="15" t="s">
-        <v>532</v>
+        <v>556</v>
       </c>
       <c r="K33" s="16" t="s">
-        <v>533</v>
+        <v>557</v>
       </c>
       <c r="L33" s="16" t="s">
-        <v>534</v>
+        <v>558</v>
       </c>
       <c r="M33" s="16" t="s">
-        <v>535</v>
+        <v>559</v>
       </c>
       <c r="N33" s="16" t="s">
-        <v>533</v>
+        <v>557</v>
       </c>
       <c r="O33" s="16" t="s">
-        <v>536</v>
+        <v>560</v>
       </c>
       <c r="P33" s="16" t="s">
-        <v>537</v>
+        <v>561</v>
       </c>
       <c r="Q33" s="16" t="s">
-        <v>538</v>
+        <v>562</v>
       </c>
       <c r="R33" s="16" t="s">
-        <v>539</v>
+        <v>563</v>
       </c>
       <c r="S33" s="16" t="s">
-        <v>540</v>
+        <v>564</v>
       </c>
       <c r="T33" s="16" t="s">
-        <v>541</v>
+        <v>565</v>
       </c>
       <c r="U33" s="16" t="s">
-        <v>542</v>
+        <v>566</v>
       </c>
       <c r="V33" s="16" t="s">
-        <v>543</v>
+        <v>567</v>
       </c>
       <c r="W33" s="16" t="s">
-        <v>544</v>
+        <v>568</v>
       </c>
       <c r="X33" s="16" t="s">
-        <v>545</v>
+        <v>569</v>
       </c>
       <c r="Y33" s="16" t="s">
-        <v>546</v>
+        <v>570</v>
       </c>
       <c r="Z33" s="16" t="s">
-        <v>547</v>
+        <v>571</v>
       </c>
       <c r="AA33" s="16" t="s">
-        <v>524</v>
+        <v>548</v>
       </c>
       <c r="AB33" s="17" t="s">
-        <v>525</v>
+        <v>549</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="54.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="25" t="s">
-        <v>548</v>
+        <v>572</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>549</v>
+        <v>573</v>
       </c>
       <c r="C34" s="26" t="s">
-        <v>550</v>
+        <v>574</v>
       </c>
       <c r="D34" s="26" t="s">
-        <v>551</v>
+        <v>575</v>
       </c>
       <c r="E34" s="26" t="s">
-        <v>552</v>
+        <v>576</v>
       </c>
       <c r="F34" s="26" t="s">
-        <v>553</v>
+        <v>577</v>
       </c>
       <c r="G34" s="26" t="s">
-        <v>554</v>
+        <v>578</v>
       </c>
       <c r="H34" s="26" t="s">
-        <v>555</v>
+        <v>579</v>
       </c>
       <c r="I34" s="26" t="s">
-        <v>556</v>
+        <v>580</v>
       </c>
       <c r="J34" s="26" t="s">
-        <v>557</v>
+        <v>581</v>
       </c>
       <c r="K34" s="27" t="s">
-        <v>558</v>
+        <v>582</v>
       </c>
       <c r="L34" s="27" t="s">
-        <v>559</v>
+        <v>583</v>
       </c>
       <c r="M34" s="27" t="s">
-        <v>560</v>
+        <v>584</v>
       </c>
       <c r="N34" s="27" t="s">
-        <v>558</v>
+        <v>582</v>
       </c>
       <c r="O34" s="27" t="s">
-        <v>561</v>
+        <v>585</v>
       </c>
       <c r="P34" s="27" t="s">
-        <v>562</v>
+        <v>586</v>
       </c>
       <c r="Q34" s="27" t="s">
-        <v>563</v>
+        <v>587</v>
       </c>
       <c r="R34" s="27" t="s">
-        <v>564</v>
+        <v>588</v>
       </c>
       <c r="S34" s="27" t="s">
-        <v>565</v>
+        <v>589</v>
       </c>
       <c r="T34" s="27" t="s">
-        <v>566</v>
+        <v>590</v>
       </c>
       <c r="U34" s="27" t="s">
-        <v>567</v>
+        <v>591</v>
       </c>
       <c r="V34" s="27" t="s">
-        <v>568</v>
+        <v>592</v>
       </c>
       <c r="W34" s="27" t="s">
-        <v>569</v>
+        <v>593</v>
       </c>
       <c r="X34" s="27" t="s">
-        <v>570</v>
+        <v>594</v>
       </c>
       <c r="Y34" s="27" t="s">
-        <v>571</v>
+        <v>595</v>
       </c>
       <c r="Z34" s="27" t="s">
-        <v>572</v>
+        <v>596</v>
       </c>
       <c r="AA34" s="27" t="s">
-        <v>549</v>
+        <v>573</v>
       </c>
       <c r="AB34" s="28" t="s">
-        <v>550</v>
+        <v>574</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5263,432 +5389,432 @@
     </row>
     <row r="36" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="18" t="s">
-        <v>573</v>
+        <v>597</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>574</v>
+        <v>598</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>575</v>
+        <v>599</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>576</v>
+        <v>600</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>577</v>
+        <v>601</v>
       </c>
       <c r="F36" s="15" t="s">
-        <v>578</v>
+        <v>602</v>
       </c>
       <c r="G36" s="15" t="s">
-        <v>579</v>
+        <v>603</v>
       </c>
       <c r="H36" s="15" t="s">
-        <v>580</v>
+        <v>604</v>
       </c>
       <c r="I36" s="15" t="s">
-        <v>581</v>
+        <v>605</v>
       </c>
       <c r="J36" s="15" t="s">
-        <v>582</v>
+        <v>606</v>
       </c>
       <c r="K36" s="16" t="s">
-        <v>583</v>
+        <v>607</v>
       </c>
       <c r="L36" s="16" t="s">
-        <v>584</v>
+        <v>608</v>
       </c>
       <c r="M36" s="16" t="s">
-        <v>585</v>
+        <v>609</v>
       </c>
       <c r="N36" s="16" t="s">
-        <v>583</v>
+        <v>607</v>
       </c>
       <c r="O36" s="16" t="s">
-        <v>586</v>
+        <v>610</v>
       </c>
       <c r="P36" s="16" t="s">
-        <v>587</v>
+        <v>611</v>
       </c>
       <c r="Q36" s="16" t="s">
-        <v>588</v>
+        <v>612</v>
       </c>
       <c r="R36" s="16" t="s">
-        <v>589</v>
+        <v>613</v>
       </c>
       <c r="S36" s="16" t="s">
-        <v>590</v>
+        <v>614</v>
       </c>
       <c r="T36" s="16" t="s">
-        <v>591</v>
+        <v>615</v>
       </c>
       <c r="U36" s="16" t="s">
-        <v>592</v>
+        <v>616</v>
       </c>
       <c r="V36" s="16" t="s">
-        <v>593</v>
+        <v>617</v>
       </c>
       <c r="W36" s="16" t="s">
-        <v>594</v>
+        <v>618</v>
       </c>
       <c r="X36" s="16" t="s">
-        <v>595</v>
+        <v>619</v>
       </c>
       <c r="Y36" s="16" t="s">
-        <v>596</v>
+        <v>620</v>
       </c>
       <c r="Z36" s="16" t="s">
-        <v>597</v>
+        <v>621</v>
       </c>
       <c r="AA36" s="16" t="s">
-        <v>574</v>
+        <v>598</v>
       </c>
       <c r="AB36" s="17" t="s">
-        <v>575</v>
+        <v>599</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="53.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="18" t="s">
-        <v>598</v>
+        <v>622</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>599</v>
+        <v>623</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>600</v>
+        <v>624</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>601</v>
+        <v>625</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>602</v>
+        <v>626</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>603</v>
+        <v>627</v>
       </c>
       <c r="G37" s="15" t="s">
-        <v>604</v>
+        <v>628</v>
       </c>
       <c r="H37" s="15" t="s">
-        <v>605</v>
+        <v>629</v>
       </c>
       <c r="I37" s="15" t="s">
-        <v>606</v>
+        <v>630</v>
       </c>
       <c r="J37" s="15" t="s">
-        <v>607</v>
+        <v>631</v>
       </c>
       <c r="K37" s="16" t="s">
-        <v>608</v>
+        <v>632</v>
       </c>
       <c r="L37" s="16" t="s">
-        <v>609</v>
+        <v>633</v>
       </c>
       <c r="M37" s="16" t="s">
-        <v>610</v>
+        <v>634</v>
       </c>
       <c r="N37" s="16" t="s">
-        <v>608</v>
+        <v>632</v>
       </c>
       <c r="O37" s="16" t="s">
-        <v>611</v>
+        <v>635</v>
       </c>
       <c r="P37" s="16" t="s">
-        <v>612</v>
+        <v>636</v>
       </c>
       <c r="Q37" s="16" t="s">
-        <v>613</v>
+        <v>637</v>
       </c>
       <c r="R37" s="16" t="s">
-        <v>614</v>
+        <v>638</v>
       </c>
       <c r="S37" s="16" t="s">
-        <v>615</v>
+        <v>639</v>
       </c>
       <c r="T37" s="16" t="s">
-        <v>616</v>
+        <v>640</v>
       </c>
       <c r="U37" s="16" t="s">
-        <v>617</v>
+        <v>641</v>
       </c>
       <c r="V37" s="16" t="s">
-        <v>618</v>
+        <v>642</v>
       </c>
       <c r="W37" s="16" t="s">
-        <v>619</v>
+        <v>643</v>
       </c>
       <c r="X37" s="16" t="s">
-        <v>620</v>
+        <v>644</v>
       </c>
       <c r="Y37" s="16" t="s">
-        <v>621</v>
+        <v>645</v>
       </c>
       <c r="Z37" s="16" t="s">
-        <v>622</v>
+        <v>646</v>
       </c>
       <c r="AA37" s="16" t="s">
-        <v>599</v>
+        <v>623</v>
       </c>
       <c r="AB37" s="17" t="s">
-        <v>600</v>
+        <v>624</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="47" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="18" t="s">
-        <v>623</v>
+        <v>647</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>624</v>
+        <v>648</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>625</v>
+        <v>649</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>626</v>
+        <v>650</v>
       </c>
       <c r="E38" s="15" t="s">
-        <v>627</v>
+        <v>651</v>
       </c>
       <c r="F38" s="15" t="s">
-        <v>628</v>
+        <v>652</v>
       </c>
       <c r="G38" s="15" t="s">
-        <v>629</v>
+        <v>653</v>
       </c>
       <c r="H38" s="15" t="s">
-        <v>630</v>
+        <v>654</v>
       </c>
       <c r="I38" s="15" t="s">
-        <v>631</v>
+        <v>655</v>
       </c>
       <c r="J38" s="15" t="s">
-        <v>632</v>
+        <v>656</v>
       </c>
       <c r="K38" s="16" t="s">
-        <v>633</v>
+        <v>657</v>
       </c>
       <c r="L38" s="16" t="s">
-        <v>634</v>
+        <v>658</v>
       </c>
       <c r="M38" s="16" t="s">
-        <v>635</v>
+        <v>659</v>
       </c>
       <c r="N38" s="16" t="s">
-        <v>633</v>
+        <v>657</v>
       </c>
       <c r="O38" s="16" t="s">
-        <v>636</v>
+        <v>660</v>
       </c>
       <c r="P38" s="16" t="s">
-        <v>637</v>
+        <v>661</v>
       </c>
       <c r="Q38" s="16" t="s">
-        <v>638</v>
+        <v>662</v>
       </c>
       <c r="R38" s="16" t="s">
-        <v>639</v>
+        <v>663</v>
       </c>
       <c r="S38" s="16" t="s">
-        <v>640</v>
+        <v>664</v>
       </c>
       <c r="T38" s="16" t="s">
-        <v>641</v>
+        <v>665</v>
       </c>
       <c r="U38" s="16" t="s">
-        <v>642</v>
+        <v>666</v>
       </c>
       <c r="V38" s="16" t="s">
-        <v>643</v>
+        <v>667</v>
       </c>
       <c r="W38" s="16" t="s">
-        <v>644</v>
+        <v>668</v>
       </c>
       <c r="X38" s="16" t="s">
-        <v>645</v>
+        <v>669</v>
       </c>
       <c r="Y38" s="16" t="s">
-        <v>646</v>
+        <v>670</v>
       </c>
       <c r="Z38" s="16" t="s">
-        <v>647</v>
+        <v>671</v>
       </c>
       <c r="AA38" s="16" t="s">
-        <v>624</v>
+        <v>648</v>
       </c>
       <c r="AB38" s="17" t="s">
-        <v>625</v>
+        <v>649</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="14" t="s">
-        <v>648</v>
+        <v>672</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>649</v>
+        <v>673</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>650</v>
+        <v>674</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>651</v>
+        <v>675</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>652</v>
+        <v>676</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>653</v>
+        <v>677</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>654</v>
+        <v>678</v>
       </c>
       <c r="H39" s="15" t="s">
-        <v>655</v>
+        <v>679</v>
       </c>
       <c r="I39" s="15" t="s">
-        <v>656</v>
+        <v>680</v>
       </c>
       <c r="J39" s="15" t="s">
-        <v>657</v>
+        <v>681</v>
       </c>
       <c r="K39" s="16" t="s">
-        <v>658</v>
+        <v>682</v>
       </c>
       <c r="L39" s="16" t="s">
-        <v>659</v>
+        <v>683</v>
       </c>
       <c r="M39" s="16" t="s">
-        <v>660</v>
+        <v>684</v>
       </c>
       <c r="N39" s="16" t="s">
-        <v>658</v>
+        <v>682</v>
       </c>
       <c r="O39" s="16" t="s">
-        <v>661</v>
+        <v>685</v>
       </c>
       <c r="P39" s="16" t="s">
-        <v>662</v>
+        <v>686</v>
       </c>
       <c r="Q39" s="16" t="s">
-        <v>663</v>
+        <v>687</v>
       </c>
       <c r="R39" s="16" t="s">
-        <v>664</v>
+        <v>688</v>
       </c>
       <c r="S39" s="16" t="s">
-        <v>665</v>
+        <v>689</v>
       </c>
       <c r="T39" s="16" t="s">
-        <v>666</v>
+        <v>690</v>
       </c>
       <c r="U39" s="16" t="s">
-        <v>667</v>
+        <v>691</v>
       </c>
       <c r="V39" s="16" t="s">
-        <v>668</v>
+        <v>692</v>
       </c>
       <c r="W39" s="16" t="s">
-        <v>669</v>
+        <v>693</v>
       </c>
       <c r="X39" s="16" t="s">
-        <v>670</v>
+        <v>694</v>
       </c>
       <c r="Y39" s="16" t="s">
-        <v>671</v>
+        <v>695</v>
       </c>
       <c r="Z39" s="16" t="s">
-        <v>672</v>
+        <v>696</v>
       </c>
       <c r="AA39" s="16" t="s">
-        <v>649</v>
+        <v>673</v>
       </c>
       <c r="AB39" s="17" t="s">
-        <v>650</v>
+        <v>674</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="33" t="s">
-        <v>673</v>
+        <v>697</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>674</v>
+        <v>698</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>675</v>
+        <v>699</v>
       </c>
       <c r="D40" s="15" t="s">
-        <v>676</v>
+        <v>700</v>
       </c>
       <c r="E40" s="15" t="s">
-        <v>677</v>
+        <v>701</v>
       </c>
       <c r="F40" s="15" t="s">
-        <v>678</v>
+        <v>702</v>
       </c>
       <c r="G40" s="15" t="s">
-        <v>679</v>
+        <v>703</v>
       </c>
       <c r="H40" s="15" t="s">
-        <v>680</v>
+        <v>704</v>
       </c>
       <c r="I40" s="15" t="s">
-        <v>681</v>
+        <v>705</v>
       </c>
       <c r="J40" s="15" t="s">
-        <v>682</v>
+        <v>706</v>
       </c>
       <c r="K40" s="16" t="s">
-        <v>683</v>
+        <v>707</v>
       </c>
       <c r="L40" s="16" t="s">
-        <v>684</v>
+        <v>708</v>
       </c>
       <c r="M40" s="16" t="s">
-        <v>685</v>
+        <v>709</v>
       </c>
       <c r="N40" s="16" t="s">
-        <v>683</v>
+        <v>707</v>
       </c>
       <c r="O40" s="16" t="s">
-        <v>686</v>
+        <v>710</v>
       </c>
       <c r="P40" s="16" t="s">
-        <v>687</v>
+        <v>711</v>
       </c>
       <c r="Q40" s="16" t="s">
-        <v>688</v>
+        <v>712</v>
       </c>
       <c r="R40" s="16" t="s">
-        <v>689</v>
+        <v>713</v>
       </c>
       <c r="S40" s="16" t="s">
-        <v>690</v>
+        <v>714</v>
       </c>
       <c r="T40" s="16" t="s">
-        <v>691</v>
+        <v>715</v>
       </c>
       <c r="U40" s="16" t="s">
-        <v>692</v>
+        <v>716</v>
       </c>
       <c r="V40" s="16" t="s">
-        <v>693</v>
+        <v>717</v>
       </c>
       <c r="W40" s="16" t="s">
-        <v>694</v>
+        <v>718</v>
       </c>
       <c r="X40" s="16" t="s">
-        <v>695</v>
+        <v>719</v>
       </c>
       <c r="Y40" s="16" t="s">
-        <v>696</v>
+        <v>720</v>
       </c>
       <c r="Z40" s="16" t="s">
-        <v>697</v>
+        <v>721</v>
       </c>
       <c r="AA40" s="16" t="s">
-        <v>674</v>
+        <v>698</v>
       </c>
       <c r="AB40" s="17" t="s">
-        <v>675</v>
+        <v>699</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -5738,7 +5864,7 @@
   <dimension ref="A1:Y59"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B19:AB19 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B15:AB15 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5749,32 +5875,32 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="34" t="s">
-        <v>698</v>
+        <v>722</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="34" t="s">
-        <v>699</v>
+        <v>723</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="34" t="s">
-        <v>700</v>
+        <v>724</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="34" t="s">
-        <v>701</v>
+        <v>725</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="34" t="s">
-        <v>702</v>
+        <v>726</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="34" t="s">
-        <v>703</v>
+        <v>727</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5782,12 +5908,12 @@
     </row>
     <row r="9" customFormat="false" ht="80.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="35" t="s">
-        <v>704</v>
+        <v>728</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="51.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="36" t="s">
-        <v>705</v>
+        <v>729</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5795,7 +5921,7 @@
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="37" t="s">
-        <v>706</v>
+        <v>730</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5803,22 +5929,22 @@
     </row>
     <row r="14" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="39" t="s">
-        <v>707</v>
+        <v>731</v>
       </c>
       <c r="B14" s="40" t="s">
-        <v>708</v>
+        <v>732</v>
       </c>
       <c r="C14" s="40"/>
       <c r="D14" s="40" t="s">
-        <v>709</v>
+        <v>733</v>
       </c>
       <c r="E14" s="40"/>
       <c r="F14" s="40" t="s">
-        <v>710</v>
+        <v>734</v>
       </c>
       <c r="G14" s="40"/>
       <c r="H14" s="40" t="s">
-        <v>711</v>
+        <v>735</v>
       </c>
       <c r="I14" s="40"/>
       <c r="J14" s="40" t="s">
@@ -5834,19 +5960,19 @@
       </c>
       <c r="O14" s="40"/>
       <c r="P14" s="40" t="s">
-        <v>712</v>
+        <v>736</v>
       </c>
       <c r="Q14" s="40"/>
       <c r="R14" s="40" t="s">
-        <v>713</v>
+        <v>737</v>
       </c>
       <c r="S14" s="40"/>
       <c r="T14" s="40" t="s">
-        <v>714</v>
+        <v>738</v>
       </c>
       <c r="U14" s="40"/>
       <c r="V14" s="40" t="s">
-        <v>715</v>
+        <v>739</v>
       </c>
       <c r="W14" s="40"/>
       <c r="X14" s="41" t="s">
@@ -5931,7 +6057,7 @@
     </row>
     <row r="16" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="44" t="s">
-        <v>716</v>
+        <v>740</v>
       </c>
       <c r="B16" s="44"/>
       <c r="C16" s="44"/>
@@ -5960,7 +6086,7 @@
     </row>
     <row r="17" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="45" t="s">
-        <v>717</v>
+        <v>741</v>
       </c>
       <c r="B17" s="46"/>
       <c r="C17" s="46"/>
@@ -5989,7 +6115,7 @@
     </row>
     <row r="18" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="45" t="s">
-        <v>718</v>
+        <v>742</v>
       </c>
       <c r="B18" s="46"/>
       <c r="C18" s="46"/>
@@ -6018,7 +6144,7 @@
     </row>
     <row r="19" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="45" t="s">
-        <v>719</v>
+        <v>743</v>
       </c>
       <c r="B19" s="46"/>
       <c r="C19" s="46"/>
@@ -6101,7 +6227,7 @@
     </row>
     <row r="22" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="44" t="s">
-        <v>720</v>
+        <v>744</v>
       </c>
       <c r="B22" s="44"/>
       <c r="C22" s="44"/>
@@ -6130,7 +6256,7 @@
     </row>
     <row r="23" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="45" t="s">
-        <v>721</v>
+        <v>745</v>
       </c>
       <c r="B23" s="46"/>
       <c r="C23" s="46"/>
@@ -6159,7 +6285,7 @@
     </row>
     <row r="24" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="45" t="s">
-        <v>722</v>
+        <v>746</v>
       </c>
       <c r="B24" s="46"/>
       <c r="C24" s="46"/>
@@ -6188,7 +6314,7 @@
     </row>
     <row r="25" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="45" t="s">
-        <v>723</v>
+        <v>747</v>
       </c>
       <c r="B25" s="46"/>
       <c r="C25" s="46"/>
@@ -6217,7 +6343,7 @@
     </row>
     <row r="26" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="45" t="s">
-        <v>724</v>
+        <v>748</v>
       </c>
       <c r="B26" s="46"/>
       <c r="C26" s="46"/>
@@ -6300,7 +6426,7 @@
     </row>
     <row r="29" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="48" t="s">
-        <v>725</v>
+        <v>749</v>
       </c>
       <c r="B29" s="46"/>
       <c r="C29" s="46"/>
@@ -6329,7 +6455,7 @@
     </row>
     <row r="30" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="44" t="s">
-        <v>726</v>
+        <v>750</v>
       </c>
       <c r="B30" s="44"/>
       <c r="C30" s="44"/>
@@ -6358,7 +6484,7 @@
     </row>
     <row r="31" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="45" t="s">
-        <v>727</v>
+        <v>751</v>
       </c>
       <c r="B31" s="46"/>
       <c r="C31" s="46"/>
@@ -6387,7 +6513,7 @@
     </row>
     <row r="32" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="45" t="s">
-        <v>728</v>
+        <v>752</v>
       </c>
       <c r="B32" s="46"/>
       <c r="C32" s="46"/>
@@ -6470,7 +6596,7 @@
     </row>
     <row r="35" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="44" t="s">
-        <v>729</v>
+        <v>753</v>
       </c>
       <c r="B35" s="44"/>
       <c r="C35" s="44"/>
@@ -6580,7 +6706,7 @@
     </row>
     <row r="39" customFormat="false" ht="66.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="48" t="s">
-        <v>730</v>
+        <v>754</v>
       </c>
       <c r="B39" s="46"/>
       <c r="C39" s="46"/>
@@ -6609,7 +6735,7 @@
     </row>
     <row r="40" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="48" t="s">
-        <v>731</v>
+        <v>755</v>
       </c>
       <c r="B40" s="46"/>
       <c r="C40" s="46"/>
@@ -6638,7 +6764,7 @@
     </row>
     <row r="41" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="44" t="s">
-        <v>732</v>
+        <v>756</v>
       </c>
       <c r="B41" s="44"/>
       <c r="C41" s="44"/>
@@ -6667,7 +6793,7 @@
     </row>
     <row r="42" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="45" t="s">
-        <v>733</v>
+        <v>757</v>
       </c>
       <c r="B42" s="46"/>
       <c r="C42" s="46"/>
@@ -6696,7 +6822,7 @@
     </row>
     <row r="43" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="45" t="s">
-        <v>734</v>
+        <v>758</v>
       </c>
       <c r="B43" s="46"/>
       <c r="C43" s="46"/>
@@ -6725,7 +6851,7 @@
     </row>
     <row r="44" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="45" t="s">
-        <v>735</v>
+        <v>759</v>
       </c>
       <c r="B44" s="46"/>
       <c r="C44" s="46"/>
@@ -6808,7 +6934,7 @@
     </row>
     <row r="47" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="44" t="s">
-        <v>736</v>
+        <v>760</v>
       </c>
       <c r="B47" s="44"/>
       <c r="C47" s="44"/>
@@ -6891,7 +7017,7 @@
     </row>
     <row r="50" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="45" t="s">
-        <v>737</v>
+        <v>761</v>
       </c>
       <c r="B50" s="46"/>
       <c r="C50" s="46"/>
@@ -6920,7 +7046,7 @@
     </row>
     <row r="51" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="44" t="s">
-        <v>738</v>
+        <v>762</v>
       </c>
       <c r="B51" s="44"/>
       <c r="C51" s="44"/>
@@ -6949,7 +7075,7 @@
     </row>
     <row r="52" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="49" t="s">
-        <v>739</v>
+        <v>763</v>
       </c>
       <c r="B52" s="46"/>
       <c r="C52" s="46"/>
@@ -6978,7 +7104,7 @@
     </row>
     <row r="53" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="49" t="s">
-        <v>740</v>
+        <v>764</v>
       </c>
       <c r="B53" s="46"/>
       <c r="C53" s="46"/>
@@ -7007,7 +7133,7 @@
     </row>
     <row r="54" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="49" t="s">
-        <v>741</v>
+        <v>765</v>
       </c>
       <c r="B54" s="46"/>
       <c r="C54" s="46"/>
@@ -7063,7 +7189,7 @@
     </row>
     <row r="56" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="50" t="s">
-        <v>742</v>
+        <v>766</v>
       </c>
       <c r="B56" s="46"/>
       <c r="C56" s="46"/>
@@ -7092,7 +7218,7 @@
     </row>
     <row r="57" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="51" t="s">
-        <v>743</v>
+        <v>767</v>
       </c>
       <c r="B57" s="52"/>
       <c r="C57" s="52"/>
@@ -7124,7 +7250,7 @@
     </row>
     <row r="59" customFormat="false" ht="141.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="55" t="s">
-        <v>744</v>
+        <v>768</v>
       </c>
     </row>
   </sheetData>

--- a/resources/report_template.xlsx
+++ b/resources/report_template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="469" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="417" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="File active" sheetId="1" state="visible" r:id="rId2"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="769">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="827">
   <si>
     <t>Région</t>
   </si>
@@ -42,12 +42,18 @@
     <t>F</t>
   </si>
   <si>
+    <t>Sexe NS</t>
+  </si>
+  <si>
     <t>&lt; 15 ans</t>
   </si>
   <si>
     <t>≥ 15 ans</t>
   </si>
   <si>
+    <t>Age NS</t>
+  </si>
+  <si>
     <t>Total 1</t>
   </si>
   <si>
@@ -90,12 +96,18 @@
     <t>{key: 'PREVIOUS_ACTIVE_LIST', gender: 1}</t>
   </si>
   <si>
+    <t>{key: 'PREVIOUS_ACTIVE_LIST', gender: 99}</t>
+  </si>
+  <si>
     <t>{key:'PREVIOUS_ACTIVE_LIST', age_max: 15}</t>
   </si>
   <si>
     <t>{key: 'PREVIOUS_ACTIVE_LIST', age_min: 15}</t>
   </si>
   <si>
+    <t>{key: 'PREVIOUS_ACTIVE_LIST', age_is_null: true}</t>
+  </si>
+  <si>
     <t>{key: 'PREVIOUS_ACTIVE_LIST'}</t>
   </si>
   <si>
@@ -165,12 +177,18 @@
     <t>{key: 'ARV_STARTED_DURING_PERIOD', gender: 1}</t>
   </si>
   <si>
+    <t>{key: 'ARV_STARTED_DURING_PERIOD', gender: 99}</t>
+  </si>
+  <si>
     <t>{key:'ARV_STARTED_DURING_PERIOD', age_max: 15}</t>
   </si>
   <si>
     <t>{key: 'ARV_STARTED_DURING_PERIOD', age_min: 15}</t>
   </si>
   <si>
+    <t>{key: 'ARV_STARTED_DURING_PERIOD', age_is_null: true}</t>
+  </si>
+  <si>
     <t>{key: 'ARV_STARTED_DURING_PERIOD'}</t>
   </si>
   <si>
@@ -240,12 +258,18 @@
     <t>{key: 'ARV_INCOMING_TRANSFER_DURING_PERIOD', gender: 1}</t>
   </si>
   <si>
+    <t>{key: 'ARV_INCOMING_TRANSFER_DURING_PERIOD', gender: 99}</t>
+  </si>
+  <si>
     <t>{key:'ARV_INCOMING_TRANSFER_DURING_PERIOD', age_max: 15}</t>
   </si>
   <si>
     <t>{key: 'ARV_INCOMING_TRANSFER_DURING_PERIOD', age_min: 15}</t>
   </si>
   <si>
+    <t>{key: 'ARV_INCOMING_TRANSFER_DURING_PERIOD', age_is_null: true}</t>
+  </si>
+  <si>
     <t>{key: 'ARV_INCOMING_TRANSFER_DURING_PERIOD'}</t>
   </si>
   <si>
@@ -315,12 +339,18 @@
     <t>{key: 'ARV_LOST_BACK', gender: 1}</t>
   </si>
   <si>
+    <t>{key: 'ARV_LOST_BACK', gender: 99}</t>
+  </si>
+  <si>
     <t>{key:'ARV_LOST_BACK', age_max: 15}</t>
   </si>
   <si>
     <t>{key: 'ARV_LOST_BACK', age_min: 15}</t>
   </si>
   <si>
+    <t>{key: 'ARV_LOST_BACK', age_is_null: true}</t>
+  </si>
+  <si>
     <t>{key: 'ARV_LOST_BACK'}</t>
   </si>
   <si>
@@ -390,12 +420,18 @@
     <t>{key: 'ARV_RESTARTED', gender: 1}</t>
   </si>
   <si>
+    <t>{key: 'ARV_RESTARTED', gender: 99}</t>
+  </si>
+  <si>
     <t>{key:'ARV_RESTARTED', age_max: 15}</t>
   </si>
   <si>
     <t>{key: 'ARV_RESTARTED', age_min: 15}</t>
   </si>
   <si>
+    <t>{key: 'ARV_RESTARTED', age_is_null: true}</t>
+  </si>
+  <si>
     <t>{key: 'ARV_RESTARTED'}</t>
   </si>
   <si>
@@ -465,12 +501,18 @@
     <t>{key: 'RECEIVED_ARV_DURING_PERIOD', gender: 1}</t>
   </si>
   <si>
+    <t>{key: 'RECEIVED_ARV_DURING_PERIOD', gender: 99}</t>
+  </si>
+  <si>
     <t>{key:'RECEIVED_ARV_DURING_PERIOD', age_max: 15}</t>
   </si>
   <si>
     <t>{key: 'RECEIVED_ARV_DURING_PERIOD', age_min: 15}</t>
   </si>
   <si>
+    <t>{key: 'RECEIVED_ARV_DURING_PERIOD', age_is_null: true}</t>
+  </si>
+  <si>
     <t>{key: 'RECEIVED_ARV_DURING_PERIOD'}</t>
   </si>
   <si>
@@ -540,12 +582,18 @@
     <t>{key: 'ARV_LOST_DURING_PERIOD', gender: 1}</t>
   </si>
   <si>
+    <t>{key: 'ARV_LOST_DURING_PERIOD', gender: 99}</t>
+  </si>
+  <si>
     <t>{key:'ARV_LOST_DURING_PERIOD', age_max: 15}</t>
   </si>
   <si>
     <t>{key: 'ARV_LOST_DURING_PERIOD', age_min: 15}</t>
   </si>
   <si>
+    <t>{key: 'ARV_LOST_DURING_PERIOD', age_is_null: true}</t>
+  </si>
+  <si>
     <t>{key: 'ARV_LOST_DURING_PERIOD'}</t>
   </si>
   <si>
@@ -615,12 +663,18 @@
     <t>{key: 'ARV_DEAD_DURING_PERIOD', gender: 1}</t>
   </si>
   <si>
+    <t>{key: 'ARV_DEAD_DURING_PERIOD', gender: 99}</t>
+  </si>
+  <si>
     <t>{key:'ARV_DEAD_DURING_PERIOD', age_max: 15}</t>
   </si>
   <si>
     <t>{key: 'ARV_DEAD_DURING_PERIOD', age_min: 15}</t>
   </si>
   <si>
+    <t>{key: 'ARV_DEAD_DURING_PERIOD', age_is_null: true}</t>
+  </si>
+  <si>
     <t>{key: 'ARV_DEAD_DURING_PERIOD'}</t>
   </si>
   <si>
@@ -690,12 +744,18 @@
     <t>{key: 'ARV_STOPPED_DURING_PERIOD', gender: 1}</t>
   </si>
   <si>
+    <t>{key: 'ARV_STOPPED_DURING_PERIOD', gender: 99}</t>
+  </si>
+  <si>
     <t>{key:'ARV_STOPPED_DURING_PERIOD', age_max: 15}</t>
   </si>
   <si>
     <t>{key: 'ARV_STOPPED_DURING_PERIOD', age_min: 15}</t>
   </si>
   <si>
+    <t>{key: 'ARV_STOPPED_DURING_PERIOD', age_is_null: true}</t>
+  </si>
+  <si>
     <t>{key: 'ARV_STOPPED_DURING_PERIOD'}</t>
   </si>
   <si>
@@ -765,12 +825,18 @@
     <t>{key: 'ARV_TRANSFERRED_DURING_PERIOD', gender: 1}</t>
   </si>
   <si>
+    <t>{key: 'ARV_TRANSFERRED_DURING_PERIOD', gender: 99}</t>
+  </si>
+  <si>
     <t>{key:'ARV_TRANSFERRED_DURING_PERIOD', age_max: 15}</t>
   </si>
   <si>
     <t>{key: 'ARV_TRANSFERRED_DURING_PERIOD', age_min: 15}</t>
   </si>
   <si>
+    <t>{key: 'ARV_TRANSFERRED_DURING_PERIOD', age_is_null: true}</t>
+  </si>
+  <si>
     <t>{key: 'ARV_TRANSFERRED_DURING_PERIOD'}</t>
   </si>
   <si>
@@ -840,12 +906,18 @@
     <t>{key: 'ACTIVE_LIST', gender: 1}</t>
   </si>
   <si>
+    <t>{key: 'ACTIVE_LIST', gender: 99}</t>
+  </si>
+  <si>
     <t>{key:'ACTIVE_LIST', age_max: 15}</t>
   </si>
   <si>
     <t>{key: 'ACTIVE_LIST', age_min: 15}</t>
   </si>
   <si>
+    <t>{key: 'ACTIVE_LIST', age_is_null: true}</t>
+  </si>
+  <si>
     <t>{key: 'ACTIVE_LIST'}</t>
   </si>
   <si>
@@ -915,12 +987,18 @@
     <t>{key: 'CTX_ELIGIBLE', gender: 1}</t>
   </si>
   <si>
+    <t>{key: 'CTX_ELIGIBLE', gender: 99}</t>
+  </si>
+  <si>
     <t>{key:'CTX_ELIGIBLE', age_max: 15}</t>
   </si>
   <si>
     <t>{key: 'CTX_ELIGIBLE', age_min: 15}</t>
   </si>
   <si>
+    <t>{key: 'CTX_ELIGIBLE', age_is_null: true}</t>
+  </si>
+  <si>
     <t>{key: 'CTX_ELIGIBLE'}</t>
   </si>
   <si>
@@ -990,12 +1068,18 @@
     <t>{key: 'UNDER_CTX', gender: 1}</t>
   </si>
   <si>
+    <t>{key: 'UNDER_CTX', gender: 99}</t>
+  </si>
+  <si>
     <t>{key:'UNDER_CTX', age_max: 15}</t>
   </si>
   <si>
     <t>{key: 'UNDER_CTX', age_min: 15}</t>
   </si>
   <si>
+    <t>{key: 'UNDER_CTX', age_is_null: true}</t>
+  </si>
+  <si>
     <t>{key: 'UNDER_CTX'}</t>
   </si>
   <si>
@@ -1065,12 +1149,18 @@
     <t>{key: 'ARV_RETENTION_6_MONTHS', gender: 1}</t>
   </si>
   <si>
+    <t>{key: 'ARV_RETENTION_6_MONTHS', gender: 99}</t>
+  </si>
+  <si>
     <t>{key:'ARV_RETENTION_6_MONTHS', age_max: 15}</t>
   </si>
   <si>
     <t>{key: 'ARV_RETENTION_6_MONTHS', age_min: 15}</t>
   </si>
   <si>
+    <t>{key: 'ARV_RETENTION_6_MONTHS', age_is_null: true}</t>
+  </si>
+  <si>
     <t>{key: 'ARV_RETENTION_6_MONTHS'}</t>
   </si>
   <si>
@@ -1140,12 +1230,18 @@
     <t>{key: 'ARV_RETENTION_12_MONTHS', gender: 1}</t>
   </si>
   <si>
+    <t>{key: 'ARV_RETENTION_12_MONTHS', gender: 99}</t>
+  </si>
+  <si>
     <t>{key:'ARV_RETENTION_12_MONTHS', age_max: 15}</t>
   </si>
   <si>
     <t>{key: 'ARV_RETENTION_12_MONTHS', age_min: 15}</t>
   </si>
   <si>
+    <t>{key: 'ARV_RETENTION_12_MONTHS', age_is_null: true}</t>
+  </si>
+  <si>
     <t>{key: 'ARV_RETENTION_12_MONTHS'}</t>
   </si>
   <si>
@@ -1215,12 +1311,18 @@
     <t>{key: 'ARV_RETENTION_24_MONTHS', gender: 1}</t>
   </si>
   <si>
+    <t>{key: 'ARV_RETENTION_24_MONTHS', gender: 99}</t>
+  </si>
+  <si>
     <t>{key:'ARV_RETENTION_24_MONTHS', age_max: 15}</t>
   </si>
   <si>
     <t>{key: 'ARV_RETENTION_24_MONTHS', age_min: 15}</t>
   </si>
   <si>
+    <t>{key: 'ARV_RETENTION_24_MONTHS', age_is_null: true}</t>
+  </si>
+  <si>
     <t>{key: 'ARV_RETENTION_24_MONTHS'}</t>
   </si>
   <si>
@@ -1290,12 +1392,18 @@
     <t>{key: 'ARV_RETENTION_60_MONTHS', gender: 1}</t>
   </si>
   <si>
+    <t>{key: 'ARV_RETENTION_60_MONTHS', gender: 99}</t>
+  </si>
+  <si>
     <t>{key:'ARV_RETENTION_60_MONTHS', age_max: 15}</t>
   </si>
   <si>
     <t>{key: 'ARV_RETENTION_60_MONTHS', age_min: 15}</t>
   </si>
   <si>
+    <t>{key: 'ARV_RETENTION_60_MONTHS', age_is_null: true}</t>
+  </si>
+  <si>
     <t>{key: 'ARV_RETENTION_60_MONTHS'}</t>
   </si>
   <si>
@@ -1365,12 +1473,18 @@
     <t>{key: 'TB_RESEARCH_DURING_PERIOD', gender: 1}</t>
   </si>
   <si>
+    <t>{key: 'TB_RESEARCH_DURING_PERIOD', gender: 99}</t>
+  </si>
+  <si>
     <t>{key:'TB_RESEARCH_DURING_PERIOD', age_max: 15}</t>
   </si>
   <si>
     <t>{key: 'TB_RESEARCH_DURING_PERIOD', age_min: 15}</t>
   </si>
   <si>
+    <t>{key: 'TB_RESEARCH_DURING_PERIOD', age_is_null: true}</t>
+  </si>
+  <si>
     <t>{key: 'TB_RESEARCH_DURING_PERIOD'}</t>
   </si>
   <si>
@@ -1440,12 +1554,18 @@
     <t>{key: 'TB_DIAGNOSIS_DURING_PERIOD', gender: 1}</t>
   </si>
   <si>
+    <t>{key: 'TB_DIAGNOSIS_DURING_PERIOD', gender: 99}</t>
+  </si>
+  <si>
     <t>{key:'TB_DIAGNOSIS_DURING_PERIOD', age_max: 15}</t>
   </si>
   <si>
     <t>{key: 'TB_DIAGNOSIS_DURING_PERIOD', age_min: 15}</t>
   </si>
   <si>
+    <t>{key: 'TB_DIAGNOSIS_DURING_PERIOD', age_is_null: true}</t>
+  </si>
+  <si>
     <t>{key: 'TB_DIAGNOSIS_DURING_PERIOD'}</t>
   </si>
   <si>
@@ -1515,12 +1635,18 @@
     <t>{key: 'TB_TREATMENT_STARTED_DURING_PERIOD', gender: 1}</t>
   </si>
   <si>
+    <t>{key: 'TB_TREATMENT_STARTED_DURING_PERIOD', gender: 99}</t>
+  </si>
+  <si>
     <t>{key:'TB_TREATMENT_STARTED_DURING_PERIOD', age_max: 15}</t>
   </si>
   <si>
     <t>{key: 'TB_TREATMENT_STARTED_DURING_PERIOD', age_min: 15}</t>
   </si>
   <si>
+    <t>{key: 'TB_TREATMENT_STARTED_DURING_PERIOD', age_is_null: true}</t>
+  </si>
+  <si>
     <t>{key: 'TB_TREATMENT_STARTED_DURING_PERIOD'}</t>
   </si>
   <si>
@@ -1593,12 +1719,18 @@
     <t>{key: 'TB_VIH_POSITIVE_ARV_STARTED_DURING_PERIOD', gender: 1}</t>
   </si>
   <si>
+    <t>{key: 'TB_VIH_POSITIVE_ARV_STARTED_DURING_PERIOD', gender: 99}</t>
+  </si>
+  <si>
     <t>{key:'TB_VIH_POSITIVE_ARV_STARTED_DURING_PERIOD', age_max: 15}</t>
   </si>
   <si>
     <t>{key: 'TB_VIH_POSITIVE_ARV_STARTED_DURING_PERIOD', age_min: 15}</t>
   </si>
   <si>
+    <t>{key: 'TB_VIH_POSITIVE_ARV_STARTED_DURING_PERIOD', age_is_null: true}</t>
+  </si>
+  <si>
     <t>{key: 'TB_VIH_POSITIVE_ARV_STARTED_DURING_PERIOD'}</t>
   </si>
   <si>
@@ -1668,12 +1800,18 @@
     <t>{key: 'TB_VIH_POSITIVE_DURING_PERIOD', gender: 1}</t>
   </si>
   <si>
+    <t>{key: 'TB_VIH_POSITIVE_DURING_PERIOD', gender: 99}</t>
+  </si>
+  <si>
     <t>{key:'TB_VIH_POSITIVE_DURING_PERIOD', age_max: 15}</t>
   </si>
   <si>
     <t>{key: 'TB_VIH_POSITIVE_DURING_PERIOD', age_min: 15}</t>
   </si>
   <si>
+    <t>{key: 'TB_VIH_POSITIVE_DURING_PERIOD', age_is_null: true}</t>
+  </si>
+  <si>
     <t>{key: 'TB_VIH_POSITIVE_DURING_PERIOD'}</t>
   </si>
   <si>
@@ -1743,12 +1881,18 @@
     <t>{key: 'TB_ARV_TREATMENT', gender: 1}</t>
   </si>
   <si>
+    <t>{key: 'TB_ARV_TREATMENT', gender: 99}</t>
+  </si>
+  <si>
     <t>{key:'TB_ARV_TREATMENT', age_max: 15}</t>
   </si>
   <si>
     <t>{key: 'TB_ARV_TREATMENT', age_min: 15}</t>
   </si>
   <si>
+    <t>{key: 'TB_ARV_TREATMENT', age_is_null: true}</t>
+  </si>
+  <si>
     <t>{key: 'TB_ARV_TREATMENT'}</t>
   </si>
   <si>
@@ -1818,12 +1962,18 @@
     <t>{key: 'HEPATITIS_B_DIAGNOSIS_DURING_PERIOD', gender: 1}</t>
   </si>
   <si>
+    <t>{key: 'HEPATITIS_B_DIAGNOSIS_DURING_PERIOD', gender: 99}</t>
+  </si>
+  <si>
     <t>{key:'HEPATITIS_B_DIAGNOSIS_DURING_PERIOD', age_max: 15}</t>
   </si>
   <si>
     <t>{key: 'HEPATITIS_B_DIAGNOSIS_DURING_PERIOD', age_min: 15}</t>
   </si>
   <si>
+    <t>{key: 'HEPATITIS_B_DIAGNOSIS_DURING_PERIOD', age_is_null: true}</t>
+  </si>
+  <si>
     <t>{key: 'HEPATITIS_B_DIAGNOSIS_DURING_PERIOD'}</t>
   </si>
   <si>
@@ -1893,12 +2043,18 @@
     <t>{key: 'HAD_CV_WITHIN_12_MONTH_AFTER_ARV_START', gender: 1}</t>
   </si>
   <si>
+    <t>{key: 'HAD_CV_WITHIN_12_MONTH_AFTER_ARV_START', gender: 99}</t>
+  </si>
+  <si>
     <t>{key:'HAD_CV_WITHIN_12_MONTH_AFTER_ARV_START', age_max: 15}</t>
   </si>
   <si>
     <t>{key: 'HAD_CV_WITHIN_12_MONTH_AFTER_ARV_START', age_min: 15}</t>
   </si>
   <si>
+    <t>{key: 'HAD_CV_WITHIN_12_MONTH_AFTER_ARV_START', age_is_null: true}</t>
+  </si>
+  <si>
     <t>{key: 'HAD_CV_WITHIN_12_MONTH_AFTER_ARV_START'}</t>
   </si>
   <si>
@@ -1968,12 +2124,18 @@
     <t>{key: 'HAD_CV_INF_1000_WITHIN_12_MONTH_AFTER_ARV_START', gender: 1}</t>
   </si>
   <si>
+    <t>{key: 'HAD_CV_INF_1000_WITHIN_12_MONTH_AFTER_ARV_START', gender: 99}</t>
+  </si>
+  <si>
     <t>{key:'HAD_CV_INF_1000_WITHIN_12_MONTH_AFTER_ARV_START', age_max: 15}</t>
   </si>
   <si>
     <t>{key: 'HAD_CV_INF_1000_WITHIN_12_MONTH_AFTER_ARV_START', age_min: 15}</t>
   </si>
   <si>
+    <t>{key: 'HAD_CV_INF_1000_WITHIN_12_MONTH_AFTER_ARV_START', age_is_null: true}</t>
+  </si>
+  <si>
     <t>{key: 'HAD_CV_INF_1000_WITHIN_12_MONTH_AFTER_ARV_START'}</t>
   </si>
   <si>
@@ -2043,12 +2205,18 @@
     <t>{key: 'HAD_CD4_AT_ARV_START_DURING_PERIOD', gender: 1}</t>
   </si>
   <si>
+    <t>{key: 'HAD_CD4_AT_ARV_START_DURING_PERIOD', gender: 99}</t>
+  </si>
+  <si>
     <t>{key:'HAD_CD4_AT_ARV_START_DURING_PERIOD', age_max: 15}</t>
   </si>
   <si>
     <t>{key: 'HAD_CD4_AT_ARV_START_DURING_PERIOD', age_min: 15}</t>
   </si>
   <si>
+    <t>{key: 'HAD_CD4_AT_ARV_START_DURING_PERIOD', age_is_null: true}</t>
+  </si>
+  <si>
     <t>{key: 'HAD_CD4_AT_ARV_START_DURING_PERIOD'}</t>
   </si>
   <si>
@@ -2118,10 +2286,16 @@
     <t>{key: 'CD4_INF_200_AT_ARV_START_DURING_PERIOD', gender: 1}</t>
   </si>
   <si>
+    <t>{key: 'CD4_INF_200_AT_ARV_START_DURING_PERIOD', gender: 99}</t>
+  </si>
+  <si>
     <t>{key:'CD4_INF_200_AT_ARV_START_DURING_PERIOD', age_max: 15}</t>
   </si>
   <si>
     <t>{key: 'CD4_INF_200_AT_ARV_START_DURING_PERIOD', age_min: 15}</t>
+  </si>
+  <si>
+    <t>{key: 'CD4_INF_200_AT_ARV_START_DURING_PERIOD', age_is_null: true}</t>
   </si>
   <si>
     <t>{key: 'CD4_INF_200_AT_ARV_START_DURING_PERIOD'}</t>
@@ -3043,15 +3217,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>216000</xdr:colOff>
+      <xdr:colOff>270000</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>128160</xdr:rowOff>
+      <xdr:rowOff>110160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>698760</xdr:colOff>
+      <xdr:colOff>752040</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>96480</xdr:rowOff>
+      <xdr:rowOff>77760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3064,8 +3238,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="216000" y="727920"/>
-          <a:ext cx="482760" cy="358920"/>
+          <a:off x="270000" y="709920"/>
+          <a:ext cx="482040" cy="358200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3085,52 +3259,54 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AB57"/>
+  <dimension ref="A1:AD65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15:AB15"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A35" activeCellId="0" sqref="A35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="50.3036437246964"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.2834008097166"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.42914979757085"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.4251012145749"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="7.2834008097166"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.42914979757085"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.2834008097166"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="6.57085020242915"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.2834008097166"/>
-    <col collapsed="false" hidden="false" max="15" min="13" style="0" width="6.57085020242915"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="7"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="7.1417004048583"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="7.85425101214575"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="6.71255060728745"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="7.1417004048583"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="6.85425101214575"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="7.71255060728745"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="6.71255060728745"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="7.1417004048583"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="7"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="7.85425101214575"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.1902834008097"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.4251012145749"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.3036437246964"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="7.2834008097166"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.42914979757085"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="6.2834008097166"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="6.57085020242915"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="6.2834008097166"/>
+    <col collapsed="false" hidden="false" max="17" min="15" style="0" width="6.57085020242915"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="7"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="7.1417004048583"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="7.85425101214575"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="6.71255060728745"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="7.1417004048583"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="6.85425101214575"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="7.71255060728745"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="6.71255060728745"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="7.1417004048583"/>
     <col collapsed="false" hidden="false" max="27" min="27" style="0" width="7"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="7.4251012145749"/>
-    <col collapsed="false" hidden="false" max="263" min="29" style="0" width="11.4251012145749"/>
-    <col collapsed="false" hidden="false" max="264" min="264" style="0" width="64.1417004048583"/>
-    <col collapsed="false" hidden="false" max="519" min="265" style="0" width="11.4251012145749"/>
-    <col collapsed="false" hidden="false" max="520" min="520" style="0" width="64.1417004048583"/>
-    <col collapsed="false" hidden="false" max="775" min="521" style="0" width="11.4251012145749"/>
-    <col collapsed="false" hidden="false" max="776" min="776" style="0" width="64.1417004048583"/>
-    <col collapsed="false" hidden="false" max="1025" min="777" style="0" width="11.4251012145749"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="7.85425101214575"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="7"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="7.4251012145749"/>
+    <col collapsed="false" hidden="false" max="265" min="31" style="0" width="11.4251012145749"/>
+    <col collapsed="false" hidden="false" max="266" min="266" style="0" width="64.1417004048583"/>
+    <col collapsed="false" hidden="false" max="521" min="267" style="0" width="11.4251012145749"/>
+    <col collapsed="false" hidden="false" max="522" min="522" style="0" width="64.1417004048583"/>
+    <col collapsed="false" hidden="false" max="777" min="523" style="0" width="11.4251012145749"/>
+    <col collapsed="false" hidden="false" max="778" min="778" style="0" width="64.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1025" min="779" style="0" width="11.4251012145749"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0"/>
     </row>
-    <row r="2" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -3141,6 +3317,8 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
@@ -3153,8 +3331,10 @@
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
-    </row>
-    <row r="4" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -3165,6 +3345,8 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
@@ -3177,6 +3359,8 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
@@ -3202,11 +3386,13 @@
       <c r="S6" s="5"/>
       <c r="T6" s="5"/>
       <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0"/>
     </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3228,50 +3414,56 @@
       <c r="F9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9" s="8"/>
+      <c r="G9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="I9" s="8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J9" s="8"/>
-      <c r="K9" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="L9" s="9"/>
+      <c r="K9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="L9" s="8"/>
       <c r="M9" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N9" s="9"/>
       <c r="O9" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P9" s="9"/>
       <c r="Q9" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R9" s="9"/>
       <c r="S9" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="T9" s="9"/>
       <c r="U9" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="V9" s="9"/>
       <c r="W9" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="X9" s="9"/>
       <c r="Y9" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Z9" s="9"/>
-      <c r="AA9" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB9" s="10"/>
+      <c r="AA9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB9" s="9"/>
+      <c r="AC9" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD9" s="10"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6"/>
@@ -3280,22 +3472,18 @@
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
-      <c r="G10" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>7</v>
-      </c>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
       <c r="I10" s="11" t="s">
         <v>6</v>
       </c>
       <c r="J10" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="K10" s="12" t="s">
+      <c r="K10" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="L10" s="12" t="s">
+      <c r="L10" s="11" t="s">
         <v>7</v>
       </c>
       <c r="M10" s="12" t="s">
@@ -3343,1741 +3531,1867 @@
       <c r="AA10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="AB10" s="13" t="s">
+      <c r="AB10" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD10" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="14" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="K11" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="L11" s="16" t="s">
         <v>32</v>
       </c>
+      <c r="K11" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>34</v>
+      </c>
       <c r="M11" s="16" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="N11" s="16" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="O11" s="16" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="P11" s="16" t="s">
         <v>35</v>
       </c>
       <c r="Q11" s="16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="R11" s="16" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="S11" s="16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="T11" s="16" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="U11" s="16" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="V11" s="16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="W11" s="16" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="X11" s="16" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="Y11" s="16" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Z11" s="16" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="AA11" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB11" s="17" t="s">
-        <v>23</v>
+        <v>48</v>
+      </c>
+      <c r="AB11" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC11" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD11" s="17" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="38.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="14" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F12" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="I12" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="J12" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="K12" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="L12" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="M12" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="N12" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="O12" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="P12" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q12" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="R12" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="S12" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="T12" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="U12" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="V12" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="W12" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="X12" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y12" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z12" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA12" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB12" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC12" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="G12" s="15" t="s">
+      <c r="AD12" s="17" t="s">
         <v>52</v>
-      </c>
-      <c r="H12" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="I12" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="J12" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="K12" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="L12" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="M12" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="N12" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="O12" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="P12" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q12" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="R12" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="S12" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="T12" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="U12" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="V12" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="W12" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="X12" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y12" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z12" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA12" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB12" s="17" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="50.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="18" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H13" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="J13" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="K13" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="L13" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="M13" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="N13" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="O13" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="P13" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q13" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="R13" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="S13" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="T13" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="U13" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="V13" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="W13" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="X13" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y13" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z13" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA13" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB13" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC13" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="I13" s="15" t="s">
+      <c r="AD13" s="17" t="s">
         <v>79</v>
-      </c>
-      <c r="J13" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="K13" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="L13" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="M13" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="N13" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="O13" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="P13" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q13" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="R13" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="S13" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="T13" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="U13" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="V13" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="W13" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="X13" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="Y13" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z13" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="AA13" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB13" s="17" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="14" s="19" customFormat="true" ht="51.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="18" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="I14" s="15" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="J14" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="K14" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="L14" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="M14" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="N14" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="O14" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="P14" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q14" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="R14" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="S14" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="T14" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="U14" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="V14" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="W14" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="X14" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y14" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="Z14" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA14" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB14" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC14" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="K14" s="16" t="s">
+      <c r="AD14" s="17" t="s">
         <v>106</v>
-      </c>
-      <c r="L14" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="M14" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="N14" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="O14" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="P14" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q14" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="R14" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="S14" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="T14" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="U14" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="V14" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="W14" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="X14" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="Y14" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="Z14" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="AA14" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="AB14" s="17" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="51.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="18" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="I15" s="15" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="J15" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="K15" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="L15" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="K15" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="L15" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="M15" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="N15" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="O15" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="P15" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q15" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="R15" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="S15" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="T15" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="U15" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="V15" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="W15" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="X15" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y15" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="Z15" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA15" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="AB15" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="AC15" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="M15" s="16" t="s">
+      <c r="AD15" s="17" t="s">
         <v>133</v>
-      </c>
-      <c r="N15" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="O15" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="P15" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q15" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="R15" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="S15" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="T15" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="U15" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="V15" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="W15" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="X15" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="Y15" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="Z15" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="AA15" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="AB15" s="17" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="48.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="20" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="F16" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="G16" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="H16" s="23" t="s">
-        <v>153</v>
+        <v>162</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="G16" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="H16" s="22" t="s">
+        <v>165</v>
       </c>
       <c r="I16" s="23" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="J16" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="K16" s="21" t="s">
-        <v>156</v>
-      </c>
-      <c r="L16" s="21" t="s">
-        <v>157</v>
+        <v>167</v>
+      </c>
+      <c r="K16" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="L16" s="23" t="s">
+        <v>169</v>
       </c>
       <c r="M16" s="21" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="N16" s="21" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="O16" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="P16" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q16" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="R16" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="S16" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="T16" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="U16" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="V16" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="W16" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="X16" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="Y16" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z16" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="AA16" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="AB16" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="AC16" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="P16" s="21" t="s">
+      <c r="AD16" s="24" t="s">
         <v>160</v>
-      </c>
-      <c r="Q16" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="R16" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="S16" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="T16" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="U16" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="V16" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="W16" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="X16" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="Y16" s="21" t="s">
-        <v>169</v>
-      </c>
-      <c r="Z16" s="21" t="s">
-        <v>170</v>
-      </c>
-      <c r="AA16" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="AB16" s="24" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="18" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="I17" s="15" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="J17" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="K17" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="L17" s="16" t="s">
-        <v>182</v>
+        <v>194</v>
+      </c>
+      <c r="K17" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="L17" s="15" t="s">
+        <v>196</v>
       </c>
       <c r="M17" s="16" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="N17" s="16" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="O17" s="16" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="P17" s="16" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="Q17" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="R17" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="S17" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="T17" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="U17" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="V17" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="W17" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="X17" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="Y17" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="Z17" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="AA17" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="AB17" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="AC17" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="R17" s="16" t="s">
+      <c r="AD17" s="17" t="s">
         <v>187</v>
-      </c>
-      <c r="S17" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="T17" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="U17" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="V17" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="W17" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="X17" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="Y17" s="16" t="s">
-        <v>194</v>
-      </c>
-      <c r="Z17" s="16" t="s">
-        <v>195</v>
-      </c>
-      <c r="AA17" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="AB17" s="17" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="28.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="18" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="I18" s="15" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="J18" s="15" t="s">
-        <v>205</v>
-      </c>
-      <c r="K18" s="16" t="s">
-        <v>206</v>
-      </c>
-      <c r="L18" s="16" t="s">
-        <v>207</v>
+        <v>221</v>
+      </c>
+      <c r="K18" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="L18" s="15" t="s">
+        <v>223</v>
       </c>
       <c r="M18" s="16" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="N18" s="16" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="O18" s="16" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="P18" s="16" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="Q18" s="16" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="R18" s="16" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="S18" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="T18" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="U18" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="V18" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="W18" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="X18" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="Y18" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="Z18" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="AA18" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="AB18" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="AC18" s="16" t="s">
         <v>213</v>
       </c>
-      <c r="T18" s="16" t="s">
+      <c r="AD18" s="17" t="s">
         <v>214</v>
-      </c>
-      <c r="U18" s="16" t="s">
-        <v>215</v>
-      </c>
-      <c r="V18" s="16" t="s">
-        <v>216</v>
-      </c>
-      <c r="W18" s="16" t="s">
-        <v>217</v>
-      </c>
-      <c r="X18" s="16" t="s">
-        <v>218</v>
-      </c>
-      <c r="Y18" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="Z18" s="16" t="s">
-        <v>220</v>
-      </c>
-      <c r="AA18" s="16" t="s">
-        <v>197</v>
-      </c>
-      <c r="AB18" s="17" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="41" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="18" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>222</v>
+        <v>240</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>223</v>
+        <v>241</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>224</v>
+        <v>242</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>225</v>
+        <v>243</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="H19" s="15" t="s">
-        <v>228</v>
+        <v>246</v>
       </c>
       <c r="I19" s="15" t="s">
-        <v>229</v>
+        <v>247</v>
       </c>
       <c r="J19" s="15" t="s">
-        <v>230</v>
-      </c>
-      <c r="K19" s="16" t="s">
-        <v>231</v>
-      </c>
-      <c r="L19" s="16" t="s">
-        <v>232</v>
+        <v>248</v>
+      </c>
+      <c r="K19" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="L19" s="15" t="s">
+        <v>250</v>
       </c>
       <c r="M19" s="16" t="s">
-        <v>233</v>
+        <v>251</v>
       </c>
       <c r="N19" s="16" t="s">
-        <v>231</v>
+        <v>252</v>
       </c>
       <c r="O19" s="16" t="s">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c r="P19" s="16" t="s">
-        <v>235</v>
+        <v>251</v>
       </c>
       <c r="Q19" s="16" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
       <c r="R19" s="16" t="s">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="S19" s="16" t="s">
-        <v>238</v>
+        <v>256</v>
       </c>
       <c r="T19" s="16" t="s">
-        <v>239</v>
+        <v>257</v>
       </c>
       <c r="U19" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="V19" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="W19" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="X19" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="Y19" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="Z19" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="AA19" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="AB19" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="AC19" s="16" t="s">
         <v>240</v>
       </c>
-      <c r="V19" s="16" t="s">
+      <c r="AD19" s="17" t="s">
         <v>241</v>
-      </c>
-      <c r="W19" s="16" t="s">
-        <v>242</v>
-      </c>
-      <c r="X19" s="16" t="s">
-        <v>243</v>
-      </c>
-      <c r="Y19" s="16" t="s">
-        <v>244</v>
-      </c>
-      <c r="Z19" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="AA19" s="16" t="s">
-        <v>222</v>
-      </c>
-      <c r="AB19" s="17" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="18" t="s">
-        <v>246</v>
+        <v>266</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>247</v>
+        <v>267</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>248</v>
+        <v>268</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>249</v>
+        <v>269</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>251</v>
+        <v>271</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="H20" s="15" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="I20" s="15" t="s">
-        <v>254</v>
+        <v>274</v>
       </c>
       <c r="J20" s="15" t="s">
-        <v>255</v>
-      </c>
-      <c r="K20" s="16" t="s">
-        <v>256</v>
-      </c>
-      <c r="L20" s="16" t="s">
-        <v>257</v>
+        <v>275</v>
+      </c>
+      <c r="K20" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="L20" s="15" t="s">
+        <v>277</v>
       </c>
       <c r="M20" s="16" t="s">
-        <v>258</v>
+        <v>278</v>
       </c>
       <c r="N20" s="16" t="s">
-        <v>256</v>
+        <v>279</v>
       </c>
       <c r="O20" s="16" t="s">
-        <v>259</v>
+        <v>280</v>
       </c>
       <c r="P20" s="16" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="Q20" s="16" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="R20" s="16" t="s">
-        <v>262</v>
+        <v>282</v>
       </c>
       <c r="S20" s="16" t="s">
-        <v>263</v>
+        <v>283</v>
       </c>
       <c r="T20" s="16" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="U20" s="16" t="s">
-        <v>265</v>
+        <v>285</v>
       </c>
       <c r="V20" s="16" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="W20" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="X20" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="Y20" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="Z20" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="AA20" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="AB20" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="AC20" s="16" t="s">
         <v>267</v>
       </c>
-      <c r="X20" s="16" t="s">
+      <c r="AD20" s="17" t="s">
         <v>268</v>
-      </c>
-      <c r="Y20" s="16" t="s">
-        <v>269</v>
-      </c>
-      <c r="Z20" s="16" t="s">
-        <v>270</v>
-      </c>
-      <c r="AA20" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="AB20" s="17" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="25" t="s">
-        <v>271</v>
+        <v>293</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>272</v>
+        <v>294</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>273</v>
+        <v>295</v>
       </c>
       <c r="D21" s="26" t="s">
-        <v>274</v>
+        <v>296</v>
       </c>
       <c r="E21" s="26" t="s">
-        <v>275</v>
+        <v>297</v>
       </c>
       <c r="F21" s="26" t="s">
-        <v>276</v>
-      </c>
-      <c r="G21" s="23" t="s">
-        <v>277</v>
-      </c>
-      <c r="H21" s="23" t="s">
-        <v>278</v>
+        <v>298</v>
+      </c>
+      <c r="G21" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="H21" s="26" t="s">
+        <v>300</v>
       </c>
       <c r="I21" s="23" t="s">
-        <v>279</v>
+        <v>301</v>
       </c>
       <c r="J21" s="23" t="s">
-        <v>280</v>
-      </c>
-      <c r="K21" s="27" t="s">
-        <v>281</v>
-      </c>
-      <c r="L21" s="27" t="s">
-        <v>282</v>
+        <v>302</v>
+      </c>
+      <c r="K21" s="23" t="s">
+        <v>303</v>
+      </c>
+      <c r="L21" s="23" t="s">
+        <v>304</v>
       </c>
       <c r="M21" s="27" t="s">
-        <v>283</v>
+        <v>305</v>
       </c>
       <c r="N21" s="27" t="s">
-        <v>281</v>
+        <v>306</v>
       </c>
       <c r="O21" s="27" t="s">
-        <v>284</v>
+        <v>307</v>
       </c>
       <c r="P21" s="27" t="s">
-        <v>285</v>
+        <v>305</v>
       </c>
       <c r="Q21" s="27" t="s">
-        <v>286</v>
+        <v>308</v>
       </c>
       <c r="R21" s="27" t="s">
-        <v>287</v>
+        <v>309</v>
       </c>
       <c r="S21" s="27" t="s">
-        <v>288</v>
+        <v>310</v>
       </c>
       <c r="T21" s="27" t="s">
-        <v>289</v>
+        <v>311</v>
       </c>
       <c r="U21" s="27" t="s">
-        <v>290</v>
+        <v>312</v>
       </c>
       <c r="V21" s="27" t="s">
-        <v>291</v>
+        <v>313</v>
       </c>
       <c r="W21" s="27" t="s">
-        <v>292</v>
+        <v>314</v>
       </c>
       <c r="X21" s="27" t="s">
-        <v>293</v>
+        <v>315</v>
       </c>
       <c r="Y21" s="27" t="s">
+        <v>316</v>
+      </c>
+      <c r="Z21" s="27" t="s">
+        <v>317</v>
+      </c>
+      <c r="AA21" s="27" t="s">
+        <v>318</v>
+      </c>
+      <c r="AB21" s="27" t="s">
+        <v>319</v>
+      </c>
+      <c r="AC21" s="27" t="s">
         <v>294</v>
       </c>
-      <c r="Z21" s="27" t="s">
+      <c r="AD21" s="28" t="s">
         <v>295</v>
-      </c>
-      <c r="AA21" s="27" t="s">
-        <v>272</v>
-      </c>
-      <c r="AB21" s="28" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="18" t="s">
-        <v>296</v>
+        <v>320</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>297</v>
+        <v>321</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>298</v>
+        <v>322</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>299</v>
+        <v>323</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>300</v>
+        <v>324</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>301</v>
+        <v>325</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>302</v>
+        <v>326</v>
       </c>
       <c r="H22" s="15" t="s">
-        <v>303</v>
+        <v>327</v>
       </c>
       <c r="I22" s="15" t="s">
-        <v>304</v>
+        <v>328</v>
       </c>
       <c r="J22" s="15" t="s">
-        <v>305</v>
-      </c>
-      <c r="K22" s="16" t="s">
-        <v>306</v>
-      </c>
-      <c r="L22" s="16" t="s">
-        <v>307</v>
+        <v>329</v>
+      </c>
+      <c r="K22" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="L22" s="15" t="s">
+        <v>331</v>
       </c>
       <c r="M22" s="16" t="s">
-        <v>308</v>
+        <v>332</v>
       </c>
       <c r="N22" s="16" t="s">
-        <v>306</v>
+        <v>333</v>
       </c>
       <c r="O22" s="16" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="P22" s="16" t="s">
-        <v>310</v>
+        <v>332</v>
       </c>
       <c r="Q22" s="16" t="s">
-        <v>311</v>
+        <v>335</v>
       </c>
       <c r="R22" s="16" t="s">
-        <v>312</v>
+        <v>336</v>
       </c>
       <c r="S22" s="16" t="s">
-        <v>313</v>
+        <v>337</v>
       </c>
       <c r="T22" s="16" t="s">
-        <v>314</v>
+        <v>338</v>
       </c>
       <c r="U22" s="16" t="s">
-        <v>315</v>
+        <v>339</v>
       </c>
       <c r="V22" s="16" t="s">
-        <v>316</v>
+        <v>340</v>
       </c>
       <c r="W22" s="16" t="s">
-        <v>317</v>
+        <v>341</v>
       </c>
       <c r="X22" s="16" t="s">
-        <v>318</v>
+        <v>342</v>
       </c>
       <c r="Y22" s="16" t="s">
-        <v>319</v>
+        <v>343</v>
       </c>
       <c r="Z22" s="16" t="s">
-        <v>320</v>
+        <v>344</v>
       </c>
       <c r="AA22" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="AB22" s="17" t="s">
-        <v>298</v>
+        <v>345</v>
+      </c>
+      <c r="AB22" s="16" t="s">
+        <v>346</v>
+      </c>
+      <c r="AC22" s="16" t="s">
+        <v>321</v>
+      </c>
+      <c r="AD22" s="17" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="30.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="18" t="s">
-        <v>321</v>
+        <v>347</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>322</v>
+        <v>348</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>323</v>
+        <v>349</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>324</v>
+        <v>350</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>325</v>
+        <v>351</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>326</v>
+        <v>352</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>327</v>
+        <v>353</v>
       </c>
       <c r="H23" s="15" t="s">
-        <v>328</v>
+        <v>354</v>
       </c>
       <c r="I23" s="15" t="s">
-        <v>329</v>
+        <v>355</v>
       </c>
       <c r="J23" s="15" t="s">
-        <v>330</v>
-      </c>
-      <c r="K23" s="16" t="s">
-        <v>331</v>
-      </c>
-      <c r="L23" s="16" t="s">
-        <v>332</v>
+        <v>356</v>
+      </c>
+      <c r="K23" s="15" t="s">
+        <v>357</v>
+      </c>
+      <c r="L23" s="15" t="s">
+        <v>358</v>
       </c>
       <c r="M23" s="16" t="s">
-        <v>333</v>
+        <v>359</v>
       </c>
       <c r="N23" s="16" t="s">
-        <v>331</v>
+        <v>360</v>
       </c>
       <c r="O23" s="16" t="s">
-        <v>334</v>
+        <v>361</v>
       </c>
       <c r="P23" s="16" t="s">
-        <v>335</v>
+        <v>359</v>
       </c>
       <c r="Q23" s="16" t="s">
-        <v>336</v>
+        <v>362</v>
       </c>
       <c r="R23" s="16" t="s">
-        <v>337</v>
+        <v>363</v>
       </c>
       <c r="S23" s="16" t="s">
-        <v>338</v>
+        <v>364</v>
       </c>
       <c r="T23" s="16" t="s">
-        <v>339</v>
+        <v>365</v>
       </c>
       <c r="U23" s="16" t="s">
-        <v>340</v>
+        <v>366</v>
       </c>
       <c r="V23" s="16" t="s">
-        <v>341</v>
+        <v>367</v>
       </c>
       <c r="W23" s="16" t="s">
-        <v>342</v>
+        <v>368</v>
       </c>
       <c r="X23" s="16" t="s">
-        <v>343</v>
+        <v>369</v>
       </c>
       <c r="Y23" s="16" t="s">
-        <v>344</v>
+        <v>370</v>
       </c>
       <c r="Z23" s="16" t="s">
-        <v>345</v>
+        <v>371</v>
       </c>
       <c r="AA23" s="16" t="s">
-        <v>322</v>
-      </c>
-      <c r="AB23" s="17" t="s">
-        <v>323</v>
+        <v>372</v>
+      </c>
+      <c r="AB23" s="16" t="s">
+        <v>373</v>
+      </c>
+      <c r="AC23" s="16" t="s">
+        <v>348</v>
+      </c>
+      <c r="AD23" s="17" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="24" s="19" customFormat="true" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="18" t="s">
-        <v>346</v>
+        <v>374</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>347</v>
+        <v>375</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>348</v>
+        <v>376</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>349</v>
+        <v>377</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>350</v>
+        <v>378</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>351</v>
+        <v>379</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>352</v>
+        <v>380</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>353</v>
+        <v>381</v>
       </c>
       <c r="I24" s="15" t="s">
-        <v>354</v>
+        <v>382</v>
       </c>
       <c r="J24" s="15" t="s">
-        <v>355</v>
-      </c>
-      <c r="K24" s="16" t="s">
-        <v>356</v>
-      </c>
-      <c r="L24" s="16" t="s">
-        <v>357</v>
+        <v>383</v>
+      </c>
+      <c r="K24" s="15" t="s">
+        <v>384</v>
+      </c>
+      <c r="L24" s="15" t="s">
+        <v>385</v>
       </c>
       <c r="M24" s="16" t="s">
-        <v>358</v>
+        <v>386</v>
       </c>
       <c r="N24" s="16" t="s">
-        <v>356</v>
+        <v>387</v>
       </c>
       <c r="O24" s="16" t="s">
-        <v>359</v>
+        <v>388</v>
       </c>
       <c r="P24" s="16" t="s">
-        <v>360</v>
+        <v>386</v>
       </c>
       <c r="Q24" s="16" t="s">
-        <v>361</v>
+        <v>389</v>
       </c>
       <c r="R24" s="16" t="s">
-        <v>362</v>
+        <v>390</v>
       </c>
       <c r="S24" s="16" t="s">
-        <v>363</v>
+        <v>391</v>
       </c>
       <c r="T24" s="16" t="s">
-        <v>364</v>
+        <v>392</v>
       </c>
       <c r="U24" s="16" t="s">
-        <v>365</v>
+        <v>393</v>
       </c>
       <c r="V24" s="16" t="s">
-        <v>366</v>
+        <v>394</v>
       </c>
       <c r="W24" s="16" t="s">
-        <v>367</v>
+        <v>395</v>
       </c>
       <c r="X24" s="16" t="s">
-        <v>368</v>
+        <v>396</v>
       </c>
       <c r="Y24" s="16" t="s">
-        <v>369</v>
+        <v>397</v>
       </c>
       <c r="Z24" s="16" t="s">
-        <v>370</v>
+        <v>398</v>
       </c>
       <c r="AA24" s="16" t="s">
-        <v>347</v>
-      </c>
-      <c r="AB24" s="17" t="s">
-        <v>348</v>
+        <v>399</v>
+      </c>
+      <c r="AB24" s="16" t="s">
+        <v>400</v>
+      </c>
+      <c r="AC24" s="16" t="s">
+        <v>375</v>
+      </c>
+      <c r="AD24" s="17" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="25" s="19" customFormat="true" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="18" t="s">
-        <v>371</v>
+        <v>401</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>372</v>
+        <v>402</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>373</v>
+        <v>403</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>374</v>
+        <v>404</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>375</v>
+        <v>405</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>376</v>
+        <v>406</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>377</v>
+        <v>407</v>
       </c>
       <c r="H25" s="15" t="s">
-        <v>378</v>
+        <v>408</v>
       </c>
       <c r="I25" s="15" t="s">
-        <v>379</v>
+        <v>409</v>
       </c>
       <c r="J25" s="15" t="s">
-        <v>380</v>
-      </c>
-      <c r="K25" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="L25" s="16" t="s">
-        <v>382</v>
+        <v>410</v>
+      </c>
+      <c r="K25" s="15" t="s">
+        <v>411</v>
+      </c>
+      <c r="L25" s="15" t="s">
+        <v>412</v>
       </c>
       <c r="M25" s="16" t="s">
-        <v>383</v>
+        <v>413</v>
       </c>
       <c r="N25" s="16" t="s">
-        <v>381</v>
+        <v>414</v>
       </c>
       <c r="O25" s="16" t="s">
-        <v>384</v>
+        <v>415</v>
       </c>
       <c r="P25" s="16" t="s">
-        <v>385</v>
+        <v>413</v>
       </c>
       <c r="Q25" s="16" t="s">
-        <v>386</v>
+        <v>416</v>
       </c>
       <c r="R25" s="16" t="s">
-        <v>387</v>
+        <v>417</v>
       </c>
       <c r="S25" s="16" t="s">
-        <v>388</v>
+        <v>418</v>
       </c>
       <c r="T25" s="16" t="s">
-        <v>389</v>
+        <v>419</v>
       </c>
       <c r="U25" s="16" t="s">
-        <v>390</v>
+        <v>420</v>
       </c>
       <c r="V25" s="16" t="s">
-        <v>391</v>
+        <v>421</v>
       </c>
       <c r="W25" s="16" t="s">
-        <v>392</v>
+        <v>422</v>
       </c>
       <c r="X25" s="16" t="s">
-        <v>393</v>
+        <v>423</v>
       </c>
       <c r="Y25" s="16" t="s">
-        <v>394</v>
+        <v>424</v>
       </c>
       <c r="Z25" s="16" t="s">
-        <v>395</v>
+        <v>425</v>
       </c>
       <c r="AA25" s="16" t="s">
-        <v>372</v>
-      </c>
-      <c r="AB25" s="17" t="s">
-        <v>373</v>
+        <v>426</v>
+      </c>
+      <c r="AB25" s="16" t="s">
+        <v>427</v>
+      </c>
+      <c r="AC25" s="16" t="s">
+        <v>402</v>
+      </c>
+      <c r="AD25" s="17" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="26" s="19" customFormat="true" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="18" t="s">
-        <v>396</v>
+        <v>428</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>397</v>
+        <v>429</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>398</v>
+        <v>430</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>399</v>
+        <v>431</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>400</v>
+        <v>432</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>401</v>
+        <v>433</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>402</v>
+        <v>434</v>
       </c>
       <c r="H26" s="15" t="s">
-        <v>403</v>
+        <v>435</v>
       </c>
       <c r="I26" s="15" t="s">
-        <v>404</v>
+        <v>436</v>
       </c>
       <c r="J26" s="15" t="s">
-        <v>405</v>
-      </c>
-      <c r="K26" s="16" t="s">
-        <v>406</v>
-      </c>
-      <c r="L26" s="16" t="s">
-        <v>407</v>
+        <v>437</v>
+      </c>
+      <c r="K26" s="15" t="s">
+        <v>438</v>
+      </c>
+      <c r="L26" s="15" t="s">
+        <v>439</v>
       </c>
       <c r="M26" s="16" t="s">
-        <v>408</v>
+        <v>440</v>
       </c>
       <c r="N26" s="16" t="s">
-        <v>406</v>
+        <v>441</v>
       </c>
       <c r="O26" s="16" t="s">
-        <v>409</v>
+        <v>442</v>
       </c>
       <c r="P26" s="16" t="s">
-        <v>410</v>
+        <v>440</v>
       </c>
       <c r="Q26" s="16" t="s">
-        <v>411</v>
+        <v>443</v>
       </c>
       <c r="R26" s="16" t="s">
-        <v>412</v>
+        <v>444</v>
       </c>
       <c r="S26" s="16" t="s">
-        <v>413</v>
+        <v>445</v>
       </c>
       <c r="T26" s="16" t="s">
-        <v>414</v>
+        <v>446</v>
       </c>
       <c r="U26" s="16" t="s">
-        <v>415</v>
+        <v>447</v>
       </c>
       <c r="V26" s="16" t="s">
-        <v>416</v>
+        <v>448</v>
       </c>
       <c r="W26" s="16" t="s">
-        <v>417</v>
+        <v>449</v>
       </c>
       <c r="X26" s="16" t="s">
-        <v>418</v>
+        <v>450</v>
       </c>
       <c r="Y26" s="16" t="s">
-        <v>419</v>
+        <v>451</v>
       </c>
       <c r="Z26" s="16" t="s">
-        <v>420</v>
+        <v>452</v>
       </c>
       <c r="AA26" s="16" t="s">
-        <v>397</v>
-      </c>
-      <c r="AB26" s="17" t="s">
-        <v>398</v>
+        <v>453</v>
+      </c>
+      <c r="AB26" s="16" t="s">
+        <v>454</v>
+      </c>
+      <c r="AC26" s="16" t="s">
+        <v>429</v>
+      </c>
+      <c r="AD26" s="17" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="27" s="19" customFormat="true" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="18" t="s">
-        <v>421</v>
+        <v>455</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>422</v>
+        <v>456</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>423</v>
+        <v>457</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>424</v>
+        <v>458</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>425</v>
+        <v>459</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>426</v>
+        <v>460</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>427</v>
+        <v>461</v>
       </c>
       <c r="H27" s="15" t="s">
-        <v>428</v>
+        <v>462</v>
       </c>
       <c r="I27" s="15" t="s">
-        <v>429</v>
+        <v>463</v>
       </c>
       <c r="J27" s="15" t="s">
-        <v>430</v>
-      </c>
-      <c r="K27" s="16" t="s">
-        <v>431</v>
-      </c>
-      <c r="L27" s="16" t="s">
-        <v>432</v>
+        <v>464</v>
+      </c>
+      <c r="K27" s="15" t="s">
+        <v>465</v>
+      </c>
+      <c r="L27" s="15" t="s">
+        <v>466</v>
       </c>
       <c r="M27" s="16" t="s">
-        <v>433</v>
+        <v>467</v>
       </c>
       <c r="N27" s="16" t="s">
-        <v>431</v>
+        <v>468</v>
       </c>
       <c r="O27" s="16" t="s">
-        <v>434</v>
+        <v>469</v>
       </c>
       <c r="P27" s="16" t="s">
-        <v>435</v>
+        <v>467</v>
       </c>
       <c r="Q27" s="16" t="s">
-        <v>436</v>
+        <v>470</v>
       </c>
       <c r="R27" s="16" t="s">
-        <v>437</v>
+        <v>471</v>
       </c>
       <c r="S27" s="16" t="s">
-        <v>438</v>
+        <v>472</v>
       </c>
       <c r="T27" s="16" t="s">
-        <v>439</v>
+        <v>473</v>
       </c>
       <c r="U27" s="16" t="s">
-        <v>440</v>
+        <v>474</v>
       </c>
       <c r="V27" s="16" t="s">
-        <v>441</v>
+        <v>475</v>
       </c>
       <c r="W27" s="16" t="s">
-        <v>442</v>
+        <v>476</v>
       </c>
       <c r="X27" s="16" t="s">
-        <v>443</v>
+        <v>477</v>
       </c>
       <c r="Y27" s="16" t="s">
-        <v>444</v>
+        <v>478</v>
       </c>
       <c r="Z27" s="16" t="s">
-        <v>445</v>
+        <v>479</v>
       </c>
       <c r="AA27" s="16" t="s">
-        <v>422</v>
-      </c>
-      <c r="AB27" s="17" t="s">
-        <v>423</v>
+        <v>480</v>
+      </c>
+      <c r="AB27" s="16" t="s">
+        <v>481</v>
+      </c>
+      <c r="AC27" s="16" t="s">
+        <v>456</v>
+      </c>
+      <c r="AD27" s="17" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="63.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="29" t="s">
-        <v>446</v>
+        <v>482</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>447</v>
+        <v>483</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>449</v>
+        <v>485</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>450</v>
+        <v>486</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>451</v>
+        <v>487</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>452</v>
+        <v>488</v>
       </c>
       <c r="H28" s="15" t="s">
-        <v>453</v>
+        <v>489</v>
       </c>
       <c r="I28" s="15" t="s">
-        <v>454</v>
+        <v>490</v>
       </c>
       <c r="J28" s="15" t="s">
-        <v>455</v>
-      </c>
-      <c r="K28" s="16" t="s">
-        <v>456</v>
-      </c>
-      <c r="L28" s="16" t="s">
-        <v>457</v>
+        <v>491</v>
+      </c>
+      <c r="K28" s="15" t="s">
+        <v>492</v>
+      </c>
+      <c r="L28" s="15" t="s">
+        <v>493</v>
       </c>
       <c r="M28" s="16" t="s">
-        <v>458</v>
+        <v>494</v>
       </c>
       <c r="N28" s="16" t="s">
-        <v>456</v>
+        <v>495</v>
       </c>
       <c r="O28" s="16" t="s">
-        <v>459</v>
+        <v>496</v>
       </c>
       <c r="P28" s="16" t="s">
-        <v>460</v>
+        <v>494</v>
       </c>
       <c r="Q28" s="16" t="s">
-        <v>461</v>
+        <v>497</v>
       </c>
       <c r="R28" s="16" t="s">
-        <v>462</v>
+        <v>498</v>
       </c>
       <c r="S28" s="16" t="s">
-        <v>463</v>
+        <v>499</v>
       </c>
       <c r="T28" s="16" t="s">
-        <v>464</v>
+        <v>500</v>
       </c>
       <c r="U28" s="16" t="s">
-        <v>465</v>
+        <v>501</v>
       </c>
       <c r="V28" s="16" t="s">
-        <v>466</v>
+        <v>502</v>
       </c>
       <c r="W28" s="16" t="s">
-        <v>467</v>
+        <v>503</v>
       </c>
       <c r="X28" s="16" t="s">
-        <v>468</v>
+        <v>504</v>
       </c>
       <c r="Y28" s="16" t="s">
-        <v>469</v>
+        <v>505</v>
       </c>
       <c r="Z28" s="16" t="s">
-        <v>470</v>
+        <v>506</v>
       </c>
       <c r="AA28" s="16" t="s">
-        <v>447</v>
-      </c>
-      <c r="AB28" s="17" t="s">
-        <v>448</v>
+        <v>507</v>
+      </c>
+      <c r="AB28" s="16" t="s">
+        <v>508</v>
+      </c>
+      <c r="AC28" s="16" t="s">
+        <v>483</v>
+      </c>
+      <c r="AD28" s="17" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="58.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="29" t="s">
-        <v>471</v>
+        <v>509</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>472</v>
+        <v>510</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>473</v>
+        <v>511</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>474</v>
+        <v>512</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>475</v>
+        <v>513</v>
       </c>
       <c r="F29" s="15" t="s">
-        <v>476</v>
+        <v>514</v>
       </c>
       <c r="G29" s="15" t="s">
-        <v>477</v>
+        <v>515</v>
       </c>
       <c r="H29" s="15" t="s">
-        <v>478</v>
+        <v>516</v>
       </c>
       <c r="I29" s="15" t="s">
-        <v>479</v>
+        <v>517</v>
       </c>
       <c r="J29" s="15" t="s">
-        <v>480</v>
-      </c>
-      <c r="K29" s="16" t="s">
-        <v>481</v>
-      </c>
-      <c r="L29" s="16" t="s">
-        <v>482</v>
+        <v>518</v>
+      </c>
+      <c r="K29" s="15" t="s">
+        <v>519</v>
+      </c>
+      <c r="L29" s="15" t="s">
+        <v>520</v>
       </c>
       <c r="M29" s="16" t="s">
-        <v>483</v>
+        <v>521</v>
       </c>
       <c r="N29" s="16" t="s">
-        <v>481</v>
+        <v>522</v>
       </c>
       <c r="O29" s="16" t="s">
-        <v>484</v>
+        <v>523</v>
       </c>
       <c r="P29" s="16" t="s">
-        <v>485</v>
+        <v>521</v>
       </c>
       <c r="Q29" s="16" t="s">
-        <v>486</v>
+        <v>524</v>
       </c>
       <c r="R29" s="16" t="s">
-        <v>487</v>
+        <v>525</v>
       </c>
       <c r="S29" s="16" t="s">
-        <v>488</v>
+        <v>526</v>
       </c>
       <c r="T29" s="16" t="s">
-        <v>489</v>
+        <v>527</v>
       </c>
       <c r="U29" s="16" t="s">
-        <v>490</v>
+        <v>528</v>
       </c>
       <c r="V29" s="16" t="s">
-        <v>491</v>
+        <v>529</v>
       </c>
       <c r="W29" s="16" t="s">
-        <v>492</v>
+        <v>530</v>
       </c>
       <c r="X29" s="16" t="s">
-        <v>493</v>
+        <v>531</v>
       </c>
       <c r="Y29" s="16" t="s">
-        <v>494</v>
+        <v>532</v>
       </c>
       <c r="Z29" s="16" t="s">
-        <v>495</v>
+        <v>533</v>
       </c>
       <c r="AA29" s="16" t="s">
-        <v>472</v>
-      </c>
-      <c r="AB29" s="17" t="s">
-        <v>473</v>
+        <v>534</v>
+      </c>
+      <c r="AB29" s="16" t="s">
+        <v>535</v>
+      </c>
+      <c r="AC29" s="16" t="s">
+        <v>510</v>
+      </c>
+      <c r="AD29" s="17" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="65.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="29" t="s">
-        <v>496</v>
+        <v>536</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>497</v>
+        <v>537</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>498</v>
+        <v>538</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>499</v>
+        <v>539</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>500</v>
+        <v>540</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>501</v>
+        <v>541</v>
       </c>
       <c r="G30" s="15" t="s">
-        <v>502</v>
+        <v>542</v>
       </c>
       <c r="H30" s="15" t="s">
-        <v>503</v>
+        <v>543</v>
       </c>
       <c r="I30" s="15" t="s">
-        <v>504</v>
+        <v>544</v>
       </c>
       <c r="J30" s="15" t="s">
-        <v>505</v>
-      </c>
-      <c r="K30" s="16" t="s">
-        <v>506</v>
-      </c>
-      <c r="L30" s="16" t="s">
-        <v>507</v>
+        <v>545</v>
+      </c>
+      <c r="K30" s="15" t="s">
+        <v>546</v>
+      </c>
+      <c r="L30" s="15" t="s">
+        <v>547</v>
       </c>
       <c r="M30" s="16" t="s">
-        <v>508</v>
+        <v>548</v>
       </c>
       <c r="N30" s="16" t="s">
-        <v>506</v>
+        <v>549</v>
       </c>
       <c r="O30" s="16" t="s">
-        <v>509</v>
+        <v>550</v>
       </c>
       <c r="P30" s="16" t="s">
-        <v>510</v>
+        <v>548</v>
       </c>
       <c r="Q30" s="16" t="s">
-        <v>511</v>
+        <v>551</v>
       </c>
       <c r="R30" s="16" t="s">
-        <v>512</v>
+        <v>552</v>
       </c>
       <c r="S30" s="16" t="s">
-        <v>513</v>
+        <v>553</v>
       </c>
       <c r="T30" s="16" t="s">
-        <v>514</v>
+        <v>554</v>
       </c>
       <c r="U30" s="16" t="s">
-        <v>515</v>
+        <v>555</v>
       </c>
       <c r="V30" s="16" t="s">
-        <v>516</v>
+        <v>556</v>
       </c>
       <c r="W30" s="16" t="s">
-        <v>517</v>
+        <v>557</v>
       </c>
       <c r="X30" s="16" t="s">
-        <v>518</v>
+        <v>558</v>
       </c>
       <c r="Y30" s="16" t="s">
-        <v>519</v>
+        <v>559</v>
       </c>
       <c r="Z30" s="16" t="s">
-        <v>520</v>
+        <v>560</v>
       </c>
       <c r="AA30" s="16" t="s">
-        <v>497</v>
-      </c>
-      <c r="AB30" s="17" t="s">
-        <v>498</v>
+        <v>561</v>
+      </c>
+      <c r="AB30" s="16" t="s">
+        <v>562</v>
+      </c>
+      <c r="AC30" s="16" t="s">
+        <v>537</v>
+      </c>
+      <c r="AD30" s="17" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="70.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="30" t="s">
-        <v>521</v>
+        <v>563</v>
       </c>
       <c r="B31" s="15"/>
       <c r="C31" s="15"/>
       <c r="D31" s="15"/>
       <c r="E31" s="15"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="31"/>
       <c r="I31" s="16"/>
       <c r="J31" s="16"/>
       <c r="K31" s="16"/>
@@ -5096,745 +5410,763 @@
       <c r="X31" s="16"/>
       <c r="Y31" s="16"/>
       <c r="Z31" s="16"/>
-      <c r="AA31" s="31"/>
-      <c r="AB31" s="32"/>
+      <c r="AA31" s="16"/>
+      <c r="AB31" s="16"/>
+      <c r="AC31" s="31"/>
+      <c r="AD31" s="32"/>
     </row>
     <row r="32" customFormat="false" ht="52.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="30" t="s">
-        <v>522</v>
+        <v>564</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>523</v>
+        <v>565</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>524</v>
+        <v>566</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>525</v>
+        <v>567</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>526</v>
+        <v>568</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>527</v>
+        <v>569</v>
       </c>
       <c r="G32" s="15" t="s">
-        <v>528</v>
+        <v>570</v>
       </c>
       <c r="H32" s="15" t="s">
-        <v>529</v>
+        <v>571</v>
       </c>
       <c r="I32" s="15" t="s">
-        <v>530</v>
+        <v>572</v>
       </c>
       <c r="J32" s="15" t="s">
-        <v>531</v>
-      </c>
-      <c r="K32" s="16" t="s">
-        <v>532</v>
-      </c>
-      <c r="L32" s="16" t="s">
-        <v>533</v>
+        <v>573</v>
+      </c>
+      <c r="K32" s="15" t="s">
+        <v>574</v>
+      </c>
+      <c r="L32" s="15" t="s">
+        <v>575</v>
       </c>
       <c r="M32" s="16" t="s">
-        <v>534</v>
+        <v>576</v>
       </c>
       <c r="N32" s="16" t="s">
-        <v>532</v>
+        <v>577</v>
       </c>
       <c r="O32" s="16" t="s">
-        <v>535</v>
+        <v>578</v>
       </c>
       <c r="P32" s="16" t="s">
-        <v>536</v>
+        <v>576</v>
       </c>
       <c r="Q32" s="16" t="s">
-        <v>537</v>
+        <v>579</v>
       </c>
       <c r="R32" s="16" t="s">
-        <v>538</v>
+        <v>580</v>
       </c>
       <c r="S32" s="16" t="s">
-        <v>539</v>
+        <v>581</v>
       </c>
       <c r="T32" s="16" t="s">
-        <v>540</v>
+        <v>582</v>
       </c>
       <c r="U32" s="16" t="s">
-        <v>541</v>
+        <v>583</v>
       </c>
       <c r="V32" s="16" t="s">
-        <v>542</v>
+        <v>584</v>
       </c>
       <c r="W32" s="16" t="s">
-        <v>543</v>
+        <v>585</v>
       </c>
       <c r="X32" s="16" t="s">
-        <v>544</v>
+        <v>586</v>
       </c>
       <c r="Y32" s="16" t="s">
-        <v>545</v>
+        <v>587</v>
       </c>
       <c r="Z32" s="16" t="s">
-        <v>546</v>
+        <v>588</v>
       </c>
       <c r="AA32" s="16" t="s">
-        <v>523</v>
-      </c>
-      <c r="AB32" s="17" t="s">
-        <v>524</v>
+        <v>589</v>
+      </c>
+      <c r="AB32" s="16" t="s">
+        <v>590</v>
+      </c>
+      <c r="AC32" s="16" t="s">
+        <v>565</v>
+      </c>
+      <c r="AD32" s="17" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="59.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="30" t="s">
-        <v>547</v>
+        <v>591</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>548</v>
+        <v>592</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>549</v>
+        <v>593</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>550</v>
+        <v>594</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>551</v>
+        <v>595</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>552</v>
+        <v>596</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>553</v>
+        <v>597</v>
       </c>
       <c r="H33" s="15" t="s">
-        <v>554</v>
+        <v>598</v>
       </c>
       <c r="I33" s="15" t="s">
-        <v>555</v>
+        <v>599</v>
       </c>
       <c r="J33" s="15" t="s">
-        <v>556</v>
-      </c>
-      <c r="K33" s="16" t="s">
-        <v>557</v>
-      </c>
-      <c r="L33" s="16" t="s">
-        <v>558</v>
+        <v>600</v>
+      </c>
+      <c r="K33" s="15" t="s">
+        <v>601</v>
+      </c>
+      <c r="L33" s="15" t="s">
+        <v>602</v>
       </c>
       <c r="M33" s="16" t="s">
-        <v>559</v>
+        <v>603</v>
       </c>
       <c r="N33" s="16" t="s">
-        <v>557</v>
+        <v>604</v>
       </c>
       <c r="O33" s="16" t="s">
-        <v>560</v>
+        <v>605</v>
       </c>
       <c r="P33" s="16" t="s">
-        <v>561</v>
+        <v>603</v>
       </c>
       <c r="Q33" s="16" t="s">
-        <v>562</v>
+        <v>606</v>
       </c>
       <c r="R33" s="16" t="s">
-        <v>563</v>
+        <v>607</v>
       </c>
       <c r="S33" s="16" t="s">
-        <v>564</v>
+        <v>608</v>
       </c>
       <c r="T33" s="16" t="s">
-        <v>565</v>
+        <v>609</v>
       </c>
       <c r="U33" s="16" t="s">
-        <v>566</v>
+        <v>610</v>
       </c>
       <c r="V33" s="16" t="s">
-        <v>567</v>
+        <v>611</v>
       </c>
       <c r="W33" s="16" t="s">
-        <v>568</v>
+        <v>612</v>
       </c>
       <c r="X33" s="16" t="s">
-        <v>569</v>
+        <v>613</v>
       </c>
       <c r="Y33" s="16" t="s">
-        <v>570</v>
+        <v>614</v>
       </c>
       <c r="Z33" s="16" t="s">
-        <v>571</v>
+        <v>615</v>
       </c>
       <c r="AA33" s="16" t="s">
-        <v>548</v>
-      </c>
-      <c r="AB33" s="17" t="s">
-        <v>549</v>
+        <v>616</v>
+      </c>
+      <c r="AB33" s="16" t="s">
+        <v>617</v>
+      </c>
+      <c r="AC33" s="16" t="s">
+        <v>592</v>
+      </c>
+      <c r="AD33" s="17" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="54.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="25" t="s">
-        <v>572</v>
+        <v>618</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>573</v>
+        <v>619</v>
       </c>
       <c r="C34" s="26" t="s">
-        <v>574</v>
+        <v>620</v>
       </c>
       <c r="D34" s="26" t="s">
-        <v>575</v>
+        <v>621</v>
       </c>
       <c r="E34" s="26" t="s">
-        <v>576</v>
+        <v>622</v>
       </c>
       <c r="F34" s="26" t="s">
-        <v>577</v>
+        <v>623</v>
       </c>
       <c r="G34" s="26" t="s">
-        <v>578</v>
+        <v>624</v>
       </c>
       <c r="H34" s="26" t="s">
-        <v>579</v>
+        <v>625</v>
       </c>
       <c r="I34" s="26" t="s">
-        <v>580</v>
+        <v>626</v>
       </c>
       <c r="J34" s="26" t="s">
-        <v>581</v>
-      </c>
-      <c r="K34" s="27" t="s">
-        <v>582</v>
-      </c>
-      <c r="L34" s="27" t="s">
-        <v>583</v>
+        <v>627</v>
+      </c>
+      <c r="K34" s="26" t="s">
+        <v>628</v>
+      </c>
+      <c r="L34" s="26" t="s">
+        <v>629</v>
       </c>
       <c r="M34" s="27" t="s">
-        <v>584</v>
+        <v>630</v>
       </c>
       <c r="N34" s="27" t="s">
-        <v>582</v>
+        <v>631</v>
       </c>
       <c r="O34" s="27" t="s">
-        <v>585</v>
+        <v>632</v>
       </c>
       <c r="P34" s="27" t="s">
-        <v>586</v>
+        <v>630</v>
       </c>
       <c r="Q34" s="27" t="s">
-        <v>587</v>
+        <v>633</v>
       </c>
       <c r="R34" s="27" t="s">
-        <v>588</v>
+        <v>634</v>
       </c>
       <c r="S34" s="27" t="s">
-        <v>589</v>
+        <v>635</v>
       </c>
       <c r="T34" s="27" t="s">
-        <v>590</v>
+        <v>636</v>
       </c>
       <c r="U34" s="27" t="s">
-        <v>591</v>
+        <v>637</v>
       </c>
       <c r="V34" s="27" t="s">
-        <v>592</v>
+        <v>638</v>
       </c>
       <c r="W34" s="27" t="s">
-        <v>593</v>
+        <v>639</v>
       </c>
       <c r="X34" s="27" t="s">
-        <v>594</v>
+        <v>640</v>
       </c>
       <c r="Y34" s="27" t="s">
-        <v>595</v>
+        <v>641</v>
       </c>
       <c r="Z34" s="27" t="s">
-        <v>596</v>
+        <v>642</v>
       </c>
       <c r="AA34" s="27" t="s">
-        <v>573</v>
-      </c>
-      <c r="AB34" s="28" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="18"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="16"/>
-      <c r="K35" s="16"/>
-      <c r="L35" s="16"/>
-      <c r="M35" s="16"/>
-      <c r="N35" s="16"/>
-      <c r="O35" s="16"/>
-      <c r="P35" s="16"/>
-      <c r="Q35" s="16"/>
-      <c r="R35" s="16"/>
-      <c r="S35" s="16"/>
-      <c r="T35" s="16"/>
-      <c r="U35" s="16"/>
-      <c r="V35" s="16"/>
-      <c r="W35" s="16"/>
-      <c r="X35" s="16"/>
-      <c r="Y35" s="16"/>
-      <c r="Z35" s="16"/>
-      <c r="AA35" s="31"/>
-      <c r="AB35" s="32"/>
-    </row>
-    <row r="36" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>643</v>
+      </c>
+      <c r="AB34" s="27" t="s">
+        <v>644</v>
+      </c>
+      <c r="AC34" s="27" t="s">
+        <v>619</v>
+      </c>
+      <c r="AD34" s="28" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="18" t="s">
+        <v>645</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>646</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>647</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>648</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>649</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>650</v>
+      </c>
+      <c r="G35" s="15" t="s">
+        <v>651</v>
+      </c>
+      <c r="H35" s="15" t="s">
+        <v>652</v>
+      </c>
+      <c r="I35" s="15" t="s">
+        <v>653</v>
+      </c>
+      <c r="J35" s="15" t="s">
+        <v>654</v>
+      </c>
+      <c r="K35" s="15" t="s">
+        <v>655</v>
+      </c>
+      <c r="L35" s="15" t="s">
+        <v>656</v>
+      </c>
+      <c r="M35" s="16" t="s">
+        <v>657</v>
+      </c>
+      <c r="N35" s="16" t="s">
+        <v>658</v>
+      </c>
+      <c r="O35" s="16" t="s">
+        <v>659</v>
+      </c>
+      <c r="P35" s="16" t="s">
+        <v>657</v>
+      </c>
+      <c r="Q35" s="16" t="s">
+        <v>660</v>
+      </c>
+      <c r="R35" s="16" t="s">
+        <v>661</v>
+      </c>
+      <c r="S35" s="16" t="s">
+        <v>662</v>
+      </c>
+      <c r="T35" s="16" t="s">
+        <v>663</v>
+      </c>
+      <c r="U35" s="16" t="s">
+        <v>664</v>
+      </c>
+      <c r="V35" s="16" t="s">
+        <v>665</v>
+      </c>
+      <c r="W35" s="16" t="s">
+        <v>666</v>
+      </c>
+      <c r="X35" s="16" t="s">
+        <v>667</v>
+      </c>
+      <c r="Y35" s="16" t="s">
+        <v>668</v>
+      </c>
+      <c r="Z35" s="16" t="s">
+        <v>669</v>
+      </c>
+      <c r="AA35" s="16" t="s">
+        <v>670</v>
+      </c>
+      <c r="AB35" s="16" t="s">
+        <v>671</v>
+      </c>
+      <c r="AC35" s="16" t="s">
+        <v>646</v>
+      </c>
+      <c r="AD35" s="17" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="53.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="18" t="s">
-        <v>597</v>
+        <v>672</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>598</v>
+        <v>673</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>599</v>
+        <v>674</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>600</v>
+        <v>675</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>601</v>
+        <v>676</v>
       </c>
       <c r="F36" s="15" t="s">
-        <v>602</v>
+        <v>677</v>
       </c>
       <c r="G36" s="15" t="s">
-        <v>603</v>
+        <v>678</v>
       </c>
       <c r="H36" s="15" t="s">
-        <v>604</v>
+        <v>679</v>
       </c>
       <c r="I36" s="15" t="s">
-        <v>605</v>
+        <v>680</v>
       </c>
       <c r="J36" s="15" t="s">
-        <v>606</v>
-      </c>
-      <c r="K36" s="16" t="s">
-        <v>607</v>
-      </c>
-      <c r="L36" s="16" t="s">
-        <v>608</v>
+        <v>681</v>
+      </c>
+      <c r="K36" s="15" t="s">
+        <v>682</v>
+      </c>
+      <c r="L36" s="15" t="s">
+        <v>683</v>
       </c>
       <c r="M36" s="16" t="s">
-        <v>609</v>
+        <v>684</v>
       </c>
       <c r="N36" s="16" t="s">
-        <v>607</v>
+        <v>685</v>
       </c>
       <c r="O36" s="16" t="s">
-        <v>610</v>
+        <v>686</v>
       </c>
       <c r="P36" s="16" t="s">
-        <v>611</v>
+        <v>684</v>
       </c>
       <c r="Q36" s="16" t="s">
-        <v>612</v>
+        <v>687</v>
       </c>
       <c r="R36" s="16" t="s">
-        <v>613</v>
+        <v>688</v>
       </c>
       <c r="S36" s="16" t="s">
-        <v>614</v>
+        <v>689</v>
       </c>
       <c r="T36" s="16" t="s">
-        <v>615</v>
+        <v>690</v>
       </c>
       <c r="U36" s="16" t="s">
-        <v>616</v>
+        <v>691</v>
       </c>
       <c r="V36" s="16" t="s">
-        <v>617</v>
+        <v>692</v>
       </c>
       <c r="W36" s="16" t="s">
-        <v>618</v>
+        <v>693</v>
       </c>
       <c r="X36" s="16" t="s">
-        <v>619</v>
+        <v>694</v>
       </c>
       <c r="Y36" s="16" t="s">
-        <v>620</v>
+        <v>695</v>
       </c>
       <c r="Z36" s="16" t="s">
-        <v>621</v>
+        <v>696</v>
       </c>
       <c r="AA36" s="16" t="s">
-        <v>598</v>
-      </c>
-      <c r="AB36" s="17" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="53.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>697</v>
+      </c>
+      <c r="AB36" s="16" t="s">
+        <v>698</v>
+      </c>
+      <c r="AC36" s="16" t="s">
+        <v>673</v>
+      </c>
+      <c r="AD36" s="17" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="47" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="18" t="s">
-        <v>622</v>
+        <v>699</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>623</v>
+        <v>700</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>624</v>
+        <v>701</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>625</v>
+        <v>702</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>626</v>
+        <v>703</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>627</v>
+        <v>704</v>
       </c>
       <c r="G37" s="15" t="s">
-        <v>628</v>
+        <v>705</v>
       </c>
       <c r="H37" s="15" t="s">
-        <v>629</v>
+        <v>706</v>
       </c>
       <c r="I37" s="15" t="s">
-        <v>630</v>
+        <v>707</v>
       </c>
       <c r="J37" s="15" t="s">
-        <v>631</v>
-      </c>
-      <c r="K37" s="16" t="s">
-        <v>632</v>
-      </c>
-      <c r="L37" s="16" t="s">
-        <v>633</v>
+        <v>708</v>
+      </c>
+      <c r="K37" s="15" t="s">
+        <v>709</v>
+      </c>
+      <c r="L37" s="15" t="s">
+        <v>710</v>
       </c>
       <c r="M37" s="16" t="s">
-        <v>634</v>
+        <v>711</v>
       </c>
       <c r="N37" s="16" t="s">
-        <v>632</v>
+        <v>712</v>
       </c>
       <c r="O37" s="16" t="s">
-        <v>635</v>
+        <v>713</v>
       </c>
       <c r="P37" s="16" t="s">
-        <v>636</v>
+        <v>711</v>
       </c>
       <c r="Q37" s="16" t="s">
-        <v>637</v>
+        <v>714</v>
       </c>
       <c r="R37" s="16" t="s">
-        <v>638</v>
+        <v>715</v>
       </c>
       <c r="S37" s="16" t="s">
-        <v>639</v>
+        <v>716</v>
       </c>
       <c r="T37" s="16" t="s">
-        <v>640</v>
+        <v>717</v>
       </c>
       <c r="U37" s="16" t="s">
-        <v>641</v>
+        <v>718</v>
       </c>
       <c r="V37" s="16" t="s">
-        <v>642</v>
+        <v>719</v>
       </c>
       <c r="W37" s="16" t="s">
-        <v>643</v>
+        <v>720</v>
       </c>
       <c r="X37" s="16" t="s">
-        <v>644</v>
+        <v>721</v>
       </c>
       <c r="Y37" s="16" t="s">
-        <v>645</v>
+        <v>722</v>
       </c>
       <c r="Z37" s="16" t="s">
-        <v>646</v>
+        <v>723</v>
       </c>
       <c r="AA37" s="16" t="s">
-        <v>623</v>
-      </c>
-      <c r="AB37" s="17" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="47" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="18" t="s">
-        <v>647</v>
+        <v>724</v>
+      </c>
+      <c r="AB37" s="16" t="s">
+        <v>725</v>
+      </c>
+      <c r="AC37" s="16" t="s">
+        <v>700</v>
+      </c>
+      <c r="AD37" s="17" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="14" t="s">
+        <v>726</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>648</v>
+        <v>727</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>649</v>
+        <v>728</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>650</v>
+        <v>729</v>
       </c>
       <c r="E38" s="15" t="s">
-        <v>651</v>
+        <v>730</v>
       </c>
       <c r="F38" s="15" t="s">
-        <v>652</v>
+        <v>731</v>
       </c>
       <c r="G38" s="15" t="s">
-        <v>653</v>
+        <v>732</v>
       </c>
       <c r="H38" s="15" t="s">
-        <v>654</v>
+        <v>733</v>
       </c>
       <c r="I38" s="15" t="s">
-        <v>655</v>
+        <v>734</v>
       </c>
       <c r="J38" s="15" t="s">
-        <v>656</v>
-      </c>
-      <c r="K38" s="16" t="s">
-        <v>657</v>
-      </c>
-      <c r="L38" s="16" t="s">
-        <v>658</v>
+        <v>735</v>
+      </c>
+      <c r="K38" s="15" t="s">
+        <v>736</v>
+      </c>
+      <c r="L38" s="15" t="s">
+        <v>737</v>
       </c>
       <c r="M38" s="16" t="s">
-        <v>659</v>
+        <v>738</v>
       </c>
       <c r="N38" s="16" t="s">
-        <v>657</v>
+        <v>739</v>
       </c>
       <c r="O38" s="16" t="s">
-        <v>660</v>
+        <v>740</v>
       </c>
       <c r="P38" s="16" t="s">
-        <v>661</v>
+        <v>738</v>
       </c>
       <c r="Q38" s="16" t="s">
-        <v>662</v>
+        <v>741</v>
       </c>
       <c r="R38" s="16" t="s">
-        <v>663</v>
+        <v>742</v>
       </c>
       <c r="S38" s="16" t="s">
-        <v>664</v>
+        <v>743</v>
       </c>
       <c r="T38" s="16" t="s">
-        <v>665</v>
+        <v>744</v>
       </c>
       <c r="U38" s="16" t="s">
-        <v>666</v>
+        <v>745</v>
       </c>
       <c r="V38" s="16" t="s">
-        <v>667</v>
+        <v>746</v>
       </c>
       <c r="W38" s="16" t="s">
-        <v>668</v>
+        <v>747</v>
       </c>
       <c r="X38" s="16" t="s">
-        <v>669</v>
+        <v>748</v>
       </c>
       <c r="Y38" s="16" t="s">
-        <v>670</v>
+        <v>749</v>
       </c>
       <c r="Z38" s="16" t="s">
-        <v>671</v>
+        <v>750</v>
       </c>
       <c r="AA38" s="16" t="s">
-        <v>648</v>
-      </c>
-      <c r="AB38" s="17" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="14" t="s">
-        <v>672</v>
+        <v>751</v>
+      </c>
+      <c r="AB38" s="16" t="s">
+        <v>752</v>
+      </c>
+      <c r="AC38" s="16" t="s">
+        <v>727</v>
+      </c>
+      <c r="AD38" s="17" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="33" t="s">
+        <v>753</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>673</v>
+        <v>754</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>674</v>
+        <v>755</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>675</v>
+        <v>756</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>676</v>
+        <v>757</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>677</v>
+        <v>758</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>678</v>
+        <v>759</v>
       </c>
       <c r="H39" s="15" t="s">
-        <v>679</v>
+        <v>760</v>
       </c>
       <c r="I39" s="15" t="s">
-        <v>680</v>
+        <v>761</v>
       </c>
       <c r="J39" s="15" t="s">
-        <v>681</v>
-      </c>
-      <c r="K39" s="16" t="s">
-        <v>682</v>
-      </c>
-      <c r="L39" s="16" t="s">
-        <v>683</v>
+        <v>762</v>
+      </c>
+      <c r="K39" s="15" t="s">
+        <v>763</v>
+      </c>
+      <c r="L39" s="15" t="s">
+        <v>764</v>
       </c>
       <c r="M39" s="16" t="s">
-        <v>684</v>
+        <v>765</v>
       </c>
       <c r="N39" s="16" t="s">
-        <v>682</v>
+        <v>766</v>
       </c>
       <c r="O39" s="16" t="s">
-        <v>685</v>
+        <v>767</v>
       </c>
       <c r="P39" s="16" t="s">
-        <v>686</v>
+        <v>765</v>
       </c>
       <c r="Q39" s="16" t="s">
-        <v>687</v>
+        <v>768</v>
       </c>
       <c r="R39" s="16" t="s">
-        <v>688</v>
+        <v>769</v>
       </c>
       <c r="S39" s="16" t="s">
-        <v>689</v>
+        <v>770</v>
       </c>
       <c r="T39" s="16" t="s">
-        <v>690</v>
+        <v>771</v>
       </c>
       <c r="U39" s="16" t="s">
-        <v>691</v>
+        <v>772</v>
       </c>
       <c r="V39" s="16" t="s">
-        <v>692</v>
+        <v>773</v>
       </c>
       <c r="W39" s="16" t="s">
-        <v>693</v>
+        <v>774</v>
       </c>
       <c r="X39" s="16" t="s">
-        <v>694</v>
+        <v>775</v>
       </c>
       <c r="Y39" s="16" t="s">
-        <v>695</v>
+        <v>776</v>
       </c>
       <c r="Z39" s="16" t="s">
-        <v>696</v>
+        <v>777</v>
       </c>
       <c r="AA39" s="16" t="s">
-        <v>673</v>
-      </c>
-      <c r="AB39" s="17" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="33" t="s">
-        <v>697</v>
-      </c>
-      <c r="B40" s="15" t="s">
-        <v>698</v>
-      </c>
-      <c r="C40" s="15" t="s">
-        <v>699</v>
-      </c>
-      <c r="D40" s="15" t="s">
-        <v>700</v>
-      </c>
-      <c r="E40" s="15" t="s">
-        <v>701</v>
-      </c>
-      <c r="F40" s="15" t="s">
-        <v>702</v>
-      </c>
-      <c r="G40" s="15" t="s">
-        <v>703</v>
-      </c>
-      <c r="H40" s="15" t="s">
-        <v>704</v>
-      </c>
-      <c r="I40" s="15" t="s">
-        <v>705</v>
-      </c>
-      <c r="J40" s="15" t="s">
-        <v>706</v>
-      </c>
-      <c r="K40" s="16" t="s">
-        <v>707</v>
-      </c>
-      <c r="L40" s="16" t="s">
-        <v>708</v>
-      </c>
-      <c r="M40" s="16" t="s">
-        <v>709</v>
-      </c>
-      <c r="N40" s="16" t="s">
-        <v>707</v>
-      </c>
-      <c r="O40" s="16" t="s">
-        <v>710</v>
-      </c>
-      <c r="P40" s="16" t="s">
-        <v>711</v>
-      </c>
-      <c r="Q40" s="16" t="s">
-        <v>712</v>
-      </c>
-      <c r="R40" s="16" t="s">
-        <v>713</v>
-      </c>
-      <c r="S40" s="16" t="s">
-        <v>714</v>
-      </c>
-      <c r="T40" s="16" t="s">
-        <v>715</v>
-      </c>
-      <c r="U40" s="16" t="s">
-        <v>716</v>
-      </c>
-      <c r="V40" s="16" t="s">
-        <v>717</v>
-      </c>
-      <c r="W40" s="16" t="s">
-        <v>718</v>
-      </c>
-      <c r="X40" s="16" t="s">
-        <v>719</v>
-      </c>
-      <c r="Y40" s="16" t="s">
-        <v>720</v>
-      </c>
-      <c r="Z40" s="16" t="s">
-        <v>721</v>
-      </c>
-      <c r="AA40" s="16" t="s">
-        <v>698</v>
-      </c>
-      <c r="AB40" s="17" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>778</v>
+      </c>
+      <c r="AB39" s="16" t="s">
+        <v>779</v>
+      </c>
+      <c r="AC39" s="16" t="s">
+        <v>754</v>
+      </c>
+      <c r="AD39" s="17" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="A6:U6"/>
+  <mergeCells count="24">
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="B5:J5"/>
+    <mergeCell ref="A6:W6"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
     <mergeCell ref="I9:J9"/>
     <mergeCell ref="K9:L9"/>
     <mergeCell ref="M9:N9"/>
@@ -5845,6 +6177,7 @@
     <mergeCell ref="W9:X9"/>
     <mergeCell ref="Y9:Z9"/>
     <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="AC9:AD9"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -5864,7 +6197,7 @@
   <dimension ref="A1:Y59"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B15:AB15 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5875,32 +6208,32 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="34" t="s">
-        <v>722</v>
+        <v>780</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="34" t="s">
-        <v>723</v>
+        <v>781</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="34" t="s">
-        <v>724</v>
+        <v>782</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="34" t="s">
-        <v>725</v>
+        <v>783</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="34" t="s">
-        <v>726</v>
+        <v>784</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="34" t="s">
-        <v>727</v>
+        <v>785</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5908,12 +6241,12 @@
     </row>
     <row r="9" customFormat="false" ht="80.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="35" t="s">
-        <v>728</v>
+        <v>786</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="51.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="36" t="s">
-        <v>729</v>
+        <v>787</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5921,7 +6254,7 @@
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="37" t="s">
-        <v>730</v>
+        <v>788</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5929,54 +6262,54 @@
     </row>
     <row r="14" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="39" t="s">
-        <v>731</v>
+        <v>789</v>
       </c>
       <c r="B14" s="40" t="s">
-        <v>732</v>
+        <v>790</v>
       </c>
       <c r="C14" s="40"/>
       <c r="D14" s="40" t="s">
-        <v>733</v>
+        <v>791</v>
       </c>
       <c r="E14" s="40"/>
       <c r="F14" s="40" t="s">
-        <v>734</v>
+        <v>792</v>
       </c>
       <c r="G14" s="40"/>
       <c r="H14" s="40" t="s">
-        <v>735</v>
+        <v>793</v>
       </c>
       <c r="I14" s="40"/>
       <c r="J14" s="40" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K14" s="40"/>
       <c r="L14" s="40" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M14" s="40"/>
       <c r="N14" s="40" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O14" s="40"/>
       <c r="P14" s="40" t="s">
-        <v>736</v>
+        <v>794</v>
       </c>
       <c r="Q14" s="40"/>
       <c r="R14" s="40" t="s">
-        <v>737</v>
+        <v>795</v>
       </c>
       <c r="S14" s="40"/>
       <c r="T14" s="40" t="s">
-        <v>738</v>
+        <v>796</v>
       </c>
       <c r="U14" s="40"/>
       <c r="V14" s="40" t="s">
-        <v>739</v>
+        <v>797</v>
       </c>
       <c r="W14" s="40"/>
       <c r="X14" s="41" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Y14" s="41"/>
     </row>
@@ -6057,7 +6390,7 @@
     </row>
     <row r="16" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="44" t="s">
-        <v>740</v>
+        <v>798</v>
       </c>
       <c r="B16" s="44"/>
       <c r="C16" s="44"/>
@@ -6086,7 +6419,7 @@
     </row>
     <row r="17" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="45" t="s">
-        <v>741</v>
+        <v>799</v>
       </c>
       <c r="B17" s="46"/>
       <c r="C17" s="46"/>
@@ -6115,7 +6448,7 @@
     </row>
     <row r="18" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="45" t="s">
-        <v>742</v>
+        <v>800</v>
       </c>
       <c r="B18" s="46"/>
       <c r="C18" s="46"/>
@@ -6144,7 +6477,7 @@
     </row>
     <row r="19" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="45" t="s">
-        <v>743</v>
+        <v>801</v>
       </c>
       <c r="B19" s="46"/>
       <c r="C19" s="46"/>
@@ -6227,7 +6560,7 @@
     </row>
     <row r="22" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="44" t="s">
-        <v>744</v>
+        <v>802</v>
       </c>
       <c r="B22" s="44"/>
       <c r="C22" s="44"/>
@@ -6256,7 +6589,7 @@
     </row>
     <row r="23" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="45" t="s">
-        <v>745</v>
+        <v>803</v>
       </c>
       <c r="B23" s="46"/>
       <c r="C23" s="46"/>
@@ -6285,7 +6618,7 @@
     </row>
     <row r="24" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="45" t="s">
-        <v>746</v>
+        <v>804</v>
       </c>
       <c r="B24" s="46"/>
       <c r="C24" s="46"/>
@@ -6314,7 +6647,7 @@
     </row>
     <row r="25" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="45" t="s">
-        <v>747</v>
+        <v>805</v>
       </c>
       <c r="B25" s="46"/>
       <c r="C25" s="46"/>
@@ -6343,7 +6676,7 @@
     </row>
     <row r="26" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="45" t="s">
-        <v>748</v>
+        <v>806</v>
       </c>
       <c r="B26" s="46"/>
       <c r="C26" s="46"/>
@@ -6426,7 +6759,7 @@
     </row>
     <row r="29" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="48" t="s">
-        <v>749</v>
+        <v>807</v>
       </c>
       <c r="B29" s="46"/>
       <c r="C29" s="46"/>
@@ -6455,7 +6788,7 @@
     </row>
     <row r="30" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="44" t="s">
-        <v>750</v>
+        <v>808</v>
       </c>
       <c r="B30" s="44"/>
       <c r="C30" s="44"/>
@@ -6484,7 +6817,7 @@
     </row>
     <row r="31" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="45" t="s">
-        <v>751</v>
+        <v>809</v>
       </c>
       <c r="B31" s="46"/>
       <c r="C31" s="46"/>
@@ -6513,7 +6846,7 @@
     </row>
     <row r="32" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="45" t="s">
-        <v>752</v>
+        <v>810</v>
       </c>
       <c r="B32" s="46"/>
       <c r="C32" s="46"/>
@@ -6596,7 +6929,7 @@
     </row>
     <row r="35" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="44" t="s">
-        <v>753</v>
+        <v>811</v>
       </c>
       <c r="B35" s="44"/>
       <c r="C35" s="44"/>
@@ -6706,7 +7039,7 @@
     </row>
     <row r="39" customFormat="false" ht="66.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="48" t="s">
-        <v>754</v>
+        <v>812</v>
       </c>
       <c r="B39" s="46"/>
       <c r="C39" s="46"/>
@@ -6735,7 +7068,7 @@
     </row>
     <row r="40" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="48" t="s">
-        <v>755</v>
+        <v>813</v>
       </c>
       <c r="B40" s="46"/>
       <c r="C40" s="46"/>
@@ -6764,7 +7097,7 @@
     </row>
     <row r="41" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="44" t="s">
-        <v>756</v>
+        <v>814</v>
       </c>
       <c r="B41" s="44"/>
       <c r="C41" s="44"/>
@@ -6793,7 +7126,7 @@
     </row>
     <row r="42" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="45" t="s">
-        <v>757</v>
+        <v>815</v>
       </c>
       <c r="B42" s="46"/>
       <c r="C42" s="46"/>
@@ -6822,7 +7155,7 @@
     </row>
     <row r="43" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="45" t="s">
-        <v>758</v>
+        <v>816</v>
       </c>
       <c r="B43" s="46"/>
       <c r="C43" s="46"/>
@@ -6851,7 +7184,7 @@
     </row>
     <row r="44" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="45" t="s">
-        <v>759</v>
+        <v>817</v>
       </c>
       <c r="B44" s="46"/>
       <c r="C44" s="46"/>
@@ -6934,7 +7267,7 @@
     </row>
     <row r="47" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="44" t="s">
-        <v>760</v>
+        <v>818</v>
       </c>
       <c r="B47" s="44"/>
       <c r="C47" s="44"/>
@@ -7017,7 +7350,7 @@
     </row>
     <row r="50" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="45" t="s">
-        <v>761</v>
+        <v>819</v>
       </c>
       <c r="B50" s="46"/>
       <c r="C50" s="46"/>
@@ -7046,7 +7379,7 @@
     </row>
     <row r="51" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="44" t="s">
-        <v>762</v>
+        <v>820</v>
       </c>
       <c r="B51" s="44"/>
       <c r="C51" s="44"/>
@@ -7075,7 +7408,7 @@
     </row>
     <row r="52" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="49" t="s">
-        <v>763</v>
+        <v>821</v>
       </c>
       <c r="B52" s="46"/>
       <c r="C52" s="46"/>
@@ -7104,7 +7437,7 @@
     </row>
     <row r="53" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="49" t="s">
-        <v>764</v>
+        <v>822</v>
       </c>
       <c r="B53" s="46"/>
       <c r="C53" s="46"/>
@@ -7133,7 +7466,7 @@
     </row>
     <row r="54" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="49" t="s">
-        <v>765</v>
+        <v>823</v>
       </c>
       <c r="B54" s="46"/>
       <c r="C54" s="46"/>
@@ -7189,7 +7522,7 @@
     </row>
     <row r="56" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="50" t="s">
-        <v>766</v>
+        <v>824</v>
       </c>
       <c r="B56" s="46"/>
       <c r="C56" s="46"/>
@@ -7218,7 +7551,7 @@
     </row>
     <row r="57" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="51" t="s">
-        <v>767</v>
+        <v>825</v>
       </c>
       <c r="B57" s="52"/>
       <c r="C57" s="52"/>
@@ -7250,7 +7583,7 @@
     </row>
     <row r="59" customFormat="false" ht="141.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="55" t="s">
-        <v>768</v>
+        <v>826</v>
       </c>
     </row>
   </sheetData>

--- a/resources/report_template.xlsx
+++ b/resources/report_template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="417" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="371" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="File active" sheetId="1" state="visible" r:id="rId2"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="827">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="828">
   <si>
     <t>Région</t>
   </si>
@@ -25,6 +25,9 @@
   </si>
   <si>
     <t>Période de rapportage</t>
+  </si>
+  <si>
+    <t>{key: 'PERIOD'}</t>
   </si>
   <si>
     <t>Date d'établissement du rapport</t>
@@ -3217,15 +3220,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>270000</xdr:colOff>
+      <xdr:colOff>297000</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>110160</xdr:rowOff>
+      <xdr:rowOff>101160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>752040</xdr:colOff>
+      <xdr:colOff>778680</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>77760</xdr:rowOff>
+      <xdr:rowOff>68400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3238,8 +3241,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="270000" y="709920"/>
-          <a:ext cx="482040" cy="358200"/>
+          <a:off x="297000" y="700920"/>
+          <a:ext cx="481680" cy="357840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3261,8 +3264,8 @@
   </sheetPr>
   <dimension ref="A1:AD65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A35" activeCellId="0" sqref="A35"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -3338,7 +3341,9 @@
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3"/>
+      <c r="B4" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -3350,7 +3355,7 @@
     </row>
     <row r="5" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -3364,7 +3369,7 @@
     </row>
     <row r="6" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -3397,71 +3402,71 @@
     </row>
     <row r="9" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>9</v>
       </c>
       <c r="J9" s="8"/>
       <c r="K9" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L9" s="8"/>
       <c r="M9" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N9" s="9"/>
       <c r="O9" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P9" s="9"/>
       <c r="Q9" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="R9" s="9"/>
       <c r="S9" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T9" s="9"/>
       <c r="U9" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="V9" s="9"/>
       <c r="W9" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="X9" s="9"/>
       <c r="Y9" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Z9" s="9"/>
       <c r="AA9" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AB9" s="9"/>
       <c r="AC9" s="10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AD9" s="10"/>
     </row>
@@ -3475,1915 +3480,1915 @@
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J10" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="K10" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="K10" s="11" t="s">
-        <v>6</v>
-      </c>
       <c r="L10" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="M10" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="M10" s="12" t="s">
-        <v>6</v>
-      </c>
       <c r="N10" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="O10" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="O10" s="12" t="s">
-        <v>6</v>
-      </c>
       <c r="P10" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q10" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="Q10" s="12" t="s">
-        <v>6</v>
-      </c>
       <c r="R10" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="S10" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="S10" s="12" t="s">
-        <v>6</v>
-      </c>
       <c r="T10" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="U10" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="U10" s="12" t="s">
-        <v>6</v>
-      </c>
       <c r="V10" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="W10" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="W10" s="12" t="s">
-        <v>6</v>
-      </c>
       <c r="X10" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y10" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="Y10" s="12" t="s">
-        <v>6</v>
-      </c>
       <c r="Z10" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA10" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="AA10" s="12" t="s">
-        <v>6</v>
-      </c>
       <c r="AB10" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC10" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="AC10" s="12" t="s">
-        <v>6</v>
-      </c>
       <c r="AD10" s="13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="J11" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="M11" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="N11" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="O11" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="P11" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q11" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="R11" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="S11" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="T11" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="U11" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="V11" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="W11" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="X11" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y11" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z11" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA11" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB11" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC11" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="AD11" s="17" t="s">
         <v>26</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="H11" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="I11" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="J11" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="K11" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="L11" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="M11" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="N11" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="O11" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="P11" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q11" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="R11" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="S11" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="T11" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="U11" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="V11" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="W11" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="X11" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y11" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z11" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA11" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB11" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC11" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="AD11" s="17" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="38.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C12" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="I12" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="J12" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="K12" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="L12" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="M12" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="N12" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="O12" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="P12" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q12" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="R12" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="S12" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="T12" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="U12" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="V12" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="W12" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="X12" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y12" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z12" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA12" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB12" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC12" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="AD12" s="17" t="s">
         <v>53</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="H12" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="I12" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="J12" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="K12" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="L12" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="M12" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="N12" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="O12" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="P12" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q12" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="R12" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="S12" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="T12" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="U12" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="V12" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="W12" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="X12" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y12" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z12" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA12" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="AB12" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC12" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="AD12" s="17" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="50.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C13" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="J13" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="K13" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="L13" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="M13" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="N13" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="O13" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="P13" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q13" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="R13" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="S13" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="T13" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="U13" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="V13" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="W13" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="X13" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y13" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z13" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA13" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB13" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC13" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="AD13" s="17" t="s">
         <v>80</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="G13" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="H13" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="I13" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="J13" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="K13" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="L13" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="M13" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="N13" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="O13" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="P13" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q13" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="R13" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="S13" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="T13" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="U13" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="V13" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="W13" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="X13" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y13" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="Z13" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="AA13" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="AB13" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="AC13" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD13" s="17" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="14" s="19" customFormat="true" ht="51.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="18" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C14" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="J14" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="K14" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="L14" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="M14" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="N14" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="O14" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="P14" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q14" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="R14" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="S14" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="T14" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="U14" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="V14" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="W14" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="X14" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y14" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z14" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA14" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB14" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC14" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="AD14" s="17" t="s">
         <v>107</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="G14" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="H14" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="I14" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="J14" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="K14" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="L14" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="M14" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="N14" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="O14" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="P14" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q14" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="R14" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="S14" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="T14" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="U14" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="V14" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="W14" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="X14" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="Y14" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="Z14" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="AA14" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="AB14" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="AC14" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="AD14" s="17" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="51.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="18" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C15" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="I15" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="J15" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="K15" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="L15" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="M15" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="N15" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="O15" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="P15" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q15" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="R15" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="S15" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="T15" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="U15" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="V15" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="W15" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="X15" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y15" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z15" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="AA15" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB15" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC15" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="AD15" s="17" t="s">
         <v>134</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="G15" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="H15" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="I15" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="J15" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="K15" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="L15" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="M15" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="N15" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="O15" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="P15" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q15" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="R15" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="S15" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="T15" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="U15" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="V15" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="W15" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="X15" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="Y15" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="Z15" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="AA15" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="AB15" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="AC15" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="AD15" s="17" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="48.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="20" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C16" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="G16" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="H16" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="I16" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="J16" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="K16" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="L16" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="M16" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="N16" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="O16" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="P16" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q16" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="R16" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="S16" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="T16" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="U16" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="V16" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="W16" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="X16" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="Y16" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="Z16" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA16" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="AB16" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="AC16" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="AD16" s="24" t="s">
         <v>161</v>
-      </c>
-      <c r="E16" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="F16" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="G16" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="H16" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="I16" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="J16" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="K16" s="23" t="s">
-        <v>168</v>
-      </c>
-      <c r="L16" s="23" t="s">
-        <v>169</v>
-      </c>
-      <c r="M16" s="21" t="s">
-        <v>170</v>
-      </c>
-      <c r="N16" s="21" t="s">
-        <v>171</v>
-      </c>
-      <c r="O16" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="P16" s="21" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q16" s="21" t="s">
-        <v>173</v>
-      </c>
-      <c r="R16" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="S16" s="21" t="s">
-        <v>175</v>
-      </c>
-      <c r="T16" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="U16" s="21" t="s">
-        <v>177</v>
-      </c>
-      <c r="V16" s="21" t="s">
-        <v>178</v>
-      </c>
-      <c r="W16" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="X16" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="Y16" s="21" t="s">
-        <v>181</v>
-      </c>
-      <c r="Z16" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="AA16" s="21" t="s">
-        <v>183</v>
-      </c>
-      <c r="AB16" s="21" t="s">
-        <v>184</v>
-      </c>
-      <c r="AC16" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="AD16" s="24" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="18" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C17" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="I17" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="J17" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="K17" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="L17" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="M17" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="N17" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="O17" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="P17" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q17" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="R17" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="S17" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="T17" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="U17" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="V17" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="W17" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="X17" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y17" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="Z17" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="AA17" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="AB17" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="AC17" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="AD17" s="17" t="s">
         <v>188</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>189</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="G17" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="H17" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="I17" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="J17" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="K17" s="15" t="s">
-        <v>195</v>
-      </c>
-      <c r="L17" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="M17" s="16" t="s">
-        <v>197</v>
-      </c>
-      <c r="N17" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="O17" s="16" t="s">
-        <v>199</v>
-      </c>
-      <c r="P17" s="16" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q17" s="16" t="s">
-        <v>200</v>
-      </c>
-      <c r="R17" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="S17" s="16" t="s">
-        <v>202</v>
-      </c>
-      <c r="T17" s="16" t="s">
-        <v>203</v>
-      </c>
-      <c r="U17" s="16" t="s">
-        <v>204</v>
-      </c>
-      <c r="V17" s="16" t="s">
-        <v>205</v>
-      </c>
-      <c r="W17" s="16" t="s">
-        <v>206</v>
-      </c>
-      <c r="X17" s="16" t="s">
-        <v>207</v>
-      </c>
-      <c r="Y17" s="16" t="s">
-        <v>208</v>
-      </c>
-      <c r="Z17" s="16" t="s">
-        <v>209</v>
-      </c>
-      <c r="AA17" s="16" t="s">
-        <v>210</v>
-      </c>
-      <c r="AB17" s="16" t="s">
-        <v>211</v>
-      </c>
-      <c r="AC17" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="AD17" s="17" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="28.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="18" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C18" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="I18" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="J18" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="K18" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="L18" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="M18" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="N18" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="O18" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="P18" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q18" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="R18" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="S18" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="T18" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="U18" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="V18" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="W18" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="X18" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="Y18" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="Z18" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="AA18" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="AB18" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="AC18" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="AD18" s="17" t="s">
         <v>215</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>216</v>
-      </c>
-      <c r="F18" s="15" t="s">
-        <v>217</v>
-      </c>
-      <c r="G18" s="15" t="s">
-        <v>218</v>
-      </c>
-      <c r="H18" s="15" t="s">
-        <v>219</v>
-      </c>
-      <c r="I18" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="J18" s="15" t="s">
-        <v>221</v>
-      </c>
-      <c r="K18" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="L18" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="M18" s="16" t="s">
-        <v>224</v>
-      </c>
-      <c r="N18" s="16" t="s">
-        <v>225</v>
-      </c>
-      <c r="O18" s="16" t="s">
-        <v>226</v>
-      </c>
-      <c r="P18" s="16" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q18" s="16" t="s">
-        <v>227</v>
-      </c>
-      <c r="R18" s="16" t="s">
-        <v>228</v>
-      </c>
-      <c r="S18" s="16" t="s">
-        <v>229</v>
-      </c>
-      <c r="T18" s="16" t="s">
-        <v>230</v>
-      </c>
-      <c r="U18" s="16" t="s">
-        <v>231</v>
-      </c>
-      <c r="V18" s="16" t="s">
-        <v>232</v>
-      </c>
-      <c r="W18" s="16" t="s">
-        <v>233</v>
-      </c>
-      <c r="X18" s="16" t="s">
-        <v>234</v>
-      </c>
-      <c r="Y18" s="16" t="s">
-        <v>235</v>
-      </c>
-      <c r="Z18" s="16" t="s">
-        <v>236</v>
-      </c>
-      <c r="AA18" s="16" t="s">
-        <v>237</v>
-      </c>
-      <c r="AB18" s="16" t="s">
-        <v>238</v>
-      </c>
-      <c r="AC18" s="16" t="s">
-        <v>213</v>
-      </c>
-      <c r="AD18" s="17" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="41" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="18" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C19" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="I19" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="J19" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="K19" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="L19" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="M19" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="N19" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="O19" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="P19" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q19" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="R19" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="S19" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="T19" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="U19" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="V19" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="W19" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="X19" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="Y19" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="Z19" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="AA19" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="AB19" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="AC19" s="16" t="s">
         <v>241</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="AD19" s="17" t="s">
         <v>242</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>243</v>
-      </c>
-      <c r="F19" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="G19" s="15" t="s">
-        <v>245</v>
-      </c>
-      <c r="H19" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="I19" s="15" t="s">
-        <v>247</v>
-      </c>
-      <c r="J19" s="15" t="s">
-        <v>248</v>
-      </c>
-      <c r="K19" s="15" t="s">
-        <v>249</v>
-      </c>
-      <c r="L19" s="15" t="s">
-        <v>250</v>
-      </c>
-      <c r="M19" s="16" t="s">
-        <v>251</v>
-      </c>
-      <c r="N19" s="16" t="s">
-        <v>252</v>
-      </c>
-      <c r="O19" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="P19" s="16" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q19" s="16" t="s">
-        <v>254</v>
-      </c>
-      <c r="R19" s="16" t="s">
-        <v>255</v>
-      </c>
-      <c r="S19" s="16" t="s">
-        <v>256</v>
-      </c>
-      <c r="T19" s="16" t="s">
-        <v>257</v>
-      </c>
-      <c r="U19" s="16" t="s">
-        <v>258</v>
-      </c>
-      <c r="V19" s="16" t="s">
-        <v>259</v>
-      </c>
-      <c r="W19" s="16" t="s">
-        <v>260</v>
-      </c>
-      <c r="X19" s="16" t="s">
-        <v>261</v>
-      </c>
-      <c r="Y19" s="16" t="s">
-        <v>262</v>
-      </c>
-      <c r="Z19" s="16" t="s">
-        <v>263</v>
-      </c>
-      <c r="AA19" s="16" t="s">
-        <v>264</v>
-      </c>
-      <c r="AB19" s="16" t="s">
-        <v>265</v>
-      </c>
-      <c r="AC19" s="16" t="s">
-        <v>240</v>
-      </c>
-      <c r="AD19" s="17" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="18" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C20" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="I20" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="J20" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="K20" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="L20" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="M20" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="N20" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="O20" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="P20" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q20" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="R20" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="S20" s="16" t="s">
+        <v>284</v>
+      </c>
+      <c r="T20" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="U20" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="V20" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="W20" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="X20" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="Y20" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="Z20" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="AA20" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="AB20" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="AC20" s="16" t="s">
         <v>268</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="AD20" s="17" t="s">
         <v>269</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>270</v>
-      </c>
-      <c r="F20" s="15" t="s">
-        <v>271</v>
-      </c>
-      <c r="G20" s="15" t="s">
-        <v>272</v>
-      </c>
-      <c r="H20" s="15" t="s">
-        <v>273</v>
-      </c>
-      <c r="I20" s="15" t="s">
-        <v>274</v>
-      </c>
-      <c r="J20" s="15" t="s">
-        <v>275</v>
-      </c>
-      <c r="K20" s="15" t="s">
-        <v>276</v>
-      </c>
-      <c r="L20" s="15" t="s">
-        <v>277</v>
-      </c>
-      <c r="M20" s="16" t="s">
-        <v>278</v>
-      </c>
-      <c r="N20" s="16" t="s">
-        <v>279</v>
-      </c>
-      <c r="O20" s="16" t="s">
-        <v>280</v>
-      </c>
-      <c r="P20" s="16" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q20" s="16" t="s">
-        <v>281</v>
-      </c>
-      <c r="R20" s="16" t="s">
-        <v>282</v>
-      </c>
-      <c r="S20" s="16" t="s">
-        <v>283</v>
-      </c>
-      <c r="T20" s="16" t="s">
-        <v>284</v>
-      </c>
-      <c r="U20" s="16" t="s">
-        <v>285</v>
-      </c>
-      <c r="V20" s="16" t="s">
-        <v>286</v>
-      </c>
-      <c r="W20" s="16" t="s">
-        <v>287</v>
-      </c>
-      <c r="X20" s="16" t="s">
-        <v>288</v>
-      </c>
-      <c r="Y20" s="16" t="s">
-        <v>289</v>
-      </c>
-      <c r="Z20" s="16" t="s">
-        <v>290</v>
-      </c>
-      <c r="AA20" s="16" t="s">
-        <v>291</v>
-      </c>
-      <c r="AB20" s="16" t="s">
-        <v>292</v>
-      </c>
-      <c r="AC20" s="16" t="s">
-        <v>267</v>
-      </c>
-      <c r="AD20" s="17" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="25" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C21" s="26" t="s">
+        <v>296</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>297</v>
+      </c>
+      <c r="E21" s="26" t="s">
+        <v>298</v>
+      </c>
+      <c r="F21" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="G21" s="26" t="s">
+        <v>300</v>
+      </c>
+      <c r="H21" s="26" t="s">
+        <v>301</v>
+      </c>
+      <c r="I21" s="23" t="s">
+        <v>302</v>
+      </c>
+      <c r="J21" s="23" t="s">
+        <v>303</v>
+      </c>
+      <c r="K21" s="23" t="s">
+        <v>304</v>
+      </c>
+      <c r="L21" s="23" t="s">
+        <v>305</v>
+      </c>
+      <c r="M21" s="27" t="s">
+        <v>306</v>
+      </c>
+      <c r="N21" s="27" t="s">
+        <v>307</v>
+      </c>
+      <c r="O21" s="27" t="s">
+        <v>308</v>
+      </c>
+      <c r="P21" s="27" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q21" s="27" t="s">
+        <v>309</v>
+      </c>
+      <c r="R21" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="S21" s="27" t="s">
+        <v>311</v>
+      </c>
+      <c r="T21" s="27" t="s">
+        <v>312</v>
+      </c>
+      <c r="U21" s="27" t="s">
+        <v>313</v>
+      </c>
+      <c r="V21" s="27" t="s">
+        <v>314</v>
+      </c>
+      <c r="W21" s="27" t="s">
+        <v>315</v>
+      </c>
+      <c r="X21" s="27" t="s">
+        <v>316</v>
+      </c>
+      <c r="Y21" s="27" t="s">
+        <v>317</v>
+      </c>
+      <c r="Z21" s="27" t="s">
+        <v>318</v>
+      </c>
+      <c r="AA21" s="27" t="s">
+        <v>319</v>
+      </c>
+      <c r="AB21" s="27" t="s">
+        <v>320</v>
+      </c>
+      <c r="AC21" s="27" t="s">
         <v>295</v>
       </c>
-      <c r="D21" s="26" t="s">
+      <c r="AD21" s="28" t="s">
         <v>296</v>
-      </c>
-      <c r="E21" s="26" t="s">
-        <v>297</v>
-      </c>
-      <c r="F21" s="26" t="s">
-        <v>298</v>
-      </c>
-      <c r="G21" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="H21" s="26" t="s">
-        <v>300</v>
-      </c>
-      <c r="I21" s="23" t="s">
-        <v>301</v>
-      </c>
-      <c r="J21" s="23" t="s">
-        <v>302</v>
-      </c>
-      <c r="K21" s="23" t="s">
-        <v>303</v>
-      </c>
-      <c r="L21" s="23" t="s">
-        <v>304</v>
-      </c>
-      <c r="M21" s="27" t="s">
-        <v>305</v>
-      </c>
-      <c r="N21" s="27" t="s">
-        <v>306</v>
-      </c>
-      <c r="O21" s="27" t="s">
-        <v>307</v>
-      </c>
-      <c r="P21" s="27" t="s">
-        <v>305</v>
-      </c>
-      <c r="Q21" s="27" t="s">
-        <v>308</v>
-      </c>
-      <c r="R21" s="27" t="s">
-        <v>309</v>
-      </c>
-      <c r="S21" s="27" t="s">
-        <v>310</v>
-      </c>
-      <c r="T21" s="27" t="s">
-        <v>311</v>
-      </c>
-      <c r="U21" s="27" t="s">
-        <v>312</v>
-      </c>
-      <c r="V21" s="27" t="s">
-        <v>313</v>
-      </c>
-      <c r="W21" s="27" t="s">
-        <v>314</v>
-      </c>
-      <c r="X21" s="27" t="s">
-        <v>315</v>
-      </c>
-      <c r="Y21" s="27" t="s">
-        <v>316</v>
-      </c>
-      <c r="Z21" s="27" t="s">
-        <v>317</v>
-      </c>
-      <c r="AA21" s="27" t="s">
-        <v>318</v>
-      </c>
-      <c r="AB21" s="27" t="s">
-        <v>319</v>
-      </c>
-      <c r="AC21" s="27" t="s">
-        <v>294</v>
-      </c>
-      <c r="AD21" s="28" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="18" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C22" s="15" t="s">
+        <v>323</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>324</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>325</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>326</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>327</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="I22" s="15" t="s">
+        <v>329</v>
+      </c>
+      <c r="J22" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="K22" s="15" t="s">
+        <v>331</v>
+      </c>
+      <c r="L22" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="M22" s="16" t="s">
+        <v>333</v>
+      </c>
+      <c r="N22" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="O22" s="16" t="s">
+        <v>335</v>
+      </c>
+      <c r="P22" s="16" t="s">
+        <v>333</v>
+      </c>
+      <c r="Q22" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="R22" s="16" t="s">
+        <v>337</v>
+      </c>
+      <c r="S22" s="16" t="s">
+        <v>338</v>
+      </c>
+      <c r="T22" s="16" t="s">
+        <v>339</v>
+      </c>
+      <c r="U22" s="16" t="s">
+        <v>340</v>
+      </c>
+      <c r="V22" s="16" t="s">
+        <v>341</v>
+      </c>
+      <c r="W22" s="16" t="s">
+        <v>342</v>
+      </c>
+      <c r="X22" s="16" t="s">
+        <v>343</v>
+      </c>
+      <c r="Y22" s="16" t="s">
+        <v>344</v>
+      </c>
+      <c r="Z22" s="16" t="s">
+        <v>345</v>
+      </c>
+      <c r="AA22" s="16" t="s">
+        <v>346</v>
+      </c>
+      <c r="AB22" s="16" t="s">
+        <v>347</v>
+      </c>
+      <c r="AC22" s="16" t="s">
         <v>322</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="AD22" s="17" t="s">
         <v>323</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>324</v>
-      </c>
-      <c r="F22" s="15" t="s">
-        <v>325</v>
-      </c>
-      <c r="G22" s="15" t="s">
-        <v>326</v>
-      </c>
-      <c r="H22" s="15" t="s">
-        <v>327</v>
-      </c>
-      <c r="I22" s="15" t="s">
-        <v>328</v>
-      </c>
-      <c r="J22" s="15" t="s">
-        <v>329</v>
-      </c>
-      <c r="K22" s="15" t="s">
-        <v>330</v>
-      </c>
-      <c r="L22" s="15" t="s">
-        <v>331</v>
-      </c>
-      <c r="M22" s="16" t="s">
-        <v>332</v>
-      </c>
-      <c r="N22" s="16" t="s">
-        <v>333</v>
-      </c>
-      <c r="O22" s="16" t="s">
-        <v>334</v>
-      </c>
-      <c r="P22" s="16" t="s">
-        <v>332</v>
-      </c>
-      <c r="Q22" s="16" t="s">
-        <v>335</v>
-      </c>
-      <c r="R22" s="16" t="s">
-        <v>336</v>
-      </c>
-      <c r="S22" s="16" t="s">
-        <v>337</v>
-      </c>
-      <c r="T22" s="16" t="s">
-        <v>338</v>
-      </c>
-      <c r="U22" s="16" t="s">
-        <v>339</v>
-      </c>
-      <c r="V22" s="16" t="s">
-        <v>340</v>
-      </c>
-      <c r="W22" s="16" t="s">
-        <v>341</v>
-      </c>
-      <c r="X22" s="16" t="s">
-        <v>342</v>
-      </c>
-      <c r="Y22" s="16" t="s">
-        <v>343</v>
-      </c>
-      <c r="Z22" s="16" t="s">
-        <v>344</v>
-      </c>
-      <c r="AA22" s="16" t="s">
-        <v>345</v>
-      </c>
-      <c r="AB22" s="16" t="s">
-        <v>346</v>
-      </c>
-      <c r="AC22" s="16" t="s">
-        <v>321</v>
-      </c>
-      <c r="AD22" s="17" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="30.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="18" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C23" s="15" t="s">
+        <v>350</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>351</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>352</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>354</v>
+      </c>
+      <c r="H23" s="15" t="s">
+        <v>355</v>
+      </c>
+      <c r="I23" s="15" t="s">
+        <v>356</v>
+      </c>
+      <c r="J23" s="15" t="s">
+        <v>357</v>
+      </c>
+      <c r="K23" s="15" t="s">
+        <v>358</v>
+      </c>
+      <c r="L23" s="15" t="s">
+        <v>359</v>
+      </c>
+      <c r="M23" s="16" t="s">
+        <v>360</v>
+      </c>
+      <c r="N23" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="O23" s="16" t="s">
+        <v>362</v>
+      </c>
+      <c r="P23" s="16" t="s">
+        <v>360</v>
+      </c>
+      <c r="Q23" s="16" t="s">
+        <v>363</v>
+      </c>
+      <c r="R23" s="16" t="s">
+        <v>364</v>
+      </c>
+      <c r="S23" s="16" t="s">
+        <v>365</v>
+      </c>
+      <c r="T23" s="16" t="s">
+        <v>366</v>
+      </c>
+      <c r="U23" s="16" t="s">
+        <v>367</v>
+      </c>
+      <c r="V23" s="16" t="s">
+        <v>368</v>
+      </c>
+      <c r="W23" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="X23" s="16" t="s">
+        <v>370</v>
+      </c>
+      <c r="Y23" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="Z23" s="16" t="s">
+        <v>372</v>
+      </c>
+      <c r="AA23" s="16" t="s">
+        <v>373</v>
+      </c>
+      <c r="AB23" s="16" t="s">
+        <v>374</v>
+      </c>
+      <c r="AC23" s="16" t="s">
         <v>349</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="AD23" s="17" t="s">
         <v>350</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>351</v>
-      </c>
-      <c r="F23" s="15" t="s">
-        <v>352</v>
-      </c>
-      <c r="G23" s="15" t="s">
-        <v>353</v>
-      </c>
-      <c r="H23" s="15" t="s">
-        <v>354</v>
-      </c>
-      <c r="I23" s="15" t="s">
-        <v>355</v>
-      </c>
-      <c r="J23" s="15" t="s">
-        <v>356</v>
-      </c>
-      <c r="K23" s="15" t="s">
-        <v>357</v>
-      </c>
-      <c r="L23" s="15" t="s">
-        <v>358</v>
-      </c>
-      <c r="M23" s="16" t="s">
-        <v>359</v>
-      </c>
-      <c r="N23" s="16" t="s">
-        <v>360</v>
-      </c>
-      <c r="O23" s="16" t="s">
-        <v>361</v>
-      </c>
-      <c r="P23" s="16" t="s">
-        <v>359</v>
-      </c>
-      <c r="Q23" s="16" t="s">
-        <v>362</v>
-      </c>
-      <c r="R23" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="S23" s="16" t="s">
-        <v>364</v>
-      </c>
-      <c r="T23" s="16" t="s">
-        <v>365</v>
-      </c>
-      <c r="U23" s="16" t="s">
-        <v>366</v>
-      </c>
-      <c r="V23" s="16" t="s">
-        <v>367</v>
-      </c>
-      <c r="W23" s="16" t="s">
-        <v>368</v>
-      </c>
-      <c r="X23" s="16" t="s">
-        <v>369</v>
-      </c>
-      <c r="Y23" s="16" t="s">
-        <v>370</v>
-      </c>
-      <c r="Z23" s="16" t="s">
-        <v>371</v>
-      </c>
-      <c r="AA23" s="16" t="s">
-        <v>372</v>
-      </c>
-      <c r="AB23" s="16" t="s">
-        <v>373</v>
-      </c>
-      <c r="AC23" s="16" t="s">
-        <v>348</v>
-      </c>
-      <c r="AD23" s="17" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="24" s="19" customFormat="true" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="18" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C24" s="15" t="s">
+        <v>377</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>378</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>379</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>380</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>381</v>
+      </c>
+      <c r="H24" s="15" t="s">
+        <v>382</v>
+      </c>
+      <c r="I24" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="J24" s="15" t="s">
+        <v>384</v>
+      </c>
+      <c r="K24" s="15" t="s">
+        <v>385</v>
+      </c>
+      <c r="L24" s="15" t="s">
+        <v>386</v>
+      </c>
+      <c r="M24" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="N24" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="O24" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="P24" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q24" s="16" t="s">
+        <v>390</v>
+      </c>
+      <c r="R24" s="16" t="s">
+        <v>391</v>
+      </c>
+      <c r="S24" s="16" t="s">
+        <v>392</v>
+      </c>
+      <c r="T24" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="U24" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="V24" s="16" t="s">
+        <v>395</v>
+      </c>
+      <c r="W24" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="X24" s="16" t="s">
+        <v>397</v>
+      </c>
+      <c r="Y24" s="16" t="s">
+        <v>398</v>
+      </c>
+      <c r="Z24" s="16" t="s">
+        <v>399</v>
+      </c>
+      <c r="AA24" s="16" t="s">
+        <v>400</v>
+      </c>
+      <c r="AB24" s="16" t="s">
+        <v>401</v>
+      </c>
+      <c r="AC24" s="16" t="s">
         <v>376</v>
       </c>
-      <c r="D24" s="15" t="s">
+      <c r="AD24" s="17" t="s">
         <v>377</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>378</v>
-      </c>
-      <c r="F24" s="15" t="s">
-        <v>379</v>
-      </c>
-      <c r="G24" s="15" t="s">
-        <v>380</v>
-      </c>
-      <c r="H24" s="15" t="s">
-        <v>381</v>
-      </c>
-      <c r="I24" s="15" t="s">
-        <v>382</v>
-      </c>
-      <c r="J24" s="15" t="s">
-        <v>383</v>
-      </c>
-      <c r="K24" s="15" t="s">
-        <v>384</v>
-      </c>
-      <c r="L24" s="15" t="s">
-        <v>385</v>
-      </c>
-      <c r="M24" s="16" t="s">
-        <v>386</v>
-      </c>
-      <c r="N24" s="16" t="s">
-        <v>387</v>
-      </c>
-      <c r="O24" s="16" t="s">
-        <v>388</v>
-      </c>
-      <c r="P24" s="16" t="s">
-        <v>386</v>
-      </c>
-      <c r="Q24" s="16" t="s">
-        <v>389</v>
-      </c>
-      <c r="R24" s="16" t="s">
-        <v>390</v>
-      </c>
-      <c r="S24" s="16" t="s">
-        <v>391</v>
-      </c>
-      <c r="T24" s="16" t="s">
-        <v>392</v>
-      </c>
-      <c r="U24" s="16" t="s">
-        <v>393</v>
-      </c>
-      <c r="V24" s="16" t="s">
-        <v>394</v>
-      </c>
-      <c r="W24" s="16" t="s">
-        <v>395</v>
-      </c>
-      <c r="X24" s="16" t="s">
-        <v>396</v>
-      </c>
-      <c r="Y24" s="16" t="s">
-        <v>397</v>
-      </c>
-      <c r="Z24" s="16" t="s">
-        <v>398</v>
-      </c>
-      <c r="AA24" s="16" t="s">
-        <v>399</v>
-      </c>
-      <c r="AB24" s="16" t="s">
-        <v>400</v>
-      </c>
-      <c r="AC24" s="16" t="s">
-        <v>375</v>
-      </c>
-      <c r="AD24" s="17" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="25" s="19" customFormat="true" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="18" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C25" s="15" t="s">
+        <v>404</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>405</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>406</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>407</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>408</v>
+      </c>
+      <c r="H25" s="15" t="s">
+        <v>409</v>
+      </c>
+      <c r="I25" s="15" t="s">
+        <v>410</v>
+      </c>
+      <c r="J25" s="15" t="s">
+        <v>411</v>
+      </c>
+      <c r="K25" s="15" t="s">
+        <v>412</v>
+      </c>
+      <c r="L25" s="15" t="s">
+        <v>413</v>
+      </c>
+      <c r="M25" s="16" t="s">
+        <v>414</v>
+      </c>
+      <c r="N25" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="O25" s="16" t="s">
+        <v>416</v>
+      </c>
+      <c r="P25" s="16" t="s">
+        <v>414</v>
+      </c>
+      <c r="Q25" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="R25" s="16" t="s">
+        <v>418</v>
+      </c>
+      <c r="S25" s="16" t="s">
+        <v>419</v>
+      </c>
+      <c r="T25" s="16" t="s">
+        <v>420</v>
+      </c>
+      <c r="U25" s="16" t="s">
+        <v>421</v>
+      </c>
+      <c r="V25" s="16" t="s">
+        <v>422</v>
+      </c>
+      <c r="W25" s="16" t="s">
+        <v>423</v>
+      </c>
+      <c r="X25" s="16" t="s">
+        <v>424</v>
+      </c>
+      <c r="Y25" s="16" t="s">
+        <v>425</v>
+      </c>
+      <c r="Z25" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="AA25" s="16" t="s">
+        <v>427</v>
+      </c>
+      <c r="AB25" s="16" t="s">
+        <v>428</v>
+      </c>
+      <c r="AC25" s="16" t="s">
         <v>403</v>
       </c>
-      <c r="D25" s="15" t="s">
+      <c r="AD25" s="17" t="s">
         <v>404</v>
-      </c>
-      <c r="E25" s="15" t="s">
-        <v>405</v>
-      </c>
-      <c r="F25" s="15" t="s">
-        <v>406</v>
-      </c>
-      <c r="G25" s="15" t="s">
-        <v>407</v>
-      </c>
-      <c r="H25" s="15" t="s">
-        <v>408</v>
-      </c>
-      <c r="I25" s="15" t="s">
-        <v>409</v>
-      </c>
-      <c r="J25" s="15" t="s">
-        <v>410</v>
-      </c>
-      <c r="K25" s="15" t="s">
-        <v>411</v>
-      </c>
-      <c r="L25" s="15" t="s">
-        <v>412</v>
-      </c>
-      <c r="M25" s="16" t="s">
-        <v>413</v>
-      </c>
-      <c r="N25" s="16" t="s">
-        <v>414</v>
-      </c>
-      <c r="O25" s="16" t="s">
-        <v>415</v>
-      </c>
-      <c r="P25" s="16" t="s">
-        <v>413</v>
-      </c>
-      <c r="Q25" s="16" t="s">
-        <v>416</v>
-      </c>
-      <c r="R25" s="16" t="s">
-        <v>417</v>
-      </c>
-      <c r="S25" s="16" t="s">
-        <v>418</v>
-      </c>
-      <c r="T25" s="16" t="s">
-        <v>419</v>
-      </c>
-      <c r="U25" s="16" t="s">
-        <v>420</v>
-      </c>
-      <c r="V25" s="16" t="s">
-        <v>421</v>
-      </c>
-      <c r="W25" s="16" t="s">
-        <v>422</v>
-      </c>
-      <c r="X25" s="16" t="s">
-        <v>423</v>
-      </c>
-      <c r="Y25" s="16" t="s">
-        <v>424</v>
-      </c>
-      <c r="Z25" s="16" t="s">
-        <v>425</v>
-      </c>
-      <c r="AA25" s="16" t="s">
-        <v>426</v>
-      </c>
-      <c r="AB25" s="16" t="s">
-        <v>427</v>
-      </c>
-      <c r="AC25" s="16" t="s">
-        <v>402</v>
-      </c>
-      <c r="AD25" s="17" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="26" s="19" customFormat="true" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="18" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C26" s="15" t="s">
+        <v>431</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>432</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>433</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>434</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>435</v>
+      </c>
+      <c r="H26" s="15" t="s">
+        <v>436</v>
+      </c>
+      <c r="I26" s="15" t="s">
+        <v>437</v>
+      </c>
+      <c r="J26" s="15" t="s">
+        <v>438</v>
+      </c>
+      <c r="K26" s="15" t="s">
+        <v>439</v>
+      </c>
+      <c r="L26" s="15" t="s">
+        <v>440</v>
+      </c>
+      <c r="M26" s="16" t="s">
+        <v>441</v>
+      </c>
+      <c r="N26" s="16" t="s">
+        <v>442</v>
+      </c>
+      <c r="O26" s="16" t="s">
+        <v>443</v>
+      </c>
+      <c r="P26" s="16" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q26" s="16" t="s">
+        <v>444</v>
+      </c>
+      <c r="R26" s="16" t="s">
+        <v>445</v>
+      </c>
+      <c r="S26" s="16" t="s">
+        <v>446</v>
+      </c>
+      <c r="T26" s="16" t="s">
+        <v>447</v>
+      </c>
+      <c r="U26" s="16" t="s">
+        <v>448</v>
+      </c>
+      <c r="V26" s="16" t="s">
+        <v>449</v>
+      </c>
+      <c r="W26" s="16" t="s">
+        <v>450</v>
+      </c>
+      <c r="X26" s="16" t="s">
+        <v>451</v>
+      </c>
+      <c r="Y26" s="16" t="s">
+        <v>452</v>
+      </c>
+      <c r="Z26" s="16" t="s">
+        <v>453</v>
+      </c>
+      <c r="AA26" s="16" t="s">
+        <v>454</v>
+      </c>
+      <c r="AB26" s="16" t="s">
+        <v>455</v>
+      </c>
+      <c r="AC26" s="16" t="s">
         <v>430</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="AD26" s="17" t="s">
         <v>431</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>432</v>
-      </c>
-      <c r="F26" s="15" t="s">
-        <v>433</v>
-      </c>
-      <c r="G26" s="15" t="s">
-        <v>434</v>
-      </c>
-      <c r="H26" s="15" t="s">
-        <v>435</v>
-      </c>
-      <c r="I26" s="15" t="s">
-        <v>436</v>
-      </c>
-      <c r="J26" s="15" t="s">
-        <v>437</v>
-      </c>
-      <c r="K26" s="15" t="s">
-        <v>438</v>
-      </c>
-      <c r="L26" s="15" t="s">
-        <v>439</v>
-      </c>
-      <c r="M26" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="N26" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="O26" s="16" t="s">
-        <v>442</v>
-      </c>
-      <c r="P26" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="Q26" s="16" t="s">
-        <v>443</v>
-      </c>
-      <c r="R26" s="16" t="s">
-        <v>444</v>
-      </c>
-      <c r="S26" s="16" t="s">
-        <v>445</v>
-      </c>
-      <c r="T26" s="16" t="s">
-        <v>446</v>
-      </c>
-      <c r="U26" s="16" t="s">
-        <v>447</v>
-      </c>
-      <c r="V26" s="16" t="s">
-        <v>448</v>
-      </c>
-      <c r="W26" s="16" t="s">
-        <v>449</v>
-      </c>
-      <c r="X26" s="16" t="s">
-        <v>450</v>
-      </c>
-      <c r="Y26" s="16" t="s">
-        <v>451</v>
-      </c>
-      <c r="Z26" s="16" t="s">
-        <v>452</v>
-      </c>
-      <c r="AA26" s="16" t="s">
-        <v>453</v>
-      </c>
-      <c r="AB26" s="16" t="s">
-        <v>454</v>
-      </c>
-      <c r="AC26" s="16" t="s">
-        <v>429</v>
-      </c>
-      <c r="AD26" s="17" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="27" s="19" customFormat="true" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="18" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C27" s="15" t="s">
+        <v>458</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>459</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>460</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>461</v>
+      </c>
+      <c r="G27" s="15" t="s">
+        <v>462</v>
+      </c>
+      <c r="H27" s="15" t="s">
+        <v>463</v>
+      </c>
+      <c r="I27" s="15" t="s">
+        <v>464</v>
+      </c>
+      <c r="J27" s="15" t="s">
+        <v>465</v>
+      </c>
+      <c r="K27" s="15" t="s">
+        <v>466</v>
+      </c>
+      <c r="L27" s="15" t="s">
+        <v>467</v>
+      </c>
+      <c r="M27" s="16" t="s">
+        <v>468</v>
+      </c>
+      <c r="N27" s="16" t="s">
+        <v>469</v>
+      </c>
+      <c r="O27" s="16" t="s">
+        <v>470</v>
+      </c>
+      <c r="P27" s="16" t="s">
+        <v>468</v>
+      </c>
+      <c r="Q27" s="16" t="s">
+        <v>471</v>
+      </c>
+      <c r="R27" s="16" t="s">
+        <v>472</v>
+      </c>
+      <c r="S27" s="16" t="s">
+        <v>473</v>
+      </c>
+      <c r="T27" s="16" t="s">
+        <v>474</v>
+      </c>
+      <c r="U27" s="16" t="s">
+        <v>475</v>
+      </c>
+      <c r="V27" s="16" t="s">
+        <v>476</v>
+      </c>
+      <c r="W27" s="16" t="s">
+        <v>477</v>
+      </c>
+      <c r="X27" s="16" t="s">
+        <v>478</v>
+      </c>
+      <c r="Y27" s="16" t="s">
+        <v>479</v>
+      </c>
+      <c r="Z27" s="16" t="s">
+        <v>480</v>
+      </c>
+      <c r="AA27" s="16" t="s">
+        <v>481</v>
+      </c>
+      <c r="AB27" s="16" t="s">
+        <v>482</v>
+      </c>
+      <c r="AC27" s="16" t="s">
         <v>457</v>
       </c>
-      <c r="D27" s="15" t="s">
+      <c r="AD27" s="17" t="s">
         <v>458</v>
-      </c>
-      <c r="E27" s="15" t="s">
-        <v>459</v>
-      </c>
-      <c r="F27" s="15" t="s">
-        <v>460</v>
-      </c>
-      <c r="G27" s="15" t="s">
-        <v>461</v>
-      </c>
-      <c r="H27" s="15" t="s">
-        <v>462</v>
-      </c>
-      <c r="I27" s="15" t="s">
-        <v>463</v>
-      </c>
-      <c r="J27" s="15" t="s">
-        <v>464</v>
-      </c>
-      <c r="K27" s="15" t="s">
-        <v>465</v>
-      </c>
-      <c r="L27" s="15" t="s">
-        <v>466</v>
-      </c>
-      <c r="M27" s="16" t="s">
-        <v>467</v>
-      </c>
-      <c r="N27" s="16" t="s">
-        <v>468</v>
-      </c>
-      <c r="O27" s="16" t="s">
-        <v>469</v>
-      </c>
-      <c r="P27" s="16" t="s">
-        <v>467</v>
-      </c>
-      <c r="Q27" s="16" t="s">
-        <v>470</v>
-      </c>
-      <c r="R27" s="16" t="s">
-        <v>471</v>
-      </c>
-      <c r="S27" s="16" t="s">
-        <v>472</v>
-      </c>
-      <c r="T27" s="16" t="s">
-        <v>473</v>
-      </c>
-      <c r="U27" s="16" t="s">
-        <v>474</v>
-      </c>
-      <c r="V27" s="16" t="s">
-        <v>475</v>
-      </c>
-      <c r="W27" s="16" t="s">
-        <v>476</v>
-      </c>
-      <c r="X27" s="16" t="s">
-        <v>477</v>
-      </c>
-      <c r="Y27" s="16" t="s">
-        <v>478</v>
-      </c>
-      <c r="Z27" s="16" t="s">
-        <v>479</v>
-      </c>
-      <c r="AA27" s="16" t="s">
-        <v>480</v>
-      </c>
-      <c r="AB27" s="16" t="s">
-        <v>481</v>
-      </c>
-      <c r="AC27" s="16" t="s">
-        <v>456</v>
-      </c>
-      <c r="AD27" s="17" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="63.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="29" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C28" s="15" t="s">
+        <v>485</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>486</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="G28" s="15" t="s">
+        <v>489</v>
+      </c>
+      <c r="H28" s="15" t="s">
+        <v>490</v>
+      </c>
+      <c r="I28" s="15" t="s">
+        <v>491</v>
+      </c>
+      <c r="J28" s="15" t="s">
+        <v>492</v>
+      </c>
+      <c r="K28" s="15" t="s">
+        <v>493</v>
+      </c>
+      <c r="L28" s="15" t="s">
+        <v>494</v>
+      </c>
+      <c r="M28" s="16" t="s">
+        <v>495</v>
+      </c>
+      <c r="N28" s="16" t="s">
+        <v>496</v>
+      </c>
+      <c r="O28" s="16" t="s">
+        <v>497</v>
+      </c>
+      <c r="P28" s="16" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q28" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="R28" s="16" t="s">
+        <v>499</v>
+      </c>
+      <c r="S28" s="16" t="s">
+        <v>500</v>
+      </c>
+      <c r="T28" s="16" t="s">
+        <v>501</v>
+      </c>
+      <c r="U28" s="16" t="s">
+        <v>502</v>
+      </c>
+      <c r="V28" s="16" t="s">
+        <v>503</v>
+      </c>
+      <c r="W28" s="16" t="s">
+        <v>504</v>
+      </c>
+      <c r="X28" s="16" t="s">
+        <v>505</v>
+      </c>
+      <c r="Y28" s="16" t="s">
+        <v>506</v>
+      </c>
+      <c r="Z28" s="16" t="s">
+        <v>507</v>
+      </c>
+      <c r="AA28" s="16" t="s">
+        <v>508</v>
+      </c>
+      <c r="AB28" s="16" t="s">
+        <v>509</v>
+      </c>
+      <c r="AC28" s="16" t="s">
         <v>484</v>
       </c>
-      <c r="D28" s="15" t="s">
+      <c r="AD28" s="17" t="s">
         <v>485</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>486</v>
-      </c>
-      <c r="F28" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="G28" s="15" t="s">
-        <v>488</v>
-      </c>
-      <c r="H28" s="15" t="s">
-        <v>489</v>
-      </c>
-      <c r="I28" s="15" t="s">
-        <v>490</v>
-      </c>
-      <c r="J28" s="15" t="s">
-        <v>491</v>
-      </c>
-      <c r="K28" s="15" t="s">
-        <v>492</v>
-      </c>
-      <c r="L28" s="15" t="s">
-        <v>493</v>
-      </c>
-      <c r="M28" s="16" t="s">
-        <v>494</v>
-      </c>
-      <c r="N28" s="16" t="s">
-        <v>495</v>
-      </c>
-      <c r="O28" s="16" t="s">
-        <v>496</v>
-      </c>
-      <c r="P28" s="16" t="s">
-        <v>494</v>
-      </c>
-      <c r="Q28" s="16" t="s">
-        <v>497</v>
-      </c>
-      <c r="R28" s="16" t="s">
-        <v>498</v>
-      </c>
-      <c r="S28" s="16" t="s">
-        <v>499</v>
-      </c>
-      <c r="T28" s="16" t="s">
-        <v>500</v>
-      </c>
-      <c r="U28" s="16" t="s">
-        <v>501</v>
-      </c>
-      <c r="V28" s="16" t="s">
-        <v>502</v>
-      </c>
-      <c r="W28" s="16" t="s">
-        <v>503</v>
-      </c>
-      <c r="X28" s="16" t="s">
-        <v>504</v>
-      </c>
-      <c r="Y28" s="16" t="s">
-        <v>505</v>
-      </c>
-      <c r="Z28" s="16" t="s">
-        <v>506</v>
-      </c>
-      <c r="AA28" s="16" t="s">
-        <v>507</v>
-      </c>
-      <c r="AB28" s="16" t="s">
-        <v>508</v>
-      </c>
-      <c r="AC28" s="16" t="s">
-        <v>483</v>
-      </c>
-      <c r="AD28" s="17" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="58.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="29" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C29" s="15" t="s">
+        <v>512</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>513</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>514</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>515</v>
+      </c>
+      <c r="G29" s="15" t="s">
+        <v>516</v>
+      </c>
+      <c r="H29" s="15" t="s">
+        <v>517</v>
+      </c>
+      <c r="I29" s="15" t="s">
+        <v>518</v>
+      </c>
+      <c r="J29" s="15" t="s">
+        <v>519</v>
+      </c>
+      <c r="K29" s="15" t="s">
+        <v>520</v>
+      </c>
+      <c r="L29" s="15" t="s">
+        <v>521</v>
+      </c>
+      <c r="M29" s="16" t="s">
+        <v>522</v>
+      </c>
+      <c r="N29" s="16" t="s">
+        <v>523</v>
+      </c>
+      <c r="O29" s="16" t="s">
+        <v>524</v>
+      </c>
+      <c r="P29" s="16" t="s">
+        <v>522</v>
+      </c>
+      <c r="Q29" s="16" t="s">
+        <v>525</v>
+      </c>
+      <c r="R29" s="16" t="s">
+        <v>526</v>
+      </c>
+      <c r="S29" s="16" t="s">
+        <v>527</v>
+      </c>
+      <c r="T29" s="16" t="s">
+        <v>528</v>
+      </c>
+      <c r="U29" s="16" t="s">
+        <v>529</v>
+      </c>
+      <c r="V29" s="16" t="s">
+        <v>530</v>
+      </c>
+      <c r="W29" s="16" t="s">
+        <v>531</v>
+      </c>
+      <c r="X29" s="16" t="s">
+        <v>532</v>
+      </c>
+      <c r="Y29" s="16" t="s">
+        <v>533</v>
+      </c>
+      <c r="Z29" s="16" t="s">
+        <v>534</v>
+      </c>
+      <c r="AA29" s="16" t="s">
+        <v>535</v>
+      </c>
+      <c r="AB29" s="16" t="s">
+        <v>536</v>
+      </c>
+      <c r="AC29" s="16" t="s">
         <v>511</v>
       </c>
-      <c r="D29" s="15" t="s">
+      <c r="AD29" s="17" t="s">
         <v>512</v>
-      </c>
-      <c r="E29" s="15" t="s">
-        <v>513</v>
-      </c>
-      <c r="F29" s="15" t="s">
-        <v>514</v>
-      </c>
-      <c r="G29" s="15" t="s">
-        <v>515</v>
-      </c>
-      <c r="H29" s="15" t="s">
-        <v>516</v>
-      </c>
-      <c r="I29" s="15" t="s">
-        <v>517</v>
-      </c>
-      <c r="J29" s="15" t="s">
-        <v>518</v>
-      </c>
-      <c r="K29" s="15" t="s">
-        <v>519</v>
-      </c>
-      <c r="L29" s="15" t="s">
-        <v>520</v>
-      </c>
-      <c r="M29" s="16" t="s">
-        <v>521</v>
-      </c>
-      <c r="N29" s="16" t="s">
-        <v>522</v>
-      </c>
-      <c r="O29" s="16" t="s">
-        <v>523</v>
-      </c>
-      <c r="P29" s="16" t="s">
-        <v>521</v>
-      </c>
-      <c r="Q29" s="16" t="s">
-        <v>524</v>
-      </c>
-      <c r="R29" s="16" t="s">
-        <v>525</v>
-      </c>
-      <c r="S29" s="16" t="s">
-        <v>526</v>
-      </c>
-      <c r="T29" s="16" t="s">
-        <v>527</v>
-      </c>
-      <c r="U29" s="16" t="s">
-        <v>528</v>
-      </c>
-      <c r="V29" s="16" t="s">
-        <v>529</v>
-      </c>
-      <c r="W29" s="16" t="s">
-        <v>530</v>
-      </c>
-      <c r="X29" s="16" t="s">
-        <v>531</v>
-      </c>
-      <c r="Y29" s="16" t="s">
-        <v>532</v>
-      </c>
-      <c r="Z29" s="16" t="s">
-        <v>533</v>
-      </c>
-      <c r="AA29" s="16" t="s">
-        <v>534</v>
-      </c>
-      <c r="AB29" s="16" t="s">
-        <v>535</v>
-      </c>
-      <c r="AC29" s="16" t="s">
-        <v>510</v>
-      </c>
-      <c r="AD29" s="17" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="65.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="29" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C30" s="15" t="s">
+        <v>539</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>540</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>541</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>542</v>
+      </c>
+      <c r="G30" s="15" t="s">
+        <v>543</v>
+      </c>
+      <c r="H30" s="15" t="s">
+        <v>544</v>
+      </c>
+      <c r="I30" s="15" t="s">
+        <v>545</v>
+      </c>
+      <c r="J30" s="15" t="s">
+        <v>546</v>
+      </c>
+      <c r="K30" s="15" t="s">
+        <v>547</v>
+      </c>
+      <c r="L30" s="15" t="s">
+        <v>548</v>
+      </c>
+      <c r="M30" s="16" t="s">
+        <v>549</v>
+      </c>
+      <c r="N30" s="16" t="s">
+        <v>550</v>
+      </c>
+      <c r="O30" s="16" t="s">
+        <v>551</v>
+      </c>
+      <c r="P30" s="16" t="s">
+        <v>549</v>
+      </c>
+      <c r="Q30" s="16" t="s">
+        <v>552</v>
+      </c>
+      <c r="R30" s="16" t="s">
+        <v>553</v>
+      </c>
+      <c r="S30" s="16" t="s">
+        <v>554</v>
+      </c>
+      <c r="T30" s="16" t="s">
+        <v>555</v>
+      </c>
+      <c r="U30" s="16" t="s">
+        <v>556</v>
+      </c>
+      <c r="V30" s="16" t="s">
+        <v>557</v>
+      </c>
+      <c r="W30" s="16" t="s">
+        <v>558</v>
+      </c>
+      <c r="X30" s="16" t="s">
+        <v>559</v>
+      </c>
+      <c r="Y30" s="16" t="s">
+        <v>560</v>
+      </c>
+      <c r="Z30" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="AA30" s="16" t="s">
+        <v>562</v>
+      </c>
+      <c r="AB30" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="AC30" s="16" t="s">
         <v>538</v>
       </c>
-      <c r="D30" s="15" t="s">
+      <c r="AD30" s="17" t="s">
         <v>539</v>
-      </c>
-      <c r="E30" s="15" t="s">
-        <v>540</v>
-      </c>
-      <c r="F30" s="15" t="s">
-        <v>541</v>
-      </c>
-      <c r="G30" s="15" t="s">
-        <v>542</v>
-      </c>
-      <c r="H30" s="15" t="s">
-        <v>543</v>
-      </c>
-      <c r="I30" s="15" t="s">
-        <v>544</v>
-      </c>
-      <c r="J30" s="15" t="s">
-        <v>545</v>
-      </c>
-      <c r="K30" s="15" t="s">
-        <v>546</v>
-      </c>
-      <c r="L30" s="15" t="s">
-        <v>547</v>
-      </c>
-      <c r="M30" s="16" t="s">
-        <v>548</v>
-      </c>
-      <c r="N30" s="16" t="s">
-        <v>549</v>
-      </c>
-      <c r="O30" s="16" t="s">
-        <v>550</v>
-      </c>
-      <c r="P30" s="16" t="s">
-        <v>548</v>
-      </c>
-      <c r="Q30" s="16" t="s">
-        <v>551</v>
-      </c>
-      <c r="R30" s="16" t="s">
-        <v>552</v>
-      </c>
-      <c r="S30" s="16" t="s">
-        <v>553</v>
-      </c>
-      <c r="T30" s="16" t="s">
-        <v>554</v>
-      </c>
-      <c r="U30" s="16" t="s">
-        <v>555</v>
-      </c>
-      <c r="V30" s="16" t="s">
-        <v>556</v>
-      </c>
-      <c r="W30" s="16" t="s">
-        <v>557</v>
-      </c>
-      <c r="X30" s="16" t="s">
-        <v>558</v>
-      </c>
-      <c r="Y30" s="16" t="s">
-        <v>559</v>
-      </c>
-      <c r="Z30" s="16" t="s">
-        <v>560</v>
-      </c>
-      <c r="AA30" s="16" t="s">
-        <v>561</v>
-      </c>
-      <c r="AB30" s="16" t="s">
-        <v>562</v>
-      </c>
-      <c r="AC30" s="16" t="s">
-        <v>537</v>
-      </c>
-      <c r="AD30" s="17" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="70.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="30" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B31" s="15"/>
       <c r="C31" s="15"/>
@@ -5417,738 +5422,738 @@
     </row>
     <row r="32" customFormat="false" ht="52.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="30" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C32" s="15" t="s">
+        <v>567</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>568</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>569</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>570</v>
+      </c>
+      <c r="G32" s="15" t="s">
+        <v>571</v>
+      </c>
+      <c r="H32" s="15" t="s">
+        <v>572</v>
+      </c>
+      <c r="I32" s="15" t="s">
+        <v>573</v>
+      </c>
+      <c r="J32" s="15" t="s">
+        <v>574</v>
+      </c>
+      <c r="K32" s="15" t="s">
+        <v>575</v>
+      </c>
+      <c r="L32" s="15" t="s">
+        <v>576</v>
+      </c>
+      <c r="M32" s="16" t="s">
+        <v>577</v>
+      </c>
+      <c r="N32" s="16" t="s">
+        <v>578</v>
+      </c>
+      <c r="O32" s="16" t="s">
+        <v>579</v>
+      </c>
+      <c r="P32" s="16" t="s">
+        <v>577</v>
+      </c>
+      <c r="Q32" s="16" t="s">
+        <v>580</v>
+      </c>
+      <c r="R32" s="16" t="s">
+        <v>581</v>
+      </c>
+      <c r="S32" s="16" t="s">
+        <v>582</v>
+      </c>
+      <c r="T32" s="16" t="s">
+        <v>583</v>
+      </c>
+      <c r="U32" s="16" t="s">
+        <v>584</v>
+      </c>
+      <c r="V32" s="16" t="s">
+        <v>585</v>
+      </c>
+      <c r="W32" s="16" t="s">
+        <v>586</v>
+      </c>
+      <c r="X32" s="16" t="s">
+        <v>587</v>
+      </c>
+      <c r="Y32" s="16" t="s">
+        <v>588</v>
+      </c>
+      <c r="Z32" s="16" t="s">
+        <v>589</v>
+      </c>
+      <c r="AA32" s="16" t="s">
+        <v>590</v>
+      </c>
+      <c r="AB32" s="16" t="s">
+        <v>591</v>
+      </c>
+      <c r="AC32" s="16" t="s">
         <v>566</v>
       </c>
-      <c r="D32" s="15" t="s">
+      <c r="AD32" s="17" t="s">
         <v>567</v>
-      </c>
-      <c r="E32" s="15" t="s">
-        <v>568</v>
-      </c>
-      <c r="F32" s="15" t="s">
-        <v>569</v>
-      </c>
-      <c r="G32" s="15" t="s">
-        <v>570</v>
-      </c>
-      <c r="H32" s="15" t="s">
-        <v>571</v>
-      </c>
-      <c r="I32" s="15" t="s">
-        <v>572</v>
-      </c>
-      <c r="J32" s="15" t="s">
-        <v>573</v>
-      </c>
-      <c r="K32" s="15" t="s">
-        <v>574</v>
-      </c>
-      <c r="L32" s="15" t="s">
-        <v>575</v>
-      </c>
-      <c r="M32" s="16" t="s">
-        <v>576</v>
-      </c>
-      <c r="N32" s="16" t="s">
-        <v>577</v>
-      </c>
-      <c r="O32" s="16" t="s">
-        <v>578</v>
-      </c>
-      <c r="P32" s="16" t="s">
-        <v>576</v>
-      </c>
-      <c r="Q32" s="16" t="s">
-        <v>579</v>
-      </c>
-      <c r="R32" s="16" t="s">
-        <v>580</v>
-      </c>
-      <c r="S32" s="16" t="s">
-        <v>581</v>
-      </c>
-      <c r="T32" s="16" t="s">
-        <v>582</v>
-      </c>
-      <c r="U32" s="16" t="s">
-        <v>583</v>
-      </c>
-      <c r="V32" s="16" t="s">
-        <v>584</v>
-      </c>
-      <c r="W32" s="16" t="s">
-        <v>585</v>
-      </c>
-      <c r="X32" s="16" t="s">
-        <v>586</v>
-      </c>
-      <c r="Y32" s="16" t="s">
-        <v>587</v>
-      </c>
-      <c r="Z32" s="16" t="s">
-        <v>588</v>
-      </c>
-      <c r="AA32" s="16" t="s">
-        <v>589</v>
-      </c>
-      <c r="AB32" s="16" t="s">
-        <v>590</v>
-      </c>
-      <c r="AC32" s="16" t="s">
-        <v>565</v>
-      </c>
-      <c r="AD32" s="17" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="59.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="30" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C33" s="15" t="s">
+        <v>594</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>595</v>
+      </c>
+      <c r="E33" s="15" t="s">
+        <v>596</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>597</v>
+      </c>
+      <c r="G33" s="15" t="s">
+        <v>598</v>
+      </c>
+      <c r="H33" s="15" t="s">
+        <v>599</v>
+      </c>
+      <c r="I33" s="15" t="s">
+        <v>600</v>
+      </c>
+      <c r="J33" s="15" t="s">
+        <v>601</v>
+      </c>
+      <c r="K33" s="15" t="s">
+        <v>602</v>
+      </c>
+      <c r="L33" s="15" t="s">
+        <v>603</v>
+      </c>
+      <c r="M33" s="16" t="s">
+        <v>604</v>
+      </c>
+      <c r="N33" s="16" t="s">
+        <v>605</v>
+      </c>
+      <c r="O33" s="16" t="s">
+        <v>606</v>
+      </c>
+      <c r="P33" s="16" t="s">
+        <v>604</v>
+      </c>
+      <c r="Q33" s="16" t="s">
+        <v>607</v>
+      </c>
+      <c r="R33" s="16" t="s">
+        <v>608</v>
+      </c>
+      <c r="S33" s="16" t="s">
+        <v>609</v>
+      </c>
+      <c r="T33" s="16" t="s">
+        <v>610</v>
+      </c>
+      <c r="U33" s="16" t="s">
+        <v>611</v>
+      </c>
+      <c r="V33" s="16" t="s">
+        <v>612</v>
+      </c>
+      <c r="W33" s="16" t="s">
+        <v>613</v>
+      </c>
+      <c r="X33" s="16" t="s">
+        <v>614</v>
+      </c>
+      <c r="Y33" s="16" t="s">
+        <v>615</v>
+      </c>
+      <c r="Z33" s="16" t="s">
+        <v>616</v>
+      </c>
+      <c r="AA33" s="16" t="s">
+        <v>617</v>
+      </c>
+      <c r="AB33" s="16" t="s">
+        <v>618</v>
+      </c>
+      <c r="AC33" s="16" t="s">
         <v>593</v>
       </c>
-      <c r="D33" s="15" t="s">
+      <c r="AD33" s="17" t="s">
         <v>594</v>
-      </c>
-      <c r="E33" s="15" t="s">
-        <v>595</v>
-      </c>
-      <c r="F33" s="15" t="s">
-        <v>596</v>
-      </c>
-      <c r="G33" s="15" t="s">
-        <v>597</v>
-      </c>
-      <c r="H33" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="I33" s="15" t="s">
-        <v>599</v>
-      </c>
-      <c r="J33" s="15" t="s">
-        <v>600</v>
-      </c>
-      <c r="K33" s="15" t="s">
-        <v>601</v>
-      </c>
-      <c r="L33" s="15" t="s">
-        <v>602</v>
-      </c>
-      <c r="M33" s="16" t="s">
-        <v>603</v>
-      </c>
-      <c r="N33" s="16" t="s">
-        <v>604</v>
-      </c>
-      <c r="O33" s="16" t="s">
-        <v>605</v>
-      </c>
-      <c r="P33" s="16" t="s">
-        <v>603</v>
-      </c>
-      <c r="Q33" s="16" t="s">
-        <v>606</v>
-      </c>
-      <c r="R33" s="16" t="s">
-        <v>607</v>
-      </c>
-      <c r="S33" s="16" t="s">
-        <v>608</v>
-      </c>
-      <c r="T33" s="16" t="s">
-        <v>609</v>
-      </c>
-      <c r="U33" s="16" t="s">
-        <v>610</v>
-      </c>
-      <c r="V33" s="16" t="s">
-        <v>611</v>
-      </c>
-      <c r="W33" s="16" t="s">
-        <v>612</v>
-      </c>
-      <c r="X33" s="16" t="s">
-        <v>613</v>
-      </c>
-      <c r="Y33" s="16" t="s">
-        <v>614</v>
-      </c>
-      <c r="Z33" s="16" t="s">
-        <v>615</v>
-      </c>
-      <c r="AA33" s="16" t="s">
-        <v>616</v>
-      </c>
-      <c r="AB33" s="16" t="s">
-        <v>617</v>
-      </c>
-      <c r="AC33" s="16" t="s">
-        <v>592</v>
-      </c>
-      <c r="AD33" s="17" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="54.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="25" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C34" s="26" t="s">
+        <v>621</v>
+      </c>
+      <c r="D34" s="26" t="s">
+        <v>622</v>
+      </c>
+      <c r="E34" s="26" t="s">
+        <v>623</v>
+      </c>
+      <c r="F34" s="26" t="s">
+        <v>624</v>
+      </c>
+      <c r="G34" s="26" t="s">
+        <v>625</v>
+      </c>
+      <c r="H34" s="26" t="s">
+        <v>626</v>
+      </c>
+      <c r="I34" s="26" t="s">
+        <v>627</v>
+      </c>
+      <c r="J34" s="26" t="s">
+        <v>628</v>
+      </c>
+      <c r="K34" s="26" t="s">
+        <v>629</v>
+      </c>
+      <c r="L34" s="26" t="s">
+        <v>630</v>
+      </c>
+      <c r="M34" s="27" t="s">
+        <v>631</v>
+      </c>
+      <c r="N34" s="27" t="s">
+        <v>632</v>
+      </c>
+      <c r="O34" s="27" t="s">
+        <v>633</v>
+      </c>
+      <c r="P34" s="27" t="s">
+        <v>631</v>
+      </c>
+      <c r="Q34" s="27" t="s">
+        <v>634</v>
+      </c>
+      <c r="R34" s="27" t="s">
+        <v>635</v>
+      </c>
+      <c r="S34" s="27" t="s">
+        <v>636</v>
+      </c>
+      <c r="T34" s="27" t="s">
+        <v>637</v>
+      </c>
+      <c r="U34" s="27" t="s">
+        <v>638</v>
+      </c>
+      <c r="V34" s="27" t="s">
+        <v>639</v>
+      </c>
+      <c r="W34" s="27" t="s">
+        <v>640</v>
+      </c>
+      <c r="X34" s="27" t="s">
+        <v>641</v>
+      </c>
+      <c r="Y34" s="27" t="s">
+        <v>642</v>
+      </c>
+      <c r="Z34" s="27" t="s">
+        <v>643</v>
+      </c>
+      <c r="AA34" s="27" t="s">
+        <v>644</v>
+      </c>
+      <c r="AB34" s="27" t="s">
+        <v>645</v>
+      </c>
+      <c r="AC34" s="27" t="s">
         <v>620</v>
       </c>
-      <c r="D34" s="26" t="s">
+      <c r="AD34" s="28" t="s">
         <v>621</v>
-      </c>
-      <c r="E34" s="26" t="s">
-        <v>622</v>
-      </c>
-      <c r="F34" s="26" t="s">
-        <v>623</v>
-      </c>
-      <c r="G34" s="26" t="s">
-        <v>624</v>
-      </c>
-      <c r="H34" s="26" t="s">
-        <v>625</v>
-      </c>
-      <c r="I34" s="26" t="s">
-        <v>626</v>
-      </c>
-      <c r="J34" s="26" t="s">
-        <v>627</v>
-      </c>
-      <c r="K34" s="26" t="s">
-        <v>628</v>
-      </c>
-      <c r="L34" s="26" t="s">
-        <v>629</v>
-      </c>
-      <c r="M34" s="27" t="s">
-        <v>630</v>
-      </c>
-      <c r="N34" s="27" t="s">
-        <v>631</v>
-      </c>
-      <c r="O34" s="27" t="s">
-        <v>632</v>
-      </c>
-      <c r="P34" s="27" t="s">
-        <v>630</v>
-      </c>
-      <c r="Q34" s="27" t="s">
-        <v>633</v>
-      </c>
-      <c r="R34" s="27" t="s">
-        <v>634</v>
-      </c>
-      <c r="S34" s="27" t="s">
-        <v>635</v>
-      </c>
-      <c r="T34" s="27" t="s">
-        <v>636</v>
-      </c>
-      <c r="U34" s="27" t="s">
-        <v>637</v>
-      </c>
-      <c r="V34" s="27" t="s">
-        <v>638</v>
-      </c>
-      <c r="W34" s="27" t="s">
-        <v>639</v>
-      </c>
-      <c r="X34" s="27" t="s">
-        <v>640</v>
-      </c>
-      <c r="Y34" s="27" t="s">
-        <v>641</v>
-      </c>
-      <c r="Z34" s="27" t="s">
-        <v>642</v>
-      </c>
-      <c r="AA34" s="27" t="s">
-        <v>643</v>
-      </c>
-      <c r="AB34" s="27" t="s">
-        <v>644</v>
-      </c>
-      <c r="AC34" s="27" t="s">
-        <v>619</v>
-      </c>
-      <c r="AD34" s="28" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="18" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="C35" s="15" t="s">
+        <v>648</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>649</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>650</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>651</v>
+      </c>
+      <c r="G35" s="15" t="s">
+        <v>652</v>
+      </c>
+      <c r="H35" s="15" t="s">
+        <v>653</v>
+      </c>
+      <c r="I35" s="15" t="s">
+        <v>654</v>
+      </c>
+      <c r="J35" s="15" t="s">
+        <v>655</v>
+      </c>
+      <c r="K35" s="15" t="s">
+        <v>656</v>
+      </c>
+      <c r="L35" s="15" t="s">
+        <v>657</v>
+      </c>
+      <c r="M35" s="16" t="s">
+        <v>658</v>
+      </c>
+      <c r="N35" s="16" t="s">
+        <v>659</v>
+      </c>
+      <c r="O35" s="16" t="s">
+        <v>660</v>
+      </c>
+      <c r="P35" s="16" t="s">
+        <v>658</v>
+      </c>
+      <c r="Q35" s="16" t="s">
+        <v>661</v>
+      </c>
+      <c r="R35" s="16" t="s">
+        <v>662</v>
+      </c>
+      <c r="S35" s="16" t="s">
+        <v>663</v>
+      </c>
+      <c r="T35" s="16" t="s">
+        <v>664</v>
+      </c>
+      <c r="U35" s="16" t="s">
+        <v>665</v>
+      </c>
+      <c r="V35" s="16" t="s">
+        <v>666</v>
+      </c>
+      <c r="W35" s="16" t="s">
+        <v>667</v>
+      </c>
+      <c r="X35" s="16" t="s">
+        <v>668</v>
+      </c>
+      <c r="Y35" s="16" t="s">
+        <v>669</v>
+      </c>
+      <c r="Z35" s="16" t="s">
+        <v>670</v>
+      </c>
+      <c r="AA35" s="16" t="s">
+        <v>671</v>
+      </c>
+      <c r="AB35" s="16" t="s">
+        <v>672</v>
+      </c>
+      <c r="AC35" s="16" t="s">
         <v>647</v>
       </c>
-      <c r="D35" s="15" t="s">
+      <c r="AD35" s="17" t="s">
         <v>648</v>
-      </c>
-      <c r="E35" s="15" t="s">
-        <v>649</v>
-      </c>
-      <c r="F35" s="15" t="s">
-        <v>650</v>
-      </c>
-      <c r="G35" s="15" t="s">
-        <v>651</v>
-      </c>
-      <c r="H35" s="15" t="s">
-        <v>652</v>
-      </c>
-      <c r="I35" s="15" t="s">
-        <v>653</v>
-      </c>
-      <c r="J35" s="15" t="s">
-        <v>654</v>
-      </c>
-      <c r="K35" s="15" t="s">
-        <v>655</v>
-      </c>
-      <c r="L35" s="15" t="s">
-        <v>656</v>
-      </c>
-      <c r="M35" s="16" t="s">
-        <v>657</v>
-      </c>
-      <c r="N35" s="16" t="s">
-        <v>658</v>
-      </c>
-      <c r="O35" s="16" t="s">
-        <v>659</v>
-      </c>
-      <c r="P35" s="16" t="s">
-        <v>657</v>
-      </c>
-      <c r="Q35" s="16" t="s">
-        <v>660</v>
-      </c>
-      <c r="R35" s="16" t="s">
-        <v>661</v>
-      </c>
-      <c r="S35" s="16" t="s">
-        <v>662</v>
-      </c>
-      <c r="T35" s="16" t="s">
-        <v>663</v>
-      </c>
-      <c r="U35" s="16" t="s">
-        <v>664</v>
-      </c>
-      <c r="V35" s="16" t="s">
-        <v>665</v>
-      </c>
-      <c r="W35" s="16" t="s">
-        <v>666</v>
-      </c>
-      <c r="X35" s="16" t="s">
-        <v>667</v>
-      </c>
-      <c r="Y35" s="16" t="s">
-        <v>668</v>
-      </c>
-      <c r="Z35" s="16" t="s">
-        <v>669</v>
-      </c>
-      <c r="AA35" s="16" t="s">
-        <v>670</v>
-      </c>
-      <c r="AB35" s="16" t="s">
-        <v>671</v>
-      </c>
-      <c r="AC35" s="16" t="s">
-        <v>646</v>
-      </c>
-      <c r="AD35" s="17" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="53.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="18" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C36" s="15" t="s">
+        <v>675</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>676</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>677</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>678</v>
+      </c>
+      <c r="G36" s="15" t="s">
+        <v>679</v>
+      </c>
+      <c r="H36" s="15" t="s">
+        <v>680</v>
+      </c>
+      <c r="I36" s="15" t="s">
+        <v>681</v>
+      </c>
+      <c r="J36" s="15" t="s">
+        <v>682</v>
+      </c>
+      <c r="K36" s="15" t="s">
+        <v>683</v>
+      </c>
+      <c r="L36" s="15" t="s">
+        <v>684</v>
+      </c>
+      <c r="M36" s="16" t="s">
+        <v>685</v>
+      </c>
+      <c r="N36" s="16" t="s">
+        <v>686</v>
+      </c>
+      <c r="O36" s="16" t="s">
+        <v>687</v>
+      </c>
+      <c r="P36" s="16" t="s">
+        <v>685</v>
+      </c>
+      <c r="Q36" s="16" t="s">
+        <v>688</v>
+      </c>
+      <c r="R36" s="16" t="s">
+        <v>689</v>
+      </c>
+      <c r="S36" s="16" t="s">
+        <v>690</v>
+      </c>
+      <c r="T36" s="16" t="s">
+        <v>691</v>
+      </c>
+      <c r="U36" s="16" t="s">
+        <v>692</v>
+      </c>
+      <c r="V36" s="16" t="s">
+        <v>693</v>
+      </c>
+      <c r="W36" s="16" t="s">
+        <v>694</v>
+      </c>
+      <c r="X36" s="16" t="s">
+        <v>695</v>
+      </c>
+      <c r="Y36" s="16" t="s">
+        <v>696</v>
+      </c>
+      <c r="Z36" s="16" t="s">
+        <v>697</v>
+      </c>
+      <c r="AA36" s="16" t="s">
+        <v>698</v>
+      </c>
+      <c r="AB36" s="16" t="s">
+        <v>699</v>
+      </c>
+      <c r="AC36" s="16" t="s">
         <v>674</v>
       </c>
-      <c r="D36" s="15" t="s">
+      <c r="AD36" s="17" t="s">
         <v>675</v>
-      </c>
-      <c r="E36" s="15" t="s">
-        <v>676</v>
-      </c>
-      <c r="F36" s="15" t="s">
-        <v>677</v>
-      </c>
-      <c r="G36" s="15" t="s">
-        <v>678</v>
-      </c>
-      <c r="H36" s="15" t="s">
-        <v>679</v>
-      </c>
-      <c r="I36" s="15" t="s">
-        <v>680</v>
-      </c>
-      <c r="J36" s="15" t="s">
-        <v>681</v>
-      </c>
-      <c r="K36" s="15" t="s">
-        <v>682</v>
-      </c>
-      <c r="L36" s="15" t="s">
-        <v>683</v>
-      </c>
-      <c r="M36" s="16" t="s">
-        <v>684</v>
-      </c>
-      <c r="N36" s="16" t="s">
-        <v>685</v>
-      </c>
-      <c r="O36" s="16" t="s">
-        <v>686</v>
-      </c>
-      <c r="P36" s="16" t="s">
-        <v>684</v>
-      </c>
-      <c r="Q36" s="16" t="s">
-        <v>687</v>
-      </c>
-      <c r="R36" s="16" t="s">
-        <v>688</v>
-      </c>
-      <c r="S36" s="16" t="s">
-        <v>689</v>
-      </c>
-      <c r="T36" s="16" t="s">
-        <v>690</v>
-      </c>
-      <c r="U36" s="16" t="s">
-        <v>691</v>
-      </c>
-      <c r="V36" s="16" t="s">
-        <v>692</v>
-      </c>
-      <c r="W36" s="16" t="s">
-        <v>693</v>
-      </c>
-      <c r="X36" s="16" t="s">
-        <v>694</v>
-      </c>
-      <c r="Y36" s="16" t="s">
-        <v>695</v>
-      </c>
-      <c r="Z36" s="16" t="s">
-        <v>696</v>
-      </c>
-      <c r="AA36" s="16" t="s">
-        <v>697</v>
-      </c>
-      <c r="AB36" s="16" t="s">
-        <v>698</v>
-      </c>
-      <c r="AC36" s="16" t="s">
-        <v>673</v>
-      </c>
-      <c r="AD36" s="17" t="s">
-        <v>674</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="47" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="18" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="C37" s="15" t="s">
+        <v>702</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>703</v>
+      </c>
+      <c r="E37" s="15" t="s">
+        <v>704</v>
+      </c>
+      <c r="F37" s="15" t="s">
+        <v>705</v>
+      </c>
+      <c r="G37" s="15" t="s">
+        <v>706</v>
+      </c>
+      <c r="H37" s="15" t="s">
+        <v>707</v>
+      </c>
+      <c r="I37" s="15" t="s">
+        <v>708</v>
+      </c>
+      <c r="J37" s="15" t="s">
+        <v>709</v>
+      </c>
+      <c r="K37" s="15" t="s">
+        <v>710</v>
+      </c>
+      <c r="L37" s="15" t="s">
+        <v>711</v>
+      </c>
+      <c r="M37" s="16" t="s">
+        <v>712</v>
+      </c>
+      <c r="N37" s="16" t="s">
+        <v>713</v>
+      </c>
+      <c r="O37" s="16" t="s">
+        <v>714</v>
+      </c>
+      <c r="P37" s="16" t="s">
+        <v>712</v>
+      </c>
+      <c r="Q37" s="16" t="s">
+        <v>715</v>
+      </c>
+      <c r="R37" s="16" t="s">
+        <v>716</v>
+      </c>
+      <c r="S37" s="16" t="s">
+        <v>717</v>
+      </c>
+      <c r="T37" s="16" t="s">
+        <v>718</v>
+      </c>
+      <c r="U37" s="16" t="s">
+        <v>719</v>
+      </c>
+      <c r="V37" s="16" t="s">
+        <v>720</v>
+      </c>
+      <c r="W37" s="16" t="s">
+        <v>721</v>
+      </c>
+      <c r="X37" s="16" t="s">
+        <v>722</v>
+      </c>
+      <c r="Y37" s="16" t="s">
+        <v>723</v>
+      </c>
+      <c r="Z37" s="16" t="s">
+        <v>724</v>
+      </c>
+      <c r="AA37" s="16" t="s">
+        <v>725</v>
+      </c>
+      <c r="AB37" s="16" t="s">
+        <v>726</v>
+      </c>
+      <c r="AC37" s="16" t="s">
         <v>701</v>
       </c>
-      <c r="D37" s="15" t="s">
+      <c r="AD37" s="17" t="s">
         <v>702</v>
-      </c>
-      <c r="E37" s="15" t="s">
-        <v>703</v>
-      </c>
-      <c r="F37" s="15" t="s">
-        <v>704</v>
-      </c>
-      <c r="G37" s="15" t="s">
-        <v>705</v>
-      </c>
-      <c r="H37" s="15" t="s">
-        <v>706</v>
-      </c>
-      <c r="I37" s="15" t="s">
-        <v>707</v>
-      </c>
-      <c r="J37" s="15" t="s">
-        <v>708</v>
-      </c>
-      <c r="K37" s="15" t="s">
-        <v>709</v>
-      </c>
-      <c r="L37" s="15" t="s">
-        <v>710</v>
-      </c>
-      <c r="M37" s="16" t="s">
-        <v>711</v>
-      </c>
-      <c r="N37" s="16" t="s">
-        <v>712</v>
-      </c>
-      <c r="O37" s="16" t="s">
-        <v>713</v>
-      </c>
-      <c r="P37" s="16" t="s">
-        <v>711</v>
-      </c>
-      <c r="Q37" s="16" t="s">
-        <v>714</v>
-      </c>
-      <c r="R37" s="16" t="s">
-        <v>715</v>
-      </c>
-      <c r="S37" s="16" t="s">
-        <v>716</v>
-      </c>
-      <c r="T37" s="16" t="s">
-        <v>717</v>
-      </c>
-      <c r="U37" s="16" t="s">
-        <v>718</v>
-      </c>
-      <c r="V37" s="16" t="s">
-        <v>719</v>
-      </c>
-      <c r="W37" s="16" t="s">
-        <v>720</v>
-      </c>
-      <c r="X37" s="16" t="s">
-        <v>721</v>
-      </c>
-      <c r="Y37" s="16" t="s">
-        <v>722</v>
-      </c>
-      <c r="Z37" s="16" t="s">
-        <v>723</v>
-      </c>
-      <c r="AA37" s="16" t="s">
-        <v>724</v>
-      </c>
-      <c r="AB37" s="16" t="s">
-        <v>725</v>
-      </c>
-      <c r="AC37" s="16" t="s">
-        <v>700</v>
-      </c>
-      <c r="AD37" s="17" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="14" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="C38" s="15" t="s">
+        <v>729</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>730</v>
+      </c>
+      <c r="E38" s="15" t="s">
+        <v>731</v>
+      </c>
+      <c r="F38" s="15" t="s">
+        <v>732</v>
+      </c>
+      <c r="G38" s="15" t="s">
+        <v>733</v>
+      </c>
+      <c r="H38" s="15" t="s">
+        <v>734</v>
+      </c>
+      <c r="I38" s="15" t="s">
+        <v>735</v>
+      </c>
+      <c r="J38" s="15" t="s">
+        <v>736</v>
+      </c>
+      <c r="K38" s="15" t="s">
+        <v>737</v>
+      </c>
+      <c r="L38" s="15" t="s">
+        <v>738</v>
+      </c>
+      <c r="M38" s="16" t="s">
+        <v>739</v>
+      </c>
+      <c r="N38" s="16" t="s">
+        <v>740</v>
+      </c>
+      <c r="O38" s="16" t="s">
+        <v>741</v>
+      </c>
+      <c r="P38" s="16" t="s">
+        <v>739</v>
+      </c>
+      <c r="Q38" s="16" t="s">
+        <v>742</v>
+      </c>
+      <c r="R38" s="16" t="s">
+        <v>743</v>
+      </c>
+      <c r="S38" s="16" t="s">
+        <v>744</v>
+      </c>
+      <c r="T38" s="16" t="s">
+        <v>745</v>
+      </c>
+      <c r="U38" s="16" t="s">
+        <v>746</v>
+      </c>
+      <c r="V38" s="16" t="s">
+        <v>747</v>
+      </c>
+      <c r="W38" s="16" t="s">
+        <v>748</v>
+      </c>
+      <c r="X38" s="16" t="s">
+        <v>749</v>
+      </c>
+      <c r="Y38" s="16" t="s">
+        <v>750</v>
+      </c>
+      <c r="Z38" s="16" t="s">
+        <v>751</v>
+      </c>
+      <c r="AA38" s="16" t="s">
+        <v>752</v>
+      </c>
+      <c r="AB38" s="16" t="s">
+        <v>753</v>
+      </c>
+      <c r="AC38" s="16" t="s">
         <v>728</v>
       </c>
-      <c r="D38" s="15" t="s">
+      <c r="AD38" s="17" t="s">
         <v>729</v>
-      </c>
-      <c r="E38" s="15" t="s">
-        <v>730</v>
-      </c>
-      <c r="F38" s="15" t="s">
-        <v>731</v>
-      </c>
-      <c r="G38" s="15" t="s">
-        <v>732</v>
-      </c>
-      <c r="H38" s="15" t="s">
-        <v>733</v>
-      </c>
-      <c r="I38" s="15" t="s">
-        <v>734</v>
-      </c>
-      <c r="J38" s="15" t="s">
-        <v>735</v>
-      </c>
-      <c r="K38" s="15" t="s">
-        <v>736</v>
-      </c>
-      <c r="L38" s="15" t="s">
-        <v>737</v>
-      </c>
-      <c r="M38" s="16" t="s">
-        <v>738</v>
-      </c>
-      <c r="N38" s="16" t="s">
-        <v>739</v>
-      </c>
-      <c r="O38" s="16" t="s">
-        <v>740</v>
-      </c>
-      <c r="P38" s="16" t="s">
-        <v>738</v>
-      </c>
-      <c r="Q38" s="16" t="s">
-        <v>741</v>
-      </c>
-      <c r="R38" s="16" t="s">
-        <v>742</v>
-      </c>
-      <c r="S38" s="16" t="s">
-        <v>743</v>
-      </c>
-      <c r="T38" s="16" t="s">
-        <v>744</v>
-      </c>
-      <c r="U38" s="16" t="s">
-        <v>745</v>
-      </c>
-      <c r="V38" s="16" t="s">
-        <v>746</v>
-      </c>
-      <c r="W38" s="16" t="s">
-        <v>747</v>
-      </c>
-      <c r="X38" s="16" t="s">
-        <v>748</v>
-      </c>
-      <c r="Y38" s="16" t="s">
-        <v>749</v>
-      </c>
-      <c r="Z38" s="16" t="s">
-        <v>750</v>
-      </c>
-      <c r="AA38" s="16" t="s">
-        <v>751</v>
-      </c>
-      <c r="AB38" s="16" t="s">
-        <v>752</v>
-      </c>
-      <c r="AC38" s="16" t="s">
-        <v>727</v>
-      </c>
-      <c r="AD38" s="17" t="s">
-        <v>728</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="33" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="C39" s="15" t="s">
+        <v>756</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>757</v>
+      </c>
+      <c r="E39" s="15" t="s">
+        <v>758</v>
+      </c>
+      <c r="F39" s="15" t="s">
+        <v>759</v>
+      </c>
+      <c r="G39" s="15" t="s">
+        <v>760</v>
+      </c>
+      <c r="H39" s="15" t="s">
+        <v>761</v>
+      </c>
+      <c r="I39" s="15" t="s">
+        <v>762</v>
+      </c>
+      <c r="J39" s="15" t="s">
+        <v>763</v>
+      </c>
+      <c r="K39" s="15" t="s">
+        <v>764</v>
+      </c>
+      <c r="L39" s="15" t="s">
+        <v>765</v>
+      </c>
+      <c r="M39" s="16" t="s">
+        <v>766</v>
+      </c>
+      <c r="N39" s="16" t="s">
+        <v>767</v>
+      </c>
+      <c r="O39" s="16" t="s">
+        <v>768</v>
+      </c>
+      <c r="P39" s="16" t="s">
+        <v>766</v>
+      </c>
+      <c r="Q39" s="16" t="s">
+        <v>769</v>
+      </c>
+      <c r="R39" s="16" t="s">
+        <v>770</v>
+      </c>
+      <c r="S39" s="16" t="s">
+        <v>771</v>
+      </c>
+      <c r="T39" s="16" t="s">
+        <v>772</v>
+      </c>
+      <c r="U39" s="16" t="s">
+        <v>773</v>
+      </c>
+      <c r="V39" s="16" t="s">
+        <v>774</v>
+      </c>
+      <c r="W39" s="16" t="s">
+        <v>775</v>
+      </c>
+      <c r="X39" s="16" t="s">
+        <v>776</v>
+      </c>
+      <c r="Y39" s="16" t="s">
+        <v>777</v>
+      </c>
+      <c r="Z39" s="16" t="s">
+        <v>778</v>
+      </c>
+      <c r="AA39" s="16" t="s">
+        <v>779</v>
+      </c>
+      <c r="AB39" s="16" t="s">
+        <v>780</v>
+      </c>
+      <c r="AC39" s="16" t="s">
         <v>755</v>
       </c>
-      <c r="D39" s="15" t="s">
+      <c r="AD39" s="17" t="s">
         <v>756</v>
-      </c>
-      <c r="E39" s="15" t="s">
-        <v>757</v>
-      </c>
-      <c r="F39" s="15" t="s">
-        <v>758</v>
-      </c>
-      <c r="G39" s="15" t="s">
-        <v>759</v>
-      </c>
-      <c r="H39" s="15" t="s">
-        <v>760</v>
-      </c>
-      <c r="I39" s="15" t="s">
-        <v>761</v>
-      </c>
-      <c r="J39" s="15" t="s">
-        <v>762</v>
-      </c>
-      <c r="K39" s="15" t="s">
-        <v>763</v>
-      </c>
-      <c r="L39" s="15" t="s">
-        <v>764</v>
-      </c>
-      <c r="M39" s="16" t="s">
-        <v>765</v>
-      </c>
-      <c r="N39" s="16" t="s">
-        <v>766</v>
-      </c>
-      <c r="O39" s="16" t="s">
-        <v>767</v>
-      </c>
-      <c r="P39" s="16" t="s">
-        <v>765</v>
-      </c>
-      <c r="Q39" s="16" t="s">
-        <v>768</v>
-      </c>
-      <c r="R39" s="16" t="s">
-        <v>769</v>
-      </c>
-      <c r="S39" s="16" t="s">
-        <v>770</v>
-      </c>
-      <c r="T39" s="16" t="s">
-        <v>771</v>
-      </c>
-      <c r="U39" s="16" t="s">
-        <v>772</v>
-      </c>
-      <c r="V39" s="16" t="s">
-        <v>773</v>
-      </c>
-      <c r="W39" s="16" t="s">
-        <v>774</v>
-      </c>
-      <c r="X39" s="16" t="s">
-        <v>775</v>
-      </c>
-      <c r="Y39" s="16" t="s">
-        <v>776</v>
-      </c>
-      <c r="Z39" s="16" t="s">
-        <v>777</v>
-      </c>
-      <c r="AA39" s="16" t="s">
-        <v>778</v>
-      </c>
-      <c r="AB39" s="16" t="s">
-        <v>779</v>
-      </c>
-      <c r="AC39" s="16" t="s">
-        <v>754</v>
-      </c>
-      <c r="AD39" s="17" t="s">
-        <v>755</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -6208,32 +6213,32 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="34" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="34" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="34" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="34" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="34" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="34" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6241,12 +6246,12 @@
     </row>
     <row r="9" customFormat="false" ht="80.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="35" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="51.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="36" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6254,7 +6259,7 @@
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="37" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6262,135 +6267,135 @@
     </row>
     <row r="14" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="39" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="B14" s="40" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="C14" s="40"/>
       <c r="D14" s="40" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="E14" s="40"/>
       <c r="F14" s="40" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="G14" s="40"/>
       <c r="H14" s="40" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="I14" s="40"/>
       <c r="J14" s="40" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K14" s="40"/>
       <c r="L14" s="40" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M14" s="40"/>
       <c r="N14" s="40" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O14" s="40"/>
       <c r="P14" s="40" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="Q14" s="40"/>
       <c r="R14" s="40" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="S14" s="40"/>
       <c r="T14" s="40" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="U14" s="40"/>
       <c r="V14" s="40" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="W14" s="40"/>
       <c r="X14" s="41" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y14" s="41"/>
     </row>
     <row r="15" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="39"/>
       <c r="B15" s="42" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C15" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="42" t="s">
-        <v>6</v>
-      </c>
       <c r="E15" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="F15" s="42" t="s">
-        <v>6</v>
-      </c>
       <c r="G15" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="H15" s="42" t="s">
-        <v>6</v>
-      </c>
       <c r="I15" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="J15" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="J15" s="42" t="s">
-        <v>6</v>
-      </c>
       <c r="K15" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="L15" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="L15" s="42" t="s">
-        <v>6</v>
-      </c>
       <c r="M15" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="N15" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="N15" s="42" t="s">
-        <v>6</v>
-      </c>
       <c r="O15" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="P15" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="P15" s="42" t="s">
-        <v>6</v>
-      </c>
       <c r="Q15" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="R15" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="R15" s="42" t="s">
-        <v>6</v>
-      </c>
       <c r="S15" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="T15" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="T15" s="42" t="s">
-        <v>6</v>
-      </c>
       <c r="U15" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="V15" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="V15" s="42" t="s">
-        <v>6</v>
-      </c>
       <c r="W15" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="X15" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="X15" s="42" t="s">
-        <v>6</v>
-      </c>
       <c r="Y15" s="43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="44" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="B16" s="44"/>
       <c r="C16" s="44"/>
@@ -6419,7 +6424,7 @@
     </row>
     <row r="17" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="45" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="B17" s="46"/>
       <c r="C17" s="46"/>
@@ -6448,7 +6453,7 @@
     </row>
     <row r="18" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="45" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="B18" s="46"/>
       <c r="C18" s="46"/>
@@ -6477,7 +6482,7 @@
     </row>
     <row r="19" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="45" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="B19" s="46"/>
       <c r="C19" s="46"/>
@@ -6560,7 +6565,7 @@
     </row>
     <row r="22" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="44" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="B22" s="44"/>
       <c r="C22" s="44"/>
@@ -6589,7 +6594,7 @@
     </row>
     <row r="23" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="45" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="B23" s="46"/>
       <c r="C23" s="46"/>
@@ -6618,7 +6623,7 @@
     </row>
     <row r="24" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="45" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="B24" s="46"/>
       <c r="C24" s="46"/>
@@ -6647,7 +6652,7 @@
     </row>
     <row r="25" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="45" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="B25" s="46"/>
       <c r="C25" s="46"/>
@@ -6676,7 +6681,7 @@
     </row>
     <row r="26" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="45" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="B26" s="46"/>
       <c r="C26" s="46"/>
@@ -6759,7 +6764,7 @@
     </row>
     <row r="29" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="48" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="B29" s="46"/>
       <c r="C29" s="46"/>
@@ -6788,7 +6793,7 @@
     </row>
     <row r="30" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="44" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="B30" s="44"/>
       <c r="C30" s="44"/>
@@ -6817,7 +6822,7 @@
     </row>
     <row r="31" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="45" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="B31" s="46"/>
       <c r="C31" s="46"/>
@@ -6846,7 +6851,7 @@
     </row>
     <row r="32" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="45" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="B32" s="46"/>
       <c r="C32" s="46"/>
@@ -6929,7 +6934,7 @@
     </row>
     <row r="35" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="44" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="B35" s="44"/>
       <c r="C35" s="44"/>
@@ -7039,7 +7044,7 @@
     </row>
     <row r="39" customFormat="false" ht="66.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="48" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="B39" s="46"/>
       <c r="C39" s="46"/>
@@ -7068,7 +7073,7 @@
     </row>
     <row r="40" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="48" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="B40" s="46"/>
       <c r="C40" s="46"/>
@@ -7097,7 +7102,7 @@
     </row>
     <row r="41" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="44" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="B41" s="44"/>
       <c r="C41" s="44"/>
@@ -7126,7 +7131,7 @@
     </row>
     <row r="42" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="45" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="B42" s="46"/>
       <c r="C42" s="46"/>
@@ -7155,7 +7160,7 @@
     </row>
     <row r="43" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="45" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="B43" s="46"/>
       <c r="C43" s="46"/>
@@ -7184,7 +7189,7 @@
     </row>
     <row r="44" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="45" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="B44" s="46"/>
       <c r="C44" s="46"/>
@@ -7267,7 +7272,7 @@
     </row>
     <row r="47" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="44" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="B47" s="44"/>
       <c r="C47" s="44"/>
@@ -7350,7 +7355,7 @@
     </row>
     <row r="50" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="45" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="B50" s="46"/>
       <c r="C50" s="46"/>
@@ -7379,7 +7384,7 @@
     </row>
     <row r="51" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="44" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="B51" s="44"/>
       <c r="C51" s="44"/>
@@ -7408,7 +7413,7 @@
     </row>
     <row r="52" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="49" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="B52" s="46"/>
       <c r="C52" s="46"/>
@@ -7437,7 +7442,7 @@
     </row>
     <row r="53" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="49" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="B53" s="46"/>
       <c r="C53" s="46"/>
@@ -7466,7 +7471,7 @@
     </row>
     <row r="54" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="49" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B54" s="46"/>
       <c r="C54" s="46"/>
@@ -7522,7 +7527,7 @@
     </row>
     <row r="56" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="50" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="B56" s="46"/>
       <c r="C56" s="46"/>
@@ -7551,7 +7556,7 @@
     </row>
     <row r="57" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="51" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="B57" s="52"/>
       <c r="C57" s="52"/>
@@ -7583,7 +7588,7 @@
     </row>
     <row r="59" customFormat="false" ht="141.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="55" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
     </row>
   </sheetData>

--- a/resources/report_template.xlsx
+++ b/resources/report_template.xlsx
@@ -16,12 +16,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="828">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="829">
   <si>
     <t>Région</t>
   </si>
   <si>
     <t>Pharmacie - Centre prescripteur</t>
+  </si>
+  <si>
+    <t>{key: 'SITE_NAME'}</t>
   </si>
   <si>
     <t>Période de rapportage</t>
@@ -3265,7 +3268,7 @@
   <dimension ref="A1:AD65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -3327,7 +3330,9 @@
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -3339,10 +3344,10 @@
     </row>
     <row r="4" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -3355,7 +3360,7 @@
     </row>
     <row r="5" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -3369,7 +3374,7 @@
     </row>
     <row r="6" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -3402,71 +3407,71 @@
     </row>
     <row r="9" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="8" t="s">
         <v>11</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>10</v>
       </c>
       <c r="J9" s="8"/>
       <c r="K9" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L9" s="8"/>
       <c r="M9" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N9" s="9"/>
       <c r="O9" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P9" s="9"/>
       <c r="Q9" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="R9" s="9"/>
       <c r="S9" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="T9" s="9"/>
       <c r="U9" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="V9" s="9"/>
       <c r="W9" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="X9" s="9"/>
       <c r="Y9" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Z9" s="9"/>
       <c r="AA9" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AB9" s="9"/>
       <c r="AC9" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AD9" s="10"/>
     </row>
@@ -3480,1915 +3485,1915 @@
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J10" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="K10" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="K10" s="11" t="s">
-        <v>7</v>
-      </c>
       <c r="L10" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="M10" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="M10" s="12" t="s">
-        <v>7</v>
-      </c>
       <c r="N10" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="O10" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="O10" s="12" t="s">
-        <v>7</v>
-      </c>
       <c r="P10" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q10" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="Q10" s="12" t="s">
-        <v>7</v>
-      </c>
       <c r="R10" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="S10" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="S10" s="12" t="s">
-        <v>7</v>
-      </c>
       <c r="T10" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="U10" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="U10" s="12" t="s">
-        <v>7</v>
-      </c>
       <c r="V10" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="W10" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="W10" s="12" t="s">
-        <v>7</v>
-      </c>
       <c r="X10" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y10" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="Y10" s="12" t="s">
-        <v>7</v>
-      </c>
       <c r="Z10" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA10" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="AA10" s="12" t="s">
-        <v>7</v>
-      </c>
       <c r="AB10" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC10" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="AC10" s="12" t="s">
-        <v>7</v>
-      </c>
       <c r="AD10" s="13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J11" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="M11" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="N11" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="O11" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="P11" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q11" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="R11" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="S11" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="T11" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="U11" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="V11" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="W11" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="X11" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y11" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z11" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA11" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB11" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC11" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="AD11" s="17" t="s">
         <v>27</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="H11" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="I11" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="J11" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="K11" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="L11" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="M11" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="N11" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="O11" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="P11" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q11" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="R11" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="S11" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="T11" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="U11" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="V11" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="W11" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="X11" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y11" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z11" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA11" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB11" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC11" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="AD11" s="17" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="38.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C12" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="I12" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="J12" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="K12" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="L12" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="M12" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="N12" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="O12" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="P12" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q12" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="R12" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="S12" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="T12" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="U12" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="V12" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="W12" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="X12" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y12" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z12" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA12" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB12" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC12" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="AD12" s="17" t="s">
         <v>54</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H12" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="I12" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="J12" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="K12" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="L12" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="M12" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="N12" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="O12" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="P12" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q12" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="R12" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="S12" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="T12" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="U12" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="V12" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="W12" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="X12" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y12" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z12" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA12" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="AB12" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="AC12" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="AD12" s="17" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="50.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="18" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C13" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="J13" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="K13" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="L13" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="M13" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="N13" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="O13" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="P13" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q13" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="R13" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="S13" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="T13" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="U13" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="V13" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="W13" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="X13" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y13" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z13" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA13" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB13" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC13" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="AD13" s="17" t="s">
         <v>81</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="G13" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="H13" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="I13" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="J13" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="K13" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="L13" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="M13" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="N13" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="O13" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="P13" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q13" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="R13" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="S13" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="T13" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="U13" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="V13" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="W13" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="X13" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="Y13" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="Z13" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="AA13" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="AB13" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="AC13" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD13" s="17" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="14" s="19" customFormat="true" ht="51.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="18" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C14" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="J14" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="K14" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="L14" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="M14" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="N14" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="O14" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="P14" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q14" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="R14" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="S14" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="T14" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="U14" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="V14" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="W14" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="X14" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y14" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z14" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA14" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB14" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="AC14" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="AD14" s="17" t="s">
         <v>108</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="G14" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="H14" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="I14" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="J14" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="K14" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="L14" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="M14" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="N14" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="O14" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="P14" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q14" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="R14" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="S14" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="T14" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="U14" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="V14" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="W14" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="X14" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y14" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z14" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA14" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="AB14" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="AC14" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="AD14" s="17" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="51.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="18" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C15" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="I15" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="J15" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="K15" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="L15" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="M15" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="N15" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="O15" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="P15" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q15" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="R15" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="S15" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="T15" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="U15" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="V15" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="W15" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="X15" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y15" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="Z15" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="AA15" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="AB15" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="AC15" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="AD15" s="17" t="s">
         <v>135</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="G15" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="H15" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="I15" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="J15" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="K15" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="L15" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="M15" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="N15" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="O15" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="P15" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q15" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="R15" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="S15" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="T15" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="U15" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="V15" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="W15" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="X15" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="Y15" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="Z15" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="AA15" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="AB15" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="AC15" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="AD15" s="17" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="48.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="20" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C16" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="G16" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="H16" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="I16" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="J16" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="K16" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="L16" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="M16" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="N16" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="O16" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="P16" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q16" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="R16" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="S16" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="T16" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="U16" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="V16" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="W16" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="X16" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y16" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="Z16" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="AA16" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="AB16" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="AC16" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="AD16" s="24" t="s">
         <v>162</v>
-      </c>
-      <c r="E16" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="F16" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="G16" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="H16" s="22" t="s">
-        <v>166</v>
-      </c>
-      <c r="I16" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="J16" s="23" t="s">
-        <v>168</v>
-      </c>
-      <c r="K16" s="23" t="s">
-        <v>169</v>
-      </c>
-      <c r="L16" s="23" t="s">
-        <v>170</v>
-      </c>
-      <c r="M16" s="21" t="s">
-        <v>171</v>
-      </c>
-      <c r="N16" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="O16" s="21" t="s">
-        <v>173</v>
-      </c>
-      <c r="P16" s="21" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q16" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="R16" s="21" t="s">
-        <v>175</v>
-      </c>
-      <c r="S16" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="T16" s="21" t="s">
-        <v>177</v>
-      </c>
-      <c r="U16" s="21" t="s">
-        <v>178</v>
-      </c>
-      <c r="V16" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="W16" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="X16" s="21" t="s">
-        <v>181</v>
-      </c>
-      <c r="Y16" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="Z16" s="21" t="s">
-        <v>183</v>
-      </c>
-      <c r="AA16" s="21" t="s">
-        <v>184</v>
-      </c>
-      <c r="AB16" s="21" t="s">
-        <v>185</v>
-      </c>
-      <c r="AC16" s="21" t="s">
-        <v>160</v>
-      </c>
-      <c r="AD16" s="24" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="18" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C17" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="I17" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="J17" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="K17" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="L17" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="M17" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="N17" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="O17" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="P17" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q17" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="R17" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="S17" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="T17" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="U17" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="V17" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="W17" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="X17" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="Y17" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="Z17" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="AA17" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="AB17" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="AC17" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="AD17" s="17" t="s">
         <v>189</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="G17" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="H17" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="I17" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="J17" s="15" t="s">
-        <v>195</v>
-      </c>
-      <c r="K17" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="L17" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="M17" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="N17" s="16" t="s">
-        <v>199</v>
-      </c>
-      <c r="O17" s="16" t="s">
-        <v>200</v>
-      </c>
-      <c r="P17" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q17" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="R17" s="16" t="s">
-        <v>202</v>
-      </c>
-      <c r="S17" s="16" t="s">
-        <v>203</v>
-      </c>
-      <c r="T17" s="16" t="s">
-        <v>204</v>
-      </c>
-      <c r="U17" s="16" t="s">
-        <v>205</v>
-      </c>
-      <c r="V17" s="16" t="s">
-        <v>206</v>
-      </c>
-      <c r="W17" s="16" t="s">
-        <v>207</v>
-      </c>
-      <c r="X17" s="16" t="s">
-        <v>208</v>
-      </c>
-      <c r="Y17" s="16" t="s">
-        <v>209</v>
-      </c>
-      <c r="Z17" s="16" t="s">
-        <v>210</v>
-      </c>
-      <c r="AA17" s="16" t="s">
-        <v>211</v>
-      </c>
-      <c r="AB17" s="16" t="s">
-        <v>212</v>
-      </c>
-      <c r="AC17" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="AD17" s="17" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="28.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="18" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C18" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="I18" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="J18" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="K18" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="L18" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="M18" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="N18" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="O18" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="P18" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q18" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="R18" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="S18" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="T18" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="U18" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="V18" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="W18" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="X18" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="Y18" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="Z18" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="AA18" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="AB18" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="AC18" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="AD18" s="17" t="s">
         <v>216</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>217</v>
-      </c>
-      <c r="F18" s="15" t="s">
-        <v>218</v>
-      </c>
-      <c r="G18" s="15" t="s">
-        <v>219</v>
-      </c>
-      <c r="H18" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="I18" s="15" t="s">
-        <v>221</v>
-      </c>
-      <c r="J18" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="K18" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="L18" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="M18" s="16" t="s">
-        <v>225</v>
-      </c>
-      <c r="N18" s="16" t="s">
-        <v>226</v>
-      </c>
-      <c r="O18" s="16" t="s">
-        <v>227</v>
-      </c>
-      <c r="P18" s="16" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q18" s="16" t="s">
-        <v>228</v>
-      </c>
-      <c r="R18" s="16" t="s">
-        <v>229</v>
-      </c>
-      <c r="S18" s="16" t="s">
-        <v>230</v>
-      </c>
-      <c r="T18" s="16" t="s">
-        <v>231</v>
-      </c>
-      <c r="U18" s="16" t="s">
-        <v>232</v>
-      </c>
-      <c r="V18" s="16" t="s">
-        <v>233</v>
-      </c>
-      <c r="W18" s="16" t="s">
-        <v>234</v>
-      </c>
-      <c r="X18" s="16" t="s">
-        <v>235</v>
-      </c>
-      <c r="Y18" s="16" t="s">
-        <v>236</v>
-      </c>
-      <c r="Z18" s="16" t="s">
-        <v>237</v>
-      </c>
-      <c r="AA18" s="16" t="s">
-        <v>238</v>
-      </c>
-      <c r="AB18" s="16" t="s">
-        <v>239</v>
-      </c>
-      <c r="AC18" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="AD18" s="17" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="41" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="18" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C19" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="I19" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="J19" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="K19" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="L19" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="M19" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="N19" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="O19" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="P19" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q19" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="R19" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="S19" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="T19" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="U19" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="V19" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="W19" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="X19" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="Y19" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="Z19" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="AA19" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="AB19" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="AC19" s="16" t="s">
         <v>242</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="AD19" s="17" t="s">
         <v>243</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="F19" s="15" t="s">
-        <v>245</v>
-      </c>
-      <c r="G19" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="H19" s="15" t="s">
-        <v>247</v>
-      </c>
-      <c r="I19" s="15" t="s">
-        <v>248</v>
-      </c>
-      <c r="J19" s="15" t="s">
-        <v>249</v>
-      </c>
-      <c r="K19" s="15" t="s">
-        <v>250</v>
-      </c>
-      <c r="L19" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="M19" s="16" t="s">
-        <v>252</v>
-      </c>
-      <c r="N19" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="O19" s="16" t="s">
-        <v>254</v>
-      </c>
-      <c r="P19" s="16" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q19" s="16" t="s">
-        <v>255</v>
-      </c>
-      <c r="R19" s="16" t="s">
-        <v>256</v>
-      </c>
-      <c r="S19" s="16" t="s">
-        <v>257</v>
-      </c>
-      <c r="T19" s="16" t="s">
-        <v>258</v>
-      </c>
-      <c r="U19" s="16" t="s">
-        <v>259</v>
-      </c>
-      <c r="V19" s="16" t="s">
-        <v>260</v>
-      </c>
-      <c r="W19" s="16" t="s">
-        <v>261</v>
-      </c>
-      <c r="X19" s="16" t="s">
-        <v>262</v>
-      </c>
-      <c r="Y19" s="16" t="s">
-        <v>263</v>
-      </c>
-      <c r="Z19" s="16" t="s">
-        <v>264</v>
-      </c>
-      <c r="AA19" s="16" t="s">
-        <v>265</v>
-      </c>
-      <c r="AB19" s="16" t="s">
-        <v>266</v>
-      </c>
-      <c r="AC19" s="16" t="s">
-        <v>241</v>
-      </c>
-      <c r="AD19" s="17" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="18" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C20" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="I20" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="J20" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="K20" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="L20" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="M20" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="N20" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="O20" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="P20" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q20" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="R20" s="16" t="s">
+        <v>284</v>
+      </c>
+      <c r="S20" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="T20" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="U20" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="V20" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="W20" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="X20" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="Y20" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="Z20" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="AA20" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="AB20" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="AC20" s="16" t="s">
         <v>269</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="AD20" s="17" t="s">
         <v>270</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>271</v>
-      </c>
-      <c r="F20" s="15" t="s">
-        <v>272</v>
-      </c>
-      <c r="G20" s="15" t="s">
-        <v>273</v>
-      </c>
-      <c r="H20" s="15" t="s">
-        <v>274</v>
-      </c>
-      <c r="I20" s="15" t="s">
-        <v>275</v>
-      </c>
-      <c r="J20" s="15" t="s">
-        <v>276</v>
-      </c>
-      <c r="K20" s="15" t="s">
-        <v>277</v>
-      </c>
-      <c r="L20" s="15" t="s">
-        <v>278</v>
-      </c>
-      <c r="M20" s="16" t="s">
-        <v>279</v>
-      </c>
-      <c r="N20" s="16" t="s">
-        <v>280</v>
-      </c>
-      <c r="O20" s="16" t="s">
-        <v>281</v>
-      </c>
-      <c r="P20" s="16" t="s">
-        <v>279</v>
-      </c>
-      <c r="Q20" s="16" t="s">
-        <v>282</v>
-      </c>
-      <c r="R20" s="16" t="s">
-        <v>283</v>
-      </c>
-      <c r="S20" s="16" t="s">
-        <v>284</v>
-      </c>
-      <c r="T20" s="16" t="s">
-        <v>285</v>
-      </c>
-      <c r="U20" s="16" t="s">
-        <v>286</v>
-      </c>
-      <c r="V20" s="16" t="s">
-        <v>287</v>
-      </c>
-      <c r="W20" s="16" t="s">
-        <v>288</v>
-      </c>
-      <c r="X20" s="16" t="s">
-        <v>289</v>
-      </c>
-      <c r="Y20" s="16" t="s">
-        <v>290</v>
-      </c>
-      <c r="Z20" s="16" t="s">
-        <v>291</v>
-      </c>
-      <c r="AA20" s="16" t="s">
-        <v>292</v>
-      </c>
-      <c r="AB20" s="16" t="s">
-        <v>293</v>
-      </c>
-      <c r="AC20" s="16" t="s">
-        <v>268</v>
-      </c>
-      <c r="AD20" s="17" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="25" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C21" s="26" t="s">
+        <v>297</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>298</v>
+      </c>
+      <c r="E21" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="F21" s="26" t="s">
+        <v>300</v>
+      </c>
+      <c r="G21" s="26" t="s">
+        <v>301</v>
+      </c>
+      <c r="H21" s="26" t="s">
+        <v>302</v>
+      </c>
+      <c r="I21" s="23" t="s">
+        <v>303</v>
+      </c>
+      <c r="J21" s="23" t="s">
+        <v>304</v>
+      </c>
+      <c r="K21" s="23" t="s">
+        <v>305</v>
+      </c>
+      <c r="L21" s="23" t="s">
+        <v>306</v>
+      </c>
+      <c r="M21" s="27" t="s">
+        <v>307</v>
+      </c>
+      <c r="N21" s="27" t="s">
+        <v>308</v>
+      </c>
+      <c r="O21" s="27" t="s">
+        <v>309</v>
+      </c>
+      <c r="P21" s="27" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q21" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="R21" s="27" t="s">
+        <v>311</v>
+      </c>
+      <c r="S21" s="27" t="s">
+        <v>312</v>
+      </c>
+      <c r="T21" s="27" t="s">
+        <v>313</v>
+      </c>
+      <c r="U21" s="27" t="s">
+        <v>314</v>
+      </c>
+      <c r="V21" s="27" t="s">
+        <v>315</v>
+      </c>
+      <c r="W21" s="27" t="s">
+        <v>316</v>
+      </c>
+      <c r="X21" s="27" t="s">
+        <v>317</v>
+      </c>
+      <c r="Y21" s="27" t="s">
+        <v>318</v>
+      </c>
+      <c r="Z21" s="27" t="s">
+        <v>319</v>
+      </c>
+      <c r="AA21" s="27" t="s">
+        <v>320</v>
+      </c>
+      <c r="AB21" s="27" t="s">
+        <v>321</v>
+      </c>
+      <c r="AC21" s="27" t="s">
         <v>296</v>
       </c>
-      <c r="D21" s="26" t="s">
+      <c r="AD21" s="28" t="s">
         <v>297</v>
-      </c>
-      <c r="E21" s="26" t="s">
-        <v>298</v>
-      </c>
-      <c r="F21" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="G21" s="26" t="s">
-        <v>300</v>
-      </c>
-      <c r="H21" s="26" t="s">
-        <v>301</v>
-      </c>
-      <c r="I21" s="23" t="s">
-        <v>302</v>
-      </c>
-      <c r="J21" s="23" t="s">
-        <v>303</v>
-      </c>
-      <c r="K21" s="23" t="s">
-        <v>304</v>
-      </c>
-      <c r="L21" s="23" t="s">
-        <v>305</v>
-      </c>
-      <c r="M21" s="27" t="s">
-        <v>306</v>
-      </c>
-      <c r="N21" s="27" t="s">
-        <v>307</v>
-      </c>
-      <c r="O21" s="27" t="s">
-        <v>308</v>
-      </c>
-      <c r="P21" s="27" t="s">
-        <v>306</v>
-      </c>
-      <c r="Q21" s="27" t="s">
-        <v>309</v>
-      </c>
-      <c r="R21" s="27" t="s">
-        <v>310</v>
-      </c>
-      <c r="S21" s="27" t="s">
-        <v>311</v>
-      </c>
-      <c r="T21" s="27" t="s">
-        <v>312</v>
-      </c>
-      <c r="U21" s="27" t="s">
-        <v>313</v>
-      </c>
-      <c r="V21" s="27" t="s">
-        <v>314</v>
-      </c>
-      <c r="W21" s="27" t="s">
-        <v>315</v>
-      </c>
-      <c r="X21" s="27" t="s">
-        <v>316</v>
-      </c>
-      <c r="Y21" s="27" t="s">
-        <v>317</v>
-      </c>
-      <c r="Z21" s="27" t="s">
-        <v>318</v>
-      </c>
-      <c r="AA21" s="27" t="s">
-        <v>319</v>
-      </c>
-      <c r="AB21" s="27" t="s">
-        <v>320</v>
-      </c>
-      <c r="AC21" s="27" t="s">
-        <v>295</v>
-      </c>
-      <c r="AD21" s="28" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="18" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C22" s="15" t="s">
+        <v>324</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>325</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>326</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>327</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>329</v>
+      </c>
+      <c r="I22" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="J22" s="15" t="s">
+        <v>331</v>
+      </c>
+      <c r="K22" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="L22" s="15" t="s">
+        <v>333</v>
+      </c>
+      <c r="M22" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="N22" s="16" t="s">
+        <v>335</v>
+      </c>
+      <c r="O22" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="P22" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q22" s="16" t="s">
+        <v>337</v>
+      </c>
+      <c r="R22" s="16" t="s">
+        <v>338</v>
+      </c>
+      <c r="S22" s="16" t="s">
+        <v>339</v>
+      </c>
+      <c r="T22" s="16" t="s">
+        <v>340</v>
+      </c>
+      <c r="U22" s="16" t="s">
+        <v>341</v>
+      </c>
+      <c r="V22" s="16" t="s">
+        <v>342</v>
+      </c>
+      <c r="W22" s="16" t="s">
+        <v>343</v>
+      </c>
+      <c r="X22" s="16" t="s">
+        <v>344</v>
+      </c>
+      <c r="Y22" s="16" t="s">
+        <v>345</v>
+      </c>
+      <c r="Z22" s="16" t="s">
+        <v>346</v>
+      </c>
+      <c r="AA22" s="16" t="s">
+        <v>347</v>
+      </c>
+      <c r="AB22" s="16" t="s">
+        <v>348</v>
+      </c>
+      <c r="AC22" s="16" t="s">
         <v>323</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="AD22" s="17" t="s">
         <v>324</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>325</v>
-      </c>
-      <c r="F22" s="15" t="s">
-        <v>326</v>
-      </c>
-      <c r="G22" s="15" t="s">
-        <v>327</v>
-      </c>
-      <c r="H22" s="15" t="s">
-        <v>328</v>
-      </c>
-      <c r="I22" s="15" t="s">
-        <v>329</v>
-      </c>
-      <c r="J22" s="15" t="s">
-        <v>330</v>
-      </c>
-      <c r="K22" s="15" t="s">
-        <v>331</v>
-      </c>
-      <c r="L22" s="15" t="s">
-        <v>332</v>
-      </c>
-      <c r="M22" s="16" t="s">
-        <v>333</v>
-      </c>
-      <c r="N22" s="16" t="s">
-        <v>334</v>
-      </c>
-      <c r="O22" s="16" t="s">
-        <v>335</v>
-      </c>
-      <c r="P22" s="16" t="s">
-        <v>333</v>
-      </c>
-      <c r="Q22" s="16" t="s">
-        <v>336</v>
-      </c>
-      <c r="R22" s="16" t="s">
-        <v>337</v>
-      </c>
-      <c r="S22" s="16" t="s">
-        <v>338</v>
-      </c>
-      <c r="T22" s="16" t="s">
-        <v>339</v>
-      </c>
-      <c r="U22" s="16" t="s">
-        <v>340</v>
-      </c>
-      <c r="V22" s="16" t="s">
-        <v>341</v>
-      </c>
-      <c r="W22" s="16" t="s">
-        <v>342</v>
-      </c>
-      <c r="X22" s="16" t="s">
-        <v>343</v>
-      </c>
-      <c r="Y22" s="16" t="s">
-        <v>344</v>
-      </c>
-      <c r="Z22" s="16" t="s">
-        <v>345</v>
-      </c>
-      <c r="AA22" s="16" t="s">
-        <v>346</v>
-      </c>
-      <c r="AB22" s="16" t="s">
-        <v>347</v>
-      </c>
-      <c r="AC22" s="16" t="s">
-        <v>322</v>
-      </c>
-      <c r="AD22" s="17" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="30.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="18" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C23" s="15" t="s">
+        <v>351</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>352</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>354</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>355</v>
+      </c>
+      <c r="H23" s="15" t="s">
+        <v>356</v>
+      </c>
+      <c r="I23" s="15" t="s">
+        <v>357</v>
+      </c>
+      <c r="J23" s="15" t="s">
+        <v>358</v>
+      </c>
+      <c r="K23" s="15" t="s">
+        <v>359</v>
+      </c>
+      <c r="L23" s="15" t="s">
+        <v>360</v>
+      </c>
+      <c r="M23" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="N23" s="16" t="s">
+        <v>362</v>
+      </c>
+      <c r="O23" s="16" t="s">
+        <v>363</v>
+      </c>
+      <c r="P23" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="Q23" s="16" t="s">
+        <v>364</v>
+      </c>
+      <c r="R23" s="16" t="s">
+        <v>365</v>
+      </c>
+      <c r="S23" s="16" t="s">
+        <v>366</v>
+      </c>
+      <c r="T23" s="16" t="s">
+        <v>367</v>
+      </c>
+      <c r="U23" s="16" t="s">
+        <v>368</v>
+      </c>
+      <c r="V23" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="W23" s="16" t="s">
+        <v>370</v>
+      </c>
+      <c r="X23" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="Y23" s="16" t="s">
+        <v>372</v>
+      </c>
+      <c r="Z23" s="16" t="s">
+        <v>373</v>
+      </c>
+      <c r="AA23" s="16" t="s">
+        <v>374</v>
+      </c>
+      <c r="AB23" s="16" t="s">
+        <v>375</v>
+      </c>
+      <c r="AC23" s="16" t="s">
         <v>350</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="AD23" s="17" t="s">
         <v>351</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>352</v>
-      </c>
-      <c r="F23" s="15" t="s">
-        <v>353</v>
-      </c>
-      <c r="G23" s="15" t="s">
-        <v>354</v>
-      </c>
-      <c r="H23" s="15" t="s">
-        <v>355</v>
-      </c>
-      <c r="I23" s="15" t="s">
-        <v>356</v>
-      </c>
-      <c r="J23" s="15" t="s">
-        <v>357</v>
-      </c>
-      <c r="K23" s="15" t="s">
-        <v>358</v>
-      </c>
-      <c r="L23" s="15" t="s">
-        <v>359</v>
-      </c>
-      <c r="M23" s="16" t="s">
-        <v>360</v>
-      </c>
-      <c r="N23" s="16" t="s">
-        <v>361</v>
-      </c>
-      <c r="O23" s="16" t="s">
-        <v>362</v>
-      </c>
-      <c r="P23" s="16" t="s">
-        <v>360</v>
-      </c>
-      <c r="Q23" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="R23" s="16" t="s">
-        <v>364</v>
-      </c>
-      <c r="S23" s="16" t="s">
-        <v>365</v>
-      </c>
-      <c r="T23" s="16" t="s">
-        <v>366</v>
-      </c>
-      <c r="U23" s="16" t="s">
-        <v>367</v>
-      </c>
-      <c r="V23" s="16" t="s">
-        <v>368</v>
-      </c>
-      <c r="W23" s="16" t="s">
-        <v>369</v>
-      </c>
-      <c r="X23" s="16" t="s">
-        <v>370</v>
-      </c>
-      <c r="Y23" s="16" t="s">
-        <v>371</v>
-      </c>
-      <c r="Z23" s="16" t="s">
-        <v>372</v>
-      </c>
-      <c r="AA23" s="16" t="s">
-        <v>373</v>
-      </c>
-      <c r="AB23" s="16" t="s">
-        <v>374</v>
-      </c>
-      <c r="AC23" s="16" t="s">
-        <v>349</v>
-      </c>
-      <c r="AD23" s="17" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="24" s="19" customFormat="true" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="18" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C24" s="15" t="s">
+        <v>378</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>379</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>380</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>381</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>382</v>
+      </c>
+      <c r="H24" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="I24" s="15" t="s">
+        <v>384</v>
+      </c>
+      <c r="J24" s="15" t="s">
+        <v>385</v>
+      </c>
+      <c r="K24" s="15" t="s">
+        <v>386</v>
+      </c>
+      <c r="L24" s="15" t="s">
+        <v>387</v>
+      </c>
+      <c r="M24" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="N24" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="O24" s="16" t="s">
+        <v>390</v>
+      </c>
+      <c r="P24" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="Q24" s="16" t="s">
+        <v>391</v>
+      </c>
+      <c r="R24" s="16" t="s">
+        <v>392</v>
+      </c>
+      <c r="S24" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="T24" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="U24" s="16" t="s">
+        <v>395</v>
+      </c>
+      <c r="V24" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="W24" s="16" t="s">
+        <v>397</v>
+      </c>
+      <c r="X24" s="16" t="s">
+        <v>398</v>
+      </c>
+      <c r="Y24" s="16" t="s">
+        <v>399</v>
+      </c>
+      <c r="Z24" s="16" t="s">
+        <v>400</v>
+      </c>
+      <c r="AA24" s="16" t="s">
+        <v>401</v>
+      </c>
+      <c r="AB24" s="16" t="s">
+        <v>402</v>
+      </c>
+      <c r="AC24" s="16" t="s">
         <v>377</v>
       </c>
-      <c r="D24" s="15" t="s">
+      <c r="AD24" s="17" t="s">
         <v>378</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>379</v>
-      </c>
-      <c r="F24" s="15" t="s">
-        <v>380</v>
-      </c>
-      <c r="G24" s="15" t="s">
-        <v>381</v>
-      </c>
-      <c r="H24" s="15" t="s">
-        <v>382</v>
-      </c>
-      <c r="I24" s="15" t="s">
-        <v>383</v>
-      </c>
-      <c r="J24" s="15" t="s">
-        <v>384</v>
-      </c>
-      <c r="K24" s="15" t="s">
-        <v>385</v>
-      </c>
-      <c r="L24" s="15" t="s">
-        <v>386</v>
-      </c>
-      <c r="M24" s="16" t="s">
-        <v>387</v>
-      </c>
-      <c r="N24" s="16" t="s">
-        <v>388</v>
-      </c>
-      <c r="O24" s="16" t="s">
-        <v>389</v>
-      </c>
-      <c r="P24" s="16" t="s">
-        <v>387</v>
-      </c>
-      <c r="Q24" s="16" t="s">
-        <v>390</v>
-      </c>
-      <c r="R24" s="16" t="s">
-        <v>391</v>
-      </c>
-      <c r="S24" s="16" t="s">
-        <v>392</v>
-      </c>
-      <c r="T24" s="16" t="s">
-        <v>393</v>
-      </c>
-      <c r="U24" s="16" t="s">
-        <v>394</v>
-      </c>
-      <c r="V24" s="16" t="s">
-        <v>395</v>
-      </c>
-      <c r="W24" s="16" t="s">
-        <v>396</v>
-      </c>
-      <c r="X24" s="16" t="s">
-        <v>397</v>
-      </c>
-      <c r="Y24" s="16" t="s">
-        <v>398</v>
-      </c>
-      <c r="Z24" s="16" t="s">
-        <v>399</v>
-      </c>
-      <c r="AA24" s="16" t="s">
-        <v>400</v>
-      </c>
-      <c r="AB24" s="16" t="s">
-        <v>401</v>
-      </c>
-      <c r="AC24" s="16" t="s">
-        <v>376</v>
-      </c>
-      <c r="AD24" s="17" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="25" s="19" customFormat="true" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="18" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C25" s="15" t="s">
+        <v>405</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>406</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>407</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>408</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>409</v>
+      </c>
+      <c r="H25" s="15" t="s">
+        <v>410</v>
+      </c>
+      <c r="I25" s="15" t="s">
+        <v>411</v>
+      </c>
+      <c r="J25" s="15" t="s">
+        <v>412</v>
+      </c>
+      <c r="K25" s="15" t="s">
+        <v>413</v>
+      </c>
+      <c r="L25" s="15" t="s">
+        <v>414</v>
+      </c>
+      <c r="M25" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="N25" s="16" t="s">
+        <v>416</v>
+      </c>
+      <c r="O25" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="P25" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="Q25" s="16" t="s">
+        <v>418</v>
+      </c>
+      <c r="R25" s="16" t="s">
+        <v>419</v>
+      </c>
+      <c r="S25" s="16" t="s">
+        <v>420</v>
+      </c>
+      <c r="T25" s="16" t="s">
+        <v>421</v>
+      </c>
+      <c r="U25" s="16" t="s">
+        <v>422</v>
+      </c>
+      <c r="V25" s="16" t="s">
+        <v>423</v>
+      </c>
+      <c r="W25" s="16" t="s">
+        <v>424</v>
+      </c>
+      <c r="X25" s="16" t="s">
+        <v>425</v>
+      </c>
+      <c r="Y25" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="Z25" s="16" t="s">
+        <v>427</v>
+      </c>
+      <c r="AA25" s="16" t="s">
+        <v>428</v>
+      </c>
+      <c r="AB25" s="16" t="s">
+        <v>429</v>
+      </c>
+      <c r="AC25" s="16" t="s">
         <v>404</v>
       </c>
-      <c r="D25" s="15" t="s">
+      <c r="AD25" s="17" t="s">
         <v>405</v>
-      </c>
-      <c r="E25" s="15" t="s">
-        <v>406</v>
-      </c>
-      <c r="F25" s="15" t="s">
-        <v>407</v>
-      </c>
-      <c r="G25" s="15" t="s">
-        <v>408</v>
-      </c>
-      <c r="H25" s="15" t="s">
-        <v>409</v>
-      </c>
-      <c r="I25" s="15" t="s">
-        <v>410</v>
-      </c>
-      <c r="J25" s="15" t="s">
-        <v>411</v>
-      </c>
-      <c r="K25" s="15" t="s">
-        <v>412</v>
-      </c>
-      <c r="L25" s="15" t="s">
-        <v>413</v>
-      </c>
-      <c r="M25" s="16" t="s">
-        <v>414</v>
-      </c>
-      <c r="N25" s="16" t="s">
-        <v>415</v>
-      </c>
-      <c r="O25" s="16" t="s">
-        <v>416</v>
-      </c>
-      <c r="P25" s="16" t="s">
-        <v>414</v>
-      </c>
-      <c r="Q25" s="16" t="s">
-        <v>417</v>
-      </c>
-      <c r="R25" s="16" t="s">
-        <v>418</v>
-      </c>
-      <c r="S25" s="16" t="s">
-        <v>419</v>
-      </c>
-      <c r="T25" s="16" t="s">
-        <v>420</v>
-      </c>
-      <c r="U25" s="16" t="s">
-        <v>421</v>
-      </c>
-      <c r="V25" s="16" t="s">
-        <v>422</v>
-      </c>
-      <c r="W25" s="16" t="s">
-        <v>423</v>
-      </c>
-      <c r="X25" s="16" t="s">
-        <v>424</v>
-      </c>
-      <c r="Y25" s="16" t="s">
-        <v>425</v>
-      </c>
-      <c r="Z25" s="16" t="s">
-        <v>426</v>
-      </c>
-      <c r="AA25" s="16" t="s">
-        <v>427</v>
-      </c>
-      <c r="AB25" s="16" t="s">
-        <v>428</v>
-      </c>
-      <c r="AC25" s="16" t="s">
-        <v>403</v>
-      </c>
-      <c r="AD25" s="17" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="26" s="19" customFormat="true" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="18" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C26" s="15" t="s">
+        <v>432</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>433</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>434</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>435</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>436</v>
+      </c>
+      <c r="H26" s="15" t="s">
+        <v>437</v>
+      </c>
+      <c r="I26" s="15" t="s">
+        <v>438</v>
+      </c>
+      <c r="J26" s="15" t="s">
+        <v>439</v>
+      </c>
+      <c r="K26" s="15" t="s">
+        <v>440</v>
+      </c>
+      <c r="L26" s="15" t="s">
+        <v>441</v>
+      </c>
+      <c r="M26" s="16" t="s">
+        <v>442</v>
+      </c>
+      <c r="N26" s="16" t="s">
+        <v>443</v>
+      </c>
+      <c r="O26" s="16" t="s">
+        <v>444</v>
+      </c>
+      <c r="P26" s="16" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q26" s="16" t="s">
+        <v>445</v>
+      </c>
+      <c r="R26" s="16" t="s">
+        <v>446</v>
+      </c>
+      <c r="S26" s="16" t="s">
+        <v>447</v>
+      </c>
+      <c r="T26" s="16" t="s">
+        <v>448</v>
+      </c>
+      <c r="U26" s="16" t="s">
+        <v>449</v>
+      </c>
+      <c r="V26" s="16" t="s">
+        <v>450</v>
+      </c>
+      <c r="W26" s="16" t="s">
+        <v>451</v>
+      </c>
+      <c r="X26" s="16" t="s">
+        <v>452</v>
+      </c>
+      <c r="Y26" s="16" t="s">
+        <v>453</v>
+      </c>
+      <c r="Z26" s="16" t="s">
+        <v>454</v>
+      </c>
+      <c r="AA26" s="16" t="s">
+        <v>455</v>
+      </c>
+      <c r="AB26" s="16" t="s">
+        <v>456</v>
+      </c>
+      <c r="AC26" s="16" t="s">
         <v>431</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="AD26" s="17" t="s">
         <v>432</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>433</v>
-      </c>
-      <c r="F26" s="15" t="s">
-        <v>434</v>
-      </c>
-      <c r="G26" s="15" t="s">
-        <v>435</v>
-      </c>
-      <c r="H26" s="15" t="s">
-        <v>436</v>
-      </c>
-      <c r="I26" s="15" t="s">
-        <v>437</v>
-      </c>
-      <c r="J26" s="15" t="s">
-        <v>438</v>
-      </c>
-      <c r="K26" s="15" t="s">
-        <v>439</v>
-      </c>
-      <c r="L26" s="15" t="s">
-        <v>440</v>
-      </c>
-      <c r="M26" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="N26" s="16" t="s">
-        <v>442</v>
-      </c>
-      <c r="O26" s="16" t="s">
-        <v>443</v>
-      </c>
-      <c r="P26" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="Q26" s="16" t="s">
-        <v>444</v>
-      </c>
-      <c r="R26" s="16" t="s">
-        <v>445</v>
-      </c>
-      <c r="S26" s="16" t="s">
-        <v>446</v>
-      </c>
-      <c r="T26" s="16" t="s">
-        <v>447</v>
-      </c>
-      <c r="U26" s="16" t="s">
-        <v>448</v>
-      </c>
-      <c r="V26" s="16" t="s">
-        <v>449</v>
-      </c>
-      <c r="W26" s="16" t="s">
-        <v>450</v>
-      </c>
-      <c r="X26" s="16" t="s">
-        <v>451</v>
-      </c>
-      <c r="Y26" s="16" t="s">
-        <v>452</v>
-      </c>
-      <c r="Z26" s="16" t="s">
-        <v>453</v>
-      </c>
-      <c r="AA26" s="16" t="s">
-        <v>454</v>
-      </c>
-      <c r="AB26" s="16" t="s">
-        <v>455</v>
-      </c>
-      <c r="AC26" s="16" t="s">
-        <v>430</v>
-      </c>
-      <c r="AD26" s="17" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="27" s="19" customFormat="true" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="18" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C27" s="15" t="s">
+        <v>459</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>460</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>461</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>462</v>
+      </c>
+      <c r="G27" s="15" t="s">
+        <v>463</v>
+      </c>
+      <c r="H27" s="15" t="s">
+        <v>464</v>
+      </c>
+      <c r="I27" s="15" t="s">
+        <v>465</v>
+      </c>
+      <c r="J27" s="15" t="s">
+        <v>466</v>
+      </c>
+      <c r="K27" s="15" t="s">
+        <v>467</v>
+      </c>
+      <c r="L27" s="15" t="s">
+        <v>468</v>
+      </c>
+      <c r="M27" s="16" t="s">
+        <v>469</v>
+      </c>
+      <c r="N27" s="16" t="s">
+        <v>470</v>
+      </c>
+      <c r="O27" s="16" t="s">
+        <v>471</v>
+      </c>
+      <c r="P27" s="16" t="s">
+        <v>469</v>
+      </c>
+      <c r="Q27" s="16" t="s">
+        <v>472</v>
+      </c>
+      <c r="R27" s="16" t="s">
+        <v>473</v>
+      </c>
+      <c r="S27" s="16" t="s">
+        <v>474</v>
+      </c>
+      <c r="T27" s="16" t="s">
+        <v>475</v>
+      </c>
+      <c r="U27" s="16" t="s">
+        <v>476</v>
+      </c>
+      <c r="V27" s="16" t="s">
+        <v>477</v>
+      </c>
+      <c r="W27" s="16" t="s">
+        <v>478</v>
+      </c>
+      <c r="X27" s="16" t="s">
+        <v>479</v>
+      </c>
+      <c r="Y27" s="16" t="s">
+        <v>480</v>
+      </c>
+      <c r="Z27" s="16" t="s">
+        <v>481</v>
+      </c>
+      <c r="AA27" s="16" t="s">
+        <v>482</v>
+      </c>
+      <c r="AB27" s="16" t="s">
+        <v>483</v>
+      </c>
+      <c r="AC27" s="16" t="s">
         <v>458</v>
       </c>
-      <c r="D27" s="15" t="s">
+      <c r="AD27" s="17" t="s">
         <v>459</v>
-      </c>
-      <c r="E27" s="15" t="s">
-        <v>460</v>
-      </c>
-      <c r="F27" s="15" t="s">
-        <v>461</v>
-      </c>
-      <c r="G27" s="15" t="s">
-        <v>462</v>
-      </c>
-      <c r="H27" s="15" t="s">
-        <v>463</v>
-      </c>
-      <c r="I27" s="15" t="s">
-        <v>464</v>
-      </c>
-      <c r="J27" s="15" t="s">
-        <v>465</v>
-      </c>
-      <c r="K27" s="15" t="s">
-        <v>466</v>
-      </c>
-      <c r="L27" s="15" t="s">
-        <v>467</v>
-      </c>
-      <c r="M27" s="16" t="s">
-        <v>468</v>
-      </c>
-      <c r="N27" s="16" t="s">
-        <v>469</v>
-      </c>
-      <c r="O27" s="16" t="s">
-        <v>470</v>
-      </c>
-      <c r="P27" s="16" t="s">
-        <v>468</v>
-      </c>
-      <c r="Q27" s="16" t="s">
-        <v>471</v>
-      </c>
-      <c r="R27" s="16" t="s">
-        <v>472</v>
-      </c>
-      <c r="S27" s="16" t="s">
-        <v>473</v>
-      </c>
-      <c r="T27" s="16" t="s">
-        <v>474</v>
-      </c>
-      <c r="U27" s="16" t="s">
-        <v>475</v>
-      </c>
-      <c r="V27" s="16" t="s">
-        <v>476</v>
-      </c>
-      <c r="W27" s="16" t="s">
-        <v>477</v>
-      </c>
-      <c r="X27" s="16" t="s">
-        <v>478</v>
-      </c>
-      <c r="Y27" s="16" t="s">
-        <v>479</v>
-      </c>
-      <c r="Z27" s="16" t="s">
-        <v>480</v>
-      </c>
-      <c r="AA27" s="16" t="s">
-        <v>481</v>
-      </c>
-      <c r="AB27" s="16" t="s">
-        <v>482</v>
-      </c>
-      <c r="AC27" s="16" t="s">
-        <v>457</v>
-      </c>
-      <c r="AD27" s="17" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="63.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="29" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C28" s="15" t="s">
+        <v>486</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>489</v>
+      </c>
+      <c r="G28" s="15" t="s">
+        <v>490</v>
+      </c>
+      <c r="H28" s="15" t="s">
+        <v>491</v>
+      </c>
+      <c r="I28" s="15" t="s">
+        <v>492</v>
+      </c>
+      <c r="J28" s="15" t="s">
+        <v>493</v>
+      </c>
+      <c r="K28" s="15" t="s">
+        <v>494</v>
+      </c>
+      <c r="L28" s="15" t="s">
+        <v>495</v>
+      </c>
+      <c r="M28" s="16" t="s">
+        <v>496</v>
+      </c>
+      <c r="N28" s="16" t="s">
+        <v>497</v>
+      </c>
+      <c r="O28" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="P28" s="16" t="s">
+        <v>496</v>
+      </c>
+      <c r="Q28" s="16" t="s">
+        <v>499</v>
+      </c>
+      <c r="R28" s="16" t="s">
+        <v>500</v>
+      </c>
+      <c r="S28" s="16" t="s">
+        <v>501</v>
+      </c>
+      <c r="T28" s="16" t="s">
+        <v>502</v>
+      </c>
+      <c r="U28" s="16" t="s">
+        <v>503</v>
+      </c>
+      <c r="V28" s="16" t="s">
+        <v>504</v>
+      </c>
+      <c r="W28" s="16" t="s">
+        <v>505</v>
+      </c>
+      <c r="X28" s="16" t="s">
+        <v>506</v>
+      </c>
+      <c r="Y28" s="16" t="s">
+        <v>507</v>
+      </c>
+      <c r="Z28" s="16" t="s">
+        <v>508</v>
+      </c>
+      <c r="AA28" s="16" t="s">
+        <v>509</v>
+      </c>
+      <c r="AB28" s="16" t="s">
+        <v>510</v>
+      </c>
+      <c r="AC28" s="16" t="s">
         <v>485</v>
       </c>
-      <c r="D28" s="15" t="s">
+      <c r="AD28" s="17" t="s">
         <v>486</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="F28" s="15" t="s">
-        <v>488</v>
-      </c>
-      <c r="G28" s="15" t="s">
-        <v>489</v>
-      </c>
-      <c r="H28" s="15" t="s">
-        <v>490</v>
-      </c>
-      <c r="I28" s="15" t="s">
-        <v>491</v>
-      </c>
-      <c r="J28" s="15" t="s">
-        <v>492</v>
-      </c>
-      <c r="K28" s="15" t="s">
-        <v>493</v>
-      </c>
-      <c r="L28" s="15" t="s">
-        <v>494</v>
-      </c>
-      <c r="M28" s="16" t="s">
-        <v>495</v>
-      </c>
-      <c r="N28" s="16" t="s">
-        <v>496</v>
-      </c>
-      <c r="O28" s="16" t="s">
-        <v>497</v>
-      </c>
-      <c r="P28" s="16" t="s">
-        <v>495</v>
-      </c>
-      <c r="Q28" s="16" t="s">
-        <v>498</v>
-      </c>
-      <c r="R28" s="16" t="s">
-        <v>499</v>
-      </c>
-      <c r="S28" s="16" t="s">
-        <v>500</v>
-      </c>
-      <c r="T28" s="16" t="s">
-        <v>501</v>
-      </c>
-      <c r="U28" s="16" t="s">
-        <v>502</v>
-      </c>
-      <c r="V28" s="16" t="s">
-        <v>503</v>
-      </c>
-      <c r="W28" s="16" t="s">
-        <v>504</v>
-      </c>
-      <c r="X28" s="16" t="s">
-        <v>505</v>
-      </c>
-      <c r="Y28" s="16" t="s">
-        <v>506</v>
-      </c>
-      <c r="Z28" s="16" t="s">
-        <v>507</v>
-      </c>
-      <c r="AA28" s="16" t="s">
-        <v>508</v>
-      </c>
-      <c r="AB28" s="16" t="s">
-        <v>509</v>
-      </c>
-      <c r="AC28" s="16" t="s">
-        <v>484</v>
-      </c>
-      <c r="AD28" s="17" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="58.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="29" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C29" s="15" t="s">
+        <v>513</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>514</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>515</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>516</v>
+      </c>
+      <c r="G29" s="15" t="s">
+        <v>517</v>
+      </c>
+      <c r="H29" s="15" t="s">
+        <v>518</v>
+      </c>
+      <c r="I29" s="15" t="s">
+        <v>519</v>
+      </c>
+      <c r="J29" s="15" t="s">
+        <v>520</v>
+      </c>
+      <c r="K29" s="15" t="s">
+        <v>521</v>
+      </c>
+      <c r="L29" s="15" t="s">
+        <v>522</v>
+      </c>
+      <c r="M29" s="16" t="s">
+        <v>523</v>
+      </c>
+      <c r="N29" s="16" t="s">
+        <v>524</v>
+      </c>
+      <c r="O29" s="16" t="s">
+        <v>525</v>
+      </c>
+      <c r="P29" s="16" t="s">
+        <v>523</v>
+      </c>
+      <c r="Q29" s="16" t="s">
+        <v>526</v>
+      </c>
+      <c r="R29" s="16" t="s">
+        <v>527</v>
+      </c>
+      <c r="S29" s="16" t="s">
+        <v>528</v>
+      </c>
+      <c r="T29" s="16" t="s">
+        <v>529</v>
+      </c>
+      <c r="U29" s="16" t="s">
+        <v>530</v>
+      </c>
+      <c r="V29" s="16" t="s">
+        <v>531</v>
+      </c>
+      <c r="W29" s="16" t="s">
+        <v>532</v>
+      </c>
+      <c r="X29" s="16" t="s">
+        <v>533</v>
+      </c>
+      <c r="Y29" s="16" t="s">
+        <v>534</v>
+      </c>
+      <c r="Z29" s="16" t="s">
+        <v>535</v>
+      </c>
+      <c r="AA29" s="16" t="s">
+        <v>536</v>
+      </c>
+      <c r="AB29" s="16" t="s">
+        <v>537</v>
+      </c>
+      <c r="AC29" s="16" t="s">
         <v>512</v>
       </c>
-      <c r="D29" s="15" t="s">
+      <c r="AD29" s="17" t="s">
         <v>513</v>
-      </c>
-      <c r="E29" s="15" t="s">
-        <v>514</v>
-      </c>
-      <c r="F29" s="15" t="s">
-        <v>515</v>
-      </c>
-      <c r="G29" s="15" t="s">
-        <v>516</v>
-      </c>
-      <c r="H29" s="15" t="s">
-        <v>517</v>
-      </c>
-      <c r="I29" s="15" t="s">
-        <v>518</v>
-      </c>
-      <c r="J29" s="15" t="s">
-        <v>519</v>
-      </c>
-      <c r="K29" s="15" t="s">
-        <v>520</v>
-      </c>
-      <c r="L29" s="15" t="s">
-        <v>521</v>
-      </c>
-      <c r="M29" s="16" t="s">
-        <v>522</v>
-      </c>
-      <c r="N29" s="16" t="s">
-        <v>523</v>
-      </c>
-      <c r="O29" s="16" t="s">
-        <v>524</v>
-      </c>
-      <c r="P29" s="16" t="s">
-        <v>522</v>
-      </c>
-      <c r="Q29" s="16" t="s">
-        <v>525</v>
-      </c>
-      <c r="R29" s="16" t="s">
-        <v>526</v>
-      </c>
-      <c r="S29" s="16" t="s">
-        <v>527</v>
-      </c>
-      <c r="T29" s="16" t="s">
-        <v>528</v>
-      </c>
-      <c r="U29" s="16" t="s">
-        <v>529</v>
-      </c>
-      <c r="V29" s="16" t="s">
-        <v>530</v>
-      </c>
-      <c r="W29" s="16" t="s">
-        <v>531</v>
-      </c>
-      <c r="X29" s="16" t="s">
-        <v>532</v>
-      </c>
-      <c r="Y29" s="16" t="s">
-        <v>533</v>
-      </c>
-      <c r="Z29" s="16" t="s">
-        <v>534</v>
-      </c>
-      <c r="AA29" s="16" t="s">
-        <v>535</v>
-      </c>
-      <c r="AB29" s="16" t="s">
-        <v>536</v>
-      </c>
-      <c r="AC29" s="16" t="s">
-        <v>511</v>
-      </c>
-      <c r="AD29" s="17" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="65.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="29" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C30" s="15" t="s">
+        <v>540</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>541</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>542</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>543</v>
+      </c>
+      <c r="G30" s="15" t="s">
+        <v>544</v>
+      </c>
+      <c r="H30" s="15" t="s">
+        <v>545</v>
+      </c>
+      <c r="I30" s="15" t="s">
+        <v>546</v>
+      </c>
+      <c r="J30" s="15" t="s">
+        <v>547</v>
+      </c>
+      <c r="K30" s="15" t="s">
+        <v>548</v>
+      </c>
+      <c r="L30" s="15" t="s">
+        <v>549</v>
+      </c>
+      <c r="M30" s="16" t="s">
+        <v>550</v>
+      </c>
+      <c r="N30" s="16" t="s">
+        <v>551</v>
+      </c>
+      <c r="O30" s="16" t="s">
+        <v>552</v>
+      </c>
+      <c r="P30" s="16" t="s">
+        <v>550</v>
+      </c>
+      <c r="Q30" s="16" t="s">
+        <v>553</v>
+      </c>
+      <c r="R30" s="16" t="s">
+        <v>554</v>
+      </c>
+      <c r="S30" s="16" t="s">
+        <v>555</v>
+      </c>
+      <c r="T30" s="16" t="s">
+        <v>556</v>
+      </c>
+      <c r="U30" s="16" t="s">
+        <v>557</v>
+      </c>
+      <c r="V30" s="16" t="s">
+        <v>558</v>
+      </c>
+      <c r="W30" s="16" t="s">
+        <v>559</v>
+      </c>
+      <c r="X30" s="16" t="s">
+        <v>560</v>
+      </c>
+      <c r="Y30" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="Z30" s="16" t="s">
+        <v>562</v>
+      </c>
+      <c r="AA30" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="AB30" s="16" t="s">
+        <v>564</v>
+      </c>
+      <c r="AC30" s="16" t="s">
         <v>539</v>
       </c>
-      <c r="D30" s="15" t="s">
+      <c r="AD30" s="17" t="s">
         <v>540</v>
-      </c>
-      <c r="E30" s="15" t="s">
-        <v>541</v>
-      </c>
-      <c r="F30" s="15" t="s">
-        <v>542</v>
-      </c>
-      <c r="G30" s="15" t="s">
-        <v>543</v>
-      </c>
-      <c r="H30" s="15" t="s">
-        <v>544</v>
-      </c>
-      <c r="I30" s="15" t="s">
-        <v>545</v>
-      </c>
-      <c r="J30" s="15" t="s">
-        <v>546</v>
-      </c>
-      <c r="K30" s="15" t="s">
-        <v>547</v>
-      </c>
-      <c r="L30" s="15" t="s">
-        <v>548</v>
-      </c>
-      <c r="M30" s="16" t="s">
-        <v>549</v>
-      </c>
-      <c r="N30" s="16" t="s">
-        <v>550</v>
-      </c>
-      <c r="O30" s="16" t="s">
-        <v>551</v>
-      </c>
-      <c r="P30" s="16" t="s">
-        <v>549</v>
-      </c>
-      <c r="Q30" s="16" t="s">
-        <v>552</v>
-      </c>
-      <c r="R30" s="16" t="s">
-        <v>553</v>
-      </c>
-      <c r="S30" s="16" t="s">
-        <v>554</v>
-      </c>
-      <c r="T30" s="16" t="s">
-        <v>555</v>
-      </c>
-      <c r="U30" s="16" t="s">
-        <v>556</v>
-      </c>
-      <c r="V30" s="16" t="s">
-        <v>557</v>
-      </c>
-      <c r="W30" s="16" t="s">
-        <v>558</v>
-      </c>
-      <c r="X30" s="16" t="s">
-        <v>559</v>
-      </c>
-      <c r="Y30" s="16" t="s">
-        <v>560</v>
-      </c>
-      <c r="Z30" s="16" t="s">
-        <v>561</v>
-      </c>
-      <c r="AA30" s="16" t="s">
-        <v>562</v>
-      </c>
-      <c r="AB30" s="16" t="s">
-        <v>563</v>
-      </c>
-      <c r="AC30" s="16" t="s">
-        <v>538</v>
-      </c>
-      <c r="AD30" s="17" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="70.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="30" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B31" s="15"/>
       <c r="C31" s="15"/>
@@ -5422,738 +5427,738 @@
     </row>
     <row r="32" customFormat="false" ht="52.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="30" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C32" s="15" t="s">
+        <v>568</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>569</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>570</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>571</v>
+      </c>
+      <c r="G32" s="15" t="s">
+        <v>572</v>
+      </c>
+      <c r="H32" s="15" t="s">
+        <v>573</v>
+      </c>
+      <c r="I32" s="15" t="s">
+        <v>574</v>
+      </c>
+      <c r="J32" s="15" t="s">
+        <v>575</v>
+      </c>
+      <c r="K32" s="15" t="s">
+        <v>576</v>
+      </c>
+      <c r="L32" s="15" t="s">
+        <v>577</v>
+      </c>
+      <c r="M32" s="16" t="s">
+        <v>578</v>
+      </c>
+      <c r="N32" s="16" t="s">
+        <v>579</v>
+      </c>
+      <c r="O32" s="16" t="s">
+        <v>580</v>
+      </c>
+      <c r="P32" s="16" t="s">
+        <v>578</v>
+      </c>
+      <c r="Q32" s="16" t="s">
+        <v>581</v>
+      </c>
+      <c r="R32" s="16" t="s">
+        <v>582</v>
+      </c>
+      <c r="S32" s="16" t="s">
+        <v>583</v>
+      </c>
+      <c r="T32" s="16" t="s">
+        <v>584</v>
+      </c>
+      <c r="U32" s="16" t="s">
+        <v>585</v>
+      </c>
+      <c r="V32" s="16" t="s">
+        <v>586</v>
+      </c>
+      <c r="W32" s="16" t="s">
+        <v>587</v>
+      </c>
+      <c r="X32" s="16" t="s">
+        <v>588</v>
+      </c>
+      <c r="Y32" s="16" t="s">
+        <v>589</v>
+      </c>
+      <c r="Z32" s="16" t="s">
+        <v>590</v>
+      </c>
+      <c r="AA32" s="16" t="s">
+        <v>591</v>
+      </c>
+      <c r="AB32" s="16" t="s">
+        <v>592</v>
+      </c>
+      <c r="AC32" s="16" t="s">
         <v>567</v>
       </c>
-      <c r="D32" s="15" t="s">
+      <c r="AD32" s="17" t="s">
         <v>568</v>
-      </c>
-      <c r="E32" s="15" t="s">
-        <v>569</v>
-      </c>
-      <c r="F32" s="15" t="s">
-        <v>570</v>
-      </c>
-      <c r="G32" s="15" t="s">
-        <v>571</v>
-      </c>
-      <c r="H32" s="15" t="s">
-        <v>572</v>
-      </c>
-      <c r="I32" s="15" t="s">
-        <v>573</v>
-      </c>
-      <c r="J32" s="15" t="s">
-        <v>574</v>
-      </c>
-      <c r="K32" s="15" t="s">
-        <v>575</v>
-      </c>
-      <c r="L32" s="15" t="s">
-        <v>576</v>
-      </c>
-      <c r="M32" s="16" t="s">
-        <v>577</v>
-      </c>
-      <c r="N32" s="16" t="s">
-        <v>578</v>
-      </c>
-      <c r="O32" s="16" t="s">
-        <v>579</v>
-      </c>
-      <c r="P32" s="16" t="s">
-        <v>577</v>
-      </c>
-      <c r="Q32" s="16" t="s">
-        <v>580</v>
-      </c>
-      <c r="R32" s="16" t="s">
-        <v>581</v>
-      </c>
-      <c r="S32" s="16" t="s">
-        <v>582</v>
-      </c>
-      <c r="T32" s="16" t="s">
-        <v>583</v>
-      </c>
-      <c r="U32" s="16" t="s">
-        <v>584</v>
-      </c>
-      <c r="V32" s="16" t="s">
-        <v>585</v>
-      </c>
-      <c r="W32" s="16" t="s">
-        <v>586</v>
-      </c>
-      <c r="X32" s="16" t="s">
-        <v>587</v>
-      </c>
-      <c r="Y32" s="16" t="s">
-        <v>588</v>
-      </c>
-      <c r="Z32" s="16" t="s">
-        <v>589</v>
-      </c>
-      <c r="AA32" s="16" t="s">
-        <v>590</v>
-      </c>
-      <c r="AB32" s="16" t="s">
-        <v>591</v>
-      </c>
-      <c r="AC32" s="16" t="s">
-        <v>566</v>
-      </c>
-      <c r="AD32" s="17" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="59.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="30" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C33" s="15" t="s">
+        <v>595</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>596</v>
+      </c>
+      <c r="E33" s="15" t="s">
+        <v>597</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>598</v>
+      </c>
+      <c r="G33" s="15" t="s">
+        <v>599</v>
+      </c>
+      <c r="H33" s="15" t="s">
+        <v>600</v>
+      </c>
+      <c r="I33" s="15" t="s">
+        <v>601</v>
+      </c>
+      <c r="J33" s="15" t="s">
+        <v>602</v>
+      </c>
+      <c r="K33" s="15" t="s">
+        <v>603</v>
+      </c>
+      <c r="L33" s="15" t="s">
+        <v>604</v>
+      </c>
+      <c r="M33" s="16" t="s">
+        <v>605</v>
+      </c>
+      <c r="N33" s="16" t="s">
+        <v>606</v>
+      </c>
+      <c r="O33" s="16" t="s">
+        <v>607</v>
+      </c>
+      <c r="P33" s="16" t="s">
+        <v>605</v>
+      </c>
+      <c r="Q33" s="16" t="s">
+        <v>608</v>
+      </c>
+      <c r="R33" s="16" t="s">
+        <v>609</v>
+      </c>
+      <c r="S33" s="16" t="s">
+        <v>610</v>
+      </c>
+      <c r="T33" s="16" t="s">
+        <v>611</v>
+      </c>
+      <c r="U33" s="16" t="s">
+        <v>612</v>
+      </c>
+      <c r="V33" s="16" t="s">
+        <v>613</v>
+      </c>
+      <c r="W33" s="16" t="s">
+        <v>614</v>
+      </c>
+      <c r="X33" s="16" t="s">
+        <v>615</v>
+      </c>
+      <c r="Y33" s="16" t="s">
+        <v>616</v>
+      </c>
+      <c r="Z33" s="16" t="s">
+        <v>617</v>
+      </c>
+      <c r="AA33" s="16" t="s">
+        <v>618</v>
+      </c>
+      <c r="AB33" s="16" t="s">
+        <v>619</v>
+      </c>
+      <c r="AC33" s="16" t="s">
         <v>594</v>
       </c>
-      <c r="D33" s="15" t="s">
+      <c r="AD33" s="17" t="s">
         <v>595</v>
-      </c>
-      <c r="E33" s="15" t="s">
-        <v>596</v>
-      </c>
-      <c r="F33" s="15" t="s">
-        <v>597</v>
-      </c>
-      <c r="G33" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="H33" s="15" t="s">
-        <v>599</v>
-      </c>
-      <c r="I33" s="15" t="s">
-        <v>600</v>
-      </c>
-      <c r="J33" s="15" t="s">
-        <v>601</v>
-      </c>
-      <c r="K33" s="15" t="s">
-        <v>602</v>
-      </c>
-      <c r="L33" s="15" t="s">
-        <v>603</v>
-      </c>
-      <c r="M33" s="16" t="s">
-        <v>604</v>
-      </c>
-      <c r="N33" s="16" t="s">
-        <v>605</v>
-      </c>
-      <c r="O33" s="16" t="s">
-        <v>606</v>
-      </c>
-      <c r="P33" s="16" t="s">
-        <v>604</v>
-      </c>
-      <c r="Q33" s="16" t="s">
-        <v>607</v>
-      </c>
-      <c r="R33" s="16" t="s">
-        <v>608</v>
-      </c>
-      <c r="S33" s="16" t="s">
-        <v>609</v>
-      </c>
-      <c r="T33" s="16" t="s">
-        <v>610</v>
-      </c>
-      <c r="U33" s="16" t="s">
-        <v>611</v>
-      </c>
-      <c r="V33" s="16" t="s">
-        <v>612</v>
-      </c>
-      <c r="W33" s="16" t="s">
-        <v>613</v>
-      </c>
-      <c r="X33" s="16" t="s">
-        <v>614</v>
-      </c>
-      <c r="Y33" s="16" t="s">
-        <v>615</v>
-      </c>
-      <c r="Z33" s="16" t="s">
-        <v>616</v>
-      </c>
-      <c r="AA33" s="16" t="s">
-        <v>617</v>
-      </c>
-      <c r="AB33" s="16" t="s">
-        <v>618</v>
-      </c>
-      <c r="AC33" s="16" t="s">
-        <v>593</v>
-      </c>
-      <c r="AD33" s="17" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="54.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="25" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C34" s="26" t="s">
+        <v>622</v>
+      </c>
+      <c r="D34" s="26" t="s">
+        <v>623</v>
+      </c>
+      <c r="E34" s="26" t="s">
+        <v>624</v>
+      </c>
+      <c r="F34" s="26" t="s">
+        <v>625</v>
+      </c>
+      <c r="G34" s="26" t="s">
+        <v>626</v>
+      </c>
+      <c r="H34" s="26" t="s">
+        <v>627</v>
+      </c>
+      <c r="I34" s="26" t="s">
+        <v>628</v>
+      </c>
+      <c r="J34" s="26" t="s">
+        <v>629</v>
+      </c>
+      <c r="K34" s="26" t="s">
+        <v>630</v>
+      </c>
+      <c r="L34" s="26" t="s">
+        <v>631</v>
+      </c>
+      <c r="M34" s="27" t="s">
+        <v>632</v>
+      </c>
+      <c r="N34" s="27" t="s">
+        <v>633</v>
+      </c>
+      <c r="O34" s="27" t="s">
+        <v>634</v>
+      </c>
+      <c r="P34" s="27" t="s">
+        <v>632</v>
+      </c>
+      <c r="Q34" s="27" t="s">
+        <v>635</v>
+      </c>
+      <c r="R34" s="27" t="s">
+        <v>636</v>
+      </c>
+      <c r="S34" s="27" t="s">
+        <v>637</v>
+      </c>
+      <c r="T34" s="27" t="s">
+        <v>638</v>
+      </c>
+      <c r="U34" s="27" t="s">
+        <v>639</v>
+      </c>
+      <c r="V34" s="27" t="s">
+        <v>640</v>
+      </c>
+      <c r="W34" s="27" t="s">
+        <v>641</v>
+      </c>
+      <c r="X34" s="27" t="s">
+        <v>642</v>
+      </c>
+      <c r="Y34" s="27" t="s">
+        <v>643</v>
+      </c>
+      <c r="Z34" s="27" t="s">
+        <v>644</v>
+      </c>
+      <c r="AA34" s="27" t="s">
+        <v>645</v>
+      </c>
+      <c r="AB34" s="27" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC34" s="27" t="s">
         <v>621</v>
       </c>
-      <c r="D34" s="26" t="s">
+      <c r="AD34" s="28" t="s">
         <v>622</v>
-      </c>
-      <c r="E34" s="26" t="s">
-        <v>623</v>
-      </c>
-      <c r="F34" s="26" t="s">
-        <v>624</v>
-      </c>
-      <c r="G34" s="26" t="s">
-        <v>625</v>
-      </c>
-      <c r="H34" s="26" t="s">
-        <v>626</v>
-      </c>
-      <c r="I34" s="26" t="s">
-        <v>627</v>
-      </c>
-      <c r="J34" s="26" t="s">
-        <v>628</v>
-      </c>
-      <c r="K34" s="26" t="s">
-        <v>629</v>
-      </c>
-      <c r="L34" s="26" t="s">
-        <v>630</v>
-      </c>
-      <c r="M34" s="27" t="s">
-        <v>631</v>
-      </c>
-      <c r="N34" s="27" t="s">
-        <v>632</v>
-      </c>
-      <c r="O34" s="27" t="s">
-        <v>633</v>
-      </c>
-      <c r="P34" s="27" t="s">
-        <v>631</v>
-      </c>
-      <c r="Q34" s="27" t="s">
-        <v>634</v>
-      </c>
-      <c r="R34" s="27" t="s">
-        <v>635</v>
-      </c>
-      <c r="S34" s="27" t="s">
-        <v>636</v>
-      </c>
-      <c r="T34" s="27" t="s">
-        <v>637</v>
-      </c>
-      <c r="U34" s="27" t="s">
-        <v>638</v>
-      </c>
-      <c r="V34" s="27" t="s">
-        <v>639</v>
-      </c>
-      <c r="W34" s="27" t="s">
-        <v>640</v>
-      </c>
-      <c r="X34" s="27" t="s">
-        <v>641</v>
-      </c>
-      <c r="Y34" s="27" t="s">
-        <v>642</v>
-      </c>
-      <c r="Z34" s="27" t="s">
-        <v>643</v>
-      </c>
-      <c r="AA34" s="27" t="s">
-        <v>644</v>
-      </c>
-      <c r="AB34" s="27" t="s">
-        <v>645</v>
-      </c>
-      <c r="AC34" s="27" t="s">
-        <v>620</v>
-      </c>
-      <c r="AD34" s="28" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="18" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="C35" s="15" t="s">
+        <v>649</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>650</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>651</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>652</v>
+      </c>
+      <c r="G35" s="15" t="s">
+        <v>653</v>
+      </c>
+      <c r="H35" s="15" t="s">
+        <v>654</v>
+      </c>
+      <c r="I35" s="15" t="s">
+        <v>655</v>
+      </c>
+      <c r="J35" s="15" t="s">
+        <v>656</v>
+      </c>
+      <c r="K35" s="15" t="s">
+        <v>657</v>
+      </c>
+      <c r="L35" s="15" t="s">
+        <v>658</v>
+      </c>
+      <c r="M35" s="16" t="s">
+        <v>659</v>
+      </c>
+      <c r="N35" s="16" t="s">
+        <v>660</v>
+      </c>
+      <c r="O35" s="16" t="s">
+        <v>661</v>
+      </c>
+      <c r="P35" s="16" t="s">
+        <v>659</v>
+      </c>
+      <c r="Q35" s="16" t="s">
+        <v>662</v>
+      </c>
+      <c r="R35" s="16" t="s">
+        <v>663</v>
+      </c>
+      <c r="S35" s="16" t="s">
+        <v>664</v>
+      </c>
+      <c r="T35" s="16" t="s">
+        <v>665</v>
+      </c>
+      <c r="U35" s="16" t="s">
+        <v>666</v>
+      </c>
+      <c r="V35" s="16" t="s">
+        <v>667</v>
+      </c>
+      <c r="W35" s="16" t="s">
+        <v>668</v>
+      </c>
+      <c r="X35" s="16" t="s">
+        <v>669</v>
+      </c>
+      <c r="Y35" s="16" t="s">
+        <v>670</v>
+      </c>
+      <c r="Z35" s="16" t="s">
+        <v>671</v>
+      </c>
+      <c r="AA35" s="16" t="s">
+        <v>672</v>
+      </c>
+      <c r="AB35" s="16" t="s">
+        <v>673</v>
+      </c>
+      <c r="AC35" s="16" t="s">
         <v>648</v>
       </c>
-      <c r="D35" s="15" t="s">
+      <c r="AD35" s="17" t="s">
         <v>649</v>
-      </c>
-      <c r="E35" s="15" t="s">
-        <v>650</v>
-      </c>
-      <c r="F35" s="15" t="s">
-        <v>651</v>
-      </c>
-      <c r="G35" s="15" t="s">
-        <v>652</v>
-      </c>
-      <c r="H35" s="15" t="s">
-        <v>653</v>
-      </c>
-      <c r="I35" s="15" t="s">
-        <v>654</v>
-      </c>
-      <c r="J35" s="15" t="s">
-        <v>655</v>
-      </c>
-      <c r="K35" s="15" t="s">
-        <v>656</v>
-      </c>
-      <c r="L35" s="15" t="s">
-        <v>657</v>
-      </c>
-      <c r="M35" s="16" t="s">
-        <v>658</v>
-      </c>
-      <c r="N35" s="16" t="s">
-        <v>659</v>
-      </c>
-      <c r="O35" s="16" t="s">
-        <v>660</v>
-      </c>
-      <c r="P35" s="16" t="s">
-        <v>658</v>
-      </c>
-      <c r="Q35" s="16" t="s">
-        <v>661</v>
-      </c>
-      <c r="R35" s="16" t="s">
-        <v>662</v>
-      </c>
-      <c r="S35" s="16" t="s">
-        <v>663</v>
-      </c>
-      <c r="T35" s="16" t="s">
-        <v>664</v>
-      </c>
-      <c r="U35" s="16" t="s">
-        <v>665</v>
-      </c>
-      <c r="V35" s="16" t="s">
-        <v>666</v>
-      </c>
-      <c r="W35" s="16" t="s">
-        <v>667</v>
-      </c>
-      <c r="X35" s="16" t="s">
-        <v>668</v>
-      </c>
-      <c r="Y35" s="16" t="s">
-        <v>669</v>
-      </c>
-      <c r="Z35" s="16" t="s">
-        <v>670</v>
-      </c>
-      <c r="AA35" s="16" t="s">
-        <v>671</v>
-      </c>
-      <c r="AB35" s="16" t="s">
-        <v>672</v>
-      </c>
-      <c r="AC35" s="16" t="s">
-        <v>647</v>
-      </c>
-      <c r="AD35" s="17" t="s">
-        <v>648</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="53.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="18" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C36" s="15" t="s">
+        <v>676</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>677</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>678</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>679</v>
+      </c>
+      <c r="G36" s="15" t="s">
+        <v>680</v>
+      </c>
+      <c r="H36" s="15" t="s">
+        <v>681</v>
+      </c>
+      <c r="I36" s="15" t="s">
+        <v>682</v>
+      </c>
+      <c r="J36" s="15" t="s">
+        <v>683</v>
+      </c>
+      <c r="K36" s="15" t="s">
+        <v>684</v>
+      </c>
+      <c r="L36" s="15" t="s">
+        <v>685</v>
+      </c>
+      <c r="M36" s="16" t="s">
+        <v>686</v>
+      </c>
+      <c r="N36" s="16" t="s">
+        <v>687</v>
+      </c>
+      <c r="O36" s="16" t="s">
+        <v>688</v>
+      </c>
+      <c r="P36" s="16" t="s">
+        <v>686</v>
+      </c>
+      <c r="Q36" s="16" t="s">
+        <v>689</v>
+      </c>
+      <c r="R36" s="16" t="s">
+        <v>690</v>
+      </c>
+      <c r="S36" s="16" t="s">
+        <v>691</v>
+      </c>
+      <c r="T36" s="16" t="s">
+        <v>692</v>
+      </c>
+      <c r="U36" s="16" t="s">
+        <v>693</v>
+      </c>
+      <c r="V36" s="16" t="s">
+        <v>694</v>
+      </c>
+      <c r="W36" s="16" t="s">
+        <v>695</v>
+      </c>
+      <c r="X36" s="16" t="s">
+        <v>696</v>
+      </c>
+      <c r="Y36" s="16" t="s">
+        <v>697</v>
+      </c>
+      <c r="Z36" s="16" t="s">
+        <v>698</v>
+      </c>
+      <c r="AA36" s="16" t="s">
+        <v>699</v>
+      </c>
+      <c r="AB36" s="16" t="s">
+        <v>700</v>
+      </c>
+      <c r="AC36" s="16" t="s">
         <v>675</v>
       </c>
-      <c r="D36" s="15" t="s">
+      <c r="AD36" s="17" t="s">
         <v>676</v>
-      </c>
-      <c r="E36" s="15" t="s">
-        <v>677</v>
-      </c>
-      <c r="F36" s="15" t="s">
-        <v>678</v>
-      </c>
-      <c r="G36" s="15" t="s">
-        <v>679</v>
-      </c>
-      <c r="H36" s="15" t="s">
-        <v>680</v>
-      </c>
-      <c r="I36" s="15" t="s">
-        <v>681</v>
-      </c>
-      <c r="J36" s="15" t="s">
-        <v>682</v>
-      </c>
-      <c r="K36" s="15" t="s">
-        <v>683</v>
-      </c>
-      <c r="L36" s="15" t="s">
-        <v>684</v>
-      </c>
-      <c r="M36" s="16" t="s">
-        <v>685</v>
-      </c>
-      <c r="N36" s="16" t="s">
-        <v>686</v>
-      </c>
-      <c r="O36" s="16" t="s">
-        <v>687</v>
-      </c>
-      <c r="P36" s="16" t="s">
-        <v>685</v>
-      </c>
-      <c r="Q36" s="16" t="s">
-        <v>688</v>
-      </c>
-      <c r="R36" s="16" t="s">
-        <v>689</v>
-      </c>
-      <c r="S36" s="16" t="s">
-        <v>690</v>
-      </c>
-      <c r="T36" s="16" t="s">
-        <v>691</v>
-      </c>
-      <c r="U36" s="16" t="s">
-        <v>692</v>
-      </c>
-      <c r="V36" s="16" t="s">
-        <v>693</v>
-      </c>
-      <c r="W36" s="16" t="s">
-        <v>694</v>
-      </c>
-      <c r="X36" s="16" t="s">
-        <v>695</v>
-      </c>
-      <c r="Y36" s="16" t="s">
-        <v>696</v>
-      </c>
-      <c r="Z36" s="16" t="s">
-        <v>697</v>
-      </c>
-      <c r="AA36" s="16" t="s">
-        <v>698</v>
-      </c>
-      <c r="AB36" s="16" t="s">
-        <v>699</v>
-      </c>
-      <c r="AC36" s="16" t="s">
-        <v>674</v>
-      </c>
-      <c r="AD36" s="17" t="s">
-        <v>675</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="47" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="18" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="C37" s="15" t="s">
+        <v>703</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>704</v>
+      </c>
+      <c r="E37" s="15" t="s">
+        <v>705</v>
+      </c>
+      <c r="F37" s="15" t="s">
+        <v>706</v>
+      </c>
+      <c r="G37" s="15" t="s">
+        <v>707</v>
+      </c>
+      <c r="H37" s="15" t="s">
+        <v>708</v>
+      </c>
+      <c r="I37" s="15" t="s">
+        <v>709</v>
+      </c>
+      <c r="J37" s="15" t="s">
+        <v>710</v>
+      </c>
+      <c r="K37" s="15" t="s">
+        <v>711</v>
+      </c>
+      <c r="L37" s="15" t="s">
+        <v>712</v>
+      </c>
+      <c r="M37" s="16" t="s">
+        <v>713</v>
+      </c>
+      <c r="N37" s="16" t="s">
+        <v>714</v>
+      </c>
+      <c r="O37" s="16" t="s">
+        <v>715</v>
+      </c>
+      <c r="P37" s="16" t="s">
+        <v>713</v>
+      </c>
+      <c r="Q37" s="16" t="s">
+        <v>716</v>
+      </c>
+      <c r="R37" s="16" t="s">
+        <v>717</v>
+      </c>
+      <c r="S37" s="16" t="s">
+        <v>718</v>
+      </c>
+      <c r="T37" s="16" t="s">
+        <v>719</v>
+      </c>
+      <c r="U37" s="16" t="s">
+        <v>720</v>
+      </c>
+      <c r="V37" s="16" t="s">
+        <v>721</v>
+      </c>
+      <c r="W37" s="16" t="s">
+        <v>722</v>
+      </c>
+      <c r="X37" s="16" t="s">
+        <v>723</v>
+      </c>
+      <c r="Y37" s="16" t="s">
+        <v>724</v>
+      </c>
+      <c r="Z37" s="16" t="s">
+        <v>725</v>
+      </c>
+      <c r="AA37" s="16" t="s">
+        <v>726</v>
+      </c>
+      <c r="AB37" s="16" t="s">
+        <v>727</v>
+      </c>
+      <c r="AC37" s="16" t="s">
         <v>702</v>
       </c>
-      <c r="D37" s="15" t="s">
+      <c r="AD37" s="17" t="s">
         <v>703</v>
-      </c>
-      <c r="E37" s="15" t="s">
-        <v>704</v>
-      </c>
-      <c r="F37" s="15" t="s">
-        <v>705</v>
-      </c>
-      <c r="G37" s="15" t="s">
-        <v>706</v>
-      </c>
-      <c r="H37" s="15" t="s">
-        <v>707</v>
-      </c>
-      <c r="I37" s="15" t="s">
-        <v>708</v>
-      </c>
-      <c r="J37" s="15" t="s">
-        <v>709</v>
-      </c>
-      <c r="K37" s="15" t="s">
-        <v>710</v>
-      </c>
-      <c r="L37" s="15" t="s">
-        <v>711</v>
-      </c>
-      <c r="M37" s="16" t="s">
-        <v>712</v>
-      </c>
-      <c r="N37" s="16" t="s">
-        <v>713</v>
-      </c>
-      <c r="O37" s="16" t="s">
-        <v>714</v>
-      </c>
-      <c r="P37" s="16" t="s">
-        <v>712</v>
-      </c>
-      <c r="Q37" s="16" t="s">
-        <v>715</v>
-      </c>
-      <c r="R37" s="16" t="s">
-        <v>716</v>
-      </c>
-      <c r="S37" s="16" t="s">
-        <v>717</v>
-      </c>
-      <c r="T37" s="16" t="s">
-        <v>718</v>
-      </c>
-      <c r="U37" s="16" t="s">
-        <v>719</v>
-      </c>
-      <c r="V37" s="16" t="s">
-        <v>720</v>
-      </c>
-      <c r="W37" s="16" t="s">
-        <v>721</v>
-      </c>
-      <c r="X37" s="16" t="s">
-        <v>722</v>
-      </c>
-      <c r="Y37" s="16" t="s">
-        <v>723</v>
-      </c>
-      <c r="Z37" s="16" t="s">
-        <v>724</v>
-      </c>
-      <c r="AA37" s="16" t="s">
-        <v>725</v>
-      </c>
-      <c r="AB37" s="16" t="s">
-        <v>726</v>
-      </c>
-      <c r="AC37" s="16" t="s">
-        <v>701</v>
-      </c>
-      <c r="AD37" s="17" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="14" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="C38" s="15" t="s">
+        <v>730</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>731</v>
+      </c>
+      <c r="E38" s="15" t="s">
+        <v>732</v>
+      </c>
+      <c r="F38" s="15" t="s">
+        <v>733</v>
+      </c>
+      <c r="G38" s="15" t="s">
+        <v>734</v>
+      </c>
+      <c r="H38" s="15" t="s">
+        <v>735</v>
+      </c>
+      <c r="I38" s="15" t="s">
+        <v>736</v>
+      </c>
+      <c r="J38" s="15" t="s">
+        <v>737</v>
+      </c>
+      <c r="K38" s="15" t="s">
+        <v>738</v>
+      </c>
+      <c r="L38" s="15" t="s">
+        <v>739</v>
+      </c>
+      <c r="M38" s="16" t="s">
+        <v>740</v>
+      </c>
+      <c r="N38" s="16" t="s">
+        <v>741</v>
+      </c>
+      <c r="O38" s="16" t="s">
+        <v>742</v>
+      </c>
+      <c r="P38" s="16" t="s">
+        <v>740</v>
+      </c>
+      <c r="Q38" s="16" t="s">
+        <v>743</v>
+      </c>
+      <c r="R38" s="16" t="s">
+        <v>744</v>
+      </c>
+      <c r="S38" s="16" t="s">
+        <v>745</v>
+      </c>
+      <c r="T38" s="16" t="s">
+        <v>746</v>
+      </c>
+      <c r="U38" s="16" t="s">
+        <v>747</v>
+      </c>
+      <c r="V38" s="16" t="s">
+        <v>748</v>
+      </c>
+      <c r="W38" s="16" t="s">
+        <v>749</v>
+      </c>
+      <c r="X38" s="16" t="s">
+        <v>750</v>
+      </c>
+      <c r="Y38" s="16" t="s">
+        <v>751</v>
+      </c>
+      <c r="Z38" s="16" t="s">
+        <v>752</v>
+      </c>
+      <c r="AA38" s="16" t="s">
+        <v>753</v>
+      </c>
+      <c r="AB38" s="16" t="s">
+        <v>754</v>
+      </c>
+      <c r="AC38" s="16" t="s">
         <v>729</v>
       </c>
-      <c r="D38" s="15" t="s">
+      <c r="AD38" s="17" t="s">
         <v>730</v>
-      </c>
-      <c r="E38" s="15" t="s">
-        <v>731</v>
-      </c>
-      <c r="F38" s="15" t="s">
-        <v>732</v>
-      </c>
-      <c r="G38" s="15" t="s">
-        <v>733</v>
-      </c>
-      <c r="H38" s="15" t="s">
-        <v>734</v>
-      </c>
-      <c r="I38" s="15" t="s">
-        <v>735</v>
-      </c>
-      <c r="J38" s="15" t="s">
-        <v>736</v>
-      </c>
-      <c r="K38" s="15" t="s">
-        <v>737</v>
-      </c>
-      <c r="L38" s="15" t="s">
-        <v>738</v>
-      </c>
-      <c r="M38" s="16" t="s">
-        <v>739</v>
-      </c>
-      <c r="N38" s="16" t="s">
-        <v>740</v>
-      </c>
-      <c r="O38" s="16" t="s">
-        <v>741</v>
-      </c>
-      <c r="P38" s="16" t="s">
-        <v>739</v>
-      </c>
-      <c r="Q38" s="16" t="s">
-        <v>742</v>
-      </c>
-      <c r="R38" s="16" t="s">
-        <v>743</v>
-      </c>
-      <c r="S38" s="16" t="s">
-        <v>744</v>
-      </c>
-      <c r="T38" s="16" t="s">
-        <v>745</v>
-      </c>
-      <c r="U38" s="16" t="s">
-        <v>746</v>
-      </c>
-      <c r="V38" s="16" t="s">
-        <v>747</v>
-      </c>
-      <c r="W38" s="16" t="s">
-        <v>748</v>
-      </c>
-      <c r="X38" s="16" t="s">
-        <v>749</v>
-      </c>
-      <c r="Y38" s="16" t="s">
-        <v>750</v>
-      </c>
-      <c r="Z38" s="16" t="s">
-        <v>751</v>
-      </c>
-      <c r="AA38" s="16" t="s">
-        <v>752</v>
-      </c>
-      <c r="AB38" s="16" t="s">
-        <v>753</v>
-      </c>
-      <c r="AC38" s="16" t="s">
-        <v>728</v>
-      </c>
-      <c r="AD38" s="17" t="s">
-        <v>729</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="33" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="C39" s="15" t="s">
+        <v>757</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>758</v>
+      </c>
+      <c r="E39" s="15" t="s">
+        <v>759</v>
+      </c>
+      <c r="F39" s="15" t="s">
+        <v>760</v>
+      </c>
+      <c r="G39" s="15" t="s">
+        <v>761</v>
+      </c>
+      <c r="H39" s="15" t="s">
+        <v>762</v>
+      </c>
+      <c r="I39" s="15" t="s">
+        <v>763</v>
+      </c>
+      <c r="J39" s="15" t="s">
+        <v>764</v>
+      </c>
+      <c r="K39" s="15" t="s">
+        <v>765</v>
+      </c>
+      <c r="L39" s="15" t="s">
+        <v>766</v>
+      </c>
+      <c r="M39" s="16" t="s">
+        <v>767</v>
+      </c>
+      <c r="N39" s="16" t="s">
+        <v>768</v>
+      </c>
+      <c r="O39" s="16" t="s">
+        <v>769</v>
+      </c>
+      <c r="P39" s="16" t="s">
+        <v>767</v>
+      </c>
+      <c r="Q39" s="16" t="s">
+        <v>770</v>
+      </c>
+      <c r="R39" s="16" t="s">
+        <v>771</v>
+      </c>
+      <c r="S39" s="16" t="s">
+        <v>772</v>
+      </c>
+      <c r="T39" s="16" t="s">
+        <v>773</v>
+      </c>
+      <c r="U39" s="16" t="s">
+        <v>774</v>
+      </c>
+      <c r="V39" s="16" t="s">
+        <v>775</v>
+      </c>
+      <c r="W39" s="16" t="s">
+        <v>776</v>
+      </c>
+      <c r="X39" s="16" t="s">
+        <v>777</v>
+      </c>
+      <c r="Y39" s="16" t="s">
+        <v>778</v>
+      </c>
+      <c r="Z39" s="16" t="s">
+        <v>779</v>
+      </c>
+      <c r="AA39" s="16" t="s">
+        <v>780</v>
+      </c>
+      <c r="AB39" s="16" t="s">
+        <v>781</v>
+      </c>
+      <c r="AC39" s="16" t="s">
         <v>756</v>
       </c>
-      <c r="D39" s="15" t="s">
+      <c r="AD39" s="17" t="s">
         <v>757</v>
-      </c>
-      <c r="E39" s="15" t="s">
-        <v>758</v>
-      </c>
-      <c r="F39" s="15" t="s">
-        <v>759</v>
-      </c>
-      <c r="G39" s="15" t="s">
-        <v>760</v>
-      </c>
-      <c r="H39" s="15" t="s">
-        <v>761</v>
-      </c>
-      <c r="I39" s="15" t="s">
-        <v>762</v>
-      </c>
-      <c r="J39" s="15" t="s">
-        <v>763</v>
-      </c>
-      <c r="K39" s="15" t="s">
-        <v>764</v>
-      </c>
-      <c r="L39" s="15" t="s">
-        <v>765</v>
-      </c>
-      <c r="M39" s="16" t="s">
-        <v>766</v>
-      </c>
-      <c r="N39" s="16" t="s">
-        <v>767</v>
-      </c>
-      <c r="O39" s="16" t="s">
-        <v>768</v>
-      </c>
-      <c r="P39" s="16" t="s">
-        <v>766</v>
-      </c>
-      <c r="Q39" s="16" t="s">
-        <v>769</v>
-      </c>
-      <c r="R39" s="16" t="s">
-        <v>770</v>
-      </c>
-      <c r="S39" s="16" t="s">
-        <v>771</v>
-      </c>
-      <c r="T39" s="16" t="s">
-        <v>772</v>
-      </c>
-      <c r="U39" s="16" t="s">
-        <v>773</v>
-      </c>
-      <c r="V39" s="16" t="s">
-        <v>774</v>
-      </c>
-      <c r="W39" s="16" t="s">
-        <v>775</v>
-      </c>
-      <c r="X39" s="16" t="s">
-        <v>776</v>
-      </c>
-      <c r="Y39" s="16" t="s">
-        <v>777</v>
-      </c>
-      <c r="Z39" s="16" t="s">
-        <v>778</v>
-      </c>
-      <c r="AA39" s="16" t="s">
-        <v>779</v>
-      </c>
-      <c r="AB39" s="16" t="s">
-        <v>780</v>
-      </c>
-      <c r="AC39" s="16" t="s">
-        <v>755</v>
-      </c>
-      <c r="AD39" s="17" t="s">
-        <v>756</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -6213,32 +6218,32 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="34" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="34" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="34" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="34" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="34" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="34" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6246,12 +6251,12 @@
     </row>
     <row r="9" customFormat="false" ht="80.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="35" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="51.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="36" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6259,7 +6264,7 @@
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="37" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6267,135 +6272,135 @@
     </row>
     <row r="14" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="39" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="B14" s="40" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="C14" s="40"/>
       <c r="D14" s="40" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="E14" s="40"/>
       <c r="F14" s="40" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="G14" s="40"/>
       <c r="H14" s="40" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="I14" s="40"/>
       <c r="J14" s="40" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K14" s="40"/>
       <c r="L14" s="40" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M14" s="40"/>
       <c r="N14" s="40" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O14" s="40"/>
       <c r="P14" s="40" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="Q14" s="40"/>
       <c r="R14" s="40" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="S14" s="40"/>
       <c r="T14" s="40" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="U14" s="40"/>
       <c r="V14" s="40" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="W14" s="40"/>
       <c r="X14" s="41" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Y14" s="41"/>
     </row>
     <row r="15" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="39"/>
       <c r="B15" s="42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="42" t="s">
-        <v>7</v>
-      </c>
       <c r="E15" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="42" t="s">
-        <v>7</v>
-      </c>
       <c r="G15" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="H15" s="42" t="s">
-        <v>7</v>
-      </c>
       <c r="I15" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="J15" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="J15" s="42" t="s">
-        <v>7</v>
-      </c>
       <c r="K15" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="L15" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="L15" s="42" t="s">
-        <v>7</v>
-      </c>
       <c r="M15" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="N15" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="N15" s="42" t="s">
-        <v>7</v>
-      </c>
       <c r="O15" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="P15" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="P15" s="42" t="s">
-        <v>7</v>
-      </c>
       <c r="Q15" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="R15" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="R15" s="42" t="s">
-        <v>7</v>
-      </c>
       <c r="S15" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="T15" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="T15" s="42" t="s">
-        <v>7</v>
-      </c>
       <c r="U15" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="V15" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="V15" s="42" t="s">
-        <v>7</v>
-      </c>
       <c r="W15" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="X15" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="X15" s="42" t="s">
-        <v>7</v>
-      </c>
       <c r="Y15" s="43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="44" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="B16" s="44"/>
       <c r="C16" s="44"/>
@@ -6424,7 +6429,7 @@
     </row>
     <row r="17" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="45" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="B17" s="46"/>
       <c r="C17" s="46"/>
@@ -6453,7 +6458,7 @@
     </row>
     <row r="18" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="45" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="B18" s="46"/>
       <c r="C18" s="46"/>
@@ -6482,7 +6487,7 @@
     </row>
     <row r="19" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="45" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="B19" s="46"/>
       <c r="C19" s="46"/>
@@ -6565,7 +6570,7 @@
     </row>
     <row r="22" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="44" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="B22" s="44"/>
       <c r="C22" s="44"/>
@@ -6594,7 +6599,7 @@
     </row>
     <row r="23" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="45" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="B23" s="46"/>
       <c r="C23" s="46"/>
@@ -6623,7 +6628,7 @@
     </row>
     <row r="24" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="45" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="B24" s="46"/>
       <c r="C24" s="46"/>
@@ -6652,7 +6657,7 @@
     </row>
     <row r="25" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="45" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="B25" s="46"/>
       <c r="C25" s="46"/>
@@ -6681,7 +6686,7 @@
     </row>
     <row r="26" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="45" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="B26" s="46"/>
       <c r="C26" s="46"/>
@@ -6764,7 +6769,7 @@
     </row>
     <row r="29" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="48" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="B29" s="46"/>
       <c r="C29" s="46"/>
@@ -6793,7 +6798,7 @@
     </row>
     <row r="30" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="44" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="B30" s="44"/>
       <c r="C30" s="44"/>
@@ -6822,7 +6827,7 @@
     </row>
     <row r="31" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="45" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="B31" s="46"/>
       <c r="C31" s="46"/>
@@ -6851,7 +6856,7 @@
     </row>
     <row r="32" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="45" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="B32" s="46"/>
       <c r="C32" s="46"/>
@@ -6934,7 +6939,7 @@
     </row>
     <row r="35" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="44" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="B35" s="44"/>
       <c r="C35" s="44"/>
@@ -7044,7 +7049,7 @@
     </row>
     <row r="39" customFormat="false" ht="66.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="48" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="B39" s="46"/>
       <c r="C39" s="46"/>
@@ -7073,7 +7078,7 @@
     </row>
     <row r="40" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="48" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="B40" s="46"/>
       <c r="C40" s="46"/>
@@ -7102,7 +7107,7 @@
     </row>
     <row r="41" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="44" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="B41" s="44"/>
       <c r="C41" s="44"/>
@@ -7131,7 +7136,7 @@
     </row>
     <row r="42" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="45" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="B42" s="46"/>
       <c r="C42" s="46"/>
@@ -7160,7 +7165,7 @@
     </row>
     <row r="43" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="45" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="B43" s="46"/>
       <c r="C43" s="46"/>
@@ -7189,7 +7194,7 @@
     </row>
     <row r="44" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="45" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="B44" s="46"/>
       <c r="C44" s="46"/>
@@ -7272,7 +7277,7 @@
     </row>
     <row r="47" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="44" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="B47" s="44"/>
       <c r="C47" s="44"/>
@@ -7355,7 +7360,7 @@
     </row>
     <row r="50" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="45" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="B50" s="46"/>
       <c r="C50" s="46"/>
@@ -7384,7 +7389,7 @@
     </row>
     <row r="51" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="44" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="B51" s="44"/>
       <c r="C51" s="44"/>
@@ -7413,7 +7418,7 @@
     </row>
     <row r="52" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="49" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="B52" s="46"/>
       <c r="C52" s="46"/>
@@ -7442,7 +7447,7 @@
     </row>
     <row r="53" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="49" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B53" s="46"/>
       <c r="C53" s="46"/>
@@ -7471,7 +7476,7 @@
     </row>
     <row r="54" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="49" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="B54" s="46"/>
       <c r="C54" s="46"/>
@@ -7527,7 +7532,7 @@
     </row>
     <row r="56" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="50" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="B56" s="46"/>
       <c r="C56" s="46"/>
@@ -7556,7 +7561,7 @@
     </row>
     <row r="57" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="51" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B57" s="52"/>
       <c r="C57" s="52"/>
@@ -7588,7 +7593,7 @@
     </row>
     <row r="59" customFormat="false" ht="141.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="55" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
     </row>
   </sheetData>

--- a/resources/report_template.xlsx
+++ b/resources/report_template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="371" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="330" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="File active" sheetId="1" state="visible" r:id="rId2"/>
@@ -16,9 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="829">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="830">
   <si>
     <t>Région</t>
+  </si>
+  <si>
+    <t>{key: 'REGION_NAME'}</t>
   </si>
   <si>
     <t>Pharmacie - Centre prescripteur</t>
@@ -2575,7 +2578,7 @@
     <numFmt numFmtId="165" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* \-??\ _€_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* \-??\ _€_-;_-@_-"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2613,6 +2616,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="16"/>
@@ -2921,7 +2930,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2942,48 +2951,112 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="10" fillId="0" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="5" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="2" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="6" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="5" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="2" borderId="5" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="7" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="7" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="7" borderId="5" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="9" fillId="0" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -2994,155 +3067,95 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="2" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="6" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="5" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="2" borderId="5" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="7" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="7" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="7" borderId="5" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="5" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="8" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="8" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="8" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="8" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="8" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="8" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="8" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="8" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="8" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="8" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3223,15 +3236,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>297000</xdr:colOff>
+      <xdr:colOff>324000</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>101160</xdr:rowOff>
+      <xdr:rowOff>92160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>778680</xdr:colOff>
+      <xdr:colOff>805320</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>68400</xdr:rowOff>
+      <xdr:rowOff>59040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3244,8 +3257,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="297000" y="700920"/>
-          <a:ext cx="481680" cy="357840"/>
+          <a:off x="324000" y="691920"/>
+          <a:ext cx="481320" cy="357480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3268,7 +3281,7 @@
   <dimension ref="A1:AD65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -3316,7 +3329,9 @@
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3"/>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -3328,76 +3343,76 @@
     </row>
     <row r="3" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
+      <c r="B3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
     </row>
     <row r="4" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
+      <c r="B4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
     </row>
     <row r="5" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
     </row>
     <row r="6" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
+      <c r="A6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0"/>
@@ -3406,2759 +3421,2759 @@
       <c r="A8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="7" t="s">
+      <c r="A9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="B9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="C9" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="D9" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="E9" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="F9" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="G9" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8" t="s">
+      <c r="H9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="L9" s="8"/>
-      <c r="M9" s="9" t="s">
+      <c r="I9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9" t="s">
+      <c r="L9" s="9"/>
+      <c r="M9" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9" t="s">
+      <c r="N9" s="10"/>
+      <c r="O9" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="R9" s="9"/>
-      <c r="S9" s="9" t="s">
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="T9" s="9"/>
-      <c r="U9" s="9" t="s">
+      <c r="R9" s="10"/>
+      <c r="S9" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="V9" s="9"/>
-      <c r="W9" s="9" t="s">
+      <c r="T9" s="10"/>
+      <c r="U9" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="X9" s="9"/>
-      <c r="Y9" s="9" t="s">
+      <c r="V9" s="10"/>
+      <c r="W9" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="Z9" s="9"/>
-      <c r="AA9" s="9" t="s">
+      <c r="X9" s="10"/>
+      <c r="Y9" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="AB9" s="9"/>
-      <c r="AC9" s="10" t="s">
+      <c r="Z9" s="10"/>
+      <c r="AA9" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="AD9" s="10"/>
+      <c r="AB9" s="10"/>
+      <c r="AC9" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD9" s="11"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="J10" s="11" t="s">
+      <c r="A10" s="7"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="K10" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="L10" s="11" t="s">
+      <c r="J10" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="K10" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="M10" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="N10" s="12" t="s">
+      <c r="L10" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="M10" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="O10" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="P10" s="12" t="s">
+      <c r="N10" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="O10" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="Q10" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="R10" s="12" t="s">
+      <c r="P10" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q10" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="S10" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="T10" s="12" t="s">
+      <c r="R10" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="S10" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="U10" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="V10" s="12" t="s">
+      <c r="T10" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="U10" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="W10" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="X10" s="12" t="s">
+      <c r="V10" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="W10" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="Y10" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z10" s="12" t="s">
+      <c r="X10" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y10" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="AA10" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB10" s="12" t="s">
+      <c r="Z10" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA10" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="AC10" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD10" s="13" t="s">
+      <c r="AB10" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC10" s="13" t="s">
         <v>9</v>
       </c>
+      <c r="AD10" s="14" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="15" t="s">
+      <c r="A11" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="B11" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="C11" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="D11" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="E11" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="15" t="s">
+      <c r="F11" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="H11" s="15" t="s">
+      <c r="G11" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="I11" s="15" t="s">
+      <c r="H11" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="15" t="s">
+      <c r="I11" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="K11" s="15" t="s">
+      <c r="J11" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="L11" s="15" t="s">
+      <c r="K11" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="M11" s="16" t="s">
+      <c r="L11" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="N11" s="16" t="s">
+      <c r="M11" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="O11" s="16" t="s">
+      <c r="N11" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="P11" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q11" s="16" t="s">
+      <c r="O11" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="R11" s="16" t="s">
+      <c r="P11" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q11" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="S11" s="16" t="s">
+      <c r="R11" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="T11" s="16" t="s">
+      <c r="S11" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="U11" s="16" t="s">
+      <c r="T11" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="V11" s="16" t="s">
+      <c r="U11" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="W11" s="16" t="s">
+      <c r="V11" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="X11" s="16" t="s">
+      <c r="W11" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="Y11" s="16" t="s">
+      <c r="X11" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="Z11" s="16" t="s">
+      <c r="Y11" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="AA11" s="16" t="s">
+      <c r="Z11" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="AB11" s="16" t="s">
+      <c r="AA11" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="AC11" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD11" s="17" t="s">
+      <c r="AB11" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC11" s="17" t="s">
         <v>27</v>
       </c>
+      <c r="AD11" s="18" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="38.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" s="15" t="s">
+      <c r="A12" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="B12" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="C12" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="D12" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="E12" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="G12" s="15" t="s">
+      <c r="F12" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="H12" s="15" t="s">
+      <c r="G12" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="I12" s="15" t="s">
+      <c r="H12" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="J12" s="15" t="s">
+      <c r="I12" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="K12" s="15" t="s">
+      <c r="J12" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="L12" s="15" t="s">
+      <c r="K12" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="M12" s="16" t="s">
+      <c r="L12" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="N12" s="16" t="s">
+      <c r="M12" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="O12" s="16" t="s">
+      <c r="N12" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="P12" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q12" s="16" t="s">
+      <c r="O12" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="R12" s="16" t="s">
+      <c r="P12" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q12" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="S12" s="16" t="s">
+      <c r="R12" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="T12" s="16" t="s">
+      <c r="S12" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="U12" s="16" t="s">
+      <c r="T12" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="V12" s="16" t="s">
+      <c r="U12" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="W12" s="16" t="s">
+      <c r="V12" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="X12" s="16" t="s">
+      <c r="W12" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="Y12" s="16" t="s">
+      <c r="X12" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="Z12" s="16" t="s">
+      <c r="Y12" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="AA12" s="16" t="s">
+      <c r="Z12" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="AB12" s="16" t="s">
+      <c r="AA12" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="AC12" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="AD12" s="17" t="s">
+      <c r="AB12" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC12" s="17" t="s">
         <v>54</v>
       </c>
+      <c r="AD12" s="18" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="50.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="B13" s="15" t="s">
+      <c r="A13" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="B13" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="C13" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="D13" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="E13" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="G13" s="15" t="s">
+      <c r="F13" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="H13" s="15" t="s">
+      <c r="G13" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="I13" s="15" t="s">
+      <c r="H13" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="J13" s="15" t="s">
+      <c r="I13" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="K13" s="15" t="s">
+      <c r="J13" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="L13" s="15" t="s">
+      <c r="K13" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="M13" s="16" t="s">
+      <c r="L13" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="N13" s="16" t="s">
+      <c r="M13" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="O13" s="16" t="s">
+      <c r="N13" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="P13" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q13" s="16" t="s">
+      <c r="O13" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="R13" s="16" t="s">
+      <c r="P13" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q13" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="S13" s="16" t="s">
+      <c r="R13" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="T13" s="16" t="s">
+      <c r="S13" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="U13" s="16" t="s">
+      <c r="T13" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="V13" s="16" t="s">
+      <c r="U13" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="W13" s="16" t="s">
+      <c r="V13" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="X13" s="16" t="s">
+      <c r="W13" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="Y13" s="16" t="s">
+      <c r="X13" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="Z13" s="16" t="s">
+      <c r="Y13" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="AA13" s="16" t="s">
+      <c r="Z13" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="AB13" s="16" t="s">
+      <c r="AA13" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="AC13" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="AD13" s="17" t="s">
+      <c r="AB13" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC13" s="17" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="14" s="19" customFormat="true" ht="51.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="B14" s="15" t="s">
+      <c r="AD13" s="18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" s="20" customFormat="true" ht="51.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="B14" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="C14" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="D14" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="F14" s="15" t="s">
+      <c r="E14" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="G14" s="15" t="s">
+      <c r="F14" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="H14" s="15" t="s">
+      <c r="G14" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="I14" s="15" t="s">
+      <c r="H14" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="J14" s="15" t="s">
+      <c r="I14" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="K14" s="15" t="s">
+      <c r="J14" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="L14" s="15" t="s">
+      <c r="K14" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="M14" s="16" t="s">
+      <c r="L14" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="N14" s="16" t="s">
+      <c r="M14" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="O14" s="16" t="s">
+      <c r="N14" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="P14" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q14" s="16" t="s">
+      <c r="O14" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="R14" s="16" t="s">
+      <c r="P14" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q14" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="S14" s="16" t="s">
+      <c r="R14" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="T14" s="16" t="s">
+      <c r="S14" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="U14" s="16" t="s">
+      <c r="T14" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="V14" s="16" t="s">
+      <c r="U14" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="W14" s="16" t="s">
+      <c r="V14" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="X14" s="16" t="s">
+      <c r="W14" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="Y14" s="16" t="s">
+      <c r="X14" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="Z14" s="16" t="s">
+      <c r="Y14" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="AA14" s="16" t="s">
+      <c r="Z14" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="AB14" s="16" t="s">
+      <c r="AA14" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="AC14" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="AD14" s="17" t="s">
+      <c r="AB14" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC14" s="17" t="s">
         <v>108</v>
       </c>
+      <c r="AD14" s="18" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="51.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="B15" s="15" t="s">
+      <c r="A15" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="B15" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="C15" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="D15" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="F15" s="15" t="s">
+      <c r="E15" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="G15" s="15" t="s">
+      <c r="F15" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="H15" s="15" t="s">
+      <c r="G15" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="I15" s="15" t="s">
+      <c r="H15" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="J15" s="15" t="s">
+      <c r="I15" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="K15" s="15" t="s">
+      <c r="J15" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="L15" s="15" t="s">
+      <c r="K15" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="M15" s="16" t="s">
+      <c r="L15" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="N15" s="16" t="s">
+      <c r="M15" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="O15" s="16" t="s">
+      <c r="N15" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="P15" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q15" s="16" t="s">
+      <c r="O15" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="R15" s="16" t="s">
+      <c r="P15" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q15" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="S15" s="16" t="s">
+      <c r="R15" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="T15" s="16" t="s">
+      <c r="S15" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="U15" s="16" t="s">
+      <c r="T15" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="V15" s="16" t="s">
+      <c r="U15" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="W15" s="16" t="s">
+      <c r="V15" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="X15" s="16" t="s">
+      <c r="W15" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="Y15" s="16" t="s">
+      <c r="X15" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="Z15" s="16" t="s">
+      <c r="Y15" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="AA15" s="16" t="s">
+      <c r="Z15" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="AB15" s="16" t="s">
+      <c r="AA15" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="AC15" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="AD15" s="17" t="s">
+      <c r="AB15" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="AC15" s="17" t="s">
         <v>135</v>
       </c>
+      <c r="AD15" s="18" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="48.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="B16" s="21" t="s">
+      <c r="A16" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="B16" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="C16" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="E16" s="21" t="s">
+      <c r="D16" s="22" t="s">
         <v>164</v>
       </c>
-      <c r="F16" s="21" t="s">
+      <c r="E16" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="G16" s="21" t="s">
+      <c r="F16" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="H16" s="22" t="s">
+      <c r="G16" s="22" t="s">
         <v>167</v>
       </c>
-      <c r="I16" s="23" t="s">
+      <c r="H16" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="J16" s="23" t="s">
+      <c r="I16" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="K16" s="23" t="s">
+      <c r="J16" s="24" t="s">
         <v>170</v>
       </c>
-      <c r="L16" s="23" t="s">
+      <c r="K16" s="24" t="s">
         <v>171</v>
       </c>
-      <c r="M16" s="21" t="s">
+      <c r="L16" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="N16" s="21" t="s">
+      <c r="M16" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="O16" s="21" t="s">
+      <c r="N16" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="P16" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q16" s="21" t="s">
+      <c r="O16" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="R16" s="21" t="s">
+      <c r="P16" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q16" s="22" t="s">
         <v>176</v>
       </c>
-      <c r="S16" s="21" t="s">
+      <c r="R16" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="T16" s="21" t="s">
+      <c r="S16" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="U16" s="21" t="s">
+      <c r="T16" s="22" t="s">
         <v>179</v>
       </c>
-      <c r="V16" s="21" t="s">
+      <c r="U16" s="22" t="s">
         <v>180</v>
       </c>
-      <c r="W16" s="21" t="s">
+      <c r="V16" s="22" t="s">
         <v>181</v>
       </c>
-      <c r="X16" s="21" t="s">
+      <c r="W16" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="Y16" s="21" t="s">
+      <c r="X16" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="Z16" s="21" t="s">
+      <c r="Y16" s="22" t="s">
         <v>184</v>
       </c>
-      <c r="AA16" s="21" t="s">
+      <c r="Z16" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="AB16" s="21" t="s">
+      <c r="AA16" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="AC16" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="AD16" s="24" t="s">
+      <c r="AB16" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="AC16" s="22" t="s">
         <v>162</v>
       </c>
+      <c r="AD16" s="25" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="B17" s="15" t="s">
+      <c r="A17" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="B17" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="C17" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="D17" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="F17" s="15" t="s">
+      <c r="E17" s="16" t="s">
         <v>192</v>
       </c>
-      <c r="G17" s="15" t="s">
+      <c r="F17" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="H17" s="15" t="s">
+      <c r="G17" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="I17" s="15" t="s">
+      <c r="H17" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="J17" s="15" t="s">
+      <c r="I17" s="16" t="s">
         <v>196</v>
       </c>
-      <c r="K17" s="15" t="s">
+      <c r="J17" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="L17" s="15" t="s">
+      <c r="K17" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="M17" s="16" t="s">
+      <c r="L17" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="N17" s="16" t="s">
+      <c r="M17" s="17" t="s">
         <v>200</v>
       </c>
-      <c r="O17" s="16" t="s">
+      <c r="N17" s="17" t="s">
         <v>201</v>
       </c>
-      <c r="P17" s="16" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q17" s="16" t="s">
+      <c r="O17" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="R17" s="16" t="s">
+      <c r="P17" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q17" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="S17" s="16" t="s">
+      <c r="R17" s="17" t="s">
         <v>204</v>
       </c>
-      <c r="T17" s="16" t="s">
+      <c r="S17" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="U17" s="16" t="s">
+      <c r="T17" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="V17" s="16" t="s">
+      <c r="U17" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="W17" s="16" t="s">
+      <c r="V17" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="X17" s="16" t="s">
+      <c r="W17" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="Y17" s="16" t="s">
+      <c r="X17" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="Z17" s="16" t="s">
+      <c r="Y17" s="17" t="s">
         <v>211</v>
       </c>
-      <c r="AA17" s="16" t="s">
+      <c r="Z17" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="AB17" s="16" t="s">
+      <c r="AA17" s="17" t="s">
         <v>213</v>
       </c>
-      <c r="AC17" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="AD17" s="17" t="s">
+      <c r="AB17" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="AC17" s="17" t="s">
         <v>189</v>
       </c>
+      <c r="AD17" s="18" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="28.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="18" t="s">
-        <v>214</v>
-      </c>
-      <c r="B18" s="15" t="s">
+      <c r="A18" s="19" t="s">
         <v>215</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="B18" s="16" t="s">
         <v>216</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="C18" s="16" t="s">
         <v>217</v>
       </c>
-      <c r="E18" s="15" t="s">
+      <c r="D18" s="16" t="s">
         <v>218</v>
       </c>
-      <c r="F18" s="15" t="s">
+      <c r="E18" s="16" t="s">
         <v>219</v>
       </c>
-      <c r="G18" s="15" t="s">
+      <c r="F18" s="16" t="s">
         <v>220</v>
       </c>
-      <c r="H18" s="15" t="s">
+      <c r="G18" s="16" t="s">
         <v>221</v>
       </c>
-      <c r="I18" s="15" t="s">
+      <c r="H18" s="16" t="s">
         <v>222</v>
       </c>
-      <c r="J18" s="15" t="s">
+      <c r="I18" s="16" t="s">
         <v>223</v>
       </c>
-      <c r="K18" s="15" t="s">
+      <c r="J18" s="16" t="s">
         <v>224</v>
       </c>
-      <c r="L18" s="15" t="s">
+      <c r="K18" s="16" t="s">
         <v>225</v>
       </c>
-      <c r="M18" s="16" t="s">
+      <c r="L18" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="N18" s="16" t="s">
+      <c r="M18" s="17" t="s">
         <v>227</v>
       </c>
-      <c r="O18" s="16" t="s">
+      <c r="N18" s="17" t="s">
         <v>228</v>
       </c>
-      <c r="P18" s="16" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q18" s="16" t="s">
+      <c r="O18" s="17" t="s">
         <v>229</v>
       </c>
-      <c r="R18" s="16" t="s">
+      <c r="P18" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q18" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="S18" s="16" t="s">
+      <c r="R18" s="17" t="s">
         <v>231</v>
       </c>
-      <c r="T18" s="16" t="s">
+      <c r="S18" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="U18" s="16" t="s">
+      <c r="T18" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="V18" s="16" t="s">
+      <c r="U18" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="W18" s="16" t="s">
+      <c r="V18" s="17" t="s">
         <v>235</v>
       </c>
-      <c r="X18" s="16" t="s">
+      <c r="W18" s="17" t="s">
         <v>236</v>
       </c>
-      <c r="Y18" s="16" t="s">
+      <c r="X18" s="17" t="s">
         <v>237</v>
       </c>
-      <c r="Z18" s="16" t="s">
+      <c r="Y18" s="17" t="s">
         <v>238</v>
       </c>
-      <c r="AA18" s="16" t="s">
+      <c r="Z18" s="17" t="s">
         <v>239</v>
       </c>
-      <c r="AB18" s="16" t="s">
+      <c r="AA18" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="AC18" s="16" t="s">
-        <v>215</v>
-      </c>
-      <c r="AD18" s="17" t="s">
+      <c r="AB18" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="AC18" s="17" t="s">
         <v>216</v>
       </c>
+      <c r="AD18" s="18" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="41" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="18" t="s">
-        <v>241</v>
-      </c>
-      <c r="B19" s="15" t="s">
+      <c r="A19" s="19" t="s">
         <v>242</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="B19" s="16" t="s">
         <v>243</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="C19" s="16" t="s">
         <v>244</v>
       </c>
-      <c r="E19" s="15" t="s">
+      <c r="D19" s="16" t="s">
         <v>245</v>
       </c>
-      <c r="F19" s="15" t="s">
+      <c r="E19" s="16" t="s">
         <v>246</v>
       </c>
-      <c r="G19" s="15" t="s">
+      <c r="F19" s="16" t="s">
         <v>247</v>
       </c>
-      <c r="H19" s="15" t="s">
+      <c r="G19" s="16" t="s">
         <v>248</v>
       </c>
-      <c r="I19" s="15" t="s">
+      <c r="H19" s="16" t="s">
         <v>249</v>
       </c>
-      <c r="J19" s="15" t="s">
+      <c r="I19" s="16" t="s">
         <v>250</v>
       </c>
-      <c r="K19" s="15" t="s">
+      <c r="J19" s="16" t="s">
         <v>251</v>
       </c>
-      <c r="L19" s="15" t="s">
+      <c r="K19" s="16" t="s">
         <v>252</v>
       </c>
-      <c r="M19" s="16" t="s">
+      <c r="L19" s="16" t="s">
         <v>253</v>
       </c>
-      <c r="N19" s="16" t="s">
+      <c r="M19" s="17" t="s">
         <v>254</v>
       </c>
-      <c r="O19" s="16" t="s">
+      <c r="N19" s="17" t="s">
         <v>255</v>
       </c>
-      <c r="P19" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q19" s="16" t="s">
+      <c r="O19" s="17" t="s">
         <v>256</v>
       </c>
-      <c r="R19" s="16" t="s">
+      <c r="P19" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q19" s="17" t="s">
         <v>257</v>
       </c>
-      <c r="S19" s="16" t="s">
+      <c r="R19" s="17" t="s">
         <v>258</v>
       </c>
-      <c r="T19" s="16" t="s">
+      <c r="S19" s="17" t="s">
         <v>259</v>
       </c>
-      <c r="U19" s="16" t="s">
+      <c r="T19" s="17" t="s">
         <v>260</v>
       </c>
-      <c r="V19" s="16" t="s">
+      <c r="U19" s="17" t="s">
         <v>261</v>
       </c>
-      <c r="W19" s="16" t="s">
+      <c r="V19" s="17" t="s">
         <v>262</v>
       </c>
-      <c r="X19" s="16" t="s">
+      <c r="W19" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="Y19" s="16" t="s">
+      <c r="X19" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="Z19" s="16" t="s">
+      <c r="Y19" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="AA19" s="16" t="s">
+      <c r="Z19" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="AB19" s="16" t="s">
+      <c r="AA19" s="17" t="s">
         <v>267</v>
       </c>
-      <c r="AC19" s="16" t="s">
-        <v>242</v>
-      </c>
-      <c r="AD19" s="17" t="s">
+      <c r="AB19" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="AC19" s="17" t="s">
         <v>243</v>
       </c>
+      <c r="AD19" s="18" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="18" t="s">
-        <v>268</v>
-      </c>
-      <c r="B20" s="15" t="s">
+      <c r="A20" s="19" t="s">
         <v>269</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="B20" s="16" t="s">
         <v>270</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="C20" s="16" t="s">
         <v>271</v>
       </c>
-      <c r="E20" s="15" t="s">
+      <c r="D20" s="16" t="s">
         <v>272</v>
       </c>
-      <c r="F20" s="15" t="s">
+      <c r="E20" s="16" t="s">
         <v>273</v>
       </c>
-      <c r="G20" s="15" t="s">
+      <c r="F20" s="16" t="s">
         <v>274</v>
       </c>
-      <c r="H20" s="15" t="s">
+      <c r="G20" s="16" t="s">
         <v>275</v>
       </c>
-      <c r="I20" s="15" t="s">
+      <c r="H20" s="16" t="s">
         <v>276</v>
       </c>
-      <c r="J20" s="15" t="s">
+      <c r="I20" s="16" t="s">
         <v>277</v>
       </c>
-      <c r="K20" s="15" t="s">
+      <c r="J20" s="16" t="s">
         <v>278</v>
       </c>
-      <c r="L20" s="15" t="s">
+      <c r="K20" s="16" t="s">
         <v>279</v>
       </c>
-      <c r="M20" s="16" t="s">
+      <c r="L20" s="16" t="s">
         <v>280</v>
       </c>
-      <c r="N20" s="16" t="s">
+      <c r="M20" s="17" t="s">
         <v>281</v>
       </c>
-      <c r="O20" s="16" t="s">
+      <c r="N20" s="17" t="s">
         <v>282</v>
       </c>
-      <c r="P20" s="16" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q20" s="16" t="s">
+      <c r="O20" s="17" t="s">
         <v>283</v>
       </c>
-      <c r="R20" s="16" t="s">
+      <c r="P20" s="17" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q20" s="17" t="s">
         <v>284</v>
       </c>
-      <c r="S20" s="16" t="s">
+      <c r="R20" s="17" t="s">
         <v>285</v>
       </c>
-      <c r="T20" s="16" t="s">
+      <c r="S20" s="17" t="s">
         <v>286</v>
       </c>
-      <c r="U20" s="16" t="s">
+      <c r="T20" s="17" t="s">
         <v>287</v>
       </c>
-      <c r="V20" s="16" t="s">
+      <c r="U20" s="17" t="s">
         <v>288</v>
       </c>
-      <c r="W20" s="16" t="s">
+      <c r="V20" s="17" t="s">
         <v>289</v>
       </c>
-      <c r="X20" s="16" t="s">
+      <c r="W20" s="17" t="s">
         <v>290</v>
       </c>
-      <c r="Y20" s="16" t="s">
+      <c r="X20" s="17" t="s">
         <v>291</v>
       </c>
-      <c r="Z20" s="16" t="s">
+      <c r="Y20" s="17" t="s">
         <v>292</v>
       </c>
-      <c r="AA20" s="16" t="s">
+      <c r="Z20" s="17" t="s">
         <v>293</v>
       </c>
-      <c r="AB20" s="16" t="s">
+      <c r="AA20" s="17" t="s">
         <v>294</v>
       </c>
-      <c r="AC20" s="16" t="s">
-        <v>269</v>
-      </c>
-      <c r="AD20" s="17" t="s">
+      <c r="AB20" s="17" t="s">
+        <v>295</v>
+      </c>
+      <c r="AC20" s="17" t="s">
         <v>270</v>
       </c>
+      <c r="AD20" s="18" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="25" t="s">
-        <v>295</v>
-      </c>
-      <c r="B21" s="26" t="s">
+      <c r="A21" s="26" t="s">
         <v>296</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="B21" s="27" t="s">
         <v>297</v>
       </c>
-      <c r="D21" s="26" t="s">
+      <c r="C21" s="27" t="s">
         <v>298</v>
       </c>
-      <c r="E21" s="26" t="s">
+      <c r="D21" s="27" t="s">
         <v>299</v>
       </c>
-      <c r="F21" s="26" t="s">
+      <c r="E21" s="27" t="s">
         <v>300</v>
       </c>
-      <c r="G21" s="26" t="s">
+      <c r="F21" s="27" t="s">
         <v>301</v>
       </c>
-      <c r="H21" s="26" t="s">
+      <c r="G21" s="27" t="s">
         <v>302</v>
       </c>
-      <c r="I21" s="23" t="s">
+      <c r="H21" s="27" t="s">
         <v>303</v>
       </c>
-      <c r="J21" s="23" t="s">
+      <c r="I21" s="24" t="s">
         <v>304</v>
       </c>
-      <c r="K21" s="23" t="s">
+      <c r="J21" s="24" t="s">
         <v>305</v>
       </c>
-      <c r="L21" s="23" t="s">
+      <c r="K21" s="24" t="s">
         <v>306</v>
       </c>
-      <c r="M21" s="27" t="s">
+      <c r="L21" s="24" t="s">
         <v>307</v>
       </c>
-      <c r="N21" s="27" t="s">
+      <c r="M21" s="28" t="s">
         <v>308</v>
       </c>
-      <c r="O21" s="27" t="s">
+      <c r="N21" s="28" t="s">
         <v>309</v>
       </c>
-      <c r="P21" s="27" t="s">
-        <v>307</v>
-      </c>
-      <c r="Q21" s="27" t="s">
+      <c r="O21" s="28" t="s">
         <v>310</v>
       </c>
-      <c r="R21" s="27" t="s">
+      <c r="P21" s="28" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q21" s="28" t="s">
         <v>311</v>
       </c>
-      <c r="S21" s="27" t="s">
+      <c r="R21" s="28" t="s">
         <v>312</v>
       </c>
-      <c r="T21" s="27" t="s">
+      <c r="S21" s="28" t="s">
         <v>313</v>
       </c>
-      <c r="U21" s="27" t="s">
+      <c r="T21" s="28" t="s">
         <v>314</v>
       </c>
-      <c r="V21" s="27" t="s">
+      <c r="U21" s="28" t="s">
         <v>315</v>
       </c>
-      <c r="W21" s="27" t="s">
+      <c r="V21" s="28" t="s">
         <v>316</v>
       </c>
-      <c r="X21" s="27" t="s">
+      <c r="W21" s="28" t="s">
         <v>317</v>
       </c>
-      <c r="Y21" s="27" t="s">
+      <c r="X21" s="28" t="s">
         <v>318</v>
       </c>
-      <c r="Z21" s="27" t="s">
+      <c r="Y21" s="28" t="s">
         <v>319</v>
       </c>
-      <c r="AA21" s="27" t="s">
+      <c r="Z21" s="28" t="s">
         <v>320</v>
       </c>
-      <c r="AB21" s="27" t="s">
+      <c r="AA21" s="28" t="s">
         <v>321</v>
       </c>
-      <c r="AC21" s="27" t="s">
-        <v>296</v>
-      </c>
-      <c r="AD21" s="28" t="s">
+      <c r="AB21" s="28" t="s">
+        <v>322</v>
+      </c>
+      <c r="AC21" s="28" t="s">
         <v>297</v>
       </c>
+      <c r="AD21" s="29" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="18" t="s">
-        <v>322</v>
-      </c>
-      <c r="B22" s="15" t="s">
+      <c r="A22" s="19" t="s">
         <v>323</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="B22" s="16" t="s">
         <v>324</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="C22" s="16" t="s">
         <v>325</v>
       </c>
-      <c r="E22" s="15" t="s">
+      <c r="D22" s="16" t="s">
         <v>326</v>
       </c>
-      <c r="F22" s="15" t="s">
+      <c r="E22" s="16" t="s">
         <v>327</v>
       </c>
-      <c r="G22" s="15" t="s">
+      <c r="F22" s="16" t="s">
         <v>328</v>
       </c>
-      <c r="H22" s="15" t="s">
+      <c r="G22" s="16" t="s">
         <v>329</v>
       </c>
-      <c r="I22" s="15" t="s">
+      <c r="H22" s="16" t="s">
         <v>330</v>
       </c>
-      <c r="J22" s="15" t="s">
+      <c r="I22" s="16" t="s">
         <v>331</v>
       </c>
-      <c r="K22" s="15" t="s">
+      <c r="J22" s="16" t="s">
         <v>332</v>
       </c>
-      <c r="L22" s="15" t="s">
+      <c r="K22" s="16" t="s">
         <v>333</v>
       </c>
-      <c r="M22" s="16" t="s">
+      <c r="L22" s="16" t="s">
         <v>334</v>
       </c>
-      <c r="N22" s="16" t="s">
+      <c r="M22" s="17" t="s">
         <v>335</v>
       </c>
-      <c r="O22" s="16" t="s">
+      <c r="N22" s="17" t="s">
         <v>336</v>
       </c>
-      <c r="P22" s="16" t="s">
-        <v>334</v>
-      </c>
-      <c r="Q22" s="16" t="s">
+      <c r="O22" s="17" t="s">
         <v>337</v>
       </c>
-      <c r="R22" s="16" t="s">
+      <c r="P22" s="17" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q22" s="17" t="s">
         <v>338</v>
       </c>
-      <c r="S22" s="16" t="s">
+      <c r="R22" s="17" t="s">
         <v>339</v>
       </c>
-      <c r="T22" s="16" t="s">
+      <c r="S22" s="17" t="s">
         <v>340</v>
       </c>
-      <c r="U22" s="16" t="s">
+      <c r="T22" s="17" t="s">
         <v>341</v>
       </c>
-      <c r="V22" s="16" t="s">
+      <c r="U22" s="17" t="s">
         <v>342</v>
       </c>
-      <c r="W22" s="16" t="s">
+      <c r="V22" s="17" t="s">
         <v>343</v>
       </c>
-      <c r="X22" s="16" t="s">
+      <c r="W22" s="17" t="s">
         <v>344</v>
       </c>
-      <c r="Y22" s="16" t="s">
+      <c r="X22" s="17" t="s">
         <v>345</v>
       </c>
-      <c r="Z22" s="16" t="s">
+      <c r="Y22" s="17" t="s">
         <v>346</v>
       </c>
-      <c r="AA22" s="16" t="s">
+      <c r="Z22" s="17" t="s">
         <v>347</v>
       </c>
-      <c r="AB22" s="16" t="s">
+      <c r="AA22" s="17" t="s">
         <v>348</v>
       </c>
-      <c r="AC22" s="16" t="s">
-        <v>323</v>
-      </c>
-      <c r="AD22" s="17" t="s">
+      <c r="AB22" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC22" s="17" t="s">
         <v>324</v>
       </c>
+      <c r="AD22" s="18" t="s">
+        <v>325</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="30.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="18" t="s">
-        <v>349</v>
-      </c>
-      <c r="B23" s="15" t="s">
+      <c r="A23" s="19" t="s">
         <v>350</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="B23" s="16" t="s">
         <v>351</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="C23" s="16" t="s">
         <v>352</v>
       </c>
-      <c r="E23" s="15" t="s">
+      <c r="D23" s="16" t="s">
         <v>353</v>
       </c>
-      <c r="F23" s="15" t="s">
+      <c r="E23" s="16" t="s">
         <v>354</v>
       </c>
-      <c r="G23" s="15" t="s">
+      <c r="F23" s="16" t="s">
         <v>355</v>
       </c>
-      <c r="H23" s="15" t="s">
+      <c r="G23" s="16" t="s">
         <v>356</v>
       </c>
-      <c r="I23" s="15" t="s">
+      <c r="H23" s="16" t="s">
         <v>357</v>
       </c>
-      <c r="J23" s="15" t="s">
+      <c r="I23" s="16" t="s">
         <v>358</v>
       </c>
-      <c r="K23" s="15" t="s">
+      <c r="J23" s="16" t="s">
         <v>359</v>
       </c>
-      <c r="L23" s="15" t="s">
+      <c r="K23" s="16" t="s">
         <v>360</v>
       </c>
-      <c r="M23" s="16" t="s">
+      <c r="L23" s="16" t="s">
         <v>361</v>
       </c>
-      <c r="N23" s="16" t="s">
+      <c r="M23" s="17" t="s">
         <v>362</v>
       </c>
-      <c r="O23" s="16" t="s">
+      <c r="N23" s="17" t="s">
         <v>363</v>
       </c>
-      <c r="P23" s="16" t="s">
-        <v>361</v>
-      </c>
-      <c r="Q23" s="16" t="s">
+      <c r="O23" s="17" t="s">
         <v>364</v>
       </c>
-      <c r="R23" s="16" t="s">
+      <c r="P23" s="17" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q23" s="17" t="s">
         <v>365</v>
       </c>
-      <c r="S23" s="16" t="s">
+      <c r="R23" s="17" t="s">
         <v>366</v>
       </c>
-      <c r="T23" s="16" t="s">
+      <c r="S23" s="17" t="s">
         <v>367</v>
       </c>
-      <c r="U23" s="16" t="s">
+      <c r="T23" s="17" t="s">
         <v>368</v>
       </c>
-      <c r="V23" s="16" t="s">
+      <c r="U23" s="17" t="s">
         <v>369</v>
       </c>
-      <c r="W23" s="16" t="s">
+      <c r="V23" s="17" t="s">
         <v>370</v>
       </c>
-      <c r="X23" s="16" t="s">
+      <c r="W23" s="17" t="s">
         <v>371</v>
       </c>
-      <c r="Y23" s="16" t="s">
+      <c r="X23" s="17" t="s">
         <v>372</v>
       </c>
-      <c r="Z23" s="16" t="s">
+      <c r="Y23" s="17" t="s">
         <v>373</v>
       </c>
-      <c r="AA23" s="16" t="s">
+      <c r="Z23" s="17" t="s">
         <v>374</v>
       </c>
-      <c r="AB23" s="16" t="s">
+      <c r="AA23" s="17" t="s">
         <v>375</v>
       </c>
-      <c r="AC23" s="16" t="s">
-        <v>350</v>
-      </c>
-      <c r="AD23" s="17" t="s">
+      <c r="AB23" s="17" t="s">
+        <v>376</v>
+      </c>
+      <c r="AC23" s="17" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="24" s="19" customFormat="true" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="18" t="s">
-        <v>376</v>
-      </c>
-      <c r="B24" s="15" t="s">
+      <c r="AD23" s="18" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="24" s="20" customFormat="true" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="19" t="s">
         <v>377</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="B24" s="16" t="s">
         <v>378</v>
       </c>
-      <c r="D24" s="15" t="s">
+      <c r="C24" s="16" t="s">
         <v>379</v>
       </c>
-      <c r="E24" s="15" t="s">
+      <c r="D24" s="16" t="s">
         <v>380</v>
       </c>
-      <c r="F24" s="15" t="s">
+      <c r="E24" s="16" t="s">
         <v>381</v>
       </c>
-      <c r="G24" s="15" t="s">
+      <c r="F24" s="16" t="s">
         <v>382</v>
       </c>
-      <c r="H24" s="15" t="s">
+      <c r="G24" s="16" t="s">
         <v>383</v>
       </c>
-      <c r="I24" s="15" t="s">
+      <c r="H24" s="16" t="s">
         <v>384</v>
       </c>
-      <c r="J24" s="15" t="s">
+      <c r="I24" s="16" t="s">
         <v>385</v>
       </c>
-      <c r="K24" s="15" t="s">
+      <c r="J24" s="16" t="s">
         <v>386</v>
       </c>
-      <c r="L24" s="15" t="s">
+      <c r="K24" s="16" t="s">
         <v>387</v>
       </c>
-      <c r="M24" s="16" t="s">
+      <c r="L24" s="16" t="s">
         <v>388</v>
       </c>
-      <c r="N24" s="16" t="s">
+      <c r="M24" s="17" t="s">
         <v>389</v>
       </c>
-      <c r="O24" s="16" t="s">
+      <c r="N24" s="17" t="s">
         <v>390</v>
       </c>
-      <c r="P24" s="16" t="s">
-        <v>388</v>
-      </c>
-      <c r="Q24" s="16" t="s">
+      <c r="O24" s="17" t="s">
         <v>391</v>
       </c>
-      <c r="R24" s="16" t="s">
+      <c r="P24" s="17" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q24" s="17" t="s">
         <v>392</v>
       </c>
-      <c r="S24" s="16" t="s">
+      <c r="R24" s="17" t="s">
         <v>393</v>
       </c>
-      <c r="T24" s="16" t="s">
+      <c r="S24" s="17" t="s">
         <v>394</v>
       </c>
-      <c r="U24" s="16" t="s">
+      <c r="T24" s="17" t="s">
         <v>395</v>
       </c>
-      <c r="V24" s="16" t="s">
+      <c r="U24" s="17" t="s">
         <v>396</v>
       </c>
-      <c r="W24" s="16" t="s">
+      <c r="V24" s="17" t="s">
         <v>397</v>
       </c>
-      <c r="X24" s="16" t="s">
+      <c r="W24" s="17" t="s">
         <v>398</v>
       </c>
-      <c r="Y24" s="16" t="s">
+      <c r="X24" s="17" t="s">
         <v>399</v>
       </c>
-      <c r="Z24" s="16" t="s">
+      <c r="Y24" s="17" t="s">
         <v>400</v>
       </c>
-      <c r="AA24" s="16" t="s">
+      <c r="Z24" s="17" t="s">
         <v>401</v>
       </c>
-      <c r="AB24" s="16" t="s">
+      <c r="AA24" s="17" t="s">
         <v>402</v>
       </c>
-      <c r="AC24" s="16" t="s">
-        <v>377</v>
-      </c>
-      <c r="AD24" s="17" t="s">
+      <c r="AB24" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="AC24" s="17" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="25" s="19" customFormat="true" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="18" t="s">
-        <v>403</v>
-      </c>
-      <c r="B25" s="15" t="s">
+      <c r="AD24" s="18" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="25" s="20" customFormat="true" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="19" t="s">
         <v>404</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="B25" s="16" t="s">
         <v>405</v>
       </c>
-      <c r="D25" s="15" t="s">
+      <c r="C25" s="16" t="s">
         <v>406</v>
       </c>
-      <c r="E25" s="15" t="s">
+      <c r="D25" s="16" t="s">
         <v>407</v>
       </c>
-      <c r="F25" s="15" t="s">
+      <c r="E25" s="16" t="s">
         <v>408</v>
       </c>
-      <c r="G25" s="15" t="s">
+      <c r="F25" s="16" t="s">
         <v>409</v>
       </c>
-      <c r="H25" s="15" t="s">
+      <c r="G25" s="16" t="s">
         <v>410</v>
       </c>
-      <c r="I25" s="15" t="s">
+      <c r="H25" s="16" t="s">
         <v>411</v>
       </c>
-      <c r="J25" s="15" t="s">
+      <c r="I25" s="16" t="s">
         <v>412</v>
       </c>
-      <c r="K25" s="15" t="s">
+      <c r="J25" s="16" t="s">
         <v>413</v>
       </c>
-      <c r="L25" s="15" t="s">
+      <c r="K25" s="16" t="s">
         <v>414</v>
       </c>
-      <c r="M25" s="16" t="s">
+      <c r="L25" s="16" t="s">
         <v>415</v>
       </c>
-      <c r="N25" s="16" t="s">
+      <c r="M25" s="17" t="s">
         <v>416</v>
       </c>
-      <c r="O25" s="16" t="s">
+      <c r="N25" s="17" t="s">
         <v>417</v>
       </c>
-      <c r="P25" s="16" t="s">
-        <v>415</v>
-      </c>
-      <c r="Q25" s="16" t="s">
+      <c r="O25" s="17" t="s">
         <v>418</v>
       </c>
-      <c r="R25" s="16" t="s">
+      <c r="P25" s="17" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q25" s="17" t="s">
         <v>419</v>
       </c>
-      <c r="S25" s="16" t="s">
+      <c r="R25" s="17" t="s">
         <v>420</v>
       </c>
-      <c r="T25" s="16" t="s">
+      <c r="S25" s="17" t="s">
         <v>421</v>
       </c>
-      <c r="U25" s="16" t="s">
+      <c r="T25" s="17" t="s">
         <v>422</v>
       </c>
-      <c r="V25" s="16" t="s">
+      <c r="U25" s="17" t="s">
         <v>423</v>
       </c>
-      <c r="W25" s="16" t="s">
+      <c r="V25" s="17" t="s">
         <v>424</v>
       </c>
-      <c r="X25" s="16" t="s">
+      <c r="W25" s="17" t="s">
         <v>425</v>
       </c>
-      <c r="Y25" s="16" t="s">
+      <c r="X25" s="17" t="s">
         <v>426</v>
       </c>
-      <c r="Z25" s="16" t="s">
+      <c r="Y25" s="17" t="s">
         <v>427</v>
       </c>
-      <c r="AA25" s="16" t="s">
+      <c r="Z25" s="17" t="s">
         <v>428</v>
       </c>
-      <c r="AB25" s="16" t="s">
+      <c r="AA25" s="17" t="s">
         <v>429</v>
       </c>
-      <c r="AC25" s="16" t="s">
-        <v>404</v>
-      </c>
-      <c r="AD25" s="17" t="s">
+      <c r="AB25" s="17" t="s">
+        <v>430</v>
+      </c>
+      <c r="AC25" s="17" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="26" s="19" customFormat="true" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="18" t="s">
-        <v>430</v>
-      </c>
-      <c r="B26" s="15" t="s">
+      <c r="AD25" s="18" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="26" s="20" customFormat="true" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="19" t="s">
         <v>431</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="B26" s="16" t="s">
         <v>432</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="C26" s="16" t="s">
         <v>433</v>
       </c>
-      <c r="E26" s="15" t="s">
+      <c r="D26" s="16" t="s">
         <v>434</v>
       </c>
-      <c r="F26" s="15" t="s">
+      <c r="E26" s="16" t="s">
         <v>435</v>
       </c>
-      <c r="G26" s="15" t="s">
+      <c r="F26" s="16" t="s">
         <v>436</v>
       </c>
-      <c r="H26" s="15" t="s">
+      <c r="G26" s="16" t="s">
         <v>437</v>
       </c>
-      <c r="I26" s="15" t="s">
+      <c r="H26" s="16" t="s">
         <v>438</v>
       </c>
-      <c r="J26" s="15" t="s">
+      <c r="I26" s="16" t="s">
         <v>439</v>
       </c>
-      <c r="K26" s="15" t="s">
+      <c r="J26" s="16" t="s">
         <v>440</v>
       </c>
-      <c r="L26" s="15" t="s">
+      <c r="K26" s="16" t="s">
         <v>441</v>
       </c>
-      <c r="M26" s="16" t="s">
+      <c r="L26" s="16" t="s">
         <v>442</v>
       </c>
-      <c r="N26" s="16" t="s">
+      <c r="M26" s="17" t="s">
         <v>443</v>
       </c>
-      <c r="O26" s="16" t="s">
+      <c r="N26" s="17" t="s">
         <v>444</v>
       </c>
-      <c r="P26" s="16" t="s">
-        <v>442</v>
-      </c>
-      <c r="Q26" s="16" t="s">
+      <c r="O26" s="17" t="s">
         <v>445</v>
       </c>
-      <c r="R26" s="16" t="s">
+      <c r="P26" s="17" t="s">
+        <v>443</v>
+      </c>
+      <c r="Q26" s="17" t="s">
         <v>446</v>
       </c>
-      <c r="S26" s="16" t="s">
+      <c r="R26" s="17" t="s">
         <v>447</v>
       </c>
-      <c r="T26" s="16" t="s">
+      <c r="S26" s="17" t="s">
         <v>448</v>
       </c>
-      <c r="U26" s="16" t="s">
+      <c r="T26" s="17" t="s">
         <v>449</v>
       </c>
-      <c r="V26" s="16" t="s">
+      <c r="U26" s="17" t="s">
         <v>450</v>
       </c>
-      <c r="W26" s="16" t="s">
+      <c r="V26" s="17" t="s">
         <v>451</v>
       </c>
-      <c r="X26" s="16" t="s">
+      <c r="W26" s="17" t="s">
         <v>452</v>
       </c>
-      <c r="Y26" s="16" t="s">
+      <c r="X26" s="17" t="s">
         <v>453</v>
       </c>
-      <c r="Z26" s="16" t="s">
+      <c r="Y26" s="17" t="s">
         <v>454</v>
       </c>
-      <c r="AA26" s="16" t="s">
+      <c r="Z26" s="17" t="s">
         <v>455</v>
       </c>
-      <c r="AB26" s="16" t="s">
+      <c r="AA26" s="17" t="s">
         <v>456</v>
       </c>
-      <c r="AC26" s="16" t="s">
-        <v>431</v>
-      </c>
-      <c r="AD26" s="17" t="s">
+      <c r="AB26" s="17" t="s">
+        <v>457</v>
+      </c>
+      <c r="AC26" s="17" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="27" s="19" customFormat="true" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="18" t="s">
-        <v>457</v>
-      </c>
-      <c r="B27" s="15" t="s">
+      <c r="AD26" s="18" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="27" s="20" customFormat="true" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="19" t="s">
         <v>458</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="B27" s="16" t="s">
         <v>459</v>
       </c>
-      <c r="D27" s="15" t="s">
+      <c r="C27" s="16" t="s">
         <v>460</v>
       </c>
-      <c r="E27" s="15" t="s">
+      <c r="D27" s="16" t="s">
         <v>461</v>
       </c>
-      <c r="F27" s="15" t="s">
+      <c r="E27" s="16" t="s">
         <v>462</v>
       </c>
-      <c r="G27" s="15" t="s">
+      <c r="F27" s="16" t="s">
         <v>463</v>
       </c>
-      <c r="H27" s="15" t="s">
+      <c r="G27" s="16" t="s">
         <v>464</v>
       </c>
-      <c r="I27" s="15" t="s">
+      <c r="H27" s="16" t="s">
         <v>465</v>
       </c>
-      <c r="J27" s="15" t="s">
+      <c r="I27" s="16" t="s">
         <v>466</v>
       </c>
-      <c r="K27" s="15" t="s">
+      <c r="J27" s="16" t="s">
         <v>467</v>
       </c>
-      <c r="L27" s="15" t="s">
+      <c r="K27" s="16" t="s">
         <v>468</v>
       </c>
-      <c r="M27" s="16" t="s">
+      <c r="L27" s="16" t="s">
         <v>469</v>
       </c>
-      <c r="N27" s="16" t="s">
+      <c r="M27" s="17" t="s">
         <v>470</v>
       </c>
-      <c r="O27" s="16" t="s">
+      <c r="N27" s="17" t="s">
         <v>471</v>
       </c>
-      <c r="P27" s="16" t="s">
-        <v>469</v>
-      </c>
-      <c r="Q27" s="16" t="s">
+      <c r="O27" s="17" t="s">
         <v>472</v>
       </c>
-      <c r="R27" s="16" t="s">
+      <c r="P27" s="17" t="s">
+        <v>470</v>
+      </c>
+      <c r="Q27" s="17" t="s">
         <v>473</v>
       </c>
-      <c r="S27" s="16" t="s">
+      <c r="R27" s="17" t="s">
         <v>474</v>
       </c>
-      <c r="T27" s="16" t="s">
+      <c r="S27" s="17" t="s">
         <v>475</v>
       </c>
-      <c r="U27" s="16" t="s">
+      <c r="T27" s="17" t="s">
         <v>476</v>
       </c>
-      <c r="V27" s="16" t="s">
+      <c r="U27" s="17" t="s">
         <v>477</v>
       </c>
-      <c r="W27" s="16" t="s">
+      <c r="V27" s="17" t="s">
         <v>478</v>
       </c>
-      <c r="X27" s="16" t="s">
+      <c r="W27" s="17" t="s">
         <v>479</v>
       </c>
-      <c r="Y27" s="16" t="s">
+      <c r="X27" s="17" t="s">
         <v>480</v>
       </c>
-      <c r="Z27" s="16" t="s">
+      <c r="Y27" s="17" t="s">
         <v>481</v>
       </c>
-      <c r="AA27" s="16" t="s">
+      <c r="Z27" s="17" t="s">
         <v>482</v>
       </c>
-      <c r="AB27" s="16" t="s">
+      <c r="AA27" s="17" t="s">
         <v>483</v>
       </c>
-      <c r="AC27" s="16" t="s">
-        <v>458</v>
-      </c>
-      <c r="AD27" s="17" t="s">
+      <c r="AB27" s="17" t="s">
+        <v>484</v>
+      </c>
+      <c r="AC27" s="17" t="s">
         <v>459</v>
       </c>
+      <c r="AD27" s="18" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="63.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="29" t="s">
-        <v>484</v>
-      </c>
-      <c r="B28" s="15" t="s">
+      <c r="A28" s="30" t="s">
         <v>485</v>
       </c>
-      <c r="C28" s="15" t="s">
+      <c r="B28" s="16" t="s">
         <v>486</v>
       </c>
-      <c r="D28" s="15" t="s">
+      <c r="C28" s="16" t="s">
         <v>487</v>
       </c>
-      <c r="E28" s="15" t="s">
+      <c r="D28" s="16" t="s">
         <v>488</v>
       </c>
-      <c r="F28" s="15" t="s">
+      <c r="E28" s="16" t="s">
         <v>489</v>
       </c>
-      <c r="G28" s="15" t="s">
+      <c r="F28" s="16" t="s">
         <v>490</v>
       </c>
-      <c r="H28" s="15" t="s">
+      <c r="G28" s="16" t="s">
         <v>491</v>
       </c>
-      <c r="I28" s="15" t="s">
+      <c r="H28" s="16" t="s">
         <v>492</v>
       </c>
-      <c r="J28" s="15" t="s">
+      <c r="I28" s="16" t="s">
         <v>493</v>
       </c>
-      <c r="K28" s="15" t="s">
+      <c r="J28" s="16" t="s">
         <v>494</v>
       </c>
-      <c r="L28" s="15" t="s">
+      <c r="K28" s="16" t="s">
         <v>495</v>
       </c>
-      <c r="M28" s="16" t="s">
+      <c r="L28" s="16" t="s">
         <v>496</v>
       </c>
-      <c r="N28" s="16" t="s">
+      <c r="M28" s="17" t="s">
         <v>497</v>
       </c>
-      <c r="O28" s="16" t="s">
+      <c r="N28" s="17" t="s">
         <v>498</v>
       </c>
-      <c r="P28" s="16" t="s">
-        <v>496</v>
-      </c>
-      <c r="Q28" s="16" t="s">
+      <c r="O28" s="17" t="s">
         <v>499</v>
       </c>
-      <c r="R28" s="16" t="s">
+      <c r="P28" s="17" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q28" s="17" t="s">
         <v>500</v>
       </c>
-      <c r="S28" s="16" t="s">
+      <c r="R28" s="17" t="s">
         <v>501</v>
       </c>
-      <c r="T28" s="16" t="s">
+      <c r="S28" s="17" t="s">
         <v>502</v>
       </c>
-      <c r="U28" s="16" t="s">
+      <c r="T28" s="17" t="s">
         <v>503</v>
       </c>
-      <c r="V28" s="16" t="s">
+      <c r="U28" s="17" t="s">
         <v>504</v>
       </c>
-      <c r="W28" s="16" t="s">
+      <c r="V28" s="17" t="s">
         <v>505</v>
       </c>
-      <c r="X28" s="16" t="s">
+      <c r="W28" s="17" t="s">
         <v>506</v>
       </c>
-      <c r="Y28" s="16" t="s">
+      <c r="X28" s="17" t="s">
         <v>507</v>
       </c>
-      <c r="Z28" s="16" t="s">
+      <c r="Y28" s="17" t="s">
         <v>508</v>
       </c>
-      <c r="AA28" s="16" t="s">
+      <c r="Z28" s="17" t="s">
         <v>509</v>
       </c>
-      <c r="AB28" s="16" t="s">
+      <c r="AA28" s="17" t="s">
         <v>510</v>
       </c>
-      <c r="AC28" s="16" t="s">
-        <v>485</v>
-      </c>
-      <c r="AD28" s="17" t="s">
+      <c r="AB28" s="17" t="s">
+        <v>511</v>
+      </c>
+      <c r="AC28" s="17" t="s">
         <v>486</v>
       </c>
+      <c r="AD28" s="18" t="s">
+        <v>487</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="58.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="29" t="s">
-        <v>511</v>
-      </c>
-      <c r="B29" s="15" t="s">
+      <c r="A29" s="30" t="s">
         <v>512</v>
       </c>
-      <c r="C29" s="15" t="s">
+      <c r="B29" s="16" t="s">
         <v>513</v>
       </c>
-      <c r="D29" s="15" t="s">
+      <c r="C29" s="16" t="s">
         <v>514</v>
       </c>
-      <c r="E29" s="15" t="s">
+      <c r="D29" s="16" t="s">
         <v>515</v>
       </c>
-      <c r="F29" s="15" t="s">
+      <c r="E29" s="16" t="s">
         <v>516</v>
       </c>
-      <c r="G29" s="15" t="s">
+      <c r="F29" s="16" t="s">
         <v>517</v>
       </c>
-      <c r="H29" s="15" t="s">
+      <c r="G29" s="16" t="s">
         <v>518</v>
       </c>
-      <c r="I29" s="15" t="s">
+      <c r="H29" s="16" t="s">
         <v>519</v>
       </c>
-      <c r="J29" s="15" t="s">
+      <c r="I29" s="16" t="s">
         <v>520</v>
       </c>
-      <c r="K29" s="15" t="s">
+      <c r="J29" s="16" t="s">
         <v>521</v>
       </c>
-      <c r="L29" s="15" t="s">
+      <c r="K29" s="16" t="s">
         <v>522</v>
       </c>
-      <c r="M29" s="16" t="s">
+      <c r="L29" s="16" t="s">
         <v>523</v>
       </c>
-      <c r="N29" s="16" t="s">
+      <c r="M29" s="17" t="s">
         <v>524</v>
       </c>
-      <c r="O29" s="16" t="s">
+      <c r="N29" s="17" t="s">
         <v>525</v>
       </c>
-      <c r="P29" s="16" t="s">
-        <v>523</v>
-      </c>
-      <c r="Q29" s="16" t="s">
+      <c r="O29" s="17" t="s">
         <v>526</v>
       </c>
-      <c r="R29" s="16" t="s">
+      <c r="P29" s="17" t="s">
+        <v>524</v>
+      </c>
+      <c r="Q29" s="17" t="s">
         <v>527</v>
       </c>
-      <c r="S29" s="16" t="s">
+      <c r="R29" s="17" t="s">
         <v>528</v>
       </c>
-      <c r="T29" s="16" t="s">
+      <c r="S29" s="17" t="s">
         <v>529</v>
       </c>
-      <c r="U29" s="16" t="s">
+      <c r="T29" s="17" t="s">
         <v>530</v>
       </c>
-      <c r="V29" s="16" t="s">
+      <c r="U29" s="17" t="s">
         <v>531</v>
       </c>
-      <c r="W29" s="16" t="s">
+      <c r="V29" s="17" t="s">
         <v>532</v>
       </c>
-      <c r="X29" s="16" t="s">
+      <c r="W29" s="17" t="s">
         <v>533</v>
       </c>
-      <c r="Y29" s="16" t="s">
+      <c r="X29" s="17" t="s">
         <v>534</v>
       </c>
-      <c r="Z29" s="16" t="s">
+      <c r="Y29" s="17" t="s">
         <v>535</v>
       </c>
-      <c r="AA29" s="16" t="s">
+      <c r="Z29" s="17" t="s">
         <v>536</v>
       </c>
-      <c r="AB29" s="16" t="s">
+      <c r="AA29" s="17" t="s">
         <v>537</v>
       </c>
-      <c r="AC29" s="16" t="s">
-        <v>512</v>
-      </c>
-      <c r="AD29" s="17" t="s">
+      <c r="AB29" s="17" t="s">
+        <v>538</v>
+      </c>
+      <c r="AC29" s="17" t="s">
         <v>513</v>
       </c>
+      <c r="AD29" s="18" t="s">
+        <v>514</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="65.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="29" t="s">
-        <v>538</v>
-      </c>
-      <c r="B30" s="15" t="s">
+      <c r="A30" s="30" t="s">
         <v>539</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="B30" s="16" t="s">
         <v>540</v>
       </c>
-      <c r="D30" s="15" t="s">
+      <c r="C30" s="16" t="s">
         <v>541</v>
       </c>
-      <c r="E30" s="15" t="s">
+      <c r="D30" s="16" t="s">
         <v>542</v>
       </c>
-      <c r="F30" s="15" t="s">
+      <c r="E30" s="16" t="s">
         <v>543</v>
       </c>
-      <c r="G30" s="15" t="s">
+      <c r="F30" s="16" t="s">
         <v>544</v>
       </c>
-      <c r="H30" s="15" t="s">
+      <c r="G30" s="16" t="s">
         <v>545</v>
       </c>
-      <c r="I30" s="15" t="s">
+      <c r="H30" s="16" t="s">
         <v>546</v>
       </c>
-      <c r="J30" s="15" t="s">
+      <c r="I30" s="16" t="s">
         <v>547</v>
       </c>
-      <c r="K30" s="15" t="s">
+      <c r="J30" s="16" t="s">
         <v>548</v>
       </c>
-      <c r="L30" s="15" t="s">
+      <c r="K30" s="16" t="s">
         <v>549</v>
       </c>
-      <c r="M30" s="16" t="s">
+      <c r="L30" s="16" t="s">
         <v>550</v>
       </c>
-      <c r="N30" s="16" t="s">
+      <c r="M30" s="17" t="s">
         <v>551</v>
       </c>
-      <c r="O30" s="16" t="s">
+      <c r="N30" s="17" t="s">
         <v>552</v>
       </c>
-      <c r="P30" s="16" t="s">
-        <v>550</v>
-      </c>
-      <c r="Q30" s="16" t="s">
+      <c r="O30" s="17" t="s">
         <v>553</v>
       </c>
-      <c r="R30" s="16" t="s">
+      <c r="P30" s="17" t="s">
+        <v>551</v>
+      </c>
+      <c r="Q30" s="17" t="s">
         <v>554</v>
       </c>
-      <c r="S30" s="16" t="s">
+      <c r="R30" s="17" t="s">
         <v>555</v>
       </c>
-      <c r="T30" s="16" t="s">
+      <c r="S30" s="17" t="s">
         <v>556</v>
       </c>
-      <c r="U30" s="16" t="s">
+      <c r="T30" s="17" t="s">
         <v>557</v>
       </c>
-      <c r="V30" s="16" t="s">
+      <c r="U30" s="17" t="s">
         <v>558</v>
       </c>
-      <c r="W30" s="16" t="s">
+      <c r="V30" s="17" t="s">
         <v>559</v>
       </c>
-      <c r="X30" s="16" t="s">
+      <c r="W30" s="17" t="s">
         <v>560</v>
       </c>
-      <c r="Y30" s="16" t="s">
+      <c r="X30" s="17" t="s">
         <v>561</v>
       </c>
-      <c r="Z30" s="16" t="s">
+      <c r="Y30" s="17" t="s">
         <v>562</v>
       </c>
-      <c r="AA30" s="16" t="s">
+      <c r="Z30" s="17" t="s">
         <v>563</v>
       </c>
-      <c r="AB30" s="16" t="s">
+      <c r="AA30" s="17" t="s">
         <v>564</v>
       </c>
-      <c r="AC30" s="16" t="s">
-        <v>539</v>
-      </c>
-      <c r="AD30" s="17" t="s">
+      <c r="AB30" s="17" t="s">
+        <v>565</v>
+      </c>
+      <c r="AC30" s="17" t="s">
         <v>540</v>
       </c>
+      <c r="AD30" s="18" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="70.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="30" t="s">
-        <v>565</v>
-      </c>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="31"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="16"/>
-      <c r="M31" s="16"/>
-      <c r="N31" s="16"/>
-      <c r="O31" s="16"/>
-      <c r="P31" s="16"/>
-      <c r="Q31" s="16"/>
-      <c r="R31" s="16"/>
-      <c r="S31" s="16"/>
-      <c r="T31" s="16"/>
-      <c r="U31" s="16"/>
-      <c r="V31" s="16"/>
-      <c r="W31" s="16"/>
-      <c r="X31" s="16"/>
-      <c r="Y31" s="16"/>
-      <c r="Z31" s="16"/>
-      <c r="AA31" s="16"/>
-      <c r="AB31" s="16"/>
-      <c r="AC31" s="31"/>
-      <c r="AD31" s="32"/>
+      <c r="A31" s="31" t="s">
+        <v>566</v>
+      </c>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
+      <c r="R31" s="17"/>
+      <c r="S31" s="17"/>
+      <c r="T31" s="17"/>
+      <c r="U31" s="17"/>
+      <c r="V31" s="17"/>
+      <c r="W31" s="17"/>
+      <c r="X31" s="17"/>
+      <c r="Y31" s="17"/>
+      <c r="Z31" s="17"/>
+      <c r="AA31" s="17"/>
+      <c r="AB31" s="17"/>
+      <c r="AC31" s="32"/>
+      <c r="AD31" s="33"/>
     </row>
     <row r="32" customFormat="false" ht="52.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="30" t="s">
-        <v>566</v>
-      </c>
-      <c r="B32" s="15" t="s">
+      <c r="A32" s="31" t="s">
         <v>567</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="B32" s="16" t="s">
         <v>568</v>
       </c>
-      <c r="D32" s="15" t="s">
+      <c r="C32" s="16" t="s">
         <v>569</v>
       </c>
-      <c r="E32" s="15" t="s">
+      <c r="D32" s="16" t="s">
         <v>570</v>
       </c>
-      <c r="F32" s="15" t="s">
+      <c r="E32" s="16" t="s">
         <v>571</v>
       </c>
-      <c r="G32" s="15" t="s">
+      <c r="F32" s="16" t="s">
         <v>572</v>
       </c>
-      <c r="H32" s="15" t="s">
+      <c r="G32" s="16" t="s">
         <v>573</v>
       </c>
-      <c r="I32" s="15" t="s">
+      <c r="H32" s="16" t="s">
         <v>574</v>
       </c>
-      <c r="J32" s="15" t="s">
+      <c r="I32" s="16" t="s">
         <v>575</v>
       </c>
-      <c r="K32" s="15" t="s">
+      <c r="J32" s="16" t="s">
         <v>576</v>
       </c>
-      <c r="L32" s="15" t="s">
+      <c r="K32" s="16" t="s">
         <v>577</v>
       </c>
-      <c r="M32" s="16" t="s">
+      <c r="L32" s="16" t="s">
         <v>578</v>
       </c>
-      <c r="N32" s="16" t="s">
+      <c r="M32" s="17" t="s">
         <v>579</v>
       </c>
-      <c r="O32" s="16" t="s">
+      <c r="N32" s="17" t="s">
         <v>580</v>
       </c>
-      <c r="P32" s="16" t="s">
-        <v>578</v>
-      </c>
-      <c r="Q32" s="16" t="s">
+      <c r="O32" s="17" t="s">
         <v>581</v>
       </c>
-      <c r="R32" s="16" t="s">
+      <c r="P32" s="17" t="s">
+        <v>579</v>
+      </c>
+      <c r="Q32" s="17" t="s">
         <v>582</v>
       </c>
-      <c r="S32" s="16" t="s">
+      <c r="R32" s="17" t="s">
         <v>583</v>
       </c>
-      <c r="T32" s="16" t="s">
+      <c r="S32" s="17" t="s">
         <v>584</v>
       </c>
-      <c r="U32" s="16" t="s">
+      <c r="T32" s="17" t="s">
         <v>585</v>
       </c>
-      <c r="V32" s="16" t="s">
+      <c r="U32" s="17" t="s">
         <v>586</v>
       </c>
-      <c r="W32" s="16" t="s">
+      <c r="V32" s="17" t="s">
         <v>587</v>
       </c>
-      <c r="X32" s="16" t="s">
+      <c r="W32" s="17" t="s">
         <v>588</v>
       </c>
-      <c r="Y32" s="16" t="s">
+      <c r="X32" s="17" t="s">
         <v>589</v>
       </c>
-      <c r="Z32" s="16" t="s">
+      <c r="Y32" s="17" t="s">
         <v>590</v>
       </c>
-      <c r="AA32" s="16" t="s">
+      <c r="Z32" s="17" t="s">
         <v>591</v>
       </c>
-      <c r="AB32" s="16" t="s">
+      <c r="AA32" s="17" t="s">
         <v>592</v>
       </c>
-      <c r="AC32" s="16" t="s">
-        <v>567</v>
-      </c>
-      <c r="AD32" s="17" t="s">
+      <c r="AB32" s="17" t="s">
+        <v>593</v>
+      </c>
+      <c r="AC32" s="17" t="s">
         <v>568</v>
       </c>
+      <c r="AD32" s="18" t="s">
+        <v>569</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="59.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="30" t="s">
-        <v>593</v>
-      </c>
-      <c r="B33" s="15" t="s">
+      <c r="A33" s="31" t="s">
         <v>594</v>
       </c>
-      <c r="C33" s="15" t="s">
+      <c r="B33" s="16" t="s">
         <v>595</v>
       </c>
-      <c r="D33" s="15" t="s">
+      <c r="C33" s="16" t="s">
         <v>596</v>
       </c>
-      <c r="E33" s="15" t="s">
+      <c r="D33" s="16" t="s">
         <v>597</v>
       </c>
-      <c r="F33" s="15" t="s">
+      <c r="E33" s="16" t="s">
         <v>598</v>
       </c>
-      <c r="G33" s="15" t="s">
+      <c r="F33" s="16" t="s">
         <v>599</v>
       </c>
-      <c r="H33" s="15" t="s">
+      <c r="G33" s="16" t="s">
         <v>600</v>
       </c>
-      <c r="I33" s="15" t="s">
+      <c r="H33" s="16" t="s">
         <v>601</v>
       </c>
-      <c r="J33" s="15" t="s">
+      <c r="I33" s="16" t="s">
         <v>602</v>
       </c>
-      <c r="K33" s="15" t="s">
+      <c r="J33" s="16" t="s">
         <v>603</v>
       </c>
-      <c r="L33" s="15" t="s">
+      <c r="K33" s="16" t="s">
         <v>604</v>
       </c>
-      <c r="M33" s="16" t="s">
+      <c r="L33" s="16" t="s">
         <v>605</v>
       </c>
-      <c r="N33" s="16" t="s">
+      <c r="M33" s="17" t="s">
         <v>606</v>
       </c>
-      <c r="O33" s="16" t="s">
+      <c r="N33" s="17" t="s">
         <v>607</v>
       </c>
-      <c r="P33" s="16" t="s">
-        <v>605</v>
-      </c>
-      <c r="Q33" s="16" t="s">
+      <c r="O33" s="17" t="s">
         <v>608</v>
       </c>
-      <c r="R33" s="16" t="s">
+      <c r="P33" s="17" t="s">
+        <v>606</v>
+      </c>
+      <c r="Q33" s="17" t="s">
         <v>609</v>
       </c>
-      <c r="S33" s="16" t="s">
+      <c r="R33" s="17" t="s">
         <v>610</v>
       </c>
-      <c r="T33" s="16" t="s">
+      <c r="S33" s="17" t="s">
         <v>611</v>
       </c>
-      <c r="U33" s="16" t="s">
+      <c r="T33" s="17" t="s">
         <v>612</v>
       </c>
-      <c r="V33" s="16" t="s">
+      <c r="U33" s="17" t="s">
         <v>613</v>
       </c>
-      <c r="W33" s="16" t="s">
+      <c r="V33" s="17" t="s">
         <v>614</v>
       </c>
-      <c r="X33" s="16" t="s">
+      <c r="W33" s="17" t="s">
         <v>615</v>
       </c>
-      <c r="Y33" s="16" t="s">
+      <c r="X33" s="17" t="s">
         <v>616</v>
       </c>
-      <c r="Z33" s="16" t="s">
+      <c r="Y33" s="17" t="s">
         <v>617</v>
       </c>
-      <c r="AA33" s="16" t="s">
+      <c r="Z33" s="17" t="s">
         <v>618</v>
       </c>
-      <c r="AB33" s="16" t="s">
+      <c r="AA33" s="17" t="s">
         <v>619</v>
       </c>
-      <c r="AC33" s="16" t="s">
-        <v>594</v>
-      </c>
-      <c r="AD33" s="17" t="s">
+      <c r="AB33" s="17" t="s">
+        <v>620</v>
+      </c>
+      <c r="AC33" s="17" t="s">
         <v>595</v>
       </c>
+      <c r="AD33" s="18" t="s">
+        <v>596</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="54.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="25" t="s">
-        <v>620</v>
-      </c>
-      <c r="B34" s="26" t="s">
+      <c r="A34" s="26" t="s">
         <v>621</v>
       </c>
-      <c r="C34" s="26" t="s">
+      <c r="B34" s="27" t="s">
         <v>622</v>
       </c>
-      <c r="D34" s="26" t="s">
+      <c r="C34" s="27" t="s">
         <v>623</v>
       </c>
-      <c r="E34" s="26" t="s">
+      <c r="D34" s="27" t="s">
         <v>624</v>
       </c>
-      <c r="F34" s="26" t="s">
+      <c r="E34" s="27" t="s">
         <v>625</v>
       </c>
-      <c r="G34" s="26" t="s">
+      <c r="F34" s="27" t="s">
         <v>626</v>
       </c>
-      <c r="H34" s="26" t="s">
+      <c r="G34" s="27" t="s">
         <v>627</v>
       </c>
-      <c r="I34" s="26" t="s">
+      <c r="H34" s="27" t="s">
         <v>628</v>
       </c>
-      <c r="J34" s="26" t="s">
+      <c r="I34" s="27" t="s">
         <v>629</v>
       </c>
-      <c r="K34" s="26" t="s">
+      <c r="J34" s="27" t="s">
         <v>630</v>
       </c>
-      <c r="L34" s="26" t="s">
+      <c r="K34" s="27" t="s">
         <v>631</v>
       </c>
-      <c r="M34" s="27" t="s">
+      <c r="L34" s="27" t="s">
         <v>632</v>
       </c>
-      <c r="N34" s="27" t="s">
+      <c r="M34" s="28" t="s">
         <v>633</v>
       </c>
-      <c r="O34" s="27" t="s">
+      <c r="N34" s="28" t="s">
         <v>634</v>
       </c>
-      <c r="P34" s="27" t="s">
-        <v>632</v>
-      </c>
-      <c r="Q34" s="27" t="s">
+      <c r="O34" s="28" t="s">
         <v>635</v>
       </c>
-      <c r="R34" s="27" t="s">
+      <c r="P34" s="28" t="s">
+        <v>633</v>
+      </c>
+      <c r="Q34" s="28" t="s">
         <v>636</v>
       </c>
-      <c r="S34" s="27" t="s">
+      <c r="R34" s="28" t="s">
         <v>637</v>
       </c>
-      <c r="T34" s="27" t="s">
+      <c r="S34" s="28" t="s">
         <v>638</v>
       </c>
-      <c r="U34" s="27" t="s">
+      <c r="T34" s="28" t="s">
         <v>639</v>
       </c>
-      <c r="V34" s="27" t="s">
+      <c r="U34" s="28" t="s">
         <v>640</v>
       </c>
-      <c r="W34" s="27" t="s">
+      <c r="V34" s="28" t="s">
         <v>641</v>
       </c>
-      <c r="X34" s="27" t="s">
+      <c r="W34" s="28" t="s">
         <v>642</v>
       </c>
-      <c r="Y34" s="27" t="s">
+      <c r="X34" s="28" t="s">
         <v>643</v>
       </c>
-      <c r="Z34" s="27" t="s">
+      <c r="Y34" s="28" t="s">
         <v>644</v>
       </c>
-      <c r="AA34" s="27" t="s">
+      <c r="Z34" s="28" t="s">
         <v>645</v>
       </c>
-      <c r="AB34" s="27" t="s">
+      <c r="AA34" s="28" t="s">
         <v>646</v>
       </c>
-      <c r="AC34" s="27" t="s">
-        <v>621</v>
-      </c>
-      <c r="AD34" s="28" t="s">
+      <c r="AB34" s="28" t="s">
+        <v>647</v>
+      </c>
+      <c r="AC34" s="28" t="s">
         <v>622</v>
       </c>
+      <c r="AD34" s="29" t="s">
+        <v>623</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="18" t="s">
-        <v>647</v>
-      </c>
-      <c r="B35" s="15" t="s">
+      <c r="A35" s="19" t="s">
         <v>648</v>
       </c>
-      <c r="C35" s="15" t="s">
+      <c r="B35" s="16" t="s">
         <v>649</v>
       </c>
-      <c r="D35" s="15" t="s">
+      <c r="C35" s="16" t="s">
         <v>650</v>
       </c>
-      <c r="E35" s="15" t="s">
+      <c r="D35" s="16" t="s">
         <v>651</v>
       </c>
-      <c r="F35" s="15" t="s">
+      <c r="E35" s="16" t="s">
         <v>652</v>
       </c>
-      <c r="G35" s="15" t="s">
+      <c r="F35" s="16" t="s">
         <v>653</v>
       </c>
-      <c r="H35" s="15" t="s">
+      <c r="G35" s="16" t="s">
         <v>654</v>
       </c>
-      <c r="I35" s="15" t="s">
+      <c r="H35" s="16" t="s">
         <v>655</v>
       </c>
-      <c r="J35" s="15" t="s">
+      <c r="I35" s="16" t="s">
         <v>656</v>
       </c>
-      <c r="K35" s="15" t="s">
+      <c r="J35" s="16" t="s">
         <v>657</v>
       </c>
-      <c r="L35" s="15" t="s">
+      <c r="K35" s="16" t="s">
         <v>658</v>
       </c>
-      <c r="M35" s="16" t="s">
+      <c r="L35" s="16" t="s">
         <v>659</v>
       </c>
-      <c r="N35" s="16" t="s">
+      <c r="M35" s="17" t="s">
         <v>660</v>
       </c>
-      <c r="O35" s="16" t="s">
+      <c r="N35" s="17" t="s">
         <v>661</v>
       </c>
-      <c r="P35" s="16" t="s">
-        <v>659</v>
-      </c>
-      <c r="Q35" s="16" t="s">
+      <c r="O35" s="17" t="s">
         <v>662</v>
       </c>
-      <c r="R35" s="16" t="s">
+      <c r="P35" s="17" t="s">
+        <v>660</v>
+      </c>
+      <c r="Q35" s="17" t="s">
         <v>663</v>
       </c>
-      <c r="S35" s="16" t="s">
+      <c r="R35" s="17" t="s">
         <v>664</v>
       </c>
-      <c r="T35" s="16" t="s">
+      <c r="S35" s="17" t="s">
         <v>665</v>
       </c>
-      <c r="U35" s="16" t="s">
+      <c r="T35" s="17" t="s">
         <v>666</v>
       </c>
-      <c r="V35" s="16" t="s">
+      <c r="U35" s="17" t="s">
         <v>667</v>
       </c>
-      <c r="W35" s="16" t="s">
+      <c r="V35" s="17" t="s">
         <v>668</v>
       </c>
-      <c r="X35" s="16" t="s">
+      <c r="W35" s="17" t="s">
         <v>669</v>
       </c>
-      <c r="Y35" s="16" t="s">
+      <c r="X35" s="17" t="s">
         <v>670</v>
       </c>
-      <c r="Z35" s="16" t="s">
+      <c r="Y35" s="17" t="s">
         <v>671</v>
       </c>
-      <c r="AA35" s="16" t="s">
+      <c r="Z35" s="17" t="s">
         <v>672</v>
       </c>
-      <c r="AB35" s="16" t="s">
+      <c r="AA35" s="17" t="s">
         <v>673</v>
       </c>
-      <c r="AC35" s="16" t="s">
-        <v>648</v>
-      </c>
-      <c r="AD35" s="17" t="s">
+      <c r="AB35" s="17" t="s">
+        <v>674</v>
+      </c>
+      <c r="AC35" s="17" t="s">
         <v>649</v>
       </c>
+      <c r="AD35" s="18" t="s">
+        <v>650</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="53.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="18" t="s">
-        <v>674</v>
-      </c>
-      <c r="B36" s="15" t="s">
+      <c r="A36" s="19" t="s">
         <v>675</v>
       </c>
-      <c r="C36" s="15" t="s">
+      <c r="B36" s="16" t="s">
         <v>676</v>
       </c>
-      <c r="D36" s="15" t="s">
+      <c r="C36" s="16" t="s">
         <v>677</v>
       </c>
-      <c r="E36" s="15" t="s">
+      <c r="D36" s="16" t="s">
         <v>678</v>
       </c>
-      <c r="F36" s="15" t="s">
+      <c r="E36" s="16" t="s">
         <v>679</v>
       </c>
-      <c r="G36" s="15" t="s">
+      <c r="F36" s="16" t="s">
         <v>680</v>
       </c>
-      <c r="H36" s="15" t="s">
+      <c r="G36" s="16" t="s">
         <v>681</v>
       </c>
-      <c r="I36" s="15" t="s">
+      <c r="H36" s="16" t="s">
         <v>682</v>
       </c>
-      <c r="J36" s="15" t="s">
+      <c r="I36" s="16" t="s">
         <v>683</v>
       </c>
-      <c r="K36" s="15" t="s">
+      <c r="J36" s="16" t="s">
         <v>684</v>
       </c>
-      <c r="L36" s="15" t="s">
+      <c r="K36" s="16" t="s">
         <v>685</v>
       </c>
-      <c r="M36" s="16" t="s">
+      <c r="L36" s="16" t="s">
         <v>686</v>
       </c>
-      <c r="N36" s="16" t="s">
+      <c r="M36" s="17" t="s">
         <v>687</v>
       </c>
-      <c r="O36" s="16" t="s">
+      <c r="N36" s="17" t="s">
         <v>688</v>
       </c>
-      <c r="P36" s="16" t="s">
-        <v>686</v>
-      </c>
-      <c r="Q36" s="16" t="s">
+      <c r="O36" s="17" t="s">
         <v>689</v>
       </c>
-      <c r="R36" s="16" t="s">
+      <c r="P36" s="17" t="s">
+        <v>687</v>
+      </c>
+      <c r="Q36" s="17" t="s">
         <v>690</v>
       </c>
-      <c r="S36" s="16" t="s">
+      <c r="R36" s="17" t="s">
         <v>691</v>
       </c>
-      <c r="T36" s="16" t="s">
+      <c r="S36" s="17" t="s">
         <v>692</v>
       </c>
-      <c r="U36" s="16" t="s">
+      <c r="T36" s="17" t="s">
         <v>693</v>
       </c>
-      <c r="V36" s="16" t="s">
+      <c r="U36" s="17" t="s">
         <v>694</v>
       </c>
-      <c r="W36" s="16" t="s">
+      <c r="V36" s="17" t="s">
         <v>695</v>
       </c>
-      <c r="X36" s="16" t="s">
+      <c r="W36" s="17" t="s">
         <v>696</v>
       </c>
-      <c r="Y36" s="16" t="s">
+      <c r="X36" s="17" t="s">
         <v>697</v>
       </c>
-      <c r="Z36" s="16" t="s">
+      <c r="Y36" s="17" t="s">
         <v>698</v>
       </c>
-      <c r="AA36" s="16" t="s">
+      <c r="Z36" s="17" t="s">
         <v>699</v>
       </c>
-      <c r="AB36" s="16" t="s">
+      <c r="AA36" s="17" t="s">
         <v>700</v>
       </c>
-      <c r="AC36" s="16" t="s">
-        <v>675</v>
-      </c>
-      <c r="AD36" s="17" t="s">
+      <c r="AB36" s="17" t="s">
+        <v>701</v>
+      </c>
+      <c r="AC36" s="17" t="s">
         <v>676</v>
       </c>
+      <c r="AD36" s="18" t="s">
+        <v>677</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="47" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="18" t="s">
-        <v>701</v>
-      </c>
-      <c r="B37" s="15" t="s">
+      <c r="A37" s="19" t="s">
         <v>702</v>
       </c>
-      <c r="C37" s="15" t="s">
+      <c r="B37" s="16" t="s">
         <v>703</v>
       </c>
-      <c r="D37" s="15" t="s">
+      <c r="C37" s="16" t="s">
         <v>704</v>
       </c>
-      <c r="E37" s="15" t="s">
+      <c r="D37" s="16" t="s">
         <v>705</v>
       </c>
-      <c r="F37" s="15" t="s">
+      <c r="E37" s="16" t="s">
         <v>706</v>
       </c>
-      <c r="G37" s="15" t="s">
+      <c r="F37" s="16" t="s">
         <v>707</v>
       </c>
-      <c r="H37" s="15" t="s">
+      <c r="G37" s="16" t="s">
         <v>708</v>
       </c>
-      <c r="I37" s="15" t="s">
+      <c r="H37" s="16" t="s">
         <v>709</v>
       </c>
-      <c r="J37" s="15" t="s">
+      <c r="I37" s="16" t="s">
         <v>710</v>
       </c>
-      <c r="K37" s="15" t="s">
+      <c r="J37" s="16" t="s">
         <v>711</v>
       </c>
-      <c r="L37" s="15" t="s">
+      <c r="K37" s="16" t="s">
         <v>712</v>
       </c>
-      <c r="M37" s="16" t="s">
+      <c r="L37" s="16" t="s">
         <v>713</v>
       </c>
-      <c r="N37" s="16" t="s">
+      <c r="M37" s="17" t="s">
         <v>714</v>
       </c>
-      <c r="O37" s="16" t="s">
+      <c r="N37" s="17" t="s">
         <v>715</v>
       </c>
-      <c r="P37" s="16" t="s">
-        <v>713</v>
-      </c>
-      <c r="Q37" s="16" t="s">
+      <c r="O37" s="17" t="s">
         <v>716</v>
       </c>
-      <c r="R37" s="16" t="s">
+      <c r="P37" s="17" t="s">
+        <v>714</v>
+      </c>
+      <c r="Q37" s="17" t="s">
         <v>717</v>
       </c>
-      <c r="S37" s="16" t="s">
+      <c r="R37" s="17" t="s">
         <v>718</v>
       </c>
-      <c r="T37" s="16" t="s">
+      <c r="S37" s="17" t="s">
         <v>719</v>
       </c>
-      <c r="U37" s="16" t="s">
+      <c r="T37" s="17" t="s">
         <v>720</v>
       </c>
-      <c r="V37" s="16" t="s">
+      <c r="U37" s="17" t="s">
         <v>721</v>
       </c>
-      <c r="W37" s="16" t="s">
+      <c r="V37" s="17" t="s">
         <v>722</v>
       </c>
-      <c r="X37" s="16" t="s">
+      <c r="W37" s="17" t="s">
         <v>723</v>
       </c>
-      <c r="Y37" s="16" t="s">
+      <c r="X37" s="17" t="s">
         <v>724</v>
       </c>
-      <c r="Z37" s="16" t="s">
+      <c r="Y37" s="17" t="s">
         <v>725</v>
       </c>
-      <c r="AA37" s="16" t="s">
+      <c r="Z37" s="17" t="s">
         <v>726</v>
       </c>
-      <c r="AB37" s="16" t="s">
+      <c r="AA37" s="17" t="s">
         <v>727</v>
       </c>
-      <c r="AC37" s="16" t="s">
-        <v>702</v>
-      </c>
-      <c r="AD37" s="17" t="s">
+      <c r="AB37" s="17" t="s">
+        <v>728</v>
+      </c>
+      <c r="AC37" s="17" t="s">
         <v>703</v>
       </c>
+      <c r="AD37" s="18" t="s">
+        <v>704</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="14" t="s">
-        <v>728</v>
-      </c>
-      <c r="B38" s="15" t="s">
+      <c r="A38" s="15" t="s">
         <v>729</v>
       </c>
-      <c r="C38" s="15" t="s">
+      <c r="B38" s="16" t="s">
         <v>730</v>
       </c>
-      <c r="D38" s="15" t="s">
+      <c r="C38" s="16" t="s">
         <v>731</v>
       </c>
-      <c r="E38" s="15" t="s">
+      <c r="D38" s="16" t="s">
         <v>732</v>
       </c>
-      <c r="F38" s="15" t="s">
+      <c r="E38" s="16" t="s">
         <v>733</v>
       </c>
-      <c r="G38" s="15" t="s">
+      <c r="F38" s="16" t="s">
         <v>734</v>
       </c>
-      <c r="H38" s="15" t="s">
+      <c r="G38" s="16" t="s">
         <v>735</v>
       </c>
-      <c r="I38" s="15" t="s">
+      <c r="H38" s="16" t="s">
         <v>736</v>
       </c>
-      <c r="J38" s="15" t="s">
+      <c r="I38" s="16" t="s">
         <v>737</v>
       </c>
-      <c r="K38" s="15" t="s">
+      <c r="J38" s="16" t="s">
         <v>738</v>
       </c>
-      <c r="L38" s="15" t="s">
+      <c r="K38" s="16" t="s">
         <v>739</v>
       </c>
-      <c r="M38" s="16" t="s">
+      <c r="L38" s="16" t="s">
         <v>740</v>
       </c>
-      <c r="N38" s="16" t="s">
+      <c r="M38" s="17" t="s">
         <v>741</v>
       </c>
-      <c r="O38" s="16" t="s">
+      <c r="N38" s="17" t="s">
         <v>742</v>
       </c>
-      <c r="P38" s="16" t="s">
-        <v>740</v>
-      </c>
-      <c r="Q38" s="16" t="s">
+      <c r="O38" s="17" t="s">
         <v>743</v>
       </c>
-      <c r="R38" s="16" t="s">
+      <c r="P38" s="17" t="s">
+        <v>741</v>
+      </c>
+      <c r="Q38" s="17" t="s">
         <v>744</v>
       </c>
-      <c r="S38" s="16" t="s">
+      <c r="R38" s="17" t="s">
         <v>745</v>
       </c>
-      <c r="T38" s="16" t="s">
+      <c r="S38" s="17" t="s">
         <v>746</v>
       </c>
-      <c r="U38" s="16" t="s">
+      <c r="T38" s="17" t="s">
         <v>747</v>
       </c>
-      <c r="V38" s="16" t="s">
+      <c r="U38" s="17" t="s">
         <v>748</v>
       </c>
-      <c r="W38" s="16" t="s">
+      <c r="V38" s="17" t="s">
         <v>749</v>
       </c>
-      <c r="X38" s="16" t="s">
+      <c r="W38" s="17" t="s">
         <v>750</v>
       </c>
-      <c r="Y38" s="16" t="s">
+      <c r="X38" s="17" t="s">
         <v>751</v>
       </c>
-      <c r="Z38" s="16" t="s">
+      <c r="Y38" s="17" t="s">
         <v>752</v>
       </c>
-      <c r="AA38" s="16" t="s">
+      <c r="Z38" s="17" t="s">
         <v>753</v>
       </c>
-      <c r="AB38" s="16" t="s">
+      <c r="AA38" s="17" t="s">
         <v>754</v>
       </c>
-      <c r="AC38" s="16" t="s">
-        <v>729</v>
-      </c>
-      <c r="AD38" s="17" t="s">
+      <c r="AB38" s="17" t="s">
+        <v>755</v>
+      </c>
+      <c r="AC38" s="17" t="s">
         <v>730</v>
       </c>
+      <c r="AD38" s="18" t="s">
+        <v>731</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="33" t="s">
-        <v>755</v>
-      </c>
-      <c r="B39" s="15" t="s">
+      <c r="A39" s="34" t="s">
         <v>756</v>
       </c>
-      <c r="C39" s="15" t="s">
+      <c r="B39" s="16" t="s">
         <v>757</v>
       </c>
-      <c r="D39" s="15" t="s">
+      <c r="C39" s="16" t="s">
         <v>758</v>
       </c>
-      <c r="E39" s="15" t="s">
+      <c r="D39" s="16" t="s">
         <v>759</v>
       </c>
-      <c r="F39" s="15" t="s">
+      <c r="E39" s="16" t="s">
         <v>760</v>
       </c>
-      <c r="G39" s="15" t="s">
+      <c r="F39" s="16" t="s">
         <v>761</v>
       </c>
-      <c r="H39" s="15" t="s">
+      <c r="G39" s="16" t="s">
         <v>762</v>
       </c>
-      <c r="I39" s="15" t="s">
+      <c r="H39" s="16" t="s">
         <v>763</v>
       </c>
-      <c r="J39" s="15" t="s">
+      <c r="I39" s="16" t="s">
         <v>764</v>
       </c>
-      <c r="K39" s="15" t="s">
+      <c r="J39" s="16" t="s">
         <v>765</v>
       </c>
-      <c r="L39" s="15" t="s">
+      <c r="K39" s="16" t="s">
         <v>766</v>
       </c>
-      <c r="M39" s="16" t="s">
+      <c r="L39" s="16" t="s">
         <v>767</v>
       </c>
-      <c r="N39" s="16" t="s">
+      <c r="M39" s="17" t="s">
         <v>768</v>
       </c>
-      <c r="O39" s="16" t="s">
+      <c r="N39" s="17" t="s">
         <v>769</v>
       </c>
-      <c r="P39" s="16" t="s">
-        <v>767</v>
-      </c>
-      <c r="Q39" s="16" t="s">
+      <c r="O39" s="17" t="s">
         <v>770</v>
       </c>
-      <c r="R39" s="16" t="s">
+      <c r="P39" s="17" t="s">
+        <v>768</v>
+      </c>
+      <c r="Q39" s="17" t="s">
         <v>771</v>
       </c>
-      <c r="S39" s="16" t="s">
+      <c r="R39" s="17" t="s">
         <v>772</v>
       </c>
-      <c r="T39" s="16" t="s">
+      <c r="S39" s="17" t="s">
         <v>773</v>
       </c>
-      <c r="U39" s="16" t="s">
+      <c r="T39" s="17" t="s">
         <v>774</v>
       </c>
-      <c r="V39" s="16" t="s">
+      <c r="U39" s="17" t="s">
         <v>775</v>
       </c>
-      <c r="W39" s="16" t="s">
+      <c r="V39" s="17" t="s">
         <v>776</v>
       </c>
-      <c r="X39" s="16" t="s">
+      <c r="W39" s="17" t="s">
         <v>777</v>
       </c>
-      <c r="Y39" s="16" t="s">
+      <c r="X39" s="17" t="s">
         <v>778</v>
       </c>
-      <c r="Z39" s="16" t="s">
+      <c r="Y39" s="17" t="s">
         <v>779</v>
       </c>
-      <c r="AA39" s="16" t="s">
+      <c r="Z39" s="17" t="s">
         <v>780</v>
       </c>
-      <c r="AB39" s="16" t="s">
+      <c r="AA39" s="17" t="s">
         <v>781</v>
       </c>
-      <c r="AC39" s="16" t="s">
-        <v>756</v>
-      </c>
-      <c r="AD39" s="17" t="s">
+      <c r="AB39" s="17" t="s">
+        <v>782</v>
+      </c>
+      <c r="AC39" s="17" t="s">
         <v>757</v>
+      </c>
+      <c r="AD39" s="18" t="s">
+        <v>758</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -6217,1383 +6232,1383 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="34" t="s">
-        <v>782</v>
+      <c r="A1" s="35" t="s">
+        <v>783</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="34" t="s">
-        <v>783</v>
+      <c r="A2" s="35" t="s">
+        <v>784</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="34" t="s">
-        <v>784</v>
+      <c r="A3" s="35" t="s">
+        <v>785</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="34" t="s">
-        <v>785</v>
+      <c r="A4" s="35" t="s">
+        <v>786</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="34" t="s">
-        <v>786</v>
+      <c r="A6" s="35" t="s">
+        <v>787</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="34" t="s">
-        <v>787</v>
+      <c r="A7" s="35" t="s">
+        <v>788</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="34"/>
+      <c r="A8" s="35"/>
     </row>
     <row r="9" customFormat="false" ht="80.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="35" t="s">
-        <v>788</v>
+      <c r="A9" s="36" t="s">
+        <v>789</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="51.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="36" t="s">
-        <v>789</v>
+      <c r="A10" s="37" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="37"/>
+      <c r="A11" s="38"/>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="37" t="s">
-        <v>790</v>
+      <c r="A12" s="38" t="s">
+        <v>791</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="38"/>
+      <c r="A13" s="39"/>
     </row>
     <row r="14" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="39" t="s">
-        <v>791</v>
-      </c>
-      <c r="B14" s="40" t="s">
+      <c r="A14" s="40" t="s">
         <v>792</v>
       </c>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40" t="s">
+      <c r="B14" s="41" t="s">
         <v>793</v>
       </c>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40" t="s">
+      <c r="C14" s="41"/>
+      <c r="D14" s="41" t="s">
         <v>794</v>
       </c>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40" t="s">
+      <c r="E14" s="41"/>
+      <c r="F14" s="41" t="s">
         <v>795</v>
       </c>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="K14" s="40"/>
-      <c r="L14" s="40" t="s">
+      <c r="G14" s="41"/>
+      <c r="H14" s="41" t="s">
+        <v>796</v>
+      </c>
+      <c r="I14" s="41"/>
+      <c r="J14" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="M14" s="40"/>
-      <c r="N14" s="40" t="s">
+      <c r="K14" s="41"/>
+      <c r="L14" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="O14" s="40"/>
-      <c r="P14" s="40" t="s">
-        <v>796</v>
-      </c>
-      <c r="Q14" s="40"/>
-      <c r="R14" s="40" t="s">
+      <c r="M14" s="41"/>
+      <c r="N14" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="O14" s="41"/>
+      <c r="P14" s="41" t="s">
         <v>797</v>
       </c>
-      <c r="S14" s="40"/>
-      <c r="T14" s="40" t="s">
+      <c r="Q14" s="41"/>
+      <c r="R14" s="41" t="s">
         <v>798</v>
       </c>
-      <c r="U14" s="40"/>
-      <c r="V14" s="40" t="s">
+      <c r="S14" s="41"/>
+      <c r="T14" s="41" t="s">
         <v>799</v>
       </c>
-      <c r="W14" s="40"/>
-      <c r="X14" s="41" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y14" s="41"/>
+      <c r="U14" s="41"/>
+      <c r="V14" s="41" t="s">
+        <v>800</v>
+      </c>
+      <c r="W14" s="41"/>
+      <c r="X14" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y14" s="42"/>
     </row>
     <row r="15" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="39"/>
-      <c r="B15" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="42" t="s">
+      <c r="A15" s="40"/>
+      <c r="B15" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="42" t="s">
+      <c r="C15" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="G15" s="42" t="s">
+      <c r="E15" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="H15" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="I15" s="42" t="s">
+      <c r="G15" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="J15" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="K15" s="42" t="s">
+      <c r="I15" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="J15" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="L15" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="M15" s="42" t="s">
+      <c r="K15" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="L15" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="N15" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="O15" s="42" t="s">
+      <c r="M15" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="N15" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="P15" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q15" s="42" t="s">
+      <c r="O15" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="P15" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="R15" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="S15" s="42" t="s">
+      <c r="Q15" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="R15" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="T15" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="U15" s="42" t="s">
+      <c r="S15" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="T15" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="V15" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="W15" s="42" t="s">
+      <c r="U15" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="V15" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="X15" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y15" s="43" t="s">
+      <c r="W15" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="X15" s="43" t="s">
         <v>9</v>
       </c>
+      <c r="Y15" s="44" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="44" t="s">
-        <v>800</v>
-      </c>
-      <c r="B16" s="44"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="44"/>
-      <c r="L16" s="44"/>
-      <c r="M16" s="44"/>
-      <c r="N16" s="44"/>
-      <c r="O16" s="44"/>
-      <c r="P16" s="44"/>
-      <c r="Q16" s="44"/>
-      <c r="R16" s="44"/>
-      <c r="S16" s="44"/>
-      <c r="T16" s="44"/>
-      <c r="U16" s="44"/>
-      <c r="V16" s="44"/>
-      <c r="W16" s="44"/>
-      <c r="X16" s="44"/>
-      <c r="Y16" s="44"/>
+      <c r="A16" s="45" t="s">
+        <v>801</v>
+      </c>
+      <c r="B16" s="45"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="45"/>
+      <c r="M16" s="45"/>
+      <c r="N16" s="45"/>
+      <c r="O16" s="45"/>
+      <c r="P16" s="45"/>
+      <c r="Q16" s="45"/>
+      <c r="R16" s="45"/>
+      <c r="S16" s="45"/>
+      <c r="T16" s="45"/>
+      <c r="U16" s="45"/>
+      <c r="V16" s="45"/>
+      <c r="W16" s="45"/>
+      <c r="X16" s="45"/>
+      <c r="Y16" s="45"/>
     </row>
     <row r="17" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="45" t="s">
-        <v>801</v>
-      </c>
-      <c r="B17" s="46"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="46"/>
-      <c r="K17" s="46"/>
-      <c r="L17" s="46"/>
-      <c r="M17" s="46"/>
-      <c r="N17" s="46"/>
-      <c r="O17" s="46"/>
-      <c r="P17" s="46"/>
-      <c r="Q17" s="46"/>
-      <c r="R17" s="46"/>
-      <c r="S17" s="46"/>
-      <c r="T17" s="46"/>
-      <c r="U17" s="46"/>
-      <c r="V17" s="46"/>
-      <c r="W17" s="46"/>
-      <c r="X17" s="46"/>
-      <c r="Y17" s="47"/>
+      <c r="A17" s="46" t="s">
+        <v>802</v>
+      </c>
+      <c r="B17" s="47"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="47"/>
+      <c r="L17" s="47"/>
+      <c r="M17" s="47"/>
+      <c r="N17" s="47"/>
+      <c r="O17" s="47"/>
+      <c r="P17" s="47"/>
+      <c r="Q17" s="47"/>
+      <c r="R17" s="47"/>
+      <c r="S17" s="47"/>
+      <c r="T17" s="47"/>
+      <c r="U17" s="47"/>
+      <c r="V17" s="47"/>
+      <c r="W17" s="47"/>
+      <c r="X17" s="47"/>
+      <c r="Y17" s="48"/>
     </row>
     <row r="18" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="45" t="s">
-        <v>802</v>
-      </c>
-      <c r="B18" s="46"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="46"/>
-      <c r="K18" s="46"/>
-      <c r="L18" s="46"/>
-      <c r="M18" s="46"/>
-      <c r="N18" s="46"/>
-      <c r="O18" s="46"/>
-      <c r="P18" s="46"/>
-      <c r="Q18" s="46"/>
-      <c r="R18" s="46"/>
-      <c r="S18" s="46"/>
-      <c r="T18" s="46"/>
-      <c r="U18" s="46"/>
-      <c r="V18" s="46"/>
-      <c r="W18" s="46"/>
-      <c r="X18" s="46"/>
-      <c r="Y18" s="47"/>
+      <c r="A18" s="46" t="s">
+        <v>803</v>
+      </c>
+      <c r="B18" s="47"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="47"/>
+      <c r="L18" s="47"/>
+      <c r="M18" s="47"/>
+      <c r="N18" s="47"/>
+      <c r="O18" s="47"/>
+      <c r="P18" s="47"/>
+      <c r="Q18" s="47"/>
+      <c r="R18" s="47"/>
+      <c r="S18" s="47"/>
+      <c r="T18" s="47"/>
+      <c r="U18" s="47"/>
+      <c r="V18" s="47"/>
+      <c r="W18" s="47"/>
+      <c r="X18" s="47"/>
+      <c r="Y18" s="48"/>
     </row>
     <row r="19" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="45" t="s">
-        <v>803</v>
-      </c>
-      <c r="B19" s="46"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="46"/>
-      <c r="K19" s="46"/>
-      <c r="L19" s="46"/>
-      <c r="M19" s="46"/>
-      <c r="N19" s="46"/>
-      <c r="O19" s="46"/>
-      <c r="P19" s="46"/>
-      <c r="Q19" s="46"/>
-      <c r="R19" s="46"/>
-      <c r="S19" s="46"/>
-      <c r="T19" s="46"/>
-      <c r="U19" s="46"/>
-      <c r="V19" s="46"/>
-      <c r="W19" s="46"/>
-      <c r="X19" s="46"/>
-      <c r="Y19" s="47"/>
+      <c r="A19" s="46" t="s">
+        <v>804</v>
+      </c>
+      <c r="B19" s="47"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="47"/>
+      <c r="L19" s="47"/>
+      <c r="M19" s="47"/>
+      <c r="N19" s="47"/>
+      <c r="O19" s="47"/>
+      <c r="P19" s="47"/>
+      <c r="Q19" s="47"/>
+      <c r="R19" s="47"/>
+      <c r="S19" s="47"/>
+      <c r="T19" s="47"/>
+      <c r="U19" s="47"/>
+      <c r="V19" s="47"/>
+      <c r="W19" s="47"/>
+      <c r="X19" s="47"/>
+      <c r="Y19" s="48"/>
     </row>
     <row r="20" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="45"/>
-      <c r="B20" s="46"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="46"/>
-      <c r="K20" s="46"/>
-      <c r="L20" s="46"/>
-      <c r="M20" s="46"/>
-      <c r="N20" s="46"/>
-      <c r="O20" s="46"/>
-      <c r="P20" s="46"/>
-      <c r="Q20" s="46"/>
-      <c r="R20" s="46"/>
-      <c r="S20" s="46"/>
-      <c r="T20" s="46"/>
-      <c r="U20" s="46"/>
-      <c r="V20" s="46"/>
-      <c r="W20" s="46"/>
-      <c r="X20" s="46"/>
-      <c r="Y20" s="47"/>
+      <c r="A20" s="46"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="47"/>
+      <c r="L20" s="47"/>
+      <c r="M20" s="47"/>
+      <c r="N20" s="47"/>
+      <c r="O20" s="47"/>
+      <c r="P20" s="47"/>
+      <c r="Q20" s="47"/>
+      <c r="R20" s="47"/>
+      <c r="S20" s="47"/>
+      <c r="T20" s="47"/>
+      <c r="U20" s="47"/>
+      <c r="V20" s="47"/>
+      <c r="W20" s="47"/>
+      <c r="X20" s="47"/>
+      <c r="Y20" s="48"/>
     </row>
     <row r="21" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="45"/>
-      <c r="B21" s="46"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="46"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="46"/>
-      <c r="K21" s="46"/>
-      <c r="L21" s="46"/>
-      <c r="M21" s="46"/>
-      <c r="N21" s="46"/>
-      <c r="O21" s="46"/>
-      <c r="P21" s="46"/>
-      <c r="Q21" s="46"/>
-      <c r="R21" s="46"/>
-      <c r="S21" s="46"/>
-      <c r="T21" s="46"/>
-      <c r="U21" s="46"/>
-      <c r="V21" s="46"/>
-      <c r="W21" s="46"/>
-      <c r="X21" s="46"/>
-      <c r="Y21" s="47"/>
+      <c r="A21" s="46"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="47"/>
+      <c r="L21" s="47"/>
+      <c r="M21" s="47"/>
+      <c r="N21" s="47"/>
+      <c r="O21" s="47"/>
+      <c r="P21" s="47"/>
+      <c r="Q21" s="47"/>
+      <c r="R21" s="47"/>
+      <c r="S21" s="47"/>
+      <c r="T21" s="47"/>
+      <c r="U21" s="47"/>
+      <c r="V21" s="47"/>
+      <c r="W21" s="47"/>
+      <c r="X21" s="47"/>
+      <c r="Y21" s="48"/>
     </row>
     <row r="22" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="44" t="s">
-        <v>804</v>
-      </c>
-      <c r="B22" s="44"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="44"/>
-      <c r="J22" s="44"/>
-      <c r="K22" s="44"/>
-      <c r="L22" s="44"/>
-      <c r="M22" s="44"/>
-      <c r="N22" s="44"/>
-      <c r="O22" s="44"/>
-      <c r="P22" s="44"/>
-      <c r="Q22" s="44"/>
-      <c r="R22" s="44"/>
-      <c r="S22" s="44"/>
-      <c r="T22" s="44"/>
-      <c r="U22" s="44"/>
-      <c r="V22" s="44"/>
-      <c r="W22" s="44"/>
-      <c r="X22" s="44"/>
-      <c r="Y22" s="44"/>
+      <c r="A22" s="45" t="s">
+        <v>805</v>
+      </c>
+      <c r="B22" s="45"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="45"/>
+      <c r="K22" s="45"/>
+      <c r="L22" s="45"/>
+      <c r="M22" s="45"/>
+      <c r="N22" s="45"/>
+      <c r="O22" s="45"/>
+      <c r="P22" s="45"/>
+      <c r="Q22" s="45"/>
+      <c r="R22" s="45"/>
+      <c r="S22" s="45"/>
+      <c r="T22" s="45"/>
+      <c r="U22" s="45"/>
+      <c r="V22" s="45"/>
+      <c r="W22" s="45"/>
+      <c r="X22" s="45"/>
+      <c r="Y22" s="45"/>
     </row>
     <row r="23" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="45" t="s">
-        <v>805</v>
-      </c>
-      <c r="B23" s="46"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="46"/>
-      <c r="I23" s="46"/>
-      <c r="J23" s="46"/>
-      <c r="K23" s="46"/>
-      <c r="L23" s="46"/>
-      <c r="M23" s="46"/>
-      <c r="N23" s="46"/>
-      <c r="O23" s="46"/>
-      <c r="P23" s="46"/>
-      <c r="Q23" s="46"/>
-      <c r="R23" s="46"/>
-      <c r="S23" s="46"/>
-      <c r="T23" s="46"/>
-      <c r="U23" s="46"/>
-      <c r="V23" s="46"/>
-      <c r="W23" s="46"/>
-      <c r="X23" s="46"/>
-      <c r="Y23" s="47"/>
+      <c r="A23" s="46" t="s">
+        <v>806</v>
+      </c>
+      <c r="B23" s="47"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="47"/>
+      <c r="K23" s="47"/>
+      <c r="L23" s="47"/>
+      <c r="M23" s="47"/>
+      <c r="N23" s="47"/>
+      <c r="O23" s="47"/>
+      <c r="P23" s="47"/>
+      <c r="Q23" s="47"/>
+      <c r="R23" s="47"/>
+      <c r="S23" s="47"/>
+      <c r="T23" s="47"/>
+      <c r="U23" s="47"/>
+      <c r="V23" s="47"/>
+      <c r="W23" s="47"/>
+      <c r="X23" s="47"/>
+      <c r="Y23" s="48"/>
     </row>
     <row r="24" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="45" t="s">
-        <v>806</v>
-      </c>
-      <c r="B24" s="46"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="46"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="46"/>
-      <c r="I24" s="46"/>
-      <c r="J24" s="46"/>
-      <c r="K24" s="46"/>
-      <c r="L24" s="46"/>
-      <c r="M24" s="46"/>
-      <c r="N24" s="46"/>
-      <c r="O24" s="46"/>
-      <c r="P24" s="46"/>
-      <c r="Q24" s="46"/>
-      <c r="R24" s="46"/>
-      <c r="S24" s="46"/>
-      <c r="T24" s="46"/>
-      <c r="U24" s="46"/>
-      <c r="V24" s="46"/>
-      <c r="W24" s="46"/>
-      <c r="X24" s="46"/>
-      <c r="Y24" s="47"/>
+      <c r="A24" s="46" t="s">
+        <v>807</v>
+      </c>
+      <c r="B24" s="47"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="47"/>
+      <c r="K24" s="47"/>
+      <c r="L24" s="47"/>
+      <c r="M24" s="47"/>
+      <c r="N24" s="47"/>
+      <c r="O24" s="47"/>
+      <c r="P24" s="47"/>
+      <c r="Q24" s="47"/>
+      <c r="R24" s="47"/>
+      <c r="S24" s="47"/>
+      <c r="T24" s="47"/>
+      <c r="U24" s="47"/>
+      <c r="V24" s="47"/>
+      <c r="W24" s="47"/>
+      <c r="X24" s="47"/>
+      <c r="Y24" s="48"/>
     </row>
     <row r="25" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="45" t="s">
-        <v>807</v>
-      </c>
-      <c r="B25" s="46"/>
-      <c r="C25" s="46"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="46"/>
-      <c r="G25" s="46"/>
-      <c r="H25" s="46"/>
-      <c r="I25" s="46"/>
-      <c r="J25" s="46"/>
-      <c r="K25" s="46"/>
-      <c r="L25" s="46"/>
-      <c r="M25" s="46"/>
-      <c r="N25" s="46"/>
-      <c r="O25" s="46"/>
-      <c r="P25" s="46"/>
-      <c r="Q25" s="46"/>
-      <c r="R25" s="46"/>
-      <c r="S25" s="46"/>
-      <c r="T25" s="46"/>
-      <c r="U25" s="46"/>
-      <c r="V25" s="46"/>
-      <c r="W25" s="46"/>
-      <c r="X25" s="46"/>
-      <c r="Y25" s="47"/>
+      <c r="A25" s="46" t="s">
+        <v>808</v>
+      </c>
+      <c r="B25" s="47"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="47"/>
+      <c r="L25" s="47"/>
+      <c r="M25" s="47"/>
+      <c r="N25" s="47"/>
+      <c r="O25" s="47"/>
+      <c r="P25" s="47"/>
+      <c r="Q25" s="47"/>
+      <c r="R25" s="47"/>
+      <c r="S25" s="47"/>
+      <c r="T25" s="47"/>
+      <c r="U25" s="47"/>
+      <c r="V25" s="47"/>
+      <c r="W25" s="47"/>
+      <c r="X25" s="47"/>
+      <c r="Y25" s="48"/>
     </row>
     <row r="26" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="45" t="s">
-        <v>808</v>
-      </c>
-      <c r="B26" s="46"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="46"/>
-      <c r="H26" s="46"/>
-      <c r="I26" s="46"/>
-      <c r="J26" s="46"/>
-      <c r="K26" s="46"/>
-      <c r="L26" s="46"/>
-      <c r="M26" s="46"/>
-      <c r="N26" s="46"/>
-      <c r="O26" s="46"/>
-      <c r="P26" s="46"/>
-      <c r="Q26" s="46"/>
-      <c r="R26" s="46"/>
-      <c r="S26" s="46"/>
-      <c r="T26" s="46"/>
-      <c r="U26" s="46"/>
-      <c r="V26" s="46"/>
-      <c r="W26" s="46"/>
-      <c r="X26" s="46"/>
-      <c r="Y26" s="47"/>
+      <c r="A26" s="46" t="s">
+        <v>809</v>
+      </c>
+      <c r="B26" s="47"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="47"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="47"/>
+      <c r="K26" s="47"/>
+      <c r="L26" s="47"/>
+      <c r="M26" s="47"/>
+      <c r="N26" s="47"/>
+      <c r="O26" s="47"/>
+      <c r="P26" s="47"/>
+      <c r="Q26" s="47"/>
+      <c r="R26" s="47"/>
+      <c r="S26" s="47"/>
+      <c r="T26" s="47"/>
+      <c r="U26" s="47"/>
+      <c r="V26" s="47"/>
+      <c r="W26" s="47"/>
+      <c r="X26" s="47"/>
+      <c r="Y26" s="48"/>
     </row>
     <row r="27" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="45"/>
-      <c r="B27" s="46"/>
-      <c r="C27" s="46"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="46"/>
-      <c r="F27" s="46"/>
-      <c r="G27" s="46"/>
-      <c r="H27" s="46"/>
-      <c r="I27" s="46"/>
-      <c r="J27" s="46"/>
-      <c r="K27" s="46"/>
-      <c r="L27" s="46"/>
-      <c r="M27" s="46"/>
-      <c r="N27" s="46"/>
-      <c r="O27" s="46"/>
-      <c r="P27" s="46"/>
-      <c r="Q27" s="46"/>
-      <c r="R27" s="46"/>
-      <c r="S27" s="46"/>
-      <c r="T27" s="46"/>
-      <c r="U27" s="46"/>
-      <c r="V27" s="46"/>
-      <c r="W27" s="46"/>
-      <c r="X27" s="46"/>
-      <c r="Y27" s="47"/>
+      <c r="A27" s="46"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="47"/>
+      <c r="J27" s="47"/>
+      <c r="K27" s="47"/>
+      <c r="L27" s="47"/>
+      <c r="M27" s="47"/>
+      <c r="N27" s="47"/>
+      <c r="O27" s="47"/>
+      <c r="P27" s="47"/>
+      <c r="Q27" s="47"/>
+      <c r="R27" s="47"/>
+      <c r="S27" s="47"/>
+      <c r="T27" s="47"/>
+      <c r="U27" s="47"/>
+      <c r="V27" s="47"/>
+      <c r="W27" s="47"/>
+      <c r="X27" s="47"/>
+      <c r="Y27" s="48"/>
     </row>
     <row r="28" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="45"/>
-      <c r="B28" s="46"/>
-      <c r="C28" s="46"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="46"/>
-      <c r="F28" s="46"/>
-      <c r="G28" s="46"/>
-      <c r="H28" s="46"/>
-      <c r="I28" s="46"/>
-      <c r="J28" s="46"/>
-      <c r="K28" s="46"/>
-      <c r="L28" s="46"/>
-      <c r="M28" s="46"/>
-      <c r="N28" s="46"/>
-      <c r="O28" s="46"/>
-      <c r="P28" s="46"/>
-      <c r="Q28" s="46"/>
-      <c r="R28" s="46"/>
-      <c r="S28" s="46"/>
-      <c r="T28" s="46"/>
-      <c r="U28" s="46"/>
-      <c r="V28" s="46"/>
-      <c r="W28" s="46"/>
-      <c r="X28" s="46"/>
-      <c r="Y28" s="47"/>
+      <c r="A28" s="46"/>
+      <c r="B28" s="47"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="47"/>
+      <c r="J28" s="47"/>
+      <c r="K28" s="47"/>
+      <c r="L28" s="47"/>
+      <c r="M28" s="47"/>
+      <c r="N28" s="47"/>
+      <c r="O28" s="47"/>
+      <c r="P28" s="47"/>
+      <c r="Q28" s="47"/>
+      <c r="R28" s="47"/>
+      <c r="S28" s="47"/>
+      <c r="T28" s="47"/>
+      <c r="U28" s="47"/>
+      <c r="V28" s="47"/>
+      <c r="W28" s="47"/>
+      <c r="X28" s="47"/>
+      <c r="Y28" s="48"/>
     </row>
     <row r="29" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="48" t="s">
-        <v>809</v>
-      </c>
-      <c r="B29" s="46"/>
-      <c r="C29" s="46"/>
-      <c r="D29" s="46"/>
-      <c r="E29" s="46"/>
-      <c r="F29" s="46"/>
-      <c r="G29" s="46"/>
-      <c r="H29" s="46"/>
-      <c r="I29" s="46"/>
-      <c r="J29" s="46"/>
-      <c r="K29" s="46"/>
-      <c r="L29" s="46"/>
-      <c r="M29" s="46"/>
-      <c r="N29" s="46"/>
-      <c r="O29" s="46"/>
-      <c r="P29" s="46"/>
-      <c r="Q29" s="46"/>
-      <c r="R29" s="46"/>
-      <c r="S29" s="46"/>
-      <c r="T29" s="46"/>
-      <c r="U29" s="46"/>
-      <c r="V29" s="46"/>
-      <c r="W29" s="46"/>
-      <c r="X29" s="46"/>
-      <c r="Y29" s="47"/>
+      <c r="A29" s="49" t="s">
+        <v>810</v>
+      </c>
+      <c r="B29" s="47"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="47"/>
+      <c r="H29" s="47"/>
+      <c r="I29" s="47"/>
+      <c r="J29" s="47"/>
+      <c r="K29" s="47"/>
+      <c r="L29" s="47"/>
+      <c r="M29" s="47"/>
+      <c r="N29" s="47"/>
+      <c r="O29" s="47"/>
+      <c r="P29" s="47"/>
+      <c r="Q29" s="47"/>
+      <c r="R29" s="47"/>
+      <c r="S29" s="47"/>
+      <c r="T29" s="47"/>
+      <c r="U29" s="47"/>
+      <c r="V29" s="47"/>
+      <c r="W29" s="47"/>
+      <c r="X29" s="47"/>
+      <c r="Y29" s="48"/>
     </row>
     <row r="30" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="44" t="s">
-        <v>810</v>
-      </c>
-      <c r="B30" s="44"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="44"/>
-      <c r="H30" s="44"/>
-      <c r="I30" s="44"/>
-      <c r="J30" s="44"/>
-      <c r="K30" s="44"/>
-      <c r="L30" s="44"/>
-      <c r="M30" s="44"/>
-      <c r="N30" s="44"/>
-      <c r="O30" s="44"/>
-      <c r="P30" s="44"/>
-      <c r="Q30" s="44"/>
-      <c r="R30" s="44"/>
-      <c r="S30" s="44"/>
-      <c r="T30" s="44"/>
-      <c r="U30" s="44"/>
-      <c r="V30" s="44"/>
-      <c r="W30" s="44"/>
-      <c r="X30" s="44"/>
-      <c r="Y30" s="44"/>
+      <c r="A30" s="45" t="s">
+        <v>811</v>
+      </c>
+      <c r="B30" s="45"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="45"/>
+      <c r="I30" s="45"/>
+      <c r="J30" s="45"/>
+      <c r="K30" s="45"/>
+      <c r="L30" s="45"/>
+      <c r="M30" s="45"/>
+      <c r="N30" s="45"/>
+      <c r="O30" s="45"/>
+      <c r="P30" s="45"/>
+      <c r="Q30" s="45"/>
+      <c r="R30" s="45"/>
+      <c r="S30" s="45"/>
+      <c r="T30" s="45"/>
+      <c r="U30" s="45"/>
+      <c r="V30" s="45"/>
+      <c r="W30" s="45"/>
+      <c r="X30" s="45"/>
+      <c r="Y30" s="45"/>
     </row>
     <row r="31" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="45" t="s">
-        <v>811</v>
-      </c>
-      <c r="B31" s="46"/>
-      <c r="C31" s="46"/>
-      <c r="D31" s="46"/>
-      <c r="E31" s="46"/>
-      <c r="F31" s="46"/>
-      <c r="G31" s="46"/>
-      <c r="H31" s="46"/>
-      <c r="I31" s="46"/>
-      <c r="J31" s="46"/>
-      <c r="K31" s="46"/>
-      <c r="L31" s="46"/>
-      <c r="M31" s="46"/>
-      <c r="N31" s="46"/>
-      <c r="O31" s="46"/>
-      <c r="P31" s="46"/>
-      <c r="Q31" s="46"/>
-      <c r="R31" s="46"/>
-      <c r="S31" s="46"/>
-      <c r="T31" s="46"/>
-      <c r="U31" s="46"/>
-      <c r="V31" s="46"/>
-      <c r="W31" s="46"/>
-      <c r="X31" s="46"/>
-      <c r="Y31" s="47"/>
+      <c r="A31" s="46" t="s">
+        <v>812</v>
+      </c>
+      <c r="B31" s="47"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="47"/>
+      <c r="H31" s="47"/>
+      <c r="I31" s="47"/>
+      <c r="J31" s="47"/>
+      <c r="K31" s="47"/>
+      <c r="L31" s="47"/>
+      <c r="M31" s="47"/>
+      <c r="N31" s="47"/>
+      <c r="O31" s="47"/>
+      <c r="P31" s="47"/>
+      <c r="Q31" s="47"/>
+      <c r="R31" s="47"/>
+      <c r="S31" s="47"/>
+      <c r="T31" s="47"/>
+      <c r="U31" s="47"/>
+      <c r="V31" s="47"/>
+      <c r="W31" s="47"/>
+      <c r="X31" s="47"/>
+      <c r="Y31" s="48"/>
     </row>
     <row r="32" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="45" t="s">
-        <v>812</v>
-      </c>
-      <c r="B32" s="46"/>
-      <c r="C32" s="46"/>
-      <c r="D32" s="46"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="46"/>
-      <c r="H32" s="46"/>
-      <c r="I32" s="46"/>
-      <c r="J32" s="46"/>
-      <c r="K32" s="46"/>
-      <c r="L32" s="46"/>
-      <c r="M32" s="46"/>
-      <c r="N32" s="46"/>
-      <c r="O32" s="46"/>
-      <c r="P32" s="46"/>
-      <c r="Q32" s="46"/>
-      <c r="R32" s="46"/>
-      <c r="S32" s="46"/>
-      <c r="T32" s="46"/>
-      <c r="U32" s="46"/>
-      <c r="V32" s="46"/>
-      <c r="W32" s="46"/>
-      <c r="X32" s="46"/>
-      <c r="Y32" s="47"/>
+      <c r="A32" s="46" t="s">
+        <v>813</v>
+      </c>
+      <c r="B32" s="47"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="47"/>
+      <c r="I32" s="47"/>
+      <c r="J32" s="47"/>
+      <c r="K32" s="47"/>
+      <c r="L32" s="47"/>
+      <c r="M32" s="47"/>
+      <c r="N32" s="47"/>
+      <c r="O32" s="47"/>
+      <c r="P32" s="47"/>
+      <c r="Q32" s="47"/>
+      <c r="R32" s="47"/>
+      <c r="S32" s="47"/>
+      <c r="T32" s="47"/>
+      <c r="U32" s="47"/>
+      <c r="V32" s="47"/>
+      <c r="W32" s="47"/>
+      <c r="X32" s="47"/>
+      <c r="Y32" s="48"/>
     </row>
     <row r="33" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="45"/>
-      <c r="B33" s="46"/>
-      <c r="C33" s="46"/>
-      <c r="D33" s="46"/>
-      <c r="E33" s="46"/>
-      <c r="F33" s="46"/>
-      <c r="G33" s="46"/>
-      <c r="H33" s="46"/>
-      <c r="I33" s="46"/>
-      <c r="J33" s="46"/>
-      <c r="K33" s="46"/>
-      <c r="L33" s="46"/>
-      <c r="M33" s="46"/>
-      <c r="N33" s="46"/>
-      <c r="O33" s="46"/>
-      <c r="P33" s="46"/>
-      <c r="Q33" s="46"/>
-      <c r="R33" s="46"/>
-      <c r="S33" s="46"/>
-      <c r="T33" s="46"/>
-      <c r="U33" s="46"/>
-      <c r="V33" s="46"/>
-      <c r="W33" s="46"/>
-      <c r="X33" s="46"/>
-      <c r="Y33" s="47"/>
+      <c r="A33" s="46"/>
+      <c r="B33" s="47"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="47"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="47"/>
+      <c r="H33" s="47"/>
+      <c r="I33" s="47"/>
+      <c r="J33" s="47"/>
+      <c r="K33" s="47"/>
+      <c r="L33" s="47"/>
+      <c r="M33" s="47"/>
+      <c r="N33" s="47"/>
+      <c r="O33" s="47"/>
+      <c r="P33" s="47"/>
+      <c r="Q33" s="47"/>
+      <c r="R33" s="47"/>
+      <c r="S33" s="47"/>
+      <c r="T33" s="47"/>
+      <c r="U33" s="47"/>
+      <c r="V33" s="47"/>
+      <c r="W33" s="47"/>
+      <c r="X33" s="47"/>
+      <c r="Y33" s="48"/>
     </row>
     <row r="34" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="45"/>
-      <c r="B34" s="46"/>
-      <c r="C34" s="46"/>
-      <c r="D34" s="46"/>
-      <c r="E34" s="46"/>
-      <c r="F34" s="46"/>
-      <c r="G34" s="46"/>
-      <c r="H34" s="46"/>
-      <c r="I34" s="46"/>
-      <c r="J34" s="46"/>
-      <c r="K34" s="46"/>
-      <c r="L34" s="46"/>
-      <c r="M34" s="46"/>
-      <c r="N34" s="46"/>
-      <c r="O34" s="46"/>
-      <c r="P34" s="46"/>
-      <c r="Q34" s="46"/>
-      <c r="R34" s="46"/>
-      <c r="S34" s="46"/>
-      <c r="T34" s="46"/>
-      <c r="U34" s="46"/>
-      <c r="V34" s="46"/>
-      <c r="W34" s="46"/>
-      <c r="X34" s="46"/>
-      <c r="Y34" s="47"/>
+      <c r="A34" s="46"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="47"/>
+      <c r="I34" s="47"/>
+      <c r="J34" s="47"/>
+      <c r="K34" s="47"/>
+      <c r="L34" s="47"/>
+      <c r="M34" s="47"/>
+      <c r="N34" s="47"/>
+      <c r="O34" s="47"/>
+      <c r="P34" s="47"/>
+      <c r="Q34" s="47"/>
+      <c r="R34" s="47"/>
+      <c r="S34" s="47"/>
+      <c r="T34" s="47"/>
+      <c r="U34" s="47"/>
+      <c r="V34" s="47"/>
+      <c r="W34" s="47"/>
+      <c r="X34" s="47"/>
+      <c r="Y34" s="48"/>
     </row>
     <row r="35" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="44" t="s">
-        <v>813</v>
-      </c>
-      <c r="B35" s="44"/>
-      <c r="C35" s="44"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="44"/>
-      <c r="G35" s="44"/>
-      <c r="H35" s="44"/>
-      <c r="I35" s="44"/>
-      <c r="J35" s="44"/>
-      <c r="K35" s="44"/>
-      <c r="L35" s="44"/>
-      <c r="M35" s="44"/>
-      <c r="N35" s="44"/>
-      <c r="O35" s="44"/>
-      <c r="P35" s="44"/>
-      <c r="Q35" s="44"/>
-      <c r="R35" s="44"/>
-      <c r="S35" s="44"/>
-      <c r="T35" s="44"/>
-      <c r="U35" s="44"/>
-      <c r="V35" s="44"/>
-      <c r="W35" s="44"/>
-      <c r="X35" s="44"/>
-      <c r="Y35" s="44"/>
+      <c r="A35" s="45" t="s">
+        <v>814</v>
+      </c>
+      <c r="B35" s="45"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="45"/>
+      <c r="I35" s="45"/>
+      <c r="J35" s="45"/>
+      <c r="K35" s="45"/>
+      <c r="L35" s="45"/>
+      <c r="M35" s="45"/>
+      <c r="N35" s="45"/>
+      <c r="O35" s="45"/>
+      <c r="P35" s="45"/>
+      <c r="Q35" s="45"/>
+      <c r="R35" s="45"/>
+      <c r="S35" s="45"/>
+      <c r="T35" s="45"/>
+      <c r="U35" s="45"/>
+      <c r="V35" s="45"/>
+      <c r="W35" s="45"/>
+      <c r="X35" s="45"/>
+      <c r="Y35" s="45"/>
     </row>
     <row r="36" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="45"/>
-      <c r="B36" s="46"/>
-      <c r="C36" s="46"/>
-      <c r="D36" s="46"/>
-      <c r="E36" s="46"/>
-      <c r="F36" s="46"/>
-      <c r="G36" s="46"/>
-      <c r="H36" s="46"/>
-      <c r="I36" s="46"/>
-      <c r="J36" s="46"/>
-      <c r="K36" s="46"/>
-      <c r="L36" s="46"/>
-      <c r="M36" s="46"/>
-      <c r="N36" s="46"/>
-      <c r="O36" s="46"/>
-      <c r="P36" s="46"/>
-      <c r="Q36" s="46"/>
-      <c r="R36" s="46"/>
-      <c r="S36" s="46"/>
-      <c r="T36" s="46"/>
-      <c r="U36" s="46"/>
-      <c r="V36" s="46"/>
-      <c r="W36" s="46"/>
-      <c r="X36" s="46"/>
-      <c r="Y36" s="47"/>
+      <c r="A36" s="46"/>
+      <c r="B36" s="47"/>
+      <c r="C36" s="47"/>
+      <c r="D36" s="47"/>
+      <c r="E36" s="47"/>
+      <c r="F36" s="47"/>
+      <c r="G36" s="47"/>
+      <c r="H36" s="47"/>
+      <c r="I36" s="47"/>
+      <c r="J36" s="47"/>
+      <c r="K36" s="47"/>
+      <c r="L36" s="47"/>
+      <c r="M36" s="47"/>
+      <c r="N36" s="47"/>
+      <c r="O36" s="47"/>
+      <c r="P36" s="47"/>
+      <c r="Q36" s="47"/>
+      <c r="R36" s="47"/>
+      <c r="S36" s="47"/>
+      <c r="T36" s="47"/>
+      <c r="U36" s="47"/>
+      <c r="V36" s="47"/>
+      <c r="W36" s="47"/>
+      <c r="X36" s="47"/>
+      <c r="Y36" s="48"/>
     </row>
     <row r="37" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="48"/>
-      <c r="B37" s="46"/>
-      <c r="C37" s="46"/>
-      <c r="D37" s="46"/>
-      <c r="E37" s="46"/>
-      <c r="F37" s="46"/>
-      <c r="G37" s="46"/>
-      <c r="H37" s="46"/>
-      <c r="I37" s="46"/>
-      <c r="J37" s="46"/>
-      <c r="K37" s="46"/>
-      <c r="L37" s="46"/>
-      <c r="M37" s="46"/>
-      <c r="N37" s="46"/>
-      <c r="O37" s="46"/>
-      <c r="P37" s="46"/>
-      <c r="Q37" s="46"/>
-      <c r="R37" s="46"/>
-      <c r="S37" s="46"/>
-      <c r="T37" s="46"/>
-      <c r="U37" s="46"/>
-      <c r="V37" s="46"/>
-      <c r="W37" s="46"/>
-      <c r="X37" s="46"/>
-      <c r="Y37" s="47"/>
+      <c r="A37" s="49"/>
+      <c r="B37" s="47"/>
+      <c r="C37" s="47"/>
+      <c r="D37" s="47"/>
+      <c r="E37" s="47"/>
+      <c r="F37" s="47"/>
+      <c r="G37" s="47"/>
+      <c r="H37" s="47"/>
+      <c r="I37" s="47"/>
+      <c r="J37" s="47"/>
+      <c r="K37" s="47"/>
+      <c r="L37" s="47"/>
+      <c r="M37" s="47"/>
+      <c r="N37" s="47"/>
+      <c r="O37" s="47"/>
+      <c r="P37" s="47"/>
+      <c r="Q37" s="47"/>
+      <c r="R37" s="47"/>
+      <c r="S37" s="47"/>
+      <c r="T37" s="47"/>
+      <c r="U37" s="47"/>
+      <c r="V37" s="47"/>
+      <c r="W37" s="47"/>
+      <c r="X37" s="47"/>
+      <c r="Y37" s="48"/>
     </row>
     <row r="38" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="48"/>
-      <c r="B38" s="46"/>
-      <c r="C38" s="46"/>
-      <c r="D38" s="46"/>
-      <c r="E38" s="46"/>
-      <c r="F38" s="46"/>
-      <c r="G38" s="46"/>
-      <c r="H38" s="46"/>
-      <c r="I38" s="46"/>
-      <c r="J38" s="46"/>
-      <c r="K38" s="46"/>
-      <c r="L38" s="46"/>
-      <c r="M38" s="46"/>
-      <c r="N38" s="46"/>
-      <c r="O38" s="46"/>
-      <c r="P38" s="46"/>
-      <c r="Q38" s="46"/>
-      <c r="R38" s="46"/>
-      <c r="S38" s="46"/>
-      <c r="T38" s="46"/>
-      <c r="U38" s="46"/>
-      <c r="V38" s="46"/>
-      <c r="W38" s="46"/>
-      <c r="X38" s="46"/>
-      <c r="Y38" s="47"/>
+      <c r="A38" s="49"/>
+      <c r="B38" s="47"/>
+      <c r="C38" s="47"/>
+      <c r="D38" s="47"/>
+      <c r="E38" s="47"/>
+      <c r="F38" s="47"/>
+      <c r="G38" s="47"/>
+      <c r="H38" s="47"/>
+      <c r="I38" s="47"/>
+      <c r="J38" s="47"/>
+      <c r="K38" s="47"/>
+      <c r="L38" s="47"/>
+      <c r="M38" s="47"/>
+      <c r="N38" s="47"/>
+      <c r="O38" s="47"/>
+      <c r="P38" s="47"/>
+      <c r="Q38" s="47"/>
+      <c r="R38" s="47"/>
+      <c r="S38" s="47"/>
+      <c r="T38" s="47"/>
+      <c r="U38" s="47"/>
+      <c r="V38" s="47"/>
+      <c r="W38" s="47"/>
+      <c r="X38" s="47"/>
+      <c r="Y38" s="48"/>
     </row>
     <row r="39" customFormat="false" ht="66.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="48" t="s">
-        <v>814</v>
-      </c>
-      <c r="B39" s="46"/>
-      <c r="C39" s="46"/>
-      <c r="D39" s="46"/>
-      <c r="E39" s="46"/>
-      <c r="F39" s="46"/>
-      <c r="G39" s="46"/>
-      <c r="H39" s="46"/>
-      <c r="I39" s="46"/>
-      <c r="J39" s="46"/>
-      <c r="K39" s="46"/>
-      <c r="L39" s="46"/>
-      <c r="M39" s="46"/>
-      <c r="N39" s="46"/>
-      <c r="O39" s="46"/>
-      <c r="P39" s="46"/>
-      <c r="Q39" s="46"/>
-      <c r="R39" s="46"/>
-      <c r="S39" s="46"/>
-      <c r="T39" s="46"/>
-      <c r="U39" s="46"/>
-      <c r="V39" s="46"/>
-      <c r="W39" s="46"/>
-      <c r="X39" s="46"/>
-      <c r="Y39" s="47"/>
+      <c r="A39" s="49" t="s">
+        <v>815</v>
+      </c>
+      <c r="B39" s="47"/>
+      <c r="C39" s="47"/>
+      <c r="D39" s="47"/>
+      <c r="E39" s="47"/>
+      <c r="F39" s="47"/>
+      <c r="G39" s="47"/>
+      <c r="H39" s="47"/>
+      <c r="I39" s="47"/>
+      <c r="J39" s="47"/>
+      <c r="K39" s="47"/>
+      <c r="L39" s="47"/>
+      <c r="M39" s="47"/>
+      <c r="N39" s="47"/>
+      <c r="O39" s="47"/>
+      <c r="P39" s="47"/>
+      <c r="Q39" s="47"/>
+      <c r="R39" s="47"/>
+      <c r="S39" s="47"/>
+      <c r="T39" s="47"/>
+      <c r="U39" s="47"/>
+      <c r="V39" s="47"/>
+      <c r="W39" s="47"/>
+      <c r="X39" s="47"/>
+      <c r="Y39" s="48"/>
     </row>
     <row r="40" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="48" t="s">
-        <v>815</v>
-      </c>
-      <c r="B40" s="46"/>
-      <c r="C40" s="46"/>
-      <c r="D40" s="46"/>
-      <c r="E40" s="46"/>
-      <c r="F40" s="46"/>
-      <c r="G40" s="46"/>
-      <c r="H40" s="46"/>
-      <c r="I40" s="46"/>
-      <c r="J40" s="46"/>
-      <c r="K40" s="46"/>
-      <c r="L40" s="46"/>
-      <c r="M40" s="46"/>
-      <c r="N40" s="46"/>
-      <c r="O40" s="46"/>
-      <c r="P40" s="46"/>
-      <c r="Q40" s="46"/>
-      <c r="R40" s="46"/>
-      <c r="S40" s="46"/>
-      <c r="T40" s="46"/>
-      <c r="U40" s="46"/>
-      <c r="V40" s="46"/>
-      <c r="W40" s="46"/>
-      <c r="X40" s="46"/>
-      <c r="Y40" s="47"/>
+      <c r="A40" s="49" t="s">
+        <v>816</v>
+      </c>
+      <c r="B40" s="47"/>
+      <c r="C40" s="47"/>
+      <c r="D40" s="47"/>
+      <c r="E40" s="47"/>
+      <c r="F40" s="47"/>
+      <c r="G40" s="47"/>
+      <c r="H40" s="47"/>
+      <c r="I40" s="47"/>
+      <c r="J40" s="47"/>
+      <c r="K40" s="47"/>
+      <c r="L40" s="47"/>
+      <c r="M40" s="47"/>
+      <c r="N40" s="47"/>
+      <c r="O40" s="47"/>
+      <c r="P40" s="47"/>
+      <c r="Q40" s="47"/>
+      <c r="R40" s="47"/>
+      <c r="S40" s="47"/>
+      <c r="T40" s="47"/>
+      <c r="U40" s="47"/>
+      <c r="V40" s="47"/>
+      <c r="W40" s="47"/>
+      <c r="X40" s="47"/>
+      <c r="Y40" s="48"/>
     </row>
     <row r="41" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="44" t="s">
-        <v>816</v>
-      </c>
-      <c r="B41" s="44"/>
-      <c r="C41" s="44"/>
-      <c r="D41" s="44"/>
-      <c r="E41" s="44"/>
-      <c r="F41" s="44"/>
-      <c r="G41" s="44"/>
-      <c r="H41" s="44"/>
-      <c r="I41" s="44"/>
-      <c r="J41" s="44"/>
-      <c r="K41" s="44"/>
-      <c r="L41" s="44"/>
-      <c r="M41" s="44"/>
-      <c r="N41" s="44"/>
-      <c r="O41" s="44"/>
-      <c r="P41" s="44"/>
-      <c r="Q41" s="44"/>
-      <c r="R41" s="44"/>
-      <c r="S41" s="44"/>
-      <c r="T41" s="44"/>
-      <c r="U41" s="44"/>
-      <c r="V41" s="44"/>
-      <c r="W41" s="44"/>
-      <c r="X41" s="44"/>
-      <c r="Y41" s="44"/>
+      <c r="A41" s="45" t="s">
+        <v>817</v>
+      </c>
+      <c r="B41" s="45"/>
+      <c r="C41" s="45"/>
+      <c r="D41" s="45"/>
+      <c r="E41" s="45"/>
+      <c r="F41" s="45"/>
+      <c r="G41" s="45"/>
+      <c r="H41" s="45"/>
+      <c r="I41" s="45"/>
+      <c r="J41" s="45"/>
+      <c r="K41" s="45"/>
+      <c r="L41" s="45"/>
+      <c r="M41" s="45"/>
+      <c r="N41" s="45"/>
+      <c r="O41" s="45"/>
+      <c r="P41" s="45"/>
+      <c r="Q41" s="45"/>
+      <c r="R41" s="45"/>
+      <c r="S41" s="45"/>
+      <c r="T41" s="45"/>
+      <c r="U41" s="45"/>
+      <c r="V41" s="45"/>
+      <c r="W41" s="45"/>
+      <c r="X41" s="45"/>
+      <c r="Y41" s="45"/>
     </row>
     <row r="42" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="45" t="s">
-        <v>817</v>
-      </c>
-      <c r="B42" s="46"/>
-      <c r="C42" s="46"/>
-      <c r="D42" s="46"/>
-      <c r="E42" s="46"/>
-      <c r="F42" s="46"/>
-      <c r="G42" s="46"/>
-      <c r="H42" s="46"/>
-      <c r="I42" s="46"/>
-      <c r="J42" s="46"/>
-      <c r="K42" s="46"/>
-      <c r="L42" s="46"/>
-      <c r="M42" s="46"/>
-      <c r="N42" s="46"/>
-      <c r="O42" s="46"/>
-      <c r="P42" s="46"/>
-      <c r="Q42" s="46"/>
-      <c r="R42" s="46"/>
-      <c r="S42" s="46"/>
-      <c r="T42" s="46"/>
-      <c r="U42" s="46"/>
-      <c r="V42" s="46"/>
-      <c r="W42" s="46"/>
-      <c r="X42" s="46"/>
-      <c r="Y42" s="47"/>
+      <c r="A42" s="46" t="s">
+        <v>818</v>
+      </c>
+      <c r="B42" s="47"/>
+      <c r="C42" s="47"/>
+      <c r="D42" s="47"/>
+      <c r="E42" s="47"/>
+      <c r="F42" s="47"/>
+      <c r="G42" s="47"/>
+      <c r="H42" s="47"/>
+      <c r="I42" s="47"/>
+      <c r="J42" s="47"/>
+      <c r="K42" s="47"/>
+      <c r="L42" s="47"/>
+      <c r="M42" s="47"/>
+      <c r="N42" s="47"/>
+      <c r="O42" s="47"/>
+      <c r="P42" s="47"/>
+      <c r="Q42" s="47"/>
+      <c r="R42" s="47"/>
+      <c r="S42" s="47"/>
+      <c r="T42" s="47"/>
+      <c r="U42" s="47"/>
+      <c r="V42" s="47"/>
+      <c r="W42" s="47"/>
+      <c r="X42" s="47"/>
+      <c r="Y42" s="48"/>
     </row>
     <row r="43" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="45" t="s">
-        <v>818</v>
-      </c>
-      <c r="B43" s="46"/>
-      <c r="C43" s="46"/>
-      <c r="D43" s="46"/>
-      <c r="E43" s="46"/>
-      <c r="F43" s="46"/>
-      <c r="G43" s="46"/>
-      <c r="H43" s="46"/>
-      <c r="I43" s="46"/>
-      <c r="J43" s="46"/>
-      <c r="K43" s="46"/>
-      <c r="L43" s="46"/>
-      <c r="M43" s="46"/>
-      <c r="N43" s="46"/>
-      <c r="O43" s="46"/>
-      <c r="P43" s="46"/>
-      <c r="Q43" s="46"/>
-      <c r="R43" s="46"/>
-      <c r="S43" s="46"/>
-      <c r="T43" s="46"/>
-      <c r="U43" s="46"/>
-      <c r="V43" s="46"/>
-      <c r="W43" s="46"/>
-      <c r="X43" s="46"/>
-      <c r="Y43" s="47"/>
+      <c r="A43" s="46" t="s">
+        <v>819</v>
+      </c>
+      <c r="B43" s="47"/>
+      <c r="C43" s="47"/>
+      <c r="D43" s="47"/>
+      <c r="E43" s="47"/>
+      <c r="F43" s="47"/>
+      <c r="G43" s="47"/>
+      <c r="H43" s="47"/>
+      <c r="I43" s="47"/>
+      <c r="J43" s="47"/>
+      <c r="K43" s="47"/>
+      <c r="L43" s="47"/>
+      <c r="M43" s="47"/>
+      <c r="N43" s="47"/>
+      <c r="O43" s="47"/>
+      <c r="P43" s="47"/>
+      <c r="Q43" s="47"/>
+      <c r="R43" s="47"/>
+      <c r="S43" s="47"/>
+      <c r="T43" s="47"/>
+      <c r="U43" s="47"/>
+      <c r="V43" s="47"/>
+      <c r="W43" s="47"/>
+      <c r="X43" s="47"/>
+      <c r="Y43" s="48"/>
     </row>
     <row r="44" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="45" t="s">
-        <v>819</v>
-      </c>
-      <c r="B44" s="46"/>
-      <c r="C44" s="46"/>
-      <c r="D44" s="46"/>
-      <c r="E44" s="46"/>
-      <c r="F44" s="46"/>
-      <c r="G44" s="46"/>
-      <c r="H44" s="46"/>
-      <c r="I44" s="46"/>
-      <c r="J44" s="46"/>
-      <c r="K44" s="46"/>
-      <c r="L44" s="46"/>
-      <c r="M44" s="46"/>
-      <c r="N44" s="46"/>
-      <c r="O44" s="46"/>
-      <c r="P44" s="46"/>
-      <c r="Q44" s="46"/>
-      <c r="R44" s="46"/>
-      <c r="S44" s="46"/>
-      <c r="T44" s="46"/>
-      <c r="U44" s="46"/>
-      <c r="V44" s="46"/>
-      <c r="W44" s="46"/>
-      <c r="X44" s="46"/>
-      <c r="Y44" s="47"/>
+      <c r="A44" s="46" t="s">
+        <v>820</v>
+      </c>
+      <c r="B44" s="47"/>
+      <c r="C44" s="47"/>
+      <c r="D44" s="47"/>
+      <c r="E44" s="47"/>
+      <c r="F44" s="47"/>
+      <c r="G44" s="47"/>
+      <c r="H44" s="47"/>
+      <c r="I44" s="47"/>
+      <c r="J44" s="47"/>
+      <c r="K44" s="47"/>
+      <c r="L44" s="47"/>
+      <c r="M44" s="47"/>
+      <c r="N44" s="47"/>
+      <c r="O44" s="47"/>
+      <c r="P44" s="47"/>
+      <c r="Q44" s="47"/>
+      <c r="R44" s="47"/>
+      <c r="S44" s="47"/>
+      <c r="T44" s="47"/>
+      <c r="U44" s="47"/>
+      <c r="V44" s="47"/>
+      <c r="W44" s="47"/>
+      <c r="X44" s="47"/>
+      <c r="Y44" s="48"/>
     </row>
     <row r="45" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="45"/>
-      <c r="B45" s="46"/>
-      <c r="C45" s="46"/>
-      <c r="D45" s="46"/>
-      <c r="E45" s="46"/>
-      <c r="F45" s="46"/>
-      <c r="G45" s="46"/>
-      <c r="H45" s="46"/>
-      <c r="I45" s="46"/>
-      <c r="J45" s="46"/>
-      <c r="K45" s="46"/>
-      <c r="L45" s="46"/>
-      <c r="M45" s="46"/>
-      <c r="N45" s="46"/>
-      <c r="O45" s="46"/>
-      <c r="P45" s="46"/>
-      <c r="Q45" s="46"/>
-      <c r="R45" s="46"/>
-      <c r="S45" s="46"/>
-      <c r="T45" s="46"/>
-      <c r="U45" s="46"/>
-      <c r="V45" s="46"/>
-      <c r="W45" s="46"/>
-      <c r="X45" s="46"/>
-      <c r="Y45" s="47"/>
+      <c r="A45" s="46"/>
+      <c r="B45" s="47"/>
+      <c r="C45" s="47"/>
+      <c r="D45" s="47"/>
+      <c r="E45" s="47"/>
+      <c r="F45" s="47"/>
+      <c r="G45" s="47"/>
+      <c r="H45" s="47"/>
+      <c r="I45" s="47"/>
+      <c r="J45" s="47"/>
+      <c r="K45" s="47"/>
+      <c r="L45" s="47"/>
+      <c r="M45" s="47"/>
+      <c r="N45" s="47"/>
+      <c r="O45" s="47"/>
+      <c r="P45" s="47"/>
+      <c r="Q45" s="47"/>
+      <c r="R45" s="47"/>
+      <c r="S45" s="47"/>
+      <c r="T45" s="47"/>
+      <c r="U45" s="47"/>
+      <c r="V45" s="47"/>
+      <c r="W45" s="47"/>
+      <c r="X45" s="47"/>
+      <c r="Y45" s="48"/>
     </row>
     <row r="46" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="45"/>
-      <c r="B46" s="46"/>
-      <c r="C46" s="46"/>
-      <c r="D46" s="46"/>
-      <c r="E46" s="46"/>
-      <c r="F46" s="46"/>
-      <c r="G46" s="46"/>
-      <c r="H46" s="46"/>
-      <c r="I46" s="46"/>
-      <c r="J46" s="46"/>
-      <c r="K46" s="46"/>
-      <c r="L46" s="46"/>
-      <c r="M46" s="46"/>
-      <c r="N46" s="46"/>
-      <c r="O46" s="46"/>
-      <c r="P46" s="46"/>
-      <c r="Q46" s="46"/>
-      <c r="R46" s="46"/>
-      <c r="S46" s="46"/>
-      <c r="T46" s="46"/>
-      <c r="U46" s="46"/>
-      <c r="V46" s="46"/>
-      <c r="W46" s="46"/>
-      <c r="X46" s="46"/>
-      <c r="Y46" s="47"/>
+      <c r="A46" s="46"/>
+      <c r="B46" s="47"/>
+      <c r="C46" s="47"/>
+      <c r="D46" s="47"/>
+      <c r="E46" s="47"/>
+      <c r="F46" s="47"/>
+      <c r="G46" s="47"/>
+      <c r="H46" s="47"/>
+      <c r="I46" s="47"/>
+      <c r="J46" s="47"/>
+      <c r="K46" s="47"/>
+      <c r="L46" s="47"/>
+      <c r="M46" s="47"/>
+      <c r="N46" s="47"/>
+      <c r="O46" s="47"/>
+      <c r="P46" s="47"/>
+      <c r="Q46" s="47"/>
+      <c r="R46" s="47"/>
+      <c r="S46" s="47"/>
+      <c r="T46" s="47"/>
+      <c r="U46" s="47"/>
+      <c r="V46" s="47"/>
+      <c r="W46" s="47"/>
+      <c r="X46" s="47"/>
+      <c r="Y46" s="48"/>
     </row>
     <row r="47" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="44" t="s">
-        <v>820</v>
-      </c>
-      <c r="B47" s="44"/>
-      <c r="C47" s="44"/>
-      <c r="D47" s="44"/>
-      <c r="E47" s="44"/>
-      <c r="F47" s="44"/>
-      <c r="G47" s="44"/>
-      <c r="H47" s="44"/>
-      <c r="I47" s="44"/>
-      <c r="J47" s="44"/>
-      <c r="K47" s="44"/>
-      <c r="L47" s="44"/>
-      <c r="M47" s="44"/>
-      <c r="N47" s="44"/>
-      <c r="O47" s="44"/>
-      <c r="P47" s="44"/>
-      <c r="Q47" s="44"/>
-      <c r="R47" s="44"/>
-      <c r="S47" s="44"/>
-      <c r="T47" s="44"/>
-      <c r="U47" s="44"/>
-      <c r="V47" s="44"/>
-      <c r="W47" s="44"/>
-      <c r="X47" s="44"/>
-      <c r="Y47" s="44"/>
+      <c r="A47" s="45" t="s">
+        <v>821</v>
+      </c>
+      <c r="B47" s="45"/>
+      <c r="C47" s="45"/>
+      <c r="D47" s="45"/>
+      <c r="E47" s="45"/>
+      <c r="F47" s="45"/>
+      <c r="G47" s="45"/>
+      <c r="H47" s="45"/>
+      <c r="I47" s="45"/>
+      <c r="J47" s="45"/>
+      <c r="K47" s="45"/>
+      <c r="L47" s="45"/>
+      <c r="M47" s="45"/>
+      <c r="N47" s="45"/>
+      <c r="O47" s="45"/>
+      <c r="P47" s="45"/>
+      <c r="Q47" s="45"/>
+      <c r="R47" s="45"/>
+      <c r="S47" s="45"/>
+      <c r="T47" s="45"/>
+      <c r="U47" s="45"/>
+      <c r="V47" s="45"/>
+      <c r="W47" s="45"/>
+      <c r="X47" s="45"/>
+      <c r="Y47" s="45"/>
     </row>
     <row r="48" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="45"/>
-      <c r="B48" s="46"/>
-      <c r="C48" s="46"/>
-      <c r="D48" s="46"/>
-      <c r="E48" s="46"/>
-      <c r="F48" s="46"/>
-      <c r="G48" s="46"/>
-      <c r="H48" s="46"/>
-      <c r="I48" s="46"/>
-      <c r="J48" s="46"/>
-      <c r="K48" s="46"/>
-      <c r="L48" s="46"/>
-      <c r="M48" s="46"/>
-      <c r="N48" s="46"/>
-      <c r="O48" s="46"/>
-      <c r="P48" s="46"/>
-      <c r="Q48" s="46"/>
-      <c r="R48" s="46"/>
-      <c r="S48" s="46"/>
-      <c r="T48" s="46"/>
-      <c r="U48" s="46"/>
-      <c r="V48" s="46"/>
-      <c r="W48" s="46"/>
-      <c r="X48" s="46"/>
-      <c r="Y48" s="47"/>
+      <c r="A48" s="46"/>
+      <c r="B48" s="47"/>
+      <c r="C48" s="47"/>
+      <c r="D48" s="47"/>
+      <c r="E48" s="47"/>
+      <c r="F48" s="47"/>
+      <c r="G48" s="47"/>
+      <c r="H48" s="47"/>
+      <c r="I48" s="47"/>
+      <c r="J48" s="47"/>
+      <c r="K48" s="47"/>
+      <c r="L48" s="47"/>
+      <c r="M48" s="47"/>
+      <c r="N48" s="47"/>
+      <c r="O48" s="47"/>
+      <c r="P48" s="47"/>
+      <c r="Q48" s="47"/>
+      <c r="R48" s="47"/>
+      <c r="S48" s="47"/>
+      <c r="T48" s="47"/>
+      <c r="U48" s="47"/>
+      <c r="V48" s="47"/>
+      <c r="W48" s="47"/>
+      <c r="X48" s="47"/>
+      <c r="Y48" s="48"/>
     </row>
     <row r="49" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="45"/>
-      <c r="B49" s="46"/>
-      <c r="C49" s="46"/>
-      <c r="D49" s="46"/>
-      <c r="E49" s="46"/>
-      <c r="F49" s="46"/>
-      <c r="G49" s="46"/>
-      <c r="H49" s="46"/>
-      <c r="I49" s="46"/>
-      <c r="J49" s="46"/>
-      <c r="K49" s="46"/>
-      <c r="L49" s="46"/>
-      <c r="M49" s="46"/>
-      <c r="N49" s="46"/>
-      <c r="O49" s="46"/>
-      <c r="P49" s="46"/>
-      <c r="Q49" s="46"/>
-      <c r="R49" s="46"/>
-      <c r="S49" s="46"/>
-      <c r="T49" s="46"/>
-      <c r="U49" s="46"/>
-      <c r="V49" s="46"/>
-      <c r="W49" s="46"/>
-      <c r="X49" s="46"/>
-      <c r="Y49" s="47"/>
+      <c r="A49" s="46"/>
+      <c r="B49" s="47"/>
+      <c r="C49" s="47"/>
+      <c r="D49" s="47"/>
+      <c r="E49" s="47"/>
+      <c r="F49" s="47"/>
+      <c r="G49" s="47"/>
+      <c r="H49" s="47"/>
+      <c r="I49" s="47"/>
+      <c r="J49" s="47"/>
+      <c r="K49" s="47"/>
+      <c r="L49" s="47"/>
+      <c r="M49" s="47"/>
+      <c r="N49" s="47"/>
+      <c r="O49" s="47"/>
+      <c r="P49" s="47"/>
+      <c r="Q49" s="47"/>
+      <c r="R49" s="47"/>
+      <c r="S49" s="47"/>
+      <c r="T49" s="47"/>
+      <c r="U49" s="47"/>
+      <c r="V49" s="47"/>
+      <c r="W49" s="47"/>
+      <c r="X49" s="47"/>
+      <c r="Y49" s="48"/>
     </row>
     <row r="50" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="45" t="s">
-        <v>821</v>
-      </c>
-      <c r="B50" s="46"/>
-      <c r="C50" s="46"/>
-      <c r="D50" s="46"/>
-      <c r="E50" s="46"/>
-      <c r="F50" s="46"/>
-      <c r="G50" s="46"/>
-      <c r="H50" s="46"/>
-      <c r="I50" s="46"/>
-      <c r="J50" s="46"/>
-      <c r="K50" s="46"/>
-      <c r="L50" s="46"/>
-      <c r="M50" s="46"/>
-      <c r="N50" s="46"/>
-      <c r="O50" s="46"/>
-      <c r="P50" s="46"/>
-      <c r="Q50" s="46"/>
-      <c r="R50" s="46"/>
-      <c r="S50" s="46"/>
-      <c r="T50" s="46"/>
-      <c r="U50" s="46"/>
-      <c r="V50" s="46"/>
-      <c r="W50" s="46"/>
-      <c r="X50" s="46"/>
-      <c r="Y50" s="47"/>
+      <c r="A50" s="46" t="s">
+        <v>822</v>
+      </c>
+      <c r="B50" s="47"/>
+      <c r="C50" s="47"/>
+      <c r="D50" s="47"/>
+      <c r="E50" s="47"/>
+      <c r="F50" s="47"/>
+      <c r="G50" s="47"/>
+      <c r="H50" s="47"/>
+      <c r="I50" s="47"/>
+      <c r="J50" s="47"/>
+      <c r="K50" s="47"/>
+      <c r="L50" s="47"/>
+      <c r="M50" s="47"/>
+      <c r="N50" s="47"/>
+      <c r="O50" s="47"/>
+      <c r="P50" s="47"/>
+      <c r="Q50" s="47"/>
+      <c r="R50" s="47"/>
+      <c r="S50" s="47"/>
+      <c r="T50" s="47"/>
+      <c r="U50" s="47"/>
+      <c r="V50" s="47"/>
+      <c r="W50" s="47"/>
+      <c r="X50" s="47"/>
+      <c r="Y50" s="48"/>
     </row>
     <row r="51" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="44" t="s">
-        <v>822</v>
-      </c>
-      <c r="B51" s="44"/>
-      <c r="C51" s="44"/>
-      <c r="D51" s="44"/>
-      <c r="E51" s="44"/>
-      <c r="F51" s="44"/>
-      <c r="G51" s="44"/>
-      <c r="H51" s="44"/>
-      <c r="I51" s="44"/>
-      <c r="J51" s="44"/>
-      <c r="K51" s="44"/>
-      <c r="L51" s="44"/>
-      <c r="M51" s="44"/>
-      <c r="N51" s="44"/>
-      <c r="O51" s="44"/>
-      <c r="P51" s="44"/>
-      <c r="Q51" s="44"/>
-      <c r="R51" s="44"/>
-      <c r="S51" s="44"/>
-      <c r="T51" s="44"/>
-      <c r="U51" s="44"/>
-      <c r="V51" s="44"/>
-      <c r="W51" s="44"/>
-      <c r="X51" s="44"/>
-      <c r="Y51" s="44"/>
+      <c r="A51" s="45" t="s">
+        <v>823</v>
+      </c>
+      <c r="B51" s="45"/>
+      <c r="C51" s="45"/>
+      <c r="D51" s="45"/>
+      <c r="E51" s="45"/>
+      <c r="F51" s="45"/>
+      <c r="G51" s="45"/>
+      <c r="H51" s="45"/>
+      <c r="I51" s="45"/>
+      <c r="J51" s="45"/>
+      <c r="K51" s="45"/>
+      <c r="L51" s="45"/>
+      <c r="M51" s="45"/>
+      <c r="N51" s="45"/>
+      <c r="O51" s="45"/>
+      <c r="P51" s="45"/>
+      <c r="Q51" s="45"/>
+      <c r="R51" s="45"/>
+      <c r="S51" s="45"/>
+      <c r="T51" s="45"/>
+      <c r="U51" s="45"/>
+      <c r="V51" s="45"/>
+      <c r="W51" s="45"/>
+      <c r="X51" s="45"/>
+      <c r="Y51" s="45"/>
     </row>
     <row r="52" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="49" t="s">
-        <v>823</v>
-      </c>
-      <c r="B52" s="46"/>
-      <c r="C52" s="46"/>
-      <c r="D52" s="46"/>
-      <c r="E52" s="46"/>
-      <c r="F52" s="46"/>
-      <c r="G52" s="46"/>
-      <c r="H52" s="46"/>
-      <c r="I52" s="46"/>
-      <c r="J52" s="46"/>
-      <c r="K52" s="46"/>
-      <c r="L52" s="46"/>
-      <c r="M52" s="46"/>
-      <c r="N52" s="46"/>
-      <c r="O52" s="46"/>
-      <c r="P52" s="46"/>
-      <c r="Q52" s="46"/>
-      <c r="R52" s="46"/>
-      <c r="S52" s="46"/>
-      <c r="T52" s="46"/>
-      <c r="U52" s="46"/>
-      <c r="V52" s="46"/>
-      <c r="W52" s="46"/>
-      <c r="X52" s="46"/>
-      <c r="Y52" s="47"/>
+      <c r="A52" s="50" t="s">
+        <v>824</v>
+      </c>
+      <c r="B52" s="47"/>
+      <c r="C52" s="47"/>
+      <c r="D52" s="47"/>
+      <c r="E52" s="47"/>
+      <c r="F52" s="47"/>
+      <c r="G52" s="47"/>
+      <c r="H52" s="47"/>
+      <c r="I52" s="47"/>
+      <c r="J52" s="47"/>
+      <c r="K52" s="47"/>
+      <c r="L52" s="47"/>
+      <c r="M52" s="47"/>
+      <c r="N52" s="47"/>
+      <c r="O52" s="47"/>
+      <c r="P52" s="47"/>
+      <c r="Q52" s="47"/>
+      <c r="R52" s="47"/>
+      <c r="S52" s="47"/>
+      <c r="T52" s="47"/>
+      <c r="U52" s="47"/>
+      <c r="V52" s="47"/>
+      <c r="W52" s="47"/>
+      <c r="X52" s="47"/>
+      <c r="Y52" s="48"/>
     </row>
     <row r="53" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="49" t="s">
-        <v>824</v>
-      </c>
-      <c r="B53" s="46"/>
-      <c r="C53" s="46"/>
-      <c r="D53" s="46"/>
-      <c r="E53" s="46"/>
-      <c r="F53" s="46"/>
-      <c r="G53" s="46"/>
-      <c r="H53" s="46"/>
-      <c r="I53" s="46"/>
-      <c r="J53" s="46"/>
-      <c r="K53" s="46"/>
-      <c r="L53" s="46"/>
-      <c r="M53" s="46"/>
-      <c r="N53" s="46"/>
-      <c r="O53" s="46"/>
-      <c r="P53" s="46"/>
-      <c r="Q53" s="46"/>
-      <c r="R53" s="46"/>
-      <c r="S53" s="46"/>
-      <c r="T53" s="46"/>
-      <c r="U53" s="46"/>
-      <c r="V53" s="46"/>
-      <c r="W53" s="46"/>
-      <c r="X53" s="46"/>
-      <c r="Y53" s="47"/>
+      <c r="A53" s="50" t="s">
+        <v>825</v>
+      </c>
+      <c r="B53" s="47"/>
+      <c r="C53" s="47"/>
+      <c r="D53" s="47"/>
+      <c r="E53" s="47"/>
+      <c r="F53" s="47"/>
+      <c r="G53" s="47"/>
+      <c r="H53" s="47"/>
+      <c r="I53" s="47"/>
+      <c r="J53" s="47"/>
+      <c r="K53" s="47"/>
+      <c r="L53" s="47"/>
+      <c r="M53" s="47"/>
+      <c r="N53" s="47"/>
+      <c r="O53" s="47"/>
+      <c r="P53" s="47"/>
+      <c r="Q53" s="47"/>
+      <c r="R53" s="47"/>
+      <c r="S53" s="47"/>
+      <c r="T53" s="47"/>
+      <c r="U53" s="47"/>
+      <c r="V53" s="47"/>
+      <c r="W53" s="47"/>
+      <c r="X53" s="47"/>
+      <c r="Y53" s="48"/>
     </row>
     <row r="54" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="49" t="s">
-        <v>825</v>
-      </c>
-      <c r="B54" s="46"/>
-      <c r="C54" s="46"/>
-      <c r="D54" s="46"/>
-      <c r="E54" s="46"/>
-      <c r="F54" s="46"/>
-      <c r="G54" s="46"/>
-      <c r="H54" s="46"/>
-      <c r="I54" s="46"/>
-      <c r="J54" s="46"/>
-      <c r="K54" s="46"/>
-      <c r="L54" s="46"/>
-      <c r="M54" s="46"/>
-      <c r="N54" s="46"/>
-      <c r="O54" s="46"/>
-      <c r="P54" s="46"/>
-      <c r="Q54" s="46"/>
-      <c r="R54" s="46"/>
-      <c r="S54" s="46"/>
-      <c r="T54" s="46"/>
-      <c r="U54" s="46"/>
-      <c r="V54" s="46"/>
-      <c r="W54" s="46"/>
-      <c r="X54" s="46"/>
-      <c r="Y54" s="47"/>
+      <c r="A54" s="50" t="s">
+        <v>826</v>
+      </c>
+      <c r="B54" s="47"/>
+      <c r="C54" s="47"/>
+      <c r="D54" s="47"/>
+      <c r="E54" s="47"/>
+      <c r="F54" s="47"/>
+      <c r="G54" s="47"/>
+      <c r="H54" s="47"/>
+      <c r="I54" s="47"/>
+      <c r="J54" s="47"/>
+      <c r="K54" s="47"/>
+      <c r="L54" s="47"/>
+      <c r="M54" s="47"/>
+      <c r="N54" s="47"/>
+      <c r="O54" s="47"/>
+      <c r="P54" s="47"/>
+      <c r="Q54" s="47"/>
+      <c r="R54" s="47"/>
+      <c r="S54" s="47"/>
+      <c r="T54" s="47"/>
+      <c r="U54" s="47"/>
+      <c r="V54" s="47"/>
+      <c r="W54" s="47"/>
+      <c r="X54" s="47"/>
+      <c r="Y54" s="48"/>
     </row>
     <row r="55" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="45"/>
-      <c r="B55" s="46"/>
-      <c r="C55" s="46"/>
-      <c r="D55" s="46"/>
-      <c r="E55" s="46"/>
-      <c r="F55" s="46"/>
-      <c r="G55" s="46"/>
-      <c r="H55" s="46"/>
-      <c r="I55" s="46"/>
-      <c r="J55" s="46"/>
-      <c r="K55" s="46"/>
-      <c r="L55" s="46"/>
-      <c r="M55" s="46"/>
-      <c r="N55" s="46"/>
-      <c r="O55" s="46"/>
-      <c r="P55" s="46"/>
-      <c r="Q55" s="46"/>
-      <c r="R55" s="46"/>
-      <c r="S55" s="46"/>
-      <c r="T55" s="46"/>
-      <c r="U55" s="46"/>
-      <c r="V55" s="46"/>
-      <c r="W55" s="46"/>
-      <c r="X55" s="46"/>
-      <c r="Y55" s="47"/>
+      <c r="A55" s="46"/>
+      <c r="B55" s="47"/>
+      <c r="C55" s="47"/>
+      <c r="D55" s="47"/>
+      <c r="E55" s="47"/>
+      <c r="F55" s="47"/>
+      <c r="G55" s="47"/>
+      <c r="H55" s="47"/>
+      <c r="I55" s="47"/>
+      <c r="J55" s="47"/>
+      <c r="K55" s="47"/>
+      <c r="L55" s="47"/>
+      <c r="M55" s="47"/>
+      <c r="N55" s="47"/>
+      <c r="O55" s="47"/>
+      <c r="P55" s="47"/>
+      <c r="Q55" s="47"/>
+      <c r="R55" s="47"/>
+      <c r="S55" s="47"/>
+      <c r="T55" s="47"/>
+      <c r="U55" s="47"/>
+      <c r="V55" s="47"/>
+      <c r="W55" s="47"/>
+      <c r="X55" s="47"/>
+      <c r="Y55" s="48"/>
     </row>
     <row r="56" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="50" t="s">
-        <v>826</v>
-      </c>
-      <c r="B56" s="46"/>
-      <c r="C56" s="46"/>
-      <c r="D56" s="46"/>
-      <c r="E56" s="46"/>
-      <c r="F56" s="46"/>
-      <c r="G56" s="46"/>
-      <c r="H56" s="46"/>
-      <c r="I56" s="46"/>
-      <c r="J56" s="46"/>
-      <c r="K56" s="46"/>
-      <c r="L56" s="46"/>
-      <c r="M56" s="46"/>
-      <c r="N56" s="46"/>
-      <c r="O56" s="46"/>
-      <c r="P56" s="46"/>
-      <c r="Q56" s="46"/>
-      <c r="R56" s="46"/>
-      <c r="S56" s="46"/>
-      <c r="T56" s="46"/>
-      <c r="U56" s="46"/>
-      <c r="V56" s="46"/>
-      <c r="W56" s="46"/>
-      <c r="X56" s="46"/>
-      <c r="Y56" s="47"/>
+      <c r="A56" s="51" t="s">
+        <v>827</v>
+      </c>
+      <c r="B56" s="47"/>
+      <c r="C56" s="47"/>
+      <c r="D56" s="47"/>
+      <c r="E56" s="47"/>
+      <c r="F56" s="47"/>
+      <c r="G56" s="47"/>
+      <c r="H56" s="47"/>
+      <c r="I56" s="47"/>
+      <c r="J56" s="47"/>
+      <c r="K56" s="47"/>
+      <c r="L56" s="47"/>
+      <c r="M56" s="47"/>
+      <c r="N56" s="47"/>
+      <c r="O56" s="47"/>
+      <c r="P56" s="47"/>
+      <c r="Q56" s="47"/>
+      <c r="R56" s="47"/>
+      <c r="S56" s="47"/>
+      <c r="T56" s="47"/>
+      <c r="U56" s="47"/>
+      <c r="V56" s="47"/>
+      <c r="W56" s="47"/>
+      <c r="X56" s="47"/>
+      <c r="Y56" s="48"/>
     </row>
     <row r="57" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="51" t="s">
-        <v>827</v>
-      </c>
-      <c r="B57" s="52"/>
-      <c r="C57" s="52"/>
-      <c r="D57" s="52"/>
-      <c r="E57" s="52"/>
-      <c r="F57" s="52"/>
-      <c r="G57" s="52"/>
-      <c r="H57" s="52"/>
-      <c r="I57" s="52"/>
-      <c r="J57" s="52"/>
-      <c r="K57" s="52"/>
-      <c r="L57" s="52"/>
-      <c r="M57" s="52"/>
-      <c r="N57" s="52"/>
-      <c r="O57" s="52"/>
-      <c r="P57" s="52"/>
-      <c r="Q57" s="52"/>
-      <c r="R57" s="52"/>
-      <c r="S57" s="52"/>
-      <c r="T57" s="52"/>
-      <c r="U57" s="52"/>
-      <c r="V57" s="52"/>
-      <c r="W57" s="52"/>
-      <c r="X57" s="52"/>
-      <c r="Y57" s="53"/>
+      <c r="A57" s="52" t="s">
+        <v>828</v>
+      </c>
+      <c r="B57" s="53"/>
+      <c r="C57" s="53"/>
+      <c r="D57" s="53"/>
+      <c r="E57" s="53"/>
+      <c r="F57" s="53"/>
+      <c r="G57" s="53"/>
+      <c r="H57" s="53"/>
+      <c r="I57" s="53"/>
+      <c r="J57" s="53"/>
+      <c r="K57" s="53"/>
+      <c r="L57" s="53"/>
+      <c r="M57" s="53"/>
+      <c r="N57" s="53"/>
+      <c r="O57" s="53"/>
+      <c r="P57" s="53"/>
+      <c r="Q57" s="53"/>
+      <c r="R57" s="53"/>
+      <c r="S57" s="53"/>
+      <c r="T57" s="53"/>
+      <c r="U57" s="53"/>
+      <c r="V57" s="53"/>
+      <c r="W57" s="53"/>
+      <c r="X57" s="53"/>
+      <c r="Y57" s="54"/>
     </row>
     <row r="58" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="54"/>
+      <c r="A58" s="55"/>
     </row>
     <row r="59" customFormat="false" ht="141.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="55" t="s">
-        <v>828</v>
+      <c r="A59" s="56" t="s">
+        <v>829</v>
       </c>
     </row>
   </sheetData>

--- a/resources/report_template.xlsx
+++ b/resources/report_template.xlsx
@@ -2578,7 +2578,7 @@
     <numFmt numFmtId="165" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* \-??\ _€_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* \-??\ _€_-;_-@_-"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2616,12 +2616,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="16"/>
@@ -2930,7 +2924,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="56">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2951,112 +2945,48 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="10" fillId="0" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="5" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="2" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="6" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="5" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="2" borderId="5" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="13" fillId="7" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="7" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="7" borderId="5" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="9" fillId="0" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -3067,95 +2997,155 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="2" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="8" fillId="6" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="5" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="2" borderId="5" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="7" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="7" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="7" borderId="5" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="5" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="8" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="8" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="8" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="8" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="8" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="8" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="8" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="8" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="8" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="8" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3236,15 +3226,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>324000</xdr:colOff>
+      <xdr:colOff>351000</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>92160</xdr:rowOff>
+      <xdr:rowOff>83160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>805320</xdr:colOff>
+      <xdr:colOff>831960</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>59040</xdr:rowOff>
+      <xdr:rowOff>49680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3257,8 +3247,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="324000" y="691920"/>
-          <a:ext cx="481320" cy="357480"/>
+          <a:off x="351000" y="682920"/>
+          <a:ext cx="480960" cy="357120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3281,7 +3271,7 @@
   <dimension ref="A1:AD65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -3345,74 +3335,74 @@
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="6"/>
-      <c r="W6" s="6"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0"/>
@@ -3421,2758 +3411,2758 @@
       <c r="A8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="I9" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9" t="s">
+      <c r="J9" s="8"/>
+      <c r="K9" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="L9" s="9"/>
-      <c r="M9" s="10" t="s">
+      <c r="L9" s="8"/>
+      <c r="M9" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10" t="s">
+      <c r="N9" s="9"/>
+      <c r="O9" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10" t="s">
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="R9" s="10"/>
-      <c r="S9" s="10" t="s">
+      <c r="R9" s="9"/>
+      <c r="S9" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="T9" s="10"/>
-      <c r="U9" s="10" t="s">
+      <c r="T9" s="9"/>
+      <c r="U9" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="V9" s="10"/>
-      <c r="W9" s="10" t="s">
+      <c r="V9" s="9"/>
+      <c r="W9" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="X9" s="10"/>
-      <c r="Y9" s="10" t="s">
+      <c r="X9" s="9"/>
+      <c r="Y9" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="Z9" s="10"/>
-      <c r="AA9" s="10" t="s">
+      <c r="Z9" s="9"/>
+      <c r="AA9" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="AB9" s="10"/>
-      <c r="AC9" s="11" t="s">
+      <c r="AB9" s="9"/>
+      <c r="AC9" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="AD9" s="11"/>
+      <c r="AD9" s="10"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="12" t="s">
+      <c r="A10" s="6"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="J10" s="12" t="s">
+      <c r="J10" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="K10" s="12" t="s">
+      <c r="K10" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="L10" s="12" t="s">
+      <c r="L10" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="M10" s="13" t="s">
+      <c r="M10" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="N10" s="13" t="s">
+      <c r="N10" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="O10" s="13" t="s">
+      <c r="O10" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="P10" s="13" t="s">
+      <c r="P10" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="Q10" s="13" t="s">
+      <c r="Q10" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="R10" s="13" t="s">
+      <c r="R10" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="S10" s="13" t="s">
+      <c r="S10" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="T10" s="13" t="s">
+      <c r="T10" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="U10" s="13" t="s">
+      <c r="U10" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="V10" s="13" t="s">
+      <c r="V10" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="W10" s="13" t="s">
+      <c r="W10" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="X10" s="13" t="s">
+      <c r="X10" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="Y10" s="13" t="s">
+      <c r="Y10" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="Z10" s="13" t="s">
+      <c r="Z10" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="AA10" s="13" t="s">
+      <c r="AA10" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="AB10" s="13" t="s">
+      <c r="AB10" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="AC10" s="13" t="s">
+      <c r="AC10" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="AD10" s="14" t="s">
+      <c r="AD10" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="G11" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="H11" s="16" t="s">
+      <c r="H11" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="I11" s="16" t="s">
+      <c r="I11" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="J11" s="16" t="s">
+      <c r="J11" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="K11" s="16" t="s">
+      <c r="K11" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="L11" s="16" t="s">
+      <c r="L11" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="M11" s="17" t="s">
+      <c r="M11" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="N11" s="17" t="s">
+      <c r="N11" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="O11" s="17" t="s">
+      <c r="O11" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="P11" s="17" t="s">
+      <c r="P11" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="Q11" s="17" t="s">
+      <c r="Q11" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="R11" s="17" t="s">
+      <c r="R11" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="S11" s="17" t="s">
+      <c r="S11" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="T11" s="17" t="s">
+      <c r="T11" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="U11" s="17" t="s">
+      <c r="U11" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="V11" s="17" t="s">
+      <c r="V11" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="W11" s="17" t="s">
+      <c r="W11" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="X11" s="17" t="s">
+      <c r="X11" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="Y11" s="17" t="s">
+      <c r="Y11" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="Z11" s="17" t="s">
+      <c r="Z11" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="AA11" s="17" t="s">
+      <c r="AA11" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="AB11" s="17" t="s">
+      <c r="AB11" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="AC11" s="17" t="s">
+      <c r="AC11" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="AD11" s="18" t="s">
+      <c r="AD11" s="17" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="38.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="G12" s="16" t="s">
+      <c r="G12" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="H12" s="16" t="s">
+      <c r="H12" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="I12" s="16" t="s">
+      <c r="I12" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="J12" s="16" t="s">
+      <c r="J12" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="K12" s="16" t="s">
+      <c r="K12" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="L12" s="16" t="s">
+      <c r="L12" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="M12" s="17" t="s">
+      <c r="M12" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="N12" s="17" t="s">
+      <c r="N12" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="O12" s="17" t="s">
+      <c r="O12" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="P12" s="17" t="s">
+      <c r="P12" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="Q12" s="17" t="s">
+      <c r="Q12" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="R12" s="17" t="s">
+      <c r="R12" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="S12" s="17" t="s">
+      <c r="S12" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="T12" s="17" t="s">
+      <c r="T12" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="U12" s="17" t="s">
+      <c r="U12" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="V12" s="17" t="s">
+      <c r="V12" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="W12" s="17" t="s">
+      <c r="W12" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="X12" s="17" t="s">
+      <c r="X12" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y12" s="17" t="s">
+      <c r="Y12" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="Z12" s="17" t="s">
+      <c r="Z12" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="AA12" s="17" t="s">
+      <c r="AA12" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="AB12" s="17" t="s">
+      <c r="AB12" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="AC12" s="17" t="s">
+      <c r="AC12" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="AD12" s="18" t="s">
+      <c r="AD12" s="17" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="50.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="F13" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="G13" s="16" t="s">
+      <c r="G13" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="H13" s="16" t="s">
+      <c r="H13" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="I13" s="16" t="s">
+      <c r="I13" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="J13" s="16" t="s">
+      <c r="J13" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="K13" s="16" t="s">
+      <c r="K13" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="L13" s="16" t="s">
+      <c r="L13" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="M13" s="17" t="s">
+      <c r="M13" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="N13" s="17" t="s">
+      <c r="N13" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="O13" s="17" t="s">
+      <c r="O13" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="P13" s="17" t="s">
+      <c r="P13" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="Q13" s="17" t="s">
+      <c r="Q13" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="R13" s="17" t="s">
+      <c r="R13" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="S13" s="17" t="s">
+      <c r="S13" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="T13" s="17" t="s">
+      <c r="T13" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="U13" s="17" t="s">
+      <c r="U13" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="V13" s="17" t="s">
+      <c r="V13" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="W13" s="17" t="s">
+      <c r="W13" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="X13" s="17" t="s">
+      <c r="X13" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="Y13" s="17" t="s">
+      <c r="Y13" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="Z13" s="17" t="s">
+      <c r="Z13" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="AA13" s="17" t="s">
+      <c r="AA13" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="AB13" s="17" t="s">
+      <c r="AB13" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="AC13" s="17" t="s">
+      <c r="AC13" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="AD13" s="18" t="s">
+      <c r="AD13" s="17" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="14" s="20" customFormat="true" ht="51.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="19" t="s">
+    <row r="14" s="19" customFormat="true" ht="51.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="E14" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="F14" s="16" t="s">
+      <c r="F14" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="G14" s="16" t="s">
+      <c r="G14" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="H14" s="16" t="s">
+      <c r="H14" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="I14" s="16" t="s">
+      <c r="I14" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="J14" s="16" t="s">
+      <c r="J14" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="K14" s="16" t="s">
+      <c r="K14" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="L14" s="16" t="s">
+      <c r="L14" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="M14" s="17" t="s">
+      <c r="M14" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="N14" s="17" t="s">
+      <c r="N14" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="O14" s="17" t="s">
+      <c r="O14" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="P14" s="17" t="s">
+      <c r="P14" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="Q14" s="17" t="s">
+      <c r="Q14" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="R14" s="17" t="s">
+      <c r="R14" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="S14" s="17" t="s">
+      <c r="S14" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="T14" s="17" t="s">
+      <c r="T14" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="U14" s="17" t="s">
+      <c r="U14" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="V14" s="17" t="s">
+      <c r="V14" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="W14" s="17" t="s">
+      <c r="W14" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="X14" s="17" t="s">
+      <c r="X14" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="Y14" s="17" t="s">
+      <c r="Y14" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="Z14" s="17" t="s">
+      <c r="Z14" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="AA14" s="17" t="s">
+      <c r="AA14" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="AB14" s="17" t="s">
+      <c r="AB14" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="AC14" s="17" t="s">
+      <c r="AC14" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="AD14" s="18" t="s">
+      <c r="AD14" s="17" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="51.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="F15" s="16" t="s">
+      <c r="F15" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="G15" s="16" t="s">
+      <c r="G15" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="H15" s="16" t="s">
+      <c r="H15" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="I15" s="16" t="s">
+      <c r="I15" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="J15" s="16" t="s">
+      <c r="J15" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="K15" s="16" t="s">
+      <c r="K15" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="L15" s="16" t="s">
+      <c r="L15" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="M15" s="17" t="s">
+      <c r="M15" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="N15" s="17" t="s">
+      <c r="N15" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="O15" s="17" t="s">
+      <c r="O15" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="P15" s="17" t="s">
+      <c r="P15" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="Q15" s="17" t="s">
+      <c r="Q15" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="R15" s="17" t="s">
+      <c r="R15" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="S15" s="17" t="s">
+      <c r="S15" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="T15" s="17" t="s">
+      <c r="T15" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="U15" s="17" t="s">
+      <c r="U15" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="V15" s="17" t="s">
+      <c r="V15" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="W15" s="17" t="s">
+      <c r="W15" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="X15" s="17" t="s">
+      <c r="X15" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="Y15" s="17" t="s">
+      <c r="Y15" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="Z15" s="17" t="s">
+      <c r="Z15" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="AA15" s="17" t="s">
+      <c r="AA15" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="AB15" s="17" t="s">
+      <c r="AB15" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="AC15" s="17" t="s">
+      <c r="AC15" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="AD15" s="18" t="s">
+      <c r="AD15" s="17" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="48.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="E16" s="22" t="s">
+      <c r="E16" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="F16" s="22" t="s">
+      <c r="F16" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="G16" s="22" t="s">
+      <c r="G16" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="H16" s="23" t="s">
+      <c r="H16" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="I16" s="24" t="s">
+      <c r="I16" s="23" t="s">
         <v>169</v>
       </c>
-      <c r="J16" s="24" t="s">
+      <c r="J16" s="23" t="s">
         <v>170</v>
       </c>
-      <c r="K16" s="24" t="s">
+      <c r="K16" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="L16" s="24" t="s">
+      <c r="L16" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="M16" s="22" t="s">
+      <c r="M16" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="N16" s="22" t="s">
+      <c r="N16" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="O16" s="22" t="s">
+      <c r="O16" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="P16" s="22" t="s">
+      <c r="P16" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="Q16" s="22" t="s">
+      <c r="Q16" s="21" t="s">
         <v>176</v>
       </c>
-      <c r="R16" s="22" t="s">
+      <c r="R16" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="S16" s="22" t="s">
+      <c r="S16" s="21" t="s">
         <v>178</v>
       </c>
-      <c r="T16" s="22" t="s">
+      <c r="T16" s="21" t="s">
         <v>179</v>
       </c>
-      <c r="U16" s="22" t="s">
+      <c r="U16" s="21" t="s">
         <v>180</v>
       </c>
-      <c r="V16" s="22" t="s">
+      <c r="V16" s="21" t="s">
         <v>181</v>
       </c>
-      <c r="W16" s="22" t="s">
+      <c r="W16" s="21" t="s">
         <v>182</v>
       </c>
-      <c r="X16" s="22" t="s">
+      <c r="X16" s="21" t="s">
         <v>183</v>
       </c>
-      <c r="Y16" s="22" t="s">
+      <c r="Y16" s="21" t="s">
         <v>184</v>
       </c>
-      <c r="Z16" s="22" t="s">
+      <c r="Z16" s="21" t="s">
         <v>185</v>
       </c>
-      <c r="AA16" s="22" t="s">
+      <c r="AA16" s="21" t="s">
         <v>186</v>
       </c>
-      <c r="AB16" s="22" t="s">
+      <c r="AB16" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="AC16" s="22" t="s">
+      <c r="AC16" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="AD16" s="25" t="s">
+      <c r="AD16" s="24" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="F17" s="16" t="s">
+      <c r="F17" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="G17" s="16" t="s">
+      <c r="G17" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="H17" s="16" t="s">
+      <c r="H17" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="I17" s="16" t="s">
+      <c r="I17" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="J17" s="16" t="s">
+      <c r="J17" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="K17" s="16" t="s">
+      <c r="K17" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="L17" s="16" t="s">
+      <c r="L17" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="M17" s="17" t="s">
+      <c r="M17" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="N17" s="17" t="s">
+      <c r="N17" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="O17" s="17" t="s">
+      <c r="O17" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="P17" s="17" t="s">
+      <c r="P17" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="Q17" s="17" t="s">
+      <c r="Q17" s="16" t="s">
         <v>203</v>
       </c>
-      <c r="R17" s="17" t="s">
+      <c r="R17" s="16" t="s">
         <v>204</v>
       </c>
-      <c r="S17" s="17" t="s">
+      <c r="S17" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="T17" s="17" t="s">
+      <c r="T17" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="U17" s="17" t="s">
+      <c r="U17" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="V17" s="17" t="s">
+      <c r="V17" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="W17" s="17" t="s">
+      <c r="W17" s="16" t="s">
         <v>209</v>
       </c>
-      <c r="X17" s="17" t="s">
+      <c r="X17" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="Y17" s="17" t="s">
+      <c r="Y17" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="Z17" s="17" t="s">
+      <c r="Z17" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="AA17" s="17" t="s">
+      <c r="AA17" s="16" t="s">
         <v>213</v>
       </c>
-      <c r="AB17" s="17" t="s">
+      <c r="AB17" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="AC17" s="17" t="s">
+      <c r="AC17" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="AD17" s="18" t="s">
+      <c r="AD17" s="17" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="28.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="15" t="s">
         <v>217</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="15" t="s">
         <v>218</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="15" t="s">
         <v>219</v>
       </c>
-      <c r="F18" s="16" t="s">
+      <c r="F18" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="G18" s="16" t="s">
+      <c r="G18" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="H18" s="16" t="s">
+      <c r="H18" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="I18" s="16" t="s">
+      <c r="I18" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="J18" s="16" t="s">
+      <c r="J18" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="K18" s="16" t="s">
+      <c r="K18" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="L18" s="16" t="s">
+      <c r="L18" s="15" t="s">
         <v>226</v>
       </c>
-      <c r="M18" s="17" t="s">
+      <c r="M18" s="16" t="s">
         <v>227</v>
       </c>
-      <c r="N18" s="17" t="s">
+      <c r="N18" s="16" t="s">
         <v>228</v>
       </c>
-      <c r="O18" s="17" t="s">
+      <c r="O18" s="16" t="s">
         <v>229</v>
       </c>
-      <c r="P18" s="17" t="s">
+      <c r="P18" s="16" t="s">
         <v>227</v>
       </c>
-      <c r="Q18" s="17" t="s">
+      <c r="Q18" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="R18" s="17" t="s">
+      <c r="R18" s="16" t="s">
         <v>231</v>
       </c>
-      <c r="S18" s="17" t="s">
+      <c r="S18" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="T18" s="17" t="s">
+      <c r="T18" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="U18" s="17" t="s">
+      <c r="U18" s="16" t="s">
         <v>234</v>
       </c>
-      <c r="V18" s="17" t="s">
+      <c r="V18" s="16" t="s">
         <v>235</v>
       </c>
-      <c r="W18" s="17" t="s">
+      <c r="W18" s="16" t="s">
         <v>236</v>
       </c>
-      <c r="X18" s="17" t="s">
+      <c r="X18" s="16" t="s">
         <v>237</v>
       </c>
-      <c r="Y18" s="17" t="s">
+      <c r="Y18" s="16" t="s">
         <v>238</v>
       </c>
-      <c r="Z18" s="17" t="s">
+      <c r="Z18" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="AA18" s="17" t="s">
+      <c r="AA18" s="16" t="s">
         <v>240</v>
       </c>
-      <c r="AB18" s="17" t="s">
+      <c r="AB18" s="16" t="s">
         <v>241</v>
       </c>
-      <c r="AC18" s="17" t="s">
+      <c r="AC18" s="16" t="s">
         <v>216</v>
       </c>
-      <c r="AD18" s="18" t="s">
+      <c r="AD18" s="17" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="41" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="18" t="s">
         <v>242</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="F19" s="16" t="s">
+      <c r="F19" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="G19" s="16" t="s">
+      <c r="G19" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="H19" s="16" t="s">
+      <c r="H19" s="15" t="s">
         <v>249</v>
       </c>
-      <c r="I19" s="16" t="s">
+      <c r="I19" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="J19" s="16" t="s">
+      <c r="J19" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="K19" s="16" t="s">
+      <c r="K19" s="15" t="s">
         <v>252</v>
       </c>
-      <c r="L19" s="16" t="s">
+      <c r="L19" s="15" t="s">
         <v>253</v>
       </c>
-      <c r="M19" s="17" t="s">
+      <c r="M19" s="16" t="s">
         <v>254</v>
       </c>
-      <c r="N19" s="17" t="s">
+      <c r="N19" s="16" t="s">
         <v>255</v>
       </c>
-      <c r="O19" s="17" t="s">
+      <c r="O19" s="16" t="s">
         <v>256</v>
       </c>
-      <c r="P19" s="17" t="s">
+      <c r="P19" s="16" t="s">
         <v>254</v>
       </c>
-      <c r="Q19" s="17" t="s">
+      <c r="Q19" s="16" t="s">
         <v>257</v>
       </c>
-      <c r="R19" s="17" t="s">
+      <c r="R19" s="16" t="s">
         <v>258</v>
       </c>
-      <c r="S19" s="17" t="s">
+      <c r="S19" s="16" t="s">
         <v>259</v>
       </c>
-      <c r="T19" s="17" t="s">
+      <c r="T19" s="16" t="s">
         <v>260</v>
       </c>
-      <c r="U19" s="17" t="s">
+      <c r="U19" s="16" t="s">
         <v>261</v>
       </c>
-      <c r="V19" s="17" t="s">
+      <c r="V19" s="16" t="s">
         <v>262</v>
       </c>
-      <c r="W19" s="17" t="s">
+      <c r="W19" s="16" t="s">
         <v>263</v>
       </c>
-      <c r="X19" s="17" t="s">
+      <c r="X19" s="16" t="s">
         <v>264</v>
       </c>
-      <c r="Y19" s="17" t="s">
+      <c r="Y19" s="16" t="s">
         <v>265</v>
       </c>
-      <c r="Z19" s="17" t="s">
+      <c r="Z19" s="16" t="s">
         <v>266</v>
       </c>
-      <c r="AA19" s="17" t="s">
+      <c r="AA19" s="16" t="s">
         <v>267</v>
       </c>
-      <c r="AB19" s="17" t="s">
+      <c r="AB19" s="16" t="s">
         <v>268</v>
       </c>
-      <c r="AC19" s="17" t="s">
+      <c r="AC19" s="16" t="s">
         <v>243</v>
       </c>
-      <c r="AD19" s="18" t="s">
+      <c r="AD19" s="17" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="18" t="s">
         <v>269</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="15" t="s">
         <v>270</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="15" t="s">
         <v>271</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="15" t="s">
         <v>272</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="15" t="s">
         <v>273</v>
       </c>
-      <c r="F20" s="16" t="s">
+      <c r="F20" s="15" t="s">
         <v>274</v>
       </c>
-      <c r="G20" s="16" t="s">
+      <c r="G20" s="15" t="s">
         <v>275</v>
       </c>
-      <c r="H20" s="16" t="s">
+      <c r="H20" s="15" t="s">
         <v>276</v>
       </c>
-      <c r="I20" s="16" t="s">
+      <c r="I20" s="15" t="s">
         <v>277</v>
       </c>
-      <c r="J20" s="16" t="s">
+      <c r="J20" s="15" t="s">
         <v>278</v>
       </c>
-      <c r="K20" s="16" t="s">
+      <c r="K20" s="15" t="s">
         <v>279</v>
       </c>
-      <c r="L20" s="16" t="s">
+      <c r="L20" s="15" t="s">
         <v>280</v>
       </c>
-      <c r="M20" s="17" t="s">
+      <c r="M20" s="16" t="s">
         <v>281</v>
       </c>
-      <c r="N20" s="17" t="s">
+      <c r="N20" s="16" t="s">
         <v>282</v>
       </c>
-      <c r="O20" s="17" t="s">
+      <c r="O20" s="16" t="s">
         <v>283</v>
       </c>
-      <c r="P20" s="17" t="s">
+      <c r="P20" s="16" t="s">
         <v>281</v>
       </c>
-      <c r="Q20" s="17" t="s">
+      <c r="Q20" s="16" t="s">
         <v>284</v>
       </c>
-      <c r="R20" s="17" t="s">
+      <c r="R20" s="16" t="s">
         <v>285</v>
       </c>
-      <c r="S20" s="17" t="s">
+      <c r="S20" s="16" t="s">
         <v>286</v>
       </c>
-      <c r="T20" s="17" t="s">
+      <c r="T20" s="16" t="s">
         <v>287</v>
       </c>
-      <c r="U20" s="17" t="s">
+      <c r="U20" s="16" t="s">
         <v>288</v>
       </c>
-      <c r="V20" s="17" t="s">
+      <c r="V20" s="16" t="s">
         <v>289</v>
       </c>
-      <c r="W20" s="17" t="s">
+      <c r="W20" s="16" t="s">
         <v>290</v>
       </c>
-      <c r="X20" s="17" t="s">
+      <c r="X20" s="16" t="s">
         <v>291</v>
       </c>
-      <c r="Y20" s="17" t="s">
+      <c r="Y20" s="16" t="s">
         <v>292</v>
       </c>
-      <c r="Z20" s="17" t="s">
+      <c r="Z20" s="16" t="s">
         <v>293</v>
       </c>
-      <c r="AA20" s="17" t="s">
+      <c r="AA20" s="16" t="s">
         <v>294</v>
       </c>
-      <c r="AB20" s="17" t="s">
+      <c r="AB20" s="16" t="s">
         <v>295</v>
       </c>
-      <c r="AC20" s="17" t="s">
+      <c r="AC20" s="16" t="s">
         <v>270</v>
       </c>
-      <c r="AD20" s="18" t="s">
+      <c r="AD20" s="17" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="25" t="s">
         <v>296</v>
       </c>
-      <c r="B21" s="27" t="s">
+      <c r="B21" s="26" t="s">
         <v>297</v>
       </c>
-      <c r="C21" s="27" t="s">
+      <c r="C21" s="26" t="s">
         <v>298</v>
       </c>
-      <c r="D21" s="27" t="s">
+      <c r="D21" s="26" t="s">
         <v>299</v>
       </c>
-      <c r="E21" s="27" t="s">
+      <c r="E21" s="26" t="s">
         <v>300</v>
       </c>
-      <c r="F21" s="27" t="s">
+      <c r="F21" s="26" t="s">
         <v>301</v>
       </c>
-      <c r="G21" s="27" t="s">
+      <c r="G21" s="26" t="s">
         <v>302</v>
       </c>
-      <c r="H21" s="27" t="s">
+      <c r="H21" s="26" t="s">
         <v>303</v>
       </c>
-      <c r="I21" s="24" t="s">
+      <c r="I21" s="23" t="s">
         <v>304</v>
       </c>
-      <c r="J21" s="24" t="s">
+      <c r="J21" s="23" t="s">
         <v>305</v>
       </c>
-      <c r="K21" s="24" t="s">
+      <c r="K21" s="23" t="s">
         <v>306</v>
       </c>
-      <c r="L21" s="24" t="s">
+      <c r="L21" s="23" t="s">
         <v>307</v>
       </c>
-      <c r="M21" s="28" t="s">
+      <c r="M21" s="27" t="s">
         <v>308</v>
       </c>
-      <c r="N21" s="28" t="s">
+      <c r="N21" s="27" t="s">
         <v>309</v>
       </c>
-      <c r="O21" s="28" t="s">
+      <c r="O21" s="27" t="s">
         <v>310</v>
       </c>
-      <c r="P21" s="28" t="s">
+      <c r="P21" s="27" t="s">
         <v>308</v>
       </c>
-      <c r="Q21" s="28" t="s">
+      <c r="Q21" s="27" t="s">
         <v>311</v>
       </c>
-      <c r="R21" s="28" t="s">
+      <c r="R21" s="27" t="s">
         <v>312</v>
       </c>
-      <c r="S21" s="28" t="s">
+      <c r="S21" s="27" t="s">
         <v>313</v>
       </c>
-      <c r="T21" s="28" t="s">
+      <c r="T21" s="27" t="s">
         <v>314</v>
       </c>
-      <c r="U21" s="28" t="s">
+      <c r="U21" s="27" t="s">
         <v>315</v>
       </c>
-      <c r="V21" s="28" t="s">
+      <c r="V21" s="27" t="s">
         <v>316</v>
       </c>
-      <c r="W21" s="28" t="s">
+      <c r="W21" s="27" t="s">
         <v>317</v>
       </c>
-      <c r="X21" s="28" t="s">
+      <c r="X21" s="27" t="s">
         <v>318</v>
       </c>
-      <c r="Y21" s="28" t="s">
+      <c r="Y21" s="27" t="s">
         <v>319</v>
       </c>
-      <c r="Z21" s="28" t="s">
+      <c r="Z21" s="27" t="s">
         <v>320</v>
       </c>
-      <c r="AA21" s="28" t="s">
+      <c r="AA21" s="27" t="s">
         <v>321</v>
       </c>
-      <c r="AB21" s="28" t="s">
+      <c r="AB21" s="27" t="s">
         <v>322</v>
       </c>
-      <c r="AC21" s="28" t="s">
+      <c r="AC21" s="27" t="s">
         <v>297</v>
       </c>
-      <c r="AD21" s="29" t="s">
+      <c r="AD21" s="28" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="18" t="s">
         <v>323</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="15" t="s">
         <v>324</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="15" t="s">
         <v>325</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="D22" s="15" t="s">
         <v>326</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="15" t="s">
         <v>327</v>
       </c>
-      <c r="F22" s="16" t="s">
+      <c r="F22" s="15" t="s">
         <v>328</v>
       </c>
-      <c r="G22" s="16" t="s">
+      <c r="G22" s="15" t="s">
         <v>329</v>
       </c>
-      <c r="H22" s="16" t="s">
+      <c r="H22" s="15" t="s">
         <v>330</v>
       </c>
-      <c r="I22" s="16" t="s">
+      <c r="I22" s="15" t="s">
         <v>331</v>
       </c>
-      <c r="J22" s="16" t="s">
+      <c r="J22" s="15" t="s">
         <v>332</v>
       </c>
-      <c r="K22" s="16" t="s">
+      <c r="K22" s="15" t="s">
         <v>333</v>
       </c>
-      <c r="L22" s="16" t="s">
+      <c r="L22" s="15" t="s">
         <v>334</v>
       </c>
-      <c r="M22" s="17" t="s">
+      <c r="M22" s="16" t="s">
         <v>335</v>
       </c>
-      <c r="N22" s="17" t="s">
+      <c r="N22" s="16" t="s">
         <v>336</v>
       </c>
-      <c r="O22" s="17" t="s">
+      <c r="O22" s="16" t="s">
         <v>337</v>
       </c>
-      <c r="P22" s="17" t="s">
+      <c r="P22" s="16" t="s">
         <v>335</v>
       </c>
-      <c r="Q22" s="17" t="s">
+      <c r="Q22" s="16" t="s">
         <v>338</v>
       </c>
-      <c r="R22" s="17" t="s">
+      <c r="R22" s="16" t="s">
         <v>339</v>
       </c>
-      <c r="S22" s="17" t="s">
+      <c r="S22" s="16" t="s">
         <v>340</v>
       </c>
-      <c r="T22" s="17" t="s">
+      <c r="T22" s="16" t="s">
         <v>341</v>
       </c>
-      <c r="U22" s="17" t="s">
+      <c r="U22" s="16" t="s">
         <v>342</v>
       </c>
-      <c r="V22" s="17" t="s">
+      <c r="V22" s="16" t="s">
         <v>343</v>
       </c>
-      <c r="W22" s="17" t="s">
+      <c r="W22" s="16" t="s">
         <v>344</v>
       </c>
-      <c r="X22" s="17" t="s">
+      <c r="X22" s="16" t="s">
         <v>345</v>
       </c>
-      <c r="Y22" s="17" t="s">
+      <c r="Y22" s="16" t="s">
         <v>346</v>
       </c>
-      <c r="Z22" s="17" t="s">
+      <c r="Z22" s="16" t="s">
         <v>347</v>
       </c>
-      <c r="AA22" s="17" t="s">
+      <c r="AA22" s="16" t="s">
         <v>348</v>
       </c>
-      <c r="AB22" s="17" t="s">
+      <c r="AB22" s="16" t="s">
         <v>349</v>
       </c>
-      <c r="AC22" s="17" t="s">
+      <c r="AC22" s="16" t="s">
         <v>324</v>
       </c>
-      <c r="AD22" s="18" t="s">
+      <c r="AD22" s="17" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="30.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="18" t="s">
         <v>350</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="15" t="s">
         <v>351</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="15" t="s">
         <v>352</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="D23" s="15" t="s">
         <v>353</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="15" t="s">
         <v>354</v>
       </c>
-      <c r="F23" s="16" t="s">
+      <c r="F23" s="15" t="s">
         <v>355</v>
       </c>
-      <c r="G23" s="16" t="s">
+      <c r="G23" s="15" t="s">
         <v>356</v>
       </c>
-      <c r="H23" s="16" t="s">
+      <c r="H23" s="15" t="s">
         <v>357</v>
       </c>
-      <c r="I23" s="16" t="s">
+      <c r="I23" s="15" t="s">
         <v>358</v>
       </c>
-      <c r="J23" s="16" t="s">
+      <c r="J23" s="15" t="s">
         <v>359</v>
       </c>
-      <c r="K23" s="16" t="s">
+      <c r="K23" s="15" t="s">
         <v>360</v>
       </c>
-      <c r="L23" s="16" t="s">
+      <c r="L23" s="15" t="s">
         <v>361</v>
       </c>
-      <c r="M23" s="17" t="s">
+      <c r="M23" s="16" t="s">
         <v>362</v>
       </c>
-      <c r="N23" s="17" t="s">
+      <c r="N23" s="16" t="s">
         <v>363</v>
       </c>
-      <c r="O23" s="17" t="s">
+      <c r="O23" s="16" t="s">
         <v>364</v>
       </c>
-      <c r="P23" s="17" t="s">
+      <c r="P23" s="16" t="s">
         <v>362</v>
       </c>
-      <c r="Q23" s="17" t="s">
+      <c r="Q23" s="16" t="s">
         <v>365</v>
       </c>
-      <c r="R23" s="17" t="s">
+      <c r="R23" s="16" t="s">
         <v>366</v>
       </c>
-      <c r="S23" s="17" t="s">
+      <c r="S23" s="16" t="s">
         <v>367</v>
       </c>
-      <c r="T23" s="17" t="s">
+      <c r="T23" s="16" t="s">
         <v>368</v>
       </c>
-      <c r="U23" s="17" t="s">
+      <c r="U23" s="16" t="s">
         <v>369</v>
       </c>
-      <c r="V23" s="17" t="s">
+      <c r="V23" s="16" t="s">
         <v>370</v>
       </c>
-      <c r="W23" s="17" t="s">
+      <c r="W23" s="16" t="s">
         <v>371</v>
       </c>
-      <c r="X23" s="17" t="s">
+      <c r="X23" s="16" t="s">
         <v>372</v>
       </c>
-      <c r="Y23" s="17" t="s">
+      <c r="Y23" s="16" t="s">
         <v>373</v>
       </c>
-      <c r="Z23" s="17" t="s">
+      <c r="Z23" s="16" t="s">
         <v>374</v>
       </c>
-      <c r="AA23" s="17" t="s">
+      <c r="AA23" s="16" t="s">
         <v>375</v>
       </c>
-      <c r="AB23" s="17" t="s">
+      <c r="AB23" s="16" t="s">
         <v>376</v>
       </c>
-      <c r="AC23" s="17" t="s">
+      <c r="AC23" s="16" t="s">
         <v>351</v>
       </c>
-      <c r="AD23" s="18" t="s">
+      <c r="AD23" s="17" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="24" s="20" customFormat="true" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="19" t="s">
+    <row r="24" s="19" customFormat="true" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="15" t="s">
         <v>378</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="15" t="s">
         <v>379</v>
       </c>
-      <c r="D24" s="16" t="s">
+      <c r="D24" s="15" t="s">
         <v>380</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="15" t="s">
         <v>381</v>
       </c>
-      <c r="F24" s="16" t="s">
+      <c r="F24" s="15" t="s">
         <v>382</v>
       </c>
-      <c r="G24" s="16" t="s">
+      <c r="G24" s="15" t="s">
         <v>383</v>
       </c>
-      <c r="H24" s="16" t="s">
+      <c r="H24" s="15" t="s">
         <v>384</v>
       </c>
-      <c r="I24" s="16" t="s">
+      <c r="I24" s="15" t="s">
         <v>385</v>
       </c>
-      <c r="J24" s="16" t="s">
+      <c r="J24" s="15" t="s">
         <v>386</v>
       </c>
-      <c r="K24" s="16" t="s">
+      <c r="K24" s="15" t="s">
         <v>387</v>
       </c>
-      <c r="L24" s="16" t="s">
+      <c r="L24" s="15" t="s">
         <v>388</v>
       </c>
-      <c r="M24" s="17" t="s">
+      <c r="M24" s="16" t="s">
         <v>389</v>
       </c>
-      <c r="N24" s="17" t="s">
+      <c r="N24" s="16" t="s">
         <v>390</v>
       </c>
-      <c r="O24" s="17" t="s">
+      <c r="O24" s="16" t="s">
         <v>391</v>
       </c>
-      <c r="P24" s="17" t="s">
+      <c r="P24" s="16" t="s">
         <v>389</v>
       </c>
-      <c r="Q24" s="17" t="s">
+      <c r="Q24" s="16" t="s">
         <v>392</v>
       </c>
-      <c r="R24" s="17" t="s">
+      <c r="R24" s="16" t="s">
         <v>393</v>
       </c>
-      <c r="S24" s="17" t="s">
+      <c r="S24" s="16" t="s">
         <v>394</v>
       </c>
-      <c r="T24" s="17" t="s">
+      <c r="T24" s="16" t="s">
         <v>395</v>
       </c>
-      <c r="U24" s="17" t="s">
+      <c r="U24" s="16" t="s">
         <v>396</v>
       </c>
-      <c r="V24" s="17" t="s">
+      <c r="V24" s="16" t="s">
         <v>397</v>
       </c>
-      <c r="W24" s="17" t="s">
+      <c r="W24" s="16" t="s">
         <v>398</v>
       </c>
-      <c r="X24" s="17" t="s">
+      <c r="X24" s="16" t="s">
         <v>399</v>
       </c>
-      <c r="Y24" s="17" t="s">
+      <c r="Y24" s="16" t="s">
         <v>400</v>
       </c>
-      <c r="Z24" s="17" t="s">
+      <c r="Z24" s="16" t="s">
         <v>401</v>
       </c>
-      <c r="AA24" s="17" t="s">
+      <c r="AA24" s="16" t="s">
         <v>402</v>
       </c>
-      <c r="AB24" s="17" t="s">
+      <c r="AB24" s="16" t="s">
         <v>403</v>
       </c>
-      <c r="AC24" s="17" t="s">
+      <c r="AC24" s="16" t="s">
         <v>378</v>
       </c>
-      <c r="AD24" s="18" t="s">
+      <c r="AD24" s="17" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="25" s="20" customFormat="true" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="19" t="s">
+    <row r="25" s="19" customFormat="true" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="18" t="s">
         <v>404</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="15" t="s">
         <v>405</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="15" t="s">
         <v>406</v>
       </c>
-      <c r="D25" s="16" t="s">
+      <c r="D25" s="15" t="s">
         <v>407</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="15" t="s">
         <v>408</v>
       </c>
-      <c r="F25" s="16" t="s">
+      <c r="F25" s="15" t="s">
         <v>409</v>
       </c>
-      <c r="G25" s="16" t="s">
+      <c r="G25" s="15" t="s">
         <v>410</v>
       </c>
-      <c r="H25" s="16" t="s">
+      <c r="H25" s="15" t="s">
         <v>411</v>
       </c>
-      <c r="I25" s="16" t="s">
+      <c r="I25" s="15" t="s">
         <v>412</v>
       </c>
-      <c r="J25" s="16" t="s">
+      <c r="J25" s="15" t="s">
         <v>413</v>
       </c>
-      <c r="K25" s="16" t="s">
+      <c r="K25" s="15" t="s">
         <v>414</v>
       </c>
-      <c r="L25" s="16" t="s">
+      <c r="L25" s="15" t="s">
         <v>415</v>
       </c>
-      <c r="M25" s="17" t="s">
+      <c r="M25" s="16" t="s">
         <v>416</v>
       </c>
-      <c r="N25" s="17" t="s">
+      <c r="N25" s="16" t="s">
         <v>417</v>
       </c>
-      <c r="O25" s="17" t="s">
+      <c r="O25" s="16" t="s">
         <v>418</v>
       </c>
-      <c r="P25" s="17" t="s">
+      <c r="P25" s="16" t="s">
         <v>416</v>
       </c>
-      <c r="Q25" s="17" t="s">
+      <c r="Q25" s="16" t="s">
         <v>419</v>
       </c>
-      <c r="R25" s="17" t="s">
+      <c r="R25" s="16" t="s">
         <v>420</v>
       </c>
-      <c r="S25" s="17" t="s">
+      <c r="S25" s="16" t="s">
         <v>421</v>
       </c>
-      <c r="T25" s="17" t="s">
+      <c r="T25" s="16" t="s">
         <v>422</v>
       </c>
-      <c r="U25" s="17" t="s">
+      <c r="U25" s="16" t="s">
         <v>423</v>
       </c>
-      <c r="V25" s="17" t="s">
+      <c r="V25" s="16" t="s">
         <v>424</v>
       </c>
-      <c r="W25" s="17" t="s">
+      <c r="W25" s="16" t="s">
         <v>425</v>
       </c>
-      <c r="X25" s="17" t="s">
+      <c r="X25" s="16" t="s">
         <v>426</v>
       </c>
-      <c r="Y25" s="17" t="s">
+      <c r="Y25" s="16" t="s">
         <v>427</v>
       </c>
-      <c r="Z25" s="17" t="s">
+      <c r="Z25" s="16" t="s">
         <v>428</v>
       </c>
-      <c r="AA25" s="17" t="s">
+      <c r="AA25" s="16" t="s">
         <v>429</v>
       </c>
-      <c r="AB25" s="17" t="s">
+      <c r="AB25" s="16" t="s">
         <v>430</v>
       </c>
-      <c r="AC25" s="17" t="s">
+      <c r="AC25" s="16" t="s">
         <v>405</v>
       </c>
-      <c r="AD25" s="18" t="s">
+      <c r="AD25" s="17" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="26" s="20" customFormat="true" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="19" t="s">
+    <row r="26" s="19" customFormat="true" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="18" t="s">
         <v>431</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="15" t="s">
         <v>432</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="15" t="s">
         <v>433</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="D26" s="15" t="s">
         <v>434</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="15" t="s">
         <v>435</v>
       </c>
-      <c r="F26" s="16" t="s">
+      <c r="F26" s="15" t="s">
         <v>436</v>
       </c>
-      <c r="G26" s="16" t="s">
+      <c r="G26" s="15" t="s">
         <v>437</v>
       </c>
-      <c r="H26" s="16" t="s">
+      <c r="H26" s="15" t="s">
         <v>438</v>
       </c>
-      <c r="I26" s="16" t="s">
+      <c r="I26" s="15" t="s">
         <v>439</v>
       </c>
-      <c r="J26" s="16" t="s">
+      <c r="J26" s="15" t="s">
         <v>440</v>
       </c>
-      <c r="K26" s="16" t="s">
+      <c r="K26" s="15" t="s">
         <v>441</v>
       </c>
-      <c r="L26" s="16" t="s">
+      <c r="L26" s="15" t="s">
         <v>442</v>
       </c>
-      <c r="M26" s="17" t="s">
+      <c r="M26" s="16" t="s">
         <v>443</v>
       </c>
-      <c r="N26" s="17" t="s">
+      <c r="N26" s="16" t="s">
         <v>444</v>
       </c>
-      <c r="O26" s="17" t="s">
+      <c r="O26" s="16" t="s">
         <v>445</v>
       </c>
-      <c r="P26" s="17" t="s">
+      <c r="P26" s="16" t="s">
         <v>443</v>
       </c>
-      <c r="Q26" s="17" t="s">
+      <c r="Q26" s="16" t="s">
         <v>446</v>
       </c>
-      <c r="R26" s="17" t="s">
+      <c r="R26" s="16" t="s">
         <v>447</v>
       </c>
-      <c r="S26" s="17" t="s">
+      <c r="S26" s="16" t="s">
         <v>448</v>
       </c>
-      <c r="T26" s="17" t="s">
+      <c r="T26" s="16" t="s">
         <v>449</v>
       </c>
-      <c r="U26" s="17" t="s">
+      <c r="U26" s="16" t="s">
         <v>450</v>
       </c>
-      <c r="V26" s="17" t="s">
+      <c r="V26" s="16" t="s">
         <v>451</v>
       </c>
-      <c r="W26" s="17" t="s">
+      <c r="W26" s="16" t="s">
         <v>452</v>
       </c>
-      <c r="X26" s="17" t="s">
+      <c r="X26" s="16" t="s">
         <v>453</v>
       </c>
-      <c r="Y26" s="17" t="s">
+      <c r="Y26" s="16" t="s">
         <v>454</v>
       </c>
-      <c r="Z26" s="17" t="s">
+      <c r="Z26" s="16" t="s">
         <v>455</v>
       </c>
-      <c r="AA26" s="17" t="s">
+      <c r="AA26" s="16" t="s">
         <v>456</v>
       </c>
-      <c r="AB26" s="17" t="s">
+      <c r="AB26" s="16" t="s">
         <v>457</v>
       </c>
-      <c r="AC26" s="17" t="s">
+      <c r="AC26" s="16" t="s">
         <v>432</v>
       </c>
-      <c r="AD26" s="18" t="s">
+      <c r="AD26" s="17" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="27" s="20" customFormat="true" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="19" t="s">
+    <row r="27" s="19" customFormat="true" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="18" t="s">
         <v>458</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="15" t="s">
         <v>459</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C27" s="15" t="s">
         <v>460</v>
       </c>
-      <c r="D27" s="16" t="s">
+      <c r="D27" s="15" t="s">
         <v>461</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="15" t="s">
         <v>462</v>
       </c>
-      <c r="F27" s="16" t="s">
+      <c r="F27" s="15" t="s">
         <v>463</v>
       </c>
-      <c r="G27" s="16" t="s">
+      <c r="G27" s="15" t="s">
         <v>464</v>
       </c>
-      <c r="H27" s="16" t="s">
+      <c r="H27" s="15" t="s">
         <v>465</v>
       </c>
-      <c r="I27" s="16" t="s">
+      <c r="I27" s="15" t="s">
         <v>466</v>
       </c>
-      <c r="J27" s="16" t="s">
+      <c r="J27" s="15" t="s">
         <v>467</v>
       </c>
-      <c r="K27" s="16" t="s">
+      <c r="K27" s="15" t="s">
         <v>468</v>
       </c>
-      <c r="L27" s="16" t="s">
+      <c r="L27" s="15" t="s">
         <v>469</v>
       </c>
-      <c r="M27" s="17" t="s">
+      <c r="M27" s="16" t="s">
         <v>470</v>
       </c>
-      <c r="N27" s="17" t="s">
+      <c r="N27" s="16" t="s">
         <v>471</v>
       </c>
-      <c r="O27" s="17" t="s">
+      <c r="O27" s="16" t="s">
         <v>472</v>
       </c>
-      <c r="P27" s="17" t="s">
+      <c r="P27" s="16" t="s">
         <v>470</v>
       </c>
-      <c r="Q27" s="17" t="s">
+      <c r="Q27" s="16" t="s">
         <v>473</v>
       </c>
-      <c r="R27" s="17" t="s">
+      <c r="R27" s="16" t="s">
         <v>474</v>
       </c>
-      <c r="S27" s="17" t="s">
+      <c r="S27" s="16" t="s">
         <v>475</v>
       </c>
-      <c r="T27" s="17" t="s">
+      <c r="T27" s="16" t="s">
         <v>476</v>
       </c>
-      <c r="U27" s="17" t="s">
+      <c r="U27" s="16" t="s">
         <v>477</v>
       </c>
-      <c r="V27" s="17" t="s">
+      <c r="V27" s="16" t="s">
         <v>478</v>
       </c>
-      <c r="W27" s="17" t="s">
+      <c r="W27" s="16" t="s">
         <v>479</v>
       </c>
-      <c r="X27" s="17" t="s">
+      <c r="X27" s="16" t="s">
         <v>480</v>
       </c>
-      <c r="Y27" s="17" t="s">
+      <c r="Y27" s="16" t="s">
         <v>481</v>
       </c>
-      <c r="Z27" s="17" t="s">
+      <c r="Z27" s="16" t="s">
         <v>482</v>
       </c>
-      <c r="AA27" s="17" t="s">
+      <c r="AA27" s="16" t="s">
         <v>483</v>
       </c>
-      <c r="AB27" s="17" t="s">
+      <c r="AB27" s="16" t="s">
         <v>484</v>
       </c>
-      <c r="AC27" s="17" t="s">
+      <c r="AC27" s="16" t="s">
         <v>459</v>
       </c>
-      <c r="AD27" s="18" t="s">
+      <c r="AD27" s="17" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="63.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="30" t="s">
+      <c r="A28" s="29" t="s">
         <v>485</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="15" t="s">
         <v>486</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="C28" s="15" t="s">
         <v>487</v>
       </c>
-      <c r="D28" s="16" t="s">
+      <c r="D28" s="15" t="s">
         <v>488</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="15" t="s">
         <v>489</v>
       </c>
-      <c r="F28" s="16" t="s">
+      <c r="F28" s="15" t="s">
         <v>490</v>
       </c>
-      <c r="G28" s="16" t="s">
+      <c r="G28" s="15" t="s">
         <v>491</v>
       </c>
-      <c r="H28" s="16" t="s">
+      <c r="H28" s="15" t="s">
         <v>492</v>
       </c>
-      <c r="I28" s="16" t="s">
+      <c r="I28" s="15" t="s">
         <v>493</v>
       </c>
-      <c r="J28" s="16" t="s">
+      <c r="J28" s="15" t="s">
         <v>494</v>
       </c>
-      <c r="K28" s="16" t="s">
+      <c r="K28" s="15" t="s">
         <v>495</v>
       </c>
-      <c r="L28" s="16" t="s">
+      <c r="L28" s="15" t="s">
         <v>496</v>
       </c>
-      <c r="M28" s="17" t="s">
+      <c r="M28" s="16" t="s">
         <v>497</v>
       </c>
-      <c r="N28" s="17" t="s">
+      <c r="N28" s="16" t="s">
         <v>498</v>
       </c>
-      <c r="O28" s="17" t="s">
+      <c r="O28" s="16" t="s">
         <v>499</v>
       </c>
-      <c r="P28" s="17" t="s">
+      <c r="P28" s="16" t="s">
         <v>497</v>
       </c>
-      <c r="Q28" s="17" t="s">
+      <c r="Q28" s="16" t="s">
         <v>500</v>
       </c>
-      <c r="R28" s="17" t="s">
+      <c r="R28" s="16" t="s">
         <v>501</v>
       </c>
-      <c r="S28" s="17" t="s">
+      <c r="S28" s="16" t="s">
         <v>502</v>
       </c>
-      <c r="T28" s="17" t="s">
+      <c r="T28" s="16" t="s">
         <v>503</v>
       </c>
-      <c r="U28" s="17" t="s">
+      <c r="U28" s="16" t="s">
         <v>504</v>
       </c>
-      <c r="V28" s="17" t="s">
+      <c r="V28" s="16" t="s">
         <v>505</v>
       </c>
-      <c r="W28" s="17" t="s">
+      <c r="W28" s="16" t="s">
         <v>506</v>
       </c>
-      <c r="X28" s="17" t="s">
+      <c r="X28" s="16" t="s">
         <v>507</v>
       </c>
-      <c r="Y28" s="17" t="s">
+      <c r="Y28" s="16" t="s">
         <v>508</v>
       </c>
-      <c r="Z28" s="17" t="s">
+      <c r="Z28" s="16" t="s">
         <v>509</v>
       </c>
-      <c r="AA28" s="17" t="s">
+      <c r="AA28" s="16" t="s">
         <v>510</v>
       </c>
-      <c r="AB28" s="17" t="s">
+      <c r="AB28" s="16" t="s">
         <v>511</v>
       </c>
-      <c r="AC28" s="17" t="s">
+      <c r="AC28" s="16" t="s">
         <v>486</v>
       </c>
-      <c r="AD28" s="18" t="s">
+      <c r="AD28" s="17" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="58.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="30" t="s">
+      <c r="A29" s="29" t="s">
         <v>512</v>
       </c>
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="15" t="s">
         <v>513</v>
       </c>
-      <c r="C29" s="16" t="s">
+      <c r="C29" s="15" t="s">
         <v>514</v>
       </c>
-      <c r="D29" s="16" t="s">
+      <c r="D29" s="15" t="s">
         <v>515</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="15" t="s">
         <v>516</v>
       </c>
-      <c r="F29" s="16" t="s">
+      <c r="F29" s="15" t="s">
         <v>517</v>
       </c>
-      <c r="G29" s="16" t="s">
+      <c r="G29" s="15" t="s">
         <v>518</v>
       </c>
-      <c r="H29" s="16" t="s">
+      <c r="H29" s="15" t="s">
         <v>519</v>
       </c>
-      <c r="I29" s="16" t="s">
+      <c r="I29" s="15" t="s">
         <v>520</v>
       </c>
-      <c r="J29" s="16" t="s">
+      <c r="J29" s="15" t="s">
         <v>521</v>
       </c>
-      <c r="K29" s="16" t="s">
+      <c r="K29" s="15" t="s">
         <v>522</v>
       </c>
-      <c r="L29" s="16" t="s">
+      <c r="L29" s="15" t="s">
         <v>523</v>
       </c>
-      <c r="M29" s="17" t="s">
+      <c r="M29" s="16" t="s">
         <v>524</v>
       </c>
-      <c r="N29" s="17" t="s">
+      <c r="N29" s="16" t="s">
         <v>525</v>
       </c>
-      <c r="O29" s="17" t="s">
+      <c r="O29" s="16" t="s">
         <v>526</v>
       </c>
-      <c r="P29" s="17" t="s">
+      <c r="P29" s="16" t="s">
         <v>524</v>
       </c>
-      <c r="Q29" s="17" t="s">
+      <c r="Q29" s="16" t="s">
         <v>527</v>
       </c>
-      <c r="R29" s="17" t="s">
+      <c r="R29" s="16" t="s">
         <v>528</v>
       </c>
-      <c r="S29" s="17" t="s">
+      <c r="S29" s="16" t="s">
         <v>529</v>
       </c>
-      <c r="T29" s="17" t="s">
+      <c r="T29" s="16" t="s">
         <v>530</v>
       </c>
-      <c r="U29" s="17" t="s">
+      <c r="U29" s="16" t="s">
         <v>531</v>
       </c>
-      <c r="V29" s="17" t="s">
+      <c r="V29" s="16" t="s">
         <v>532</v>
       </c>
-      <c r="W29" s="17" t="s">
+      <c r="W29" s="16" t="s">
         <v>533</v>
       </c>
-      <c r="X29" s="17" t="s">
+      <c r="X29" s="16" t="s">
         <v>534</v>
       </c>
-      <c r="Y29" s="17" t="s">
+      <c r="Y29" s="16" t="s">
         <v>535</v>
       </c>
-      <c r="Z29" s="17" t="s">
+      <c r="Z29" s="16" t="s">
         <v>536</v>
       </c>
-      <c r="AA29" s="17" t="s">
+      <c r="AA29" s="16" t="s">
         <v>537</v>
       </c>
-      <c r="AB29" s="17" t="s">
+      <c r="AB29" s="16" t="s">
         <v>538</v>
       </c>
-      <c r="AC29" s="17" t="s">
+      <c r="AC29" s="16" t="s">
         <v>513</v>
       </c>
-      <c r="AD29" s="18" t="s">
+      <c r="AD29" s="17" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="65.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="30" t="s">
+      <c r="A30" s="29" t="s">
         <v>539</v>
       </c>
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="15" t="s">
         <v>540</v>
       </c>
-      <c r="C30" s="16" t="s">
+      <c r="C30" s="15" t="s">
         <v>541</v>
       </c>
-      <c r="D30" s="16" t="s">
+      <c r="D30" s="15" t="s">
         <v>542</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="15" t="s">
         <v>543</v>
       </c>
-      <c r="F30" s="16" t="s">
+      <c r="F30" s="15" t="s">
         <v>544</v>
       </c>
-      <c r="G30" s="16" t="s">
+      <c r="G30" s="15" t="s">
         <v>545</v>
       </c>
-      <c r="H30" s="16" t="s">
+      <c r="H30" s="15" t="s">
         <v>546</v>
       </c>
-      <c r="I30" s="16" t="s">
+      <c r="I30" s="15" t="s">
         <v>547</v>
       </c>
-      <c r="J30" s="16" t="s">
+      <c r="J30" s="15" t="s">
         <v>548</v>
       </c>
-      <c r="K30" s="16" t="s">
+      <c r="K30" s="15" t="s">
         <v>549</v>
       </c>
-      <c r="L30" s="16" t="s">
+      <c r="L30" s="15" t="s">
         <v>550</v>
       </c>
-      <c r="M30" s="17" t="s">
+      <c r="M30" s="16" t="s">
         <v>551</v>
       </c>
-      <c r="N30" s="17" t="s">
+      <c r="N30" s="16" t="s">
         <v>552</v>
       </c>
-      <c r="O30" s="17" t="s">
+      <c r="O30" s="16" t="s">
         <v>553</v>
       </c>
-      <c r="P30" s="17" t="s">
+      <c r="P30" s="16" t="s">
         <v>551</v>
       </c>
-      <c r="Q30" s="17" t="s">
+      <c r="Q30" s="16" t="s">
         <v>554</v>
       </c>
-      <c r="R30" s="17" t="s">
+      <c r="R30" s="16" t="s">
         <v>555</v>
       </c>
-      <c r="S30" s="17" t="s">
+      <c r="S30" s="16" t="s">
         <v>556</v>
       </c>
-      <c r="T30" s="17" t="s">
+      <c r="T30" s="16" t="s">
         <v>557</v>
       </c>
-      <c r="U30" s="17" t="s">
+      <c r="U30" s="16" t="s">
         <v>558</v>
       </c>
-      <c r="V30" s="17" t="s">
+      <c r="V30" s="16" t="s">
         <v>559</v>
       </c>
-      <c r="W30" s="17" t="s">
+      <c r="W30" s="16" t="s">
         <v>560</v>
       </c>
-      <c r="X30" s="17" t="s">
+      <c r="X30" s="16" t="s">
         <v>561</v>
       </c>
-      <c r="Y30" s="17" t="s">
+      <c r="Y30" s="16" t="s">
         <v>562</v>
       </c>
-      <c r="Z30" s="17" t="s">
+      <c r="Z30" s="16" t="s">
         <v>563</v>
       </c>
-      <c r="AA30" s="17" t="s">
+      <c r="AA30" s="16" t="s">
         <v>564</v>
       </c>
-      <c r="AB30" s="17" t="s">
+      <c r="AB30" s="16" t="s">
         <v>565</v>
       </c>
-      <c r="AC30" s="17" t="s">
+      <c r="AC30" s="16" t="s">
         <v>540</v>
       </c>
-      <c r="AD30" s="18" t="s">
+      <c r="AD30" s="17" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="70.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="31" t="s">
+      <c r="A31" s="30" t="s">
         <v>566</v>
       </c>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="17"/>
-      <c r="R31" s="17"/>
-      <c r="S31" s="17"/>
-      <c r="T31" s="17"/>
-      <c r="U31" s="17"/>
-      <c r="V31" s="17"/>
-      <c r="W31" s="17"/>
-      <c r="X31" s="17"/>
-      <c r="Y31" s="17"/>
-      <c r="Z31" s="17"/>
-      <c r="AA31" s="17"/>
-      <c r="AB31" s="17"/>
-      <c r="AC31" s="32"/>
-      <c r="AD31" s="33"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="16"/>
+      <c r="O31" s="16"/>
+      <c r="P31" s="16"/>
+      <c r="Q31" s="16"/>
+      <c r="R31" s="16"/>
+      <c r="S31" s="16"/>
+      <c r="T31" s="16"/>
+      <c r="U31" s="16"/>
+      <c r="V31" s="16"/>
+      <c r="W31" s="16"/>
+      <c r="X31" s="16"/>
+      <c r="Y31" s="16"/>
+      <c r="Z31" s="16"/>
+      <c r="AA31" s="16"/>
+      <c r="AB31" s="16"/>
+      <c r="AC31" s="31"/>
+      <c r="AD31" s="32"/>
     </row>
     <row r="32" customFormat="false" ht="52.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="31" t="s">
+      <c r="A32" s="30" t="s">
         <v>567</v>
       </c>
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="15" t="s">
         <v>568</v>
       </c>
-      <c r="C32" s="16" t="s">
+      <c r="C32" s="15" t="s">
         <v>569</v>
       </c>
-      <c r="D32" s="16" t="s">
+      <c r="D32" s="15" t="s">
         <v>570</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="E32" s="15" t="s">
         <v>571</v>
       </c>
-      <c r="F32" s="16" t="s">
+      <c r="F32" s="15" t="s">
         <v>572</v>
       </c>
-      <c r="G32" s="16" t="s">
+      <c r="G32" s="15" t="s">
         <v>573</v>
       </c>
-      <c r="H32" s="16" t="s">
+      <c r="H32" s="15" t="s">
         <v>574</v>
       </c>
-      <c r="I32" s="16" t="s">
+      <c r="I32" s="15" t="s">
         <v>575</v>
       </c>
-      <c r="J32" s="16" t="s">
+      <c r="J32" s="15" t="s">
         <v>576</v>
       </c>
-      <c r="K32" s="16" t="s">
+      <c r="K32" s="15" t="s">
         <v>577</v>
       </c>
-      <c r="L32" s="16" t="s">
+      <c r="L32" s="15" t="s">
         <v>578</v>
       </c>
-      <c r="M32" s="17" t="s">
+      <c r="M32" s="16" t="s">
         <v>579</v>
       </c>
-      <c r="N32" s="17" t="s">
+      <c r="N32" s="16" t="s">
         <v>580</v>
       </c>
-      <c r="O32" s="17" t="s">
+      <c r="O32" s="16" t="s">
         <v>581</v>
       </c>
-      <c r="P32" s="17" t="s">
+      <c r="P32" s="16" t="s">
         <v>579</v>
       </c>
-      <c r="Q32" s="17" t="s">
+      <c r="Q32" s="16" t="s">
         <v>582</v>
       </c>
-      <c r="R32" s="17" t="s">
+      <c r="R32" s="16" t="s">
         <v>583</v>
       </c>
-      <c r="S32" s="17" t="s">
+      <c r="S32" s="16" t="s">
         <v>584</v>
       </c>
-      <c r="T32" s="17" t="s">
+      <c r="T32" s="16" t="s">
         <v>585</v>
       </c>
-      <c r="U32" s="17" t="s">
+      <c r="U32" s="16" t="s">
         <v>586</v>
       </c>
-      <c r="V32" s="17" t="s">
+      <c r="V32" s="16" t="s">
         <v>587</v>
       </c>
-      <c r="W32" s="17" t="s">
+      <c r="W32" s="16" t="s">
         <v>588</v>
       </c>
-      <c r="X32" s="17" t="s">
+      <c r="X32" s="16" t="s">
         <v>589</v>
       </c>
-      <c r="Y32" s="17" t="s">
+      <c r="Y32" s="16" t="s">
         <v>590</v>
       </c>
-      <c r="Z32" s="17" t="s">
+      <c r="Z32" s="16" t="s">
         <v>591</v>
       </c>
-      <c r="AA32" s="17" t="s">
+      <c r="AA32" s="16" t="s">
         <v>592</v>
       </c>
-      <c r="AB32" s="17" t="s">
+      <c r="AB32" s="16" t="s">
         <v>593</v>
       </c>
-      <c r="AC32" s="17" t="s">
+      <c r="AC32" s="16" t="s">
         <v>568</v>
       </c>
-      <c r="AD32" s="18" t="s">
+      <c r="AD32" s="17" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="59.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="31" t="s">
+      <c r="A33" s="30" t="s">
         <v>594</v>
       </c>
-      <c r="B33" s="16" t="s">
+      <c r="B33" s="15" t="s">
         <v>595</v>
       </c>
-      <c r="C33" s="16" t="s">
+      <c r="C33" s="15" t="s">
         <v>596</v>
       </c>
-      <c r="D33" s="16" t="s">
+      <c r="D33" s="15" t="s">
         <v>597</v>
       </c>
-      <c r="E33" s="16" t="s">
+      <c r="E33" s="15" t="s">
         <v>598</v>
       </c>
-      <c r="F33" s="16" t="s">
+      <c r="F33" s="15" t="s">
         <v>599</v>
       </c>
-      <c r="G33" s="16" t="s">
+      <c r="G33" s="15" t="s">
         <v>600</v>
       </c>
-      <c r="H33" s="16" t="s">
+      <c r="H33" s="15" t="s">
         <v>601</v>
       </c>
-      <c r="I33" s="16" t="s">
+      <c r="I33" s="15" t="s">
         <v>602</v>
       </c>
-      <c r="J33" s="16" t="s">
+      <c r="J33" s="15" t="s">
         <v>603</v>
       </c>
-      <c r="K33" s="16" t="s">
+      <c r="K33" s="15" t="s">
         <v>604</v>
       </c>
-      <c r="L33" s="16" t="s">
+      <c r="L33" s="15" t="s">
         <v>605</v>
       </c>
-      <c r="M33" s="17" t="s">
+      <c r="M33" s="16" t="s">
         <v>606</v>
       </c>
-      <c r="N33" s="17" t="s">
+      <c r="N33" s="16" t="s">
         <v>607</v>
       </c>
-      <c r="O33" s="17" t="s">
+      <c r="O33" s="16" t="s">
         <v>608</v>
       </c>
-      <c r="P33" s="17" t="s">
+      <c r="P33" s="16" t="s">
         <v>606</v>
       </c>
-      <c r="Q33" s="17" t="s">
+      <c r="Q33" s="16" t="s">
         <v>609</v>
       </c>
-      <c r="R33" s="17" t="s">
+      <c r="R33" s="16" t="s">
         <v>610</v>
       </c>
-      <c r="S33" s="17" t="s">
+      <c r="S33" s="16" t="s">
         <v>611</v>
       </c>
-      <c r="T33" s="17" t="s">
+      <c r="T33" s="16" t="s">
         <v>612</v>
       </c>
-      <c r="U33" s="17" t="s">
+      <c r="U33" s="16" t="s">
         <v>613</v>
       </c>
-      <c r="V33" s="17" t="s">
+      <c r="V33" s="16" t="s">
         <v>614</v>
       </c>
-      <c r="W33" s="17" t="s">
+      <c r="W33" s="16" t="s">
         <v>615</v>
       </c>
-      <c r="X33" s="17" t="s">
+      <c r="X33" s="16" t="s">
         <v>616</v>
       </c>
-      <c r="Y33" s="17" t="s">
+      <c r="Y33" s="16" t="s">
         <v>617</v>
       </c>
-      <c r="Z33" s="17" t="s">
+      <c r="Z33" s="16" t="s">
         <v>618</v>
       </c>
-      <c r="AA33" s="17" t="s">
+      <c r="AA33" s="16" t="s">
         <v>619</v>
       </c>
-      <c r="AB33" s="17" t="s">
+      <c r="AB33" s="16" t="s">
         <v>620</v>
       </c>
-      <c r="AC33" s="17" t="s">
+      <c r="AC33" s="16" t="s">
         <v>595</v>
       </c>
-      <c r="AD33" s="18" t="s">
+      <c r="AD33" s="17" t="s">
         <v>596</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="54.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="26" t="s">
+      <c r="A34" s="25" t="s">
         <v>621</v>
       </c>
-      <c r="B34" s="27" t="s">
+      <c r="B34" s="26" t="s">
         <v>622</v>
       </c>
-      <c r="C34" s="27" t="s">
+      <c r="C34" s="26" t="s">
         <v>623</v>
       </c>
-      <c r="D34" s="27" t="s">
+      <c r="D34" s="26" t="s">
         <v>624</v>
       </c>
-      <c r="E34" s="27" t="s">
+      <c r="E34" s="26" t="s">
         <v>625</v>
       </c>
-      <c r="F34" s="27" t="s">
+      <c r="F34" s="26" t="s">
         <v>626</v>
       </c>
-      <c r="G34" s="27" t="s">
+      <c r="G34" s="26" t="s">
         <v>627</v>
       </c>
-      <c r="H34" s="27" t="s">
+      <c r="H34" s="26" t="s">
         <v>628</v>
       </c>
-      <c r="I34" s="27" t="s">
+      <c r="I34" s="26" t="s">
         <v>629</v>
       </c>
-      <c r="J34" s="27" t="s">
+      <c r="J34" s="26" t="s">
         <v>630</v>
       </c>
-      <c r="K34" s="27" t="s">
+      <c r="K34" s="26" t="s">
         <v>631</v>
       </c>
-      <c r="L34" s="27" t="s">
+      <c r="L34" s="26" t="s">
         <v>632</v>
       </c>
-      <c r="M34" s="28" t="s">
+      <c r="M34" s="27" t="s">
         <v>633</v>
       </c>
-      <c r="N34" s="28" t="s">
+      <c r="N34" s="27" t="s">
         <v>634</v>
       </c>
-      <c r="O34" s="28" t="s">
+      <c r="O34" s="27" t="s">
         <v>635</v>
       </c>
-      <c r="P34" s="28" t="s">
+      <c r="P34" s="27" t="s">
         <v>633</v>
       </c>
-      <c r="Q34" s="28" t="s">
+      <c r="Q34" s="27" t="s">
         <v>636</v>
       </c>
-      <c r="R34" s="28" t="s">
+      <c r="R34" s="27" t="s">
         <v>637</v>
       </c>
-      <c r="S34" s="28" t="s">
+      <c r="S34" s="27" t="s">
         <v>638</v>
       </c>
-      <c r="T34" s="28" t="s">
+      <c r="T34" s="27" t="s">
         <v>639</v>
       </c>
-      <c r="U34" s="28" t="s">
+      <c r="U34" s="27" t="s">
         <v>640</v>
       </c>
-      <c r="V34" s="28" t="s">
+      <c r="V34" s="27" t="s">
         <v>641</v>
       </c>
-      <c r="W34" s="28" t="s">
+      <c r="W34" s="27" t="s">
         <v>642</v>
       </c>
-      <c r="X34" s="28" t="s">
+      <c r="X34" s="27" t="s">
         <v>643</v>
       </c>
-      <c r="Y34" s="28" t="s">
+      <c r="Y34" s="27" t="s">
         <v>644</v>
       </c>
-      <c r="Z34" s="28" t="s">
+      <c r="Z34" s="27" t="s">
         <v>645</v>
       </c>
-      <c r="AA34" s="28" t="s">
+      <c r="AA34" s="27" t="s">
         <v>646</v>
       </c>
-      <c r="AB34" s="28" t="s">
+      <c r="AB34" s="27" t="s">
         <v>647</v>
       </c>
-      <c r="AC34" s="28" t="s">
+      <c r="AC34" s="27" t="s">
         <v>622</v>
       </c>
-      <c r="AD34" s="29" t="s">
+      <c r="AD34" s="28" t="s">
         <v>623</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="19" t="s">
+      <c r="A35" s="18" t="s">
         <v>648</v>
       </c>
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="15" t="s">
         <v>649</v>
       </c>
-      <c r="C35" s="16" t="s">
+      <c r="C35" s="15" t="s">
         <v>650</v>
       </c>
-      <c r="D35" s="16" t="s">
+      <c r="D35" s="15" t="s">
         <v>651</v>
       </c>
-      <c r="E35" s="16" t="s">
+      <c r="E35" s="15" t="s">
         <v>652</v>
       </c>
-      <c r="F35" s="16" t="s">
+      <c r="F35" s="15" t="s">
         <v>653</v>
       </c>
-      <c r="G35" s="16" t="s">
+      <c r="G35" s="15" t="s">
         <v>654</v>
       </c>
-      <c r="H35" s="16" t="s">
+      <c r="H35" s="15" t="s">
         <v>655</v>
       </c>
-      <c r="I35" s="16" t="s">
+      <c r="I35" s="15" t="s">
         <v>656</v>
       </c>
-      <c r="J35" s="16" t="s">
+      <c r="J35" s="15" t="s">
         <v>657</v>
       </c>
-      <c r="K35" s="16" t="s">
+      <c r="K35" s="15" t="s">
         <v>658</v>
       </c>
-      <c r="L35" s="16" t="s">
+      <c r="L35" s="15" t="s">
         <v>659</v>
       </c>
-      <c r="M35" s="17" t="s">
+      <c r="M35" s="16" t="s">
         <v>660</v>
       </c>
-      <c r="N35" s="17" t="s">
+      <c r="N35" s="16" t="s">
         <v>661</v>
       </c>
-      <c r="O35" s="17" t="s">
+      <c r="O35" s="16" t="s">
         <v>662</v>
       </c>
-      <c r="P35" s="17" t="s">
+      <c r="P35" s="16" t="s">
         <v>660</v>
       </c>
-      <c r="Q35" s="17" t="s">
+      <c r="Q35" s="16" t="s">
         <v>663</v>
       </c>
-      <c r="R35" s="17" t="s">
+      <c r="R35" s="16" t="s">
         <v>664</v>
       </c>
-      <c r="S35" s="17" t="s">
+      <c r="S35" s="16" t="s">
         <v>665</v>
       </c>
-      <c r="T35" s="17" t="s">
+      <c r="T35" s="16" t="s">
         <v>666</v>
       </c>
-      <c r="U35" s="17" t="s">
+      <c r="U35" s="16" t="s">
         <v>667</v>
       </c>
-      <c r="V35" s="17" t="s">
+      <c r="V35" s="16" t="s">
         <v>668</v>
       </c>
-      <c r="W35" s="17" t="s">
+      <c r="W35" s="16" t="s">
         <v>669</v>
       </c>
-      <c r="X35" s="17" t="s">
+      <c r="X35" s="16" t="s">
         <v>670</v>
       </c>
-      <c r="Y35" s="17" t="s">
+      <c r="Y35" s="16" t="s">
         <v>671</v>
       </c>
-      <c r="Z35" s="17" t="s">
+      <c r="Z35" s="16" t="s">
         <v>672</v>
       </c>
-      <c r="AA35" s="17" t="s">
+      <c r="AA35" s="16" t="s">
         <v>673</v>
       </c>
-      <c r="AB35" s="17" t="s">
+      <c r="AB35" s="16" t="s">
         <v>674</v>
       </c>
-      <c r="AC35" s="17" t="s">
+      <c r="AC35" s="16" t="s">
         <v>649</v>
       </c>
-      <c r="AD35" s="18" t="s">
+      <c r="AD35" s="17" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="53.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="19" t="s">
+      <c r="A36" s="18" t="s">
         <v>675</v>
       </c>
-      <c r="B36" s="16" t="s">
+      <c r="B36" s="15" t="s">
         <v>676</v>
       </c>
-      <c r="C36" s="16" t="s">
+      <c r="C36" s="15" t="s">
         <v>677</v>
       </c>
-      <c r="D36" s="16" t="s">
+      <c r="D36" s="15" t="s">
         <v>678</v>
       </c>
-      <c r="E36" s="16" t="s">
+      <c r="E36" s="15" t="s">
         <v>679</v>
       </c>
-      <c r="F36" s="16" t="s">
+      <c r="F36" s="15" t="s">
         <v>680</v>
       </c>
-      <c r="G36" s="16" t="s">
+      <c r="G36" s="15" t="s">
         <v>681</v>
       </c>
-      <c r="H36" s="16" t="s">
+      <c r="H36" s="15" t="s">
         <v>682</v>
       </c>
-      <c r="I36" s="16" t="s">
+      <c r="I36" s="15" t="s">
         <v>683</v>
       </c>
-      <c r="J36" s="16" t="s">
+      <c r="J36" s="15" t="s">
         <v>684</v>
       </c>
-      <c r="K36" s="16" t="s">
+      <c r="K36" s="15" t="s">
         <v>685</v>
       </c>
-      <c r="L36" s="16" t="s">
+      <c r="L36" s="15" t="s">
         <v>686</v>
       </c>
-      <c r="M36" s="17" t="s">
+      <c r="M36" s="16" t="s">
         <v>687</v>
       </c>
-      <c r="N36" s="17" t="s">
+      <c r="N36" s="16" t="s">
         <v>688</v>
       </c>
-      <c r="O36" s="17" t="s">
+      <c r="O36" s="16" t="s">
         <v>689</v>
       </c>
-      <c r="P36" s="17" t="s">
+      <c r="P36" s="16" t="s">
         <v>687</v>
       </c>
-      <c r="Q36" s="17" t="s">
+      <c r="Q36" s="16" t="s">
         <v>690</v>
       </c>
-      <c r="R36" s="17" t="s">
+      <c r="R36" s="16" t="s">
         <v>691</v>
       </c>
-      <c r="S36" s="17" t="s">
+      <c r="S36" s="16" t="s">
         <v>692</v>
       </c>
-      <c r="T36" s="17" t="s">
+      <c r="T36" s="16" t="s">
         <v>693</v>
       </c>
-      <c r="U36" s="17" t="s">
+      <c r="U36" s="16" t="s">
         <v>694</v>
       </c>
-      <c r="V36" s="17" t="s">
+      <c r="V36" s="16" t="s">
         <v>695</v>
       </c>
-      <c r="W36" s="17" t="s">
+      <c r="W36" s="16" t="s">
         <v>696</v>
       </c>
-      <c r="X36" s="17" t="s">
+      <c r="X36" s="16" t="s">
         <v>697</v>
       </c>
-      <c r="Y36" s="17" t="s">
+      <c r="Y36" s="16" t="s">
         <v>698</v>
       </c>
-      <c r="Z36" s="17" t="s">
+      <c r="Z36" s="16" t="s">
         <v>699</v>
       </c>
-      <c r="AA36" s="17" t="s">
+      <c r="AA36" s="16" t="s">
         <v>700</v>
       </c>
-      <c r="AB36" s="17" t="s">
+      <c r="AB36" s="16" t="s">
         <v>701</v>
       </c>
-      <c r="AC36" s="17" t="s">
+      <c r="AC36" s="16" t="s">
         <v>676</v>
       </c>
-      <c r="AD36" s="18" t="s">
+      <c r="AD36" s="17" t="s">
         <v>677</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="47" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="19" t="s">
+      <c r="A37" s="18" t="s">
         <v>702</v>
       </c>
-      <c r="B37" s="16" t="s">
+      <c r="B37" s="15" t="s">
         <v>703</v>
       </c>
-      <c r="C37" s="16" t="s">
+      <c r="C37" s="15" t="s">
         <v>704</v>
       </c>
-      <c r="D37" s="16" t="s">
+      <c r="D37" s="15" t="s">
         <v>705</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="E37" s="15" t="s">
         <v>706</v>
       </c>
-      <c r="F37" s="16" t="s">
+      <c r="F37" s="15" t="s">
         <v>707</v>
       </c>
-      <c r="G37" s="16" t="s">
+      <c r="G37" s="15" t="s">
         <v>708</v>
       </c>
-      <c r="H37" s="16" t="s">
+      <c r="H37" s="15" t="s">
         <v>709</v>
       </c>
-      <c r="I37" s="16" t="s">
+      <c r="I37" s="15" t="s">
         <v>710</v>
       </c>
-      <c r="J37" s="16" t="s">
+      <c r="J37" s="15" t="s">
         <v>711</v>
       </c>
-      <c r="K37" s="16" t="s">
+      <c r="K37" s="15" t="s">
         <v>712</v>
       </c>
-      <c r="L37" s="16" t="s">
+      <c r="L37" s="15" t="s">
         <v>713</v>
       </c>
-      <c r="M37" s="17" t="s">
+      <c r="M37" s="16" t="s">
         <v>714</v>
       </c>
-      <c r="N37" s="17" t="s">
+      <c r="N37" s="16" t="s">
         <v>715</v>
       </c>
-      <c r="O37" s="17" t="s">
+      <c r="O37" s="16" t="s">
         <v>716</v>
       </c>
-      <c r="P37" s="17" t="s">
+      <c r="P37" s="16" t="s">
         <v>714</v>
       </c>
-      <c r="Q37" s="17" t="s">
+      <c r="Q37" s="16" t="s">
         <v>717</v>
       </c>
-      <c r="R37" s="17" t="s">
+      <c r="R37" s="16" t="s">
         <v>718</v>
       </c>
-      <c r="S37" s="17" t="s">
+      <c r="S37" s="16" t="s">
         <v>719</v>
       </c>
-      <c r="T37" s="17" t="s">
+      <c r="T37" s="16" t="s">
         <v>720</v>
       </c>
-      <c r="U37" s="17" t="s">
+      <c r="U37" s="16" t="s">
         <v>721</v>
       </c>
-      <c r="V37" s="17" t="s">
+      <c r="V37" s="16" t="s">
         <v>722</v>
       </c>
-      <c r="W37" s="17" t="s">
+      <c r="W37" s="16" t="s">
         <v>723</v>
       </c>
-      <c r="X37" s="17" t="s">
+      <c r="X37" s="16" t="s">
         <v>724</v>
       </c>
-      <c r="Y37" s="17" t="s">
+      <c r="Y37" s="16" t="s">
         <v>725</v>
       </c>
-      <c r="Z37" s="17" t="s">
+      <c r="Z37" s="16" t="s">
         <v>726</v>
       </c>
-      <c r="AA37" s="17" t="s">
+      <c r="AA37" s="16" t="s">
         <v>727</v>
       </c>
-      <c r="AB37" s="17" t="s">
+      <c r="AB37" s="16" t="s">
         <v>728</v>
       </c>
-      <c r="AC37" s="17" t="s">
+      <c r="AC37" s="16" t="s">
         <v>703</v>
       </c>
-      <c r="AD37" s="18" t="s">
+      <c r="AD37" s="17" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="15" t="s">
+      <c r="A38" s="14" t="s">
         <v>729</v>
       </c>
-      <c r="B38" s="16" t="s">
+      <c r="B38" s="15" t="s">
         <v>730</v>
       </c>
-      <c r="C38" s="16" t="s">
+      <c r="C38" s="15" t="s">
         <v>731</v>
       </c>
-      <c r="D38" s="16" t="s">
+      <c r="D38" s="15" t="s">
         <v>732</v>
       </c>
-      <c r="E38" s="16" t="s">
+      <c r="E38" s="15" t="s">
         <v>733</v>
       </c>
-      <c r="F38" s="16" t="s">
+      <c r="F38" s="15" t="s">
         <v>734</v>
       </c>
-      <c r="G38" s="16" t="s">
+      <c r="G38" s="15" t="s">
         <v>735</v>
       </c>
-      <c r="H38" s="16" t="s">
+      <c r="H38" s="15" t="s">
         <v>736</v>
       </c>
-      <c r="I38" s="16" t="s">
+      <c r="I38" s="15" t="s">
         <v>737</v>
       </c>
-      <c r="J38" s="16" t="s">
+      <c r="J38" s="15" t="s">
         <v>738</v>
       </c>
-      <c r="K38" s="16" t="s">
+      <c r="K38" s="15" t="s">
         <v>739</v>
       </c>
-      <c r="L38" s="16" t="s">
+      <c r="L38" s="15" t="s">
         <v>740</v>
       </c>
-      <c r="M38" s="17" t="s">
+      <c r="M38" s="16" t="s">
         <v>741</v>
       </c>
-      <c r="N38" s="17" t="s">
+      <c r="N38" s="16" t="s">
         <v>742</v>
       </c>
-      <c r="O38" s="17" t="s">
+      <c r="O38" s="16" t="s">
         <v>743</v>
       </c>
-      <c r="P38" s="17" t="s">
+      <c r="P38" s="16" t="s">
         <v>741</v>
       </c>
-      <c r="Q38" s="17" t="s">
+      <c r="Q38" s="16" t="s">
         <v>744</v>
       </c>
-      <c r="R38" s="17" t="s">
+      <c r="R38" s="16" t="s">
         <v>745</v>
       </c>
-      <c r="S38" s="17" t="s">
+      <c r="S38" s="16" t="s">
         <v>746</v>
       </c>
-      <c r="T38" s="17" t="s">
+      <c r="T38" s="16" t="s">
         <v>747</v>
       </c>
-      <c r="U38" s="17" t="s">
+      <c r="U38" s="16" t="s">
         <v>748</v>
       </c>
-      <c r="V38" s="17" t="s">
+      <c r="V38" s="16" t="s">
         <v>749</v>
       </c>
-      <c r="W38" s="17" t="s">
+      <c r="W38" s="16" t="s">
         <v>750</v>
       </c>
-      <c r="X38" s="17" t="s">
+      <c r="X38" s="16" t="s">
         <v>751</v>
       </c>
-      <c r="Y38" s="17" t="s">
+      <c r="Y38" s="16" t="s">
         <v>752</v>
       </c>
-      <c r="Z38" s="17" t="s">
+      <c r="Z38" s="16" t="s">
         <v>753</v>
       </c>
-      <c r="AA38" s="17" t="s">
+      <c r="AA38" s="16" t="s">
         <v>754</v>
       </c>
-      <c r="AB38" s="17" t="s">
+      <c r="AB38" s="16" t="s">
         <v>755</v>
       </c>
-      <c r="AC38" s="17" t="s">
+      <c r="AC38" s="16" t="s">
         <v>730</v>
       </c>
-      <c r="AD38" s="18" t="s">
+      <c r="AD38" s="17" t="s">
         <v>731</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="34" t="s">
+      <c r="A39" s="33" t="s">
         <v>756</v>
       </c>
-      <c r="B39" s="16" t="s">
+      <c r="B39" s="15" t="s">
         <v>757</v>
       </c>
-      <c r="C39" s="16" t="s">
+      <c r="C39" s="15" t="s">
         <v>758</v>
       </c>
-      <c r="D39" s="16" t="s">
+      <c r="D39" s="15" t="s">
         <v>759</v>
       </c>
-      <c r="E39" s="16" t="s">
+      <c r="E39" s="15" t="s">
         <v>760</v>
       </c>
-      <c r="F39" s="16" t="s">
+      <c r="F39" s="15" t="s">
         <v>761</v>
       </c>
-      <c r="G39" s="16" t="s">
+      <c r="G39" s="15" t="s">
         <v>762</v>
       </c>
-      <c r="H39" s="16" t="s">
+      <c r="H39" s="15" t="s">
         <v>763</v>
       </c>
-      <c r="I39" s="16" t="s">
+      <c r="I39" s="15" t="s">
         <v>764</v>
       </c>
-      <c r="J39" s="16" t="s">
+      <c r="J39" s="15" t="s">
         <v>765</v>
       </c>
-      <c r="K39" s="16" t="s">
+      <c r="K39" s="15" t="s">
         <v>766</v>
       </c>
-      <c r="L39" s="16" t="s">
+      <c r="L39" s="15" t="s">
         <v>767</v>
       </c>
-      <c r="M39" s="17" t="s">
+      <c r="M39" s="16" t="s">
         <v>768</v>
       </c>
-      <c r="N39" s="17" t="s">
+      <c r="N39" s="16" t="s">
         <v>769</v>
       </c>
-      <c r="O39" s="17" t="s">
+      <c r="O39" s="16" t="s">
         <v>770</v>
       </c>
-      <c r="P39" s="17" t="s">
+      <c r="P39" s="16" t="s">
         <v>768</v>
       </c>
-      <c r="Q39" s="17" t="s">
+      <c r="Q39" s="16" t="s">
         <v>771</v>
       </c>
-      <c r="R39" s="17" t="s">
+      <c r="R39" s="16" t="s">
         <v>772</v>
       </c>
-      <c r="S39" s="17" t="s">
+      <c r="S39" s="16" t="s">
         <v>773</v>
       </c>
-      <c r="T39" s="17" t="s">
+      <c r="T39" s="16" t="s">
         <v>774</v>
       </c>
-      <c r="U39" s="17" t="s">
+      <c r="U39" s="16" t="s">
         <v>775</v>
       </c>
-      <c r="V39" s="17" t="s">
+      <c r="V39" s="16" t="s">
         <v>776</v>
       </c>
-      <c r="W39" s="17" t="s">
+      <c r="W39" s="16" t="s">
         <v>777</v>
       </c>
-      <c r="X39" s="17" t="s">
+      <c r="X39" s="16" t="s">
         <v>778</v>
       </c>
-      <c r="Y39" s="17" t="s">
+      <c r="Y39" s="16" t="s">
         <v>779</v>
       </c>
-      <c r="Z39" s="17" t="s">
+      <c r="Z39" s="16" t="s">
         <v>780</v>
       </c>
-      <c r="AA39" s="17" t="s">
+      <c r="AA39" s="16" t="s">
         <v>781</v>
       </c>
-      <c r="AB39" s="17" t="s">
+      <c r="AB39" s="16" t="s">
         <v>782</v>
       </c>
-      <c r="AC39" s="17" t="s">
+      <c r="AC39" s="16" t="s">
         <v>757</v>
       </c>
-      <c r="AD39" s="18" t="s">
+      <c r="AD39" s="17" t="s">
         <v>758</v>
       </c>
     </row>
@@ -6232,1382 +6222,1382 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="34" t="s">
         <v>783</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="34" t="s">
         <v>784</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="34" t="s">
         <v>785</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="34" t="s">
         <v>786</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="34" t="s">
         <v>787</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="34" t="s">
         <v>788</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="35"/>
+      <c r="A8" s="34"/>
     </row>
     <row r="9" customFormat="false" ht="80.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="35" t="s">
         <v>789</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="51.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="36" t="s">
         <v>790</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="38"/>
+      <c r="A11" s="37"/>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="38" t="s">
+      <c r="A12" s="37" t="s">
         <v>791</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="39"/>
+      <c r="A13" s="38"/>
     </row>
     <row r="14" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="40" t="s">
+      <c r="A14" s="39" t="s">
         <v>792</v>
       </c>
-      <c r="B14" s="41" t="s">
+      <c r="B14" s="40" t="s">
         <v>793</v>
       </c>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41" t="s">
+      <c r="C14" s="40"/>
+      <c r="D14" s="40" t="s">
         <v>794</v>
       </c>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41" t="s">
+      <c r="E14" s="40"/>
+      <c r="F14" s="40" t="s">
         <v>795</v>
       </c>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41" t="s">
+      <c r="G14" s="40"/>
+      <c r="H14" s="40" t="s">
         <v>796</v>
       </c>
-      <c r="I14" s="41"/>
-      <c r="J14" s="41" t="s">
+      <c r="I14" s="40"/>
+      <c r="J14" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="K14" s="41"/>
-      <c r="L14" s="41" t="s">
+      <c r="K14" s="40"/>
+      <c r="L14" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="M14" s="41"/>
-      <c r="N14" s="41" t="s">
+      <c r="M14" s="40"/>
+      <c r="N14" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="O14" s="41"/>
-      <c r="P14" s="41" t="s">
+      <c r="O14" s="40"/>
+      <c r="P14" s="40" t="s">
         <v>797</v>
       </c>
-      <c r="Q14" s="41"/>
-      <c r="R14" s="41" t="s">
+      <c r="Q14" s="40"/>
+      <c r="R14" s="40" t="s">
         <v>798</v>
       </c>
-      <c r="S14" s="41"/>
-      <c r="T14" s="41" t="s">
+      <c r="S14" s="40"/>
+      <c r="T14" s="40" t="s">
         <v>799</v>
       </c>
-      <c r="U14" s="41"/>
-      <c r="V14" s="41" t="s">
+      <c r="U14" s="40"/>
+      <c r="V14" s="40" t="s">
         <v>800</v>
       </c>
-      <c r="W14" s="41"/>
-      <c r="X14" s="42" t="s">
+      <c r="W14" s="40"/>
+      <c r="X14" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="Y14" s="42"/>
+      <c r="Y14" s="41"/>
     </row>
     <row r="15" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="40"/>
-      <c r="B15" s="43" t="s">
+      <c r="A15" s="39"/>
+      <c r="B15" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="43" t="s">
+      <c r="C15" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="43" t="s">
+      <c r="D15" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="43" t="s">
+      <c r="E15" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="43" t="s">
+      <c r="F15" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="43" t="s">
+      <c r="G15" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="H15" s="43" t="s">
+      <c r="H15" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="I15" s="43" t="s">
+      <c r="I15" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="J15" s="43" t="s">
+      <c r="J15" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="K15" s="43" t="s">
+      <c r="K15" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="L15" s="43" t="s">
+      <c r="L15" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="M15" s="43" t="s">
+      <c r="M15" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="N15" s="43" t="s">
+      <c r="N15" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="O15" s="43" t="s">
+      <c r="O15" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="P15" s="43" t="s">
+      <c r="P15" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="Q15" s="43" t="s">
+      <c r="Q15" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="R15" s="43" t="s">
+      <c r="R15" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="S15" s="43" t="s">
+      <c r="S15" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="T15" s="43" t="s">
+      <c r="T15" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="U15" s="43" t="s">
+      <c r="U15" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="V15" s="43" t="s">
+      <c r="V15" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="W15" s="43" t="s">
+      <c r="W15" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="X15" s="43" t="s">
+      <c r="X15" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="Y15" s="44" t="s">
+      <c r="Y15" s="43" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="45" t="s">
+      <c r="A16" s="44" t="s">
         <v>801</v>
       </c>
-      <c r="B16" s="45"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="45"/>
-      <c r="L16" s="45"/>
-      <c r="M16" s="45"/>
-      <c r="N16" s="45"/>
-      <c r="O16" s="45"/>
-      <c r="P16" s="45"/>
-      <c r="Q16" s="45"/>
-      <c r="R16" s="45"/>
-      <c r="S16" s="45"/>
-      <c r="T16" s="45"/>
-      <c r="U16" s="45"/>
-      <c r="V16" s="45"/>
-      <c r="W16" s="45"/>
-      <c r="X16" s="45"/>
-      <c r="Y16" s="45"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="44"/>
+      <c r="N16" s="44"/>
+      <c r="O16" s="44"/>
+      <c r="P16" s="44"/>
+      <c r="Q16" s="44"/>
+      <c r="R16" s="44"/>
+      <c r="S16" s="44"/>
+      <c r="T16" s="44"/>
+      <c r="U16" s="44"/>
+      <c r="V16" s="44"/>
+      <c r="W16" s="44"/>
+      <c r="X16" s="44"/>
+      <c r="Y16" s="44"/>
     </row>
     <row r="17" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="46" t="s">
+      <c r="A17" s="45" t="s">
         <v>802</v>
       </c>
-      <c r="B17" s="47"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="47"/>
-      <c r="L17" s="47"/>
-      <c r="M17" s="47"/>
-      <c r="N17" s="47"/>
-      <c r="O17" s="47"/>
-      <c r="P17" s="47"/>
-      <c r="Q17" s="47"/>
-      <c r="R17" s="47"/>
-      <c r="S17" s="47"/>
-      <c r="T17" s="47"/>
-      <c r="U17" s="47"/>
-      <c r="V17" s="47"/>
-      <c r="W17" s="47"/>
-      <c r="X17" s="47"/>
-      <c r="Y17" s="48"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="46"/>
+      <c r="M17" s="46"/>
+      <c r="N17" s="46"/>
+      <c r="O17" s="46"/>
+      <c r="P17" s="46"/>
+      <c r="Q17" s="46"/>
+      <c r="R17" s="46"/>
+      <c r="S17" s="46"/>
+      <c r="T17" s="46"/>
+      <c r="U17" s="46"/>
+      <c r="V17" s="46"/>
+      <c r="W17" s="46"/>
+      <c r="X17" s="46"/>
+      <c r="Y17" s="47"/>
     </row>
     <row r="18" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="46" t="s">
+      <c r="A18" s="45" t="s">
         <v>803</v>
       </c>
-      <c r="B18" s="47"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="47"/>
-      <c r="K18" s="47"/>
-      <c r="L18" s="47"/>
-      <c r="M18" s="47"/>
-      <c r="N18" s="47"/>
-      <c r="O18" s="47"/>
-      <c r="P18" s="47"/>
-      <c r="Q18" s="47"/>
-      <c r="R18" s="47"/>
-      <c r="S18" s="47"/>
-      <c r="T18" s="47"/>
-      <c r="U18" s="47"/>
-      <c r="V18" s="47"/>
-      <c r="W18" s="47"/>
-      <c r="X18" s="47"/>
-      <c r="Y18" s="48"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="46"/>
+      <c r="M18" s="46"/>
+      <c r="N18" s="46"/>
+      <c r="O18" s="46"/>
+      <c r="P18" s="46"/>
+      <c r="Q18" s="46"/>
+      <c r="R18" s="46"/>
+      <c r="S18" s="46"/>
+      <c r="T18" s="46"/>
+      <c r="U18" s="46"/>
+      <c r="V18" s="46"/>
+      <c r="W18" s="46"/>
+      <c r="X18" s="46"/>
+      <c r="Y18" s="47"/>
     </row>
     <row r="19" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="46" t="s">
+      <c r="A19" s="45" t="s">
         <v>804</v>
       </c>
-      <c r="B19" s="47"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="47"/>
-      <c r="K19" s="47"/>
-      <c r="L19" s="47"/>
-      <c r="M19" s="47"/>
-      <c r="N19" s="47"/>
-      <c r="O19" s="47"/>
-      <c r="P19" s="47"/>
-      <c r="Q19" s="47"/>
-      <c r="R19" s="47"/>
-      <c r="S19" s="47"/>
-      <c r="T19" s="47"/>
-      <c r="U19" s="47"/>
-      <c r="V19" s="47"/>
-      <c r="W19" s="47"/>
-      <c r="X19" s="47"/>
-      <c r="Y19" s="48"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="46"/>
+      <c r="M19" s="46"/>
+      <c r="N19" s="46"/>
+      <c r="O19" s="46"/>
+      <c r="P19" s="46"/>
+      <c r="Q19" s="46"/>
+      <c r="R19" s="46"/>
+      <c r="S19" s="46"/>
+      <c r="T19" s="46"/>
+      <c r="U19" s="46"/>
+      <c r="V19" s="46"/>
+      <c r="W19" s="46"/>
+      <c r="X19" s="46"/>
+      <c r="Y19" s="47"/>
     </row>
     <row r="20" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="46"/>
-      <c r="B20" s="47"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="47"/>
-      <c r="K20" s="47"/>
-      <c r="L20" s="47"/>
-      <c r="M20" s="47"/>
-      <c r="N20" s="47"/>
-      <c r="O20" s="47"/>
-      <c r="P20" s="47"/>
-      <c r="Q20" s="47"/>
-      <c r="R20" s="47"/>
-      <c r="S20" s="47"/>
-      <c r="T20" s="47"/>
-      <c r="U20" s="47"/>
-      <c r="V20" s="47"/>
-      <c r="W20" s="47"/>
-      <c r="X20" s="47"/>
-      <c r="Y20" s="48"/>
+      <c r="A20" s="45"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="46"/>
+      <c r="M20" s="46"/>
+      <c r="N20" s="46"/>
+      <c r="O20" s="46"/>
+      <c r="P20" s="46"/>
+      <c r="Q20" s="46"/>
+      <c r="R20" s="46"/>
+      <c r="S20" s="46"/>
+      <c r="T20" s="46"/>
+      <c r="U20" s="46"/>
+      <c r="V20" s="46"/>
+      <c r="W20" s="46"/>
+      <c r="X20" s="46"/>
+      <c r="Y20" s="47"/>
     </row>
     <row r="21" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="46"/>
-      <c r="B21" s="47"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="47"/>
-      <c r="K21" s="47"/>
-      <c r="L21" s="47"/>
-      <c r="M21" s="47"/>
-      <c r="N21" s="47"/>
-      <c r="O21" s="47"/>
-      <c r="P21" s="47"/>
-      <c r="Q21" s="47"/>
-      <c r="R21" s="47"/>
-      <c r="S21" s="47"/>
-      <c r="T21" s="47"/>
-      <c r="U21" s="47"/>
-      <c r="V21" s="47"/>
-      <c r="W21" s="47"/>
-      <c r="X21" s="47"/>
-      <c r="Y21" s="48"/>
+      <c r="A21" s="45"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="46"/>
+      <c r="L21" s="46"/>
+      <c r="M21" s="46"/>
+      <c r="N21" s="46"/>
+      <c r="O21" s="46"/>
+      <c r="P21" s="46"/>
+      <c r="Q21" s="46"/>
+      <c r="R21" s="46"/>
+      <c r="S21" s="46"/>
+      <c r="T21" s="46"/>
+      <c r="U21" s="46"/>
+      <c r="V21" s="46"/>
+      <c r="W21" s="46"/>
+      <c r="X21" s="46"/>
+      <c r="Y21" s="47"/>
     </row>
     <row r="22" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="45" t="s">
+      <c r="A22" s="44" t="s">
         <v>805</v>
       </c>
-      <c r="B22" s="45"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="45"/>
-      <c r="J22" s="45"/>
-      <c r="K22" s="45"/>
-      <c r="L22" s="45"/>
-      <c r="M22" s="45"/>
-      <c r="N22" s="45"/>
-      <c r="O22" s="45"/>
-      <c r="P22" s="45"/>
-      <c r="Q22" s="45"/>
-      <c r="R22" s="45"/>
-      <c r="S22" s="45"/>
-      <c r="T22" s="45"/>
-      <c r="U22" s="45"/>
-      <c r="V22" s="45"/>
-      <c r="W22" s="45"/>
-      <c r="X22" s="45"/>
-      <c r="Y22" s="45"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="44"/>
+      <c r="M22" s="44"/>
+      <c r="N22" s="44"/>
+      <c r="O22" s="44"/>
+      <c r="P22" s="44"/>
+      <c r="Q22" s="44"/>
+      <c r="R22" s="44"/>
+      <c r="S22" s="44"/>
+      <c r="T22" s="44"/>
+      <c r="U22" s="44"/>
+      <c r="V22" s="44"/>
+      <c r="W22" s="44"/>
+      <c r="X22" s="44"/>
+      <c r="Y22" s="44"/>
     </row>
     <row r="23" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="46" t="s">
+      <c r="A23" s="45" t="s">
         <v>806</v>
       </c>
-      <c r="B23" s="47"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="47"/>
-      <c r="K23" s="47"/>
-      <c r="L23" s="47"/>
-      <c r="M23" s="47"/>
-      <c r="N23" s="47"/>
-      <c r="O23" s="47"/>
-      <c r="P23" s="47"/>
-      <c r="Q23" s="47"/>
-      <c r="R23" s="47"/>
-      <c r="S23" s="47"/>
-      <c r="T23" s="47"/>
-      <c r="U23" s="47"/>
-      <c r="V23" s="47"/>
-      <c r="W23" s="47"/>
-      <c r="X23" s="47"/>
-      <c r="Y23" s="48"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="46"/>
+      <c r="L23" s="46"/>
+      <c r="M23" s="46"/>
+      <c r="N23" s="46"/>
+      <c r="O23" s="46"/>
+      <c r="P23" s="46"/>
+      <c r="Q23" s="46"/>
+      <c r="R23" s="46"/>
+      <c r="S23" s="46"/>
+      <c r="T23" s="46"/>
+      <c r="U23" s="46"/>
+      <c r="V23" s="46"/>
+      <c r="W23" s="46"/>
+      <c r="X23" s="46"/>
+      <c r="Y23" s="47"/>
     </row>
     <row r="24" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="46" t="s">
+      <c r="A24" s="45" t="s">
         <v>807</v>
       </c>
-      <c r="B24" s="47"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="47"/>
-      <c r="H24" s="47"/>
-      <c r="I24" s="47"/>
-      <c r="J24" s="47"/>
-      <c r="K24" s="47"/>
-      <c r="L24" s="47"/>
-      <c r="M24" s="47"/>
-      <c r="N24" s="47"/>
-      <c r="O24" s="47"/>
-      <c r="P24" s="47"/>
-      <c r="Q24" s="47"/>
-      <c r="R24" s="47"/>
-      <c r="S24" s="47"/>
-      <c r="T24" s="47"/>
-      <c r="U24" s="47"/>
-      <c r="V24" s="47"/>
-      <c r="W24" s="47"/>
-      <c r="X24" s="47"/>
-      <c r="Y24" s="48"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="46"/>
+      <c r="K24" s="46"/>
+      <c r="L24" s="46"/>
+      <c r="M24" s="46"/>
+      <c r="N24" s="46"/>
+      <c r="O24" s="46"/>
+      <c r="P24" s="46"/>
+      <c r="Q24" s="46"/>
+      <c r="R24" s="46"/>
+      <c r="S24" s="46"/>
+      <c r="T24" s="46"/>
+      <c r="U24" s="46"/>
+      <c r="V24" s="46"/>
+      <c r="W24" s="46"/>
+      <c r="X24" s="46"/>
+      <c r="Y24" s="47"/>
     </row>
     <row r="25" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="46" t="s">
+      <c r="A25" s="45" t="s">
         <v>808</v>
       </c>
-      <c r="B25" s="47"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="47"/>
-      <c r="K25" s="47"/>
-      <c r="L25" s="47"/>
-      <c r="M25" s="47"/>
-      <c r="N25" s="47"/>
-      <c r="O25" s="47"/>
-      <c r="P25" s="47"/>
-      <c r="Q25" s="47"/>
-      <c r="R25" s="47"/>
-      <c r="S25" s="47"/>
-      <c r="T25" s="47"/>
-      <c r="U25" s="47"/>
-      <c r="V25" s="47"/>
-      <c r="W25" s="47"/>
-      <c r="X25" s="47"/>
-      <c r="Y25" s="48"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="46"/>
+      <c r="K25" s="46"/>
+      <c r="L25" s="46"/>
+      <c r="M25" s="46"/>
+      <c r="N25" s="46"/>
+      <c r="O25" s="46"/>
+      <c r="P25" s="46"/>
+      <c r="Q25" s="46"/>
+      <c r="R25" s="46"/>
+      <c r="S25" s="46"/>
+      <c r="T25" s="46"/>
+      <c r="U25" s="46"/>
+      <c r="V25" s="46"/>
+      <c r="W25" s="46"/>
+      <c r="X25" s="46"/>
+      <c r="Y25" s="47"/>
     </row>
     <row r="26" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="46" t="s">
+      <c r="A26" s="45" t="s">
         <v>809</v>
       </c>
-      <c r="B26" s="47"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="47"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="47"/>
-      <c r="H26" s="47"/>
-      <c r="I26" s="47"/>
-      <c r="J26" s="47"/>
-      <c r="K26" s="47"/>
-      <c r="L26" s="47"/>
-      <c r="M26" s="47"/>
-      <c r="N26" s="47"/>
-      <c r="O26" s="47"/>
-      <c r="P26" s="47"/>
-      <c r="Q26" s="47"/>
-      <c r="R26" s="47"/>
-      <c r="S26" s="47"/>
-      <c r="T26" s="47"/>
-      <c r="U26" s="47"/>
-      <c r="V26" s="47"/>
-      <c r="W26" s="47"/>
-      <c r="X26" s="47"/>
-      <c r="Y26" s="48"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="46"/>
+      <c r="J26" s="46"/>
+      <c r="K26" s="46"/>
+      <c r="L26" s="46"/>
+      <c r="M26" s="46"/>
+      <c r="N26" s="46"/>
+      <c r="O26" s="46"/>
+      <c r="P26" s="46"/>
+      <c r="Q26" s="46"/>
+      <c r="R26" s="46"/>
+      <c r="S26" s="46"/>
+      <c r="T26" s="46"/>
+      <c r="U26" s="46"/>
+      <c r="V26" s="46"/>
+      <c r="W26" s="46"/>
+      <c r="X26" s="46"/>
+      <c r="Y26" s="47"/>
     </row>
     <row r="27" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="46"/>
-      <c r="B27" s="47"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="47"/>
-      <c r="H27" s="47"/>
-      <c r="I27" s="47"/>
-      <c r="J27" s="47"/>
-      <c r="K27" s="47"/>
-      <c r="L27" s="47"/>
-      <c r="M27" s="47"/>
-      <c r="N27" s="47"/>
-      <c r="O27" s="47"/>
-      <c r="P27" s="47"/>
-      <c r="Q27" s="47"/>
-      <c r="R27" s="47"/>
-      <c r="S27" s="47"/>
-      <c r="T27" s="47"/>
-      <c r="U27" s="47"/>
-      <c r="V27" s="47"/>
-      <c r="W27" s="47"/>
-      <c r="X27" s="47"/>
-      <c r="Y27" s="48"/>
+      <c r="A27" s="45"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="46"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="46"/>
+      <c r="M27" s="46"/>
+      <c r="N27" s="46"/>
+      <c r="O27" s="46"/>
+      <c r="P27" s="46"/>
+      <c r="Q27" s="46"/>
+      <c r="R27" s="46"/>
+      <c r="S27" s="46"/>
+      <c r="T27" s="46"/>
+      <c r="U27" s="46"/>
+      <c r="V27" s="46"/>
+      <c r="W27" s="46"/>
+      <c r="X27" s="46"/>
+      <c r="Y27" s="47"/>
     </row>
     <row r="28" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="46"/>
-      <c r="B28" s="47"/>
-      <c r="C28" s="47"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="47"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="47"/>
-      <c r="H28" s="47"/>
-      <c r="I28" s="47"/>
-      <c r="J28" s="47"/>
-      <c r="K28" s="47"/>
-      <c r="L28" s="47"/>
-      <c r="M28" s="47"/>
-      <c r="N28" s="47"/>
-      <c r="O28" s="47"/>
-      <c r="P28" s="47"/>
-      <c r="Q28" s="47"/>
-      <c r="R28" s="47"/>
-      <c r="S28" s="47"/>
-      <c r="T28" s="47"/>
-      <c r="U28" s="47"/>
-      <c r="V28" s="47"/>
-      <c r="W28" s="47"/>
-      <c r="X28" s="47"/>
-      <c r="Y28" s="48"/>
+      <c r="A28" s="45"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="46"/>
+      <c r="I28" s="46"/>
+      <c r="J28" s="46"/>
+      <c r="K28" s="46"/>
+      <c r="L28" s="46"/>
+      <c r="M28" s="46"/>
+      <c r="N28" s="46"/>
+      <c r="O28" s="46"/>
+      <c r="P28" s="46"/>
+      <c r="Q28" s="46"/>
+      <c r="R28" s="46"/>
+      <c r="S28" s="46"/>
+      <c r="T28" s="46"/>
+      <c r="U28" s="46"/>
+      <c r="V28" s="46"/>
+      <c r="W28" s="46"/>
+      <c r="X28" s="46"/>
+      <c r="Y28" s="47"/>
     </row>
     <row r="29" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="49" t="s">
+      <c r="A29" s="48" t="s">
         <v>810</v>
       </c>
-      <c r="B29" s="47"/>
-      <c r="C29" s="47"/>
-      <c r="D29" s="47"/>
-      <c r="E29" s="47"/>
-      <c r="F29" s="47"/>
-      <c r="G29" s="47"/>
-      <c r="H29" s="47"/>
-      <c r="I29" s="47"/>
-      <c r="J29" s="47"/>
-      <c r="K29" s="47"/>
-      <c r="L29" s="47"/>
-      <c r="M29" s="47"/>
-      <c r="N29" s="47"/>
-      <c r="O29" s="47"/>
-      <c r="P29" s="47"/>
-      <c r="Q29" s="47"/>
-      <c r="R29" s="47"/>
-      <c r="S29" s="47"/>
-      <c r="T29" s="47"/>
-      <c r="U29" s="47"/>
-      <c r="V29" s="47"/>
-      <c r="W29" s="47"/>
-      <c r="X29" s="47"/>
-      <c r="Y29" s="48"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="46"/>
+      <c r="J29" s="46"/>
+      <c r="K29" s="46"/>
+      <c r="L29" s="46"/>
+      <c r="M29" s="46"/>
+      <c r="N29" s="46"/>
+      <c r="O29" s="46"/>
+      <c r="P29" s="46"/>
+      <c r="Q29" s="46"/>
+      <c r="R29" s="46"/>
+      <c r="S29" s="46"/>
+      <c r="T29" s="46"/>
+      <c r="U29" s="46"/>
+      <c r="V29" s="46"/>
+      <c r="W29" s="46"/>
+      <c r="X29" s="46"/>
+      <c r="Y29" s="47"/>
     </row>
     <row r="30" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="45" t="s">
+      <c r="A30" s="44" t="s">
         <v>811</v>
       </c>
-      <c r="B30" s="45"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="45"/>
-      <c r="I30" s="45"/>
-      <c r="J30" s="45"/>
-      <c r="K30" s="45"/>
-      <c r="L30" s="45"/>
-      <c r="M30" s="45"/>
-      <c r="N30" s="45"/>
-      <c r="O30" s="45"/>
-      <c r="P30" s="45"/>
-      <c r="Q30" s="45"/>
-      <c r="R30" s="45"/>
-      <c r="S30" s="45"/>
-      <c r="T30" s="45"/>
-      <c r="U30" s="45"/>
-      <c r="V30" s="45"/>
-      <c r="W30" s="45"/>
-      <c r="X30" s="45"/>
-      <c r="Y30" s="45"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="44"/>
+      <c r="I30" s="44"/>
+      <c r="J30" s="44"/>
+      <c r="K30" s="44"/>
+      <c r="L30" s="44"/>
+      <c r="M30" s="44"/>
+      <c r="N30" s="44"/>
+      <c r="O30" s="44"/>
+      <c r="P30" s="44"/>
+      <c r="Q30" s="44"/>
+      <c r="R30" s="44"/>
+      <c r="S30" s="44"/>
+      <c r="T30" s="44"/>
+      <c r="U30" s="44"/>
+      <c r="V30" s="44"/>
+      <c r="W30" s="44"/>
+      <c r="X30" s="44"/>
+      <c r="Y30" s="44"/>
     </row>
     <row r="31" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="46" t="s">
+      <c r="A31" s="45" t="s">
         <v>812</v>
       </c>
-      <c r="B31" s="47"/>
-      <c r="C31" s="47"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="47"/>
-      <c r="H31" s="47"/>
-      <c r="I31" s="47"/>
-      <c r="J31" s="47"/>
-      <c r="K31" s="47"/>
-      <c r="L31" s="47"/>
-      <c r="M31" s="47"/>
-      <c r="N31" s="47"/>
-      <c r="O31" s="47"/>
-      <c r="P31" s="47"/>
-      <c r="Q31" s="47"/>
-      <c r="R31" s="47"/>
-      <c r="S31" s="47"/>
-      <c r="T31" s="47"/>
-      <c r="U31" s="47"/>
-      <c r="V31" s="47"/>
-      <c r="W31" s="47"/>
-      <c r="X31" s="47"/>
-      <c r="Y31" s="48"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="46"/>
+      <c r="K31" s="46"/>
+      <c r="L31" s="46"/>
+      <c r="M31" s="46"/>
+      <c r="N31" s="46"/>
+      <c r="O31" s="46"/>
+      <c r="P31" s="46"/>
+      <c r="Q31" s="46"/>
+      <c r="R31" s="46"/>
+      <c r="S31" s="46"/>
+      <c r="T31" s="46"/>
+      <c r="U31" s="46"/>
+      <c r="V31" s="46"/>
+      <c r="W31" s="46"/>
+      <c r="X31" s="46"/>
+      <c r="Y31" s="47"/>
     </row>
     <row r="32" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="46" t="s">
+      <c r="A32" s="45" t="s">
         <v>813</v>
       </c>
-      <c r="B32" s="47"/>
-      <c r="C32" s="47"/>
-      <c r="D32" s="47"/>
-      <c r="E32" s="47"/>
-      <c r="F32" s="47"/>
-      <c r="G32" s="47"/>
-      <c r="H32" s="47"/>
-      <c r="I32" s="47"/>
-      <c r="J32" s="47"/>
-      <c r="K32" s="47"/>
-      <c r="L32" s="47"/>
-      <c r="M32" s="47"/>
-      <c r="N32" s="47"/>
-      <c r="O32" s="47"/>
-      <c r="P32" s="47"/>
-      <c r="Q32" s="47"/>
-      <c r="R32" s="47"/>
-      <c r="S32" s="47"/>
-      <c r="T32" s="47"/>
-      <c r="U32" s="47"/>
-      <c r="V32" s="47"/>
-      <c r="W32" s="47"/>
-      <c r="X32" s="47"/>
-      <c r="Y32" s="48"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="46"/>
+      <c r="I32" s="46"/>
+      <c r="J32" s="46"/>
+      <c r="K32" s="46"/>
+      <c r="L32" s="46"/>
+      <c r="M32" s="46"/>
+      <c r="N32" s="46"/>
+      <c r="O32" s="46"/>
+      <c r="P32" s="46"/>
+      <c r="Q32" s="46"/>
+      <c r="R32" s="46"/>
+      <c r="S32" s="46"/>
+      <c r="T32" s="46"/>
+      <c r="U32" s="46"/>
+      <c r="V32" s="46"/>
+      <c r="W32" s="46"/>
+      <c r="X32" s="46"/>
+      <c r="Y32" s="47"/>
     </row>
     <row r="33" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="46"/>
-      <c r="B33" s="47"/>
-      <c r="C33" s="47"/>
-      <c r="D33" s="47"/>
-      <c r="E33" s="47"/>
-      <c r="F33" s="47"/>
-      <c r="G33" s="47"/>
-      <c r="H33" s="47"/>
-      <c r="I33" s="47"/>
-      <c r="J33" s="47"/>
-      <c r="K33" s="47"/>
-      <c r="L33" s="47"/>
-      <c r="M33" s="47"/>
-      <c r="N33" s="47"/>
-      <c r="O33" s="47"/>
-      <c r="P33" s="47"/>
-      <c r="Q33" s="47"/>
-      <c r="R33" s="47"/>
-      <c r="S33" s="47"/>
-      <c r="T33" s="47"/>
-      <c r="U33" s="47"/>
-      <c r="V33" s="47"/>
-      <c r="W33" s="47"/>
-      <c r="X33" s="47"/>
-      <c r="Y33" s="48"/>
+      <c r="A33" s="45"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="46"/>
+      <c r="H33" s="46"/>
+      <c r="I33" s="46"/>
+      <c r="J33" s="46"/>
+      <c r="K33" s="46"/>
+      <c r="L33" s="46"/>
+      <c r="M33" s="46"/>
+      <c r="N33" s="46"/>
+      <c r="O33" s="46"/>
+      <c r="P33" s="46"/>
+      <c r="Q33" s="46"/>
+      <c r="R33" s="46"/>
+      <c r="S33" s="46"/>
+      <c r="T33" s="46"/>
+      <c r="U33" s="46"/>
+      <c r="V33" s="46"/>
+      <c r="W33" s="46"/>
+      <c r="X33" s="46"/>
+      <c r="Y33" s="47"/>
     </row>
     <row r="34" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="46"/>
-      <c r="B34" s="47"/>
-      <c r="C34" s="47"/>
-      <c r="D34" s="47"/>
-      <c r="E34" s="47"/>
-      <c r="F34" s="47"/>
-      <c r="G34" s="47"/>
-      <c r="H34" s="47"/>
-      <c r="I34" s="47"/>
-      <c r="J34" s="47"/>
-      <c r="K34" s="47"/>
-      <c r="L34" s="47"/>
-      <c r="M34" s="47"/>
-      <c r="N34" s="47"/>
-      <c r="O34" s="47"/>
-      <c r="P34" s="47"/>
-      <c r="Q34" s="47"/>
-      <c r="R34" s="47"/>
-      <c r="S34" s="47"/>
-      <c r="T34" s="47"/>
-      <c r="U34" s="47"/>
-      <c r="V34" s="47"/>
-      <c r="W34" s="47"/>
-      <c r="X34" s="47"/>
-      <c r="Y34" s="48"/>
+      <c r="A34" s="45"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="46"/>
+      <c r="H34" s="46"/>
+      <c r="I34" s="46"/>
+      <c r="J34" s="46"/>
+      <c r="K34" s="46"/>
+      <c r="L34" s="46"/>
+      <c r="M34" s="46"/>
+      <c r="N34" s="46"/>
+      <c r="O34" s="46"/>
+      <c r="P34" s="46"/>
+      <c r="Q34" s="46"/>
+      <c r="R34" s="46"/>
+      <c r="S34" s="46"/>
+      <c r="T34" s="46"/>
+      <c r="U34" s="46"/>
+      <c r="V34" s="46"/>
+      <c r="W34" s="46"/>
+      <c r="X34" s="46"/>
+      <c r="Y34" s="47"/>
     </row>
     <row r="35" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="45" t="s">
+      <c r="A35" s="44" t="s">
         <v>814</v>
       </c>
-      <c r="B35" s="45"/>
-      <c r="C35" s="45"/>
-      <c r="D35" s="45"/>
-      <c r="E35" s="45"/>
-      <c r="F35" s="45"/>
-      <c r="G35" s="45"/>
-      <c r="H35" s="45"/>
-      <c r="I35" s="45"/>
-      <c r="J35" s="45"/>
-      <c r="K35" s="45"/>
-      <c r="L35" s="45"/>
-      <c r="M35" s="45"/>
-      <c r="N35" s="45"/>
-      <c r="O35" s="45"/>
-      <c r="P35" s="45"/>
-      <c r="Q35" s="45"/>
-      <c r="R35" s="45"/>
-      <c r="S35" s="45"/>
-      <c r="T35" s="45"/>
-      <c r="U35" s="45"/>
-      <c r="V35" s="45"/>
-      <c r="W35" s="45"/>
-      <c r="X35" s="45"/>
-      <c r="Y35" s="45"/>
+      <c r="B35" s="44"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="44"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="44"/>
+      <c r="H35" s="44"/>
+      <c r="I35" s="44"/>
+      <c r="J35" s="44"/>
+      <c r="K35" s="44"/>
+      <c r="L35" s="44"/>
+      <c r="M35" s="44"/>
+      <c r="N35" s="44"/>
+      <c r="O35" s="44"/>
+      <c r="P35" s="44"/>
+      <c r="Q35" s="44"/>
+      <c r="R35" s="44"/>
+      <c r="S35" s="44"/>
+      <c r="T35" s="44"/>
+      <c r="U35" s="44"/>
+      <c r="V35" s="44"/>
+      <c r="W35" s="44"/>
+      <c r="X35" s="44"/>
+      <c r="Y35" s="44"/>
     </row>
     <row r="36" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="46"/>
-      <c r="B36" s="47"/>
-      <c r="C36" s="47"/>
-      <c r="D36" s="47"/>
-      <c r="E36" s="47"/>
-      <c r="F36" s="47"/>
-      <c r="G36" s="47"/>
-      <c r="H36" s="47"/>
-      <c r="I36" s="47"/>
-      <c r="J36" s="47"/>
-      <c r="K36" s="47"/>
-      <c r="L36" s="47"/>
-      <c r="M36" s="47"/>
-      <c r="N36" s="47"/>
-      <c r="O36" s="47"/>
-      <c r="P36" s="47"/>
-      <c r="Q36" s="47"/>
-      <c r="R36" s="47"/>
-      <c r="S36" s="47"/>
-      <c r="T36" s="47"/>
-      <c r="U36" s="47"/>
-      <c r="V36" s="47"/>
-      <c r="W36" s="47"/>
-      <c r="X36" s="47"/>
-      <c r="Y36" s="48"/>
+      <c r="A36" s="45"/>
+      <c r="B36" s="46"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="46"/>
+      <c r="E36" s="46"/>
+      <c r="F36" s="46"/>
+      <c r="G36" s="46"/>
+      <c r="H36" s="46"/>
+      <c r="I36" s="46"/>
+      <c r="J36" s="46"/>
+      <c r="K36" s="46"/>
+      <c r="L36" s="46"/>
+      <c r="M36" s="46"/>
+      <c r="N36" s="46"/>
+      <c r="O36" s="46"/>
+      <c r="P36" s="46"/>
+      <c r="Q36" s="46"/>
+      <c r="R36" s="46"/>
+      <c r="S36" s="46"/>
+      <c r="T36" s="46"/>
+      <c r="U36" s="46"/>
+      <c r="V36" s="46"/>
+      <c r="W36" s="46"/>
+      <c r="X36" s="46"/>
+      <c r="Y36" s="47"/>
     </row>
     <row r="37" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="49"/>
-      <c r="B37" s="47"/>
-      <c r="C37" s="47"/>
-      <c r="D37" s="47"/>
-      <c r="E37" s="47"/>
-      <c r="F37" s="47"/>
-      <c r="G37" s="47"/>
-      <c r="H37" s="47"/>
-      <c r="I37" s="47"/>
-      <c r="J37" s="47"/>
-      <c r="K37" s="47"/>
-      <c r="L37" s="47"/>
-      <c r="M37" s="47"/>
-      <c r="N37" s="47"/>
-      <c r="O37" s="47"/>
-      <c r="P37" s="47"/>
-      <c r="Q37" s="47"/>
-      <c r="R37" s="47"/>
-      <c r="S37" s="47"/>
-      <c r="T37" s="47"/>
-      <c r="U37" s="47"/>
-      <c r="V37" s="47"/>
-      <c r="W37" s="47"/>
-      <c r="X37" s="47"/>
-      <c r="Y37" s="48"/>
+      <c r="A37" s="48"/>
+      <c r="B37" s="46"/>
+      <c r="C37" s="46"/>
+      <c r="D37" s="46"/>
+      <c r="E37" s="46"/>
+      <c r="F37" s="46"/>
+      <c r="G37" s="46"/>
+      <c r="H37" s="46"/>
+      <c r="I37" s="46"/>
+      <c r="J37" s="46"/>
+      <c r="K37" s="46"/>
+      <c r="L37" s="46"/>
+      <c r="M37" s="46"/>
+      <c r="N37" s="46"/>
+      <c r="O37" s="46"/>
+      <c r="P37" s="46"/>
+      <c r="Q37" s="46"/>
+      <c r="R37" s="46"/>
+      <c r="S37" s="46"/>
+      <c r="T37" s="46"/>
+      <c r="U37" s="46"/>
+      <c r="V37" s="46"/>
+      <c r="W37" s="46"/>
+      <c r="X37" s="46"/>
+      <c r="Y37" s="47"/>
     </row>
     <row r="38" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="49"/>
-      <c r="B38" s="47"/>
-      <c r="C38" s="47"/>
-      <c r="D38" s="47"/>
-      <c r="E38" s="47"/>
-      <c r="F38" s="47"/>
-      <c r="G38" s="47"/>
-      <c r="H38" s="47"/>
-      <c r="I38" s="47"/>
-      <c r="J38" s="47"/>
-      <c r="K38" s="47"/>
-      <c r="L38" s="47"/>
-      <c r="M38" s="47"/>
-      <c r="N38" s="47"/>
-      <c r="O38" s="47"/>
-      <c r="P38" s="47"/>
-      <c r="Q38" s="47"/>
-      <c r="R38" s="47"/>
-      <c r="S38" s="47"/>
-      <c r="T38" s="47"/>
-      <c r="U38" s="47"/>
-      <c r="V38" s="47"/>
-      <c r="W38" s="47"/>
-      <c r="X38" s="47"/>
-      <c r="Y38" s="48"/>
+      <c r="A38" s="48"/>
+      <c r="B38" s="46"/>
+      <c r="C38" s="46"/>
+      <c r="D38" s="46"/>
+      <c r="E38" s="46"/>
+      <c r="F38" s="46"/>
+      <c r="G38" s="46"/>
+      <c r="H38" s="46"/>
+      <c r="I38" s="46"/>
+      <c r="J38" s="46"/>
+      <c r="K38" s="46"/>
+      <c r="L38" s="46"/>
+      <c r="M38" s="46"/>
+      <c r="N38" s="46"/>
+      <c r="O38" s="46"/>
+      <c r="P38" s="46"/>
+      <c r="Q38" s="46"/>
+      <c r="R38" s="46"/>
+      <c r="S38" s="46"/>
+      <c r="T38" s="46"/>
+      <c r="U38" s="46"/>
+      <c r="V38" s="46"/>
+      <c r="W38" s="46"/>
+      <c r="X38" s="46"/>
+      <c r="Y38" s="47"/>
     </row>
     <row r="39" customFormat="false" ht="66.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="49" t="s">
+      <c r="A39" s="48" t="s">
         <v>815</v>
       </c>
-      <c r="B39" s="47"/>
-      <c r="C39" s="47"/>
-      <c r="D39" s="47"/>
-      <c r="E39" s="47"/>
-      <c r="F39" s="47"/>
-      <c r="G39" s="47"/>
-      <c r="H39" s="47"/>
-      <c r="I39" s="47"/>
-      <c r="J39" s="47"/>
-      <c r="K39" s="47"/>
-      <c r="L39" s="47"/>
-      <c r="M39" s="47"/>
-      <c r="N39" s="47"/>
-      <c r="O39" s="47"/>
-      <c r="P39" s="47"/>
-      <c r="Q39" s="47"/>
-      <c r="R39" s="47"/>
-      <c r="S39" s="47"/>
-      <c r="T39" s="47"/>
-      <c r="U39" s="47"/>
-      <c r="V39" s="47"/>
-      <c r="W39" s="47"/>
-      <c r="X39" s="47"/>
-      <c r="Y39" s="48"/>
+      <c r="B39" s="46"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="46"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="46"/>
+      <c r="H39" s="46"/>
+      <c r="I39" s="46"/>
+      <c r="J39" s="46"/>
+      <c r="K39" s="46"/>
+      <c r="L39" s="46"/>
+      <c r="M39" s="46"/>
+      <c r="N39" s="46"/>
+      <c r="O39" s="46"/>
+      <c r="P39" s="46"/>
+      <c r="Q39" s="46"/>
+      <c r="R39" s="46"/>
+      <c r="S39" s="46"/>
+      <c r="T39" s="46"/>
+      <c r="U39" s="46"/>
+      <c r="V39" s="46"/>
+      <c r="W39" s="46"/>
+      <c r="X39" s="46"/>
+      <c r="Y39" s="47"/>
     </row>
     <row r="40" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="49" t="s">
+      <c r="A40" s="48" t="s">
         <v>816</v>
       </c>
-      <c r="B40" s="47"/>
-      <c r="C40" s="47"/>
-      <c r="D40" s="47"/>
-      <c r="E40" s="47"/>
-      <c r="F40" s="47"/>
-      <c r="G40" s="47"/>
-      <c r="H40" s="47"/>
-      <c r="I40" s="47"/>
-      <c r="J40" s="47"/>
-      <c r="K40" s="47"/>
-      <c r="L40" s="47"/>
-      <c r="M40" s="47"/>
-      <c r="N40" s="47"/>
-      <c r="O40" s="47"/>
-      <c r="P40" s="47"/>
-      <c r="Q40" s="47"/>
-      <c r="R40" s="47"/>
-      <c r="S40" s="47"/>
-      <c r="T40" s="47"/>
-      <c r="U40" s="47"/>
-      <c r="V40" s="47"/>
-      <c r="W40" s="47"/>
-      <c r="X40" s="47"/>
-      <c r="Y40" s="48"/>
+      <c r="B40" s="46"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="46"/>
+      <c r="E40" s="46"/>
+      <c r="F40" s="46"/>
+      <c r="G40" s="46"/>
+      <c r="H40" s="46"/>
+      <c r="I40" s="46"/>
+      <c r="J40" s="46"/>
+      <c r="K40" s="46"/>
+      <c r="L40" s="46"/>
+      <c r="M40" s="46"/>
+      <c r="N40" s="46"/>
+      <c r="O40" s="46"/>
+      <c r="P40" s="46"/>
+      <c r="Q40" s="46"/>
+      <c r="R40" s="46"/>
+      <c r="S40" s="46"/>
+      <c r="T40" s="46"/>
+      <c r="U40" s="46"/>
+      <c r="V40" s="46"/>
+      <c r="W40" s="46"/>
+      <c r="X40" s="46"/>
+      <c r="Y40" s="47"/>
     </row>
     <row r="41" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="45" t="s">
+      <c r="A41" s="44" t="s">
         <v>817</v>
       </c>
-      <c r="B41" s="45"/>
-      <c r="C41" s="45"/>
-      <c r="D41" s="45"/>
-      <c r="E41" s="45"/>
-      <c r="F41" s="45"/>
-      <c r="G41" s="45"/>
-      <c r="H41" s="45"/>
-      <c r="I41" s="45"/>
-      <c r="J41" s="45"/>
-      <c r="K41" s="45"/>
-      <c r="L41" s="45"/>
-      <c r="M41" s="45"/>
-      <c r="N41" s="45"/>
-      <c r="O41" s="45"/>
-      <c r="P41" s="45"/>
-      <c r="Q41" s="45"/>
-      <c r="R41" s="45"/>
-      <c r="S41" s="45"/>
-      <c r="T41" s="45"/>
-      <c r="U41" s="45"/>
-      <c r="V41" s="45"/>
-      <c r="W41" s="45"/>
-      <c r="X41" s="45"/>
-      <c r="Y41" s="45"/>
+      <c r="B41" s="44"/>
+      <c r="C41" s="44"/>
+      <c r="D41" s="44"/>
+      <c r="E41" s="44"/>
+      <c r="F41" s="44"/>
+      <c r="G41" s="44"/>
+      <c r="H41" s="44"/>
+      <c r="I41" s="44"/>
+      <c r="J41" s="44"/>
+      <c r="K41" s="44"/>
+      <c r="L41" s="44"/>
+      <c r="M41" s="44"/>
+      <c r="N41" s="44"/>
+      <c r="O41" s="44"/>
+      <c r="P41" s="44"/>
+      <c r="Q41" s="44"/>
+      <c r="R41" s="44"/>
+      <c r="S41" s="44"/>
+      <c r="T41" s="44"/>
+      <c r="U41" s="44"/>
+      <c r="V41" s="44"/>
+      <c r="W41" s="44"/>
+      <c r="X41" s="44"/>
+      <c r="Y41" s="44"/>
     </row>
     <row r="42" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="46" t="s">
+      <c r="A42" s="45" t="s">
         <v>818</v>
       </c>
-      <c r="B42" s="47"/>
-      <c r="C42" s="47"/>
-      <c r="D42" s="47"/>
-      <c r="E42" s="47"/>
-      <c r="F42" s="47"/>
-      <c r="G42" s="47"/>
-      <c r="H42" s="47"/>
-      <c r="I42" s="47"/>
-      <c r="J42" s="47"/>
-      <c r="K42" s="47"/>
-      <c r="L42" s="47"/>
-      <c r="M42" s="47"/>
-      <c r="N42" s="47"/>
-      <c r="O42" s="47"/>
-      <c r="P42" s="47"/>
-      <c r="Q42" s="47"/>
-      <c r="R42" s="47"/>
-      <c r="S42" s="47"/>
-      <c r="T42" s="47"/>
-      <c r="U42" s="47"/>
-      <c r="V42" s="47"/>
-      <c r="W42" s="47"/>
-      <c r="X42" s="47"/>
-      <c r="Y42" s="48"/>
+      <c r="B42" s="46"/>
+      <c r="C42" s="46"/>
+      <c r="D42" s="46"/>
+      <c r="E42" s="46"/>
+      <c r="F42" s="46"/>
+      <c r="G42" s="46"/>
+      <c r="H42" s="46"/>
+      <c r="I42" s="46"/>
+      <c r="J42" s="46"/>
+      <c r="K42" s="46"/>
+      <c r="L42" s="46"/>
+      <c r="M42" s="46"/>
+      <c r="N42" s="46"/>
+      <c r="O42" s="46"/>
+      <c r="P42" s="46"/>
+      <c r="Q42" s="46"/>
+      <c r="R42" s="46"/>
+      <c r="S42" s="46"/>
+      <c r="T42" s="46"/>
+      <c r="U42" s="46"/>
+      <c r="V42" s="46"/>
+      <c r="W42" s="46"/>
+      <c r="X42" s="46"/>
+      <c r="Y42" s="47"/>
     </row>
     <row r="43" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="46" t="s">
+      <c r="A43" s="45" t="s">
         <v>819</v>
       </c>
-      <c r="B43" s="47"/>
-      <c r="C43" s="47"/>
-      <c r="D43" s="47"/>
-      <c r="E43" s="47"/>
-      <c r="F43" s="47"/>
-      <c r="G43" s="47"/>
-      <c r="H43" s="47"/>
-      <c r="I43" s="47"/>
-      <c r="J43" s="47"/>
-      <c r="K43" s="47"/>
-      <c r="L43" s="47"/>
-      <c r="M43" s="47"/>
-      <c r="N43" s="47"/>
-      <c r="O43" s="47"/>
-      <c r="P43" s="47"/>
-      <c r="Q43" s="47"/>
-      <c r="R43" s="47"/>
-      <c r="S43" s="47"/>
-      <c r="T43" s="47"/>
-      <c r="U43" s="47"/>
-      <c r="V43" s="47"/>
-      <c r="W43" s="47"/>
-      <c r="X43" s="47"/>
-      <c r="Y43" s="48"/>
+      <c r="B43" s="46"/>
+      <c r="C43" s="46"/>
+      <c r="D43" s="46"/>
+      <c r="E43" s="46"/>
+      <c r="F43" s="46"/>
+      <c r="G43" s="46"/>
+      <c r="H43" s="46"/>
+      <c r="I43" s="46"/>
+      <c r="J43" s="46"/>
+      <c r="K43" s="46"/>
+      <c r="L43" s="46"/>
+      <c r="M43" s="46"/>
+      <c r="N43" s="46"/>
+      <c r="O43" s="46"/>
+      <c r="P43" s="46"/>
+      <c r="Q43" s="46"/>
+      <c r="R43" s="46"/>
+      <c r="S43" s="46"/>
+      <c r="T43" s="46"/>
+      <c r="U43" s="46"/>
+      <c r="V43" s="46"/>
+      <c r="W43" s="46"/>
+      <c r="X43" s="46"/>
+      <c r="Y43" s="47"/>
     </row>
     <row r="44" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="46" t="s">
+      <c r="A44" s="45" t="s">
         <v>820</v>
       </c>
-      <c r="B44" s="47"/>
-      <c r="C44" s="47"/>
-      <c r="D44" s="47"/>
-      <c r="E44" s="47"/>
-      <c r="F44" s="47"/>
-      <c r="G44" s="47"/>
-      <c r="H44" s="47"/>
-      <c r="I44" s="47"/>
-      <c r="J44" s="47"/>
-      <c r="K44" s="47"/>
-      <c r="L44" s="47"/>
-      <c r="M44" s="47"/>
-      <c r="N44" s="47"/>
-      <c r="O44" s="47"/>
-      <c r="P44" s="47"/>
-      <c r="Q44" s="47"/>
-      <c r="R44" s="47"/>
-      <c r="S44" s="47"/>
-      <c r="T44" s="47"/>
-      <c r="U44" s="47"/>
-      <c r="V44" s="47"/>
-      <c r="W44" s="47"/>
-      <c r="X44" s="47"/>
-      <c r="Y44" s="48"/>
+      <c r="B44" s="46"/>
+      <c r="C44" s="46"/>
+      <c r="D44" s="46"/>
+      <c r="E44" s="46"/>
+      <c r="F44" s="46"/>
+      <c r="G44" s="46"/>
+      <c r="H44" s="46"/>
+      <c r="I44" s="46"/>
+      <c r="J44" s="46"/>
+      <c r="K44" s="46"/>
+      <c r="L44" s="46"/>
+      <c r="M44" s="46"/>
+      <c r="N44" s="46"/>
+      <c r="O44" s="46"/>
+      <c r="P44" s="46"/>
+      <c r="Q44" s="46"/>
+      <c r="R44" s="46"/>
+      <c r="S44" s="46"/>
+      <c r="T44" s="46"/>
+      <c r="U44" s="46"/>
+      <c r="V44" s="46"/>
+      <c r="W44" s="46"/>
+      <c r="X44" s="46"/>
+      <c r="Y44" s="47"/>
     </row>
     <row r="45" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="46"/>
-      <c r="B45" s="47"/>
-      <c r="C45" s="47"/>
-      <c r="D45" s="47"/>
-      <c r="E45" s="47"/>
-      <c r="F45" s="47"/>
-      <c r="G45" s="47"/>
-      <c r="H45" s="47"/>
-      <c r="I45" s="47"/>
-      <c r="J45" s="47"/>
-      <c r="K45" s="47"/>
-      <c r="L45" s="47"/>
-      <c r="M45" s="47"/>
-      <c r="N45" s="47"/>
-      <c r="O45" s="47"/>
-      <c r="P45" s="47"/>
-      <c r="Q45" s="47"/>
-      <c r="R45" s="47"/>
-      <c r="S45" s="47"/>
-      <c r="T45" s="47"/>
-      <c r="U45" s="47"/>
-      <c r="V45" s="47"/>
-      <c r="W45" s="47"/>
-      <c r="X45" s="47"/>
-      <c r="Y45" s="48"/>
+      <c r="A45" s="45"/>
+      <c r="B45" s="46"/>
+      <c r="C45" s="46"/>
+      <c r="D45" s="46"/>
+      <c r="E45" s="46"/>
+      <c r="F45" s="46"/>
+      <c r="G45" s="46"/>
+      <c r="H45" s="46"/>
+      <c r="I45" s="46"/>
+      <c r="J45" s="46"/>
+      <c r="K45" s="46"/>
+      <c r="L45" s="46"/>
+      <c r="M45" s="46"/>
+      <c r="N45" s="46"/>
+      <c r="O45" s="46"/>
+      <c r="P45" s="46"/>
+      <c r="Q45" s="46"/>
+      <c r="R45" s="46"/>
+      <c r="S45" s="46"/>
+      <c r="T45" s="46"/>
+      <c r="U45" s="46"/>
+      <c r="V45" s="46"/>
+      <c r="W45" s="46"/>
+      <c r="X45" s="46"/>
+      <c r="Y45" s="47"/>
     </row>
     <row r="46" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="46"/>
-      <c r="B46" s="47"/>
-      <c r="C46" s="47"/>
-      <c r="D46" s="47"/>
-      <c r="E46" s="47"/>
-      <c r="F46" s="47"/>
-      <c r="G46" s="47"/>
-      <c r="H46" s="47"/>
-      <c r="I46" s="47"/>
-      <c r="J46" s="47"/>
-      <c r="K46" s="47"/>
-      <c r="L46" s="47"/>
-      <c r="M46" s="47"/>
-      <c r="N46" s="47"/>
-      <c r="O46" s="47"/>
-      <c r="P46" s="47"/>
-      <c r="Q46" s="47"/>
-      <c r="R46" s="47"/>
-      <c r="S46" s="47"/>
-      <c r="T46" s="47"/>
-      <c r="U46" s="47"/>
-      <c r="V46" s="47"/>
-      <c r="W46" s="47"/>
-      <c r="X46" s="47"/>
-      <c r="Y46" s="48"/>
+      <c r="A46" s="45"/>
+      <c r="B46" s="46"/>
+      <c r="C46" s="46"/>
+      <c r="D46" s="46"/>
+      <c r="E46" s="46"/>
+      <c r="F46" s="46"/>
+      <c r="G46" s="46"/>
+      <c r="H46" s="46"/>
+      <c r="I46" s="46"/>
+      <c r="J46" s="46"/>
+      <c r="K46" s="46"/>
+      <c r="L46" s="46"/>
+      <c r="M46" s="46"/>
+      <c r="N46" s="46"/>
+      <c r="O46" s="46"/>
+      <c r="P46" s="46"/>
+      <c r="Q46" s="46"/>
+      <c r="R46" s="46"/>
+      <c r="S46" s="46"/>
+      <c r="T46" s="46"/>
+      <c r="U46" s="46"/>
+      <c r="V46" s="46"/>
+      <c r="W46" s="46"/>
+      <c r="X46" s="46"/>
+      <c r="Y46" s="47"/>
     </row>
     <row r="47" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="45" t="s">
+      <c r="A47" s="44" t="s">
         <v>821</v>
       </c>
-      <c r="B47" s="45"/>
-      <c r="C47" s="45"/>
-      <c r="D47" s="45"/>
-      <c r="E47" s="45"/>
-      <c r="F47" s="45"/>
-      <c r="G47" s="45"/>
-      <c r="H47" s="45"/>
-      <c r="I47" s="45"/>
-      <c r="J47" s="45"/>
-      <c r="K47" s="45"/>
-      <c r="L47" s="45"/>
-      <c r="M47" s="45"/>
-      <c r="N47" s="45"/>
-      <c r="O47" s="45"/>
-      <c r="P47" s="45"/>
-      <c r="Q47" s="45"/>
-      <c r="R47" s="45"/>
-      <c r="S47" s="45"/>
-      <c r="T47" s="45"/>
-      <c r="U47" s="45"/>
-      <c r="V47" s="45"/>
-      <c r="W47" s="45"/>
-      <c r="X47" s="45"/>
-      <c r="Y47" s="45"/>
+      <c r="B47" s="44"/>
+      <c r="C47" s="44"/>
+      <c r="D47" s="44"/>
+      <c r="E47" s="44"/>
+      <c r="F47" s="44"/>
+      <c r="G47" s="44"/>
+      <c r="H47" s="44"/>
+      <c r="I47" s="44"/>
+      <c r="J47" s="44"/>
+      <c r="K47" s="44"/>
+      <c r="L47" s="44"/>
+      <c r="M47" s="44"/>
+      <c r="N47" s="44"/>
+      <c r="O47" s="44"/>
+      <c r="P47" s="44"/>
+      <c r="Q47" s="44"/>
+      <c r="R47" s="44"/>
+      <c r="S47" s="44"/>
+      <c r="T47" s="44"/>
+      <c r="U47" s="44"/>
+      <c r="V47" s="44"/>
+      <c r="W47" s="44"/>
+      <c r="X47" s="44"/>
+      <c r="Y47" s="44"/>
     </row>
     <row r="48" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="46"/>
-      <c r="B48" s="47"/>
-      <c r="C48" s="47"/>
-      <c r="D48" s="47"/>
-      <c r="E48" s="47"/>
-      <c r="F48" s="47"/>
-      <c r="G48" s="47"/>
-      <c r="H48" s="47"/>
-      <c r="I48" s="47"/>
-      <c r="J48" s="47"/>
-      <c r="K48" s="47"/>
-      <c r="L48" s="47"/>
-      <c r="M48" s="47"/>
-      <c r="N48" s="47"/>
-      <c r="O48" s="47"/>
-      <c r="P48" s="47"/>
-      <c r="Q48" s="47"/>
-      <c r="R48" s="47"/>
-      <c r="S48" s="47"/>
-      <c r="T48" s="47"/>
-      <c r="U48" s="47"/>
-      <c r="V48" s="47"/>
-      <c r="W48" s="47"/>
-      <c r="X48" s="47"/>
-      <c r="Y48" s="48"/>
+      <c r="A48" s="45"/>
+      <c r="B48" s="46"/>
+      <c r="C48" s="46"/>
+      <c r="D48" s="46"/>
+      <c r="E48" s="46"/>
+      <c r="F48" s="46"/>
+      <c r="G48" s="46"/>
+      <c r="H48" s="46"/>
+      <c r="I48" s="46"/>
+      <c r="J48" s="46"/>
+      <c r="K48" s="46"/>
+      <c r="L48" s="46"/>
+      <c r="M48" s="46"/>
+      <c r="N48" s="46"/>
+      <c r="O48" s="46"/>
+      <c r="P48" s="46"/>
+      <c r="Q48" s="46"/>
+      <c r="R48" s="46"/>
+      <c r="S48" s="46"/>
+      <c r="T48" s="46"/>
+      <c r="U48" s="46"/>
+      <c r="V48" s="46"/>
+      <c r="W48" s="46"/>
+      <c r="X48" s="46"/>
+      <c r="Y48" s="47"/>
     </row>
     <row r="49" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="46"/>
-      <c r="B49" s="47"/>
-      <c r="C49" s="47"/>
-      <c r="D49" s="47"/>
-      <c r="E49" s="47"/>
-      <c r="F49" s="47"/>
-      <c r="G49" s="47"/>
-      <c r="H49" s="47"/>
-      <c r="I49" s="47"/>
-      <c r="J49" s="47"/>
-      <c r="K49" s="47"/>
-      <c r="L49" s="47"/>
-      <c r="M49" s="47"/>
-      <c r="N49" s="47"/>
-      <c r="O49" s="47"/>
-      <c r="P49" s="47"/>
-      <c r="Q49" s="47"/>
-      <c r="R49" s="47"/>
-      <c r="S49" s="47"/>
-      <c r="T49" s="47"/>
-      <c r="U49" s="47"/>
-      <c r="V49" s="47"/>
-      <c r="W49" s="47"/>
-      <c r="X49" s="47"/>
-      <c r="Y49" s="48"/>
+      <c r="A49" s="45"/>
+      <c r="B49" s="46"/>
+      <c r="C49" s="46"/>
+      <c r="D49" s="46"/>
+      <c r="E49" s="46"/>
+      <c r="F49" s="46"/>
+      <c r="G49" s="46"/>
+      <c r="H49" s="46"/>
+      <c r="I49" s="46"/>
+      <c r="J49" s="46"/>
+      <c r="K49" s="46"/>
+      <c r="L49" s="46"/>
+      <c r="M49" s="46"/>
+      <c r="N49" s="46"/>
+      <c r="O49" s="46"/>
+      <c r="P49" s="46"/>
+      <c r="Q49" s="46"/>
+      <c r="R49" s="46"/>
+      <c r="S49" s="46"/>
+      <c r="T49" s="46"/>
+      <c r="U49" s="46"/>
+      <c r="V49" s="46"/>
+      <c r="W49" s="46"/>
+      <c r="X49" s="46"/>
+      <c r="Y49" s="47"/>
     </row>
     <row r="50" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="46" t="s">
+      <c r="A50" s="45" t="s">
         <v>822</v>
       </c>
-      <c r="B50" s="47"/>
-      <c r="C50" s="47"/>
-      <c r="D50" s="47"/>
-      <c r="E50" s="47"/>
-      <c r="F50" s="47"/>
-      <c r="G50" s="47"/>
-      <c r="H50" s="47"/>
-      <c r="I50" s="47"/>
-      <c r="J50" s="47"/>
-      <c r="K50" s="47"/>
-      <c r="L50" s="47"/>
-      <c r="M50" s="47"/>
-      <c r="N50" s="47"/>
-      <c r="O50" s="47"/>
-      <c r="P50" s="47"/>
-      <c r="Q50" s="47"/>
-      <c r="R50" s="47"/>
-      <c r="S50" s="47"/>
-      <c r="T50" s="47"/>
-      <c r="U50" s="47"/>
-      <c r="V50" s="47"/>
-      <c r="W50" s="47"/>
-      <c r="X50" s="47"/>
-      <c r="Y50" s="48"/>
+      <c r="B50" s="46"/>
+      <c r="C50" s="46"/>
+      <c r="D50" s="46"/>
+      <c r="E50" s="46"/>
+      <c r="F50" s="46"/>
+      <c r="G50" s="46"/>
+      <c r="H50" s="46"/>
+      <c r="I50" s="46"/>
+      <c r="J50" s="46"/>
+      <c r="K50" s="46"/>
+      <c r="L50" s="46"/>
+      <c r="M50" s="46"/>
+      <c r="N50" s="46"/>
+      <c r="O50" s="46"/>
+      <c r="P50" s="46"/>
+      <c r="Q50" s="46"/>
+      <c r="R50" s="46"/>
+      <c r="S50" s="46"/>
+      <c r="T50" s="46"/>
+      <c r="U50" s="46"/>
+      <c r="V50" s="46"/>
+      <c r="W50" s="46"/>
+      <c r="X50" s="46"/>
+      <c r="Y50" s="47"/>
     </row>
     <row r="51" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="45" t="s">
+      <c r="A51" s="44" t="s">
         <v>823</v>
       </c>
-      <c r="B51" s="45"/>
-      <c r="C51" s="45"/>
-      <c r="D51" s="45"/>
-      <c r="E51" s="45"/>
-      <c r="F51" s="45"/>
-      <c r="G51" s="45"/>
-      <c r="H51" s="45"/>
-      <c r="I51" s="45"/>
-      <c r="J51" s="45"/>
-      <c r="K51" s="45"/>
-      <c r="L51" s="45"/>
-      <c r="M51" s="45"/>
-      <c r="N51" s="45"/>
-      <c r="O51" s="45"/>
-      <c r="P51" s="45"/>
-      <c r="Q51" s="45"/>
-      <c r="R51" s="45"/>
-      <c r="S51" s="45"/>
-      <c r="T51" s="45"/>
-      <c r="U51" s="45"/>
-      <c r="V51" s="45"/>
-      <c r="W51" s="45"/>
-      <c r="X51" s="45"/>
-      <c r="Y51" s="45"/>
+      <c r="B51" s="44"/>
+      <c r="C51" s="44"/>
+      <c r="D51" s="44"/>
+      <c r="E51" s="44"/>
+      <c r="F51" s="44"/>
+      <c r="G51" s="44"/>
+      <c r="H51" s="44"/>
+      <c r="I51" s="44"/>
+      <c r="J51" s="44"/>
+      <c r="K51" s="44"/>
+      <c r="L51" s="44"/>
+      <c r="M51" s="44"/>
+      <c r="N51" s="44"/>
+      <c r="O51" s="44"/>
+      <c r="P51" s="44"/>
+      <c r="Q51" s="44"/>
+      <c r="R51" s="44"/>
+      <c r="S51" s="44"/>
+      <c r="T51" s="44"/>
+      <c r="U51" s="44"/>
+      <c r="V51" s="44"/>
+      <c r="W51" s="44"/>
+      <c r="X51" s="44"/>
+      <c r="Y51" s="44"/>
     </row>
     <row r="52" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="50" t="s">
+      <c r="A52" s="49" t="s">
         <v>824</v>
       </c>
-      <c r="B52" s="47"/>
-      <c r="C52" s="47"/>
-      <c r="D52" s="47"/>
-      <c r="E52" s="47"/>
-      <c r="F52" s="47"/>
-      <c r="G52" s="47"/>
-      <c r="H52" s="47"/>
-      <c r="I52" s="47"/>
-      <c r="J52" s="47"/>
-      <c r="K52" s="47"/>
-      <c r="L52" s="47"/>
-      <c r="M52" s="47"/>
-      <c r="N52" s="47"/>
-      <c r="O52" s="47"/>
-      <c r="P52" s="47"/>
-      <c r="Q52" s="47"/>
-      <c r="R52" s="47"/>
-      <c r="S52" s="47"/>
-      <c r="T52" s="47"/>
-      <c r="U52" s="47"/>
-      <c r="V52" s="47"/>
-      <c r="W52" s="47"/>
-      <c r="X52" s="47"/>
-      <c r="Y52" s="48"/>
+      <c r="B52" s="46"/>
+      <c r="C52" s="46"/>
+      <c r="D52" s="46"/>
+      <c r="E52" s="46"/>
+      <c r="F52" s="46"/>
+      <c r="G52" s="46"/>
+      <c r="H52" s="46"/>
+      <c r="I52" s="46"/>
+      <c r="J52" s="46"/>
+      <c r="K52" s="46"/>
+      <c r="L52" s="46"/>
+      <c r="M52" s="46"/>
+      <c r="N52" s="46"/>
+      <c r="O52" s="46"/>
+      <c r="P52" s="46"/>
+      <c r="Q52" s="46"/>
+      <c r="R52" s="46"/>
+      <c r="S52" s="46"/>
+      <c r="T52" s="46"/>
+      <c r="U52" s="46"/>
+      <c r="V52" s="46"/>
+      <c r="W52" s="46"/>
+      <c r="X52" s="46"/>
+      <c r="Y52" s="47"/>
     </row>
     <row r="53" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="50" t="s">
+      <c r="A53" s="49" t="s">
         <v>825</v>
       </c>
-      <c r="B53" s="47"/>
-      <c r="C53" s="47"/>
-      <c r="D53" s="47"/>
-      <c r="E53" s="47"/>
-      <c r="F53" s="47"/>
-      <c r="G53" s="47"/>
-      <c r="H53" s="47"/>
-      <c r="I53" s="47"/>
-      <c r="J53" s="47"/>
-      <c r="K53" s="47"/>
-      <c r="L53" s="47"/>
-      <c r="M53" s="47"/>
-      <c r="N53" s="47"/>
-      <c r="O53" s="47"/>
-      <c r="P53" s="47"/>
-      <c r="Q53" s="47"/>
-      <c r="R53" s="47"/>
-      <c r="S53" s="47"/>
-      <c r="T53" s="47"/>
-      <c r="U53" s="47"/>
-      <c r="V53" s="47"/>
-      <c r="W53" s="47"/>
-      <c r="X53" s="47"/>
-      <c r="Y53" s="48"/>
+      <c r="B53" s="46"/>
+      <c r="C53" s="46"/>
+      <c r="D53" s="46"/>
+      <c r="E53" s="46"/>
+      <c r="F53" s="46"/>
+      <c r="G53" s="46"/>
+      <c r="H53" s="46"/>
+      <c r="I53" s="46"/>
+      <c r="J53" s="46"/>
+      <c r="K53" s="46"/>
+      <c r="L53" s="46"/>
+      <c r="M53" s="46"/>
+      <c r="N53" s="46"/>
+      <c r="O53" s="46"/>
+      <c r="P53" s="46"/>
+      <c r="Q53" s="46"/>
+      <c r="R53" s="46"/>
+      <c r="S53" s="46"/>
+      <c r="T53" s="46"/>
+      <c r="U53" s="46"/>
+      <c r="V53" s="46"/>
+      <c r="W53" s="46"/>
+      <c r="X53" s="46"/>
+      <c r="Y53" s="47"/>
     </row>
     <row r="54" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="50" t="s">
+      <c r="A54" s="49" t="s">
         <v>826</v>
       </c>
-      <c r="B54" s="47"/>
-      <c r="C54" s="47"/>
-      <c r="D54" s="47"/>
-      <c r="E54" s="47"/>
-      <c r="F54" s="47"/>
-      <c r="G54" s="47"/>
-      <c r="H54" s="47"/>
-      <c r="I54" s="47"/>
-      <c r="J54" s="47"/>
-      <c r="K54" s="47"/>
-      <c r="L54" s="47"/>
-      <c r="M54" s="47"/>
-      <c r="N54" s="47"/>
-      <c r="O54" s="47"/>
-      <c r="P54" s="47"/>
-      <c r="Q54" s="47"/>
-      <c r="R54" s="47"/>
-      <c r="S54" s="47"/>
-      <c r="T54" s="47"/>
-      <c r="U54" s="47"/>
-      <c r="V54" s="47"/>
-      <c r="W54" s="47"/>
-      <c r="X54" s="47"/>
-      <c r="Y54" s="48"/>
+      <c r="B54" s="46"/>
+      <c r="C54" s="46"/>
+      <c r="D54" s="46"/>
+      <c r="E54" s="46"/>
+      <c r="F54" s="46"/>
+      <c r="G54" s="46"/>
+      <c r="H54" s="46"/>
+      <c r="I54" s="46"/>
+      <c r="J54" s="46"/>
+      <c r="K54" s="46"/>
+      <c r="L54" s="46"/>
+      <c r="M54" s="46"/>
+      <c r="N54" s="46"/>
+      <c r="O54" s="46"/>
+      <c r="P54" s="46"/>
+      <c r="Q54" s="46"/>
+      <c r="R54" s="46"/>
+      <c r="S54" s="46"/>
+      <c r="T54" s="46"/>
+      <c r="U54" s="46"/>
+      <c r="V54" s="46"/>
+      <c r="W54" s="46"/>
+      <c r="X54" s="46"/>
+      <c r="Y54" s="47"/>
     </row>
     <row r="55" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="46"/>
-      <c r="B55" s="47"/>
-      <c r="C55" s="47"/>
-      <c r="D55" s="47"/>
-      <c r="E55" s="47"/>
-      <c r="F55" s="47"/>
-      <c r="G55" s="47"/>
-      <c r="H55" s="47"/>
-      <c r="I55" s="47"/>
-      <c r="J55" s="47"/>
-      <c r="K55" s="47"/>
-      <c r="L55" s="47"/>
-      <c r="M55" s="47"/>
-      <c r="N55" s="47"/>
-      <c r="O55" s="47"/>
-      <c r="P55" s="47"/>
-      <c r="Q55" s="47"/>
-      <c r="R55" s="47"/>
-      <c r="S55" s="47"/>
-      <c r="T55" s="47"/>
-      <c r="U55" s="47"/>
-      <c r="V55" s="47"/>
-      <c r="W55" s="47"/>
-      <c r="X55" s="47"/>
-      <c r="Y55" s="48"/>
+      <c r="A55" s="45"/>
+      <c r="B55" s="46"/>
+      <c r="C55" s="46"/>
+      <c r="D55" s="46"/>
+      <c r="E55" s="46"/>
+      <c r="F55" s="46"/>
+      <c r="G55" s="46"/>
+      <c r="H55" s="46"/>
+      <c r="I55" s="46"/>
+      <c r="J55" s="46"/>
+      <c r="K55" s="46"/>
+      <c r="L55" s="46"/>
+      <c r="M55" s="46"/>
+      <c r="N55" s="46"/>
+      <c r="O55" s="46"/>
+      <c r="P55" s="46"/>
+      <c r="Q55" s="46"/>
+      <c r="R55" s="46"/>
+      <c r="S55" s="46"/>
+      <c r="T55" s="46"/>
+      <c r="U55" s="46"/>
+      <c r="V55" s="46"/>
+      <c r="W55" s="46"/>
+      <c r="X55" s="46"/>
+      <c r="Y55" s="47"/>
     </row>
     <row r="56" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="51" t="s">
+      <c r="A56" s="50" t="s">
         <v>827</v>
       </c>
-      <c r="B56" s="47"/>
-      <c r="C56" s="47"/>
-      <c r="D56" s="47"/>
-      <c r="E56" s="47"/>
-      <c r="F56" s="47"/>
-      <c r="G56" s="47"/>
-      <c r="H56" s="47"/>
-      <c r="I56" s="47"/>
-      <c r="J56" s="47"/>
-      <c r="K56" s="47"/>
-      <c r="L56" s="47"/>
-      <c r="M56" s="47"/>
-      <c r="N56" s="47"/>
-      <c r="O56" s="47"/>
-      <c r="P56" s="47"/>
-      <c r="Q56" s="47"/>
-      <c r="R56" s="47"/>
-      <c r="S56" s="47"/>
-      <c r="T56" s="47"/>
-      <c r="U56" s="47"/>
-      <c r="V56" s="47"/>
-      <c r="W56" s="47"/>
-      <c r="X56" s="47"/>
-      <c r="Y56" s="48"/>
+      <c r="B56" s="46"/>
+      <c r="C56" s="46"/>
+      <c r="D56" s="46"/>
+      <c r="E56" s="46"/>
+      <c r="F56" s="46"/>
+      <c r="G56" s="46"/>
+      <c r="H56" s="46"/>
+      <c r="I56" s="46"/>
+      <c r="J56" s="46"/>
+      <c r="K56" s="46"/>
+      <c r="L56" s="46"/>
+      <c r="M56" s="46"/>
+      <c r="N56" s="46"/>
+      <c r="O56" s="46"/>
+      <c r="P56" s="46"/>
+      <c r="Q56" s="46"/>
+      <c r="R56" s="46"/>
+      <c r="S56" s="46"/>
+      <c r="T56" s="46"/>
+      <c r="U56" s="46"/>
+      <c r="V56" s="46"/>
+      <c r="W56" s="46"/>
+      <c r="X56" s="46"/>
+      <c r="Y56" s="47"/>
     </row>
     <row r="57" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="52" t="s">
+      <c r="A57" s="51" t="s">
         <v>828</v>
       </c>
-      <c r="B57" s="53"/>
-      <c r="C57" s="53"/>
-      <c r="D57" s="53"/>
-      <c r="E57" s="53"/>
-      <c r="F57" s="53"/>
-      <c r="G57" s="53"/>
-      <c r="H57" s="53"/>
-      <c r="I57" s="53"/>
-      <c r="J57" s="53"/>
-      <c r="K57" s="53"/>
-      <c r="L57" s="53"/>
-      <c r="M57" s="53"/>
-      <c r="N57" s="53"/>
-      <c r="O57" s="53"/>
-      <c r="P57" s="53"/>
-      <c r="Q57" s="53"/>
-      <c r="R57" s="53"/>
-      <c r="S57" s="53"/>
-      <c r="T57" s="53"/>
-      <c r="U57" s="53"/>
-      <c r="V57" s="53"/>
-      <c r="W57" s="53"/>
-      <c r="X57" s="53"/>
-      <c r="Y57" s="54"/>
+      <c r="B57" s="52"/>
+      <c r="C57" s="52"/>
+      <c r="D57" s="52"/>
+      <c r="E57" s="52"/>
+      <c r="F57" s="52"/>
+      <c r="G57" s="52"/>
+      <c r="H57" s="52"/>
+      <c r="I57" s="52"/>
+      <c r="J57" s="52"/>
+      <c r="K57" s="52"/>
+      <c r="L57" s="52"/>
+      <c r="M57" s="52"/>
+      <c r="N57" s="52"/>
+      <c r="O57" s="52"/>
+      <c r="P57" s="52"/>
+      <c r="Q57" s="52"/>
+      <c r="R57" s="52"/>
+      <c r="S57" s="52"/>
+      <c r="T57" s="52"/>
+      <c r="U57" s="52"/>
+      <c r="V57" s="52"/>
+      <c r="W57" s="52"/>
+      <c r="X57" s="52"/>
+      <c r="Y57" s="53"/>
     </row>
     <row r="58" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="55"/>
+      <c r="A58" s="54"/>
     </row>
     <row r="59" customFormat="false" ht="141.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="56" t="s">
+      <c r="A59" s="55" t="s">
         <v>829</v>
       </c>
     </row>

--- a/resources/report_template.xlsx
+++ b/resources/report_template.xlsx
@@ -3226,15 +3226,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>351000</xdr:colOff>
+      <xdr:colOff>405000</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>83160</xdr:rowOff>
+      <xdr:rowOff>65160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>831960</xdr:colOff>
+      <xdr:colOff>885240</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>49680</xdr:rowOff>
+      <xdr:rowOff>30960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3247,8 +3247,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="351000" y="682920"/>
-          <a:ext cx="480960" cy="357120"/>
+          <a:off x="405000" y="664920"/>
+          <a:ext cx="480240" cy="356400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3271,7 +3271,7 @@
   <dimension ref="A1:AD65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -3279,7 +3279,7 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="50.3036437246964"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.2834008097166"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.42914979757085"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.1902834008097"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.8218623481781"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.4251012145749"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.3036437246964"/>

--- a/resources/report_template.xlsx
+++ b/resources/report_template.xlsx
@@ -3226,15 +3226,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>405000</xdr:colOff>
+      <xdr:colOff>432000</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>65160</xdr:rowOff>
+      <xdr:rowOff>56160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>885240</xdr:colOff>
+      <xdr:colOff>911880</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>30960</xdr:rowOff>
+      <xdr:rowOff>21600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3247,8 +3247,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="405000" y="664920"/>
-          <a:ext cx="480240" cy="356400"/>
+          <a:off x="432000" y="655920"/>
+          <a:ext cx="479880" cy="356040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>

--- a/resources/report_template.xlsx
+++ b/resources/report_template.xlsx
@@ -3271,7 +3271,7 @@
   <dimension ref="A1:AD65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="topLeft" activeCell="B41" activeCellId="1" sqref="A7 B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -6212,7 +6212,7 @@
   <dimension ref="A1:Y59"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A7 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/resources/report_template.xlsx
+++ b/resources/report_template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="330" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="160" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="File active" sheetId="1" state="visible" r:id="rId2"/>
@@ -180,163 +180,163 @@
     <t>Nombre d’adultes et d’enfants  chez qui on a initié la TARV au cours de la période de raportage (B)</t>
   </si>
   <si>
-    <t>{key: 'ARV_STARTED_DURING_PERIOD', gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'ARV_STARTED_DURING_PERIOD', gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'ARV_STARTED_DURING_PERIOD', gender: 99}</t>
-  </si>
-  <si>
-    <t>{key:'ARV_STARTED_DURING_PERIOD', age_max: 15}</t>
-  </si>
-  <si>
-    <t>{key: 'ARV_STARTED_DURING_PERIOD', age_min: 15}</t>
-  </si>
-  <si>
-    <t>{key: 'ARV_STARTED_DURING_PERIOD', age_is_null: true}</t>
-  </si>
-  <si>
-    <t>{key: 'ARV_STARTED_DURING_PERIOD'}</t>
-  </si>
-  <si>
-    <t>{key: 'ARV_STARTED_DURING_PERIOD', age_max: 15, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'ARV_STARTED_DURING_PERIOD', age_max: 15, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'ARV_STARTED_DURING_PERIOD', age_min: 15, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'ARV_STARTED_DURING_PERIOD', age_min: 15, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'ARV_STARTED_DURING_PERIOD', age_max: 1, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'ARV_STARTED_DURING_PERIOD', age_max: 1, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'ARV_STARTED_DURING_PERIOD', age_min: 1, age_max: 4, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'ARV_STARTED_DURING_PERIOD', age_min: 5, age_max: 9, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'ARV_STARTED_DURING_PERIOD', age_min: 5, age_max: 9, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'ARV_STARTED_DURING_PERIOD', age_min: 10, age_max: 14, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'ARV_STARTED_DURING_PERIOD', age_min: 10, age_max: 14, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'ARV_STARTED_DURING_PERIOD', age_min: 15, age_max: 19, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'ARV_STARTED_DURING_PERIOD', age_min: 15, age_max: 19, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'ARV_STARTED_DURING_PERIOD', age_min: 20, age_max: 24, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'ARV_STARTED_DURING_PERIOD', age_min: 20, age_max: 24, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'ARV_STARTED_DURING_PERIOD', age_min: 25, age_max: 49, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'ARV_STARTED_DURING_PERIOD', age_min: 25, age_max: 49, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'ARV_STARTED_DURING_PERIOD', age_min: 50, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'ARV_STARTED_DURING_PERIOD', age_min: 50, gender: 1}</t>
+    <t>{key: 'ARV_STARTED', gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_STARTED', gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_STARTED', gender: 99}</t>
+  </si>
+  <si>
+    <t>{key:'ARV_STARTED', age_max: 15}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_STARTED', age_min: 15}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_STARTED', age_is_null: true}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_STARTED'}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_STARTED', age_max: 15, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_STARTED', age_max: 15, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_STARTED', age_min: 15, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_STARTED', age_min: 15, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_STARTED', age_max: 1, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_STARTED', age_max: 1, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_STARTED', age_min: 1, age_max: 4, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_STARTED', age_min: 5, age_max: 9, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_STARTED', age_min: 5, age_max: 9, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_STARTED', age_min: 10, age_max: 14, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_STARTED', age_min: 10, age_max: 14, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_STARTED', age_min: 15, age_max: 19, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_STARTED', age_min: 15, age_max: 19, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_STARTED', age_min: 20, age_max: 24, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_STARTED', age_min: 20, age_max: 24, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_STARTED', age_min: 25, age_max: 49, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_STARTED', age_min: 25, age_max: 49, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_STARTED', age_min: 50, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_STARTED', age_min: 50, gender: 1}</t>
   </si>
   <si>
     <t>Nombre d’adultes et d’enfants déjà sous TARV  reçus dans le centre en provenance d'un autre centre de traitement au cours dau cours de la période de raportage (C)</t>
   </si>
   <si>
-    <t>{key: 'ARV_INCOMING_TRANSFER_DURING_PERIOD', gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'ARV_INCOMING_TRANSFER_DURING_PERIOD', gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'ARV_INCOMING_TRANSFER_DURING_PERIOD', gender: 99}</t>
-  </si>
-  <si>
-    <t>{key:'ARV_INCOMING_TRANSFER_DURING_PERIOD', age_max: 15}</t>
-  </si>
-  <si>
-    <t>{key: 'ARV_INCOMING_TRANSFER_DURING_PERIOD', age_min: 15}</t>
-  </si>
-  <si>
-    <t>{key: 'ARV_INCOMING_TRANSFER_DURING_PERIOD', age_is_null: true}</t>
-  </si>
-  <si>
-    <t>{key: 'ARV_INCOMING_TRANSFER_DURING_PERIOD'}</t>
-  </si>
-  <si>
-    <t>{key: 'ARV_INCOMING_TRANSFER_DURING_PERIOD', age_max: 15, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'ARV_INCOMING_TRANSFER_DURING_PERIOD', age_max: 15, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'ARV_INCOMING_TRANSFER_DURING_PERIOD', age_min: 15, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'ARV_INCOMING_TRANSFER_DURING_PERIOD', age_min: 15, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'ARV_INCOMING_TRANSFER_DURING_PERIOD', age_max: 1, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'ARV_INCOMING_TRANSFER_DURING_PERIOD', age_max: 1, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'ARV_INCOMING_TRANSFER_DURING_PERIOD', age_min: 1, age_max: 4, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'ARV_INCOMING_TRANSFER_DURING_PERIOD', age_min: 5, age_max: 9, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'ARV_INCOMING_TRANSFER_DURING_PERIOD', age_min: 5, age_max: 9, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'ARV_INCOMING_TRANSFER_DURING_PERIOD', age_min: 10, age_max: 14, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'ARV_INCOMING_TRANSFER_DURING_PERIOD', age_min: 10, age_max: 14, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'ARV_INCOMING_TRANSFER_DURING_PERIOD', age_min: 15, age_max: 19, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'ARV_INCOMING_TRANSFER_DURING_PERIOD', age_min: 15, age_max: 19, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'ARV_INCOMING_TRANSFER_DURING_PERIOD', age_min: 20, age_max: 24, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'ARV_INCOMING_TRANSFER_DURING_PERIOD', age_min: 20, age_max: 24, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'ARV_INCOMING_TRANSFER_DURING_PERIOD', age_min: 25, age_max: 49, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'ARV_INCOMING_TRANSFER_DURING_PERIOD', age_min: 25, age_max: 49, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'ARV_INCOMING_TRANSFER_DURING_PERIOD', age_min: 50, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'ARV_INCOMING_TRANSFER_DURING_PERIOD', age_min: 50, gender: 1}</t>
+    <t>{key: 'ARV_INCOMING_TRANSFER', gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_INCOMING_TRANSFER', gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_INCOMING_TRANSFER', gender: 99}</t>
+  </si>
+  <si>
+    <t>{key:'ARV_INCOMING_TRANSFER', age_max: 15}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_INCOMING_TRANSFER', age_min: 15}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_INCOMING_TRANSFER', age_is_null: true}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_INCOMING_TRANSFER'}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_INCOMING_TRANSFER', age_max: 15, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_INCOMING_TRANSFER', age_max: 15, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_INCOMING_TRANSFER', age_min: 15, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_INCOMING_TRANSFER', age_min: 15, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_INCOMING_TRANSFER', age_max: 1, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_INCOMING_TRANSFER', age_max: 1, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_INCOMING_TRANSFER', age_min: 1, age_max: 4, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_INCOMING_TRANSFER', age_min: 5, age_max: 9, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_INCOMING_TRANSFER', age_min: 5, age_max: 9, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_INCOMING_TRANSFER', age_min: 10, age_max: 14, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_INCOMING_TRANSFER', age_min: 10, age_max: 14, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_INCOMING_TRANSFER', age_min: 15, age_max: 19, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_INCOMING_TRANSFER', age_min: 15, age_max: 19, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_INCOMING_TRANSFER', age_min: 20, age_max: 24, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_INCOMING_TRANSFER', age_min: 20, age_max: 24, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_INCOMING_TRANSFER', age_min: 25, age_max: 49, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_INCOMING_TRANSFER', age_min: 25, age_max: 49, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_INCOMING_TRANSFER', age_min: 50, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_INCOMING_TRANSFER', age_min: 50, gender: 1}</t>
   </si>
   <si>
     <t>Nombre d’adultes et d’enfants déjà sous TARV  mais perdus de vue dans le centre et qui ont repris le traitement au cours au cours de la période de raportage (D)</t>
@@ -504,406 +504,406 @@
     <t>Nombre d’adultes et d’enfants qui ont bénéficié de TARV au cours du 1er semestre 2016 F=(A+B+C+D+E)</t>
   </si>
   <si>
-    <t>{key: 'RECEIVED_ARV_DURING_PERIOD', gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'RECEIVED_ARV_DURING_PERIOD', gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'RECEIVED_ARV_DURING_PERIOD', gender: 99}</t>
-  </si>
-  <si>
-    <t>{key:'RECEIVED_ARV_DURING_PERIOD', age_max: 15}</t>
-  </si>
-  <si>
-    <t>{key: 'RECEIVED_ARV_DURING_PERIOD', age_min: 15}</t>
-  </si>
-  <si>
-    <t>{key: 'RECEIVED_ARV_DURING_PERIOD', age_is_null: true}</t>
-  </si>
-  <si>
-    <t>{key: 'RECEIVED_ARV_DURING_PERIOD'}</t>
-  </si>
-  <si>
-    <t>{key: 'RECEIVED_ARV_DURING_PERIOD', age_max: 15, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'RECEIVED_ARV_DURING_PERIOD', age_max: 15, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'RECEIVED_ARV_DURING_PERIOD', age_min: 15, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'RECEIVED_ARV_DURING_PERIOD', age_min: 15, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'RECEIVED_ARV_DURING_PERIOD', age_max: 1, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'RECEIVED_ARV_DURING_PERIOD', age_max: 1, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'RECEIVED_ARV_DURING_PERIOD', age_min: 1, age_max: 4, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'RECEIVED_ARV_DURING_PERIOD', age_min: 5, age_max: 9, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'RECEIVED_ARV_DURING_PERIOD', age_min: 5, age_max: 9, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'RECEIVED_ARV_DURING_PERIOD', age_min: 10, age_max: 14, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'RECEIVED_ARV_DURING_PERIOD', age_min: 10, age_max: 14, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'RECEIVED_ARV_DURING_PERIOD', age_min: 15, age_max: 19, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'RECEIVED_ARV_DURING_PERIOD', age_min: 15, age_max: 19, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'RECEIVED_ARV_DURING_PERIOD', age_min: 20, age_max: 24, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'RECEIVED_ARV_DURING_PERIOD', age_min: 20, age_max: 24, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'RECEIVED_ARV_DURING_PERIOD', age_min: 25, age_max: 49, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'RECEIVED_ARV_DURING_PERIOD', age_min: 25, age_max: 49, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'RECEIVED_ARV_DURING_PERIOD', age_min: 50, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'RECEIVED_ARV_DURING_PERIOD', age_min: 50, gender: 1}</t>
+    <t>{key: 'ARV_RECEIVED', gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_RECEIVED', gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_RECEIVED', gender: 99}</t>
+  </si>
+  <si>
+    <t>{key:'ARV_RECEIVED', age_max: 15}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_RECEIVED', age_min: 15}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_RECEIVED', age_is_null: true}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_RECEIVED'}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_RECEIVED', age_max: 15, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_RECEIVED', age_max: 15, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_RECEIVED', age_min: 15, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_RECEIVED', age_min: 15, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_RECEIVED', age_max: 1, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_RECEIVED', age_max: 1, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_RECEIVED', age_min: 1, age_max: 4, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_RECEIVED', age_min: 5, age_max: 9, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_RECEIVED', age_min: 5, age_max: 9, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_RECEIVED', age_min: 10, age_max: 14, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_RECEIVED', age_min: 10, age_max: 14, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_RECEIVED', age_min: 15, age_max: 19, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_RECEIVED', age_min: 15, age_max: 19, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_RECEIVED', age_min: 20, age_max: 24, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_RECEIVED', age_min: 20, age_max: 24, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_RECEIVED', age_min: 25, age_max: 49, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_RECEIVED', age_min: 25, age_max: 49, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_RECEIVED', age_min: 50, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_RECEIVED', age_min: 50, gender: 1}</t>
   </si>
   <si>
     <t>Nombre Total d’adultes et d’enfants sous antirétroviraux perdus de vue au cours au cours de la période de raportage (G)</t>
   </si>
   <si>
-    <t>{key: 'ARV_LOST_DURING_PERIOD', gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'ARV_LOST_DURING_PERIOD', gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'ARV_LOST_DURING_PERIOD', gender: 99}</t>
-  </si>
-  <si>
-    <t>{key:'ARV_LOST_DURING_PERIOD', age_max: 15}</t>
-  </si>
-  <si>
-    <t>{key: 'ARV_LOST_DURING_PERIOD', age_min: 15}</t>
-  </si>
-  <si>
-    <t>{key: 'ARV_LOST_DURING_PERIOD', age_is_null: true}</t>
-  </si>
-  <si>
-    <t>{key: 'ARV_LOST_DURING_PERIOD'}</t>
-  </si>
-  <si>
-    <t>{key: 'ARV_LOST_DURING_PERIOD', age_max: 15, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'ARV_LOST_DURING_PERIOD', age_max: 15, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'ARV_LOST_DURING_PERIOD', age_min: 15, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'ARV_LOST_DURING_PERIOD', age_min: 15, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'ARV_LOST_DURING_PERIOD', age_max: 1, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'ARV_LOST_DURING_PERIOD', age_max: 1, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'ARV_LOST_DURING_PERIOD', age_min: 1, age_max: 4, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'ARV_LOST_DURING_PERIOD', age_min: 5, age_max: 9, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'ARV_LOST_DURING_PERIOD', age_min: 5, age_max: 9, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'ARV_LOST_DURING_PERIOD', age_min: 10, age_max: 14, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'ARV_LOST_DURING_PERIOD', age_min: 10, age_max: 14, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'ARV_LOST_DURING_PERIOD', age_min: 15, age_max: 19, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'ARV_LOST_DURING_PERIOD', age_min: 15, age_max: 19, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'ARV_LOST_DURING_PERIOD', age_min: 20, age_max: 24, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'ARV_LOST_DURING_PERIOD', age_min: 20, age_max: 24, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'ARV_LOST_DURING_PERIOD', age_min: 25, age_max: 49, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'ARV_LOST_DURING_PERIOD', age_min: 25, age_max: 49, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'ARV_LOST_DURING_PERIOD', age_min: 50, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'ARV_LOST_DURING_PERIOD', age_min: 50, gender: 1}</t>
+    <t>{key: 'ARV_LOST', gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_LOST', gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_LOST', gender: 99}</t>
+  </si>
+  <si>
+    <t>{key:'ARV_LOST', age_max: 15}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_LOST', age_min: 15}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_LOST', age_is_null: true}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_LOST'}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_LOST', age_max: 15, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_LOST', age_max: 15, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_LOST', age_min: 15, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_LOST', age_min: 15, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_LOST', age_max: 1, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_LOST', age_max: 1, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_LOST', age_min: 1, age_max: 4, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_LOST', age_min: 5, age_max: 9, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_LOST', age_min: 5, age_max: 9, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_LOST', age_min: 10, age_max: 14, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_LOST', age_min: 10, age_max: 14, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_LOST', age_min: 15, age_max: 19, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_LOST', age_min: 15, age_max: 19, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_LOST', age_min: 20, age_max: 24, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_LOST', age_min: 20, age_max: 24, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_LOST', age_min: 25, age_max: 49, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_LOST', age_min: 25, age_max: 49, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_LOST', age_min: 50, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_LOST', age_min: 50, gender: 1}</t>
   </si>
   <si>
     <t>Nombre Total d’adultes et d’enfants sous antirétroviraux Décédés au cours au cours de la période de raportage (H)</t>
   </si>
   <si>
-    <t>{key: 'ARV_DEAD_DURING_PERIOD', gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'ARV_DEAD_DURING_PERIOD', gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'ARV_DEAD_DURING_PERIOD', gender: 99}</t>
-  </si>
-  <si>
-    <t>{key:'ARV_DEAD_DURING_PERIOD', age_max: 15}</t>
-  </si>
-  <si>
-    <t>{key: 'ARV_DEAD_DURING_PERIOD', age_min: 15}</t>
-  </si>
-  <si>
-    <t>{key: 'ARV_DEAD_DURING_PERIOD', age_is_null: true}</t>
-  </si>
-  <si>
-    <t>{key: 'ARV_DEAD_DURING_PERIOD'}</t>
-  </si>
-  <si>
-    <t>{key: 'ARV_DEAD_DURING_PERIOD', age_max: 15, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'ARV_DEAD_DURING_PERIOD', age_max: 15, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'ARV_DEAD_DURING_PERIOD', age_min: 15, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'ARV_DEAD_DURING_PERIOD', age_min: 15, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'ARV_DEAD_DURING_PERIOD', age_max: 1, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'ARV_DEAD_DURING_PERIOD', age_max: 1, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'ARV_DEAD_DURING_PERIOD', age_min: 1, age_max: 4, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'ARV_DEAD_DURING_PERIOD', age_min: 5, age_max: 9, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'ARV_DEAD_DURING_PERIOD', age_min: 5, age_max: 9, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'ARV_DEAD_DURING_PERIOD', age_min: 10, age_max: 14, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'ARV_DEAD_DURING_PERIOD', age_min: 10, age_max: 14, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'ARV_DEAD_DURING_PERIOD', age_min: 15, age_max: 19, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'ARV_DEAD_DURING_PERIOD', age_min: 15, age_max: 19, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'ARV_DEAD_DURING_PERIOD', age_min: 20, age_max: 24, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'ARV_DEAD_DURING_PERIOD', age_min: 20, age_max: 24, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'ARV_DEAD_DURING_PERIOD', age_min: 25, age_max: 49, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'ARV_DEAD_DURING_PERIOD', age_min: 25, age_max: 49, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'ARV_DEAD_DURING_PERIOD', age_min: 50, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'ARV_DEAD_DURING_PERIOD', age_min: 50, gender: 1}</t>
+    <t>{key: 'ARV_DEAD', gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_DEAD', gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_DEAD', gender: 99}</t>
+  </si>
+  <si>
+    <t>{key:'ARV_DEAD', age_max: 15}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_DEAD', age_min: 15}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_DEAD', age_is_null: true}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_DEAD'}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_DEAD', age_max: 15, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_DEAD', age_max: 15, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_DEAD', age_min: 15, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_DEAD', age_min: 15, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_DEAD', age_max: 1, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_DEAD', age_max: 1, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_DEAD', age_min: 1, age_max: 4, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_DEAD', age_min: 5, age_max: 9, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_DEAD', age_min: 5, age_max: 9, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_DEAD', age_min: 10, age_max: 14, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_DEAD', age_min: 10, age_max: 14, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_DEAD', age_min: 15, age_max: 19, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_DEAD', age_min: 15, age_max: 19, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_DEAD', age_min: 20, age_max: 24, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_DEAD', age_min: 20, age_max: 24, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_DEAD', age_min: 25, age_max: 49, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_DEAD', age_min: 25, age_max: 49, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_DEAD', age_min: 50, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_DEAD', age_min: 50, gender: 1}</t>
   </si>
   <si>
     <t>Nombre Total d’adultes et d’enfants sous antirétroviraux Ayant arrêté le traitement au cours au cours de la période de raportage (I)</t>
   </si>
   <si>
-    <t>{key: 'ARV_STOPPED_DURING_PERIOD', gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'ARV_STOPPED_DURING_PERIOD', gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'ARV_STOPPED_DURING_PERIOD', gender: 99}</t>
-  </si>
-  <si>
-    <t>{key:'ARV_STOPPED_DURING_PERIOD', age_max: 15}</t>
-  </si>
-  <si>
-    <t>{key: 'ARV_STOPPED_DURING_PERIOD', age_min: 15}</t>
-  </si>
-  <si>
-    <t>{key: 'ARV_STOPPED_DURING_PERIOD', age_is_null: true}</t>
-  </si>
-  <si>
-    <t>{key: 'ARV_STOPPED_DURING_PERIOD'}</t>
-  </si>
-  <si>
-    <t>{key: 'ARV_STOPPED_DURING_PERIOD', age_max: 15, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'ARV_STOPPED_DURING_PERIOD', age_max: 15, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'ARV_STOPPED_DURING_PERIOD', age_min: 15, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'ARV_STOPPED_DURING_PERIOD', age_min: 15, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'ARV_STOPPED_DURING_PERIOD', age_max: 1, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'ARV_STOPPED_DURING_PERIOD', age_max: 1, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'ARV_STOPPED_DURING_PERIOD', age_min: 1, age_max: 4, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'ARV_STOPPED_DURING_PERIOD', age_min: 5, age_max: 9, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'ARV_STOPPED_DURING_PERIOD', age_min: 5, age_max: 9, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'ARV_STOPPED_DURING_PERIOD', age_min: 10, age_max: 14, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'ARV_STOPPED_DURING_PERIOD', age_min: 10, age_max: 14, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'ARV_STOPPED_DURING_PERIOD', age_min: 15, age_max: 19, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'ARV_STOPPED_DURING_PERIOD', age_min: 15, age_max: 19, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'ARV_STOPPED_DURING_PERIOD', age_min: 20, age_max: 24, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'ARV_STOPPED_DURING_PERIOD', age_min: 20, age_max: 24, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'ARV_STOPPED_DURING_PERIOD', age_min: 25, age_max: 49, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'ARV_STOPPED_DURING_PERIOD', age_min: 25, age_max: 49, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'ARV_STOPPED_DURING_PERIOD', age_min: 50, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'ARV_STOPPED_DURING_PERIOD', age_min: 50, gender: 1}</t>
+    <t>{key: 'ARV_STOPPED', gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_STOPPED', gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_STOPPED', gender: 99}</t>
+  </si>
+  <si>
+    <t>{key:'ARV_STOPPED', age_max: 15}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_STOPPED', age_min: 15}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_STOPPED', age_is_null: true}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_STOPPED'}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_STOPPED', age_max: 15, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_STOPPED', age_max: 15, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_STOPPED', age_min: 15, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_STOPPED', age_min: 15, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_STOPPED', age_max: 1, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_STOPPED', age_max: 1, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_STOPPED', age_min: 1, age_max: 4, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_STOPPED', age_min: 5, age_max: 9, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_STOPPED', age_min: 5, age_max: 9, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_STOPPED', age_min: 10, age_max: 14, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_STOPPED', age_min: 10, age_max: 14, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_STOPPED', age_min: 15, age_max: 19, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_STOPPED', age_min: 15, age_max: 19, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_STOPPED', age_min: 20, age_max: 24, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_STOPPED', age_min: 20, age_max: 24, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_STOPPED', age_min: 25, age_max: 49, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_STOPPED', age_min: 25, age_max: 49, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_STOPPED', age_min: 50, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_STOPPED', age_min: 50, gender: 1}</t>
   </si>
   <si>
     <t>Nombre Total d’adultes et d’enfants sous antirétroviraux transférés au cours au cours de la période de raportage (J)</t>
   </si>
   <si>
-    <t>{key: 'ARV_TRANSFERRED_DURING_PERIOD', gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'ARV_TRANSFERRED_DURING_PERIOD', gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'ARV_TRANSFERRED_DURING_PERIOD', gender: 99}</t>
-  </si>
-  <si>
-    <t>{key:'ARV_TRANSFERRED_DURING_PERIOD', age_max: 15}</t>
-  </si>
-  <si>
-    <t>{key: 'ARV_TRANSFERRED_DURING_PERIOD', age_min: 15}</t>
-  </si>
-  <si>
-    <t>{key: 'ARV_TRANSFERRED_DURING_PERIOD', age_is_null: true}</t>
-  </si>
-  <si>
-    <t>{key: 'ARV_TRANSFERRED_DURING_PERIOD'}</t>
-  </si>
-  <si>
-    <t>{key: 'ARV_TRANSFERRED_DURING_PERIOD', age_max: 15, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'ARV_TRANSFERRED_DURING_PERIOD', age_max: 15, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'ARV_TRANSFERRED_DURING_PERIOD', age_min: 15, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'ARV_TRANSFERRED_DURING_PERIOD', age_min: 15, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'ARV_TRANSFERRED_DURING_PERIOD', age_max: 1, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'ARV_TRANSFERRED_DURING_PERIOD', age_max: 1, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'ARV_TRANSFERRED_DURING_PERIOD', age_min: 1, age_max: 4, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'ARV_TRANSFERRED_DURING_PERIOD', age_min: 5, age_max: 9, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'ARV_TRANSFERRED_DURING_PERIOD', age_min: 5, age_max: 9, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'ARV_TRANSFERRED_DURING_PERIOD', age_min: 10, age_max: 14, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'ARV_TRANSFERRED_DURING_PERIOD', age_min: 10, age_max: 14, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'ARV_TRANSFERRED_DURING_PERIOD', age_min: 15, age_max: 19, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'ARV_TRANSFERRED_DURING_PERIOD', age_min: 15, age_max: 19, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'ARV_TRANSFERRED_DURING_PERIOD', age_min: 20, age_max: 24, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'ARV_TRANSFERRED_DURING_PERIOD', age_min: 20, age_max: 24, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'ARV_TRANSFERRED_DURING_PERIOD', age_min: 25, age_max: 49, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'ARV_TRANSFERRED_DURING_PERIOD', age_min: 25, age_max: 49, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'ARV_TRANSFERRED_DURING_PERIOD', age_min: 50, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'ARV_TRANSFERRED_DURING_PERIOD', age_min: 50, gender: 1}</t>
+    <t>{key: 'ARV_TRANSFERRED', gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_TRANSFERRED', gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_TRANSFERRED', gender: 99}</t>
+  </si>
+  <si>
+    <t>{key:'ARV_TRANSFERRED', age_max: 15}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_TRANSFERRED', age_min: 15}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_TRANSFERRED', age_is_null: true}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_TRANSFERRED'}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_TRANSFERRED', age_max: 15, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_TRANSFERRED', age_max: 15, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_TRANSFERRED', age_min: 15, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_TRANSFERRED', age_min: 15, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_TRANSFERRED', age_max: 1, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_TRANSFERRED', age_max: 1, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_TRANSFERRED', age_min: 1, age_max: 4, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_TRANSFERRED', age_min: 5, age_max: 9, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_TRANSFERRED', age_min: 5, age_max: 9, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_TRANSFERRED', age_min: 10, age_max: 14, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_TRANSFERRED', age_min: 10, age_max: 14, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_TRANSFERRED', age_min: 15, age_max: 19, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_TRANSFERRED', age_min: 15, age_max: 19, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_TRANSFERRED', age_min: 20, age_max: 24, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_TRANSFERRED', age_min: 20, age_max: 24, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_TRANSFERRED', age_min: 25, age_max: 49, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_TRANSFERRED', age_min: 25, age_max: 49, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_TRANSFERRED', age_min: 50, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'ARV_TRANSFERRED', age_min: 50, gender: 1}</t>
   </si>
   <si>
     <t>Nombre d’adultes et d’enfants qui sont sous TARV (Anciens et Nouveaux poursuivant les ARV) à la fin du 1er semestre 2016 (au 30 juin 2016)  K=(A+B+C+D+E) -(G+H+I+J)</t>
@@ -1476,244 +1476,244 @@
     <t>Nombre d’adultes et d’enfants infectés par le VIH inscrits dans les soins de l’infection à VIH (pré- TAR, TAR, PTME) chez lesquels une recherche de la tuberculose a été effectuée au cours de la période de rapportage (Dépistage de la TB chez les PVVIH suivies)</t>
   </si>
   <si>
-    <t>{key: 'TB_RESEARCH_DURING_PERIOD', gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'TB_RESEARCH_DURING_PERIOD', gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'TB_RESEARCH_DURING_PERIOD', gender: 99}</t>
-  </si>
-  <si>
-    <t>{key:'TB_RESEARCH_DURING_PERIOD', age_max: 15}</t>
-  </si>
-  <si>
-    <t>{key: 'TB_RESEARCH_DURING_PERIOD', age_min: 15}</t>
-  </si>
-  <si>
-    <t>{key: 'TB_RESEARCH_DURING_PERIOD', age_is_null: true}</t>
-  </si>
-  <si>
-    <t>{key: 'TB_RESEARCH_DURING_PERIOD'}</t>
-  </si>
-  <si>
-    <t>{key: 'TB_RESEARCH_DURING_PERIOD', age_max: 15, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'TB_RESEARCH_DURING_PERIOD', age_max: 15, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'TB_RESEARCH_DURING_PERIOD', age_min: 15, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'TB_RESEARCH_DURING_PERIOD', age_min: 15, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'TB_RESEARCH_DURING_PERIOD', age_max: 1, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'TB_RESEARCH_DURING_PERIOD', age_max: 1, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'TB_RESEARCH_DURING_PERIOD', age_min: 1, age_max: 4, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'TB_RESEARCH_DURING_PERIOD', age_min: 5, age_max: 9, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'TB_RESEARCH_DURING_PERIOD', age_min: 5, age_max: 9, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'TB_RESEARCH_DURING_PERIOD', age_min: 10, age_max: 14, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'TB_RESEARCH_DURING_PERIOD', age_min: 10, age_max: 14, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'TB_RESEARCH_DURING_PERIOD', age_min: 15, age_max: 19, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'TB_RESEARCH_DURING_PERIOD', age_min: 15, age_max: 19, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'TB_RESEARCH_DURING_PERIOD', age_min: 20, age_max: 24, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'TB_RESEARCH_DURING_PERIOD', age_min: 20, age_max: 24, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'TB_RESEARCH_DURING_PERIOD', age_min: 25, age_max: 49, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'TB_RESEARCH_DURING_PERIOD', age_min: 25, age_max: 49, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'TB_RESEARCH_DURING_PERIOD', age_min: 50, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'TB_RESEARCH_DURING_PERIOD', age_min: 50, gender: 1}</t>
+    <t>{key: 'TB_RESEARCH', gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_RESEARCH', gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_RESEARCH', gender: 99}</t>
+  </si>
+  <si>
+    <t>{key:'TB_RESEARCH', age_max: 15}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_RESEARCH', age_min: 15}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_RESEARCH', age_is_null: true}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_RESEARCH'}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_RESEARCH', age_max: 15, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_RESEARCH', age_max: 15, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_RESEARCH', age_min: 15, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_RESEARCH', age_min: 15, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_RESEARCH', age_max: 1, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_RESEARCH', age_max: 1, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_RESEARCH', age_min: 1, age_max: 4, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_RESEARCH', age_min: 5, age_max: 9, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_RESEARCH', age_min: 5, age_max: 9, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_RESEARCH', age_min: 10, age_max: 14, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_RESEARCH', age_min: 10, age_max: 14, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_RESEARCH', age_min: 15, age_max: 19, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_RESEARCH', age_min: 15, age_max: 19, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_RESEARCH', age_min: 20, age_max: 24, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_RESEARCH', age_min: 20, age_max: 24, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_RESEARCH', age_min: 25, age_max: 49, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_RESEARCH', age_min: 25, age_max: 49, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_RESEARCH', age_min: 50, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_RESEARCH', age_min: 50, gender: 1}</t>
   </si>
   <si>
     <t>Nombre de personnes vivant avec le VIH  inscrits dans les soins de l’infection à VIH (pré- TAR, TAR, PTME) chez lesquels une tuberculose évolutive a été diagnostiquée au cours de la période de rapportage</t>
   </si>
   <si>
-    <t>{key: 'TB_DIAGNOSIS_DURING_PERIOD', gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'TB_DIAGNOSIS_DURING_PERIOD', gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'TB_DIAGNOSIS_DURING_PERIOD', gender: 99}</t>
-  </si>
-  <si>
-    <t>{key:'TB_DIAGNOSIS_DURING_PERIOD', age_max: 15}</t>
-  </si>
-  <si>
-    <t>{key: 'TB_DIAGNOSIS_DURING_PERIOD', age_min: 15}</t>
-  </si>
-  <si>
-    <t>{key: 'TB_DIAGNOSIS_DURING_PERIOD', age_is_null: true}</t>
-  </si>
-  <si>
-    <t>{key: 'TB_DIAGNOSIS_DURING_PERIOD'}</t>
-  </si>
-  <si>
-    <t>{key: 'TB_DIAGNOSIS_DURING_PERIOD', age_max: 15, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'TB_DIAGNOSIS_DURING_PERIOD', age_max: 15, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'TB_DIAGNOSIS_DURING_PERIOD', age_min: 15, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'TB_DIAGNOSIS_DURING_PERIOD', age_min: 15, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'TB_DIAGNOSIS_DURING_PERIOD', age_max: 1, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'TB_DIAGNOSIS_DURING_PERIOD', age_max: 1, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'TB_DIAGNOSIS_DURING_PERIOD', age_min: 1, age_max: 4, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'TB_DIAGNOSIS_DURING_PERIOD', age_min: 5, age_max: 9, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'TB_DIAGNOSIS_DURING_PERIOD', age_min: 5, age_max: 9, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'TB_DIAGNOSIS_DURING_PERIOD', age_min: 10, age_max: 14, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'TB_DIAGNOSIS_DURING_PERIOD', age_min: 10, age_max: 14, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'TB_DIAGNOSIS_DURING_PERIOD', age_min: 15, age_max: 19, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'TB_DIAGNOSIS_DURING_PERIOD', age_min: 15, age_max: 19, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'TB_DIAGNOSIS_DURING_PERIOD', age_min: 20, age_max: 24, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'TB_DIAGNOSIS_DURING_PERIOD', age_min: 20, age_max: 24, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'TB_DIAGNOSIS_DURING_PERIOD', age_min: 25, age_max: 49, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'TB_DIAGNOSIS_DURING_PERIOD', age_min: 25, age_max: 49, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'TB_DIAGNOSIS_DURING_PERIOD', age_min: 50, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'TB_DIAGNOSIS_DURING_PERIOD', age_min: 50, gender: 1}</t>
+    <t>{key: 'TB_DIAGNOSIS', gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_DIAGNOSIS', gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_DIAGNOSIS', gender: 99}</t>
+  </si>
+  <si>
+    <t>{key:'TB_DIAGNOSIS', age_max: 15}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_DIAGNOSIS', age_min: 15}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_DIAGNOSIS', age_is_null: true}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_DIAGNOSIS'}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_DIAGNOSIS', age_max: 15, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_DIAGNOSIS', age_max: 15, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_DIAGNOSIS', age_min: 15, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_DIAGNOSIS', age_min: 15, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_DIAGNOSIS', age_max: 1, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_DIAGNOSIS', age_max: 1, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_DIAGNOSIS', age_min: 1, age_max: 4, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_DIAGNOSIS', age_min: 5, age_max: 9, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_DIAGNOSIS', age_min: 5, age_max: 9, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_DIAGNOSIS', age_min: 10, age_max: 14, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_DIAGNOSIS', age_min: 10, age_max: 14, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_DIAGNOSIS', age_min: 15, age_max: 19, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_DIAGNOSIS', age_min: 15, age_max: 19, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_DIAGNOSIS', age_min: 20, age_max: 24, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_DIAGNOSIS', age_min: 20, age_max: 24, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_DIAGNOSIS', age_min: 25, age_max: 49, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_DIAGNOSIS', age_min: 25, age_max: 49, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_DIAGNOSIS', age_min: 50, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_DIAGNOSIS', age_min: 50, gender: 1}</t>
   </si>
   <si>
     <t>Nombre de personnes vivant avec le VIH  inscrits dans les soins de l’infection à VIH (pré- TAR, TAR, PTME)  qui pésentent une tuberculose évolutive mis sous traitement concomitant Antiberculeux et ARV au cours de la période de rapportage</t>
   </si>
   <si>
-    <t>{key: 'TB_TREATMENT_STARTED_DURING_PERIOD', gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'TB_TREATMENT_STARTED_DURING_PERIOD', gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'TB_TREATMENT_STARTED_DURING_PERIOD', gender: 99}</t>
-  </si>
-  <si>
-    <t>{key:'TB_TREATMENT_STARTED_DURING_PERIOD', age_max: 15}</t>
-  </si>
-  <si>
-    <t>{key: 'TB_TREATMENT_STARTED_DURING_PERIOD', age_min: 15}</t>
-  </si>
-  <si>
-    <t>{key: 'TB_TREATMENT_STARTED_DURING_PERIOD', age_is_null: true}</t>
-  </si>
-  <si>
-    <t>{key: 'TB_TREATMENT_STARTED_DURING_PERIOD'}</t>
-  </si>
-  <si>
-    <t>{key: 'TB_TREATMENT_STARTED_DURING_PERIOD', age_max: 15, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'TB_TREATMENT_STARTED_DURING_PERIOD', age_max: 15, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'TB_TREATMENT_STARTED_DURING_PERIOD', age_min: 15, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'TB_TREATMENT_STARTED_DURING_PERIOD', age_min: 15, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'TB_TREATMENT_STARTED_DURING_PERIOD', age_max: 1, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'TB_TREATMENT_STARTED_DURING_PERIOD', age_max: 1, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'TB_TREATMENT_STARTED_DURING_PERIOD', age_min: 1, age_max: 4, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'TB_TREATMENT_STARTED_DURING_PERIOD', age_min: 5, age_max: 9, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'TB_TREATMENT_STARTED_DURING_PERIOD', age_min: 5, age_max: 9, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'TB_TREATMENT_STARTED_DURING_PERIOD', age_min: 10, age_max: 14, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'TB_TREATMENT_STARTED_DURING_PERIOD', age_min: 10, age_max: 14, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'TB_TREATMENT_STARTED_DURING_PERIOD', age_min: 15, age_max: 19, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'TB_TREATMENT_STARTED_DURING_PERIOD', age_min: 15, age_max: 19, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'TB_TREATMENT_STARTED_DURING_PERIOD', age_min: 20, age_max: 24, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'TB_TREATMENT_STARTED_DURING_PERIOD', age_min: 20, age_max: 24, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'TB_TREATMENT_STARTED_DURING_PERIOD', age_min: 25, age_max: 49, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'TB_TREATMENT_STARTED_DURING_PERIOD', age_min: 25, age_max: 49, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'TB_TREATMENT_STARTED_DURING_PERIOD', age_min: 50, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'TB_TREATMENT_STARTED_DURING_PERIOD', age_min: 50, gender: 1}</t>
+    <t>{key: 'TB_TREATMENT_STARTED', gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_TREATMENT_STARTED', gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_TREATMENT_STARTED', gender: 99}</t>
+  </si>
+  <si>
+    <t>{key:'TB_TREATMENT_STARTED', age_max: 15}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_TREATMENT_STARTED', age_min: 15}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_TREATMENT_STARTED', age_is_null: true}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_TREATMENT_STARTED'}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_TREATMENT_STARTED', age_max: 15, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_TREATMENT_STARTED', age_max: 15, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_TREATMENT_STARTED', age_min: 15, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_TREATMENT_STARTED', age_min: 15, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_TREATMENT_STARTED', age_max: 1, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_TREATMENT_STARTED', age_max: 1, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_TREATMENT_STARTED', age_min: 1, age_max: 4, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_TREATMENT_STARTED', age_min: 5, age_max: 9, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_TREATMENT_STARTED', age_min: 5, age_max: 9, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_TREATMENT_STARTED', age_min: 10, age_max: 14, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_TREATMENT_STARTED', age_min: 10, age_max: 14, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_TREATMENT_STARTED', age_min: 15, age_max: 19, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_TREATMENT_STARTED', age_min: 15, age_max: 19, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_TREATMENT_STARTED', age_min: 20, age_max: 24, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_TREATMENT_STARTED', age_min: 20, age_max: 24, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_TREATMENT_STARTED', age_min: 25, age_max: 49, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_TREATMENT_STARTED', age_min: 25, age_max: 49, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_TREATMENT_STARTED', age_min: 50, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_TREATMENT_STARTED', age_min: 50, gender: 1}</t>
   </si>
   <si>
     <t>Nombre d’adultes et d’enfants atteints de Tuberculose et inscrits dans les soins de la tuberculose (CT - CDT - CAT) chez lesquels une recherche de VIH a été effectuée au cours de la période de rapportage (Dépistage du VIH chez les patients TB)</t>
@@ -1722,163 +1722,163 @@
     <t>Nombre d’adultes et d’enfants atteints de Tuberculose et inscrits dans les soins de la tuberculose (CT - CDT - CAT)  dépisté séropositifs (VIH+)  mis sous ARV au cours de la période de rapportage</t>
   </si>
   <si>
-    <t>{key: 'TB_VIH_POSITIVE_ARV_STARTED_DURING_PERIOD', gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'TB_VIH_POSITIVE_ARV_STARTED_DURING_PERIOD', gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'TB_VIH_POSITIVE_ARV_STARTED_DURING_PERIOD', gender: 99}</t>
-  </si>
-  <si>
-    <t>{key:'TB_VIH_POSITIVE_ARV_STARTED_DURING_PERIOD', age_max: 15}</t>
-  </si>
-  <si>
-    <t>{key: 'TB_VIH_POSITIVE_ARV_STARTED_DURING_PERIOD', age_min: 15}</t>
-  </si>
-  <si>
-    <t>{key: 'TB_VIH_POSITIVE_ARV_STARTED_DURING_PERIOD', age_is_null: true}</t>
-  </si>
-  <si>
-    <t>{key: 'TB_VIH_POSITIVE_ARV_STARTED_DURING_PERIOD'}</t>
-  </si>
-  <si>
-    <t>{key: 'TB_VIH_POSITIVE_ARV_STARTED_DURING_PERIOD', age_max: 15, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'TB_VIH_POSITIVE_ARV_STARTED_DURING_PERIOD', age_max: 15, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'TB_VIH_POSITIVE_ARV_STARTED_DURING_PERIOD', age_min: 15, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'TB_VIH_POSITIVE_ARV_STARTED_DURING_PERIOD', age_min: 15, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'TB_VIH_POSITIVE_ARV_STARTED_DURING_PERIOD', age_max: 1, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'TB_VIH_POSITIVE_ARV_STARTED_DURING_PERIOD', age_max: 1, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'TB_VIH_POSITIVE_ARV_STARTED_DURING_PERIOD', age_min: 1, age_max: 4, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'TB_VIH_POSITIVE_ARV_STARTED_DURING_PERIOD', age_min: 5, age_max: 9, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'TB_VIH_POSITIVE_ARV_STARTED_DURING_PERIOD', age_min: 5, age_max: 9, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'TB_VIH_POSITIVE_ARV_STARTED_DURING_PERIOD', age_min: 10, age_max: 14, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'TB_VIH_POSITIVE_ARV_STARTED_DURING_PERIOD', age_min: 10, age_max: 14, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'TB_VIH_POSITIVE_ARV_STARTED_DURING_PERIOD', age_min: 15, age_max: 19, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'TB_VIH_POSITIVE_ARV_STARTED_DURING_PERIOD', age_min: 15, age_max: 19, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'TB_VIH_POSITIVE_ARV_STARTED_DURING_PERIOD', age_min: 20, age_max: 24, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'TB_VIH_POSITIVE_ARV_STARTED_DURING_PERIOD', age_min: 20, age_max: 24, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'TB_VIH_POSITIVE_ARV_STARTED_DURING_PERIOD', age_min: 25, age_max: 49, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'TB_VIH_POSITIVE_ARV_STARTED_DURING_PERIOD', age_min: 25, age_max: 49, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'TB_VIH_POSITIVE_ARV_STARTED_DURING_PERIOD', age_min: 50, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'TB_VIH_POSITIVE_ARV_STARTED_DURING_PERIOD', age_min: 50, gender: 1}</t>
+    <t>{key: 'TB_VIH_POSITIVE_ARV_STARTED', gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_VIH_POSITIVE_ARV_STARTED', gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_VIH_POSITIVE_ARV_STARTED', gender: 99}</t>
+  </si>
+  <si>
+    <t>{key:'TB_VIH_POSITIVE_ARV_STARTED', age_max: 15}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_VIH_POSITIVE_ARV_STARTED', age_min: 15}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_VIH_POSITIVE_ARV_STARTED', age_is_null: true}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_VIH_POSITIVE_ARV_STARTED'}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_VIH_POSITIVE_ARV_STARTED', age_max: 15, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_VIH_POSITIVE_ARV_STARTED', age_max: 15, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_VIH_POSITIVE_ARV_STARTED', age_min: 15, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_VIH_POSITIVE_ARV_STARTED', age_min: 15, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_VIH_POSITIVE_ARV_STARTED', age_max: 1, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_VIH_POSITIVE_ARV_STARTED', age_max: 1, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_VIH_POSITIVE_ARV_STARTED', age_min: 1, age_max: 4, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_VIH_POSITIVE_ARV_STARTED', age_min: 5, age_max: 9, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_VIH_POSITIVE_ARV_STARTED', age_min: 5, age_max: 9, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_VIH_POSITIVE_ARV_STARTED', age_min: 10, age_max: 14, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_VIH_POSITIVE_ARV_STARTED', age_min: 10, age_max: 14, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_VIH_POSITIVE_ARV_STARTED', age_min: 15, age_max: 19, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_VIH_POSITIVE_ARV_STARTED', age_min: 15, age_max: 19, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_VIH_POSITIVE_ARV_STARTED', age_min: 20, age_max: 24, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_VIH_POSITIVE_ARV_STARTED', age_min: 20, age_max: 24, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_VIH_POSITIVE_ARV_STARTED', age_min: 25, age_max: 49, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_VIH_POSITIVE_ARV_STARTED', age_min: 25, age_max: 49, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_VIH_POSITIVE_ARV_STARTED', age_min: 50, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_VIH_POSITIVE_ARV_STARTED', age_min: 50, gender: 1}</t>
   </si>
   <si>
     <t>Nombre d’adultes et d’enfants atteints de Tuberculose et inscrits dans les soins de la tuberculose (CT - CDT - CAT)  dépisté séropositifs (VIH+)  au cours de la période de rapportage</t>
   </si>
   <si>
-    <t>{key: 'TB_VIH_POSITIVE_DURING_PERIOD', gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'TB_VIH_POSITIVE_DURING_PERIOD', gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'TB_VIH_POSITIVE_DURING_PERIOD', gender: 99}</t>
-  </si>
-  <si>
-    <t>{key:'TB_VIH_POSITIVE_DURING_PERIOD', age_max: 15}</t>
-  </si>
-  <si>
-    <t>{key: 'TB_VIH_POSITIVE_DURING_PERIOD', age_min: 15}</t>
-  </si>
-  <si>
-    <t>{key: 'TB_VIH_POSITIVE_DURING_PERIOD', age_is_null: true}</t>
-  </si>
-  <si>
-    <t>{key: 'TB_VIH_POSITIVE_DURING_PERIOD'}</t>
-  </si>
-  <si>
-    <t>{key: 'TB_VIH_POSITIVE_DURING_PERIOD', age_max: 15, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'TB_VIH_POSITIVE_DURING_PERIOD', age_max: 15, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'TB_VIH_POSITIVE_DURING_PERIOD', age_min: 15, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'TB_VIH_POSITIVE_DURING_PERIOD', age_min: 15, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'TB_VIH_POSITIVE_DURING_PERIOD', age_max: 1, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'TB_VIH_POSITIVE_DURING_PERIOD', age_max: 1, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'TB_VIH_POSITIVE_DURING_PERIOD', age_min: 1, age_max: 4, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'TB_VIH_POSITIVE_DURING_PERIOD', age_min: 5, age_max: 9, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'TB_VIH_POSITIVE_DURING_PERIOD', age_min: 5, age_max: 9, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'TB_VIH_POSITIVE_DURING_PERIOD', age_min: 10, age_max: 14, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'TB_VIH_POSITIVE_DURING_PERIOD', age_min: 10, age_max: 14, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'TB_VIH_POSITIVE_DURING_PERIOD', age_min: 15, age_max: 19, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'TB_VIH_POSITIVE_DURING_PERIOD', age_min: 15, age_max: 19, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'TB_VIH_POSITIVE_DURING_PERIOD', age_min: 20, age_max: 24, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'TB_VIH_POSITIVE_DURING_PERIOD', age_min: 20, age_max: 24, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'TB_VIH_POSITIVE_DURING_PERIOD', age_min: 25, age_max: 49, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'TB_VIH_POSITIVE_DURING_PERIOD', age_min: 25, age_max: 49, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'TB_VIH_POSITIVE_DURING_PERIOD', age_min: 50, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'TB_VIH_POSITIVE_DURING_PERIOD', age_min: 50, gender: 1}</t>
+    <t>{key: 'TB_VIH_POSITIVE', gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_VIH_POSITIVE', gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_VIH_POSITIVE', gender: 99}</t>
+  </si>
+  <si>
+    <t>{key:'TB_VIH_POSITIVE', age_max: 15}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_VIH_POSITIVE', age_min: 15}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_VIH_POSITIVE', age_is_null: true}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_VIH_POSITIVE'}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_VIH_POSITIVE', age_max: 15, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_VIH_POSITIVE', age_max: 15, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_VIH_POSITIVE', age_min: 15, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_VIH_POSITIVE', age_min: 15, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_VIH_POSITIVE', age_max: 1, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_VIH_POSITIVE', age_max: 1, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_VIH_POSITIVE', age_min: 1, age_max: 4, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_VIH_POSITIVE', age_min: 5, age_max: 9, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_VIH_POSITIVE', age_min: 5, age_max: 9, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_VIH_POSITIVE', age_min: 10, age_max: 14, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_VIH_POSITIVE', age_min: 10, age_max: 14, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_VIH_POSITIVE', age_min: 15, age_max: 19, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_VIH_POSITIVE', age_min: 15, age_max: 19, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_VIH_POSITIVE', age_min: 20, age_max: 24, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_VIH_POSITIVE', age_min: 20, age_max: 24, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_VIH_POSITIVE', age_min: 25, age_max: 49, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_VIH_POSITIVE', age_min: 25, age_max: 49, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_VIH_POSITIVE', age_min: 50, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'TB_VIH_POSITIVE', age_min: 50, gender: 1}</t>
   </si>
   <si>
     <t>Nombre d’adultes et d’enfants infectés par le VIH qui présentent une Tuberculose active et qui bénéficient à la fois d'une TARV et Antituberculeux  au cours de la période de rapportage</t>
@@ -1965,406 +1965,406 @@
     <t>Nombre d’adultes et d’enfants infectés par le VIH sous TARV qui présentent une hépatite B  au cours de la période de rapportage</t>
   </si>
   <si>
-    <t>{key: 'HEPATITIS_B_DIAGNOSIS_DURING_PERIOD', gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'HEPATITIS_B_DIAGNOSIS_DURING_PERIOD', gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'HEPATITIS_B_DIAGNOSIS_DURING_PERIOD', gender: 99}</t>
-  </si>
-  <si>
-    <t>{key:'HEPATITIS_B_DIAGNOSIS_DURING_PERIOD', age_max: 15}</t>
-  </si>
-  <si>
-    <t>{key: 'HEPATITIS_B_DIAGNOSIS_DURING_PERIOD', age_min: 15}</t>
-  </si>
-  <si>
-    <t>{key: 'HEPATITIS_B_DIAGNOSIS_DURING_PERIOD', age_is_null: true}</t>
-  </si>
-  <si>
-    <t>{key: 'HEPATITIS_B_DIAGNOSIS_DURING_PERIOD'}</t>
-  </si>
-  <si>
-    <t>{key: 'HEPATITIS_B_DIAGNOSIS_DURING_PERIOD', age_max: 15, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'HEPATITIS_B_DIAGNOSIS_DURING_PERIOD', age_max: 15, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'HEPATITIS_B_DIAGNOSIS_DURING_PERIOD', age_min: 15, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'HEPATITIS_B_DIAGNOSIS_DURING_PERIOD', age_min: 15, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'HEPATITIS_B_DIAGNOSIS_DURING_PERIOD', age_max: 1, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'HEPATITIS_B_DIAGNOSIS_DURING_PERIOD', age_max: 1, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'HEPATITIS_B_DIAGNOSIS_DURING_PERIOD', age_min: 1, age_max: 4, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'HEPATITIS_B_DIAGNOSIS_DURING_PERIOD', age_min: 5, age_max: 9, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'HEPATITIS_B_DIAGNOSIS_DURING_PERIOD', age_min: 5, age_max: 9, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'HEPATITIS_B_DIAGNOSIS_DURING_PERIOD', age_min: 10, age_max: 14, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'HEPATITIS_B_DIAGNOSIS_DURING_PERIOD', age_min: 10, age_max: 14, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'HEPATITIS_B_DIAGNOSIS_DURING_PERIOD', age_min: 15, age_max: 19, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'HEPATITIS_B_DIAGNOSIS_DURING_PERIOD', age_min: 15, age_max: 19, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'HEPATITIS_B_DIAGNOSIS_DURING_PERIOD', age_min: 20, age_max: 24, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'HEPATITIS_B_DIAGNOSIS_DURING_PERIOD', age_min: 20, age_max: 24, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'HEPATITIS_B_DIAGNOSIS_DURING_PERIOD', age_min: 25, age_max: 49, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'HEPATITIS_B_DIAGNOSIS_DURING_PERIOD', age_min: 25, age_max: 49, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'HEPATITIS_B_DIAGNOSIS_DURING_PERIOD', age_min: 50, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'HEPATITIS_B_DIAGNOSIS_DURING_PERIOD', age_min: 50, gender: 1}</t>
+    <t>{key: 'HEPATITIS_B_DIAGNOSIS', gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'HEPATITIS_B_DIAGNOSIS', gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'HEPATITIS_B_DIAGNOSIS', gender: 99}</t>
+  </si>
+  <si>
+    <t>{key:'HEPATITIS_B_DIAGNOSIS', age_max: 15}</t>
+  </si>
+  <si>
+    <t>{key: 'HEPATITIS_B_DIAGNOSIS', age_min: 15}</t>
+  </si>
+  <si>
+    <t>{key: 'HEPATITIS_B_DIAGNOSIS', age_is_null: true}</t>
+  </si>
+  <si>
+    <t>{key: 'HEPATITIS_B_DIAGNOSIS'}</t>
+  </si>
+  <si>
+    <t>{key: 'HEPATITIS_B_DIAGNOSIS', age_max: 15, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'HEPATITIS_B_DIAGNOSIS', age_max: 15, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'HEPATITIS_B_DIAGNOSIS', age_min: 15, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'HEPATITIS_B_DIAGNOSIS', age_min: 15, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'HEPATITIS_B_DIAGNOSIS', age_max: 1, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'HEPATITIS_B_DIAGNOSIS', age_max: 1, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'HEPATITIS_B_DIAGNOSIS', age_min: 1, age_max: 4, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'HEPATITIS_B_DIAGNOSIS', age_min: 5, age_max: 9, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'HEPATITIS_B_DIAGNOSIS', age_min: 5, age_max: 9, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'HEPATITIS_B_DIAGNOSIS', age_min: 10, age_max: 14, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'HEPATITIS_B_DIAGNOSIS', age_min: 10, age_max: 14, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'HEPATITIS_B_DIAGNOSIS', age_min: 15, age_max: 19, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'HEPATITIS_B_DIAGNOSIS', age_min: 15, age_max: 19, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'HEPATITIS_B_DIAGNOSIS', age_min: 20, age_max: 24, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'HEPATITIS_B_DIAGNOSIS', age_min: 20, age_max: 24, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'HEPATITIS_B_DIAGNOSIS', age_min: 25, age_max: 49, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'HEPATITIS_B_DIAGNOSIS', age_min: 25, age_max: 49, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'HEPATITIS_B_DIAGNOSIS', age_min: 50, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'HEPATITIS_B_DIAGNOSIS', age_min: 50, gender: 1}</t>
   </si>
   <si>
     <t>Nombre de personnes vivant avec le VIH et sous TARV pour lesquelles un résultat de mesure de la charge virale est disponible 12 mois après la mise en route du TARV.</t>
   </si>
   <si>
-    <t>{key: 'HAD_CV_WITHIN_12_MONTH_AFTER_ARV_START', gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'HAD_CV_WITHIN_12_MONTH_AFTER_ARV_START', gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'HAD_CV_WITHIN_12_MONTH_AFTER_ARV_START', gender: 99}</t>
-  </si>
-  <si>
-    <t>{key:'HAD_CV_WITHIN_12_MONTH_AFTER_ARV_START', age_max: 15}</t>
-  </si>
-  <si>
-    <t>{key: 'HAD_CV_WITHIN_12_MONTH_AFTER_ARV_START', age_min: 15}</t>
-  </si>
-  <si>
-    <t>{key: 'HAD_CV_WITHIN_12_MONTH_AFTER_ARV_START', age_is_null: true}</t>
-  </si>
-  <si>
-    <t>{key: 'HAD_CV_WITHIN_12_MONTH_AFTER_ARV_START'}</t>
-  </si>
-  <si>
-    <t>{key: 'HAD_CV_WITHIN_12_MONTH_AFTER_ARV_START', age_max: 15, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'HAD_CV_WITHIN_12_MONTH_AFTER_ARV_START', age_max: 15, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'HAD_CV_WITHIN_12_MONTH_AFTER_ARV_START', age_min: 15, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'HAD_CV_WITHIN_12_MONTH_AFTER_ARV_START', age_min: 15, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'HAD_CV_WITHIN_12_MONTH_AFTER_ARV_START', age_max: 1, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'HAD_CV_WITHIN_12_MONTH_AFTER_ARV_START', age_max: 1, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'HAD_CV_WITHIN_12_MONTH_AFTER_ARV_START', age_min: 1, age_max: 4, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'HAD_CV_WITHIN_12_MONTH_AFTER_ARV_START', age_min: 5, age_max: 9, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'HAD_CV_WITHIN_12_MONTH_AFTER_ARV_START', age_min: 5, age_max: 9, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'HAD_CV_WITHIN_12_MONTH_AFTER_ARV_START', age_min: 10, age_max: 14, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'HAD_CV_WITHIN_12_MONTH_AFTER_ARV_START', age_min: 10, age_max: 14, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'HAD_CV_WITHIN_12_MONTH_AFTER_ARV_START', age_min: 15, age_max: 19, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'HAD_CV_WITHIN_12_MONTH_AFTER_ARV_START', age_min: 15, age_max: 19, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'HAD_CV_WITHIN_12_MONTH_AFTER_ARV_START', age_min: 20, age_max: 24, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'HAD_CV_WITHIN_12_MONTH_AFTER_ARV_START', age_min: 20, age_max: 24, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'HAD_CV_WITHIN_12_MONTH_AFTER_ARV_START', age_min: 25, age_max: 49, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'HAD_CV_WITHIN_12_MONTH_AFTER_ARV_START', age_min: 25, age_max: 49, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'HAD_CV_WITHIN_12_MONTH_AFTER_ARV_START', age_min: 50, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'HAD_CV_WITHIN_12_MONTH_AFTER_ARV_START', age_min: 50, gender: 1}</t>
+    <t>{key: 'HAD_CV_WITHIN_12_MONTHS_AFTER_ARV_START', gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CV_WITHIN_12_MONTHS_AFTER_ARV_START', gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CV_WITHIN_12_MONTHS_AFTER_ARV_START', gender: 99}</t>
+  </si>
+  <si>
+    <t>{key:'HAD_CV_WITHIN_12_MONTHS_AFTER_ARV_START', age_max: 15}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CV_WITHIN_12_MONTHS_AFTER_ARV_START', age_min: 15}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CV_WITHIN_12_MONTHS_AFTER_ARV_START', age_is_null: true}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CV_WITHIN_12_MONTHS_AFTER_ARV_START'}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CV_WITHIN_12_MONTHS_AFTER_ARV_START', age_max: 15, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CV_WITHIN_12_MONTHS_AFTER_ARV_START', age_max: 15, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CV_WITHIN_12_MONTHS_AFTER_ARV_START', age_min: 15, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CV_WITHIN_12_MONTHS_AFTER_ARV_START', age_min: 15, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CV_WITHIN_12_MONTHS_AFTER_ARV_START', age_max: 1, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CV_WITHIN_12_MONTHS_AFTER_ARV_START', age_max: 1, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CV_WITHIN_12_MONTHS_AFTER_ARV_START', age_min: 1, age_max: 4, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CV_WITHIN_12_MONTHS_AFTER_ARV_START', age_min: 5, age_max: 9, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CV_WITHIN_12_MONTHS_AFTER_ARV_START', age_min: 5, age_max: 9, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CV_WITHIN_12_MONTHS_AFTER_ARV_START', age_min: 10, age_max: 14, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CV_WITHIN_12_MONTHS_AFTER_ARV_START', age_min: 10, age_max: 14, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CV_WITHIN_12_MONTHS_AFTER_ARV_START', age_min: 15, age_max: 19, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CV_WITHIN_12_MONTHS_AFTER_ARV_START', age_min: 15, age_max: 19, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CV_WITHIN_12_MONTHS_AFTER_ARV_START', age_min: 20, age_max: 24, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CV_WITHIN_12_MONTHS_AFTER_ARV_START', age_min: 20, age_max: 24, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CV_WITHIN_12_MONTHS_AFTER_ARV_START', age_min: 25, age_max: 49, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CV_WITHIN_12_MONTHS_AFTER_ARV_START', age_min: 25, age_max: 49, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CV_WITHIN_12_MONTHS_AFTER_ARV_START', age_min: 50, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CV_WITHIN_12_MONTHS_AFTER_ARV_START', age_min: 50, gender: 1}</t>
   </si>
   <si>
     <t>Nombre d’adultes et d’enfants infectés par le VIH qui présentent suppression charge virale (&lt;1000 copies/ml) 12 mois après la mise en route du TARV</t>
   </si>
   <si>
-    <t>{key: 'HAD_CV_INF_1000_WITHIN_12_MONTH_AFTER_ARV_START', gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'HAD_CV_INF_1000_WITHIN_12_MONTH_AFTER_ARV_START', gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'HAD_CV_INF_1000_WITHIN_12_MONTH_AFTER_ARV_START', gender: 99}</t>
-  </si>
-  <si>
-    <t>{key:'HAD_CV_INF_1000_WITHIN_12_MONTH_AFTER_ARV_START', age_max: 15}</t>
-  </si>
-  <si>
-    <t>{key: 'HAD_CV_INF_1000_WITHIN_12_MONTH_AFTER_ARV_START', age_min: 15}</t>
-  </si>
-  <si>
-    <t>{key: 'HAD_CV_INF_1000_WITHIN_12_MONTH_AFTER_ARV_START', age_is_null: true}</t>
-  </si>
-  <si>
-    <t>{key: 'HAD_CV_INF_1000_WITHIN_12_MONTH_AFTER_ARV_START'}</t>
-  </si>
-  <si>
-    <t>{key: 'HAD_CV_INF_1000_WITHIN_12_MONTH_AFTER_ARV_START', age_max: 15, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'HAD_CV_INF_1000_WITHIN_12_MONTH_AFTER_ARV_START', age_max: 15, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'HAD_CV_INF_1000_WITHIN_12_MONTH_AFTER_ARV_START', age_min: 15, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'HAD_CV_INF_1000_WITHIN_12_MONTH_AFTER_ARV_START', age_min: 15, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'HAD_CV_INF_1000_WITHIN_12_MONTH_AFTER_ARV_START', age_max: 1, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'HAD_CV_INF_1000_WITHIN_12_MONTH_AFTER_ARV_START', age_max: 1, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'HAD_CV_INF_1000_WITHIN_12_MONTH_AFTER_ARV_START', age_min: 1, age_max: 4, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'HAD_CV_INF_1000_WITHIN_12_MONTH_AFTER_ARV_START', age_min: 5, age_max: 9, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'HAD_CV_INF_1000_WITHIN_12_MONTH_AFTER_ARV_START', age_min: 5, age_max: 9, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'HAD_CV_INF_1000_WITHIN_12_MONTH_AFTER_ARV_START', age_min: 10, age_max: 14, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'HAD_CV_INF_1000_WITHIN_12_MONTH_AFTER_ARV_START', age_min: 10, age_max: 14, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'HAD_CV_INF_1000_WITHIN_12_MONTH_AFTER_ARV_START', age_min: 15, age_max: 19, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'HAD_CV_INF_1000_WITHIN_12_MONTH_AFTER_ARV_START', age_min: 15, age_max: 19, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'HAD_CV_INF_1000_WITHIN_12_MONTH_AFTER_ARV_START', age_min: 20, age_max: 24, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'HAD_CV_INF_1000_WITHIN_12_MONTH_AFTER_ARV_START', age_min: 20, age_max: 24, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'HAD_CV_INF_1000_WITHIN_12_MONTH_AFTER_ARV_START', age_min: 25, age_max: 49, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'HAD_CV_INF_1000_WITHIN_12_MONTH_AFTER_ARV_START', age_min: 25, age_max: 49, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'HAD_CV_INF_1000_WITHIN_12_MONTH_AFTER_ARV_START', age_min: 50, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'HAD_CV_INF_1000_WITHIN_12_MONTH_AFTER_ARV_START', age_min: 50, gender: 1}</t>
+    <t>{key: 'HAD_CV_INF_1000_WITHIN_12_MONTHS_AFTER_ARV_START', gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CV_INF_1000_WITHIN_12_MONTHS_AFTER_ARV_START', gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CV_INF_1000_WITHIN_12_MONTHS_AFTER_ARV_START', gender: 99}</t>
+  </si>
+  <si>
+    <t>{key:'HAD_CV_INF_1000_WITHIN_12_MONTHS_AFTER_ARV_START', age_max: 15}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CV_INF_1000_WITHIN_12_MONTHS_AFTER_ARV_START', age_min: 15}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CV_INF_1000_WITHIN_12_MONTHS_AFTER_ARV_START', age_is_null: true}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CV_INF_1000_WITHIN_12_MONTHS_AFTER_ARV_START'}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CV_INF_1000_WITHIN_12_MONTHS_AFTER_ARV_START', age_max: 15, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CV_INF_1000_WITHIN_12_MONTHS_AFTER_ARV_START', age_max: 15, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CV_INF_1000_WITHIN_12_MONTHS_AFTER_ARV_START', age_min: 15, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CV_INF_1000_WITHIN_12_MONTHS_AFTER_ARV_START', age_min: 15, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CV_INF_1000_WITHIN_12_MONTHS_AFTER_ARV_START', age_max: 1, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CV_INF_1000_WITHIN_12_MONTHS_AFTER_ARV_START', age_max: 1, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CV_INF_1000_WITHIN_12_MONTHS_AFTER_ARV_START', age_min: 1, age_max: 4, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CV_INF_1000_WITHIN_12_MONTHS_AFTER_ARV_START', age_min: 5, age_max: 9, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CV_INF_1000_WITHIN_12_MONTHS_AFTER_ARV_START', age_min: 5, age_max: 9, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CV_INF_1000_WITHIN_12_MONTHS_AFTER_ARV_START', age_min: 10, age_max: 14, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CV_INF_1000_WITHIN_12_MONTHS_AFTER_ARV_START', age_min: 10, age_max: 14, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CV_INF_1000_WITHIN_12_MONTHS_AFTER_ARV_START', age_min: 15, age_max: 19, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CV_INF_1000_WITHIN_12_MONTHS_AFTER_ARV_START', age_min: 15, age_max: 19, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CV_INF_1000_WITHIN_12_MONTHS_AFTER_ARV_START', age_min: 20, age_max: 24, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CV_INF_1000_WITHIN_12_MONTHS_AFTER_ARV_START', age_min: 20, age_max: 24, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CV_INF_1000_WITHIN_12_MONTHS_AFTER_ARV_START', age_min: 25, age_max: 49, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CV_INF_1000_WITHIN_12_MONTHS_AFTER_ARV_START', age_min: 25, age_max: 49, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CV_INF_1000_WITHIN_12_MONTHS_AFTER_ARV_START', age_min: 50, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CV_INF_1000_WITHIN_12_MONTHS_AFTER_ARV_START', age_min: 50, gender: 1}</t>
   </si>
   <si>
     <t>Nombre de personnes vivant avec le VIH et sous TARV pour lesquelles un résultat de mesure des CD4 est disponible à l'initiation du TARV   au cours de la période de rapportage</t>
   </si>
   <si>
-    <t>{key: 'HAD_CD4_AT_ARV_START_DURING_PERIOD', gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'HAD_CD4_AT_ARV_START_DURING_PERIOD', gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'HAD_CD4_AT_ARV_START_DURING_PERIOD', gender: 99}</t>
-  </si>
-  <si>
-    <t>{key:'HAD_CD4_AT_ARV_START_DURING_PERIOD', age_max: 15}</t>
-  </si>
-  <si>
-    <t>{key: 'HAD_CD4_AT_ARV_START_DURING_PERIOD', age_min: 15}</t>
-  </si>
-  <si>
-    <t>{key: 'HAD_CD4_AT_ARV_START_DURING_PERIOD', age_is_null: true}</t>
-  </si>
-  <si>
-    <t>{key: 'HAD_CD4_AT_ARV_START_DURING_PERIOD'}</t>
-  </si>
-  <si>
-    <t>{key: 'HAD_CD4_AT_ARV_START_DURING_PERIOD', age_max: 15, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'HAD_CD4_AT_ARV_START_DURING_PERIOD', age_max: 15, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'HAD_CD4_AT_ARV_START_DURING_PERIOD', age_min: 15, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'HAD_CD4_AT_ARV_START_DURING_PERIOD', age_min: 15, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'HAD_CD4_AT_ARV_START_DURING_PERIOD', age_max: 1, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'HAD_CD4_AT_ARV_START_DURING_PERIOD', age_max: 1, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'HAD_CD4_AT_ARV_START_DURING_PERIOD', age_min: 1, age_max: 4, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'HAD_CD4_AT_ARV_START_DURING_PERIOD', age_min: 5, age_max: 9, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'HAD_CD4_AT_ARV_START_DURING_PERIOD', age_min: 5, age_max: 9, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'HAD_CD4_AT_ARV_START_DURING_PERIOD', age_min: 10, age_max: 14, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'HAD_CD4_AT_ARV_START_DURING_PERIOD', age_min: 10, age_max: 14, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'HAD_CD4_AT_ARV_START_DURING_PERIOD', age_min: 15, age_max: 19, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'HAD_CD4_AT_ARV_START_DURING_PERIOD', age_min: 15, age_max: 19, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'HAD_CD4_AT_ARV_START_DURING_PERIOD', age_min: 20, age_max: 24, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'HAD_CD4_AT_ARV_START_DURING_PERIOD', age_min: 20, age_max: 24, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'HAD_CD4_AT_ARV_START_DURING_PERIOD', age_min: 25, age_max: 49, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'HAD_CD4_AT_ARV_START_DURING_PERIOD', age_min: 25, age_max: 49, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'HAD_CD4_AT_ARV_START_DURING_PERIOD', age_min: 50, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'HAD_CD4_AT_ARV_START_DURING_PERIOD', age_min: 50, gender: 1}</t>
+    <t>{key: 'HAD_CD4_AT_ARV_START', gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CD4_AT_ARV_START', gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CD4_AT_ARV_START', gender: 99}</t>
+  </si>
+  <si>
+    <t>{key:'HAD_CD4_AT_ARV_START', age_max: 15}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CD4_AT_ARV_START', age_min: 15}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CD4_AT_ARV_START', age_is_null: true}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CD4_AT_ARV_START'}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CD4_AT_ARV_START', age_max: 15, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CD4_AT_ARV_START', age_max: 15, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CD4_AT_ARV_START', age_min: 15, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CD4_AT_ARV_START', age_min: 15, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CD4_AT_ARV_START', age_max: 1, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CD4_AT_ARV_START', age_max: 1, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CD4_AT_ARV_START', age_min: 1, age_max: 4, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CD4_AT_ARV_START', age_min: 5, age_max: 9, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CD4_AT_ARV_START', age_min: 5, age_max: 9, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CD4_AT_ARV_START', age_min: 10, age_max: 14, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CD4_AT_ARV_START', age_min: 10, age_max: 14, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CD4_AT_ARV_START', age_min: 15, age_max: 19, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CD4_AT_ARV_START', age_min: 15, age_max: 19, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CD4_AT_ARV_START', age_min: 20, age_max: 24, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CD4_AT_ARV_START', age_min: 20, age_max: 24, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CD4_AT_ARV_START', age_min: 25, age_max: 49, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CD4_AT_ARV_START', age_min: 25, age_max: 49, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CD4_AT_ARV_START', age_min: 50, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'HAD_CD4_AT_ARV_START', age_min: 50, gender: 1}</t>
   </si>
   <si>
     <t>Nombre de personnes vivant avec le VIH et sous TARV pour lesquelles le taux des CD4 est &lt; 200 cells/μL à l'initiation du TARV  au cours de la période de rapportage</t>
   </si>
   <si>
-    <t>{key: 'CD4_INF_200_AT_ARV_START_DURING_PERIOD', gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'CD4_INF_200_AT_ARV_START_DURING_PERIOD', gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'CD4_INF_200_AT_ARV_START_DURING_PERIOD', gender: 99}</t>
-  </si>
-  <si>
-    <t>{key:'CD4_INF_200_AT_ARV_START_DURING_PERIOD', age_max: 15}</t>
-  </si>
-  <si>
-    <t>{key: 'CD4_INF_200_AT_ARV_START_DURING_PERIOD', age_min: 15}</t>
-  </si>
-  <si>
-    <t>{key: 'CD4_INF_200_AT_ARV_START_DURING_PERIOD', age_is_null: true}</t>
-  </si>
-  <si>
-    <t>{key: 'CD4_INF_200_AT_ARV_START_DURING_PERIOD'}</t>
-  </si>
-  <si>
-    <t>{key: 'CD4_INF_200_AT_ARV_START_DURING_PERIOD', age_max: 15, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'CD4_INF_200_AT_ARV_START_DURING_PERIOD', age_max: 15, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'CD4_INF_200_AT_ARV_START_DURING_PERIOD', age_min: 15, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'CD4_INF_200_AT_ARV_START_DURING_PERIOD', age_min: 15, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'CD4_INF_200_AT_ARV_START_DURING_PERIOD', age_max: 1, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'CD4_INF_200_AT_ARV_START_DURING_PERIOD', age_max: 1, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'CD4_INF_200_AT_ARV_START_DURING_PERIOD', age_min: 1, age_max: 4, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'CD4_INF_200_AT_ARV_START_DURING_PERIOD', age_min: 5, age_max: 9, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'CD4_INF_200_AT_ARV_START_DURING_PERIOD', age_min: 5, age_max: 9, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'CD4_INF_200_AT_ARV_START_DURING_PERIOD', age_min: 10, age_max: 14, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'CD4_INF_200_AT_ARV_START_DURING_PERIOD', age_min: 10, age_max: 14, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'CD4_INF_200_AT_ARV_START_DURING_PERIOD', age_min: 15, age_max: 19, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'CD4_INF_200_AT_ARV_START_DURING_PERIOD', age_min: 15, age_max: 19, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'CD4_INF_200_AT_ARV_START_DURING_PERIOD', age_min: 20, age_max: 24, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'CD4_INF_200_AT_ARV_START_DURING_PERIOD', age_min: 20, age_max: 24, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'CD4_INF_200_AT_ARV_START_DURING_PERIOD', age_min: 25, age_max: 49, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'CD4_INF_200_AT_ARV_START_DURING_PERIOD', age_min: 25, age_max: 49, gender: 1}</t>
-  </si>
-  <si>
-    <t>{key: 'CD4_INF_200_AT_ARV_START_DURING_PERIOD', age_min: 50, gender: 0}</t>
-  </si>
-  <si>
-    <t>{key: 'CD4_INF_200_AT_ARV_START_DURING_PERIOD', age_min: 50, gender: 1}</t>
+    <t>{key: 'CD4_INF_200_AT_ARV_START', gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'CD4_INF_200_AT_ARV_START', gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'CD4_INF_200_AT_ARV_START', gender: 99}</t>
+  </si>
+  <si>
+    <t>{key:'CD4_INF_200_AT_ARV_START', age_max: 15}</t>
+  </si>
+  <si>
+    <t>{key: 'CD4_INF_200_AT_ARV_START', age_min: 15}</t>
+  </si>
+  <si>
+    <t>{key: 'CD4_INF_200_AT_ARV_START', age_is_null: true}</t>
+  </si>
+  <si>
+    <t>{key: 'CD4_INF_200_AT_ARV_START'}</t>
+  </si>
+  <si>
+    <t>{key: 'CD4_INF_200_AT_ARV_START', age_max: 15, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'CD4_INF_200_AT_ARV_START', age_max: 15, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'CD4_INF_200_AT_ARV_START', age_min: 15, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'CD4_INF_200_AT_ARV_START', age_min: 15, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'CD4_INF_200_AT_ARV_START', age_max: 1, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'CD4_INF_200_AT_ARV_START', age_max: 1, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'CD4_INF_200_AT_ARV_START', age_min: 1, age_max: 4, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'CD4_INF_200_AT_ARV_START', age_min: 5, age_max: 9, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'CD4_INF_200_AT_ARV_START', age_min: 5, age_max: 9, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'CD4_INF_200_AT_ARV_START', age_min: 10, age_max: 14, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'CD4_INF_200_AT_ARV_START', age_min: 10, age_max: 14, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'CD4_INF_200_AT_ARV_START', age_min: 15, age_max: 19, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'CD4_INF_200_AT_ARV_START', age_min: 15, age_max: 19, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'CD4_INF_200_AT_ARV_START', age_min: 20, age_max: 24, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'CD4_INF_200_AT_ARV_START', age_min: 20, age_max: 24, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'CD4_INF_200_AT_ARV_START', age_min: 25, age_max: 49, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'CD4_INF_200_AT_ARV_START', age_min: 25, age_max: 49, gender: 1}</t>
+  </si>
+  <si>
+    <t>{key: 'CD4_INF_200_AT_ARV_START', age_min: 50, gender: 0}</t>
+  </si>
+  <si>
+    <t>{key: 'CD4_INF_200_AT_ARV_START', age_min: 50, gender: 1}</t>
   </si>
   <si>
     <t>République du Niger</t>
@@ -3226,15 +3226,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>432000</xdr:colOff>
+      <xdr:colOff>459000</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>56160</xdr:rowOff>
+      <xdr:rowOff>47160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>911880</xdr:colOff>
+      <xdr:colOff>938520</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>21600</xdr:rowOff>
+      <xdr:rowOff>12240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3247,8 +3247,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="432000" y="655920"/>
-          <a:ext cx="479880" cy="356040"/>
+          <a:off x="459000" y="646920"/>
+          <a:ext cx="479520" cy="355680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3271,7 +3271,7 @@
   <dimension ref="A1:AD65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B41" activeCellId="1" sqref="A7 B41"/>
+      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -3279,7 +3279,7 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="50.3036437246964"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.2834008097166"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.42914979757085"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.8218623481781"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.417004048583"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.4251012145749"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.3036437246964"/>
@@ -4108,7 +4108,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="18" t="s">
         <v>188</v>
       </c>
@@ -4200,7 +4200,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="28.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="35.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="18" t="s">
         <v>215</v>
       </c>
@@ -4384,7 +4384,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="40.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="18" t="s">
         <v>269</v>
       </c>
@@ -4660,7 +4660,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="30.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="18" t="s">
         <v>350</v>
       </c>
@@ -4752,7 +4752,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="24" s="19" customFormat="true" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" s="19" customFormat="true" ht="40.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="18" t="s">
         <v>377</v>
       </c>
@@ -4844,7 +4844,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="25" s="19" customFormat="true" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" s="19" customFormat="true" ht="43.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="18" t="s">
         <v>404</v>
       </c>
@@ -4936,7 +4936,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="26" s="19" customFormat="true" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" s="19" customFormat="true" ht="41" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="18" t="s">
         <v>431</v>
       </c>
@@ -5028,7 +5028,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="27" s="19" customFormat="true" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" s="19" customFormat="true" ht="40.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="18" t="s">
         <v>458</v>
       </c>
@@ -6212,7 +6212,7 @@
   <dimension ref="A1:Y59"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A7 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/resources/report_template.xlsx
+++ b/resources/report_template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="160" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="89" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="File active" sheetId="1" state="visible" r:id="rId2"/>
@@ -501,7 +501,7 @@
     <t>{key: 'ARV_RESTARTED', age_min: 50, gender: 1}</t>
   </si>
   <si>
-    <t>Nombre d’adultes et d’enfants qui ont bénéficié de TARV au cours du 1er semestre 2016 F=(A+B+C+D+E)</t>
+    <t>Nombre d’adultes et d’enfants qui ont bénéficié de TARV au cours de la période de rapportage F=(A+B+C+D+E)</t>
   </si>
   <si>
     <t>{key: 'ARV_RECEIVED', gender: 0}</t>
@@ -906,7 +906,7 @@
     <t>{key: 'ARV_TRANSFERRED', age_min: 50, gender: 1}</t>
   </si>
   <si>
-    <t>Nombre d’adultes et d’enfants qui sont sous TARV (Anciens et Nouveaux poursuivant les ARV) à la fin du 1er semestre 2016 (au 30 juin 2016)  K=(A+B+C+D+E) -(G+H+I+J)</t>
+    <t>Nombre d’adultes et d’enfants qui sont sous TARV (Anciens et Nouveaux poursuivant les ARV) au cours de la période de rapportage  K=(A+B+C+D+E) -(G+H+I+J)</t>
   </si>
   <si>
     <t>{key: 'ACTIVE_LIST', gender: 0}</t>
@@ -2578,7 +2578,7 @@
     <numFmt numFmtId="165" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* \-??\ _€_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* \-??\ _€_-;_-@_-"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2649,6 +2649,7 @@
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -2663,21 +2664,8 @@
     <font>
       <b val="true"/>
       <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial Narrow"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF4472C4"/>
-      <name val="Arial Narrow"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -2924,7 +2912,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="54">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3041,14 +3029,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="166" fontId="8" fillId="0" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3121,7 +3101,7 @@
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3141,7 +3121,7 @@
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3200,7 +3180,7 @@
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFD8D8D8"/>
-      <rgbColor rgb="FF4472C4"/>
+      <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
@@ -3226,15 +3206,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>459000</xdr:colOff>
+      <xdr:colOff>486000</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>38160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>938520</xdr:colOff>
+      <xdr:colOff>965160</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>12240</xdr:rowOff>
+      <xdr:rowOff>2880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3247,8 +3227,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="459000" y="646920"/>
-          <a:ext cx="479520" cy="355680"/>
+          <a:off x="486000" y="637920"/>
+          <a:ext cx="479160" cy="355320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3270,8 +3250,8 @@
   </sheetPr>
   <dimension ref="A1:AD65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -5121,7 +5101,7 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="63.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="29" t="s">
+      <c r="A28" s="18" t="s">
         <v>485</v>
       </c>
       <c r="B28" s="15" t="s">
@@ -5213,7 +5193,7 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="58.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="29" t="s">
+      <c r="A29" s="18" t="s">
         <v>512</v>
       </c>
       <c r="B29" s="15" t="s">
@@ -5305,7 +5285,7 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="65.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="29" t="s">
+      <c r="A30" s="18" t="s">
         <v>539</v>
       </c>
       <c r="B30" s="15" t="s">
@@ -5397,7 +5377,7 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="70.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="30" t="s">
+      <c r="A31" s="18" t="s">
         <v>566</v>
       </c>
       <c r="B31" s="15"/>
@@ -5406,7 +5386,7 @@
       <c r="E31" s="15"/>
       <c r="F31" s="15"/>
       <c r="G31" s="15"/>
-      <c r="H31" s="31"/>
+      <c r="H31" s="29"/>
       <c r="I31" s="16"/>
       <c r="J31" s="16"/>
       <c r="K31" s="16"/>
@@ -5427,11 +5407,11 @@
       <c r="Z31" s="16"/>
       <c r="AA31" s="16"/>
       <c r="AB31" s="16"/>
-      <c r="AC31" s="31"/>
-      <c r="AD31" s="32"/>
+      <c r="AC31" s="29"/>
+      <c r="AD31" s="30"/>
     </row>
     <row r="32" customFormat="false" ht="52.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="30" t="s">
+      <c r="A32" s="18" t="s">
         <v>567</v>
       </c>
       <c r="B32" s="15" t="s">
@@ -5523,7 +5503,7 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="59.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="30" t="s">
+      <c r="A33" s="18" t="s">
         <v>594</v>
       </c>
       <c r="B33" s="15" t="s">
@@ -6075,7 +6055,7 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="33" t="s">
+      <c r="A39" s="31" t="s">
         <v>756</v>
       </c>
       <c r="B39" s="15" t="s">
@@ -6222,1382 +6202,1382 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="32" t="s">
         <v>783</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="32" t="s">
         <v>784</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="32" t="s">
         <v>785</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="32" t="s">
         <v>786</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="32" t="s">
         <v>787</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="32" t="s">
         <v>788</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="34"/>
+      <c r="A8" s="32"/>
     </row>
     <row r="9" customFormat="false" ht="80.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="33" t="s">
         <v>789</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="51.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="34" t="s">
         <v>790</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="37"/>
+      <c r="A11" s="35"/>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="35" t="s">
         <v>791</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="38"/>
+      <c r="A13" s="36"/>
     </row>
     <row r="14" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="37" t="s">
         <v>792</v>
       </c>
-      <c r="B14" s="40" t="s">
+      <c r="B14" s="38" t="s">
         <v>793</v>
       </c>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40" t="s">
+      <c r="C14" s="38"/>
+      <c r="D14" s="38" t="s">
         <v>794</v>
       </c>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40" t="s">
+      <c r="E14" s="38"/>
+      <c r="F14" s="38" t="s">
         <v>795</v>
       </c>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40" t="s">
+      <c r="G14" s="38"/>
+      <c r="H14" s="38" t="s">
         <v>796</v>
       </c>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40" t="s">
+      <c r="I14" s="38"/>
+      <c r="J14" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="K14" s="40"/>
-      <c r="L14" s="40" t="s">
+      <c r="K14" s="38"/>
+      <c r="L14" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="M14" s="40"/>
-      <c r="N14" s="40" t="s">
+      <c r="M14" s="38"/>
+      <c r="N14" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="O14" s="40"/>
-      <c r="P14" s="40" t="s">
+      <c r="O14" s="38"/>
+      <c r="P14" s="38" t="s">
         <v>797</v>
       </c>
-      <c r="Q14" s="40"/>
-      <c r="R14" s="40" t="s">
+      <c r="Q14" s="38"/>
+      <c r="R14" s="38" t="s">
         <v>798</v>
       </c>
-      <c r="S14" s="40"/>
-      <c r="T14" s="40" t="s">
+      <c r="S14" s="38"/>
+      <c r="T14" s="38" t="s">
         <v>799</v>
       </c>
-      <c r="U14" s="40"/>
-      <c r="V14" s="40" t="s">
+      <c r="U14" s="38"/>
+      <c r="V14" s="38" t="s">
         <v>800</v>
       </c>
-      <c r="W14" s="40"/>
-      <c r="X14" s="41" t="s">
+      <c r="W14" s="38"/>
+      <c r="X14" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="Y14" s="41"/>
+      <c r="Y14" s="39"/>
     </row>
     <row r="15" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="39"/>
-      <c r="B15" s="42" t="s">
+      <c r="A15" s="37"/>
+      <c r="B15" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="42" t="s">
+      <c r="C15" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="42" t="s">
+      <c r="D15" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="42" t="s">
+      <c r="E15" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="42" t="s">
+      <c r="F15" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="42" t="s">
+      <c r="G15" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="H15" s="42" t="s">
+      <c r="H15" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="I15" s="42" t="s">
+      <c r="I15" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="J15" s="42" t="s">
+      <c r="J15" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="K15" s="42" t="s">
+      <c r="K15" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="L15" s="42" t="s">
+      <c r="L15" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="M15" s="42" t="s">
+      <c r="M15" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="N15" s="42" t="s">
+      <c r="N15" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="O15" s="42" t="s">
+      <c r="O15" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="P15" s="42" t="s">
+      <c r="P15" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="Q15" s="42" t="s">
+      <c r="Q15" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="R15" s="42" t="s">
+      <c r="R15" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="S15" s="42" t="s">
+      <c r="S15" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="T15" s="42" t="s">
+      <c r="T15" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="U15" s="42" t="s">
+      <c r="U15" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="V15" s="42" t="s">
+      <c r="V15" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="W15" s="42" t="s">
+      <c r="W15" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="X15" s="42" t="s">
+      <c r="X15" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="Y15" s="43" t="s">
+      <c r="Y15" s="41" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="44" t="s">
+      <c r="A16" s="42" t="s">
         <v>801</v>
       </c>
-      <c r="B16" s="44"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="44"/>
-      <c r="L16" s="44"/>
-      <c r="M16" s="44"/>
-      <c r="N16" s="44"/>
-      <c r="O16" s="44"/>
-      <c r="P16" s="44"/>
-      <c r="Q16" s="44"/>
-      <c r="R16" s="44"/>
-      <c r="S16" s="44"/>
-      <c r="T16" s="44"/>
-      <c r="U16" s="44"/>
-      <c r="V16" s="44"/>
-      <c r="W16" s="44"/>
-      <c r="X16" s="44"/>
-      <c r="Y16" s="44"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="42"/>
+      <c r="P16" s="42"/>
+      <c r="Q16" s="42"/>
+      <c r="R16" s="42"/>
+      <c r="S16" s="42"/>
+      <c r="T16" s="42"/>
+      <c r="U16" s="42"/>
+      <c r="V16" s="42"/>
+      <c r="W16" s="42"/>
+      <c r="X16" s="42"/>
+      <c r="Y16" s="42"/>
     </row>
     <row r="17" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="45" t="s">
+      <c r="A17" s="43" t="s">
         <v>802</v>
       </c>
-      <c r="B17" s="46"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="46"/>
-      <c r="K17" s="46"/>
-      <c r="L17" s="46"/>
-      <c r="M17" s="46"/>
-      <c r="N17" s="46"/>
-      <c r="O17" s="46"/>
-      <c r="P17" s="46"/>
-      <c r="Q17" s="46"/>
-      <c r="R17" s="46"/>
-      <c r="S17" s="46"/>
-      <c r="T17" s="46"/>
-      <c r="U17" s="46"/>
-      <c r="V17" s="46"/>
-      <c r="W17" s="46"/>
-      <c r="X17" s="46"/>
-      <c r="Y17" s="47"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="44"/>
+      <c r="L17" s="44"/>
+      <c r="M17" s="44"/>
+      <c r="N17" s="44"/>
+      <c r="O17" s="44"/>
+      <c r="P17" s="44"/>
+      <c r="Q17" s="44"/>
+      <c r="R17" s="44"/>
+      <c r="S17" s="44"/>
+      <c r="T17" s="44"/>
+      <c r="U17" s="44"/>
+      <c r="V17" s="44"/>
+      <c r="W17" s="44"/>
+      <c r="X17" s="44"/>
+      <c r="Y17" s="45"/>
     </row>
     <row r="18" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="43" t="s">
         <v>803</v>
       </c>
-      <c r="B18" s="46"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="46"/>
-      <c r="K18" s="46"/>
-      <c r="L18" s="46"/>
-      <c r="M18" s="46"/>
-      <c r="N18" s="46"/>
-      <c r="O18" s="46"/>
-      <c r="P18" s="46"/>
-      <c r="Q18" s="46"/>
-      <c r="R18" s="46"/>
-      <c r="S18" s="46"/>
-      <c r="T18" s="46"/>
-      <c r="U18" s="46"/>
-      <c r="V18" s="46"/>
-      <c r="W18" s="46"/>
-      <c r="X18" s="46"/>
-      <c r="Y18" s="47"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="44"/>
+      <c r="K18" s="44"/>
+      <c r="L18" s="44"/>
+      <c r="M18" s="44"/>
+      <c r="N18" s="44"/>
+      <c r="O18" s="44"/>
+      <c r="P18" s="44"/>
+      <c r="Q18" s="44"/>
+      <c r="R18" s="44"/>
+      <c r="S18" s="44"/>
+      <c r="T18" s="44"/>
+      <c r="U18" s="44"/>
+      <c r="V18" s="44"/>
+      <c r="W18" s="44"/>
+      <c r="X18" s="44"/>
+      <c r="Y18" s="45"/>
     </row>
     <row r="19" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="45" t="s">
+      <c r="A19" s="43" t="s">
         <v>804</v>
       </c>
-      <c r="B19" s="46"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="46"/>
-      <c r="K19" s="46"/>
-      <c r="L19" s="46"/>
-      <c r="M19" s="46"/>
-      <c r="N19" s="46"/>
-      <c r="O19" s="46"/>
-      <c r="P19" s="46"/>
-      <c r="Q19" s="46"/>
-      <c r="R19" s="46"/>
-      <c r="S19" s="46"/>
-      <c r="T19" s="46"/>
-      <c r="U19" s="46"/>
-      <c r="V19" s="46"/>
-      <c r="W19" s="46"/>
-      <c r="X19" s="46"/>
-      <c r="Y19" s="47"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="44"/>
+      <c r="K19" s="44"/>
+      <c r="L19" s="44"/>
+      <c r="M19" s="44"/>
+      <c r="N19" s="44"/>
+      <c r="O19" s="44"/>
+      <c r="P19" s="44"/>
+      <c r="Q19" s="44"/>
+      <c r="R19" s="44"/>
+      <c r="S19" s="44"/>
+      <c r="T19" s="44"/>
+      <c r="U19" s="44"/>
+      <c r="V19" s="44"/>
+      <c r="W19" s="44"/>
+      <c r="X19" s="44"/>
+      <c r="Y19" s="45"/>
     </row>
     <row r="20" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="45"/>
-      <c r="B20" s="46"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="46"/>
-      <c r="K20" s="46"/>
-      <c r="L20" s="46"/>
-      <c r="M20" s="46"/>
-      <c r="N20" s="46"/>
-      <c r="O20" s="46"/>
-      <c r="P20" s="46"/>
-      <c r="Q20" s="46"/>
-      <c r="R20" s="46"/>
-      <c r="S20" s="46"/>
-      <c r="T20" s="46"/>
-      <c r="U20" s="46"/>
-      <c r="V20" s="46"/>
-      <c r="W20" s="46"/>
-      <c r="X20" s="46"/>
-      <c r="Y20" s="47"/>
+      <c r="A20" s="43"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="44"/>
+      <c r="M20" s="44"/>
+      <c r="N20" s="44"/>
+      <c r="O20" s="44"/>
+      <c r="P20" s="44"/>
+      <c r="Q20" s="44"/>
+      <c r="R20" s="44"/>
+      <c r="S20" s="44"/>
+      <c r="T20" s="44"/>
+      <c r="U20" s="44"/>
+      <c r="V20" s="44"/>
+      <c r="W20" s="44"/>
+      <c r="X20" s="44"/>
+      <c r="Y20" s="45"/>
     </row>
     <row r="21" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="45"/>
-      <c r="B21" s="46"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="46"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="46"/>
-      <c r="K21" s="46"/>
-      <c r="L21" s="46"/>
-      <c r="M21" s="46"/>
-      <c r="N21" s="46"/>
-      <c r="O21" s="46"/>
-      <c r="P21" s="46"/>
-      <c r="Q21" s="46"/>
-      <c r="R21" s="46"/>
-      <c r="S21" s="46"/>
-      <c r="T21" s="46"/>
-      <c r="U21" s="46"/>
-      <c r="V21" s="46"/>
-      <c r="W21" s="46"/>
-      <c r="X21" s="46"/>
-      <c r="Y21" s="47"/>
+      <c r="A21" s="43"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="44"/>
+      <c r="J21" s="44"/>
+      <c r="K21" s="44"/>
+      <c r="L21" s="44"/>
+      <c r="M21" s="44"/>
+      <c r="N21" s="44"/>
+      <c r="O21" s="44"/>
+      <c r="P21" s="44"/>
+      <c r="Q21" s="44"/>
+      <c r="R21" s="44"/>
+      <c r="S21" s="44"/>
+      <c r="T21" s="44"/>
+      <c r="U21" s="44"/>
+      <c r="V21" s="44"/>
+      <c r="W21" s="44"/>
+      <c r="X21" s="44"/>
+      <c r="Y21" s="45"/>
     </row>
     <row r="22" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="44" t="s">
+      <c r="A22" s="42" t="s">
         <v>805</v>
       </c>
-      <c r="B22" s="44"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="44"/>
-      <c r="J22" s="44"/>
-      <c r="K22" s="44"/>
-      <c r="L22" s="44"/>
-      <c r="M22" s="44"/>
-      <c r="N22" s="44"/>
-      <c r="O22" s="44"/>
-      <c r="P22" s="44"/>
-      <c r="Q22" s="44"/>
-      <c r="R22" s="44"/>
-      <c r="S22" s="44"/>
-      <c r="T22" s="44"/>
-      <c r="U22" s="44"/>
-      <c r="V22" s="44"/>
-      <c r="W22" s="44"/>
-      <c r="X22" s="44"/>
-      <c r="Y22" s="44"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="42"/>
+      <c r="L22" s="42"/>
+      <c r="M22" s="42"/>
+      <c r="N22" s="42"/>
+      <c r="O22" s="42"/>
+      <c r="P22" s="42"/>
+      <c r="Q22" s="42"/>
+      <c r="R22" s="42"/>
+      <c r="S22" s="42"/>
+      <c r="T22" s="42"/>
+      <c r="U22" s="42"/>
+      <c r="V22" s="42"/>
+      <c r="W22" s="42"/>
+      <c r="X22" s="42"/>
+      <c r="Y22" s="42"/>
     </row>
     <row r="23" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="45" t="s">
+      <c r="A23" s="43" t="s">
         <v>806</v>
       </c>
-      <c r="B23" s="46"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="46"/>
-      <c r="I23" s="46"/>
-      <c r="J23" s="46"/>
-      <c r="K23" s="46"/>
-      <c r="L23" s="46"/>
-      <c r="M23" s="46"/>
-      <c r="N23" s="46"/>
-      <c r="O23" s="46"/>
-      <c r="P23" s="46"/>
-      <c r="Q23" s="46"/>
-      <c r="R23" s="46"/>
-      <c r="S23" s="46"/>
-      <c r="T23" s="46"/>
-      <c r="U23" s="46"/>
-      <c r="V23" s="46"/>
-      <c r="W23" s="46"/>
-      <c r="X23" s="46"/>
-      <c r="Y23" s="47"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="44"/>
+      <c r="K23" s="44"/>
+      <c r="L23" s="44"/>
+      <c r="M23" s="44"/>
+      <c r="N23" s="44"/>
+      <c r="O23" s="44"/>
+      <c r="P23" s="44"/>
+      <c r="Q23" s="44"/>
+      <c r="R23" s="44"/>
+      <c r="S23" s="44"/>
+      <c r="T23" s="44"/>
+      <c r="U23" s="44"/>
+      <c r="V23" s="44"/>
+      <c r="W23" s="44"/>
+      <c r="X23" s="44"/>
+      <c r="Y23" s="45"/>
     </row>
     <row r="24" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="45" t="s">
+      <c r="A24" s="43" t="s">
         <v>807</v>
       </c>
-      <c r="B24" s="46"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="46"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="46"/>
-      <c r="I24" s="46"/>
-      <c r="J24" s="46"/>
-      <c r="K24" s="46"/>
-      <c r="L24" s="46"/>
-      <c r="M24" s="46"/>
-      <c r="N24" s="46"/>
-      <c r="O24" s="46"/>
-      <c r="P24" s="46"/>
-      <c r="Q24" s="46"/>
-      <c r="R24" s="46"/>
-      <c r="S24" s="46"/>
-      <c r="T24" s="46"/>
-      <c r="U24" s="46"/>
-      <c r="V24" s="46"/>
-      <c r="W24" s="46"/>
-      <c r="X24" s="46"/>
-      <c r="Y24" s="47"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="44"/>
+      <c r="K24" s="44"/>
+      <c r="L24" s="44"/>
+      <c r="M24" s="44"/>
+      <c r="N24" s="44"/>
+      <c r="O24" s="44"/>
+      <c r="P24" s="44"/>
+      <c r="Q24" s="44"/>
+      <c r="R24" s="44"/>
+      <c r="S24" s="44"/>
+      <c r="T24" s="44"/>
+      <c r="U24" s="44"/>
+      <c r="V24" s="44"/>
+      <c r="W24" s="44"/>
+      <c r="X24" s="44"/>
+      <c r="Y24" s="45"/>
     </row>
     <row r="25" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="45" t="s">
+      <c r="A25" s="43" t="s">
         <v>808</v>
       </c>
-      <c r="B25" s="46"/>
-      <c r="C25" s="46"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="46"/>
-      <c r="G25" s="46"/>
-      <c r="H25" s="46"/>
-      <c r="I25" s="46"/>
-      <c r="J25" s="46"/>
-      <c r="K25" s="46"/>
-      <c r="L25" s="46"/>
-      <c r="M25" s="46"/>
-      <c r="N25" s="46"/>
-      <c r="O25" s="46"/>
-      <c r="P25" s="46"/>
-      <c r="Q25" s="46"/>
-      <c r="R25" s="46"/>
-      <c r="S25" s="46"/>
-      <c r="T25" s="46"/>
-      <c r="U25" s="46"/>
-      <c r="V25" s="46"/>
-      <c r="W25" s="46"/>
-      <c r="X25" s="46"/>
-      <c r="Y25" s="47"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="44"/>
+      <c r="M25" s="44"/>
+      <c r="N25" s="44"/>
+      <c r="O25" s="44"/>
+      <c r="P25" s="44"/>
+      <c r="Q25" s="44"/>
+      <c r="R25" s="44"/>
+      <c r="S25" s="44"/>
+      <c r="T25" s="44"/>
+      <c r="U25" s="44"/>
+      <c r="V25" s="44"/>
+      <c r="W25" s="44"/>
+      <c r="X25" s="44"/>
+      <c r="Y25" s="45"/>
     </row>
     <row r="26" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="45" t="s">
+      <c r="A26" s="43" t="s">
         <v>809</v>
       </c>
-      <c r="B26" s="46"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="46"/>
-      <c r="H26" s="46"/>
-      <c r="I26" s="46"/>
-      <c r="J26" s="46"/>
-      <c r="K26" s="46"/>
-      <c r="L26" s="46"/>
-      <c r="M26" s="46"/>
-      <c r="N26" s="46"/>
-      <c r="O26" s="46"/>
-      <c r="P26" s="46"/>
-      <c r="Q26" s="46"/>
-      <c r="R26" s="46"/>
-      <c r="S26" s="46"/>
-      <c r="T26" s="46"/>
-      <c r="U26" s="46"/>
-      <c r="V26" s="46"/>
-      <c r="W26" s="46"/>
-      <c r="X26" s="46"/>
-      <c r="Y26" s="47"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="44"/>
+      <c r="L26" s="44"/>
+      <c r="M26" s="44"/>
+      <c r="N26" s="44"/>
+      <c r="O26" s="44"/>
+      <c r="P26" s="44"/>
+      <c r="Q26" s="44"/>
+      <c r="R26" s="44"/>
+      <c r="S26" s="44"/>
+      <c r="T26" s="44"/>
+      <c r="U26" s="44"/>
+      <c r="V26" s="44"/>
+      <c r="W26" s="44"/>
+      <c r="X26" s="44"/>
+      <c r="Y26" s="45"/>
     </row>
     <row r="27" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="45"/>
-      <c r="B27" s="46"/>
-      <c r="C27" s="46"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="46"/>
-      <c r="F27" s="46"/>
-      <c r="G27" s="46"/>
-      <c r="H27" s="46"/>
-      <c r="I27" s="46"/>
-      <c r="J27" s="46"/>
-      <c r="K27" s="46"/>
-      <c r="L27" s="46"/>
-      <c r="M27" s="46"/>
-      <c r="N27" s="46"/>
-      <c r="O27" s="46"/>
-      <c r="P27" s="46"/>
-      <c r="Q27" s="46"/>
-      <c r="R27" s="46"/>
-      <c r="S27" s="46"/>
-      <c r="T27" s="46"/>
-      <c r="U27" s="46"/>
-      <c r="V27" s="46"/>
-      <c r="W27" s="46"/>
-      <c r="X27" s="46"/>
-      <c r="Y27" s="47"/>
+      <c r="A27" s="43"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="44"/>
+      <c r="J27" s="44"/>
+      <c r="K27" s="44"/>
+      <c r="L27" s="44"/>
+      <c r="M27" s="44"/>
+      <c r="N27" s="44"/>
+      <c r="O27" s="44"/>
+      <c r="P27" s="44"/>
+      <c r="Q27" s="44"/>
+      <c r="R27" s="44"/>
+      <c r="S27" s="44"/>
+      <c r="T27" s="44"/>
+      <c r="U27" s="44"/>
+      <c r="V27" s="44"/>
+      <c r="W27" s="44"/>
+      <c r="X27" s="44"/>
+      <c r="Y27" s="45"/>
     </row>
     <row r="28" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="45"/>
-      <c r="B28" s="46"/>
-      <c r="C28" s="46"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="46"/>
-      <c r="F28" s="46"/>
-      <c r="G28" s="46"/>
-      <c r="H28" s="46"/>
-      <c r="I28" s="46"/>
-      <c r="J28" s="46"/>
-      <c r="K28" s="46"/>
-      <c r="L28" s="46"/>
-      <c r="M28" s="46"/>
-      <c r="N28" s="46"/>
-      <c r="O28" s="46"/>
-      <c r="P28" s="46"/>
-      <c r="Q28" s="46"/>
-      <c r="R28" s="46"/>
-      <c r="S28" s="46"/>
-      <c r="T28" s="46"/>
-      <c r="U28" s="46"/>
-      <c r="V28" s="46"/>
-      <c r="W28" s="46"/>
-      <c r="X28" s="46"/>
-      <c r="Y28" s="47"/>
+      <c r="A28" s="43"/>
+      <c r="B28" s="44"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="44"/>
+      <c r="J28" s="44"/>
+      <c r="K28" s="44"/>
+      <c r="L28" s="44"/>
+      <c r="M28" s="44"/>
+      <c r="N28" s="44"/>
+      <c r="O28" s="44"/>
+      <c r="P28" s="44"/>
+      <c r="Q28" s="44"/>
+      <c r="R28" s="44"/>
+      <c r="S28" s="44"/>
+      <c r="T28" s="44"/>
+      <c r="U28" s="44"/>
+      <c r="V28" s="44"/>
+      <c r="W28" s="44"/>
+      <c r="X28" s="44"/>
+      <c r="Y28" s="45"/>
     </row>
     <row r="29" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="48" t="s">
+      <c r="A29" s="46" t="s">
         <v>810</v>
       </c>
-      <c r="B29" s="46"/>
-      <c r="C29" s="46"/>
-      <c r="D29" s="46"/>
-      <c r="E29" s="46"/>
-      <c r="F29" s="46"/>
-      <c r="G29" s="46"/>
-      <c r="H29" s="46"/>
-      <c r="I29" s="46"/>
-      <c r="J29" s="46"/>
-      <c r="K29" s="46"/>
-      <c r="L29" s="46"/>
-      <c r="M29" s="46"/>
-      <c r="N29" s="46"/>
-      <c r="O29" s="46"/>
-      <c r="P29" s="46"/>
-      <c r="Q29" s="46"/>
-      <c r="R29" s="46"/>
-      <c r="S29" s="46"/>
-      <c r="T29" s="46"/>
-      <c r="U29" s="46"/>
-      <c r="V29" s="46"/>
-      <c r="W29" s="46"/>
-      <c r="X29" s="46"/>
-      <c r="Y29" s="47"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="44"/>
+      <c r="K29" s="44"/>
+      <c r="L29" s="44"/>
+      <c r="M29" s="44"/>
+      <c r="N29" s="44"/>
+      <c r="O29" s="44"/>
+      <c r="P29" s="44"/>
+      <c r="Q29" s="44"/>
+      <c r="R29" s="44"/>
+      <c r="S29" s="44"/>
+      <c r="T29" s="44"/>
+      <c r="U29" s="44"/>
+      <c r="V29" s="44"/>
+      <c r="W29" s="44"/>
+      <c r="X29" s="44"/>
+      <c r="Y29" s="45"/>
     </row>
     <row r="30" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="44" t="s">
+      <c r="A30" s="42" t="s">
         <v>811</v>
       </c>
-      <c r="B30" s="44"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="44"/>
-      <c r="H30" s="44"/>
-      <c r="I30" s="44"/>
-      <c r="J30" s="44"/>
-      <c r="K30" s="44"/>
-      <c r="L30" s="44"/>
-      <c r="M30" s="44"/>
-      <c r="N30" s="44"/>
-      <c r="O30" s="44"/>
-      <c r="P30" s="44"/>
-      <c r="Q30" s="44"/>
-      <c r="R30" s="44"/>
-      <c r="S30" s="44"/>
-      <c r="T30" s="44"/>
-      <c r="U30" s="44"/>
-      <c r="V30" s="44"/>
-      <c r="W30" s="44"/>
-      <c r="X30" s="44"/>
-      <c r="Y30" s="44"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="42"/>
+      <c r="K30" s="42"/>
+      <c r="L30" s="42"/>
+      <c r="M30" s="42"/>
+      <c r="N30" s="42"/>
+      <c r="O30" s="42"/>
+      <c r="P30" s="42"/>
+      <c r="Q30" s="42"/>
+      <c r="R30" s="42"/>
+      <c r="S30" s="42"/>
+      <c r="T30" s="42"/>
+      <c r="U30" s="42"/>
+      <c r="V30" s="42"/>
+      <c r="W30" s="42"/>
+      <c r="X30" s="42"/>
+      <c r="Y30" s="42"/>
     </row>
     <row r="31" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="45" t="s">
+      <c r="A31" s="43" t="s">
         <v>812</v>
       </c>
-      <c r="B31" s="46"/>
-      <c r="C31" s="46"/>
-      <c r="D31" s="46"/>
-      <c r="E31" s="46"/>
-      <c r="F31" s="46"/>
-      <c r="G31" s="46"/>
-      <c r="H31" s="46"/>
-      <c r="I31" s="46"/>
-      <c r="J31" s="46"/>
-      <c r="K31" s="46"/>
-      <c r="L31" s="46"/>
-      <c r="M31" s="46"/>
-      <c r="N31" s="46"/>
-      <c r="O31" s="46"/>
-      <c r="P31" s="46"/>
-      <c r="Q31" s="46"/>
-      <c r="R31" s="46"/>
-      <c r="S31" s="46"/>
-      <c r="T31" s="46"/>
-      <c r="U31" s="46"/>
-      <c r="V31" s="46"/>
-      <c r="W31" s="46"/>
-      <c r="X31" s="46"/>
-      <c r="Y31" s="47"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="44"/>
+      <c r="K31" s="44"/>
+      <c r="L31" s="44"/>
+      <c r="M31" s="44"/>
+      <c r="N31" s="44"/>
+      <c r="O31" s="44"/>
+      <c r="P31" s="44"/>
+      <c r="Q31" s="44"/>
+      <c r="R31" s="44"/>
+      <c r="S31" s="44"/>
+      <c r="T31" s="44"/>
+      <c r="U31" s="44"/>
+      <c r="V31" s="44"/>
+      <c r="W31" s="44"/>
+      <c r="X31" s="44"/>
+      <c r="Y31" s="45"/>
     </row>
     <row r="32" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="45" t="s">
+      <c r="A32" s="43" t="s">
         <v>813</v>
       </c>
-      <c r="B32" s="46"/>
-      <c r="C32" s="46"/>
-      <c r="D32" s="46"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="46"/>
-      <c r="H32" s="46"/>
-      <c r="I32" s="46"/>
-      <c r="J32" s="46"/>
-      <c r="K32" s="46"/>
-      <c r="L32" s="46"/>
-      <c r="M32" s="46"/>
-      <c r="N32" s="46"/>
-      <c r="O32" s="46"/>
-      <c r="P32" s="46"/>
-      <c r="Q32" s="46"/>
-      <c r="R32" s="46"/>
-      <c r="S32" s="46"/>
-      <c r="T32" s="46"/>
-      <c r="U32" s="46"/>
-      <c r="V32" s="46"/>
-      <c r="W32" s="46"/>
-      <c r="X32" s="46"/>
-      <c r="Y32" s="47"/>
+      <c r="B32" s="44"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="44"/>
+      <c r="K32" s="44"/>
+      <c r="L32" s="44"/>
+      <c r="M32" s="44"/>
+      <c r="N32" s="44"/>
+      <c r="O32" s="44"/>
+      <c r="P32" s="44"/>
+      <c r="Q32" s="44"/>
+      <c r="R32" s="44"/>
+      <c r="S32" s="44"/>
+      <c r="T32" s="44"/>
+      <c r="U32" s="44"/>
+      <c r="V32" s="44"/>
+      <c r="W32" s="44"/>
+      <c r="X32" s="44"/>
+      <c r="Y32" s="45"/>
     </row>
     <row r="33" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="45"/>
-      <c r="B33" s="46"/>
-      <c r="C33" s="46"/>
-      <c r="D33" s="46"/>
-      <c r="E33" s="46"/>
-      <c r="F33" s="46"/>
-      <c r="G33" s="46"/>
-      <c r="H33" s="46"/>
-      <c r="I33" s="46"/>
-      <c r="J33" s="46"/>
-      <c r="K33" s="46"/>
-      <c r="L33" s="46"/>
-      <c r="M33" s="46"/>
-      <c r="N33" s="46"/>
-      <c r="O33" s="46"/>
-      <c r="P33" s="46"/>
-      <c r="Q33" s="46"/>
-      <c r="R33" s="46"/>
-      <c r="S33" s="46"/>
-      <c r="T33" s="46"/>
-      <c r="U33" s="46"/>
-      <c r="V33" s="46"/>
-      <c r="W33" s="46"/>
-      <c r="X33" s="46"/>
-      <c r="Y33" s="47"/>
+      <c r="A33" s="43"/>
+      <c r="B33" s="44"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="44"/>
+      <c r="I33" s="44"/>
+      <c r="J33" s="44"/>
+      <c r="K33" s="44"/>
+      <c r="L33" s="44"/>
+      <c r="M33" s="44"/>
+      <c r="N33" s="44"/>
+      <c r="O33" s="44"/>
+      <c r="P33" s="44"/>
+      <c r="Q33" s="44"/>
+      <c r="R33" s="44"/>
+      <c r="S33" s="44"/>
+      <c r="T33" s="44"/>
+      <c r="U33" s="44"/>
+      <c r="V33" s="44"/>
+      <c r="W33" s="44"/>
+      <c r="X33" s="44"/>
+      <c r="Y33" s="45"/>
     </row>
     <row r="34" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="45"/>
-      <c r="B34" s="46"/>
-      <c r="C34" s="46"/>
-      <c r="D34" s="46"/>
-      <c r="E34" s="46"/>
-      <c r="F34" s="46"/>
-      <c r="G34" s="46"/>
-      <c r="H34" s="46"/>
-      <c r="I34" s="46"/>
-      <c r="J34" s="46"/>
-      <c r="K34" s="46"/>
-      <c r="L34" s="46"/>
-      <c r="M34" s="46"/>
-      <c r="N34" s="46"/>
-      <c r="O34" s="46"/>
-      <c r="P34" s="46"/>
-      <c r="Q34" s="46"/>
-      <c r="R34" s="46"/>
-      <c r="S34" s="46"/>
-      <c r="T34" s="46"/>
-      <c r="U34" s="46"/>
-      <c r="V34" s="46"/>
-      <c r="W34" s="46"/>
-      <c r="X34" s="46"/>
-      <c r="Y34" s="47"/>
+      <c r="A34" s="43"/>
+      <c r="B34" s="44"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="44"/>
+      <c r="J34" s="44"/>
+      <c r="K34" s="44"/>
+      <c r="L34" s="44"/>
+      <c r="M34" s="44"/>
+      <c r="N34" s="44"/>
+      <c r="O34" s="44"/>
+      <c r="P34" s="44"/>
+      <c r="Q34" s="44"/>
+      <c r="R34" s="44"/>
+      <c r="S34" s="44"/>
+      <c r="T34" s="44"/>
+      <c r="U34" s="44"/>
+      <c r="V34" s="44"/>
+      <c r="W34" s="44"/>
+      <c r="X34" s="44"/>
+      <c r="Y34" s="45"/>
     </row>
     <row r="35" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="44" t="s">
+      <c r="A35" s="42" t="s">
         <v>814</v>
       </c>
-      <c r="B35" s="44"/>
-      <c r="C35" s="44"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="44"/>
-      <c r="G35" s="44"/>
-      <c r="H35" s="44"/>
-      <c r="I35" s="44"/>
-      <c r="J35" s="44"/>
-      <c r="K35" s="44"/>
-      <c r="L35" s="44"/>
-      <c r="M35" s="44"/>
-      <c r="N35" s="44"/>
-      <c r="O35" s="44"/>
-      <c r="P35" s="44"/>
-      <c r="Q35" s="44"/>
-      <c r="R35" s="44"/>
-      <c r="S35" s="44"/>
-      <c r="T35" s="44"/>
-      <c r="U35" s="44"/>
-      <c r="V35" s="44"/>
-      <c r="W35" s="44"/>
-      <c r="X35" s="44"/>
-      <c r="Y35" s="44"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="42"/>
+      <c r="I35" s="42"/>
+      <c r="J35" s="42"/>
+      <c r="K35" s="42"/>
+      <c r="L35" s="42"/>
+      <c r="M35" s="42"/>
+      <c r="N35" s="42"/>
+      <c r="O35" s="42"/>
+      <c r="P35" s="42"/>
+      <c r="Q35" s="42"/>
+      <c r="R35" s="42"/>
+      <c r="S35" s="42"/>
+      <c r="T35" s="42"/>
+      <c r="U35" s="42"/>
+      <c r="V35" s="42"/>
+      <c r="W35" s="42"/>
+      <c r="X35" s="42"/>
+      <c r="Y35" s="42"/>
     </row>
     <row r="36" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="45"/>
-      <c r="B36" s="46"/>
-      <c r="C36" s="46"/>
-      <c r="D36" s="46"/>
-      <c r="E36" s="46"/>
-      <c r="F36" s="46"/>
-      <c r="G36" s="46"/>
-      <c r="H36" s="46"/>
-      <c r="I36" s="46"/>
-      <c r="J36" s="46"/>
-      <c r="K36" s="46"/>
-      <c r="L36" s="46"/>
-      <c r="M36" s="46"/>
-      <c r="N36" s="46"/>
-      <c r="O36" s="46"/>
-      <c r="P36" s="46"/>
-      <c r="Q36" s="46"/>
-      <c r="R36" s="46"/>
-      <c r="S36" s="46"/>
-      <c r="T36" s="46"/>
-      <c r="U36" s="46"/>
-      <c r="V36" s="46"/>
-      <c r="W36" s="46"/>
-      <c r="X36" s="46"/>
-      <c r="Y36" s="47"/>
+      <c r="A36" s="43"/>
+      <c r="B36" s="44"/>
+      <c r="C36" s="44"/>
+      <c r="D36" s="44"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="44"/>
+      <c r="H36" s="44"/>
+      <c r="I36" s="44"/>
+      <c r="J36" s="44"/>
+      <c r="K36" s="44"/>
+      <c r="L36" s="44"/>
+      <c r="M36" s="44"/>
+      <c r="N36" s="44"/>
+      <c r="O36" s="44"/>
+      <c r="P36" s="44"/>
+      <c r="Q36" s="44"/>
+      <c r="R36" s="44"/>
+      <c r="S36" s="44"/>
+      <c r="T36" s="44"/>
+      <c r="U36" s="44"/>
+      <c r="V36" s="44"/>
+      <c r="W36" s="44"/>
+      <c r="X36" s="44"/>
+      <c r="Y36" s="45"/>
     </row>
     <row r="37" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="48"/>
-      <c r="B37" s="46"/>
-      <c r="C37" s="46"/>
-      <c r="D37" s="46"/>
-      <c r="E37" s="46"/>
-      <c r="F37" s="46"/>
-      <c r="G37" s="46"/>
-      <c r="H37" s="46"/>
-      <c r="I37" s="46"/>
-      <c r="J37" s="46"/>
-      <c r="K37" s="46"/>
-      <c r="L37" s="46"/>
-      <c r="M37" s="46"/>
-      <c r="N37" s="46"/>
-      <c r="O37" s="46"/>
-      <c r="P37" s="46"/>
-      <c r="Q37" s="46"/>
-      <c r="R37" s="46"/>
-      <c r="S37" s="46"/>
-      <c r="T37" s="46"/>
-      <c r="U37" s="46"/>
-      <c r="V37" s="46"/>
-      <c r="W37" s="46"/>
-      <c r="X37" s="46"/>
-      <c r="Y37" s="47"/>
+      <c r="A37" s="46"/>
+      <c r="B37" s="44"/>
+      <c r="C37" s="44"/>
+      <c r="D37" s="44"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="44"/>
+      <c r="G37" s="44"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="44"/>
+      <c r="J37" s="44"/>
+      <c r="K37" s="44"/>
+      <c r="L37" s="44"/>
+      <c r="M37" s="44"/>
+      <c r="N37" s="44"/>
+      <c r="O37" s="44"/>
+      <c r="P37" s="44"/>
+      <c r="Q37" s="44"/>
+      <c r="R37" s="44"/>
+      <c r="S37" s="44"/>
+      <c r="T37" s="44"/>
+      <c r="U37" s="44"/>
+      <c r="V37" s="44"/>
+      <c r="W37" s="44"/>
+      <c r="X37" s="44"/>
+      <c r="Y37" s="45"/>
     </row>
     <row r="38" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="48"/>
-      <c r="B38" s="46"/>
-      <c r="C38" s="46"/>
-      <c r="D38" s="46"/>
-      <c r="E38" s="46"/>
-      <c r="F38" s="46"/>
-      <c r="G38" s="46"/>
-      <c r="H38" s="46"/>
-      <c r="I38" s="46"/>
-      <c r="J38" s="46"/>
-      <c r="K38" s="46"/>
-      <c r="L38" s="46"/>
-      <c r="M38" s="46"/>
-      <c r="N38" s="46"/>
-      <c r="O38" s="46"/>
-      <c r="P38" s="46"/>
-      <c r="Q38" s="46"/>
-      <c r="R38" s="46"/>
-      <c r="S38" s="46"/>
-      <c r="T38" s="46"/>
-      <c r="U38" s="46"/>
-      <c r="V38" s="46"/>
-      <c r="W38" s="46"/>
-      <c r="X38" s="46"/>
-      <c r="Y38" s="47"/>
+      <c r="A38" s="46"/>
+      <c r="B38" s="44"/>
+      <c r="C38" s="44"/>
+      <c r="D38" s="44"/>
+      <c r="E38" s="44"/>
+      <c r="F38" s="44"/>
+      <c r="G38" s="44"/>
+      <c r="H38" s="44"/>
+      <c r="I38" s="44"/>
+      <c r="J38" s="44"/>
+      <c r="K38" s="44"/>
+      <c r="L38" s="44"/>
+      <c r="M38" s="44"/>
+      <c r="N38" s="44"/>
+      <c r="O38" s="44"/>
+      <c r="P38" s="44"/>
+      <c r="Q38" s="44"/>
+      <c r="R38" s="44"/>
+      <c r="S38" s="44"/>
+      <c r="T38" s="44"/>
+      <c r="U38" s="44"/>
+      <c r="V38" s="44"/>
+      <c r="W38" s="44"/>
+      <c r="X38" s="44"/>
+      <c r="Y38" s="45"/>
     </row>
     <row r="39" customFormat="false" ht="66.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="48" t="s">
+      <c r="A39" s="46" t="s">
         <v>815</v>
       </c>
-      <c r="B39" s="46"/>
-      <c r="C39" s="46"/>
-      <c r="D39" s="46"/>
-      <c r="E39" s="46"/>
-      <c r="F39" s="46"/>
-      <c r="G39" s="46"/>
-      <c r="H39" s="46"/>
-      <c r="I39" s="46"/>
-      <c r="J39" s="46"/>
-      <c r="K39" s="46"/>
-      <c r="L39" s="46"/>
-      <c r="M39" s="46"/>
-      <c r="N39" s="46"/>
-      <c r="O39" s="46"/>
-      <c r="P39" s="46"/>
-      <c r="Q39" s="46"/>
-      <c r="R39" s="46"/>
-      <c r="S39" s="46"/>
-      <c r="T39" s="46"/>
-      <c r="U39" s="46"/>
-      <c r="V39" s="46"/>
-      <c r="W39" s="46"/>
-      <c r="X39" s="46"/>
-      <c r="Y39" s="47"/>
+      <c r="B39" s="44"/>
+      <c r="C39" s="44"/>
+      <c r="D39" s="44"/>
+      <c r="E39" s="44"/>
+      <c r="F39" s="44"/>
+      <c r="G39" s="44"/>
+      <c r="H39" s="44"/>
+      <c r="I39" s="44"/>
+      <c r="J39" s="44"/>
+      <c r="K39" s="44"/>
+      <c r="L39" s="44"/>
+      <c r="M39" s="44"/>
+      <c r="N39" s="44"/>
+      <c r="O39" s="44"/>
+      <c r="P39" s="44"/>
+      <c r="Q39" s="44"/>
+      <c r="R39" s="44"/>
+      <c r="S39" s="44"/>
+      <c r="T39" s="44"/>
+      <c r="U39" s="44"/>
+      <c r="V39" s="44"/>
+      <c r="W39" s="44"/>
+      <c r="X39" s="44"/>
+      <c r="Y39" s="45"/>
     </row>
     <row r="40" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="48" t="s">
+      <c r="A40" s="46" t="s">
         <v>816</v>
       </c>
-      <c r="B40" s="46"/>
-      <c r="C40" s="46"/>
-      <c r="D40" s="46"/>
-      <c r="E40" s="46"/>
-      <c r="F40" s="46"/>
-      <c r="G40" s="46"/>
-      <c r="H40" s="46"/>
-      <c r="I40" s="46"/>
-      <c r="J40" s="46"/>
-      <c r="K40" s="46"/>
-      <c r="L40" s="46"/>
-      <c r="M40" s="46"/>
-      <c r="N40" s="46"/>
-      <c r="O40" s="46"/>
-      <c r="P40" s="46"/>
-      <c r="Q40" s="46"/>
-      <c r="R40" s="46"/>
-      <c r="S40" s="46"/>
-      <c r="T40" s="46"/>
-      <c r="U40" s="46"/>
-      <c r="V40" s="46"/>
-      <c r="W40" s="46"/>
-      <c r="X40" s="46"/>
-      <c r="Y40" s="47"/>
+      <c r="B40" s="44"/>
+      <c r="C40" s="44"/>
+      <c r="D40" s="44"/>
+      <c r="E40" s="44"/>
+      <c r="F40" s="44"/>
+      <c r="G40" s="44"/>
+      <c r="H40" s="44"/>
+      <c r="I40" s="44"/>
+      <c r="J40" s="44"/>
+      <c r="K40" s="44"/>
+      <c r="L40" s="44"/>
+      <c r="M40" s="44"/>
+      <c r="N40" s="44"/>
+      <c r="O40" s="44"/>
+      <c r="P40" s="44"/>
+      <c r="Q40" s="44"/>
+      <c r="R40" s="44"/>
+      <c r="S40" s="44"/>
+      <c r="T40" s="44"/>
+      <c r="U40" s="44"/>
+      <c r="V40" s="44"/>
+      <c r="W40" s="44"/>
+      <c r="X40" s="44"/>
+      <c r="Y40" s="45"/>
     </row>
     <row r="41" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="44" t="s">
+      <c r="A41" s="42" t="s">
         <v>817</v>
       </c>
-      <c r="B41" s="44"/>
-      <c r="C41" s="44"/>
-      <c r="D41" s="44"/>
-      <c r="E41" s="44"/>
-      <c r="F41" s="44"/>
-      <c r="G41" s="44"/>
-      <c r="H41" s="44"/>
-      <c r="I41" s="44"/>
-      <c r="J41" s="44"/>
-      <c r="K41" s="44"/>
-      <c r="L41" s="44"/>
-      <c r="M41" s="44"/>
-      <c r="N41" s="44"/>
-      <c r="O41" s="44"/>
-      <c r="P41" s="44"/>
-      <c r="Q41" s="44"/>
-      <c r="R41" s="44"/>
-      <c r="S41" s="44"/>
-      <c r="T41" s="44"/>
-      <c r="U41" s="44"/>
-      <c r="V41" s="44"/>
-      <c r="W41" s="44"/>
-      <c r="X41" s="44"/>
-      <c r="Y41" s="44"/>
+      <c r="B41" s="42"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="42"/>
+      <c r="I41" s="42"/>
+      <c r="J41" s="42"/>
+      <c r="K41" s="42"/>
+      <c r="L41" s="42"/>
+      <c r="M41" s="42"/>
+      <c r="N41" s="42"/>
+      <c r="O41" s="42"/>
+      <c r="P41" s="42"/>
+      <c r="Q41" s="42"/>
+      <c r="R41" s="42"/>
+      <c r="S41" s="42"/>
+      <c r="T41" s="42"/>
+      <c r="U41" s="42"/>
+      <c r="V41" s="42"/>
+      <c r="W41" s="42"/>
+      <c r="X41" s="42"/>
+      <c r="Y41" s="42"/>
     </row>
     <row r="42" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="45" t="s">
+      <c r="A42" s="43" t="s">
         <v>818</v>
       </c>
-      <c r="B42" s="46"/>
-      <c r="C42" s="46"/>
-      <c r="D42" s="46"/>
-      <c r="E42" s="46"/>
-      <c r="F42" s="46"/>
-      <c r="G42" s="46"/>
-      <c r="H42" s="46"/>
-      <c r="I42" s="46"/>
-      <c r="J42" s="46"/>
-      <c r="K42" s="46"/>
-      <c r="L42" s="46"/>
-      <c r="M42" s="46"/>
-      <c r="N42" s="46"/>
-      <c r="O42" s="46"/>
-      <c r="P42" s="46"/>
-      <c r="Q42" s="46"/>
-      <c r="R42" s="46"/>
-      <c r="S42" s="46"/>
-      <c r="T42" s="46"/>
-      <c r="U42" s="46"/>
-      <c r="V42" s="46"/>
-      <c r="W42" s="46"/>
-      <c r="X42" s="46"/>
-      <c r="Y42" s="47"/>
+      <c r="B42" s="44"/>
+      <c r="C42" s="44"/>
+      <c r="D42" s="44"/>
+      <c r="E42" s="44"/>
+      <c r="F42" s="44"/>
+      <c r="G42" s="44"/>
+      <c r="H42" s="44"/>
+      <c r="I42" s="44"/>
+      <c r="J42" s="44"/>
+      <c r="K42" s="44"/>
+      <c r="L42" s="44"/>
+      <c r="M42" s="44"/>
+      <c r="N42" s="44"/>
+      <c r="O42" s="44"/>
+      <c r="P42" s="44"/>
+      <c r="Q42" s="44"/>
+      <c r="R42" s="44"/>
+      <c r="S42" s="44"/>
+      <c r="T42" s="44"/>
+      <c r="U42" s="44"/>
+      <c r="V42" s="44"/>
+      <c r="W42" s="44"/>
+      <c r="X42" s="44"/>
+      <c r="Y42" s="45"/>
     </row>
     <row r="43" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="45" t="s">
+      <c r="A43" s="43" t="s">
         <v>819</v>
       </c>
-      <c r="B43" s="46"/>
-      <c r="C43" s="46"/>
-      <c r="D43" s="46"/>
-      <c r="E43" s="46"/>
-      <c r="F43" s="46"/>
-      <c r="G43" s="46"/>
-      <c r="H43" s="46"/>
-      <c r="I43" s="46"/>
-      <c r="J43" s="46"/>
-      <c r="K43" s="46"/>
-      <c r="L43" s="46"/>
-      <c r="M43" s="46"/>
-      <c r="N43" s="46"/>
-      <c r="O43" s="46"/>
-      <c r="P43" s="46"/>
-      <c r="Q43" s="46"/>
-      <c r="R43" s="46"/>
-      <c r="S43" s="46"/>
-      <c r="T43" s="46"/>
-      <c r="U43" s="46"/>
-      <c r="V43" s="46"/>
-      <c r="W43" s="46"/>
-      <c r="X43" s="46"/>
-      <c r="Y43" s="47"/>
+      <c r="B43" s="44"/>
+      <c r="C43" s="44"/>
+      <c r="D43" s="44"/>
+      <c r="E43" s="44"/>
+      <c r="F43" s="44"/>
+      <c r="G43" s="44"/>
+      <c r="H43" s="44"/>
+      <c r="I43" s="44"/>
+      <c r="J43" s="44"/>
+      <c r="K43" s="44"/>
+      <c r="L43" s="44"/>
+      <c r="M43" s="44"/>
+      <c r="N43" s="44"/>
+      <c r="O43" s="44"/>
+      <c r="P43" s="44"/>
+      <c r="Q43" s="44"/>
+      <c r="R43" s="44"/>
+      <c r="S43" s="44"/>
+      <c r="T43" s="44"/>
+      <c r="U43" s="44"/>
+      <c r="V43" s="44"/>
+      <c r="W43" s="44"/>
+      <c r="X43" s="44"/>
+      <c r="Y43" s="45"/>
     </row>
     <row r="44" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="45" t="s">
+      <c r="A44" s="43" t="s">
         <v>820</v>
       </c>
-      <c r="B44" s="46"/>
-      <c r="C44" s="46"/>
-      <c r="D44" s="46"/>
-      <c r="E44" s="46"/>
-      <c r="F44" s="46"/>
-      <c r="G44" s="46"/>
-      <c r="H44" s="46"/>
-      <c r="I44" s="46"/>
-      <c r="J44" s="46"/>
-      <c r="K44" s="46"/>
-      <c r="L44" s="46"/>
-      <c r="M44" s="46"/>
-      <c r="N44" s="46"/>
-      <c r="O44" s="46"/>
-      <c r="P44" s="46"/>
-      <c r="Q44" s="46"/>
-      <c r="R44" s="46"/>
-      <c r="S44" s="46"/>
-      <c r="T44" s="46"/>
-      <c r="U44" s="46"/>
-      <c r="V44" s="46"/>
-      <c r="W44" s="46"/>
-      <c r="X44" s="46"/>
-      <c r="Y44" s="47"/>
+      <c r="B44" s="44"/>
+      <c r="C44" s="44"/>
+      <c r="D44" s="44"/>
+      <c r="E44" s="44"/>
+      <c r="F44" s="44"/>
+      <c r="G44" s="44"/>
+      <c r="H44" s="44"/>
+      <c r="I44" s="44"/>
+      <c r="J44" s="44"/>
+      <c r="K44" s="44"/>
+      <c r="L44" s="44"/>
+      <c r="M44" s="44"/>
+      <c r="N44" s="44"/>
+      <c r="O44" s="44"/>
+      <c r="P44" s="44"/>
+      <c r="Q44" s="44"/>
+      <c r="R44" s="44"/>
+      <c r="S44" s="44"/>
+      <c r="T44" s="44"/>
+      <c r="U44" s="44"/>
+      <c r="V44" s="44"/>
+      <c r="W44" s="44"/>
+      <c r="X44" s="44"/>
+      <c r="Y44" s="45"/>
     </row>
     <row r="45" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="45"/>
-      <c r="B45" s="46"/>
-      <c r="C45" s="46"/>
-      <c r="D45" s="46"/>
-      <c r="E45" s="46"/>
-      <c r="F45" s="46"/>
-      <c r="G45" s="46"/>
-      <c r="H45" s="46"/>
-      <c r="I45" s="46"/>
-      <c r="J45" s="46"/>
-      <c r="K45" s="46"/>
-      <c r="L45" s="46"/>
-      <c r="M45" s="46"/>
-      <c r="N45" s="46"/>
-      <c r="O45" s="46"/>
-      <c r="P45" s="46"/>
-      <c r="Q45" s="46"/>
-      <c r="R45" s="46"/>
-      <c r="S45" s="46"/>
-      <c r="T45" s="46"/>
-      <c r="U45" s="46"/>
-      <c r="V45" s="46"/>
-      <c r="W45" s="46"/>
-      <c r="X45" s="46"/>
-      <c r="Y45" s="47"/>
+      <c r="A45" s="43"/>
+      <c r="B45" s="44"/>
+      <c r="C45" s="44"/>
+      <c r="D45" s="44"/>
+      <c r="E45" s="44"/>
+      <c r="F45" s="44"/>
+      <c r="G45" s="44"/>
+      <c r="H45" s="44"/>
+      <c r="I45" s="44"/>
+      <c r="J45" s="44"/>
+      <c r="K45" s="44"/>
+      <c r="L45" s="44"/>
+      <c r="M45" s="44"/>
+      <c r="N45" s="44"/>
+      <c r="O45" s="44"/>
+      <c r="P45" s="44"/>
+      <c r="Q45" s="44"/>
+      <c r="R45" s="44"/>
+      <c r="S45" s="44"/>
+      <c r="T45" s="44"/>
+      <c r="U45" s="44"/>
+      <c r="V45" s="44"/>
+      <c r="W45" s="44"/>
+      <c r="X45" s="44"/>
+      <c r="Y45" s="45"/>
     </row>
     <row r="46" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="45"/>
-      <c r="B46" s="46"/>
-      <c r="C46" s="46"/>
-      <c r="D46" s="46"/>
-      <c r="E46" s="46"/>
-      <c r="F46" s="46"/>
-      <c r="G46" s="46"/>
-      <c r="H46" s="46"/>
-      <c r="I46" s="46"/>
-      <c r="J46" s="46"/>
-      <c r="K46" s="46"/>
-      <c r="L46" s="46"/>
-      <c r="M46" s="46"/>
-      <c r="N46" s="46"/>
-      <c r="O46" s="46"/>
-      <c r="P46" s="46"/>
-      <c r="Q46" s="46"/>
-      <c r="R46" s="46"/>
-      <c r="S46" s="46"/>
-      <c r="T46" s="46"/>
-      <c r="U46" s="46"/>
-      <c r="V46" s="46"/>
-      <c r="W46" s="46"/>
-      <c r="X46" s="46"/>
-      <c r="Y46" s="47"/>
+      <c r="A46" s="43"/>
+      <c r="B46" s="44"/>
+      <c r="C46" s="44"/>
+      <c r="D46" s="44"/>
+      <c r="E46" s="44"/>
+      <c r="F46" s="44"/>
+      <c r="G46" s="44"/>
+      <c r="H46" s="44"/>
+      <c r="I46" s="44"/>
+      <c r="J46" s="44"/>
+      <c r="K46" s="44"/>
+      <c r="L46" s="44"/>
+      <c r="M46" s="44"/>
+      <c r="N46" s="44"/>
+      <c r="O46" s="44"/>
+      <c r="P46" s="44"/>
+      <c r="Q46" s="44"/>
+      <c r="R46" s="44"/>
+      <c r="S46" s="44"/>
+      <c r="T46" s="44"/>
+      <c r="U46" s="44"/>
+      <c r="V46" s="44"/>
+      <c r="W46" s="44"/>
+      <c r="X46" s="44"/>
+      <c r="Y46" s="45"/>
     </row>
     <row r="47" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="44" t="s">
+      <c r="A47" s="42" t="s">
         <v>821</v>
       </c>
-      <c r="B47" s="44"/>
-      <c r="C47" s="44"/>
-      <c r="D47" s="44"/>
-      <c r="E47" s="44"/>
-      <c r="F47" s="44"/>
-      <c r="G47" s="44"/>
-      <c r="H47" s="44"/>
-      <c r="I47" s="44"/>
-      <c r="J47" s="44"/>
-      <c r="K47" s="44"/>
-      <c r="L47" s="44"/>
-      <c r="M47" s="44"/>
-      <c r="N47" s="44"/>
-      <c r="O47" s="44"/>
-      <c r="P47" s="44"/>
-      <c r="Q47" s="44"/>
-      <c r="R47" s="44"/>
-      <c r="S47" s="44"/>
-      <c r="T47" s="44"/>
-      <c r="U47" s="44"/>
-      <c r="V47" s="44"/>
-      <c r="W47" s="44"/>
-      <c r="X47" s="44"/>
-      <c r="Y47" s="44"/>
+      <c r="B47" s="42"/>
+      <c r="C47" s="42"/>
+      <c r="D47" s="42"/>
+      <c r="E47" s="42"/>
+      <c r="F47" s="42"/>
+      <c r="G47" s="42"/>
+      <c r="H47" s="42"/>
+      <c r="I47" s="42"/>
+      <c r="J47" s="42"/>
+      <c r="K47" s="42"/>
+      <c r="L47" s="42"/>
+      <c r="M47" s="42"/>
+      <c r="N47" s="42"/>
+      <c r="O47" s="42"/>
+      <c r="P47" s="42"/>
+      <c r="Q47" s="42"/>
+      <c r="R47" s="42"/>
+      <c r="S47" s="42"/>
+      <c r="T47" s="42"/>
+      <c r="U47" s="42"/>
+      <c r="V47" s="42"/>
+      <c r="W47" s="42"/>
+      <c r="X47" s="42"/>
+      <c r="Y47" s="42"/>
     </row>
     <row r="48" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="45"/>
-      <c r="B48" s="46"/>
-      <c r="C48" s="46"/>
-      <c r="D48" s="46"/>
-      <c r="E48" s="46"/>
-      <c r="F48" s="46"/>
-      <c r="G48" s="46"/>
-      <c r="H48" s="46"/>
-      <c r="I48" s="46"/>
-      <c r="J48" s="46"/>
-      <c r="K48" s="46"/>
-      <c r="L48" s="46"/>
-      <c r="M48" s="46"/>
-      <c r="N48" s="46"/>
-      <c r="O48" s="46"/>
-      <c r="P48" s="46"/>
-      <c r="Q48" s="46"/>
-      <c r="R48" s="46"/>
-      <c r="S48" s="46"/>
-      <c r="T48" s="46"/>
-      <c r="U48" s="46"/>
-      <c r="V48" s="46"/>
-      <c r="W48" s="46"/>
-      <c r="X48" s="46"/>
-      <c r="Y48" s="47"/>
+      <c r="A48" s="43"/>
+      <c r="B48